--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -457,7 +457,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -622,13 +622,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -23618,10 +23618,10 @@
   </sheetPr>
   <dimension ref="A1:EX153"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD7" sqref="CD7"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23629,8 +23629,8 @@
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
     <col min="2" max="80" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="10.26953125" style="1" customWidth="1"/>
-    <col min="82" max="87" width="10.26953125" style="19" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="88" width="9.7265625" style="19" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.25">
@@ -23743,6 +23743,7 @@
       <c r="CG6" s="20"/>
       <c r="CH6" s="20"/>
       <c r="CI6" s="20"/>
+      <c r="CJ6" s="20"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -23834,6 +23835,7 @@
       <c r="CG7" s="20"/>
       <c r="CH7" s="20"/>
       <c r="CI7" s="20"/>
+      <c r="CJ7" s="20"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
@@ -23922,6 +23924,7 @@
       <c r="CG8" s="20"/>
       <c r="CH8" s="20"/>
       <c r="CI8" s="20"/>
+      <c r="CJ8" s="20"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -24055,6 +24058,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="31"/>
+      <c r="CJ9" s="31"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -24317,6 +24321,9 @@
       </c>
       <c r="CI10" s="21" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ10" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24582,9 +24589,11 @@
         <v>80514.662535215044</v>
       </c>
       <c r="CI12" s="22">
-        <v>64456.51880159443</v>
-      </c>
-      <c r="CJ12" s="10"/>
+        <v>64108.316354728828</v>
+      </c>
+      <c r="CJ12" s="22">
+        <v>90594.602846456226</v>
+      </c>
       <c r="CK12" s="10"/>
       <c r="CL12" s="10"/>
       <c r="CM12" s="10"/>
@@ -24912,9 +24921,11 @@
         <v>7867.8161663278806</v>
       </c>
       <c r="CI13" s="22">
-        <v>4037.6723040811157</v>
-      </c>
-      <c r="CJ13" s="10"/>
+        <v>4237.9911819947902</v>
+      </c>
+      <c r="CJ13" s="22">
+        <v>6713.7863174218191</v>
+      </c>
       <c r="CK13" s="10"/>
       <c r="CL13" s="10"/>
       <c r="CM13" s="10"/>
@@ -25242,9 +25253,11 @@
         <v>5981.2410016829199</v>
       </c>
       <c r="CI14" s="22">
-        <v>3412.7844116730485</v>
-      </c>
-      <c r="CJ14" s="10"/>
+        <v>3498.5571945118791</v>
+      </c>
+      <c r="CJ14" s="22">
+        <v>8680.5006775325237</v>
+      </c>
       <c r="CK14" s="10"/>
       <c r="CL14" s="10"/>
       <c r="CM14" s="10"/>
@@ -25572,9 +25585,11 @@
         <v>40893.360853564744</v>
       </c>
       <c r="CI15" s="22">
-        <v>45992.695726226913</v>
-      </c>
-      <c r="CJ15" s="10"/>
+        <v>46025.052433250174</v>
+      </c>
+      <c r="CJ15" s="22">
+        <v>46055.003162401845</v>
+      </c>
       <c r="CK15" s="10"/>
       <c r="CL15" s="10"/>
       <c r="CM15" s="10"/>
@@ -25902,9 +25917,11 @@
         <v>7867.6543810308576</v>
       </c>
       <c r="CI16" s="22">
-        <v>8055.2446172460513</v>
-      </c>
-      <c r="CJ16" s="10"/>
+        <v>9199.2714411078559</v>
+      </c>
+      <c r="CJ16" s="22">
+        <v>7270.806579083941</v>
+      </c>
       <c r="CK16" s="10"/>
       <c r="CL16" s="10"/>
       <c r="CM16" s="10"/>
@@ -26059,7 +26076,7 @@
       <c r="CG17" s="23"/>
       <c r="CH17" s="23"/>
       <c r="CI17" s="23"/>
-      <c r="CJ17" s="10"/>
+      <c r="CJ17" s="23"/>
       <c r="CK17" s="10"/>
       <c r="CL17" s="10"/>
       <c r="CM17" s="10"/>
@@ -26387,9 +26404,11 @@
         <v>143124.73493782143</v>
       </c>
       <c r="CI18" s="24">
-        <v>125954.91586082155</v>
-      </c>
-      <c r="CJ18" s="10"/>
+        <v>127069.18860559352</v>
+      </c>
+      <c r="CJ18" s="24">
+        <v>159314.69958289634</v>
+      </c>
       <c r="CK18" s="10"/>
       <c r="CL18" s="10"/>
       <c r="CM18" s="10"/>
@@ -26545,6 +26564,7 @@
       <c r="CG19" s="25"/>
       <c r="CH19" s="25"/>
       <c r="CI19" s="25"/>
+      <c r="CJ19" s="25"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
@@ -26638,7 +26658,7 @@
       <c r="CG21" s="23"/>
       <c r="CH21" s="23"/>
       <c r="CI21" s="23"/>
-      <c r="CJ21" s="10"/>
+      <c r="CJ21" s="23"/>
       <c r="CK21" s="10"/>
       <c r="CL21" s="10"/>
       <c r="CM21" s="10"/>
@@ -26793,7 +26813,7 @@
       <c r="CG22" s="23"/>
       <c r="CH22" s="23"/>
       <c r="CI22" s="23"/>
-      <c r="CJ22" s="10"/>
+      <c r="CJ22" s="23"/>
       <c r="CK22" s="10"/>
       <c r="CL22" s="10"/>
       <c r="CM22" s="10"/>
@@ -26963,6 +26983,7 @@
       <c r="CG26" s="20"/>
       <c r="CH26" s="20"/>
       <c r="CI26" s="20"/>
+      <c r="CJ26" s="20"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -27054,6 +27075,7 @@
       <c r="CG27" s="20"/>
       <c r="CH27" s="20"/>
       <c r="CI27" s="20"/>
+      <c r="CJ27" s="20"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -27145,6 +27167,7 @@
       <c r="CG28" s="20"/>
       <c r="CH28" s="20"/>
       <c r="CI28" s="20"/>
+      <c r="CJ28" s="20"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -27236,6 +27259,7 @@
       <c r="CG29" s="20"/>
       <c r="CH29" s="20"/>
       <c r="CI29" s="20"/>
+      <c r="CJ29" s="20"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
@@ -27324,6 +27348,7 @@
       <c r="CG30" s="20"/>
       <c r="CH30" s="20"/>
       <c r="CI30" s="20"/>
+      <c r="CJ30" s="20"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -27459,6 +27484,7 @@
       <c r="CI31" s="31">
         <v>0</v>
       </c>
+      <c r="CJ31" s="31"/>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -27721,6 +27747,9 @@
       </c>
       <c r="CI32" s="21" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ32" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27986,9 +28015,11 @@
         <v>72877.648124793996</v>
       </c>
       <c r="CI34" s="22">
-        <v>50909.704543207801</v>
-      </c>
-      <c r="CJ34" s="10"/>
+        <v>50610.881924027606</v>
+      </c>
+      <c r="CJ34" s="22">
+        <v>69144.353481898725</v>
+      </c>
       <c r="CK34" s="10"/>
       <c r="CL34" s="10"/>
       <c r="CM34" s="10"/>
@@ -28316,9 +28347,11 @@
         <v>6527.2715234717261</v>
       </c>
       <c r="CI35" s="22">
-        <v>4483.7692302028008</v>
-      </c>
-      <c r="CJ35" s="10"/>
+        <v>4702.4558944315795</v>
+      </c>
+      <c r="CJ35" s="22">
+        <v>5862.3252545779796</v>
+      </c>
       <c r="CK35" s="10"/>
       <c r="CL35" s="10"/>
       <c r="CM35" s="10"/>
@@ -28646,9 +28679,11 @@
         <v>6945.0277659908534</v>
       </c>
       <c r="CI36" s="22">
-        <v>3706.6739870624515</v>
-      </c>
-      <c r="CJ36" s="10"/>
+        <v>3794.5940396513961</v>
+      </c>
+      <c r="CJ36" s="22">
+        <v>8783.4106618638107</v>
+      </c>
       <c r="CK36" s="10"/>
       <c r="CL36" s="10"/>
       <c r="CM36" s="10"/>
@@ -28976,9 +29011,11 @@
         <v>40983.265829549986</v>
       </c>
       <c r="CI37" s="22">
-        <v>41462.883933877936</v>
-      </c>
-      <c r="CJ37" s="10"/>
+        <v>41493.457207328873</v>
+      </c>
+      <c r="CJ37" s="22">
+        <v>45759.188399725768</v>
+      </c>
       <c r="CK37" s="10"/>
       <c r="CL37" s="10"/>
       <c r="CM37" s="10"/>
@@ -29306,9 +29343,11 @@
         <v>7783.9915120840833</v>
       </c>
       <c r="CI38" s="22">
-        <v>7747.701861890986</v>
-      </c>
-      <c r="CJ38" s="10"/>
+        <v>8848.2050604570431</v>
+      </c>
+      <c r="CJ38" s="22">
+        <v>7012.3512299774138</v>
+      </c>
       <c r="CK38" s="10"/>
       <c r="CL38" s="10"/>
       <c r="CM38" s="10"/>
@@ -29463,7 +29502,7 @@
       <c r="CG39" s="23"/>
       <c r="CH39" s="23"/>
       <c r="CI39" s="23"/>
-      <c r="CJ39" s="10"/>
+      <c r="CJ39" s="23"/>
       <c r="CK39" s="10"/>
       <c r="CL39" s="10"/>
       <c r="CM39" s="10"/>
@@ -29791,9 +29830,11 @@
         <v>135117.20475589065</v>
       </c>
       <c r="CI40" s="24">
-        <v>108310.73355624199</v>
-      </c>
-      <c r="CJ40" s="10"/>
+        <v>109449.5941258965</v>
+      </c>
+      <c r="CJ40" s="24">
+        <v>136561.62902804371</v>
+      </c>
       <c r="CK40" s="10"/>
       <c r="CL40" s="10"/>
       <c r="CM40" s="10"/>
@@ -29949,6 +29990,7 @@
       <c r="CG41" s="26"/>
       <c r="CH41" s="26"/>
       <c r="CI41" s="26"/>
+      <c r="CJ41" s="26"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
@@ -30042,7 +30084,7 @@
       <c r="CG43" s="23"/>
       <c r="CH43" s="23"/>
       <c r="CI43" s="23"/>
-      <c r="CJ43" s="10"/>
+      <c r="CJ43" s="23"/>
       <c r="CK43" s="10"/>
       <c r="CL43" s="10"/>
       <c r="CM43" s="10"/>
@@ -30197,7 +30239,7 @@
       <c r="CG44" s="23"/>
       <c r="CH44" s="23"/>
       <c r="CI44" s="23"/>
-      <c r="CJ44" s="10"/>
+      <c r="CJ44" s="23"/>
       <c r="CK44" s="10"/>
       <c r="CL44" s="10"/>
       <c r="CM44" s="10"/>
@@ -30426,10 +30468,11 @@
       <c r="CE53" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="CF53" s="27"/>
+      <c r="CF53" s="31"/>
       <c r="CG53" s="27"/>
       <c r="CH53" s="27"/>
       <c r="CI53" s="27"/>
+      <c r="CJ53" s="27"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
@@ -30681,10 +30724,13 @@
       <c r="CE54" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CF54" s="28"/>
+      <c r="CF54" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="CG54" s="28"/>
       <c r="CH54" s="28"/>
       <c r="CI54" s="28"/>
+      <c r="CJ54" s="28"/>
     </row>
     <row r="55" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -30937,13 +30983,15 @@
         <v>-6.6225506904447116</v>
       </c>
       <c r="CE56" s="29">
-        <v>37.385185221185168</v>
-      </c>
-      <c r="CF56" s="23"/>
+        <v>36.643012690826339</v>
+      </c>
+      <c r="CF56" s="29">
+        <v>15.219302054470504</v>
+      </c>
       <c r="CG56" s="23"/>
       <c r="CH56" s="23"/>
       <c r="CI56" s="23"/>
-      <c r="CJ56" s="10"/>
+      <c r="CJ56" s="23"/>
       <c r="CK56" s="10"/>
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
@@ -31255,13 +31303,15 @@
         <v>-26.533634746541551</v>
       </c>
       <c r="CE57" s="29">
-        <v>15.985760208228413</v>
-      </c>
-      <c r="CF57" s="23"/>
+        <v>21.740099735830171</v>
+      </c>
+      <c r="CF57" s="29">
+        <v>3.7634295390086976</v>
+      </c>
       <c r="CG57" s="23"/>
       <c r="CH57" s="23"/>
       <c r="CI57" s="23"/>
-      <c r="CJ57" s="10"/>
+      <c r="CJ57" s="23"/>
       <c r="CK57" s="10"/>
       <c r="CL57" s="10"/>
       <c r="CM57" s="10"/>
@@ -31573,13 +31623,15 @@
         <v>-74.151259607223835</v>
       </c>
       <c r="CE58" s="29">
-        <v>530.06005185224035</v>
-      </c>
-      <c r="CF58" s="23"/>
+        <v>545.89521677449557</v>
+      </c>
+      <c r="CF58" s="29">
+        <v>120.65965165468083</v>
+      </c>
       <c r="CG58" s="23"/>
       <c r="CH58" s="23"/>
       <c r="CI58" s="23"/>
-      <c r="CJ58" s="10"/>
+      <c r="CJ58" s="23"/>
       <c r="CK58" s="10"/>
       <c r="CL58" s="10"/>
       <c r="CM58" s="10"/>
@@ -31891,13 +31943,15 @@
         <v>8.8953111516868688</v>
       </c>
       <c r="CE59" s="29">
-        <v>17.322076493670053</v>
-      </c>
-      <c r="CF59" s="23"/>
+        <v>17.404614731460313</v>
+      </c>
+      <c r="CF59" s="29">
+        <v>5.6748487014384779</v>
+      </c>
       <c r="CG59" s="23"/>
       <c r="CH59" s="23"/>
       <c r="CI59" s="23"/>
-      <c r="CJ59" s="10"/>
+      <c r="CJ59" s="23"/>
       <c r="CK59" s="10"/>
       <c r="CL59" s="10"/>
       <c r="CM59" s="10"/>
@@ -32209,13 +32263,15 @@
         <v>11.486180564069542</v>
       </c>
       <c r="CE60" s="29">
-        <v>51.44377426931527</v>
-      </c>
-      <c r="CF60" s="23"/>
+        <v>72.95221359095089</v>
+      </c>
+      <c r="CF60" s="29">
+        <v>-1.9880130219818284</v>
+      </c>
       <c r="CG60" s="23"/>
       <c r="CH60" s="23"/>
       <c r="CI60" s="23"/>
-      <c r="CJ60" s="10"/>
+      <c r="CJ60" s="23"/>
       <c r="CK60" s="10"/>
       <c r="CL60" s="10"/>
       <c r="CM60" s="10"/>
@@ -32366,7 +32422,7 @@
       <c r="CG61" s="23"/>
       <c r="CH61" s="23"/>
       <c r="CI61" s="23"/>
-      <c r="CJ61" s="10"/>
+      <c r="CJ61" s="23"/>
       <c r="CK61" s="10"/>
       <c r="CL61" s="10"/>
       <c r="CM61" s="10"/>
@@ -32678,13 +32734,15 @@
         <v>-13.091153927792604</v>
       </c>
       <c r="CE62" s="29">
-        <v>31.944493544013483</v>
-      </c>
-      <c r="CF62" s="23"/>
+        <v>33.111753686057398</v>
+      </c>
+      <c r="CF62" s="29">
+        <v>13.770024649102041</v>
+      </c>
       <c r="CG62" s="23"/>
       <c r="CH62" s="23"/>
       <c r="CI62" s="23"/>
-      <c r="CJ62" s="10"/>
+      <c r="CJ62" s="23"/>
       <c r="CK62" s="10"/>
       <c r="CL62" s="10"/>
       <c r="CM62" s="10"/>
@@ -32836,6 +32894,7 @@
       <c r="CG63" s="26"/>
       <c r="CH63" s="26"/>
       <c r="CI63" s="26"/>
+      <c r="CJ63" s="26"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -32929,7 +32988,7 @@
       <c r="CG65" s="23"/>
       <c r="CH65" s="23"/>
       <c r="CI65" s="23"/>
-      <c r="CJ65" s="10"/>
+      <c r="CJ65" s="23"/>
       <c r="CK65" s="10"/>
       <c r="CL65" s="10"/>
       <c r="CM65" s="10"/>
@@ -33080,7 +33139,7 @@
       <c r="CG66" s="23"/>
       <c r="CH66" s="23"/>
       <c r="CI66" s="23"/>
-      <c r="CJ66" s="10"/>
+      <c r="CJ66" s="23"/>
       <c r="CK66" s="10"/>
       <c r="CL66" s="10"/>
       <c r="CM66" s="10"/>
@@ -33302,10 +33361,11 @@
       <c r="CE75" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="CF75" s="27"/>
+      <c r="CF75" s="31"/>
       <c r="CG75" s="27"/>
       <c r="CH75" s="27"/>
       <c r="CI75" s="27"/>
+      <c r="CJ75" s="27"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
@@ -33557,10 +33617,13 @@
       <c r="CE76" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CF76" s="28"/>
+      <c r="CF76" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="CG76" s="28"/>
       <c r="CH76" s="28"/>
       <c r="CI76" s="28"/>
+      <c r="CJ76" s="28"/>
     </row>
     <row r="77" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
@@ -33813,13 +33876,15 @@
         <v>-13.89815646882866</v>
       </c>
       <c r="CE78" s="29">
-        <v>28.792477070167251</v>
-      </c>
-      <c r="CF78" s="23"/>
+        <v>28.036509113288844</v>
+      </c>
+      <c r="CF78" s="29">
+        <v>12.69493549928653</v>
+      </c>
       <c r="CG78" s="23"/>
       <c r="CH78" s="23"/>
       <c r="CI78" s="23"/>
-      <c r="CJ78" s="10"/>
+      <c r="CJ78" s="23"/>
       <c r="CK78" s="10"/>
       <c r="CL78" s="10"/>
       <c r="CM78" s="10"/>
@@ -34131,13 +34196,15 @@
         <v>-35.538856494289348</v>
       </c>
       <c r="CE79" s="29">
-        <v>0.18003236961409641</v>
-      </c>
-      <c r="CF79" s="23"/>
+        <v>5.0661083419609554</v>
+      </c>
+      <c r="CF79" s="29">
+        <v>15.846186824839407</v>
+      </c>
       <c r="CG79" s="23"/>
       <c r="CH79" s="23"/>
       <c r="CI79" s="23"/>
-      <c r="CJ79" s="10"/>
+      <c r="CJ79" s="23"/>
       <c r="CK79" s="10"/>
       <c r="CL79" s="10"/>
       <c r="CM79" s="10"/>
@@ -34449,13 +34516,15 @@
         <v>-73.664044429163368</v>
       </c>
       <c r="CE80" s="29">
-        <v>534.67452195235035</v>
-      </c>
-      <c r="CF80" s="23"/>
+        <v>549.72861560657441</v>
+      </c>
+      <c r="CF80" s="29">
+        <v>124.01995091845768</v>
+      </c>
       <c r="CG80" s="23"/>
       <c r="CH80" s="23"/>
       <c r="CI80" s="23"/>
-      <c r="CJ80" s="10"/>
+      <c r="CJ80" s="23"/>
       <c r="CK80" s="10"/>
       <c r="CL80" s="10"/>
       <c r="CM80" s="10"/>
@@ -34767,13 +34836,15 @@
         <v>2.6733086476399421</v>
       </c>
       <c r="CE81" s="29">
-        <v>8.7890471821832676</v>
-      </c>
-      <c r="CF81" s="23"/>
+        <v>8.8692644023185494</v>
+      </c>
+      <c r="CF81" s="29">
+        <v>10.342329227773291</v>
+      </c>
       <c r="CG81" s="23"/>
       <c r="CH81" s="23"/>
       <c r="CI81" s="23"/>
-      <c r="CJ81" s="10"/>
+      <c r="CJ81" s="23"/>
       <c r="CK81" s="10"/>
       <c r="CL81" s="10"/>
       <c r="CM81" s="10"/>
@@ -35085,13 +35156,15 @@
         <v>11.486180564069514</v>
       </c>
       <c r="CE82" s="29">
-        <v>52.329066573863599</v>
-      </c>
-      <c r="CF82" s="23"/>
+        <v>73.966273062627891</v>
+      </c>
+      <c r="CF82" s="29">
+        <v>-1.9880130219818426</v>
+      </c>
       <c r="CG82" s="23"/>
       <c r="CH82" s="23"/>
       <c r="CI82" s="23"/>
-      <c r="CJ82" s="10"/>
+      <c r="CJ82" s="23"/>
       <c r="CK82" s="10"/>
       <c r="CL82" s="10"/>
       <c r="CM82" s="10"/>
@@ -35242,7 +35315,7 @@
       <c r="CG83" s="23"/>
       <c r="CH83" s="23"/>
       <c r="CI83" s="23"/>
-      <c r="CJ83" s="10"/>
+      <c r="CJ83" s="23"/>
       <c r="CK83" s="10"/>
       <c r="CL83" s="10"/>
       <c r="CM83" s="10"/>
@@ -35554,13 +35627,15 @@
         <v>-19.590429146975879</v>
       </c>
       <c r="CE84" s="29">
-        <v>23.378334544943442</v>
-      </c>
-      <c r="CF84" s="23"/>
+        <v>24.675627211601608</v>
+      </c>
+      <c r="CF84" s="29">
+        <v>14.794929481521208</v>
+      </c>
       <c r="CG84" s="23"/>
       <c r="CH84" s="23"/>
       <c r="CI84" s="23"/>
-      <c r="CJ84" s="10"/>
+      <c r="CJ84" s="23"/>
       <c r="CK84" s="10"/>
       <c r="CL84" s="10"/>
       <c r="CM84" s="10"/>
@@ -35712,6 +35787,7 @@
       <c r="CG85" s="26"/>
       <c r="CH85" s="26"/>
       <c r="CI85" s="26"/>
+      <c r="CJ85" s="26"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
@@ -35805,7 +35881,7 @@
       <c r="CG87" s="23"/>
       <c r="CH87" s="23"/>
       <c r="CI87" s="23"/>
-      <c r="CJ87" s="10"/>
+      <c r="CJ87" s="23"/>
       <c r="CK87" s="10"/>
       <c r="CL87" s="10"/>
       <c r="CM87" s="10"/>
@@ -35956,7 +36032,7 @@
       <c r="CG88" s="23"/>
       <c r="CH88" s="23"/>
       <c r="CI88" s="23"/>
-      <c r="CJ88" s="10"/>
+      <c r="CJ88" s="23"/>
       <c r="CK88" s="10"/>
       <c r="CL88" s="10"/>
       <c r="CM88" s="10"/>
@@ -36179,6 +36255,7 @@
       <c r="CI96" s="31">
         <v>0</v>
       </c>
+      <c r="CJ96" s="31"/>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
@@ -36441,6 +36518,9 @@
       </c>
       <c r="CI97" s="21" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ97" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -36706,9 +36786,11 @@
         <v>110.47922731719279</v>
       </c>
       <c r="CI99" s="29">
-        <v>126.60949298358086</v>
-      </c>
-      <c r="CJ99" s="10"/>
+        <v>126.66903621826296</v>
+      </c>
+      <c r="CJ99" s="29">
+        <v>131.02241655954302</v>
+      </c>
       <c r="CK99" s="10"/>
       <c r="CL99" s="10"/>
       <c r="CM99" s="10"/>
@@ -37036,9 +37118,11 @@
         <v>120.53759580914669</v>
       </c>
       <c r="CI100" s="29">
-        <v>90.05085000546498</v>
-      </c>
-      <c r="CJ100" s="10"/>
+        <v>90.122933146767295</v>
+      </c>
+      <c r="CJ100" s="29">
+        <v>114.5242890127756</v>
+      </c>
       <c r="CK100" s="10"/>
       <c r="CL100" s="10"/>
       <c r="CM100" s="10"/>
@@ -37366,9 +37450,11 @@
         <v>86.122636268964882</v>
       </c>
       <c r="CI101" s="29">
-        <v>92.07134006348609</v>
-      </c>
-      <c r="CJ101" s="10"/>
+        <v>92.198458068344152</v>
+      </c>
+      <c r="CJ101" s="29">
+        <v>98.828359639631728</v>
+      </c>
       <c r="CK101" s="10"/>
       <c r="CL101" s="10"/>
       <c r="CM101" s="10"/>
@@ -37696,9 +37782,11 @@
         <v>99.78063003480699</v>
       </c>
       <c r="CI102" s="29">
-        <v>110.92498003653775</v>
-      </c>
-      <c r="CJ102" s="10"/>
+        <v>110.92122838373876</v>
+      </c>
+      <c r="CJ102" s="29">
+        <v>100.64645981063303</v>
+      </c>
       <c r="CK102" s="10"/>
       <c r="CL102" s="10"/>
       <c r="CM102" s="10"/>
@@ -38026,9 +38114,11 @@
         <v>101.07480678539915</v>
       </c>
       <c r="CI103" s="29">
-        <v>103.9694707003091</v>
-      </c>
-      <c r="CJ103" s="10"/>
+        <v>103.96765647102531</v>
+      </c>
+      <c r="CJ103" s="29">
+        <v>103.68571596929779</v>
+      </c>
       <c r="CK103" s="10"/>
       <c r="CL103" s="10"/>
       <c r="CM103" s="10"/>
@@ -38183,7 +38273,7 @@
       <c r="CG104" s="23"/>
       <c r="CH104" s="23"/>
       <c r="CI104" s="23"/>
-      <c r="CJ104" s="10"/>
+      <c r="CJ104" s="23"/>
       <c r="CK104" s="10"/>
       <c r="CL104" s="10"/>
       <c r="CM104" s="10"/>
@@ -38511,9 +38601,11 @@
         <v>105.92635867238194</v>
       </c>
       <c r="CI105" s="29">
-        <v>116.29033589308816</v>
-      </c>
-      <c r="CJ105" s="10"/>
+        <v>116.09836438445787</v>
+      </c>
+      <c r="CJ105" s="29">
+        <v>116.66139362630199</v>
+      </c>
       <c r="CK105" s="10"/>
       <c r="CL105" s="10"/>
       <c r="CM105" s="10"/>
@@ -38669,6 +38761,7 @@
       <c r="CG106" s="26"/>
       <c r="CH106" s="26"/>
       <c r="CI106" s="26"/>
+      <c r="CJ106" s="26"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
@@ -38839,6 +38932,7 @@
       <c r="CI118" s="31">
         <v>0</v>
       </c>
+      <c r="CJ118" s="31"/>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
@@ -39101,6 +39195,9 @@
       </c>
       <c r="CI119" s="21" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ119" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -39366,9 +39463,11 @@
         <v>56.254890232770407</v>
       </c>
       <c r="CI121" s="29">
-        <v>51.174278003423069</v>
-      </c>
-      <c r="CJ121" s="10"/>
+        <v>50.451503671525622</v>
+      </c>
+      <c r="CJ121" s="29">
+        <v>56.865187634062018</v>
+      </c>
       <c r="CK121" s="10"/>
       <c r="CL121" s="10"/>
       <c r="CM121" s="10"/>
@@ -39696,9 +39795,11 @@
         <v>5.4971743142413123</v>
       </c>
       <c r="CI122" s="29">
-        <v>3.2056488438630599</v>
-      </c>
-      <c r="CJ122" s="10"/>
+        <v>3.335183948603758</v>
+      </c>
+      <c r="CJ122" s="29">
+        <v>4.2141662602379197</v>
+      </c>
       <c r="CK122" s="10"/>
       <c r="CL122" s="10"/>
       <c r="CM122" s="10"/>
@@ -40026,9 +40127,11 @@
         <v>4.1790407537043741</v>
       </c>
       <c r="CI123" s="29">
-        <v>2.7095285549983044</v>
-      </c>
-      <c r="CJ123" s="10"/>
+        <v>2.7532694848402253</v>
+      </c>
+      <c r="CJ123" s="29">
+        <v>5.448650187496221</v>
+      </c>
       <c r="CK123" s="10"/>
       <c r="CL123" s="10"/>
       <c r="CM123" s="10"/>
@@ -40356,9 +40459,11 @@
         <v>28.571833423014059</v>
       </c>
       <c r="CI124" s="29">
-        <v>36.515204993704423</v>
-      </c>
-      <c r="CJ124" s="10"/>
+        <v>36.220466139990897</v>
+      </c>
+      <c r="CJ124" s="29">
+        <v>28.908194462268067</v>
+      </c>
       <c r="CK124" s="10"/>
       <c r="CL124" s="10"/>
       <c r="CM124" s="10"/>
@@ -40686,9 +40791,11 @@
         <v>5.4970612762698581</v>
       </c>
       <c r="CI125" s="29">
-        <v>6.3953396040111574</v>
-      </c>
-      <c r="CJ125" s="10"/>
+        <v>7.2395767550395052</v>
+      </c>
+      <c r="CJ125" s="29">
+        <v>4.5638014559357822</v>
+      </c>
       <c r="CK125" s="10"/>
       <c r="CL125" s="10"/>
       <c r="CM125" s="10"/>
@@ -40843,7 +40950,7 @@
       <c r="CG126" s="23"/>
       <c r="CH126" s="23"/>
       <c r="CI126" s="23"/>
-      <c r="CJ126" s="10"/>
+      <c r="CJ126" s="23"/>
       <c r="CK126" s="10"/>
       <c r="CL126" s="10"/>
       <c r="CM126" s="10"/>
@@ -41173,7 +41280,9 @@
       <c r="CI127" s="29">
         <v>100</v>
       </c>
-      <c r="CJ127" s="10"/>
+      <c r="CJ127" s="29">
+        <v>100</v>
+      </c>
       <c r="CK127" s="10"/>
       <c r="CL127" s="10"/>
       <c r="CM127" s="10"/>
@@ -41329,6 +41438,7 @@
       <c r="CG128" s="26"/>
       <c r="CH128" s="26"/>
       <c r="CI128" s="26"/>
+      <c r="CJ128" s="26"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
@@ -41422,7 +41532,7 @@
       <c r="CG130" s="23"/>
       <c r="CH130" s="23"/>
       <c r="CI130" s="23"/>
-      <c r="CJ130" s="10"/>
+      <c r="CJ130" s="23"/>
       <c r="CK130" s="10"/>
       <c r="CL130" s="10"/>
       <c r="CM130" s="10"/>
@@ -41577,7 +41687,7 @@
       <c r="CG131" s="23"/>
       <c r="CH131" s="23"/>
       <c r="CI131" s="23"/>
-      <c r="CJ131" s="10"/>
+      <c r="CJ131" s="23"/>
       <c r="CK131" s="10"/>
       <c r="CL131" s="10"/>
       <c r="CM131" s="10"/>
@@ -41809,6 +41919,7 @@
       <c r="CI140" s="31">
         <v>0</v>
       </c>
+      <c r="CJ140" s="31"/>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
@@ -42071,6 +42182,9 @@
       </c>
       <c r="CI141" s="21" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ141" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -42336,9 +42450,11 @@
         <v>53.936616181824007</v>
       </c>
       <c r="CI143" s="29">
-        <v>47.003378955763573</v>
-      </c>
-      <c r="CJ143" s="10"/>
+        <v>46.241269625734262</v>
+      </c>
+      <c r="CJ143" s="29">
+        <v>50.632343780623422</v>
+      </c>
       <c r="CK143" s="10"/>
       <c r="CL143" s="10"/>
       <c r="CM143" s="10"/>
@@ -42666,9 +42782,11 @@
         <v>4.8308219040382117</v>
       </c>
       <c r="CI144" s="29">
-        <v>4.1397275071307087</v>
-      </c>
-      <c r="CJ144" s="10"/>
+        <v>4.2964580471833349</v>
+      </c>
+      <c r="CJ144" s="29">
+        <v>4.2928055972253505</v>
+      </c>
       <c r="CK144" s="10"/>
       <c r="CL144" s="10"/>
       <c r="CM144" s="10"/>
@@ -42996,9 +43114,11 @@
         <v>5.1400025470761328</v>
       </c>
       <c r="CI145" s="29">
-        <v>3.4222591476935245</v>
-      </c>
-      <c r="CJ145" s="10"/>
+        <v>3.4669786306257029</v>
+      </c>
+      <c r="CJ145" s="29">
+        <v>6.4318291487721542</v>
+      </c>
       <c r="CK145" s="10"/>
       <c r="CL145" s="10"/>
       <c r="CM145" s="10"/>
@@ -43326,9 +43446,11 @@
         <v>30.331641261815889</v>
       </c>
       <c r="CI146" s="29">
-        <v>38.281417337412556</v>
-      </c>
-      <c r="CJ146" s="10"/>
+        <v>37.911019715249218</v>
+      </c>
+      <c r="CJ146" s="29">
+        <v>33.508086221151373</v>
+      </c>
       <c r="CK146" s="10"/>
       <c r="CL146" s="10"/>
       <c r="CM146" s="10"/>
@@ -43656,9 +43778,11 @@
         <v>5.7609181052457554</v>
       </c>
       <c r="CI147" s="29">
-        <v>7.1532170519996292</v>
-      </c>
-      <c r="CJ147" s="10"/>
+        <v>8.0842739812074829</v>
+      </c>
+      <c r="CJ147" s="29">
+        <v>5.1349352522276872</v>
+      </c>
       <c r="CK147" s="10"/>
       <c r="CL147" s="10"/>
       <c r="CM147" s="10"/>
@@ -43813,7 +43937,7 @@
       <c r="CG148" s="23"/>
       <c r="CH148" s="23"/>
       <c r="CI148" s="23"/>
-      <c r="CJ148" s="10"/>
+      <c r="CJ148" s="23"/>
       <c r="CK148" s="10"/>
       <c r="CL148" s="10"/>
       <c r="CM148" s="10"/>
@@ -44143,7 +44267,9 @@
       <c r="CI149" s="29">
         <v>100</v>
       </c>
-      <c r="CJ149" s="10"/>
+      <c r="CJ149" s="29">
+        <v>100</v>
+      </c>
       <c r="CK149" s="10"/>
       <c r="CL149" s="10"/>
       <c r="CM149" s="10"/>
@@ -44299,6 +44425,7 @@
       <c r="CG150" s="26"/>
       <c r="CH150" s="26"/>
       <c r="CI150" s="26"/>
+      <c r="CJ150" s="26"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
@@ -44393,7 +44520,7 @@
       <c r="CG152" s="19"/>
       <c r="CH152" s="19"/>
       <c r="CI152" s="19"/>
-      <c r="CJ152" s="17"/>
+      <c r="CJ152" s="19"/>
       <c r="CK152" s="17"/>
       <c r="CL152" s="17"/>
       <c r="CM152" s="17"/>
@@ -44549,7 +44676,7 @@
       <c r="CG153" s="19"/>
       <c r="CH153" s="19"/>
       <c r="CI153" s="19"/>
-      <c r="CJ153" s="17"/>
+      <c r="CJ153" s="19"/>
       <c r="CK153" s="17"/>
       <c r="CL153" s="17"/>
       <c r="CM153" s="17"/>
@@ -44747,13 +44874,13 @@
     <mergeCell ref="BJ96:BM96"/>
     <mergeCell ref="V96:Y96"/>
     <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH31:CI31"/>
-    <mergeCell ref="CD53:CE53"/>
-    <mergeCell ref="CD75:CE75"/>
-    <mergeCell ref="CH96:CI96"/>
-    <mergeCell ref="CH118:CI118"/>
-    <mergeCell ref="CH140:CI140"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH31:CJ31"/>
+    <mergeCell ref="CD53:CF53"/>
+    <mergeCell ref="CD75:CF75"/>
+    <mergeCell ref="CH96:CJ96"/>
+    <mergeCell ref="CH118:CJ118"/>
+    <mergeCell ref="CH140:CJ140"/>
     <mergeCell ref="BR140:BU140"/>
     <mergeCell ref="BV140:BY140"/>
     <mergeCell ref="BR118:BU118"/>

--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="8" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CI$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CK$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -619,16 +619,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -23619,9 +23616,9 @@
   <dimension ref="A1:EX153"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23629,8 +23626,8 @@
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
     <col min="2" max="80" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="10.26953125" style="1" customWidth="1"/>
-    <col min="82" max="88" width="9.7265625" style="19" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="89" width="8.90625" style="19" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.25">
@@ -23645,7 +23642,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.25">
@@ -23655,7 +23652,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23744,6 +23741,7 @@
       <c r="CH6" s="20"/>
       <c r="CI6" s="20"/>
       <c r="CJ6" s="20"/>
+      <c r="CK6" s="20"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -23836,6 +23834,7 @@
       <c r="CH7" s="20"/>
       <c r="CI7" s="20"/>
       <c r="CJ7" s="20"/>
+      <c r="CK7" s="20"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
@@ -23925,6 +23924,7 @@
       <c r="CH8" s="20"/>
       <c r="CI8" s="20"/>
       <c r="CJ8" s="20"/>
+      <c r="CK8" s="20"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -24059,6 +24059,7 @@
       </c>
       <c r="CI9" s="31"/>
       <c r="CJ9" s="31"/>
+      <c r="CK9" s="31"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -24324,6 +24325,9 @@
       </c>
       <c r="CJ10" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CK10" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24592,9 +24596,11 @@
         <v>64108.316354728828</v>
       </c>
       <c r="CJ12" s="22">
-        <v>90594.602846456226</v>
-      </c>
-      <c r="CK12" s="10"/>
+        <v>92278.440561978903</v>
+      </c>
+      <c r="CK12" s="22">
+        <v>101723.56185195877</v>
+      </c>
       <c r="CL12" s="10"/>
       <c r="CM12" s="10"/>
       <c r="CN12" s="10"/>
@@ -24924,9 +24930,11 @@
         <v>4237.9911819947902</v>
       </c>
       <c r="CJ13" s="22">
-        <v>6713.7863174218191</v>
-      </c>
-      <c r="CK13" s="10"/>
+        <v>6786.1438192509559</v>
+      </c>
+      <c r="CK13" s="22">
+        <v>6797.7834217590062</v>
+      </c>
       <c r="CL13" s="10"/>
       <c r="CM13" s="10"/>
       <c r="CN13" s="10"/>
@@ -25256,9 +25264,11 @@
         <v>3498.5571945118791</v>
       </c>
       <c r="CJ14" s="22">
-        <v>8680.5006775325237</v>
-      </c>
-      <c r="CK14" s="10"/>
+        <v>7810.5870233574205</v>
+      </c>
+      <c r="CK14" s="22">
+        <v>10306.40908682876</v>
+      </c>
       <c r="CL14" s="10"/>
       <c r="CM14" s="10"/>
       <c r="CN14" s="10"/>
@@ -25588,9 +25598,11 @@
         <v>46025.052433250174</v>
       </c>
       <c r="CJ15" s="22">
-        <v>46055.003162401845</v>
-      </c>
-      <c r="CK15" s="10"/>
+        <v>45675.807832540529</v>
+      </c>
+      <c r="CK15" s="22">
+        <v>44848.766430667602</v>
+      </c>
       <c r="CL15" s="10"/>
       <c r="CM15" s="10"/>
       <c r="CN15" s="10"/>
@@ -25920,9 +25932,11 @@
         <v>9199.2714411078559</v>
       </c>
       <c r="CJ16" s="22">
-        <v>7270.806579083941</v>
-      </c>
-      <c r="CK16" s="10"/>
+        <v>6948.7257825117358</v>
+      </c>
+      <c r="CK16" s="22">
+        <v>8742.6529829660212</v>
+      </c>
       <c r="CL16" s="10"/>
       <c r="CM16" s="10"/>
       <c r="CN16" s="10"/>
@@ -26077,7 +26091,7 @@
       <c r="CH17" s="23"/>
       <c r="CI17" s="23"/>
       <c r="CJ17" s="23"/>
-      <c r="CK17" s="10"/>
+      <c r="CK17" s="23"/>
       <c r="CL17" s="10"/>
       <c r="CM17" s="10"/>
       <c r="CN17" s="10"/>
@@ -26407,9 +26421,11 @@
         <v>127069.18860559352</v>
       </c>
       <c r="CJ18" s="24">
-        <v>159314.69958289634</v>
-      </c>
-      <c r="CK18" s="10"/>
+        <v>159499.70501963954</v>
+      </c>
+      <c r="CK18" s="24">
+        <v>172419.17377418015</v>
+      </c>
       <c r="CL18" s="10"/>
       <c r="CM18" s="10"/>
       <c r="CN18" s="10"/>
@@ -26565,6 +26581,7 @@
       <c r="CH19" s="25"/>
       <c r="CI19" s="25"/>
       <c r="CJ19" s="25"/>
+      <c r="CK19" s="25"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
@@ -26659,7 +26676,7 @@
       <c r="CH21" s="23"/>
       <c r="CI21" s="23"/>
       <c r="CJ21" s="23"/>
-      <c r="CK21" s="10"/>
+      <c r="CK21" s="23"/>
       <c r="CL21" s="10"/>
       <c r="CM21" s="10"/>
       <c r="CN21" s="10"/>
@@ -26814,7 +26831,7 @@
       <c r="CH22" s="23"/>
       <c r="CI22" s="23"/>
       <c r="CJ22" s="23"/>
-      <c r="CK22" s="10"/>
+      <c r="CK22" s="23"/>
       <c r="CL22" s="10"/>
       <c r="CM22" s="10"/>
       <c r="CN22" s="10"/>
@@ -26893,7 +26910,7 @@
     </row>
     <row r="25" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.25">
@@ -26984,6 +27001,7 @@
       <c r="CH26" s="20"/>
       <c r="CI26" s="20"/>
       <c r="CJ26" s="20"/>
+      <c r="CK26" s="20"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -27076,10 +27094,11 @@
       <c r="CH27" s="20"/>
       <c r="CI27" s="20"/>
       <c r="CJ27" s="20"/>
+      <c r="CK27" s="20"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -27168,6 +27187,7 @@
       <c r="CH28" s="20"/>
       <c r="CI28" s="20"/>
       <c r="CJ28" s="20"/>
+      <c r="CK28" s="20"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -27260,6 +27280,7 @@
       <c r="CH29" s="20"/>
       <c r="CI29" s="20"/>
       <c r="CJ29" s="20"/>
+      <c r="CK29" s="20"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
@@ -27349,6 +27370,7 @@
       <c r="CH30" s="20"/>
       <c r="CI30" s="20"/>
       <c r="CJ30" s="20"/>
+      <c r="CK30" s="20"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -27481,10 +27503,9 @@
       <c r="CH31" s="31">
         <v>2021</v>
       </c>
-      <c r="CI31" s="31">
-        <v>0</v>
-      </c>
+      <c r="CI31" s="31"/>
       <c r="CJ31" s="31"/>
+      <c r="CK31" s="31"/>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -27750,6 +27771,9 @@
       </c>
       <c r="CJ32" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CK32" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28018,9 +28042,11 @@
         <v>50610.881924027606</v>
       </c>
       <c r="CJ34" s="22">
-        <v>69144.353481898725</v>
-      </c>
-      <c r="CK34" s="10"/>
+        <v>70367.56259319128</v>
+      </c>
+      <c r="CK34" s="22">
+        <v>91585.599910053308</v>
+      </c>
       <c r="CL34" s="10"/>
       <c r="CM34" s="10"/>
       <c r="CN34" s="10"/>
@@ -28350,9 +28376,11 @@
         <v>4702.4558944315795</v>
       </c>
       <c r="CJ35" s="22">
-        <v>5862.3252545779796</v>
-      </c>
-      <c r="CK35" s="10"/>
+        <v>5925.5061766800709</v>
+      </c>
+      <c r="CK35" s="22">
+        <v>7079.6080586235639</v>
+      </c>
       <c r="CL35" s="10"/>
       <c r="CM35" s="10"/>
       <c r="CN35" s="10"/>
@@ -28682,9 +28710,11 @@
         <v>3794.5940396513961</v>
       </c>
       <c r="CJ36" s="22">
-        <v>8783.4106618638107</v>
-      </c>
-      <c r="CK36" s="10"/>
+        <v>7715.1993628660421</v>
+      </c>
+      <c r="CK36" s="22">
+        <v>9479.4804287457991</v>
+      </c>
       <c r="CL36" s="10"/>
       <c r="CM36" s="10"/>
       <c r="CN36" s="10"/>
@@ -29014,9 +29044,11 @@
         <v>41493.457207328873</v>
       </c>
       <c r="CJ37" s="22">
-        <v>45759.188399725768</v>
-      </c>
-      <c r="CK37" s="10"/>
+        <v>46573.887631112237</v>
+      </c>
+      <c r="CK37" s="22">
+        <v>46299.820798728877</v>
+      </c>
       <c r="CL37" s="10"/>
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
@@ -29346,9 +29378,11 @@
         <v>8848.2050604570431</v>
       </c>
       <c r="CJ38" s="22">
-        <v>7012.3512299774138</v>
-      </c>
-      <c r="CK38" s="10"/>
+        <v>6701.7194389334336</v>
+      </c>
+      <c r="CK38" s="22">
+        <v>8700.0741562434287</v>
+      </c>
       <c r="CL38" s="10"/>
       <c r="CM38" s="10"/>
       <c r="CN38" s="10"/>
@@ -29503,7 +29537,7 @@
       <c r="CH39" s="23"/>
       <c r="CI39" s="23"/>
       <c r="CJ39" s="23"/>
-      <c r="CK39" s="10"/>
+      <c r="CK39" s="23"/>
       <c r="CL39" s="10"/>
       <c r="CM39" s="10"/>
       <c r="CN39" s="10"/>
@@ -29833,9 +29867,11 @@
         <v>109449.5941258965</v>
       </c>
       <c r="CJ40" s="24">
-        <v>136561.62902804371</v>
-      </c>
-      <c r="CK40" s="10"/>
+        <v>137283.87520278306</v>
+      </c>
+      <c r="CK40" s="24">
+        <v>163144.58335239498</v>
+      </c>
       <c r="CL40" s="10"/>
       <c r="CM40" s="10"/>
       <c r="CN40" s="10"/>
@@ -29991,6 +30027,7 @@
       <c r="CH41" s="26"/>
       <c r="CI41" s="26"/>
       <c r="CJ41" s="26"/>
+      <c r="CK41" s="26"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
@@ -30085,7 +30122,7 @@
       <c r="CH43" s="23"/>
       <c r="CI43" s="23"/>
       <c r="CJ43" s="23"/>
-      <c r="CK43" s="10"/>
+      <c r="CK43" s="23"/>
       <c r="CL43" s="10"/>
       <c r="CM43" s="10"/>
       <c r="CN43" s="10"/>
@@ -30240,7 +30277,7 @@
       <c r="CH44" s="23"/>
       <c r="CI44" s="23"/>
       <c r="CJ44" s="23"/>
-      <c r="CK44" s="10"/>
+      <c r="CK44" s="23"/>
       <c r="CL44" s="10"/>
       <c r="CM44" s="10"/>
       <c r="CN44" s="10"/>
@@ -30319,7 +30356,7 @@
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.25">
@@ -30329,7 +30366,7 @@
     </row>
     <row r="50" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.25">
@@ -30465,14 +30502,13 @@
       <c r="CD53" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="CE53" s="31" t="s">
-        <v>50</v>
-      </c>
+      <c r="CE53" s="31"/>
       <c r="CF53" s="31"/>
-      <c r="CG53" s="27"/>
+      <c r="CG53" s="31"/>
       <c r="CH53" s="27"/>
       <c r="CI53" s="27"/>
       <c r="CJ53" s="27"/>
+      <c r="CK53" s="27"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
@@ -30727,10 +30763,13 @@
       <c r="CF54" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CG54" s="28"/>
+      <c r="CG54" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="CH54" s="28"/>
       <c r="CI54" s="28"/>
       <c r="CJ54" s="28"/>
+      <c r="CK54" s="28"/>
     </row>
     <row r="55" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -30986,13 +31025,15 @@
         <v>36.643012690826339</v>
       </c>
       <c r="CF56" s="29">
-        <v>15.219302054470504</v>
-      </c>
-      <c r="CG56" s="23"/>
+        <v>17.360827048893569</v>
+      </c>
+      <c r="CG56" s="29">
+        <v>16.618845706490063</v>
+      </c>
       <c r="CH56" s="23"/>
       <c r="CI56" s="23"/>
       <c r="CJ56" s="23"/>
-      <c r="CK56" s="10"/>
+      <c r="CK56" s="23"/>
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
       <c r="CN56" s="10"/>
@@ -31306,13 +31347,15 @@
         <v>21.740099735830171</v>
       </c>
       <c r="CF57" s="29">
-        <v>3.7634295390086976</v>
-      </c>
-      <c r="CG57" s="23"/>
+        <v>4.8817347974265033</v>
+      </c>
+      <c r="CG57" s="29">
+        <v>9.1597166706368398</v>
+      </c>
       <c r="CH57" s="23"/>
       <c r="CI57" s="23"/>
       <c r="CJ57" s="23"/>
-      <c r="CK57" s="10"/>
+      <c r="CK57" s="23"/>
       <c r="CL57" s="10"/>
       <c r="CM57" s="10"/>
       <c r="CN57" s="10"/>
@@ -31626,13 +31669,15 @@
         <v>545.89521677449557</v>
       </c>
       <c r="CF58" s="29">
-        <v>120.65965165468083</v>
-      </c>
-      <c r="CG58" s="23"/>
+        <v>98.546313838031665</v>
+      </c>
+      <c r="CG58" s="29">
+        <v>76.808951502277921</v>
+      </c>
       <c r="CH58" s="23"/>
       <c r="CI58" s="23"/>
       <c r="CJ58" s="23"/>
-      <c r="CK58" s="10"/>
+      <c r="CK58" s="23"/>
       <c r="CL58" s="10"/>
       <c r="CM58" s="10"/>
       <c r="CN58" s="10"/>
@@ -31946,13 +31991,15 @@
         <v>17.404614731460313</v>
       </c>
       <c r="CF59" s="29">
-        <v>5.6748487014384779</v>
-      </c>
-      <c r="CG59" s="23"/>
+        <v>4.8047714815958358</v>
+      </c>
+      <c r="CG59" s="29">
+        <v>9.9690340185077559</v>
+      </c>
       <c r="CH59" s="23"/>
       <c r="CI59" s="23"/>
       <c r="CJ59" s="23"/>
-      <c r="CK59" s="10"/>
+      <c r="CK59" s="23"/>
       <c r="CL59" s="10"/>
       <c r="CM59" s="10"/>
       <c r="CN59" s="10"/>
@@ -32266,13 +32313,15 @@
         <v>72.95221359095089</v>
       </c>
       <c r="CF60" s="29">
-        <v>-1.9880130219818284</v>
-      </c>
-      <c r="CG60" s="23"/>
+        <v>-6.329729239590506</v>
+      </c>
+      <c r="CG60" s="29">
+        <v>0.14650268275349276</v>
+      </c>
       <c r="CH60" s="23"/>
       <c r="CI60" s="23"/>
       <c r="CJ60" s="23"/>
-      <c r="CK60" s="10"/>
+      <c r="CK60" s="23"/>
       <c r="CL60" s="10"/>
       <c r="CM60" s="10"/>
       <c r="CN60" s="10"/>
@@ -32423,7 +32472,7 @@
       <c r="CH61" s="23"/>
       <c r="CI61" s="23"/>
       <c r="CJ61" s="23"/>
-      <c r="CK61" s="10"/>
+      <c r="CK61" s="23"/>
       <c r="CL61" s="10"/>
       <c r="CM61" s="10"/>
       <c r="CN61" s="10"/>
@@ -32737,13 +32786,15 @@
         <v>33.111753686057398</v>
       </c>
       <c r="CF62" s="29">
-        <v>13.770024649102041</v>
-      </c>
-      <c r="CG62" s="23"/>
+        <v>13.902140977059219</v>
+      </c>
+      <c r="CG62" s="29">
+        <v>15.875573929584291</v>
+      </c>
       <c r="CH62" s="23"/>
       <c r="CI62" s="23"/>
       <c r="CJ62" s="23"/>
-      <c r="CK62" s="10"/>
+      <c r="CK62" s="23"/>
       <c r="CL62" s="10"/>
       <c r="CM62" s="10"/>
       <c r="CN62" s="10"/>
@@ -32895,6 +32946,7 @@
       <c r="CH63" s="26"/>
       <c r="CI63" s="26"/>
       <c r="CJ63" s="26"/>
+      <c r="CK63" s="26"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -32989,7 +33041,7 @@
       <c r="CH65" s="23"/>
       <c r="CI65" s="23"/>
       <c r="CJ65" s="23"/>
-      <c r="CK65" s="10"/>
+      <c r="CK65" s="23"/>
       <c r="CL65" s="10"/>
       <c r="CM65" s="10"/>
       <c r="CN65" s="10"/>
@@ -33140,7 +33192,7 @@
       <c r="CH66" s="23"/>
       <c r="CI66" s="23"/>
       <c r="CJ66" s="23"/>
-      <c r="CK66" s="10"/>
+      <c r="CK66" s="23"/>
       <c r="CL66" s="10"/>
       <c r="CM66" s="10"/>
       <c r="CN66" s="10"/>
@@ -33215,7 +33267,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:150" x14ac:dyDescent="0.25">
@@ -33225,7 +33277,7 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.25">
@@ -33358,14 +33410,13 @@
       <c r="CD75" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="CE75" s="31" t="s">
-        <v>50</v>
-      </c>
+      <c r="CE75" s="31"/>
       <c r="CF75" s="31"/>
-      <c r="CG75" s="27"/>
+      <c r="CG75" s="31"/>
       <c r="CH75" s="27"/>
       <c r="CI75" s="27"/>
       <c r="CJ75" s="27"/>
+      <c r="CK75" s="27"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
@@ -33620,10 +33671,13 @@
       <c r="CF76" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CG76" s="28"/>
+      <c r="CG76" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="CH76" s="28"/>
       <c r="CI76" s="28"/>
       <c r="CJ76" s="28"/>
+      <c r="CK76" s="28"/>
     </row>
     <row r="77" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
@@ -33879,13 +33933,15 @@
         <v>28.036509113288844</v>
       </c>
       <c r="CF78" s="29">
-        <v>12.69493549928653</v>
-      </c>
-      <c r="CG78" s="23"/>
+        <v>14.688583063513747</v>
+      </c>
+      <c r="CG78" s="29">
+        <v>15.844513632259094</v>
+      </c>
       <c r="CH78" s="23"/>
       <c r="CI78" s="23"/>
       <c r="CJ78" s="23"/>
-      <c r="CK78" s="10"/>
+      <c r="CK78" s="23"/>
       <c r="CL78" s="10"/>
       <c r="CM78" s="10"/>
       <c r="CN78" s="10"/>
@@ -34199,13 +34255,15 @@
         <v>5.0661083419609554</v>
       </c>
       <c r="CF79" s="29">
-        <v>15.846186824839407</v>
-      </c>
-      <c r="CG79" s="23"/>
+        <v>17.094713405634081</v>
+      </c>
+      <c r="CG79" s="29">
+        <v>33.039962344138672</v>
+      </c>
       <c r="CH79" s="23"/>
       <c r="CI79" s="23"/>
       <c r="CJ79" s="23"/>
-      <c r="CK79" s="10"/>
+      <c r="CK79" s="23"/>
       <c r="CL79" s="10"/>
       <c r="CM79" s="10"/>
       <c r="CN79" s="10"/>
@@ -34519,13 +34577,15 @@
         <v>549.72861560657441</v>
       </c>
       <c r="CF80" s="29">
-        <v>124.01995091845768</v>
-      </c>
-      <c r="CG80" s="23"/>
+        <v>96.775335815690369</v>
+      </c>
+      <c r="CG80" s="29">
+        <v>63.524748267445005</v>
+      </c>
       <c r="CH80" s="23"/>
       <c r="CI80" s="23"/>
       <c r="CJ80" s="23"/>
-      <c r="CK80" s="10"/>
+      <c r="CK80" s="23"/>
       <c r="CL80" s="10"/>
       <c r="CM80" s="10"/>
       <c r="CN80" s="10"/>
@@ -34839,13 +34899,15 @@
         <v>8.8692644023185494</v>
       </c>
       <c r="CF81" s="29">
-        <v>10.342329227773291</v>
-      </c>
-      <c r="CG81" s="23"/>
+        <v>12.306870426056378</v>
+      </c>
+      <c r="CG81" s="29">
+        <v>18.357133345131231</v>
+      </c>
       <c r="CH81" s="23"/>
       <c r="CI81" s="23"/>
       <c r="CJ81" s="23"/>
-      <c r="CK81" s="10"/>
+      <c r="CK81" s="23"/>
       <c r="CL81" s="10"/>
       <c r="CM81" s="10"/>
       <c r="CN81" s="10"/>
@@ -35159,13 +35221,15 @@
         <v>73.966273062627891</v>
       </c>
       <c r="CF82" s="29">
-        <v>-1.9880130219818426</v>
-      </c>
-      <c r="CG82" s="23"/>
+        <v>-6.3297292395905203</v>
+      </c>
+      <c r="CG82" s="29">
+        <v>0.13828826874681965</v>
+      </c>
       <c r="CH82" s="23"/>
       <c r="CI82" s="23"/>
       <c r="CJ82" s="23"/>
-      <c r="CK82" s="10"/>
+      <c r="CK82" s="23"/>
       <c r="CL82" s="10"/>
       <c r="CM82" s="10"/>
       <c r="CN82" s="10"/>
@@ -35316,7 +35380,7 @@
       <c r="CH83" s="23"/>
       <c r="CI83" s="23"/>
       <c r="CJ83" s="23"/>
-      <c r="CK83" s="10"/>
+      <c r="CK83" s="23"/>
       <c r="CL83" s="10"/>
       <c r="CM83" s="10"/>
       <c r="CN83" s="10"/>
@@ -35630,13 +35694,15 @@
         <v>24.675627211601608</v>
       </c>
       <c r="CF84" s="29">
-        <v>14.794929481521208</v>
-      </c>
-      <c r="CG84" s="23"/>
+        <v>15.402056090127189</v>
+      </c>
+      <c r="CG84" s="29">
+        <v>18.234198494180305</v>
+      </c>
       <c r="CH84" s="23"/>
       <c r="CI84" s="23"/>
       <c r="CJ84" s="23"/>
-      <c r="CK84" s="10"/>
+      <c r="CK84" s="23"/>
       <c r="CL84" s="10"/>
       <c r="CM84" s="10"/>
       <c r="CN84" s="10"/>
@@ -35788,6 +35854,7 @@
       <c r="CH85" s="26"/>
       <c r="CI85" s="26"/>
       <c r="CJ85" s="26"/>
+      <c r="CK85" s="26"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
@@ -35882,7 +35949,7 @@
       <c r="CH87" s="23"/>
       <c r="CI87" s="23"/>
       <c r="CJ87" s="23"/>
-      <c r="CK87" s="10"/>
+      <c r="CK87" s="23"/>
       <c r="CL87" s="10"/>
       <c r="CM87" s="10"/>
       <c r="CN87" s="10"/>
@@ -36033,7 +36100,7 @@
       <c r="CH88" s="23"/>
       <c r="CI88" s="23"/>
       <c r="CJ88" s="23"/>
-      <c r="CK88" s="10"/>
+      <c r="CK88" s="23"/>
       <c r="CL88" s="10"/>
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
@@ -36103,7 +36170,7 @@
     </row>
     <row r="90" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.25">
@@ -36113,7 +36180,7 @@
     </row>
     <row r="93" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:150" x14ac:dyDescent="0.25">
@@ -36252,10 +36319,9 @@
       <c r="CH96" s="31">
         <v>2021</v>
       </c>
-      <c r="CI96" s="31">
-        <v>0</v>
-      </c>
+      <c r="CI96" s="31"/>
       <c r="CJ96" s="31"/>
+      <c r="CK96" s="31"/>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
@@ -36521,6 +36587,9 @@
       </c>
       <c r="CJ97" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CK97" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -36789,9 +36858,11 @@
         <v>126.66903621826296</v>
       </c>
       <c r="CJ99" s="29">
-        <v>131.02241655954302</v>
-      </c>
-      <c r="CK99" s="10"/>
+        <v>131.13775319383836</v>
+      </c>
+      <c r="CK99" s="29">
+        <v>111.06938421745561</v>
+      </c>
       <c r="CL99" s="10"/>
       <c r="CM99" s="10"/>
       <c r="CN99" s="10"/>
@@ -37121,9 +37192,11 @@
         <v>90.122933146767295</v>
       </c>
       <c r="CJ100" s="29">
-        <v>114.5242890127756</v>
-      </c>
-      <c r="CK100" s="10"/>
+        <v>114.52428901277563</v>
+      </c>
+      <c r="CK100" s="29">
+        <v>96.019205660385794</v>
+      </c>
       <c r="CL100" s="10"/>
       <c r="CM100" s="10"/>
       <c r="CN100" s="10"/>
@@ -37453,9 +37526,11 @@
         <v>92.198458068344152</v>
       </c>
       <c r="CJ101" s="29">
-        <v>98.828359639631728</v>
-      </c>
-      <c r="CK101" s="10"/>
+        <v>101.2363602805974</v>
+      </c>
+      <c r="CK101" s="29">
+        <v>108.72335424181439</v>
+      </c>
       <c r="CL101" s="10"/>
       <c r="CM101" s="10"/>
       <c r="CN101" s="10"/>
@@ -37785,9 +37860,11 @@
         <v>110.92122838373876</v>
       </c>
       <c r="CJ102" s="29">
-        <v>100.64645981063303</v>
-      </c>
-      <c r="CK102" s="10"/>
+        <v>98.07170961186462</v>
+      </c>
+      <c r="CK102" s="29">
+        <v>96.865961157022213</v>
+      </c>
       <c r="CL102" s="10"/>
       <c r="CM102" s="10"/>
       <c r="CN102" s="10"/>
@@ -38117,9 +38194,11 @@
         <v>103.96765647102531</v>
       </c>
       <c r="CJ103" s="29">
-        <v>103.68571596929779</v>
-      </c>
-      <c r="CK103" s="10"/>
+        <v>103.68571596929776</v>
+      </c>
+      <c r="CK103" s="29">
+        <v>100.48940762984229</v>
+      </c>
       <c r="CL103" s="10"/>
       <c r="CM103" s="10"/>
       <c r="CN103" s="10"/>
@@ -38274,7 +38353,7 @@
       <c r="CH104" s="23"/>
       <c r="CI104" s="23"/>
       <c r="CJ104" s="23"/>
-      <c r="CK104" s="10"/>
+      <c r="CK104" s="23"/>
       <c r="CL104" s="10"/>
       <c r="CM104" s="10"/>
       <c r="CN104" s="10"/>
@@ -38604,9 +38683,11 @@
         <v>116.09836438445787</v>
       </c>
       <c r="CJ105" s="29">
-        <v>116.66139362630199</v>
-      </c>
-      <c r="CK105" s="10"/>
+        <v>116.18240291078709</v>
+      </c>
+      <c r="CK105" s="29">
+        <v>105.68489019445524</v>
+      </c>
       <c r="CL105" s="10"/>
       <c r="CM105" s="10"/>
       <c r="CN105" s="10"/>
@@ -38762,6 +38843,7 @@
       <c r="CH106" s="26"/>
       <c r="CI106" s="26"/>
       <c r="CJ106" s="26"/>
+      <c r="CK106" s="26"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
@@ -38780,7 +38862,7 @@
     </row>
     <row r="112" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.25">
@@ -38790,7 +38872,7 @@
     </row>
     <row r="115" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:154" x14ac:dyDescent="0.25">
@@ -38929,10 +39011,9 @@
       <c r="CH118" s="31">
         <v>2021</v>
       </c>
-      <c r="CI118" s="31">
-        <v>0</v>
-      </c>
+      <c r="CI118" s="31"/>
       <c r="CJ118" s="31"/>
+      <c r="CK118" s="31"/>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
@@ -39198,6 +39279,9 @@
       </c>
       <c r="CJ119" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CK119" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -39466,9 +39550,11 @@
         <v>50.451503671525622</v>
       </c>
       <c r="CJ121" s="29">
-        <v>56.865187634062018</v>
-      </c>
-      <c r="CK121" s="10"/>
+        <v>57.854928666242024</v>
+      </c>
+      <c r="CK121" s="29">
+        <v>58.997824676498901</v>
+      </c>
       <c r="CL121" s="10"/>
       <c r="CM121" s="10"/>
       <c r="CN121" s="10"/>
@@ -39798,9 +39884,11 @@
         <v>3.335183948603758</v>
       </c>
       <c r="CJ122" s="29">
-        <v>4.2141662602379197</v>
-      </c>
-      <c r="CK122" s="10"/>
+        <v>4.2546434919207927</v>
+      </c>
+      <c r="CK122" s="29">
+        <v>3.9425913446622594</v>
+      </c>
       <c r="CL122" s="10"/>
       <c r="CM122" s="10"/>
       <c r="CN122" s="10"/>
@@ -40130,9 +40218,11 @@
         <v>2.7532694848402253</v>
       </c>
       <c r="CJ123" s="29">
-        <v>5.448650187496221</v>
-      </c>
-      <c r="CK123" s="10"/>
+        <v>4.8969288202731702</v>
+      </c>
+      <c r="CK123" s="29">
+        <v>5.9775307242379041</v>
+      </c>
       <c r="CL123" s="10"/>
       <c r="CM123" s="10"/>
       <c r="CN123" s="10"/>
@@ -40462,9 +40552,11 @@
         <v>36.220466139990897</v>
       </c>
       <c r="CJ124" s="29">
-        <v>28.908194462268067</v>
-      </c>
-      <c r="CK124" s="10"/>
+        <v>28.636923075761405</v>
+      </c>
+      <c r="CK124" s="29">
+        <v>26.011472766600001</v>
+      </c>
       <c r="CL124" s="10"/>
       <c r="CM124" s="10"/>
       <c r="CN124" s="10"/>
@@ -40794,9 +40886,11 @@
         <v>7.2395767550395052</v>
       </c>
       <c r="CJ125" s="29">
-        <v>4.5638014559357822</v>
-      </c>
-      <c r="CK125" s="10"/>
+        <v>4.3565759458026108</v>
+      </c>
+      <c r="CK125" s="29">
+        <v>5.0705804880009451</v>
+      </c>
       <c r="CL125" s="10"/>
       <c r="CM125" s="10"/>
       <c r="CN125" s="10"/>
@@ -40951,7 +41045,7 @@
       <c r="CH126" s="23"/>
       <c r="CI126" s="23"/>
       <c r="CJ126" s="23"/>
-      <c r="CK126" s="10"/>
+      <c r="CK126" s="23"/>
       <c r="CL126" s="10"/>
       <c r="CM126" s="10"/>
       <c r="CN126" s="10"/>
@@ -41283,7 +41377,9 @@
       <c r="CJ127" s="29">
         <v>100</v>
       </c>
-      <c r="CK127" s="10"/>
+      <c r="CK127" s="29">
+        <v>100</v>
+      </c>
       <c r="CL127" s="10"/>
       <c r="CM127" s="10"/>
       <c r="CN127" s="10"/>
@@ -41439,6 +41535,7 @@
       <c r="CH128" s="26"/>
       <c r="CI128" s="26"/>
       <c r="CJ128" s="26"/>
+      <c r="CK128" s="26"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
@@ -41533,7 +41630,7 @@
       <c r="CH130" s="23"/>
       <c r="CI130" s="23"/>
       <c r="CJ130" s="23"/>
-      <c r="CK130" s="10"/>
+      <c r="CK130" s="23"/>
       <c r="CL130" s="10"/>
       <c r="CM130" s="10"/>
       <c r="CN130" s="10"/>
@@ -41688,7 +41785,7 @@
       <c r="CH131" s="23"/>
       <c r="CI131" s="23"/>
       <c r="CJ131" s="23"/>
-      <c r="CK131" s="10"/>
+      <c r="CK131" s="23"/>
       <c r="CL131" s="10"/>
       <c r="CM131" s="10"/>
       <c r="CN131" s="10"/>
@@ -41767,7 +41864,7 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:154" x14ac:dyDescent="0.25">
@@ -41777,7 +41874,7 @@
     </row>
     <row r="137" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:154" x14ac:dyDescent="0.25">
@@ -41916,10 +42013,9 @@
       <c r="CH140" s="31">
         <v>2021</v>
       </c>
-      <c r="CI140" s="31">
-        <v>0</v>
-      </c>
+      <c r="CI140" s="31"/>
       <c r="CJ140" s="31"/>
+      <c r="CK140" s="31"/>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
@@ -42185,6 +42281,9 @@
       </c>
       <c r="CJ141" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CK141" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -42453,9 +42552,11 @@
         <v>46.241269625734262</v>
       </c>
       <c r="CJ143" s="29">
-        <v>50.632343780623422</v>
-      </c>
-      <c r="CK143" s="10"/>
+        <v>51.256975729488119</v>
+      </c>
+      <c r="CK143" s="29">
+        <v>56.13768966648859</v>
+      </c>
       <c r="CL143" s="10"/>
       <c r="CM143" s="10"/>
       <c r="CN143" s="10"/>
@@ -42785,9 +42886,11 @@
         <v>4.2964580471833349</v>
       </c>
       <c r="CJ144" s="29">
-        <v>4.2928055972253505</v>
-      </c>
-      <c r="CK144" s="10"/>
+        <v>4.3162433810434475</v>
+      </c>
+      <c r="CK144" s="29">
+        <v>4.3394686560518494</v>
+      </c>
       <c r="CL144" s="10"/>
       <c r="CM144" s="10"/>
       <c r="CN144" s="10"/>
@@ -43117,9 +43220,11 @@
         <v>3.4669786306257029</v>
       </c>
       <c r="CJ145" s="29">
-        <v>6.4318291487721542</v>
-      </c>
-      <c r="CK145" s="10"/>
+        <v>5.6198875151723842</v>
+      </c>
+      <c r="CK145" s="29">
+        <v>5.8104781868669004</v>
+      </c>
       <c r="CL145" s="10"/>
       <c r="CM145" s="10"/>
       <c r="CN145" s="10"/>
@@ -43449,9 +43554,11 @@
         <v>37.911019715249218</v>
       </c>
       <c r="CJ146" s="29">
-        <v>33.508086221151373</v>
-      </c>
-      <c r="CK146" s="10"/>
+        <v>33.92524254018732</v>
+      </c>
+      <c r="CK146" s="29">
+        <v>28.379624899173333</v>
+      </c>
       <c r="CL146" s="10"/>
       <c r="CM146" s="10"/>
       <c r="CN146" s="10"/>
@@ -43781,9 +43888,11 @@
         <v>8.0842739812074829</v>
       </c>
       <c r="CJ147" s="29">
-        <v>5.1349352522276872</v>
-      </c>
-      <c r="CK147" s="10"/>
+        <v>4.8816508341087204</v>
+      </c>
+      <c r="CK147" s="29">
+        <v>5.3327385914193215</v>
+      </c>
       <c r="CL147" s="10"/>
       <c r="CM147" s="10"/>
       <c r="CN147" s="10"/>
@@ -43938,7 +44047,7 @@
       <c r="CH148" s="23"/>
       <c r="CI148" s="23"/>
       <c r="CJ148" s="23"/>
-      <c r="CK148" s="10"/>
+      <c r="CK148" s="23"/>
       <c r="CL148" s="10"/>
       <c r="CM148" s="10"/>
       <c r="CN148" s="10"/>
@@ -44270,7 +44379,9 @@
       <c r="CJ149" s="29">
         <v>100</v>
       </c>
-      <c r="CK149" s="10"/>
+      <c r="CK149" s="29">
+        <v>100</v>
+      </c>
       <c r="CL149" s="10"/>
       <c r="CM149" s="10"/>
       <c r="CN149" s="10"/>
@@ -44426,6 +44537,7 @@
       <c r="CH150" s="26"/>
       <c r="CI150" s="26"/>
       <c r="CJ150" s="26"/>
+      <c r="CK150" s="26"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
@@ -44521,7 +44633,7 @@
       <c r="CH152" s="19"/>
       <c r="CI152" s="19"/>
       <c r="CJ152" s="19"/>
-      <c r="CK152" s="17"/>
+      <c r="CK152" s="19"/>
       <c r="CL152" s="17"/>
       <c r="CM152" s="17"/>
       <c r="CN152" s="17"/>
@@ -44677,7 +44789,7 @@
       <c r="CH153" s="19"/>
       <c r="CI153" s="19"/>
       <c r="CJ153" s="19"/>
-      <c r="CK153" s="17"/>
+      <c r="CK153" s="19"/>
       <c r="CL153" s="17"/>
       <c r="CM153" s="17"/>
       <c r="CN153" s="17"/>
@@ -44874,13 +44986,13 @@
     <mergeCell ref="BJ96:BM96"/>
     <mergeCell ref="V96:Y96"/>
     <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH31:CJ31"/>
-    <mergeCell ref="CD53:CF53"/>
-    <mergeCell ref="CD75:CF75"/>
-    <mergeCell ref="CH96:CJ96"/>
-    <mergeCell ref="CH118:CJ118"/>
-    <mergeCell ref="CH140:CJ140"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH31:CK31"/>
+    <mergeCell ref="CD53:CG53"/>
+    <mergeCell ref="CD75:CG75"/>
+    <mergeCell ref="CH96:CK96"/>
+    <mergeCell ref="CH118:CK118"/>
+    <mergeCell ref="CH140:CK140"/>
     <mergeCell ref="BR140:BU140"/>
     <mergeCell ref="BV140:BY140"/>
     <mergeCell ref="BR118:BU118"/>
@@ -44904,9 +45016,9 @@
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="86" man="1"/>
-    <brk id="88" max="86" man="1"/>
-    <brk id="109" max="86" man="1"/>
+    <brk id="44" max="88" man="1"/>
+    <brk id="88" max="88" man="1"/>
+    <brk id="109" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3051C0-06AE-4B3E-92EC-1DE3162B08C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="8" r:id="rId1"/>
@@ -467,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -619,24 +620,27 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -710,14 +714,14 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -728,36 +732,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,11 +774,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23356,7 +23372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23408,7 +23424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23609,50 +23625,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EX153"/>
+  <dimension ref="A1:EX185"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A136" colorId="22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CI73" sqref="CI73:CL87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="80" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.26953125" style="1" customWidth="1"/>
-    <col min="82" max="89" width="8.90625" style="19" customWidth="1"/>
-    <col min="90" max="16384" width="7.81640625" style="1"/>
+    <col min="2" max="77" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="90" width="10.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="91" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23730,10 +23745,10 @@
       <c r="BW6" s="4"/>
       <c r="BX6" s="4"/>
       <c r="BY6" s="4"/>
-      <c r="BZ6" s="4"/>
-      <c r="CA6" s="4"/>
-      <c r="CB6" s="4"/>
-      <c r="CC6" s="4"/>
+      <c r="BZ6" s="20"/>
+      <c r="CA6" s="20"/>
+      <c r="CB6" s="20"/>
+      <c r="CC6" s="20"/>
       <c r="CD6" s="20"/>
       <c r="CE6" s="20"/>
       <c r="CF6" s="20"/>
@@ -23742,8 +23757,9 @@
       <c r="CI6" s="20"/>
       <c r="CJ6" s="20"/>
       <c r="CK6" s="20"/>
+      <c r="CL6" s="20"/>
     </row>
-    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -23823,10 +23839,10 @@
       <c r="BW7" s="4"/>
       <c r="BX7" s="4"/>
       <c r="BY7" s="4"/>
-      <c r="BZ7" s="4"/>
-      <c r="CA7" s="4"/>
-      <c r="CB7" s="4"/>
-      <c r="CC7" s="4"/>
+      <c r="BZ7" s="20"/>
+      <c r="CA7" s="20"/>
+      <c r="CB7" s="20"/>
+      <c r="CC7" s="20"/>
       <c r="CD7" s="20"/>
       <c r="CE7" s="20"/>
       <c r="CF7" s="20"/>
@@ -23835,8 +23851,9 @@
       <c r="CI7" s="20"/>
       <c r="CJ7" s="20"/>
       <c r="CK7" s="20"/>
+      <c r="CL7" s="20"/>
     </row>
-    <row r="8" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -23913,10 +23930,10 @@
       <c r="BW8" s="4"/>
       <c r="BX8" s="4"/>
       <c r="BY8" s="4"/>
-      <c r="BZ8" s="4"/>
-      <c r="CA8" s="4"/>
-      <c r="CB8" s="4"/>
-      <c r="CC8" s="4"/>
+      <c r="BZ8" s="20"/>
+      <c r="CA8" s="20"/>
+      <c r="CB8" s="20"/>
+      <c r="CC8" s="20"/>
       <c r="CD8" s="20"/>
       <c r="CE8" s="20"/>
       <c r="CF8" s="20"/>
@@ -23925,8 +23942,9 @@
       <c r="CI8" s="20"/>
       <c r="CJ8" s="20"/>
       <c r="CK8" s="20"/>
+      <c r="CL8" s="20"/>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="32">
         <v>2000</v>
@@ -24042,12 +24060,12 @@
       <c r="BW9" s="32"/>
       <c r="BX9" s="32"/>
       <c r="BY9" s="32"/>
-      <c r="BZ9" s="32">
+      <c r="BZ9" s="31">
         <v>2019</v>
       </c>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
       <c r="CD9" s="31">
         <v>2020</v>
       </c>
@@ -24060,8 +24078,11 @@
       <c r="CI9" s="31"/>
       <c r="CJ9" s="31"/>
       <c r="CK9" s="31"/>
+      <c r="CL9" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -24293,16 +24314,16 @@
       <c r="BY10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BZ10" s="7" t="s">
+      <c r="BZ10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="CA10" s="7" t="s">
+      <c r="CA10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CB10" s="7" t="s">
+      <c r="CB10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CC10" s="7" t="s">
+      <c r="CC10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="CD10" s="21" t="s">
@@ -24329,11 +24350,14 @@
       <c r="CK10" s="21" t="s">
         <v>8</v>
       </c>
+      <c r="CL10" s="21" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -24565,43 +24589,45 @@
       <c r="BY12" s="9">
         <v>88297.69220588282</v>
       </c>
-      <c r="BZ12" s="9">
+      <c r="BZ12" s="22">
         <v>93721.335016912504</v>
       </c>
-      <c r="CA12" s="9">
+      <c r="CA12" s="22">
         <v>112582.445255634</v>
       </c>
-      <c r="CB12" s="9">
+      <c r="CB12" s="22">
         <v>98272.473073975605</v>
       </c>
-      <c r="CC12" s="9">
+      <c r="CC12" s="22">
         <v>96473.611630007377</v>
       </c>
       <c r="CD12" s="22">
-        <v>86224.953809030631</v>
+        <v>85833.42547521973</v>
       </c>
       <c r="CE12" s="22">
-        <v>46916.644394970077</v>
+        <v>47227.58300161481</v>
       </c>
       <c r="CF12" s="22">
-        <v>78627.973986187804</v>
+        <v>77970.887384953618</v>
       </c>
       <c r="CG12" s="22">
-        <v>87227.378418733279</v>
+        <v>87043.333111853615</v>
       </c>
       <c r="CH12" s="22">
-        <v>80514.662535215044</v>
+        <v>80310.943601616484</v>
       </c>
       <c r="CI12" s="22">
-        <v>64108.316354728828</v>
+        <v>64886.17836900759</v>
       </c>
       <c r="CJ12" s="22">
-        <v>92278.440561978903</v>
+        <v>91755.469490844363</v>
       </c>
       <c r="CK12" s="22">
-        <v>101723.56185195877</v>
-      </c>
-      <c r="CL12" s="10"/>
+        <v>102146.00626455189</v>
+      </c>
+      <c r="CL12" s="22">
+        <v>95167.464975351031</v>
+      </c>
       <c r="CM12" s="10"/>
       <c r="CN12" s="10"/>
       <c r="CO12" s="10"/>
@@ -24667,7 +24693,7 @@
       <c r="EW12" s="10"/>
       <c r="EX12" s="10"/>
     </row>
-    <row r="13" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -24899,43 +24925,45 @@
       <c r="BY13" s="9">
         <v>7668.9342490694362</v>
       </c>
-      <c r="BZ13" s="9">
+      <c r="BZ13" s="22">
         <v>11612.6531308261</v>
       </c>
-      <c r="CA13" s="9">
+      <c r="CA13" s="22">
         <v>14532.705821970601</v>
       </c>
-      <c r="CB13" s="9">
+      <c r="CB13" s="22">
         <v>7859.5617314853698</v>
       </c>
-      <c r="CC13" s="9">
+      <c r="CC13" s="22">
         <v>7493.7042045622948</v>
       </c>
       <c r="CD13" s="22">
-        <v>10709.412585179585</v>
+        <v>10638.014382942774</v>
       </c>
       <c r="CE13" s="22">
-        <v>3481.1793248001404</v>
+        <v>4159.9442986404647</v>
       </c>
       <c r="CF13" s="22">
-        <v>6470.2818201453583</v>
+        <v>6161.7898553619443</v>
       </c>
       <c r="CG13" s="22">
-        <v>6227.3736402868108</v>
+        <v>6727.6571030917612</v>
       </c>
       <c r="CH13" s="22">
-        <v>7867.8161663278806</v>
+        <v>7817.273676312996</v>
       </c>
       <c r="CI13" s="22">
-        <v>4237.9911819947902</v>
+        <v>5067.513206587616</v>
       </c>
       <c r="CJ13" s="22">
-        <v>6786.1438192509559</v>
+        <v>6461.1453905598064</v>
       </c>
       <c r="CK13" s="22">
-        <v>6797.7834217590062</v>
-      </c>
-      <c r="CL13" s="10"/>
+        <v>6793.9100191963189</v>
+      </c>
+      <c r="CL13" s="22">
+        <v>9030.057340749765</v>
+      </c>
       <c r="CM13" s="10"/>
       <c r="CN13" s="10"/>
       <c r="CO13" s="10"/>
@@ -25001,7 +25029,7 @@
       <c r="EW13" s="10"/>
       <c r="EX13" s="10"/>
     </row>
-    <row r="14" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -25233,16 +25261,16 @@
       <c r="BY14" s="9">
         <v>23643.098401628944</v>
       </c>
-      <c r="BZ14" s="9">
+      <c r="BZ14" s="22">
         <v>30343.559433259608</v>
       </c>
-      <c r="CA14" s="9">
+      <c r="CA14" s="22">
         <v>30118.605773295902</v>
       </c>
-      <c r="CB14" s="9">
+      <c r="CB14" s="22">
         <v>26930.058809861308</v>
       </c>
-      <c r="CC14" s="9">
+      <c r="CC14" s="22">
         <v>25867.275404417582</v>
       </c>
       <c r="CD14" s="22">
@@ -25255,7 +25283,7 @@
         <v>3933.8866949345993</v>
       </c>
       <c r="CG14" s="22">
-        <v>5829.1217719799533</v>
+        <v>5756.5870174473457</v>
       </c>
       <c r="CH14" s="22">
         <v>5981.2410016829199</v>
@@ -25267,9 +25295,11 @@
         <v>7810.5870233574205</v>
       </c>
       <c r="CK14" s="22">
-        <v>10306.40908682876</v>
-      </c>
-      <c r="CL14" s="10"/>
+        <v>10731.893624718097</v>
+      </c>
+      <c r="CL14" s="22">
+        <v>16519.717390147831</v>
+      </c>
       <c r="CM14" s="10"/>
       <c r="CN14" s="10"/>
       <c r="CO14" s="10"/>
@@ -25335,7 +25365,7 @@
       <c r="EW14" s="10"/>
       <c r="EX14" s="10"/>
     </row>
-    <row r="15" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -25567,43 +25597,45 @@
       <c r="BY15" s="9">
         <v>40822.425574869652</v>
       </c>
-      <c r="BZ15" s="9">
+      <c r="BZ15" s="22">
         <v>42723.862110294598</v>
       </c>
-      <c r="CA15" s="9">
+      <c r="CA15" s="22">
         <v>47424.021658296399</v>
       </c>
-      <c r="CB15" s="9">
+      <c r="CB15" s="22">
         <v>43057.115965533201</v>
       </c>
-      <c r="CC15" s="9">
+      <c r="CC15" s="22">
         <v>40474.026791175536</v>
       </c>
       <c r="CD15" s="22">
-        <v>37552.912445056434</v>
+        <v>38377.454454111437</v>
       </c>
       <c r="CE15" s="22">
-        <v>39202.081228683659</v>
+        <v>39129.883280113791</v>
       </c>
       <c r="CF15" s="22">
-        <v>43581.801846265553</v>
+        <v>43772.535915687906</v>
       </c>
       <c r="CG15" s="22">
-        <v>40783.086648846591</v>
+        <v>41914.708397563991</v>
       </c>
       <c r="CH15" s="22">
-        <v>40893.360853564744</v>
+        <v>41314.418988535144</v>
       </c>
       <c r="CI15" s="22">
-        <v>46025.052433250174</v>
+        <v>45468.281079315457</v>
       </c>
       <c r="CJ15" s="22">
-        <v>45675.807832540529</v>
+        <v>45801.634695866625</v>
       </c>
       <c r="CK15" s="22">
-        <v>44848.766430667602</v>
-      </c>
-      <c r="CL15" s="10"/>
+        <v>45968.838758085447</v>
+      </c>
+      <c r="CL15" s="22">
+        <v>49367.796968223905</v>
+      </c>
       <c r="CM15" s="10"/>
       <c r="CN15" s="10"/>
       <c r="CO15" s="10"/>
@@ -25669,7 +25701,7 @@
       <c r="EW15" s="10"/>
       <c r="EX15" s="10"/>
     </row>
-    <row r="16" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -25901,43 +25933,45 @@
       <c r="BY16" s="9">
         <v>7851.2647933300141</v>
       </c>
-      <c r="BZ16" s="9">
+      <c r="BZ16" s="22">
         <v>6812.7424097329913</v>
       </c>
-      <c r="CA16" s="9">
+      <c r="CA16" s="22">
         <v>7159.7954484145721</v>
       </c>
-      <c r="CB16" s="9">
+      <c r="CB16" s="22">
         <v>6099.9282237592297</v>
       </c>
-      <c r="CC16" s="9">
+      <c r="CC16" s="22">
         <v>8101.8663721992616</v>
       </c>
       <c r="CD16" s="22">
-        <v>7057.0669308286397</v>
+        <v>7271.536918522761</v>
       </c>
       <c r="CE16" s="22">
-        <v>5318.967158677161</v>
+        <v>5318.9671586771592</v>
       </c>
       <c r="CF16" s="22">
         <v>7418.2830113571872</v>
       </c>
       <c r="CG16" s="22">
-        <v>8729.863498739649</v>
+        <v>8707.0629617639515</v>
       </c>
       <c r="CH16" s="22">
-        <v>7867.6543810308576</v>
+        <v>8057.1403063475373</v>
       </c>
       <c r="CI16" s="22">
-        <v>9199.2714411078559</v>
+        <v>9199.2714411078541</v>
       </c>
       <c r="CJ16" s="22">
         <v>6948.7257825117358</v>
       </c>
       <c r="CK16" s="22">
-        <v>8742.6529829660212</v>
-      </c>
-      <c r="CL16" s="10"/>
+        <v>8899.6056823708132</v>
+      </c>
+      <c r="CL16" s="22">
+        <v>7746.0398319577926</v>
+      </c>
       <c r="CM16" s="10"/>
       <c r="CN16" s="10"/>
       <c r="CO16" s="10"/>
@@ -26003,7 +26037,7 @@
       <c r="EW16" s="10"/>
       <c r="EX16" s="10"/>
     </row>
-    <row r="17" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -26080,10 +26114,10 @@
       <c r="BW17" s="10"/>
       <c r="BX17" s="10"/>
       <c r="BY17" s="10"/>
-      <c r="BZ17" s="10"/>
-      <c r="CA17" s="10"/>
-      <c r="CB17" s="10"/>
-      <c r="CC17" s="10"/>
+      <c r="BZ17" s="23"/>
+      <c r="CA17" s="23"/>
+      <c r="CB17" s="23"/>
+      <c r="CC17" s="23"/>
       <c r="CD17" s="23"/>
       <c r="CE17" s="23"/>
       <c r="CF17" s="23"/>
@@ -26092,7 +26126,7 @@
       <c r="CI17" s="23"/>
       <c r="CJ17" s="23"/>
       <c r="CK17" s="23"/>
-      <c r="CL17" s="10"/>
+      <c r="CL17" s="23"/>
       <c r="CM17" s="10"/>
       <c r="CN17" s="10"/>
       <c r="CO17" s="10"/>
@@ -26158,7 +26192,7 @@
       <c r="EW17" s="10"/>
       <c r="EX17" s="10"/>
     </row>
-    <row r="18" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
@@ -26390,43 +26424,45 @@
       <c r="BY18" s="12">
         <v>168283.41522478088</v>
       </c>
-      <c r="BZ18" s="12">
+      <c r="BZ18" s="24">
         <v>185214.1521010258</v>
       </c>
-      <c r="CA18" s="12">
+      <c r="CA18" s="24">
         <v>211817.57395761146</v>
       </c>
-      <c r="CB18" s="12">
+      <c r="CB18" s="24">
         <v>182219.13780461473</v>
       </c>
-      <c r="CC18" s="12">
+      <c r="CC18" s="24">
         <v>178410.48440236205</v>
       </c>
       <c r="CD18" s="24">
-        <v>164683.73635856077</v>
+        <v>165259.82181926217</v>
       </c>
       <c r="CE18" s="24">
-        <v>95460.532287242473</v>
+        <v>96378.037919157665</v>
       </c>
       <c r="CF18" s="24">
-        <v>140032.22735889049</v>
+        <v>139257.38286229526</v>
       </c>
       <c r="CG18" s="24">
-        <v>148796.82397858627</v>
+        <v>150149.34859172066</v>
       </c>
       <c r="CH18" s="24">
-        <v>143124.73493782143</v>
+        <v>143481.01757449508</v>
       </c>
       <c r="CI18" s="24">
-        <v>127069.18860559352</v>
+        <v>128119.80129053039</v>
       </c>
       <c r="CJ18" s="24">
-        <v>159499.70501963954</v>
+        <v>158777.56238313994</v>
       </c>
       <c r="CK18" s="24">
-        <v>172419.17377418015</v>
-      </c>
-      <c r="CL18" s="10"/>
+        <v>174540.25434892255</v>
+      </c>
+      <c r="CL18" s="24">
+        <v>177831.07650643031</v>
+      </c>
       <c r="CM18" s="10"/>
       <c r="CN18" s="10"/>
       <c r="CO18" s="10"/>
@@ -26492,7 +26528,7 @@
       <c r="EW18" s="10"/>
       <c r="EX18" s="10"/>
     </row>
-    <row r="19" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -26570,10 +26606,10 @@
       <c r="BW19" s="14"/>
       <c r="BX19" s="14"/>
       <c r="BY19" s="14"/>
-      <c r="BZ19" s="14"/>
-      <c r="CA19" s="14"/>
-      <c r="CB19" s="14"/>
-      <c r="CC19" s="14"/>
+      <c r="BZ19" s="25"/>
+      <c r="CA19" s="25"/>
+      <c r="CB19" s="25"/>
+      <c r="CC19" s="25"/>
       <c r="CD19" s="25"/>
       <c r="CE19" s="25"/>
       <c r="CF19" s="25"/>
@@ -26582,13 +26618,14 @@
       <c r="CI19" s="25"/>
       <c r="CJ19" s="25"/>
       <c r="CK19" s="25"/>
+      <c r="CL19" s="25"/>
     </row>
-    <row r="20" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -26665,10 +26702,10 @@
       <c r="BW21" s="10"/>
       <c r="BX21" s="10"/>
       <c r="BY21" s="10"/>
-      <c r="BZ21" s="10"/>
-      <c r="CA21" s="10"/>
-      <c r="CB21" s="10"/>
-      <c r="CC21" s="10"/>
+      <c r="BZ21" s="23"/>
+      <c r="CA21" s="23"/>
+      <c r="CB21" s="23"/>
+      <c r="CC21" s="23"/>
       <c r="CD21" s="23"/>
       <c r="CE21" s="23"/>
       <c r="CF21" s="23"/>
@@ -26677,7 +26714,7 @@
       <c r="CI21" s="23"/>
       <c r="CJ21" s="23"/>
       <c r="CK21" s="23"/>
-      <c r="CL21" s="10"/>
+      <c r="CL21" s="23"/>
       <c r="CM21" s="10"/>
       <c r="CN21" s="10"/>
       <c r="CO21" s="10"/>
@@ -26743,7 +26780,7 @@
       <c r="EW21" s="10"/>
       <c r="EX21" s="10"/>
     </row>
-    <row r="22" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -26820,10 +26857,10 @@
       <c r="BW22" s="10"/>
       <c r="BX22" s="10"/>
       <c r="BY22" s="10"/>
-      <c r="BZ22" s="10"/>
-      <c r="CA22" s="10"/>
-      <c r="CB22" s="10"/>
-      <c r="CC22" s="10"/>
+      <c r="BZ22" s="23"/>
+      <c r="CA22" s="23"/>
+      <c r="CB22" s="23"/>
+      <c r="CC22" s="23"/>
       <c r="CD22" s="23"/>
       <c r="CE22" s="23"/>
       <c r="CF22" s="23"/>
@@ -26832,7 +26869,7 @@
       <c r="CI22" s="23"/>
       <c r="CJ22" s="23"/>
       <c r="CK22" s="23"/>
-      <c r="CL22" s="10"/>
+      <c r="CL22" s="23"/>
       <c r="CM22" s="10"/>
       <c r="CN22" s="10"/>
       <c r="CO22" s="10"/>
@@ -26898,22 +26935,22 @@
       <c r="EW22" s="10"/>
       <c r="EX22" s="10"/>
     </row>
-    <row r="23" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -26990,10 +27027,10 @@
       <c r="BW26" s="4"/>
       <c r="BX26" s="4"/>
       <c r="BY26" s="4"/>
-      <c r="BZ26" s="4"/>
-      <c r="CA26" s="4"/>
-      <c r="CB26" s="4"/>
-      <c r="CC26" s="4"/>
+      <c r="BZ26" s="20"/>
+      <c r="CA26" s="20"/>
+      <c r="CB26" s="20"/>
+      <c r="CC26" s="20"/>
       <c r="CD26" s="20"/>
       <c r="CE26" s="20"/>
       <c r="CF26" s="20"/>
@@ -27002,8 +27039,9 @@
       <c r="CI26" s="20"/>
       <c r="CJ26" s="20"/>
       <c r="CK26" s="20"/>
+      <c r="CL26" s="20"/>
     </row>
-    <row r="27" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -27083,10 +27121,10 @@
       <c r="BW27" s="4"/>
       <c r="BX27" s="4"/>
       <c r="BY27" s="4"/>
-      <c r="BZ27" s="4"/>
-      <c r="CA27" s="4"/>
-      <c r="CB27" s="4"/>
-      <c r="CC27" s="4"/>
+      <c r="BZ27" s="20"/>
+      <c r="CA27" s="20"/>
+      <c r="CB27" s="20"/>
+      <c r="CC27" s="20"/>
       <c r="CD27" s="20"/>
       <c r="CE27" s="20"/>
       <c r="CF27" s="20"/>
@@ -27095,10 +27133,11 @@
       <c r="CI27" s="20"/>
       <c r="CJ27" s="20"/>
       <c r="CK27" s="20"/>
+      <c r="CL27" s="20"/>
     </row>
-    <row r="28" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -27176,10 +27215,10 @@
       <c r="BW28" s="4"/>
       <c r="BX28" s="4"/>
       <c r="BY28" s="4"/>
-      <c r="BZ28" s="4"/>
-      <c r="CA28" s="4"/>
-      <c r="CB28" s="4"/>
-      <c r="CC28" s="4"/>
+      <c r="BZ28" s="20"/>
+      <c r="CA28" s="20"/>
+      <c r="CB28" s="20"/>
+      <c r="CC28" s="20"/>
       <c r="CD28" s="20"/>
       <c r="CE28" s="20"/>
       <c r="CF28" s="20"/>
@@ -27188,8 +27227,9 @@
       <c r="CI28" s="20"/>
       <c r="CJ28" s="20"/>
       <c r="CK28" s="20"/>
+      <c r="CL28" s="20"/>
     </row>
-    <row r="29" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -27269,10 +27309,10 @@
       <c r="BW29" s="4"/>
       <c r="BX29" s="4"/>
       <c r="BY29" s="4"/>
-      <c r="BZ29" s="4"/>
-      <c r="CA29" s="4"/>
-      <c r="CB29" s="4"/>
-      <c r="CC29" s="4"/>
+      <c r="BZ29" s="20"/>
+      <c r="CA29" s="20"/>
+      <c r="CB29" s="20"/>
+      <c r="CC29" s="20"/>
       <c r="CD29" s="20"/>
       <c r="CE29" s="20"/>
       <c r="CF29" s="20"/>
@@ -27281,8 +27321,9 @@
       <c r="CI29" s="20"/>
       <c r="CJ29" s="20"/>
       <c r="CK29" s="20"/>
+      <c r="CL29" s="20"/>
     </row>
-    <row r="30" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -27359,10 +27400,10 @@
       <c r="BW30" s="4"/>
       <c r="BX30" s="4"/>
       <c r="BY30" s="4"/>
-      <c r="BZ30" s="4"/>
-      <c r="CA30" s="4"/>
-      <c r="CB30" s="4"/>
-      <c r="CC30" s="4"/>
+      <c r="BZ30" s="20"/>
+      <c r="CA30" s="20"/>
+      <c r="CB30" s="20"/>
+      <c r="CC30" s="20"/>
       <c r="CD30" s="20"/>
       <c r="CE30" s="20"/>
       <c r="CF30" s="20"/>
@@ -27371,8 +27412,9 @@
       <c r="CI30" s="20"/>
       <c r="CJ30" s="20"/>
       <c r="CK30" s="20"/>
+      <c r="CL30" s="20"/>
     </row>
-    <row r="31" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="32">
         <v>2000</v>
@@ -27488,12 +27530,12 @@
       <c r="BW31" s="33"/>
       <c r="BX31" s="33"/>
       <c r="BY31" s="33"/>
-      <c r="BZ31" s="32">
+      <c r="BZ31" s="31">
         <v>2019</v>
       </c>
-      <c r="CA31" s="33"/>
-      <c r="CB31" s="33"/>
-      <c r="CC31" s="33"/>
+      <c r="CA31" s="35"/>
+      <c r="CB31" s="35"/>
+      <c r="CC31" s="35"/>
       <c r="CD31" s="31">
         <v>2020</v>
       </c>
@@ -27506,8 +27548,11 @@
       <c r="CI31" s="31"/>
       <c r="CJ31" s="31"/>
       <c r="CK31" s="31"/>
+      <c r="CL31" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="32" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
@@ -27739,16 +27784,16 @@
       <c r="BY32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BZ32" s="7" t="s">
+      <c r="BZ32" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="CA32" s="7" t="s">
+      <c r="CA32" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CB32" s="7" t="s">
+      <c r="CB32" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CC32" s="7" t="s">
+      <c r="CC32" s="21" t="s">
         <v>8</v>
       </c>
       <c r="CD32" s="21" t="s">
@@ -27775,11 +27820,14 @@
       <c r="CK32" s="21" t="s">
         <v>8</v>
       </c>
+      <c r="CL32" s="21" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="33" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -28011,43 +28059,45 @@
       <c r="BY34" s="9">
         <v>85482.230572276676</v>
       </c>
-      <c r="BZ34" s="9">
+      <c r="BZ34" s="22">
         <v>95283.228818990669</v>
       </c>
-      <c r="CA34" s="9">
+      <c r="CA34" s="22">
         <v>110360.66419991438</v>
       </c>
-      <c r="CB34" s="9">
+      <c r="CB34" s="22">
         <v>81627.710153359294</v>
       </c>
-      <c r="CC34" s="9">
+      <c r="CC34" s="22">
         <v>91157.740687400743</v>
       </c>
       <c r="CD34" s="22">
-        <v>84641.216884526046</v>
+        <v>84256.879947774301</v>
       </c>
       <c r="CE34" s="22">
-        <v>39528.476896575063</v>
+        <v>39790.450652104919</v>
       </c>
       <c r="CF34" s="22">
-        <v>61355.333472227314</v>
+        <v>60842.592707141113</v>
       </c>
       <c r="CG34" s="22">
-        <v>79059.074131715781</v>
+        <v>78892.263529082004</v>
       </c>
       <c r="CH34" s="22">
-        <v>72877.648124793996</v>
+        <v>72693.252434721246</v>
       </c>
       <c r="CI34" s="22">
-        <v>50610.881924027606</v>
+        <v>51224.972026472547</v>
       </c>
       <c r="CJ34" s="22">
-        <v>70367.56259319128</v>
+        <v>69968.767388608554</v>
       </c>
       <c r="CK34" s="22">
-        <v>91585.599910053308</v>
-      </c>
-      <c r="CL34" s="10"/>
+        <v>91982.776736998538</v>
+      </c>
+      <c r="CL34" s="22">
+        <v>85397.636658937525</v>
+      </c>
       <c r="CM34" s="10"/>
       <c r="CN34" s="10"/>
       <c r="CO34" s="10"/>
@@ -28113,7 +28163,7 @@
       <c r="EW34" s="10"/>
       <c r="EX34" s="10"/>
     </row>
-    <row r="35" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -28345,43 +28395,45 @@
       <c r="BY35" s="9">
         <v>7751.1245227487507</v>
       </c>
-      <c r="BZ35" s="9">
+      <c r="BZ35" s="22">
         <v>11080.988926645654</v>
       </c>
-      <c r="CA35" s="9">
+      <c r="CA35" s="22">
         <v>13603.168079841234</v>
       </c>
-      <c r="CB35" s="9">
+      <c r="CB35" s="22">
         <v>7953.5834008464644</v>
       </c>
-      <c r="CC35" s="9">
+      <c r="CC35" s="22">
         <v>7447.4831219355528</v>
       </c>
       <c r="CD35" s="22">
-        <v>10125.900920286143</v>
+        <v>10058.392911234647</v>
       </c>
       <c r="CE35" s="22">
-        <v>4475.711500730944</v>
+        <v>5348.3916807113001</v>
       </c>
       <c r="CF35" s="22">
-        <v>5060.4386862054198</v>
+        <v>4819.1656294255781</v>
       </c>
       <c r="CG35" s="22">
-        <v>5321.4146590860555</v>
+        <v>5748.9168303779634</v>
       </c>
       <c r="CH35" s="22">
-        <v>6527.2715234717261</v>
+        <v>6485.3406307277664</v>
       </c>
       <c r="CI35" s="22">
-        <v>4702.4558944315795</v>
+        <v>5622.8897902546669</v>
       </c>
       <c r="CJ35" s="22">
-        <v>5925.5061766800709</v>
+        <v>5641.7249530700356</v>
       </c>
       <c r="CK35" s="22">
-        <v>7079.6080586235639</v>
-      </c>
-      <c r="CL35" s="10"/>
+        <v>7076.4642432754972</v>
+      </c>
+      <c r="CL35" s="22">
+        <v>8733.1258370255109</v>
+      </c>
       <c r="CM35" s="10"/>
       <c r="CN35" s="10"/>
       <c r="CO35" s="10"/>
@@ -28447,7 +28499,7 @@
       <c r="EW35" s="10"/>
       <c r="EX35" s="10"/>
     </row>
-    <row r="36" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -28679,20 +28731,20 @@
       <c r="BY36" s="9">
         <v>22491.493041723181</v>
       </c>
-      <c r="BZ36" s="9">
+      <c r="BZ36" s="22">
         <v>32316.061942152446</v>
       </c>
-      <c r="CA36" s="9">
+      <c r="CA36" s="22">
         <v>34489.817488666798</v>
       </c>
-      <c r="CB36" s="9">
+      <c r="CB36" s="22">
         <v>27426.389407155017</v>
       </c>
-      <c r="CC36" s="9">
+      <c r="CC36" s="22">
         <v>24640.160270956665</v>
       </c>
       <c r="CD36" s="22">
-        <v>26370.897183930148</v>
+        <v>26370.897183930152</v>
       </c>
       <c r="CE36" s="22">
         <v>584.02753834519581</v>
@@ -28701,7 +28753,7 @@
         <v>3920.8162602718076</v>
       </c>
       <c r="CG36" s="22">
-        <v>5796.9698954937958</v>
+        <v>5724.8352232651596</v>
       </c>
       <c r="CH36" s="22">
         <v>6945.0277659908534</v>
@@ -28713,9 +28765,11 @@
         <v>7715.1993628660421</v>
       </c>
       <c r="CK36" s="22">
-        <v>9479.4804287457991</v>
-      </c>
-      <c r="CL36" s="10"/>
+        <v>9877.5561037619118</v>
+      </c>
+      <c r="CL36" s="22">
+        <v>18325.805539719899</v>
+      </c>
       <c r="CM36" s="10"/>
       <c r="CN36" s="10"/>
       <c r="CO36" s="10"/>
@@ -28781,7 +28835,7 @@
       <c r="EW36" s="10"/>
       <c r="EX36" s="10"/>
     </row>
-    <row r="37" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -29013,43 +29067,45 @@
       <c r="BY37" s="9">
         <v>41035.959222041965</v>
       </c>
-      <c r="BZ37" s="9">
+      <c r="BZ37" s="22">
         <v>44201.397875534116</v>
       </c>
-      <c r="CA37" s="9">
+      <c r="CA37" s="22">
         <v>45915.370583402269</v>
       </c>
-      <c r="CB37" s="9">
+      <c r="CB37" s="22">
         <v>45854.600653447371</v>
       </c>
-      <c r="CC37" s="9">
+      <c r="CC37" s="22">
         <v>41314.368976378377</v>
       </c>
       <c r="CD37" s="22">
-        <v>39916.183056103386</v>
+        <v>40792.614939224062</v>
       </c>
       <c r="CE37" s="22">
-        <v>38113.105140485546</v>
+        <v>38042.91274460945</v>
       </c>
       <c r="CF37" s="22">
-        <v>41470.203429608344</v>
+        <v>41651.696170266572</v>
       </c>
       <c r="CG37" s="22">
-        <v>39118.741296072018</v>
+        <v>40204.181905661972</v>
       </c>
       <c r="CH37" s="22">
-        <v>40983.265829549986</v>
+        <v>40984.048343767317</v>
       </c>
       <c r="CI37" s="22">
-        <v>41493.457207328873</v>
+        <v>40991.50518060902</v>
       </c>
       <c r="CJ37" s="22">
-        <v>46573.887631112237</v>
+        <v>46702.18850791359</v>
       </c>
       <c r="CK37" s="22">
-        <v>46299.820798728877</v>
-      </c>
-      <c r="CL37" s="10"/>
+        <v>47457.6089120092</v>
+      </c>
+      <c r="CL37" s="22">
+        <v>50766.597122974475</v>
+      </c>
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
       <c r="CO37" s="10"/>
@@ -29115,7 +29171,7 @@
       <c r="EW37" s="10"/>
       <c r="EX37" s="10"/>
     </row>
-    <row r="38" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -29347,20 +29403,20 @@
       <c r="BY38" s="9">
         <v>7861.5157971868412</v>
       </c>
-      <c r="BZ38" s="9">
+      <c r="BZ38" s="22">
         <v>6787.5875525957636</v>
       </c>
-      <c r="CA38" s="9">
+      <c r="CA38" s="22">
         <v>6940.01631039727</v>
       </c>
-      <c r="CB38" s="9">
+      <c r="CB38" s="22">
         <v>5883.0940855589706</v>
       </c>
-      <c r="CC38" s="9">
+      <c r="CC38" s="22">
         <v>8063.069695688846</v>
       </c>
       <c r="CD38" s="22">
-        <v>6982.0236667007666</v>
+        <v>7194.2130287338623</v>
       </c>
       <c r="CE38" s="22">
         <v>5086.1611878479962</v>
@@ -29369,10 +29425,10 @@
         <v>7154.5853177633508</v>
       </c>
       <c r="CG38" s="22">
-        <v>8688.059589050039</v>
+        <v>8665.3682349485935</v>
       </c>
       <c r="CH38" s="22">
-        <v>7783.9915120840833</v>
+        <v>7971.4624866455233</v>
       </c>
       <c r="CI38" s="22">
         <v>8848.2050604570431</v>
@@ -29381,9 +29437,11 @@
         <v>6701.7194389334336</v>
       </c>
       <c r="CK38" s="22">
-        <v>8700.0741562434287</v>
-      </c>
-      <c r="CL38" s="10"/>
+        <v>8856.9889436013382</v>
+      </c>
+      <c r="CL38" s="22">
+        <v>7656.0141706303111</v>
+      </c>
       <c r="CM38" s="10"/>
       <c r="CN38" s="10"/>
       <c r="CO38" s="10"/>
@@ -29449,7 +29507,7 @@
       <c r="EW38" s="10"/>
       <c r="EX38" s="10"/>
     </row>
-    <row r="39" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -29526,10 +29584,10 @@
       <c r="BW39" s="10"/>
       <c r="BX39" s="10"/>
       <c r="BY39" s="10"/>
-      <c r="BZ39" s="10"/>
-      <c r="CA39" s="10"/>
-      <c r="CB39" s="10"/>
-      <c r="CC39" s="10"/>
+      <c r="BZ39" s="23"/>
+      <c r="CA39" s="23"/>
+      <c r="CB39" s="23"/>
+      <c r="CC39" s="23"/>
       <c r="CD39" s="23"/>
       <c r="CE39" s="23"/>
       <c r="CF39" s="23"/>
@@ -29538,7 +29596,7 @@
       <c r="CI39" s="23"/>
       <c r="CJ39" s="23"/>
       <c r="CK39" s="23"/>
-      <c r="CL39" s="10"/>
+      <c r="CL39" s="23"/>
       <c r="CM39" s="10"/>
       <c r="CN39" s="10"/>
       <c r="CO39" s="10"/>
@@ -29604,7 +29662,7 @@
       <c r="EW39" s="10"/>
       <c r="EX39" s="10"/>
     </row>
-    <row r="40" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>10</v>
       </c>
@@ -29836,43 +29894,45 @@
       <c r="BY40" s="12">
         <v>164622.32315597741</v>
       </c>
-      <c r="BZ40" s="12">
+      <c r="BZ40" s="24">
         <v>189669.26511591865</v>
       </c>
-      <c r="CA40" s="12">
+      <c r="CA40" s="24">
         <v>211309.03666222197</v>
       </c>
-      <c r="CB40" s="12">
+      <c r="CB40" s="24">
         <v>168745.3777003671</v>
       </c>
-      <c r="CC40" s="12">
+      <c r="CC40" s="24">
         <v>172622.8227523602</v>
       </c>
       <c r="CD40" s="24">
-        <v>168036.22171154647</v>
+        <v>168672.99801089702</v>
       </c>
       <c r="CE40" s="24">
-        <v>87787.482263984741</v>
+        <v>88851.943803618866</v>
       </c>
       <c r="CF40" s="24">
-        <v>118961.37716607624</v>
+        <v>118388.85608486843</v>
       </c>
       <c r="CG40" s="24">
-        <v>137984.2595714177</v>
+        <v>139235.56572333569</v>
       </c>
       <c r="CH40" s="24">
-        <v>135117.20475589065</v>
+        <v>135079.13166185271</v>
       </c>
       <c r="CI40" s="24">
-        <v>109449.5941258965</v>
+        <v>110482.16609744467</v>
       </c>
       <c r="CJ40" s="24">
-        <v>137283.87520278306</v>
+        <v>136729.59965139168</v>
       </c>
       <c r="CK40" s="24">
-        <v>163144.58335239498</v>
-      </c>
-      <c r="CL40" s="10"/>
+        <v>165251.39493964647</v>
+      </c>
+      <c r="CL40" s="24">
+        <v>170879.17932928773</v>
+      </c>
       <c r="CM40" s="10"/>
       <c r="CN40" s="10"/>
       <c r="CO40" s="10"/>
@@ -29938,7 +29998,7 @@
       <c r="EW40" s="10"/>
       <c r="EX40" s="10"/>
     </row>
-    <row r="41" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -30016,10 +30076,10 @@
       <c r="BW41" s="13"/>
       <c r="BX41" s="13"/>
       <c r="BY41" s="13"/>
-      <c r="BZ41" s="13"/>
-      <c r="CA41" s="13"/>
-      <c r="CB41" s="13"/>
-      <c r="CC41" s="13"/>
+      <c r="BZ41" s="26"/>
+      <c r="CA41" s="26"/>
+      <c r="CB41" s="26"/>
+      <c r="CC41" s="26"/>
       <c r="CD41" s="26"/>
       <c r="CE41" s="26"/>
       <c r="CF41" s="26"/>
@@ -30028,13 +30088,14 @@
       <c r="CI41" s="26"/>
       <c r="CJ41" s="26"/>
       <c r="CK41" s="26"/>
+      <c r="CL41" s="26"/>
     </row>
-    <row r="42" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -30111,10 +30172,10 @@
       <c r="BW43" s="10"/>
       <c r="BX43" s="10"/>
       <c r="BY43" s="10"/>
-      <c r="BZ43" s="10"/>
-      <c r="CA43" s="10"/>
-      <c r="CB43" s="10"/>
-      <c r="CC43" s="10"/>
+      <c r="BZ43" s="23"/>
+      <c r="CA43" s="23"/>
+      <c r="CB43" s="23"/>
+      <c r="CC43" s="23"/>
       <c r="CD43" s="23"/>
       <c r="CE43" s="23"/>
       <c r="CF43" s="23"/>
@@ -30123,7 +30184,7 @@
       <c r="CI43" s="23"/>
       <c r="CJ43" s="23"/>
       <c r="CK43" s="23"/>
-      <c r="CL43" s="10"/>
+      <c r="CL43" s="23"/>
       <c r="CM43" s="10"/>
       <c r="CN43" s="10"/>
       <c r="CO43" s="10"/>
@@ -30189,7 +30250,7 @@
       <c r="EW43" s="10"/>
       <c r="EX43" s="10"/>
     </row>
-    <row r="44" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -30266,10 +30327,10 @@
       <c r="BW44" s="10"/>
       <c r="BX44" s="10"/>
       <c r="BY44" s="10"/>
-      <c r="BZ44" s="10"/>
-      <c r="CA44" s="10"/>
-      <c r="CB44" s="10"/>
-      <c r="CC44" s="10"/>
+      <c r="BZ44" s="23"/>
+      <c r="CA44" s="23"/>
+      <c r="CB44" s="23"/>
+      <c r="CC44" s="23"/>
       <c r="CD44" s="23"/>
       <c r="CE44" s="23"/>
       <c r="CF44" s="23"/>
@@ -30278,7 +30339,7 @@
       <c r="CI44" s="23"/>
       <c r="CJ44" s="23"/>
       <c r="CK44" s="23"/>
-      <c r="CL44" s="10"/>
+      <c r="CL44" s="23"/>
       <c r="CM44" s="10"/>
       <c r="CN44" s="10"/>
       <c r="CO44" s="10"/>
@@ -30344,40 +30405,55 @@
       <c r="EW44" s="10"/>
       <c r="EX44" s="10"/>
     </row>
-    <row r="45" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="CI50" s="36"/>
+      <c r="CJ50" s="36"/>
+      <c r="CK50" s="36"/>
+      <c r="CL50" s="36"/>
+      <c r="CM50" s="37"/>
     </row>
-    <row r="51" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CI51" s="36"/>
+      <c r="CJ51" s="36"/>
+      <c r="CK51" s="36"/>
+      <c r="CL51" s="36"/>
+      <c r="CM51" s="37"/>
     </row>
-    <row r="52" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
+      <c r="CI52" s="36"/>
+      <c r="CJ52" s="36"/>
+      <c r="CK52" s="36"/>
+      <c r="CL52" s="36"/>
+      <c r="CM52" s="37"/>
     </row>
-    <row r="53" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="32" t="s">
         <v>32</v>
@@ -30493,24 +30569,28 @@
       <c r="BW53" s="32"/>
       <c r="BX53" s="32"/>
       <c r="BY53" s="32"/>
-      <c r="BZ53" s="32" t="s">
+      <c r="BZ53" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="32"/>
-      <c r="CB53" s="32"/>
-      <c r="CC53" s="32"/>
+      <c r="CA53" s="31"/>
+      <c r="CB53" s="31"/>
+      <c r="CC53" s="31"/>
       <c r="CD53" s="31" t="s">
         <v>49</v>
       </c>
       <c r="CE53" s="31"/>
       <c r="CF53" s="31"/>
       <c r="CG53" s="31"/>
-      <c r="CH53" s="27"/>
-      <c r="CI53" s="27"/>
-      <c r="CJ53" s="27"/>
-      <c r="CK53" s="27"/>
+      <c r="CH53" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="CI53" s="38"/>
+      <c r="CJ53" s="38"/>
+      <c r="CK53" s="38"/>
+      <c r="CL53" s="39"/>
+      <c r="CM53" s="37"/>
     </row>
-    <row r="54" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>16</v>
       </c>
@@ -30742,39 +30822,48 @@
       <c r="BY54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BZ54" s="6" t="s">
+      <c r="BZ54" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="CA54" s="6" t="s">
+      <c r="CA54" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CB54" s="6" t="s">
+      <c r="CB54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="CC54" s="6" t="s">
+      <c r="CC54" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CD54" s="30" t="s">
+      <c r="CD54" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="CE54" s="30" t="s">
+      <c r="CE54" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CF54" s="30" t="s">
+      <c r="CF54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="CG54" s="30" t="s">
+      <c r="CG54" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CH54" s="28"/>
-      <c r="CI54" s="28"/>
-      <c r="CJ54" s="28"/>
-      <c r="CK54" s="28"/>
+      <c r="CH54" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI54" s="38"/>
+      <c r="CJ54" s="38"/>
+      <c r="CK54" s="38"/>
+      <c r="CL54" s="38"/>
+      <c r="CM54" s="37"/>
     </row>
-    <row r="55" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
+      <c r="CI55" s="36"/>
+      <c r="CJ55" s="36"/>
+      <c r="CK55" s="36"/>
+      <c r="CL55" s="36"/>
+      <c r="CM55" s="37"/>
     </row>
-    <row r="56" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>15</v>
       </c>
@@ -31006,36 +31095,38 @@
       <c r="BY56" s="16">
         <v>9.2594939005436743</v>
       </c>
-      <c r="BZ56" s="16">
-        <v>-7.9985856011644643</v>
-      </c>
-      <c r="CA56" s="16">
-        <v>-58.326856120028879</v>
-      </c>
-      <c r="CB56" s="16">
-        <v>-19.989828762119586</v>
-      </c>
-      <c r="CC56" s="16">
-        <v>-9.5842096663022858</v>
-      </c>
-      <c r="CD56" s="29">
-        <v>-6.6225506904447116</v>
-      </c>
-      <c r="CE56" s="29">
-        <v>36.643012690826339</v>
-      </c>
-      <c r="CF56" s="29">
-        <v>17.360827048893569</v>
-      </c>
-      <c r="CG56" s="29">
-        <v>16.618845706490063</v>
-      </c>
-      <c r="CH56" s="23"/>
-      <c r="CI56" s="23"/>
-      <c r="CJ56" s="23"/>
-      <c r="CK56" s="23"/>
-      <c r="CL56" s="10"/>
-      <c r="CM56" s="10"/>
+      <c r="BZ56" s="27">
+        <v>-8.4163435574934624</v>
+      </c>
+      <c r="CA56" s="27">
+        <v>-58.050668650536011</v>
+      </c>
+      <c r="CB56" s="27">
+        <v>-20.658466256099771</v>
+      </c>
+      <c r="CC56" s="27">
+        <v>-9.7749823592387912</v>
+      </c>
+      <c r="CD56" s="27">
+        <v>-6.4339525575588254</v>
+      </c>
+      <c r="CE56" s="27">
+        <v>37.390427892083721</v>
+      </c>
+      <c r="CF56" s="27">
+        <v>17.679139699711584</v>
+      </c>
+      <c r="CG56" s="27">
+        <v>17.350752335380861</v>
+      </c>
+      <c r="CH56" s="27">
+        <v>18.498750864428288</v>
+      </c>
+      <c r="CI56" s="40"/>
+      <c r="CJ56" s="40"/>
+      <c r="CK56" s="40"/>
+      <c r="CL56" s="40"/>
+      <c r="CM56" s="41"/>
       <c r="CN56" s="10"/>
       <c r="CO56" s="10"/>
       <c r="CP56" s="10"/>
@@ -31096,7 +31187,7 @@
       <c r="ES56" s="10"/>
       <c r="ET56" s="10"/>
     </row>
-    <row r="57" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -31328,36 +31419,38 @@
       <c r="BY57" s="16">
         <v>-2.2849334577148568</v>
       </c>
-      <c r="BZ57" s="16">
-        <v>-7.778072206848563</v>
-      </c>
-      <c r="CA57" s="16">
-        <v>-76.045896975790427</v>
-      </c>
-      <c r="CB57" s="16">
-        <v>-17.676302557362234</v>
-      </c>
-      <c r="CC57" s="16">
-        <v>-16.898592868190875</v>
-      </c>
-      <c r="CD57" s="29">
-        <v>-26.533634746541551</v>
-      </c>
-      <c r="CE57" s="29">
-        <v>21.740099735830171</v>
-      </c>
-      <c r="CF57" s="29">
-        <v>4.8817347974265033</v>
-      </c>
-      <c r="CG57" s="29">
-        <v>9.1597166706368398</v>
-      </c>
-      <c r="CH57" s="23"/>
-      <c r="CI57" s="23"/>
-      <c r="CJ57" s="23"/>
-      <c r="CK57" s="23"/>
-      <c r="CL57" s="10"/>
-      <c r="CM57" s="10"/>
+      <c r="BZ57" s="27">
+        <v>-8.3929033004190927</v>
+      </c>
+      <c r="CA57" s="27">
+        <v>-71.375294115212569</v>
+      </c>
+      <c r="CB57" s="27">
+        <v>-21.601355573328703</v>
+      </c>
+      <c r="CC57" s="27">
+        <v>-10.222542557846765</v>
+      </c>
+      <c r="CD57" s="27">
+        <v>-26.515669231963216</v>
+      </c>
+      <c r="CE57" s="27">
+        <v>21.816852409388247</v>
+      </c>
+      <c r="CF57" s="27">
+        <v>4.8582561597319938</v>
+      </c>
+      <c r="CG57" s="27">
+        <v>0.98478437722562262</v>
+      </c>
+      <c r="CH57" s="27">
+        <v>15.514151284118483</v>
+      </c>
+      <c r="CI57" s="40"/>
+      <c r="CJ57" s="40"/>
+      <c r="CK57" s="40"/>
+      <c r="CL57" s="40"/>
+      <c r="CM57" s="41"/>
       <c r="CN57" s="10"/>
       <c r="CO57" s="10"/>
       <c r="CP57" s="10"/>
@@ -31418,7 +31511,7 @@
       <c r="ES57" s="10"/>
       <c r="ET57" s="10"/>
     </row>
-    <row r="58" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -31650,36 +31743,38 @@
       <c r="BY58" s="16">
         <v>9.407299183069</v>
       </c>
-      <c r="BZ58" s="16">
+      <c r="BZ58" s="27">
         <v>-23.742003177444118</v>
       </c>
-      <c r="CA58" s="16">
+      <c r="CA58" s="27">
         <v>-98.201576181219892</v>
       </c>
-      <c r="CB58" s="16">
+      <c r="CB58" s="27">
         <v>-85.392209045254361</v>
       </c>
-      <c r="CC58" s="16">
-        <v>-77.465265742736619</v>
-      </c>
-      <c r="CD58" s="29">
+      <c r="CC58" s="27">
+        <v>-77.74567700908986</v>
+      </c>
+      <c r="CD58" s="27">
         <v>-74.151259607223835</v>
       </c>
-      <c r="CE58" s="29">
+      <c r="CE58" s="27">
         <v>545.89521677449557</v>
       </c>
-      <c r="CF58" s="29">
+      <c r="CF58" s="27">
         <v>98.546313838031665</v>
       </c>
-      <c r="CG58" s="29">
-        <v>76.808951502277921</v>
-      </c>
-      <c r="CH58" s="23"/>
-      <c r="CI58" s="23"/>
-      <c r="CJ58" s="23"/>
-      <c r="CK58" s="23"/>
-      <c r="CL58" s="10"/>
-      <c r="CM58" s="10"/>
+      <c r="CG58" s="27">
+        <v>86.428062186697588</v>
+      </c>
+      <c r="CH58" s="27">
+        <v>176.19213781052696</v>
+      </c>
+      <c r="CI58" s="40"/>
+      <c r="CJ58" s="40"/>
+      <c r="CK58" s="40"/>
+      <c r="CL58" s="40"/>
+      <c r="CM58" s="41"/>
       <c r="CN58" s="10"/>
       <c r="CO58" s="10"/>
       <c r="CP58" s="10"/>
@@ -31740,7 +31835,7 @@
       <c r="ES58" s="10"/>
       <c r="ET58" s="10"/>
     </row>
-    <row r="59" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -31972,36 +32067,38 @@
       <c r="BY59" s="16">
         <v>-0.85344949200812437</v>
       </c>
-      <c r="BZ59" s="16">
-        <v>-12.103188733005936</v>
-      </c>
-      <c r="CA59" s="16">
-        <v>-17.337079695294861</v>
-      </c>
-      <c r="CB59" s="16">
-        <v>1.2185811078297917</v>
-      </c>
-      <c r="CC59" s="16">
-        <v>0.76360046719750585</v>
-      </c>
-      <c r="CD59" s="29">
-        <v>8.8953111516868688</v>
-      </c>
-      <c r="CE59" s="29">
-        <v>17.404614731460313</v>
-      </c>
-      <c r="CF59" s="29">
-        <v>4.8047714815958358</v>
-      </c>
-      <c r="CG59" s="29">
-        <v>9.9690340185077559</v>
-      </c>
-      <c r="CH59" s="23"/>
-      <c r="CI59" s="23"/>
-      <c r="CJ59" s="23"/>
-      <c r="CK59" s="23"/>
-      <c r="CL59" s="10"/>
-      <c r="CM59" s="10"/>
+      <c r="BZ59" s="27">
+        <v>-10.173255509912963</v>
+      </c>
+      <c r="CA59" s="27">
+        <v>-17.489318889790155</v>
+      </c>
+      <c r="CB59" s="27">
+        <v>1.6615603114881026</v>
+      </c>
+      <c r="CC59" s="27">
+        <v>3.5595213044197607</v>
+      </c>
+      <c r="CD59" s="27">
+        <v>7.6528383036334162</v>
+      </c>
+      <c r="CE59" s="27">
+        <v>16.198356007933469</v>
+      </c>
+      <c r="CF59" s="27">
+        <v>4.6355522652081476</v>
+      </c>
+      <c r="CG59" s="27">
+        <v>9.6723334493174633</v>
+      </c>
+      <c r="CH59" s="27">
+        <v>19.492899033442995</v>
+      </c>
+      <c r="CI59" s="40"/>
+      <c r="CJ59" s="40"/>
+      <c r="CK59" s="40"/>
+      <c r="CL59" s="40"/>
+      <c r="CM59" s="41"/>
       <c r="CN59" s="10"/>
       <c r="CO59" s="10"/>
       <c r="CP59" s="10"/>
@@ -32062,7 +32159,7 @@
       <c r="ES59" s="10"/>
       <c r="ET59" s="10"/>
     </row>
-    <row r="60" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -32294,36 +32391,38 @@
       <c r="BY60" s="16">
         <v>3.1918625274509225</v>
       </c>
-      <c r="BZ60" s="16">
-        <v>3.5862873774090644</v>
-      </c>
-      <c r="CA60" s="16">
-        <v>-25.710626832852242</v>
-      </c>
-      <c r="CB60" s="16">
+      <c r="BZ60" s="27">
+        <v>6.7343586649381422</v>
+      </c>
+      <c r="CA60" s="27">
+        <v>-25.710626832852284</v>
+      </c>
+      <c r="CB60" s="27">
         <v>21.612627874258635</v>
       </c>
-      <c r="CC60" s="16">
-        <v>7.7512649269962708</v>
-      </c>
-      <c r="CD60" s="29">
-        <v>11.486180564069542</v>
-      </c>
-      <c r="CE60" s="29">
-        <v>72.95221359095089</v>
-      </c>
-      <c r="CF60" s="29">
+      <c r="CC60" s="27">
+        <v>7.4698416606988332</v>
+      </c>
+      <c r="CD60" s="27">
+        <v>10.80381488298039</v>
+      </c>
+      <c r="CE60" s="27">
+        <v>72.952213590950919</v>
+      </c>
+      <c r="CF60" s="27">
         <v>-6.329729239590506</v>
       </c>
-      <c r="CG60" s="29">
-        <v>0.14650268275349276</v>
-      </c>
-      <c r="CH60" s="23"/>
-      <c r="CI60" s="23"/>
-      <c r="CJ60" s="23"/>
-      <c r="CK60" s="23"/>
-      <c r="CL60" s="10"/>
-      <c r="CM60" s="10"/>
+      <c r="CG60" s="27">
+        <v>2.2113394775298048</v>
+      </c>
+      <c r="CH60" s="27">
+        <v>-3.8611773229846165</v>
+      </c>
+      <c r="CI60" s="40"/>
+      <c r="CJ60" s="40"/>
+      <c r="CK60" s="40"/>
+      <c r="CL60" s="40"/>
+      <c r="CM60" s="41"/>
       <c r="CN60" s="10"/>
       <c r="CO60" s="10"/>
       <c r="CP60" s="10"/>
@@ -32384,7 +32483,7 @@
       <c r="ES60" s="10"/>
       <c r="ET60" s="10"/>
     </row>
-    <row r="61" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -32461,20 +32560,20 @@
       <c r="BW61" s="10"/>
       <c r="BX61" s="10"/>
       <c r="BY61" s="10"/>
-      <c r="BZ61" s="10"/>
-      <c r="CA61" s="10"/>
-      <c r="CB61" s="10"/>
-      <c r="CC61" s="10"/>
+      <c r="BZ61" s="23"/>
+      <c r="CA61" s="23"/>
+      <c r="CB61" s="23"/>
+      <c r="CC61" s="23"/>
       <c r="CD61" s="23"/>
       <c r="CE61" s="23"/>
       <c r="CF61" s="23"/>
       <c r="CG61" s="23"/>
       <c r="CH61" s="23"/>
-      <c r="CI61" s="23"/>
-      <c r="CJ61" s="23"/>
-      <c r="CK61" s="23"/>
-      <c r="CL61" s="10"/>
-      <c r="CM61" s="10"/>
+      <c r="CI61" s="40"/>
+      <c r="CJ61" s="40"/>
+      <c r="CK61" s="40"/>
+      <c r="CL61" s="40"/>
+      <c r="CM61" s="41"/>
       <c r="CN61" s="10"/>
       <c r="CO61" s="10"/>
       <c r="CP61" s="10"/>
@@ -32535,7 +32634,7 @@
       <c r="ES61" s="10"/>
       <c r="ET61" s="10"/>
     </row>
-    <row r="62" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>10</v>
       </c>
@@ -32767,36 +32866,38 @@
       <c r="BY62" s="16">
         <v>6.017865256688637</v>
       </c>
-      <c r="BZ62" s="16">
-        <v>-11.084690618709644</v>
-      </c>
-      <c r="CA62" s="16">
-        <v>-54.932666584904865</v>
-      </c>
-      <c r="CB62" s="16">
-        <v>-23.151745175613399</v>
-      </c>
-      <c r="CC62" s="16">
-        <v>-16.598609954440391</v>
-      </c>
-      <c r="CD62" s="29">
-        <v>-13.091153927792604</v>
-      </c>
-      <c r="CE62" s="29">
-        <v>33.111753686057398</v>
-      </c>
-      <c r="CF62" s="29">
-        <v>13.902140977059219</v>
-      </c>
-      <c r="CG62" s="29">
-        <v>15.875573929584291</v>
-      </c>
-      <c r="CH62" s="23"/>
-      <c r="CI62" s="23"/>
-      <c r="CJ62" s="23"/>
-      <c r="CK62" s="23"/>
-      <c r="CL62" s="10"/>
-      <c r="CM62" s="10"/>
+      <c r="BZ62" s="27">
+        <v>-10.773653122834517</v>
+      </c>
+      <c r="CA62" s="27">
+        <v>-54.4995081765762</v>
+      </c>
+      <c r="CB62" s="27">
+        <v>-23.576971914105641</v>
+      </c>
+      <c r="CC62" s="27">
+        <v>-15.840512907809384</v>
+      </c>
+      <c r="CD62" s="27">
+        <v>-13.178523373083181</v>
+      </c>
+      <c r="CE62" s="27">
+        <v>32.934643676807241</v>
+      </c>
+      <c r="CF62" s="27">
+        <v>14.017339059249181</v>
+      </c>
+      <c r="CG62" s="27">
+        <v>16.244429953222465</v>
+      </c>
+      <c r="CH62" s="27">
+        <v>23.940490186515959</v>
+      </c>
+      <c r="CI62" s="40"/>
+      <c r="CJ62" s="40"/>
+      <c r="CK62" s="40"/>
+      <c r="CL62" s="40"/>
+      <c r="CM62" s="41"/>
       <c r="CN62" s="10"/>
       <c r="CO62" s="10"/>
       <c r="CP62" s="10"/>
@@ -32857,7 +32958,7 @@
       <c r="ES62" s="10"/>
       <c r="ET62" s="10"/>
     </row>
-    <row r="63" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -32935,25 +33036,32 @@
       <c r="BW63" s="13"/>
       <c r="BX63" s="13"/>
       <c r="BY63" s="13"/>
-      <c r="BZ63" s="13"/>
-      <c r="CA63" s="13"/>
-      <c r="CB63" s="13"/>
-      <c r="CC63" s="13"/>
+      <c r="BZ63" s="26"/>
+      <c r="CA63" s="26"/>
+      <c r="CB63" s="26"/>
+      <c r="CC63" s="26"/>
       <c r="CD63" s="26"/>
       <c r="CE63" s="26"/>
       <c r="CF63" s="26"/>
       <c r="CG63" s="26"/>
       <c r="CH63" s="26"/>
-      <c r="CI63" s="26"/>
-      <c r="CJ63" s="26"/>
-      <c r="CK63" s="26"/>
+      <c r="CI63" s="42"/>
+      <c r="CJ63" s="42"/>
+      <c r="CK63" s="42"/>
+      <c r="CL63" s="42"/>
+      <c r="CM63" s="37"/>
     </row>
-    <row r="64" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="CI64" s="36"/>
+      <c r="CJ64" s="36"/>
+      <c r="CK64" s="36"/>
+      <c r="CL64" s="36"/>
+      <c r="CM64" s="37"/>
     </row>
-    <row r="65" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -33030,20 +33138,20 @@
       <c r="BW65" s="10"/>
       <c r="BX65" s="10"/>
       <c r="BY65" s="10"/>
-      <c r="BZ65" s="10"/>
-      <c r="CA65" s="10"/>
-      <c r="CB65" s="10"/>
-      <c r="CC65" s="10"/>
+      <c r="BZ65" s="23"/>
+      <c r="CA65" s="23"/>
+      <c r="CB65" s="23"/>
+      <c r="CC65" s="23"/>
       <c r="CD65" s="23"/>
       <c r="CE65" s="23"/>
       <c r="CF65" s="23"/>
       <c r="CG65" s="23"/>
       <c r="CH65" s="23"/>
-      <c r="CI65" s="23"/>
-      <c r="CJ65" s="23"/>
-      <c r="CK65" s="23"/>
-      <c r="CL65" s="10"/>
-      <c r="CM65" s="10"/>
+      <c r="CI65" s="40"/>
+      <c r="CJ65" s="40"/>
+      <c r="CK65" s="40"/>
+      <c r="CL65" s="40"/>
+      <c r="CM65" s="41"/>
       <c r="CN65" s="10"/>
       <c r="CO65" s="10"/>
       <c r="CP65" s="10"/>
@@ -33104,7 +33212,7 @@
       <c r="ES65" s="10"/>
       <c r="ET65" s="10"/>
     </row>
-    <row r="66" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -33181,20 +33289,20 @@
       <c r="BW66" s="10"/>
       <c r="BX66" s="10"/>
       <c r="BY66" s="10"/>
-      <c r="BZ66" s="10"/>
-      <c r="CA66" s="10"/>
-      <c r="CB66" s="10"/>
-      <c r="CC66" s="10"/>
+      <c r="BZ66" s="23"/>
+      <c r="CA66" s="23"/>
+      <c r="CB66" s="23"/>
+      <c r="CC66" s="23"/>
       <c r="CD66" s="23"/>
       <c r="CE66" s="23"/>
       <c r="CF66" s="23"/>
       <c r="CG66" s="23"/>
       <c r="CH66" s="23"/>
-      <c r="CI66" s="23"/>
-      <c r="CJ66" s="23"/>
-      <c r="CK66" s="23"/>
-      <c r="CL66" s="10"/>
-      <c r="CM66" s="10"/>
+      <c r="CI66" s="40"/>
+      <c r="CJ66" s="40"/>
+      <c r="CK66" s="40"/>
+      <c r="CL66" s="40"/>
+      <c r="CM66" s="41"/>
       <c r="CN66" s="10"/>
       <c r="CO66" s="10"/>
       <c r="CP66" s="10"/>
@@ -33255,37 +33363,57 @@
       <c r="ES66" s="10"/>
       <c r="ET66" s="10"/>
     </row>
-    <row r="67" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CI67" s="36"/>
+      <c r="CJ67" s="36"/>
+      <c r="CK67" s="36"/>
+      <c r="CL67" s="36"/>
+      <c r="CM67" s="37"/>
     </row>
-    <row r="68" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CI68" s="36"/>
+      <c r="CJ68" s="36"/>
+      <c r="CK68" s="36"/>
+      <c r="CL68" s="36"/>
+      <c r="CM68" s="37"/>
     </row>
-    <row r="69" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="CI73" s="36"/>
+      <c r="CJ73" s="36"/>
+      <c r="CK73" s="36"/>
+      <c r="CL73" s="36"/>
     </row>
-    <row r="75" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="CI74" s="36"/>
+      <c r="CJ74" s="36"/>
+      <c r="CK74" s="36"/>
+      <c r="CL74" s="36"/>
+    </row>
+    <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="32" t="s">
         <v>32</v>
@@ -33401,24 +33529,27 @@
       <c r="BW75" s="34"/>
       <c r="BX75" s="34"/>
       <c r="BY75" s="34"/>
-      <c r="BZ75" s="32" t="s">
+      <c r="BZ75" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="32"/>
-      <c r="CB75" s="32"/>
-      <c r="CC75" s="32"/>
+      <c r="CA75" s="31"/>
+      <c r="CB75" s="31"/>
+      <c r="CC75" s="31"/>
       <c r="CD75" s="31" t="s">
         <v>49</v>
       </c>
       <c r="CE75" s="31"/>
       <c r="CF75" s="31"/>
       <c r="CG75" s="31"/>
-      <c r="CH75" s="27"/>
-      <c r="CI75" s="27"/>
-      <c r="CJ75" s="27"/>
-      <c r="CK75" s="27"/>
+      <c r="CH75" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="CI75" s="38"/>
+      <c r="CJ75" s="38"/>
+      <c r="CK75" s="38"/>
+      <c r="CL75" s="39"/>
     </row>
-    <row r="76" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>16</v>
       </c>
@@ -33650,39 +33781,46 @@
       <c r="BY76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BZ76" s="6" t="s">
+      <c r="BZ76" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="CA76" s="6" t="s">
+      <c r="CA76" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CB76" s="6" t="s">
+      <c r="CB76" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="CC76" s="6" t="s">
+      <c r="CC76" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CD76" s="30" t="s">
+      <c r="CD76" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="CE76" s="30" t="s">
+      <c r="CE76" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CF76" s="30" t="s">
+      <c r="CF76" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="CG76" s="30" t="s">
+      <c r="CG76" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CH76" s="28"/>
-      <c r="CI76" s="28"/>
-      <c r="CJ76" s="28"/>
-      <c r="CK76" s="28"/>
+      <c r="CH76" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI76" s="38"/>
+      <c r="CJ76" s="38"/>
+      <c r="CK76" s="38"/>
+      <c r="CL76" s="38"/>
     </row>
-    <row r="77" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
+      <c r="CI77" s="36"/>
+      <c r="CJ77" s="36"/>
+      <c r="CK77" s="36"/>
+      <c r="CL77" s="36"/>
     </row>
-    <row r="78" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>15</v>
       </c>
@@ -33914,35 +34052,37 @@
       <c r="BY78" s="16">
         <v>6.6394033907729124</v>
       </c>
-      <c r="BZ78" s="16">
-        <v>-11.168819598547856</v>
-      </c>
-      <c r="CA78" s="16">
-        <v>-64.182458321408205</v>
-      </c>
-      <c r="CB78" s="16">
-        <v>-24.835165219071982</v>
-      </c>
-      <c r="CC78" s="16">
-        <v>-13.272231699087257</v>
-      </c>
-      <c r="CD78" s="29">
-        <v>-13.89815646882866</v>
-      </c>
-      <c r="CE78" s="29">
-        <v>28.036509113288844</v>
-      </c>
-      <c r="CF78" s="29">
-        <v>14.688583063513747</v>
-      </c>
-      <c r="CG78" s="29">
-        <v>15.844513632259094</v>
-      </c>
-      <c r="CH78" s="23"/>
-      <c r="CI78" s="23"/>
-      <c r="CJ78" s="23"/>
-      <c r="CK78" s="23"/>
-      <c r="CL78" s="10"/>
+      <c r="BZ78" s="27">
+        <v>-11.572182227538804</v>
+      </c>
+      <c r="CA78" s="27">
+        <v>-63.945078674022888</v>
+      </c>
+      <c r="CB78" s="27">
+        <v>-25.463310690901196</v>
+      </c>
+      <c r="CC78" s="27">
+        <v>-13.455222854172817</v>
+      </c>
+      <c r="CD78" s="27">
+        <v>-13.724253165107285</v>
+      </c>
+      <c r="CE78" s="27">
+        <v>28.73684813057713</v>
+      </c>
+      <c r="CF78" s="27">
+        <v>14.999647903558682</v>
+      </c>
+      <c r="CG78" s="27">
+        <v>16.592898495162316</v>
+      </c>
+      <c r="CH78" s="27">
+        <v>17.476703543598987</v>
+      </c>
+      <c r="CI78" s="40"/>
+      <c r="CJ78" s="40"/>
+      <c r="CK78" s="40"/>
+      <c r="CL78" s="40"/>
       <c r="CM78" s="10"/>
       <c r="CN78" s="10"/>
       <c r="CO78" s="10"/>
@@ -34004,7 +34144,7 @@
       <c r="ES78" s="10"/>
       <c r="ET78" s="10"/>
     </row>
-    <row r="79" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
@@ -34236,35 +34376,37 @@
       <c r="BY79" s="16">
         <v>-3.9173851474330235</v>
       </c>
-      <c r="BZ79" s="16">
-        <v>-8.6191585668214117</v>
-      </c>
-      <c r="CA79" s="16">
-        <v>-67.098021031118648</v>
-      </c>
-      <c r="CB79" s="16">
-        <v>-36.375361504767021</v>
-      </c>
-      <c r="CC79" s="16">
-        <v>-28.547476080710425</v>
-      </c>
-      <c r="CD79" s="29">
-        <v>-35.538856494289348</v>
-      </c>
-      <c r="CE79" s="29">
-        <v>5.0661083419609554</v>
-      </c>
-      <c r="CF79" s="29">
-        <v>17.094713405634081</v>
-      </c>
-      <c r="CG79" s="29">
-        <v>33.039962344138672</v>
-      </c>
-      <c r="CH79" s="23"/>
-      <c r="CI79" s="23"/>
-      <c r="CJ79" s="23"/>
-      <c r="CK79" s="23"/>
-      <c r="CL79" s="10"/>
+      <c r="BZ79" s="27">
+        <v>-9.2283822516241685</v>
+      </c>
+      <c r="CA79" s="27">
+        <v>-60.682749420429701</v>
+      </c>
+      <c r="CB79" s="27">
+        <v>-39.408875389265475</v>
+      </c>
+      <c r="CC79" s="27">
+        <v>-22.80725264827646</v>
+      </c>
+      <c r="CD79" s="27">
+        <v>-35.523093122719303</v>
+      </c>
+      <c r="CE79" s="27">
+        <v>5.1323486747115084</v>
+      </c>
+      <c r="CF79" s="27">
+        <v>17.068500792376852</v>
+      </c>
+      <c r="CG79" s="27">
+        <v>23.092131127773754</v>
+      </c>
+      <c r="CH79" s="27">
+        <v>34.659477956295177</v>
+      </c>
+      <c r="CI79" s="40"/>
+      <c r="CJ79" s="40"/>
+      <c r="CK79" s="40"/>
+      <c r="CL79" s="40"/>
       <c r="CM79" s="10"/>
       <c r="CN79" s="10"/>
       <c r="CO79" s="10"/>
@@ -34326,7 +34468,7 @@
       <c r="ES79" s="10"/>
       <c r="ET79" s="10"/>
     </row>
-    <row r="80" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -34558,35 +34700,37 @@
       <c r="BY80" s="16">
         <v>9.5532440876537947</v>
       </c>
-      <c r="BZ80" s="16">
+      <c r="BZ80" s="27">
         <v>-18.396934530155534</v>
       </c>
-      <c r="CA80" s="16">
+      <c r="CA80" s="27">
         <v>-98.306666776253294</v>
       </c>
-      <c r="CB80" s="16">
+      <c r="CB80" s="27">
         <v>-85.704220114190676</v>
       </c>
-      <c r="CC80" s="16">
-        <v>-76.473489491354172</v>
-      </c>
-      <c r="CD80" s="29">
+      <c r="CC80" s="27">
+        <v>-76.766241938722217</v>
+      </c>
+      <c r="CD80" s="27">
         <v>-73.664044429163368</v>
       </c>
-      <c r="CE80" s="29">
+      <c r="CE80" s="27">
         <v>549.72861560657441</v>
       </c>
-      <c r="CF80" s="29">
+      <c r="CF80" s="27">
         <v>96.775335815690369</v>
       </c>
-      <c r="CG80" s="29">
-        <v>63.524748267445005</v>
-      </c>
-      <c r="CH80" s="23"/>
-      <c r="CI80" s="23"/>
-      <c r="CJ80" s="23"/>
-      <c r="CK80" s="23"/>
-      <c r="CL80" s="10"/>
+      <c r="CG80" s="27">
+        <v>72.538697072371775</v>
+      </c>
+      <c r="CH80" s="27">
+        <v>163.86943518728094</v>
+      </c>
+      <c r="CI80" s="40"/>
+      <c r="CJ80" s="40"/>
+      <c r="CK80" s="40"/>
+      <c r="CL80" s="40"/>
       <c r="CM80" s="10"/>
       <c r="CN80" s="10"/>
       <c r="CO80" s="10"/>
@@ -34648,7 +34792,7 @@
       <c r="ES80" s="10"/>
       <c r="ET80" s="10"/>
     </row>
-    <row r="81" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -34880,35 +35024,37 @@
       <c r="BY81" s="16">
         <v>0.67845314113399979</v>
       </c>
-      <c r="BZ81" s="16">
-        <v>-9.6947495450197891</v>
-      </c>
-      <c r="CA81" s="16">
-        <v>-16.992709290551005</v>
-      </c>
-      <c r="CB81" s="16">
-        <v>-9.5615208972698866</v>
-      </c>
-      <c r="CC81" s="16">
-        <v>-5.3144407979744699</v>
-      </c>
-      <c r="CD81" s="29">
-        <v>2.6733086476399421</v>
-      </c>
-      <c r="CE81" s="29">
-        <v>8.8692644023185494</v>
-      </c>
-      <c r="CF81" s="29">
-        <v>12.306870426056378</v>
-      </c>
-      <c r="CG81" s="29">
-        <v>18.357133345131231</v>
-      </c>
-      <c r="CH81" s="23"/>
-      <c r="CI81" s="23"/>
-      <c r="CJ81" s="23"/>
-      <c r="CK81" s="23"/>
-      <c r="CL81" s="10"/>
+      <c r="BZ81" s="27">
+        <v>-7.7119346901851031</v>
+      </c>
+      <c r="CA81" s="27">
+        <v>-17.14558270741388</v>
+      </c>
+      <c r="CB81" s="27">
+        <v>-9.1657203929107283</v>
+      </c>
+      <c r="CC81" s="27">
+        <v>-2.687169375263025</v>
+      </c>
+      <c r="CD81" s="27">
+        <v>0.46928446442686322</v>
+      </c>
+      <c r="CE81" s="27">
+        <v>7.7507010459323453</v>
+      </c>
+      <c r="CF81" s="27">
+        <v>12.125538218182726</v>
+      </c>
+      <c r="CG81" s="27">
+        <v>18.041473952553488</v>
+      </c>
+      <c r="CH81" s="27">
+        <v>23.869161721538063</v>
+      </c>
+      <c r="CI81" s="40"/>
+      <c r="CJ81" s="40"/>
+      <c r="CK81" s="40"/>
+      <c r="CL81" s="40"/>
       <c r="CM81" s="10"/>
       <c r="CN81" s="10"/>
       <c r="CO81" s="10"/>
@@ -34970,7 +35116,7 @@
       <c r="ES81" s="10"/>
       <c r="ET81" s="10"/>
     </row>
-    <row r="82" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -35202,35 +35348,37 @@
       <c r="BY82" s="16">
         <v>2.5638045346691172</v>
       </c>
-      <c r="BZ82" s="16">
-        <v>2.8645835151053944</v>
-      </c>
-      <c r="CA82" s="16">
+      <c r="BZ82" s="27">
+        <v>5.9907216369178684</v>
+      </c>
+      <c r="CA82" s="27">
         <v>-26.712547055140178</v>
       </c>
-      <c r="CB82" s="16">
+      <c r="CB82" s="27">
         <v>21.612627874258663</v>
       </c>
-      <c r="CC82" s="16">
-        <v>7.7512649269962424</v>
-      </c>
-      <c r="CD82" s="29">
-        <v>11.486180564069514</v>
-      </c>
-      <c r="CE82" s="29">
+      <c r="CC82" s="27">
+        <v>7.4698416606988189</v>
+      </c>
+      <c r="CD82" s="27">
+        <v>10.803814882980362</v>
+      </c>
+      <c r="CE82" s="27">
         <v>73.966273062627891</v>
       </c>
-      <c r="CF82" s="29">
+      <c r="CF82" s="27">
         <v>-6.3297292395905203</v>
       </c>
-      <c r="CG82" s="29">
-        <v>0.13828826874681965</v>
-      </c>
-      <c r="CH82" s="23"/>
-      <c r="CI82" s="23"/>
-      <c r="CJ82" s="23"/>
-      <c r="CK82" s="23"/>
-      <c r="CL82" s="10"/>
+      <c r="CG82" s="27">
+        <v>2.2113394775297763</v>
+      </c>
+      <c r="CH82" s="27">
+        <v>-3.9572201028817346</v>
+      </c>
+      <c r="CI82" s="40"/>
+      <c r="CJ82" s="40"/>
+      <c r="CK82" s="40"/>
+      <c r="CL82" s="40"/>
       <c r="CM82" s="10"/>
       <c r="CN82" s="10"/>
       <c r="CO82" s="10"/>
@@ -35292,7 +35440,7 @@
       <c r="ES82" s="10"/>
       <c r="ET82" s="10"/>
     </row>
-    <row r="83" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -35369,19 +35517,19 @@
       <c r="BW83" s="10"/>
       <c r="BX83" s="10"/>
       <c r="BY83" s="10"/>
-      <c r="BZ83" s="10"/>
-      <c r="CA83" s="10"/>
-      <c r="CB83" s="10"/>
-      <c r="CC83" s="10"/>
+      <c r="BZ83" s="23"/>
+      <c r="CA83" s="23"/>
+      <c r="CB83" s="23"/>
+      <c r="CC83" s="23"/>
       <c r="CD83" s="23"/>
       <c r="CE83" s="23"/>
       <c r="CF83" s="23"/>
       <c r="CG83" s="23"/>
       <c r="CH83" s="23"/>
-      <c r="CI83" s="23"/>
-      <c r="CJ83" s="23"/>
-      <c r="CK83" s="23"/>
-      <c r="CL83" s="10"/>
+      <c r="CI83" s="40"/>
+      <c r="CJ83" s="40"/>
+      <c r="CK83" s="40"/>
+      <c r="CL83" s="40"/>
       <c r="CM83" s="10"/>
       <c r="CN83" s="10"/>
       <c r="CO83" s="10"/>
@@ -35443,7 +35591,7 @@
       <c r="ES83" s="10"/>
       <c r="ET83" s="10"/>
     </row>
-    <row r="84" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>10</v>
       </c>
@@ -35675,35 +35823,37 @@
       <c r="BY84" s="16">
         <v>4.8599117318994587</v>
       </c>
-      <c r="BZ84" s="16">
-        <v>-11.405666274475664</v>
-      </c>
-      <c r="CA84" s="16">
-        <v>-58.455405575335973</v>
-      </c>
-      <c r="CB84" s="16">
-        <v>-29.502438059482643</v>
-      </c>
-      <c r="CC84" s="16">
-        <v>-20.066039141668995</v>
-      </c>
-      <c r="CD84" s="29">
-        <v>-19.590429146975879</v>
-      </c>
-      <c r="CE84" s="29">
-        <v>24.675627211601608</v>
-      </c>
-      <c r="CF84" s="29">
-        <v>15.402056090127189</v>
-      </c>
-      <c r="CG84" s="29">
-        <v>18.234198494180305</v>
-      </c>
-      <c r="CH84" s="23"/>
-      <c r="CI84" s="23"/>
-      <c r="CJ84" s="23"/>
-      <c r="CK84" s="23"/>
-      <c r="CL84" s="10"/>
+      <c r="BZ84" s="27">
+        <v>-11.069936445522416</v>
+      </c>
+      <c r="CA84" s="27">
+        <v>-57.951659234692869</v>
+      </c>
+      <c r="CB84" s="27">
+        <v>-29.841719104694093</v>
+      </c>
+      <c r="CC84" s="27">
+        <v>-19.341160396224609</v>
+      </c>
+      <c r="CD84" s="27">
+        <v>-19.916564444342185</v>
+      </c>
+      <c r="CE84" s="27">
+        <v>24.344118280218012</v>
+      </c>
+      <c r="CF84" s="27">
+        <v>15.491950993576182</v>
+      </c>
+      <c r="CG84" s="27">
+        <v>18.68475851062712</v>
+      </c>
+      <c r="CH84" s="27">
+        <v>26.503018806083432</v>
+      </c>
+      <c r="CI84" s="40"/>
+      <c r="CJ84" s="40"/>
+      <c r="CK84" s="40"/>
+      <c r="CL84" s="40"/>
       <c r="CM84" s="10"/>
       <c r="CN84" s="10"/>
       <c r="CO84" s="10"/>
@@ -35765,7 +35915,7 @@
       <c r="ES84" s="10"/>
       <c r="ET84" s="10"/>
     </row>
-    <row r="85" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -35843,25 +35993,30 @@
       <c r="BW85" s="13"/>
       <c r="BX85" s="13"/>
       <c r="BY85" s="13"/>
-      <c r="BZ85" s="13"/>
-      <c r="CA85" s="13"/>
-      <c r="CB85" s="13"/>
-      <c r="CC85" s="13"/>
+      <c r="BZ85" s="26"/>
+      <c r="CA85" s="26"/>
+      <c r="CB85" s="26"/>
+      <c r="CC85" s="26"/>
       <c r="CD85" s="26"/>
       <c r="CE85" s="26"/>
       <c r="CF85" s="26"/>
       <c r="CG85" s="26"/>
       <c r="CH85" s="26"/>
-      <c r="CI85" s="26"/>
-      <c r="CJ85" s="26"/>
-      <c r="CK85" s="26"/>
+      <c r="CI85" s="42"/>
+      <c r="CJ85" s="42"/>
+      <c r="CK85" s="42"/>
+      <c r="CL85" s="42"/>
     </row>
-    <row r="86" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="CI86" s="36"/>
+      <c r="CJ86" s="36"/>
+      <c r="CK86" s="36"/>
+      <c r="CL86" s="36"/>
     </row>
-    <row r="87" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -35938,19 +36093,19 @@
       <c r="BW87" s="10"/>
       <c r="BX87" s="10"/>
       <c r="BY87" s="10"/>
-      <c r="BZ87" s="10"/>
-      <c r="CA87" s="10"/>
-      <c r="CB87" s="10"/>
-      <c r="CC87" s="10"/>
+      <c r="BZ87" s="23"/>
+      <c r="CA87" s="23"/>
+      <c r="CB87" s="23"/>
+      <c r="CC87" s="23"/>
       <c r="CD87" s="23"/>
       <c r="CE87" s="23"/>
       <c r="CF87" s="23"/>
       <c r="CG87" s="23"/>
       <c r="CH87" s="23"/>
-      <c r="CI87" s="23"/>
-      <c r="CJ87" s="23"/>
-      <c r="CK87" s="23"/>
-      <c r="CL87" s="10"/>
+      <c r="CI87" s="40"/>
+      <c r="CJ87" s="40"/>
+      <c r="CK87" s="40"/>
+      <c r="CL87" s="40"/>
       <c r="CM87" s="10"/>
       <c r="CN87" s="10"/>
       <c r="CO87" s="10"/>
@@ -36012,7 +36167,7 @@
       <c r="ES87" s="10"/>
       <c r="ET87" s="10"/>
     </row>
-    <row r="88" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -36089,10 +36244,10 @@
       <c r="BW88" s="10"/>
       <c r="BX88" s="10"/>
       <c r="BY88" s="10"/>
-      <c r="BZ88" s="10"/>
-      <c r="CA88" s="10"/>
-      <c r="CB88" s="10"/>
-      <c r="CC88" s="10"/>
+      <c r="BZ88" s="23"/>
+      <c r="CA88" s="23"/>
+      <c r="CB88" s="23"/>
+      <c r="CC88" s="23"/>
       <c r="CD88" s="23"/>
       <c r="CE88" s="23"/>
       <c r="CF88" s="23"/>
@@ -36101,7 +36256,7 @@
       <c r="CI88" s="23"/>
       <c r="CJ88" s="23"/>
       <c r="CK88" s="23"/>
-      <c r="CL88" s="10"/>
+      <c r="CL88" s="23"/>
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
       <c r="CO88" s="10"/>
@@ -36163,32 +36318,32 @@
       <c r="ES88" s="10"/>
       <c r="ET88" s="10"/>
     </row>
-    <row r="89" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="32">
         <v>2000</v>
@@ -36304,12 +36459,12 @@
       <c r="BW96" s="33"/>
       <c r="BX96" s="33"/>
       <c r="BY96" s="33"/>
-      <c r="BZ96" s="32">
+      <c r="BZ96" s="31">
         <v>2019</v>
       </c>
-      <c r="CA96" s="33"/>
-      <c r="CB96" s="33"/>
-      <c r="CC96" s="33"/>
+      <c r="CA96" s="35"/>
+      <c r="CB96" s="35"/>
+      <c r="CC96" s="35"/>
       <c r="CD96" s="31">
         <v>2020</v>
       </c>
@@ -36322,8 +36477,11 @@
       <c r="CI96" s="31"/>
       <c r="CJ96" s="31"/>
       <c r="CK96" s="31"/>
+      <c r="CL96" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="97" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>16</v>
       </c>
@@ -36555,16 +36713,16 @@
       <c r="BY97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BZ97" s="7" t="s">
+      <c r="BZ97" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="CA97" s="7" t="s">
+      <c r="CA97" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CB97" s="7" t="s">
+      <c r="CB97" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CC97" s="7" t="s">
+      <c r="CC97" s="21" t="s">
         <v>8</v>
       </c>
       <c r="CD97" s="21" t="s">
@@ -36591,11 +36749,14 @@
       <c r="CK97" s="21" t="s">
         <v>8</v>
       </c>
+      <c r="CL97" s="21" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="98" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
     </row>
-    <row r="99" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>15</v>
       </c>
@@ -36827,43 +36988,45 @@
       <c r="BY99" s="16">
         <v>103.29362209520916</v>
       </c>
-      <c r="BZ99" s="16">
+      <c r="BZ99" s="27">
         <v>98.360788334487182</v>
       </c>
-      <c r="CA99" s="16">
+      <c r="CA99" s="27">
         <v>102.01320014864621</v>
       </c>
-      <c r="CB99" s="16">
+      <c r="CB99" s="27">
         <v>120.39106926966923</v>
       </c>
-      <c r="CC99" s="16">
+      <c r="CC99" s="27">
         <v>105.83150800197636</v>
       </c>
-      <c r="CD99" s="29">
-        <v>101.87111785817686</v>
-      </c>
-      <c r="CE99" s="29">
-        <v>118.69074671843771</v>
-      </c>
-      <c r="CF99" s="29">
-        <v>128.1518158837471</v>
-      </c>
-      <c r="CG99" s="29">
-        <v>110.33189975562927</v>
-      </c>
-      <c r="CH99" s="29">
-        <v>110.47922731719279</v>
-      </c>
-      <c r="CI99" s="29">
-        <v>126.66903621826296</v>
-      </c>
-      <c r="CJ99" s="29">
-        <v>131.13775319383836</v>
-      </c>
-      <c r="CK99" s="29">
-        <v>111.06938421745561</v>
-      </c>
-      <c r="CL99" s="10"/>
+      <c r="CD99" s="27">
+        <v>101.87111785817685</v>
+      </c>
+      <c r="CE99" s="27">
+        <v>118.69074671843775</v>
+      </c>
+      <c r="CF99" s="27">
+        <v>128.15181588374708</v>
+      </c>
+      <c r="CG99" s="27">
+        <v>110.33189975562925</v>
+      </c>
+      <c r="CH99" s="27">
+        <v>110.47922731719282</v>
+      </c>
+      <c r="CI99" s="27">
+        <v>126.66903621826297</v>
+      </c>
+      <c r="CJ99" s="27">
+        <v>131.13775319383839</v>
+      </c>
+      <c r="CK99" s="27">
+        <v>111.04905710404083</v>
+      </c>
+      <c r="CL99" s="27">
+        <v>111.44039659485239</v>
+      </c>
       <c r="CM99" s="10"/>
       <c r="CN99" s="10"/>
       <c r="CO99" s="10"/>
@@ -36929,7 +37092,7 @@
       <c r="EW99" s="10"/>
       <c r="EX99" s="10"/>
     </row>
-    <row r="100" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>14</v>
       </c>
@@ -37161,43 +37324,45 @@
       <c r="BY100" s="16">
         <v>98.939634198391545</v>
       </c>
-      <c r="BZ100" s="16">
+      <c r="BZ100" s="27">
         <v>104.79798515908622</v>
       </c>
-      <c r="CA100" s="16">
+      <c r="CA100" s="27">
         <v>106.83324455504497</v>
       </c>
-      <c r="CB100" s="16">
+      <c r="CB100" s="27">
         <v>98.817870328095282</v>
       </c>
-      <c r="CC100" s="16">
+      <c r="CC100" s="27">
         <v>100.62062688655988</v>
       </c>
-      <c r="CD100" s="29">
+      <c r="CD100" s="27">
         <v>105.76256541997601</v>
       </c>
-      <c r="CE100" s="29">
-        <v>77.779350260436061</v>
-      </c>
-      <c r="CF100" s="29">
+      <c r="CE100" s="27">
+        <v>77.779350260436047</v>
+      </c>
+      <c r="CF100" s="27">
         <v>127.86009714499895</v>
       </c>
-      <c r="CG100" s="29">
-        <v>117.02477704220765</v>
-      </c>
-      <c r="CH100" s="29">
-        <v>120.53759580914669</v>
-      </c>
-      <c r="CI100" s="29">
-        <v>90.122933146767295</v>
-      </c>
-      <c r="CJ100" s="29">
-        <v>114.52428901277563</v>
-      </c>
-      <c r="CK100" s="29">
-        <v>96.019205660385794</v>
-      </c>
-      <c r="CL100" s="10"/>
+      <c r="CG100" s="27">
+        <v>117.02477704220762</v>
+      </c>
+      <c r="CH100" s="27">
+        <v>120.53759580914662</v>
+      </c>
+      <c r="CI100" s="27">
+        <v>90.122933146767267</v>
+      </c>
+      <c r="CJ100" s="27">
+        <v>114.5242890127756</v>
+      </c>
+      <c r="CK100" s="27">
+        <v>96.007127085427172</v>
+      </c>
+      <c r="CL100" s="27">
+        <v>103.40005983270461</v>
+      </c>
       <c r="CM100" s="10"/>
       <c r="CN100" s="10"/>
       <c r="CO100" s="10"/>
@@ -37263,7 +37428,7 @@
       <c r="EW100" s="10"/>
       <c r="EX100" s="10"/>
     </row>
-    <row r="101" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>13</v>
       </c>
@@ -37495,43 +37660,45 @@
       <c r="BY101" s="16">
         <v>105.12018191842338</v>
       </c>
-      <c r="BZ101" s="16">
+      <c r="BZ101" s="27">
         <v>93.896216338414845</v>
       </c>
-      <c r="CA101" s="16">
+      <c r="CA101" s="27">
         <v>87.326080467641617</v>
       </c>
-      <c r="CB101" s="16">
+      <c r="CB101" s="27">
         <v>98.19031739859922</v>
       </c>
-      <c r="CC101" s="16">
+      <c r="CC101" s="27">
         <v>104.98014266127691</v>
       </c>
-      <c r="CD101" s="29">
+      <c r="CD101" s="27">
         <v>87.745936086566317</v>
       </c>
-      <c r="CE101" s="29">
+      <c r="CE101" s="27">
         <v>92.745657447283136</v>
       </c>
-      <c r="CF101" s="29">
+      <c r="CF101" s="27">
         <v>100.33336004023523</v>
       </c>
-      <c r="CG101" s="29">
-        <v>100.55463245567569</v>
-      </c>
-      <c r="CH101" s="29">
+      <c r="CG101" s="27">
+        <v>100.55463245567576</v>
+      </c>
+      <c r="CH101" s="27">
         <v>86.122636268964882</v>
       </c>
-      <c r="CI101" s="29">
+      <c r="CI101" s="27">
         <v>92.198458068344152</v>
       </c>
-      <c r="CJ101" s="29">
+      <c r="CJ101" s="27">
         <v>101.2363602805974</v>
       </c>
-      <c r="CK101" s="29">
-        <v>108.72335424181439</v>
-      </c>
-      <c r="CL101" s="10"/>
+      <c r="CK101" s="27">
+        <v>108.64928036835759</v>
+      </c>
+      <c r="CL101" s="27">
+        <v>90.144563382725522</v>
+      </c>
       <c r="CM101" s="10"/>
       <c r="CN101" s="10"/>
       <c r="CO101" s="10"/>
@@ -37597,7 +37764,7 @@
       <c r="EW101" s="10"/>
       <c r="EX101" s="10"/>
     </row>
-    <row r="102" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
@@ -37829,43 +37996,45 @@
       <c r="BY102" s="16">
         <v>99.479642608043108</v>
       </c>
-      <c r="BZ102" s="16">
+      <c r="BZ102" s="27">
         <v>96.6572646200012</v>
       </c>
-      <c r="CA102" s="16">
+      <c r="CA102" s="27">
         <v>103.28572122085733</v>
       </c>
-      <c r="CB102" s="16">
+      <c r="CB102" s="27">
         <v>93.899227889788946</v>
       </c>
-      <c r="CC102" s="16">
+      <c r="CC102" s="27">
         <v>97.965980829373649</v>
       </c>
-      <c r="CD102" s="29">
+      <c r="CD102" s="27">
         <v>94.079417343774324</v>
       </c>
-      <c r="CE102" s="29">
+      <c r="CE102" s="27">
         <v>102.85722216592987</v>
       </c>
-      <c r="CF102" s="29">
-        <v>105.09184484769033</v>
-      </c>
-      <c r="CG102" s="29">
-        <v>104.25459842937659</v>
-      </c>
-      <c r="CH102" s="29">
-        <v>99.78063003480699</v>
-      </c>
-      <c r="CI102" s="29">
-        <v>110.92122838373876</v>
-      </c>
-      <c r="CJ102" s="29">
+      <c r="CF102" s="27">
+        <v>105.0918448476903</v>
+      </c>
+      <c r="CG102" s="27">
+        <v>104.25459842937663</v>
+      </c>
+      <c r="CH102" s="27">
+        <v>100.8060956838542</v>
+      </c>
+      <c r="CI102" s="27">
+        <v>110.92122838373881</v>
+      </c>
+      <c r="CJ102" s="27">
         <v>98.07170961186462</v>
       </c>
-      <c r="CK102" s="29">
-        <v>96.865961157022213</v>
-      </c>
-      <c r="CL102" s="10"/>
+      <c r="CK102" s="27">
+        <v>96.862947400733844</v>
+      </c>
+      <c r="CL102" s="27">
+        <v>97.244644640328787</v>
+      </c>
       <c r="CM102" s="10"/>
       <c r="CN102" s="10"/>
       <c r="CO102" s="10"/>
@@ -37931,7 +38100,7 @@
       <c r="EW102" s="10"/>
       <c r="EX102" s="10"/>
     </row>
-    <row r="103" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -38163,43 +38332,45 @@
       <c r="BY103" s="16">
         <v>99.869605250166956</v>
       </c>
-      <c r="BZ103" s="16">
+      <c r="BZ103" s="27">
         <v>100.37060084959948</v>
       </c>
-      <c r="CA103" s="16">
+      <c r="CA103" s="27">
         <v>103.16683892641632</v>
       </c>
-      <c r="CB103" s="16">
+      <c r="CB103" s="27">
         <v>103.68571596929776</v>
       </c>
-      <c r="CC103" s="16">
+      <c r="CC103" s="27">
         <v>100.48116508940954</v>
       </c>
-      <c r="CD103" s="29">
-        <v>101.07480678539913</v>
-      </c>
-      <c r="CE103" s="29">
-        <v>104.57724327308759</v>
-      </c>
-      <c r="CF103" s="29">
+      <c r="CD103" s="27">
+        <v>101.0748067853991</v>
+      </c>
+      <c r="CE103" s="27">
+        <v>104.57724327308757</v>
+      </c>
+      <c r="CF103" s="27">
         <v>103.68571596929776</v>
       </c>
-      <c r="CG103" s="29">
-        <v>100.48116508940959</v>
-      </c>
-      <c r="CH103" s="29">
+      <c r="CG103" s="27">
+        <v>100.48116508940956</v>
+      </c>
+      <c r="CH103" s="27">
         <v>101.07480678539915</v>
       </c>
-      <c r="CI103" s="29">
-        <v>103.96765647102531</v>
-      </c>
-      <c r="CJ103" s="29">
+      <c r="CI103" s="27">
+        <v>103.96765647102528</v>
+      </c>
+      <c r="CJ103" s="27">
         <v>103.68571596929776</v>
       </c>
-      <c r="CK103" s="29">
-        <v>100.48940762984229</v>
-      </c>
-      <c r="CL103" s="10"/>
+      <c r="CK103" s="27">
+        <v>100.48116508940956</v>
+      </c>
+      <c r="CL103" s="27">
+        <v>101.17588159218454</v>
+      </c>
       <c r="CM103" s="10"/>
       <c r="CN103" s="10"/>
       <c r="CO103" s="10"/>
@@ -38265,7 +38436,7 @@
       <c r="EW103" s="10"/>
       <c r="EX103" s="10"/>
     </row>
-    <row r="104" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -38342,10 +38513,10 @@
       <c r="BW104" s="10"/>
       <c r="BX104" s="10"/>
       <c r="BY104" s="10"/>
-      <c r="BZ104" s="10"/>
-      <c r="CA104" s="10"/>
-      <c r="CB104" s="10"/>
-      <c r="CC104" s="10"/>
+      <c r="BZ104" s="23"/>
+      <c r="CA104" s="23"/>
+      <c r="CB104" s="23"/>
+      <c r="CC104" s="23"/>
       <c r="CD104" s="23"/>
       <c r="CE104" s="23"/>
       <c r="CF104" s="23"/>
@@ -38354,7 +38525,7 @@
       <c r="CI104" s="23"/>
       <c r="CJ104" s="23"/>
       <c r="CK104" s="23"/>
-      <c r="CL104" s="10"/>
+      <c r="CL104" s="23"/>
       <c r="CM104" s="10"/>
       <c r="CN104" s="10"/>
       <c r="CO104" s="10"/>
@@ -38420,7 +38591,7 @@
       <c r="EW104" s="10"/>
       <c r="EX104" s="10"/>
     </row>
-    <row r="105" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>10</v>
       </c>
@@ -38652,43 +38823,45 @@
       <c r="BY105" s="16">
         <v>102.22393415341043</v>
       </c>
-      <c r="BZ105" s="16">
+      <c r="BZ105" s="27">
         <v>97.651114948871637</v>
       </c>
-      <c r="CA105" s="16">
+      <c r="CA105" s="27">
         <v>100.24066045798239</v>
       </c>
-      <c r="CB105" s="16">
+      <c r="CB105" s="27">
         <v>107.98466914345491</v>
       </c>
-      <c r="CC105" s="16">
+      <c r="CC105" s="27">
         <v>103.35277894181158</v>
       </c>
-      <c r="CD105" s="29">
-        <v>98.004903157879468</v>
-      </c>
-      <c r="CE105" s="29">
-        <v>108.74048306817159</v>
-      </c>
-      <c r="CF105" s="29">
-        <v>117.71234554841968</v>
-      </c>
-      <c r="CG105" s="29">
-        <v>107.83608539173429</v>
-      </c>
-      <c r="CH105" s="29">
-        <v>105.92635867238194</v>
-      </c>
-      <c r="CI105" s="29">
-        <v>116.09836438445787</v>
-      </c>
-      <c r="CJ105" s="29">
-        <v>116.18240291078709</v>
-      </c>
-      <c r="CK105" s="29">
-        <v>105.68489019445524</v>
-      </c>
-      <c r="CL105" s="10"/>
+      <c r="CD105" s="27">
+        <v>97.976453711094678</v>
+      </c>
+      <c r="CE105" s="27">
+        <v>108.47037644125493</v>
+      </c>
+      <c r="CF105" s="27">
+        <v>117.6271039923445</v>
+      </c>
+      <c r="CG105" s="27">
+        <v>107.8383585484695</v>
+      </c>
+      <c r="CH105" s="27">
+        <v>106.21997329215517</v>
+      </c>
+      <c r="CI105" s="27">
+        <v>115.96423732091696</v>
+      </c>
+      <c r="CJ105" s="27">
+        <v>116.12523022663868</v>
+      </c>
+      <c r="CK105" s="27">
+        <v>105.62104750321085</v>
+      </c>
+      <c r="CL105" s="27">
+        <v>104.06831142590293</v>
+      </c>
       <c r="CM105" s="10"/>
       <c r="CN105" s="10"/>
       <c r="CO105" s="10"/>
@@ -38754,7 +38927,7 @@
       <c r="EW105" s="10"/>
       <c r="EX105" s="10"/>
     </row>
-    <row r="106" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -38832,10 +39005,10 @@
       <c r="BW106" s="13"/>
       <c r="BX106" s="13"/>
       <c r="BY106" s="13"/>
-      <c r="BZ106" s="13"/>
-      <c r="CA106" s="13"/>
-      <c r="CB106" s="13"/>
-      <c r="CC106" s="13"/>
+      <c r="BZ106" s="26"/>
+      <c r="CA106" s="26"/>
+      <c r="CB106" s="26"/>
+      <c r="CC106" s="26"/>
       <c r="CD106" s="26"/>
       <c r="CE106" s="26"/>
       <c r="CF106" s="26"/>
@@ -38844,43 +39017,44 @@
       <c r="CI106" s="26"/>
       <c r="CJ106" s="26"/>
       <c r="CK106" s="26"/>
+      <c r="CL106" s="26"/>
     </row>
-    <row r="107" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="32">
         <v>2000</v>
@@ -38996,12 +39170,12 @@
       <c r="BW118" s="33"/>
       <c r="BX118" s="33"/>
       <c r="BY118" s="33"/>
-      <c r="BZ118" s="32">
+      <c r="BZ118" s="31">
         <v>2019</v>
       </c>
-      <c r="CA118" s="33"/>
-      <c r="CB118" s="33"/>
-      <c r="CC118" s="33"/>
+      <c r="CA118" s="35"/>
+      <c r="CB118" s="35"/>
+      <c r="CC118" s="35"/>
       <c r="CD118" s="31">
         <v>2020</v>
       </c>
@@ -39014,8 +39188,11 @@
       <c r="CI118" s="31"/>
       <c r="CJ118" s="31"/>
       <c r="CK118" s="31"/>
+      <c r="CL118" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="119" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>16</v>
       </c>
@@ -39247,16 +39424,16 @@
       <c r="BY119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BZ119" s="7" t="s">
+      <c r="BZ119" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="CA119" s="7" t="s">
+      <c r="CA119" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CB119" s="7" t="s">
+      <c r="CB119" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CC119" s="7" t="s">
+      <c r="CC119" s="21" t="s">
         <v>8</v>
       </c>
       <c r="CD119" s="21" t="s">
@@ -39283,11 +39460,14 @@
       <c r="CK119" s="21" t="s">
         <v>8</v>
       </c>
+      <c r="CL119" s="21" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="120" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
     </row>
-    <row r="121" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>15</v>
       </c>
@@ -39519,43 +39699,45 @@
       <c r="BY121" s="16">
         <v>52.469634091952031</v>
       </c>
-      <c r="BZ121" s="16">
+      <c r="BZ121" s="27">
         <v>50.601605737876788</v>
       </c>
-      <c r="CA121" s="16">
+      <c r="CA121" s="27">
         <v>53.150663163654109</v>
       </c>
-      <c r="CB121" s="16">
+      <c r="CB121" s="27">
         <v>53.930928583005752</v>
       </c>
-      <c r="CC121" s="16">
+      <c r="CC121" s="27">
         <v>54.073958687559134</v>
       </c>
-      <c r="CD121" s="29">
-        <v>52.357904742515515</v>
-      </c>
-      <c r="CE121" s="29">
-        <v>49.147687814894056</v>
-      </c>
-      <c r="CF121" s="29">
-        <v>56.149913108695401</v>
-      </c>
-      <c r="CG121" s="29">
-        <v>58.621801249794416</v>
-      </c>
-      <c r="CH121" s="29">
-        <v>56.254890232770407</v>
-      </c>
-      <c r="CI121" s="29">
-        <v>50.451503671525622</v>
-      </c>
-      <c r="CJ121" s="29">
-        <v>57.854928666242024</v>
-      </c>
-      <c r="CK121" s="29">
-        <v>58.997824676498901</v>
-      </c>
-      <c r="CL121" s="10"/>
+      <c r="CD121" s="27">
+        <v>51.938471511298246</v>
+      </c>
+      <c r="CE121" s="27">
+        <v>49.002432526411802</v>
+      </c>
+      <c r="CF121" s="27">
+        <v>55.990487385545066</v>
+      </c>
+      <c r="CG121" s="27">
+        <v>57.971169324575577</v>
+      </c>
+      <c r="CH121" s="27">
+        <v>55.973218589643182</v>
+      </c>
+      <c r="CI121" s="27">
+        <v>50.644925854879133</v>
+      </c>
+      <c r="CJ121" s="27">
+        <v>57.788687591407161</v>
+      </c>
+      <c r="CK121" s="27">
+        <v>58.522892982814334</v>
+      </c>
+      <c r="CL121" s="27">
+        <v>53.515654769097573</v>
+      </c>
       <c r="CM121" s="10"/>
       <c r="CN121" s="10"/>
       <c r="CO121" s="10"/>
@@ -39621,7 +39803,7 @@
       <c r="EW121" s="10"/>
       <c r="EX121" s="10"/>
     </row>
-    <row r="122" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>14</v>
       </c>
@@ -39853,43 +40035,45 @@
       <c r="BY122" s="16">
         <v>4.5571539172923403</v>
       </c>
-      <c r="BZ122" s="16">
+      <c r="BZ122" s="27">
         <v>6.2698519519674356</v>
       </c>
-      <c r="CA122" s="16">
+      <c r="CA122" s="27">
         <v>6.8609537681131494</v>
       </c>
-      <c r="CB122" s="16">
+      <c r="CB122" s="27">
         <v>4.3132471298996151</v>
       </c>
-      <c r="CC122" s="16">
+      <c r="CC122" s="27">
         <v>4.2002599957422024</v>
       </c>
-      <c r="CD122" s="29">
-        <v>6.5030177368955941</v>
-      </c>
-      <c r="CE122" s="29">
-        <v>3.6467210494125561</v>
-      </c>
-      <c r="CF122" s="29">
-        <v>4.6205662383435389</v>
-      </c>
-      <c r="CG122" s="29">
-        <v>4.1851522591523915</v>
-      </c>
-      <c r="CH122" s="29">
-        <v>5.4971743142413123</v>
-      </c>
-      <c r="CI122" s="29">
-        <v>3.335183948603758</v>
-      </c>
-      <c r="CJ122" s="29">
-        <v>4.2546434919207927</v>
-      </c>
-      <c r="CK122" s="29">
-        <v>3.9425913446622594</v>
-      </c>
-      <c r="CL122" s="10"/>
+      <c r="CD122" s="27">
+        <v>6.4371450155483831</v>
+      </c>
+      <c r="CE122" s="27">
+        <v>4.3162782605408969</v>
+      </c>
+      <c r="CF122" s="27">
+        <v>4.42474914342964</v>
+      </c>
+      <c r="CG122" s="27">
+        <v>4.480643550033176</v>
+      </c>
+      <c r="CH122" s="27">
+        <v>5.4482981849876291</v>
+      </c>
+      <c r="CI122" s="27">
+        <v>3.9552927459638254</v>
+      </c>
+      <c r="CJ122" s="27">
+        <v>4.0693063261474363</v>
+      </c>
+      <c r="CK122" s="27">
+        <v>3.8924602490922506</v>
+      </c>
+      <c r="CL122" s="27">
+        <v>5.0778848771256477</v>
+      </c>
       <c r="CM122" s="10"/>
       <c r="CN122" s="10"/>
       <c r="CO122" s="10"/>
@@ -39955,7 +40139,7 @@
       <c r="EW122" s="10"/>
       <c r="EX122" s="10"/>
     </row>
-    <row r="123" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
@@ -40187,43 +40371,45 @@
       <c r="BY123" s="16">
         <v>14.049571296166169</v>
       </c>
-      <c r="BZ123" s="16">
+      <c r="BZ123" s="27">
         <v>16.382959449399198</v>
       </c>
-      <c r="CA123" s="16">
+      <c r="CA123" s="27">
         <v>14.21912507567629</v>
       </c>
-      <c r="CB123" s="16">
+      <c r="CB123" s="27">
         <v>14.778940968723703</v>
       </c>
-      <c r="CC123" s="16">
+      <c r="CC123" s="27">
         <v>14.498741758965322</v>
       </c>
-      <c r="CD123" s="29">
-        <v>14.050804955071456</v>
-      </c>
-      <c r="CE123" s="29">
-        <v>0.56741793402279606</v>
-      </c>
-      <c r="CF123" s="29">
-        <v>2.809272386171783</v>
-      </c>
-      <c r="CG123" s="29">
-        <v>3.917504161795037</v>
-      </c>
-      <c r="CH123" s="29">
-        <v>4.1790407537043741</v>
-      </c>
-      <c r="CI123" s="29">
-        <v>2.7532694848402253</v>
-      </c>
-      <c r="CJ123" s="29">
-        <v>4.8969288202731702</v>
-      </c>
-      <c r="CK123" s="29">
-        <v>5.9775307242379041</v>
-      </c>
-      <c r="CL123" s="10"/>
+      <c r="CD123" s="27">
+        <v>14.00182472287309</v>
+      </c>
+      <c r="CE123" s="27">
+        <v>0.56201619352925869</v>
+      </c>
+      <c r="CF123" s="27">
+        <v>2.8249035089397205</v>
+      </c>
+      <c r="CG123" s="27">
+        <v>3.8339074204713324</v>
+      </c>
+      <c r="CH123" s="27">
+        <v>4.1686636342521552</v>
+      </c>
+      <c r="CI123" s="27">
+        <v>2.7306920236149828</v>
+      </c>
+      <c r="CJ123" s="27">
+        <v>4.9192007397808499</v>
+      </c>
+      <c r="CK123" s="27">
+        <v>6.1486639083635239</v>
+      </c>
+      <c r="CL123" s="27">
+        <v>9.2895559733905575</v>
+      </c>
       <c r="CM123" s="10"/>
       <c r="CN123" s="10"/>
       <c r="CO123" s="10"/>
@@ -40289,7 +40475,7 @@
       <c r="EW123" s="10"/>
       <c r="EX123" s="10"/>
     </row>
-    <row r="124" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>12</v>
       </c>
@@ -40521,43 +40707,45 @@
       <c r="BY124" s="16">
         <v>24.258139472830397</v>
       </c>
-      <c r="BZ124" s="16">
+      <c r="BZ124" s="27">
         <v>23.067277325001978</v>
       </c>
-      <c r="CA124" s="16">
+      <c r="CA124" s="27">
         <v>22.389087351074473</v>
       </c>
-      <c r="CB124" s="16">
+      <c r="CB124" s="27">
         <v>23.629305068769114</v>
       </c>
-      <c r="CC124" s="16">
+      <c r="CC124" s="27">
         <v>22.685901519047544</v>
       </c>
-      <c r="CD124" s="29">
-        <v>22.80304860420075</v>
-      </c>
-      <c r="CE124" s="29">
-        <v>41.066271357804588</v>
-      </c>
-      <c r="CF124" s="29">
-        <v>31.122694159944452</v>
-      </c>
-      <c r="CG124" s="29">
-        <v>27.408573354170372</v>
-      </c>
-      <c r="CH124" s="29">
-        <v>28.571833423014059</v>
-      </c>
-      <c r="CI124" s="29">
-        <v>36.220466139990897</v>
-      </c>
-      <c r="CJ124" s="29">
-        <v>28.636923075761405</v>
-      </c>
-      <c r="CK124" s="29">
-        <v>26.011472766600001</v>
-      </c>
-      <c r="CL124" s="10"/>
+      <c r="CD124" s="27">
+        <v>23.222495360114372</v>
+      </c>
+      <c r="CE124" s="27">
+        <v>40.600414912924577</v>
+      </c>
+      <c r="CF124" s="27">
+        <v>31.432829639612287</v>
+      </c>
+      <c r="CG124" s="27">
+        <v>27.915344815472075</v>
+      </c>
+      <c r="CH124" s="27">
+        <v>28.794344845710878</v>
+      </c>
+      <c r="CI124" s="27">
+        <v>35.488878862846093</v>
+      </c>
+      <c r="CJ124" s="27">
+        <v>28.846415078060268</v>
+      </c>
+      <c r="CK124" s="27">
+        <v>26.337098527534724</v>
+      </c>
+      <c r="CL124" s="27">
+        <v>27.761062879489895</v>
+      </c>
       <c r="CM124" s="10"/>
       <c r="CN124" s="10"/>
       <c r="CO124" s="10"/>
@@ -40623,7 +40811,7 @@
       <c r="EW124" s="10"/>
       <c r="EX124" s="10"/>
     </row>
-    <row r="125" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
@@ -40855,43 +41043,45 @@
       <c r="BY125" s="16">
         <v>4.6655012217590537</v>
       </c>
-      <c r="BZ125" s="16">
+      <c r="BZ125" s="27">
         <v>3.6783055357546077</v>
       </c>
-      <c r="CA125" s="16">
+      <c r="CA125" s="27">
         <v>3.3801706414819845</v>
       </c>
-      <c r="CB125" s="16">
+      <c r="CB125" s="27">
         <v>3.3475782496018089</v>
       </c>
-      <c r="CC125" s="16">
+      <c r="CC125" s="27">
         <v>4.5411380386858013</v>
       </c>
-      <c r="CD125" s="29">
-        <v>4.2852239613166825</v>
-      </c>
-      <c r="CE125" s="29">
-        <v>5.5719018438659988</v>
-      </c>
-      <c r="CF125" s="29">
-        <v>5.2975541068448262</v>
-      </c>
-      <c r="CG125" s="29">
-        <v>5.8669689750877918</v>
-      </c>
-      <c r="CH125" s="29">
-        <v>5.4970612762698581</v>
-      </c>
-      <c r="CI125" s="29">
-        <v>7.2395767550395052</v>
-      </c>
-      <c r="CJ125" s="29">
-        <v>4.3565759458026108</v>
-      </c>
-      <c r="CK125" s="29">
-        <v>5.0705804880009451</v>
-      </c>
-      <c r="CL125" s="10"/>
+      <c r="CD125" s="27">
+        <v>4.4000633901659052</v>
+      </c>
+      <c r="CE125" s="27">
+        <v>5.5188581065934681</v>
+      </c>
+      <c r="CF125" s="27">
+        <v>5.3270303224732869</v>
+      </c>
+      <c r="CG125" s="27">
+        <v>5.7989348894478425</v>
+      </c>
+      <c r="CH125" s="27">
+        <v>5.6154747454061544</v>
+      </c>
+      <c r="CI125" s="27">
+        <v>7.1802105126959725</v>
+      </c>
+      <c r="CJ125" s="27">
+        <v>4.3763902646042876</v>
+      </c>
+      <c r="CK125" s="27">
+        <v>5.0988843321951718</v>
+      </c>
+      <c r="CL125" s="27">
+        <v>4.3558415008963287</v>
+      </c>
       <c r="CM125" s="10"/>
       <c r="CN125" s="10"/>
       <c r="CO125" s="10"/>
@@ -40957,7 +41147,7 @@
       <c r="EW125" s="10"/>
       <c r="EX125" s="10"/>
     </row>
-    <row r="126" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
@@ -41034,10 +41224,10 @@
       <c r="BW126" s="10"/>
       <c r="BX126" s="10"/>
       <c r="BY126" s="10"/>
-      <c r="BZ126" s="10"/>
-      <c r="CA126" s="10"/>
-      <c r="CB126" s="10"/>
-      <c r="CC126" s="10"/>
+      <c r="BZ126" s="23"/>
+      <c r="CA126" s="23"/>
+      <c r="CB126" s="23"/>
+      <c r="CC126" s="23"/>
       <c r="CD126" s="23"/>
       <c r="CE126" s="23"/>
       <c r="CF126" s="23"/>
@@ -41046,7 +41236,7 @@
       <c r="CI126" s="23"/>
       <c r="CJ126" s="23"/>
       <c r="CK126" s="23"/>
-      <c r="CL126" s="10"/>
+      <c r="CL126" s="23"/>
       <c r="CM126" s="10"/>
       <c r="CN126" s="10"/>
       <c r="CO126" s="10"/>
@@ -41112,7 +41302,7 @@
       <c r="EW126" s="10"/>
       <c r="EX126" s="10"/>
     </row>
-    <row r="127" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>10</v>
       </c>
@@ -41344,43 +41534,45 @@
       <c r="BY127" s="16">
         <v>100</v>
       </c>
-      <c r="BZ127" s="16">
+      <c r="BZ127" s="27">
         <v>100</v>
       </c>
-      <c r="CA127" s="16">
+      <c r="CA127" s="27">
         <v>100</v>
       </c>
-      <c r="CB127" s="16">
+      <c r="CB127" s="27">
         <v>100</v>
       </c>
-      <c r="CC127" s="16">
+      <c r="CC127" s="27">
         <v>100</v>
       </c>
-      <c r="CD127" s="29">
+      <c r="CD127" s="27">
         <v>100</v>
       </c>
-      <c r="CE127" s="29">
+      <c r="CE127" s="27">
         <v>100</v>
       </c>
-      <c r="CF127" s="29">
+      <c r="CF127" s="27">
         <v>100</v>
       </c>
-      <c r="CG127" s="29">
+      <c r="CG127" s="27">
         <v>100</v>
       </c>
-      <c r="CH127" s="29">
+      <c r="CH127" s="27">
         <v>100</v>
       </c>
-      <c r="CI127" s="29">
+      <c r="CI127" s="27">
         <v>100</v>
       </c>
-      <c r="CJ127" s="29">
+      <c r="CJ127" s="27">
         <v>100</v>
       </c>
-      <c r="CK127" s="29">
+      <c r="CK127" s="27">
         <v>100</v>
       </c>
-      <c r="CL127" s="10"/>
+      <c r="CL127" s="27">
+        <v>100</v>
+      </c>
       <c r="CM127" s="10"/>
       <c r="CN127" s="10"/>
       <c r="CO127" s="10"/>
@@ -41446,7 +41638,7 @@
       <c r="EW127" s="10"/>
       <c r="EX127" s="10"/>
     </row>
-    <row r="128" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -41524,10 +41716,10 @@
       <c r="BW128" s="13"/>
       <c r="BX128" s="13"/>
       <c r="BY128" s="13"/>
-      <c r="BZ128" s="13"/>
-      <c r="CA128" s="13"/>
-      <c r="CB128" s="13"/>
-      <c r="CC128" s="13"/>
+      <c r="BZ128" s="26"/>
+      <c r="CA128" s="26"/>
+      <c r="CB128" s="26"/>
+      <c r="CC128" s="26"/>
       <c r="CD128" s="26"/>
       <c r="CE128" s="26"/>
       <c r="CF128" s="26"/>
@@ -41536,13 +41728,14 @@
       <c r="CI128" s="26"/>
       <c r="CJ128" s="26"/>
       <c r="CK128" s="26"/>
+      <c r="CL128" s="26"/>
     </row>
-    <row r="129" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -41619,10 +41812,10 @@
       <c r="BW130" s="10"/>
       <c r="BX130" s="10"/>
       <c r="BY130" s="10"/>
-      <c r="BZ130" s="10"/>
-      <c r="CA130" s="10"/>
-      <c r="CB130" s="10"/>
-      <c r="CC130" s="10"/>
+      <c r="BZ130" s="23"/>
+      <c r="CA130" s="23"/>
+      <c r="CB130" s="23"/>
+      <c r="CC130" s="23"/>
       <c r="CD130" s="23"/>
       <c r="CE130" s="23"/>
       <c r="CF130" s="23"/>
@@ -41631,7 +41824,7 @@
       <c r="CI130" s="23"/>
       <c r="CJ130" s="23"/>
       <c r="CK130" s="23"/>
-      <c r="CL130" s="10"/>
+      <c r="CL130" s="23"/>
       <c r="CM130" s="10"/>
       <c r="CN130" s="10"/>
       <c r="CO130" s="10"/>
@@ -41697,7 +41890,7 @@
       <c r="EW130" s="10"/>
       <c r="EX130" s="10"/>
     </row>
-    <row r="131" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
@@ -41774,10 +41967,10 @@
       <c r="BW131" s="10"/>
       <c r="BX131" s="10"/>
       <c r="BY131" s="10"/>
-      <c r="BZ131" s="10"/>
-      <c r="CA131" s="10"/>
-      <c r="CB131" s="10"/>
-      <c r="CC131" s="10"/>
+      <c r="BZ131" s="23"/>
+      <c r="CA131" s="23"/>
+      <c r="CB131" s="23"/>
+      <c r="CC131" s="23"/>
       <c r="CD131" s="23"/>
       <c r="CE131" s="23"/>
       <c r="CF131" s="23"/>
@@ -41786,7 +41979,7 @@
       <c r="CI131" s="23"/>
       <c r="CJ131" s="23"/>
       <c r="CK131" s="23"/>
-      <c r="CL131" s="10"/>
+      <c r="CL131" s="23"/>
       <c r="CM131" s="10"/>
       <c r="CN131" s="10"/>
       <c r="CO131" s="10"/>
@@ -41852,37 +42045,37 @@
       <c r="EW131" s="10"/>
       <c r="EX131" s="10"/>
     </row>
-    <row r="132" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="32">
         <v>2000</v>
@@ -41998,12 +42191,12 @@
       <c r="BW140" s="33"/>
       <c r="BX140" s="33"/>
       <c r="BY140" s="33"/>
-      <c r="BZ140" s="32">
+      <c r="BZ140" s="31">
         <v>2019</v>
       </c>
-      <c r="CA140" s="33"/>
-      <c r="CB140" s="33"/>
-      <c r="CC140" s="33"/>
+      <c r="CA140" s="35"/>
+      <c r="CB140" s="35"/>
+      <c r="CC140" s="35"/>
       <c r="CD140" s="31">
         <v>2020</v>
       </c>
@@ -42016,8 +42209,11 @@
       <c r="CI140" s="31"/>
       <c r="CJ140" s="31"/>
       <c r="CK140" s="31"/>
+      <c r="CL140" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="141" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>16</v>
       </c>
@@ -42249,16 +42445,16 @@
       <c r="BY141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BZ141" s="7" t="s">
+      <c r="BZ141" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="CA141" s="7" t="s">
+      <c r="CA141" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CB141" s="7" t="s">
+      <c r="CB141" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CC141" s="7" t="s">
+      <c r="CC141" s="21" t="s">
         <v>8</v>
       </c>
       <c r="CD141" s="21" t="s">
@@ -42285,11 +42481,14 @@
       <c r="CK141" s="21" t="s">
         <v>8</v>
       </c>
+      <c r="CL141" s="21" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="142" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
     </row>
-    <row r="143" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>15</v>
       </c>
@@ -42521,43 +42720,45 @@
       <c r="BY143" s="16">
         <v>51.926269131364059</v>
       </c>
-      <c r="BZ143" s="16">
+      <c r="BZ143" s="27">
         <v>50.236514999284246</v>
       </c>
-      <c r="CA143" s="16">
+      <c r="CA143" s="27">
         <v>52.227138953989069</v>
       </c>
-      <c r="CB143" s="16">
+      <c r="CB143" s="27">
         <v>48.373301399876937</v>
       </c>
-      <c r="CC143" s="16">
+      <c r="CC143" s="27">
         <v>52.807467305857379</v>
       </c>
-      <c r="CD143" s="29">
-        <v>50.37081649563774</v>
-      </c>
-      <c r="CE143" s="29">
-        <v>45.027463913031966</v>
-      </c>
-      <c r="CF143" s="29">
-        <v>51.575843297923576</v>
-      </c>
-      <c r="CG143" s="29">
-        <v>57.295719364857334</v>
-      </c>
-      <c r="CH143" s="29">
-        <v>53.936616181824007</v>
-      </c>
-      <c r="CI143" s="29">
-        <v>46.241269625734262</v>
-      </c>
-      <c r="CJ143" s="29">
-        <v>51.256975729488119</v>
-      </c>
-      <c r="CK143" s="29">
-        <v>56.13768966648859</v>
-      </c>
-      <c r="CL143" s="10"/>
+      <c r="CD143" s="27">
+        <v>49.952796796989958</v>
+      </c>
+      <c r="CE143" s="27">
+        <v>44.782870186892062</v>
+      </c>
+      <c r="CF143" s="27">
+        <v>51.392161998360208</v>
+      </c>
+      <c r="CG143" s="27">
+        <v>56.660999737554675</v>
+      </c>
+      <c r="CH143" s="27">
+        <v>53.815309249023201</v>
+      </c>
+      <c r="CI143" s="27">
+        <v>46.36492371202462</v>
+      </c>
+      <c r="CJ143" s="27">
+        <v>51.173094609362003</v>
+      </c>
+      <c r="CK143" s="27">
+        <v>55.662329973427894</v>
+      </c>
+      <c r="CL143" s="27">
+        <v>49.975448731746603</v>
+      </c>
       <c r="CM143" s="10"/>
       <c r="CN143" s="10"/>
       <c r="CO143" s="10"/>
@@ -42623,7 +42824,7 @@
       <c r="EW143" s="10"/>
       <c r="EX143" s="10"/>
     </row>
-    <row r="144" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>14</v>
       </c>
@@ -42855,43 +43056,45 @@
       <c r="BY144" s="16">
         <v>4.7084285862037465</v>
       </c>
-      <c r="BZ144" s="16">
+      <c r="BZ144" s="27">
         <v>5.8422691308860051</v>
       </c>
-      <c r="CA144" s="16">
+      <c r="CA144" s="27">
         <v>6.4375704393494217</v>
       </c>
-      <c r="CB144" s="16">
+      <c r="CB144" s="27">
         <v>4.7133637135645001</v>
       </c>
-      <c r="CC144" s="16">
+      <c r="CC144" s="27">
         <v>4.3143096626449564</v>
       </c>
-      <c r="CD144" s="29">
-        <v>6.0260227331631029</v>
-      </c>
-      <c r="CE144" s="29">
-        <v>5.0983481759644071</v>
-      </c>
-      <c r="CF144" s="29">
-        <v>4.2538501207335431</v>
-      </c>
-      <c r="CG144" s="29">
-        <v>3.8565374598628077</v>
-      </c>
-      <c r="CH144" s="29">
-        <v>4.8308219040382117</v>
-      </c>
-      <c r="CI144" s="29">
-        <v>4.2964580471833349</v>
-      </c>
-      <c r="CJ144" s="29">
-        <v>4.3162433810434475</v>
-      </c>
-      <c r="CK144" s="29">
-        <v>4.3394686560518494</v>
-      </c>
-      <c r="CL144" s="10"/>
+      <c r="CD144" s="27">
+        <v>5.9632502118595356</v>
+      </c>
+      <c r="CE144" s="27">
+        <v>6.0194425149913995</v>
+      </c>
+      <c r="CF144" s="27">
+        <v>4.0706243719179982</v>
+      </c>
+      <c r="CG144" s="27">
+        <v>4.1289140461433504</v>
+      </c>
+      <c r="CH144" s="27">
+        <v>4.8011417832938825</v>
+      </c>
+      <c r="CI144" s="27">
+        <v>5.0894094394341511</v>
+      </c>
+      <c r="CJ144" s="27">
+        <v>4.1261913787901685</v>
+      </c>
+      <c r="CK144" s="27">
+        <v>4.2822417601134211</v>
+      </c>
+      <c r="CL144" s="27">
+        <v>5.1107021178961753</v>
+      </c>
       <c r="CM144" s="10"/>
       <c r="CN144" s="10"/>
       <c r="CO144" s="10"/>
@@ -42957,7 +43160,7 @@
       <c r="EW144" s="10"/>
       <c r="EX144" s="10"/>
     </row>
-    <row r="145" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>13</v>
       </c>
@@ -43189,43 +43392,45 @@
       <c r="BY145" s="16">
         <v>13.662480646936807</v>
       </c>
-      <c r="BZ145" s="16">
+      <c r="BZ145" s="27">
         <v>17.038112064388553</v>
       </c>
-      <c r="CA145" s="16">
+      <c r="CA145" s="27">
         <v>16.321979425706655</v>
       </c>
-      <c r="CB145" s="16">
+      <c r="CB145" s="27">
         <v>16.253120400047173</v>
       </c>
-      <c r="CC145" s="16">
+      <c r="CC145" s="27">
         <v>14.273987574809119</v>
       </c>
-      <c r="CD145" s="29">
-        <v>15.693578988700917</v>
-      </c>
-      <c r="CE145" s="29">
-        <v>0.66527427747497436</v>
-      </c>
-      <c r="CF145" s="29">
-        <v>3.2958732940676576</v>
-      </c>
-      <c r="CG145" s="29">
-        <v>4.201182014165469</v>
-      </c>
-      <c r="CH145" s="29">
-        <v>5.1400025470761328</v>
-      </c>
-      <c r="CI145" s="29">
-        <v>3.4669786306257029</v>
-      </c>
-      <c r="CJ145" s="29">
-        <v>5.6198875151723842</v>
-      </c>
-      <c r="CK145" s="29">
-        <v>5.8104781868669004</v>
-      </c>
-      <c r="CL145" s="10"/>
+      <c r="CD145" s="27">
+        <v>15.634332403474843</v>
+      </c>
+      <c r="CE145" s="27">
+        <v>0.65730417742578284</v>
+      </c>
+      <c r="CF145" s="27">
+        <v>3.3118119305596849</v>
+      </c>
+      <c r="CG145" s="27">
+        <v>4.111618460071143</v>
+      </c>
+      <c r="CH145" s="27">
+        <v>5.1414512963975305</v>
+      </c>
+      <c r="CI145" s="27">
+        <v>3.4345760711322266</v>
+      </c>
+      <c r="CJ145" s="27">
+        <v>5.6426694604071521</v>
+      </c>
+      <c r="CK145" s="27">
+        <v>5.9772906046387186</v>
+      </c>
+      <c r="CL145" s="27">
+        <v>10.724422724670097</v>
+      </c>
       <c r="CM145" s="10"/>
       <c r="CN145" s="10"/>
       <c r="CO145" s="10"/>
@@ -43291,7 +43496,7 @@
       <c r="EW145" s="10"/>
       <c r="EX145" s="10"/>
     </row>
-    <row r="146" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -43523,43 +43728,45 @@
       <c r="BY146" s="16">
         <v>24.927335755771686</v>
       </c>
-      <c r="BZ146" s="16">
+      <c r="BZ146" s="27">
         <v>23.304459923182545</v>
       </c>
-      <c r="CA146" s="16">
+      <c r="CA146" s="27">
         <v>21.729014200560719</v>
       </c>
-      <c r="CB146" s="16">
+      <c r="CB146" s="27">
         <v>27.173841013215274</v>
       </c>
-      <c r="CC146" s="16">
+      <c r="CC146" s="27">
         <v>23.933317922651977</v>
       </c>
-      <c r="CD146" s="29">
-        <v>23.754511169992927</v>
-      </c>
-      <c r="CE146" s="29">
-        <v>43.415193325485809</v>
-      </c>
-      <c r="CF146" s="29">
-        <v>34.860224736398095</v>
-      </c>
-      <c r="CG146" s="29">
-        <v>28.350147631023809</v>
-      </c>
-      <c r="CH146" s="29">
-        <v>30.331641261815889</v>
-      </c>
-      <c r="CI146" s="29">
-        <v>37.911019715249218</v>
-      </c>
-      <c r="CJ146" s="29">
-        <v>33.92524254018732</v>
-      </c>
-      <c r="CK146" s="29">
-        <v>28.379624899173333</v>
-      </c>
-      <c r="CL146" s="10"/>
+      <c r="CD146" s="27">
+        <v>24.18443699956568</v>
+      </c>
+      <c r="CE146" s="27">
+        <v>42.816072576523638</v>
+      </c>
+      <c r="CF146" s="27">
+        <v>35.182108813018743</v>
+      </c>
+      <c r="CG146" s="27">
+        <v>28.87493701540928</v>
+      </c>
+      <c r="CH146" s="27">
+        <v>30.340769769207437</v>
+      </c>
+      <c r="CI146" s="27">
+        <v>37.102372834050641</v>
+      </c>
+      <c r="CJ146" s="27">
+        <v>34.156604441895801</v>
+      </c>
+      <c r="CK146" s="27">
+        <v>28.718431653385913</v>
+      </c>
+      <c r="CL146" s="27">
+        <v>29.709059536824078</v>
+      </c>
       <c r="CM146" s="10"/>
       <c r="CN146" s="10"/>
       <c r="CO146" s="10"/>
@@ -43625,7 +43832,7 @@
       <c r="EW146" s="10"/>
       <c r="EX146" s="10"/>
     </row>
-    <row r="147" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -43857,43 +44064,45 @@
       <c r="BY147" s="16">
         <v>4.7754858797237132</v>
       </c>
-      <c r="BZ147" s="16">
+      <c r="BZ147" s="27">
         <v>3.5786438822586502</v>
       </c>
-      <c r="CA147" s="16">
+      <c r="CA147" s="27">
         <v>3.2842969803941244</v>
       </c>
-      <c r="CB147" s="16">
+      <c r="CB147" s="27">
         <v>3.4863734732961351</v>
       </c>
-      <c r="CC147" s="16">
+      <c r="CC147" s="27">
         <v>4.670917534036561</v>
       </c>
-      <c r="CD147" s="29">
-        <v>4.1550706125053285</v>
-      </c>
-      <c r="CE147" s="29">
-        <v>5.7937203080428468</v>
-      </c>
-      <c r="CF147" s="29">
-        <v>6.0142085508771297</v>
-      </c>
-      <c r="CG147" s="29">
-        <v>6.2964135300905717</v>
-      </c>
-      <c r="CH147" s="29">
-        <v>5.7609181052457554</v>
-      </c>
-      <c r="CI147" s="29">
-        <v>8.0842739812074829</v>
-      </c>
-      <c r="CJ147" s="29">
-        <v>4.8816508341087204</v>
-      </c>
-      <c r="CK147" s="29">
-        <v>5.3327385914193215</v>
-      </c>
-      <c r="CL147" s="10"/>
+      <c r="CD147" s="27">
+        <v>4.265183588109986</v>
+      </c>
+      <c r="CE147" s="27">
+        <v>5.7243105441671176</v>
+      </c>
+      <c r="CF147" s="27">
+        <v>6.043292886143357</v>
+      </c>
+      <c r="CG147" s="27">
+        <v>6.2235307408215528</v>
+      </c>
+      <c r="CH147" s="27">
+        <v>5.9013279020779494</v>
+      </c>
+      <c r="CI147" s="27">
+        <v>8.0087179433583646</v>
+      </c>
+      <c r="CJ147" s="27">
+        <v>4.9014401095448701</v>
+      </c>
+      <c r="CK147" s="27">
+        <v>5.3597060084340651</v>
+      </c>
+      <c r="CL147" s="27">
+        <v>4.4803668888630446</v>
+      </c>
       <c r="CM147" s="10"/>
       <c r="CN147" s="10"/>
       <c r="CO147" s="10"/>
@@ -43959,7 +44168,7 @@
       <c r="EW147" s="10"/>
       <c r="EX147" s="10"/>
     </row>
-    <row r="148" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
@@ -44036,10 +44245,10 @@
       <c r="BW148" s="10"/>
       <c r="BX148" s="10"/>
       <c r="BY148" s="10"/>
-      <c r="BZ148" s="10"/>
-      <c r="CA148" s="10"/>
-      <c r="CB148" s="10"/>
-      <c r="CC148" s="10"/>
+      <c r="BZ148" s="23"/>
+      <c r="CA148" s="23"/>
+      <c r="CB148" s="23"/>
+      <c r="CC148" s="23"/>
       <c r="CD148" s="23"/>
       <c r="CE148" s="23"/>
       <c r="CF148" s="23"/>
@@ -44048,7 +44257,7 @@
       <c r="CI148" s="23"/>
       <c r="CJ148" s="23"/>
       <c r="CK148" s="23"/>
-      <c r="CL148" s="10"/>
+      <c r="CL148" s="23"/>
       <c r="CM148" s="10"/>
       <c r="CN148" s="10"/>
       <c r="CO148" s="10"/>
@@ -44114,7 +44323,7 @@
       <c r="EW148" s="10"/>
       <c r="EX148" s="10"/>
     </row>
-    <row r="149" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>10</v>
       </c>
@@ -44346,43 +44555,45 @@
       <c r="BY149" s="16">
         <v>100</v>
       </c>
-      <c r="BZ149" s="16">
+      <c r="BZ149" s="27">
         <v>100</v>
       </c>
-      <c r="CA149" s="16">
+      <c r="CA149" s="27">
         <v>100</v>
       </c>
-      <c r="CB149" s="16">
+      <c r="CB149" s="27">
         <v>100</v>
       </c>
-      <c r="CC149" s="16">
+      <c r="CC149" s="27">
         <v>100</v>
       </c>
-      <c r="CD149" s="29">
+      <c r="CD149" s="27">
         <v>100</v>
       </c>
-      <c r="CE149" s="29">
+      <c r="CE149" s="27">
         <v>100</v>
       </c>
-      <c r="CF149" s="29">
+      <c r="CF149" s="27">
         <v>100</v>
       </c>
-      <c r="CG149" s="29">
+      <c r="CG149" s="27">
         <v>100</v>
       </c>
-      <c r="CH149" s="29">
+      <c r="CH149" s="27">
         <v>100</v>
       </c>
-      <c r="CI149" s="29">
+      <c r="CI149" s="27">
         <v>100</v>
       </c>
-      <c r="CJ149" s="29">
+      <c r="CJ149" s="27">
         <v>100</v>
       </c>
-      <c r="CK149" s="29">
+      <c r="CK149" s="27">
         <v>100</v>
       </c>
-      <c r="CL149" s="10"/>
+      <c r="CL149" s="27">
+        <v>100</v>
+      </c>
       <c r="CM149" s="10"/>
       <c r="CN149" s="10"/>
       <c r="CO149" s="10"/>
@@ -44448,7 +44659,7 @@
       <c r="EW149" s="10"/>
       <c r="EX149" s="10"/>
     </row>
-    <row r="150" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -44526,10 +44737,10 @@
       <c r="BW150" s="13"/>
       <c r="BX150" s="13"/>
       <c r="BY150" s="13"/>
-      <c r="BZ150" s="13"/>
-      <c r="CA150" s="13"/>
-      <c r="CB150" s="13"/>
-      <c r="CC150" s="13"/>
+      <c r="BZ150" s="26"/>
+      <c r="CA150" s="26"/>
+      <c r="CB150" s="26"/>
+      <c r="CC150" s="26"/>
       <c r="CD150" s="26"/>
       <c r="CE150" s="26"/>
       <c r="CF150" s="26"/>
@@ -44538,13 +44749,14 @@
       <c r="CI150" s="26"/>
       <c r="CJ150" s="26"/>
       <c r="CK150" s="26"/>
+      <c r="CL150" s="26"/>
     </row>
-    <row r="151" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:154" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:154" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -44622,19 +44834,19 @@
       <c r="BW152" s="1"/>
       <c r="BX152" s="1"/>
       <c r="BY152" s="1"/>
-      <c r="BZ152" s="1"/>
-      <c r="CA152" s="1"/>
-      <c r="CB152" s="1"/>
-      <c r="CC152" s="1"/>
-      <c r="CD152" s="19"/>
-      <c r="CE152" s="19"/>
-      <c r="CF152" s="19"/>
-      <c r="CG152" s="19"/>
-      <c r="CH152" s="19"/>
-      <c r="CI152" s="19"/>
-      <c r="CJ152" s="19"/>
-      <c r="CK152" s="19"/>
-      <c r="CL152" s="17"/>
+      <c r="BZ152" s="19"/>
+      <c r="CA152" s="19"/>
+      <c r="CB152" s="19"/>
+      <c r="CC152" s="19"/>
+      <c r="CD152" s="30"/>
+      <c r="CE152" s="30"/>
+      <c r="CF152" s="30"/>
+      <c r="CG152" s="30"/>
+      <c r="CH152" s="30"/>
+      <c r="CI152" s="30"/>
+      <c r="CJ152" s="30"/>
+      <c r="CK152" s="30"/>
+      <c r="CL152" s="30"/>
       <c r="CM152" s="17"/>
       <c r="CN152" s="17"/>
       <c r="CO152" s="17"/>
@@ -44700,7 +44912,7 @@
       <c r="EW152" s="17"/>
       <c r="EX152" s="17"/>
     </row>
-    <row r="153" spans="1:154" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:154" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -44778,19 +44990,19 @@
       <c r="BW153" s="1"/>
       <c r="BX153" s="1"/>
       <c r="BY153" s="1"/>
-      <c r="BZ153" s="1"/>
-      <c r="CA153" s="1"/>
-      <c r="CB153" s="1"/>
-      <c r="CC153" s="1"/>
-      <c r="CD153" s="19"/>
-      <c r="CE153" s="19"/>
-      <c r="CF153" s="19"/>
-      <c r="CG153" s="19"/>
-      <c r="CH153" s="19"/>
-      <c r="CI153" s="19"/>
-      <c r="CJ153" s="19"/>
-      <c r="CK153" s="19"/>
-      <c r="CL153" s="17"/>
+      <c r="BZ153" s="19"/>
+      <c r="CA153" s="19"/>
+      <c r="CB153" s="19"/>
+      <c r="CC153" s="19"/>
+      <c r="CD153" s="30"/>
+      <c r="CE153" s="30"/>
+      <c r="CF153" s="30"/>
+      <c r="CG153" s="30"/>
+      <c r="CH153" s="30"/>
+      <c r="CI153" s="30"/>
+      <c r="CJ153" s="30"/>
+      <c r="CK153" s="30"/>
+      <c r="CL153" s="30"/>
       <c r="CM153" s="17"/>
       <c r="CN153" s="17"/>
       <c r="CO153" s="17"/>
@@ -44855,6 +45067,330 @@
       <c r="EV153" s="17"/>
       <c r="EW153" s="17"/>
       <c r="EX153" s="17"/>
+    </row>
+    <row r="159" spans="1:154" x14ac:dyDescent="0.2">
+      <c r="CC159" s="1"/>
+      <c r="CD159" s="1"/>
+      <c r="CE159" s="1"/>
+      <c r="CF159" s="1"/>
+      <c r="CG159" s="1"/>
+      <c r="CH159" s="1"/>
+      <c r="CI159" s="1"/>
+      <c r="CJ159" s="1"/>
+      <c r="CK159" s="1"/>
+      <c r="CL159" s="1"/>
+    </row>
+    <row r="160" spans="1:154" x14ac:dyDescent="0.2">
+      <c r="CC160" s="1"/>
+      <c r="CD160" s="1"/>
+      <c r="CE160" s="1"/>
+      <c r="CF160" s="1"/>
+      <c r="CG160" s="1"/>
+      <c r="CH160" s="1"/>
+      <c r="CI160" s="1"/>
+      <c r="CJ160" s="1"/>
+      <c r="CK160" s="1"/>
+      <c r="CL160" s="1"/>
+    </row>
+    <row r="161" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC161" s="1"/>
+      <c r="CD161" s="1"/>
+      <c r="CE161" s="1"/>
+      <c r="CF161" s="1"/>
+      <c r="CG161" s="1"/>
+      <c r="CH161" s="1"/>
+      <c r="CI161" s="1"/>
+      <c r="CJ161" s="1"/>
+      <c r="CK161" s="1"/>
+      <c r="CL161" s="1"/>
+    </row>
+    <row r="162" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC162" s="1"/>
+      <c r="CD162" s="1"/>
+      <c r="CE162" s="1"/>
+      <c r="CF162" s="1"/>
+      <c r="CG162" s="1"/>
+      <c r="CH162" s="1"/>
+      <c r="CI162" s="1"/>
+      <c r="CJ162" s="1"/>
+      <c r="CK162" s="1"/>
+      <c r="CL162" s="1"/>
+    </row>
+    <row r="163" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC163" s="1"/>
+      <c r="CD163" s="1"/>
+      <c r="CE163" s="1"/>
+      <c r="CF163" s="1"/>
+      <c r="CG163" s="1"/>
+      <c r="CH163" s="1"/>
+      <c r="CI163" s="1"/>
+      <c r="CJ163" s="1"/>
+      <c r="CK163" s="1"/>
+      <c r="CL163" s="1"/>
+    </row>
+    <row r="164" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC164" s="1"/>
+      <c r="CD164" s="1"/>
+      <c r="CE164" s="1"/>
+      <c r="CF164" s="1"/>
+      <c r="CG164" s="1"/>
+      <c r="CH164" s="1"/>
+      <c r="CI164" s="1"/>
+      <c r="CJ164" s="1"/>
+      <c r="CK164" s="1"/>
+      <c r="CL164" s="1"/>
+    </row>
+    <row r="165" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC165" s="1"/>
+      <c r="CD165" s="1"/>
+      <c r="CE165" s="1"/>
+      <c r="CF165" s="1"/>
+      <c r="CG165" s="1"/>
+      <c r="CH165" s="1"/>
+      <c r="CI165" s="1"/>
+      <c r="CJ165" s="1"/>
+      <c r="CK165" s="1"/>
+      <c r="CL165" s="1"/>
+    </row>
+    <row r="166" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC166" s="1"/>
+      <c r="CD166" s="1"/>
+      <c r="CE166" s="1"/>
+      <c r="CF166" s="1"/>
+      <c r="CG166" s="1"/>
+      <c r="CH166" s="1"/>
+      <c r="CI166" s="1"/>
+      <c r="CJ166" s="1"/>
+      <c r="CK166" s="1"/>
+      <c r="CL166" s="1"/>
+    </row>
+    <row r="167" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC167" s="1"/>
+      <c r="CD167" s="1"/>
+      <c r="CE167" s="1"/>
+      <c r="CF167" s="1"/>
+      <c r="CG167" s="1"/>
+      <c r="CH167" s="1"/>
+      <c r="CI167" s="1"/>
+      <c r="CJ167" s="1"/>
+      <c r="CK167" s="1"/>
+      <c r="CL167" s="1"/>
+    </row>
+    <row r="168" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC168" s="1"/>
+      <c r="CD168" s="1"/>
+      <c r="CE168" s="1"/>
+      <c r="CF168" s="1"/>
+      <c r="CG168" s="1"/>
+      <c r="CH168" s="1"/>
+      <c r="CI168" s="1"/>
+      <c r="CJ168" s="1"/>
+      <c r="CK168" s="1"/>
+      <c r="CL168" s="1"/>
+    </row>
+    <row r="169" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC169" s="1"/>
+      <c r="CD169" s="1"/>
+      <c r="CE169" s="1"/>
+      <c r="CF169" s="1"/>
+      <c r="CG169" s="1"/>
+      <c r="CH169" s="1"/>
+      <c r="CI169" s="1"/>
+      <c r="CJ169" s="1"/>
+      <c r="CK169" s="1"/>
+      <c r="CL169" s="1"/>
+    </row>
+    <row r="170" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC170" s="1"/>
+      <c r="CD170" s="1"/>
+      <c r="CE170" s="1"/>
+      <c r="CF170" s="1"/>
+      <c r="CG170" s="1"/>
+      <c r="CH170" s="1"/>
+      <c r="CI170" s="1"/>
+      <c r="CJ170" s="1"/>
+      <c r="CK170" s="1"/>
+      <c r="CL170" s="1"/>
+    </row>
+    <row r="171" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC171" s="1"/>
+      <c r="CD171" s="1"/>
+      <c r="CE171" s="1"/>
+      <c r="CF171" s="1"/>
+      <c r="CG171" s="1"/>
+      <c r="CH171" s="1"/>
+      <c r="CI171" s="1"/>
+      <c r="CJ171" s="1"/>
+      <c r="CK171" s="1"/>
+      <c r="CL171" s="1"/>
+    </row>
+    <row r="172" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC172" s="1"/>
+      <c r="CD172" s="1"/>
+      <c r="CE172" s="1"/>
+      <c r="CF172" s="1"/>
+      <c r="CG172" s="1"/>
+      <c r="CH172" s="1"/>
+      <c r="CI172" s="1"/>
+      <c r="CJ172" s="1"/>
+      <c r="CK172" s="1"/>
+      <c r="CL172" s="1"/>
+    </row>
+    <row r="173" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC173" s="1"/>
+      <c r="CD173" s="1"/>
+      <c r="CE173" s="1"/>
+      <c r="CF173" s="1"/>
+      <c r="CG173" s="1"/>
+      <c r="CH173" s="1"/>
+      <c r="CI173" s="1"/>
+      <c r="CJ173" s="1"/>
+      <c r="CK173" s="1"/>
+      <c r="CL173" s="1"/>
+    </row>
+    <row r="174" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC174" s="1"/>
+      <c r="CD174" s="1"/>
+      <c r="CE174" s="1"/>
+      <c r="CF174" s="1"/>
+      <c r="CG174" s="1"/>
+      <c r="CH174" s="1"/>
+      <c r="CI174" s="1"/>
+      <c r="CJ174" s="1"/>
+      <c r="CK174" s="1"/>
+      <c r="CL174" s="1"/>
+    </row>
+    <row r="175" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC175" s="1"/>
+      <c r="CD175" s="1"/>
+      <c r="CE175" s="1"/>
+      <c r="CF175" s="1"/>
+      <c r="CG175" s="1"/>
+      <c r="CH175" s="1"/>
+      <c r="CI175" s="1"/>
+      <c r="CJ175" s="1"/>
+      <c r="CK175" s="1"/>
+      <c r="CL175" s="1"/>
+    </row>
+    <row r="176" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC176" s="1"/>
+      <c r="CD176" s="1"/>
+      <c r="CE176" s="1"/>
+      <c r="CF176" s="1"/>
+      <c r="CG176" s="1"/>
+      <c r="CH176" s="1"/>
+      <c r="CI176" s="1"/>
+      <c r="CJ176" s="1"/>
+      <c r="CK176" s="1"/>
+      <c r="CL176" s="1"/>
+    </row>
+    <row r="177" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC177" s="1"/>
+      <c r="CD177" s="1"/>
+      <c r="CE177" s="1"/>
+      <c r="CF177" s="1"/>
+      <c r="CG177" s="1"/>
+      <c r="CH177" s="1"/>
+      <c r="CI177" s="1"/>
+      <c r="CJ177" s="1"/>
+      <c r="CK177" s="1"/>
+      <c r="CL177" s="1"/>
+    </row>
+    <row r="178" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC178" s="1"/>
+      <c r="CD178" s="1"/>
+      <c r="CE178" s="1"/>
+      <c r="CF178" s="1"/>
+      <c r="CG178" s="1"/>
+      <c r="CH178" s="1"/>
+      <c r="CI178" s="1"/>
+      <c r="CJ178" s="1"/>
+      <c r="CK178" s="1"/>
+      <c r="CL178" s="1"/>
+    </row>
+    <row r="179" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC179" s="1"/>
+      <c r="CD179" s="1"/>
+      <c r="CE179" s="1"/>
+      <c r="CF179" s="1"/>
+      <c r="CG179" s="1"/>
+      <c r="CH179" s="1"/>
+      <c r="CI179" s="1"/>
+      <c r="CJ179" s="1"/>
+      <c r="CK179" s="1"/>
+      <c r="CL179" s="1"/>
+    </row>
+    <row r="180" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC180" s="1"/>
+      <c r="CD180" s="1"/>
+      <c r="CE180" s="1"/>
+      <c r="CF180" s="1"/>
+      <c r="CG180" s="1"/>
+      <c r="CH180" s="1"/>
+      <c r="CI180" s="1"/>
+      <c r="CJ180" s="1"/>
+      <c r="CK180" s="1"/>
+      <c r="CL180" s="1"/>
+    </row>
+    <row r="181" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC181" s="1"/>
+      <c r="CD181" s="1"/>
+      <c r="CE181" s="1"/>
+      <c r="CF181" s="1"/>
+      <c r="CG181" s="1"/>
+      <c r="CH181" s="1"/>
+      <c r="CI181" s="1"/>
+      <c r="CJ181" s="1"/>
+      <c r="CK181" s="1"/>
+      <c r="CL181" s="1"/>
+    </row>
+    <row r="182" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC182" s="1"/>
+      <c r="CD182" s="1"/>
+      <c r="CE182" s="1"/>
+      <c r="CF182" s="1"/>
+      <c r="CG182" s="1"/>
+      <c r="CH182" s="1"/>
+      <c r="CI182" s="1"/>
+      <c r="CJ182" s="1"/>
+      <c r="CK182" s="1"/>
+      <c r="CL182" s="1"/>
+    </row>
+    <row r="183" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC183" s="1"/>
+      <c r="CD183" s="1"/>
+      <c r="CE183" s="1"/>
+      <c r="CF183" s="1"/>
+      <c r="CG183" s="1"/>
+      <c r="CH183" s="1"/>
+      <c r="CI183" s="1"/>
+      <c r="CJ183" s="1"/>
+      <c r="CK183" s="1"/>
+      <c r="CL183" s="1"/>
+    </row>
+    <row r="184" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC184" s="1"/>
+      <c r="CD184" s="1"/>
+      <c r="CE184" s="1"/>
+      <c r="CF184" s="1"/>
+      <c r="CG184" s="1"/>
+      <c r="CH184" s="1"/>
+      <c r="CI184" s="1"/>
+      <c r="CJ184" s="1"/>
+      <c r="CK184" s="1"/>
+      <c r="CL184" s="1"/>
+    </row>
+    <row r="185" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC185" s="1"/>
+      <c r="CD185" s="1"/>
+      <c r="CE185" s="1"/>
+      <c r="CF185" s="1"/>
+      <c r="CG185" s="1"/>
+      <c r="CH185" s="1"/>
+      <c r="CI185" s="1"/>
+      <c r="CJ185" s="1"/>
+      <c r="CK185" s="1"/>
+      <c r="CL185" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="152">

--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3051C0-06AE-4B3E-92EC-1DE3162B08C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E86E1F8-C572-426B-B57E-6909B5DC226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="8" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CK$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CM$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -623,13 +623,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
@@ -637,10 +637,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -711,86 +711,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{EFB8F71A-F32D-4DB3-9C63-E0A92DC838A2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2F08E139-CE75-44FC-B5E0-FF689315F1E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23629,43 +23610,42 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EX185"/>
+  <dimension ref="A1:EX153"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A136" colorId="22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CI73" sqref="CI73:CL87"/>
+      <selection pane="topRight" activeCell="CH2" sqref="CH1:CM1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="77" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="90" width="10.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="91" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -23745,21 +23725,22 @@
       <c r="BW6" s="4"/>
       <c r="BX6" s="4"/>
       <c r="BY6" s="4"/>
-      <c r="BZ6" s="20"/>
-      <c r="CA6" s="20"/>
-      <c r="CB6" s="20"/>
-      <c r="CC6" s="20"/>
-      <c r="CD6" s="20"/>
-      <c r="CE6" s="20"/>
-      <c r="CF6" s="20"/>
-      <c r="CG6" s="20"/>
-      <c r="CH6" s="20"/>
-      <c r="CI6" s="20"/>
-      <c r="CJ6" s="20"/>
-      <c r="CK6" s="20"/>
-      <c r="CL6" s="20"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="4"/>
+      <c r="CI6" s="4"/>
+      <c r="CJ6" s="4"/>
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
     </row>
-    <row r="7" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -23839,21 +23820,22 @@
       <c r="BW7" s="4"/>
       <c r="BX7" s="4"/>
       <c r="BY7" s="4"/>
-      <c r="BZ7" s="20"/>
-      <c r="CA7" s="20"/>
-      <c r="CB7" s="20"/>
-      <c r="CC7" s="20"/>
-      <c r="CD7" s="20"/>
-      <c r="CE7" s="20"/>
-      <c r="CF7" s="20"/>
-      <c r="CG7" s="20"/>
-      <c r="CH7" s="20"/>
-      <c r="CI7" s="20"/>
-      <c r="CJ7" s="20"/>
-      <c r="CK7" s="20"/>
-      <c r="CL7" s="20"/>
+      <c r="BZ7" s="4"/>
+      <c r="CA7" s="4"/>
+      <c r="CB7" s="4"/>
+      <c r="CC7" s="4"/>
+      <c r="CD7" s="4"/>
+      <c r="CE7" s="4"/>
+      <c r="CF7" s="4"/>
+      <c r="CG7" s="4"/>
+      <c r="CH7" s="4"/>
+      <c r="CI7" s="4"/>
+      <c r="CJ7" s="4"/>
+      <c r="CK7" s="4"/>
+      <c r="CL7" s="4"/>
+      <c r="CM7" s="4"/>
     </row>
-    <row r="8" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -23930,159 +23912,161 @@
       <c r="BW8" s="4"/>
       <c r="BX8" s="4"/>
       <c r="BY8" s="4"/>
-      <c r="BZ8" s="20"/>
-      <c r="CA8" s="20"/>
-      <c r="CB8" s="20"/>
-      <c r="CC8" s="20"/>
-      <c r="CD8" s="20"/>
-      <c r="CE8" s="20"/>
-      <c r="CF8" s="20"/>
-      <c r="CG8" s="20"/>
-      <c r="CH8" s="20"/>
-      <c r="CI8" s="20"/>
-      <c r="CJ8" s="20"/>
-      <c r="CK8" s="20"/>
-      <c r="CL8" s="20"/>
+      <c r="BZ8" s="4"/>
+      <c r="CA8" s="4"/>
+      <c r="CB8" s="4"/>
+      <c r="CC8" s="4"/>
+      <c r="CD8" s="4"/>
+      <c r="CE8" s="4"/>
+      <c r="CF8" s="4"/>
+      <c r="CG8" s="4"/>
+      <c r="CH8" s="4"/>
+      <c r="CI8" s="4"/>
+      <c r="CJ8" s="4"/>
+      <c r="CK8" s="4"/>
+      <c r="CL8" s="4"/>
+      <c r="CM8" s="4"/>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="32">
+      <c r="B9" s="25">
         <v>2000</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>2001</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>2002</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <v>2003</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
         <v>2004</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25">
         <v>2005</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25">
         <v>2006</v>
       </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32">
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25">
         <v>2007</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32">
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25">
         <v>2008</v>
       </c>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32">
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25">
         <v>2009</v>
       </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32">
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32">
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25">
         <v>2011</v>
       </c>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32">
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25">
         <v>2012</v>
       </c>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32">
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25">
         <v>2013</v>
       </c>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32">
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25">
         <v>2014</v>
       </c>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32">
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25">
         <v>2015</v>
       </c>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32">
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25">
         <v>2016</v>
       </c>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32">
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25">
         <v>2017</v>
       </c>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32">
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25">
         <v>2018</v>
       </c>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="31">
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25">
         <v>2019</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="31"/>
-      <c r="CC9" s="31"/>
-      <c r="CD9" s="31">
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25">
         <v>2020</v>
       </c>
-      <c r="CE9" s="31"/>
-      <c r="CF9" s="31"/>
-      <c r="CG9" s="31"/>
-      <c r="CH9" s="31">
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="25">
         <v>2021</v>
       </c>
-      <c r="CI9" s="31"/>
-      <c r="CJ9" s="31"/>
-      <c r="CK9" s="31"/>
-      <c r="CL9" s="29">
+      <c r="CI9" s="25"/>
+      <c r="CJ9" s="25"/>
+      <c r="CK9" s="25"/>
+      <c r="CL9" s="25">
         <v>2022</v>
       </c>
+      <c r="CM9" s="25"/>
     </row>
-    <row r="10" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -24314,50 +24298,53 @@
       <c r="BY10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BZ10" s="21" t="s">
+      <c r="BZ10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CA10" s="21" t="s">
+      <c r="CA10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CB10" s="21" t="s">
+      <c r="CB10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CC10" s="21" t="s">
+      <c r="CC10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CD10" s="21" t="s">
+      <c r="CD10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CE10" s="21" t="s">
+      <c r="CE10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CF10" s="21" t="s">
+      <c r="CF10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CG10" s="21" t="s">
+      <c r="CG10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CH10" s="21" t="s">
+      <c r="CH10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CI10" s="21" t="s">
+      <c r="CI10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CJ10" s="21" t="s">
+      <c r="CJ10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK10" s="21" t="s">
+      <c r="CK10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL10" s="21" t="s">
+      <c r="CL10" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="CM10" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -24589,46 +24576,48 @@
       <c r="BY12" s="9">
         <v>88297.69220588282</v>
       </c>
-      <c r="BZ12" s="22">
+      <c r="BZ12" s="9">
         <v>93721.335016912504</v>
       </c>
-      <c r="CA12" s="22">
+      <c r="CA12" s="9">
         <v>112582.445255634</v>
       </c>
-      <c r="CB12" s="22">
+      <c r="CB12" s="9">
         <v>98272.473073975605</v>
       </c>
-      <c r="CC12" s="22">
+      <c r="CC12" s="9">
         <v>96473.611630007377</v>
       </c>
-      <c r="CD12" s="22">
+      <c r="CD12" s="9">
         <v>85833.42547521973</v>
       </c>
-      <c r="CE12" s="22">
+      <c r="CE12" s="9">
         <v>47227.58300161481</v>
       </c>
-      <c r="CF12" s="22">
+      <c r="CF12" s="9">
         <v>77970.887384953618</v>
       </c>
-      <c r="CG12" s="22">
+      <c r="CG12" s="9">
         <v>87043.333111853615</v>
       </c>
-      <c r="CH12" s="22">
+      <c r="CH12" s="20">
         <v>80310.943601616484</v>
       </c>
-      <c r="CI12" s="22">
+      <c r="CI12" s="20">
         <v>64886.17836900759</v>
       </c>
-      <c r="CJ12" s="22">
+      <c r="CJ12" s="20">
         <v>91755.469490844363</v>
       </c>
-      <c r="CK12" s="22">
+      <c r="CK12" s="20">
         <v>102146.00626455189</v>
       </c>
-      <c r="CL12" s="22">
-        <v>95167.464975351031</v>
-      </c>
-      <c r="CM12" s="10"/>
+      <c r="CL12" s="20">
+        <v>94971.188654406025</v>
+      </c>
+      <c r="CM12" s="20">
+        <v>85623.592707637814</v>
+      </c>
       <c r="CN12" s="10"/>
       <c r="CO12" s="10"/>
       <c r="CP12" s="10"/>
@@ -24693,7 +24682,7 @@
       <c r="EW12" s="10"/>
       <c r="EX12" s="10"/>
     </row>
-    <row r="13" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -24925,46 +24914,48 @@
       <c r="BY13" s="9">
         <v>7668.9342490694362</v>
       </c>
-      <c r="BZ13" s="22">
+      <c r="BZ13" s="9">
         <v>11612.6531308261</v>
       </c>
-      <c r="CA13" s="22">
+      <c r="CA13" s="9">
         <v>14532.705821970601</v>
       </c>
-      <c r="CB13" s="22">
+      <c r="CB13" s="9">
         <v>7859.5617314853698</v>
       </c>
-      <c r="CC13" s="22">
+      <c r="CC13" s="9">
         <v>7493.7042045622948</v>
       </c>
-      <c r="CD13" s="22">
+      <c r="CD13" s="9">
         <v>10638.014382942774</v>
       </c>
-      <c r="CE13" s="22">
+      <c r="CE13" s="9">
         <v>4159.9442986404647</v>
       </c>
-      <c r="CF13" s="22">
+      <c r="CF13" s="9">
         <v>6161.7898553619443</v>
       </c>
-      <c r="CG13" s="22">
+      <c r="CG13" s="9">
         <v>6727.6571030917612</v>
       </c>
-      <c r="CH13" s="22">
+      <c r="CH13" s="20">
         <v>7817.273676312996</v>
       </c>
-      <c r="CI13" s="22">
+      <c r="CI13" s="20">
         <v>5067.513206587616</v>
       </c>
-      <c r="CJ13" s="22">
+      <c r="CJ13" s="20">
         <v>6461.1453905598064</v>
       </c>
-      <c r="CK13" s="22">
+      <c r="CK13" s="20">
         <v>6793.9100191963189</v>
       </c>
-      <c r="CL13" s="22">
-        <v>9030.057340749765</v>
-      </c>
-      <c r="CM13" s="10"/>
+      <c r="CL13" s="20">
+        <v>9001.2909668615357</v>
+      </c>
+      <c r="CM13" s="20">
+        <v>6161.1339622006853</v>
+      </c>
       <c r="CN13" s="10"/>
       <c r="CO13" s="10"/>
       <c r="CP13" s="10"/>
@@ -25029,7 +25020,7 @@
       <c r="EW13" s="10"/>
       <c r="EX13" s="10"/>
     </row>
-    <row r="14" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -25261,46 +25252,48 @@
       <c r="BY14" s="9">
         <v>23643.098401628944</v>
       </c>
-      <c r="BZ14" s="22">
+      <c r="BZ14" s="9">
         <v>30343.559433259608</v>
       </c>
-      <c r="CA14" s="22">
+      <c r="CA14" s="9">
         <v>30118.605773295902</v>
       </c>
-      <c r="CB14" s="22">
+      <c r="CB14" s="9">
         <v>26930.058809861308</v>
       </c>
-      <c r="CC14" s="22">
+      <c r="CC14" s="9">
         <v>25867.275404417582</v>
       </c>
-      <c r="CD14" s="22">
+      <c r="CD14" s="9">
         <v>23139.390588465467</v>
       </c>
-      <c r="CE14" s="22">
+      <c r="CE14" s="9">
         <v>541.66018011143547</v>
       </c>
-      <c r="CF14" s="22">
+      <c r="CF14" s="9">
         <v>3933.8866949345993</v>
       </c>
-      <c r="CG14" s="22">
+      <c r="CG14" s="9">
         <v>5756.5870174473457</v>
       </c>
-      <c r="CH14" s="22">
+      <c r="CH14" s="20">
         <v>5981.2410016829199</v>
       </c>
-      <c r="CI14" s="22">
+      <c r="CI14" s="20">
         <v>3498.5571945118791</v>
       </c>
-      <c r="CJ14" s="22">
+      <c r="CJ14" s="20">
         <v>7810.5870233574205</v>
       </c>
-      <c r="CK14" s="22">
+      <c r="CK14" s="20">
         <v>10731.893624718097</v>
       </c>
-      <c r="CL14" s="22">
+      <c r="CL14" s="20">
         <v>16519.717390147831</v>
       </c>
-      <c r="CM14" s="10"/>
+      <c r="CM14" s="20">
+        <v>19659.991450235531</v>
+      </c>
       <c r="CN14" s="10"/>
       <c r="CO14" s="10"/>
       <c r="CP14" s="10"/>
@@ -25365,7 +25358,7 @@
       <c r="EW14" s="10"/>
       <c r="EX14" s="10"/>
     </row>
-    <row r="15" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -25597,46 +25590,48 @@
       <c r="BY15" s="9">
         <v>40822.425574869652</v>
       </c>
-      <c r="BZ15" s="22">
+      <c r="BZ15" s="9">
         <v>42723.862110294598</v>
       </c>
-      <c r="CA15" s="22">
+      <c r="CA15" s="9">
         <v>47424.021658296399</v>
       </c>
-      <c r="CB15" s="22">
+      <c r="CB15" s="9">
         <v>43057.115965533201</v>
       </c>
-      <c r="CC15" s="22">
+      <c r="CC15" s="9">
         <v>40474.026791175536</v>
       </c>
-      <c r="CD15" s="22">
+      <c r="CD15" s="9">
         <v>38377.454454111437</v>
       </c>
-      <c r="CE15" s="22">
+      <c r="CE15" s="9">
         <v>39129.883280113791</v>
       </c>
-      <c r="CF15" s="22">
+      <c r="CF15" s="9">
         <v>43772.535915687906</v>
       </c>
-      <c r="CG15" s="22">
+      <c r="CG15" s="9">
         <v>41914.708397563991</v>
       </c>
-      <c r="CH15" s="22">
+      <c r="CH15" s="20">
         <v>41314.418988535144</v>
       </c>
-      <c r="CI15" s="22">
+      <c r="CI15" s="20">
         <v>45468.281079315457</v>
       </c>
-      <c r="CJ15" s="22">
+      <c r="CJ15" s="20">
         <v>45801.634695866625</v>
       </c>
-      <c r="CK15" s="22">
+      <c r="CK15" s="20">
         <v>45968.838758085447</v>
       </c>
-      <c r="CL15" s="22">
-        <v>49367.796968223905</v>
-      </c>
-      <c r="CM15" s="10"/>
+      <c r="CL15" s="20">
+        <v>49157.082021658309</v>
+      </c>
+      <c r="CM15" s="20">
+        <v>49344.457520466152</v>
+      </c>
       <c r="CN15" s="10"/>
       <c r="CO15" s="10"/>
       <c r="CP15" s="10"/>
@@ -25701,7 +25696,7 @@
       <c r="EW15" s="10"/>
       <c r="EX15" s="10"/>
     </row>
-    <row r="16" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -25933,46 +25928,48 @@
       <c r="BY16" s="9">
         <v>7851.2647933300141</v>
       </c>
-      <c r="BZ16" s="22">
+      <c r="BZ16" s="9">
         <v>6812.7424097329913</v>
       </c>
-      <c r="CA16" s="22">
+      <c r="CA16" s="9">
         <v>7159.7954484145721</v>
       </c>
-      <c r="CB16" s="22">
+      <c r="CB16" s="9">
         <v>6099.9282237592297</v>
       </c>
-      <c r="CC16" s="22">
+      <c r="CC16" s="9">
         <v>8101.8663721992616</v>
       </c>
-      <c r="CD16" s="22">
+      <c r="CD16" s="9">
         <v>7271.536918522761</v>
       </c>
-      <c r="CE16" s="22">
+      <c r="CE16" s="9">
         <v>5318.9671586771592</v>
       </c>
-      <c r="CF16" s="22">
+      <c r="CF16" s="9">
         <v>7418.2830113571872</v>
       </c>
-      <c r="CG16" s="22">
+      <c r="CG16" s="9">
         <v>8707.0629617639515</v>
       </c>
-      <c r="CH16" s="22">
+      <c r="CH16" s="20">
         <v>8057.1403063475373</v>
       </c>
-      <c r="CI16" s="22">
+      <c r="CI16" s="20">
         <v>9199.2714411078541</v>
       </c>
-      <c r="CJ16" s="22">
+      <c r="CJ16" s="20">
         <v>6948.7257825117358</v>
       </c>
-      <c r="CK16" s="22">
+      <c r="CK16" s="20">
         <v>8899.6056823708132</v>
       </c>
-      <c r="CL16" s="22">
-        <v>7746.0398319577926</v>
-      </c>
-      <c r="CM16" s="10"/>
+      <c r="CL16" s="20">
+        <v>7866.9779532324337</v>
+      </c>
+      <c r="CM16" s="20">
+        <v>8529.9825280772711</v>
+      </c>
       <c r="CN16" s="10"/>
       <c r="CO16" s="10"/>
       <c r="CP16" s="10"/>
@@ -26037,7 +26034,7 @@
       <c r="EW16" s="10"/>
       <c r="EX16" s="10"/>
     </row>
-    <row r="17" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -26114,19 +26111,19 @@
       <c r="BW17" s="10"/>
       <c r="BX17" s="10"/>
       <c r="BY17" s="10"/>
-      <c r="BZ17" s="23"/>
-      <c r="CA17" s="23"/>
-      <c r="CB17" s="23"/>
-      <c r="CC17" s="23"/>
-      <c r="CD17" s="23"/>
-      <c r="CE17" s="23"/>
-      <c r="CF17" s="23"/>
-      <c r="CG17" s="23"/>
-      <c r="CH17" s="23"/>
-      <c r="CI17" s="23"/>
-      <c r="CJ17" s="23"/>
-      <c r="CK17" s="23"/>
-      <c r="CL17" s="23"/>
+      <c r="BZ17" s="10"/>
+      <c r="CA17" s="10"/>
+      <c r="CB17" s="10"/>
+      <c r="CC17" s="10"/>
+      <c r="CD17" s="10"/>
+      <c r="CE17" s="10"/>
+      <c r="CF17" s="10"/>
+      <c r="CG17" s="10"/>
+      <c r="CH17" s="10"/>
+      <c r="CI17" s="10"/>
+      <c r="CJ17" s="10"/>
+      <c r="CK17" s="10"/>
+      <c r="CL17" s="10"/>
       <c r="CM17" s="10"/>
       <c r="CN17" s="10"/>
       <c r="CO17" s="10"/>
@@ -26192,7 +26189,7 @@
       <c r="EW17" s="10"/>
       <c r="EX17" s="10"/>
     </row>
-    <row r="18" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
@@ -26424,46 +26421,48 @@
       <c r="BY18" s="12">
         <v>168283.41522478088</v>
       </c>
-      <c r="BZ18" s="24">
+      <c r="BZ18" s="12">
         <v>185214.1521010258</v>
       </c>
-      <c r="CA18" s="24">
+      <c r="CA18" s="12">
         <v>211817.57395761146</v>
       </c>
-      <c r="CB18" s="24">
+      <c r="CB18" s="12">
         <v>182219.13780461473</v>
       </c>
-      <c r="CC18" s="24">
+      <c r="CC18" s="12">
         <v>178410.48440236205</v>
       </c>
-      <c r="CD18" s="24">
+      <c r="CD18" s="12">
         <v>165259.82181926217</v>
       </c>
-      <c r="CE18" s="24">
+      <c r="CE18" s="12">
         <v>96378.037919157665</v>
       </c>
-      <c r="CF18" s="24">
+      <c r="CF18" s="12">
         <v>139257.38286229526</v>
       </c>
-      <c r="CG18" s="24">
+      <c r="CG18" s="12">
         <v>150149.34859172066</v>
       </c>
-      <c r="CH18" s="24">
+      <c r="CH18" s="21">
         <v>143481.01757449508</v>
       </c>
-      <c r="CI18" s="24">
+      <c r="CI18" s="21">
         <v>128119.80129053039</v>
       </c>
-      <c r="CJ18" s="24">
+      <c r="CJ18" s="21">
         <v>158777.56238313994</v>
       </c>
-      <c r="CK18" s="24">
+      <c r="CK18" s="21">
         <v>174540.25434892255</v>
       </c>
-      <c r="CL18" s="24">
-        <v>177831.07650643031</v>
-      </c>
-      <c r="CM18" s="10"/>
+      <c r="CL18" s="21">
+        <v>177516.25698630614</v>
+      </c>
+      <c r="CM18" s="21">
+        <v>169319.15816861746</v>
+      </c>
       <c r="CN18" s="10"/>
       <c r="CO18" s="10"/>
       <c r="CP18" s="10"/>
@@ -26528,7 +26527,7 @@
       <c r="EW18" s="10"/>
       <c r="EX18" s="10"/>
     </row>
-    <row r="19" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -26606,26 +26605,27 @@
       <c r="BW19" s="14"/>
       <c r="BX19" s="14"/>
       <c r="BY19" s="14"/>
-      <c r="BZ19" s="25"/>
-      <c r="CA19" s="25"/>
-      <c r="CB19" s="25"/>
-      <c r="CC19" s="25"/>
-      <c r="CD19" s="25"/>
-      <c r="CE19" s="25"/>
-      <c r="CF19" s="25"/>
-      <c r="CG19" s="25"/>
-      <c r="CH19" s="25"/>
-      <c r="CI19" s="25"/>
-      <c r="CJ19" s="25"/>
-      <c r="CK19" s="25"/>
-      <c r="CL19" s="25"/>
+      <c r="BZ19" s="14"/>
+      <c r="CA19" s="14"/>
+      <c r="CB19" s="14"/>
+      <c r="CC19" s="14"/>
+      <c r="CD19" s="14"/>
+      <c r="CE19" s="14"/>
+      <c r="CF19" s="14"/>
+      <c r="CG19" s="14"/>
+      <c r="CH19" s="22"/>
+      <c r="CI19" s="22"/>
+      <c r="CJ19" s="22"/>
+      <c r="CK19" s="22"/>
+      <c r="CL19" s="22"/>
+      <c r="CM19" s="22"/>
     </row>
-    <row r="20" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -26702,19 +26702,19 @@
       <c r="BW21" s="10"/>
       <c r="BX21" s="10"/>
       <c r="BY21" s="10"/>
-      <c r="BZ21" s="23"/>
-      <c r="CA21" s="23"/>
-      <c r="CB21" s="23"/>
-      <c r="CC21" s="23"/>
-      <c r="CD21" s="23"/>
-      <c r="CE21" s="23"/>
-      <c r="CF21" s="23"/>
-      <c r="CG21" s="23"/>
-      <c r="CH21" s="23"/>
-      <c r="CI21" s="23"/>
-      <c r="CJ21" s="23"/>
-      <c r="CK21" s="23"/>
-      <c r="CL21" s="23"/>
+      <c r="BZ21" s="10"/>
+      <c r="CA21" s="10"/>
+      <c r="CB21" s="10"/>
+      <c r="CC21" s="10"/>
+      <c r="CD21" s="10"/>
+      <c r="CE21" s="10"/>
+      <c r="CF21" s="10"/>
+      <c r="CG21" s="10"/>
+      <c r="CH21" s="10"/>
+      <c r="CI21" s="10"/>
+      <c r="CJ21" s="10"/>
+      <c r="CK21" s="10"/>
+      <c r="CL21" s="10"/>
       <c r="CM21" s="10"/>
       <c r="CN21" s="10"/>
       <c r="CO21" s="10"/>
@@ -26780,7 +26780,7 @@
       <c r="EW21" s="10"/>
       <c r="EX21" s="10"/>
     </row>
-    <row r="22" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -26857,19 +26857,19 @@
       <c r="BW22" s="10"/>
       <c r="BX22" s="10"/>
       <c r="BY22" s="10"/>
-      <c r="BZ22" s="23"/>
-      <c r="CA22" s="23"/>
-      <c r="CB22" s="23"/>
-      <c r="CC22" s="23"/>
-      <c r="CD22" s="23"/>
-      <c r="CE22" s="23"/>
-      <c r="CF22" s="23"/>
-      <c r="CG22" s="23"/>
-      <c r="CH22" s="23"/>
-      <c r="CI22" s="23"/>
-      <c r="CJ22" s="23"/>
-      <c r="CK22" s="23"/>
-      <c r="CL22" s="23"/>
+      <c r="BZ22" s="10"/>
+      <c r="CA22" s="10"/>
+      <c r="CB22" s="10"/>
+      <c r="CC22" s="10"/>
+      <c r="CD22" s="10"/>
+      <c r="CE22" s="10"/>
+      <c r="CF22" s="10"/>
+      <c r="CG22" s="10"/>
+      <c r="CH22" s="10"/>
+      <c r="CI22" s="10"/>
+      <c r="CJ22" s="10"/>
+      <c r="CK22" s="10"/>
+      <c r="CL22" s="10"/>
       <c r="CM22" s="10"/>
       <c r="CN22" s="10"/>
       <c r="CO22" s="10"/>
@@ -26935,22 +26935,22 @@
       <c r="EW22" s="10"/>
       <c r="EX22" s="10"/>
     </row>
-    <row r="23" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -27027,21 +27027,22 @@
       <c r="BW26" s="4"/>
       <c r="BX26" s="4"/>
       <c r="BY26" s="4"/>
-      <c r="BZ26" s="20"/>
-      <c r="CA26" s="20"/>
-      <c r="CB26" s="20"/>
-      <c r="CC26" s="20"/>
-      <c r="CD26" s="20"/>
-      <c r="CE26" s="20"/>
-      <c r="CF26" s="20"/>
-      <c r="CG26" s="20"/>
-      <c r="CH26" s="20"/>
-      <c r="CI26" s="20"/>
-      <c r="CJ26" s="20"/>
-      <c r="CK26" s="20"/>
-      <c r="CL26" s="20"/>
+      <c r="BZ26" s="4"/>
+      <c r="CA26" s="4"/>
+      <c r="CB26" s="4"/>
+      <c r="CC26" s="4"/>
+      <c r="CD26" s="4"/>
+      <c r="CE26" s="4"/>
+      <c r="CF26" s="4"/>
+      <c r="CG26" s="4"/>
+      <c r="CH26" s="4"/>
+      <c r="CI26" s="4"/>
+      <c r="CJ26" s="4"/>
+      <c r="CK26" s="4"/>
+      <c r="CL26" s="4"/>
+      <c r="CM26" s="4"/>
     </row>
-    <row r="27" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -27121,21 +27122,22 @@
       <c r="BW27" s="4"/>
       <c r="BX27" s="4"/>
       <c r="BY27" s="4"/>
-      <c r="BZ27" s="20"/>
-      <c r="CA27" s="20"/>
-      <c r="CB27" s="20"/>
-      <c r="CC27" s="20"/>
-      <c r="CD27" s="20"/>
-      <c r="CE27" s="20"/>
-      <c r="CF27" s="20"/>
-      <c r="CG27" s="20"/>
-      <c r="CH27" s="20"/>
-      <c r="CI27" s="20"/>
-      <c r="CJ27" s="20"/>
-      <c r="CK27" s="20"/>
-      <c r="CL27" s="20"/>
+      <c r="BZ27" s="4"/>
+      <c r="CA27" s="4"/>
+      <c r="CB27" s="4"/>
+      <c r="CC27" s="4"/>
+      <c r="CD27" s="4"/>
+      <c r="CE27" s="4"/>
+      <c r="CF27" s="4"/>
+      <c r="CG27" s="4"/>
+      <c r="CH27" s="4"/>
+      <c r="CI27" s="4"/>
+      <c r="CJ27" s="4"/>
+      <c r="CK27" s="4"/>
+      <c r="CL27" s="4"/>
+      <c r="CM27" s="4"/>
     </row>
-    <row r="28" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -27215,21 +27217,22 @@
       <c r="BW28" s="4"/>
       <c r="BX28" s="4"/>
       <c r="BY28" s="4"/>
-      <c r="BZ28" s="20"/>
-      <c r="CA28" s="20"/>
-      <c r="CB28" s="20"/>
-      <c r="CC28" s="20"/>
-      <c r="CD28" s="20"/>
-      <c r="CE28" s="20"/>
-      <c r="CF28" s="20"/>
-      <c r="CG28" s="20"/>
-      <c r="CH28" s="20"/>
-      <c r="CI28" s="20"/>
-      <c r="CJ28" s="20"/>
-      <c r="CK28" s="20"/>
-      <c r="CL28" s="20"/>
+      <c r="BZ28" s="4"/>
+      <c r="CA28" s="4"/>
+      <c r="CB28" s="4"/>
+      <c r="CC28" s="4"/>
+      <c r="CD28" s="4"/>
+      <c r="CE28" s="4"/>
+      <c r="CF28" s="4"/>
+      <c r="CG28" s="4"/>
+      <c r="CH28" s="4"/>
+      <c r="CI28" s="4"/>
+      <c r="CJ28" s="4"/>
+      <c r="CK28" s="4"/>
+      <c r="CL28" s="4"/>
+      <c r="CM28" s="4"/>
     </row>
-    <row r="29" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -27309,21 +27312,22 @@
       <c r="BW29" s="4"/>
       <c r="BX29" s="4"/>
       <c r="BY29" s="4"/>
-      <c r="BZ29" s="20"/>
-      <c r="CA29" s="20"/>
-      <c r="CB29" s="20"/>
-      <c r="CC29" s="20"/>
-      <c r="CD29" s="20"/>
-      <c r="CE29" s="20"/>
-      <c r="CF29" s="20"/>
-      <c r="CG29" s="20"/>
-      <c r="CH29" s="20"/>
-      <c r="CI29" s="20"/>
-      <c r="CJ29" s="20"/>
-      <c r="CK29" s="20"/>
-      <c r="CL29" s="20"/>
+      <c r="BZ29" s="4"/>
+      <c r="CA29" s="4"/>
+      <c r="CB29" s="4"/>
+      <c r="CC29" s="4"/>
+      <c r="CD29" s="4"/>
+      <c r="CE29" s="4"/>
+      <c r="CF29" s="4"/>
+      <c r="CG29" s="4"/>
+      <c r="CH29" s="4"/>
+      <c r="CI29" s="4"/>
+      <c r="CJ29" s="4"/>
+      <c r="CK29" s="4"/>
+      <c r="CL29" s="4"/>
+      <c r="CM29" s="4"/>
     </row>
-    <row r="30" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -27400,159 +27404,161 @@
       <c r="BW30" s="4"/>
       <c r="BX30" s="4"/>
       <c r="BY30" s="4"/>
-      <c r="BZ30" s="20"/>
-      <c r="CA30" s="20"/>
-      <c r="CB30" s="20"/>
-      <c r="CC30" s="20"/>
-      <c r="CD30" s="20"/>
-      <c r="CE30" s="20"/>
-      <c r="CF30" s="20"/>
-      <c r="CG30" s="20"/>
-      <c r="CH30" s="20"/>
-      <c r="CI30" s="20"/>
-      <c r="CJ30" s="20"/>
-      <c r="CK30" s="20"/>
-      <c r="CL30" s="20"/>
+      <c r="BZ30" s="4"/>
+      <c r="CA30" s="4"/>
+      <c r="CB30" s="4"/>
+      <c r="CC30" s="4"/>
+      <c r="CD30" s="4"/>
+      <c r="CE30" s="4"/>
+      <c r="CF30" s="4"/>
+      <c r="CG30" s="4"/>
+      <c r="CH30" s="4"/>
+      <c r="CI30" s="4"/>
+      <c r="CJ30" s="4"/>
+      <c r="CK30" s="4"/>
+      <c r="CL30" s="4"/>
+      <c r="CM30" s="4"/>
     </row>
-    <row r="31" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="32">
+      <c r="B31" s="25">
         <v>2000</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="32">
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="25">
         <v>2001</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="32">
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="25">
         <v>2002</v>
       </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="32">
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="25">
         <v>2003</v>
       </c>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="32">
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="25">
         <v>2004</v>
       </c>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="32">
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="25">
         <v>2005</v>
       </c>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="32">
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="25">
         <v>2006</v>
       </c>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="32">
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="25">
         <v>2007</v>
       </c>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="32">
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="25">
         <v>2008</v>
       </c>
-      <c r="AI31" s="33"/>
-      <c r="AJ31" s="33"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="32">
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="25">
         <v>2009</v>
       </c>
-      <c r="AM31" s="33"/>
-      <c r="AN31" s="33"/>
-      <c r="AO31" s="33"/>
-      <c r="AP31" s="32">
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="33"/>
-      <c r="AR31" s="33"/>
-      <c r="AS31" s="33"/>
-      <c r="AT31" s="32">
+      <c r="AQ31" s="27"/>
+      <c r="AR31" s="27"/>
+      <c r="AS31" s="27"/>
+      <c r="AT31" s="25">
         <v>2011</v>
       </c>
-      <c r="AU31" s="33"/>
-      <c r="AV31" s="33"/>
-      <c r="AW31" s="33"/>
-      <c r="AX31" s="32">
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="27"/>
+      <c r="AW31" s="27"/>
+      <c r="AX31" s="25">
         <v>2012</v>
       </c>
-      <c r="AY31" s="33"/>
-      <c r="AZ31" s="33"/>
-      <c r="BA31" s="33"/>
-      <c r="BB31" s="32">
+      <c r="AY31" s="27"/>
+      <c r="AZ31" s="27"/>
+      <c r="BA31" s="27"/>
+      <c r="BB31" s="25">
         <v>2013</v>
       </c>
-      <c r="BC31" s="33"/>
-      <c r="BD31" s="33"/>
-      <c r="BE31" s="33"/>
-      <c r="BF31" s="32">
+      <c r="BC31" s="27"/>
+      <c r="BD31" s="27"/>
+      <c r="BE31" s="27"/>
+      <c r="BF31" s="25">
         <v>2014</v>
       </c>
-      <c r="BG31" s="33"/>
-      <c r="BH31" s="33"/>
-      <c r="BI31" s="33"/>
-      <c r="BJ31" s="32">
+      <c r="BG31" s="27"/>
+      <c r="BH31" s="27"/>
+      <c r="BI31" s="27"/>
+      <c r="BJ31" s="25">
         <v>2015</v>
       </c>
-      <c r="BK31" s="33"/>
-      <c r="BL31" s="33"/>
-      <c r="BM31" s="33"/>
-      <c r="BN31" s="32">
+      <c r="BK31" s="27"/>
+      <c r="BL31" s="27"/>
+      <c r="BM31" s="27"/>
+      <c r="BN31" s="25">
         <v>2016</v>
       </c>
-      <c r="BO31" s="33"/>
-      <c r="BP31" s="33"/>
-      <c r="BQ31" s="33"/>
-      <c r="BR31" s="32">
+      <c r="BO31" s="27"/>
+      <c r="BP31" s="27"/>
+      <c r="BQ31" s="27"/>
+      <c r="BR31" s="25">
         <v>2017</v>
       </c>
-      <c r="BS31" s="33"/>
-      <c r="BT31" s="33"/>
-      <c r="BU31" s="33"/>
-      <c r="BV31" s="32">
+      <c r="BS31" s="27"/>
+      <c r="BT31" s="27"/>
+      <c r="BU31" s="27"/>
+      <c r="BV31" s="25">
         <v>2018</v>
       </c>
-      <c r="BW31" s="33"/>
-      <c r="BX31" s="33"/>
-      <c r="BY31" s="33"/>
-      <c r="BZ31" s="31">
+      <c r="BW31" s="27"/>
+      <c r="BX31" s="27"/>
+      <c r="BY31" s="27"/>
+      <c r="BZ31" s="25">
         <v>2019</v>
       </c>
-      <c r="CA31" s="35"/>
-      <c r="CB31" s="35"/>
-      <c r="CC31" s="35"/>
-      <c r="CD31" s="31">
+      <c r="CA31" s="27"/>
+      <c r="CB31" s="27"/>
+      <c r="CC31" s="27"/>
+      <c r="CD31" s="25">
         <v>2020</v>
       </c>
-      <c r="CE31" s="31"/>
-      <c r="CF31" s="31"/>
-      <c r="CG31" s="31"/>
-      <c r="CH31" s="31">
+      <c r="CE31" s="27"/>
+      <c r="CF31" s="27"/>
+      <c r="CG31" s="27"/>
+      <c r="CH31" s="25">
         <v>2021</v>
       </c>
-      <c r="CI31" s="31"/>
-      <c r="CJ31" s="31"/>
-      <c r="CK31" s="31"/>
-      <c r="CL31" s="29">
+      <c r="CI31" s="25"/>
+      <c r="CJ31" s="25"/>
+      <c r="CK31" s="25"/>
+      <c r="CL31" s="25">
         <v>2022</v>
       </c>
+      <c r="CM31" s="25"/>
     </row>
-    <row r="32" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
@@ -27784,50 +27790,53 @@
       <c r="BY32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BZ32" s="21" t="s">
+      <c r="BZ32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CA32" s="21" t="s">
+      <c r="CA32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CB32" s="21" t="s">
+      <c r="CB32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CC32" s="21" t="s">
+      <c r="CC32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CD32" s="21" t="s">
+      <c r="CD32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CE32" s="21" t="s">
+      <c r="CE32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CF32" s="21" t="s">
+      <c r="CF32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CG32" s="21" t="s">
+      <c r="CG32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CH32" s="21" t="s">
+      <c r="CH32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CI32" s="21" t="s">
+      <c r="CI32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CJ32" s="21" t="s">
+      <c r="CJ32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK32" s="21" t="s">
+      <c r="CK32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL32" s="21" t="s">
+      <c r="CL32" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="CM32" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -28059,46 +28068,48 @@
       <c r="BY34" s="9">
         <v>85482.230572276676</v>
       </c>
-      <c r="BZ34" s="22">
+      <c r="BZ34" s="9">
         <v>95283.228818990669</v>
       </c>
-      <c r="CA34" s="22">
+      <c r="CA34" s="9">
         <v>110360.66419991438</v>
       </c>
-      <c r="CB34" s="22">
+      <c r="CB34" s="9">
         <v>81627.710153359294</v>
       </c>
-      <c r="CC34" s="22">
+      <c r="CC34" s="9">
         <v>91157.740687400743</v>
       </c>
-      <c r="CD34" s="22">
+      <c r="CD34" s="9">
         <v>84256.879947774301</v>
       </c>
-      <c r="CE34" s="22">
+      <c r="CE34" s="9">
         <v>39790.450652104919</v>
       </c>
-      <c r="CF34" s="22">
+      <c r="CF34" s="9">
         <v>60842.592707141113</v>
       </c>
-      <c r="CG34" s="22">
+      <c r="CG34" s="9">
         <v>78892.263529082004</v>
       </c>
-      <c r="CH34" s="22">
+      <c r="CH34" s="20">
         <v>72693.252434721246</v>
       </c>
-      <c r="CI34" s="22">
+      <c r="CI34" s="20">
         <v>51224.972026472547</v>
       </c>
-      <c r="CJ34" s="22">
+      <c r="CJ34" s="20">
         <v>69968.767388608554</v>
       </c>
-      <c r="CK34" s="22">
+      <c r="CK34" s="20">
         <v>91982.776736998538</v>
       </c>
-      <c r="CL34" s="22">
-        <v>85397.636658937525</v>
-      </c>
-      <c r="CM34" s="10"/>
+      <c r="CL34" s="20">
+        <v>85221.509933851848</v>
+      </c>
+      <c r="CM34" s="20">
+        <v>66743.957193967784</v>
+      </c>
       <c r="CN34" s="10"/>
       <c r="CO34" s="10"/>
       <c r="CP34" s="10"/>
@@ -28163,7 +28174,7 @@
       <c r="EW34" s="10"/>
       <c r="EX34" s="10"/>
     </row>
-    <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -28395,46 +28406,48 @@
       <c r="BY35" s="9">
         <v>7751.1245227487507</v>
       </c>
-      <c r="BZ35" s="22">
+      <c r="BZ35" s="9">
         <v>11080.988926645654</v>
       </c>
-      <c r="CA35" s="22">
+      <c r="CA35" s="9">
         <v>13603.168079841234</v>
       </c>
-      <c r="CB35" s="22">
+      <c r="CB35" s="9">
         <v>7953.5834008464644</v>
       </c>
-      <c r="CC35" s="22">
+      <c r="CC35" s="9">
         <v>7447.4831219355528</v>
       </c>
-      <c r="CD35" s="22">
+      <c r="CD35" s="9">
         <v>10058.392911234647</v>
       </c>
-      <c r="CE35" s="22">
+      <c r="CE35" s="9">
         <v>5348.3916807113001</v>
       </c>
-      <c r="CF35" s="22">
+      <c r="CF35" s="9">
         <v>4819.1656294255781</v>
       </c>
-      <c r="CG35" s="22">
+      <c r="CG35" s="9">
         <v>5748.9168303779634</v>
       </c>
-      <c r="CH35" s="22">
+      <c r="CH35" s="20">
         <v>6485.3406307277664</v>
       </c>
-      <c r="CI35" s="22">
+      <c r="CI35" s="20">
         <v>5622.8897902546669</v>
       </c>
-      <c r="CJ35" s="22">
+      <c r="CJ35" s="20">
         <v>5641.7249530700356</v>
       </c>
-      <c r="CK35" s="22">
+      <c r="CK35" s="20">
         <v>7076.4642432754972</v>
       </c>
-      <c r="CL35" s="22">
-        <v>8733.1258370255109</v>
-      </c>
-      <c r="CM35" s="10"/>
+      <c r="CL35" s="20">
+        <v>8705.3053754757075</v>
+      </c>
+      <c r="CM35" s="20">
+        <v>5829.5529914046974</v>
+      </c>
       <c r="CN35" s="10"/>
       <c r="CO35" s="10"/>
       <c r="CP35" s="10"/>
@@ -28499,7 +28512,7 @@
       <c r="EW35" s="10"/>
       <c r="EX35" s="10"/>
     </row>
-    <row r="36" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -28731,46 +28744,48 @@
       <c r="BY36" s="9">
         <v>22491.493041723181</v>
       </c>
-      <c r="BZ36" s="22">
+      <c r="BZ36" s="9">
         <v>32316.061942152446</v>
       </c>
-      <c r="CA36" s="22">
+      <c r="CA36" s="9">
         <v>34489.817488666798</v>
       </c>
-      <c r="CB36" s="22">
+      <c r="CB36" s="9">
         <v>27426.389407155017</v>
       </c>
-      <c r="CC36" s="22">
+      <c r="CC36" s="9">
         <v>24640.160270956665</v>
       </c>
-      <c r="CD36" s="22">
+      <c r="CD36" s="9">
         <v>26370.897183930152</v>
       </c>
-      <c r="CE36" s="22">
+      <c r="CE36" s="9">
         <v>584.02753834519581</v>
       </c>
-      <c r="CF36" s="22">
+      <c r="CF36" s="9">
         <v>3920.8162602718076</v>
       </c>
-      <c r="CG36" s="22">
+      <c r="CG36" s="9">
         <v>5724.8352232651596</v>
       </c>
-      <c r="CH36" s="22">
+      <c r="CH36" s="20">
         <v>6945.0277659908534</v>
       </c>
-      <c r="CI36" s="22">
+      <c r="CI36" s="20">
         <v>3794.5940396513961</v>
       </c>
-      <c r="CJ36" s="22">
+      <c r="CJ36" s="20">
         <v>7715.1993628660421</v>
       </c>
-      <c r="CK36" s="22">
+      <c r="CK36" s="20">
         <v>9877.5561037619118</v>
       </c>
-      <c r="CL36" s="22">
+      <c r="CL36" s="20">
         <v>18325.805539719899</v>
       </c>
-      <c r="CM36" s="10"/>
+      <c r="CM36" s="20">
+        <v>18739.11241084541</v>
+      </c>
       <c r="CN36" s="10"/>
       <c r="CO36" s="10"/>
       <c r="CP36" s="10"/>
@@ -28835,7 +28850,7 @@
       <c r="EW36" s="10"/>
       <c r="EX36" s="10"/>
     </row>
-    <row r="37" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -29067,46 +29082,48 @@
       <c r="BY37" s="9">
         <v>41035.959222041965</v>
       </c>
-      <c r="BZ37" s="22">
+      <c r="BZ37" s="9">
         <v>44201.397875534116</v>
       </c>
-      <c r="CA37" s="22">
+      <c r="CA37" s="9">
         <v>45915.370583402269</v>
       </c>
-      <c r="CB37" s="22">
+      <c r="CB37" s="9">
         <v>45854.600653447371</v>
       </c>
-      <c r="CC37" s="22">
+      <c r="CC37" s="9">
         <v>41314.368976378377</v>
       </c>
-      <c r="CD37" s="22">
+      <c r="CD37" s="9">
         <v>40792.614939224062</v>
       </c>
-      <c r="CE37" s="22">
+      <c r="CE37" s="9">
         <v>38042.91274460945</v>
       </c>
-      <c r="CF37" s="22">
+      <c r="CF37" s="9">
         <v>41651.696170266572</v>
       </c>
-      <c r="CG37" s="22">
+      <c r="CG37" s="9">
         <v>40204.181905661972</v>
       </c>
-      <c r="CH37" s="22">
+      <c r="CH37" s="20">
         <v>40984.048343767317</v>
       </c>
-      <c r="CI37" s="22">
+      <c r="CI37" s="20">
         <v>40991.50518060902</v>
       </c>
-      <c r="CJ37" s="22">
+      <c r="CJ37" s="20">
         <v>46702.18850791359</v>
       </c>
-      <c r="CK37" s="22">
+      <c r="CK37" s="20">
         <v>47457.6089120092</v>
       </c>
-      <c r="CL37" s="22">
-        <v>50766.597122974475</v>
-      </c>
-      <c r="CM37" s="10"/>
+      <c r="CL37" s="20">
+        <v>50549.911723644807</v>
+      </c>
+      <c r="CM37" s="20">
+        <v>40922.177209955262</v>
+      </c>
       <c r="CN37" s="10"/>
       <c r="CO37" s="10"/>
       <c r="CP37" s="10"/>
@@ -29171,7 +29188,7 @@
       <c r="EW37" s="10"/>
       <c r="EX37" s="10"/>
     </row>
-    <row r="38" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -29403,46 +29420,48 @@
       <c r="BY38" s="9">
         <v>7861.5157971868412</v>
       </c>
-      <c r="BZ38" s="22">
+      <c r="BZ38" s="9">
         <v>6787.5875525957636</v>
       </c>
-      <c r="CA38" s="22">
+      <c r="CA38" s="9">
         <v>6940.01631039727</v>
       </c>
-      <c r="CB38" s="22">
+      <c r="CB38" s="9">
         <v>5883.0940855589706</v>
       </c>
-      <c r="CC38" s="22">
+      <c r="CC38" s="9">
         <v>8063.069695688846</v>
       </c>
-      <c r="CD38" s="22">
+      <c r="CD38" s="9">
         <v>7194.2130287338623</v>
       </c>
-      <c r="CE38" s="22">
+      <c r="CE38" s="9">
         <v>5086.1611878479962</v>
       </c>
-      <c r="CF38" s="22">
+      <c r="CF38" s="9">
         <v>7154.5853177633508</v>
       </c>
-      <c r="CG38" s="22">
+      <c r="CG38" s="9">
         <v>8665.3682349485935</v>
       </c>
-      <c r="CH38" s="22">
+      <c r="CH38" s="20">
         <v>7971.4624866455233</v>
       </c>
-      <c r="CI38" s="22">
+      <c r="CI38" s="20">
         <v>8848.2050604570431</v>
       </c>
-      <c r="CJ38" s="22">
+      <c r="CJ38" s="20">
         <v>6701.7194389334336</v>
       </c>
-      <c r="CK38" s="22">
+      <c r="CK38" s="20">
         <v>8856.9889436013382</v>
       </c>
-      <c r="CL38" s="22">
-        <v>7656.0141706303111</v>
-      </c>
-      <c r="CM38" s="10"/>
+      <c r="CL38" s="20">
+        <v>7775.5467305363509</v>
+      </c>
+      <c r="CM38" s="20">
+        <v>8188.8004639588216</v>
+      </c>
       <c r="CN38" s="10"/>
       <c r="CO38" s="10"/>
       <c r="CP38" s="10"/>
@@ -29507,7 +29526,7 @@
       <c r="EW38" s="10"/>
       <c r="EX38" s="10"/>
     </row>
-    <row r="39" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -29584,19 +29603,19 @@
       <c r="BW39" s="10"/>
       <c r="BX39" s="10"/>
       <c r="BY39" s="10"/>
-      <c r="BZ39" s="23"/>
-      <c r="CA39" s="23"/>
-      <c r="CB39" s="23"/>
-      <c r="CC39" s="23"/>
-      <c r="CD39" s="23"/>
-      <c r="CE39" s="23"/>
-      <c r="CF39" s="23"/>
-      <c r="CG39" s="23"/>
-      <c r="CH39" s="23"/>
-      <c r="CI39" s="23"/>
-      <c r="CJ39" s="23"/>
-      <c r="CK39" s="23"/>
-      <c r="CL39" s="23"/>
+      <c r="BZ39" s="10"/>
+      <c r="CA39" s="10"/>
+      <c r="CB39" s="10"/>
+      <c r="CC39" s="10"/>
+      <c r="CD39" s="10"/>
+      <c r="CE39" s="10"/>
+      <c r="CF39" s="10"/>
+      <c r="CG39" s="10"/>
+      <c r="CH39" s="10"/>
+      <c r="CI39" s="10"/>
+      <c r="CJ39" s="10"/>
+      <c r="CK39" s="10"/>
+      <c r="CL39" s="10"/>
       <c r="CM39" s="10"/>
       <c r="CN39" s="10"/>
       <c r="CO39" s="10"/>
@@ -29662,7 +29681,7 @@
       <c r="EW39" s="10"/>
       <c r="EX39" s="10"/>
     </row>
-    <row r="40" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>10</v>
       </c>
@@ -29894,46 +29913,48 @@
       <c r="BY40" s="12">
         <v>164622.32315597741</v>
       </c>
-      <c r="BZ40" s="24">
+      <c r="BZ40" s="12">
         <v>189669.26511591865</v>
       </c>
-      <c r="CA40" s="24">
+      <c r="CA40" s="12">
         <v>211309.03666222197</v>
       </c>
-      <c r="CB40" s="24">
+      <c r="CB40" s="12">
         <v>168745.3777003671</v>
       </c>
-      <c r="CC40" s="24">
+      <c r="CC40" s="12">
         <v>172622.8227523602</v>
       </c>
-      <c r="CD40" s="24">
+      <c r="CD40" s="12">
         <v>168672.99801089702</v>
       </c>
-      <c r="CE40" s="24">
+      <c r="CE40" s="12">
         <v>88851.943803618866</v>
       </c>
-      <c r="CF40" s="24">
+      <c r="CF40" s="12">
         <v>118388.85608486843</v>
       </c>
-      <c r="CG40" s="24">
+      <c r="CG40" s="12">
         <v>139235.56572333569</v>
       </c>
-      <c r="CH40" s="24">
+      <c r="CH40" s="21">
         <v>135079.13166185271</v>
       </c>
-      <c r="CI40" s="24">
+      <c r="CI40" s="21">
         <v>110482.16609744467</v>
       </c>
-      <c r="CJ40" s="24">
+      <c r="CJ40" s="21">
         <v>136729.59965139168</v>
       </c>
-      <c r="CK40" s="24">
+      <c r="CK40" s="21">
         <v>165251.39493964647</v>
       </c>
-      <c r="CL40" s="24">
-        <v>170879.17932928773</v>
-      </c>
-      <c r="CM40" s="10"/>
+      <c r="CL40" s="21">
+        <v>170578.07930322862</v>
+      </c>
+      <c r="CM40" s="21">
+        <v>140423.60027013195</v>
+      </c>
       <c r="CN40" s="10"/>
       <c r="CO40" s="10"/>
       <c r="CP40" s="10"/>
@@ -29998,7 +30019,7 @@
       <c r="EW40" s="10"/>
       <c r="EX40" s="10"/>
     </row>
-    <row r="41" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -30076,26 +30097,27 @@
       <c r="BW41" s="13"/>
       <c r="BX41" s="13"/>
       <c r="BY41" s="13"/>
-      <c r="BZ41" s="26"/>
-      <c r="CA41" s="26"/>
-      <c r="CB41" s="26"/>
-      <c r="CC41" s="26"/>
-      <c r="CD41" s="26"/>
-      <c r="CE41" s="26"/>
-      <c r="CF41" s="26"/>
-      <c r="CG41" s="26"/>
-      <c r="CH41" s="26"/>
-      <c r="CI41" s="26"/>
-      <c r="CJ41" s="26"/>
-      <c r="CK41" s="26"/>
-      <c r="CL41" s="26"/>
+      <c r="BZ41" s="13"/>
+      <c r="CA41" s="13"/>
+      <c r="CB41" s="13"/>
+      <c r="CC41" s="13"/>
+      <c r="CD41" s="13"/>
+      <c r="CE41" s="13"/>
+      <c r="CF41" s="13"/>
+      <c r="CG41" s="13"/>
+      <c r="CH41" s="13"/>
+      <c r="CI41" s="13"/>
+      <c r="CJ41" s="13"/>
+      <c r="CK41" s="13"/>
+      <c r="CL41" s="13"/>
+      <c r="CM41" s="13"/>
     </row>
-    <row r="42" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -30172,19 +30194,19 @@
       <c r="BW43" s="10"/>
       <c r="BX43" s="10"/>
       <c r="BY43" s="10"/>
-      <c r="BZ43" s="23"/>
-      <c r="CA43" s="23"/>
-      <c r="CB43" s="23"/>
-      <c r="CC43" s="23"/>
-      <c r="CD43" s="23"/>
-      <c r="CE43" s="23"/>
-      <c r="CF43" s="23"/>
-      <c r="CG43" s="23"/>
-      <c r="CH43" s="23"/>
-      <c r="CI43" s="23"/>
-      <c r="CJ43" s="23"/>
-      <c r="CK43" s="23"/>
-      <c r="CL43" s="23"/>
+      <c r="BZ43" s="10"/>
+      <c r="CA43" s="10"/>
+      <c r="CB43" s="10"/>
+      <c r="CC43" s="10"/>
+      <c r="CD43" s="10"/>
+      <c r="CE43" s="10"/>
+      <c r="CF43" s="10"/>
+      <c r="CG43" s="10"/>
+      <c r="CH43" s="10"/>
+      <c r="CI43" s="10"/>
+      <c r="CJ43" s="10"/>
+      <c r="CK43" s="10"/>
+      <c r="CL43" s="10"/>
       <c r="CM43" s="10"/>
       <c r="CN43" s="10"/>
       <c r="CO43" s="10"/>
@@ -30250,7 +30272,7 @@
       <c r="EW43" s="10"/>
       <c r="EX43" s="10"/>
     </row>
-    <row r="44" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -30327,19 +30349,19 @@
       <c r="BW44" s="10"/>
       <c r="BX44" s="10"/>
       <c r="BY44" s="10"/>
-      <c r="BZ44" s="23"/>
-      <c r="CA44" s="23"/>
-      <c r="CB44" s="23"/>
-      <c r="CC44" s="23"/>
-      <c r="CD44" s="23"/>
-      <c r="CE44" s="23"/>
-      <c r="CF44" s="23"/>
-      <c r="CG44" s="23"/>
-      <c r="CH44" s="23"/>
-      <c r="CI44" s="23"/>
-      <c r="CJ44" s="23"/>
-      <c r="CK44" s="23"/>
-      <c r="CL44" s="23"/>
+      <c r="BZ44" s="10"/>
+      <c r="CA44" s="10"/>
+      <c r="CB44" s="10"/>
+      <c r="CC44" s="10"/>
+      <c r="CD44" s="10"/>
+      <c r="CE44" s="10"/>
+      <c r="CF44" s="10"/>
+      <c r="CG44" s="10"/>
+      <c r="CH44" s="10"/>
+      <c r="CI44" s="10"/>
+      <c r="CJ44" s="10"/>
+      <c r="CK44" s="10"/>
+      <c r="CL44" s="10"/>
       <c r="CM44" s="10"/>
       <c r="CN44" s="10"/>
       <c r="CO44" s="10"/>
@@ -30405,192 +30427,177 @@
       <c r="EW44" s="10"/>
       <c r="EX44" s="10"/>
     </row>
-    <row r="45" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="CI50" s="36"/>
-      <c r="CJ50" s="36"/>
-      <c r="CK50" s="36"/>
-      <c r="CL50" s="36"/>
-      <c r="CM50" s="37"/>
     </row>
-    <row r="51" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CI51" s="36"/>
-      <c r="CJ51" s="36"/>
-      <c r="CK51" s="36"/>
-      <c r="CL51" s="36"/>
-      <c r="CM51" s="37"/>
     </row>
-    <row r="52" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="CI52" s="36"/>
-      <c r="CJ52" s="36"/>
-      <c r="CK52" s="36"/>
-      <c r="CL52" s="36"/>
-      <c r="CM52" s="37"/>
     </row>
-    <row r="53" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32" t="s">
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32" t="s">
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32" t="s">
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32" t="s">
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32" t="s">
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="W53" s="32"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="32" t="s">
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AA53" s="32"/>
-      <c r="AB53" s="32"/>
-      <c r="AC53" s="32"/>
-      <c r="AD53" s="32" t="s">
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AE53" s="32"/>
-      <c r="AF53" s="32"/>
-      <c r="AG53" s="32"/>
-      <c r="AH53" s="32" t="s">
+      <c r="AE53" s="25"/>
+      <c r="AF53" s="25"/>
+      <c r="AG53" s="25"/>
+      <c r="AH53" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AI53" s="32"/>
-      <c r="AJ53" s="32"/>
-      <c r="AK53" s="32"/>
-      <c r="AL53" s="32" t="s">
+      <c r="AI53" s="25"/>
+      <c r="AJ53" s="25"/>
+      <c r="AK53" s="25"/>
+      <c r="AL53" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AM53" s="32"/>
-      <c r="AN53" s="32"/>
-      <c r="AO53" s="32"/>
-      <c r="AP53" s="32" t="s">
+      <c r="AM53" s="25"/>
+      <c r="AN53" s="25"/>
+      <c r="AO53" s="25"/>
+      <c r="AP53" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AQ53" s="32"/>
-      <c r="AR53" s="32"/>
-      <c r="AS53" s="32"/>
-      <c r="AT53" s="32" t="s">
+      <c r="AQ53" s="25"/>
+      <c r="AR53" s="25"/>
+      <c r="AS53" s="25"/>
+      <c r="AT53" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AU53" s="32"/>
-      <c r="AV53" s="32"/>
-      <c r="AW53" s="32"/>
-      <c r="AX53" s="32" t="s">
+      <c r="AU53" s="25"/>
+      <c r="AV53" s="25"/>
+      <c r="AW53" s="25"/>
+      <c r="AX53" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AY53" s="32"/>
-      <c r="AZ53" s="32"/>
-      <c r="BA53" s="32"/>
-      <c r="BB53" s="32" t="s">
+      <c r="AY53" s="25"/>
+      <c r="AZ53" s="25"/>
+      <c r="BA53" s="25"/>
+      <c r="BB53" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BC53" s="32"/>
-      <c r="BD53" s="32"/>
-      <c r="BE53" s="32"/>
-      <c r="BF53" s="32" t="s">
+      <c r="BC53" s="25"/>
+      <c r="BD53" s="25"/>
+      <c r="BE53" s="25"/>
+      <c r="BF53" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BG53" s="32"/>
-      <c r="BH53" s="32"/>
-      <c r="BI53" s="32"/>
-      <c r="BJ53" s="32" t="s">
+      <c r="BG53" s="25"/>
+      <c r="BH53" s="25"/>
+      <c r="BI53" s="25"/>
+      <c r="BJ53" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BK53" s="32"/>
-      <c r="BL53" s="32"/>
-      <c r="BM53" s="32"/>
-      <c r="BN53" s="32" t="s">
+      <c r="BK53" s="25"/>
+      <c r="BL53" s="25"/>
+      <c r="BM53" s="25"/>
+      <c r="BN53" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="BO53" s="32"/>
-      <c r="BP53" s="32"/>
-      <c r="BQ53" s="32"/>
-      <c r="BR53" s="32" t="s">
+      <c r="BO53" s="25"/>
+      <c r="BP53" s="25"/>
+      <c r="BQ53" s="25"/>
+      <c r="BR53" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="BS53" s="32"/>
-      <c r="BT53" s="32"/>
-      <c r="BU53" s="32"/>
-      <c r="BV53" s="32" t="s">
+      <c r="BS53" s="25"/>
+      <c r="BT53" s="25"/>
+      <c r="BU53" s="25"/>
+      <c r="BV53" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="BW53" s="32"/>
-      <c r="BX53" s="32"/>
-      <c r="BY53" s="32"/>
-      <c r="BZ53" s="31" t="s">
+      <c r="BW53" s="25"/>
+      <c r="BX53" s="25"/>
+      <c r="BY53" s="25"/>
+      <c r="BZ53" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="31"/>
-      <c r="CB53" s="31"/>
-      <c r="CC53" s="31"/>
-      <c r="CD53" s="31" t="s">
+      <c r="CA53" s="25"/>
+      <c r="CB53" s="25"/>
+      <c r="CC53" s="25"/>
+      <c r="CD53" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="CE53" s="31"/>
-      <c r="CF53" s="31"/>
-      <c r="CG53" s="31"/>
-      <c r="CH53" s="29" t="s">
+      <c r="CE53" s="25"/>
+      <c r="CF53" s="25"/>
+      <c r="CG53" s="25"/>
+      <c r="CH53" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="CI53" s="38"/>
-      <c r="CJ53" s="38"/>
-      <c r="CK53" s="38"/>
-      <c r="CL53" s="39"/>
-      <c r="CM53" s="37"/>
+      <c r="CI53" s="25"/>
+      <c r="CJ53" s="23"/>
+      <c r="CK53" s="23"/>
+      <c r="CL53" s="19"/>
+      <c r="CM53" s="19"/>
     </row>
-    <row r="54" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>16</v>
       </c>
@@ -30822,48 +30829,45 @@
       <c r="BY54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BZ54" s="28" t="s">
+      <c r="BZ54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CA54" s="28" t="s">
+      <c r="CA54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CB54" s="28" t="s">
+      <c r="CB54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CC54" s="28" t="s">
+      <c r="CC54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CD54" s="28" t="s">
+      <c r="CD54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CE54" s="28" t="s">
+      <c r="CE54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CF54" s="28" t="s">
+      <c r="CF54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CG54" s="28" t="s">
+      <c r="CG54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CH54" s="28" t="s">
+      <c r="CH54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CI54" s="38"/>
-      <c r="CJ54" s="38"/>
-      <c r="CK54" s="38"/>
-      <c r="CL54" s="38"/>
-      <c r="CM54" s="37"/>
+      <c r="CI54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ54" s="6"/>
+      <c r="CK54" s="6"/>
+      <c r="CL54" s="6"/>
+      <c r="CM54" s="24"/>
     </row>
-    <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
-      <c r="CI55" s="36"/>
-      <c r="CJ55" s="36"/>
-      <c r="CK55" s="36"/>
-      <c r="CL55" s="36"/>
-      <c r="CM55" s="37"/>
     </row>
-    <row r="56" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>15</v>
       </c>
@@ -31095,38 +31099,40 @@
       <c r="BY56" s="16">
         <v>9.2594939005436743</v>
       </c>
-      <c r="BZ56" s="27">
+      <c r="BZ56" s="16">
         <v>-8.4163435574934624</v>
       </c>
-      <c r="CA56" s="27">
+      <c r="CA56" s="16">
         <v>-58.050668650536011</v>
       </c>
-      <c r="CB56" s="27">
+      <c r="CB56" s="16">
         <v>-20.658466256099771</v>
       </c>
-      <c r="CC56" s="27">
+      <c r="CC56" s="16">
         <v>-9.7749823592387912</v>
       </c>
-      <c r="CD56" s="27">
+      <c r="CD56" s="16">
         <v>-6.4339525575588254</v>
       </c>
-      <c r="CE56" s="27">
+      <c r="CE56" s="16">
         <v>37.390427892083721</v>
       </c>
-      <c r="CF56" s="27">
+      <c r="CF56" s="16">
         <v>17.679139699711584</v>
       </c>
-      <c r="CG56" s="27">
+      <c r="CG56" s="16">
         <v>17.350752335380861</v>
       </c>
-      <c r="CH56" s="27">
-        <v>18.498750864428288</v>
-      </c>
-      <c r="CI56" s="40"/>
-      <c r="CJ56" s="40"/>
-      <c r="CK56" s="40"/>
-      <c r="CL56" s="40"/>
-      <c r="CM56" s="41"/>
+      <c r="CH56" s="16">
+        <v>18.25435537840508</v>
+      </c>
+      <c r="CI56" s="16">
+        <v>31.959679025472241</v>
+      </c>
+      <c r="CJ56" s="16"/>
+      <c r="CK56" s="16"/>
+      <c r="CL56" s="16"/>
+      <c r="CM56" s="10"/>
       <c r="CN56" s="10"/>
       <c r="CO56" s="10"/>
       <c r="CP56" s="10"/>
@@ -31187,7 +31193,7 @@
       <c r="ES56" s="10"/>
       <c r="ET56" s="10"/>
     </row>
-    <row r="57" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -31419,38 +31425,40 @@
       <c r="BY57" s="16">
         <v>-2.2849334577148568</v>
       </c>
-      <c r="BZ57" s="27">
+      <c r="BZ57" s="16">
         <v>-8.3929033004190927</v>
       </c>
-      <c r="CA57" s="27">
+      <c r="CA57" s="16">
         <v>-71.375294115212569</v>
       </c>
-      <c r="CB57" s="27">
+      <c r="CB57" s="16">
         <v>-21.601355573328703</v>
       </c>
-      <c r="CC57" s="27">
+      <c r="CC57" s="16">
         <v>-10.222542557846765</v>
       </c>
-      <c r="CD57" s="27">
+      <c r="CD57" s="16">
         <v>-26.515669231963216</v>
       </c>
-      <c r="CE57" s="27">
+      <c r="CE57" s="16">
         <v>21.816852409388247</v>
       </c>
-      <c r="CF57" s="27">
+      <c r="CF57" s="16">
         <v>4.8582561597319938</v>
       </c>
-      <c r="CG57" s="27">
+      <c r="CG57" s="16">
         <v>0.98478437722562262</v>
       </c>
-      <c r="CH57" s="27">
-        <v>15.514151284118483</v>
-      </c>
-      <c r="CI57" s="40"/>
-      <c r="CJ57" s="40"/>
-      <c r="CK57" s="40"/>
-      <c r="CL57" s="40"/>
-      <c r="CM57" s="41"/>
+      <c r="CH57" s="16">
+        <v>15.146166548271324</v>
+      </c>
+      <c r="CI57" s="16">
+        <v>21.581014415342722</v>
+      </c>
+      <c r="CJ57" s="16"/>
+      <c r="CK57" s="16"/>
+      <c r="CL57" s="16"/>
+      <c r="CM57" s="10"/>
       <c r="CN57" s="10"/>
       <c r="CO57" s="10"/>
       <c r="CP57" s="10"/>
@@ -31511,7 +31519,7 @@
       <c r="ES57" s="10"/>
       <c r="ET57" s="10"/>
     </row>
-    <row r="58" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -31743,38 +31751,40 @@
       <c r="BY58" s="16">
         <v>9.407299183069</v>
       </c>
-      <c r="BZ58" s="27">
+      <c r="BZ58" s="16">
         <v>-23.742003177444118</v>
       </c>
-      <c r="CA58" s="27">
+      <c r="CA58" s="16">
         <v>-98.201576181219892</v>
       </c>
-      <c r="CB58" s="27">
+      <c r="CB58" s="16">
         <v>-85.392209045254361</v>
       </c>
-      <c r="CC58" s="27">
+      <c r="CC58" s="16">
         <v>-77.74567700908986</v>
       </c>
-      <c r="CD58" s="27">
+      <c r="CD58" s="16">
         <v>-74.151259607223835</v>
       </c>
-      <c r="CE58" s="27">
+      <c r="CE58" s="16">
         <v>545.89521677449557</v>
       </c>
-      <c r="CF58" s="27">
+      <c r="CF58" s="16">
         <v>98.546313838031665</v>
       </c>
-      <c r="CG58" s="27">
+      <c r="CG58" s="16">
         <v>86.428062186697588</v>
       </c>
-      <c r="CH58" s="27">
+      <c r="CH58" s="16">
         <v>176.19213781052696</v>
       </c>
-      <c r="CI58" s="40"/>
-      <c r="CJ58" s="40"/>
-      <c r="CK58" s="40"/>
-      <c r="CL58" s="40"/>
-      <c r="CM58" s="41"/>
+      <c r="CI58" s="16">
+        <v>461.94569238644408</v>
+      </c>
+      <c r="CJ58" s="16"/>
+      <c r="CK58" s="16"/>
+      <c r="CL58" s="16"/>
+      <c r="CM58" s="10"/>
       <c r="CN58" s="10"/>
       <c r="CO58" s="10"/>
       <c r="CP58" s="10"/>
@@ -31835,7 +31845,7 @@
       <c r="ES58" s="10"/>
       <c r="ET58" s="10"/>
     </row>
-    <row r="59" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -32067,38 +32077,40 @@
       <c r="BY59" s="16">
         <v>-0.85344949200812437</v>
       </c>
-      <c r="BZ59" s="27">
+      <c r="BZ59" s="16">
         <v>-10.173255509912963</v>
       </c>
-      <c r="CA59" s="27">
+      <c r="CA59" s="16">
         <v>-17.489318889790155</v>
       </c>
-      <c r="CB59" s="27">
+      <c r="CB59" s="16">
         <v>1.6615603114881026</v>
       </c>
-      <c r="CC59" s="27">
+      <c r="CC59" s="16">
         <v>3.5595213044197607</v>
       </c>
-      <c r="CD59" s="27">
+      <c r="CD59" s="16">
         <v>7.6528383036334162</v>
       </c>
-      <c r="CE59" s="27">
+      <c r="CE59" s="16">
         <v>16.198356007933469</v>
       </c>
-      <c r="CF59" s="27">
+      <c r="CF59" s="16">
         <v>4.6355522652081476</v>
       </c>
-      <c r="CG59" s="27">
+      <c r="CG59" s="16">
         <v>9.6723334493174633</v>
       </c>
-      <c r="CH59" s="27">
-        <v>19.492899033442995</v>
-      </c>
-      <c r="CI59" s="40"/>
-      <c r="CJ59" s="40"/>
-      <c r="CK59" s="40"/>
-      <c r="CL59" s="40"/>
-      <c r="CM59" s="41"/>
+      <c r="CH59" s="16">
+        <v>18.982871416634282</v>
+      </c>
+      <c r="CI59" s="16">
+        <v>8.5250120504644542</v>
+      </c>
+      <c r="CJ59" s="16"/>
+      <c r="CK59" s="16"/>
+      <c r="CL59" s="16"/>
+      <c r="CM59" s="10"/>
       <c r="CN59" s="10"/>
       <c r="CO59" s="10"/>
       <c r="CP59" s="10"/>
@@ -32159,7 +32171,7 @@
       <c r="ES59" s="10"/>
       <c r="ET59" s="10"/>
     </row>
-    <row r="60" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -32391,38 +32403,40 @@
       <c r="BY60" s="16">
         <v>3.1918625274509225</v>
       </c>
-      <c r="BZ60" s="27">
+      <c r="BZ60" s="16">
         <v>6.7343586649381422</v>
       </c>
-      <c r="CA60" s="27">
+      <c r="CA60" s="16">
         <v>-25.710626832852284</v>
       </c>
-      <c r="CB60" s="27">
+      <c r="CB60" s="16">
         <v>21.612627874258635</v>
       </c>
-      <c r="CC60" s="27">
+      <c r="CC60" s="16">
         <v>7.4698416606988332</v>
       </c>
-      <c r="CD60" s="27">
+      <c r="CD60" s="16">
         <v>10.80381488298039</v>
       </c>
-      <c r="CE60" s="27">
+      <c r="CE60" s="16">
         <v>72.952213590950919</v>
       </c>
-      <c r="CF60" s="27">
+      <c r="CF60" s="16">
         <v>-6.329729239590506</v>
       </c>
-      <c r="CG60" s="27">
+      <c r="CG60" s="16">
         <v>2.2113394775298048</v>
       </c>
-      <c r="CH60" s="27">
-        <v>-3.8611773229846165</v>
-      </c>
-      <c r="CI60" s="40"/>
-      <c r="CJ60" s="40"/>
-      <c r="CK60" s="40"/>
-      <c r="CL60" s="40"/>
-      <c r="CM60" s="41"/>
+      <c r="CH60" s="16">
+        <v>-2.3601717965031668</v>
+      </c>
+      <c r="CI60" s="16">
+        <v>-7.2754556414087261</v>
+      </c>
+      <c r="CJ60" s="16"/>
+      <c r="CK60" s="16"/>
+      <c r="CL60" s="16"/>
+      <c r="CM60" s="10"/>
       <c r="CN60" s="10"/>
       <c r="CO60" s="10"/>
       <c r="CP60" s="10"/>
@@ -32483,7 +32497,7 @@
       <c r="ES60" s="10"/>
       <c r="ET60" s="10"/>
     </row>
-    <row r="61" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -32560,20 +32574,20 @@
       <c r="BW61" s="10"/>
       <c r="BX61" s="10"/>
       <c r="BY61" s="10"/>
-      <c r="BZ61" s="23"/>
-      <c r="CA61" s="23"/>
-      <c r="CB61" s="23"/>
-      <c r="CC61" s="23"/>
-      <c r="CD61" s="23"/>
-      <c r="CE61" s="23"/>
-      <c r="CF61" s="23"/>
-      <c r="CG61" s="23"/>
-      <c r="CH61" s="23"/>
-      <c r="CI61" s="40"/>
-      <c r="CJ61" s="40"/>
-      <c r="CK61" s="40"/>
-      <c r="CL61" s="40"/>
-      <c r="CM61" s="41"/>
+      <c r="BZ61" s="10"/>
+      <c r="CA61" s="10"/>
+      <c r="CB61" s="10"/>
+      <c r="CC61" s="10"/>
+      <c r="CD61" s="10"/>
+      <c r="CE61" s="10"/>
+      <c r="CF61" s="10"/>
+      <c r="CG61" s="10"/>
+      <c r="CH61" s="10"/>
+      <c r="CI61" s="10"/>
+      <c r="CJ61" s="10"/>
+      <c r="CK61" s="10"/>
+      <c r="CL61" s="10"/>
+      <c r="CM61" s="10"/>
       <c r="CN61" s="10"/>
       <c r="CO61" s="10"/>
       <c r="CP61" s="10"/>
@@ -32634,7 +32648,7 @@
       <c r="ES61" s="10"/>
       <c r="ET61" s="10"/>
     </row>
-    <row r="62" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>10</v>
       </c>
@@ -32866,38 +32880,40 @@
       <c r="BY62" s="16">
         <v>6.017865256688637</v>
       </c>
-      <c r="BZ62" s="27">
+      <c r="BZ62" s="16">
         <v>-10.773653122834517</v>
       </c>
-      <c r="CA62" s="27">
+      <c r="CA62" s="16">
         <v>-54.4995081765762</v>
       </c>
-      <c r="CB62" s="27">
+      <c r="CB62" s="16">
         <v>-23.576971914105641</v>
       </c>
-      <c r="CC62" s="27">
+      <c r="CC62" s="16">
         <v>-15.840512907809384</v>
       </c>
-      <c r="CD62" s="27">
+      <c r="CD62" s="16">
         <v>-13.178523373083181</v>
       </c>
-      <c r="CE62" s="27">
+      <c r="CE62" s="16">
         <v>32.934643676807241</v>
       </c>
-      <c r="CF62" s="27">
+      <c r="CF62" s="16">
         <v>14.017339059249181</v>
       </c>
-      <c r="CG62" s="27">
+      <c r="CG62" s="16">
         <v>16.244429953222465</v>
       </c>
-      <c r="CH62" s="27">
-        <v>23.940490186515959</v>
-      </c>
-      <c r="CI62" s="40"/>
-      <c r="CJ62" s="40"/>
-      <c r="CK62" s="40"/>
-      <c r="CL62" s="40"/>
-      <c r="CM62" s="41"/>
+      <c r="CH62" s="16">
+        <v>23.721074736691222</v>
+      </c>
+      <c r="CI62" s="16">
+        <v>32.15690038783427</v>
+      </c>
+      <c r="CJ62" s="16"/>
+      <c r="CK62" s="16"/>
+      <c r="CL62" s="16"/>
+      <c r="CM62" s="10"/>
       <c r="CN62" s="10"/>
       <c r="CO62" s="10"/>
       <c r="CP62" s="10"/>
@@ -32958,7 +32974,7 @@
       <c r="ES62" s="10"/>
       <c r="ET62" s="10"/>
     </row>
-    <row r="63" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -33036,32 +33052,27 @@
       <c r="BW63" s="13"/>
       <c r="BX63" s="13"/>
       <c r="BY63" s="13"/>
-      <c r="BZ63" s="26"/>
-      <c r="CA63" s="26"/>
-      <c r="CB63" s="26"/>
-      <c r="CC63" s="26"/>
-      <c r="CD63" s="26"/>
-      <c r="CE63" s="26"/>
-      <c r="CF63" s="26"/>
-      <c r="CG63" s="26"/>
-      <c r="CH63" s="26"/>
-      <c r="CI63" s="42"/>
-      <c r="CJ63" s="42"/>
-      <c r="CK63" s="42"/>
-      <c r="CL63" s="42"/>
-      <c r="CM63" s="37"/>
+      <c r="BZ63" s="13"/>
+      <c r="CA63" s="13"/>
+      <c r="CB63" s="13"/>
+      <c r="CC63" s="13"/>
+      <c r="CD63" s="13"/>
+      <c r="CE63" s="13"/>
+      <c r="CF63" s="13"/>
+      <c r="CG63" s="13"/>
+      <c r="CH63" s="13"/>
+      <c r="CI63" s="13"/>
+      <c r="CJ63" s="13"/>
+      <c r="CK63" s="13"/>
+      <c r="CL63" s="13"/>
+      <c r="CM63" s="13"/>
     </row>
-    <row r="64" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="CI64" s="36"/>
-      <c r="CJ64" s="36"/>
-      <c r="CK64" s="36"/>
-      <c r="CL64" s="36"/>
-      <c r="CM64" s="37"/>
     </row>
-    <row r="65" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -33138,20 +33149,20 @@
       <c r="BW65" s="10"/>
       <c r="BX65" s="10"/>
       <c r="BY65" s="10"/>
-      <c r="BZ65" s="23"/>
-      <c r="CA65" s="23"/>
-      <c r="CB65" s="23"/>
-      <c r="CC65" s="23"/>
-      <c r="CD65" s="23"/>
-      <c r="CE65" s="23"/>
-      <c r="CF65" s="23"/>
-      <c r="CG65" s="23"/>
-      <c r="CH65" s="23"/>
-      <c r="CI65" s="40"/>
-      <c r="CJ65" s="40"/>
-      <c r="CK65" s="40"/>
-      <c r="CL65" s="40"/>
-      <c r="CM65" s="41"/>
+      <c r="BZ65" s="10"/>
+      <c r="CA65" s="10"/>
+      <c r="CB65" s="10"/>
+      <c r="CC65" s="10"/>
+      <c r="CD65" s="10"/>
+      <c r="CE65" s="10"/>
+      <c r="CF65" s="10"/>
+      <c r="CG65" s="10"/>
+      <c r="CH65" s="10"/>
+      <c r="CI65" s="10"/>
+      <c r="CJ65" s="10"/>
+      <c r="CK65" s="10"/>
+      <c r="CL65" s="10"/>
+      <c r="CM65" s="10"/>
       <c r="CN65" s="10"/>
       <c r="CO65" s="10"/>
       <c r="CP65" s="10"/>
@@ -33212,7 +33223,7 @@
       <c r="ES65" s="10"/>
       <c r="ET65" s="10"/>
     </row>
-    <row r="66" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -33289,20 +33300,20 @@
       <c r="BW66" s="10"/>
       <c r="BX66" s="10"/>
       <c r="BY66" s="10"/>
-      <c r="BZ66" s="23"/>
-      <c r="CA66" s="23"/>
-      <c r="CB66" s="23"/>
-      <c r="CC66" s="23"/>
-      <c r="CD66" s="23"/>
-      <c r="CE66" s="23"/>
-      <c r="CF66" s="23"/>
-      <c r="CG66" s="23"/>
-      <c r="CH66" s="23"/>
-      <c r="CI66" s="40"/>
-      <c r="CJ66" s="40"/>
-      <c r="CK66" s="40"/>
-      <c r="CL66" s="40"/>
-      <c r="CM66" s="41"/>
+      <c r="BZ66" s="10"/>
+      <c r="CA66" s="10"/>
+      <c r="CB66" s="10"/>
+      <c r="CC66" s="10"/>
+      <c r="CD66" s="10"/>
+      <c r="CE66" s="10"/>
+      <c r="CF66" s="10"/>
+      <c r="CG66" s="10"/>
+      <c r="CH66" s="10"/>
+      <c r="CI66" s="10"/>
+      <c r="CJ66" s="10"/>
+      <c r="CK66" s="10"/>
+      <c r="CL66" s="10"/>
+      <c r="CM66" s="10"/>
       <c r="CN66" s="10"/>
       <c r="CO66" s="10"/>
       <c r="CP66" s="10"/>
@@ -33363,193 +33374,174 @@
       <c r="ES66" s="10"/>
       <c r="ET66" s="10"/>
     </row>
-    <row r="67" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CI67" s="36"/>
-      <c r="CJ67" s="36"/>
-      <c r="CK67" s="36"/>
-      <c r="CL67" s="36"/>
-      <c r="CM67" s="37"/>
     </row>
-    <row r="68" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CI68" s="36"/>
-      <c r="CJ68" s="36"/>
-      <c r="CK68" s="36"/>
-      <c r="CL68" s="36"/>
-      <c r="CM68" s="37"/>
     </row>
-    <row r="69" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="CI73" s="36"/>
-      <c r="CJ73" s="36"/>
-      <c r="CK73" s="36"/>
-      <c r="CL73" s="36"/>
     </row>
-    <row r="74" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CI74" s="36"/>
-      <c r="CJ74" s="36"/>
-      <c r="CK74" s="36"/>
-      <c r="CL74" s="36"/>
+    <row r="75" spans="1:150" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="S75" s="26"/>
+      <c r="T75" s="26"/>
+      <c r="U75" s="26"/>
+      <c r="V75" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="W75" s="26"/>
+      <c r="X75" s="26"/>
+      <c r="Y75" s="26"/>
+      <c r="Z75" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA75" s="26"/>
+      <c r="AB75" s="26"/>
+      <c r="AC75" s="26"/>
+      <c r="AD75" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE75" s="26"/>
+      <c r="AF75" s="26"/>
+      <c r="AG75" s="26"/>
+      <c r="AH75" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI75" s="26"/>
+      <c r="AJ75" s="26"/>
+      <c r="AK75" s="26"/>
+      <c r="AL75" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM75" s="26"/>
+      <c r="AN75" s="26"/>
+      <c r="AO75" s="26"/>
+      <c r="AP75" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ75" s="26"/>
+      <c r="AR75" s="26"/>
+      <c r="AS75" s="26"/>
+      <c r="AT75" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU75" s="26"/>
+      <c r="AV75" s="26"/>
+      <c r="AW75" s="26"/>
+      <c r="AX75" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY75" s="26"/>
+      <c r="AZ75" s="26"/>
+      <c r="BA75" s="26"/>
+      <c r="BB75" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC75" s="26"/>
+      <c r="BD75" s="26"/>
+      <c r="BE75" s="26"/>
+      <c r="BF75" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG75" s="26"/>
+      <c r="BH75" s="26"/>
+      <c r="BI75" s="26"/>
+      <c r="BJ75" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="BK75" s="26"/>
+      <c r="BL75" s="26"/>
+      <c r="BM75" s="26"/>
+      <c r="BN75" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="BO75" s="26"/>
+      <c r="BP75" s="26"/>
+      <c r="BQ75" s="26"/>
+      <c r="BR75" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS75" s="26"/>
+      <c r="BT75" s="26"/>
+      <c r="BU75" s="26"/>
+      <c r="BV75" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="BW75" s="26"/>
+      <c r="BX75" s="26"/>
+      <c r="BY75" s="26"/>
+      <c r="BZ75" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA75" s="26"/>
+      <c r="CB75" s="26"/>
+      <c r="CC75" s="26"/>
+      <c r="CD75" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="CE75" s="26"/>
+      <c r="CF75" s="26"/>
+      <c r="CG75" s="26"/>
+      <c r="CH75" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="CI75" s="25"/>
+      <c r="CJ75" s="23"/>
+      <c r="CK75" s="23"/>
+      <c r="CL75" s="19"/>
+      <c r="CM75" s="19"/>
     </row>
-    <row r="75" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="S75" s="34"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="W75" s="34"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="34"/>
-      <c r="AC75" s="34"/>
-      <c r="AD75" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE75" s="34"/>
-      <c r="AF75" s="34"/>
-      <c r="AG75" s="34"/>
-      <c r="AH75" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI75" s="34"/>
-      <c r="AJ75" s="34"/>
-      <c r="AK75" s="34"/>
-      <c r="AL75" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM75" s="34"/>
-      <c r="AN75" s="34"/>
-      <c r="AO75" s="34"/>
-      <c r="AP75" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ75" s="34"/>
-      <c r="AR75" s="34"/>
-      <c r="AS75" s="34"/>
-      <c r="AT75" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU75" s="34"/>
-      <c r="AV75" s="34"/>
-      <c r="AW75" s="34"/>
-      <c r="AX75" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY75" s="34"/>
-      <c r="AZ75" s="34"/>
-      <c r="BA75" s="34"/>
-      <c r="BB75" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC75" s="34"/>
-      <c r="BD75" s="34"/>
-      <c r="BE75" s="34"/>
-      <c r="BF75" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="BG75" s="34"/>
-      <c r="BH75" s="34"/>
-      <c r="BI75" s="34"/>
-      <c r="BJ75" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="BK75" s="34"/>
-      <c r="BL75" s="34"/>
-      <c r="BM75" s="34"/>
-      <c r="BN75" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="BO75" s="34"/>
-      <c r="BP75" s="34"/>
-      <c r="BQ75" s="34"/>
-      <c r="BR75" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="BS75" s="34"/>
-      <c r="BT75" s="34"/>
-      <c r="BU75" s="34"/>
-      <c r="BV75" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="BW75" s="34"/>
-      <c r="BX75" s="34"/>
-      <c r="BY75" s="34"/>
-      <c r="BZ75" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="CA75" s="31"/>
-      <c r="CB75" s="31"/>
-      <c r="CC75" s="31"/>
-      <c r="CD75" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="CE75" s="31"/>
-      <c r="CF75" s="31"/>
-      <c r="CG75" s="31"/>
-      <c r="CH75" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="CI75" s="38"/>
-      <c r="CJ75" s="38"/>
-      <c r="CK75" s="38"/>
-      <c r="CL75" s="39"/>
-    </row>
-    <row r="76" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>16</v>
       </c>
@@ -33781,46 +33773,45 @@
       <c r="BY76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BZ76" s="28" t="s">
+      <c r="BZ76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CA76" s="28" t="s">
+      <c r="CA76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CB76" s="28" t="s">
+      <c r="CB76" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CC76" s="28" t="s">
+      <c r="CC76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CD76" s="28" t="s">
+      <c r="CD76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CE76" s="28" t="s">
+      <c r="CE76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CF76" s="28" t="s">
+      <c r="CF76" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CG76" s="28" t="s">
+      <c r="CG76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CH76" s="28" t="s">
+      <c r="CH76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CI76" s="38"/>
-      <c r="CJ76" s="38"/>
-      <c r="CK76" s="38"/>
-      <c r="CL76" s="38"/>
+      <c r="CI76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ76" s="6"/>
+      <c r="CK76" s="6"/>
+      <c r="CL76" s="6"/>
+      <c r="CM76" s="24"/>
     </row>
-    <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
-      <c r="CI77" s="36"/>
-      <c r="CJ77" s="36"/>
-      <c r="CK77" s="36"/>
-      <c r="CL77" s="36"/>
     </row>
-    <row r="78" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>15</v>
       </c>
@@ -34052,37 +34043,39 @@
       <c r="BY78" s="16">
         <v>6.6394033907729124</v>
       </c>
-      <c r="BZ78" s="27">
+      <c r="BZ78" s="16">
         <v>-11.572182227538804</v>
       </c>
-      <c r="CA78" s="27">
+      <c r="CA78" s="16">
         <v>-63.945078674022888</v>
       </c>
-      <c r="CB78" s="27">
+      <c r="CB78" s="16">
         <v>-25.463310690901196</v>
       </c>
-      <c r="CC78" s="27">
+      <c r="CC78" s="16">
         <v>-13.455222854172817</v>
       </c>
-      <c r="CD78" s="27">
+      <c r="CD78" s="16">
         <v>-13.724253165107285</v>
       </c>
-      <c r="CE78" s="27">
+      <c r="CE78" s="16">
         <v>28.73684813057713</v>
       </c>
-      <c r="CF78" s="27">
+      <c r="CF78" s="16">
         <v>14.999647903558682</v>
       </c>
-      <c r="CG78" s="27">
+      <c r="CG78" s="16">
         <v>16.592898495162316</v>
       </c>
-      <c r="CH78" s="27">
-        <v>17.476703543598987</v>
-      </c>
-      <c r="CI78" s="40"/>
-      <c r="CJ78" s="40"/>
-      <c r="CK78" s="40"/>
-      <c r="CL78" s="40"/>
+      <c r="CH78" s="16">
+        <v>17.234415959556927</v>
+      </c>
+      <c r="CI78" s="16">
+        <v>30.295741614998207</v>
+      </c>
+      <c r="CJ78" s="16"/>
+      <c r="CK78" s="16"/>
+      <c r="CL78" s="16"/>
       <c r="CM78" s="10"/>
       <c r="CN78" s="10"/>
       <c r="CO78" s="10"/>
@@ -34144,7 +34137,7 @@
       <c r="ES78" s="10"/>
       <c r="ET78" s="10"/>
     </row>
-    <row r="79" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
@@ -34376,37 +34369,39 @@
       <c r="BY79" s="16">
         <v>-3.9173851474330235</v>
       </c>
-      <c r="BZ79" s="27">
+      <c r="BZ79" s="16">
         <v>-9.2283822516241685</v>
       </c>
-      <c r="CA79" s="27">
+      <c r="CA79" s="16">
         <v>-60.682749420429701</v>
       </c>
-      <c r="CB79" s="27">
+      <c r="CB79" s="16">
         <v>-39.408875389265475</v>
       </c>
-      <c r="CC79" s="27">
+      <c r="CC79" s="16">
         <v>-22.80725264827646</v>
       </c>
-      <c r="CD79" s="27">
+      <c r="CD79" s="16">
         <v>-35.523093122719303</v>
       </c>
-      <c r="CE79" s="27">
+      <c r="CE79" s="16">
         <v>5.1323486747115084</v>
       </c>
-      <c r="CF79" s="27">
+      <c r="CF79" s="16">
         <v>17.068500792376852</v>
       </c>
-      <c r="CG79" s="27">
+      <c r="CG79" s="16">
         <v>23.092131127773754</v>
       </c>
-      <c r="CH79" s="27">
-        <v>34.659477956295177</v>
-      </c>
-      <c r="CI79" s="40"/>
-      <c r="CJ79" s="40"/>
-      <c r="CK79" s="40"/>
-      <c r="CL79" s="40"/>
+      <c r="CH79" s="16">
+        <v>34.230503394527545</v>
+      </c>
+      <c r="CI79" s="16">
+        <v>3.6753912820452115</v>
+      </c>
+      <c r="CJ79" s="16"/>
+      <c r="CK79" s="16"/>
+      <c r="CL79" s="16"/>
       <c r="CM79" s="10"/>
       <c r="CN79" s="10"/>
       <c r="CO79" s="10"/>
@@ -34468,7 +34463,7 @@
       <c r="ES79" s="10"/>
       <c r="ET79" s="10"/>
     </row>
-    <row r="80" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -34700,37 +34695,39 @@
       <c r="BY80" s="16">
         <v>9.5532440876537947</v>
       </c>
-      <c r="BZ80" s="27">
+      <c r="BZ80" s="16">
         <v>-18.396934530155534</v>
       </c>
-      <c r="CA80" s="27">
+      <c r="CA80" s="16">
         <v>-98.306666776253294</v>
       </c>
-      <c r="CB80" s="27">
+      <c r="CB80" s="16">
         <v>-85.704220114190676</v>
       </c>
-      <c r="CC80" s="27">
+      <c r="CC80" s="16">
         <v>-76.766241938722217</v>
       </c>
-      <c r="CD80" s="27">
+      <c r="CD80" s="16">
         <v>-73.664044429163368</v>
       </c>
-      <c r="CE80" s="27">
+      <c r="CE80" s="16">
         <v>549.72861560657441</v>
       </c>
-      <c r="CF80" s="27">
+      <c r="CF80" s="16">
         <v>96.775335815690369</v>
       </c>
-      <c r="CG80" s="27">
+      <c r="CG80" s="16">
         <v>72.538697072371775</v>
       </c>
-      <c r="CH80" s="27">
+      <c r="CH80" s="16">
         <v>163.86943518728094</v>
       </c>
-      <c r="CI80" s="40"/>
-      <c r="CJ80" s="40"/>
-      <c r="CK80" s="40"/>
-      <c r="CL80" s="40"/>
+      <c r="CI80" s="16">
+        <v>393.83708019967651</v>
+      </c>
+      <c r="CJ80" s="16"/>
+      <c r="CK80" s="16"/>
+      <c r="CL80" s="16"/>
       <c r="CM80" s="10"/>
       <c r="CN80" s="10"/>
       <c r="CO80" s="10"/>
@@ -34792,7 +34789,7 @@
       <c r="ES80" s="10"/>
       <c r="ET80" s="10"/>
     </row>
-    <row r="81" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -35024,37 +35021,39 @@
       <c r="BY81" s="16">
         <v>0.67845314113399979</v>
       </c>
-      <c r="BZ81" s="27">
+      <c r="BZ81" s="16">
         <v>-7.7119346901851031</v>
       </c>
-      <c r="CA81" s="27">
+      <c r="CA81" s="16">
         <v>-17.14558270741388</v>
       </c>
-      <c r="CB81" s="27">
+      <c r="CB81" s="16">
         <v>-9.1657203929107283</v>
       </c>
-      <c r="CC81" s="27">
+      <c r="CC81" s="16">
         <v>-2.687169375263025</v>
       </c>
-      <c r="CD81" s="27">
+      <c r="CD81" s="16">
         <v>0.46928446442686322</v>
       </c>
-      <c r="CE81" s="27">
+      <c r="CE81" s="16">
         <v>7.7507010459323453</v>
       </c>
-      <c r="CF81" s="27">
+      <c r="CF81" s="16">
         <v>12.125538218182726</v>
       </c>
-      <c r="CG81" s="27">
+      <c r="CG81" s="16">
         <v>18.041473952553488</v>
       </c>
-      <c r="CH81" s="27">
-        <v>23.869161721538063</v>
-      </c>
-      <c r="CI81" s="40"/>
-      <c r="CJ81" s="40"/>
-      <c r="CK81" s="40"/>
-      <c r="CL81" s="40"/>
+      <c r="CH81" s="16">
+        <v>23.340455046413751</v>
+      </c>
+      <c r="CI81" s="16">
+        <v>-0.16912765303030142</v>
+      </c>
+      <c r="CJ81" s="16"/>
+      <c r="CK81" s="16"/>
+      <c r="CL81" s="16"/>
       <c r="CM81" s="10"/>
       <c r="CN81" s="10"/>
       <c r="CO81" s="10"/>
@@ -35116,7 +35115,7 @@
       <c r="ES81" s="10"/>
       <c r="ET81" s="10"/>
     </row>
-    <row r="82" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -35348,37 +35347,39 @@
       <c r="BY82" s="16">
         <v>2.5638045346691172</v>
       </c>
-      <c r="BZ82" s="27">
+      <c r="BZ82" s="16">
         <v>5.9907216369178684</v>
       </c>
-      <c r="CA82" s="27">
+      <c r="CA82" s="16">
         <v>-26.712547055140178</v>
       </c>
-      <c r="CB82" s="27">
+      <c r="CB82" s="16">
         <v>21.612627874258663</v>
       </c>
-      <c r="CC82" s="27">
+      <c r="CC82" s="16">
         <v>7.4698416606988189</v>
       </c>
-      <c r="CD82" s="27">
+      <c r="CD82" s="16">
         <v>10.803814882980362</v>
       </c>
-      <c r="CE82" s="27">
+      <c r="CE82" s="16">
         <v>73.966273062627891</v>
       </c>
-      <c r="CF82" s="27">
+      <c r="CF82" s="16">
         <v>-6.3297292395905203</v>
       </c>
-      <c r="CG82" s="27">
+      <c r="CG82" s="16">
         <v>2.2113394775297763</v>
       </c>
-      <c r="CH82" s="27">
-        <v>-3.9572201028817346</v>
-      </c>
-      <c r="CI82" s="40"/>
-      <c r="CJ82" s="40"/>
-      <c r="CK82" s="40"/>
-      <c r="CL82" s="40"/>
+      <c r="CH82" s="16">
+        <v>-2.457714082420722</v>
+      </c>
+      <c r="CI82" s="16">
+        <v>-7.4524108787343124</v>
+      </c>
+      <c r="CJ82" s="16"/>
+      <c r="CK82" s="16"/>
+      <c r="CL82" s="16"/>
       <c r="CM82" s="10"/>
       <c r="CN82" s="10"/>
       <c r="CO82" s="10"/>
@@ -35440,7 +35441,7 @@
       <c r="ES82" s="10"/>
       <c r="ET82" s="10"/>
     </row>
-    <row r="83" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -35517,19 +35518,19 @@
       <c r="BW83" s="10"/>
       <c r="BX83" s="10"/>
       <c r="BY83" s="10"/>
-      <c r="BZ83" s="23"/>
-      <c r="CA83" s="23"/>
-      <c r="CB83" s="23"/>
-      <c r="CC83" s="23"/>
-      <c r="CD83" s="23"/>
-      <c r="CE83" s="23"/>
-      <c r="CF83" s="23"/>
-      <c r="CG83" s="23"/>
-      <c r="CH83" s="23"/>
-      <c r="CI83" s="40"/>
-      <c r="CJ83" s="40"/>
-      <c r="CK83" s="40"/>
-      <c r="CL83" s="40"/>
+      <c r="BZ83" s="10"/>
+      <c r="CA83" s="10"/>
+      <c r="CB83" s="10"/>
+      <c r="CC83" s="10"/>
+      <c r="CD83" s="10"/>
+      <c r="CE83" s="10"/>
+      <c r="CF83" s="10"/>
+      <c r="CG83" s="10"/>
+      <c r="CH83" s="10"/>
+      <c r="CI83" s="10"/>
+      <c r="CJ83" s="10"/>
+      <c r="CK83" s="10"/>
+      <c r="CL83" s="10"/>
       <c r="CM83" s="10"/>
       <c r="CN83" s="10"/>
       <c r="CO83" s="10"/>
@@ -35591,7 +35592,7 @@
       <c r="ES83" s="10"/>
       <c r="ET83" s="10"/>
     </row>
-    <row r="84" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>10</v>
       </c>
@@ -35823,37 +35824,39 @@
       <c r="BY84" s="16">
         <v>4.8599117318994587</v>
       </c>
-      <c r="BZ84" s="27">
+      <c r="BZ84" s="16">
         <v>-11.069936445522416</v>
       </c>
-      <c r="CA84" s="27">
+      <c r="CA84" s="16">
         <v>-57.951659234692869</v>
       </c>
-      <c r="CB84" s="27">
+      <c r="CB84" s="16">
         <v>-29.841719104694093</v>
       </c>
-      <c r="CC84" s="27">
+      <c r="CC84" s="16">
         <v>-19.341160396224609</v>
       </c>
-      <c r="CD84" s="27">
+      <c r="CD84" s="16">
         <v>-19.916564444342185</v>
       </c>
-      <c r="CE84" s="27">
+      <c r="CE84" s="16">
         <v>24.344118280218012</v>
       </c>
-      <c r="CF84" s="27">
+      <c r="CF84" s="16">
         <v>15.491950993576182</v>
       </c>
-      <c r="CG84" s="27">
+      <c r="CG84" s="16">
         <v>18.68475851062712</v>
       </c>
-      <c r="CH84" s="27">
-        <v>26.503018806083432</v>
-      </c>
-      <c r="CI84" s="40"/>
-      <c r="CJ84" s="40"/>
-      <c r="CK84" s="40"/>
-      <c r="CL84" s="40"/>
+      <c r="CH84" s="16">
+        <v>26.280112408659392</v>
+      </c>
+      <c r="CI84" s="16">
+        <v>27.100694374763705</v>
+      </c>
+      <c r="CJ84" s="16"/>
+      <c r="CK84" s="16"/>
+      <c r="CL84" s="16"/>
       <c r="CM84" s="10"/>
       <c r="CN84" s="10"/>
       <c r="CO84" s="10"/>
@@ -35915,7 +35918,7 @@
       <c r="ES84" s="10"/>
       <c r="ET84" s="10"/>
     </row>
-    <row r="85" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -35993,30 +35996,27 @@
       <c r="BW85" s="13"/>
       <c r="BX85" s="13"/>
       <c r="BY85" s="13"/>
-      <c r="BZ85" s="26"/>
-      <c r="CA85" s="26"/>
-      <c r="CB85" s="26"/>
-      <c r="CC85" s="26"/>
-      <c r="CD85" s="26"/>
-      <c r="CE85" s="26"/>
-      <c r="CF85" s="26"/>
-      <c r="CG85" s="26"/>
-      <c r="CH85" s="26"/>
-      <c r="CI85" s="42"/>
-      <c r="CJ85" s="42"/>
-      <c r="CK85" s="42"/>
-      <c r="CL85" s="42"/>
+      <c r="BZ85" s="13"/>
+      <c r="CA85" s="13"/>
+      <c r="CB85" s="13"/>
+      <c r="CC85" s="13"/>
+      <c r="CD85" s="13"/>
+      <c r="CE85" s="13"/>
+      <c r="CF85" s="13"/>
+      <c r="CG85" s="13"/>
+      <c r="CH85" s="13"/>
+      <c r="CI85" s="13"/>
+      <c r="CJ85" s="13"/>
+      <c r="CK85" s="13"/>
+      <c r="CL85" s="13"/>
+      <c r="CM85" s="13"/>
     </row>
-    <row r="86" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="CI86" s="36"/>
-      <c r="CJ86" s="36"/>
-      <c r="CK86" s="36"/>
-      <c r="CL86" s="36"/>
     </row>
-    <row r="87" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -36093,19 +36093,19 @@
       <c r="BW87" s="10"/>
       <c r="BX87" s="10"/>
       <c r="BY87" s="10"/>
-      <c r="BZ87" s="23"/>
-      <c r="CA87" s="23"/>
-      <c r="CB87" s="23"/>
-      <c r="CC87" s="23"/>
-      <c r="CD87" s="23"/>
-      <c r="CE87" s="23"/>
-      <c r="CF87" s="23"/>
-      <c r="CG87" s="23"/>
-      <c r="CH87" s="23"/>
-      <c r="CI87" s="40"/>
-      <c r="CJ87" s="40"/>
-      <c r="CK87" s="40"/>
-      <c r="CL87" s="40"/>
+      <c r="BZ87" s="10"/>
+      <c r="CA87" s="10"/>
+      <c r="CB87" s="10"/>
+      <c r="CC87" s="10"/>
+      <c r="CD87" s="10"/>
+      <c r="CE87" s="10"/>
+      <c r="CF87" s="10"/>
+      <c r="CG87" s="10"/>
+      <c r="CH87" s="10"/>
+      <c r="CI87" s="10"/>
+      <c r="CJ87" s="10"/>
+      <c r="CK87" s="10"/>
+      <c r="CL87" s="10"/>
       <c r="CM87" s="10"/>
       <c r="CN87" s="10"/>
       <c r="CO87" s="10"/>
@@ -36167,7 +36167,7 @@
       <c r="ES87" s="10"/>
       <c r="ET87" s="10"/>
     </row>
-    <row r="88" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -36244,19 +36244,19 @@
       <c r="BW88" s="10"/>
       <c r="BX88" s="10"/>
       <c r="BY88" s="10"/>
-      <c r="BZ88" s="23"/>
-      <c r="CA88" s="23"/>
-      <c r="CB88" s="23"/>
-      <c r="CC88" s="23"/>
-      <c r="CD88" s="23"/>
-      <c r="CE88" s="23"/>
-      <c r="CF88" s="23"/>
-      <c r="CG88" s="23"/>
-      <c r="CH88" s="23"/>
-      <c r="CI88" s="23"/>
-      <c r="CJ88" s="23"/>
-      <c r="CK88" s="23"/>
-      <c r="CL88" s="23"/>
+      <c r="BZ88" s="10"/>
+      <c r="CA88" s="10"/>
+      <c r="CB88" s="10"/>
+      <c r="CC88" s="10"/>
+      <c r="CD88" s="10"/>
+      <c r="CE88" s="10"/>
+      <c r="CF88" s="10"/>
+      <c r="CG88" s="10"/>
+      <c r="CH88" s="10"/>
+      <c r="CI88" s="10"/>
+      <c r="CJ88" s="10"/>
+      <c r="CK88" s="10"/>
+      <c r="CL88" s="10"/>
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
       <c r="CO88" s="10"/>
@@ -36318,170 +36318,171 @@
       <c r="ES88" s="10"/>
       <c r="ET88" s="10"/>
     </row>
-    <row r="89" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
-      <c r="B96" s="32">
+      <c r="B96" s="25">
         <v>2000</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="32">
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="25">
         <v>2001</v>
       </c>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="32">
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="25">
         <v>2002</v>
       </c>
-      <c r="K96" s="33"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="33"/>
-      <c r="N96" s="32">
+      <c r="K96" s="27"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="27"/>
+      <c r="N96" s="25">
         <v>2003</v>
       </c>
-      <c r="O96" s="33"/>
-      <c r="P96" s="33"/>
-      <c r="Q96" s="33"/>
-      <c r="R96" s="32">
+      <c r="O96" s="27"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="25">
         <v>2004</v>
       </c>
-      <c r="S96" s="33"/>
-      <c r="T96" s="33"/>
-      <c r="U96" s="33"/>
-      <c r="V96" s="32">
+      <c r="S96" s="27"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
+      <c r="V96" s="25">
         <v>2005</v>
       </c>
-      <c r="W96" s="33"/>
-      <c r="X96" s="33"/>
-      <c r="Y96" s="33"/>
-      <c r="Z96" s="32">
+      <c r="W96" s="27"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="25">
         <v>2006</v>
       </c>
-      <c r="AA96" s="33"/>
-      <c r="AB96" s="33"/>
-      <c r="AC96" s="33"/>
-      <c r="AD96" s="32">
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="27"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="25">
         <v>2007</v>
       </c>
-      <c r="AE96" s="33"/>
-      <c r="AF96" s="33"/>
-      <c r="AG96" s="33"/>
-      <c r="AH96" s="32">
+      <c r="AE96" s="27"/>
+      <c r="AF96" s="27"/>
+      <c r="AG96" s="27"/>
+      <c r="AH96" s="25">
         <v>2008</v>
       </c>
-      <c r="AI96" s="33"/>
-      <c r="AJ96" s="33"/>
-      <c r="AK96" s="33"/>
-      <c r="AL96" s="32">
+      <c r="AI96" s="27"/>
+      <c r="AJ96" s="27"/>
+      <c r="AK96" s="27"/>
+      <c r="AL96" s="25">
         <v>2009</v>
       </c>
-      <c r="AM96" s="33"/>
-      <c r="AN96" s="33"/>
-      <c r="AO96" s="33"/>
-      <c r="AP96" s="32">
+      <c r="AM96" s="27"/>
+      <c r="AN96" s="27"/>
+      <c r="AO96" s="27"/>
+      <c r="AP96" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="33"/>
-      <c r="AR96" s="33"/>
-      <c r="AS96" s="33"/>
-      <c r="AT96" s="32">
+      <c r="AQ96" s="27"/>
+      <c r="AR96" s="27"/>
+      <c r="AS96" s="27"/>
+      <c r="AT96" s="25">
         <v>2011</v>
       </c>
-      <c r="AU96" s="33"/>
-      <c r="AV96" s="33"/>
-      <c r="AW96" s="33"/>
-      <c r="AX96" s="32">
+      <c r="AU96" s="27"/>
+      <c r="AV96" s="27"/>
+      <c r="AW96" s="27"/>
+      <c r="AX96" s="25">
         <v>2012</v>
       </c>
-      <c r="AY96" s="33"/>
-      <c r="AZ96" s="33"/>
-      <c r="BA96" s="33"/>
-      <c r="BB96" s="32">
+      <c r="AY96" s="27"/>
+      <c r="AZ96" s="27"/>
+      <c r="BA96" s="27"/>
+      <c r="BB96" s="25">
         <v>2013</v>
       </c>
-      <c r="BC96" s="33"/>
-      <c r="BD96" s="33"/>
-      <c r="BE96" s="33"/>
-      <c r="BF96" s="32">
+      <c r="BC96" s="27"/>
+      <c r="BD96" s="27"/>
+      <c r="BE96" s="27"/>
+      <c r="BF96" s="25">
         <v>2014</v>
       </c>
-      <c r="BG96" s="33"/>
-      <c r="BH96" s="33"/>
-      <c r="BI96" s="33"/>
-      <c r="BJ96" s="32">
+      <c r="BG96" s="27"/>
+      <c r="BH96" s="27"/>
+      <c r="BI96" s="27"/>
+      <c r="BJ96" s="25">
         <v>2015</v>
       </c>
-      <c r="BK96" s="33"/>
-      <c r="BL96" s="33"/>
-      <c r="BM96" s="33"/>
-      <c r="BN96" s="32">
+      <c r="BK96" s="27"/>
+      <c r="BL96" s="27"/>
+      <c r="BM96" s="27"/>
+      <c r="BN96" s="25">
         <v>2016</v>
       </c>
-      <c r="BO96" s="33"/>
-      <c r="BP96" s="33"/>
-      <c r="BQ96" s="33"/>
-      <c r="BR96" s="32">
+      <c r="BO96" s="27"/>
+      <c r="BP96" s="27"/>
+      <c r="BQ96" s="27"/>
+      <c r="BR96" s="25">
         <v>2017</v>
       </c>
-      <c r="BS96" s="33"/>
-      <c r="BT96" s="33"/>
-      <c r="BU96" s="33"/>
-      <c r="BV96" s="32">
+      <c r="BS96" s="27"/>
+      <c r="BT96" s="27"/>
+      <c r="BU96" s="27"/>
+      <c r="BV96" s="25">
         <v>2018</v>
       </c>
-      <c r="BW96" s="33"/>
-      <c r="BX96" s="33"/>
-      <c r="BY96" s="33"/>
-      <c r="BZ96" s="31">
+      <c r="BW96" s="27"/>
+      <c r="BX96" s="27"/>
+      <c r="BY96" s="27"/>
+      <c r="BZ96" s="25">
         <v>2019</v>
       </c>
-      <c r="CA96" s="35"/>
-      <c r="CB96" s="35"/>
-      <c r="CC96" s="35"/>
-      <c r="CD96" s="31">
+      <c r="CA96" s="27"/>
+      <c r="CB96" s="27"/>
+      <c r="CC96" s="27"/>
+      <c r="CD96" s="25">
         <v>2020</v>
       </c>
-      <c r="CE96" s="31"/>
-      <c r="CF96" s="31"/>
-      <c r="CG96" s="31"/>
-      <c r="CH96" s="31">
+      <c r="CE96" s="27"/>
+      <c r="CF96" s="27"/>
+      <c r="CG96" s="27"/>
+      <c r="CH96" s="25">
         <v>2021</v>
       </c>
-      <c r="CI96" s="31"/>
-      <c r="CJ96" s="31"/>
-      <c r="CK96" s="31"/>
-      <c r="CL96" s="29">
+      <c r="CI96" s="25"/>
+      <c r="CJ96" s="25"/>
+      <c r="CK96" s="25"/>
+      <c r="CL96" s="25">
         <v>2022</v>
       </c>
+      <c r="CM96" s="25"/>
     </row>
-    <row r="97" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>16</v>
       </c>
@@ -36713,50 +36714,53 @@
       <c r="BY97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BZ97" s="21" t="s">
+      <c r="BZ97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CA97" s="21" t="s">
+      <c r="CA97" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CB97" s="21" t="s">
+      <c r="CB97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CC97" s="21" t="s">
+      <c r="CC97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CD97" s="21" t="s">
+      <c r="CD97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CE97" s="21" t="s">
+      <c r="CE97" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CF97" s="21" t="s">
+      <c r="CF97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CG97" s="21" t="s">
+      <c r="CG97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CH97" s="21" t="s">
+      <c r="CH97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CI97" s="21" t="s">
+      <c r="CI97" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CJ97" s="21" t="s">
+      <c r="CJ97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK97" s="21" t="s">
+      <c r="CK97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL97" s="21" t="s">
+      <c r="CL97" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="CM97" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
     </row>
-    <row r="99" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>15</v>
       </c>
@@ -36988,46 +36992,48 @@
       <c r="BY99" s="16">
         <v>103.29362209520916</v>
       </c>
-      <c r="BZ99" s="27">
+      <c r="BZ99" s="16">
         <v>98.360788334487182</v>
       </c>
-      <c r="CA99" s="27">
+      <c r="CA99" s="16">
         <v>102.01320014864621</v>
       </c>
-      <c r="CB99" s="27">
+      <c r="CB99" s="16">
         <v>120.39106926966923</v>
       </c>
-      <c r="CC99" s="27">
+      <c r="CC99" s="16">
         <v>105.83150800197636</v>
       </c>
-      <c r="CD99" s="27">
+      <c r="CD99" s="16">
         <v>101.87111785817685</v>
       </c>
-      <c r="CE99" s="27">
+      <c r="CE99" s="16">
         <v>118.69074671843775</v>
       </c>
-      <c r="CF99" s="27">
+      <c r="CF99" s="16">
         <v>128.15181588374708</v>
       </c>
-      <c r="CG99" s="27">
+      <c r="CG99" s="16">
         <v>110.33189975562925</v>
       </c>
-      <c r="CH99" s="27">
+      <c r="CH99" s="16">
         <v>110.47922731719282</v>
       </c>
-      <c r="CI99" s="27">
+      <c r="CI99" s="16">
         <v>126.66903621826297</v>
       </c>
-      <c r="CJ99" s="27">
+      <c r="CJ99" s="16">
         <v>131.13775319383839</v>
       </c>
-      <c r="CK99" s="27">
+      <c r="CK99" s="16">
         <v>111.04905710404083</v>
       </c>
-      <c r="CL99" s="27">
+      <c r="CL99" s="16">
         <v>111.44039659485239</v>
       </c>
-      <c r="CM99" s="10"/>
+      <c r="CM99" s="16">
+        <v>128.28665890876536</v>
+      </c>
       <c r="CN99" s="10"/>
       <c r="CO99" s="10"/>
       <c r="CP99" s="10"/>
@@ -37092,7 +37098,7 @@
       <c r="EW99" s="10"/>
       <c r="EX99" s="10"/>
     </row>
-    <row r="100" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>14</v>
       </c>
@@ -37324,46 +37330,48 @@
       <c r="BY100" s="16">
         <v>98.939634198391545</v>
       </c>
-      <c r="BZ100" s="27">
+      <c r="BZ100" s="16">
         <v>104.79798515908622</v>
       </c>
-      <c r="CA100" s="27">
+      <c r="CA100" s="16">
         <v>106.83324455504497</v>
       </c>
-      <c r="CB100" s="27">
+      <c r="CB100" s="16">
         <v>98.817870328095282</v>
       </c>
-      <c r="CC100" s="27">
+      <c r="CC100" s="16">
         <v>100.62062688655988</v>
       </c>
-      <c r="CD100" s="27">
+      <c r="CD100" s="16">
         <v>105.76256541997601</v>
       </c>
-      <c r="CE100" s="27">
+      <c r="CE100" s="16">
         <v>77.779350260436047</v>
       </c>
-      <c r="CF100" s="27">
+      <c r="CF100" s="16">
         <v>127.86009714499895</v>
       </c>
-      <c r="CG100" s="27">
+      <c r="CG100" s="16">
         <v>117.02477704220762</v>
       </c>
-      <c r="CH100" s="27">
+      <c r="CH100" s="16">
         <v>120.53759580914662</v>
       </c>
-      <c r="CI100" s="27">
+      <c r="CI100" s="16">
         <v>90.122933146767267</v>
       </c>
-      <c r="CJ100" s="27">
+      <c r="CJ100" s="16">
         <v>114.5242890127756</v>
       </c>
-      <c r="CK100" s="27">
+      <c r="CK100" s="16">
         <v>96.007127085427172</v>
       </c>
-      <c r="CL100" s="27">
-        <v>103.40005983270461</v>
-      </c>
-      <c r="CM100" s="10"/>
+      <c r="CL100" s="16">
+        <v>103.40005983270466</v>
+      </c>
+      <c r="CM100" s="16">
+        <v>105.68793132655081</v>
+      </c>
       <c r="CN100" s="10"/>
       <c r="CO100" s="10"/>
       <c r="CP100" s="10"/>
@@ -37428,7 +37436,7 @@
       <c r="EW100" s="10"/>
       <c r="EX100" s="10"/>
     </row>
-    <row r="101" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>13</v>
       </c>
@@ -37660,46 +37668,48 @@
       <c r="BY101" s="16">
         <v>105.12018191842338</v>
       </c>
-      <c r="BZ101" s="27">
+      <c r="BZ101" s="16">
         <v>93.896216338414845</v>
       </c>
-      <c r="CA101" s="27">
+      <c r="CA101" s="16">
         <v>87.326080467641617</v>
       </c>
-      <c r="CB101" s="27">
+      <c r="CB101" s="16">
         <v>98.19031739859922</v>
       </c>
-      <c r="CC101" s="27">
+      <c r="CC101" s="16">
         <v>104.98014266127691</v>
       </c>
-      <c r="CD101" s="27">
+      <c r="CD101" s="16">
         <v>87.745936086566317</v>
       </c>
-      <c r="CE101" s="27">
+      <c r="CE101" s="16">
         <v>92.745657447283136</v>
       </c>
-      <c r="CF101" s="27">
+      <c r="CF101" s="16">
         <v>100.33336004023523</v>
       </c>
-      <c r="CG101" s="27">
+      <c r="CG101" s="16">
         <v>100.55463245567576</v>
       </c>
-      <c r="CH101" s="27">
+      <c r="CH101" s="16">
         <v>86.122636268964882</v>
       </c>
-      <c r="CI101" s="27">
+      <c r="CI101" s="16">
         <v>92.198458068344152</v>
       </c>
-      <c r="CJ101" s="27">
+      <c r="CJ101" s="16">
         <v>101.2363602805974</v>
       </c>
-      <c r="CK101" s="27">
+      <c r="CK101" s="16">
         <v>108.64928036835759</v>
       </c>
-      <c r="CL101" s="27">
+      <c r="CL101" s="16">
         <v>90.144563382725522</v>
       </c>
-      <c r="CM101" s="10"/>
+      <c r="CM101" s="16">
+        <v>104.91420841713483</v>
+      </c>
       <c r="CN101" s="10"/>
       <c r="CO101" s="10"/>
       <c r="CP101" s="10"/>
@@ -37764,7 +37774,7 @@
       <c r="EW101" s="10"/>
       <c r="EX101" s="10"/>
     </row>
-    <row r="102" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
@@ -37996,46 +38006,48 @@
       <c r="BY102" s="16">
         <v>99.479642608043108</v>
       </c>
-      <c r="BZ102" s="27">
+      <c r="BZ102" s="16">
         <v>96.6572646200012</v>
       </c>
-      <c r="CA102" s="27">
+      <c r="CA102" s="16">
         <v>103.28572122085733</v>
       </c>
-      <c r="CB102" s="27">
+      <c r="CB102" s="16">
         <v>93.899227889788946</v>
       </c>
-      <c r="CC102" s="27">
+      <c r="CC102" s="16">
         <v>97.965980829373649</v>
       </c>
-      <c r="CD102" s="27">
+      <c r="CD102" s="16">
         <v>94.079417343774324</v>
       </c>
-      <c r="CE102" s="27">
+      <c r="CE102" s="16">
         <v>102.85722216592987</v>
       </c>
-      <c r="CF102" s="27">
+      <c r="CF102" s="16">
         <v>105.0918448476903</v>
       </c>
-      <c r="CG102" s="27">
+      <c r="CG102" s="16">
         <v>104.25459842937663</v>
       </c>
-      <c r="CH102" s="27">
+      <c r="CH102" s="16">
         <v>100.8060956838542</v>
       </c>
-      <c r="CI102" s="27">
+      <c r="CI102" s="16">
         <v>110.92122838373881</v>
       </c>
-      <c r="CJ102" s="27">
+      <c r="CJ102" s="16">
         <v>98.07170961186462</v>
       </c>
-      <c r="CK102" s="27">
+      <c r="CK102" s="16">
         <v>96.862947400733844</v>
       </c>
-      <c r="CL102" s="27">
-        <v>97.244644640328787</v>
-      </c>
-      <c r="CM102" s="10"/>
+      <c r="CL102" s="16">
+        <v>97.244644640328815</v>
+      </c>
+      <c r="CM102" s="16">
+        <v>120.58121264491757</v>
+      </c>
       <c r="CN102" s="10"/>
       <c r="CO102" s="10"/>
       <c r="CP102" s="10"/>
@@ -38100,7 +38112,7 @@
       <c r="EW102" s="10"/>
       <c r="EX102" s="10"/>
     </row>
-    <row r="103" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -38332,46 +38344,48 @@
       <c r="BY103" s="16">
         <v>99.869605250166956</v>
       </c>
-      <c r="BZ103" s="27">
+      <c r="BZ103" s="16">
         <v>100.37060084959948</v>
       </c>
-      <c r="CA103" s="27">
+      <c r="CA103" s="16">
         <v>103.16683892641632</v>
       </c>
-      <c r="CB103" s="27">
+      <c r="CB103" s="16">
         <v>103.68571596929776</v>
       </c>
-      <c r="CC103" s="27">
+      <c r="CC103" s="16">
         <v>100.48116508940954</v>
       </c>
-      <c r="CD103" s="27">
+      <c r="CD103" s="16">
         <v>101.0748067853991</v>
       </c>
-      <c r="CE103" s="27">
+      <c r="CE103" s="16">
         <v>104.57724327308757</v>
       </c>
-      <c r="CF103" s="27">
+      <c r="CF103" s="16">
         <v>103.68571596929776</v>
       </c>
-      <c r="CG103" s="27">
+      <c r="CG103" s="16">
         <v>100.48116508940956</v>
       </c>
-      <c r="CH103" s="27">
+      <c r="CH103" s="16">
         <v>101.07480678539915</v>
       </c>
-      <c r="CI103" s="27">
+      <c r="CI103" s="16">
         <v>103.96765647102528</v>
       </c>
-      <c r="CJ103" s="27">
+      <c r="CJ103" s="16">
         <v>103.68571596929776</v>
       </c>
-      <c r="CK103" s="27">
+      <c r="CK103" s="16">
         <v>100.48116508940956</v>
       </c>
-      <c r="CL103" s="27">
+      <c r="CL103" s="16">
         <v>101.17588159218454</v>
       </c>
-      <c r="CM103" s="10"/>
+      <c r="CM103" s="16">
+        <v>104.16644740118026</v>
+      </c>
       <c r="CN103" s="10"/>
       <c r="CO103" s="10"/>
       <c r="CP103" s="10"/>
@@ -38436,7 +38450,7 @@
       <c r="EW103" s="10"/>
       <c r="EX103" s="10"/>
     </row>
-    <row r="104" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -38513,19 +38527,19 @@
       <c r="BW104" s="10"/>
       <c r="BX104" s="10"/>
       <c r="BY104" s="10"/>
-      <c r="BZ104" s="23"/>
-      <c r="CA104" s="23"/>
-      <c r="CB104" s="23"/>
-      <c r="CC104" s="23"/>
-      <c r="CD104" s="23"/>
-      <c r="CE104" s="23"/>
-      <c r="CF104" s="23"/>
-      <c r="CG104" s="23"/>
-      <c r="CH104" s="23"/>
-      <c r="CI104" s="23"/>
-      <c r="CJ104" s="23"/>
-      <c r="CK104" s="23"/>
-      <c r="CL104" s="23"/>
+      <c r="BZ104" s="10"/>
+      <c r="CA104" s="10"/>
+      <c r="CB104" s="10"/>
+      <c r="CC104" s="10"/>
+      <c r="CD104" s="10"/>
+      <c r="CE104" s="10"/>
+      <c r="CF104" s="10"/>
+      <c r="CG104" s="10"/>
+      <c r="CH104" s="10"/>
+      <c r="CI104" s="10"/>
+      <c r="CJ104" s="10"/>
+      <c r="CK104" s="10"/>
+      <c r="CL104" s="10"/>
       <c r="CM104" s="10"/>
       <c r="CN104" s="10"/>
       <c r="CO104" s="10"/>
@@ -38591,7 +38605,7 @@
       <c r="EW104" s="10"/>
       <c r="EX104" s="10"/>
     </row>
-    <row r="105" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>10</v>
       </c>
@@ -38823,46 +38837,48 @@
       <c r="BY105" s="16">
         <v>102.22393415341043</v>
       </c>
-      <c r="BZ105" s="27">
+      <c r="BZ105" s="16">
         <v>97.651114948871637</v>
       </c>
-      <c r="CA105" s="27">
+      <c r="CA105" s="16">
         <v>100.24066045798239</v>
       </c>
-      <c r="CB105" s="27">
+      <c r="CB105" s="16">
         <v>107.98466914345491</v>
       </c>
-      <c r="CC105" s="27">
+      <c r="CC105" s="16">
         <v>103.35277894181158</v>
       </c>
-      <c r="CD105" s="27">
+      <c r="CD105" s="16">
         <v>97.976453711094678</v>
       </c>
-      <c r="CE105" s="27">
+      <c r="CE105" s="16">
         <v>108.47037644125493</v>
       </c>
-      <c r="CF105" s="27">
+      <c r="CF105" s="16">
         <v>117.6271039923445</v>
       </c>
-      <c r="CG105" s="27">
+      <c r="CG105" s="16">
         <v>107.8383585484695</v>
       </c>
-      <c r="CH105" s="27">
+      <c r="CH105" s="16">
         <v>106.21997329215517</v>
       </c>
-      <c r="CI105" s="27">
+      <c r="CI105" s="16">
         <v>115.96423732091696</v>
       </c>
-      <c r="CJ105" s="27">
+      <c r="CJ105" s="16">
         <v>116.12523022663868</v>
       </c>
-      <c r="CK105" s="27">
+      <c r="CK105" s="16">
         <v>105.62104750321085</v>
       </c>
-      <c r="CL105" s="27">
-        <v>104.06831142590293</v>
-      </c>
-      <c r="CM105" s="10"/>
+      <c r="CL105" s="16">
+        <v>104.06744976342701</v>
+      </c>
+      <c r="CM105" s="16">
+        <v>120.57742277145674</v>
+      </c>
       <c r="CN105" s="10"/>
       <c r="CO105" s="10"/>
       <c r="CP105" s="10"/>
@@ -38927,7 +38943,7 @@
       <c r="EW105" s="10"/>
       <c r="EX105" s="10"/>
     </row>
-    <row r="106" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -39005,194 +39021,196 @@
       <c r="BW106" s="13"/>
       <c r="BX106" s="13"/>
       <c r="BY106" s="13"/>
-      <c r="BZ106" s="26"/>
-      <c r="CA106" s="26"/>
-      <c r="CB106" s="26"/>
-      <c r="CC106" s="26"/>
-      <c r="CD106" s="26"/>
-      <c r="CE106" s="26"/>
-      <c r="CF106" s="26"/>
-      <c r="CG106" s="26"/>
-      <c r="CH106" s="26"/>
-      <c r="CI106" s="26"/>
-      <c r="CJ106" s="26"/>
-      <c r="CK106" s="26"/>
-      <c r="CL106" s="26"/>
+      <c r="BZ106" s="13"/>
+      <c r="CA106" s="13"/>
+      <c r="CB106" s="13"/>
+      <c r="CC106" s="13"/>
+      <c r="CD106" s="13"/>
+      <c r="CE106" s="13"/>
+      <c r="CF106" s="13"/>
+      <c r="CG106" s="13"/>
+      <c r="CH106" s="13"/>
+      <c r="CI106" s="13"/>
+      <c r="CJ106" s="13"/>
+      <c r="CK106" s="13"/>
+      <c r="CL106" s="13"/>
+      <c r="CM106" s="13"/>
     </row>
-    <row r="107" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
-      <c r="B118" s="32">
+      <c r="B118" s="25">
         <v>2000</v>
       </c>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="32">
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="25">
         <v>2001</v>
       </c>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="32">
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="25">
         <v>2002</v>
       </c>
-      <c r="K118" s="33"/>
-      <c r="L118" s="33"/>
-      <c r="M118" s="33"/>
-      <c r="N118" s="32">
+      <c r="K118" s="27"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="25">
         <v>2003</v>
       </c>
-      <c r="O118" s="33"/>
-      <c r="P118" s="33"/>
-      <c r="Q118" s="33"/>
-      <c r="R118" s="32">
+      <c r="O118" s="27"/>
+      <c r="P118" s="27"/>
+      <c r="Q118" s="27"/>
+      <c r="R118" s="25">
         <v>2004</v>
       </c>
-      <c r="S118" s="33"/>
-      <c r="T118" s="33"/>
-      <c r="U118" s="33"/>
-      <c r="V118" s="32">
+      <c r="S118" s="27"/>
+      <c r="T118" s="27"/>
+      <c r="U118" s="27"/>
+      <c r="V118" s="25">
         <v>2005</v>
       </c>
-      <c r="W118" s="33"/>
-      <c r="X118" s="33"/>
-      <c r="Y118" s="33"/>
-      <c r="Z118" s="32">
+      <c r="W118" s="27"/>
+      <c r="X118" s="27"/>
+      <c r="Y118" s="27"/>
+      <c r="Z118" s="25">
         <v>2006</v>
       </c>
-      <c r="AA118" s="33"/>
-      <c r="AB118" s="33"/>
-      <c r="AC118" s="33"/>
-      <c r="AD118" s="32">
+      <c r="AA118" s="27"/>
+      <c r="AB118" s="27"/>
+      <c r="AC118" s="27"/>
+      <c r="AD118" s="25">
         <v>2007</v>
       </c>
-      <c r="AE118" s="33"/>
-      <c r="AF118" s="33"/>
-      <c r="AG118" s="33"/>
-      <c r="AH118" s="32">
+      <c r="AE118" s="27"/>
+      <c r="AF118" s="27"/>
+      <c r="AG118" s="27"/>
+      <c r="AH118" s="25">
         <v>2008</v>
       </c>
-      <c r="AI118" s="33"/>
-      <c r="AJ118" s="33"/>
-      <c r="AK118" s="33"/>
-      <c r="AL118" s="32">
+      <c r="AI118" s="27"/>
+      <c r="AJ118" s="27"/>
+      <c r="AK118" s="27"/>
+      <c r="AL118" s="25">
         <v>2009</v>
       </c>
-      <c r="AM118" s="33"/>
-      <c r="AN118" s="33"/>
-      <c r="AO118" s="33"/>
-      <c r="AP118" s="32">
+      <c r="AM118" s="27"/>
+      <c r="AN118" s="27"/>
+      <c r="AO118" s="27"/>
+      <c r="AP118" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="33"/>
-      <c r="AR118" s="33"/>
-      <c r="AS118" s="33"/>
-      <c r="AT118" s="32">
+      <c r="AQ118" s="27"/>
+      <c r="AR118" s="27"/>
+      <c r="AS118" s="27"/>
+      <c r="AT118" s="25">
         <v>2011</v>
       </c>
-      <c r="AU118" s="33"/>
-      <c r="AV118" s="33"/>
-      <c r="AW118" s="33"/>
-      <c r="AX118" s="32">
+      <c r="AU118" s="27"/>
+      <c r="AV118" s="27"/>
+      <c r="AW118" s="27"/>
+      <c r="AX118" s="25">
         <v>2012</v>
       </c>
-      <c r="AY118" s="33"/>
-      <c r="AZ118" s="33"/>
-      <c r="BA118" s="33"/>
-      <c r="BB118" s="32">
+      <c r="AY118" s="27"/>
+      <c r="AZ118" s="27"/>
+      <c r="BA118" s="27"/>
+      <c r="BB118" s="25">
         <v>2013</v>
       </c>
-      <c r="BC118" s="33"/>
-      <c r="BD118" s="33"/>
-      <c r="BE118" s="33"/>
-      <c r="BF118" s="32">
+      <c r="BC118" s="27"/>
+      <c r="BD118" s="27"/>
+      <c r="BE118" s="27"/>
+      <c r="BF118" s="25">
         <v>2014</v>
       </c>
-      <c r="BG118" s="33"/>
-      <c r="BH118" s="33"/>
-      <c r="BI118" s="33"/>
-      <c r="BJ118" s="32">
+      <c r="BG118" s="27"/>
+      <c r="BH118" s="27"/>
+      <c r="BI118" s="27"/>
+      <c r="BJ118" s="25">
         <v>2015</v>
       </c>
-      <c r="BK118" s="33"/>
-      <c r="BL118" s="33"/>
-      <c r="BM118" s="33"/>
-      <c r="BN118" s="32">
+      <c r="BK118" s="27"/>
+      <c r="BL118" s="27"/>
+      <c r="BM118" s="27"/>
+      <c r="BN118" s="25">
         <v>2016</v>
       </c>
-      <c r="BO118" s="33"/>
-      <c r="BP118" s="33"/>
-      <c r="BQ118" s="33"/>
-      <c r="BR118" s="32">
+      <c r="BO118" s="27"/>
+      <c r="BP118" s="27"/>
+      <c r="BQ118" s="27"/>
+      <c r="BR118" s="25">
         <v>2017</v>
       </c>
-      <c r="BS118" s="33"/>
-      <c r="BT118" s="33"/>
-      <c r="BU118" s="33"/>
-      <c r="BV118" s="32">
+      <c r="BS118" s="27"/>
+      <c r="BT118" s="27"/>
+      <c r="BU118" s="27"/>
+      <c r="BV118" s="25">
         <v>2018</v>
       </c>
-      <c r="BW118" s="33"/>
-      <c r="BX118" s="33"/>
-      <c r="BY118" s="33"/>
-      <c r="BZ118" s="31">
+      <c r="BW118" s="27"/>
+      <c r="BX118" s="27"/>
+      <c r="BY118" s="27"/>
+      <c r="BZ118" s="25">
         <v>2019</v>
       </c>
-      <c r="CA118" s="35"/>
-      <c r="CB118" s="35"/>
-      <c r="CC118" s="35"/>
-      <c r="CD118" s="31">
+      <c r="CA118" s="27"/>
+      <c r="CB118" s="27"/>
+      <c r="CC118" s="27"/>
+      <c r="CD118" s="25">
         <v>2020</v>
       </c>
-      <c r="CE118" s="31"/>
-      <c r="CF118" s="31"/>
-      <c r="CG118" s="31"/>
-      <c r="CH118" s="31">
+      <c r="CE118" s="27"/>
+      <c r="CF118" s="27"/>
+      <c r="CG118" s="27"/>
+      <c r="CH118" s="25">
         <v>2021</v>
       </c>
-      <c r="CI118" s="31"/>
-      <c r="CJ118" s="31"/>
-      <c r="CK118" s="31"/>
-      <c r="CL118" s="29">
+      <c r="CI118" s="25"/>
+      <c r="CJ118" s="25"/>
+      <c r="CK118" s="25"/>
+      <c r="CL118" s="25">
         <v>2022</v>
       </c>
+      <c r="CM118" s="25"/>
     </row>
-    <row r="119" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>16</v>
       </c>
@@ -39424,50 +39442,53 @@
       <c r="BY119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BZ119" s="21" t="s">
+      <c r="BZ119" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CA119" s="21" t="s">
+      <c r="CA119" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CB119" s="21" t="s">
+      <c r="CB119" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CC119" s="21" t="s">
+      <c r="CC119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CD119" s="21" t="s">
+      <c r="CD119" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CE119" s="21" t="s">
+      <c r="CE119" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CF119" s="21" t="s">
+      <c r="CF119" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CG119" s="21" t="s">
+      <c r="CG119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CH119" s="21" t="s">
+      <c r="CH119" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CI119" s="21" t="s">
+      <c r="CI119" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CJ119" s="21" t="s">
+      <c r="CJ119" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK119" s="21" t="s">
+      <c r="CK119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL119" s="21" t="s">
+      <c r="CL119" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="CM119" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
     </row>
-    <row r="121" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>15</v>
       </c>
@@ -39699,46 +39720,48 @@
       <c r="BY121" s="16">
         <v>52.469634091952031</v>
       </c>
-      <c r="BZ121" s="27">
+      <c r="BZ121" s="16">
         <v>50.601605737876788</v>
       </c>
-      <c r="CA121" s="27">
+      <c r="CA121" s="16">
         <v>53.150663163654109</v>
       </c>
-      <c r="CB121" s="27">
+      <c r="CB121" s="16">
         <v>53.930928583005752</v>
       </c>
-      <c r="CC121" s="27">
+      <c r="CC121" s="16">
         <v>54.073958687559134</v>
       </c>
-      <c r="CD121" s="27">
+      <c r="CD121" s="16">
         <v>51.938471511298246</v>
       </c>
-      <c r="CE121" s="27">
+      <c r="CE121" s="16">
         <v>49.002432526411802</v>
       </c>
-      <c r="CF121" s="27">
+      <c r="CF121" s="16">
         <v>55.990487385545066</v>
       </c>
-      <c r="CG121" s="27">
+      <c r="CG121" s="16">
         <v>57.971169324575577</v>
       </c>
-      <c r="CH121" s="27">
+      <c r="CH121" s="16">
         <v>55.973218589643182</v>
       </c>
-      <c r="CI121" s="27">
+      <c r="CI121" s="16">
         <v>50.644925854879133</v>
       </c>
-      <c r="CJ121" s="27">
+      <c r="CJ121" s="16">
         <v>57.788687591407161</v>
       </c>
-      <c r="CK121" s="27">
+      <c r="CK121" s="16">
         <v>58.522892982814334</v>
       </c>
-      <c r="CL121" s="27">
-        <v>53.515654769097573</v>
-      </c>
-      <c r="CM121" s="10"/>
+      <c r="CL121" s="16">
+        <v>53.499995023966875</v>
+      </c>
+      <c r="CM121" s="16">
+        <v>50.569347044809341</v>
+      </c>
       <c r="CN121" s="10"/>
       <c r="CO121" s="10"/>
       <c r="CP121" s="10"/>
@@ -39803,7 +39826,7 @@
       <c r="EW121" s="10"/>
       <c r="EX121" s="10"/>
     </row>
-    <row r="122" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>14</v>
       </c>
@@ -40035,46 +40058,48 @@
       <c r="BY122" s="16">
         <v>4.5571539172923403</v>
       </c>
-      <c r="BZ122" s="27">
+      <c r="BZ122" s="16">
         <v>6.2698519519674356</v>
       </c>
-      <c r="CA122" s="27">
+      <c r="CA122" s="16">
         <v>6.8609537681131494</v>
       </c>
-      <c r="CB122" s="27">
+      <c r="CB122" s="16">
         <v>4.3132471298996151</v>
       </c>
-      <c r="CC122" s="27">
+      <c r="CC122" s="16">
         <v>4.2002599957422024</v>
       </c>
-      <c r="CD122" s="27">
+      <c r="CD122" s="16">
         <v>6.4371450155483831</v>
       </c>
-      <c r="CE122" s="27">
+      <c r="CE122" s="16">
         <v>4.3162782605408969</v>
       </c>
-      <c r="CF122" s="27">
+      <c r="CF122" s="16">
         <v>4.42474914342964</v>
       </c>
-      <c r="CG122" s="27">
+      <c r="CG122" s="16">
         <v>4.480643550033176</v>
       </c>
-      <c r="CH122" s="27">
+      <c r="CH122" s="16">
         <v>5.4482981849876291</v>
       </c>
-      <c r="CI122" s="27">
+      <c r="CI122" s="16">
         <v>3.9552927459638254</v>
       </c>
-      <c r="CJ122" s="27">
+      <c r="CJ122" s="16">
         <v>4.0693063261474363</v>
       </c>
-      <c r="CK122" s="27">
+      <c r="CK122" s="16">
         <v>3.8924602490922506</v>
       </c>
-      <c r="CL122" s="27">
-        <v>5.0778848771256477</v>
-      </c>
-      <c r="CM122" s="10"/>
+      <c r="CL122" s="16">
+        <v>5.0706854232262843</v>
+      </c>
+      <c r="CM122" s="16">
+        <v>3.6387695455378322</v>
+      </c>
       <c r="CN122" s="10"/>
       <c r="CO122" s="10"/>
       <c r="CP122" s="10"/>
@@ -40139,7 +40164,7 @@
       <c r="EW122" s="10"/>
       <c r="EX122" s="10"/>
     </row>
-    <row r="123" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
@@ -40371,46 +40396,48 @@
       <c r="BY123" s="16">
         <v>14.049571296166169</v>
       </c>
-      <c r="BZ123" s="27">
+      <c r="BZ123" s="16">
         <v>16.382959449399198</v>
       </c>
-      <c r="CA123" s="27">
+      <c r="CA123" s="16">
         <v>14.21912507567629</v>
       </c>
-      <c r="CB123" s="27">
+      <c r="CB123" s="16">
         <v>14.778940968723703</v>
       </c>
-      <c r="CC123" s="27">
+      <c r="CC123" s="16">
         <v>14.498741758965322</v>
       </c>
-      <c r="CD123" s="27">
+      <c r="CD123" s="16">
         <v>14.00182472287309</v>
       </c>
-      <c r="CE123" s="27">
+      <c r="CE123" s="16">
         <v>0.56201619352925869</v>
       </c>
-      <c r="CF123" s="27">
+      <c r="CF123" s="16">
         <v>2.8249035089397205</v>
       </c>
-      <c r="CG123" s="27">
+      <c r="CG123" s="16">
         <v>3.8339074204713324</v>
       </c>
-      <c r="CH123" s="27">
+      <c r="CH123" s="16">
         <v>4.1686636342521552</v>
       </c>
-      <c r="CI123" s="27">
+      <c r="CI123" s="16">
         <v>2.7306920236149828</v>
       </c>
-      <c r="CJ123" s="27">
+      <c r="CJ123" s="16">
         <v>4.9192007397808499</v>
       </c>
-      <c r="CK123" s="27">
+      <c r="CK123" s="16">
         <v>6.1486639083635239</v>
       </c>
-      <c r="CL123" s="27">
-        <v>9.2895559733905575</v>
-      </c>
-      <c r="CM123" s="10"/>
+      <c r="CL123" s="16">
+        <v>9.3060307098646096</v>
+      </c>
+      <c r="CM123" s="16">
+        <v>11.611203163824507</v>
+      </c>
       <c r="CN123" s="10"/>
       <c r="CO123" s="10"/>
       <c r="CP123" s="10"/>
@@ -40475,7 +40502,7 @@
       <c r="EW123" s="10"/>
       <c r="EX123" s="10"/>
     </row>
-    <row r="124" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>12</v>
       </c>
@@ -40707,46 +40734,48 @@
       <c r="BY124" s="16">
         <v>24.258139472830397</v>
       </c>
-      <c r="BZ124" s="27">
+      <c r="BZ124" s="16">
         <v>23.067277325001978</v>
       </c>
-      <c r="CA124" s="27">
+      <c r="CA124" s="16">
         <v>22.389087351074473</v>
       </c>
-      <c r="CB124" s="27">
+      <c r="CB124" s="16">
         <v>23.629305068769114</v>
       </c>
-      <c r="CC124" s="27">
+      <c r="CC124" s="16">
         <v>22.685901519047544</v>
       </c>
-      <c r="CD124" s="27">
+      <c r="CD124" s="16">
         <v>23.222495360114372</v>
       </c>
-      <c r="CE124" s="27">
+      <c r="CE124" s="16">
         <v>40.600414912924577</v>
       </c>
-      <c r="CF124" s="27">
+      <c r="CF124" s="16">
         <v>31.432829639612287</v>
       </c>
-      <c r="CG124" s="27">
+      <c r="CG124" s="16">
         <v>27.915344815472075</v>
       </c>
-      <c r="CH124" s="27">
+      <c r="CH124" s="16">
         <v>28.794344845710878</v>
       </c>
-      <c r="CI124" s="27">
+      <c r="CI124" s="16">
         <v>35.488878862846093</v>
       </c>
-      <c r="CJ124" s="27">
+      <c r="CJ124" s="16">
         <v>28.846415078060268</v>
       </c>
-      <c r="CK124" s="27">
+      <c r="CK124" s="16">
         <v>26.337098527534724</v>
       </c>
-      <c r="CL124" s="27">
-        <v>27.761062879489895</v>
-      </c>
-      <c r="CM124" s="10"/>
+      <c r="CL124" s="16">
+        <v>27.691594480527133</v>
+      </c>
+      <c r="CM124" s="16">
+        <v>29.142867265691336</v>
+      </c>
       <c r="CN124" s="10"/>
       <c r="CO124" s="10"/>
       <c r="CP124" s="10"/>
@@ -40811,7 +40840,7 @@
       <c r="EW124" s="10"/>
       <c r="EX124" s="10"/>
     </row>
-    <row r="125" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
@@ -41043,46 +41072,48 @@
       <c r="BY125" s="16">
         <v>4.6655012217590537</v>
       </c>
-      <c r="BZ125" s="27">
+      <c r="BZ125" s="16">
         <v>3.6783055357546077</v>
       </c>
-      <c r="CA125" s="27">
+      <c r="CA125" s="16">
         <v>3.3801706414819845</v>
       </c>
-      <c r="CB125" s="27">
+      <c r="CB125" s="16">
         <v>3.3475782496018089</v>
       </c>
-      <c r="CC125" s="27">
+      <c r="CC125" s="16">
         <v>4.5411380386858013</v>
       </c>
-      <c r="CD125" s="27">
+      <c r="CD125" s="16">
         <v>4.4000633901659052</v>
       </c>
-      <c r="CE125" s="27">
+      <c r="CE125" s="16">
         <v>5.5188581065934681</v>
       </c>
-      <c r="CF125" s="27">
+      <c r="CF125" s="16">
         <v>5.3270303224732869</v>
       </c>
-      <c r="CG125" s="27">
+      <c r="CG125" s="16">
         <v>5.7989348894478425</v>
       </c>
-      <c r="CH125" s="27">
+      <c r="CH125" s="16">
         <v>5.6154747454061544</v>
       </c>
-      <c r="CI125" s="27">
+      <c r="CI125" s="16">
         <v>7.1802105126959725</v>
       </c>
-      <c r="CJ125" s="27">
+      <c r="CJ125" s="16">
         <v>4.3763902646042876</v>
       </c>
-      <c r="CK125" s="27">
+      <c r="CK125" s="16">
         <v>5.0988843321951718</v>
       </c>
-      <c r="CL125" s="27">
-        <v>4.3558415008963287</v>
-      </c>
-      <c r="CM125" s="10"/>
+      <c r="CL125" s="16">
+        <v>4.4316943624151017</v>
+      </c>
+      <c r="CM125" s="16">
+        <v>5.0378129801369784</v>
+      </c>
       <c r="CN125" s="10"/>
       <c r="CO125" s="10"/>
       <c r="CP125" s="10"/>
@@ -41147,7 +41178,7 @@
       <c r="EW125" s="10"/>
       <c r="EX125" s="10"/>
     </row>
-    <row r="126" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
@@ -41224,19 +41255,19 @@
       <c r="BW126" s="10"/>
       <c r="BX126" s="10"/>
       <c r="BY126" s="10"/>
-      <c r="BZ126" s="23"/>
-      <c r="CA126" s="23"/>
-      <c r="CB126" s="23"/>
-      <c r="CC126" s="23"/>
-      <c r="CD126" s="23"/>
-      <c r="CE126" s="23"/>
-      <c r="CF126" s="23"/>
-      <c r="CG126" s="23"/>
-      <c r="CH126" s="23"/>
-      <c r="CI126" s="23"/>
-      <c r="CJ126" s="23"/>
-      <c r="CK126" s="23"/>
-      <c r="CL126" s="23"/>
+      <c r="BZ126" s="10"/>
+      <c r="CA126" s="10"/>
+      <c r="CB126" s="10"/>
+      <c r="CC126" s="10"/>
+      <c r="CD126" s="10"/>
+      <c r="CE126" s="10"/>
+      <c r="CF126" s="10"/>
+      <c r="CG126" s="10"/>
+      <c r="CH126" s="10"/>
+      <c r="CI126" s="10"/>
+      <c r="CJ126" s="10"/>
+      <c r="CK126" s="10"/>
+      <c r="CL126" s="10"/>
       <c r="CM126" s="10"/>
       <c r="CN126" s="10"/>
       <c r="CO126" s="10"/>
@@ -41302,7 +41333,7 @@
       <c r="EW126" s="10"/>
       <c r="EX126" s="10"/>
     </row>
-    <row r="127" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>10</v>
       </c>
@@ -41534,46 +41565,48 @@
       <c r="BY127" s="16">
         <v>100</v>
       </c>
-      <c r="BZ127" s="27">
+      <c r="BZ127" s="16">
         <v>100</v>
       </c>
-      <c r="CA127" s="27">
+      <c r="CA127" s="16">
         <v>100</v>
       </c>
-      <c r="CB127" s="27">
+      <c r="CB127" s="16">
         <v>100</v>
       </c>
-      <c r="CC127" s="27">
+      <c r="CC127" s="16">
         <v>100</v>
       </c>
-      <c r="CD127" s="27">
+      <c r="CD127" s="16">
         <v>100</v>
       </c>
-      <c r="CE127" s="27">
+      <c r="CE127" s="16">
         <v>100</v>
       </c>
-      <c r="CF127" s="27">
+      <c r="CF127" s="16">
         <v>100</v>
       </c>
-      <c r="CG127" s="27">
+      <c r="CG127" s="16">
         <v>100</v>
       </c>
-      <c r="CH127" s="27">
+      <c r="CH127" s="16">
         <v>100</v>
       </c>
-      <c r="CI127" s="27">
+      <c r="CI127" s="16">
         <v>100</v>
       </c>
-      <c r="CJ127" s="27">
+      <c r="CJ127" s="16">
         <v>100</v>
       </c>
-      <c r="CK127" s="27">
+      <c r="CK127" s="16">
         <v>100</v>
       </c>
-      <c r="CL127" s="27">
+      <c r="CL127" s="16">
         <v>100</v>
       </c>
-      <c r="CM127" s="10"/>
+      <c r="CM127" s="16">
+        <v>100</v>
+      </c>
       <c r="CN127" s="10"/>
       <c r="CO127" s="10"/>
       <c r="CP127" s="10"/>
@@ -41638,7 +41671,7 @@
       <c r="EW127" s="10"/>
       <c r="EX127" s="10"/>
     </row>
-    <row r="128" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -41716,26 +41749,27 @@
       <c r="BW128" s="13"/>
       <c r="BX128" s="13"/>
       <c r="BY128" s="13"/>
-      <c r="BZ128" s="26"/>
-      <c r="CA128" s="26"/>
-      <c r="CB128" s="26"/>
-      <c r="CC128" s="26"/>
-      <c r="CD128" s="26"/>
-      <c r="CE128" s="26"/>
-      <c r="CF128" s="26"/>
-      <c r="CG128" s="26"/>
-      <c r="CH128" s="26"/>
-      <c r="CI128" s="26"/>
-      <c r="CJ128" s="26"/>
-      <c r="CK128" s="26"/>
-      <c r="CL128" s="26"/>
+      <c r="BZ128" s="13"/>
+      <c r="CA128" s="13"/>
+      <c r="CB128" s="13"/>
+      <c r="CC128" s="13"/>
+      <c r="CD128" s="13"/>
+      <c r="CE128" s="13"/>
+      <c r="CF128" s="13"/>
+      <c r="CG128" s="13"/>
+      <c r="CH128" s="13"/>
+      <c r="CI128" s="13"/>
+      <c r="CJ128" s="13"/>
+      <c r="CK128" s="13"/>
+      <c r="CL128" s="13"/>
+      <c r="CM128" s="13"/>
     </row>
-    <row r="129" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -41812,19 +41846,19 @@
       <c r="BW130" s="10"/>
       <c r="BX130" s="10"/>
       <c r="BY130" s="10"/>
-      <c r="BZ130" s="23"/>
-      <c r="CA130" s="23"/>
-      <c r="CB130" s="23"/>
-      <c r="CC130" s="23"/>
-      <c r="CD130" s="23"/>
-      <c r="CE130" s="23"/>
-      <c r="CF130" s="23"/>
-      <c r="CG130" s="23"/>
-      <c r="CH130" s="23"/>
-      <c r="CI130" s="23"/>
-      <c r="CJ130" s="23"/>
-      <c r="CK130" s="23"/>
-      <c r="CL130" s="23"/>
+      <c r="BZ130" s="10"/>
+      <c r="CA130" s="10"/>
+      <c r="CB130" s="10"/>
+      <c r="CC130" s="10"/>
+      <c r="CD130" s="10"/>
+      <c r="CE130" s="10"/>
+      <c r="CF130" s="10"/>
+      <c r="CG130" s="10"/>
+      <c r="CH130" s="10"/>
+      <c r="CI130" s="10"/>
+      <c r="CJ130" s="10"/>
+      <c r="CK130" s="10"/>
+      <c r="CL130" s="10"/>
       <c r="CM130" s="10"/>
       <c r="CN130" s="10"/>
       <c r="CO130" s="10"/>
@@ -41890,7 +41924,7 @@
       <c r="EW130" s="10"/>
       <c r="EX130" s="10"/>
     </row>
-    <row r="131" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
@@ -41967,19 +42001,19 @@
       <c r="BW131" s="10"/>
       <c r="BX131" s="10"/>
       <c r="BY131" s="10"/>
-      <c r="BZ131" s="23"/>
-      <c r="CA131" s="23"/>
-      <c r="CB131" s="23"/>
-      <c r="CC131" s="23"/>
-      <c r="CD131" s="23"/>
-      <c r="CE131" s="23"/>
-      <c r="CF131" s="23"/>
-      <c r="CG131" s="23"/>
-      <c r="CH131" s="23"/>
-      <c r="CI131" s="23"/>
-      <c r="CJ131" s="23"/>
-      <c r="CK131" s="23"/>
-      <c r="CL131" s="23"/>
+      <c r="BZ131" s="10"/>
+      <c r="CA131" s="10"/>
+      <c r="CB131" s="10"/>
+      <c r="CC131" s="10"/>
+      <c r="CD131" s="10"/>
+      <c r="CE131" s="10"/>
+      <c r="CF131" s="10"/>
+      <c r="CG131" s="10"/>
+      <c r="CH131" s="10"/>
+      <c r="CI131" s="10"/>
+      <c r="CJ131" s="10"/>
+      <c r="CK131" s="10"/>
+      <c r="CL131" s="10"/>
       <c r="CM131" s="10"/>
       <c r="CN131" s="10"/>
       <c r="CO131" s="10"/>
@@ -42045,175 +42079,176 @@
       <c r="EW131" s="10"/>
       <c r="EX131" s="10"/>
     </row>
-    <row r="132" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
-      <c r="B140" s="32">
+      <c r="B140" s="25">
         <v>2000</v>
       </c>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="32">
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="25">
         <v>2001</v>
       </c>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
-      <c r="I140" s="33"/>
-      <c r="J140" s="32">
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="25">
         <v>2002</v>
       </c>
-      <c r="K140" s="33"/>
-      <c r="L140" s="33"/>
-      <c r="M140" s="33"/>
-      <c r="N140" s="32">
+      <c r="K140" s="27"/>
+      <c r="L140" s="27"/>
+      <c r="M140" s="27"/>
+      <c r="N140" s="25">
         <v>2003</v>
       </c>
-      <c r="O140" s="33"/>
-      <c r="P140" s="33"/>
-      <c r="Q140" s="33"/>
-      <c r="R140" s="32">
+      <c r="O140" s="27"/>
+      <c r="P140" s="27"/>
+      <c r="Q140" s="27"/>
+      <c r="R140" s="25">
         <v>2004</v>
       </c>
-      <c r="S140" s="33"/>
-      <c r="T140" s="33"/>
-      <c r="U140" s="33"/>
-      <c r="V140" s="32">
+      <c r="S140" s="27"/>
+      <c r="T140" s="27"/>
+      <c r="U140" s="27"/>
+      <c r="V140" s="25">
         <v>2005</v>
       </c>
-      <c r="W140" s="33"/>
-      <c r="X140" s="33"/>
-      <c r="Y140" s="33"/>
-      <c r="Z140" s="32">
+      <c r="W140" s="27"/>
+      <c r="X140" s="27"/>
+      <c r="Y140" s="27"/>
+      <c r="Z140" s="25">
         <v>2006</v>
       </c>
-      <c r="AA140" s="33"/>
-      <c r="AB140" s="33"/>
-      <c r="AC140" s="33"/>
-      <c r="AD140" s="32">
+      <c r="AA140" s="27"/>
+      <c r="AB140" s="27"/>
+      <c r="AC140" s="27"/>
+      <c r="AD140" s="25">
         <v>2007</v>
       </c>
-      <c r="AE140" s="33"/>
-      <c r="AF140" s="33"/>
-      <c r="AG140" s="33"/>
-      <c r="AH140" s="32">
+      <c r="AE140" s="27"/>
+      <c r="AF140" s="27"/>
+      <c r="AG140" s="27"/>
+      <c r="AH140" s="25">
         <v>2008</v>
       </c>
-      <c r="AI140" s="33"/>
-      <c r="AJ140" s="33"/>
-      <c r="AK140" s="33"/>
-      <c r="AL140" s="32">
+      <c r="AI140" s="27"/>
+      <c r="AJ140" s="27"/>
+      <c r="AK140" s="27"/>
+      <c r="AL140" s="25">
         <v>2009</v>
       </c>
-      <c r="AM140" s="33"/>
-      <c r="AN140" s="33"/>
-      <c r="AO140" s="33"/>
-      <c r="AP140" s="32">
+      <c r="AM140" s="27"/>
+      <c r="AN140" s="27"/>
+      <c r="AO140" s="27"/>
+      <c r="AP140" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="33"/>
-      <c r="AR140" s="33"/>
-      <c r="AS140" s="33"/>
-      <c r="AT140" s="32">
+      <c r="AQ140" s="27"/>
+      <c r="AR140" s="27"/>
+      <c r="AS140" s="27"/>
+      <c r="AT140" s="25">
         <v>2011</v>
       </c>
-      <c r="AU140" s="33"/>
-      <c r="AV140" s="33"/>
-      <c r="AW140" s="33"/>
-      <c r="AX140" s="32">
+      <c r="AU140" s="27"/>
+      <c r="AV140" s="27"/>
+      <c r="AW140" s="27"/>
+      <c r="AX140" s="25">
         <v>2012</v>
       </c>
-      <c r="AY140" s="33"/>
-      <c r="AZ140" s="33"/>
-      <c r="BA140" s="33"/>
-      <c r="BB140" s="32">
+      <c r="AY140" s="27"/>
+      <c r="AZ140" s="27"/>
+      <c r="BA140" s="27"/>
+      <c r="BB140" s="25">
         <v>2013</v>
       </c>
-      <c r="BC140" s="33"/>
-      <c r="BD140" s="33"/>
-      <c r="BE140" s="33"/>
-      <c r="BF140" s="32">
+      <c r="BC140" s="27"/>
+      <c r="BD140" s="27"/>
+      <c r="BE140" s="27"/>
+      <c r="BF140" s="25">
         <v>2014</v>
       </c>
-      <c r="BG140" s="33"/>
-      <c r="BH140" s="33"/>
-      <c r="BI140" s="33"/>
-      <c r="BJ140" s="32">
+      <c r="BG140" s="27"/>
+      <c r="BH140" s="27"/>
+      <c r="BI140" s="27"/>
+      <c r="BJ140" s="25">
         <v>2015</v>
       </c>
-      <c r="BK140" s="33"/>
-      <c r="BL140" s="33"/>
-      <c r="BM140" s="33"/>
-      <c r="BN140" s="32">
+      <c r="BK140" s="27"/>
+      <c r="BL140" s="27"/>
+      <c r="BM140" s="27"/>
+      <c r="BN140" s="25">
         <v>2016</v>
       </c>
-      <c r="BO140" s="33"/>
-      <c r="BP140" s="33"/>
-      <c r="BQ140" s="33"/>
-      <c r="BR140" s="32">
+      <c r="BO140" s="27"/>
+      <c r="BP140" s="27"/>
+      <c r="BQ140" s="27"/>
+      <c r="BR140" s="25">
         <v>2017</v>
       </c>
-      <c r="BS140" s="33"/>
-      <c r="BT140" s="33"/>
-      <c r="BU140" s="33"/>
-      <c r="BV140" s="32">
+      <c r="BS140" s="27"/>
+      <c r="BT140" s="27"/>
+      <c r="BU140" s="27"/>
+      <c r="BV140" s="25">
         <v>2018</v>
       </c>
-      <c r="BW140" s="33"/>
-      <c r="BX140" s="33"/>
-      <c r="BY140" s="33"/>
-      <c r="BZ140" s="31">
+      <c r="BW140" s="27"/>
+      <c r="BX140" s="27"/>
+      <c r="BY140" s="27"/>
+      <c r="BZ140" s="25">
         <v>2019</v>
       </c>
-      <c r="CA140" s="35"/>
-      <c r="CB140" s="35"/>
-      <c r="CC140" s="35"/>
-      <c r="CD140" s="31">
+      <c r="CA140" s="27"/>
+      <c r="CB140" s="27"/>
+      <c r="CC140" s="27"/>
+      <c r="CD140" s="25">
         <v>2020</v>
       </c>
-      <c r="CE140" s="31"/>
-      <c r="CF140" s="31"/>
-      <c r="CG140" s="31"/>
-      <c r="CH140" s="31">
+      <c r="CE140" s="27"/>
+      <c r="CF140" s="27"/>
+      <c r="CG140" s="27"/>
+      <c r="CH140" s="25">
         <v>2021</v>
       </c>
-      <c r="CI140" s="31"/>
-      <c r="CJ140" s="31"/>
-      <c r="CK140" s="31"/>
-      <c r="CL140" s="29">
+      <c r="CI140" s="25"/>
+      <c r="CJ140" s="25"/>
+      <c r="CK140" s="25"/>
+      <c r="CL140" s="25">
         <v>2022</v>
       </c>
+      <c r="CM140" s="25"/>
     </row>
-    <row r="141" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>16</v>
       </c>
@@ -42445,50 +42480,53 @@
       <c r="BY141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BZ141" s="21" t="s">
+      <c r="BZ141" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CA141" s="21" t="s">
+      <c r="CA141" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CB141" s="21" t="s">
+      <c r="CB141" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CC141" s="21" t="s">
+      <c r="CC141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CD141" s="21" t="s">
+      <c r="CD141" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CE141" s="21" t="s">
+      <c r="CE141" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CF141" s="21" t="s">
+      <c r="CF141" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CG141" s="21" t="s">
+      <c r="CG141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CH141" s="21" t="s">
+      <c r="CH141" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CI141" s="21" t="s">
+      <c r="CI141" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CJ141" s="21" t="s">
+      <c r="CJ141" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK141" s="21" t="s">
+      <c r="CK141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL141" s="21" t="s">
+      <c r="CL141" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="CM141" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
     </row>
-    <row r="143" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>15</v>
       </c>
@@ -42720,46 +42758,48 @@
       <c r="BY143" s="16">
         <v>51.926269131364059</v>
       </c>
-      <c r="BZ143" s="27">
+      <c r="BZ143" s="16">
         <v>50.236514999284246</v>
       </c>
-      <c r="CA143" s="27">
+      <c r="CA143" s="16">
         <v>52.227138953989069</v>
       </c>
-      <c r="CB143" s="27">
+      <c r="CB143" s="16">
         <v>48.373301399876937</v>
       </c>
-      <c r="CC143" s="27">
+      <c r="CC143" s="16">
         <v>52.807467305857379</v>
       </c>
-      <c r="CD143" s="27">
+      <c r="CD143" s="16">
         <v>49.952796796989958</v>
       </c>
-      <c r="CE143" s="27">
+      <c r="CE143" s="16">
         <v>44.782870186892062</v>
       </c>
-      <c r="CF143" s="27">
+      <c r="CF143" s="16">
         <v>51.392161998360208</v>
       </c>
-      <c r="CG143" s="27">
+      <c r="CG143" s="16">
         <v>56.660999737554675</v>
       </c>
-      <c r="CH143" s="27">
+      <c r="CH143" s="16">
         <v>53.815309249023201</v>
       </c>
-      <c r="CI143" s="27">
+      <c r="CI143" s="16">
         <v>46.36492371202462</v>
       </c>
-      <c r="CJ143" s="27">
+      <c r="CJ143" s="16">
         <v>51.173094609362003</v>
       </c>
-      <c r="CK143" s="27">
+      <c r="CK143" s="16">
         <v>55.662329973427894</v>
       </c>
-      <c r="CL143" s="27">
-        <v>49.975448731746603</v>
-      </c>
-      <c r="CM143" s="10"/>
+      <c r="CL143" s="16">
+        <v>49.960411256804917</v>
+      </c>
+      <c r="CM143" s="16">
+        <v>47.530441510951775</v>
+      </c>
       <c r="CN143" s="10"/>
       <c r="CO143" s="10"/>
       <c r="CP143" s="10"/>
@@ -42824,7 +42864,7 @@
       <c r="EW143" s="10"/>
       <c r="EX143" s="10"/>
     </row>
-    <row r="144" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>14</v>
       </c>
@@ -43056,46 +43096,48 @@
       <c r="BY144" s="16">
         <v>4.7084285862037465</v>
       </c>
-      <c r="BZ144" s="27">
+      <c r="BZ144" s="16">
         <v>5.8422691308860051</v>
       </c>
-      <c r="CA144" s="27">
+      <c r="CA144" s="16">
         <v>6.4375704393494217</v>
       </c>
-      <c r="CB144" s="27">
+      <c r="CB144" s="16">
         <v>4.7133637135645001</v>
       </c>
-      <c r="CC144" s="27">
+      <c r="CC144" s="16">
         <v>4.3143096626449564</v>
       </c>
-      <c r="CD144" s="27">
+      <c r="CD144" s="16">
         <v>5.9632502118595356</v>
       </c>
-      <c r="CE144" s="27">
+      <c r="CE144" s="16">
         <v>6.0194425149913995</v>
       </c>
-      <c r="CF144" s="27">
+      <c r="CF144" s="16">
         <v>4.0706243719179982</v>
       </c>
-      <c r="CG144" s="27">
+      <c r="CG144" s="16">
         <v>4.1289140461433504</v>
       </c>
-      <c r="CH144" s="27">
+      <c r="CH144" s="16">
         <v>4.8011417832938825</v>
       </c>
-      <c r="CI144" s="27">
+      <c r="CI144" s="16">
         <v>5.0894094394341511</v>
       </c>
-      <c r="CJ144" s="27">
+      <c r="CJ144" s="16">
         <v>4.1261913787901685</v>
       </c>
-      <c r="CK144" s="27">
+      <c r="CK144" s="16">
         <v>4.2822417601134211</v>
       </c>
-      <c r="CL144" s="27">
-        <v>5.1107021178961753</v>
-      </c>
-      <c r="CM144" s="10"/>
+      <c r="CL144" s="16">
+        <v>5.103413880045335</v>
+      </c>
+      <c r="CM144" s="16">
+        <v>4.1514054476529765</v>
+      </c>
       <c r="CN144" s="10"/>
       <c r="CO144" s="10"/>
       <c r="CP144" s="10"/>
@@ -43160,7 +43202,7 @@
       <c r="EW144" s="10"/>
       <c r="EX144" s="10"/>
     </row>
-    <row r="145" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>13</v>
       </c>
@@ -43392,46 +43434,48 @@
       <c r="BY145" s="16">
         <v>13.662480646936807</v>
       </c>
-      <c r="BZ145" s="27">
+      <c r="BZ145" s="16">
         <v>17.038112064388553</v>
       </c>
-      <c r="CA145" s="27">
+      <c r="CA145" s="16">
         <v>16.321979425706655</v>
       </c>
-      <c r="CB145" s="27">
+      <c r="CB145" s="16">
         <v>16.253120400047173</v>
       </c>
-      <c r="CC145" s="27">
+      <c r="CC145" s="16">
         <v>14.273987574809119</v>
       </c>
-      <c r="CD145" s="27">
+      <c r="CD145" s="16">
         <v>15.634332403474843</v>
       </c>
-      <c r="CE145" s="27">
+      <c r="CE145" s="16">
         <v>0.65730417742578284</v>
       </c>
-      <c r="CF145" s="27">
+      <c r="CF145" s="16">
         <v>3.3118119305596849</v>
       </c>
-      <c r="CG145" s="27">
+      <c r="CG145" s="16">
         <v>4.111618460071143</v>
       </c>
-      <c r="CH145" s="27">
+      <c r="CH145" s="16">
         <v>5.1414512963975305</v>
       </c>
-      <c r="CI145" s="27">
+      <c r="CI145" s="16">
         <v>3.4345760711322266</v>
       </c>
-      <c r="CJ145" s="27">
+      <c r="CJ145" s="16">
         <v>5.6426694604071521</v>
       </c>
-      <c r="CK145" s="27">
+      <c r="CK145" s="16">
         <v>5.9772906046387186</v>
       </c>
-      <c r="CL145" s="27">
-        <v>10.724422724670097</v>
-      </c>
-      <c r="CM145" s="10"/>
+      <c r="CL145" s="16">
+        <v>10.743353199060811</v>
+      </c>
+      <c r="CM145" s="16">
+        <v>13.34470300917873</v>
+      </c>
       <c r="CN145" s="10"/>
       <c r="CO145" s="10"/>
       <c r="CP145" s="10"/>
@@ -43496,7 +43540,7 @@
       <c r="EW145" s="10"/>
       <c r="EX145" s="10"/>
     </row>
-    <row r="146" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -43728,46 +43772,48 @@
       <c r="BY146" s="16">
         <v>24.927335755771686</v>
       </c>
-      <c r="BZ146" s="27">
+      <c r="BZ146" s="16">
         <v>23.304459923182545</v>
       </c>
-      <c r="CA146" s="27">
+      <c r="CA146" s="16">
         <v>21.729014200560719</v>
       </c>
-      <c r="CB146" s="27">
+      <c r="CB146" s="16">
         <v>27.173841013215274</v>
       </c>
-      <c r="CC146" s="27">
+      <c r="CC146" s="16">
         <v>23.933317922651977</v>
       </c>
-      <c r="CD146" s="27">
+      <c r="CD146" s="16">
         <v>24.18443699956568</v>
       </c>
-      <c r="CE146" s="27">
+      <c r="CE146" s="16">
         <v>42.816072576523638</v>
       </c>
-      <c r="CF146" s="27">
+      <c r="CF146" s="16">
         <v>35.182108813018743</v>
       </c>
-      <c r="CG146" s="27">
+      <c r="CG146" s="16">
         <v>28.87493701540928</v>
       </c>
-      <c r="CH146" s="27">
+      <c r="CH146" s="16">
         <v>30.340769769207437</v>
       </c>
-      <c r="CI146" s="27">
+      <c r="CI146" s="16">
         <v>37.102372834050641</v>
       </c>
-      <c r="CJ146" s="27">
+      <c r="CJ146" s="16">
         <v>34.156604441895801</v>
       </c>
-      <c r="CK146" s="27">
+      <c r="CK146" s="16">
         <v>28.718431653385913</v>
       </c>
-      <c r="CL146" s="27">
-        <v>29.709059536824078</v>
-      </c>
-      <c r="CM146" s="10"/>
+      <c r="CL146" s="16">
+        <v>29.634471164248843</v>
+      </c>
+      <c r="CM146" s="16">
+        <v>29.141951303935766</v>
+      </c>
       <c r="CN146" s="10"/>
       <c r="CO146" s="10"/>
       <c r="CP146" s="10"/>
@@ -43832,7 +43878,7 @@
       <c r="EW146" s="10"/>
       <c r="EX146" s="10"/>
     </row>
-    <row r="147" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -44064,46 +44110,48 @@
       <c r="BY147" s="16">
         <v>4.7754858797237132</v>
       </c>
-      <c r="BZ147" s="27">
+      <c r="BZ147" s="16">
         <v>3.5786438822586502</v>
       </c>
-      <c r="CA147" s="27">
+      <c r="CA147" s="16">
         <v>3.2842969803941244</v>
       </c>
-      <c r="CB147" s="27">
+      <c r="CB147" s="16">
         <v>3.4863734732961351</v>
       </c>
-      <c r="CC147" s="27">
+      <c r="CC147" s="16">
         <v>4.670917534036561</v>
       </c>
-      <c r="CD147" s="27">
+      <c r="CD147" s="16">
         <v>4.265183588109986</v>
       </c>
-      <c r="CE147" s="27">
+      <c r="CE147" s="16">
         <v>5.7243105441671176</v>
       </c>
-      <c r="CF147" s="27">
+      <c r="CF147" s="16">
         <v>6.043292886143357</v>
       </c>
-      <c r="CG147" s="27">
+      <c r="CG147" s="16">
         <v>6.2235307408215528</v>
       </c>
-      <c r="CH147" s="27">
+      <c r="CH147" s="16">
         <v>5.9013279020779494</v>
       </c>
-      <c r="CI147" s="27">
+      <c r="CI147" s="16">
         <v>8.0087179433583646</v>
       </c>
-      <c r="CJ147" s="27">
+      <c r="CJ147" s="16">
         <v>4.9014401095448701</v>
       </c>
-      <c r="CK147" s="27">
+      <c r="CK147" s="16">
         <v>5.3597060084340651</v>
       </c>
-      <c r="CL147" s="27">
-        <v>4.4803668888630446</v>
-      </c>
-      <c r="CM147" s="10"/>
+      <c r="CL147" s="16">
+        <v>4.5583504998400919</v>
+      </c>
+      <c r="CM147" s="16">
+        <v>5.8314987282807733</v>
+      </c>
       <c r="CN147" s="10"/>
       <c r="CO147" s="10"/>
       <c r="CP147" s="10"/>
@@ -44168,7 +44216,7 @@
       <c r="EW147" s="10"/>
       <c r="EX147" s="10"/>
     </row>
-    <row r="148" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
@@ -44245,19 +44293,19 @@
       <c r="BW148" s="10"/>
       <c r="BX148" s="10"/>
       <c r="BY148" s="10"/>
-      <c r="BZ148" s="23"/>
-      <c r="CA148" s="23"/>
-      <c r="CB148" s="23"/>
-      <c r="CC148" s="23"/>
-      <c r="CD148" s="23"/>
-      <c r="CE148" s="23"/>
-      <c r="CF148" s="23"/>
-      <c r="CG148" s="23"/>
-      <c r="CH148" s="23"/>
-      <c r="CI148" s="23"/>
-      <c r="CJ148" s="23"/>
-      <c r="CK148" s="23"/>
-      <c r="CL148" s="23"/>
+      <c r="BZ148" s="10"/>
+      <c r="CA148" s="10"/>
+      <c r="CB148" s="10"/>
+      <c r="CC148" s="10"/>
+      <c r="CD148" s="10"/>
+      <c r="CE148" s="10"/>
+      <c r="CF148" s="10"/>
+      <c r="CG148" s="10"/>
+      <c r="CH148" s="10"/>
+      <c r="CI148" s="10"/>
+      <c r="CJ148" s="10"/>
+      <c r="CK148" s="10"/>
+      <c r="CL148" s="10"/>
       <c r="CM148" s="10"/>
       <c r="CN148" s="10"/>
       <c r="CO148" s="10"/>
@@ -44323,7 +44371,7 @@
       <c r="EW148" s="10"/>
       <c r="EX148" s="10"/>
     </row>
-    <row r="149" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>10</v>
       </c>
@@ -44555,46 +44603,48 @@
       <c r="BY149" s="16">
         <v>100</v>
       </c>
-      <c r="BZ149" s="27">
+      <c r="BZ149" s="16">
         <v>100</v>
       </c>
-      <c r="CA149" s="27">
+      <c r="CA149" s="16">
         <v>100</v>
       </c>
-      <c r="CB149" s="27">
+      <c r="CB149" s="16">
         <v>100</v>
       </c>
-      <c r="CC149" s="27">
+      <c r="CC149" s="16">
         <v>100</v>
       </c>
-      <c r="CD149" s="27">
+      <c r="CD149" s="16">
         <v>100</v>
       </c>
-      <c r="CE149" s="27">
+      <c r="CE149" s="16">
         <v>100</v>
       </c>
-      <c r="CF149" s="27">
+      <c r="CF149" s="16">
         <v>100</v>
       </c>
-      <c r="CG149" s="27">
+      <c r="CG149" s="16">
         <v>100</v>
       </c>
-      <c r="CH149" s="27">
+      <c r="CH149" s="16">
         <v>100</v>
       </c>
-      <c r="CI149" s="27">
+      <c r="CI149" s="16">
         <v>100</v>
       </c>
-      <c r="CJ149" s="27">
+      <c r="CJ149" s="16">
         <v>100</v>
       </c>
-      <c r="CK149" s="27">
+      <c r="CK149" s="16">
         <v>100</v>
       </c>
-      <c r="CL149" s="27">
+      <c r="CL149" s="16">
         <v>100</v>
       </c>
-      <c r="CM149" s="10"/>
+      <c r="CM149" s="16">
+        <v>100</v>
+      </c>
       <c r="CN149" s="10"/>
       <c r="CO149" s="10"/>
       <c r="CP149" s="10"/>
@@ -44659,7 +44709,7 @@
       <c r="EW149" s="10"/>
       <c r="EX149" s="10"/>
     </row>
-    <row r="150" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -44737,26 +44787,27 @@
       <c r="BW150" s="13"/>
       <c r="BX150" s="13"/>
       <c r="BY150" s="13"/>
-      <c r="BZ150" s="26"/>
-      <c r="CA150" s="26"/>
-      <c r="CB150" s="26"/>
-      <c r="CC150" s="26"/>
-      <c r="CD150" s="26"/>
-      <c r="CE150" s="26"/>
-      <c r="CF150" s="26"/>
-      <c r="CG150" s="26"/>
-      <c r="CH150" s="26"/>
-      <c r="CI150" s="26"/>
-      <c r="CJ150" s="26"/>
-      <c r="CK150" s="26"/>
-      <c r="CL150" s="26"/>
+      <c r="BZ150" s="13"/>
+      <c r="CA150" s="13"/>
+      <c r="CB150" s="13"/>
+      <c r="CC150" s="13"/>
+      <c r="CD150" s="13"/>
+      <c r="CE150" s="13"/>
+      <c r="CF150" s="13"/>
+      <c r="CG150" s="13"/>
+      <c r="CH150" s="13"/>
+      <c r="CI150" s="13"/>
+      <c r="CJ150" s="13"/>
+      <c r="CK150" s="13"/>
+      <c r="CL150" s="13"/>
+      <c r="CM150" s="13"/>
     </row>
-    <row r="151" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:154" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:154" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -44834,20 +44885,20 @@
       <c r="BW152" s="1"/>
       <c r="BX152" s="1"/>
       <c r="BY152" s="1"/>
-      <c r="BZ152" s="19"/>
-      <c r="CA152" s="19"/>
-      <c r="CB152" s="19"/>
-      <c r="CC152" s="19"/>
-      <c r="CD152" s="30"/>
-      <c r="CE152" s="30"/>
-      <c r="CF152" s="30"/>
-      <c r="CG152" s="30"/>
-      <c r="CH152" s="30"/>
-      <c r="CI152" s="30"/>
-      <c r="CJ152" s="30"/>
-      <c r="CK152" s="30"/>
-      <c r="CL152" s="30"/>
-      <c r="CM152" s="17"/>
+      <c r="BZ152" s="1"/>
+      <c r="CA152" s="1"/>
+      <c r="CB152" s="1"/>
+      <c r="CC152" s="1"/>
+      <c r="CD152" s="1"/>
+      <c r="CE152" s="1"/>
+      <c r="CF152" s="1"/>
+      <c r="CG152" s="1"/>
+      <c r="CH152" s="1"/>
+      <c r="CI152" s="1"/>
+      <c r="CJ152" s="1"/>
+      <c r="CK152" s="1"/>
+      <c r="CL152" s="1"/>
+      <c r="CM152" s="1"/>
       <c r="CN152" s="17"/>
       <c r="CO152" s="17"/>
       <c r="CP152" s="17"/>
@@ -44912,7 +44963,7 @@
       <c r="EW152" s="17"/>
       <c r="EX152" s="17"/>
     </row>
-    <row r="153" spans="1:154" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:154" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -44990,20 +45041,20 @@
       <c r="BW153" s="1"/>
       <c r="BX153" s="1"/>
       <c r="BY153" s="1"/>
-      <c r="BZ153" s="19"/>
-      <c r="CA153" s="19"/>
-      <c r="CB153" s="19"/>
-      <c r="CC153" s="19"/>
-      <c r="CD153" s="30"/>
-      <c r="CE153" s="30"/>
-      <c r="CF153" s="30"/>
-      <c r="CG153" s="30"/>
-      <c r="CH153" s="30"/>
-      <c r="CI153" s="30"/>
-      <c r="CJ153" s="30"/>
-      <c r="CK153" s="30"/>
-      <c r="CL153" s="30"/>
-      <c r="CM153" s="17"/>
+      <c r="BZ153" s="1"/>
+      <c r="CA153" s="1"/>
+      <c r="CB153" s="1"/>
+      <c r="CC153" s="1"/>
+      <c r="CD153" s="1"/>
+      <c r="CE153" s="1"/>
+      <c r="CF153" s="1"/>
+      <c r="CG153" s="1"/>
+      <c r="CH153" s="1"/>
+      <c r="CI153" s="1"/>
+      <c r="CJ153" s="1"/>
+      <c r="CK153" s="1"/>
+      <c r="CL153" s="1"/>
+      <c r="CM153" s="1"/>
       <c r="CN153" s="17"/>
       <c r="CO153" s="17"/>
       <c r="CP153" s="17"/>
@@ -45068,332 +45119,8 @@
       <c r="EW153" s="17"/>
       <c r="EX153" s="17"/>
     </row>
-    <row r="159" spans="1:154" x14ac:dyDescent="0.2">
-      <c r="CC159" s="1"/>
-      <c r="CD159" s="1"/>
-      <c r="CE159" s="1"/>
-      <c r="CF159" s="1"/>
-      <c r="CG159" s="1"/>
-      <c r="CH159" s="1"/>
-      <c r="CI159" s="1"/>
-      <c r="CJ159" s="1"/>
-      <c r="CK159" s="1"/>
-      <c r="CL159" s="1"/>
-    </row>
-    <row r="160" spans="1:154" x14ac:dyDescent="0.2">
-      <c r="CC160" s="1"/>
-      <c r="CD160" s="1"/>
-      <c r="CE160" s="1"/>
-      <c r="CF160" s="1"/>
-      <c r="CG160" s="1"/>
-      <c r="CH160" s="1"/>
-      <c r="CI160" s="1"/>
-      <c r="CJ160" s="1"/>
-      <c r="CK160" s="1"/>
-      <c r="CL160" s="1"/>
-    </row>
-    <row r="161" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC161" s="1"/>
-      <c r="CD161" s="1"/>
-      <c r="CE161" s="1"/>
-      <c r="CF161" s="1"/>
-      <c r="CG161" s="1"/>
-      <c r="CH161" s="1"/>
-      <c r="CI161" s="1"/>
-      <c r="CJ161" s="1"/>
-      <c r="CK161" s="1"/>
-      <c r="CL161" s="1"/>
-    </row>
-    <row r="162" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC162" s="1"/>
-      <c r="CD162" s="1"/>
-      <c r="CE162" s="1"/>
-      <c r="CF162" s="1"/>
-      <c r="CG162" s="1"/>
-      <c r="CH162" s="1"/>
-      <c r="CI162" s="1"/>
-      <c r="CJ162" s="1"/>
-      <c r="CK162" s="1"/>
-      <c r="CL162" s="1"/>
-    </row>
-    <row r="163" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC163" s="1"/>
-      <c r="CD163" s="1"/>
-      <c r="CE163" s="1"/>
-      <c r="CF163" s="1"/>
-      <c r="CG163" s="1"/>
-      <c r="CH163" s="1"/>
-      <c r="CI163" s="1"/>
-      <c r="CJ163" s="1"/>
-      <c r="CK163" s="1"/>
-      <c r="CL163" s="1"/>
-    </row>
-    <row r="164" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC164" s="1"/>
-      <c r="CD164" s="1"/>
-      <c r="CE164" s="1"/>
-      <c r="CF164" s="1"/>
-      <c r="CG164" s="1"/>
-      <c r="CH164" s="1"/>
-      <c r="CI164" s="1"/>
-      <c r="CJ164" s="1"/>
-      <c r="CK164" s="1"/>
-      <c r="CL164" s="1"/>
-    </row>
-    <row r="165" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC165" s="1"/>
-      <c r="CD165" s="1"/>
-      <c r="CE165" s="1"/>
-      <c r="CF165" s="1"/>
-      <c r="CG165" s="1"/>
-      <c r="CH165" s="1"/>
-      <c r="CI165" s="1"/>
-      <c r="CJ165" s="1"/>
-      <c r="CK165" s="1"/>
-      <c r="CL165" s="1"/>
-    </row>
-    <row r="166" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC166" s="1"/>
-      <c r="CD166" s="1"/>
-      <c r="CE166" s="1"/>
-      <c r="CF166" s="1"/>
-      <c r="CG166" s="1"/>
-      <c r="CH166" s="1"/>
-      <c r="CI166" s="1"/>
-      <c r="CJ166" s="1"/>
-      <c r="CK166" s="1"/>
-      <c r="CL166" s="1"/>
-    </row>
-    <row r="167" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC167" s="1"/>
-      <c r="CD167" s="1"/>
-      <c r="CE167" s="1"/>
-      <c r="CF167" s="1"/>
-      <c r="CG167" s="1"/>
-      <c r="CH167" s="1"/>
-      <c r="CI167" s="1"/>
-      <c r="CJ167" s="1"/>
-      <c r="CK167" s="1"/>
-      <c r="CL167" s="1"/>
-    </row>
-    <row r="168" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC168" s="1"/>
-      <c r="CD168" s="1"/>
-      <c r="CE168" s="1"/>
-      <c r="CF168" s="1"/>
-      <c r="CG168" s="1"/>
-      <c r="CH168" s="1"/>
-      <c r="CI168" s="1"/>
-      <c r="CJ168" s="1"/>
-      <c r="CK168" s="1"/>
-      <c r="CL168" s="1"/>
-    </row>
-    <row r="169" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC169" s="1"/>
-      <c r="CD169" s="1"/>
-      <c r="CE169" s="1"/>
-      <c r="CF169" s="1"/>
-      <c r="CG169" s="1"/>
-      <c r="CH169" s="1"/>
-      <c r="CI169" s="1"/>
-      <c r="CJ169" s="1"/>
-      <c r="CK169" s="1"/>
-      <c r="CL169" s="1"/>
-    </row>
-    <row r="170" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC170" s="1"/>
-      <c r="CD170" s="1"/>
-      <c r="CE170" s="1"/>
-      <c r="CF170" s="1"/>
-      <c r="CG170" s="1"/>
-      <c r="CH170" s="1"/>
-      <c r="CI170" s="1"/>
-      <c r="CJ170" s="1"/>
-      <c r="CK170" s="1"/>
-      <c r="CL170" s="1"/>
-    </row>
-    <row r="171" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC171" s="1"/>
-      <c r="CD171" s="1"/>
-      <c r="CE171" s="1"/>
-      <c r="CF171" s="1"/>
-      <c r="CG171" s="1"/>
-      <c r="CH171" s="1"/>
-      <c r="CI171" s="1"/>
-      <c r="CJ171" s="1"/>
-      <c r="CK171" s="1"/>
-      <c r="CL171" s="1"/>
-    </row>
-    <row r="172" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC172" s="1"/>
-      <c r="CD172" s="1"/>
-      <c r="CE172" s="1"/>
-      <c r="CF172" s="1"/>
-      <c r="CG172" s="1"/>
-      <c r="CH172" s="1"/>
-      <c r="CI172" s="1"/>
-      <c r="CJ172" s="1"/>
-      <c r="CK172" s="1"/>
-      <c r="CL172" s="1"/>
-    </row>
-    <row r="173" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC173" s="1"/>
-      <c r="CD173" s="1"/>
-      <c r="CE173" s="1"/>
-      <c r="CF173" s="1"/>
-      <c r="CG173" s="1"/>
-      <c r="CH173" s="1"/>
-      <c r="CI173" s="1"/>
-      <c r="CJ173" s="1"/>
-      <c r="CK173" s="1"/>
-      <c r="CL173" s="1"/>
-    </row>
-    <row r="174" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC174" s="1"/>
-      <c r="CD174" s="1"/>
-      <c r="CE174" s="1"/>
-      <c r="CF174" s="1"/>
-      <c r="CG174" s="1"/>
-      <c r="CH174" s="1"/>
-      <c r="CI174" s="1"/>
-      <c r="CJ174" s="1"/>
-      <c r="CK174" s="1"/>
-      <c r="CL174" s="1"/>
-    </row>
-    <row r="175" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC175" s="1"/>
-      <c r="CD175" s="1"/>
-      <c r="CE175" s="1"/>
-      <c r="CF175" s="1"/>
-      <c r="CG175" s="1"/>
-      <c r="CH175" s="1"/>
-      <c r="CI175" s="1"/>
-      <c r="CJ175" s="1"/>
-      <c r="CK175" s="1"/>
-      <c r="CL175" s="1"/>
-    </row>
-    <row r="176" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC176" s="1"/>
-      <c r="CD176" s="1"/>
-      <c r="CE176" s="1"/>
-      <c r="CF176" s="1"/>
-      <c r="CG176" s="1"/>
-      <c r="CH176" s="1"/>
-      <c r="CI176" s="1"/>
-      <c r="CJ176" s="1"/>
-      <c r="CK176" s="1"/>
-      <c r="CL176" s="1"/>
-    </row>
-    <row r="177" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC177" s="1"/>
-      <c r="CD177" s="1"/>
-      <c r="CE177" s="1"/>
-      <c r="CF177" s="1"/>
-      <c r="CG177" s="1"/>
-      <c r="CH177" s="1"/>
-      <c r="CI177" s="1"/>
-      <c r="CJ177" s="1"/>
-      <c r="CK177" s="1"/>
-      <c r="CL177" s="1"/>
-    </row>
-    <row r="178" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC178" s="1"/>
-      <c r="CD178" s="1"/>
-      <c r="CE178" s="1"/>
-      <c r="CF178" s="1"/>
-      <c r="CG178" s="1"/>
-      <c r="CH178" s="1"/>
-      <c r="CI178" s="1"/>
-      <c r="CJ178" s="1"/>
-      <c r="CK178" s="1"/>
-      <c r="CL178" s="1"/>
-    </row>
-    <row r="179" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC179" s="1"/>
-      <c r="CD179" s="1"/>
-      <c r="CE179" s="1"/>
-      <c r="CF179" s="1"/>
-      <c r="CG179" s="1"/>
-      <c r="CH179" s="1"/>
-      <c r="CI179" s="1"/>
-      <c r="CJ179" s="1"/>
-      <c r="CK179" s="1"/>
-      <c r="CL179" s="1"/>
-    </row>
-    <row r="180" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC180" s="1"/>
-      <c r="CD180" s="1"/>
-      <c r="CE180" s="1"/>
-      <c r="CF180" s="1"/>
-      <c r="CG180" s="1"/>
-      <c r="CH180" s="1"/>
-      <c r="CI180" s="1"/>
-      <c r="CJ180" s="1"/>
-      <c r="CK180" s="1"/>
-      <c r="CL180" s="1"/>
-    </row>
-    <row r="181" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC181" s="1"/>
-      <c r="CD181" s="1"/>
-      <c r="CE181" s="1"/>
-      <c r="CF181" s="1"/>
-      <c r="CG181" s="1"/>
-      <c r="CH181" s="1"/>
-      <c r="CI181" s="1"/>
-      <c r="CJ181" s="1"/>
-      <c r="CK181" s="1"/>
-      <c r="CL181" s="1"/>
-    </row>
-    <row r="182" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC182" s="1"/>
-      <c r="CD182" s="1"/>
-      <c r="CE182" s="1"/>
-      <c r="CF182" s="1"/>
-      <c r="CG182" s="1"/>
-      <c r="CH182" s="1"/>
-      <c r="CI182" s="1"/>
-      <c r="CJ182" s="1"/>
-      <c r="CK182" s="1"/>
-      <c r="CL182" s="1"/>
-    </row>
-    <row r="183" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC183" s="1"/>
-      <c r="CD183" s="1"/>
-      <c r="CE183" s="1"/>
-      <c r="CF183" s="1"/>
-      <c r="CG183" s="1"/>
-      <c r="CH183" s="1"/>
-      <c r="CI183" s="1"/>
-      <c r="CJ183" s="1"/>
-      <c r="CK183" s="1"/>
-      <c r="CL183" s="1"/>
-    </row>
-    <row r="184" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC184" s="1"/>
-      <c r="CD184" s="1"/>
-      <c r="CE184" s="1"/>
-      <c r="CF184" s="1"/>
-      <c r="CG184" s="1"/>
-      <c r="CH184" s="1"/>
-      <c r="CI184" s="1"/>
-      <c r="CJ184" s="1"/>
-      <c r="CK184" s="1"/>
-      <c r="CL184" s="1"/>
-    </row>
-    <row r="185" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC185" s="1"/>
-      <c r="CD185" s="1"/>
-      <c r="CE185" s="1"/>
-      <c r="CF185" s="1"/>
-      <c r="CG185" s="1"/>
-      <c r="CH185" s="1"/>
-      <c r="CI185" s="1"/>
-      <c r="CJ185" s="1"/>
-      <c r="CK185" s="1"/>
-      <c r="CL185" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="159">
     <mergeCell ref="Z140:AC140"/>
     <mergeCell ref="AD140:AG140"/>
     <mergeCell ref="AH140:AK140"/>
@@ -45522,8 +45249,17 @@
     <mergeCell ref="BJ96:BM96"/>
     <mergeCell ref="V96:Y96"/>
     <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH31:CK31"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR31:BU31"/>
+    <mergeCell ref="BV31:BY31"/>
+    <mergeCell ref="BZ31:CC31"/>
+    <mergeCell ref="BV53:BY53"/>
+    <mergeCell ref="BR53:BU53"/>
+    <mergeCell ref="BZ140:CC140"/>
+    <mergeCell ref="BZ118:CC118"/>
+    <mergeCell ref="BZ96:CC96"/>
     <mergeCell ref="CD53:CG53"/>
     <mergeCell ref="CD75:CG75"/>
     <mergeCell ref="CH96:CK96"/>
@@ -45535,26 +45271,24 @@
     <mergeCell ref="BV118:BY118"/>
     <mergeCell ref="BR75:BU75"/>
     <mergeCell ref="BV75:BY75"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR31:BU31"/>
-    <mergeCell ref="BV31:BY31"/>
-    <mergeCell ref="BZ31:CC31"/>
-    <mergeCell ref="BV53:BY53"/>
-    <mergeCell ref="BR53:BU53"/>
-    <mergeCell ref="BZ140:CC140"/>
-    <mergeCell ref="BZ118:CC118"/>
-    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL31:CM31"/>
+    <mergeCell ref="CH53:CI53"/>
+    <mergeCell ref="CH75:CI75"/>
+    <mergeCell ref="CL96:CM96"/>
+    <mergeCell ref="CL118:CM118"/>
+    <mergeCell ref="CL140:CM140"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH31:CK31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="88" man="1"/>
-    <brk id="88" max="88" man="1"/>
-    <brk id="109" max="88" man="1"/>
+    <brk id="44" max="90" man="1"/>
+    <brk id="88" max="90" man="1"/>
+    <brk id="109" max="90" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E86E1F8-C572-426B-B57E-6909B5DC226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07D4689-2942-4455-8A43-CCFFFC329864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="8" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CM$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CN$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -623,13 +623,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -637,10 +637,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -714,16 +714,16 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -734,35 +734,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23615,39 +23609,39 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH2" sqref="CH1:CM1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="91" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="1"/>
+    <col min="2" max="92" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23739,8 +23733,9 @@
       <c r="CK6" s="4"/>
       <c r="CL6" s="4"/>
       <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
     </row>
-    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -23834,8 +23829,9 @@
       <c r="CK7" s="4"/>
       <c r="CL7" s="4"/>
       <c r="CM7" s="4"/>
+      <c r="CN7" s="4"/>
     </row>
-    <row r="8" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -23926,147 +23922,149 @@
       <c r="CK8" s="4"/>
       <c r="CL8" s="4"/>
       <c r="CM8" s="4"/>
+      <c r="CN8" s="4"/>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="25">
+      <c r="B9" s="23">
         <v>2000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>2001</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
         <v>2002</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23">
         <v>2003</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25">
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23">
         <v>2004</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25">
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>2005</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23">
         <v>2006</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25">
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23">
         <v>2007</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25">
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23">
         <v>2008</v>
       </c>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25">
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23">
         <v>2009</v>
       </c>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25">
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25">
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="23">
         <v>2011</v>
       </c>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25">
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23">
         <v>2012</v>
       </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25">
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23">
         <v>2013</v>
       </c>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25">
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23">
         <v>2014</v>
       </c>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25">
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="23">
         <v>2015</v>
       </c>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25">
+      <c r="BK9" s="23"/>
+      <c r="BL9" s="23"/>
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="23">
         <v>2016</v>
       </c>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25">
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="23"/>
+      <c r="BQ9" s="23"/>
+      <c r="BR9" s="23">
         <v>2017</v>
       </c>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25">
+      <c r="BS9" s="23"/>
+      <c r="BT9" s="23"/>
+      <c r="BU9" s="23"/>
+      <c r="BV9" s="23">
         <v>2018</v>
       </c>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25">
+      <c r="BW9" s="23"/>
+      <c r="BX9" s="23"/>
+      <c r="BY9" s="23"/>
+      <c r="BZ9" s="23">
         <v>2019</v>
       </c>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25">
+      <c r="CA9" s="23"/>
+      <c r="CB9" s="23"/>
+      <c r="CC9" s="23"/>
+      <c r="CD9" s="23">
         <v>2020</v>
       </c>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
-      <c r="CH9" s="25">
+      <c r="CE9" s="23"/>
+      <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
+      <c r="CH9" s="23">
         <v>2021</v>
       </c>
-      <c r="CI9" s="25"/>
-      <c r="CJ9" s="25"/>
-      <c r="CK9" s="25"/>
-      <c r="CL9" s="25">
+      <c r="CI9" s="23"/>
+      <c r="CJ9" s="23"/>
+      <c r="CK9" s="23"/>
+      <c r="CL9" s="23">
         <v>2022</v>
       </c>
-      <c r="CM9" s="25"/>
+      <c r="CM9" s="23"/>
+      <c r="CN9" s="23"/>
     </row>
-    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -24340,11 +24338,14 @@
       <c r="CM10" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CN10" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -24600,25 +24601,27 @@
       <c r="CG12" s="9">
         <v>87043.333111853615</v>
       </c>
-      <c r="CH12" s="20">
+      <c r="CH12" s="19">
         <v>80310.943601616484</v>
       </c>
-      <c r="CI12" s="20">
+      <c r="CI12" s="19">
         <v>64886.17836900759</v>
       </c>
-      <c r="CJ12" s="20">
+      <c r="CJ12" s="19">
         <v>91755.469490844363</v>
       </c>
-      <c r="CK12" s="20">
+      <c r="CK12" s="19">
         <v>102146.00626455189</v>
       </c>
-      <c r="CL12" s="20">
+      <c r="CL12" s="19">
         <v>94971.188654406025</v>
       </c>
-      <c r="CM12" s="20">
-        <v>85623.592707637814</v>
-      </c>
-      <c r="CN12" s="10"/>
+      <c r="CM12" s="19">
+        <v>86076.526262154803</v>
+      </c>
+      <c r="CN12" s="19">
+        <v>127912.27312817855</v>
+      </c>
       <c r="CO12" s="10"/>
       <c r="CP12" s="10"/>
       <c r="CQ12" s="10"/>
@@ -24682,7 +24685,7 @@
       <c r="EW12" s="10"/>
       <c r="EX12" s="10"/>
     </row>
-    <row r="13" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -24938,25 +24941,27 @@
       <c r="CG13" s="9">
         <v>6727.6571030917612</v>
       </c>
-      <c r="CH13" s="20">
+      <c r="CH13" s="19">
         <v>7817.273676312996</v>
       </c>
-      <c r="CI13" s="20">
+      <c r="CI13" s="19">
         <v>5067.513206587616</v>
       </c>
-      <c r="CJ13" s="20">
+      <c r="CJ13" s="19">
         <v>6461.1453905598064</v>
       </c>
-      <c r="CK13" s="20">
+      <c r="CK13" s="19">
         <v>6793.9100191963189</v>
       </c>
-      <c r="CL13" s="20">
+      <c r="CL13" s="19">
         <v>9001.2909668615357</v>
       </c>
-      <c r="CM13" s="20">
-        <v>6161.1339622006853</v>
-      </c>
-      <c r="CN13" s="10"/>
+      <c r="CM13" s="19">
+        <v>6682.5961660063367</v>
+      </c>
+      <c r="CN13" s="19">
+        <v>8201.4753255198993</v>
+      </c>
       <c r="CO13" s="10"/>
       <c r="CP13" s="10"/>
       <c r="CQ13" s="10"/>
@@ -25020,7 +25025,7 @@
       <c r="EW13" s="10"/>
       <c r="EX13" s="10"/>
     </row>
-    <row r="14" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -25276,25 +25281,27 @@
       <c r="CG14" s="9">
         <v>5756.5870174473457</v>
       </c>
-      <c r="CH14" s="20">
+      <c r="CH14" s="19">
         <v>5981.2410016829199</v>
       </c>
-      <c r="CI14" s="20">
+      <c r="CI14" s="19">
         <v>3498.5571945118791</v>
       </c>
-      <c r="CJ14" s="20">
+      <c r="CJ14" s="19">
         <v>7810.5870233574205</v>
       </c>
-      <c r="CK14" s="20">
+      <c r="CK14" s="19">
         <v>10731.893624718097</v>
       </c>
-      <c r="CL14" s="20">
+      <c r="CL14" s="19">
         <v>16519.717390147831</v>
       </c>
-      <c r="CM14" s="20">
-        <v>19659.991450235531</v>
-      </c>
-      <c r="CN14" s="10"/>
+      <c r="CM14" s="19">
+        <v>17861.916287213768</v>
+      </c>
+      <c r="CN14" s="19">
+        <v>22418.116490501576</v>
+      </c>
       <c r="CO14" s="10"/>
       <c r="CP14" s="10"/>
       <c r="CQ14" s="10"/>
@@ -25358,7 +25365,7 @@
       <c r="EW14" s="10"/>
       <c r="EX14" s="10"/>
     </row>
-    <row r="15" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -25614,25 +25621,27 @@
       <c r="CG15" s="9">
         <v>41914.708397563991</v>
       </c>
-      <c r="CH15" s="20">
+      <c r="CH15" s="19">
         <v>41314.418988535144</v>
       </c>
-      <c r="CI15" s="20">
+      <c r="CI15" s="19">
         <v>45468.281079315457</v>
       </c>
-      <c r="CJ15" s="20">
+      <c r="CJ15" s="19">
         <v>45801.634695866625</v>
       </c>
-      <c r="CK15" s="20">
+      <c r="CK15" s="19">
         <v>45968.838758085447</v>
       </c>
-      <c r="CL15" s="20">
+      <c r="CL15" s="19">
         <v>49157.082021658309</v>
       </c>
-      <c r="CM15" s="20">
-        <v>49344.457520466152</v>
-      </c>
-      <c r="CN15" s="10"/>
+      <c r="CM15" s="19">
+        <v>50296.156629718484</v>
+      </c>
+      <c r="CN15" s="19">
+        <v>55006.513241984139</v>
+      </c>
       <c r="CO15" s="10"/>
       <c r="CP15" s="10"/>
       <c r="CQ15" s="10"/>
@@ -25696,7 +25705,7 @@
       <c r="EW15" s="10"/>
       <c r="EX15" s="10"/>
     </row>
-    <row r="16" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -25952,25 +25961,27 @@
       <c r="CG16" s="9">
         <v>8707.0629617639515</v>
       </c>
-      <c r="CH16" s="20">
+      <c r="CH16" s="19">
         <v>8057.1403063475373</v>
       </c>
-      <c r="CI16" s="20">
+      <c r="CI16" s="19">
         <v>9199.2714411078541</v>
       </c>
-      <c r="CJ16" s="20">
+      <c r="CJ16" s="19">
         <v>6948.7257825117358</v>
       </c>
-      <c r="CK16" s="20">
+      <c r="CK16" s="19">
         <v>8899.6056823708132</v>
       </c>
-      <c r="CL16" s="20">
+      <c r="CL16" s="19">
         <v>7866.9779532324337</v>
       </c>
-      <c r="CM16" s="20">
-        <v>8529.9825280772711</v>
-      </c>
-      <c r="CN16" s="10"/>
+      <c r="CM16" s="19">
+        <v>8966.8706717470923</v>
+      </c>
+      <c r="CN16" s="19">
+        <v>7129.8604733248103</v>
+      </c>
       <c r="CO16" s="10"/>
       <c r="CP16" s="10"/>
       <c r="CQ16" s="10"/>
@@ -26034,7 +26045,7 @@
       <c r="EW16" s="10"/>
       <c r="EX16" s="10"/>
     </row>
-    <row r="17" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -26189,7 +26200,7 @@
       <c r="EW17" s="10"/>
       <c r="EX17" s="10"/>
     </row>
-    <row r="18" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
@@ -26445,25 +26456,27 @@
       <c r="CG18" s="12">
         <v>150149.34859172066</v>
       </c>
-      <c r="CH18" s="21">
+      <c r="CH18" s="20">
         <v>143481.01757449508</v>
       </c>
-      <c r="CI18" s="21">
+      <c r="CI18" s="20">
         <v>128119.80129053039</v>
       </c>
-      <c r="CJ18" s="21">
+      <c r="CJ18" s="20">
         <v>158777.56238313994</v>
       </c>
-      <c r="CK18" s="21">
+      <c r="CK18" s="20">
         <v>174540.25434892255</v>
       </c>
-      <c r="CL18" s="21">
+      <c r="CL18" s="20">
         <v>177516.25698630614</v>
       </c>
-      <c r="CM18" s="21">
-        <v>169319.15816861746</v>
-      </c>
-      <c r="CN18" s="10"/>
+      <c r="CM18" s="20">
+        <v>169884.06601684046</v>
+      </c>
+      <c r="CN18" s="20">
+        <v>220668.23865950896</v>
+      </c>
       <c r="CO18" s="10"/>
       <c r="CP18" s="10"/>
       <c r="CQ18" s="10"/>
@@ -26527,7 +26540,7 @@
       <c r="EW18" s="10"/>
       <c r="EX18" s="10"/>
     </row>
-    <row r="19" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -26613,19 +26626,20 @@
       <c r="CE19" s="14"/>
       <c r="CF19" s="14"/>
       <c r="CG19" s="14"/>
-      <c r="CH19" s="22"/>
-      <c r="CI19" s="22"/>
-      <c r="CJ19" s="22"/>
-      <c r="CK19" s="22"/>
-      <c r="CL19" s="22"/>
-      <c r="CM19" s="22"/>
+      <c r="CH19" s="21"/>
+      <c r="CI19" s="21"/>
+      <c r="CJ19" s="21"/>
+      <c r="CK19" s="21"/>
+      <c r="CL19" s="21"/>
+      <c r="CM19" s="21"/>
+      <c r="CN19" s="21"/>
     </row>
-    <row r="20" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -26780,7 +26794,7 @@
       <c r="EW21" s="10"/>
       <c r="EX21" s="10"/>
     </row>
-    <row r="22" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -26935,22 +26949,22 @@
       <c r="EW22" s="10"/>
       <c r="EX22" s="10"/>
     </row>
-    <row r="23" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -27041,8 +27055,9 @@
       <c r="CK26" s="4"/>
       <c r="CL26" s="4"/>
       <c r="CM26" s="4"/>
+      <c r="CN26" s="4"/>
     </row>
-    <row r="27" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -27136,10 +27151,11 @@
       <c r="CK27" s="4"/>
       <c r="CL27" s="4"/>
       <c r="CM27" s="4"/>
+      <c r="CN27" s="4"/>
     </row>
-    <row r="28" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -27231,8 +27247,9 @@
       <c r="CK28" s="4"/>
       <c r="CL28" s="4"/>
       <c r="CM28" s="4"/>
+      <c r="CN28" s="4"/>
     </row>
-    <row r="29" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -27326,8 +27343,9 @@
       <c r="CK29" s="4"/>
       <c r="CL29" s="4"/>
       <c r="CM29" s="4"/>
+      <c r="CN29" s="4"/>
     </row>
-    <row r="30" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -27418,147 +27436,149 @@
       <c r="CK30" s="4"/>
       <c r="CL30" s="4"/>
       <c r="CM30" s="4"/>
+      <c r="CN30" s="4"/>
     </row>
-    <row r="31" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="25">
+      <c r="B31" s="23">
         <v>2000</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="25">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23">
         <v>2001</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="25">
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="23">
         <v>2002</v>
       </c>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="25">
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="23">
         <v>2003</v>
       </c>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="25">
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="23">
         <v>2004</v>
       </c>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="25">
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="23">
         <v>2005</v>
       </c>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="25">
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="23">
         <v>2006</v>
       </c>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="25">
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="23">
         <v>2007</v>
       </c>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="25">
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="23">
         <v>2008</v>
       </c>
-      <c r="AI31" s="27"/>
-      <c r="AJ31" s="27"/>
-      <c r="AK31" s="27"/>
-      <c r="AL31" s="25">
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="23">
         <v>2009</v>
       </c>
-      <c r="AM31" s="27"/>
-      <c r="AN31" s="27"/>
-      <c r="AO31" s="27"/>
-      <c r="AP31" s="25">
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="27"/>
-      <c r="AR31" s="27"/>
-      <c r="AS31" s="27"/>
-      <c r="AT31" s="25">
+      <c r="AQ31" s="24"/>
+      <c r="AR31" s="24"/>
+      <c r="AS31" s="24"/>
+      <c r="AT31" s="23">
         <v>2011</v>
       </c>
-      <c r="AU31" s="27"/>
-      <c r="AV31" s="27"/>
-      <c r="AW31" s="27"/>
-      <c r="AX31" s="25">
+      <c r="AU31" s="24"/>
+      <c r="AV31" s="24"/>
+      <c r="AW31" s="24"/>
+      <c r="AX31" s="23">
         <v>2012</v>
       </c>
-      <c r="AY31" s="27"/>
-      <c r="AZ31" s="27"/>
-      <c r="BA31" s="27"/>
-      <c r="BB31" s="25">
+      <c r="AY31" s="24"/>
+      <c r="AZ31" s="24"/>
+      <c r="BA31" s="24"/>
+      <c r="BB31" s="23">
         <v>2013</v>
       </c>
-      <c r="BC31" s="27"/>
-      <c r="BD31" s="27"/>
-      <c r="BE31" s="27"/>
-      <c r="BF31" s="25">
+      <c r="BC31" s="24"/>
+      <c r="BD31" s="24"/>
+      <c r="BE31" s="24"/>
+      <c r="BF31" s="23">
         <v>2014</v>
       </c>
-      <c r="BG31" s="27"/>
-      <c r="BH31" s="27"/>
-      <c r="BI31" s="27"/>
-      <c r="BJ31" s="25">
+      <c r="BG31" s="24"/>
+      <c r="BH31" s="24"/>
+      <c r="BI31" s="24"/>
+      <c r="BJ31" s="23">
         <v>2015</v>
       </c>
-      <c r="BK31" s="27"/>
-      <c r="BL31" s="27"/>
-      <c r="BM31" s="27"/>
-      <c r="BN31" s="25">
+      <c r="BK31" s="24"/>
+      <c r="BL31" s="24"/>
+      <c r="BM31" s="24"/>
+      <c r="BN31" s="23">
         <v>2016</v>
       </c>
-      <c r="BO31" s="27"/>
-      <c r="BP31" s="27"/>
-      <c r="BQ31" s="27"/>
-      <c r="BR31" s="25">
+      <c r="BO31" s="24"/>
+      <c r="BP31" s="24"/>
+      <c r="BQ31" s="24"/>
+      <c r="BR31" s="23">
         <v>2017</v>
       </c>
-      <c r="BS31" s="27"/>
-      <c r="BT31" s="27"/>
-      <c r="BU31" s="27"/>
-      <c r="BV31" s="25">
+      <c r="BS31" s="24"/>
+      <c r="BT31" s="24"/>
+      <c r="BU31" s="24"/>
+      <c r="BV31" s="23">
         <v>2018</v>
       </c>
-      <c r="BW31" s="27"/>
-      <c r="BX31" s="27"/>
-      <c r="BY31" s="27"/>
-      <c r="BZ31" s="25">
+      <c r="BW31" s="24"/>
+      <c r="BX31" s="24"/>
+      <c r="BY31" s="24"/>
+      <c r="BZ31" s="23">
         <v>2019</v>
       </c>
-      <c r="CA31" s="27"/>
-      <c r="CB31" s="27"/>
-      <c r="CC31" s="27"/>
-      <c r="CD31" s="25">
+      <c r="CA31" s="24"/>
+      <c r="CB31" s="24"/>
+      <c r="CC31" s="24"/>
+      <c r="CD31" s="23">
         <v>2020</v>
       </c>
-      <c r="CE31" s="27"/>
-      <c r="CF31" s="27"/>
-      <c r="CG31" s="27"/>
-      <c r="CH31" s="25">
+      <c r="CE31" s="24"/>
+      <c r="CF31" s="24"/>
+      <c r="CG31" s="24"/>
+      <c r="CH31" s="23">
         <v>2021</v>
       </c>
-      <c r="CI31" s="25"/>
-      <c r="CJ31" s="25"/>
-      <c r="CK31" s="25"/>
-      <c r="CL31" s="25">
+      <c r="CI31" s="23"/>
+      <c r="CJ31" s="23"/>
+      <c r="CK31" s="23"/>
+      <c r="CL31" s="23">
         <v>2022</v>
       </c>
-      <c r="CM31" s="25"/>
+      <c r="CM31" s="23"/>
+      <c r="CN31" s="23"/>
     </row>
-    <row r="32" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
@@ -27832,11 +27852,14 @@
       <c r="CM32" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CN32" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="33" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -28092,25 +28115,27 @@
       <c r="CG34" s="9">
         <v>78892.263529082004</v>
       </c>
-      <c r="CH34" s="20">
+      <c r="CH34" s="19">
         <v>72693.252434721246</v>
       </c>
-      <c r="CI34" s="20">
+      <c r="CI34" s="19">
         <v>51224.972026472547</v>
       </c>
-      <c r="CJ34" s="20">
+      <c r="CJ34" s="19">
         <v>69968.767388608554</v>
       </c>
-      <c r="CK34" s="20">
+      <c r="CK34" s="19">
         <v>91982.776736998538</v>
       </c>
-      <c r="CL34" s="20">
+      <c r="CL34" s="19">
         <v>85221.509933851848</v>
       </c>
-      <c r="CM34" s="20">
-        <v>66743.957193967784</v>
-      </c>
-      <c r="CN34" s="10"/>
+      <c r="CM34" s="19">
+        <v>67097.02083937703</v>
+      </c>
+      <c r="CN34" s="19">
+        <v>91816.917894391925</v>
+      </c>
       <c r="CO34" s="10"/>
       <c r="CP34" s="10"/>
       <c r="CQ34" s="10"/>
@@ -28174,7 +28199,7 @@
       <c r="EW34" s="10"/>
       <c r="EX34" s="10"/>
     </row>
-    <row r="35" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -28430,25 +28455,27 @@
       <c r="CG35" s="9">
         <v>5748.9168303779634</v>
       </c>
-      <c r="CH35" s="20">
+      <c r="CH35" s="19">
         <v>6485.3406307277664</v>
       </c>
-      <c r="CI35" s="20">
+      <c r="CI35" s="19">
         <v>5622.8897902546669</v>
       </c>
-      <c r="CJ35" s="20">
+      <c r="CJ35" s="19">
         <v>5641.7249530700356</v>
       </c>
-      <c r="CK35" s="20">
+      <c r="CK35" s="19">
         <v>7076.4642432754972</v>
       </c>
-      <c r="CL35" s="20">
+      <c r="CL35" s="19">
         <v>8705.3053754757075</v>
       </c>
-      <c r="CM35" s="20">
-        <v>5829.5529914046974</v>
-      </c>
-      <c r="CN35" s="10"/>
+      <c r="CM35" s="19">
+        <v>6322.9510523379322</v>
+      </c>
+      <c r="CN35" s="19">
+        <v>5635.9620826111823</v>
+      </c>
       <c r="CO35" s="10"/>
       <c r="CP35" s="10"/>
       <c r="CQ35" s="10"/>
@@ -28512,7 +28539,7 @@
       <c r="EW35" s="10"/>
       <c r="EX35" s="10"/>
     </row>
-    <row r="36" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -28768,25 +28795,27 @@
       <c r="CG36" s="9">
         <v>5724.8352232651596</v>
       </c>
-      <c r="CH36" s="20">
+      <c r="CH36" s="19">
         <v>6945.0277659908534</v>
       </c>
-      <c r="CI36" s="20">
+      <c r="CI36" s="19">
         <v>3794.5940396513961</v>
       </c>
-      <c r="CJ36" s="20">
+      <c r="CJ36" s="19">
         <v>7715.1993628660421</v>
       </c>
-      <c r="CK36" s="20">
+      <c r="CK36" s="19">
         <v>9877.5561037619118</v>
       </c>
-      <c r="CL36" s="20">
+      <c r="CL36" s="19">
         <v>18325.805539719899</v>
       </c>
-      <c r="CM36" s="20">
-        <v>18739.11241084541</v>
-      </c>
-      <c r="CN36" s="10"/>
+      <c r="CM36" s="19">
+        <v>17025.259549398193</v>
+      </c>
+      <c r="CN36" s="19">
+        <v>17759.4316247026</v>
+      </c>
       <c r="CO36" s="10"/>
       <c r="CP36" s="10"/>
       <c r="CQ36" s="10"/>
@@ -28850,7 +28879,7 @@
       <c r="EW36" s="10"/>
       <c r="EX36" s="10"/>
     </row>
-    <row r="37" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -29106,25 +29135,27 @@
       <c r="CG37" s="9">
         <v>40204.181905661972</v>
       </c>
-      <c r="CH37" s="20">
+      <c r="CH37" s="19">
         <v>40984.048343767317</v>
       </c>
-      <c r="CI37" s="20">
+      <c r="CI37" s="19">
         <v>40991.50518060902</v>
       </c>
-      <c r="CJ37" s="20">
+      <c r="CJ37" s="19">
         <v>46702.18850791359</v>
       </c>
-      <c r="CK37" s="20">
+      <c r="CK37" s="19">
         <v>47457.6089120092</v>
       </c>
-      <c r="CL37" s="20">
+      <c r="CL37" s="19">
         <v>50549.911723644807</v>
       </c>
-      <c r="CM37" s="20">
-        <v>40922.177209955262</v>
-      </c>
-      <c r="CN37" s="10"/>
+      <c r="CM37" s="19">
+        <v>41711.437069246</v>
+      </c>
+      <c r="CN37" s="19">
+        <v>47898.805368753485</v>
+      </c>
       <c r="CO37" s="10"/>
       <c r="CP37" s="10"/>
       <c r="CQ37" s="10"/>
@@ -29188,7 +29219,7 @@
       <c r="EW37" s="10"/>
       <c r="EX37" s="10"/>
     </row>
-    <row r="38" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -29444,25 +29475,27 @@
       <c r="CG38" s="9">
         <v>8665.3682349485935</v>
       </c>
-      <c r="CH38" s="20">
+      <c r="CH38" s="19">
         <v>7971.4624866455233</v>
       </c>
-      <c r="CI38" s="20">
+      <c r="CI38" s="19">
         <v>8848.2050604570431</v>
       </c>
-      <c r="CJ38" s="20">
+      <c r="CJ38" s="19">
         <v>6701.7194389334336</v>
       </c>
-      <c r="CK38" s="20">
+      <c r="CK38" s="19">
         <v>8856.9889436013382</v>
       </c>
-      <c r="CL38" s="20">
+      <c r="CL38" s="19">
         <v>7775.5467305363509</v>
       </c>
-      <c r="CM38" s="20">
-        <v>8188.8004639588216</v>
-      </c>
-      <c r="CN38" s="10"/>
+      <c r="CM38" s="19">
+        <v>8608.2139647257463</v>
+      </c>
+      <c r="CN38" s="19">
+        <v>6861.1198450995544</v>
+      </c>
       <c r="CO38" s="10"/>
       <c r="CP38" s="10"/>
       <c r="CQ38" s="10"/>
@@ -29526,7 +29559,7 @@
       <c r="EW38" s="10"/>
       <c r="EX38" s="10"/>
     </row>
-    <row r="39" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -29681,7 +29714,7 @@
       <c r="EW39" s="10"/>
       <c r="EX39" s="10"/>
     </row>
-    <row r="40" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>10</v>
       </c>
@@ -29937,25 +29970,27 @@
       <c r="CG40" s="12">
         <v>139235.56572333569</v>
       </c>
-      <c r="CH40" s="21">
+      <c r="CH40" s="20">
         <v>135079.13166185271</v>
       </c>
-      <c r="CI40" s="21">
+      <c r="CI40" s="20">
         <v>110482.16609744467</v>
       </c>
-      <c r="CJ40" s="21">
+      <c r="CJ40" s="20">
         <v>136729.59965139168</v>
       </c>
-      <c r="CK40" s="21">
+      <c r="CK40" s="20">
         <v>165251.39493964647</v>
       </c>
-      <c r="CL40" s="21">
+      <c r="CL40" s="20">
         <v>170578.07930322862</v>
       </c>
-      <c r="CM40" s="21">
-        <v>140423.60027013195</v>
-      </c>
-      <c r="CN40" s="10"/>
+      <c r="CM40" s="20">
+        <v>140764.88247508492</v>
+      </c>
+      <c r="CN40" s="20">
+        <v>169972.23681555872</v>
+      </c>
       <c r="CO40" s="10"/>
       <c r="CP40" s="10"/>
       <c r="CQ40" s="10"/>
@@ -30019,7 +30054,7 @@
       <c r="EW40" s="10"/>
       <c r="EX40" s="10"/>
     </row>
-    <row r="41" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -30111,13 +30146,14 @@
       <c r="CK41" s="13"/>
       <c r="CL41" s="13"/>
       <c r="CM41" s="13"/>
+      <c r="CN41" s="13"/>
     </row>
-    <row r="42" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -30272,7 +30308,7 @@
       <c r="EW43" s="10"/>
       <c r="EX43" s="10"/>
     </row>
-    <row r="44" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -30427,177 +30463,178 @@
       <c r="EW44" s="10"/>
       <c r="EX44" s="10"/>
     </row>
-    <row r="45" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25" t="s">
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25" t="s">
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25" t="s">
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="25" t="s">
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="25"/>
-      <c r="V53" s="25" t="s">
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="W53" s="25"/>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="25" t="s">
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA53" s="25"/>
-      <c r="AB53" s="25"/>
-      <c r="AC53" s="25"/>
-      <c r="AD53" s="25" t="s">
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AE53" s="25"/>
-      <c r="AF53" s="25"/>
-      <c r="AG53" s="25"/>
-      <c r="AH53" s="25" t="s">
+      <c r="AE53" s="23"/>
+      <c r="AF53" s="23"/>
+      <c r="AG53" s="23"/>
+      <c r="AH53" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AI53" s="25"/>
-      <c r="AJ53" s="25"/>
-      <c r="AK53" s="25"/>
-      <c r="AL53" s="25" t="s">
+      <c r="AI53" s="23"/>
+      <c r="AJ53" s="23"/>
+      <c r="AK53" s="23"/>
+      <c r="AL53" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AM53" s="25"/>
-      <c r="AN53" s="25"/>
-      <c r="AO53" s="25"/>
-      <c r="AP53" s="25" t="s">
+      <c r="AM53" s="23"/>
+      <c r="AN53" s="23"/>
+      <c r="AO53" s="23"/>
+      <c r="AP53" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AQ53" s="25"/>
-      <c r="AR53" s="25"/>
-      <c r="AS53" s="25"/>
-      <c r="AT53" s="25" t="s">
+      <c r="AQ53" s="23"/>
+      <c r="AR53" s="23"/>
+      <c r="AS53" s="23"/>
+      <c r="AT53" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AU53" s="25"/>
-      <c r="AV53" s="25"/>
-      <c r="AW53" s="25"/>
-      <c r="AX53" s="25" t="s">
+      <c r="AU53" s="23"/>
+      <c r="AV53" s="23"/>
+      <c r="AW53" s="23"/>
+      <c r="AX53" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AY53" s="25"/>
-      <c r="AZ53" s="25"/>
-      <c r="BA53" s="25"/>
-      <c r="BB53" s="25" t="s">
+      <c r="AY53" s="23"/>
+      <c r="AZ53" s="23"/>
+      <c r="BA53" s="23"/>
+      <c r="BB53" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BC53" s="25"/>
-      <c r="BD53" s="25"/>
-      <c r="BE53" s="25"/>
-      <c r="BF53" s="25" t="s">
+      <c r="BC53" s="23"/>
+      <c r="BD53" s="23"/>
+      <c r="BE53" s="23"/>
+      <c r="BF53" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BG53" s="25"/>
-      <c r="BH53" s="25"/>
-      <c r="BI53" s="25"/>
-      <c r="BJ53" s="25" t="s">
+      <c r="BG53" s="23"/>
+      <c r="BH53" s="23"/>
+      <c r="BI53" s="23"/>
+      <c r="BJ53" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="BK53" s="25"/>
-      <c r="BL53" s="25"/>
-      <c r="BM53" s="25"/>
-      <c r="BN53" s="25" t="s">
+      <c r="BK53" s="23"/>
+      <c r="BL53" s="23"/>
+      <c r="BM53" s="23"/>
+      <c r="BN53" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="BO53" s="25"/>
-      <c r="BP53" s="25"/>
-      <c r="BQ53" s="25"/>
-      <c r="BR53" s="25" t="s">
+      <c r="BO53" s="23"/>
+      <c r="BP53" s="23"/>
+      <c r="BQ53" s="23"/>
+      <c r="BR53" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="BS53" s="25"/>
-      <c r="BT53" s="25"/>
-      <c r="BU53" s="25"/>
-      <c r="BV53" s="25" t="s">
+      <c r="BS53" s="23"/>
+      <c r="BT53" s="23"/>
+      <c r="BU53" s="23"/>
+      <c r="BV53" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="BW53" s="25"/>
-      <c r="BX53" s="25"/>
-      <c r="BY53" s="25"/>
-      <c r="BZ53" s="25" t="s">
+      <c r="BW53" s="23"/>
+      <c r="BX53" s="23"/>
+      <c r="BY53" s="23"/>
+      <c r="BZ53" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="25"/>
-      <c r="CB53" s="25"/>
-      <c r="CC53" s="25"/>
-      <c r="CD53" s="25" t="s">
+      <c r="CA53" s="23"/>
+      <c r="CB53" s="23"/>
+      <c r="CC53" s="23"/>
+      <c r="CD53" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="CE53" s="25"/>
-      <c r="CF53" s="25"/>
-      <c r="CG53" s="25"/>
-      <c r="CH53" s="25" t="s">
+      <c r="CE53" s="23"/>
+      <c r="CF53" s="23"/>
+      <c r="CG53" s="23"/>
+      <c r="CH53" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CI53" s="25"/>
+      <c r="CI53" s="23"/>
       <c r="CJ53" s="23"/>
-      <c r="CK53" s="23"/>
-      <c r="CL53" s="19"/>
-      <c r="CM53" s="19"/>
+      <c r="CK53" s="22"/>
+      <c r="CL53" s="23"/>
+      <c r="CM53" s="23"/>
+      <c r="CN53" s="22"/>
     </row>
-    <row r="54" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>16</v>
       </c>
@@ -30859,15 +30896,18 @@
       <c r="CI54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CJ54" s="6"/>
+      <c r="CJ54" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="CK54" s="6"/>
       <c r="CL54" s="6"/>
-      <c r="CM54" s="24"/>
+      <c r="CM54" s="6"/>
+      <c r="CN54" s="6"/>
     </row>
-    <row r="55" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>15</v>
       </c>
@@ -31127,13 +31167,15 @@
         <v>18.25435537840508</v>
       </c>
       <c r="CI56" s="16">
-        <v>31.959679025472241</v>
-      </c>
-      <c r="CJ56" s="16"/>
+        <v>32.657722223425992</v>
+      </c>
+      <c r="CJ56" s="16">
+        <v>39.405611281779784</v>
+      </c>
       <c r="CK56" s="16"/>
       <c r="CL56" s="16"/>
-      <c r="CM56" s="10"/>
-      <c r="CN56" s="10"/>
+      <c r="CM56" s="16"/>
+      <c r="CN56" s="16"/>
       <c r="CO56" s="10"/>
       <c r="CP56" s="10"/>
       <c r="CQ56" s="10"/>
@@ -31193,7 +31235,7 @@
       <c r="ES56" s="10"/>
       <c r="ET56" s="10"/>
     </row>
-    <row r="57" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -31453,13 +31495,15 @@
         <v>15.146166548271324</v>
       </c>
       <c r="CI57" s="16">
-        <v>21.581014415342722</v>
-      </c>
-      <c r="CJ57" s="16"/>
+        <v>31.871312290201047</v>
+      </c>
+      <c r="CJ57" s="16">
+        <v>26.935316105141965</v>
+      </c>
       <c r="CK57" s="16"/>
       <c r="CL57" s="16"/>
-      <c r="CM57" s="10"/>
-      <c r="CN57" s="10"/>
+      <c r="CM57" s="16"/>
+      <c r="CN57" s="16"/>
       <c r="CO57" s="10"/>
       <c r="CP57" s="10"/>
       <c r="CQ57" s="10"/>
@@ -31519,7 +31563,7 @@
       <c r="ES57" s="10"/>
       <c r="ET57" s="10"/>
     </row>
-    <row r="58" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -31779,13 +31823,15 @@
         <v>176.19213781052696</v>
       </c>
       <c r="CI58" s="16">
-        <v>461.94569238644408</v>
-      </c>
-      <c r="CJ58" s="16"/>
+        <v>410.55092982997161</v>
+      </c>
+      <c r="CJ58" s="16">
+        <v>187.02217161732659</v>
+      </c>
       <c r="CK58" s="16"/>
       <c r="CL58" s="16"/>
-      <c r="CM58" s="10"/>
-      <c r="CN58" s="10"/>
+      <c r="CM58" s="16"/>
+      <c r="CN58" s="16"/>
       <c r="CO58" s="10"/>
       <c r="CP58" s="10"/>
       <c r="CQ58" s="10"/>
@@ -31845,7 +31891,7 @@
       <c r="ES58" s="10"/>
       <c r="ET58" s="10"/>
     </row>
-    <row r="59" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -32105,13 +32151,15 @@
         <v>18.982871416634282</v>
       </c>
       <c r="CI59" s="16">
-        <v>8.5250120504644542</v>
-      </c>
-      <c r="CJ59" s="16"/>
+        <v>10.618117588349605</v>
+      </c>
+      <c r="CJ59" s="16">
+        <v>20.097270779176384</v>
+      </c>
       <c r="CK59" s="16"/>
       <c r="CL59" s="16"/>
-      <c r="CM59" s="10"/>
-      <c r="CN59" s="10"/>
+      <c r="CM59" s="16"/>
+      <c r="CN59" s="16"/>
       <c r="CO59" s="10"/>
       <c r="CP59" s="10"/>
       <c r="CQ59" s="10"/>
@@ -32171,7 +32219,7 @@
       <c r="ES59" s="10"/>
       <c r="ET59" s="10"/>
     </row>
-    <row r="60" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -32431,13 +32479,15 @@
         <v>-2.3601717965031668</v>
       </c>
       <c r="CI60" s="16">
-        <v>-7.2754556414087261</v>
-      </c>
-      <c r="CJ60" s="16"/>
+        <v>-2.5262953794607768</v>
+      </c>
+      <c r="CJ60" s="16">
+        <v>2.6067324640863774</v>
+      </c>
       <c r="CK60" s="16"/>
       <c r="CL60" s="16"/>
-      <c r="CM60" s="10"/>
-      <c r="CN60" s="10"/>
+      <c r="CM60" s="16"/>
+      <c r="CN60" s="16"/>
       <c r="CO60" s="10"/>
       <c r="CP60" s="10"/>
       <c r="CQ60" s="10"/>
@@ -32497,7 +32547,7 @@
       <c r="ES60" s="10"/>
       <c r="ET60" s="10"/>
     </row>
-    <row r="61" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -32648,7 +32698,7 @@
       <c r="ES61" s="10"/>
       <c r="ET61" s="10"/>
     </row>
-    <row r="62" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>10</v>
       </c>
@@ -32908,13 +32958,15 @@
         <v>23.721074736691222</v>
       </c>
       <c r="CI62" s="16">
-        <v>32.15690038783427</v>
-      </c>
-      <c r="CJ62" s="16"/>
+        <v>32.597821964774596</v>
+      </c>
+      <c r="CJ62" s="16">
+        <v>38.979485103205604</v>
+      </c>
       <c r="CK62" s="16"/>
       <c r="CL62" s="16"/>
-      <c r="CM62" s="10"/>
-      <c r="CN62" s="10"/>
+      <c r="CM62" s="16"/>
+      <c r="CN62" s="16"/>
       <c r="CO62" s="10"/>
       <c r="CP62" s="10"/>
       <c r="CQ62" s="10"/>
@@ -32974,7 +33026,7 @@
       <c r="ES62" s="10"/>
       <c r="ET62" s="10"/>
     </row>
-    <row r="63" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -33066,13 +33118,14 @@
       <c r="CK63" s="13"/>
       <c r="CL63" s="13"/>
       <c r="CM63" s="13"/>
+      <c r="CN63" s="13"/>
     </row>
-    <row r="64" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -33223,7 +33276,7 @@
       <c r="ES65" s="10"/>
       <c r="ET65" s="10"/>
     </row>
-    <row r="66" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -33374,174 +33427,175 @@
       <c r="ES66" s="10"/>
       <c r="ET66" s="10"/>
     </row>
-    <row r="67" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="25" t="s">
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="25" t="s">
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="25" t="s">
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26"/>
-      <c r="R75" s="25" t="s">
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="S75" s="26"/>
-      <c r="T75" s="26"/>
-      <c r="U75" s="26"/>
-      <c r="V75" s="25" t="s">
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="W75" s="26"/>
-      <c r="X75" s="26"/>
-      <c r="Y75" s="26"/>
-      <c r="Z75" s="25" t="s">
+      <c r="W75" s="25"/>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA75" s="26"/>
-      <c r="AB75" s="26"/>
-      <c r="AC75" s="26"/>
-      <c r="AD75" s="25" t="s">
+      <c r="AA75" s="25"/>
+      <c r="AB75" s="25"/>
+      <c r="AC75" s="25"/>
+      <c r="AD75" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="26"/>
-      <c r="AF75" s="26"/>
-      <c r="AG75" s="26"/>
-      <c r="AH75" s="25" t="s">
+      <c r="AE75" s="25"/>
+      <c r="AF75" s="25"/>
+      <c r="AG75" s="25"/>
+      <c r="AH75" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="26"/>
-      <c r="AJ75" s="26"/>
-      <c r="AK75" s="26"/>
-      <c r="AL75" s="25" t="s">
+      <c r="AI75" s="25"/>
+      <c r="AJ75" s="25"/>
+      <c r="AK75" s="25"/>
+      <c r="AL75" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AM75" s="26"/>
-      <c r="AN75" s="26"/>
-      <c r="AO75" s="26"/>
-      <c r="AP75" s="25" t="s">
+      <c r="AM75" s="25"/>
+      <c r="AN75" s="25"/>
+      <c r="AO75" s="25"/>
+      <c r="AP75" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AQ75" s="26"/>
-      <c r="AR75" s="26"/>
-      <c r="AS75" s="26"/>
-      <c r="AT75" s="25" t="s">
+      <c r="AQ75" s="25"/>
+      <c r="AR75" s="25"/>
+      <c r="AS75" s="25"/>
+      <c r="AT75" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AU75" s="26"/>
-      <c r="AV75" s="26"/>
-      <c r="AW75" s="26"/>
-      <c r="AX75" s="25" t="s">
+      <c r="AU75" s="25"/>
+      <c r="AV75" s="25"/>
+      <c r="AW75" s="25"/>
+      <c r="AX75" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AY75" s="26"/>
-      <c r="AZ75" s="26"/>
-      <c r="BA75" s="26"/>
-      <c r="BB75" s="25" t="s">
+      <c r="AY75" s="25"/>
+      <c r="AZ75" s="25"/>
+      <c r="BA75" s="25"/>
+      <c r="BB75" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BC75" s="26"/>
-      <c r="BD75" s="26"/>
-      <c r="BE75" s="26"/>
-      <c r="BF75" s="25" t="s">
+      <c r="BC75" s="25"/>
+      <c r="BD75" s="25"/>
+      <c r="BE75" s="25"/>
+      <c r="BF75" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BG75" s="26"/>
-      <c r="BH75" s="26"/>
-      <c r="BI75" s="26"/>
-      <c r="BJ75" s="25" t="s">
+      <c r="BG75" s="25"/>
+      <c r="BH75" s="25"/>
+      <c r="BI75" s="25"/>
+      <c r="BJ75" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="BK75" s="26"/>
-      <c r="BL75" s="26"/>
-      <c r="BM75" s="26"/>
-      <c r="BN75" s="25" t="s">
+      <c r="BK75" s="25"/>
+      <c r="BL75" s="25"/>
+      <c r="BM75" s="25"/>
+      <c r="BN75" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="BO75" s="26"/>
-      <c r="BP75" s="26"/>
-      <c r="BQ75" s="26"/>
-      <c r="BR75" s="25" t="s">
+      <c r="BO75" s="25"/>
+      <c r="BP75" s="25"/>
+      <c r="BQ75" s="25"/>
+      <c r="BR75" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="BS75" s="26"/>
-      <c r="BT75" s="26"/>
-      <c r="BU75" s="26"/>
-      <c r="BV75" s="25" t="s">
+      <c r="BS75" s="25"/>
+      <c r="BT75" s="25"/>
+      <c r="BU75" s="25"/>
+      <c r="BV75" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="BW75" s="26"/>
-      <c r="BX75" s="26"/>
-      <c r="BY75" s="26"/>
-      <c r="BZ75" s="25" t="s">
+      <c r="BW75" s="25"/>
+      <c r="BX75" s="25"/>
+      <c r="BY75" s="25"/>
+      <c r="BZ75" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="26"/>
-      <c r="CB75" s="26"/>
-      <c r="CC75" s="26"/>
-      <c r="CD75" s="25" t="s">
+      <c r="CA75" s="25"/>
+      <c r="CB75" s="25"/>
+      <c r="CC75" s="25"/>
+      <c r="CD75" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="CE75" s="26"/>
-      <c r="CF75" s="26"/>
-      <c r="CG75" s="26"/>
-      <c r="CH75" s="25" t="s">
+      <c r="CE75" s="25"/>
+      <c r="CF75" s="25"/>
+      <c r="CG75" s="25"/>
+      <c r="CH75" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CI75" s="25"/>
+      <c r="CI75" s="23"/>
       <c r="CJ75" s="23"/>
-      <c r="CK75" s="23"/>
-      <c r="CL75" s="19"/>
-      <c r="CM75" s="19"/>
+      <c r="CK75" s="22"/>
+      <c r="CL75" s="23"/>
+      <c r="CM75" s="23"/>
+      <c r="CN75" s="22"/>
     </row>
-    <row r="76" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>16</v>
       </c>
@@ -33803,15 +33857,18 @@
       <c r="CI76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CJ76" s="6"/>
+      <c r="CJ76" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="CK76" s="6"/>
       <c r="CL76" s="6"/>
-      <c r="CM76" s="24"/>
+      <c r="CM76" s="6"/>
+      <c r="CN76" s="6"/>
     </row>
-    <row r="77" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
     </row>
-    <row r="78" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>15</v>
       </c>
@@ -34071,13 +34128,15 @@
         <v>17.234415959556927</v>
       </c>
       <c r="CI78" s="16">
-        <v>30.295741614998207</v>
-      </c>
-      <c r="CJ78" s="16"/>
+        <v>30.984982880423985</v>
+      </c>
+      <c r="CJ78" s="16">
+        <v>31.225575812187913</v>
+      </c>
       <c r="CK78" s="16"/>
       <c r="CL78" s="16"/>
-      <c r="CM78" s="10"/>
-      <c r="CN78" s="10"/>
+      <c r="CM78" s="16"/>
+      <c r="CN78" s="16"/>
       <c r="CO78" s="10"/>
       <c r="CP78" s="10"/>
       <c r="CQ78" s="10"/>
@@ -34137,7 +34196,7 @@
       <c r="ES78" s="10"/>
       <c r="ET78" s="10"/>
     </row>
-    <row r="79" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
@@ -34397,13 +34456,15 @@
         <v>34.230503394527545</v>
       </c>
       <c r="CI79" s="16">
-        <v>3.6753912820452115</v>
-      </c>
-      <c r="CJ79" s="16"/>
+        <v>12.450204222330299</v>
+      </c>
+      <c r="CJ79" s="16">
+        <v>-0.10214731322054149</v>
+      </c>
       <c r="CK79" s="16"/>
       <c r="CL79" s="16"/>
-      <c r="CM79" s="10"/>
-      <c r="CN79" s="10"/>
+      <c r="CM79" s="16"/>
+      <c r="CN79" s="16"/>
       <c r="CO79" s="10"/>
       <c r="CP79" s="10"/>
       <c r="CQ79" s="10"/>
@@ -34463,7 +34524,7 @@
       <c r="ES79" s="10"/>
       <c r="ET79" s="10"/>
     </row>
-    <row r="80" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -34723,13 +34784,15 @@
         <v>163.86943518728094</v>
       </c>
       <c r="CI80" s="16">
-        <v>393.83708019967651</v>
-      </c>
-      <c r="CJ80" s="16"/>
+        <v>348.67143550782254</v>
+      </c>
+      <c r="CJ80" s="16">
+        <v>130.1875919134425</v>
+      </c>
       <c r="CK80" s="16"/>
       <c r="CL80" s="16"/>
-      <c r="CM80" s="10"/>
-      <c r="CN80" s="10"/>
+      <c r="CM80" s="16"/>
+      <c r="CN80" s="16"/>
       <c r="CO80" s="10"/>
       <c r="CP80" s="10"/>
       <c r="CQ80" s="10"/>
@@ -34789,7 +34852,7 @@
       <c r="ES80" s="10"/>
       <c r="ET80" s="10"/>
     </row>
-    <row r="81" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -35049,13 +35112,15 @@
         <v>23.340455046413751</v>
       </c>
       <c r="CI81" s="16">
-        <v>-0.16912765303030142</v>
-      </c>
-      <c r="CJ81" s="16"/>
+        <v>1.7562953237871</v>
+      </c>
+      <c r="CJ81" s="16">
+        <v>2.5622286643743166</v>
+      </c>
       <c r="CK81" s="16"/>
       <c r="CL81" s="16"/>
-      <c r="CM81" s="10"/>
-      <c r="CN81" s="10"/>
+      <c r="CM81" s="16"/>
+      <c r="CN81" s="16"/>
       <c r="CO81" s="10"/>
       <c r="CP81" s="10"/>
       <c r="CQ81" s="10"/>
@@ -35115,7 +35180,7 @@
       <c r="ES81" s="10"/>
       <c r="ET81" s="10"/>
     </row>
-    <row r="82" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -35375,13 +35440,15 @@
         <v>-2.457714082420722</v>
       </c>
       <c r="CI82" s="16">
-        <v>-7.4524108787343124</v>
-      </c>
-      <c r="CJ82" s="16"/>
+        <v>-2.7123138997289402</v>
+      </c>
+      <c r="CJ82" s="16">
+        <v>2.3785001389358058</v>
+      </c>
       <c r="CK82" s="16"/>
       <c r="CL82" s="16"/>
-      <c r="CM82" s="10"/>
-      <c r="CN82" s="10"/>
+      <c r="CM82" s="16"/>
+      <c r="CN82" s="16"/>
       <c r="CO82" s="10"/>
       <c r="CP82" s="10"/>
       <c r="CQ82" s="10"/>
@@ -35441,7 +35508,7 @@
       <c r="ES82" s="10"/>
       <c r="ET82" s="10"/>
     </row>
-    <row r="83" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -35592,7 +35659,7 @@
       <c r="ES83" s="10"/>
       <c r="ET83" s="10"/>
     </row>
-    <row r="84" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>10</v>
       </c>
@@ -35852,13 +35919,15 @@
         <v>26.280112408659392</v>
       </c>
       <c r="CI84" s="16">
-        <v>27.100694374763705</v>
-      </c>
-      <c r="CJ84" s="16"/>
+        <v>27.409596903568172</v>
+      </c>
+      <c r="CJ84" s="16">
+        <v>24.312685218799061</v>
+      </c>
       <c r="CK84" s="16"/>
       <c r="CL84" s="16"/>
-      <c r="CM84" s="10"/>
-      <c r="CN84" s="10"/>
+      <c r="CM84" s="16"/>
+      <c r="CN84" s="16"/>
       <c r="CO84" s="10"/>
       <c r="CP84" s="10"/>
       <c r="CQ84" s="10"/>
@@ -35918,7 +35987,7 @@
       <c r="ES84" s="10"/>
       <c r="ET84" s="10"/>
     </row>
-    <row r="85" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -36010,13 +36079,14 @@
       <c r="CK85" s="13"/>
       <c r="CL85" s="13"/>
       <c r="CM85" s="13"/>
+      <c r="CN85" s="13"/>
     </row>
-    <row r="86" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -36167,7 +36237,7 @@
       <c r="ES87" s="10"/>
       <c r="ET87" s="10"/>
     </row>
-    <row r="88" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -36318,171 +36388,172 @@
       <c r="ES88" s="10"/>
       <c r="ET88" s="10"/>
     </row>
-    <row r="89" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="25">
+      <c r="B96" s="23">
         <v>2000</v>
       </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="25">
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="23">
         <v>2001</v>
       </c>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="25">
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="23">
         <v>2002</v>
       </c>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="25">
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="23">
         <v>2003</v>
       </c>
-      <c r="O96" s="27"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="27"/>
-      <c r="R96" s="25">
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="23">
         <v>2004</v>
       </c>
-      <c r="S96" s="27"/>
-      <c r="T96" s="27"/>
-      <c r="U96" s="27"/>
-      <c r="V96" s="25">
+      <c r="S96" s="24"/>
+      <c r="T96" s="24"/>
+      <c r="U96" s="24"/>
+      <c r="V96" s="23">
         <v>2005</v>
       </c>
-      <c r="W96" s="27"/>
-      <c r="X96" s="27"/>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="25">
+      <c r="W96" s="24"/>
+      <c r="X96" s="24"/>
+      <c r="Y96" s="24"/>
+      <c r="Z96" s="23">
         <v>2006</v>
       </c>
-      <c r="AA96" s="27"/>
-      <c r="AB96" s="27"/>
-      <c r="AC96" s="27"/>
-      <c r="AD96" s="25">
+      <c r="AA96" s="24"/>
+      <c r="AB96" s="24"/>
+      <c r="AC96" s="24"/>
+      <c r="AD96" s="23">
         <v>2007</v>
       </c>
-      <c r="AE96" s="27"/>
-      <c r="AF96" s="27"/>
-      <c r="AG96" s="27"/>
-      <c r="AH96" s="25">
+      <c r="AE96" s="24"/>
+      <c r="AF96" s="24"/>
+      <c r="AG96" s="24"/>
+      <c r="AH96" s="23">
         <v>2008</v>
       </c>
-      <c r="AI96" s="27"/>
-      <c r="AJ96" s="27"/>
-      <c r="AK96" s="27"/>
-      <c r="AL96" s="25">
+      <c r="AI96" s="24"/>
+      <c r="AJ96" s="24"/>
+      <c r="AK96" s="24"/>
+      <c r="AL96" s="23">
         <v>2009</v>
       </c>
-      <c r="AM96" s="27"/>
-      <c r="AN96" s="27"/>
-      <c r="AO96" s="27"/>
-      <c r="AP96" s="25">
+      <c r="AM96" s="24"/>
+      <c r="AN96" s="24"/>
+      <c r="AO96" s="24"/>
+      <c r="AP96" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="27"/>
-      <c r="AR96" s="27"/>
-      <c r="AS96" s="27"/>
-      <c r="AT96" s="25">
+      <c r="AQ96" s="24"/>
+      <c r="AR96" s="24"/>
+      <c r="AS96" s="24"/>
+      <c r="AT96" s="23">
         <v>2011</v>
       </c>
-      <c r="AU96" s="27"/>
-      <c r="AV96" s="27"/>
-      <c r="AW96" s="27"/>
-      <c r="AX96" s="25">
+      <c r="AU96" s="24"/>
+      <c r="AV96" s="24"/>
+      <c r="AW96" s="24"/>
+      <c r="AX96" s="23">
         <v>2012</v>
       </c>
-      <c r="AY96" s="27"/>
-      <c r="AZ96" s="27"/>
-      <c r="BA96" s="27"/>
-      <c r="BB96" s="25">
+      <c r="AY96" s="24"/>
+      <c r="AZ96" s="24"/>
+      <c r="BA96" s="24"/>
+      <c r="BB96" s="23">
         <v>2013</v>
       </c>
-      <c r="BC96" s="27"/>
-      <c r="BD96" s="27"/>
-      <c r="BE96" s="27"/>
-      <c r="BF96" s="25">
+      <c r="BC96" s="24"/>
+      <c r="BD96" s="24"/>
+      <c r="BE96" s="24"/>
+      <c r="BF96" s="23">
         <v>2014</v>
       </c>
-      <c r="BG96" s="27"/>
-      <c r="BH96" s="27"/>
-      <c r="BI96" s="27"/>
-      <c r="BJ96" s="25">
+      <c r="BG96" s="24"/>
+      <c r="BH96" s="24"/>
+      <c r="BI96" s="24"/>
+      <c r="BJ96" s="23">
         <v>2015</v>
       </c>
-      <c r="BK96" s="27"/>
-      <c r="BL96" s="27"/>
-      <c r="BM96" s="27"/>
-      <c r="BN96" s="25">
+      <c r="BK96" s="24"/>
+      <c r="BL96" s="24"/>
+      <c r="BM96" s="24"/>
+      <c r="BN96" s="23">
         <v>2016</v>
       </c>
-      <c r="BO96" s="27"/>
-      <c r="BP96" s="27"/>
-      <c r="BQ96" s="27"/>
-      <c r="BR96" s="25">
+      <c r="BO96" s="24"/>
+      <c r="BP96" s="24"/>
+      <c r="BQ96" s="24"/>
+      <c r="BR96" s="23">
         <v>2017</v>
       </c>
-      <c r="BS96" s="27"/>
-      <c r="BT96" s="27"/>
-      <c r="BU96" s="27"/>
-      <c r="BV96" s="25">
+      <c r="BS96" s="24"/>
+      <c r="BT96" s="24"/>
+      <c r="BU96" s="24"/>
+      <c r="BV96" s="23">
         <v>2018</v>
       </c>
-      <c r="BW96" s="27"/>
-      <c r="BX96" s="27"/>
-      <c r="BY96" s="27"/>
-      <c r="BZ96" s="25">
+      <c r="BW96" s="24"/>
+      <c r="BX96" s="24"/>
+      <c r="BY96" s="24"/>
+      <c r="BZ96" s="23">
         <v>2019</v>
       </c>
-      <c r="CA96" s="27"/>
-      <c r="CB96" s="27"/>
-      <c r="CC96" s="27"/>
-      <c r="CD96" s="25">
+      <c r="CA96" s="24"/>
+      <c r="CB96" s="24"/>
+      <c r="CC96" s="24"/>
+      <c r="CD96" s="23">
         <v>2020</v>
       </c>
-      <c r="CE96" s="27"/>
-      <c r="CF96" s="27"/>
-      <c r="CG96" s="27"/>
-      <c r="CH96" s="25">
+      <c r="CE96" s="24"/>
+      <c r="CF96" s="24"/>
+      <c r="CG96" s="24"/>
+      <c r="CH96" s="23">
         <v>2021</v>
       </c>
-      <c r="CI96" s="25"/>
-      <c r="CJ96" s="25"/>
-      <c r="CK96" s="25"/>
-      <c r="CL96" s="25">
+      <c r="CI96" s="23"/>
+      <c r="CJ96" s="23"/>
+      <c r="CK96" s="23"/>
+      <c r="CL96" s="23">
         <v>2022</v>
       </c>
-      <c r="CM96" s="25"/>
+      <c r="CM96" s="23"/>
+      <c r="CN96" s="23"/>
     </row>
-    <row r="97" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>16</v>
       </c>
@@ -36756,11 +36827,14 @@
       <c r="CM97" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CN97" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="98" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
     </row>
-    <row r="99" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>15</v>
       </c>
@@ -37032,9 +37106,11 @@
         <v>111.44039659485239</v>
       </c>
       <c r="CM99" s="16">
-        <v>128.28665890876536</v>
-      </c>
-      <c r="CN99" s="10"/>
+        <v>128.28665890876533</v>
+      </c>
+      <c r="CN99" s="16">
+        <v>139.31231418081754</v>
+      </c>
       <c r="CO99" s="10"/>
       <c r="CP99" s="10"/>
       <c r="CQ99" s="10"/>
@@ -37098,7 +37174,7 @@
       <c r="EW99" s="10"/>
       <c r="EX99" s="10"/>
     </row>
-    <row r="100" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>14</v>
       </c>
@@ -37370,9 +37446,11 @@
         <v>103.40005983270466</v>
       </c>
       <c r="CM100" s="16">
-        <v>105.68793132655081</v>
-      </c>
-      <c r="CN100" s="10"/>
+        <v>105.68793132655084</v>
+      </c>
+      <c r="CN100" s="16">
+        <v>145.52041346807815</v>
+      </c>
       <c r="CO100" s="10"/>
       <c r="CP100" s="10"/>
       <c r="CQ100" s="10"/>
@@ -37436,7 +37514,7 @@
       <c r="EW100" s="10"/>
       <c r="EX100" s="10"/>
     </row>
-    <row r="101" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>13</v>
       </c>
@@ -37708,9 +37786,11 @@
         <v>90.144563382725522</v>
       </c>
       <c r="CM101" s="16">
-        <v>104.91420841713483</v>
-      </c>
-      <c r="CN101" s="10"/>
+        <v>104.91420841713482</v>
+      </c>
+      <c r="CN101" s="16">
+        <v>126.23217321504224</v>
+      </c>
       <c r="CO101" s="10"/>
       <c r="CP101" s="10"/>
       <c r="CQ101" s="10"/>
@@ -37774,7 +37854,7 @@
       <c r="EW101" s="10"/>
       <c r="EX101" s="10"/>
     </row>
-    <row r="102" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
@@ -38046,9 +38126,11 @@
         <v>97.244644640328815</v>
       </c>
       <c r="CM102" s="16">
-        <v>120.58121264491757</v>
-      </c>
-      <c r="CN102" s="10"/>
+        <v>120.58121264491754</v>
+      </c>
+      <c r="CN102" s="16">
+        <v>114.83900865274465</v>
+      </c>
       <c r="CO102" s="10"/>
       <c r="CP102" s="10"/>
       <c r="CQ102" s="10"/>
@@ -38112,7 +38194,7 @@
       <c r="EW102" s="10"/>
       <c r="EX102" s="10"/>
     </row>
-    <row r="103" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -38384,9 +38466,11 @@
         <v>101.17588159218454</v>
       </c>
       <c r="CM103" s="16">
-        <v>104.16644740118026</v>
-      </c>
-      <c r="CN103" s="10"/>
+        <v>104.16644740118019</v>
+      </c>
+      <c r="CN103" s="16">
+        <v>103.91686246986633</v>
+      </c>
       <c r="CO103" s="10"/>
       <c r="CP103" s="10"/>
       <c r="CQ103" s="10"/>
@@ -38450,7 +38534,7 @@
       <c r="EW103" s="10"/>
       <c r="EX103" s="10"/>
     </row>
-    <row r="104" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -38605,7 +38689,7 @@
       <c r="EW104" s="10"/>
       <c r="EX104" s="10"/>
     </row>
-    <row r="105" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>10</v>
       </c>
@@ -38877,9 +38961,11 @@
         <v>104.06744976342701</v>
       </c>
       <c r="CM105" s="16">
-        <v>120.57742277145674</v>
-      </c>
-      <c r="CN105" s="10"/>
+        <v>120.68639779307853</v>
+      </c>
+      <c r="CN105" s="16">
+        <v>129.82604853224458</v>
+      </c>
       <c r="CO105" s="10"/>
       <c r="CP105" s="10"/>
       <c r="CQ105" s="10"/>
@@ -38943,7 +39029,7 @@
       <c r="EW105" s="10"/>
       <c r="EX105" s="10"/>
     </row>
-    <row r="106" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -39035,182 +39121,184 @@
       <c r="CK106" s="13"/>
       <c r="CL106" s="13"/>
       <c r="CM106" s="13"/>
+      <c r="CN106" s="13"/>
     </row>
-    <row r="107" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="25">
+      <c r="B118" s="23">
         <v>2000</v>
       </c>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="25">
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="23">
         <v>2001</v>
       </c>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="25">
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="23">
         <v>2002</v>
       </c>
-      <c r="K118" s="27"/>
-      <c r="L118" s="27"/>
-      <c r="M118" s="27"/>
-      <c r="N118" s="25">
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="23">
         <v>2003</v>
       </c>
-      <c r="O118" s="27"/>
-      <c r="P118" s="27"/>
-      <c r="Q118" s="27"/>
-      <c r="R118" s="25">
+      <c r="O118" s="24"/>
+      <c r="P118" s="24"/>
+      <c r="Q118" s="24"/>
+      <c r="R118" s="23">
         <v>2004</v>
       </c>
-      <c r="S118" s="27"/>
-      <c r="T118" s="27"/>
-      <c r="U118" s="27"/>
-      <c r="V118" s="25">
+      <c r="S118" s="24"/>
+      <c r="T118" s="24"/>
+      <c r="U118" s="24"/>
+      <c r="V118" s="23">
         <v>2005</v>
       </c>
-      <c r="W118" s="27"/>
-      <c r="X118" s="27"/>
-      <c r="Y118" s="27"/>
-      <c r="Z118" s="25">
+      <c r="W118" s="24"/>
+      <c r="X118" s="24"/>
+      <c r="Y118" s="24"/>
+      <c r="Z118" s="23">
         <v>2006</v>
       </c>
-      <c r="AA118" s="27"/>
-      <c r="AB118" s="27"/>
-      <c r="AC118" s="27"/>
-      <c r="AD118" s="25">
+      <c r="AA118" s="24"/>
+      <c r="AB118" s="24"/>
+      <c r="AC118" s="24"/>
+      <c r="AD118" s="23">
         <v>2007</v>
       </c>
-      <c r="AE118" s="27"/>
-      <c r="AF118" s="27"/>
-      <c r="AG118" s="27"/>
-      <c r="AH118" s="25">
+      <c r="AE118" s="24"/>
+      <c r="AF118" s="24"/>
+      <c r="AG118" s="24"/>
+      <c r="AH118" s="23">
         <v>2008</v>
       </c>
-      <c r="AI118" s="27"/>
-      <c r="AJ118" s="27"/>
-      <c r="AK118" s="27"/>
-      <c r="AL118" s="25">
+      <c r="AI118" s="24"/>
+      <c r="AJ118" s="24"/>
+      <c r="AK118" s="24"/>
+      <c r="AL118" s="23">
         <v>2009</v>
       </c>
-      <c r="AM118" s="27"/>
-      <c r="AN118" s="27"/>
-      <c r="AO118" s="27"/>
-      <c r="AP118" s="25">
+      <c r="AM118" s="24"/>
+      <c r="AN118" s="24"/>
+      <c r="AO118" s="24"/>
+      <c r="AP118" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="27"/>
-      <c r="AR118" s="27"/>
-      <c r="AS118" s="27"/>
-      <c r="AT118" s="25">
+      <c r="AQ118" s="24"/>
+      <c r="AR118" s="24"/>
+      <c r="AS118" s="24"/>
+      <c r="AT118" s="23">
         <v>2011</v>
       </c>
-      <c r="AU118" s="27"/>
-      <c r="AV118" s="27"/>
-      <c r="AW118" s="27"/>
-      <c r="AX118" s="25">
+      <c r="AU118" s="24"/>
+      <c r="AV118" s="24"/>
+      <c r="AW118" s="24"/>
+      <c r="AX118" s="23">
         <v>2012</v>
       </c>
-      <c r="AY118" s="27"/>
-      <c r="AZ118" s="27"/>
-      <c r="BA118" s="27"/>
-      <c r="BB118" s="25">
+      <c r="AY118" s="24"/>
+      <c r="AZ118" s="24"/>
+      <c r="BA118" s="24"/>
+      <c r="BB118" s="23">
         <v>2013</v>
       </c>
-      <c r="BC118" s="27"/>
-      <c r="BD118" s="27"/>
-      <c r="BE118" s="27"/>
-      <c r="BF118" s="25">
+      <c r="BC118" s="24"/>
+      <c r="BD118" s="24"/>
+      <c r="BE118" s="24"/>
+      <c r="BF118" s="23">
         <v>2014</v>
       </c>
-      <c r="BG118" s="27"/>
-      <c r="BH118" s="27"/>
-      <c r="BI118" s="27"/>
-      <c r="BJ118" s="25">
+      <c r="BG118" s="24"/>
+      <c r="BH118" s="24"/>
+      <c r="BI118" s="24"/>
+      <c r="BJ118" s="23">
         <v>2015</v>
       </c>
-      <c r="BK118" s="27"/>
-      <c r="BL118" s="27"/>
-      <c r="BM118" s="27"/>
-      <c r="BN118" s="25">
+      <c r="BK118" s="24"/>
+      <c r="BL118" s="24"/>
+      <c r="BM118" s="24"/>
+      <c r="BN118" s="23">
         <v>2016</v>
       </c>
-      <c r="BO118" s="27"/>
-      <c r="BP118" s="27"/>
-      <c r="BQ118" s="27"/>
-      <c r="BR118" s="25">
+      <c r="BO118" s="24"/>
+      <c r="BP118" s="24"/>
+      <c r="BQ118" s="24"/>
+      <c r="BR118" s="23">
         <v>2017</v>
       </c>
-      <c r="BS118" s="27"/>
-      <c r="BT118" s="27"/>
-      <c r="BU118" s="27"/>
-      <c r="BV118" s="25">
+      <c r="BS118" s="24"/>
+      <c r="BT118" s="24"/>
+      <c r="BU118" s="24"/>
+      <c r="BV118" s="23">
         <v>2018</v>
       </c>
-      <c r="BW118" s="27"/>
-      <c r="BX118" s="27"/>
-      <c r="BY118" s="27"/>
-      <c r="BZ118" s="25">
+      <c r="BW118" s="24"/>
+      <c r="BX118" s="24"/>
+      <c r="BY118" s="24"/>
+      <c r="BZ118" s="23">
         <v>2019</v>
       </c>
-      <c r="CA118" s="27"/>
-      <c r="CB118" s="27"/>
-      <c r="CC118" s="27"/>
-      <c r="CD118" s="25">
+      <c r="CA118" s="24"/>
+      <c r="CB118" s="24"/>
+      <c r="CC118" s="24"/>
+      <c r="CD118" s="23">
         <v>2020</v>
       </c>
-      <c r="CE118" s="27"/>
-      <c r="CF118" s="27"/>
-      <c r="CG118" s="27"/>
-      <c r="CH118" s="25">
+      <c r="CE118" s="24"/>
+      <c r="CF118" s="24"/>
+      <c r="CG118" s="24"/>
+      <c r="CH118" s="23">
         <v>2021</v>
       </c>
-      <c r="CI118" s="25"/>
-      <c r="CJ118" s="25"/>
-      <c r="CK118" s="25"/>
-      <c r="CL118" s="25">
+      <c r="CI118" s="23"/>
+      <c r="CJ118" s="23"/>
+      <c r="CK118" s="23"/>
+      <c r="CL118" s="23">
         <v>2022</v>
       </c>
-      <c r="CM118" s="25"/>
+      <c r="CM118" s="23"/>
+      <c r="CN118" s="23"/>
     </row>
-    <row r="119" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>16</v>
       </c>
@@ -39484,11 +39572,14 @@
       <c r="CM119" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CN119" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="120" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
     </row>
-    <row r="121" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>15</v>
       </c>
@@ -39760,9 +39851,11 @@
         <v>53.499995023966875</v>
       </c>
       <c r="CM121" s="16">
-        <v>50.569347044809341</v>
-      </c>
-      <c r="CN121" s="10"/>
+        <v>50.667804391744497</v>
+      </c>
+      <c r="CN121" s="16">
+        <v>57.965873976792452</v>
+      </c>
       <c r="CO121" s="10"/>
       <c r="CP121" s="10"/>
       <c r="CQ121" s="10"/>
@@ -39826,7 +39919,7 @@
       <c r="EW121" s="10"/>
       <c r="EX121" s="10"/>
     </row>
-    <row r="122" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>14</v>
       </c>
@@ -40098,9 +40191,11 @@
         <v>5.0706854232262843</v>
       </c>
       <c r="CM122" s="16">
-        <v>3.6387695455378322</v>
-      </c>
-      <c r="CN122" s="10"/>
+        <v>3.9336215118278934</v>
+      </c>
+      <c r="CN122" s="16">
+        <v>3.7166541842819409</v>
+      </c>
       <c r="CO122" s="10"/>
       <c r="CP122" s="10"/>
       <c r="CQ122" s="10"/>
@@ -40164,7 +40259,7 @@
       <c r="EW122" s="10"/>
       <c r="EX122" s="10"/>
     </row>
-    <row r="123" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
@@ -40436,9 +40531,11 @@
         <v>9.3060307098646096</v>
       </c>
       <c r="CM123" s="16">
-        <v>11.611203163824507</v>
-      </c>
-      <c r="CN123" s="10"/>
+        <v>10.514179879261384</v>
+      </c>
+      <c r="CN123" s="16">
+        <v>10.159194919343479</v>
+      </c>
       <c r="CO123" s="10"/>
       <c r="CP123" s="10"/>
       <c r="CQ123" s="10"/>
@@ -40502,7 +40599,7 @@
       <c r="EW123" s="10"/>
       <c r="EX123" s="10"/>
     </row>
-    <row r="124" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>12</v>
       </c>
@@ -40774,9 +40871,11 @@
         <v>27.691594480527133</v>
       </c>
       <c r="CM124" s="16">
-        <v>29.142867265691336</v>
-      </c>
-      <c r="CN124" s="10"/>
+        <v>29.606164844637444</v>
+      </c>
+      <c r="CN124" s="16">
+        <v>24.927245341754496</v>
+      </c>
       <c r="CO124" s="10"/>
       <c r="CP124" s="10"/>
       <c r="CQ124" s="10"/>
@@ -40840,7 +40939,7 @@
       <c r="EW124" s="10"/>
       <c r="EX124" s="10"/>
     </row>
-    <row r="125" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
@@ -41112,9 +41211,11 @@
         <v>4.4316943624151017</v>
       </c>
       <c r="CM125" s="16">
-        <v>5.0378129801369784</v>
-      </c>
-      <c r="CN125" s="10"/>
+        <v>5.2782293725288012</v>
+      </c>
+      <c r="CN125" s="16">
+        <v>3.2310315778276468</v>
+      </c>
       <c r="CO125" s="10"/>
       <c r="CP125" s="10"/>
       <c r="CQ125" s="10"/>
@@ -41178,7 +41279,7 @@
       <c r="EW125" s="10"/>
       <c r="EX125" s="10"/>
     </row>
-    <row r="126" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
@@ -41333,7 +41434,7 @@
       <c r="EW126" s="10"/>
       <c r="EX126" s="10"/>
     </row>
-    <row r="127" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>10</v>
       </c>
@@ -41607,7 +41708,9 @@
       <c r="CM127" s="16">
         <v>100</v>
       </c>
-      <c r="CN127" s="10"/>
+      <c r="CN127" s="16">
+        <v>100</v>
+      </c>
       <c r="CO127" s="10"/>
       <c r="CP127" s="10"/>
       <c r="CQ127" s="10"/>
@@ -41671,7 +41774,7 @@
       <c r="EW127" s="10"/>
       <c r="EX127" s="10"/>
     </row>
-    <row r="128" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -41763,13 +41866,14 @@
       <c r="CK128" s="13"/>
       <c r="CL128" s="13"/>
       <c r="CM128" s="13"/>
+      <c r="CN128" s="13"/>
     </row>
-    <row r="129" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -41924,7 +42028,7 @@
       <c r="EW130" s="10"/>
       <c r="EX130" s="10"/>
     </row>
-    <row r="131" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
@@ -42079,176 +42183,177 @@
       <c r="EW131" s="10"/>
       <c r="EX131" s="10"/>
     </row>
-    <row r="132" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="25">
+      <c r="B140" s="23">
         <v>2000</v>
       </c>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="25">
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="23">
         <v>2001</v>
       </c>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="25">
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="23">
         <v>2002</v>
       </c>
-      <c r="K140" s="27"/>
-      <c r="L140" s="27"/>
-      <c r="M140" s="27"/>
-      <c r="N140" s="25">
+      <c r="K140" s="24"/>
+      <c r="L140" s="24"/>
+      <c r="M140" s="24"/>
+      <c r="N140" s="23">
         <v>2003</v>
       </c>
-      <c r="O140" s="27"/>
-      <c r="P140" s="27"/>
-      <c r="Q140" s="27"/>
-      <c r="R140" s="25">
+      <c r="O140" s="24"/>
+      <c r="P140" s="24"/>
+      <c r="Q140" s="24"/>
+      <c r="R140" s="23">
         <v>2004</v>
       </c>
-      <c r="S140" s="27"/>
-      <c r="T140" s="27"/>
-      <c r="U140" s="27"/>
-      <c r="V140" s="25">
+      <c r="S140" s="24"/>
+      <c r="T140" s="24"/>
+      <c r="U140" s="24"/>
+      <c r="V140" s="23">
         <v>2005</v>
       </c>
-      <c r="W140" s="27"/>
-      <c r="X140" s="27"/>
-      <c r="Y140" s="27"/>
-      <c r="Z140" s="25">
+      <c r="W140" s="24"/>
+      <c r="X140" s="24"/>
+      <c r="Y140" s="24"/>
+      <c r="Z140" s="23">
         <v>2006</v>
       </c>
-      <c r="AA140" s="27"/>
-      <c r="AB140" s="27"/>
-      <c r="AC140" s="27"/>
-      <c r="AD140" s="25">
+      <c r="AA140" s="24"/>
+      <c r="AB140" s="24"/>
+      <c r="AC140" s="24"/>
+      <c r="AD140" s="23">
         <v>2007</v>
       </c>
-      <c r="AE140" s="27"/>
-      <c r="AF140" s="27"/>
-      <c r="AG140" s="27"/>
-      <c r="AH140" s="25">
+      <c r="AE140" s="24"/>
+      <c r="AF140" s="24"/>
+      <c r="AG140" s="24"/>
+      <c r="AH140" s="23">
         <v>2008</v>
       </c>
-      <c r="AI140" s="27"/>
-      <c r="AJ140" s="27"/>
-      <c r="AK140" s="27"/>
-      <c r="AL140" s="25">
+      <c r="AI140" s="24"/>
+      <c r="AJ140" s="24"/>
+      <c r="AK140" s="24"/>
+      <c r="AL140" s="23">
         <v>2009</v>
       </c>
-      <c r="AM140" s="27"/>
-      <c r="AN140" s="27"/>
-      <c r="AO140" s="27"/>
-      <c r="AP140" s="25">
+      <c r="AM140" s="24"/>
+      <c r="AN140" s="24"/>
+      <c r="AO140" s="24"/>
+      <c r="AP140" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="27"/>
-      <c r="AR140" s="27"/>
-      <c r="AS140" s="27"/>
-      <c r="AT140" s="25">
+      <c r="AQ140" s="24"/>
+      <c r="AR140" s="24"/>
+      <c r="AS140" s="24"/>
+      <c r="AT140" s="23">
         <v>2011</v>
       </c>
-      <c r="AU140" s="27"/>
-      <c r="AV140" s="27"/>
-      <c r="AW140" s="27"/>
-      <c r="AX140" s="25">
+      <c r="AU140" s="24"/>
+      <c r="AV140" s="24"/>
+      <c r="AW140" s="24"/>
+      <c r="AX140" s="23">
         <v>2012</v>
       </c>
-      <c r="AY140" s="27"/>
-      <c r="AZ140" s="27"/>
-      <c r="BA140" s="27"/>
-      <c r="BB140" s="25">
+      <c r="AY140" s="24"/>
+      <c r="AZ140" s="24"/>
+      <c r="BA140" s="24"/>
+      <c r="BB140" s="23">
         <v>2013</v>
       </c>
-      <c r="BC140" s="27"/>
-      <c r="BD140" s="27"/>
-      <c r="BE140" s="27"/>
-      <c r="BF140" s="25">
+      <c r="BC140" s="24"/>
+      <c r="BD140" s="24"/>
+      <c r="BE140" s="24"/>
+      <c r="BF140" s="23">
         <v>2014</v>
       </c>
-      <c r="BG140" s="27"/>
-      <c r="BH140" s="27"/>
-      <c r="BI140" s="27"/>
-      <c r="BJ140" s="25">
+      <c r="BG140" s="24"/>
+      <c r="BH140" s="24"/>
+      <c r="BI140" s="24"/>
+      <c r="BJ140" s="23">
         <v>2015</v>
       </c>
-      <c r="BK140" s="27"/>
-      <c r="BL140" s="27"/>
-      <c r="BM140" s="27"/>
-      <c r="BN140" s="25">
+      <c r="BK140" s="24"/>
+      <c r="BL140" s="24"/>
+      <c r="BM140" s="24"/>
+      <c r="BN140" s="23">
         <v>2016</v>
       </c>
-      <c r="BO140" s="27"/>
-      <c r="BP140" s="27"/>
-      <c r="BQ140" s="27"/>
-      <c r="BR140" s="25">
+      <c r="BO140" s="24"/>
+      <c r="BP140" s="24"/>
+      <c r="BQ140" s="24"/>
+      <c r="BR140" s="23">
         <v>2017</v>
       </c>
-      <c r="BS140" s="27"/>
-      <c r="BT140" s="27"/>
-      <c r="BU140" s="27"/>
-      <c r="BV140" s="25">
+      <c r="BS140" s="24"/>
+      <c r="BT140" s="24"/>
+      <c r="BU140" s="24"/>
+      <c r="BV140" s="23">
         <v>2018</v>
       </c>
-      <c r="BW140" s="27"/>
-      <c r="BX140" s="27"/>
-      <c r="BY140" s="27"/>
-      <c r="BZ140" s="25">
+      <c r="BW140" s="24"/>
+      <c r="BX140" s="24"/>
+      <c r="BY140" s="24"/>
+      <c r="BZ140" s="23">
         <v>2019</v>
       </c>
-      <c r="CA140" s="27"/>
-      <c r="CB140" s="27"/>
-      <c r="CC140" s="27"/>
-      <c r="CD140" s="25">
+      <c r="CA140" s="24"/>
+      <c r="CB140" s="24"/>
+      <c r="CC140" s="24"/>
+      <c r="CD140" s="23">
         <v>2020</v>
       </c>
-      <c r="CE140" s="27"/>
-      <c r="CF140" s="27"/>
-      <c r="CG140" s="27"/>
-      <c r="CH140" s="25">
+      <c r="CE140" s="24"/>
+      <c r="CF140" s="24"/>
+      <c r="CG140" s="24"/>
+      <c r="CH140" s="23">
         <v>2021</v>
       </c>
-      <c r="CI140" s="25"/>
-      <c r="CJ140" s="25"/>
-      <c r="CK140" s="25"/>
-      <c r="CL140" s="25">
+      <c r="CI140" s="23"/>
+      <c r="CJ140" s="23"/>
+      <c r="CK140" s="23"/>
+      <c r="CL140" s="23">
         <v>2022</v>
       </c>
-      <c r="CM140" s="25"/>
+      <c r="CM140" s="23"/>
+      <c r="CN140" s="23"/>
     </row>
-    <row r="141" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>16</v>
       </c>
@@ -42522,11 +42627,14 @@
       <c r="CM141" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CN141" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="142" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
     </row>
-    <row r="143" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>15</v>
       </c>
@@ -42798,9 +42906,11 @@
         <v>49.960411256804917</v>
       </c>
       <c r="CM143" s="16">
-        <v>47.530441510951775</v>
-      </c>
-      <c r="CN143" s="10"/>
+        <v>47.666022703676155</v>
+      </c>
+      <c r="CN143" s="16">
+        <v>54.018773662445142</v>
+      </c>
       <c r="CO143" s="10"/>
       <c r="CP143" s="10"/>
       <c r="CQ143" s="10"/>
@@ -42864,7 +42974,7 @@
       <c r="EW143" s="10"/>
       <c r="EX143" s="10"/>
     </row>
-    <row r="144" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>14</v>
       </c>
@@ -43136,9 +43246,11 @@
         <v>5.103413880045335</v>
       </c>
       <c r="CM144" s="16">
-        <v>4.1514054476529765</v>
-      </c>
-      <c r="CN144" s="10"/>
+        <v>4.4918526134933412</v>
+      </c>
+      <c r="CN144" s="16">
+        <v>3.3158133282242508</v>
+      </c>
       <c r="CO144" s="10"/>
       <c r="CP144" s="10"/>
       <c r="CQ144" s="10"/>
@@ -43202,7 +43314,7 @@
       <c r="EW144" s="10"/>
       <c r="EX144" s="10"/>
     </row>
-    <row r="145" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>13</v>
       </c>
@@ -43474,9 +43586,11 @@
         <v>10.743353199060811</v>
       </c>
       <c r="CM145" s="16">
-        <v>13.34470300917873</v>
-      </c>
-      <c r="CN145" s="10"/>
+        <v>12.094820277643912</v>
+      </c>
+      <c r="CN145" s="16">
+        <v>10.448430848135406</v>
+      </c>
       <c r="CO145" s="10"/>
       <c r="CP145" s="10"/>
       <c r="CQ145" s="10"/>
@@ -43540,7 +43654,7 @@
       <c r="EW145" s="10"/>
       <c r="EX145" s="10"/>
     </row>
-    <row r="146" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -43812,9 +43926,11 @@
         <v>29.634471164248843</v>
       </c>
       <c r="CM146" s="16">
-        <v>29.141951303935766</v>
-      </c>
-      <c r="CN146" s="10"/>
+        <v>29.631990831682636</v>
+      </c>
+      <c r="CN146" s="16">
+        <v>28.180370080514809</v>
+      </c>
       <c r="CO146" s="10"/>
       <c r="CP146" s="10"/>
       <c r="CQ146" s="10"/>
@@ -43878,7 +43994,7 @@
       <c r="EW146" s="10"/>
       <c r="EX146" s="10"/>
     </row>
-    <row r="147" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -44150,9 +44266,11 @@
         <v>4.5583504998400919</v>
       </c>
       <c r="CM147" s="16">
-        <v>5.8314987282807733</v>
-      </c>
-      <c r="CN147" s="10"/>
+        <v>6.115313573503947</v>
+      </c>
+      <c r="CN147" s="16">
+        <v>4.0366120806804071</v>
+      </c>
       <c r="CO147" s="10"/>
       <c r="CP147" s="10"/>
       <c r="CQ147" s="10"/>
@@ -44216,7 +44334,7 @@
       <c r="EW147" s="10"/>
       <c r="EX147" s="10"/>
     </row>
-    <row r="148" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
@@ -44371,7 +44489,7 @@
       <c r="EW148" s="10"/>
       <c r="EX148" s="10"/>
     </row>
-    <row r="149" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>10</v>
       </c>
@@ -44645,7 +44763,9 @@
       <c r="CM149" s="16">
         <v>100</v>
       </c>
-      <c r="CN149" s="10"/>
+      <c r="CN149" s="16">
+        <v>100</v>
+      </c>
       <c r="CO149" s="10"/>
       <c r="CP149" s="10"/>
       <c r="CQ149" s="10"/>
@@ -44709,7 +44829,7 @@
       <c r="EW149" s="10"/>
       <c r="EX149" s="10"/>
     </row>
-    <row r="150" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -44801,13 +44921,14 @@
       <c r="CK150" s="13"/>
       <c r="CL150" s="13"/>
       <c r="CM150" s="13"/>
+      <c r="CN150" s="13"/>
     </row>
-    <row r="151" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:154" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:154" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -44899,7 +45020,7 @@
       <c r="CK152" s="1"/>
       <c r="CL152" s="1"/>
       <c r="CM152" s="1"/>
-      <c r="CN152" s="17"/>
+      <c r="CN152" s="1"/>
       <c r="CO152" s="17"/>
       <c r="CP152" s="17"/>
       <c r="CQ152" s="17"/>
@@ -44963,7 +45084,7 @@
       <c r="EW152" s="17"/>
       <c r="EX152" s="17"/>
     </row>
-    <row r="153" spans="1:154" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:154" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -45055,7 +45176,7 @@
       <c r="CK153" s="1"/>
       <c r="CL153" s="1"/>
       <c r="CM153" s="1"/>
-      <c r="CN153" s="17"/>
+      <c r="CN153" s="1"/>
       <c r="CO153" s="17"/>
       <c r="CP153" s="17"/>
       <c r="CQ153" s="17"/>
@@ -45120,7 +45241,144 @@
       <c r="EX153" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="161">
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH31:CK31"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL31:CN31"/>
+    <mergeCell ref="CH53:CJ53"/>
+    <mergeCell ref="CL53:CM53"/>
+    <mergeCell ref="CH75:CJ75"/>
+    <mergeCell ref="CL75:CM75"/>
+    <mergeCell ref="CL96:CN96"/>
+    <mergeCell ref="CL118:CN118"/>
+    <mergeCell ref="CL140:CN140"/>
+    <mergeCell ref="CD53:CG53"/>
+    <mergeCell ref="CD75:CG75"/>
+    <mergeCell ref="CH96:CK96"/>
+    <mergeCell ref="CH118:CK118"/>
+    <mergeCell ref="CH140:CK140"/>
+    <mergeCell ref="BR140:BU140"/>
+    <mergeCell ref="BV140:BY140"/>
+    <mergeCell ref="BR118:BU118"/>
+    <mergeCell ref="BV118:BY118"/>
+    <mergeCell ref="BR75:BU75"/>
+    <mergeCell ref="BV75:BY75"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR31:BU31"/>
+    <mergeCell ref="BV31:BY31"/>
+    <mergeCell ref="BZ31:CC31"/>
+    <mergeCell ref="BV53:BY53"/>
+    <mergeCell ref="BR53:BU53"/>
+    <mergeCell ref="BZ140:CC140"/>
+    <mergeCell ref="BZ118:CC118"/>
+    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR96:BU96"/>
+    <mergeCell ref="BV96:BY96"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="Z31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AH31:AK31"/>
+    <mergeCell ref="AL31:AO31"/>
+    <mergeCell ref="AP31:AS31"/>
+    <mergeCell ref="BF96:BI96"/>
+    <mergeCell ref="BJ96:BM96"/>
+    <mergeCell ref="V96:Y96"/>
+    <mergeCell ref="Z96:AC96"/>
+    <mergeCell ref="AT31:AW31"/>
+    <mergeCell ref="AX31:BA31"/>
+    <mergeCell ref="BB31:BE31"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V75:Y75"/>
+    <mergeCell ref="Z75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AK75"/>
+    <mergeCell ref="AX75:BA75"/>
+    <mergeCell ref="BB75:BE75"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AL53:AO53"/>
+    <mergeCell ref="AP53:AS53"/>
+    <mergeCell ref="AT53:AW53"/>
+    <mergeCell ref="AX53:BA53"/>
+    <mergeCell ref="V53:Y53"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="R53:U53"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AH53:AK53"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="AP96:AS96"/>
+    <mergeCell ref="AT96:AW96"/>
+    <mergeCell ref="AX96:BA96"/>
+    <mergeCell ref="BF75:BI75"/>
+    <mergeCell ref="BJ75:BM75"/>
+    <mergeCell ref="AL140:AO140"/>
+    <mergeCell ref="AP140:AS140"/>
+    <mergeCell ref="AT140:AW140"/>
+    <mergeCell ref="AX140:BA140"/>
+    <mergeCell ref="BB140:BE140"/>
+    <mergeCell ref="BN96:BQ96"/>
+    <mergeCell ref="AL118:AO118"/>
+    <mergeCell ref="AP118:AS118"/>
+    <mergeCell ref="AT118:AW118"/>
+    <mergeCell ref="AX118:BA118"/>
+    <mergeCell ref="BB118:BE118"/>
+    <mergeCell ref="BF118:BI118"/>
+    <mergeCell ref="Z118:AC118"/>
+    <mergeCell ref="AD118:AG118"/>
+    <mergeCell ref="AH118:AK118"/>
+    <mergeCell ref="BN75:BQ75"/>
+    <mergeCell ref="AL75:AO75"/>
+    <mergeCell ref="AP75:AS75"/>
+    <mergeCell ref="AT75:AW75"/>
+    <mergeCell ref="AD96:AG96"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="J140:M140"/>
+    <mergeCell ref="N140:Q140"/>
+    <mergeCell ref="R140:U140"/>
+    <mergeCell ref="V140:Y140"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="R118:U118"/>
+    <mergeCell ref="V118:Y118"/>
     <mergeCell ref="Z140:AC140"/>
     <mergeCell ref="AD140:AG140"/>
     <mergeCell ref="AH140:AK140"/>
@@ -45145,150 +45403,15 @@
     <mergeCell ref="BJ31:BM31"/>
     <mergeCell ref="BN31:BQ31"/>
     <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="J140:M140"/>
-    <mergeCell ref="N140:Q140"/>
-    <mergeCell ref="R140:U140"/>
-    <mergeCell ref="V140:Y140"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:Q118"/>
-    <mergeCell ref="R118:U118"/>
-    <mergeCell ref="V118:Y118"/>
-    <mergeCell ref="Z118:AC118"/>
-    <mergeCell ref="AD118:AG118"/>
-    <mergeCell ref="AH118:AK118"/>
-    <mergeCell ref="BN75:BQ75"/>
-    <mergeCell ref="AL75:AO75"/>
-    <mergeCell ref="AP75:AS75"/>
-    <mergeCell ref="AT75:AW75"/>
-    <mergeCell ref="AD96:AG96"/>
-    <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="AL96:AO96"/>
-    <mergeCell ref="AL140:AO140"/>
-    <mergeCell ref="AP140:AS140"/>
-    <mergeCell ref="AT140:AW140"/>
-    <mergeCell ref="AX140:BA140"/>
-    <mergeCell ref="BB140:BE140"/>
-    <mergeCell ref="BN96:BQ96"/>
-    <mergeCell ref="AL118:AO118"/>
-    <mergeCell ref="AP118:AS118"/>
-    <mergeCell ref="AT118:AW118"/>
-    <mergeCell ref="AX118:BA118"/>
-    <mergeCell ref="BB118:BE118"/>
-    <mergeCell ref="BF118:BI118"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AH53:AK53"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="AP96:AS96"/>
-    <mergeCell ref="AT96:AW96"/>
-    <mergeCell ref="AX96:BA96"/>
-    <mergeCell ref="BF75:BI75"/>
-    <mergeCell ref="BJ75:BM75"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="R53:U53"/>
-    <mergeCell ref="AT31:AW31"/>
-    <mergeCell ref="AX31:BA31"/>
-    <mergeCell ref="BB31:BE31"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V75:Y75"/>
-    <mergeCell ref="Z75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AK75"/>
-    <mergeCell ref="AX75:BA75"/>
-    <mergeCell ref="BB75:BE75"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="AL53:AO53"/>
-    <mergeCell ref="AP53:AS53"/>
-    <mergeCell ref="AT53:AW53"/>
-    <mergeCell ref="AX53:BA53"/>
-    <mergeCell ref="V53:Y53"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR96:BU96"/>
-    <mergeCell ref="BV96:BY96"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="Z31:AC31"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AH31:AK31"/>
-    <mergeCell ref="AL31:AO31"/>
-    <mergeCell ref="AP31:AS31"/>
-    <mergeCell ref="BF96:BI96"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="V96:Y96"/>
-    <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR31:BU31"/>
-    <mergeCell ref="BV31:BY31"/>
-    <mergeCell ref="BZ31:CC31"/>
-    <mergeCell ref="BV53:BY53"/>
-    <mergeCell ref="BR53:BU53"/>
-    <mergeCell ref="BZ140:CC140"/>
-    <mergeCell ref="BZ118:CC118"/>
-    <mergeCell ref="BZ96:CC96"/>
-    <mergeCell ref="CD53:CG53"/>
-    <mergeCell ref="CD75:CG75"/>
-    <mergeCell ref="CH96:CK96"/>
-    <mergeCell ref="CH118:CK118"/>
-    <mergeCell ref="CH140:CK140"/>
-    <mergeCell ref="BR140:BU140"/>
-    <mergeCell ref="BV140:BY140"/>
-    <mergeCell ref="BR118:BU118"/>
-    <mergeCell ref="BV118:BY118"/>
-    <mergeCell ref="BR75:BU75"/>
-    <mergeCell ref="BV75:BY75"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL31:CM31"/>
-    <mergeCell ref="CH53:CI53"/>
-    <mergeCell ref="CH75:CI75"/>
-    <mergeCell ref="CL96:CM96"/>
-    <mergeCell ref="CL118:CM118"/>
-    <mergeCell ref="CL140:CM140"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH31:CK31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="90" man="1"/>
-    <brk id="88" max="90" man="1"/>
-    <brk id="109" max="90" man="1"/>
+    <brk id="44" max="91" man="1"/>
+    <brk id="88" max="91" man="1"/>
+    <brk id="109" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07D4689-2942-4455-8A43-CCFFFC329864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0178DA-943D-4C27-949D-09C2E7C0ADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="8" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CN$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CO$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -623,13 +623,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -753,10 +753,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15153,7 +15153,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15176,7 +15176,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15205,7 +15205,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15268,7 +15268,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15297,7 +15297,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15328,7 +15328,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -17722,7 +17722,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17810,7 +17810,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -17831,7 +17831,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -17888,7 +17888,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -17905,7 +17905,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17946,7 +17946,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -17993,7 +17993,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18022,7 +18022,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -22439,7 +22439,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -22482,7 +22482,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -22596,7 +22596,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -23593,7 +23593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23606,17 +23606,17 @@
   </sheetPr>
   <dimension ref="A1:EX153"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="92" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="93" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23631,7 +23631,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23641,7 +23641,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23734,6 +23734,7 @@
       <c r="CL6" s="4"/>
       <c r="CM6" s="4"/>
       <c r="CN6" s="4"/>
+      <c r="CO6" s="4"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23830,6 +23831,7 @@
       <c r="CL7" s="4"/>
       <c r="CM7" s="4"/>
       <c r="CN7" s="4"/>
+      <c r="CO7" s="4"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23923,6 +23925,7 @@
       <c r="CL8" s="4"/>
       <c r="CM8" s="4"/>
       <c r="CN8" s="4"/>
+      <c r="CO8" s="4"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -24063,6 +24066,7 @@
       </c>
       <c r="CM9" s="23"/>
       <c r="CN9" s="23"/>
+      <c r="CO9" s="23"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24340,6 +24344,9 @@
       </c>
       <c r="CN10" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CO10" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24620,9 +24627,11 @@
         <v>86076.526262154803</v>
       </c>
       <c r="CN12" s="19">
-        <v>127912.27312817855</v>
-      </c>
-      <c r="CO12" s="10"/>
+        <v>125255.07662296039</v>
+      </c>
+      <c r="CO12" s="19">
+        <v>131013.99809225136</v>
+      </c>
       <c r="CP12" s="10"/>
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
@@ -24960,9 +24969,11 @@
         <v>6682.5961660063367</v>
       </c>
       <c r="CN13" s="19">
-        <v>8201.4753255198993</v>
-      </c>
-      <c r="CO13" s="10"/>
+        <v>8704.7269911901549</v>
+      </c>
+      <c r="CO13" s="19">
+        <v>8962.0926673965114</v>
+      </c>
       <c r="CP13" s="10"/>
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
@@ -25300,9 +25311,11 @@
         <v>17861.916287213768</v>
       </c>
       <c r="CN14" s="19">
-        <v>22418.116490501576</v>
-      </c>
-      <c r="CO14" s="10"/>
+        <v>24864.012333683175</v>
+      </c>
+      <c r="CO14" s="19">
+        <v>33365.501481068291</v>
+      </c>
       <c r="CP14" s="10"/>
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
@@ -25640,9 +25653,11 @@
         <v>50296.156629718484</v>
       </c>
       <c r="CN15" s="19">
-        <v>55006.513241984139</v>
-      </c>
-      <c r="CO15" s="10"/>
+        <v>55012.931585847859</v>
+      </c>
+      <c r="CO15" s="19">
+        <v>56008.835224406452</v>
+      </c>
       <c r="CP15" s="10"/>
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
@@ -25980,9 +25995,11 @@
         <v>8966.8706717470923</v>
       </c>
       <c r="CN16" s="19">
-        <v>7129.8604733248103</v>
-      </c>
-      <c r="CO16" s="10"/>
+        <v>7165.0723103162873</v>
+      </c>
+      <c r="CO16" s="19">
+        <v>8854.0332048615091</v>
+      </c>
       <c r="CP16" s="10"/>
       <c r="CQ16" s="10"/>
       <c r="CR16" s="10"/>
@@ -26475,9 +26492,11 @@
         <v>169884.06601684046</v>
       </c>
       <c r="CN18" s="20">
-        <v>220668.23865950896</v>
-      </c>
-      <c r="CO18" s="10"/>
+        <v>221001.81984399789</v>
+      </c>
+      <c r="CO18" s="20">
+        <v>238204.46066998411</v>
+      </c>
       <c r="CP18" s="10"/>
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
@@ -26633,6 +26652,7 @@
       <c r="CL19" s="21"/>
       <c r="CM19" s="21"/>
       <c r="CN19" s="21"/>
+      <c r="CO19" s="21"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -26961,7 +26981,7 @@
     </row>
     <row r="25" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -27056,6 +27076,7 @@
       <c r="CL26" s="4"/>
       <c r="CM26" s="4"/>
       <c r="CN26" s="4"/>
+      <c r="CO26" s="4"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27152,10 +27173,11 @@
       <c r="CL27" s="4"/>
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
+      <c r="CO27" s="4"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -27248,6 +27270,7 @@
       <c r="CL28" s="4"/>
       <c r="CM28" s="4"/>
       <c r="CN28" s="4"/>
+      <c r="CO28" s="4"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -27344,6 +27367,7 @@
       <c r="CL29" s="4"/>
       <c r="CM29" s="4"/>
       <c r="CN29" s="4"/>
+      <c r="CO29" s="4"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
@@ -27437,135 +27461,136 @@
       <c r="CL30" s="4"/>
       <c r="CM30" s="4"/>
       <c r="CN30" s="4"/>
+      <c r="CO30" s="4"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="23">
         <v>2000</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="23">
         <v>2001</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="23">
         <v>2002</v>
       </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
       <c r="N31" s="23">
         <v>2003</v>
       </c>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
       <c r="R31" s="23">
         <v>2004</v>
       </c>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
       <c r="V31" s="23">
         <v>2005</v>
       </c>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
       <c r="Z31" s="23">
         <v>2006</v>
       </c>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
       <c r="AD31" s="23">
         <v>2007</v>
       </c>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
       <c r="AH31" s="23">
         <v>2008</v>
       </c>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="24"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
       <c r="AL31" s="23">
         <v>2009</v>
       </c>
-      <c r="AM31" s="24"/>
-      <c r="AN31" s="24"/>
-      <c r="AO31" s="24"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="25"/>
       <c r="AP31" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="24"/>
-      <c r="AR31" s="24"/>
-      <c r="AS31" s="24"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="25"/>
+      <c r="AS31" s="25"/>
       <c r="AT31" s="23">
         <v>2011</v>
       </c>
-      <c r="AU31" s="24"/>
-      <c r="AV31" s="24"/>
-      <c r="AW31" s="24"/>
+      <c r="AU31" s="25"/>
+      <c r="AV31" s="25"/>
+      <c r="AW31" s="25"/>
       <c r="AX31" s="23">
         <v>2012</v>
       </c>
-      <c r="AY31" s="24"/>
-      <c r="AZ31" s="24"/>
-      <c r="BA31" s="24"/>
+      <c r="AY31" s="25"/>
+      <c r="AZ31" s="25"/>
+      <c r="BA31" s="25"/>
       <c r="BB31" s="23">
         <v>2013</v>
       </c>
-      <c r="BC31" s="24"/>
-      <c r="BD31" s="24"/>
-      <c r="BE31" s="24"/>
+      <c r="BC31" s="25"/>
+      <c r="BD31" s="25"/>
+      <c r="BE31" s="25"/>
       <c r="BF31" s="23">
         <v>2014</v>
       </c>
-      <c r="BG31" s="24"/>
-      <c r="BH31" s="24"/>
-      <c r="BI31" s="24"/>
+      <c r="BG31" s="25"/>
+      <c r="BH31" s="25"/>
+      <c r="BI31" s="25"/>
       <c r="BJ31" s="23">
         <v>2015</v>
       </c>
-      <c r="BK31" s="24"/>
-      <c r="BL31" s="24"/>
-      <c r="BM31" s="24"/>
+      <c r="BK31" s="25"/>
+      <c r="BL31" s="25"/>
+      <c r="BM31" s="25"/>
       <c r="BN31" s="23">
         <v>2016</v>
       </c>
-      <c r="BO31" s="24"/>
-      <c r="BP31" s="24"/>
-      <c r="BQ31" s="24"/>
+      <c r="BO31" s="25"/>
+      <c r="BP31" s="25"/>
+      <c r="BQ31" s="25"/>
       <c r="BR31" s="23">
         <v>2017</v>
       </c>
-      <c r="BS31" s="24"/>
-      <c r="BT31" s="24"/>
-      <c r="BU31" s="24"/>
+      <c r="BS31" s="25"/>
+      <c r="BT31" s="25"/>
+      <c r="BU31" s="25"/>
       <c r="BV31" s="23">
         <v>2018</v>
       </c>
-      <c r="BW31" s="24"/>
-      <c r="BX31" s="24"/>
-      <c r="BY31" s="24"/>
+      <c r="BW31" s="25"/>
+      <c r="BX31" s="25"/>
+      <c r="BY31" s="25"/>
       <c r="BZ31" s="23">
         <v>2019</v>
       </c>
-      <c r="CA31" s="24"/>
-      <c r="CB31" s="24"/>
-      <c r="CC31" s="24"/>
+      <c r="CA31" s="25"/>
+      <c r="CB31" s="25"/>
+      <c r="CC31" s="25"/>
       <c r="CD31" s="23">
         <v>2020</v>
       </c>
-      <c r="CE31" s="24"/>
-      <c r="CF31" s="24"/>
-      <c r="CG31" s="24"/>
+      <c r="CE31" s="25"/>
+      <c r="CF31" s="25"/>
+      <c r="CG31" s="25"/>
       <c r="CH31" s="23">
         <v>2021</v>
       </c>
@@ -27577,6 +27602,7 @@
       </c>
       <c r="CM31" s="23"/>
       <c r="CN31" s="23"/>
+      <c r="CO31" s="23"/>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -27854,6 +27880,9 @@
       </c>
       <c r="CN32" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CO32" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28134,9 +28163,11 @@
         <v>67097.02083937703</v>
       </c>
       <c r="CN34" s="19">
-        <v>91816.917894391925</v>
-      </c>
-      <c r="CO34" s="10"/>
+        <v>89909.551326803863</v>
+      </c>
+      <c r="CO34" s="19">
+        <v>106076.51907657288</v>
+      </c>
       <c r="CP34" s="10"/>
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
@@ -28474,9 +28505,11 @@
         <v>6322.9510523379322</v>
       </c>
       <c r="CN35" s="19">
-        <v>5635.9620826111823</v>
-      </c>
-      <c r="CO35" s="10"/>
+        <v>5981.790996697282</v>
+      </c>
+      <c r="CO35" s="19">
+        <v>9703.7959053860432</v>
+      </c>
       <c r="CP35" s="10"/>
       <c r="CQ35" s="10"/>
       <c r="CR35" s="10"/>
@@ -28814,9 +28847,11 @@
         <v>17025.259549398193</v>
       </c>
       <c r="CN36" s="19">
-        <v>17759.4316247026</v>
-      </c>
-      <c r="CO36" s="10"/>
+        <v>19697.048462697538</v>
+      </c>
+      <c r="CO36" s="19">
+        <v>23891.640005095804</v>
+      </c>
       <c r="CP36" s="10"/>
       <c r="CQ36" s="10"/>
       <c r="CR36" s="10"/>
@@ -29154,9 +29189,11 @@
         <v>41711.437069246</v>
       </c>
       <c r="CN37" s="19">
-        <v>47898.805368753485</v>
-      </c>
-      <c r="CO37" s="10"/>
+        <v>47904.394361499959</v>
+      </c>
+      <c r="CO37" s="19">
+        <v>48479.990057567396</v>
+      </c>
       <c r="CP37" s="10"/>
       <c r="CQ37" s="10"/>
       <c r="CR37" s="10"/>
@@ -29494,9 +29531,11 @@
         <v>8608.2139647257463</v>
       </c>
       <c r="CN38" s="19">
-        <v>6861.1198450995544</v>
-      </c>
-      <c r="CO38" s="10"/>
+        <v>6895.0044680130759</v>
+      </c>
+      <c r="CO38" s="19">
+        <v>8794.8346287548011</v>
+      </c>
       <c r="CP38" s="10"/>
       <c r="CQ38" s="10"/>
       <c r="CR38" s="10"/>
@@ -29989,9 +30028,11 @@
         <v>140764.88247508492</v>
       </c>
       <c r="CN40" s="20">
-        <v>169972.23681555872</v>
-      </c>
-      <c r="CO40" s="10"/>
+        <v>170387.78961571172</v>
+      </c>
+      <c r="CO40" s="20">
+        <v>196946.77967337691</v>
+      </c>
       <c r="CP40" s="10"/>
       <c r="CQ40" s="10"/>
       <c r="CR40" s="10"/>
@@ -30147,6 +30188,7 @@
       <c r="CL41" s="13"/>
       <c r="CM41" s="13"/>
       <c r="CN41" s="13"/>
+      <c r="CO41" s="13"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -30475,7 +30517,7 @@
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -30485,7 +30527,7 @@
     </row>
     <row r="50" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
@@ -30629,10 +30671,11 @@
       </c>
       <c r="CI53" s="23"/>
       <c r="CJ53" s="23"/>
-      <c r="CK53" s="22"/>
+      <c r="CK53" s="23"/>
       <c r="CL53" s="23"/>
       <c r="CM53" s="23"/>
       <c r="CN53" s="22"/>
+      <c r="CO53" s="22"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -30899,10 +30942,13 @@
       <c r="CJ54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CK54" s="6"/>
+      <c r="CK54" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="CL54" s="6"/>
       <c r="CM54" s="6"/>
       <c r="CN54" s="6"/>
+      <c r="CO54" s="6"/>
     </row>
     <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -31170,13 +31216,15 @@
         <v>32.657722223425992</v>
       </c>
       <c r="CJ56" s="16">
-        <v>39.405611281779784</v>
-      </c>
-      <c r="CK56" s="16"/>
+        <v>36.509656937081786</v>
+      </c>
+      <c r="CK56" s="16">
+        <v>28.26149830364696</v>
+      </c>
       <c r="CL56" s="16"/>
       <c r="CM56" s="16"/>
       <c r="CN56" s="16"/>
-      <c r="CO56" s="10"/>
+      <c r="CO56" s="16"/>
       <c r="CP56" s="10"/>
       <c r="CQ56" s="10"/>
       <c r="CR56" s="10"/>
@@ -31498,13 +31546,15 @@
         <v>31.871312290201047</v>
       </c>
       <c r="CJ57" s="16">
-        <v>26.935316105141965</v>
-      </c>
-      <c r="CK57" s="16"/>
+        <v>34.724208557640281</v>
+      </c>
+      <c r="CK57" s="16">
+        <v>31.913620316930178</v>
+      </c>
       <c r="CL57" s="16"/>
       <c r="CM57" s="16"/>
       <c r="CN57" s="16"/>
-      <c r="CO57" s="10"/>
+      <c r="CO57" s="16"/>
       <c r="CP57" s="10"/>
       <c r="CQ57" s="10"/>
       <c r="CR57" s="10"/>
@@ -31826,13 +31876,15 @@
         <v>410.55092982997161</v>
       </c>
       <c r="CJ58" s="16">
-        <v>187.02217161732659</v>
-      </c>
-      <c r="CK58" s="16"/>
+        <v>218.33730626555712</v>
+      </c>
+      <c r="CK58" s="16">
+        <v>210.90041187344258</v>
+      </c>
       <c r="CL58" s="16"/>
       <c r="CM58" s="16"/>
       <c r="CN58" s="16"/>
-      <c r="CO58" s="10"/>
+      <c r="CO58" s="16"/>
       <c r="CP58" s="10"/>
       <c r="CQ58" s="10"/>
       <c r="CR58" s="10"/>
@@ -32154,13 +32206,15 @@
         <v>10.618117588349605</v>
       </c>
       <c r="CJ59" s="16">
-        <v>20.097270779176384</v>
-      </c>
-      <c r="CK59" s="16"/>
+        <v>20.111284130241984</v>
+      </c>
+      <c r="CK59" s="16">
+        <v>21.840874682863443</v>
+      </c>
       <c r="CL59" s="16"/>
       <c r="CM59" s="16"/>
       <c r="CN59" s="16"/>
-      <c r="CO59" s="10"/>
+      <c r="CO59" s="16"/>
       <c r="CP59" s="10"/>
       <c r="CQ59" s="10"/>
       <c r="CR59" s="10"/>
@@ -32482,13 +32536,15 @@
         <v>-2.5262953794607768</v>
       </c>
       <c r="CJ60" s="16">
-        <v>2.6067324640863774</v>
-      </c>
-      <c r="CK60" s="16"/>
+        <v>3.1134705063343233</v>
+      </c>
+      <c r="CK60" s="16">
+        <v>-0.51207299666747019</v>
+      </c>
       <c r="CL60" s="16"/>
       <c r="CM60" s="16"/>
       <c r="CN60" s="16"/>
-      <c r="CO60" s="10"/>
+      <c r="CO60" s="16"/>
       <c r="CP60" s="10"/>
       <c r="CQ60" s="10"/>
       <c r="CR60" s="10"/>
@@ -32961,13 +33017,15 @@
         <v>32.597821964774596</v>
       </c>
       <c r="CJ62" s="16">
-        <v>38.979485103205604</v>
-      </c>
-      <c r="CK62" s="16"/>
+        <v>39.189578506506479</v>
+      </c>
+      <c r="CK62" s="16">
+        <v>36.475371574622983</v>
+      </c>
       <c r="CL62" s="16"/>
       <c r="CM62" s="16"/>
       <c r="CN62" s="16"/>
-      <c r="CO62" s="10"/>
+      <c r="CO62" s="16"/>
       <c r="CP62" s="10"/>
       <c r="CQ62" s="10"/>
       <c r="CR62" s="10"/>
@@ -33119,6 +33177,7 @@
       <c r="CL63" s="13"/>
       <c r="CM63" s="13"/>
       <c r="CN63" s="13"/>
+      <c r="CO63" s="13"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
@@ -33439,7 +33498,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:150" x14ac:dyDescent="0.2">
@@ -33449,7 +33508,7 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
@@ -33462,138 +33521,139 @@
       <c r="B75" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
       <c r="J75" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
       <c r="N75" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
       <c r="R75" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="S75" s="25"/>
-      <c r="T75" s="25"/>
-      <c r="U75" s="25"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="24"/>
       <c r="V75" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="W75" s="25"/>
-      <c r="X75" s="25"/>
-      <c r="Y75" s="25"/>
+      <c r="W75" s="24"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="24"/>
       <c r="Z75" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA75" s="25"/>
-      <c r="AB75" s="25"/>
-      <c r="AC75" s="25"/>
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
       <c r="AD75" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="25"/>
-      <c r="AF75" s="25"/>
-      <c r="AG75" s="25"/>
+      <c r="AE75" s="24"/>
+      <c r="AF75" s="24"/>
+      <c r="AG75" s="24"/>
       <c r="AH75" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="25"/>
-      <c r="AJ75" s="25"/>
-      <c r="AK75" s="25"/>
+      <c r="AI75" s="24"/>
+      <c r="AJ75" s="24"/>
+      <c r="AK75" s="24"/>
       <c r="AL75" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AM75" s="25"/>
-      <c r="AN75" s="25"/>
-      <c r="AO75" s="25"/>
+      <c r="AM75" s="24"/>
+      <c r="AN75" s="24"/>
+      <c r="AO75" s="24"/>
       <c r="AP75" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AQ75" s="25"/>
-      <c r="AR75" s="25"/>
-      <c r="AS75" s="25"/>
+      <c r="AQ75" s="24"/>
+      <c r="AR75" s="24"/>
+      <c r="AS75" s="24"/>
       <c r="AT75" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AU75" s="25"/>
-      <c r="AV75" s="25"/>
-      <c r="AW75" s="25"/>
+      <c r="AU75" s="24"/>
+      <c r="AV75" s="24"/>
+      <c r="AW75" s="24"/>
       <c r="AX75" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AY75" s="25"/>
-      <c r="AZ75" s="25"/>
-      <c r="BA75" s="25"/>
+      <c r="AY75" s="24"/>
+      <c r="AZ75" s="24"/>
+      <c r="BA75" s="24"/>
       <c r="BB75" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BC75" s="25"/>
-      <c r="BD75" s="25"/>
-      <c r="BE75" s="25"/>
+      <c r="BC75" s="24"/>
+      <c r="BD75" s="24"/>
+      <c r="BE75" s="24"/>
       <c r="BF75" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BG75" s="25"/>
-      <c r="BH75" s="25"/>
-      <c r="BI75" s="25"/>
+      <c r="BG75" s="24"/>
+      <c r="BH75" s="24"/>
+      <c r="BI75" s="24"/>
       <c r="BJ75" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="BK75" s="25"/>
-      <c r="BL75" s="25"/>
-      <c r="BM75" s="25"/>
+      <c r="BK75" s="24"/>
+      <c r="BL75" s="24"/>
+      <c r="BM75" s="24"/>
       <c r="BN75" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="BO75" s="25"/>
-      <c r="BP75" s="25"/>
-      <c r="BQ75" s="25"/>
+      <c r="BO75" s="24"/>
+      <c r="BP75" s="24"/>
+      <c r="BQ75" s="24"/>
       <c r="BR75" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="BS75" s="25"/>
-      <c r="BT75" s="25"/>
-      <c r="BU75" s="25"/>
+      <c r="BS75" s="24"/>
+      <c r="BT75" s="24"/>
+      <c r="BU75" s="24"/>
       <c r="BV75" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="BW75" s="25"/>
-      <c r="BX75" s="25"/>
-      <c r="BY75" s="25"/>
+      <c r="BW75" s="24"/>
+      <c r="BX75" s="24"/>
+      <c r="BY75" s="24"/>
       <c r="BZ75" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="25"/>
-      <c r="CB75" s="25"/>
-      <c r="CC75" s="25"/>
+      <c r="CA75" s="24"/>
+      <c r="CB75" s="24"/>
+      <c r="CC75" s="24"/>
       <c r="CD75" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="CE75" s="25"/>
-      <c r="CF75" s="25"/>
-      <c r="CG75" s="25"/>
+      <c r="CE75" s="24"/>
+      <c r="CF75" s="24"/>
+      <c r="CG75" s="24"/>
       <c r="CH75" s="23" t="s">
         <v>50</v>
       </c>
       <c r="CI75" s="23"/>
       <c r="CJ75" s="23"/>
-      <c r="CK75" s="22"/>
+      <c r="CK75" s="23"/>
       <c r="CL75" s="23"/>
       <c r="CM75" s="23"/>
       <c r="CN75" s="22"/>
+      <c r="CO75" s="22"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
@@ -33860,10 +33920,13 @@
       <c r="CJ76" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CK76" s="6"/>
+      <c r="CK76" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="CL76" s="6"/>
       <c r="CM76" s="6"/>
       <c r="CN76" s="6"/>
+      <c r="CO76" s="6"/>
     </row>
     <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
@@ -34131,13 +34194,15 @@
         <v>30.984982880423985</v>
       </c>
       <c r="CJ78" s="16">
-        <v>31.225575812187913</v>
-      </c>
-      <c r="CK78" s="16"/>
+        <v>28.499550131337344</v>
+      </c>
+      <c r="CK78" s="16">
+        <v>15.322153602594341</v>
+      </c>
       <c r="CL78" s="16"/>
       <c r="CM78" s="16"/>
       <c r="CN78" s="16"/>
-      <c r="CO78" s="10"/>
+      <c r="CO78" s="16"/>
       <c r="CP78" s="10"/>
       <c r="CQ78" s="10"/>
       <c r="CR78" s="10"/>
@@ -34459,13 +34524,15 @@
         <v>12.450204222330299</v>
       </c>
       <c r="CJ79" s="16">
-        <v>-0.10214731322054149</v>
-      </c>
-      <c r="CK79" s="16"/>
+        <v>6.0276962534693297</v>
+      </c>
+      <c r="CK79" s="16">
+        <v>37.127745888170097</v>
+      </c>
       <c r="CL79" s="16"/>
       <c r="CM79" s="16"/>
       <c r="CN79" s="16"/>
-      <c r="CO79" s="10"/>
+      <c r="CO79" s="16"/>
       <c r="CP79" s="10"/>
       <c r="CQ79" s="10"/>
       <c r="CR79" s="10"/>
@@ -34787,13 +34854,15 @@
         <v>348.67143550782254</v>
       </c>
       <c r="CJ80" s="16">
-        <v>130.1875919134425</v>
-      </c>
-      <c r="CK80" s="16"/>
+        <v>155.30187278764603</v>
+      </c>
+      <c r="CK80" s="16">
+        <v>141.87804912590235</v>
+      </c>
       <c r="CL80" s="16"/>
       <c r="CM80" s="16"/>
       <c r="CN80" s="16"/>
-      <c r="CO80" s="10"/>
+      <c r="CO80" s="16"/>
       <c r="CP80" s="10"/>
       <c r="CQ80" s="10"/>
       <c r="CR80" s="10"/>
@@ -35115,13 +35184,15 @@
         <v>1.7562953237871</v>
       </c>
       <c r="CJ81" s="16">
-        <v>2.5622286643743166</v>
-      </c>
-      <c r="CK81" s="16"/>
+        <v>2.5741959681025577</v>
+      </c>
+      <c r="CK81" s="16">
+        <v>2.154303954617248</v>
+      </c>
       <c r="CL81" s="16"/>
       <c r="CM81" s="16"/>
       <c r="CN81" s="16"/>
-      <c r="CO81" s="10"/>
+      <c r="CO81" s="16"/>
       <c r="CP81" s="10"/>
       <c r="CQ81" s="10"/>
       <c r="CR81" s="10"/>
@@ -35443,13 +35514,15 @@
         <v>-2.7123138997289402</v>
       </c>
       <c r="CJ82" s="16">
-        <v>2.3785001389358058</v>
-      </c>
-      <c r="CK82" s="16"/>
+        <v>2.8841110231615943</v>
+      </c>
+      <c r="CK82" s="16">
+        <v>-0.70175445901894307</v>
+      </c>
       <c r="CL82" s="16"/>
       <c r="CM82" s="16"/>
       <c r="CN82" s="16"/>
-      <c r="CO82" s="10"/>
+      <c r="CO82" s="16"/>
       <c r="CP82" s="10"/>
       <c r="CQ82" s="10"/>
       <c r="CR82" s="10"/>
@@ -35922,13 +35995,15 @@
         <v>27.409596903568172</v>
       </c>
       <c r="CJ84" s="16">
-        <v>24.312685218799061</v>
-      </c>
-      <c r="CK84" s="16"/>
+        <v>24.616608291208038</v>
+      </c>
+      <c r="CK84" s="16">
+        <v>19.180101169679247</v>
+      </c>
       <c r="CL84" s="16"/>
       <c r="CM84" s="16"/>
       <c r="CN84" s="16"/>
-      <c r="CO84" s="10"/>
+      <c r="CO84" s="16"/>
       <c r="CP84" s="10"/>
       <c r="CQ84" s="10"/>
       <c r="CR84" s="10"/>
@@ -36080,6 +36155,7 @@
       <c r="CL85" s="13"/>
       <c r="CM85" s="13"/>
       <c r="CN85" s="13"/>
+      <c r="CO85" s="13"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
@@ -36395,7 +36471,7 @@
     </row>
     <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.2">
@@ -36405,7 +36481,7 @@
     </row>
     <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:150" x14ac:dyDescent="0.2">
@@ -36418,129 +36494,129 @@
       <c r="B96" s="23">
         <v>2000</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
       <c r="F96" s="23">
         <v>2001</v>
       </c>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
       <c r="J96" s="23">
         <v>2002</v>
       </c>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
       <c r="N96" s="23">
         <v>2003</v>
       </c>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
       <c r="R96" s="23">
         <v>2004</v>
       </c>
-      <c r="S96" s="24"/>
-      <c r="T96" s="24"/>
-      <c r="U96" s="24"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
       <c r="V96" s="23">
         <v>2005</v>
       </c>
-      <c r="W96" s="24"/>
-      <c r="X96" s="24"/>
-      <c r="Y96" s="24"/>
+      <c r="W96" s="25"/>
+      <c r="X96" s="25"/>
+      <c r="Y96" s="25"/>
       <c r="Z96" s="23">
         <v>2006</v>
       </c>
-      <c r="AA96" s="24"/>
-      <c r="AB96" s="24"/>
-      <c r="AC96" s="24"/>
+      <c r="AA96" s="25"/>
+      <c r="AB96" s="25"/>
+      <c r="AC96" s="25"/>
       <c r="AD96" s="23">
         <v>2007</v>
       </c>
-      <c r="AE96" s="24"/>
-      <c r="AF96" s="24"/>
-      <c r="AG96" s="24"/>
+      <c r="AE96" s="25"/>
+      <c r="AF96" s="25"/>
+      <c r="AG96" s="25"/>
       <c r="AH96" s="23">
         <v>2008</v>
       </c>
-      <c r="AI96" s="24"/>
-      <c r="AJ96" s="24"/>
-      <c r="AK96" s="24"/>
+      <c r="AI96" s="25"/>
+      <c r="AJ96" s="25"/>
+      <c r="AK96" s="25"/>
       <c r="AL96" s="23">
         <v>2009</v>
       </c>
-      <c r="AM96" s="24"/>
-      <c r="AN96" s="24"/>
-      <c r="AO96" s="24"/>
+      <c r="AM96" s="25"/>
+      <c r="AN96" s="25"/>
+      <c r="AO96" s="25"/>
       <c r="AP96" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="24"/>
-      <c r="AR96" s="24"/>
-      <c r="AS96" s="24"/>
+      <c r="AQ96" s="25"/>
+      <c r="AR96" s="25"/>
+      <c r="AS96" s="25"/>
       <c r="AT96" s="23">
         <v>2011</v>
       </c>
-      <c r="AU96" s="24"/>
-      <c r="AV96" s="24"/>
-      <c r="AW96" s="24"/>
+      <c r="AU96" s="25"/>
+      <c r="AV96" s="25"/>
+      <c r="AW96" s="25"/>
       <c r="AX96" s="23">
         <v>2012</v>
       </c>
-      <c r="AY96" s="24"/>
-      <c r="AZ96" s="24"/>
-      <c r="BA96" s="24"/>
+      <c r="AY96" s="25"/>
+      <c r="AZ96" s="25"/>
+      <c r="BA96" s="25"/>
       <c r="BB96" s="23">
         <v>2013</v>
       </c>
-      <c r="BC96" s="24"/>
-      <c r="BD96" s="24"/>
-      <c r="BE96" s="24"/>
+      <c r="BC96" s="25"/>
+      <c r="BD96" s="25"/>
+      <c r="BE96" s="25"/>
       <c r="BF96" s="23">
         <v>2014</v>
       </c>
-      <c r="BG96" s="24"/>
-      <c r="BH96" s="24"/>
-      <c r="BI96" s="24"/>
+      <c r="BG96" s="25"/>
+      <c r="BH96" s="25"/>
+      <c r="BI96" s="25"/>
       <c r="BJ96" s="23">
         <v>2015</v>
       </c>
-      <c r="BK96" s="24"/>
-      <c r="BL96" s="24"/>
-      <c r="BM96" s="24"/>
+      <c r="BK96" s="25"/>
+      <c r="BL96" s="25"/>
+      <c r="BM96" s="25"/>
       <c r="BN96" s="23">
         <v>2016</v>
       </c>
-      <c r="BO96" s="24"/>
-      <c r="BP96" s="24"/>
-      <c r="BQ96" s="24"/>
+      <c r="BO96" s="25"/>
+      <c r="BP96" s="25"/>
+      <c r="BQ96" s="25"/>
       <c r="BR96" s="23">
         <v>2017</v>
       </c>
-      <c r="BS96" s="24"/>
-      <c r="BT96" s="24"/>
-      <c r="BU96" s="24"/>
+      <c r="BS96" s="25"/>
+      <c r="BT96" s="25"/>
+      <c r="BU96" s="25"/>
       <c r="BV96" s="23">
         <v>2018</v>
       </c>
-      <c r="BW96" s="24"/>
-      <c r="BX96" s="24"/>
-      <c r="BY96" s="24"/>
+      <c r="BW96" s="25"/>
+      <c r="BX96" s="25"/>
+      <c r="BY96" s="25"/>
       <c r="BZ96" s="23">
         <v>2019</v>
       </c>
-      <c r="CA96" s="24"/>
-      <c r="CB96" s="24"/>
-      <c r="CC96" s="24"/>
+      <c r="CA96" s="25"/>
+      <c r="CB96" s="25"/>
+      <c r="CC96" s="25"/>
       <c r="CD96" s="23">
         <v>2020</v>
       </c>
-      <c r="CE96" s="24"/>
-      <c r="CF96" s="24"/>
-      <c r="CG96" s="24"/>
+      <c r="CE96" s="25"/>
+      <c r="CF96" s="25"/>
+      <c r="CG96" s="25"/>
       <c r="CH96" s="23">
         <v>2021</v>
       </c>
@@ -36552,6 +36628,7 @@
       </c>
       <c r="CM96" s="23"/>
       <c r="CN96" s="23"/>
+      <c r="CO96" s="23"/>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -36829,6 +36906,9 @@
       </c>
       <c r="CN97" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CO97" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37111,7 +37191,9 @@
       <c r="CN99" s="16">
         <v>139.31231418081754</v>
       </c>
-      <c r="CO99" s="10"/>
+      <c r="CO99" s="16">
+        <v>123.50895300182032</v>
+      </c>
       <c r="CP99" s="10"/>
       <c r="CQ99" s="10"/>
       <c r="CR99" s="10"/>
@@ -37449,9 +37531,11 @@
         <v>105.68793132655084</v>
       </c>
       <c r="CN100" s="16">
-        <v>145.52041346807815</v>
-      </c>
-      <c r="CO100" s="10"/>
+        <v>145.52041346807809</v>
+      </c>
+      <c r="CO100" s="16">
+        <v>92.35656597458059</v>
+      </c>
       <c r="CP100" s="10"/>
       <c r="CQ100" s="10"/>
       <c r="CR100" s="10"/>
@@ -37789,9 +37873,11 @@
         <v>104.91420841713482</v>
       </c>
       <c r="CN101" s="16">
-        <v>126.23217321504224</v>
-      </c>
-      <c r="CO101" s="10"/>
+        <v>126.23217321504225</v>
+      </c>
+      <c r="CO101" s="16">
+        <v>139.6534581717782</v>
+      </c>
       <c r="CP101" s="10"/>
       <c r="CQ101" s="10"/>
       <c r="CR101" s="10"/>
@@ -38131,7 +38217,9 @@
       <c r="CN102" s="16">
         <v>114.83900865274465</v>
       </c>
-      <c r="CO102" s="10"/>
+      <c r="CO102" s="16">
+        <v>115.52979932111982</v>
+      </c>
       <c r="CP102" s="10"/>
       <c r="CQ102" s="10"/>
       <c r="CR102" s="10"/>
@@ -38471,7 +38559,9 @@
       <c r="CN103" s="16">
         <v>103.91686246986633</v>
       </c>
-      <c r="CO103" s="10"/>
+      <c r="CO103" s="16">
+        <v>100.67310618795671</v>
+      </c>
       <c r="CP103" s="10"/>
       <c r="CQ103" s="10"/>
       <c r="CR103" s="10"/>
@@ -38964,9 +39054,11 @@
         <v>120.68639779307853</v>
       </c>
       <c r="CN105" s="16">
-        <v>129.82604853224458</v>
-      </c>
-      <c r="CO105" s="10"/>
+        <v>129.70519797365748</v>
+      </c>
+      <c r="CO105" s="16">
+        <v>120.9486446363989</v>
+      </c>
       <c r="CP105" s="10"/>
       <c r="CQ105" s="10"/>
       <c r="CR105" s="10"/>
@@ -39122,6 +39214,7 @@
       <c r="CL106" s="13"/>
       <c r="CM106" s="13"/>
       <c r="CN106" s="13"/>
+      <c r="CO106" s="13"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -39140,7 +39233,7 @@
     </row>
     <row r="112" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
@@ -39150,7 +39243,7 @@
     </row>
     <row r="115" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="1:154" x14ac:dyDescent="0.2">
@@ -39163,129 +39256,129 @@
       <c r="B118" s="23">
         <v>2000</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
       <c r="F118" s="23">
         <v>2001</v>
       </c>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
       <c r="J118" s="23">
         <v>2002</v>
       </c>
-      <c r="K118" s="24"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="24"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="25"/>
+      <c r="M118" s="25"/>
       <c r="N118" s="23">
         <v>2003</v>
       </c>
-      <c r="O118" s="24"/>
-      <c r="P118" s="24"/>
-      <c r="Q118" s="24"/>
+      <c r="O118" s="25"/>
+      <c r="P118" s="25"/>
+      <c r="Q118" s="25"/>
       <c r="R118" s="23">
         <v>2004</v>
       </c>
-      <c r="S118" s="24"/>
-      <c r="T118" s="24"/>
-      <c r="U118" s="24"/>
+      <c r="S118" s="25"/>
+      <c r="T118" s="25"/>
+      <c r="U118" s="25"/>
       <c r="V118" s="23">
         <v>2005</v>
       </c>
-      <c r="W118" s="24"/>
-      <c r="X118" s="24"/>
-      <c r="Y118" s="24"/>
+      <c r="W118" s="25"/>
+      <c r="X118" s="25"/>
+      <c r="Y118" s="25"/>
       <c r="Z118" s="23">
         <v>2006</v>
       </c>
-      <c r="AA118" s="24"/>
-      <c r="AB118" s="24"/>
-      <c r="AC118" s="24"/>
+      <c r="AA118" s="25"/>
+      <c r="AB118" s="25"/>
+      <c r="AC118" s="25"/>
       <c r="AD118" s="23">
         <v>2007</v>
       </c>
-      <c r="AE118" s="24"/>
-      <c r="AF118" s="24"/>
-      <c r="AG118" s="24"/>
+      <c r="AE118" s="25"/>
+      <c r="AF118" s="25"/>
+      <c r="AG118" s="25"/>
       <c r="AH118" s="23">
         <v>2008</v>
       </c>
-      <c r="AI118" s="24"/>
-      <c r="AJ118" s="24"/>
-      <c r="AK118" s="24"/>
+      <c r="AI118" s="25"/>
+      <c r="AJ118" s="25"/>
+      <c r="AK118" s="25"/>
       <c r="AL118" s="23">
         <v>2009</v>
       </c>
-      <c r="AM118" s="24"/>
-      <c r="AN118" s="24"/>
-      <c r="AO118" s="24"/>
+      <c r="AM118" s="25"/>
+      <c r="AN118" s="25"/>
+      <c r="AO118" s="25"/>
       <c r="AP118" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="24"/>
-      <c r="AR118" s="24"/>
-      <c r="AS118" s="24"/>
+      <c r="AQ118" s="25"/>
+      <c r="AR118" s="25"/>
+      <c r="AS118" s="25"/>
       <c r="AT118" s="23">
         <v>2011</v>
       </c>
-      <c r="AU118" s="24"/>
-      <c r="AV118" s="24"/>
-      <c r="AW118" s="24"/>
+      <c r="AU118" s="25"/>
+      <c r="AV118" s="25"/>
+      <c r="AW118" s="25"/>
       <c r="AX118" s="23">
         <v>2012</v>
       </c>
-      <c r="AY118" s="24"/>
-      <c r="AZ118" s="24"/>
-      <c r="BA118" s="24"/>
+      <c r="AY118" s="25"/>
+      <c r="AZ118" s="25"/>
+      <c r="BA118" s="25"/>
       <c r="BB118" s="23">
         <v>2013</v>
       </c>
-      <c r="BC118" s="24"/>
-      <c r="BD118" s="24"/>
-      <c r="BE118" s="24"/>
+      <c r="BC118" s="25"/>
+      <c r="BD118" s="25"/>
+      <c r="BE118" s="25"/>
       <c r="BF118" s="23">
         <v>2014</v>
       </c>
-      <c r="BG118" s="24"/>
-      <c r="BH118" s="24"/>
-      <c r="BI118" s="24"/>
+      <c r="BG118" s="25"/>
+      <c r="BH118" s="25"/>
+      <c r="BI118" s="25"/>
       <c r="BJ118" s="23">
         <v>2015</v>
       </c>
-      <c r="BK118" s="24"/>
-      <c r="BL118" s="24"/>
-      <c r="BM118" s="24"/>
+      <c r="BK118" s="25"/>
+      <c r="BL118" s="25"/>
+      <c r="BM118" s="25"/>
       <c r="BN118" s="23">
         <v>2016</v>
       </c>
-      <c r="BO118" s="24"/>
-      <c r="BP118" s="24"/>
-      <c r="BQ118" s="24"/>
+      <c r="BO118" s="25"/>
+      <c r="BP118" s="25"/>
+      <c r="BQ118" s="25"/>
       <c r="BR118" s="23">
         <v>2017</v>
       </c>
-      <c r="BS118" s="24"/>
-      <c r="BT118" s="24"/>
-      <c r="BU118" s="24"/>
+      <c r="BS118" s="25"/>
+      <c r="BT118" s="25"/>
+      <c r="BU118" s="25"/>
       <c r="BV118" s="23">
         <v>2018</v>
       </c>
-      <c r="BW118" s="24"/>
-      <c r="BX118" s="24"/>
-      <c r="BY118" s="24"/>
+      <c r="BW118" s="25"/>
+      <c r="BX118" s="25"/>
+      <c r="BY118" s="25"/>
       <c r="BZ118" s="23">
         <v>2019</v>
       </c>
-      <c r="CA118" s="24"/>
-      <c r="CB118" s="24"/>
-      <c r="CC118" s="24"/>
+      <c r="CA118" s="25"/>
+      <c r="CB118" s="25"/>
+      <c r="CC118" s="25"/>
       <c r="CD118" s="23">
         <v>2020</v>
       </c>
-      <c r="CE118" s="24"/>
-      <c r="CF118" s="24"/>
-      <c r="CG118" s="24"/>
+      <c r="CE118" s="25"/>
+      <c r="CF118" s="25"/>
+      <c r="CG118" s="25"/>
       <c r="CH118" s="23">
         <v>2021</v>
       </c>
@@ -39297,6 +39390,7 @@
       </c>
       <c r="CM118" s="23"/>
       <c r="CN118" s="23"/>
+      <c r="CO118" s="23"/>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
@@ -39574,6 +39668,9 @@
       </c>
       <c r="CN119" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CO119" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39854,9 +39951,11 @@
         <v>50.667804391744497</v>
       </c>
       <c r="CN121" s="16">
-        <v>57.965873976792452</v>
-      </c>
-      <c r="CO121" s="10"/>
+        <v>56.67603855541833</v>
+      </c>
+      <c r="CO121" s="16">
+        <v>55.000648486495905</v>
+      </c>
       <c r="CP121" s="10"/>
       <c r="CQ121" s="10"/>
       <c r="CR121" s="10"/>
@@ -40194,9 +40293,11 @@
         <v>3.9336215118278934</v>
       </c>
       <c r="CN122" s="16">
-        <v>3.7166541842819409</v>
-      </c>
-      <c r="CO122" s="10"/>
+        <v>3.9387580597004588</v>
+      </c>
+      <c r="CO122" s="16">
+        <v>3.7623529980040442</v>
+      </c>
       <c r="CP122" s="10"/>
       <c r="CQ122" s="10"/>
       <c r="CR122" s="10"/>
@@ -40534,9 +40635,11 @@
         <v>10.514179879261384</v>
       </c>
       <c r="CN123" s="16">
-        <v>10.159194919343479</v>
-      </c>
-      <c r="CO123" s="10"/>
+        <v>11.250591669894092</v>
+      </c>
+      <c r="CO123" s="16">
+        <v>14.007085084478707</v>
+      </c>
       <c r="CP123" s="10"/>
       <c r="CQ123" s="10"/>
       <c r="CR123" s="10"/>
@@ -40874,9 +40977,11 @@
         <v>29.606164844637444</v>
       </c>
       <c r="CN124" s="16">
-        <v>24.927245341754496</v>
-      </c>
-      <c r="CO124" s="10"/>
+        <v>24.892524244678494</v>
+      </c>
+      <c r="CO124" s="16">
+        <v>23.512924597160602</v>
+      </c>
       <c r="CP124" s="10"/>
       <c r="CQ124" s="10"/>
       <c r="CR124" s="10"/>
@@ -41214,9 +41319,11 @@
         <v>5.2782293725288012</v>
       </c>
       <c r="CN125" s="16">
-        <v>3.2310315778276468</v>
-      </c>
-      <c r="CO125" s="10"/>
+        <v>3.2420874703086211</v>
+      </c>
+      <c r="CO125" s="16">
+        <v>3.7169888338607402</v>
+      </c>
       <c r="CP125" s="10"/>
       <c r="CQ125" s="10"/>
       <c r="CR125" s="10"/>
@@ -41711,7 +41818,9 @@
       <c r="CN127" s="16">
         <v>100</v>
       </c>
-      <c r="CO127" s="10"/>
+      <c r="CO127" s="16">
+        <v>100</v>
+      </c>
       <c r="CP127" s="10"/>
       <c r="CQ127" s="10"/>
       <c r="CR127" s="10"/>
@@ -41867,6 +41976,7 @@
       <c r="CL128" s="13"/>
       <c r="CM128" s="13"/>
       <c r="CN128" s="13"/>
+      <c r="CO128" s="13"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -42195,7 +42305,7 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:154" x14ac:dyDescent="0.2">
@@ -42205,7 +42315,7 @@
     </row>
     <row r="137" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="1:154" x14ac:dyDescent="0.2">
@@ -42218,129 +42328,129 @@
       <c r="B140" s="23">
         <v>2000</v>
       </c>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="24"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
       <c r="F140" s="23">
         <v>2001</v>
       </c>
-      <c r="G140" s="24"/>
-      <c r="H140" s="24"/>
-      <c r="I140" s="24"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
       <c r="J140" s="23">
         <v>2002</v>
       </c>
-      <c r="K140" s="24"/>
-      <c r="L140" s="24"/>
-      <c r="M140" s="24"/>
+      <c r="K140" s="25"/>
+      <c r="L140" s="25"/>
+      <c r="M140" s="25"/>
       <c r="N140" s="23">
         <v>2003</v>
       </c>
-      <c r="O140" s="24"/>
-      <c r="P140" s="24"/>
-      <c r="Q140" s="24"/>
+      <c r="O140" s="25"/>
+      <c r="P140" s="25"/>
+      <c r="Q140" s="25"/>
       <c r="R140" s="23">
         <v>2004</v>
       </c>
-      <c r="S140" s="24"/>
-      <c r="T140" s="24"/>
-      <c r="U140" s="24"/>
+      <c r="S140" s="25"/>
+      <c r="T140" s="25"/>
+      <c r="U140" s="25"/>
       <c r="V140" s="23">
         <v>2005</v>
       </c>
-      <c r="W140" s="24"/>
-      <c r="X140" s="24"/>
-      <c r="Y140" s="24"/>
+      <c r="W140" s="25"/>
+      <c r="X140" s="25"/>
+      <c r="Y140" s="25"/>
       <c r="Z140" s="23">
         <v>2006</v>
       </c>
-      <c r="AA140" s="24"/>
-      <c r="AB140" s="24"/>
-      <c r="AC140" s="24"/>
+      <c r="AA140" s="25"/>
+      <c r="AB140" s="25"/>
+      <c r="AC140" s="25"/>
       <c r="AD140" s="23">
         <v>2007</v>
       </c>
-      <c r="AE140" s="24"/>
-      <c r="AF140" s="24"/>
-      <c r="AG140" s="24"/>
+      <c r="AE140" s="25"/>
+      <c r="AF140" s="25"/>
+      <c r="AG140" s="25"/>
       <c r="AH140" s="23">
         <v>2008</v>
       </c>
-      <c r="AI140" s="24"/>
-      <c r="AJ140" s="24"/>
-      <c r="AK140" s="24"/>
+      <c r="AI140" s="25"/>
+      <c r="AJ140" s="25"/>
+      <c r="AK140" s="25"/>
       <c r="AL140" s="23">
         <v>2009</v>
       </c>
-      <c r="AM140" s="24"/>
-      <c r="AN140" s="24"/>
-      <c r="AO140" s="24"/>
+      <c r="AM140" s="25"/>
+      <c r="AN140" s="25"/>
+      <c r="AO140" s="25"/>
       <c r="AP140" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="24"/>
-      <c r="AR140" s="24"/>
-      <c r="AS140" s="24"/>
+      <c r="AQ140" s="25"/>
+      <c r="AR140" s="25"/>
+      <c r="AS140" s="25"/>
       <c r="AT140" s="23">
         <v>2011</v>
       </c>
-      <c r="AU140" s="24"/>
-      <c r="AV140" s="24"/>
-      <c r="AW140" s="24"/>
+      <c r="AU140" s="25"/>
+      <c r="AV140" s="25"/>
+      <c r="AW140" s="25"/>
       <c r="AX140" s="23">
         <v>2012</v>
       </c>
-      <c r="AY140" s="24"/>
-      <c r="AZ140" s="24"/>
-      <c r="BA140" s="24"/>
+      <c r="AY140" s="25"/>
+      <c r="AZ140" s="25"/>
+      <c r="BA140" s="25"/>
       <c r="BB140" s="23">
         <v>2013</v>
       </c>
-      <c r="BC140" s="24"/>
-      <c r="BD140" s="24"/>
-      <c r="BE140" s="24"/>
+      <c r="BC140" s="25"/>
+      <c r="BD140" s="25"/>
+      <c r="BE140" s="25"/>
       <c r="BF140" s="23">
         <v>2014</v>
       </c>
-      <c r="BG140" s="24"/>
-      <c r="BH140" s="24"/>
-      <c r="BI140" s="24"/>
+      <c r="BG140" s="25"/>
+      <c r="BH140" s="25"/>
+      <c r="BI140" s="25"/>
       <c r="BJ140" s="23">
         <v>2015</v>
       </c>
-      <c r="BK140" s="24"/>
-      <c r="BL140" s="24"/>
-      <c r="BM140" s="24"/>
+      <c r="BK140" s="25"/>
+      <c r="BL140" s="25"/>
+      <c r="BM140" s="25"/>
       <c r="BN140" s="23">
         <v>2016</v>
       </c>
-      <c r="BO140" s="24"/>
-      <c r="BP140" s="24"/>
-      <c r="BQ140" s="24"/>
+      <c r="BO140" s="25"/>
+      <c r="BP140" s="25"/>
+      <c r="BQ140" s="25"/>
       <c r="BR140" s="23">
         <v>2017</v>
       </c>
-      <c r="BS140" s="24"/>
-      <c r="BT140" s="24"/>
-      <c r="BU140" s="24"/>
+      <c r="BS140" s="25"/>
+      <c r="BT140" s="25"/>
+      <c r="BU140" s="25"/>
       <c r="BV140" s="23">
         <v>2018</v>
       </c>
-      <c r="BW140" s="24"/>
-      <c r="BX140" s="24"/>
-      <c r="BY140" s="24"/>
+      <c r="BW140" s="25"/>
+      <c r="BX140" s="25"/>
+      <c r="BY140" s="25"/>
       <c r="BZ140" s="23">
         <v>2019</v>
       </c>
-      <c r="CA140" s="24"/>
-      <c r="CB140" s="24"/>
-      <c r="CC140" s="24"/>
+      <c r="CA140" s="25"/>
+      <c r="CB140" s="25"/>
+      <c r="CC140" s="25"/>
       <c r="CD140" s="23">
         <v>2020</v>
       </c>
-      <c r="CE140" s="24"/>
-      <c r="CF140" s="24"/>
-      <c r="CG140" s="24"/>
+      <c r="CE140" s="25"/>
+      <c r="CF140" s="25"/>
+      <c r="CG140" s="25"/>
       <c r="CH140" s="23">
         <v>2021</v>
       </c>
@@ -42352,6 +42462,7 @@
       </c>
       <c r="CM140" s="23"/>
       <c r="CN140" s="23"/>
+      <c r="CO140" s="23"/>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
@@ -42629,6 +42740,9 @@
       </c>
       <c r="CN141" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CO141" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42909,9 +43023,11 @@
         <v>47.666022703676155</v>
       </c>
       <c r="CN143" s="16">
-        <v>54.018773662445142</v>
-      </c>
-      <c r="CO143" s="10"/>
+        <v>52.76760237901059</v>
+      </c>
+      <c r="CO143" s="16">
+        <v>53.860499396077309</v>
+      </c>
       <c r="CP143" s="10"/>
       <c r="CQ143" s="10"/>
       <c r="CR143" s="10"/>
@@ -43249,9 +43365,11 @@
         <v>4.4918526134933412</v>
       </c>
       <c r="CN144" s="16">
-        <v>3.3158133282242508</v>
-      </c>
-      <c r="CO144" s="10"/>
+        <v>3.510692292087632</v>
+      </c>
+      <c r="CO144" s="16">
+        <v>4.927115803304396</v>
+      </c>
       <c r="CP144" s="10"/>
       <c r="CQ144" s="10"/>
       <c r="CR144" s="10"/>
@@ -43589,9 +43707,11 @@
         <v>12.094820277643912</v>
       </c>
       <c r="CN145" s="16">
-        <v>10.448430848135406</v>
-      </c>
-      <c r="CO145" s="10"/>
+        <v>11.560129107327326</v>
+      </c>
+      <c r="CO145" s="16">
+        <v>12.131013284258058</v>
+      </c>
       <c r="CP145" s="10"/>
       <c r="CQ145" s="10"/>
       <c r="CR145" s="10"/>
@@ -43929,9 +44049,11 @@
         <v>29.631990831682636</v>
       </c>
       <c r="CN146" s="16">
-        <v>28.180370080514809</v>
-      </c>
-      <c r="CO146" s="10"/>
+        <v>28.114922125313267</v>
+      </c>
+      <c r="CO146" s="16">
+        <v>24.615782059482378</v>
+      </c>
       <c r="CP146" s="10"/>
       <c r="CQ146" s="10"/>
       <c r="CR146" s="10"/>
@@ -44269,9 +44391,11 @@
         <v>6.115313573503947</v>
       </c>
       <c r="CN147" s="16">
-        <v>4.0366120806804071</v>
-      </c>
-      <c r="CO147" s="10"/>
+        <v>4.0466540962611779</v>
+      </c>
+      <c r="CO147" s="16">
+        <v>4.4655894568778676</v>
+      </c>
       <c r="CP147" s="10"/>
       <c r="CQ147" s="10"/>
       <c r="CR147" s="10"/>
@@ -44766,7 +44890,9 @@
       <c r="CN149" s="16">
         <v>100</v>
       </c>
-      <c r="CO149" s="10"/>
+      <c r="CO149" s="16">
+        <v>100</v>
+      </c>
       <c r="CP149" s="10"/>
       <c r="CQ149" s="10"/>
       <c r="CR149" s="10"/>
@@ -44922,6 +45048,7 @@
       <c r="CL150" s="13"/>
       <c r="CM150" s="13"/>
       <c r="CN150" s="13"/>
+      <c r="CO150" s="13"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -45021,7 +45148,7 @@
       <c r="CL152" s="1"/>
       <c r="CM152" s="1"/>
       <c r="CN152" s="1"/>
-      <c r="CO152" s="17"/>
+      <c r="CO152" s="1"/>
       <c r="CP152" s="17"/>
       <c r="CQ152" s="17"/>
       <c r="CR152" s="17"/>
@@ -45177,7 +45304,7 @@
       <c r="CL153" s="1"/>
       <c r="CM153" s="1"/>
       <c r="CN153" s="1"/>
-      <c r="CO153" s="17"/>
+      <c r="CO153" s="1"/>
       <c r="CP153" s="17"/>
       <c r="CQ153" s="17"/>
       <c r="CR153" s="17"/>
@@ -45242,39 +45369,110 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH31:CK31"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL31:CN31"/>
-    <mergeCell ref="CH53:CJ53"/>
-    <mergeCell ref="CL53:CM53"/>
-    <mergeCell ref="CH75:CJ75"/>
-    <mergeCell ref="CL75:CM75"/>
-    <mergeCell ref="CL96:CN96"/>
-    <mergeCell ref="CL118:CN118"/>
-    <mergeCell ref="CL140:CN140"/>
-    <mergeCell ref="CD53:CG53"/>
-    <mergeCell ref="CD75:CG75"/>
-    <mergeCell ref="CH96:CK96"/>
-    <mergeCell ref="CH118:CK118"/>
-    <mergeCell ref="CH140:CK140"/>
-    <mergeCell ref="BR140:BU140"/>
-    <mergeCell ref="BV140:BY140"/>
-    <mergeCell ref="BR118:BU118"/>
-    <mergeCell ref="BV118:BY118"/>
-    <mergeCell ref="BR75:BU75"/>
-    <mergeCell ref="BV75:BY75"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR31:BU31"/>
-    <mergeCell ref="BV31:BY31"/>
-    <mergeCell ref="BZ31:CC31"/>
-    <mergeCell ref="BV53:BY53"/>
-    <mergeCell ref="BR53:BU53"/>
-    <mergeCell ref="BZ140:CC140"/>
-    <mergeCell ref="BZ118:CC118"/>
-    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="Z140:AC140"/>
+    <mergeCell ref="AD140:AG140"/>
+    <mergeCell ref="AH140:AK140"/>
+    <mergeCell ref="BB96:BE96"/>
+    <mergeCell ref="BZ53:CC53"/>
+    <mergeCell ref="BZ75:CC75"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD140:CG140"/>
+    <mergeCell ref="CD118:CG118"/>
+    <mergeCell ref="CD96:CG96"/>
+    <mergeCell ref="CD31:CG31"/>
+    <mergeCell ref="BF140:BI140"/>
+    <mergeCell ref="BJ140:BM140"/>
+    <mergeCell ref="BN140:BQ140"/>
+    <mergeCell ref="BJ118:BM118"/>
+    <mergeCell ref="BN118:BQ118"/>
+    <mergeCell ref="BB53:BE53"/>
+    <mergeCell ref="BF53:BI53"/>
+    <mergeCell ref="BJ53:BM53"/>
+    <mergeCell ref="BN53:BQ53"/>
+    <mergeCell ref="BF31:BI31"/>
+    <mergeCell ref="BJ31:BM31"/>
+    <mergeCell ref="BN31:BQ31"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="J140:M140"/>
+    <mergeCell ref="N140:Q140"/>
+    <mergeCell ref="R140:U140"/>
+    <mergeCell ref="V140:Y140"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="R118:U118"/>
+    <mergeCell ref="V118:Y118"/>
+    <mergeCell ref="Z118:AC118"/>
+    <mergeCell ref="AD118:AG118"/>
+    <mergeCell ref="AH118:AK118"/>
+    <mergeCell ref="BN75:BQ75"/>
+    <mergeCell ref="AL75:AO75"/>
+    <mergeCell ref="AP75:AS75"/>
+    <mergeCell ref="AT75:AW75"/>
+    <mergeCell ref="AD96:AG96"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="AL140:AO140"/>
+    <mergeCell ref="AP140:AS140"/>
+    <mergeCell ref="AT140:AW140"/>
+    <mergeCell ref="AX140:BA140"/>
+    <mergeCell ref="BB140:BE140"/>
+    <mergeCell ref="BN96:BQ96"/>
+    <mergeCell ref="AL118:AO118"/>
+    <mergeCell ref="AP118:AS118"/>
+    <mergeCell ref="AT118:AW118"/>
+    <mergeCell ref="AX118:BA118"/>
+    <mergeCell ref="BB118:BE118"/>
+    <mergeCell ref="BF118:BI118"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AH53:AK53"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="AP96:AS96"/>
+    <mergeCell ref="AT96:AW96"/>
+    <mergeCell ref="AX96:BA96"/>
+    <mergeCell ref="BF75:BI75"/>
+    <mergeCell ref="BJ75:BM75"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="R53:U53"/>
+    <mergeCell ref="AT31:AW31"/>
+    <mergeCell ref="AX31:BA31"/>
+    <mergeCell ref="BB31:BE31"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V75:Y75"/>
+    <mergeCell ref="Z75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AK75"/>
+    <mergeCell ref="AX75:BA75"/>
+    <mergeCell ref="BB75:BE75"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AL53:AO53"/>
+    <mergeCell ref="AP53:AS53"/>
+    <mergeCell ref="AT53:AW53"/>
+    <mergeCell ref="AX53:BA53"/>
+    <mergeCell ref="V53:Y53"/>
+    <mergeCell ref="Z53:AC53"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -45299,119 +45497,48 @@
     <mergeCell ref="BJ96:BM96"/>
     <mergeCell ref="V96:Y96"/>
     <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="AT31:AW31"/>
-    <mergeCell ref="AX31:BA31"/>
-    <mergeCell ref="BB31:BE31"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V75:Y75"/>
-    <mergeCell ref="Z75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AK75"/>
-    <mergeCell ref="AX75:BA75"/>
-    <mergeCell ref="BB75:BE75"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="AL53:AO53"/>
-    <mergeCell ref="AP53:AS53"/>
-    <mergeCell ref="AT53:AW53"/>
-    <mergeCell ref="AX53:BA53"/>
-    <mergeCell ref="V53:Y53"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="R53:U53"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AH53:AK53"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="AP96:AS96"/>
-    <mergeCell ref="AT96:AW96"/>
-    <mergeCell ref="AX96:BA96"/>
-    <mergeCell ref="BF75:BI75"/>
-    <mergeCell ref="BJ75:BM75"/>
-    <mergeCell ref="AL140:AO140"/>
-    <mergeCell ref="AP140:AS140"/>
-    <mergeCell ref="AT140:AW140"/>
-    <mergeCell ref="AX140:BA140"/>
-    <mergeCell ref="BB140:BE140"/>
-    <mergeCell ref="BN96:BQ96"/>
-    <mergeCell ref="AL118:AO118"/>
-    <mergeCell ref="AP118:AS118"/>
-    <mergeCell ref="AT118:AW118"/>
-    <mergeCell ref="AX118:BA118"/>
-    <mergeCell ref="BB118:BE118"/>
-    <mergeCell ref="BF118:BI118"/>
-    <mergeCell ref="Z118:AC118"/>
-    <mergeCell ref="AD118:AG118"/>
-    <mergeCell ref="AH118:AK118"/>
-    <mergeCell ref="BN75:BQ75"/>
-    <mergeCell ref="AL75:AO75"/>
-    <mergeCell ref="AP75:AS75"/>
-    <mergeCell ref="AT75:AW75"/>
-    <mergeCell ref="AD96:AG96"/>
-    <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="AL96:AO96"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="J140:M140"/>
-    <mergeCell ref="N140:Q140"/>
-    <mergeCell ref="R140:U140"/>
-    <mergeCell ref="V140:Y140"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:Q118"/>
-    <mergeCell ref="R118:U118"/>
-    <mergeCell ref="V118:Y118"/>
-    <mergeCell ref="Z140:AC140"/>
-    <mergeCell ref="AD140:AG140"/>
-    <mergeCell ref="AH140:AK140"/>
-    <mergeCell ref="BB96:BE96"/>
-    <mergeCell ref="BZ53:CC53"/>
-    <mergeCell ref="BZ75:CC75"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD140:CG140"/>
-    <mergeCell ref="CD118:CG118"/>
-    <mergeCell ref="CD96:CG96"/>
-    <mergeCell ref="CD31:CG31"/>
-    <mergeCell ref="BF140:BI140"/>
-    <mergeCell ref="BJ140:BM140"/>
-    <mergeCell ref="BN140:BQ140"/>
-    <mergeCell ref="BJ118:BM118"/>
-    <mergeCell ref="BN118:BQ118"/>
-    <mergeCell ref="BB53:BE53"/>
-    <mergeCell ref="BF53:BI53"/>
-    <mergeCell ref="BJ53:BM53"/>
-    <mergeCell ref="BN53:BQ53"/>
-    <mergeCell ref="BF31:BI31"/>
-    <mergeCell ref="BJ31:BM31"/>
-    <mergeCell ref="BN31:BQ31"/>
-    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR31:BU31"/>
+    <mergeCell ref="BV31:BY31"/>
+    <mergeCell ref="BZ31:CC31"/>
+    <mergeCell ref="BV53:BY53"/>
+    <mergeCell ref="BR53:BU53"/>
+    <mergeCell ref="BZ140:CC140"/>
+    <mergeCell ref="BZ118:CC118"/>
+    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="CD53:CG53"/>
+    <mergeCell ref="CD75:CG75"/>
+    <mergeCell ref="CH96:CK96"/>
+    <mergeCell ref="CH118:CK118"/>
+    <mergeCell ref="CH140:CK140"/>
+    <mergeCell ref="BR140:BU140"/>
+    <mergeCell ref="BV140:BY140"/>
+    <mergeCell ref="BR118:BU118"/>
+    <mergeCell ref="BV118:BY118"/>
+    <mergeCell ref="BR75:BU75"/>
+    <mergeCell ref="BV75:BY75"/>
+    <mergeCell ref="CH53:CK53"/>
+    <mergeCell ref="CH75:CK75"/>
+    <mergeCell ref="CL96:CO96"/>
+    <mergeCell ref="CL118:CO118"/>
+    <mergeCell ref="CL140:CO140"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH31:CK31"/>
+    <mergeCell ref="CL53:CM53"/>
+    <mergeCell ref="CL75:CM75"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL31:CO31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="91" man="1"/>
-    <brk id="88" max="91" man="1"/>
-    <brk id="109" max="91" man="1"/>
+    <brk id="44" max="92" man="1"/>
+    <brk id="88" max="92" man="1"/>
+    <brk id="109" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0178DA-943D-4C27-949D-09C2E7C0ADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73088911-1F6F-412C-9B9F-231BC64898DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="8" r:id="rId1"/>
@@ -623,13 +623,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -746,17 +746,13 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23593,7 +23589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23607,9 +23603,9 @@
   <dimension ref="A1:EX153"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23631,7 +23627,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23641,7 +23637,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23929,144 +23925,144 @@
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="23">
+      <c r="B9" s="19">
         <v>2000</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>2001</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <v>2002</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
         <v>2003</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
         <v>2004</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
         <v>2005</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19">
         <v>2006</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19">
         <v>2007</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23">
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19">
         <v>2008</v>
       </c>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23">
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19">
         <v>2009</v>
       </c>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19">
         <v>2011</v>
       </c>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23">
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19">
         <v>2012</v>
       </c>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="23">
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19">
         <v>2013</v>
       </c>
-      <c r="BC9" s="23"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="23"/>
-      <c r="BF9" s="23">
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19">
         <v>2014</v>
       </c>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23">
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19">
         <v>2015</v>
       </c>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="23"/>
-      <c r="BM9" s="23"/>
-      <c r="BN9" s="23">
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19">
         <v>2016</v>
       </c>
-      <c r="BO9" s="23"/>
-      <c r="BP9" s="23"/>
-      <c r="BQ9" s="23"/>
-      <c r="BR9" s="23">
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19">
         <v>2017</v>
       </c>
-      <c r="BS9" s="23"/>
-      <c r="BT9" s="23"/>
-      <c r="BU9" s="23"/>
-      <c r="BV9" s="23">
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="19"/>
+      <c r="BU9" s="19"/>
+      <c r="BV9" s="19">
         <v>2018</v>
       </c>
-      <c r="BW9" s="23"/>
-      <c r="BX9" s="23"/>
-      <c r="BY9" s="23"/>
-      <c r="BZ9" s="23">
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="19"/>
+      <c r="BY9" s="19"/>
+      <c r="BZ9" s="19">
         <v>2019</v>
       </c>
-      <c r="CA9" s="23"/>
-      <c r="CB9" s="23"/>
-      <c r="CC9" s="23"/>
-      <c r="CD9" s="23">
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="19"/>
+      <c r="CD9" s="19">
         <v>2020</v>
       </c>
-      <c r="CE9" s="23"/>
-      <c r="CF9" s="23"/>
-      <c r="CG9" s="23"/>
-      <c r="CH9" s="23">
+      <c r="CE9" s="19"/>
+      <c r="CF9" s="19"/>
+      <c r="CG9" s="19"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="23"/>
-      <c r="CJ9" s="23"/>
-      <c r="CK9" s="23"/>
-      <c r="CL9" s="23">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="23"/>
-      <c r="CN9" s="23"/>
-      <c r="CO9" s="23"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24608,29 +24604,29 @@
       <c r="CG12" s="9">
         <v>87043.333111853615</v>
       </c>
-      <c r="CH12" s="19">
+      <c r="CH12" s="9">
         <v>80310.943601616484</v>
       </c>
-      <c r="CI12" s="19">
+      <c r="CI12" s="9">
         <v>64886.17836900759</v>
       </c>
-      <c r="CJ12" s="19">
+      <c r="CJ12" s="9">
         <v>91755.469490844363</v>
       </c>
-      <c r="CK12" s="19">
-        <v>102146.00626455189</v>
-      </c>
-      <c r="CL12" s="19">
-        <v>94971.188654406025</v>
-      </c>
-      <c r="CM12" s="19">
-        <v>86076.526262154803</v>
-      </c>
-      <c r="CN12" s="19">
-        <v>125255.07662296039</v>
-      </c>
-      <c r="CO12" s="19">
-        <v>131013.99809225136</v>
+      <c r="CK12" s="9">
+        <v>102445.11283825984</v>
+      </c>
+      <c r="CL12" s="9">
+        <v>95112.941061584192</v>
+      </c>
+      <c r="CM12" s="9">
+        <v>86138.101602379815</v>
+      </c>
+      <c r="CN12" s="9">
+        <v>125364.61590883185</v>
+      </c>
+      <c r="CO12" s="9">
+        <v>131260.92863027516</v>
       </c>
       <c r="CP12" s="10"/>
       <c r="CQ12" s="10"/>
@@ -24950,29 +24946,29 @@
       <c r="CG13" s="9">
         <v>6727.6571030917612</v>
       </c>
-      <c r="CH13" s="19">
+      <c r="CH13" s="9">
         <v>7817.273676312996</v>
       </c>
-      <c r="CI13" s="19">
+      <c r="CI13" s="9">
         <v>5067.513206587616</v>
       </c>
-      <c r="CJ13" s="19">
+      <c r="CJ13" s="9">
         <v>6461.1453905598064</v>
       </c>
-      <c r="CK13" s="19">
-        <v>6793.9100191963189</v>
-      </c>
-      <c r="CL13" s="19">
-        <v>9001.2909668615357</v>
-      </c>
-      <c r="CM13" s="19">
-        <v>6682.5961660063367</v>
-      </c>
-      <c r="CN13" s="19">
-        <v>8704.7269911901549</v>
-      </c>
-      <c r="CO13" s="19">
-        <v>8962.0926673965114</v>
+      <c r="CK13" s="9">
+        <v>6805.4416689638665</v>
+      </c>
+      <c r="CL13" s="9">
+        <v>9030.929515187514</v>
+      </c>
+      <c r="CM13" s="9">
+        <v>6772.0262369198845</v>
+      </c>
+      <c r="CN13" s="9">
+        <v>8678.9535591085787</v>
+      </c>
+      <c r="CO13" s="9">
+        <v>9069.7767840590877</v>
       </c>
       <c r="CP13" s="10"/>
       <c r="CQ13" s="10"/>
@@ -25292,29 +25288,29 @@
       <c r="CG14" s="9">
         <v>5756.5870174473457</v>
       </c>
-      <c r="CH14" s="19">
+      <c r="CH14" s="9">
         <v>5981.2410016829199</v>
       </c>
-      <c r="CI14" s="19">
+      <c r="CI14" s="9">
         <v>3498.5571945118791</v>
       </c>
-      <c r="CJ14" s="19">
+      <c r="CJ14" s="9">
         <v>7810.5870233574205</v>
       </c>
-      <c r="CK14" s="19">
+      <c r="CK14" s="9">
         <v>10731.893624718097</v>
       </c>
-      <c r="CL14" s="19">
+      <c r="CL14" s="9">
         <v>16519.717390147831</v>
       </c>
-      <c r="CM14" s="19">
+      <c r="CM14" s="9">
         <v>17861.916287213768</v>
       </c>
-      <c r="CN14" s="19">
+      <c r="CN14" s="9">
         <v>24864.012333683175</v>
       </c>
-      <c r="CO14" s="19">
-        <v>33365.501481068291</v>
+      <c r="CO14" s="9">
+        <v>33058.754526789751</v>
       </c>
       <c r="CP14" s="10"/>
       <c r="CQ14" s="10"/>
@@ -25634,29 +25630,29 @@
       <c r="CG15" s="9">
         <v>41914.708397563991</v>
       </c>
-      <c r="CH15" s="19">
+      <c r="CH15" s="9">
         <v>41314.418988535144</v>
       </c>
-      <c r="CI15" s="19">
+      <c r="CI15" s="9">
         <v>45468.281079315457</v>
       </c>
-      <c r="CJ15" s="19">
+      <c r="CJ15" s="9">
         <v>45801.634695866625</v>
       </c>
-      <c r="CK15" s="19">
-        <v>45968.838758085447</v>
-      </c>
-      <c r="CL15" s="19">
-        <v>49157.082021658309</v>
-      </c>
-      <c r="CM15" s="19">
-        <v>50296.156629718484</v>
-      </c>
-      <c r="CN15" s="19">
-        <v>55012.931585847859</v>
-      </c>
-      <c r="CO15" s="19">
-        <v>56008.835224406452</v>
+      <c r="CK15" s="9">
+        <v>46206.319687562878</v>
+      </c>
+      <c r="CL15" s="9">
+        <v>48867.192274073153</v>
+      </c>
+      <c r="CM15" s="9">
+        <v>50427.993876530629</v>
+      </c>
+      <c r="CN15" s="9">
+        <v>54777.401768381824</v>
+      </c>
+      <c r="CO15" s="9">
+        <v>56206.695778206282</v>
       </c>
       <c r="CP15" s="10"/>
       <c r="CQ15" s="10"/>
@@ -25976,29 +25972,29 @@
       <c r="CG16" s="9">
         <v>8707.0629617639515</v>
       </c>
-      <c r="CH16" s="19">
+      <c r="CH16" s="9">
         <v>8057.1403063475373</v>
       </c>
-      <c r="CI16" s="19">
+      <c r="CI16" s="9">
         <v>9199.2714411078541</v>
       </c>
-      <c r="CJ16" s="19">
+      <c r="CJ16" s="9">
         <v>6948.7257825117358</v>
       </c>
-      <c r="CK16" s="19">
-        <v>8899.6056823708132</v>
-      </c>
-      <c r="CL16" s="19">
-        <v>7866.9779532324337</v>
-      </c>
-      <c r="CM16" s="19">
+      <c r="CK16" s="9">
+        <v>8636.4176909564103</v>
+      </c>
+      <c r="CL16" s="9">
+        <v>7865.3473658344301</v>
+      </c>
+      <c r="CM16" s="9">
         <v>8966.8706717470923</v>
       </c>
-      <c r="CN16" s="19">
-        <v>7165.0723103162873</v>
-      </c>
-      <c r="CO16" s="19">
-        <v>8854.0332048615091</v>
+      <c r="CN16" s="9">
+        <v>7164.4283924129832</v>
+      </c>
+      <c r="CO16" s="9">
+        <v>8513.5183446965111</v>
       </c>
       <c r="CP16" s="10"/>
       <c r="CQ16" s="10"/>
@@ -26473,29 +26469,29 @@
       <c r="CG18" s="12">
         <v>150149.34859172066</v>
       </c>
-      <c r="CH18" s="20">
+      <c r="CH18" s="12">
         <v>143481.01757449508</v>
       </c>
-      <c r="CI18" s="20">
+      <c r="CI18" s="12">
         <v>128119.80129053039</v>
       </c>
-      <c r="CJ18" s="20">
+      <c r="CJ18" s="12">
         <v>158777.56238313994</v>
       </c>
-      <c r="CK18" s="20">
-        <v>174540.25434892255</v>
-      </c>
-      <c r="CL18" s="20">
-        <v>177516.25698630614</v>
-      </c>
-      <c r="CM18" s="20">
-        <v>169884.06601684046</v>
-      </c>
-      <c r="CN18" s="20">
-        <v>221001.81984399789</v>
-      </c>
-      <c r="CO18" s="20">
-        <v>238204.46066998411</v>
+      <c r="CK18" s="12">
+        <v>174825.18551046107</v>
+      </c>
+      <c r="CL18" s="12">
+        <v>177396.1276068271</v>
+      </c>
+      <c r="CM18" s="12">
+        <v>170166.90867479116</v>
+      </c>
+      <c r="CN18" s="12">
+        <v>220849.41196241841</v>
+      </c>
+      <c r="CO18" s="12">
+        <v>238109.67406402683</v>
       </c>
       <c r="CP18" s="10"/>
       <c r="CQ18" s="10"/>
@@ -26645,14 +26641,14 @@
       <c r="CE19" s="14"/>
       <c r="CF19" s="14"/>
       <c r="CG19" s="14"/>
-      <c r="CH19" s="21"/>
-      <c r="CI19" s="21"/>
-      <c r="CJ19" s="21"/>
-      <c r="CK19" s="21"/>
-      <c r="CL19" s="21"/>
-      <c r="CM19" s="21"/>
-      <c r="CN19" s="21"/>
-      <c r="CO19" s="21"/>
+      <c r="CH19" s="14"/>
+      <c r="CI19" s="14"/>
+      <c r="CJ19" s="14"/>
+      <c r="CK19" s="14"/>
+      <c r="CL19" s="14"/>
+      <c r="CM19" s="14"/>
+      <c r="CN19" s="14"/>
+      <c r="CO19" s="14"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -26981,7 +26977,7 @@
     </row>
     <row r="25" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -27177,7 +27173,7 @@
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -27465,144 +27461,144 @@
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="23">
+      <c r="B31" s="19">
         <v>2000</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="23">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="19">
         <v>2001</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="23">
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="19">
         <v>2002</v>
       </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="23">
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="19">
         <v>2003</v>
       </c>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="23">
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="19">
         <v>2004</v>
       </c>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="23">
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="19">
         <v>2005</v>
       </c>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="23">
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="19">
         <v>2006</v>
       </c>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="23">
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="19">
         <v>2007</v>
       </c>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="25"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="23">
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="19">
         <v>2008</v>
       </c>
-      <c r="AI31" s="25"/>
-      <c r="AJ31" s="25"/>
-      <c r="AK31" s="25"/>
-      <c r="AL31" s="23">
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="19">
         <v>2009</v>
       </c>
-      <c r="AM31" s="25"/>
-      <c r="AN31" s="25"/>
-      <c r="AO31" s="25"/>
-      <c r="AP31" s="23">
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="20"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="25"/>
-      <c r="AR31" s="25"/>
-      <c r="AS31" s="25"/>
-      <c r="AT31" s="23">
+      <c r="AQ31" s="20"/>
+      <c r="AR31" s="20"/>
+      <c r="AS31" s="20"/>
+      <c r="AT31" s="19">
         <v>2011</v>
       </c>
-      <c r="AU31" s="25"/>
-      <c r="AV31" s="25"/>
-      <c r="AW31" s="25"/>
-      <c r="AX31" s="23">
+      <c r="AU31" s="20"/>
+      <c r="AV31" s="20"/>
+      <c r="AW31" s="20"/>
+      <c r="AX31" s="19">
         <v>2012</v>
       </c>
-      <c r="AY31" s="25"/>
-      <c r="AZ31" s="25"/>
-      <c r="BA31" s="25"/>
-      <c r="BB31" s="23">
+      <c r="AY31" s="20"/>
+      <c r="AZ31" s="20"/>
+      <c r="BA31" s="20"/>
+      <c r="BB31" s="19">
         <v>2013</v>
       </c>
-      <c r="BC31" s="25"/>
-      <c r="BD31" s="25"/>
-      <c r="BE31" s="25"/>
-      <c r="BF31" s="23">
+      <c r="BC31" s="20"/>
+      <c r="BD31" s="20"/>
+      <c r="BE31" s="20"/>
+      <c r="BF31" s="19">
         <v>2014</v>
       </c>
-      <c r="BG31" s="25"/>
-      <c r="BH31" s="25"/>
-      <c r="BI31" s="25"/>
-      <c r="BJ31" s="23">
+      <c r="BG31" s="20"/>
+      <c r="BH31" s="20"/>
+      <c r="BI31" s="20"/>
+      <c r="BJ31" s="19">
         <v>2015</v>
       </c>
-      <c r="BK31" s="25"/>
-      <c r="BL31" s="25"/>
-      <c r="BM31" s="25"/>
-      <c r="BN31" s="23">
+      <c r="BK31" s="20"/>
+      <c r="BL31" s="20"/>
+      <c r="BM31" s="20"/>
+      <c r="BN31" s="19">
         <v>2016</v>
       </c>
-      <c r="BO31" s="25"/>
-      <c r="BP31" s="25"/>
-      <c r="BQ31" s="25"/>
-      <c r="BR31" s="23">
+      <c r="BO31" s="20"/>
+      <c r="BP31" s="20"/>
+      <c r="BQ31" s="20"/>
+      <c r="BR31" s="19">
         <v>2017</v>
       </c>
-      <c r="BS31" s="25"/>
-      <c r="BT31" s="25"/>
-      <c r="BU31" s="25"/>
-      <c r="BV31" s="23">
+      <c r="BS31" s="20"/>
+      <c r="BT31" s="20"/>
+      <c r="BU31" s="20"/>
+      <c r="BV31" s="19">
         <v>2018</v>
       </c>
-      <c r="BW31" s="25"/>
-      <c r="BX31" s="25"/>
-      <c r="BY31" s="25"/>
-      <c r="BZ31" s="23">
+      <c r="BW31" s="20"/>
+      <c r="BX31" s="20"/>
+      <c r="BY31" s="20"/>
+      <c r="BZ31" s="19">
         <v>2019</v>
       </c>
-      <c r="CA31" s="25"/>
-      <c r="CB31" s="25"/>
-      <c r="CC31" s="25"/>
-      <c r="CD31" s="23">
+      <c r="CA31" s="20"/>
+      <c r="CB31" s="20"/>
+      <c r="CC31" s="20"/>
+      <c r="CD31" s="19">
         <v>2020</v>
       </c>
-      <c r="CE31" s="25"/>
-      <c r="CF31" s="25"/>
-      <c r="CG31" s="25"/>
-      <c r="CH31" s="23">
+      <c r="CE31" s="20"/>
+      <c r="CF31" s="20"/>
+      <c r="CG31" s="20"/>
+      <c r="CH31" s="19">
         <v>2021</v>
       </c>
-      <c r="CI31" s="23"/>
-      <c r="CJ31" s="23"/>
-      <c r="CK31" s="23"/>
-      <c r="CL31" s="23">
+      <c r="CI31" s="20"/>
+      <c r="CJ31" s="20"/>
+      <c r="CK31" s="20"/>
+      <c r="CL31" s="19">
         <v>2022</v>
       </c>
-      <c r="CM31" s="23"/>
-      <c r="CN31" s="23"/>
-      <c r="CO31" s="23"/>
+      <c r="CM31" s="20"/>
+      <c r="CN31" s="20"/>
+      <c r="CO31" s="20"/>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -28144,29 +28140,29 @@
       <c r="CG34" s="9">
         <v>78892.263529082004</v>
       </c>
-      <c r="CH34" s="19">
+      <c r="CH34" s="9">
         <v>72693.252434721246</v>
       </c>
-      <c r="CI34" s="19">
+      <c r="CI34" s="9">
         <v>51224.972026472547</v>
       </c>
-      <c r="CJ34" s="19">
+      <c r="CJ34" s="9">
         <v>69968.767388608554</v>
       </c>
-      <c r="CK34" s="19">
-        <v>91982.776736998538</v>
-      </c>
-      <c r="CL34" s="19">
-        <v>85221.509933851848</v>
-      </c>
-      <c r="CM34" s="19">
-        <v>67097.02083937703</v>
-      </c>
-      <c r="CN34" s="19">
-        <v>89909.551326803863</v>
-      </c>
-      <c r="CO34" s="19">
-        <v>106076.51907657288</v>
+      <c r="CK34" s="9">
+        <v>92252.123079514247</v>
+      </c>
+      <c r="CL34" s="9">
+        <v>85348.710133698143</v>
+      </c>
+      <c r="CM34" s="9">
+        <v>67145.01908077547</v>
+      </c>
+      <c r="CN34" s="9">
+        <v>89988.179900677991</v>
+      </c>
+      <c r="CO34" s="9">
+        <v>106276.44833839743</v>
       </c>
       <c r="CP34" s="10"/>
       <c r="CQ34" s="10"/>
@@ -28486,29 +28482,29 @@
       <c r="CG35" s="9">
         <v>5748.9168303779634</v>
       </c>
-      <c r="CH35" s="19">
+      <c r="CH35" s="9">
         <v>6485.3406307277664</v>
       </c>
-      <c r="CI35" s="19">
+      <c r="CI35" s="9">
         <v>5622.8897902546669</v>
       </c>
-      <c r="CJ35" s="19">
+      <c r="CJ35" s="9">
         <v>5641.7249530700356</v>
       </c>
-      <c r="CK35" s="19">
-        <v>7076.4642432754972</v>
-      </c>
-      <c r="CL35" s="19">
-        <v>8705.3053754757075</v>
-      </c>
-      <c r="CM35" s="19">
-        <v>6322.9510523379322</v>
-      </c>
-      <c r="CN35" s="19">
-        <v>5981.790996697282</v>
-      </c>
-      <c r="CO35" s="19">
-        <v>9703.7959053860432</v>
+      <c r="CK35" s="9">
+        <v>7088.4754867296288</v>
+      </c>
+      <c r="CL35" s="9">
+        <v>8733.9693321251852</v>
+      </c>
+      <c r="CM35" s="9">
+        <v>6407.568160262229</v>
+      </c>
+      <c r="CN35" s="9">
+        <v>5964.0797825333484</v>
+      </c>
+      <c r="CO35" s="9">
+        <v>9820.3919649366053</v>
       </c>
       <c r="CP35" s="10"/>
       <c r="CQ35" s="10"/>
@@ -28828,29 +28824,29 @@
       <c r="CG36" s="9">
         <v>5724.8352232651596</v>
       </c>
-      <c r="CH36" s="19">
+      <c r="CH36" s="9">
         <v>6945.0277659908534</v>
       </c>
-      <c r="CI36" s="19">
+      <c r="CI36" s="9">
         <v>3794.5940396513961</v>
       </c>
-      <c r="CJ36" s="19">
+      <c r="CJ36" s="9">
         <v>7715.1993628660421</v>
       </c>
-      <c r="CK36" s="19">
+      <c r="CK36" s="9">
         <v>9877.5561037619118</v>
       </c>
-      <c r="CL36" s="19">
+      <c r="CL36" s="9">
         <v>18325.805539719899</v>
       </c>
-      <c r="CM36" s="19">
+      <c r="CM36" s="9">
         <v>17025.259549398193</v>
       </c>
-      <c r="CN36" s="19">
+      <c r="CN36" s="9">
         <v>19697.048462697538</v>
       </c>
-      <c r="CO36" s="19">
-        <v>23891.640005095804</v>
+      <c r="CO36" s="9">
+        <v>23671.991341686968</v>
       </c>
       <c r="CP36" s="10"/>
       <c r="CQ36" s="10"/>
@@ -29170,29 +29166,29 @@
       <c r="CG37" s="9">
         <v>40204.181905661972</v>
       </c>
-      <c r="CH37" s="19">
+      <c r="CH37" s="9">
         <v>40984.048343767317</v>
       </c>
-      <c r="CI37" s="19">
+      <c r="CI37" s="9">
         <v>40991.50518060902</v>
       </c>
-      <c r="CJ37" s="19">
+      <c r="CJ37" s="9">
         <v>46702.18850791359</v>
       </c>
-      <c r="CK37" s="19">
-        <v>47457.6089120092</v>
-      </c>
-      <c r="CL37" s="19">
-        <v>50549.911723644807</v>
-      </c>
-      <c r="CM37" s="19">
-        <v>41711.437069246</v>
-      </c>
-      <c r="CN37" s="19">
-        <v>47904.394361499959</v>
-      </c>
-      <c r="CO37" s="19">
-        <v>48479.990057567396</v>
+      <c r="CK37" s="9">
+        <v>47702.781019455986</v>
+      </c>
+      <c r="CL37" s="9">
+        <v>50251.808163641748</v>
+      </c>
+      <c r="CM37" s="9">
+        <v>41820.771885110211</v>
+      </c>
+      <c r="CN37" s="9">
+        <v>47699.298706087051</v>
+      </c>
+      <c r="CO37" s="9">
+        <v>48651.253709856661</v>
       </c>
       <c r="CP37" s="10"/>
       <c r="CQ37" s="10"/>
@@ -29512,29 +29508,29 @@
       <c r="CG38" s="9">
         <v>8665.3682349485935</v>
       </c>
-      <c r="CH38" s="19">
+      <c r="CH38" s="9">
         <v>7971.4624866455233</v>
       </c>
-      <c r="CI38" s="19">
+      <c r="CI38" s="9">
         <v>8848.2050604570431</v>
       </c>
-      <c r="CJ38" s="19">
+      <c r="CJ38" s="9">
         <v>6701.7194389334336</v>
       </c>
-      <c r="CK38" s="19">
-        <v>8856.9889436013382</v>
-      </c>
-      <c r="CL38" s="19">
-        <v>7775.5467305363509</v>
-      </c>
-      <c r="CM38" s="19">
+      <c r="CK38" s="9">
+        <v>8595.0612567754397</v>
+      </c>
+      <c r="CL38" s="9">
+        <v>7773.9350940748318</v>
+      </c>
+      <c r="CM38" s="9">
         <v>8608.2139647257463</v>
       </c>
-      <c r="CN38" s="19">
-        <v>6895.0044680130759</v>
-      </c>
-      <c r="CO38" s="19">
-        <v>8794.8346287548011</v>
+      <c r="CN38" s="9">
+        <v>6894.384820837442</v>
+      </c>
+      <c r="CO38" s="9">
+        <v>8456.5964705626266</v>
       </c>
       <c r="CP38" s="10"/>
       <c r="CQ38" s="10"/>
@@ -30009,29 +30005,29 @@
       <c r="CG40" s="12">
         <v>139235.56572333569</v>
       </c>
-      <c r="CH40" s="20">
+      <c r="CH40" s="12">
         <v>135079.13166185271</v>
       </c>
-      <c r="CI40" s="20">
+      <c r="CI40" s="12">
         <v>110482.16609744467</v>
       </c>
-      <c r="CJ40" s="20">
+      <c r="CJ40" s="12">
         <v>136729.59965139168</v>
       </c>
-      <c r="CK40" s="20">
-        <v>165251.39493964647</v>
-      </c>
-      <c r="CL40" s="20">
-        <v>170578.07930322862</v>
-      </c>
-      <c r="CM40" s="20">
-        <v>140764.88247508492</v>
-      </c>
-      <c r="CN40" s="20">
-        <v>170387.78961571172</v>
-      </c>
-      <c r="CO40" s="20">
-        <v>196946.77967337691</v>
+      <c r="CK40" s="12">
+        <v>165515.9969462372</v>
+      </c>
+      <c r="CL40" s="12">
+        <v>170434.22826325981</v>
+      </c>
+      <c r="CM40" s="12">
+        <v>141006.83264027187</v>
+      </c>
+      <c r="CN40" s="12">
+        <v>170242.99167283336</v>
+      </c>
+      <c r="CO40" s="12">
+        <v>196876.68182544026</v>
       </c>
       <c r="CP40" s="10"/>
       <c r="CQ40" s="10"/>
@@ -30517,7 +30513,7 @@
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -30527,7 +30523,7 @@
     </row>
     <row r="50" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
@@ -30540,142 +30536,142 @@
     </row>
     <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23" t="s">
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23" t="s">
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23" t="s">
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23" t="s">
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23" t="s">
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23"/>
-      <c r="Z53" s="23" t="s">
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AA53" s="23"/>
-      <c r="AB53" s="23"/>
-      <c r="AC53" s="23"/>
-      <c r="AD53" s="23" t="s">
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AE53" s="23"/>
-      <c r="AF53" s="23"/>
-      <c r="AG53" s="23"/>
-      <c r="AH53" s="23" t="s">
+      <c r="AE53" s="19"/>
+      <c r="AF53" s="19"/>
+      <c r="AG53" s="19"/>
+      <c r="AH53" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AI53" s="23"/>
-      <c r="AJ53" s="23"/>
-      <c r="AK53" s="23"/>
-      <c r="AL53" s="23" t="s">
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="19"/>
+      <c r="AK53" s="19"/>
+      <c r="AL53" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AM53" s="23"/>
-      <c r="AN53" s="23"/>
-      <c r="AO53" s="23"/>
-      <c r="AP53" s="23" t="s">
+      <c r="AM53" s="19"/>
+      <c r="AN53" s="19"/>
+      <c r="AO53" s="19"/>
+      <c r="AP53" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AQ53" s="23"/>
-      <c r="AR53" s="23"/>
-      <c r="AS53" s="23"/>
-      <c r="AT53" s="23" t="s">
+      <c r="AQ53" s="19"/>
+      <c r="AR53" s="19"/>
+      <c r="AS53" s="19"/>
+      <c r="AT53" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AU53" s="23"/>
-      <c r="AV53" s="23"/>
-      <c r="AW53" s="23"/>
-      <c r="AX53" s="23" t="s">
+      <c r="AU53" s="19"/>
+      <c r="AV53" s="19"/>
+      <c r="AW53" s="19"/>
+      <c r="AX53" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AY53" s="23"/>
-      <c r="AZ53" s="23"/>
-      <c r="BA53" s="23"/>
-      <c r="BB53" s="23" t="s">
+      <c r="AY53" s="19"/>
+      <c r="AZ53" s="19"/>
+      <c r="BA53" s="19"/>
+      <c r="BB53" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BC53" s="23"/>
-      <c r="BD53" s="23"/>
-      <c r="BE53" s="23"/>
-      <c r="BF53" s="23" t="s">
+      <c r="BC53" s="19"/>
+      <c r="BD53" s="19"/>
+      <c r="BE53" s="19"/>
+      <c r="BF53" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="BG53" s="23"/>
-      <c r="BH53" s="23"/>
-      <c r="BI53" s="23"/>
-      <c r="BJ53" s="23" t="s">
+      <c r="BG53" s="19"/>
+      <c r="BH53" s="19"/>
+      <c r="BI53" s="19"/>
+      <c r="BJ53" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BK53" s="23"/>
-      <c r="BL53" s="23"/>
-      <c r="BM53" s="23"/>
-      <c r="BN53" s="23" t="s">
+      <c r="BK53" s="19"/>
+      <c r="BL53" s="19"/>
+      <c r="BM53" s="19"/>
+      <c r="BN53" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BO53" s="23"/>
-      <c r="BP53" s="23"/>
-      <c r="BQ53" s="23"/>
-      <c r="BR53" s="23" t="s">
+      <c r="BO53" s="19"/>
+      <c r="BP53" s="19"/>
+      <c r="BQ53" s="19"/>
+      <c r="BR53" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BS53" s="23"/>
-      <c r="BT53" s="23"/>
-      <c r="BU53" s="23"/>
-      <c r="BV53" s="23" t="s">
+      <c r="BS53" s="19"/>
+      <c r="BT53" s="19"/>
+      <c r="BU53" s="19"/>
+      <c r="BV53" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="BW53" s="23"/>
-      <c r="BX53" s="23"/>
-      <c r="BY53" s="23"/>
-      <c r="BZ53" s="23" t="s">
+      <c r="BW53" s="19"/>
+      <c r="BX53" s="19"/>
+      <c r="BY53" s="19"/>
+      <c r="BZ53" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="23"/>
-      <c r="CB53" s="23"/>
-      <c r="CC53" s="23"/>
-      <c r="CD53" s="23" t="s">
+      <c r="CA53" s="19"/>
+      <c r="CB53" s="19"/>
+      <c r="CC53" s="19"/>
+      <c r="CD53" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CE53" s="23"/>
-      <c r="CF53" s="23"/>
-      <c r="CG53" s="23"/>
-      <c r="CH53" s="23" t="s">
+      <c r="CE53" s="19"/>
+      <c r="CF53" s="19"/>
+      <c r="CG53" s="19"/>
+      <c r="CH53" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="CI53" s="23"/>
-      <c r="CJ53" s="23"/>
-      <c r="CK53" s="23"/>
-      <c r="CL53" s="23"/>
-      <c r="CM53" s="23"/>
-      <c r="CN53" s="22"/>
-      <c r="CO53" s="22"/>
+      <c r="CI53" s="19"/>
+      <c r="CJ53" s="19"/>
+      <c r="CK53" s="19"/>
+      <c r="CL53" s="19"/>
+      <c r="CM53" s="19"/>
+      <c r="CN53" s="19"/>
+      <c r="CO53" s="19"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -31207,19 +31203,19 @@
         <v>17.679139699711584</v>
       </c>
       <c r="CG56" s="16">
-        <v>17.350752335380861</v>
+        <v>17.694381839232221</v>
       </c>
       <c r="CH56" s="16">
-        <v>18.25435537840508</v>
+        <v>18.430859850673926</v>
       </c>
       <c r="CI56" s="16">
-        <v>32.657722223425992</v>
+        <v>32.752619691226954</v>
       </c>
       <c r="CJ56" s="16">
-        <v>36.509656937081786</v>
+        <v>36.629038687814784</v>
       </c>
       <c r="CK56" s="16">
-        <v>28.26149830364696</v>
+        <v>28.128053153213529</v>
       </c>
       <c r="CL56" s="16"/>
       <c r="CM56" s="16"/>
@@ -31537,19 +31533,19 @@
         <v>4.8582561597319938</v>
       </c>
       <c r="CG57" s="16">
-        <v>0.98478437722562262</v>
+        <v>1.1561909990382588</v>
       </c>
       <c r="CH57" s="16">
-        <v>15.146166548271324</v>
+        <v>15.525308299644138</v>
       </c>
       <c r="CI57" s="16">
-        <v>31.871312290201047</v>
+        <v>33.636084620686404</v>
       </c>
       <c r="CJ57" s="16">
-        <v>34.724208557640281</v>
+        <v>34.325309747543344</v>
       </c>
       <c r="CK57" s="16">
-        <v>31.913620316930178</v>
+        <v>33.272419708212254</v>
       </c>
       <c r="CL57" s="16"/>
       <c r="CM57" s="16"/>
@@ -31879,7 +31875,7 @@
         <v>218.33730626555712</v>
       </c>
       <c r="CK58" s="16">
-        <v>210.90041187344258</v>
+        <v>208.04213760232955</v>
       </c>
       <c r="CL58" s="16"/>
       <c r="CM58" s="16"/>
@@ -32197,19 +32193,19 @@
         <v>4.6355522652081476</v>
       </c>
       <c r="CG59" s="16">
-        <v>9.6723334493174633</v>
+        <v>10.238914820288485</v>
       </c>
       <c r="CH59" s="16">
-        <v>18.982871416634282</v>
+        <v>18.2812041665984</v>
       </c>
       <c r="CI59" s="16">
-        <v>10.618117588349605</v>
+        <v>10.908071911852986</v>
       </c>
       <c r="CJ59" s="16">
-        <v>20.111284130241984</v>
+        <v>19.59704524110623</v>
       </c>
       <c r="CK59" s="16">
-        <v>21.840874682863443</v>
+        <v>21.642875170028205</v>
       </c>
       <c r="CL59" s="16"/>
       <c r="CM59" s="16"/>
@@ -32527,19 +32523,19 @@
         <v>-6.329729239590506</v>
       </c>
       <c r="CG60" s="16">
-        <v>2.2113394775298048</v>
+        <v>-0.81135592010500091</v>
       </c>
       <c r="CH60" s="16">
-        <v>-2.3601717965031668</v>
+        <v>-2.3804095897648665</v>
       </c>
       <c r="CI60" s="16">
         <v>-2.5262953794607768</v>
       </c>
       <c r="CJ60" s="16">
-        <v>3.1134705063343233</v>
+        <v>3.1042038015677491</v>
       </c>
       <c r="CK60" s="16">
-        <v>-0.51207299666747019</v>
+        <v>-1.4230361552405384</v>
       </c>
       <c r="CL60" s="16"/>
       <c r="CM60" s="16"/>
@@ -33008,19 +33004,19 @@
         <v>14.017339059249181</v>
       </c>
       <c r="CG62" s="16">
-        <v>16.244429953222465</v>
+        <v>16.43419511984554</v>
       </c>
       <c r="CH62" s="16">
-        <v>23.721074736691222</v>
+        <v>23.637349808118941</v>
       </c>
       <c r="CI62" s="16">
-        <v>32.597821964774596</v>
+        <v>32.818586167576711</v>
       </c>
       <c r="CJ62" s="16">
-        <v>39.189578506506479</v>
+        <v>39.093590207346381</v>
       </c>
       <c r="CK62" s="16">
-        <v>36.475371574622983</v>
+        <v>36.198725240179414</v>
       </c>
       <c r="CL62" s="16"/>
       <c r="CM62" s="16"/>
@@ -33498,7 +33494,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:150" x14ac:dyDescent="0.2">
@@ -33508,7 +33504,7 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
@@ -33518,142 +33514,142 @@
     </row>
     <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="23" t="s">
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="23" t="s">
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="23" t="s">
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="23" t="s">
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="S75" s="24"/>
-      <c r="T75" s="24"/>
-      <c r="U75" s="24"/>
-      <c r="V75" s="23" t="s">
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W75" s="24"/>
-      <c r="X75" s="24"/>
-      <c r="Y75" s="24"/>
-      <c r="Z75" s="23" t="s">
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AA75" s="24"/>
-      <c r="AB75" s="24"/>
-      <c r="AC75" s="24"/>
-      <c r="AD75" s="23" t="s">
+      <c r="AA75" s="21"/>
+      <c r="AB75" s="21"/>
+      <c r="AC75" s="21"/>
+      <c r="AD75" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="24"/>
-      <c r="AF75" s="24"/>
-      <c r="AG75" s="24"/>
-      <c r="AH75" s="23" t="s">
+      <c r="AE75" s="21"/>
+      <c r="AF75" s="21"/>
+      <c r="AG75" s="21"/>
+      <c r="AH75" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="24"/>
-      <c r="AJ75" s="24"/>
-      <c r="AK75" s="24"/>
-      <c r="AL75" s="23" t="s">
+      <c r="AI75" s="21"/>
+      <c r="AJ75" s="21"/>
+      <c r="AK75" s="21"/>
+      <c r="AL75" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AM75" s="24"/>
-      <c r="AN75" s="24"/>
-      <c r="AO75" s="24"/>
-      <c r="AP75" s="23" t="s">
+      <c r="AM75" s="21"/>
+      <c r="AN75" s="21"/>
+      <c r="AO75" s="21"/>
+      <c r="AP75" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AQ75" s="24"/>
-      <c r="AR75" s="24"/>
-      <c r="AS75" s="24"/>
-      <c r="AT75" s="23" t="s">
+      <c r="AQ75" s="21"/>
+      <c r="AR75" s="21"/>
+      <c r="AS75" s="21"/>
+      <c r="AT75" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AU75" s="24"/>
-      <c r="AV75" s="24"/>
-      <c r="AW75" s="24"/>
-      <c r="AX75" s="23" t="s">
+      <c r="AU75" s="21"/>
+      <c r="AV75" s="21"/>
+      <c r="AW75" s="21"/>
+      <c r="AX75" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AY75" s="24"/>
-      <c r="AZ75" s="24"/>
-      <c r="BA75" s="24"/>
-      <c r="BB75" s="23" t="s">
+      <c r="AY75" s="21"/>
+      <c r="AZ75" s="21"/>
+      <c r="BA75" s="21"/>
+      <c r="BB75" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BC75" s="24"/>
-      <c r="BD75" s="24"/>
-      <c r="BE75" s="24"/>
-      <c r="BF75" s="23" t="s">
+      <c r="BC75" s="21"/>
+      <c r="BD75" s="21"/>
+      <c r="BE75" s="21"/>
+      <c r="BF75" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="BG75" s="24"/>
-      <c r="BH75" s="24"/>
-      <c r="BI75" s="24"/>
-      <c r="BJ75" s="23" t="s">
+      <c r="BG75" s="21"/>
+      <c r="BH75" s="21"/>
+      <c r="BI75" s="21"/>
+      <c r="BJ75" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BK75" s="24"/>
-      <c r="BL75" s="24"/>
-      <c r="BM75" s="24"/>
-      <c r="BN75" s="23" t="s">
+      <c r="BK75" s="21"/>
+      <c r="BL75" s="21"/>
+      <c r="BM75" s="21"/>
+      <c r="BN75" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BO75" s="24"/>
-      <c r="BP75" s="24"/>
-      <c r="BQ75" s="24"/>
-      <c r="BR75" s="23" t="s">
+      <c r="BO75" s="21"/>
+      <c r="BP75" s="21"/>
+      <c r="BQ75" s="21"/>
+      <c r="BR75" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BS75" s="24"/>
-      <c r="BT75" s="24"/>
-      <c r="BU75" s="24"/>
-      <c r="BV75" s="23" t="s">
+      <c r="BS75" s="21"/>
+      <c r="BT75" s="21"/>
+      <c r="BU75" s="21"/>
+      <c r="BV75" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="BW75" s="24"/>
-      <c r="BX75" s="24"/>
-      <c r="BY75" s="24"/>
-      <c r="BZ75" s="23" t="s">
+      <c r="BW75" s="21"/>
+      <c r="BX75" s="21"/>
+      <c r="BY75" s="21"/>
+      <c r="BZ75" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="24"/>
-      <c r="CB75" s="24"/>
-      <c r="CC75" s="24"/>
-      <c r="CD75" s="23" t="s">
+      <c r="CA75" s="21"/>
+      <c r="CB75" s="21"/>
+      <c r="CC75" s="21"/>
+      <c r="CD75" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CE75" s="24"/>
-      <c r="CF75" s="24"/>
-      <c r="CG75" s="24"/>
-      <c r="CH75" s="23" t="s">
+      <c r="CE75" s="21"/>
+      <c r="CF75" s="21"/>
+      <c r="CG75" s="21"/>
+      <c r="CH75" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="CI75" s="23"/>
-      <c r="CJ75" s="23"/>
-      <c r="CK75" s="23"/>
-      <c r="CL75" s="23"/>
-      <c r="CM75" s="23"/>
-      <c r="CN75" s="22"/>
-      <c r="CO75" s="22"/>
+      <c r="CI75" s="21"/>
+      <c r="CJ75" s="21"/>
+      <c r="CK75" s="21"/>
+      <c r="CL75" s="19"/>
+      <c r="CM75" s="21"/>
+      <c r="CN75" s="21"/>
+      <c r="CO75" s="21"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
@@ -34185,19 +34181,19 @@
         <v>14.999647903558682</v>
       </c>
       <c r="CG78" s="16">
-        <v>16.592898495162316</v>
+        <v>16.934308831825319</v>
       </c>
       <c r="CH78" s="16">
-        <v>17.234415959556927</v>
+        <v>17.409398087314273</v>
       </c>
       <c r="CI78" s="16">
-        <v>30.984982880423985</v>
+        <v>31.078683744474489</v>
       </c>
       <c r="CJ78" s="16">
-        <v>28.499550131337344</v>
+        <v>28.611926805686096</v>
       </c>
       <c r="CK78" s="16">
-        <v>15.322153602594341</v>
+        <v>15.202170736813599</v>
       </c>
       <c r="CL78" s="16"/>
       <c r="CM78" s="16"/>
@@ -34515,19 +34511,19 @@
         <v>17.068500792376852</v>
       </c>
       <c r="CG79" s="16">
-        <v>23.092131127773754</v>
+        <v>23.301061676058296</v>
       </c>
       <c r="CH79" s="16">
-        <v>34.230503394527545</v>
+        <v>34.672484136659506</v>
       </c>
       <c r="CI79" s="16">
-        <v>12.450204222330299</v>
+        <v>13.955072912286681</v>
       </c>
       <c r="CJ79" s="16">
-        <v>6.0276962534693297</v>
+        <v>5.7137636475506923</v>
       </c>
       <c r="CK79" s="16">
-        <v>37.127745888170097</v>
+        <v>38.540254294755073</v>
       </c>
       <c r="CL79" s="16"/>
       <c r="CM79" s="16"/>
@@ -34857,7 +34853,7 @@
         <v>155.30187278764603</v>
       </c>
       <c r="CK80" s="16">
-        <v>141.87804912590235</v>
+        <v>139.65433446307011</v>
       </c>
       <c r="CL80" s="16"/>
       <c r="CM80" s="16"/>
@@ -35175,19 +35171,19 @@
         <v>12.125538218182726</v>
       </c>
       <c r="CG81" s="16">
-        <v>18.041473952553488</v>
+        <v>18.65129137906419</v>
       </c>
       <c r="CH81" s="16">
-        <v>23.340455046413751</v>
+        <v>22.613090200699588</v>
       </c>
       <c r="CI81" s="16">
-        <v>1.7562953237871</v>
+        <v>2.0230208694397334</v>
       </c>
       <c r="CJ81" s="16">
-        <v>2.5741959681025577</v>
+        <v>2.1350395560253048</v>
       </c>
       <c r="CK81" s="16">
-        <v>2.154303954617248</v>
+        <v>1.988296426604208</v>
       </c>
       <c r="CL81" s="16"/>
       <c r="CM81" s="16"/>
@@ -35505,19 +35501,19 @@
         <v>-6.3297292395905203</v>
       </c>
       <c r="CG82" s="16">
-        <v>2.2113394775297763</v>
+        <v>-0.81135592010500091</v>
       </c>
       <c r="CH82" s="16">
-        <v>-2.457714082420722</v>
+        <v>-2.4779316581067405</v>
       </c>
       <c r="CI82" s="16">
         <v>-2.7123138997289402</v>
       </c>
       <c r="CJ82" s="16">
-        <v>2.8841110231615943</v>
+        <v>2.8748649307030831</v>
       </c>
       <c r="CK82" s="16">
-        <v>-0.70175445901894307</v>
+        <v>-1.6109807955546813</v>
       </c>
       <c r="CL82" s="16"/>
       <c r="CM82" s="16"/>
@@ -35986,19 +35982,19 @@
         <v>15.491950993576182</v>
       </c>
       <c r="CG84" s="16">
-        <v>18.68475851062712</v>
+        <v>18.87479760388328</v>
       </c>
       <c r="CH84" s="16">
-        <v>26.280112408659392</v>
+        <v>26.173618505271776</v>
       </c>
       <c r="CI84" s="16">
-        <v>27.409596903568172</v>
+        <v>27.628591673252131</v>
       </c>
       <c r="CJ84" s="16">
-        <v>24.616608291208038</v>
+        <v>24.510707342731976</v>
       </c>
       <c r="CK84" s="16">
-        <v>19.180101169679247</v>
+        <v>18.947222901596405</v>
       </c>
       <c r="CL84" s="16"/>
       <c r="CM84" s="16"/>
@@ -36471,7 +36467,7 @@
     </row>
     <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.2">
@@ -36481,7 +36477,7 @@
     </row>
     <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:150" x14ac:dyDescent="0.2">
@@ -36491,144 +36487,144 @@
     </row>
     <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="23">
+      <c r="B96" s="19">
         <v>2000</v>
       </c>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="23">
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="19">
         <v>2001</v>
       </c>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="23">
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="19">
         <v>2002</v>
       </c>
-      <c r="K96" s="25"/>
-      <c r="L96" s="25"/>
-      <c r="M96" s="25"/>
-      <c r="N96" s="23">
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="19">
         <v>2003</v>
       </c>
-      <c r="O96" s="25"/>
-      <c r="P96" s="25"/>
-      <c r="Q96" s="25"/>
-      <c r="R96" s="23">
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="19">
         <v>2004</v>
       </c>
-      <c r="S96" s="25"/>
-      <c r="T96" s="25"/>
-      <c r="U96" s="25"/>
-      <c r="V96" s="23">
+      <c r="S96" s="20"/>
+      <c r="T96" s="20"/>
+      <c r="U96" s="20"/>
+      <c r="V96" s="19">
         <v>2005</v>
       </c>
-      <c r="W96" s="25"/>
-      <c r="X96" s="25"/>
-      <c r="Y96" s="25"/>
-      <c r="Z96" s="23">
+      <c r="W96" s="20"/>
+      <c r="X96" s="20"/>
+      <c r="Y96" s="20"/>
+      <c r="Z96" s="19">
         <v>2006</v>
       </c>
-      <c r="AA96" s="25"/>
-      <c r="AB96" s="25"/>
-      <c r="AC96" s="25"/>
-      <c r="AD96" s="23">
+      <c r="AA96" s="20"/>
+      <c r="AB96" s="20"/>
+      <c r="AC96" s="20"/>
+      <c r="AD96" s="19">
         <v>2007</v>
       </c>
-      <c r="AE96" s="25"/>
-      <c r="AF96" s="25"/>
-      <c r="AG96" s="25"/>
-      <c r="AH96" s="23">
+      <c r="AE96" s="20"/>
+      <c r="AF96" s="20"/>
+      <c r="AG96" s="20"/>
+      <c r="AH96" s="19">
         <v>2008</v>
       </c>
-      <c r="AI96" s="25"/>
-      <c r="AJ96" s="25"/>
-      <c r="AK96" s="25"/>
-      <c r="AL96" s="23">
+      <c r="AI96" s="20"/>
+      <c r="AJ96" s="20"/>
+      <c r="AK96" s="20"/>
+      <c r="AL96" s="19">
         <v>2009</v>
       </c>
-      <c r="AM96" s="25"/>
-      <c r="AN96" s="25"/>
-      <c r="AO96" s="25"/>
-      <c r="AP96" s="23">
+      <c r="AM96" s="20"/>
+      <c r="AN96" s="20"/>
+      <c r="AO96" s="20"/>
+      <c r="AP96" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="25"/>
-      <c r="AR96" s="25"/>
-      <c r="AS96" s="25"/>
-      <c r="AT96" s="23">
+      <c r="AQ96" s="20"/>
+      <c r="AR96" s="20"/>
+      <c r="AS96" s="20"/>
+      <c r="AT96" s="19">
         <v>2011</v>
       </c>
-      <c r="AU96" s="25"/>
-      <c r="AV96" s="25"/>
-      <c r="AW96" s="25"/>
-      <c r="AX96" s="23">
+      <c r="AU96" s="20"/>
+      <c r="AV96" s="20"/>
+      <c r="AW96" s="20"/>
+      <c r="AX96" s="19">
         <v>2012</v>
       </c>
-      <c r="AY96" s="25"/>
-      <c r="AZ96" s="25"/>
-      <c r="BA96" s="25"/>
-      <c r="BB96" s="23">
+      <c r="AY96" s="20"/>
+      <c r="AZ96" s="20"/>
+      <c r="BA96" s="20"/>
+      <c r="BB96" s="19">
         <v>2013</v>
       </c>
-      <c r="BC96" s="25"/>
-      <c r="BD96" s="25"/>
-      <c r="BE96" s="25"/>
-      <c r="BF96" s="23">
+      <c r="BC96" s="20"/>
+      <c r="BD96" s="20"/>
+      <c r="BE96" s="20"/>
+      <c r="BF96" s="19">
         <v>2014</v>
       </c>
-      <c r="BG96" s="25"/>
-      <c r="BH96" s="25"/>
-      <c r="BI96" s="25"/>
-      <c r="BJ96" s="23">
+      <c r="BG96" s="20"/>
+      <c r="BH96" s="20"/>
+      <c r="BI96" s="20"/>
+      <c r="BJ96" s="19">
         <v>2015</v>
       </c>
-      <c r="BK96" s="25"/>
-      <c r="BL96" s="25"/>
-      <c r="BM96" s="25"/>
-      <c r="BN96" s="23">
+      <c r="BK96" s="20"/>
+      <c r="BL96" s="20"/>
+      <c r="BM96" s="20"/>
+      <c r="BN96" s="19">
         <v>2016</v>
       </c>
-      <c r="BO96" s="25"/>
-      <c r="BP96" s="25"/>
-      <c r="BQ96" s="25"/>
-      <c r="BR96" s="23">
+      <c r="BO96" s="20"/>
+      <c r="BP96" s="20"/>
+      <c r="BQ96" s="20"/>
+      <c r="BR96" s="19">
         <v>2017</v>
       </c>
-      <c r="BS96" s="25"/>
-      <c r="BT96" s="25"/>
-      <c r="BU96" s="25"/>
-      <c r="BV96" s="23">
+      <c r="BS96" s="20"/>
+      <c r="BT96" s="20"/>
+      <c r="BU96" s="20"/>
+      <c r="BV96" s="19">
         <v>2018</v>
       </c>
-      <c r="BW96" s="25"/>
-      <c r="BX96" s="25"/>
-      <c r="BY96" s="25"/>
-      <c r="BZ96" s="23">
+      <c r="BW96" s="20"/>
+      <c r="BX96" s="20"/>
+      <c r="BY96" s="20"/>
+      <c r="BZ96" s="19">
         <v>2019</v>
       </c>
-      <c r="CA96" s="25"/>
-      <c r="CB96" s="25"/>
-      <c r="CC96" s="25"/>
-      <c r="CD96" s="23">
+      <c r="CA96" s="20"/>
+      <c r="CB96" s="20"/>
+      <c r="CC96" s="20"/>
+      <c r="CD96" s="19">
         <v>2020</v>
       </c>
-      <c r="CE96" s="25"/>
-      <c r="CF96" s="25"/>
-      <c r="CG96" s="25"/>
-      <c r="CH96" s="23">
+      <c r="CE96" s="20"/>
+      <c r="CF96" s="20"/>
+      <c r="CG96" s="20"/>
+      <c r="CH96" s="19">
         <v>2021</v>
       </c>
-      <c r="CI96" s="23"/>
-      <c r="CJ96" s="23"/>
-      <c r="CK96" s="23"/>
-      <c r="CL96" s="23">
+      <c r="CI96" s="20"/>
+      <c r="CJ96" s="20"/>
+      <c r="CK96" s="20"/>
+      <c r="CL96" s="19">
         <v>2022</v>
       </c>
-      <c r="CM96" s="23"/>
-      <c r="CN96" s="23"/>
-      <c r="CO96" s="23"/>
+      <c r="CM96" s="20"/>
+      <c r="CN96" s="20"/>
+      <c r="CO96" s="20"/>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -37180,19 +37176,19 @@
         <v>131.13775319383839</v>
       </c>
       <c r="CK99" s="16">
-        <v>111.04905710404083</v>
+        <v>111.04905710404087</v>
       </c>
       <c r="CL99" s="16">
-        <v>111.44039659485239</v>
+        <v>111.44039659485242</v>
       </c>
       <c r="CM99" s="16">
-        <v>128.28665890876533</v>
+        <v>128.2866589087653</v>
       </c>
       <c r="CN99" s="16">
-        <v>139.31231418081754</v>
+        <v>139.31231418081757</v>
       </c>
       <c r="CO99" s="16">
-        <v>123.50895300182032</v>
+        <v>123.50895300182034</v>
       </c>
       <c r="CP99" s="10"/>
       <c r="CQ99" s="10"/>
@@ -37525,13 +37521,13 @@
         <v>96.007127085427172</v>
       </c>
       <c r="CL100" s="16">
-        <v>103.40005983270466</v>
+        <v>103.40005983270461</v>
       </c>
       <c r="CM100" s="16">
-        <v>105.68793132655084</v>
+        <v>105.68793132655088</v>
       </c>
       <c r="CN100" s="16">
-        <v>145.52041346807809</v>
+        <v>145.52041346807806</v>
       </c>
       <c r="CO100" s="16">
         <v>92.35656597458059</v>
@@ -37876,7 +37872,7 @@
         <v>126.23217321504225</v>
       </c>
       <c r="CO101" s="16">
-        <v>139.6534581717782</v>
+        <v>139.65345817177814</v>
       </c>
       <c r="CP101" s="10"/>
       <c r="CQ101" s="10"/>
@@ -38206,19 +38202,19 @@
         <v>98.07170961186462</v>
       </c>
       <c r="CK102" s="16">
-        <v>96.862947400733844</v>
+        <v>96.862947400733802</v>
       </c>
       <c r="CL102" s="16">
-        <v>97.244644640328815</v>
+        <v>97.244644640328787</v>
       </c>
       <c r="CM102" s="16">
-        <v>120.58121264491754</v>
+        <v>120.58121264491753</v>
       </c>
       <c r="CN102" s="16">
         <v>114.83900865274465</v>
       </c>
       <c r="CO102" s="16">
-        <v>115.52979932111982</v>
+        <v>115.52979932111987</v>
       </c>
       <c r="CP102" s="10"/>
       <c r="CQ102" s="10"/>
@@ -38551,16 +38547,16 @@
         <v>100.48116508940956</v>
       </c>
       <c r="CL103" s="16">
-        <v>101.17588159218454</v>
+        <v>101.17588159218451</v>
       </c>
       <c r="CM103" s="16">
         <v>104.16644740118019</v>
       </c>
       <c r="CN103" s="16">
-        <v>103.91686246986633</v>
+        <v>103.91686246986632</v>
       </c>
       <c r="CO103" s="16">
-        <v>100.67310618795671</v>
+        <v>100.67310618795669</v>
       </c>
       <c r="CP103" s="10"/>
       <c r="CQ103" s="10"/>
@@ -39045,19 +39041,19 @@
         <v>116.12523022663868</v>
       </c>
       <c r="CK105" s="16">
-        <v>105.62104750321085</v>
+        <v>105.62434371056453</v>
       </c>
       <c r="CL105" s="16">
-        <v>104.06744976342701</v>
+        <v>104.0848011661212</v>
       </c>
       <c r="CM105" s="16">
-        <v>120.68639779307853</v>
+        <v>120.67990287315418</v>
       </c>
       <c r="CN105" s="16">
-        <v>129.70519797365748</v>
+        <v>129.72599329483037</v>
       </c>
       <c r="CO105" s="16">
-        <v>120.9486446363989</v>
+        <v>120.94356317684468</v>
       </c>
       <c r="CP105" s="10"/>
       <c r="CQ105" s="10"/>
@@ -39233,7 +39229,7 @@
     </row>
     <row r="112" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
@@ -39243,7 +39239,7 @@
     </row>
     <row r="115" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:154" x14ac:dyDescent="0.2">
@@ -39253,144 +39249,144 @@
     </row>
     <row r="118" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="23">
+      <c r="B118" s="19">
         <v>2000</v>
       </c>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="23">
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="19">
         <v>2001</v>
       </c>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="23">
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="19">
         <v>2002</v>
       </c>
-      <c r="K118" s="25"/>
-      <c r="L118" s="25"/>
-      <c r="M118" s="25"/>
-      <c r="N118" s="23">
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="20"/>
+      <c r="N118" s="19">
         <v>2003</v>
       </c>
-      <c r="O118" s="25"/>
-      <c r="P118" s="25"/>
-      <c r="Q118" s="25"/>
-      <c r="R118" s="23">
+      <c r="O118" s="20"/>
+      <c r="P118" s="20"/>
+      <c r="Q118" s="20"/>
+      <c r="R118" s="19">
         <v>2004</v>
       </c>
-      <c r="S118" s="25"/>
-      <c r="T118" s="25"/>
-      <c r="U118" s="25"/>
-      <c r="V118" s="23">
+      <c r="S118" s="20"/>
+      <c r="T118" s="20"/>
+      <c r="U118" s="20"/>
+      <c r="V118" s="19">
         <v>2005</v>
       </c>
-      <c r="W118" s="25"/>
-      <c r="X118" s="25"/>
-      <c r="Y118" s="25"/>
-      <c r="Z118" s="23">
+      <c r="W118" s="20"/>
+      <c r="X118" s="20"/>
+      <c r="Y118" s="20"/>
+      <c r="Z118" s="19">
         <v>2006</v>
       </c>
-      <c r="AA118" s="25"/>
-      <c r="AB118" s="25"/>
-      <c r="AC118" s="25"/>
-      <c r="AD118" s="23">
+      <c r="AA118" s="20"/>
+      <c r="AB118" s="20"/>
+      <c r="AC118" s="20"/>
+      <c r="AD118" s="19">
         <v>2007</v>
       </c>
-      <c r="AE118" s="25"/>
-      <c r="AF118" s="25"/>
-      <c r="AG118" s="25"/>
-      <c r="AH118" s="23">
+      <c r="AE118" s="20"/>
+      <c r="AF118" s="20"/>
+      <c r="AG118" s="20"/>
+      <c r="AH118" s="19">
         <v>2008</v>
       </c>
-      <c r="AI118" s="25"/>
-      <c r="AJ118" s="25"/>
-      <c r="AK118" s="25"/>
-      <c r="AL118" s="23">
+      <c r="AI118" s="20"/>
+      <c r="AJ118" s="20"/>
+      <c r="AK118" s="20"/>
+      <c r="AL118" s="19">
         <v>2009</v>
       </c>
-      <c r="AM118" s="25"/>
-      <c r="AN118" s="25"/>
-      <c r="AO118" s="25"/>
-      <c r="AP118" s="23">
+      <c r="AM118" s="20"/>
+      <c r="AN118" s="20"/>
+      <c r="AO118" s="20"/>
+      <c r="AP118" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="25"/>
-      <c r="AR118" s="25"/>
-      <c r="AS118" s="25"/>
-      <c r="AT118" s="23">
+      <c r="AQ118" s="20"/>
+      <c r="AR118" s="20"/>
+      <c r="AS118" s="20"/>
+      <c r="AT118" s="19">
         <v>2011</v>
       </c>
-      <c r="AU118" s="25"/>
-      <c r="AV118" s="25"/>
-      <c r="AW118" s="25"/>
-      <c r="AX118" s="23">
+      <c r="AU118" s="20"/>
+      <c r="AV118" s="20"/>
+      <c r="AW118" s="20"/>
+      <c r="AX118" s="19">
         <v>2012</v>
       </c>
-      <c r="AY118" s="25"/>
-      <c r="AZ118" s="25"/>
-      <c r="BA118" s="25"/>
-      <c r="BB118" s="23">
+      <c r="AY118" s="20"/>
+      <c r="AZ118" s="20"/>
+      <c r="BA118" s="20"/>
+      <c r="BB118" s="19">
         <v>2013</v>
       </c>
-      <c r="BC118" s="25"/>
-      <c r="BD118" s="25"/>
-      <c r="BE118" s="25"/>
-      <c r="BF118" s="23">
+      <c r="BC118" s="20"/>
+      <c r="BD118" s="20"/>
+      <c r="BE118" s="20"/>
+      <c r="BF118" s="19">
         <v>2014</v>
       </c>
-      <c r="BG118" s="25"/>
-      <c r="BH118" s="25"/>
-      <c r="BI118" s="25"/>
-      <c r="BJ118" s="23">
+      <c r="BG118" s="20"/>
+      <c r="BH118" s="20"/>
+      <c r="BI118" s="20"/>
+      <c r="BJ118" s="19">
         <v>2015</v>
       </c>
-      <c r="BK118" s="25"/>
-      <c r="BL118" s="25"/>
-      <c r="BM118" s="25"/>
-      <c r="BN118" s="23">
+      <c r="BK118" s="20"/>
+      <c r="BL118" s="20"/>
+      <c r="BM118" s="20"/>
+      <c r="BN118" s="19">
         <v>2016</v>
       </c>
-      <c r="BO118" s="25"/>
-      <c r="BP118" s="25"/>
-      <c r="BQ118" s="25"/>
-      <c r="BR118" s="23">
+      <c r="BO118" s="20"/>
+      <c r="BP118" s="20"/>
+      <c r="BQ118" s="20"/>
+      <c r="BR118" s="19">
         <v>2017</v>
       </c>
-      <c r="BS118" s="25"/>
-      <c r="BT118" s="25"/>
-      <c r="BU118" s="25"/>
-      <c r="BV118" s="23">
+      <c r="BS118" s="20"/>
+      <c r="BT118" s="20"/>
+      <c r="BU118" s="20"/>
+      <c r="BV118" s="19">
         <v>2018</v>
       </c>
-      <c r="BW118" s="25"/>
-      <c r="BX118" s="25"/>
-      <c r="BY118" s="25"/>
-      <c r="BZ118" s="23">
+      <c r="BW118" s="20"/>
+      <c r="BX118" s="20"/>
+      <c r="BY118" s="20"/>
+      <c r="BZ118" s="19">
         <v>2019</v>
       </c>
-      <c r="CA118" s="25"/>
-      <c r="CB118" s="25"/>
-      <c r="CC118" s="25"/>
-      <c r="CD118" s="23">
+      <c r="CA118" s="20"/>
+      <c r="CB118" s="20"/>
+      <c r="CC118" s="20"/>
+      <c r="CD118" s="19">
         <v>2020</v>
       </c>
-      <c r="CE118" s="25"/>
-      <c r="CF118" s="25"/>
-      <c r="CG118" s="25"/>
-      <c r="CH118" s="23">
+      <c r="CE118" s="20"/>
+      <c r="CF118" s="20"/>
+      <c r="CG118" s="20"/>
+      <c r="CH118" s="19">
         <v>2021</v>
       </c>
-      <c r="CI118" s="23"/>
-      <c r="CJ118" s="23"/>
-      <c r="CK118" s="23"/>
-      <c r="CL118" s="23">
+      <c r="CI118" s="20"/>
+      <c r="CJ118" s="20"/>
+      <c r="CK118" s="20"/>
+      <c r="CL118" s="19">
         <v>2022</v>
       </c>
-      <c r="CM118" s="23"/>
-      <c r="CN118" s="23"/>
-      <c r="CO118" s="23"/>
+      <c r="CM118" s="20"/>
+      <c r="CN118" s="20"/>
+      <c r="CO118" s="20"/>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
@@ -39942,19 +39938,19 @@
         <v>57.788687591407161</v>
       </c>
       <c r="CK121" s="16">
-        <v>58.522892982814334</v>
+        <v>58.598600961947668</v>
       </c>
       <c r="CL121" s="16">
-        <v>53.499995023966875</v>
+        <v>53.616131504509667</v>
       </c>
       <c r="CM121" s="16">
-        <v>50.667804391744497</v>
+        <v>50.61977224196967</v>
       </c>
       <c r="CN121" s="16">
-        <v>56.67603855541833</v>
+        <v>56.764749697483886</v>
       </c>
       <c r="CO121" s="16">
-        <v>55.000648486495905</v>
+        <v>55.126247661394714</v>
       </c>
       <c r="CP121" s="10"/>
       <c r="CQ121" s="10"/>
@@ -40284,19 +40280,19 @@
         <v>4.0693063261474363</v>
       </c>
       <c r="CK122" s="16">
-        <v>3.8924602490922506</v>
+        <v>3.8927123967253832</v>
       </c>
       <c r="CL122" s="16">
-        <v>5.0706854232262843</v>
+        <v>5.0908267485991949</v>
       </c>
       <c r="CM122" s="16">
-        <v>3.9336215118278934</v>
+        <v>3.9796375744605066</v>
       </c>
       <c r="CN122" s="16">
-        <v>3.9387580597004588</v>
+        <v>3.9298060529069749</v>
       </c>
       <c r="CO122" s="16">
-        <v>3.7623529980040442</v>
+        <v>3.809075300997748</v>
       </c>
       <c r="CP122" s="10"/>
       <c r="CQ122" s="10"/>
@@ -40626,19 +40622,19 @@
         <v>4.9192007397808499</v>
       </c>
       <c r="CK123" s="16">
-        <v>6.1486639083635239</v>
+        <v>6.1386427781459041</v>
       </c>
       <c r="CL123" s="16">
-        <v>9.3060307098646096</v>
+        <v>9.3123325818934433</v>
       </c>
       <c r="CM123" s="16">
-        <v>10.514179879261384</v>
+        <v>10.496703751814623</v>
       </c>
       <c r="CN123" s="16">
-        <v>11.250591669894092</v>
+        <v>11.258355688044233</v>
       </c>
       <c r="CO123" s="16">
-        <v>14.007085084478707</v>
+        <v>13.883835109488398</v>
       </c>
       <c r="CP123" s="10"/>
       <c r="CQ123" s="10"/>
@@ -40968,19 +40964,19 @@
         <v>28.846415078060268</v>
       </c>
       <c r="CK124" s="16">
-        <v>26.337098527534724</v>
+        <v>26.430013245887856</v>
       </c>
       <c r="CL124" s="16">
-        <v>27.691594480527133</v>
+        <v>27.546932919742321</v>
       </c>
       <c r="CM124" s="16">
-        <v>29.606164844637444</v>
+        <v>29.634430259824729</v>
       </c>
       <c r="CN124" s="16">
-        <v>24.892524244678494</v>
+        <v>24.803055295299227</v>
       </c>
       <c r="CO124" s="16">
-        <v>23.512924597160602</v>
+        <v>23.60538100736407</v>
       </c>
       <c r="CP124" s="10"/>
       <c r="CQ124" s="10"/>
@@ -41310,19 +41306,19 @@
         <v>4.3763902646042876</v>
       </c>
       <c r="CK125" s="16">
-        <v>5.0988843321951718</v>
+        <v>4.9400306172931989</v>
       </c>
       <c r="CL125" s="16">
-        <v>4.4316943624151017</v>
+        <v>4.4337762452553848</v>
       </c>
       <c r="CM125" s="16">
-        <v>5.2782293725288012</v>
+        <v>5.2694561719304831</v>
       </c>
       <c r="CN125" s="16">
-        <v>3.2420874703086211</v>
+        <v>3.244033266265677</v>
       </c>
       <c r="CO125" s="16">
-        <v>3.7169888338607402</v>
+        <v>3.5754609207550541</v>
       </c>
       <c r="CP125" s="10"/>
       <c r="CQ125" s="10"/>
@@ -42305,7 +42301,7 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:154" x14ac:dyDescent="0.2">
@@ -42315,7 +42311,7 @@
     </row>
     <row r="137" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:154" x14ac:dyDescent="0.2">
@@ -42325,144 +42321,144 @@
     </row>
     <row r="140" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="23">
+      <c r="B140" s="19">
         <v>2000</v>
       </c>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="23">
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="19">
         <v>2001</v>
       </c>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25"/>
-      <c r="I140" s="25"/>
-      <c r="J140" s="23">
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="19">
         <v>2002</v>
       </c>
-      <c r="K140" s="25"/>
-      <c r="L140" s="25"/>
-      <c r="M140" s="25"/>
-      <c r="N140" s="23">
+      <c r="K140" s="20"/>
+      <c r="L140" s="20"/>
+      <c r="M140" s="20"/>
+      <c r="N140" s="19">
         <v>2003</v>
       </c>
-      <c r="O140" s="25"/>
-      <c r="P140" s="25"/>
-      <c r="Q140" s="25"/>
-      <c r="R140" s="23">
+      <c r="O140" s="20"/>
+      <c r="P140" s="20"/>
+      <c r="Q140" s="20"/>
+      <c r="R140" s="19">
         <v>2004</v>
       </c>
-      <c r="S140" s="25"/>
-      <c r="T140" s="25"/>
-      <c r="U140" s="25"/>
-      <c r="V140" s="23">
+      <c r="S140" s="20"/>
+      <c r="T140" s="20"/>
+      <c r="U140" s="20"/>
+      <c r="V140" s="19">
         <v>2005</v>
       </c>
-      <c r="W140" s="25"/>
-      <c r="X140" s="25"/>
-      <c r="Y140" s="25"/>
-      <c r="Z140" s="23">
+      <c r="W140" s="20"/>
+      <c r="X140" s="20"/>
+      <c r="Y140" s="20"/>
+      <c r="Z140" s="19">
         <v>2006</v>
       </c>
-      <c r="AA140" s="25"/>
-      <c r="AB140" s="25"/>
-      <c r="AC140" s="25"/>
-      <c r="AD140" s="23">
+      <c r="AA140" s="20"/>
+      <c r="AB140" s="20"/>
+      <c r="AC140" s="20"/>
+      <c r="AD140" s="19">
         <v>2007</v>
       </c>
-      <c r="AE140" s="25"/>
-      <c r="AF140" s="25"/>
-      <c r="AG140" s="25"/>
-      <c r="AH140" s="23">
+      <c r="AE140" s="20"/>
+      <c r="AF140" s="20"/>
+      <c r="AG140" s="20"/>
+      <c r="AH140" s="19">
         <v>2008</v>
       </c>
-      <c r="AI140" s="25"/>
-      <c r="AJ140" s="25"/>
-      <c r="AK140" s="25"/>
-      <c r="AL140" s="23">
+      <c r="AI140" s="20"/>
+      <c r="AJ140" s="20"/>
+      <c r="AK140" s="20"/>
+      <c r="AL140" s="19">
         <v>2009</v>
       </c>
-      <c r="AM140" s="25"/>
-      <c r="AN140" s="25"/>
-      <c r="AO140" s="25"/>
-      <c r="AP140" s="23">
+      <c r="AM140" s="20"/>
+      <c r="AN140" s="20"/>
+      <c r="AO140" s="20"/>
+      <c r="AP140" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="25"/>
-      <c r="AR140" s="25"/>
-      <c r="AS140" s="25"/>
-      <c r="AT140" s="23">
+      <c r="AQ140" s="20"/>
+      <c r="AR140" s="20"/>
+      <c r="AS140" s="20"/>
+      <c r="AT140" s="19">
         <v>2011</v>
       </c>
-      <c r="AU140" s="25"/>
-      <c r="AV140" s="25"/>
-      <c r="AW140" s="25"/>
-      <c r="AX140" s="23">
+      <c r="AU140" s="20"/>
+      <c r="AV140" s="20"/>
+      <c r="AW140" s="20"/>
+      <c r="AX140" s="19">
         <v>2012</v>
       </c>
-      <c r="AY140" s="25"/>
-      <c r="AZ140" s="25"/>
-      <c r="BA140" s="25"/>
-      <c r="BB140" s="23">
+      <c r="AY140" s="20"/>
+      <c r="AZ140" s="20"/>
+      <c r="BA140" s="20"/>
+      <c r="BB140" s="19">
         <v>2013</v>
       </c>
-      <c r="BC140" s="25"/>
-      <c r="BD140" s="25"/>
-      <c r="BE140" s="25"/>
-      <c r="BF140" s="23">
+      <c r="BC140" s="20"/>
+      <c r="BD140" s="20"/>
+      <c r="BE140" s="20"/>
+      <c r="BF140" s="19">
         <v>2014</v>
       </c>
-      <c r="BG140" s="25"/>
-      <c r="BH140" s="25"/>
-      <c r="BI140" s="25"/>
-      <c r="BJ140" s="23">
+      <c r="BG140" s="20"/>
+      <c r="BH140" s="20"/>
+      <c r="BI140" s="20"/>
+      <c r="BJ140" s="19">
         <v>2015</v>
       </c>
-      <c r="BK140" s="25"/>
-      <c r="BL140" s="25"/>
-      <c r="BM140" s="25"/>
-      <c r="BN140" s="23">
+      <c r="BK140" s="20"/>
+      <c r="BL140" s="20"/>
+      <c r="BM140" s="20"/>
+      <c r="BN140" s="19">
         <v>2016</v>
       </c>
-      <c r="BO140" s="25"/>
-      <c r="BP140" s="25"/>
-      <c r="BQ140" s="25"/>
-      <c r="BR140" s="23">
+      <c r="BO140" s="20"/>
+      <c r="BP140" s="20"/>
+      <c r="BQ140" s="20"/>
+      <c r="BR140" s="19">
         <v>2017</v>
       </c>
-      <c r="BS140" s="25"/>
-      <c r="BT140" s="25"/>
-      <c r="BU140" s="25"/>
-      <c r="BV140" s="23">
+      <c r="BS140" s="20"/>
+      <c r="BT140" s="20"/>
+      <c r="BU140" s="20"/>
+      <c r="BV140" s="19">
         <v>2018</v>
       </c>
-      <c r="BW140" s="25"/>
-      <c r="BX140" s="25"/>
-      <c r="BY140" s="25"/>
-      <c r="BZ140" s="23">
+      <c r="BW140" s="20"/>
+      <c r="BX140" s="20"/>
+      <c r="BY140" s="20"/>
+      <c r="BZ140" s="19">
         <v>2019</v>
       </c>
-      <c r="CA140" s="25"/>
-      <c r="CB140" s="25"/>
-      <c r="CC140" s="25"/>
-      <c r="CD140" s="23">
+      <c r="CA140" s="20"/>
+      <c r="CB140" s="20"/>
+      <c r="CC140" s="20"/>
+      <c r="CD140" s="19">
         <v>2020</v>
       </c>
-      <c r="CE140" s="25"/>
-      <c r="CF140" s="25"/>
-      <c r="CG140" s="25"/>
-      <c r="CH140" s="23">
+      <c r="CE140" s="20"/>
+      <c r="CF140" s="20"/>
+      <c r="CG140" s="20"/>
+      <c r="CH140" s="19">
         <v>2021</v>
       </c>
-      <c r="CI140" s="23"/>
-      <c r="CJ140" s="23"/>
-      <c r="CK140" s="23"/>
-      <c r="CL140" s="23">
+      <c r="CI140" s="20"/>
+      <c r="CJ140" s="20"/>
+      <c r="CK140" s="20"/>
+      <c r="CL140" s="19">
         <v>2022</v>
       </c>
-      <c r="CM140" s="23"/>
-      <c r="CN140" s="23"/>
-      <c r="CO140" s="23"/>
+      <c r="CM140" s="20"/>
+      <c r="CN140" s="20"/>
+      <c r="CO140" s="20"/>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
@@ -43014,19 +43010,19 @@
         <v>51.173094609362003</v>
       </c>
       <c r="CK143" s="16">
-        <v>55.662329973427894</v>
+        <v>55.736076742769171</v>
       </c>
       <c r="CL143" s="16">
-        <v>49.960411256804917</v>
+        <v>50.077212191124531</v>
       </c>
       <c r="CM143" s="16">
-        <v>47.666022703676155</v>
+        <v>47.618273401028581</v>
       </c>
       <c r="CN143" s="16">
-        <v>52.76760237901059</v>
+        <v>52.858669256478954</v>
       </c>
       <c r="CO143" s="16">
-        <v>53.860499396077309</v>
+        <v>53.981226904579238</v>
       </c>
       <c r="CP143" s="10"/>
       <c r="CQ143" s="10"/>
@@ -43356,19 +43352,19 @@
         <v>4.1261913787901685</v>
       </c>
       <c r="CK144" s="16">
-        <v>4.2822417601134211</v>
+        <v>4.2826528054760189</v>
       </c>
       <c r="CL144" s="16">
-        <v>5.103413880045335</v>
+        <v>5.1245394901746684</v>
       </c>
       <c r="CM144" s="16">
-        <v>4.4918526134933412</v>
+        <v>4.544154379106458</v>
       </c>
       <c r="CN144" s="16">
-        <v>3.510692292087632</v>
+        <v>3.5032747744441046</v>
       </c>
       <c r="CO144" s="16">
-        <v>4.927115803304396</v>
+        <v>4.9880929899274751</v>
       </c>
       <c r="CP144" s="10"/>
       <c r="CQ144" s="10"/>
@@ -43698,19 +43694,19 @@
         <v>5.6426694604071521</v>
       </c>
       <c r="CK145" s="16">
-        <v>5.9772906046387186</v>
+        <v>5.9677350141390466</v>
       </c>
       <c r="CL145" s="16">
-        <v>10.743353199060811</v>
+        <v>10.75242087605378</v>
       </c>
       <c r="CM145" s="16">
-        <v>12.094820277643912</v>
+        <v>12.074067072219124</v>
       </c>
       <c r="CN145" s="16">
-        <v>11.560129107327326</v>
+        <v>11.569961423463816</v>
       </c>
       <c r="CO145" s="16">
-        <v>12.131013284258058</v>
+        <v>12.023765903712063</v>
       </c>
       <c r="CP145" s="10"/>
       <c r="CQ145" s="10"/>
@@ -44040,19 +44036,19 @@
         <v>34.156604441895801</v>
       </c>
       <c r="CK146" s="16">
-        <v>28.718431653385913</v>
+        <v>28.82064688584196</v>
       </c>
       <c r="CL146" s="16">
-        <v>29.634471164248843</v>
+        <v>29.484575179359346</v>
       </c>
       <c r="CM146" s="16">
-        <v>29.631990831682636</v>
+        <v>29.658684690692148</v>
       </c>
       <c r="CN146" s="16">
-        <v>28.114922125313267</v>
+        <v>28.018362598886764</v>
       </c>
       <c r="CO146" s="16">
-        <v>24.615782059482378</v>
+        <v>24.711536815209563</v>
       </c>
       <c r="CP146" s="10"/>
       <c r="CQ146" s="10"/>
@@ -44382,19 +44378,19 @@
         <v>4.9014401095448701</v>
       </c>
       <c r="CK147" s="16">
-        <v>5.3597060084340651</v>
+        <v>5.1928885517738097</v>
       </c>
       <c r="CL147" s="16">
-        <v>4.5583504998400919</v>
+        <v>4.561252263287682</v>
       </c>
       <c r="CM147" s="16">
-        <v>6.115313573503947</v>
+        <v>6.1048204569536733</v>
       </c>
       <c r="CN147" s="16">
-        <v>4.0466540962611779</v>
+        <v>4.0497319467263679</v>
       </c>
       <c r="CO147" s="16">
-        <v>4.4655894568778676</v>
+        <v>4.2953773865716744</v>
       </c>
       <c r="CP147" s="10"/>
       <c r="CQ147" s="10"/>
@@ -45526,10 +45522,10 @@
     <mergeCell ref="CL140:CO140"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH31:CK31"/>
-    <mergeCell ref="CL53:CM53"/>
-    <mergeCell ref="CL75:CM75"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL31:CO31"/>
+    <mergeCell ref="CL53:CO53"/>
+    <mergeCell ref="CL75:CO75"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73088911-1F6F-412C-9B9F-231BC64898DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1DCCF2-5898-49CE-84E2-BDB3D220A9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CO$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CP$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -623,13 +623,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -746,6 +749,12 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23605,14 +23614,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="93" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="94" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23627,7 +23636,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23637,7 +23646,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23731,6 +23740,7 @@
       <c r="CM6" s="4"/>
       <c r="CN6" s="4"/>
       <c r="CO6" s="4"/>
+      <c r="CP6" s="4"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23828,6 +23838,7 @@
       <c r="CM7" s="4"/>
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
+      <c r="CP7" s="4"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23922,147 +23933,151 @@
       <c r="CM8" s="4"/>
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
+      <c r="CP8" s="4"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="19">
+      <c r="B9" s="23">
         <v>2000</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>2001</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
         <v>2002</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23">
         <v>2003</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19">
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23">
         <v>2004</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19">
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>2005</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23">
         <v>2006</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19">
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23">
         <v>2007</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19">
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23">
         <v>2008</v>
       </c>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19">
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23">
         <v>2009</v>
       </c>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19">
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19">
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="23">
         <v>2011</v>
       </c>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19">
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23">
         <v>2012</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19">
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23">
         <v>2013</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19">
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23">
         <v>2014</v>
       </c>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19">
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="23">
         <v>2015</v>
       </c>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19">
+      <c r="BK9" s="23"/>
+      <c r="BL9" s="23"/>
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="23">
         <v>2016</v>
       </c>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19">
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="23"/>
+      <c r="BQ9" s="23"/>
+      <c r="BR9" s="23">
         <v>2017</v>
       </c>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19">
+      <c r="BS9" s="23"/>
+      <c r="BT9" s="23"/>
+      <c r="BU9" s="23"/>
+      <c r="BV9" s="23">
         <v>2018</v>
       </c>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19">
+      <c r="BW9" s="23"/>
+      <c r="BX9" s="23"/>
+      <c r="BY9" s="23"/>
+      <c r="BZ9" s="23">
         <v>2019</v>
       </c>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19">
+      <c r="CA9" s="23"/>
+      <c r="CB9" s="23"/>
+      <c r="CC9" s="23"/>
+      <c r="CD9" s="23">
         <v>2020</v>
       </c>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19">
+      <c r="CE9" s="23"/>
+      <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
+      <c r="CH9" s="23">
         <v>2021</v>
       </c>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CI9" s="23"/>
+      <c r="CJ9" s="23"/>
+      <c r="CK9" s="23"/>
+      <c r="CL9" s="23">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
+      <c r="CM9" s="23"/>
+      <c r="CN9" s="23"/>
+      <c r="CO9" s="23"/>
+      <c r="CP9" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24343,6 +24358,9 @@
       </c>
       <c r="CO10" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="CP10" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24592,43 +24610,45 @@
       <c r="CC12" s="9">
         <v>96473.611630007377</v>
       </c>
-      <c r="CD12" s="9">
+      <c r="CD12" s="20">
         <v>85833.42547521973</v>
       </c>
-      <c r="CE12" s="9">
+      <c r="CE12" s="20">
         <v>47227.58300161481</v>
       </c>
-      <c r="CF12" s="9">
+      <c r="CF12" s="20">
         <v>77970.887384953618</v>
       </c>
-      <c r="CG12" s="9">
+      <c r="CG12" s="20">
         <v>87043.333111853615</v>
       </c>
-      <c r="CH12" s="9">
+      <c r="CH12" s="20">
         <v>80310.943601616484</v>
       </c>
-      <c r="CI12" s="9">
+      <c r="CI12" s="20">
         <v>64886.17836900759</v>
       </c>
-      <c r="CJ12" s="9">
+      <c r="CJ12" s="20">
         <v>91755.469490844363</v>
       </c>
-      <c r="CK12" s="9">
+      <c r="CK12" s="20">
         <v>102445.11283825984</v>
       </c>
-      <c r="CL12" s="9">
+      <c r="CL12" s="20">
         <v>95112.941061584192</v>
       </c>
-      <c r="CM12" s="9">
+      <c r="CM12" s="20">
         <v>86138.101602379815</v>
       </c>
-      <c r="CN12" s="9">
+      <c r="CN12" s="20">
         <v>125364.61590883185</v>
       </c>
-      <c r="CO12" s="9">
+      <c r="CO12" s="20">
         <v>131260.92863027516</v>
       </c>
-      <c r="CP12" s="10"/>
+      <c r="CP12" s="20">
+        <v>118969.35477356301</v>
+      </c>
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
       <c r="CS12" s="10"/>
@@ -24934,43 +24954,45 @@
       <c r="CC13" s="9">
         <v>7493.7042045622948</v>
       </c>
-      <c r="CD13" s="9">
+      <c r="CD13" s="20">
         <v>10638.014382942774</v>
       </c>
-      <c r="CE13" s="9">
+      <c r="CE13" s="20">
         <v>4159.9442986404647</v>
       </c>
-      <c r="CF13" s="9">
+      <c r="CF13" s="20">
         <v>6161.7898553619443</v>
       </c>
-      <c r="CG13" s="9">
+      <c r="CG13" s="20">
         <v>6727.6571030917612</v>
       </c>
-      <c r="CH13" s="9">
+      <c r="CH13" s="20">
         <v>7817.273676312996</v>
       </c>
-      <c r="CI13" s="9">
+      <c r="CI13" s="20">
         <v>5067.513206587616</v>
       </c>
-      <c r="CJ13" s="9">
+      <c r="CJ13" s="20">
         <v>6461.1453905598064</v>
       </c>
-      <c r="CK13" s="9">
+      <c r="CK13" s="20">
         <v>6805.4416689638665</v>
       </c>
-      <c r="CL13" s="9">
+      <c r="CL13" s="20">
         <v>9030.929515187514</v>
       </c>
-      <c r="CM13" s="9">
+      <c r="CM13" s="20">
         <v>6772.0262369198845</v>
       </c>
-      <c r="CN13" s="9">
+      <c r="CN13" s="20">
         <v>8678.9535591085787</v>
       </c>
-      <c r="CO13" s="9">
+      <c r="CO13" s="20">
         <v>9069.7767840590877</v>
       </c>
-      <c r="CP13" s="10"/>
+      <c r="CP13" s="20">
+        <v>12420.329764396183</v>
+      </c>
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
       <c r="CS13" s="10"/>
@@ -25276,43 +25298,45 @@
       <c r="CC14" s="9">
         <v>25867.275404417582</v>
       </c>
-      <c r="CD14" s="9">
+      <c r="CD14" s="20">
         <v>23139.390588465467</v>
       </c>
-      <c r="CE14" s="9">
+      <c r="CE14" s="20">
         <v>541.66018011143547</v>
       </c>
-      <c r="CF14" s="9">
+      <c r="CF14" s="20">
         <v>3933.8866949345993</v>
       </c>
-      <c r="CG14" s="9">
+      <c r="CG14" s="20">
         <v>5756.5870174473457</v>
       </c>
-      <c r="CH14" s="9">
+      <c r="CH14" s="20">
         <v>5981.2410016829199</v>
       </c>
-      <c r="CI14" s="9">
+      <c r="CI14" s="20">
         <v>3498.5571945118791</v>
       </c>
-      <c r="CJ14" s="9">
+      <c r="CJ14" s="20">
         <v>7810.5870233574205</v>
       </c>
-      <c r="CK14" s="9">
+      <c r="CK14" s="20">
         <v>10731.893624718097</v>
       </c>
-      <c r="CL14" s="9">
+      <c r="CL14" s="20">
         <v>16519.717390147831</v>
       </c>
-      <c r="CM14" s="9">
+      <c r="CM14" s="20">
         <v>17861.916287213768</v>
       </c>
-      <c r="CN14" s="9">
+      <c r="CN14" s="20">
         <v>24864.012333683175</v>
       </c>
-      <c r="CO14" s="9">
+      <c r="CO14" s="20">
         <v>33058.754526789751</v>
       </c>
-      <c r="CP14" s="10"/>
+      <c r="CP14" s="20">
+        <v>34355.132596331357</v>
+      </c>
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
       <c r="CS14" s="10"/>
@@ -25618,43 +25642,45 @@
       <c r="CC15" s="9">
         <v>40474.026791175536</v>
       </c>
-      <c r="CD15" s="9">
+      <c r="CD15" s="20">
         <v>38377.454454111437</v>
       </c>
-      <c r="CE15" s="9">
+      <c r="CE15" s="20">
         <v>39129.883280113791</v>
       </c>
-      <c r="CF15" s="9">
+      <c r="CF15" s="20">
         <v>43772.535915687906</v>
       </c>
-      <c r="CG15" s="9">
+      <c r="CG15" s="20">
         <v>41914.708397563991</v>
       </c>
-      <c r="CH15" s="9">
+      <c r="CH15" s="20">
         <v>41314.418988535144</v>
       </c>
-      <c r="CI15" s="9">
+      <c r="CI15" s="20">
         <v>45468.281079315457</v>
       </c>
-      <c r="CJ15" s="9">
+      <c r="CJ15" s="20">
         <v>45801.634695866625</v>
       </c>
-      <c r="CK15" s="9">
+      <c r="CK15" s="20">
         <v>46206.319687562878</v>
       </c>
-      <c r="CL15" s="9">
+      <c r="CL15" s="20">
         <v>48867.192274073153</v>
       </c>
-      <c r="CM15" s="9">
+      <c r="CM15" s="20">
         <v>50427.993876530629</v>
       </c>
-      <c r="CN15" s="9">
+      <c r="CN15" s="20">
         <v>54777.401768381824</v>
       </c>
-      <c r="CO15" s="9">
+      <c r="CO15" s="20">
         <v>56206.695778206282</v>
       </c>
-      <c r="CP15" s="10"/>
+      <c r="CP15" s="20">
+        <v>56620.646335909354</v>
+      </c>
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
       <c r="CS15" s="10"/>
@@ -25960,43 +25986,45 @@
       <c r="CC16" s="9">
         <v>8101.8663721992616</v>
       </c>
-      <c r="CD16" s="9">
+      <c r="CD16" s="20">
         <v>7271.536918522761</v>
       </c>
-      <c r="CE16" s="9">
+      <c r="CE16" s="20">
         <v>5318.9671586771592</v>
       </c>
-      <c r="CF16" s="9">
+      <c r="CF16" s="20">
         <v>7418.2830113571872</v>
       </c>
-      <c r="CG16" s="9">
+      <c r="CG16" s="20">
         <v>8707.0629617639515</v>
       </c>
-      <c r="CH16" s="9">
+      <c r="CH16" s="20">
         <v>8057.1403063475373</v>
       </c>
-      <c r="CI16" s="9">
+      <c r="CI16" s="20">
         <v>9199.2714411078541</v>
       </c>
-      <c r="CJ16" s="9">
+      <c r="CJ16" s="20">
         <v>6948.7257825117358</v>
       </c>
-      <c r="CK16" s="9">
+      <c r="CK16" s="20">
         <v>8636.4176909564103</v>
       </c>
-      <c r="CL16" s="9">
+      <c r="CL16" s="20">
         <v>7865.3473658344301</v>
       </c>
-      <c r="CM16" s="9">
+      <c r="CM16" s="20">
         <v>8966.8706717470923</v>
       </c>
-      <c r="CN16" s="9">
+      <c r="CN16" s="20">
         <v>7164.4283924129832</v>
       </c>
-      <c r="CO16" s="9">
+      <c r="CO16" s="20">
         <v>8513.5183446965111</v>
       </c>
-      <c r="CP16" s="10"/>
+      <c r="CP16" s="20">
+        <v>7533.6811499442374</v>
+      </c>
       <c r="CQ16" s="10"/>
       <c r="CR16" s="10"/>
       <c r="CS16" s="10"/>
@@ -26457,43 +26485,45 @@
       <c r="CC18" s="12">
         <v>178410.48440236205</v>
       </c>
-      <c r="CD18" s="12">
+      <c r="CD18" s="21">
         <v>165259.82181926217</v>
       </c>
-      <c r="CE18" s="12">
+      <c r="CE18" s="21">
         <v>96378.037919157665</v>
       </c>
-      <c r="CF18" s="12">
+      <c r="CF18" s="21">
         <v>139257.38286229526</v>
       </c>
-      <c r="CG18" s="12">
+      <c r="CG18" s="21">
         <v>150149.34859172066</v>
       </c>
-      <c r="CH18" s="12">
+      <c r="CH18" s="21">
         <v>143481.01757449508</v>
       </c>
-      <c r="CI18" s="12">
+      <c r="CI18" s="21">
         <v>128119.80129053039</v>
       </c>
-      <c r="CJ18" s="12">
+      <c r="CJ18" s="21">
         <v>158777.56238313994</v>
       </c>
-      <c r="CK18" s="12">
+      <c r="CK18" s="21">
         <v>174825.18551046107</v>
       </c>
-      <c r="CL18" s="12">
+      <c r="CL18" s="21">
         <v>177396.1276068271</v>
       </c>
-      <c r="CM18" s="12">
+      <c r="CM18" s="21">
         <v>170166.90867479116</v>
       </c>
-      <c r="CN18" s="12">
+      <c r="CN18" s="21">
         <v>220849.41196241841</v>
       </c>
-      <c r="CO18" s="12">
+      <c r="CO18" s="21">
         <v>238109.67406402683</v>
       </c>
-      <c r="CP18" s="10"/>
+      <c r="CP18" s="21">
+        <v>229899.14462014413</v>
+      </c>
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
       <c r="CS18" s="10"/>
@@ -26637,18 +26667,19 @@
       <c r="CA19" s="14"/>
       <c r="CB19" s="14"/>
       <c r="CC19" s="14"/>
-      <c r="CD19" s="14"/>
-      <c r="CE19" s="14"/>
-      <c r="CF19" s="14"/>
-      <c r="CG19" s="14"/>
-      <c r="CH19" s="14"/>
-      <c r="CI19" s="14"/>
-      <c r="CJ19" s="14"/>
-      <c r="CK19" s="14"/>
-      <c r="CL19" s="14"/>
-      <c r="CM19" s="14"/>
-      <c r="CN19" s="14"/>
-      <c r="CO19" s="14"/>
+      <c r="CD19" s="22"/>
+      <c r="CE19" s="22"/>
+      <c r="CF19" s="22"/>
+      <c r="CG19" s="22"/>
+      <c r="CH19" s="22"/>
+      <c r="CI19" s="22"/>
+      <c r="CJ19" s="22"/>
+      <c r="CK19" s="22"/>
+      <c r="CL19" s="22"/>
+      <c r="CM19" s="22"/>
+      <c r="CN19" s="22"/>
+      <c r="CO19" s="22"/>
+      <c r="CP19" s="22"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -26977,7 +27008,7 @@
     </row>
     <row r="25" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -27073,6 +27104,7 @@
       <c r="CM26" s="4"/>
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
+      <c r="CP26" s="4"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27170,10 +27202,11 @@
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
+      <c r="CP27" s="4"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -27267,6 +27300,7 @@
       <c r="CM28" s="4"/>
       <c r="CN28" s="4"/>
       <c r="CO28" s="4"/>
+      <c r="CP28" s="4"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -27364,6 +27398,7 @@
       <c r="CM29" s="4"/>
       <c r="CN29" s="4"/>
       <c r="CO29" s="4"/>
+      <c r="CP29" s="4"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
@@ -27458,147 +27493,151 @@
       <c r="CM30" s="4"/>
       <c r="CN30" s="4"/>
       <c r="CO30" s="4"/>
+      <c r="CP30" s="4"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="19">
+      <c r="B31" s="23">
         <v>2000</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="19">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23">
         <v>2001</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="19">
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="23">
         <v>2002</v>
       </c>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="19">
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="23">
         <v>2003</v>
       </c>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="19">
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="23">
         <v>2004</v>
       </c>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="19">
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="23">
         <v>2005</v>
       </c>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="19">
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="23">
         <v>2006</v>
       </c>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="19">
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="23">
         <v>2007</v>
       </c>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="20"/>
-      <c r="AH31" s="19">
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="23">
         <v>2008</v>
       </c>
-      <c r="AI31" s="20"/>
-      <c r="AJ31" s="20"/>
-      <c r="AK31" s="20"/>
-      <c r="AL31" s="19">
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="23">
         <v>2009</v>
       </c>
-      <c r="AM31" s="20"/>
-      <c r="AN31" s="20"/>
-      <c r="AO31" s="20"/>
-      <c r="AP31" s="19">
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="20"/>
-      <c r="AR31" s="20"/>
-      <c r="AS31" s="20"/>
-      <c r="AT31" s="19">
+      <c r="AQ31" s="24"/>
+      <c r="AR31" s="24"/>
+      <c r="AS31" s="24"/>
+      <c r="AT31" s="23">
         <v>2011</v>
       </c>
-      <c r="AU31" s="20"/>
-      <c r="AV31" s="20"/>
-      <c r="AW31" s="20"/>
-      <c r="AX31" s="19">
+      <c r="AU31" s="24"/>
+      <c r="AV31" s="24"/>
+      <c r="AW31" s="24"/>
+      <c r="AX31" s="23">
         <v>2012</v>
       </c>
-      <c r="AY31" s="20"/>
-      <c r="AZ31" s="20"/>
-      <c r="BA31" s="20"/>
-      <c r="BB31" s="19">
+      <c r="AY31" s="24"/>
+      <c r="AZ31" s="24"/>
+      <c r="BA31" s="24"/>
+      <c r="BB31" s="23">
         <v>2013</v>
       </c>
-      <c r="BC31" s="20"/>
-      <c r="BD31" s="20"/>
-      <c r="BE31" s="20"/>
-      <c r="BF31" s="19">
+      <c r="BC31" s="24"/>
+      <c r="BD31" s="24"/>
+      <c r="BE31" s="24"/>
+      <c r="BF31" s="23">
         <v>2014</v>
       </c>
-      <c r="BG31" s="20"/>
-      <c r="BH31" s="20"/>
-      <c r="BI31" s="20"/>
-      <c r="BJ31" s="19">
+      <c r="BG31" s="24"/>
+      <c r="BH31" s="24"/>
+      <c r="BI31" s="24"/>
+      <c r="BJ31" s="23">
         <v>2015</v>
       </c>
-      <c r="BK31" s="20"/>
-      <c r="BL31" s="20"/>
-      <c r="BM31" s="20"/>
-      <c r="BN31" s="19">
+      <c r="BK31" s="24"/>
+      <c r="BL31" s="24"/>
+      <c r="BM31" s="24"/>
+      <c r="BN31" s="23">
         <v>2016</v>
       </c>
-      <c r="BO31" s="20"/>
-      <c r="BP31" s="20"/>
-      <c r="BQ31" s="20"/>
-      <c r="BR31" s="19">
+      <c r="BO31" s="24"/>
+      <c r="BP31" s="24"/>
+      <c r="BQ31" s="24"/>
+      <c r="BR31" s="23">
         <v>2017</v>
       </c>
-      <c r="BS31" s="20"/>
-      <c r="BT31" s="20"/>
-      <c r="BU31" s="20"/>
-      <c r="BV31" s="19">
+      <c r="BS31" s="24"/>
+      <c r="BT31" s="24"/>
+      <c r="BU31" s="24"/>
+      <c r="BV31" s="23">
         <v>2018</v>
       </c>
-      <c r="BW31" s="20"/>
-      <c r="BX31" s="20"/>
-      <c r="BY31" s="20"/>
-      <c r="BZ31" s="19">
+      <c r="BW31" s="24"/>
+      <c r="BX31" s="24"/>
+      <c r="BY31" s="24"/>
+      <c r="BZ31" s="23">
         <v>2019</v>
       </c>
-      <c r="CA31" s="20"/>
-      <c r="CB31" s="20"/>
-      <c r="CC31" s="20"/>
-      <c r="CD31" s="19">
+      <c r="CA31" s="24"/>
+      <c r="CB31" s="24"/>
+      <c r="CC31" s="24"/>
+      <c r="CD31" s="23">
         <v>2020</v>
       </c>
-      <c r="CE31" s="20"/>
-      <c r="CF31" s="20"/>
-      <c r="CG31" s="20"/>
-      <c r="CH31" s="19">
+      <c r="CE31" s="23"/>
+      <c r="CF31" s="23"/>
+      <c r="CG31" s="23"/>
+      <c r="CH31" s="23">
         <v>2021</v>
       </c>
-      <c r="CI31" s="20"/>
-      <c r="CJ31" s="20"/>
-      <c r="CK31" s="20"/>
-      <c r="CL31" s="19">
+      <c r="CI31" s="23"/>
+      <c r="CJ31" s="23"/>
+      <c r="CK31" s="23"/>
+      <c r="CL31" s="23">
         <v>2022</v>
       </c>
-      <c r="CM31" s="20"/>
-      <c r="CN31" s="20"/>
-      <c r="CO31" s="20"/>
+      <c r="CM31" s="23"/>
+      <c r="CN31" s="23"/>
+      <c r="CO31" s="23"/>
+      <c r="CP31" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -27879,6 +27918,9 @@
       </c>
       <c r="CO32" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="CP32" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28128,43 +28170,45 @@
       <c r="CC34" s="9">
         <v>91157.740687400743</v>
       </c>
-      <c r="CD34" s="9">
+      <c r="CD34" s="20">
         <v>84256.879947774301</v>
       </c>
-      <c r="CE34" s="9">
+      <c r="CE34" s="20">
         <v>39790.450652104919</v>
       </c>
-      <c r="CF34" s="9">
+      <c r="CF34" s="20">
         <v>60842.592707141113</v>
       </c>
-      <c r="CG34" s="9">
+      <c r="CG34" s="20">
         <v>78892.263529082004</v>
       </c>
-      <c r="CH34" s="9">
+      <c r="CH34" s="20">
         <v>72693.252434721246</v>
       </c>
-      <c r="CI34" s="9">
+      <c r="CI34" s="20">
         <v>51224.972026472547</v>
       </c>
-      <c r="CJ34" s="9">
+      <c r="CJ34" s="20">
         <v>69968.767388608554</v>
       </c>
-      <c r="CK34" s="9">
+      <c r="CK34" s="20">
         <v>92252.123079514247</v>
       </c>
-      <c r="CL34" s="9">
+      <c r="CL34" s="20">
         <v>85348.710133698143</v>
       </c>
-      <c r="CM34" s="9">
+      <c r="CM34" s="20">
         <v>67145.01908077547</v>
       </c>
-      <c r="CN34" s="9">
+      <c r="CN34" s="20">
         <v>89988.179900677991</v>
       </c>
-      <c r="CO34" s="9">
+      <c r="CO34" s="20">
         <v>106276.44833839743</v>
       </c>
-      <c r="CP34" s="10"/>
+      <c r="CP34" s="20">
+        <v>95201.344775609468</v>
+      </c>
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
       <c r="CS34" s="10"/>
@@ -28470,43 +28514,45 @@
       <c r="CC35" s="9">
         <v>7447.4831219355528</v>
       </c>
-      <c r="CD35" s="9">
+      <c r="CD35" s="20">
         <v>10058.392911234647</v>
       </c>
-      <c r="CE35" s="9">
+      <c r="CE35" s="20">
         <v>5348.3916807113001</v>
       </c>
-      <c r="CF35" s="9">
+      <c r="CF35" s="20">
         <v>4819.1656294255781</v>
       </c>
-      <c r="CG35" s="9">
+      <c r="CG35" s="20">
         <v>5748.9168303779634</v>
       </c>
-      <c r="CH35" s="9">
+      <c r="CH35" s="20">
         <v>6485.3406307277664</v>
       </c>
-      <c r="CI35" s="9">
+      <c r="CI35" s="20">
         <v>5622.8897902546669</v>
       </c>
-      <c r="CJ35" s="9">
+      <c r="CJ35" s="20">
         <v>5641.7249530700356</v>
       </c>
-      <c r="CK35" s="9">
+      <c r="CK35" s="20">
         <v>7088.4754867296288</v>
       </c>
-      <c r="CL35" s="9">
+      <c r="CL35" s="20">
         <v>8733.9693321251852</v>
       </c>
-      <c r="CM35" s="9">
+      <c r="CM35" s="20">
         <v>6407.568160262229</v>
       </c>
-      <c r="CN35" s="9">
+      <c r="CN35" s="20">
         <v>5964.0797825333484</v>
       </c>
-      <c r="CO35" s="9">
+      <c r="CO35" s="20">
         <v>9820.3919649366053</v>
       </c>
-      <c r="CP35" s="10"/>
+      <c r="CP35" s="20">
+        <v>11656.250519861407</v>
+      </c>
       <c r="CQ35" s="10"/>
       <c r="CR35" s="10"/>
       <c r="CS35" s="10"/>
@@ -28812,43 +28858,45 @@
       <c r="CC36" s="9">
         <v>24640.160270956665</v>
       </c>
-      <c r="CD36" s="9">
+      <c r="CD36" s="20">
         <v>26370.897183930152</v>
       </c>
-      <c r="CE36" s="9">
+      <c r="CE36" s="20">
         <v>584.02753834519581</v>
       </c>
-      <c r="CF36" s="9">
+      <c r="CF36" s="20">
         <v>3920.8162602718076</v>
       </c>
-      <c r="CG36" s="9">
+      <c r="CG36" s="20">
         <v>5724.8352232651596</v>
       </c>
-      <c r="CH36" s="9">
+      <c r="CH36" s="20">
         <v>6945.0277659908534</v>
       </c>
-      <c r="CI36" s="9">
+      <c r="CI36" s="20">
         <v>3794.5940396513961</v>
       </c>
-      <c r="CJ36" s="9">
+      <c r="CJ36" s="20">
         <v>7715.1993628660421</v>
       </c>
-      <c r="CK36" s="9">
+      <c r="CK36" s="20">
         <v>9877.5561037619118</v>
       </c>
-      <c r="CL36" s="9">
+      <c r="CL36" s="20">
         <v>18325.805539719899</v>
       </c>
-      <c r="CM36" s="9">
+      <c r="CM36" s="20">
         <v>17025.259549398193</v>
       </c>
-      <c r="CN36" s="9">
+      <c r="CN36" s="20">
         <v>19697.048462697538</v>
       </c>
-      <c r="CO36" s="9">
+      <c r="CO36" s="20">
         <v>23671.991341686968</v>
       </c>
-      <c r="CP36" s="10"/>
+      <c r="CP36" s="20">
+        <v>28471.079909613327</v>
+      </c>
       <c r="CQ36" s="10"/>
       <c r="CR36" s="10"/>
       <c r="CS36" s="10"/>
@@ -29154,43 +29202,45 @@
       <c r="CC37" s="9">
         <v>41314.368976378377</v>
       </c>
-      <c r="CD37" s="9">
+      <c r="CD37" s="20">
         <v>40792.614939224062</v>
       </c>
-      <c r="CE37" s="9">
+      <c r="CE37" s="20">
         <v>38042.91274460945</v>
       </c>
-      <c r="CF37" s="9">
+      <c r="CF37" s="20">
         <v>41651.696170266572</v>
       </c>
-      <c r="CG37" s="9">
+      <c r="CG37" s="20">
         <v>40204.181905661972</v>
       </c>
-      <c r="CH37" s="9">
+      <c r="CH37" s="20">
         <v>40984.048343767317</v>
       </c>
-      <c r="CI37" s="9">
+      <c r="CI37" s="20">
         <v>40991.50518060902</v>
       </c>
-      <c r="CJ37" s="9">
+      <c r="CJ37" s="20">
         <v>46702.18850791359</v>
       </c>
-      <c r="CK37" s="9">
+      <c r="CK37" s="20">
         <v>47702.781019455986</v>
       </c>
-      <c r="CL37" s="9">
+      <c r="CL37" s="20">
         <v>50251.808163641748</v>
       </c>
-      <c r="CM37" s="9">
+      <c r="CM37" s="20">
         <v>41820.771885110211</v>
       </c>
-      <c r="CN37" s="9">
+      <c r="CN37" s="20">
         <v>47699.298706087051</v>
       </c>
-      <c r="CO37" s="9">
+      <c r="CO37" s="20">
         <v>48651.253709856661</v>
       </c>
-      <c r="CP37" s="10"/>
+      <c r="CP37" s="20">
+        <v>52046.12277613148</v>
+      </c>
       <c r="CQ37" s="10"/>
       <c r="CR37" s="10"/>
       <c r="CS37" s="10"/>
@@ -29496,43 +29546,45 @@
       <c r="CC38" s="9">
         <v>8063.069695688846</v>
       </c>
-      <c r="CD38" s="9">
+      <c r="CD38" s="20">
         <v>7194.2130287338623</v>
       </c>
-      <c r="CE38" s="9">
+      <c r="CE38" s="20">
         <v>5086.1611878479962</v>
       </c>
-      <c r="CF38" s="9">
+      <c r="CF38" s="20">
         <v>7154.5853177633508</v>
       </c>
-      <c r="CG38" s="9">
+      <c r="CG38" s="20">
         <v>8665.3682349485935</v>
       </c>
-      <c r="CH38" s="9">
+      <c r="CH38" s="20">
         <v>7971.4624866455233</v>
       </c>
-      <c r="CI38" s="9">
+      <c r="CI38" s="20">
         <v>8848.2050604570431</v>
       </c>
-      <c r="CJ38" s="9">
+      <c r="CJ38" s="20">
         <v>6701.7194389334336</v>
       </c>
-      <c r="CK38" s="9">
+      <c r="CK38" s="20">
         <v>8595.0612567754397</v>
       </c>
-      <c r="CL38" s="9">
+      <c r="CL38" s="20">
         <v>7773.9350940748318</v>
       </c>
-      <c r="CM38" s="9">
+      <c r="CM38" s="20">
         <v>8608.2139647257463</v>
       </c>
-      <c r="CN38" s="9">
+      <c r="CN38" s="20">
         <v>6894.384820837442</v>
       </c>
-      <c r="CO38" s="9">
+      <c r="CO38" s="20">
         <v>8456.5964705626266</v>
       </c>
-      <c r="CP38" s="10"/>
+      <c r="CP38" s="20">
+        <v>7424.8489150194546</v>
+      </c>
       <c r="CQ38" s="10"/>
       <c r="CR38" s="10"/>
       <c r="CS38" s="10"/>
@@ -29993,43 +30045,45 @@
       <c r="CC40" s="12">
         <v>172622.8227523602</v>
       </c>
-      <c r="CD40" s="12">
+      <c r="CD40" s="21">
         <v>168672.99801089702</v>
       </c>
-      <c r="CE40" s="12">
+      <c r="CE40" s="21">
         <v>88851.943803618866</v>
       </c>
-      <c r="CF40" s="12">
+      <c r="CF40" s="21">
         <v>118388.85608486843</v>
       </c>
-      <c r="CG40" s="12">
+      <c r="CG40" s="21">
         <v>139235.56572333569</v>
       </c>
-      <c r="CH40" s="12">
+      <c r="CH40" s="21">
         <v>135079.13166185271</v>
       </c>
-      <c r="CI40" s="12">
+      <c r="CI40" s="21">
         <v>110482.16609744467</v>
       </c>
-      <c r="CJ40" s="12">
+      <c r="CJ40" s="21">
         <v>136729.59965139168</v>
       </c>
-      <c r="CK40" s="12">
+      <c r="CK40" s="21">
         <v>165515.9969462372</v>
       </c>
-      <c r="CL40" s="12">
+      <c r="CL40" s="21">
         <v>170434.22826325981</v>
       </c>
-      <c r="CM40" s="12">
+      <c r="CM40" s="21">
         <v>141006.83264027187</v>
       </c>
-      <c r="CN40" s="12">
+      <c r="CN40" s="21">
         <v>170242.99167283336</v>
       </c>
-      <c r="CO40" s="12">
+      <c r="CO40" s="21">
         <v>196876.68182544026</v>
       </c>
-      <c r="CP40" s="10"/>
+      <c r="CP40" s="21">
+        <v>194799.64689623515</v>
+      </c>
       <c r="CQ40" s="10"/>
       <c r="CR40" s="10"/>
       <c r="CS40" s="10"/>
@@ -30185,6 +30239,7 @@
       <c r="CM41" s="13"/>
       <c r="CN41" s="13"/>
       <c r="CO41" s="13"/>
+      <c r="CP41" s="13"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -30513,7 +30568,7 @@
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -30523,7 +30578,7 @@
     </row>
     <row r="50" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
@@ -30536,142 +30591,145 @@
     </row>
     <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19" t="s">
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19" t="s">
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19" t="s">
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19" t="s">
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19" t="s">
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19" t="s">
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19" t="s">
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="19" t="s">
+      <c r="AE53" s="23"/>
+      <c r="AF53" s="23"/>
+      <c r="AG53" s="23"/>
+      <c r="AH53" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="19" t="s">
+      <c r="AI53" s="23"/>
+      <c r="AJ53" s="23"/>
+      <c r="AK53" s="23"/>
+      <c r="AL53" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AM53" s="19"/>
-      <c r="AN53" s="19"/>
-      <c r="AO53" s="19"/>
-      <c r="AP53" s="19" t="s">
+      <c r="AM53" s="23"/>
+      <c r="AN53" s="23"/>
+      <c r="AO53" s="23"/>
+      <c r="AP53" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AQ53" s="19"/>
-      <c r="AR53" s="19"/>
-      <c r="AS53" s="19"/>
-      <c r="AT53" s="19" t="s">
+      <c r="AQ53" s="23"/>
+      <c r="AR53" s="23"/>
+      <c r="AS53" s="23"/>
+      <c r="AT53" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AU53" s="19"/>
-      <c r="AV53" s="19"/>
-      <c r="AW53" s="19"/>
-      <c r="AX53" s="19" t="s">
+      <c r="AU53" s="23"/>
+      <c r="AV53" s="23"/>
+      <c r="AW53" s="23"/>
+      <c r="AX53" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AY53" s="19"/>
-      <c r="AZ53" s="19"/>
-      <c r="BA53" s="19"/>
-      <c r="BB53" s="19" t="s">
+      <c r="AY53" s="23"/>
+      <c r="AZ53" s="23"/>
+      <c r="BA53" s="23"/>
+      <c r="BB53" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BC53" s="19"/>
-      <c r="BD53" s="19"/>
-      <c r="BE53" s="19"/>
-      <c r="BF53" s="19" t="s">
+      <c r="BC53" s="23"/>
+      <c r="BD53" s="23"/>
+      <c r="BE53" s="23"/>
+      <c r="BF53" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BG53" s="19"/>
-      <c r="BH53" s="19"/>
-      <c r="BI53" s="19"/>
-      <c r="BJ53" s="19" t="s">
+      <c r="BG53" s="23"/>
+      <c r="BH53" s="23"/>
+      <c r="BI53" s="23"/>
+      <c r="BJ53" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="BK53" s="19"/>
-      <c r="BL53" s="19"/>
-      <c r="BM53" s="19"/>
-      <c r="BN53" s="19" t="s">
+      <c r="BK53" s="23"/>
+      <c r="BL53" s="23"/>
+      <c r="BM53" s="23"/>
+      <c r="BN53" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="BO53" s="19"/>
-      <c r="BP53" s="19"/>
-      <c r="BQ53" s="19"/>
-      <c r="BR53" s="19" t="s">
+      <c r="BO53" s="23"/>
+      <c r="BP53" s="23"/>
+      <c r="BQ53" s="23"/>
+      <c r="BR53" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="BS53" s="19"/>
-      <c r="BT53" s="19"/>
-      <c r="BU53" s="19"/>
-      <c r="BV53" s="19" t="s">
+      <c r="BS53" s="23"/>
+      <c r="BT53" s="23"/>
+      <c r="BU53" s="23"/>
+      <c r="BV53" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="BW53" s="19"/>
-      <c r="BX53" s="19"/>
-      <c r="BY53" s="19"/>
-      <c r="BZ53" s="19" t="s">
+      <c r="BW53" s="23"/>
+      <c r="BX53" s="23"/>
+      <c r="BY53" s="23"/>
+      <c r="BZ53" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="19"/>
-      <c r="CB53" s="19"/>
-      <c r="CC53" s="19"/>
-      <c r="CD53" s="19" t="s">
+      <c r="CA53" s="23"/>
+      <c r="CB53" s="23"/>
+      <c r="CC53" s="23"/>
+      <c r="CD53" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="CE53" s="19"/>
-      <c r="CF53" s="19"/>
-      <c r="CG53" s="19"/>
-      <c r="CH53" s="19" t="s">
+      <c r="CE53" s="23"/>
+      <c r="CF53" s="23"/>
+      <c r="CG53" s="23"/>
+      <c r="CH53" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CI53" s="19"/>
-      <c r="CJ53" s="19"/>
-      <c r="CK53" s="19"/>
-      <c r="CL53" s="19"/>
+      <c r="CI53" s="23"/>
+      <c r="CJ53" s="23"/>
+      <c r="CK53" s="23"/>
+      <c r="CL53" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="CM53" s="19"/>
       <c r="CN53" s="19"/>
       <c r="CO53" s="19"/>
+      <c r="CP53" s="19"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -30941,10 +30999,13 @@
       <c r="CK54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL54" s="6"/>
+      <c r="CL54" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="CM54" s="6"/>
       <c r="CN54" s="6"/>
       <c r="CO54" s="6"/>
+      <c r="CP54" s="6"/>
     </row>
     <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -31217,11 +31278,13 @@
       <c r="CK56" s="16">
         <v>28.128053153213529</v>
       </c>
-      <c r="CL56" s="16"/>
+      <c r="CL56" s="16">
+        <v>25.082195383414913</v>
+      </c>
       <c r="CM56" s="16"/>
       <c r="CN56" s="16"/>
       <c r="CO56" s="16"/>
-      <c r="CP56" s="10"/>
+      <c r="CP56" s="16"/>
       <c r="CQ56" s="10"/>
       <c r="CR56" s="10"/>
       <c r="CS56" s="10"/>
@@ -31547,11 +31610,13 @@
       <c r="CK57" s="16">
         <v>33.272419708212254</v>
       </c>
-      <c r="CL57" s="16"/>
+      <c r="CL57" s="16">
+        <v>37.531023174399053</v>
+      </c>
       <c r="CM57" s="16"/>
       <c r="CN57" s="16"/>
       <c r="CO57" s="16"/>
-      <c r="CP57" s="10"/>
+      <c r="CP57" s="16"/>
       <c r="CQ57" s="10"/>
       <c r="CR57" s="10"/>
       <c r="CS57" s="10"/>
@@ -31877,11 +31942,13 @@
       <c r="CK58" s="16">
         <v>208.04213760232955</v>
       </c>
-      <c r="CL58" s="16"/>
+      <c r="CL58" s="16">
+        <v>107.96440874236967</v>
+      </c>
       <c r="CM58" s="16"/>
       <c r="CN58" s="16"/>
       <c r="CO58" s="16"/>
-      <c r="CP58" s="10"/>
+      <c r="CP58" s="16"/>
       <c r="CQ58" s="10"/>
       <c r="CR58" s="10"/>
       <c r="CS58" s="10"/>
@@ -32207,11 +32274,13 @@
       <c r="CK59" s="16">
         <v>21.642875170028205</v>
       </c>
-      <c r="CL59" s="16"/>
+      <c r="CL59" s="16">
+        <v>15.866379263925595</v>
+      </c>
       <c r="CM59" s="16"/>
       <c r="CN59" s="16"/>
       <c r="CO59" s="16"/>
-      <c r="CP59" s="10"/>
+      <c r="CP59" s="16"/>
       <c r="CQ59" s="10"/>
       <c r="CR59" s="10"/>
       <c r="CS59" s="10"/>
@@ -32537,11 +32606,13 @@
       <c r="CK60" s="16">
         <v>-1.4230361552405384</v>
       </c>
-      <c r="CL60" s="16"/>
+      <c r="CL60" s="16">
+        <v>-4.2168031552031238</v>
+      </c>
       <c r="CM60" s="16"/>
       <c r="CN60" s="16"/>
       <c r="CO60" s="16"/>
-      <c r="CP60" s="10"/>
+      <c r="CP60" s="16"/>
       <c r="CQ60" s="10"/>
       <c r="CR60" s="10"/>
       <c r="CS60" s="10"/>
@@ -33018,11 +33089,13 @@
       <c r="CK62" s="16">
         <v>36.198725240179414</v>
       </c>
-      <c r="CL62" s="16"/>
+      <c r="CL62" s="16">
+        <v>29.596484275960279</v>
+      </c>
       <c r="CM62" s="16"/>
       <c r="CN62" s="16"/>
       <c r="CO62" s="16"/>
-      <c r="CP62" s="10"/>
+      <c r="CP62" s="16"/>
       <c r="CQ62" s="10"/>
       <c r="CR62" s="10"/>
       <c r="CS62" s="10"/>
@@ -33174,6 +33247,7 @@
       <c r="CM63" s="13"/>
       <c r="CN63" s="13"/>
       <c r="CO63" s="13"/>
+      <c r="CP63" s="13"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
@@ -33494,7 +33568,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:150" x14ac:dyDescent="0.2">
@@ -33504,7 +33578,7 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
@@ -33514,142 +33588,145 @@
     </row>
     <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="19" t="s">
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="19" t="s">
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="19" t="s">
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="19" t="s">
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
-      <c r="V75" s="19" t="s">
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="W75" s="21"/>
-      <c r="X75" s="21"/>
-      <c r="Y75" s="21"/>
-      <c r="Z75" s="19" t="s">
+      <c r="W75" s="25"/>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA75" s="21"/>
-      <c r="AB75" s="21"/>
-      <c r="AC75" s="21"/>
-      <c r="AD75" s="19" t="s">
+      <c r="AA75" s="25"/>
+      <c r="AB75" s="25"/>
+      <c r="AC75" s="25"/>
+      <c r="AD75" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="21"/>
-      <c r="AF75" s="21"/>
-      <c r="AG75" s="21"/>
-      <c r="AH75" s="19" t="s">
+      <c r="AE75" s="25"/>
+      <c r="AF75" s="25"/>
+      <c r="AG75" s="25"/>
+      <c r="AH75" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="21"/>
-      <c r="AJ75" s="21"/>
-      <c r="AK75" s="21"/>
-      <c r="AL75" s="19" t="s">
+      <c r="AI75" s="25"/>
+      <c r="AJ75" s="25"/>
+      <c r="AK75" s="25"/>
+      <c r="AL75" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AM75" s="21"/>
-      <c r="AN75" s="21"/>
-      <c r="AO75" s="21"/>
-      <c r="AP75" s="19" t="s">
+      <c r="AM75" s="25"/>
+      <c r="AN75" s="25"/>
+      <c r="AO75" s="25"/>
+      <c r="AP75" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AQ75" s="21"/>
-      <c r="AR75" s="21"/>
-      <c r="AS75" s="21"/>
-      <c r="AT75" s="19" t="s">
+      <c r="AQ75" s="25"/>
+      <c r="AR75" s="25"/>
+      <c r="AS75" s="25"/>
+      <c r="AT75" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AU75" s="21"/>
-      <c r="AV75" s="21"/>
-      <c r="AW75" s="21"/>
-      <c r="AX75" s="19" t="s">
+      <c r="AU75" s="25"/>
+      <c r="AV75" s="25"/>
+      <c r="AW75" s="25"/>
+      <c r="AX75" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AY75" s="21"/>
-      <c r="AZ75" s="21"/>
-      <c r="BA75" s="21"/>
-      <c r="BB75" s="19" t="s">
+      <c r="AY75" s="25"/>
+      <c r="AZ75" s="25"/>
+      <c r="BA75" s="25"/>
+      <c r="BB75" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BC75" s="21"/>
-      <c r="BD75" s="21"/>
-      <c r="BE75" s="21"/>
-      <c r="BF75" s="19" t="s">
+      <c r="BC75" s="25"/>
+      <c r="BD75" s="25"/>
+      <c r="BE75" s="25"/>
+      <c r="BF75" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="BG75" s="21"/>
-      <c r="BH75" s="21"/>
-      <c r="BI75" s="21"/>
-      <c r="BJ75" s="19" t="s">
+      <c r="BG75" s="25"/>
+      <c r="BH75" s="25"/>
+      <c r="BI75" s="25"/>
+      <c r="BJ75" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="BK75" s="21"/>
-      <c r="BL75" s="21"/>
-      <c r="BM75" s="21"/>
-      <c r="BN75" s="19" t="s">
+      <c r="BK75" s="25"/>
+      <c r="BL75" s="25"/>
+      <c r="BM75" s="25"/>
+      <c r="BN75" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="BO75" s="21"/>
-      <c r="BP75" s="21"/>
-      <c r="BQ75" s="21"/>
-      <c r="BR75" s="19" t="s">
+      <c r="BO75" s="25"/>
+      <c r="BP75" s="25"/>
+      <c r="BQ75" s="25"/>
+      <c r="BR75" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="BS75" s="21"/>
-      <c r="BT75" s="21"/>
-      <c r="BU75" s="21"/>
-      <c r="BV75" s="19" t="s">
+      <c r="BS75" s="25"/>
+      <c r="BT75" s="25"/>
+      <c r="BU75" s="25"/>
+      <c r="BV75" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="BW75" s="21"/>
-      <c r="BX75" s="21"/>
-      <c r="BY75" s="21"/>
-      <c r="BZ75" s="19" t="s">
+      <c r="BW75" s="25"/>
+      <c r="BX75" s="25"/>
+      <c r="BY75" s="25"/>
+      <c r="BZ75" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="21"/>
-      <c r="CB75" s="21"/>
-      <c r="CC75" s="21"/>
-      <c r="CD75" s="19" t="s">
+      <c r="CA75" s="25"/>
+      <c r="CB75" s="25"/>
+      <c r="CC75" s="25"/>
+      <c r="CD75" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="CE75" s="21"/>
-      <c r="CF75" s="21"/>
-      <c r="CG75" s="21"/>
-      <c r="CH75" s="19" t="s">
+      <c r="CE75" s="23"/>
+      <c r="CF75" s="23"/>
+      <c r="CG75" s="23"/>
+      <c r="CH75" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CI75" s="21"/>
-      <c r="CJ75" s="21"/>
-      <c r="CK75" s="21"/>
-      <c r="CL75" s="19"/>
-      <c r="CM75" s="21"/>
-      <c r="CN75" s="21"/>
-      <c r="CO75" s="21"/>
+      <c r="CI75" s="23"/>
+      <c r="CJ75" s="23"/>
+      <c r="CK75" s="23"/>
+      <c r="CL75" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="CM75" s="19"/>
+      <c r="CN75" s="19"/>
+      <c r="CO75" s="19"/>
+      <c r="CP75" s="19"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
@@ -33919,10 +33996,13 @@
       <c r="CK76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL76" s="6"/>
+      <c r="CL76" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="CM76" s="6"/>
       <c r="CN76" s="6"/>
       <c r="CO76" s="6"/>
+      <c r="CP76" s="6"/>
     </row>
     <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
@@ -34195,11 +34275,13 @@
       <c r="CK78" s="16">
         <v>15.202170736813599</v>
       </c>
-      <c r="CL78" s="16"/>
+      <c r="CL78" s="16">
+        <v>11.543976032534346</v>
+      </c>
       <c r="CM78" s="16"/>
       <c r="CN78" s="16"/>
       <c r="CO78" s="16"/>
-      <c r="CP78" s="10"/>
+      <c r="CP78" s="16"/>
       <c r="CQ78" s="10"/>
       <c r="CR78" s="10"/>
       <c r="CS78" s="10"/>
@@ -34525,11 +34607,13 @@
       <c r="CK79" s="16">
         <v>38.540254294755073</v>
       </c>
-      <c r="CL79" s="16"/>
+      <c r="CL79" s="16">
+        <v>33.458798360872663</v>
+      </c>
       <c r="CM79" s="16"/>
       <c r="CN79" s="16"/>
       <c r="CO79" s="16"/>
-      <c r="CP79" s="10"/>
+      <c r="CP79" s="16"/>
       <c r="CQ79" s="10"/>
       <c r="CR79" s="10"/>
       <c r="CS79" s="10"/>
@@ -34855,11 +34939,13 @@
       <c r="CK80" s="16">
         <v>139.65433446307011</v>
       </c>
-      <c r="CL80" s="16"/>
+      <c r="CL80" s="16">
+        <v>55.360591641683953</v>
+      </c>
       <c r="CM80" s="16"/>
       <c r="CN80" s="16"/>
       <c r="CO80" s="16"/>
-      <c r="CP80" s="10"/>
+      <c r="CP80" s="16"/>
       <c r="CQ80" s="10"/>
       <c r="CR80" s="10"/>
       <c r="CS80" s="10"/>
@@ -35185,11 +35271,13 @@
       <c r="CK81" s="16">
         <v>1.988296426604208</v>
       </c>
-      <c r="CL81" s="16"/>
+      <c r="CL81" s="16">
+        <v>3.5706468643808051</v>
+      </c>
       <c r="CM81" s="16"/>
       <c r="CN81" s="16"/>
       <c r="CO81" s="16"/>
-      <c r="CP81" s="10"/>
+      <c r="CP81" s="16"/>
       <c r="CQ81" s="10"/>
       <c r="CR81" s="10"/>
       <c r="CS81" s="10"/>
@@ -35515,11 +35603,13 @@
       <c r="CK82" s="16">
         <v>-1.6109807955546813</v>
       </c>
-      <c r="CL82" s="16"/>
+      <c r="CL82" s="16">
+        <v>-4.4904694319025822</v>
+      </c>
       <c r="CM82" s="16"/>
       <c r="CN82" s="16"/>
       <c r="CO82" s="16"/>
-      <c r="CP82" s="10"/>
+      <c r="CP82" s="16"/>
       <c r="CQ82" s="10"/>
       <c r="CR82" s="10"/>
       <c r="CS82" s="10"/>
@@ -35996,11 +36086,13 @@
       <c r="CK84" s="16">
         <v>18.947222901596405</v>
       </c>
-      <c r="CL84" s="16"/>
+      <c r="CL84" s="16">
+        <v>14.29608294135582</v>
+      </c>
       <c r="CM84" s="16"/>
       <c r="CN84" s="16"/>
       <c r="CO84" s="16"/>
-      <c r="CP84" s="10"/>
+      <c r="CP84" s="16"/>
       <c r="CQ84" s="10"/>
       <c r="CR84" s="10"/>
       <c r="CS84" s="10"/>
@@ -36152,6 +36244,7 @@
       <c r="CM85" s="13"/>
       <c r="CN85" s="13"/>
       <c r="CO85" s="13"/>
+      <c r="CP85" s="13"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
@@ -36467,7 +36560,7 @@
     </row>
     <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.2">
@@ -36477,7 +36570,7 @@
     </row>
     <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:150" x14ac:dyDescent="0.2">
@@ -36487,144 +36580,147 @@
     </row>
     <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="19">
+      <c r="B96" s="23">
         <v>2000</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="19">
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="23">
         <v>2001</v>
       </c>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="19">
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="23">
         <v>2002</v>
       </c>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="19">
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="23">
         <v>2003</v>
       </c>
-      <c r="O96" s="20"/>
-      <c r="P96" s="20"/>
-      <c r="Q96" s="20"/>
-      <c r="R96" s="19">
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="23">
         <v>2004</v>
       </c>
-      <c r="S96" s="20"/>
-      <c r="T96" s="20"/>
-      <c r="U96" s="20"/>
-      <c r="V96" s="19">
+      <c r="S96" s="24"/>
+      <c r="T96" s="24"/>
+      <c r="U96" s="24"/>
+      <c r="V96" s="23">
         <v>2005</v>
       </c>
-      <c r="W96" s="20"/>
-      <c r="X96" s="20"/>
-      <c r="Y96" s="20"/>
-      <c r="Z96" s="19">
+      <c r="W96" s="24"/>
+      <c r="X96" s="24"/>
+      <c r="Y96" s="24"/>
+      <c r="Z96" s="23">
         <v>2006</v>
       </c>
-      <c r="AA96" s="20"/>
-      <c r="AB96" s="20"/>
-      <c r="AC96" s="20"/>
-      <c r="AD96" s="19">
+      <c r="AA96" s="24"/>
+      <c r="AB96" s="24"/>
+      <c r="AC96" s="24"/>
+      <c r="AD96" s="23">
         <v>2007</v>
       </c>
-      <c r="AE96" s="20"/>
-      <c r="AF96" s="20"/>
-      <c r="AG96" s="20"/>
-      <c r="AH96" s="19">
+      <c r="AE96" s="24"/>
+      <c r="AF96" s="24"/>
+      <c r="AG96" s="24"/>
+      <c r="AH96" s="23">
         <v>2008</v>
       </c>
-      <c r="AI96" s="20"/>
-      <c r="AJ96" s="20"/>
-      <c r="AK96" s="20"/>
-      <c r="AL96" s="19">
+      <c r="AI96" s="24"/>
+      <c r="AJ96" s="24"/>
+      <c r="AK96" s="24"/>
+      <c r="AL96" s="23">
         <v>2009</v>
       </c>
-      <c r="AM96" s="20"/>
-      <c r="AN96" s="20"/>
-      <c r="AO96" s="20"/>
-      <c r="AP96" s="19">
+      <c r="AM96" s="24"/>
+      <c r="AN96" s="24"/>
+      <c r="AO96" s="24"/>
+      <c r="AP96" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="20"/>
-      <c r="AR96" s="20"/>
-      <c r="AS96" s="20"/>
-      <c r="AT96" s="19">
+      <c r="AQ96" s="24"/>
+      <c r="AR96" s="24"/>
+      <c r="AS96" s="24"/>
+      <c r="AT96" s="23">
         <v>2011</v>
       </c>
-      <c r="AU96" s="20"/>
-      <c r="AV96" s="20"/>
-      <c r="AW96" s="20"/>
-      <c r="AX96" s="19">
+      <c r="AU96" s="24"/>
+      <c r="AV96" s="24"/>
+      <c r="AW96" s="24"/>
+      <c r="AX96" s="23">
         <v>2012</v>
       </c>
-      <c r="AY96" s="20"/>
-      <c r="AZ96" s="20"/>
-      <c r="BA96" s="20"/>
-      <c r="BB96" s="19">
+      <c r="AY96" s="24"/>
+      <c r="AZ96" s="24"/>
+      <c r="BA96" s="24"/>
+      <c r="BB96" s="23">
         <v>2013</v>
       </c>
-      <c r="BC96" s="20"/>
-      <c r="BD96" s="20"/>
-      <c r="BE96" s="20"/>
-      <c r="BF96" s="19">
+      <c r="BC96" s="24"/>
+      <c r="BD96" s="24"/>
+      <c r="BE96" s="24"/>
+      <c r="BF96" s="23">
         <v>2014</v>
       </c>
-      <c r="BG96" s="20"/>
-      <c r="BH96" s="20"/>
-      <c r="BI96" s="20"/>
-      <c r="BJ96" s="19">
+      <c r="BG96" s="24"/>
+      <c r="BH96" s="24"/>
+      <c r="BI96" s="24"/>
+      <c r="BJ96" s="23">
         <v>2015</v>
       </c>
-      <c r="BK96" s="20"/>
-      <c r="BL96" s="20"/>
-      <c r="BM96" s="20"/>
-      <c r="BN96" s="19">
+      <c r="BK96" s="24"/>
+      <c r="BL96" s="24"/>
+      <c r="BM96" s="24"/>
+      <c r="BN96" s="23">
         <v>2016</v>
       </c>
-      <c r="BO96" s="20"/>
-      <c r="BP96" s="20"/>
-      <c r="BQ96" s="20"/>
-      <c r="BR96" s="19">
+      <c r="BO96" s="24"/>
+      <c r="BP96" s="24"/>
+      <c r="BQ96" s="24"/>
+      <c r="BR96" s="23">
         <v>2017</v>
       </c>
-      <c r="BS96" s="20"/>
-      <c r="BT96" s="20"/>
-      <c r="BU96" s="20"/>
-      <c r="BV96" s="19">
+      <c r="BS96" s="24"/>
+      <c r="BT96" s="24"/>
+      <c r="BU96" s="24"/>
+      <c r="BV96" s="23">
         <v>2018</v>
       </c>
-      <c r="BW96" s="20"/>
-      <c r="BX96" s="20"/>
-      <c r="BY96" s="20"/>
-      <c r="BZ96" s="19">
+      <c r="BW96" s="24"/>
+      <c r="BX96" s="24"/>
+      <c r="BY96" s="24"/>
+      <c r="BZ96" s="23">
         <v>2019</v>
       </c>
-      <c r="CA96" s="20"/>
-      <c r="CB96" s="20"/>
-      <c r="CC96" s="20"/>
-      <c r="CD96" s="19">
+      <c r="CA96" s="24"/>
+      <c r="CB96" s="24"/>
+      <c r="CC96" s="24"/>
+      <c r="CD96" s="23">
         <v>2020</v>
       </c>
-      <c r="CE96" s="20"/>
-      <c r="CF96" s="20"/>
-      <c r="CG96" s="20"/>
-      <c r="CH96" s="19">
+      <c r="CE96" s="23"/>
+      <c r="CF96" s="23"/>
+      <c r="CG96" s="23"/>
+      <c r="CH96" s="23">
         <v>2021</v>
       </c>
-      <c r="CI96" s="20"/>
-      <c r="CJ96" s="20"/>
-      <c r="CK96" s="20"/>
-      <c r="CL96" s="19">
+      <c r="CI96" s="23"/>
+      <c r="CJ96" s="23"/>
+      <c r="CK96" s="23"/>
+      <c r="CL96" s="23">
         <v>2022</v>
       </c>
-      <c r="CM96" s="20"/>
-      <c r="CN96" s="20"/>
-      <c r="CO96" s="20"/>
+      <c r="CM96" s="23"/>
+      <c r="CN96" s="23"/>
+      <c r="CO96" s="23"/>
+      <c r="CP96" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -36905,6 +37001,9 @@
       </c>
       <c r="CO97" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="CP97" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37190,7 +37289,9 @@
       <c r="CO99" s="16">
         <v>123.50895300182034</v>
       </c>
-      <c r="CP99" s="10"/>
+      <c r="CP99" s="16">
+        <v>124.96604439146842</v>
+      </c>
       <c r="CQ99" s="10"/>
       <c r="CR99" s="10"/>
       <c r="CS99" s="10"/>
@@ -37532,7 +37633,9 @@
       <c r="CO100" s="16">
         <v>92.35656597458059</v>
       </c>
-      <c r="CP100" s="10"/>
+      <c r="CP100" s="16">
+        <v>106.55510314601457</v>
+      </c>
       <c r="CQ100" s="10"/>
       <c r="CR100" s="10"/>
       <c r="CS100" s="10"/>
@@ -37874,7 +37977,9 @@
       <c r="CO101" s="16">
         <v>139.65345817177814</v>
       </c>
-      <c r="CP101" s="10"/>
+      <c r="CP101" s="16">
+        <v>120.66677029953917</v>
+      </c>
       <c r="CQ101" s="10"/>
       <c r="CR101" s="10"/>
       <c r="CS101" s="10"/>
@@ -38216,7 +38321,9 @@
       <c r="CO102" s="16">
         <v>115.52979932111987</v>
       </c>
-      <c r="CP102" s="10"/>
+      <c r="CP102" s="16">
+        <v>108.78936473222893</v>
+      </c>
       <c r="CQ102" s="10"/>
       <c r="CR102" s="10"/>
       <c r="CS102" s="10"/>
@@ -38558,7 +38665,9 @@
       <c r="CO103" s="16">
         <v>100.67310618795669</v>
       </c>
-      <c r="CP103" s="10"/>
+      <c r="CP103" s="16">
+        <v>101.4657838317037</v>
+      </c>
       <c r="CQ103" s="10"/>
       <c r="CR103" s="10"/>
       <c r="CS103" s="10"/>
@@ -39055,7 +39164,9 @@
       <c r="CO105" s="16">
         <v>120.94356317684468</v>
       </c>
-      <c r="CP105" s="10"/>
+      <c r="CP105" s="16">
+        <v>118.01825531162568</v>
+      </c>
       <c r="CQ105" s="10"/>
       <c r="CR105" s="10"/>
       <c r="CS105" s="10"/>
@@ -39211,6 +39322,7 @@
       <c r="CM106" s="13"/>
       <c r="CN106" s="13"/>
       <c r="CO106" s="13"/>
+      <c r="CP106" s="13"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -39229,7 +39341,7 @@
     </row>
     <row r="112" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
@@ -39239,7 +39351,7 @@
     </row>
     <row r="115" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:154" x14ac:dyDescent="0.2">
@@ -39249,144 +39361,147 @@
     </row>
     <row r="118" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="19">
+      <c r="B118" s="23">
         <v>2000</v>
       </c>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="19">
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="23">
         <v>2001</v>
       </c>
-      <c r="G118" s="20"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="19">
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="23">
         <v>2002</v>
       </c>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
-      <c r="N118" s="19">
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="23">
         <v>2003</v>
       </c>
-      <c r="O118" s="20"/>
-      <c r="P118" s="20"/>
-      <c r="Q118" s="20"/>
-      <c r="R118" s="19">
+      <c r="O118" s="24"/>
+      <c r="P118" s="24"/>
+      <c r="Q118" s="24"/>
+      <c r="R118" s="23">
         <v>2004</v>
       </c>
-      <c r="S118" s="20"/>
-      <c r="T118" s="20"/>
-      <c r="U118" s="20"/>
-      <c r="V118" s="19">
+      <c r="S118" s="24"/>
+      <c r="T118" s="24"/>
+      <c r="U118" s="24"/>
+      <c r="V118" s="23">
         <v>2005</v>
       </c>
-      <c r="W118" s="20"/>
-      <c r="X118" s="20"/>
-      <c r="Y118" s="20"/>
-      <c r="Z118" s="19">
+      <c r="W118" s="24"/>
+      <c r="X118" s="24"/>
+      <c r="Y118" s="24"/>
+      <c r="Z118" s="23">
         <v>2006</v>
       </c>
-      <c r="AA118" s="20"/>
-      <c r="AB118" s="20"/>
-      <c r="AC118" s="20"/>
-      <c r="AD118" s="19">
+      <c r="AA118" s="24"/>
+      <c r="AB118" s="24"/>
+      <c r="AC118" s="24"/>
+      <c r="AD118" s="23">
         <v>2007</v>
       </c>
-      <c r="AE118" s="20"/>
-      <c r="AF118" s="20"/>
-      <c r="AG118" s="20"/>
-      <c r="AH118" s="19">
+      <c r="AE118" s="24"/>
+      <c r="AF118" s="24"/>
+      <c r="AG118" s="24"/>
+      <c r="AH118" s="23">
         <v>2008</v>
       </c>
-      <c r="AI118" s="20"/>
-      <c r="AJ118" s="20"/>
-      <c r="AK118" s="20"/>
-      <c r="AL118" s="19">
+      <c r="AI118" s="24"/>
+      <c r="AJ118" s="24"/>
+      <c r="AK118" s="24"/>
+      <c r="AL118" s="23">
         <v>2009</v>
       </c>
-      <c r="AM118" s="20"/>
-      <c r="AN118" s="20"/>
-      <c r="AO118" s="20"/>
-      <c r="AP118" s="19">
+      <c r="AM118" s="24"/>
+      <c r="AN118" s="24"/>
+      <c r="AO118" s="24"/>
+      <c r="AP118" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="20"/>
-      <c r="AR118" s="20"/>
-      <c r="AS118" s="20"/>
-      <c r="AT118" s="19">
+      <c r="AQ118" s="24"/>
+      <c r="AR118" s="24"/>
+      <c r="AS118" s="24"/>
+      <c r="AT118" s="23">
         <v>2011</v>
       </c>
-      <c r="AU118" s="20"/>
-      <c r="AV118" s="20"/>
-      <c r="AW118" s="20"/>
-      <c r="AX118" s="19">
+      <c r="AU118" s="24"/>
+      <c r="AV118" s="24"/>
+      <c r="AW118" s="24"/>
+      <c r="AX118" s="23">
         <v>2012</v>
       </c>
-      <c r="AY118" s="20"/>
-      <c r="AZ118" s="20"/>
-      <c r="BA118" s="20"/>
-      <c r="BB118" s="19">
+      <c r="AY118" s="24"/>
+      <c r="AZ118" s="24"/>
+      <c r="BA118" s="24"/>
+      <c r="BB118" s="23">
         <v>2013</v>
       </c>
-      <c r="BC118" s="20"/>
-      <c r="BD118" s="20"/>
-      <c r="BE118" s="20"/>
-      <c r="BF118" s="19">
+      <c r="BC118" s="24"/>
+      <c r="BD118" s="24"/>
+      <c r="BE118" s="24"/>
+      <c r="BF118" s="23">
         <v>2014</v>
       </c>
-      <c r="BG118" s="20"/>
-      <c r="BH118" s="20"/>
-      <c r="BI118" s="20"/>
-      <c r="BJ118" s="19">
+      <c r="BG118" s="24"/>
+      <c r="BH118" s="24"/>
+      <c r="BI118" s="24"/>
+      <c r="BJ118" s="23">
         <v>2015</v>
       </c>
-      <c r="BK118" s="20"/>
-      <c r="BL118" s="20"/>
-      <c r="BM118" s="20"/>
-      <c r="BN118" s="19">
+      <c r="BK118" s="24"/>
+      <c r="BL118" s="24"/>
+      <c r="BM118" s="24"/>
+      <c r="BN118" s="23">
         <v>2016</v>
       </c>
-      <c r="BO118" s="20"/>
-      <c r="BP118" s="20"/>
-      <c r="BQ118" s="20"/>
-      <c r="BR118" s="19">
+      <c r="BO118" s="24"/>
+      <c r="BP118" s="24"/>
+      <c r="BQ118" s="24"/>
+      <c r="BR118" s="23">
         <v>2017</v>
       </c>
-      <c r="BS118" s="20"/>
-      <c r="BT118" s="20"/>
-      <c r="BU118" s="20"/>
-      <c r="BV118" s="19">
+      <c r="BS118" s="24"/>
+      <c r="BT118" s="24"/>
+      <c r="BU118" s="24"/>
+      <c r="BV118" s="23">
         <v>2018</v>
       </c>
-      <c r="BW118" s="20"/>
-      <c r="BX118" s="20"/>
-      <c r="BY118" s="20"/>
-      <c r="BZ118" s="19">
+      <c r="BW118" s="24"/>
+      <c r="BX118" s="24"/>
+      <c r="BY118" s="24"/>
+      <c r="BZ118" s="23">
         <v>2019</v>
       </c>
-      <c r="CA118" s="20"/>
-      <c r="CB118" s="20"/>
-      <c r="CC118" s="20"/>
-      <c r="CD118" s="19">
+      <c r="CA118" s="24"/>
+      <c r="CB118" s="24"/>
+      <c r="CC118" s="24"/>
+      <c r="CD118" s="23">
         <v>2020</v>
       </c>
-      <c r="CE118" s="20"/>
-      <c r="CF118" s="20"/>
-      <c r="CG118" s="20"/>
-      <c r="CH118" s="19">
+      <c r="CE118" s="23"/>
+      <c r="CF118" s="23"/>
+      <c r="CG118" s="23"/>
+      <c r="CH118" s="23">
         <v>2021</v>
       </c>
-      <c r="CI118" s="20"/>
-      <c r="CJ118" s="20"/>
-      <c r="CK118" s="20"/>
-      <c r="CL118" s="19">
+      <c r="CI118" s="23"/>
+      <c r="CJ118" s="23"/>
+      <c r="CK118" s="23"/>
+      <c r="CL118" s="23">
         <v>2022</v>
       </c>
-      <c r="CM118" s="20"/>
-      <c r="CN118" s="20"/>
-      <c r="CO118" s="20"/>
+      <c r="CM118" s="23"/>
+      <c r="CN118" s="23"/>
+      <c r="CO118" s="23"/>
+      <c r="CP118" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
@@ -39667,6 +39782,9 @@
       </c>
       <c r="CO119" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="CP119" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39952,7 +40070,9 @@
       <c r="CO121" s="16">
         <v>55.126247661394714</v>
       </c>
-      <c r="CP121" s="10"/>
+      <c r="CP121" s="16">
+        <v>51.748498225225113</v>
+      </c>
       <c r="CQ121" s="10"/>
       <c r="CR121" s="10"/>
       <c r="CS121" s="10"/>
@@ -40294,7 +40414,9 @@
       <c r="CO122" s="16">
         <v>3.809075300997748</v>
       </c>
-      <c r="CP122" s="10"/>
+      <c r="CP122" s="16">
+        <v>5.4025123864283815</v>
+      </c>
       <c r="CQ122" s="10"/>
       <c r="CR122" s="10"/>
       <c r="CS122" s="10"/>
@@ -40636,7 +40758,9 @@
       <c r="CO123" s="16">
         <v>13.883835109488398</v>
       </c>
-      <c r="CP123" s="10"/>
+      <c r="CP123" s="16">
+        <v>14.94356695110605</v>
+      </c>
       <c r="CQ123" s="10"/>
       <c r="CR123" s="10"/>
       <c r="CS123" s="10"/>
@@ -40978,7 +41102,9 @@
       <c r="CO124" s="16">
         <v>23.60538100736407</v>
       </c>
-      <c r="CP124" s="10"/>
+      <c r="CP124" s="16">
+        <v>24.628471945583811</v>
+      </c>
       <c r="CQ124" s="10"/>
       <c r="CR124" s="10"/>
       <c r="CS124" s="10"/>
@@ -41320,7 +41446,9 @@
       <c r="CO125" s="16">
         <v>3.5754609207550541</v>
       </c>
-      <c r="CP125" s="10"/>
+      <c r="CP125" s="16">
+        <v>3.2769504916566468</v>
+      </c>
       <c r="CQ125" s="10"/>
       <c r="CR125" s="10"/>
       <c r="CS125" s="10"/>
@@ -41817,7 +41945,9 @@
       <c r="CO127" s="16">
         <v>100</v>
       </c>
-      <c r="CP127" s="10"/>
+      <c r="CP127" s="16">
+        <v>100</v>
+      </c>
       <c r="CQ127" s="10"/>
       <c r="CR127" s="10"/>
       <c r="CS127" s="10"/>
@@ -41973,6 +42103,7 @@
       <c r="CM128" s="13"/>
       <c r="CN128" s="13"/>
       <c r="CO128" s="13"/>
+      <c r="CP128" s="13"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -42301,7 +42432,7 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:154" x14ac:dyDescent="0.2">
@@ -42311,7 +42442,7 @@
     </row>
     <row r="137" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:154" x14ac:dyDescent="0.2">
@@ -42321,144 +42452,147 @@
     </row>
     <row r="140" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="19">
+      <c r="B140" s="23">
         <v>2000</v>
       </c>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="19">
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="23">
         <v>2001</v>
       </c>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="20"/>
-      <c r="J140" s="19">
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="23">
         <v>2002</v>
       </c>
-      <c r="K140" s="20"/>
-      <c r="L140" s="20"/>
-      <c r="M140" s="20"/>
-      <c r="N140" s="19">
+      <c r="K140" s="24"/>
+      <c r="L140" s="24"/>
+      <c r="M140" s="24"/>
+      <c r="N140" s="23">
         <v>2003</v>
       </c>
-      <c r="O140" s="20"/>
-      <c r="P140" s="20"/>
-      <c r="Q140" s="20"/>
-      <c r="R140" s="19">
+      <c r="O140" s="24"/>
+      <c r="P140" s="24"/>
+      <c r="Q140" s="24"/>
+      <c r="R140" s="23">
         <v>2004</v>
       </c>
-      <c r="S140" s="20"/>
-      <c r="T140" s="20"/>
-      <c r="U140" s="20"/>
-      <c r="V140" s="19">
+      <c r="S140" s="24"/>
+      <c r="T140" s="24"/>
+      <c r="U140" s="24"/>
+      <c r="V140" s="23">
         <v>2005</v>
       </c>
-      <c r="W140" s="20"/>
-      <c r="X140" s="20"/>
-      <c r="Y140" s="20"/>
-      <c r="Z140" s="19">
+      <c r="W140" s="24"/>
+      <c r="X140" s="24"/>
+      <c r="Y140" s="24"/>
+      <c r="Z140" s="23">
         <v>2006</v>
       </c>
-      <c r="AA140" s="20"/>
-      <c r="AB140" s="20"/>
-      <c r="AC140" s="20"/>
-      <c r="AD140" s="19">
+      <c r="AA140" s="24"/>
+      <c r="AB140" s="24"/>
+      <c r="AC140" s="24"/>
+      <c r="AD140" s="23">
         <v>2007</v>
       </c>
-      <c r="AE140" s="20"/>
-      <c r="AF140" s="20"/>
-      <c r="AG140" s="20"/>
-      <c r="AH140" s="19">
+      <c r="AE140" s="24"/>
+      <c r="AF140" s="24"/>
+      <c r="AG140" s="24"/>
+      <c r="AH140" s="23">
         <v>2008</v>
       </c>
-      <c r="AI140" s="20"/>
-      <c r="AJ140" s="20"/>
-      <c r="AK140" s="20"/>
-      <c r="AL140" s="19">
+      <c r="AI140" s="24"/>
+      <c r="AJ140" s="24"/>
+      <c r="AK140" s="24"/>
+      <c r="AL140" s="23">
         <v>2009</v>
       </c>
-      <c r="AM140" s="20"/>
-      <c r="AN140" s="20"/>
-      <c r="AO140" s="20"/>
-      <c r="AP140" s="19">
+      <c r="AM140" s="24"/>
+      <c r="AN140" s="24"/>
+      <c r="AO140" s="24"/>
+      <c r="AP140" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="20"/>
-      <c r="AR140" s="20"/>
-      <c r="AS140" s="20"/>
-      <c r="AT140" s="19">
+      <c r="AQ140" s="24"/>
+      <c r="AR140" s="24"/>
+      <c r="AS140" s="24"/>
+      <c r="AT140" s="23">
         <v>2011</v>
       </c>
-      <c r="AU140" s="20"/>
-      <c r="AV140" s="20"/>
-      <c r="AW140" s="20"/>
-      <c r="AX140" s="19">
+      <c r="AU140" s="24"/>
+      <c r="AV140" s="24"/>
+      <c r="AW140" s="24"/>
+      <c r="AX140" s="23">
         <v>2012</v>
       </c>
-      <c r="AY140" s="20"/>
-      <c r="AZ140" s="20"/>
-      <c r="BA140" s="20"/>
-      <c r="BB140" s="19">
+      <c r="AY140" s="24"/>
+      <c r="AZ140" s="24"/>
+      <c r="BA140" s="24"/>
+      <c r="BB140" s="23">
         <v>2013</v>
       </c>
-      <c r="BC140" s="20"/>
-      <c r="BD140" s="20"/>
-      <c r="BE140" s="20"/>
-      <c r="BF140" s="19">
+      <c r="BC140" s="24"/>
+      <c r="BD140" s="24"/>
+      <c r="BE140" s="24"/>
+      <c r="BF140" s="23">
         <v>2014</v>
       </c>
-      <c r="BG140" s="20"/>
-      <c r="BH140" s="20"/>
-      <c r="BI140" s="20"/>
-      <c r="BJ140" s="19">
+      <c r="BG140" s="24"/>
+      <c r="BH140" s="24"/>
+      <c r="BI140" s="24"/>
+      <c r="BJ140" s="23">
         <v>2015</v>
       </c>
-      <c r="BK140" s="20"/>
-      <c r="BL140" s="20"/>
-      <c r="BM140" s="20"/>
-      <c r="BN140" s="19">
+      <c r="BK140" s="24"/>
+      <c r="BL140" s="24"/>
+      <c r="BM140" s="24"/>
+      <c r="BN140" s="23">
         <v>2016</v>
       </c>
-      <c r="BO140" s="20"/>
-      <c r="BP140" s="20"/>
-      <c r="BQ140" s="20"/>
-      <c r="BR140" s="19">
+      <c r="BO140" s="24"/>
+      <c r="BP140" s="24"/>
+      <c r="BQ140" s="24"/>
+      <c r="BR140" s="23">
         <v>2017</v>
       </c>
-      <c r="BS140" s="20"/>
-      <c r="BT140" s="20"/>
-      <c r="BU140" s="20"/>
-      <c r="BV140" s="19">
+      <c r="BS140" s="24"/>
+      <c r="BT140" s="24"/>
+      <c r="BU140" s="24"/>
+      <c r="BV140" s="23">
         <v>2018</v>
       </c>
-      <c r="BW140" s="20"/>
-      <c r="BX140" s="20"/>
-      <c r="BY140" s="20"/>
-      <c r="BZ140" s="19">
+      <c r="BW140" s="24"/>
+      <c r="BX140" s="24"/>
+      <c r="BY140" s="24"/>
+      <c r="BZ140" s="23">
         <v>2019</v>
       </c>
-      <c r="CA140" s="20"/>
-      <c r="CB140" s="20"/>
-      <c r="CC140" s="20"/>
-      <c r="CD140" s="19">
+      <c r="CA140" s="24"/>
+      <c r="CB140" s="24"/>
+      <c r="CC140" s="24"/>
+      <c r="CD140" s="23">
         <v>2020</v>
       </c>
-      <c r="CE140" s="20"/>
-      <c r="CF140" s="20"/>
-      <c r="CG140" s="20"/>
-      <c r="CH140" s="19">
+      <c r="CE140" s="23"/>
+      <c r="CF140" s="23"/>
+      <c r="CG140" s="23"/>
+      <c r="CH140" s="23">
         <v>2021</v>
       </c>
-      <c r="CI140" s="20"/>
-      <c r="CJ140" s="20"/>
-      <c r="CK140" s="20"/>
-      <c r="CL140" s="19">
+      <c r="CI140" s="23"/>
+      <c r="CJ140" s="23"/>
+      <c r="CK140" s="23"/>
+      <c r="CL140" s="23">
         <v>2022</v>
       </c>
-      <c r="CM140" s="20"/>
-      <c r="CN140" s="20"/>
-      <c r="CO140" s="20"/>
+      <c r="CM140" s="23"/>
+      <c r="CN140" s="23"/>
+      <c r="CO140" s="23"/>
+      <c r="CP140" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
@@ -42739,6 +42873,9 @@
       </c>
       <c r="CO141" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="CP141" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43024,7 +43161,9 @@
       <c r="CO143" s="16">
         <v>53.981226904579238</v>
       </c>
-      <c r="CP143" s="10"/>
+      <c r="CP143" s="16">
+        <v>48.871415473520244</v>
+      </c>
       <c r="CQ143" s="10"/>
       <c r="CR143" s="10"/>
       <c r="CS143" s="10"/>
@@ -43366,7 +43505,9 @@
       <c r="CO144" s="16">
         <v>4.9880929899274751</v>
       </c>
-      <c r="CP144" s="10"/>
+      <c r="CP144" s="16">
+        <v>5.9837123452643617</v>
+      </c>
       <c r="CQ144" s="10"/>
       <c r="CR144" s="10"/>
       <c r="CS144" s="10"/>
@@ -43708,7 +43849,9 @@
       <c r="CO145" s="16">
         <v>12.023765903712063</v>
       </c>
-      <c r="CP145" s="10"/>
+      <c r="CP145" s="16">
+        <v>14.615570594324101</v>
+      </c>
       <c r="CQ145" s="10"/>
       <c r="CR145" s="10"/>
       <c r="CS145" s="10"/>
@@ -44050,7 +44193,9 @@
       <c r="CO146" s="16">
         <v>24.711536815209563</v>
       </c>
-      <c r="CP146" s="10"/>
+      <c r="CP146" s="16">
+        <v>26.717770594242985</v>
+      </c>
       <c r="CQ146" s="10"/>
       <c r="CR146" s="10"/>
       <c r="CS146" s="10"/>
@@ -44392,7 +44537,9 @@
       <c r="CO147" s="16">
         <v>4.2953773865716744</v>
       </c>
-      <c r="CP147" s="10"/>
+      <c r="CP147" s="16">
+        <v>3.8115309926483003</v>
+      </c>
       <c r="CQ147" s="10"/>
       <c r="CR147" s="10"/>
       <c r="CS147" s="10"/>
@@ -44889,7 +45036,9 @@
       <c r="CO149" s="16">
         <v>100</v>
       </c>
-      <c r="CP149" s="10"/>
+      <c r="CP149" s="16">
+        <v>100</v>
+      </c>
       <c r="CQ149" s="10"/>
       <c r="CR149" s="10"/>
       <c r="CS149" s="10"/>
@@ -45045,6 +45194,7 @@
       <c r="CM150" s="13"/>
       <c r="CN150" s="13"/>
       <c r="CO150" s="13"/>
+      <c r="CP150" s="13"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -45145,7 +45295,7 @@
       <c r="CM152" s="1"/>
       <c r="CN152" s="1"/>
       <c r="CO152" s="1"/>
-      <c r="CP152" s="17"/>
+      <c r="CP152" s="1"/>
       <c r="CQ152" s="17"/>
       <c r="CR152" s="17"/>
       <c r="CS152" s="17"/>
@@ -45301,7 +45451,7 @@
       <c r="CM153" s="1"/>
       <c r="CN153" s="1"/>
       <c r="CO153" s="1"/>
-      <c r="CP153" s="17"/>
+      <c r="CP153" s="1"/>
       <c r="CQ153" s="17"/>
       <c r="CR153" s="17"/>
       <c r="CS153" s="17"/>
@@ -45364,7 +45514,7 @@
       <c r="EX153" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="Z140:AC140"/>
     <mergeCell ref="AD140:AG140"/>
     <mergeCell ref="AH140:AK140"/>
@@ -45493,6 +45643,14 @@
     <mergeCell ref="BJ96:BM96"/>
     <mergeCell ref="V96:Y96"/>
     <mergeCell ref="Z96:AC96"/>
+    <mergeCell ref="BR140:BU140"/>
+    <mergeCell ref="BV140:BY140"/>
+    <mergeCell ref="BR118:BU118"/>
+    <mergeCell ref="BV118:BY118"/>
+    <mergeCell ref="BR75:BU75"/>
+    <mergeCell ref="BV75:BY75"/>
+    <mergeCell ref="CH53:CK53"/>
+    <mergeCell ref="CH75:CK75"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BZ9:CC9"/>
@@ -45504,19 +45662,6 @@
     <mergeCell ref="BZ140:CC140"/>
     <mergeCell ref="BZ118:CC118"/>
     <mergeCell ref="BZ96:CC96"/>
-    <mergeCell ref="CD53:CG53"/>
-    <mergeCell ref="CD75:CG75"/>
-    <mergeCell ref="CH96:CK96"/>
-    <mergeCell ref="CH118:CK118"/>
-    <mergeCell ref="CH140:CK140"/>
-    <mergeCell ref="BR140:BU140"/>
-    <mergeCell ref="BV140:BY140"/>
-    <mergeCell ref="BR118:BU118"/>
-    <mergeCell ref="BV118:BY118"/>
-    <mergeCell ref="BR75:BU75"/>
-    <mergeCell ref="BV75:BY75"/>
-    <mergeCell ref="CH53:CK53"/>
-    <mergeCell ref="CH75:CK75"/>
     <mergeCell ref="CL96:CO96"/>
     <mergeCell ref="CL118:CO118"/>
     <mergeCell ref="CL140:CO140"/>
@@ -45524,17 +45669,20 @@
     <mergeCell ref="CH31:CK31"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL31:CO31"/>
-    <mergeCell ref="CL53:CO53"/>
-    <mergeCell ref="CL75:CO75"/>
+    <mergeCell ref="CD53:CG53"/>
+    <mergeCell ref="CD75:CG75"/>
+    <mergeCell ref="CH96:CK96"/>
+    <mergeCell ref="CH118:CK118"/>
+    <mergeCell ref="CH140:CK140"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="92" man="1"/>
-    <brk id="88" max="92" man="1"/>
-    <brk id="109" max="92" man="1"/>
+    <brk id="44" max="93" man="1"/>
+    <brk id="88" max="93" man="1"/>
+    <brk id="109" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1DCCF2-5898-49CE-84E2-BDB3D220A9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D102B2A-0EC5-4DC4-9907-2A290B775411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="1950" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="8" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CP$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CQ$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -626,13 +626,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -749,9 +749,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -23611,17 +23608,17 @@
   </sheetPr>
   <dimension ref="A1:EX153"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="topRight" activeCell="CS7" sqref="CS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="94" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="95" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23741,6 +23738,7 @@
       <c r="CN6" s="4"/>
       <c r="CO6" s="4"/>
       <c r="CP6" s="4"/>
+      <c r="CQ6" s="4"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23839,6 +23837,7 @@
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
       <c r="CP7" s="4"/>
+      <c r="CQ7" s="4"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23934,150 +23933,152 @@
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
       <c r="CP8" s="4"/>
+      <c r="CQ8" s="4"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="23">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="23"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="23"/>
-      <c r="BF9" s="23">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="23"/>
-      <c r="BM9" s="23"/>
-      <c r="BN9" s="23">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="23"/>
-      <c r="BP9" s="23"/>
-      <c r="BQ9" s="23"/>
-      <c r="BR9" s="23">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="23"/>
-      <c r="BT9" s="23"/>
-      <c r="BU9" s="23"/>
-      <c r="BV9" s="23">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="23"/>
-      <c r="BX9" s="23"/>
-      <c r="BY9" s="23"/>
-      <c r="BZ9" s="23">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="23"/>
-      <c r="CB9" s="23"/>
-      <c r="CC9" s="23"/>
-      <c r="CD9" s="23">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="23"/>
-      <c r="CF9" s="23"/>
-      <c r="CG9" s="23"/>
-      <c r="CH9" s="23">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="23"/>
-      <c r="CJ9" s="23"/>
-      <c r="CK9" s="23"/>
-      <c r="CL9" s="23">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="23"/>
-      <c r="CN9" s="23"/>
-      <c r="CO9" s="23"/>
-      <c r="CP9" s="19">
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="24"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24361,6 +24362,9 @@
       </c>
       <c r="CP10" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ10" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24610,46 +24614,48 @@
       <c r="CC12" s="9">
         <v>96473.611630007377</v>
       </c>
-      <c r="CD12" s="20">
+      <c r="CD12" s="19">
         <v>85833.42547521973</v>
       </c>
-      <c r="CE12" s="20">
+      <c r="CE12" s="19">
         <v>47227.58300161481</v>
       </c>
-      <c r="CF12" s="20">
+      <c r="CF12" s="19">
         <v>77970.887384953618</v>
       </c>
-      <c r="CG12" s="20">
+      <c r="CG12" s="19">
         <v>87043.333111853615</v>
       </c>
-      <c r="CH12" s="20">
+      <c r="CH12" s="19">
         <v>80310.943601616484</v>
       </c>
-      <c r="CI12" s="20">
+      <c r="CI12" s="19">
         <v>64886.17836900759</v>
       </c>
-      <c r="CJ12" s="20">
+      <c r="CJ12" s="19">
         <v>91755.469490844363</v>
       </c>
-      <c r="CK12" s="20">
+      <c r="CK12" s="19">
         <v>102445.11283825984</v>
       </c>
-      <c r="CL12" s="20">
+      <c r="CL12" s="19">
         <v>95112.941061584192</v>
       </c>
-      <c r="CM12" s="20">
+      <c r="CM12" s="19">
         <v>86138.101602379815</v>
       </c>
-      <c r="CN12" s="20">
+      <c r="CN12" s="19">
         <v>125364.61590883185</v>
       </c>
-      <c r="CO12" s="20">
+      <c r="CO12" s="19">
         <v>131260.92863027516</v>
       </c>
-      <c r="CP12" s="20">
-        <v>118969.35477356301</v>
-      </c>
-      <c r="CQ12" s="10"/>
+      <c r="CP12" s="19">
+        <v>118117.03890907811</v>
+      </c>
+      <c r="CQ12" s="19">
+        <v>113241.72707584537</v>
+      </c>
       <c r="CR12" s="10"/>
       <c r="CS12" s="10"/>
       <c r="CT12" s="10"/>
@@ -24954,46 +24960,48 @@
       <c r="CC13" s="9">
         <v>7493.7042045622948</v>
       </c>
-      <c r="CD13" s="20">
+      <c r="CD13" s="19">
         <v>10638.014382942774</v>
       </c>
-      <c r="CE13" s="20">
+      <c r="CE13" s="19">
         <v>4159.9442986404647</v>
       </c>
-      <c r="CF13" s="20">
+      <c r="CF13" s="19">
         <v>6161.7898553619443</v>
       </c>
-      <c r="CG13" s="20">
+      <c r="CG13" s="19">
         <v>6727.6571030917612</v>
       </c>
-      <c r="CH13" s="20">
+      <c r="CH13" s="19">
         <v>7817.273676312996</v>
       </c>
-      <c r="CI13" s="20">
+      <c r="CI13" s="19">
         <v>5067.513206587616</v>
       </c>
-      <c r="CJ13" s="20">
+      <c r="CJ13" s="19">
         <v>6461.1453905598064</v>
       </c>
-      <c r="CK13" s="20">
+      <c r="CK13" s="19">
         <v>6805.4416689638665</v>
       </c>
-      <c r="CL13" s="20">
+      <c r="CL13" s="19">
         <v>9030.929515187514</v>
       </c>
-      <c r="CM13" s="20">
+      <c r="CM13" s="19">
         <v>6772.0262369198845</v>
       </c>
-      <c r="CN13" s="20">
+      <c r="CN13" s="19">
         <v>8678.9535591085787</v>
       </c>
-      <c r="CO13" s="20">
+      <c r="CO13" s="19">
         <v>9069.7767840590877</v>
       </c>
-      <c r="CP13" s="20">
-        <v>12420.329764396183</v>
-      </c>
-      <c r="CQ13" s="10"/>
+      <c r="CP13" s="19">
+        <v>12328.926675149785</v>
+      </c>
+      <c r="CQ13" s="19">
+        <v>7813.0340217721405</v>
+      </c>
       <c r="CR13" s="10"/>
       <c r="CS13" s="10"/>
       <c r="CT13" s="10"/>
@@ -25298,46 +25306,48 @@
       <c r="CC14" s="9">
         <v>25867.275404417582</v>
       </c>
-      <c r="CD14" s="20">
+      <c r="CD14" s="19">
         <v>23139.390588465467</v>
       </c>
-      <c r="CE14" s="20">
+      <c r="CE14" s="19">
         <v>541.66018011143547</v>
       </c>
-      <c r="CF14" s="20">
+      <c r="CF14" s="19">
         <v>3933.8866949345993</v>
       </c>
-      <c r="CG14" s="20">
+      <c r="CG14" s="19">
         <v>5756.5870174473457</v>
       </c>
-      <c r="CH14" s="20">
+      <c r="CH14" s="19">
         <v>5981.2410016829199</v>
       </c>
-      <c r="CI14" s="20">
+      <c r="CI14" s="19">
         <v>3498.5571945118791</v>
       </c>
-      <c r="CJ14" s="20">
+      <c r="CJ14" s="19">
         <v>7810.5870233574205</v>
       </c>
-      <c r="CK14" s="20">
+      <c r="CK14" s="19">
         <v>10731.893624718097</v>
       </c>
-      <c r="CL14" s="20">
+      <c r="CL14" s="19">
         <v>16519.717390147831</v>
       </c>
-      <c r="CM14" s="20">
+      <c r="CM14" s="19">
         <v>17861.916287213768</v>
       </c>
-      <c r="CN14" s="20">
+      <c r="CN14" s="19">
         <v>24864.012333683175</v>
       </c>
-      <c r="CO14" s="20">
+      <c r="CO14" s="19">
         <v>33058.754526789751</v>
       </c>
-      <c r="CP14" s="20">
+      <c r="CP14" s="19">
         <v>34355.132596331357</v>
       </c>
-      <c r="CQ14" s="10"/>
+      <c r="CQ14" s="19">
+        <v>32071.36273028102</v>
+      </c>
       <c r="CR14" s="10"/>
       <c r="CS14" s="10"/>
       <c r="CT14" s="10"/>
@@ -25642,46 +25652,48 @@
       <c r="CC15" s="9">
         <v>40474.026791175536</v>
       </c>
-      <c r="CD15" s="20">
+      <c r="CD15" s="19">
         <v>38377.454454111437</v>
       </c>
-      <c r="CE15" s="20">
+      <c r="CE15" s="19">
         <v>39129.883280113791</v>
       </c>
-      <c r="CF15" s="20">
+      <c r="CF15" s="19">
         <v>43772.535915687906</v>
       </c>
-      <c r="CG15" s="20">
+      <c r="CG15" s="19">
         <v>41914.708397563991</v>
       </c>
-      <c r="CH15" s="20">
+      <c r="CH15" s="19">
         <v>41314.418988535144</v>
       </c>
-      <c r="CI15" s="20">
+      <c r="CI15" s="19">
         <v>45468.281079315457</v>
       </c>
-      <c r="CJ15" s="20">
+      <c r="CJ15" s="19">
         <v>45801.634695866625</v>
       </c>
-      <c r="CK15" s="20">
+      <c r="CK15" s="19">
         <v>46206.319687562878</v>
       </c>
-      <c r="CL15" s="20">
+      <c r="CL15" s="19">
         <v>48867.192274073153</v>
       </c>
-      <c r="CM15" s="20">
+      <c r="CM15" s="19">
         <v>50427.993876530629</v>
       </c>
-      <c r="CN15" s="20">
+      <c r="CN15" s="19">
         <v>54777.401768381824</v>
       </c>
-      <c r="CO15" s="20">
+      <c r="CO15" s="19">
         <v>56206.695778206282</v>
       </c>
-      <c r="CP15" s="20">
-        <v>56620.646335909354</v>
-      </c>
-      <c r="CQ15" s="10"/>
+      <c r="CP15" s="19">
+        <v>56591.78678394208</v>
+      </c>
+      <c r="CQ15" s="19">
+        <v>58167.423294624547</v>
+      </c>
       <c r="CR15" s="10"/>
       <c r="CS15" s="10"/>
       <c r="CT15" s="10"/>
@@ -25986,46 +25998,48 @@
       <c r="CC16" s="9">
         <v>8101.8663721992616</v>
       </c>
-      <c r="CD16" s="20">
+      <c r="CD16" s="19">
         <v>7271.536918522761</v>
       </c>
-      <c r="CE16" s="20">
+      <c r="CE16" s="19">
         <v>5318.9671586771592</v>
       </c>
-      <c r="CF16" s="20">
+      <c r="CF16" s="19">
         <v>7418.2830113571872</v>
       </c>
-      <c r="CG16" s="20">
+      <c r="CG16" s="19">
         <v>8707.0629617639515</v>
       </c>
-      <c r="CH16" s="20">
+      <c r="CH16" s="19">
         <v>8057.1403063475373</v>
       </c>
-      <c r="CI16" s="20">
+      <c r="CI16" s="19">
         <v>9199.2714411078541</v>
       </c>
-      <c r="CJ16" s="20">
+      <c r="CJ16" s="19">
         <v>6948.7257825117358</v>
       </c>
-      <c r="CK16" s="20">
+      <c r="CK16" s="19">
         <v>8636.4176909564103</v>
       </c>
-      <c r="CL16" s="20">
+      <c r="CL16" s="19">
         <v>7865.3473658344301</v>
       </c>
-      <c r="CM16" s="20">
+      <c r="CM16" s="19">
         <v>8966.8706717470923</v>
       </c>
-      <c r="CN16" s="20">
+      <c r="CN16" s="19">
         <v>7164.4283924129832</v>
       </c>
-      <c r="CO16" s="20">
+      <c r="CO16" s="19">
         <v>8513.5183446965111</v>
       </c>
-      <c r="CP16" s="20">
-        <v>7533.6811499442374</v>
-      </c>
-      <c r="CQ16" s="10"/>
+      <c r="CP16" s="19">
+        <v>8869.1228030236252</v>
+      </c>
+      <c r="CQ16" s="19">
+        <v>10116.389327295956</v>
+      </c>
       <c r="CR16" s="10"/>
       <c r="CS16" s="10"/>
       <c r="CT16" s="10"/>
@@ -26485,46 +26499,48 @@
       <c r="CC18" s="12">
         <v>178410.48440236205</v>
       </c>
-      <c r="CD18" s="21">
+      <c r="CD18" s="20">
         <v>165259.82181926217</v>
       </c>
-      <c r="CE18" s="21">
+      <c r="CE18" s="20">
         <v>96378.037919157665</v>
       </c>
-      <c r="CF18" s="21">
+      <c r="CF18" s="20">
         <v>139257.38286229526</v>
       </c>
-      <c r="CG18" s="21">
+      <c r="CG18" s="20">
         <v>150149.34859172066</v>
       </c>
-      <c r="CH18" s="21">
+      <c r="CH18" s="20">
         <v>143481.01757449508</v>
       </c>
-      <c r="CI18" s="21">
+      <c r="CI18" s="20">
         <v>128119.80129053039</v>
       </c>
-      <c r="CJ18" s="21">
+      <c r="CJ18" s="20">
         <v>158777.56238313994</v>
       </c>
-      <c r="CK18" s="21">
+      <c r="CK18" s="20">
         <v>174825.18551046107</v>
       </c>
-      <c r="CL18" s="21">
+      <c r="CL18" s="20">
         <v>177396.1276068271</v>
       </c>
-      <c r="CM18" s="21">
+      <c r="CM18" s="20">
         <v>170166.90867479116</v>
       </c>
-      <c r="CN18" s="21">
+      <c r="CN18" s="20">
         <v>220849.41196241841</v>
       </c>
-      <c r="CO18" s="21">
+      <c r="CO18" s="20">
         <v>238109.67406402683</v>
       </c>
-      <c r="CP18" s="21">
-        <v>229899.14462014413</v>
-      </c>
-      <c r="CQ18" s="10"/>
+      <c r="CP18" s="20">
+        <v>230262.00776752498</v>
+      </c>
+      <c r="CQ18" s="20">
+        <v>221409.93644981904</v>
+      </c>
       <c r="CR18" s="10"/>
       <c r="CS18" s="10"/>
       <c r="CT18" s="10"/>
@@ -26667,19 +26683,20 @@
       <c r="CA19" s="14"/>
       <c r="CB19" s="14"/>
       <c r="CC19" s="14"/>
-      <c r="CD19" s="22"/>
-      <c r="CE19" s="22"/>
-      <c r="CF19" s="22"/>
-      <c r="CG19" s="22"/>
-      <c r="CH19" s="22"/>
-      <c r="CI19" s="22"/>
-      <c r="CJ19" s="22"/>
-      <c r="CK19" s="22"/>
-      <c r="CL19" s="22"/>
-      <c r="CM19" s="22"/>
-      <c r="CN19" s="22"/>
-      <c r="CO19" s="22"/>
-      <c r="CP19" s="22"/>
+      <c r="CD19" s="21"/>
+      <c r="CE19" s="21"/>
+      <c r="CF19" s="21"/>
+      <c r="CG19" s="21"/>
+      <c r="CH19" s="21"/>
+      <c r="CI19" s="21"/>
+      <c r="CJ19" s="21"/>
+      <c r="CK19" s="21"/>
+      <c r="CL19" s="21"/>
+      <c r="CM19" s="21"/>
+      <c r="CN19" s="21"/>
+      <c r="CO19" s="21"/>
+      <c r="CP19" s="21"/>
+      <c r="CQ19" s="21"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -27105,6 +27122,7 @@
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
       <c r="CP26" s="4"/>
+      <c r="CQ26" s="4"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27203,6 +27221,7 @@
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
       <c r="CP27" s="4"/>
+      <c r="CQ27" s="4"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -27301,6 +27320,7 @@
       <c r="CN28" s="4"/>
       <c r="CO28" s="4"/>
       <c r="CP28" s="4"/>
+      <c r="CQ28" s="4"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -27399,6 +27419,7 @@
       <c r="CN29" s="4"/>
       <c r="CO29" s="4"/>
       <c r="CP29" s="4"/>
+      <c r="CQ29" s="4"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
@@ -27494,150 +27515,152 @@
       <c r="CN30" s="4"/>
       <c r="CO30" s="4"/>
       <c r="CP30" s="4"/>
+      <c r="CQ30" s="4"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>2000</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="23">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="22">
         <v>2001</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="23">
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="22">
         <v>2002</v>
       </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="23">
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="22">
         <v>2003</v>
       </c>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="23">
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="22">
         <v>2004</v>
       </c>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="23">
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="22">
         <v>2005</v>
       </c>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="23">
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="22">
         <v>2006</v>
       </c>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="23">
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="22">
         <v>2007</v>
       </c>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="23">
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="22">
         <v>2008</v>
       </c>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="24"/>
-      <c r="AL31" s="23">
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="22">
         <v>2009</v>
       </c>
-      <c r="AM31" s="24"/>
-      <c r="AN31" s="24"/>
-      <c r="AO31" s="24"/>
-      <c r="AP31" s="23">
+      <c r="AM31" s="23"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="24"/>
-      <c r="AR31" s="24"/>
-      <c r="AS31" s="24"/>
-      <c r="AT31" s="23">
+      <c r="AQ31" s="23"/>
+      <c r="AR31" s="23"/>
+      <c r="AS31" s="23"/>
+      <c r="AT31" s="22">
         <v>2011</v>
       </c>
-      <c r="AU31" s="24"/>
-      <c r="AV31" s="24"/>
-      <c r="AW31" s="24"/>
-      <c r="AX31" s="23">
+      <c r="AU31" s="23"/>
+      <c r="AV31" s="23"/>
+      <c r="AW31" s="23"/>
+      <c r="AX31" s="22">
         <v>2012</v>
       </c>
-      <c r="AY31" s="24"/>
-      <c r="AZ31" s="24"/>
-      <c r="BA31" s="24"/>
-      <c r="BB31" s="23">
+      <c r="AY31" s="23"/>
+      <c r="AZ31" s="23"/>
+      <c r="BA31" s="23"/>
+      <c r="BB31" s="22">
         <v>2013</v>
       </c>
-      <c r="BC31" s="24"/>
-      <c r="BD31" s="24"/>
-      <c r="BE31" s="24"/>
-      <c r="BF31" s="23">
+      <c r="BC31" s="23"/>
+      <c r="BD31" s="23"/>
+      <c r="BE31" s="23"/>
+      <c r="BF31" s="22">
         <v>2014</v>
       </c>
-      <c r="BG31" s="24"/>
-      <c r="BH31" s="24"/>
-      <c r="BI31" s="24"/>
-      <c r="BJ31" s="23">
+      <c r="BG31" s="23"/>
+      <c r="BH31" s="23"/>
+      <c r="BI31" s="23"/>
+      <c r="BJ31" s="22">
         <v>2015</v>
       </c>
-      <c r="BK31" s="24"/>
-      <c r="BL31" s="24"/>
-      <c r="BM31" s="24"/>
-      <c r="BN31" s="23">
+      <c r="BK31" s="23"/>
+      <c r="BL31" s="23"/>
+      <c r="BM31" s="23"/>
+      <c r="BN31" s="22">
         <v>2016</v>
       </c>
-      <c r="BO31" s="24"/>
-      <c r="BP31" s="24"/>
-      <c r="BQ31" s="24"/>
-      <c r="BR31" s="23">
+      <c r="BO31" s="23"/>
+      <c r="BP31" s="23"/>
+      <c r="BQ31" s="23"/>
+      <c r="BR31" s="22">
         <v>2017</v>
       </c>
-      <c r="BS31" s="24"/>
-      <c r="BT31" s="24"/>
-      <c r="BU31" s="24"/>
-      <c r="BV31" s="23">
+      <c r="BS31" s="23"/>
+      <c r="BT31" s="23"/>
+      <c r="BU31" s="23"/>
+      <c r="BV31" s="22">
         <v>2018</v>
       </c>
-      <c r="BW31" s="24"/>
-      <c r="BX31" s="24"/>
-      <c r="BY31" s="24"/>
-      <c r="BZ31" s="23">
+      <c r="BW31" s="23"/>
+      <c r="BX31" s="23"/>
+      <c r="BY31" s="23"/>
+      <c r="BZ31" s="22">
         <v>2019</v>
       </c>
-      <c r="CA31" s="24"/>
-      <c r="CB31" s="24"/>
-      <c r="CC31" s="24"/>
-      <c r="CD31" s="23">
+      <c r="CA31" s="23"/>
+      <c r="CB31" s="23"/>
+      <c r="CC31" s="23"/>
+      <c r="CD31" s="22">
         <v>2020</v>
       </c>
-      <c r="CE31" s="23"/>
-      <c r="CF31" s="23"/>
-      <c r="CG31" s="23"/>
-      <c r="CH31" s="23">
+      <c r="CE31" s="22"/>
+      <c r="CF31" s="22"/>
+      <c r="CG31" s="22"/>
+      <c r="CH31" s="22">
         <v>2021</v>
       </c>
-      <c r="CI31" s="23"/>
-      <c r="CJ31" s="23"/>
-      <c r="CK31" s="23"/>
-      <c r="CL31" s="23">
+      <c r="CI31" s="22"/>
+      <c r="CJ31" s="22"/>
+      <c r="CK31" s="22"/>
+      <c r="CL31" s="22">
         <v>2022</v>
       </c>
-      <c r="CM31" s="23"/>
-      <c r="CN31" s="23"/>
-      <c r="CO31" s="23"/>
-      <c r="CP31" s="19">
+      <c r="CM31" s="22"/>
+      <c r="CN31" s="22"/>
+      <c r="CO31" s="22"/>
+      <c r="CP31" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ31" s="24"/>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -27921,6 +27944,9 @@
       </c>
       <c r="CP32" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ32" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28170,46 +28196,48 @@
       <c r="CC34" s="9">
         <v>91157.740687400743</v>
       </c>
-      <c r="CD34" s="20">
+      <c r="CD34" s="19">
         <v>84256.879947774301</v>
       </c>
-      <c r="CE34" s="20">
+      <c r="CE34" s="19">
         <v>39790.450652104919</v>
       </c>
-      <c r="CF34" s="20">
+      <c r="CF34" s="19">
         <v>60842.592707141113</v>
       </c>
-      <c r="CG34" s="20">
+      <c r="CG34" s="19">
         <v>78892.263529082004</v>
       </c>
-      <c r="CH34" s="20">
+      <c r="CH34" s="19">
         <v>72693.252434721246</v>
       </c>
-      <c r="CI34" s="20">
+      <c r="CI34" s="19">
         <v>51224.972026472547</v>
       </c>
-      <c r="CJ34" s="20">
+      <c r="CJ34" s="19">
         <v>69968.767388608554</v>
       </c>
-      <c r="CK34" s="20">
+      <c r="CK34" s="19">
         <v>92252.123079514247</v>
       </c>
-      <c r="CL34" s="20">
+      <c r="CL34" s="19">
         <v>85348.710133698143</v>
       </c>
-      <c r="CM34" s="20">
+      <c r="CM34" s="19">
         <v>67145.01908077547</v>
       </c>
-      <c r="CN34" s="20">
+      <c r="CN34" s="19">
         <v>89988.179900677991</v>
       </c>
-      <c r="CO34" s="20">
+      <c r="CO34" s="19">
         <v>106276.44833839743</v>
       </c>
-      <c r="CP34" s="20">
-        <v>95201.344775609468</v>
-      </c>
-      <c r="CQ34" s="10"/>
+      <c r="CP34" s="19">
+        <v>94519.306811908784</v>
+      </c>
+      <c r="CQ34" s="19">
+        <v>79152.480855595233</v>
+      </c>
       <c r="CR34" s="10"/>
       <c r="CS34" s="10"/>
       <c r="CT34" s="10"/>
@@ -28514,46 +28542,48 @@
       <c r="CC35" s="9">
         <v>7447.4831219355528</v>
       </c>
-      <c r="CD35" s="20">
+      <c r="CD35" s="19">
         <v>10058.392911234647</v>
       </c>
-      <c r="CE35" s="20">
+      <c r="CE35" s="19">
         <v>5348.3916807113001</v>
       </c>
-      <c r="CF35" s="20">
+      <c r="CF35" s="19">
         <v>4819.1656294255781</v>
       </c>
-      <c r="CG35" s="20">
+      <c r="CG35" s="19">
         <v>5748.9168303779634</v>
       </c>
-      <c r="CH35" s="20">
+      <c r="CH35" s="19">
         <v>6485.3406307277664</v>
       </c>
-      <c r="CI35" s="20">
+      <c r="CI35" s="19">
         <v>5622.8897902546669</v>
       </c>
-      <c r="CJ35" s="20">
+      <c r="CJ35" s="19">
         <v>5641.7249530700356</v>
       </c>
-      <c r="CK35" s="20">
+      <c r="CK35" s="19">
         <v>7088.4754867296288</v>
       </c>
-      <c r="CL35" s="20">
+      <c r="CL35" s="19">
         <v>8733.9693321251852</v>
       </c>
-      <c r="CM35" s="20">
+      <c r="CM35" s="19">
         <v>6407.568160262229</v>
       </c>
-      <c r="CN35" s="20">
+      <c r="CN35" s="19">
         <v>5964.0797825333484</v>
       </c>
-      <c r="CO35" s="20">
+      <c r="CO35" s="19">
         <v>9820.3919649366053</v>
       </c>
-      <c r="CP35" s="20">
-        <v>11656.250519861407</v>
-      </c>
-      <c r="CQ35" s="10"/>
+      <c r="CP35" s="19">
+        <v>11570.470405584621</v>
+      </c>
+      <c r="CQ35" s="19">
+        <v>7503.8162415912302</v>
+      </c>
       <c r="CR35" s="10"/>
       <c r="CS35" s="10"/>
       <c r="CT35" s="10"/>
@@ -28858,46 +28888,48 @@
       <c r="CC36" s="9">
         <v>24640.160270956665</v>
       </c>
-      <c r="CD36" s="20">
+      <c r="CD36" s="19">
         <v>26370.897183930152</v>
       </c>
-      <c r="CE36" s="20">
+      <c r="CE36" s="19">
         <v>584.02753834519581</v>
       </c>
-      <c r="CF36" s="20">
+      <c r="CF36" s="19">
         <v>3920.8162602718076</v>
       </c>
-      <c r="CG36" s="20">
+      <c r="CG36" s="19">
         <v>5724.8352232651596</v>
       </c>
-      <c r="CH36" s="20">
+      <c r="CH36" s="19">
         <v>6945.0277659908534</v>
       </c>
-      <c r="CI36" s="20">
+      <c r="CI36" s="19">
         <v>3794.5940396513961</v>
       </c>
-      <c r="CJ36" s="20">
+      <c r="CJ36" s="19">
         <v>7715.1993628660421</v>
       </c>
-      <c r="CK36" s="20">
+      <c r="CK36" s="19">
         <v>9877.5561037619118</v>
       </c>
-      <c r="CL36" s="20">
+      <c r="CL36" s="19">
         <v>18325.805539719899</v>
       </c>
-      <c r="CM36" s="20">
+      <c r="CM36" s="19">
         <v>17025.259549398193</v>
       </c>
-      <c r="CN36" s="20">
+      <c r="CN36" s="19">
         <v>19697.048462697538</v>
       </c>
-      <c r="CO36" s="20">
+      <c r="CO36" s="19">
         <v>23671.991341686968</v>
       </c>
-      <c r="CP36" s="20">
+      <c r="CP36" s="19">
         <v>28471.079909613327</v>
       </c>
-      <c r="CQ36" s="10"/>
+      <c r="CQ36" s="19">
+        <v>24396.684494093206</v>
+      </c>
       <c r="CR36" s="10"/>
       <c r="CS36" s="10"/>
       <c r="CT36" s="10"/>
@@ -29202,46 +29234,48 @@
       <c r="CC37" s="9">
         <v>41314.368976378377</v>
       </c>
-      <c r="CD37" s="20">
+      <c r="CD37" s="19">
         <v>40792.614939224062</v>
       </c>
-      <c r="CE37" s="20">
+      <c r="CE37" s="19">
         <v>38042.91274460945</v>
       </c>
-      <c r="CF37" s="20">
+      <c r="CF37" s="19">
         <v>41651.696170266572</v>
       </c>
-      <c r="CG37" s="20">
+      <c r="CG37" s="19">
         <v>40204.181905661972</v>
       </c>
-      <c r="CH37" s="20">
+      <c r="CH37" s="19">
         <v>40984.048343767317</v>
       </c>
-      <c r="CI37" s="20">
+      <c r="CI37" s="19">
         <v>40991.50518060902</v>
       </c>
-      <c r="CJ37" s="20">
+      <c r="CJ37" s="19">
         <v>46702.18850791359</v>
       </c>
-      <c r="CK37" s="20">
+      <c r="CK37" s="19">
         <v>47702.781019455986</v>
       </c>
-      <c r="CL37" s="20">
+      <c r="CL37" s="19">
         <v>50251.808163641748</v>
       </c>
-      <c r="CM37" s="20">
+      <c r="CM37" s="19">
         <v>41820.771885110211</v>
       </c>
-      <c r="CN37" s="20">
+      <c r="CN37" s="19">
         <v>47699.298706087051</v>
       </c>
-      <c r="CO37" s="20">
+      <c r="CO37" s="19">
         <v>48651.253709856661</v>
       </c>
-      <c r="CP37" s="20">
-        <v>52046.12277613148</v>
-      </c>
-      <c r="CQ37" s="10"/>
+      <c r="CP37" s="19">
+        <v>52019.594859511752</v>
+      </c>
+      <c r="CQ37" s="19">
+        <v>44638.650676975427</v>
+      </c>
       <c r="CR37" s="10"/>
       <c r="CS37" s="10"/>
       <c r="CT37" s="10"/>
@@ -29546,46 +29580,48 @@
       <c r="CC38" s="9">
         <v>8063.069695688846</v>
       </c>
-      <c r="CD38" s="20">
+      <c r="CD38" s="19">
         <v>7194.2130287338623</v>
       </c>
-      <c r="CE38" s="20">
+      <c r="CE38" s="19">
         <v>5086.1611878479962</v>
       </c>
-      <c r="CF38" s="20">
+      <c r="CF38" s="19">
         <v>7154.5853177633508</v>
       </c>
-      <c r="CG38" s="20">
+      <c r="CG38" s="19">
         <v>8665.3682349485935</v>
       </c>
-      <c r="CH38" s="20">
+      <c r="CH38" s="19">
         <v>7971.4624866455233</v>
       </c>
-      <c r="CI38" s="20">
+      <c r="CI38" s="19">
         <v>8848.2050604570431</v>
       </c>
-      <c r="CJ38" s="20">
+      <c r="CJ38" s="19">
         <v>6701.7194389334336</v>
       </c>
-      <c r="CK38" s="20">
+      <c r="CK38" s="19">
         <v>8595.0612567754397</v>
       </c>
-      <c r="CL38" s="20">
+      <c r="CL38" s="19">
         <v>7773.9350940748318</v>
       </c>
-      <c r="CM38" s="20">
+      <c r="CM38" s="19">
         <v>8608.2139647257463</v>
       </c>
-      <c r="CN38" s="20">
+      <c r="CN38" s="19">
         <v>6894.384820837442</v>
       </c>
-      <c r="CO38" s="20">
+      <c r="CO38" s="19">
         <v>8456.5964705626266</v>
       </c>
-      <c r="CP38" s="20">
-        <v>7424.8489150194546</v>
-      </c>
-      <c r="CQ38" s="10"/>
+      <c r="CP38" s="19">
+        <v>8740.998657965727</v>
+      </c>
+      <c r="CQ38" s="19">
+        <v>9693.2556175254394</v>
+      </c>
       <c r="CR38" s="10"/>
       <c r="CS38" s="10"/>
       <c r="CT38" s="10"/>
@@ -30045,46 +30081,48 @@
       <c r="CC40" s="12">
         <v>172622.8227523602</v>
       </c>
-      <c r="CD40" s="21">
+      <c r="CD40" s="20">
         <v>168672.99801089702</v>
       </c>
-      <c r="CE40" s="21">
+      <c r="CE40" s="20">
         <v>88851.943803618866</v>
       </c>
-      <c r="CF40" s="21">
+      <c r="CF40" s="20">
         <v>118388.85608486843</v>
       </c>
-      <c r="CG40" s="21">
+      <c r="CG40" s="20">
         <v>139235.56572333569</v>
       </c>
-      <c r="CH40" s="21">
+      <c r="CH40" s="20">
         <v>135079.13166185271</v>
       </c>
-      <c r="CI40" s="21">
+      <c r="CI40" s="20">
         <v>110482.16609744467</v>
       </c>
-      <c r="CJ40" s="21">
+      <c r="CJ40" s="20">
         <v>136729.59965139168</v>
       </c>
-      <c r="CK40" s="21">
+      <c r="CK40" s="20">
         <v>165515.9969462372</v>
       </c>
-      <c r="CL40" s="21">
+      <c r="CL40" s="20">
         <v>170434.22826325981</v>
       </c>
-      <c r="CM40" s="21">
+      <c r="CM40" s="20">
         <v>141006.83264027187</v>
       </c>
-      <c r="CN40" s="21">
+      <c r="CN40" s="20">
         <v>170242.99167283336</v>
       </c>
-      <c r="CO40" s="21">
+      <c r="CO40" s="20">
         <v>196876.68182544026</v>
       </c>
-      <c r="CP40" s="21">
-        <v>194799.64689623515</v>
-      </c>
-      <c r="CQ40" s="10"/>
+      <c r="CP40" s="20">
+        <v>195321.45064458426</v>
+      </c>
+      <c r="CQ40" s="20">
+        <v>165384.88788578054</v>
+      </c>
       <c r="CR40" s="10"/>
       <c r="CS40" s="10"/>
       <c r="CT40" s="10"/>
@@ -30240,6 +30278,7 @@
       <c r="CN41" s="13"/>
       <c r="CO41" s="13"/>
       <c r="CP41" s="13"/>
+      <c r="CQ41" s="13"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -30591,145 +30630,146 @@
     </row>
     <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23" t="s">
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23" t="s">
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23" t="s">
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23" t="s">
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23" t="s">
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23"/>
-      <c r="Z53" s="23" t="s">
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AA53" s="23"/>
-      <c r="AB53" s="23"/>
-      <c r="AC53" s="23"/>
-      <c r="AD53" s="23" t="s">
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AE53" s="23"/>
-      <c r="AF53" s="23"/>
-      <c r="AG53" s="23"/>
-      <c r="AH53" s="23" t="s">
+      <c r="AE53" s="22"/>
+      <c r="AF53" s="22"/>
+      <c r="AG53" s="22"/>
+      <c r="AH53" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AI53" s="23"/>
-      <c r="AJ53" s="23"/>
-      <c r="AK53" s="23"/>
-      <c r="AL53" s="23" t="s">
+      <c r="AI53" s="22"/>
+      <c r="AJ53" s="22"/>
+      <c r="AK53" s="22"/>
+      <c r="AL53" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AM53" s="23"/>
-      <c r="AN53" s="23"/>
-      <c r="AO53" s="23"/>
-      <c r="AP53" s="23" t="s">
+      <c r="AM53" s="22"/>
+      <c r="AN53" s="22"/>
+      <c r="AO53" s="22"/>
+      <c r="AP53" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AQ53" s="23"/>
-      <c r="AR53" s="23"/>
-      <c r="AS53" s="23"/>
-      <c r="AT53" s="23" t="s">
+      <c r="AQ53" s="22"/>
+      <c r="AR53" s="22"/>
+      <c r="AS53" s="22"/>
+      <c r="AT53" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AU53" s="23"/>
-      <c r="AV53" s="23"/>
-      <c r="AW53" s="23"/>
-      <c r="AX53" s="23" t="s">
+      <c r="AU53" s="22"/>
+      <c r="AV53" s="22"/>
+      <c r="AW53" s="22"/>
+      <c r="AX53" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AY53" s="23"/>
-      <c r="AZ53" s="23"/>
-      <c r="BA53" s="23"/>
-      <c r="BB53" s="23" t="s">
+      <c r="AY53" s="22"/>
+      <c r="AZ53" s="22"/>
+      <c r="BA53" s="22"/>
+      <c r="BB53" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BC53" s="23"/>
-      <c r="BD53" s="23"/>
-      <c r="BE53" s="23"/>
-      <c r="BF53" s="23" t="s">
+      <c r="BC53" s="22"/>
+      <c r="BD53" s="22"/>
+      <c r="BE53" s="22"/>
+      <c r="BF53" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="BG53" s="23"/>
-      <c r="BH53" s="23"/>
-      <c r="BI53" s="23"/>
-      <c r="BJ53" s="23" t="s">
+      <c r="BG53" s="22"/>
+      <c r="BH53" s="22"/>
+      <c r="BI53" s="22"/>
+      <c r="BJ53" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BK53" s="23"/>
-      <c r="BL53" s="23"/>
-      <c r="BM53" s="23"/>
-      <c r="BN53" s="23" t="s">
+      <c r="BK53" s="22"/>
+      <c r="BL53" s="22"/>
+      <c r="BM53" s="22"/>
+      <c r="BN53" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="BO53" s="23"/>
-      <c r="BP53" s="23"/>
-      <c r="BQ53" s="23"/>
-      <c r="BR53" s="23" t="s">
+      <c r="BO53" s="22"/>
+      <c r="BP53" s="22"/>
+      <c r="BQ53" s="22"/>
+      <c r="BR53" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="BS53" s="23"/>
-      <c r="BT53" s="23"/>
-      <c r="BU53" s="23"/>
-      <c r="BV53" s="23" t="s">
+      <c r="BS53" s="22"/>
+      <c r="BT53" s="22"/>
+      <c r="BU53" s="22"/>
+      <c r="BV53" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BW53" s="23"/>
-      <c r="BX53" s="23"/>
-      <c r="BY53" s="23"/>
-      <c r="BZ53" s="23" t="s">
+      <c r="BW53" s="22"/>
+      <c r="BX53" s="22"/>
+      <c r="BY53" s="22"/>
+      <c r="BZ53" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="23"/>
-      <c r="CB53" s="23"/>
-      <c r="CC53" s="23"/>
-      <c r="CD53" s="23" t="s">
+      <c r="CA53" s="22"/>
+      <c r="CB53" s="22"/>
+      <c r="CC53" s="22"/>
+      <c r="CD53" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CE53" s="23"/>
-      <c r="CF53" s="23"/>
-      <c r="CG53" s="23"/>
-      <c r="CH53" s="23" t="s">
+      <c r="CE53" s="22"/>
+      <c r="CF53" s="22"/>
+      <c r="CG53" s="22"/>
+      <c r="CH53" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CI53" s="23"/>
-      <c r="CJ53" s="23"/>
-      <c r="CK53" s="23"/>
-      <c r="CL53" s="19" t="s">
+      <c r="CI53" s="22"/>
+      <c r="CJ53" s="22"/>
+      <c r="CK53" s="22"/>
+      <c r="CL53" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="CM53" s="19"/>
-      <c r="CN53" s="19"/>
-      <c r="CO53" s="19"/>
-      <c r="CP53" s="19"/>
+      <c r="CM53" s="22"/>
+      <c r="CN53" s="22"/>
+      <c r="CO53" s="22"/>
+      <c r="CP53" s="22"/>
+      <c r="CQ53" s="24"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -31002,10 +31042,13 @@
       <c r="CL54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CM54" s="6"/>
+      <c r="CM54" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="CN54" s="6"/>
       <c r="CO54" s="6"/>
       <c r="CP54" s="6"/>
+      <c r="CQ54" s="6"/>
     </row>
     <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -31279,13 +31322,15 @@
         <v>28.128053153213529</v>
       </c>
       <c r="CL56" s="16">
-        <v>25.082195383414913</v>
-      </c>
-      <c r="CM56" s="16"/>
+        <v>24.18608613164335</v>
+      </c>
+      <c r="CM56" s="16">
+        <v>31.465315544772494</v>
+      </c>
       <c r="CN56" s="16"/>
       <c r="CO56" s="16"/>
       <c r="CP56" s="16"/>
-      <c r="CQ56" s="10"/>
+      <c r="CQ56" s="16"/>
       <c r="CR56" s="10"/>
       <c r="CS56" s="10"/>
       <c r="CT56" s="10"/>
@@ -31611,13 +31656,15 @@
         <v>33.272419708212254</v>
       </c>
       <c r="CL57" s="16">
-        <v>37.531023174399053</v>
-      </c>
-      <c r="CM57" s="16"/>
+        <v>36.51891152971524</v>
+      </c>
+      <c r="CM57" s="16">
+        <v>15.372175895847334</v>
+      </c>
       <c r="CN57" s="16"/>
       <c r="CO57" s="16"/>
       <c r="CP57" s="16"/>
-      <c r="CQ57" s="10"/>
+      <c r="CQ57" s="16"/>
       <c r="CR57" s="10"/>
       <c r="CS57" s="10"/>
       <c r="CT57" s="10"/>
@@ -31945,11 +31992,13 @@
       <c r="CL58" s="16">
         <v>107.96440874236967</v>
       </c>
-      <c r="CM58" s="16"/>
+      <c r="CM58" s="16">
+        <v>79.551634967850049</v>
+      </c>
       <c r="CN58" s="16"/>
       <c r="CO58" s="16"/>
       <c r="CP58" s="16"/>
-      <c r="CQ58" s="10"/>
+      <c r="CQ58" s="16"/>
       <c r="CR58" s="10"/>
       <c r="CS58" s="10"/>
       <c r="CT58" s="10"/>
@@ -32275,13 +32324,15 @@
         <v>21.642875170028205</v>
       </c>
       <c r="CL59" s="16">
-        <v>15.866379263925595</v>
-      </c>
-      <c r="CM59" s="16"/>
+        <v>15.807322152959586</v>
+      </c>
+      <c r="CM59" s="16">
+        <v>15.347486233625247</v>
+      </c>
       <c r="CN59" s="16"/>
       <c r="CO59" s="16"/>
       <c r="CP59" s="16"/>
-      <c r="CQ59" s="10"/>
+      <c r="CQ59" s="16"/>
       <c r="CR59" s="10"/>
       <c r="CS59" s="10"/>
       <c r="CT59" s="10"/>
@@ -32607,13 +32658,15 @@
         <v>-1.4230361552405384</v>
       </c>
       <c r="CL60" s="16">
-        <v>-4.2168031552031238</v>
-      </c>
-      <c r="CM60" s="16"/>
+        <v>12.761997538079555</v>
+      </c>
+      <c r="CM60" s="16">
+        <v>12.819618991169108</v>
+      </c>
       <c r="CN60" s="16"/>
       <c r="CO60" s="16"/>
       <c r="CP60" s="16"/>
-      <c r="CQ60" s="10"/>
+      <c r="CQ60" s="16"/>
       <c r="CR60" s="10"/>
       <c r="CS60" s="10"/>
       <c r="CT60" s="10"/>
@@ -33090,13 +33143,15 @@
         <v>36.198725240179414</v>
       </c>
       <c r="CL62" s="16">
-        <v>29.596484275960279</v>
-      </c>
-      <c r="CM62" s="16"/>
+        <v>29.801033919898998</v>
+      </c>
+      <c r="CM62" s="16">
+        <v>30.11339171293244</v>
+      </c>
       <c r="CN62" s="16"/>
       <c r="CO62" s="16"/>
       <c r="CP62" s="16"/>
-      <c r="CQ62" s="10"/>
+      <c r="CQ62" s="16"/>
       <c r="CR62" s="10"/>
       <c r="CS62" s="10"/>
       <c r="CT62" s="10"/>
@@ -33248,6 +33303,7 @@
       <c r="CN63" s="13"/>
       <c r="CO63" s="13"/>
       <c r="CP63" s="13"/>
+      <c r="CQ63" s="13"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
@@ -33588,145 +33644,146 @@
     </row>
     <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="23" t="s">
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="23" t="s">
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="23" t="s">
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="23" t="s">
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="S75" s="25"/>
-      <c r="T75" s="25"/>
-      <c r="U75" s="25"/>
-      <c r="V75" s="23" t="s">
+      <c r="S75" s="24"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="24"/>
+      <c r="V75" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="W75" s="25"/>
-      <c r="X75" s="25"/>
-      <c r="Y75" s="25"/>
-      <c r="Z75" s="23" t="s">
+      <c r="W75" s="24"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AA75" s="25"/>
-      <c r="AB75" s="25"/>
-      <c r="AC75" s="25"/>
-      <c r="AD75" s="23" t="s">
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="25"/>
-      <c r="AF75" s="25"/>
-      <c r="AG75" s="25"/>
-      <c r="AH75" s="23" t="s">
+      <c r="AE75" s="24"/>
+      <c r="AF75" s="24"/>
+      <c r="AG75" s="24"/>
+      <c r="AH75" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="25"/>
-      <c r="AJ75" s="25"/>
-      <c r="AK75" s="25"/>
-      <c r="AL75" s="23" t="s">
+      <c r="AI75" s="24"/>
+      <c r="AJ75" s="24"/>
+      <c r="AK75" s="24"/>
+      <c r="AL75" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AM75" s="25"/>
-      <c r="AN75" s="25"/>
-      <c r="AO75" s="25"/>
-      <c r="AP75" s="23" t="s">
+      <c r="AM75" s="24"/>
+      <c r="AN75" s="24"/>
+      <c r="AO75" s="24"/>
+      <c r="AP75" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AQ75" s="25"/>
-      <c r="AR75" s="25"/>
-      <c r="AS75" s="25"/>
-      <c r="AT75" s="23" t="s">
+      <c r="AQ75" s="24"/>
+      <c r="AR75" s="24"/>
+      <c r="AS75" s="24"/>
+      <c r="AT75" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AU75" s="25"/>
-      <c r="AV75" s="25"/>
-      <c r="AW75" s="25"/>
-      <c r="AX75" s="23" t="s">
+      <c r="AU75" s="24"/>
+      <c r="AV75" s="24"/>
+      <c r="AW75" s="24"/>
+      <c r="AX75" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AY75" s="25"/>
-      <c r="AZ75" s="25"/>
-      <c r="BA75" s="25"/>
-      <c r="BB75" s="23" t="s">
+      <c r="AY75" s="24"/>
+      <c r="AZ75" s="24"/>
+      <c r="BA75" s="24"/>
+      <c r="BB75" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BC75" s="25"/>
-      <c r="BD75" s="25"/>
-      <c r="BE75" s="25"/>
-      <c r="BF75" s="23" t="s">
+      <c r="BC75" s="24"/>
+      <c r="BD75" s="24"/>
+      <c r="BE75" s="24"/>
+      <c r="BF75" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="BG75" s="25"/>
-      <c r="BH75" s="25"/>
-      <c r="BI75" s="25"/>
-      <c r="BJ75" s="23" t="s">
+      <c r="BG75" s="24"/>
+      <c r="BH75" s="24"/>
+      <c r="BI75" s="24"/>
+      <c r="BJ75" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BK75" s="25"/>
-      <c r="BL75" s="25"/>
-      <c r="BM75" s="25"/>
-      <c r="BN75" s="23" t="s">
+      <c r="BK75" s="24"/>
+      <c r="BL75" s="24"/>
+      <c r="BM75" s="24"/>
+      <c r="BN75" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="BO75" s="25"/>
-      <c r="BP75" s="25"/>
-      <c r="BQ75" s="25"/>
-      <c r="BR75" s="23" t="s">
+      <c r="BO75" s="24"/>
+      <c r="BP75" s="24"/>
+      <c r="BQ75" s="24"/>
+      <c r="BR75" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="BS75" s="25"/>
-      <c r="BT75" s="25"/>
-      <c r="BU75" s="25"/>
-      <c r="BV75" s="23" t="s">
+      <c r="BS75" s="24"/>
+      <c r="BT75" s="24"/>
+      <c r="BU75" s="24"/>
+      <c r="BV75" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BW75" s="25"/>
-      <c r="BX75" s="25"/>
-      <c r="BY75" s="25"/>
-      <c r="BZ75" s="23" t="s">
+      <c r="BW75" s="24"/>
+      <c r="BX75" s="24"/>
+      <c r="BY75" s="24"/>
+      <c r="BZ75" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="25"/>
-      <c r="CB75" s="25"/>
-      <c r="CC75" s="25"/>
-      <c r="CD75" s="23" t="s">
+      <c r="CA75" s="24"/>
+      <c r="CB75" s="24"/>
+      <c r="CC75" s="24"/>
+      <c r="CD75" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CE75" s="23"/>
-      <c r="CF75" s="23"/>
-      <c r="CG75" s="23"/>
-      <c r="CH75" s="23" t="s">
+      <c r="CE75" s="22"/>
+      <c r="CF75" s="22"/>
+      <c r="CG75" s="22"/>
+      <c r="CH75" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CI75" s="23"/>
-      <c r="CJ75" s="23"/>
-      <c r="CK75" s="23"/>
-      <c r="CL75" s="19" t="s">
+      <c r="CI75" s="22"/>
+      <c r="CJ75" s="22"/>
+      <c r="CK75" s="22"/>
+      <c r="CL75" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="CM75" s="19"/>
-      <c r="CN75" s="19"/>
-      <c r="CO75" s="19"/>
-      <c r="CP75" s="19"/>
+      <c r="CM75" s="22"/>
+      <c r="CN75" s="22"/>
+      <c r="CO75" s="22"/>
+      <c r="CP75" s="22"/>
+      <c r="CQ75" s="24"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
@@ -33999,10 +34056,13 @@
       <c r="CL76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CM76" s="6"/>
+      <c r="CM76" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="CN76" s="6"/>
       <c r="CO76" s="6"/>
       <c r="CP76" s="6"/>
+      <c r="CQ76" s="6"/>
     </row>
     <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
@@ -34276,13 +34336,15 @@
         <v>15.202170736813599</v>
       </c>
       <c r="CL78" s="16">
-        <v>11.543976032534346</v>
-      </c>
-      <c r="CM78" s="16"/>
+        <v>10.744856792615806</v>
+      </c>
+      <c r="CM78" s="16">
+        <v>17.882877895045041</v>
+      </c>
       <c r="CN78" s="16"/>
       <c r="CO78" s="16"/>
       <c r="CP78" s="16"/>
-      <c r="CQ78" s="10"/>
+      <c r="CQ78" s="16"/>
       <c r="CR78" s="10"/>
       <c r="CS78" s="10"/>
       <c r="CT78" s="10"/>
@@ -34608,13 +34670,15 @@
         <v>38.540254294755073</v>
       </c>
       <c r="CL79" s="16">
-        <v>33.458798360872663</v>
-      </c>
-      <c r="CM79" s="16"/>
+        <v>32.476654835805874</v>
+      </c>
+      <c r="CM79" s="16">
+        <v>17.108644869789998</v>
+      </c>
       <c r="CN79" s="16"/>
       <c r="CO79" s="16"/>
       <c r="CP79" s="16"/>
-      <c r="CQ79" s="10"/>
+      <c r="CQ79" s="16"/>
       <c r="CR79" s="10"/>
       <c r="CS79" s="10"/>
       <c r="CT79" s="10"/>
@@ -34942,11 +35006,13 @@
       <c r="CL80" s="16">
         <v>55.360591641683953</v>
       </c>
-      <c r="CM80" s="16"/>
+      <c r="CM80" s="16">
+        <v>43.29699011816578</v>
+      </c>
       <c r="CN80" s="16"/>
       <c r="CO80" s="16"/>
       <c r="CP80" s="16"/>
-      <c r="CQ80" s="10"/>
+      <c r="CQ80" s="16"/>
       <c r="CR80" s="10"/>
       <c r="CS80" s="10"/>
       <c r="CT80" s="10"/>
@@ -35272,13 +35338,15 @@
         <v>1.988296426604208</v>
       </c>
       <c r="CL81" s="16">
-        <v>3.5706468643808051</v>
-      </c>
-      <c r="CM81" s="16"/>
+        <v>3.5178568900711298</v>
+      </c>
+      <c r="CM81" s="16">
+        <v>6.7379884799986058</v>
+      </c>
       <c r="CN81" s="16"/>
       <c r="CO81" s="16"/>
       <c r="CP81" s="16"/>
-      <c r="CQ81" s="10"/>
+      <c r="CQ81" s="16"/>
       <c r="CR81" s="10"/>
       <c r="CS81" s="10"/>
       <c r="CT81" s="10"/>
@@ -35604,13 +35672,15 @@
         <v>-1.6109807955546813</v>
       </c>
       <c r="CL82" s="16">
-        <v>-4.4904694319025822</v>
-      </c>
-      <c r="CM82" s="16"/>
+        <v>12.439820402256458</v>
+      </c>
+      <c r="CM82" s="16">
+        <v>12.604724478804968</v>
+      </c>
       <c r="CN82" s="16"/>
       <c r="CO82" s="16"/>
       <c r="CP82" s="16"/>
-      <c r="CQ82" s="10"/>
+      <c r="CQ82" s="16"/>
       <c r="CR82" s="10"/>
       <c r="CS82" s="10"/>
       <c r="CT82" s="10"/>
@@ -36087,13 +36157,15 @@
         <v>18.947222901596405</v>
       </c>
       <c r="CL84" s="16">
-        <v>14.29608294135582</v>
-      </c>
-      <c r="CM84" s="16"/>
+        <v>14.602244299708758</v>
+      </c>
+      <c r="CM84" s="16">
+        <v>17.288563106513081</v>
+      </c>
       <c r="CN84" s="16"/>
       <c r="CO84" s="16"/>
       <c r="CP84" s="16"/>
-      <c r="CQ84" s="10"/>
+      <c r="CQ84" s="16"/>
       <c r="CR84" s="10"/>
       <c r="CS84" s="10"/>
       <c r="CT84" s="10"/>
@@ -36245,6 +36317,7 @@
       <c r="CN85" s="13"/>
       <c r="CO85" s="13"/>
       <c r="CP85" s="13"/>
+      <c r="CQ85" s="13"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
@@ -36580,147 +36653,148 @@
     </row>
     <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="23">
+      <c r="B96" s="22">
         <v>2000</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="23">
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="22">
         <v>2001</v>
       </c>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="23">
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="22">
         <v>2002</v>
       </c>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="23">
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="22">
         <v>2003</v>
       </c>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
-      <c r="R96" s="23">
+      <c r="O96" s="23"/>
+      <c r="P96" s="23"/>
+      <c r="Q96" s="23"/>
+      <c r="R96" s="22">
         <v>2004</v>
       </c>
-      <c r="S96" s="24"/>
-      <c r="T96" s="24"/>
-      <c r="U96" s="24"/>
-      <c r="V96" s="23">
+      <c r="S96" s="23"/>
+      <c r="T96" s="23"/>
+      <c r="U96" s="23"/>
+      <c r="V96" s="22">
         <v>2005</v>
       </c>
-      <c r="W96" s="24"/>
-      <c r="X96" s="24"/>
-      <c r="Y96" s="24"/>
-      <c r="Z96" s="23">
+      <c r="W96" s="23"/>
+      <c r="X96" s="23"/>
+      <c r="Y96" s="23"/>
+      <c r="Z96" s="22">
         <v>2006</v>
       </c>
-      <c r="AA96" s="24"/>
-      <c r="AB96" s="24"/>
-      <c r="AC96" s="24"/>
-      <c r="AD96" s="23">
+      <c r="AA96" s="23"/>
+      <c r="AB96" s="23"/>
+      <c r="AC96" s="23"/>
+      <c r="AD96" s="22">
         <v>2007</v>
       </c>
-      <c r="AE96" s="24"/>
-      <c r="AF96" s="24"/>
-      <c r="AG96" s="24"/>
-      <c r="AH96" s="23">
+      <c r="AE96" s="23"/>
+      <c r="AF96" s="23"/>
+      <c r="AG96" s="23"/>
+      <c r="AH96" s="22">
         <v>2008</v>
       </c>
-      <c r="AI96" s="24"/>
-      <c r="AJ96" s="24"/>
-      <c r="AK96" s="24"/>
-      <c r="AL96" s="23">
+      <c r="AI96" s="23"/>
+      <c r="AJ96" s="23"/>
+      <c r="AK96" s="23"/>
+      <c r="AL96" s="22">
         <v>2009</v>
       </c>
-      <c r="AM96" s="24"/>
-      <c r="AN96" s="24"/>
-      <c r="AO96" s="24"/>
-      <c r="AP96" s="23">
+      <c r="AM96" s="23"/>
+      <c r="AN96" s="23"/>
+      <c r="AO96" s="23"/>
+      <c r="AP96" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="24"/>
-      <c r="AR96" s="24"/>
-      <c r="AS96" s="24"/>
-      <c r="AT96" s="23">
+      <c r="AQ96" s="23"/>
+      <c r="AR96" s="23"/>
+      <c r="AS96" s="23"/>
+      <c r="AT96" s="22">
         <v>2011</v>
       </c>
-      <c r="AU96" s="24"/>
-      <c r="AV96" s="24"/>
-      <c r="AW96" s="24"/>
-      <c r="AX96" s="23">
+      <c r="AU96" s="23"/>
+      <c r="AV96" s="23"/>
+      <c r="AW96" s="23"/>
+      <c r="AX96" s="22">
         <v>2012</v>
       </c>
-      <c r="AY96" s="24"/>
-      <c r="AZ96" s="24"/>
-      <c r="BA96" s="24"/>
-      <c r="BB96" s="23">
+      <c r="AY96" s="23"/>
+      <c r="AZ96" s="23"/>
+      <c r="BA96" s="23"/>
+      <c r="BB96" s="22">
         <v>2013</v>
       </c>
-      <c r="BC96" s="24"/>
-      <c r="BD96" s="24"/>
-      <c r="BE96" s="24"/>
-      <c r="BF96" s="23">
+      <c r="BC96" s="23"/>
+      <c r="BD96" s="23"/>
+      <c r="BE96" s="23"/>
+      <c r="BF96" s="22">
         <v>2014</v>
       </c>
-      <c r="BG96" s="24"/>
-      <c r="BH96" s="24"/>
-      <c r="BI96" s="24"/>
-      <c r="BJ96" s="23">
+      <c r="BG96" s="23"/>
+      <c r="BH96" s="23"/>
+      <c r="BI96" s="23"/>
+      <c r="BJ96" s="22">
         <v>2015</v>
       </c>
-      <c r="BK96" s="24"/>
-      <c r="BL96" s="24"/>
-      <c r="BM96" s="24"/>
-      <c r="BN96" s="23">
+      <c r="BK96" s="23"/>
+      <c r="BL96" s="23"/>
+      <c r="BM96" s="23"/>
+      <c r="BN96" s="22">
         <v>2016</v>
       </c>
-      <c r="BO96" s="24"/>
-      <c r="BP96" s="24"/>
-      <c r="BQ96" s="24"/>
-      <c r="BR96" s="23">
+      <c r="BO96" s="23"/>
+      <c r="BP96" s="23"/>
+      <c r="BQ96" s="23"/>
+      <c r="BR96" s="22">
         <v>2017</v>
       </c>
-      <c r="BS96" s="24"/>
-      <c r="BT96" s="24"/>
-      <c r="BU96" s="24"/>
-      <c r="BV96" s="23">
+      <c r="BS96" s="23"/>
+      <c r="BT96" s="23"/>
+      <c r="BU96" s="23"/>
+      <c r="BV96" s="22">
         <v>2018</v>
       </c>
-      <c r="BW96" s="24"/>
-      <c r="BX96" s="24"/>
-      <c r="BY96" s="24"/>
-      <c r="BZ96" s="23">
+      <c r="BW96" s="23"/>
+      <c r="BX96" s="23"/>
+      <c r="BY96" s="23"/>
+      <c r="BZ96" s="22">
         <v>2019</v>
       </c>
-      <c r="CA96" s="24"/>
-      <c r="CB96" s="24"/>
-      <c r="CC96" s="24"/>
-      <c r="CD96" s="23">
+      <c r="CA96" s="23"/>
+      <c r="CB96" s="23"/>
+      <c r="CC96" s="23"/>
+      <c r="CD96" s="22">
         <v>2020</v>
       </c>
-      <c r="CE96" s="23"/>
-      <c r="CF96" s="23"/>
-      <c r="CG96" s="23"/>
-      <c r="CH96" s="23">
+      <c r="CE96" s="22"/>
+      <c r="CF96" s="22"/>
+      <c r="CG96" s="22"/>
+      <c r="CH96" s="22">
         <v>2021</v>
       </c>
-      <c r="CI96" s="23"/>
-      <c r="CJ96" s="23"/>
-      <c r="CK96" s="23"/>
-      <c r="CL96" s="23">
+      <c r="CI96" s="22"/>
+      <c r="CJ96" s="22"/>
+      <c r="CK96" s="22"/>
+      <c r="CL96" s="22">
         <v>2022</v>
       </c>
-      <c r="CM96" s="23"/>
-      <c r="CN96" s="23"/>
-      <c r="CO96" s="23"/>
-      <c r="CP96" s="19">
+      <c r="CM96" s="22"/>
+      <c r="CN96" s="22"/>
+      <c r="CO96" s="22"/>
+      <c r="CP96" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ96" s="24"/>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -37004,6 +37078,9 @@
       </c>
       <c r="CP97" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ97" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37290,9 +37367,11 @@
         <v>123.50895300182034</v>
       </c>
       <c r="CP99" s="16">
-        <v>124.96604439146842</v>
-      </c>
-      <c r="CQ99" s="10"/>
+        <v>124.96604439146837</v>
+      </c>
+      <c r="CQ99" s="16">
+        <v>143.06781777622626</v>
+      </c>
       <c r="CR99" s="10"/>
       <c r="CS99" s="10"/>
       <c r="CT99" s="10"/>
@@ -37636,7 +37715,9 @@
       <c r="CP100" s="16">
         <v>106.55510314601457</v>
       </c>
-      <c r="CQ100" s="10"/>
+      <c r="CQ100" s="16">
+        <v>104.12080693643611</v>
+      </c>
       <c r="CR100" s="10"/>
       <c r="CS100" s="10"/>
       <c r="CT100" s="10"/>
@@ -37980,7 +38061,9 @@
       <c r="CP101" s="16">
         <v>120.66677029953917</v>
       </c>
-      <c r="CQ101" s="10"/>
+      <c r="CQ101" s="16">
+        <v>131.45787386825438</v>
+      </c>
       <c r="CR101" s="10"/>
       <c r="CS101" s="10"/>
       <c r="CT101" s="10"/>
@@ -38322,9 +38405,11 @@
         <v>115.52979932111987</v>
       </c>
       <c r="CP102" s="16">
-        <v>108.78936473222893</v>
-      </c>
-      <c r="CQ102" s="10"/>
+        <v>108.78936473222898</v>
+      </c>
+      <c r="CQ102" s="16">
+        <v>130.30730636449826</v>
+      </c>
       <c r="CR102" s="10"/>
       <c r="CS102" s="10"/>
       <c r="CT102" s="10"/>
@@ -38666,9 +38751,11 @@
         <v>100.67310618795669</v>
       </c>
       <c r="CP103" s="16">
-        <v>101.4657838317037</v>
-      </c>
-      <c r="CQ103" s="10"/>
+        <v>101.46578383170367</v>
+      </c>
+      <c r="CQ103" s="16">
+        <v>104.36523833133514</v>
+      </c>
       <c r="CR103" s="10"/>
       <c r="CS103" s="10"/>
       <c r="CT103" s="10"/>
@@ -39165,9 +39252,11 @@
         <v>120.94356317684468</v>
       </c>
       <c r="CP105" s="16">
-        <v>118.01825531162568</v>
-      </c>
-      <c r="CQ105" s="10"/>
+        <v>117.88874545403625</v>
+      </c>
+      <c r="CQ105" s="16">
+        <v>133.87555494352722</v>
+      </c>
       <c r="CR105" s="10"/>
       <c r="CS105" s="10"/>
       <c r="CT105" s="10"/>
@@ -39323,6 +39412,7 @@
       <c r="CN106" s="13"/>
       <c r="CO106" s="13"/>
       <c r="CP106" s="13"/>
+      <c r="CQ106" s="13"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -39361,147 +39451,148 @@
     </row>
     <row r="118" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="23">
+      <c r="B118" s="22">
         <v>2000</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="23">
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="22">
         <v>2001</v>
       </c>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="23">
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="22">
         <v>2002</v>
       </c>
-      <c r="K118" s="24"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="24"/>
-      <c r="N118" s="23">
+      <c r="K118" s="23"/>
+      <c r="L118" s="23"/>
+      <c r="M118" s="23"/>
+      <c r="N118" s="22">
         <v>2003</v>
       </c>
-      <c r="O118" s="24"/>
-      <c r="P118" s="24"/>
-      <c r="Q118" s="24"/>
-      <c r="R118" s="23">
+      <c r="O118" s="23"/>
+      <c r="P118" s="23"/>
+      <c r="Q118" s="23"/>
+      <c r="R118" s="22">
         <v>2004</v>
       </c>
-      <c r="S118" s="24"/>
-      <c r="T118" s="24"/>
-      <c r="U118" s="24"/>
-      <c r="V118" s="23">
+      <c r="S118" s="23"/>
+      <c r="T118" s="23"/>
+      <c r="U118" s="23"/>
+      <c r="V118" s="22">
         <v>2005</v>
       </c>
-      <c r="W118" s="24"/>
-      <c r="X118" s="24"/>
-      <c r="Y118" s="24"/>
-      <c r="Z118" s="23">
+      <c r="W118" s="23"/>
+      <c r="X118" s="23"/>
+      <c r="Y118" s="23"/>
+      <c r="Z118" s="22">
         <v>2006</v>
       </c>
-      <c r="AA118" s="24"/>
-      <c r="AB118" s="24"/>
-      <c r="AC118" s="24"/>
-      <c r="AD118" s="23">
+      <c r="AA118" s="23"/>
+      <c r="AB118" s="23"/>
+      <c r="AC118" s="23"/>
+      <c r="AD118" s="22">
         <v>2007</v>
       </c>
-      <c r="AE118" s="24"/>
-      <c r="AF118" s="24"/>
-      <c r="AG118" s="24"/>
-      <c r="AH118" s="23">
+      <c r="AE118" s="23"/>
+      <c r="AF118" s="23"/>
+      <c r="AG118" s="23"/>
+      <c r="AH118" s="22">
         <v>2008</v>
       </c>
-      <c r="AI118" s="24"/>
-      <c r="AJ118" s="24"/>
-      <c r="AK118" s="24"/>
-      <c r="AL118" s="23">
+      <c r="AI118" s="23"/>
+      <c r="AJ118" s="23"/>
+      <c r="AK118" s="23"/>
+      <c r="AL118" s="22">
         <v>2009</v>
       </c>
-      <c r="AM118" s="24"/>
-      <c r="AN118" s="24"/>
-      <c r="AO118" s="24"/>
-      <c r="AP118" s="23">
+      <c r="AM118" s="23"/>
+      <c r="AN118" s="23"/>
+      <c r="AO118" s="23"/>
+      <c r="AP118" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="24"/>
-      <c r="AR118" s="24"/>
-      <c r="AS118" s="24"/>
-      <c r="AT118" s="23">
+      <c r="AQ118" s="23"/>
+      <c r="AR118" s="23"/>
+      <c r="AS118" s="23"/>
+      <c r="AT118" s="22">
         <v>2011</v>
       </c>
-      <c r="AU118" s="24"/>
-      <c r="AV118" s="24"/>
-      <c r="AW118" s="24"/>
-      <c r="AX118" s="23">
+      <c r="AU118" s="23"/>
+      <c r="AV118" s="23"/>
+      <c r="AW118" s="23"/>
+      <c r="AX118" s="22">
         <v>2012</v>
       </c>
-      <c r="AY118" s="24"/>
-      <c r="AZ118" s="24"/>
-      <c r="BA118" s="24"/>
-      <c r="BB118" s="23">
+      <c r="AY118" s="23"/>
+      <c r="AZ118" s="23"/>
+      <c r="BA118" s="23"/>
+      <c r="BB118" s="22">
         <v>2013</v>
       </c>
-      <c r="BC118" s="24"/>
-      <c r="BD118" s="24"/>
-      <c r="BE118" s="24"/>
-      <c r="BF118" s="23">
+      <c r="BC118" s="23"/>
+      <c r="BD118" s="23"/>
+      <c r="BE118" s="23"/>
+      <c r="BF118" s="22">
         <v>2014</v>
       </c>
-      <c r="BG118" s="24"/>
-      <c r="BH118" s="24"/>
-      <c r="BI118" s="24"/>
-      <c r="BJ118" s="23">
+      <c r="BG118" s="23"/>
+      <c r="BH118" s="23"/>
+      <c r="BI118" s="23"/>
+      <c r="BJ118" s="22">
         <v>2015</v>
       </c>
-      <c r="BK118" s="24"/>
-      <c r="BL118" s="24"/>
-      <c r="BM118" s="24"/>
-      <c r="BN118" s="23">
+      <c r="BK118" s="23"/>
+      <c r="BL118" s="23"/>
+      <c r="BM118" s="23"/>
+      <c r="BN118" s="22">
         <v>2016</v>
       </c>
-      <c r="BO118" s="24"/>
-      <c r="BP118" s="24"/>
-      <c r="BQ118" s="24"/>
-      <c r="BR118" s="23">
+      <c r="BO118" s="23"/>
+      <c r="BP118" s="23"/>
+      <c r="BQ118" s="23"/>
+      <c r="BR118" s="22">
         <v>2017</v>
       </c>
-      <c r="BS118" s="24"/>
-      <c r="BT118" s="24"/>
-      <c r="BU118" s="24"/>
-      <c r="BV118" s="23">
+      <c r="BS118" s="23"/>
+      <c r="BT118" s="23"/>
+      <c r="BU118" s="23"/>
+      <c r="BV118" s="22">
         <v>2018</v>
       </c>
-      <c r="BW118" s="24"/>
-      <c r="BX118" s="24"/>
-      <c r="BY118" s="24"/>
-      <c r="BZ118" s="23">
+      <c r="BW118" s="23"/>
+      <c r="BX118" s="23"/>
+      <c r="BY118" s="23"/>
+      <c r="BZ118" s="22">
         <v>2019</v>
       </c>
-      <c r="CA118" s="24"/>
-      <c r="CB118" s="24"/>
-      <c r="CC118" s="24"/>
-      <c r="CD118" s="23">
+      <c r="CA118" s="23"/>
+      <c r="CB118" s="23"/>
+      <c r="CC118" s="23"/>
+      <c r="CD118" s="22">
         <v>2020</v>
       </c>
-      <c r="CE118" s="23"/>
-      <c r="CF118" s="23"/>
-      <c r="CG118" s="23"/>
-      <c r="CH118" s="23">
+      <c r="CE118" s="22"/>
+      <c r="CF118" s="22"/>
+      <c r="CG118" s="22"/>
+      <c r="CH118" s="22">
         <v>2021</v>
       </c>
-      <c r="CI118" s="23"/>
-      <c r="CJ118" s="23"/>
-      <c r="CK118" s="23"/>
-      <c r="CL118" s="23">
+      <c r="CI118" s="22"/>
+      <c r="CJ118" s="22"/>
+      <c r="CK118" s="22"/>
+      <c r="CL118" s="22">
         <v>2022</v>
       </c>
-      <c r="CM118" s="23"/>
-      <c r="CN118" s="23"/>
-      <c r="CO118" s="23"/>
-      <c r="CP118" s="19">
+      <c r="CM118" s="22"/>
+      <c r="CN118" s="22"/>
+      <c r="CO118" s="22"/>
+      <c r="CP118" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ118" s="24"/>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
@@ -39785,6 +39876,9 @@
       </c>
       <c r="CP119" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ119" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40071,9 +40165,11 @@
         <v>55.126247661394714</v>
       </c>
       <c r="CP121" s="16">
-        <v>51.748498225225113</v>
-      </c>
-      <c r="CQ121" s="10"/>
+        <v>51.296798831151669</v>
+      </c>
+      <c r="CQ121" s="16">
+        <v>51.145729451718069</v>
+      </c>
       <c r="CR121" s="10"/>
       <c r="CS121" s="10"/>
       <c r="CT121" s="10"/>
@@ -40415,9 +40511,11 @@
         <v>3.809075300997748</v>
       </c>
       <c r="CP122" s="16">
-        <v>5.4025123864283815</v>
-      </c>
-      <c r="CQ122" s="10"/>
+        <v>5.3543034713730124</v>
+      </c>
+      <c r="CQ122" s="16">
+        <v>3.5287639511801716</v>
+      </c>
       <c r="CR122" s="10"/>
       <c r="CS122" s="10"/>
       <c r="CT122" s="10"/>
@@ -40759,9 +40857,11 @@
         <v>13.883835109488398</v>
       </c>
       <c r="CP123" s="16">
-        <v>14.94356695110605</v>
-      </c>
-      <c r="CQ123" s="10"/>
+        <v>14.920017822052811</v>
+      </c>
+      <c r="CQ123" s="16">
+        <v>14.485060266276605</v>
+      </c>
       <c r="CR123" s="10"/>
       <c r="CS123" s="10"/>
       <c r="CT123" s="10"/>
@@ -41103,9 +41203,11 @@
         <v>23.60538100736407</v>
       </c>
       <c r="CP124" s="16">
-        <v>24.628471945583811</v>
-      </c>
-      <c r="CQ124" s="10"/>
+        <v>24.577127304942881</v>
+      </c>
+      <c r="CQ124" s="16">
+        <v>26.271369852367837</v>
+      </c>
       <c r="CR124" s="10"/>
       <c r="CS124" s="10"/>
       <c r="CT124" s="10"/>
@@ -41447,9 +41549,11 @@
         <v>3.5754609207550541</v>
       </c>
       <c r="CP125" s="16">
-        <v>3.2769504916566468</v>
-      </c>
-      <c r="CQ125" s="10"/>
+        <v>3.8517525704796198</v>
+      </c>
+      <c r="CQ125" s="16">
+        <v>4.5690764784573084</v>
+      </c>
       <c r="CR125" s="10"/>
       <c r="CS125" s="10"/>
       <c r="CT125" s="10"/>
@@ -41948,7 +42052,9 @@
       <c r="CP127" s="16">
         <v>100</v>
       </c>
-      <c r="CQ127" s="10"/>
+      <c r="CQ127" s="16">
+        <v>100</v>
+      </c>
       <c r="CR127" s="10"/>
       <c r="CS127" s="10"/>
       <c r="CT127" s="10"/>
@@ -42104,6 +42210,7 @@
       <c r="CN128" s="13"/>
       <c r="CO128" s="13"/>
       <c r="CP128" s="13"/>
+      <c r="CQ128" s="13"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -42452,147 +42559,148 @@
     </row>
     <row r="140" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="23">
+      <c r="B140" s="22">
         <v>2000</v>
       </c>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="23">
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="22">
         <v>2001</v>
       </c>
-      <c r="G140" s="24"/>
-      <c r="H140" s="24"/>
-      <c r="I140" s="24"/>
-      <c r="J140" s="23">
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
+      <c r="I140" s="23"/>
+      <c r="J140" s="22">
         <v>2002</v>
       </c>
-      <c r="K140" s="24"/>
-      <c r="L140" s="24"/>
-      <c r="M140" s="24"/>
-      <c r="N140" s="23">
+      <c r="K140" s="23"/>
+      <c r="L140" s="23"/>
+      <c r="M140" s="23"/>
+      <c r="N140" s="22">
         <v>2003</v>
       </c>
-      <c r="O140" s="24"/>
-      <c r="P140" s="24"/>
-      <c r="Q140" s="24"/>
-      <c r="R140" s="23">
+      <c r="O140" s="23"/>
+      <c r="P140" s="23"/>
+      <c r="Q140" s="23"/>
+      <c r="R140" s="22">
         <v>2004</v>
       </c>
-      <c r="S140" s="24"/>
-      <c r="T140" s="24"/>
-      <c r="U140" s="24"/>
-      <c r="V140" s="23">
+      <c r="S140" s="23"/>
+      <c r="T140" s="23"/>
+      <c r="U140" s="23"/>
+      <c r="V140" s="22">
         <v>2005</v>
       </c>
-      <c r="W140" s="24"/>
-      <c r="X140" s="24"/>
-      <c r="Y140" s="24"/>
-      <c r="Z140" s="23">
+      <c r="W140" s="23"/>
+      <c r="X140" s="23"/>
+      <c r="Y140" s="23"/>
+      <c r="Z140" s="22">
         <v>2006</v>
       </c>
-      <c r="AA140" s="24"/>
-      <c r="AB140" s="24"/>
-      <c r="AC140" s="24"/>
-      <c r="AD140" s="23">
+      <c r="AA140" s="23"/>
+      <c r="AB140" s="23"/>
+      <c r="AC140" s="23"/>
+      <c r="AD140" s="22">
         <v>2007</v>
       </c>
-      <c r="AE140" s="24"/>
-      <c r="AF140" s="24"/>
-      <c r="AG140" s="24"/>
-      <c r="AH140" s="23">
+      <c r="AE140" s="23"/>
+      <c r="AF140" s="23"/>
+      <c r="AG140" s="23"/>
+      <c r="AH140" s="22">
         <v>2008</v>
       </c>
-      <c r="AI140" s="24"/>
-      <c r="AJ140" s="24"/>
-      <c r="AK140" s="24"/>
-      <c r="AL140" s="23">
+      <c r="AI140" s="23"/>
+      <c r="AJ140" s="23"/>
+      <c r="AK140" s="23"/>
+      <c r="AL140" s="22">
         <v>2009</v>
       </c>
-      <c r="AM140" s="24"/>
-      <c r="AN140" s="24"/>
-      <c r="AO140" s="24"/>
-      <c r="AP140" s="23">
+      <c r="AM140" s="23"/>
+      <c r="AN140" s="23"/>
+      <c r="AO140" s="23"/>
+      <c r="AP140" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="24"/>
-      <c r="AR140" s="24"/>
-      <c r="AS140" s="24"/>
-      <c r="AT140" s="23">
+      <c r="AQ140" s="23"/>
+      <c r="AR140" s="23"/>
+      <c r="AS140" s="23"/>
+      <c r="AT140" s="22">
         <v>2011</v>
       </c>
-      <c r="AU140" s="24"/>
-      <c r="AV140" s="24"/>
-      <c r="AW140" s="24"/>
-      <c r="AX140" s="23">
+      <c r="AU140" s="23"/>
+      <c r="AV140" s="23"/>
+      <c r="AW140" s="23"/>
+      <c r="AX140" s="22">
         <v>2012</v>
       </c>
-      <c r="AY140" s="24"/>
-      <c r="AZ140" s="24"/>
-      <c r="BA140" s="24"/>
-      <c r="BB140" s="23">
+      <c r="AY140" s="23"/>
+      <c r="AZ140" s="23"/>
+      <c r="BA140" s="23"/>
+      <c r="BB140" s="22">
         <v>2013</v>
       </c>
-      <c r="BC140" s="24"/>
-      <c r="BD140" s="24"/>
-      <c r="BE140" s="24"/>
-      <c r="BF140" s="23">
+      <c r="BC140" s="23"/>
+      <c r="BD140" s="23"/>
+      <c r="BE140" s="23"/>
+      <c r="BF140" s="22">
         <v>2014</v>
       </c>
-      <c r="BG140" s="24"/>
-      <c r="BH140" s="24"/>
-      <c r="BI140" s="24"/>
-      <c r="BJ140" s="23">
+      <c r="BG140" s="23"/>
+      <c r="BH140" s="23"/>
+      <c r="BI140" s="23"/>
+      <c r="BJ140" s="22">
         <v>2015</v>
       </c>
-      <c r="BK140" s="24"/>
-      <c r="BL140" s="24"/>
-      <c r="BM140" s="24"/>
-      <c r="BN140" s="23">
+      <c r="BK140" s="23"/>
+      <c r="BL140" s="23"/>
+      <c r="BM140" s="23"/>
+      <c r="BN140" s="22">
         <v>2016</v>
       </c>
-      <c r="BO140" s="24"/>
-      <c r="BP140" s="24"/>
-      <c r="BQ140" s="24"/>
-      <c r="BR140" s="23">
+      <c r="BO140" s="23"/>
+      <c r="BP140" s="23"/>
+      <c r="BQ140" s="23"/>
+      <c r="BR140" s="22">
         <v>2017</v>
       </c>
-      <c r="BS140" s="24"/>
-      <c r="BT140" s="24"/>
-      <c r="BU140" s="24"/>
-      <c r="BV140" s="23">
+      <c r="BS140" s="23"/>
+      <c r="BT140" s="23"/>
+      <c r="BU140" s="23"/>
+      <c r="BV140" s="22">
         <v>2018</v>
       </c>
-      <c r="BW140" s="24"/>
-      <c r="BX140" s="24"/>
-      <c r="BY140" s="24"/>
-      <c r="BZ140" s="23">
+      <c r="BW140" s="23"/>
+      <c r="BX140" s="23"/>
+      <c r="BY140" s="23"/>
+      <c r="BZ140" s="22">
         <v>2019</v>
       </c>
-      <c r="CA140" s="24"/>
-      <c r="CB140" s="24"/>
-      <c r="CC140" s="24"/>
-      <c r="CD140" s="23">
+      <c r="CA140" s="23"/>
+      <c r="CB140" s="23"/>
+      <c r="CC140" s="23"/>
+      <c r="CD140" s="22">
         <v>2020</v>
       </c>
-      <c r="CE140" s="23"/>
-      <c r="CF140" s="23"/>
-      <c r="CG140" s="23"/>
-      <c r="CH140" s="23">
+      <c r="CE140" s="22"/>
+      <c r="CF140" s="22"/>
+      <c r="CG140" s="22"/>
+      <c r="CH140" s="22">
         <v>2021</v>
       </c>
-      <c r="CI140" s="23"/>
-      <c r="CJ140" s="23"/>
-      <c r="CK140" s="23"/>
-      <c r="CL140" s="23">
+      <c r="CI140" s="22"/>
+      <c r="CJ140" s="22"/>
+      <c r="CK140" s="22"/>
+      <c r="CL140" s="22">
         <v>2022</v>
       </c>
-      <c r="CM140" s="23"/>
-      <c r="CN140" s="23"/>
-      <c r="CO140" s="23"/>
-      <c r="CP140" s="19">
+      <c r="CM140" s="22"/>
+      <c r="CN140" s="22"/>
+      <c r="CO140" s="22"/>
+      <c r="CP140" s="22">
         <v>2023</v>
       </c>
+      <c r="CQ140" s="24"/>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
@@ -42876,6 +42984,9 @@
       </c>
       <c r="CP141" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ141" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43162,9 +43273,11 @@
         <v>53.981226904579238</v>
       </c>
       <c r="CP143" s="16">
-        <v>48.871415473520244</v>
-      </c>
-      <c r="CQ143" s="10"/>
+        <v>48.391667428223428</v>
+      </c>
+      <c r="CQ143" s="16">
+        <v>47.859560729793017</v>
+      </c>
       <c r="CR143" s="10"/>
       <c r="CS143" s="10"/>
       <c r="CT143" s="10"/>
@@ -43506,9 +43619,11 @@
         <v>4.9880929899274751</v>
       </c>
       <c r="CP144" s="16">
-        <v>5.9837123452643617</v>
-      </c>
-      <c r="CQ144" s="10"/>
+        <v>5.9238093754683261</v>
+      </c>
+      <c r="CQ144" s="16">
+        <v>4.5371837400123143</v>
+      </c>
       <c r="CR144" s="10"/>
       <c r="CS144" s="10"/>
       <c r="CT144" s="10"/>
@@ -43850,9 +43965,11 @@
         <v>12.023765903712063</v>
       </c>
       <c r="CP145" s="16">
-        <v>14.615570594324101</v>
-      </c>
-      <c r="CQ145" s="10"/>
+        <v>14.576524910938016</v>
+      </c>
+      <c r="CQ145" s="16">
+        <v>14.75145934188512</v>
+      </c>
       <c r="CR145" s="10"/>
       <c r="CS145" s="10"/>
       <c r="CT145" s="10"/>
@@ -44194,9 +44311,11 @@
         <v>24.711536815209563</v>
       </c>
       <c r="CP146" s="16">
-        <v>26.717770594242985</v>
-      </c>
-      <c r="CQ146" s="10"/>
+        <v>26.632812058194755</v>
+      </c>
+      <c r="CQ146" s="16">
+        <v>26.990767565053549</v>
+      </c>
       <c r="CR146" s="10"/>
       <c r="CS146" s="10"/>
       <c r="CT146" s="10"/>
@@ -44538,9 +44657,11 @@
         <v>4.2953773865716744</v>
       </c>
       <c r="CP147" s="16">
-        <v>3.8115309926483003</v>
-      </c>
-      <c r="CQ147" s="10"/>
+        <v>4.475186227175449</v>
+      </c>
+      <c r="CQ147" s="16">
+        <v>5.861028623255998</v>
+      </c>
       <c r="CR147" s="10"/>
       <c r="CS147" s="10"/>
       <c r="CT147" s="10"/>
@@ -45039,7 +45160,9 @@
       <c r="CP149" s="16">
         <v>100</v>
       </c>
-      <c r="CQ149" s="10"/>
+      <c r="CQ149" s="16">
+        <v>100</v>
+      </c>
       <c r="CR149" s="10"/>
       <c r="CS149" s="10"/>
       <c r="CT149" s="10"/>
@@ -45195,6 +45318,7 @@
       <c r="CN150" s="13"/>
       <c r="CO150" s="13"/>
       <c r="CP150" s="13"/>
+      <c r="CQ150" s="13"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -45296,7 +45420,7 @@
       <c r="CN152" s="1"/>
       <c r="CO152" s="1"/>
       <c r="CP152" s="1"/>
-      <c r="CQ152" s="17"/>
+      <c r="CQ152" s="1"/>
       <c r="CR152" s="17"/>
       <c r="CS152" s="17"/>
       <c r="CT152" s="17"/>
@@ -45452,7 +45576,7 @@
       <c r="CN153" s="1"/>
       <c r="CO153" s="1"/>
       <c r="CP153" s="1"/>
-      <c r="CQ153" s="17"/>
+      <c r="CQ153" s="1"/>
       <c r="CR153" s="17"/>
       <c r="CS153" s="17"/>
       <c r="CT153" s="17"/>
@@ -45514,7 +45638,151 @@
       <c r="EX153" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="168">
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL31:CO31"/>
+    <mergeCell ref="CD53:CG53"/>
+    <mergeCell ref="CD75:CG75"/>
+    <mergeCell ref="CH96:CK96"/>
+    <mergeCell ref="CH118:CK118"/>
+    <mergeCell ref="CH140:CK140"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP31:CQ31"/>
+    <mergeCell ref="CP96:CQ96"/>
+    <mergeCell ref="CP118:CQ118"/>
+    <mergeCell ref="CP140:CQ140"/>
+    <mergeCell ref="CL53:CO53"/>
+    <mergeCell ref="CP53:CQ53"/>
+    <mergeCell ref="CL75:CO75"/>
+    <mergeCell ref="CP75:CQ75"/>
+    <mergeCell ref="CL96:CO96"/>
+    <mergeCell ref="CL118:CO118"/>
+    <mergeCell ref="CL140:CO140"/>
+    <mergeCell ref="BR140:BU140"/>
+    <mergeCell ref="BV140:BY140"/>
+    <mergeCell ref="BR118:BU118"/>
+    <mergeCell ref="BV118:BY118"/>
+    <mergeCell ref="BR75:BU75"/>
+    <mergeCell ref="BV75:BY75"/>
+    <mergeCell ref="CH53:CK53"/>
+    <mergeCell ref="CH75:CK75"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR31:BU31"/>
+    <mergeCell ref="BV31:BY31"/>
+    <mergeCell ref="BZ31:CC31"/>
+    <mergeCell ref="BV53:BY53"/>
+    <mergeCell ref="BR53:BU53"/>
+    <mergeCell ref="BZ140:CC140"/>
+    <mergeCell ref="BZ118:CC118"/>
+    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH31:CK31"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR96:BU96"/>
+    <mergeCell ref="BV96:BY96"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="Z31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AH31:AK31"/>
+    <mergeCell ref="AL31:AO31"/>
+    <mergeCell ref="AP31:AS31"/>
+    <mergeCell ref="BF96:BI96"/>
+    <mergeCell ref="BJ96:BM96"/>
+    <mergeCell ref="V96:Y96"/>
+    <mergeCell ref="Z96:AC96"/>
+    <mergeCell ref="AT31:AW31"/>
+    <mergeCell ref="AX31:BA31"/>
+    <mergeCell ref="BB31:BE31"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V75:Y75"/>
+    <mergeCell ref="Z75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AK75"/>
+    <mergeCell ref="AX75:BA75"/>
+    <mergeCell ref="BB75:BE75"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AL53:AO53"/>
+    <mergeCell ref="AP53:AS53"/>
+    <mergeCell ref="AT53:AW53"/>
+    <mergeCell ref="AX53:BA53"/>
+    <mergeCell ref="V53:Y53"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="R53:U53"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AH53:AK53"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="AP96:AS96"/>
+    <mergeCell ref="AT96:AW96"/>
+    <mergeCell ref="AX96:BA96"/>
+    <mergeCell ref="BF75:BI75"/>
+    <mergeCell ref="BJ75:BM75"/>
+    <mergeCell ref="AL140:AO140"/>
+    <mergeCell ref="AP140:AS140"/>
+    <mergeCell ref="AT140:AW140"/>
+    <mergeCell ref="AX140:BA140"/>
+    <mergeCell ref="BB140:BE140"/>
+    <mergeCell ref="BN96:BQ96"/>
+    <mergeCell ref="AL118:AO118"/>
+    <mergeCell ref="AP118:AS118"/>
+    <mergeCell ref="AT118:AW118"/>
+    <mergeCell ref="AX118:BA118"/>
+    <mergeCell ref="BB118:BE118"/>
+    <mergeCell ref="BF118:BI118"/>
+    <mergeCell ref="Z118:AC118"/>
+    <mergeCell ref="AD118:AG118"/>
+    <mergeCell ref="AH118:AK118"/>
+    <mergeCell ref="BN75:BQ75"/>
+    <mergeCell ref="AL75:AO75"/>
+    <mergeCell ref="AP75:AS75"/>
+    <mergeCell ref="AT75:AW75"/>
+    <mergeCell ref="AD96:AG96"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="J140:M140"/>
+    <mergeCell ref="N140:Q140"/>
+    <mergeCell ref="R140:U140"/>
+    <mergeCell ref="V140:Y140"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="R118:U118"/>
+    <mergeCell ref="V118:Y118"/>
     <mergeCell ref="Z140:AC140"/>
     <mergeCell ref="AD140:AG140"/>
     <mergeCell ref="AH140:AK140"/>
@@ -45539,150 +45807,15 @@
     <mergeCell ref="BJ31:BM31"/>
     <mergeCell ref="BN31:BQ31"/>
     <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="J140:M140"/>
-    <mergeCell ref="N140:Q140"/>
-    <mergeCell ref="R140:U140"/>
-    <mergeCell ref="V140:Y140"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:Q118"/>
-    <mergeCell ref="R118:U118"/>
-    <mergeCell ref="V118:Y118"/>
-    <mergeCell ref="Z118:AC118"/>
-    <mergeCell ref="AD118:AG118"/>
-    <mergeCell ref="AH118:AK118"/>
-    <mergeCell ref="BN75:BQ75"/>
-    <mergeCell ref="AL75:AO75"/>
-    <mergeCell ref="AP75:AS75"/>
-    <mergeCell ref="AT75:AW75"/>
-    <mergeCell ref="AD96:AG96"/>
-    <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="AL96:AO96"/>
-    <mergeCell ref="AL140:AO140"/>
-    <mergeCell ref="AP140:AS140"/>
-    <mergeCell ref="AT140:AW140"/>
-    <mergeCell ref="AX140:BA140"/>
-    <mergeCell ref="BB140:BE140"/>
-    <mergeCell ref="BN96:BQ96"/>
-    <mergeCell ref="AL118:AO118"/>
-    <mergeCell ref="AP118:AS118"/>
-    <mergeCell ref="AT118:AW118"/>
-    <mergeCell ref="AX118:BA118"/>
-    <mergeCell ref="BB118:BE118"/>
-    <mergeCell ref="BF118:BI118"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AH53:AK53"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="AP96:AS96"/>
-    <mergeCell ref="AT96:AW96"/>
-    <mergeCell ref="AX96:BA96"/>
-    <mergeCell ref="BF75:BI75"/>
-    <mergeCell ref="BJ75:BM75"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="R53:U53"/>
-    <mergeCell ref="AT31:AW31"/>
-    <mergeCell ref="AX31:BA31"/>
-    <mergeCell ref="BB31:BE31"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V75:Y75"/>
-    <mergeCell ref="Z75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AK75"/>
-    <mergeCell ref="AX75:BA75"/>
-    <mergeCell ref="BB75:BE75"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="AL53:AO53"/>
-    <mergeCell ref="AP53:AS53"/>
-    <mergeCell ref="AT53:AW53"/>
-    <mergeCell ref="AX53:BA53"/>
-    <mergeCell ref="V53:Y53"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR96:BU96"/>
-    <mergeCell ref="BV96:BY96"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="Z31:AC31"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AH31:AK31"/>
-    <mergeCell ref="AL31:AO31"/>
-    <mergeCell ref="AP31:AS31"/>
-    <mergeCell ref="BF96:BI96"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="V96:Y96"/>
-    <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="BR140:BU140"/>
-    <mergeCell ref="BV140:BY140"/>
-    <mergeCell ref="BR118:BU118"/>
-    <mergeCell ref="BV118:BY118"/>
-    <mergeCell ref="BR75:BU75"/>
-    <mergeCell ref="BV75:BY75"/>
-    <mergeCell ref="CH53:CK53"/>
-    <mergeCell ref="CH75:CK75"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR31:BU31"/>
-    <mergeCell ref="BV31:BY31"/>
-    <mergeCell ref="BZ31:CC31"/>
-    <mergeCell ref="BV53:BY53"/>
-    <mergeCell ref="BR53:BU53"/>
-    <mergeCell ref="BZ140:CC140"/>
-    <mergeCell ref="BZ118:CC118"/>
-    <mergeCell ref="BZ96:CC96"/>
-    <mergeCell ref="CL96:CO96"/>
-    <mergeCell ref="CL118:CO118"/>
-    <mergeCell ref="CL140:CO140"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH31:CK31"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL31:CO31"/>
-    <mergeCell ref="CD53:CG53"/>
-    <mergeCell ref="CD75:CG75"/>
-    <mergeCell ref="CH96:CK96"/>
-    <mergeCell ref="CH118:CK118"/>
-    <mergeCell ref="CH140:CK140"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="93" man="1"/>
-    <brk id="88" max="93" man="1"/>
-    <brk id="109" max="93" man="1"/>
+    <brk id="44" max="94" man="1"/>
+    <brk id="88" max="94" man="1"/>
+    <brk id="109" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D102B2A-0EC5-4DC4-9907-2A290B775411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D73C13-2433-4193-BBDA-62ECF2D42ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1950" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="8" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CQ$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CR$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -626,13 +626,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -752,13 +752,31 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23611,14 +23629,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CS7" sqref="CS7"/>
+      <selection pane="topRight" activeCell="CL4" sqref="CL1:CR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="95" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="89" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="96" width="10" style="23" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23733,12 +23752,13 @@
       <c r="CI6" s="4"/>
       <c r="CJ6" s="4"/>
       <c r="CK6" s="4"/>
-      <c r="CL6" s="4"/>
-      <c r="CM6" s="4"/>
-      <c r="CN6" s="4"/>
-      <c r="CO6" s="4"/>
-      <c r="CP6" s="4"/>
-      <c r="CQ6" s="4"/>
+      <c r="CL6" s="24"/>
+      <c r="CM6" s="24"/>
+      <c r="CN6" s="24"/>
+      <c r="CO6" s="24"/>
+      <c r="CP6" s="24"/>
+      <c r="CQ6" s="24"/>
+      <c r="CR6" s="24"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23832,12 +23852,13 @@
       <c r="CI7" s="4"/>
       <c r="CJ7" s="4"/>
       <c r="CK7" s="4"/>
-      <c r="CL7" s="4"/>
-      <c r="CM7" s="4"/>
-      <c r="CN7" s="4"/>
-      <c r="CO7" s="4"/>
-      <c r="CP7" s="4"/>
-      <c r="CQ7" s="4"/>
+      <c r="CL7" s="24"/>
+      <c r="CM7" s="24"/>
+      <c r="CN7" s="24"/>
+      <c r="CO7" s="24"/>
+      <c r="CP7" s="24"/>
+      <c r="CQ7" s="24"/>
+      <c r="CR7" s="24"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23928,157 +23949,159 @@
       <c r="CI8" s="4"/>
       <c r="CJ8" s="4"/>
       <c r="CK8" s="4"/>
-      <c r="CL8" s="4"/>
-      <c r="CM8" s="4"/>
-      <c r="CN8" s="4"/>
-      <c r="CO8" s="4"/>
-      <c r="CP8" s="4"/>
-      <c r="CQ8" s="4"/>
+      <c r="CL8" s="24"/>
+      <c r="CM8" s="24"/>
+      <c r="CN8" s="24"/>
+      <c r="CO8" s="24"/>
+      <c r="CP8" s="24"/>
+      <c r="CQ8" s="24"/>
+      <c r="CR8" s="24"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="22">
+      <c r="B9" s="35">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="35"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="35"/>
+      <c r="BZ9" s="35">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="35"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
+      <c r="CH9" s="35">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="35"/>
+      <c r="CJ9" s="35"/>
+      <c r="CK9" s="35"/>
+      <c r="CL9" s="34">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
-      <c r="CP9" s="22">
+      <c r="CM9" s="34"/>
+      <c r="CN9" s="34"/>
+      <c r="CO9" s="34"/>
+      <c r="CP9" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="24"/>
+      <c r="CQ9" s="34"/>
+      <c r="CR9" s="34"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24348,23 +24371,26 @@
       <c r="CK10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL10" s="7" t="s">
+      <c r="CL10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CM10" s="7" t="s">
+      <c r="CM10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CN10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CO10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="25" t="s">
         <v>7</v>
+      </c>
+      <c r="CR10" s="25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24638,25 +24664,27 @@
       <c r="CK12" s="19">
         <v>102445.11283825984</v>
       </c>
-      <c r="CL12" s="19">
+      <c r="CL12" s="26">
         <v>95112.941061584192</v>
       </c>
-      <c r="CM12" s="19">
+      <c r="CM12" s="26">
         <v>86138.101602379815</v>
       </c>
-      <c r="CN12" s="19">
+      <c r="CN12" s="26">
         <v>125364.61590883185</v>
       </c>
-      <c r="CO12" s="19">
+      <c r="CO12" s="26">
         <v>131260.92863027516</v>
       </c>
-      <c r="CP12" s="19">
+      <c r="CP12" s="26">
         <v>118117.03890907811</v>
       </c>
-      <c r="CQ12" s="19">
-        <v>113241.72707584537</v>
-      </c>
-      <c r="CR12" s="10"/>
+      <c r="CQ12" s="26">
+        <v>113940.42920225172</v>
+      </c>
+      <c r="CR12" s="26">
+        <v>148794.34241630137</v>
+      </c>
       <c r="CS12" s="10"/>
       <c r="CT12" s="10"/>
       <c r="CU12" s="10"/>
@@ -24984,25 +25012,27 @@
       <c r="CK13" s="19">
         <v>6805.4416689638665</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="26">
         <v>9030.929515187514</v>
       </c>
-      <c r="CM13" s="19">
+      <c r="CM13" s="26">
         <v>6772.0262369198845</v>
       </c>
-      <c r="CN13" s="19">
+      <c r="CN13" s="26">
         <v>8678.9535591085787</v>
       </c>
-      <c r="CO13" s="19">
+      <c r="CO13" s="26">
         <v>9069.7767840590877</v>
       </c>
-      <c r="CP13" s="19">
+      <c r="CP13" s="26">
         <v>12328.926675149785</v>
       </c>
-      <c r="CQ13" s="19">
-        <v>7813.0340217721405</v>
-      </c>
-      <c r="CR13" s="10"/>
+      <c r="CQ13" s="26">
+        <v>7670.1148374931745</v>
+      </c>
+      <c r="CR13" s="26">
+        <v>9900.0089404819773</v>
+      </c>
       <c r="CS13" s="10"/>
       <c r="CT13" s="10"/>
       <c r="CU13" s="10"/>
@@ -25330,25 +25360,27 @@
       <c r="CK14" s="19">
         <v>10731.893624718097</v>
       </c>
-      <c r="CL14" s="19">
+      <c r="CL14" s="26">
         <v>16519.717390147831</v>
       </c>
-      <c r="CM14" s="19">
+      <c r="CM14" s="26">
         <v>17861.916287213768</v>
       </c>
-      <c r="CN14" s="19">
+      <c r="CN14" s="26">
         <v>24864.012333683175</v>
       </c>
-      <c r="CO14" s="19">
+      <c r="CO14" s="26">
         <v>33058.754526789751</v>
       </c>
-      <c r="CP14" s="19">
+      <c r="CP14" s="26">
         <v>34355.132596331357</v>
       </c>
-      <c r="CQ14" s="19">
+      <c r="CQ14" s="26">
         <v>32071.36273028102</v>
       </c>
-      <c r="CR14" s="10"/>
+      <c r="CR14" s="26">
+        <v>33673.705670424679</v>
+      </c>
       <c r="CS14" s="10"/>
       <c r="CT14" s="10"/>
       <c r="CU14" s="10"/>
@@ -25676,25 +25708,27 @@
       <c r="CK15" s="19">
         <v>46206.319687562878</v>
       </c>
-      <c r="CL15" s="19">
+      <c r="CL15" s="26">
         <v>48867.192274073153</v>
       </c>
-      <c r="CM15" s="19">
+      <c r="CM15" s="26">
         <v>50427.993876530629</v>
       </c>
-      <c r="CN15" s="19">
+      <c r="CN15" s="26">
         <v>54777.401768381824</v>
       </c>
-      <c r="CO15" s="19">
+      <c r="CO15" s="26">
         <v>56206.695778206282</v>
       </c>
-      <c r="CP15" s="19">
+      <c r="CP15" s="26">
         <v>56591.78678394208</v>
       </c>
-      <c r="CQ15" s="19">
-        <v>58167.423294624547</v>
-      </c>
-      <c r="CR15" s="10"/>
+      <c r="CQ15" s="26">
+        <v>58056.565666546907</v>
+      </c>
+      <c r="CR15" s="26">
+        <v>55736.934352333483</v>
+      </c>
       <c r="CS15" s="10"/>
       <c r="CT15" s="10"/>
       <c r="CU15" s="10"/>
@@ -26022,25 +26056,27 @@
       <c r="CK16" s="19">
         <v>8636.4176909564103</v>
       </c>
-      <c r="CL16" s="19">
+      <c r="CL16" s="26">
         <v>7865.3473658344301</v>
       </c>
-      <c r="CM16" s="19">
+      <c r="CM16" s="26">
         <v>8966.8706717470923</v>
       </c>
-      <c r="CN16" s="19">
+      <c r="CN16" s="26">
         <v>7164.4283924129832</v>
       </c>
-      <c r="CO16" s="19">
+      <c r="CO16" s="26">
         <v>8513.5183446965111</v>
       </c>
-      <c r="CP16" s="19">
+      <c r="CP16" s="26">
         <v>8869.1228030236252</v>
       </c>
-      <c r="CQ16" s="19">
+      <c r="CQ16" s="26">
         <v>10116.389327295956</v>
       </c>
-      <c r="CR16" s="10"/>
+      <c r="CR16" s="26">
+        <v>7901.1163665077493</v>
+      </c>
       <c r="CS16" s="10"/>
       <c r="CT16" s="10"/>
       <c r="CU16" s="10"/>
@@ -26189,13 +26225,13 @@
       <c r="CI17" s="10"/>
       <c r="CJ17" s="10"/>
       <c r="CK17" s="10"/>
-      <c r="CL17" s="10"/>
-      <c r="CM17" s="10"/>
-      <c r="CN17" s="10"/>
-      <c r="CO17" s="10"/>
-      <c r="CP17" s="10"/>
-      <c r="CQ17" s="10"/>
-      <c r="CR17" s="10"/>
+      <c r="CL17" s="27"/>
+      <c r="CM17" s="27"/>
+      <c r="CN17" s="27"/>
+      <c r="CO17" s="27"/>
+      <c r="CP17" s="27"/>
+      <c r="CQ17" s="27"/>
+      <c r="CR17" s="27"/>
       <c r="CS17" s="10"/>
       <c r="CT17" s="10"/>
       <c r="CU17" s="10"/>
@@ -26523,25 +26559,27 @@
       <c r="CK18" s="20">
         <v>174825.18551046107</v>
       </c>
-      <c r="CL18" s="20">
+      <c r="CL18" s="28">
         <v>177396.1276068271</v>
       </c>
-      <c r="CM18" s="20">
+      <c r="CM18" s="28">
         <v>170166.90867479116</v>
       </c>
-      <c r="CN18" s="20">
+      <c r="CN18" s="28">
         <v>220849.41196241841</v>
       </c>
-      <c r="CO18" s="20">
+      <c r="CO18" s="28">
         <v>238109.67406402683</v>
       </c>
-      <c r="CP18" s="20">
+      <c r="CP18" s="28">
         <v>230262.00776752498</v>
       </c>
-      <c r="CQ18" s="20">
-        <v>221409.93644981904</v>
-      </c>
-      <c r="CR18" s="10"/>
+      <c r="CQ18" s="28">
+        <v>221854.86176386877</v>
+      </c>
+      <c r="CR18" s="28">
+        <v>256006.10774604927</v>
+      </c>
       <c r="CS18" s="10"/>
       <c r="CT18" s="10"/>
       <c r="CU18" s="10"/>
@@ -26691,12 +26729,13 @@
       <c r="CI19" s="21"/>
       <c r="CJ19" s="21"/>
       <c r="CK19" s="21"/>
-      <c r="CL19" s="21"/>
-      <c r="CM19" s="21"/>
-      <c r="CN19" s="21"/>
-      <c r="CO19" s="21"/>
-      <c r="CP19" s="21"/>
-      <c r="CQ19" s="21"/>
+      <c r="CL19" s="29"/>
+      <c r="CM19" s="29"/>
+      <c r="CN19" s="29"/>
+      <c r="CO19" s="29"/>
+      <c r="CP19" s="29"/>
+      <c r="CQ19" s="29"/>
+      <c r="CR19" s="29"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -26792,13 +26831,13 @@
       <c r="CI21" s="10"/>
       <c r="CJ21" s="10"/>
       <c r="CK21" s="10"/>
-      <c r="CL21" s="10"/>
-      <c r="CM21" s="10"/>
-      <c r="CN21" s="10"/>
-      <c r="CO21" s="10"/>
-      <c r="CP21" s="10"/>
-      <c r="CQ21" s="10"/>
-      <c r="CR21" s="10"/>
+      <c r="CL21" s="27"/>
+      <c r="CM21" s="27"/>
+      <c r="CN21" s="27"/>
+      <c r="CO21" s="27"/>
+      <c r="CP21" s="27"/>
+      <c r="CQ21" s="27"/>
+      <c r="CR21" s="27"/>
       <c r="CS21" s="10"/>
       <c r="CT21" s="10"/>
       <c r="CU21" s="10"/>
@@ -26947,13 +26986,13 @@
       <c r="CI22" s="10"/>
       <c r="CJ22" s="10"/>
       <c r="CK22" s="10"/>
-      <c r="CL22" s="10"/>
-      <c r="CM22" s="10"/>
-      <c r="CN22" s="10"/>
-      <c r="CO22" s="10"/>
-      <c r="CP22" s="10"/>
-      <c r="CQ22" s="10"/>
-      <c r="CR22" s="10"/>
+      <c r="CL22" s="27"/>
+      <c r="CM22" s="27"/>
+      <c r="CN22" s="27"/>
+      <c r="CO22" s="27"/>
+      <c r="CP22" s="27"/>
+      <c r="CQ22" s="27"/>
+      <c r="CR22" s="27"/>
       <c r="CS22" s="10"/>
       <c r="CT22" s="10"/>
       <c r="CU22" s="10"/>
@@ -27117,12 +27156,13 @@
       <c r="CI26" s="4"/>
       <c r="CJ26" s="4"/>
       <c r="CK26" s="4"/>
-      <c r="CL26" s="4"/>
-      <c r="CM26" s="4"/>
-      <c r="CN26" s="4"/>
-      <c r="CO26" s="4"/>
-      <c r="CP26" s="4"/>
-      <c r="CQ26" s="4"/>
+      <c r="CL26" s="24"/>
+      <c r="CM26" s="24"/>
+      <c r="CN26" s="24"/>
+      <c r="CO26" s="24"/>
+      <c r="CP26" s="24"/>
+      <c r="CQ26" s="24"/>
+      <c r="CR26" s="24"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27216,12 +27256,13 @@
       <c r="CI27" s="4"/>
       <c r="CJ27" s="4"/>
       <c r="CK27" s="4"/>
-      <c r="CL27" s="4"/>
-      <c r="CM27" s="4"/>
-      <c r="CN27" s="4"/>
-      <c r="CO27" s="4"/>
-      <c r="CP27" s="4"/>
-      <c r="CQ27" s="4"/>
+      <c r="CL27" s="24"/>
+      <c r="CM27" s="24"/>
+      <c r="CN27" s="24"/>
+      <c r="CO27" s="24"/>
+      <c r="CP27" s="24"/>
+      <c r="CQ27" s="24"/>
+      <c r="CR27" s="24"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -27315,12 +27356,13 @@
       <c r="CI28" s="4"/>
       <c r="CJ28" s="4"/>
       <c r="CK28" s="4"/>
-      <c r="CL28" s="4"/>
-      <c r="CM28" s="4"/>
-      <c r="CN28" s="4"/>
-      <c r="CO28" s="4"/>
-      <c r="CP28" s="4"/>
-      <c r="CQ28" s="4"/>
+      <c r="CL28" s="24"/>
+      <c r="CM28" s="24"/>
+      <c r="CN28" s="24"/>
+      <c r="CO28" s="24"/>
+      <c r="CP28" s="24"/>
+      <c r="CQ28" s="24"/>
+      <c r="CR28" s="24"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -27414,12 +27456,13 @@
       <c r="CI29" s="4"/>
       <c r="CJ29" s="4"/>
       <c r="CK29" s="4"/>
-      <c r="CL29" s="4"/>
-      <c r="CM29" s="4"/>
-      <c r="CN29" s="4"/>
-      <c r="CO29" s="4"/>
-      <c r="CP29" s="4"/>
-      <c r="CQ29" s="4"/>
+      <c r="CL29" s="24"/>
+      <c r="CM29" s="24"/>
+      <c r="CN29" s="24"/>
+      <c r="CO29" s="24"/>
+      <c r="CP29" s="24"/>
+      <c r="CQ29" s="24"/>
+      <c r="CR29" s="24"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
@@ -27510,157 +27553,159 @@
       <c r="CI30" s="4"/>
       <c r="CJ30" s="4"/>
       <c r="CK30" s="4"/>
-      <c r="CL30" s="4"/>
-      <c r="CM30" s="4"/>
-      <c r="CN30" s="4"/>
-      <c r="CO30" s="4"/>
-      <c r="CP30" s="4"/>
-      <c r="CQ30" s="4"/>
+      <c r="CL30" s="24"/>
+      <c r="CM30" s="24"/>
+      <c r="CN30" s="24"/>
+      <c r="CO30" s="24"/>
+      <c r="CP30" s="24"/>
+      <c r="CQ30" s="24"/>
+      <c r="CR30" s="24"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="22">
+      <c r="B31" s="35">
         <v>2000</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="22">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="35">
         <v>2001</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="22">
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="35">
         <v>2002</v>
       </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="22">
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="35">
         <v>2003</v>
       </c>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="22">
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="35">
         <v>2004</v>
       </c>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="22">
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="35">
         <v>2005</v>
       </c>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="22">
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="35">
         <v>2006</v>
       </c>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="22">
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="35">
         <v>2007</v>
       </c>
-      <c r="AE31" s="23"/>
-      <c r="AF31" s="23"/>
-      <c r="AG31" s="23"/>
-      <c r="AH31" s="22">
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="35">
         <v>2008</v>
       </c>
-      <c r="AI31" s="23"/>
-      <c r="AJ31" s="23"/>
-      <c r="AK31" s="23"/>
-      <c r="AL31" s="22">
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AK31" s="36"/>
+      <c r="AL31" s="35">
         <v>2009</v>
       </c>
-      <c r="AM31" s="23"/>
-      <c r="AN31" s="23"/>
-      <c r="AO31" s="23"/>
-      <c r="AP31" s="22">
+      <c r="AM31" s="36"/>
+      <c r="AN31" s="36"/>
+      <c r="AO31" s="36"/>
+      <c r="AP31" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="23"/>
-      <c r="AR31" s="23"/>
-      <c r="AS31" s="23"/>
-      <c r="AT31" s="22">
+      <c r="AQ31" s="36"/>
+      <c r="AR31" s="36"/>
+      <c r="AS31" s="36"/>
+      <c r="AT31" s="35">
         <v>2011</v>
       </c>
-      <c r="AU31" s="23"/>
-      <c r="AV31" s="23"/>
-      <c r="AW31" s="23"/>
-      <c r="AX31" s="22">
+      <c r="AU31" s="36"/>
+      <c r="AV31" s="36"/>
+      <c r="AW31" s="36"/>
+      <c r="AX31" s="35">
         <v>2012</v>
       </c>
-      <c r="AY31" s="23"/>
-      <c r="AZ31" s="23"/>
-      <c r="BA31" s="23"/>
-      <c r="BB31" s="22">
+      <c r="AY31" s="36"/>
+      <c r="AZ31" s="36"/>
+      <c r="BA31" s="36"/>
+      <c r="BB31" s="35">
         <v>2013</v>
       </c>
-      <c r="BC31" s="23"/>
-      <c r="BD31" s="23"/>
-      <c r="BE31" s="23"/>
-      <c r="BF31" s="22">
+      <c r="BC31" s="36"/>
+      <c r="BD31" s="36"/>
+      <c r="BE31" s="36"/>
+      <c r="BF31" s="35">
         <v>2014</v>
       </c>
-      <c r="BG31" s="23"/>
-      <c r="BH31" s="23"/>
-      <c r="BI31" s="23"/>
-      <c r="BJ31" s="22">
+      <c r="BG31" s="36"/>
+      <c r="BH31" s="36"/>
+      <c r="BI31" s="36"/>
+      <c r="BJ31" s="35">
         <v>2015</v>
       </c>
-      <c r="BK31" s="23"/>
-      <c r="BL31" s="23"/>
-      <c r="BM31" s="23"/>
-      <c r="BN31" s="22">
+      <c r="BK31" s="36"/>
+      <c r="BL31" s="36"/>
+      <c r="BM31" s="36"/>
+      <c r="BN31" s="35">
         <v>2016</v>
       </c>
-      <c r="BO31" s="23"/>
-      <c r="BP31" s="23"/>
-      <c r="BQ31" s="23"/>
-      <c r="BR31" s="22">
+      <c r="BO31" s="36"/>
+      <c r="BP31" s="36"/>
+      <c r="BQ31" s="36"/>
+      <c r="BR31" s="35">
         <v>2017</v>
       </c>
-      <c r="BS31" s="23"/>
-      <c r="BT31" s="23"/>
-      <c r="BU31" s="23"/>
-      <c r="BV31" s="22">
+      <c r="BS31" s="36"/>
+      <c r="BT31" s="36"/>
+      <c r="BU31" s="36"/>
+      <c r="BV31" s="35">
         <v>2018</v>
       </c>
-      <c r="BW31" s="23"/>
-      <c r="BX31" s="23"/>
-      <c r="BY31" s="23"/>
-      <c r="BZ31" s="22">
+      <c r="BW31" s="36"/>
+      <c r="BX31" s="36"/>
+      <c r="BY31" s="36"/>
+      <c r="BZ31" s="35">
         <v>2019</v>
       </c>
-      <c r="CA31" s="23"/>
-      <c r="CB31" s="23"/>
-      <c r="CC31" s="23"/>
-      <c r="CD31" s="22">
+      <c r="CA31" s="36"/>
+      <c r="CB31" s="36"/>
+      <c r="CC31" s="36"/>
+      <c r="CD31" s="35">
         <v>2020</v>
       </c>
-      <c r="CE31" s="22"/>
-      <c r="CF31" s="22"/>
-      <c r="CG31" s="22"/>
-      <c r="CH31" s="22">
+      <c r="CE31" s="35"/>
+      <c r="CF31" s="35"/>
+      <c r="CG31" s="35"/>
+      <c r="CH31" s="35">
         <v>2021</v>
       </c>
-      <c r="CI31" s="22"/>
-      <c r="CJ31" s="22"/>
-      <c r="CK31" s="22"/>
-      <c r="CL31" s="22">
+      <c r="CI31" s="35"/>
+      <c r="CJ31" s="35"/>
+      <c r="CK31" s="35"/>
+      <c r="CL31" s="34">
         <v>2022</v>
       </c>
-      <c r="CM31" s="22"/>
-      <c r="CN31" s="22"/>
-      <c r="CO31" s="22"/>
-      <c r="CP31" s="22">
+      <c r="CM31" s="34"/>
+      <c r="CN31" s="34"/>
+      <c r="CO31" s="34"/>
+      <c r="CP31" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ31" s="24"/>
+      <c r="CQ31" s="34"/>
+      <c r="CR31" s="34"/>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -27930,23 +27975,26 @@
       <c r="CK32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL32" s="7" t="s">
+      <c r="CL32" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CM32" s="7" t="s">
+      <c r="CM32" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CN32" s="7" t="s">
+      <c r="CN32" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CO32" s="7" t="s">
+      <c r="CO32" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CP32" s="7" t="s">
+      <c r="CP32" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CQ32" s="7" t="s">
+      <c r="CQ32" s="25" t="s">
         <v>7</v>
+      </c>
+      <c r="CR32" s="25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28220,25 +28268,27 @@
       <c r="CK34" s="19">
         <v>92252.123079514247</v>
       </c>
-      <c r="CL34" s="19">
+      <c r="CL34" s="26">
         <v>85348.710133698143</v>
       </c>
-      <c r="CM34" s="19">
+      <c r="CM34" s="26">
         <v>67145.01908077547</v>
       </c>
-      <c r="CN34" s="19">
+      <c r="CN34" s="26">
         <v>89988.179900677991</v>
       </c>
-      <c r="CO34" s="19">
+      <c r="CO34" s="26">
         <v>106276.44833839743</v>
       </c>
-      <c r="CP34" s="19">
+      <c r="CP34" s="26">
         <v>94519.306811908784</v>
       </c>
-      <c r="CQ34" s="19">
-        <v>79152.480855595233</v>
-      </c>
-      <c r="CR34" s="10"/>
+      <c r="CQ34" s="26">
+        <v>79640.852131027132</v>
+      </c>
+      <c r="CR34" s="26">
+        <v>100726.98700761746</v>
+      </c>
       <c r="CS34" s="10"/>
       <c r="CT34" s="10"/>
       <c r="CU34" s="10"/>
@@ -28566,25 +28616,27 @@
       <c r="CK35" s="19">
         <v>7088.4754867296288</v>
       </c>
-      <c r="CL35" s="19">
+      <c r="CL35" s="26">
         <v>8733.9693321251852</v>
       </c>
-      <c r="CM35" s="19">
+      <c r="CM35" s="26">
         <v>6407.568160262229</v>
       </c>
-      <c r="CN35" s="19">
+      <c r="CN35" s="26">
         <v>5964.0797825333484</v>
       </c>
-      <c r="CO35" s="19">
+      <c r="CO35" s="26">
         <v>9820.3919649366053</v>
       </c>
-      <c r="CP35" s="19">
+      <c r="CP35" s="26">
         <v>11570.470405584621</v>
       </c>
-      <c r="CQ35" s="19">
-        <v>7503.8162415912302</v>
-      </c>
-      <c r="CR35" s="10"/>
+      <c r="CQ35" s="26">
+        <v>7366.5533942467828</v>
+      </c>
+      <c r="CR35" s="26">
+        <v>6990.7994149117412</v>
+      </c>
       <c r="CS35" s="10"/>
       <c r="CT35" s="10"/>
       <c r="CU35" s="10"/>
@@ -28912,25 +28964,27 @@
       <c r="CK36" s="19">
         <v>9877.5561037619118</v>
       </c>
-      <c r="CL36" s="19">
+      <c r="CL36" s="26">
         <v>18325.805539719899</v>
       </c>
-      <c r="CM36" s="19">
+      <c r="CM36" s="26">
         <v>17025.259549398193</v>
       </c>
-      <c r="CN36" s="19">
+      <c r="CN36" s="26">
         <v>19697.048462697538</v>
       </c>
-      <c r="CO36" s="19">
+      <c r="CO36" s="26">
         <v>23671.991341686968</v>
       </c>
-      <c r="CP36" s="19">
+      <c r="CP36" s="26">
         <v>28471.079909613327</v>
       </c>
-      <c r="CQ36" s="19">
+      <c r="CQ36" s="26">
         <v>24396.684494093206</v>
       </c>
-      <c r="CR36" s="10"/>
+      <c r="CR36" s="26">
+        <v>26600.052082890557</v>
+      </c>
       <c r="CS36" s="10"/>
       <c r="CT36" s="10"/>
       <c r="CU36" s="10"/>
@@ -29258,25 +29312,27 @@
       <c r="CK37" s="19">
         <v>47702.781019455986</v>
       </c>
-      <c r="CL37" s="19">
+      <c r="CL37" s="26">
         <v>50251.808163641748</v>
       </c>
-      <c r="CM37" s="19">
+      <c r="CM37" s="26">
         <v>41820.771885110211</v>
       </c>
-      <c r="CN37" s="19">
+      <c r="CN37" s="26">
         <v>47699.298706087051</v>
       </c>
-      <c r="CO37" s="19">
+      <c r="CO37" s="26">
         <v>48651.253709856661</v>
       </c>
-      <c r="CP37" s="19">
+      <c r="CP37" s="26">
         <v>52019.594859511752</v>
       </c>
-      <c r="CQ37" s="19">
-        <v>44638.650676975427</v>
-      </c>
-      <c r="CR37" s="10"/>
+      <c r="CQ37" s="26">
+        <v>44553.576680874503</v>
+      </c>
+      <c r="CR37" s="26">
+        <v>48083.190202617232</v>
+      </c>
       <c r="CS37" s="10"/>
       <c r="CT37" s="10"/>
       <c r="CU37" s="10"/>
@@ -29604,25 +29660,27 @@
       <c r="CK38" s="19">
         <v>8595.0612567754397</v>
       </c>
-      <c r="CL38" s="19">
+      <c r="CL38" s="26">
         <v>7773.9350940748318</v>
       </c>
-      <c r="CM38" s="19">
+      <c r="CM38" s="26">
         <v>8608.2139647257463</v>
       </c>
-      <c r="CN38" s="19">
+      <c r="CN38" s="26">
         <v>6894.384820837442</v>
       </c>
-      <c r="CO38" s="19">
+      <c r="CO38" s="26">
         <v>8456.5964705626266</v>
       </c>
-      <c r="CP38" s="19">
+      <c r="CP38" s="26">
         <v>8740.998657965727</v>
       </c>
-      <c r="CQ38" s="19">
+      <c r="CQ38" s="26">
         <v>9693.2556175254394</v>
       </c>
-      <c r="CR38" s="10"/>
+      <c r="CR38" s="26">
+        <v>7591.2442718533639</v>
+      </c>
       <c r="CS38" s="10"/>
       <c r="CT38" s="10"/>
       <c r="CU38" s="10"/>
@@ -29771,13 +29829,13 @@
       <c r="CI39" s="10"/>
       <c r="CJ39" s="10"/>
       <c r="CK39" s="10"/>
-      <c r="CL39" s="10"/>
-      <c r="CM39" s="10"/>
-      <c r="CN39" s="10"/>
-      <c r="CO39" s="10"/>
-      <c r="CP39" s="10"/>
-      <c r="CQ39" s="10"/>
-      <c r="CR39" s="10"/>
+      <c r="CL39" s="27"/>
+      <c r="CM39" s="27"/>
+      <c r="CN39" s="27"/>
+      <c r="CO39" s="27"/>
+      <c r="CP39" s="27"/>
+      <c r="CQ39" s="27"/>
+      <c r="CR39" s="27"/>
       <c r="CS39" s="10"/>
       <c r="CT39" s="10"/>
       <c r="CU39" s="10"/>
@@ -30105,25 +30163,27 @@
       <c r="CK40" s="20">
         <v>165515.9969462372</v>
       </c>
-      <c r="CL40" s="20">
+      <c r="CL40" s="28">
         <v>170434.22826325981</v>
       </c>
-      <c r="CM40" s="20">
+      <c r="CM40" s="28">
         <v>141006.83264027187</v>
       </c>
-      <c r="CN40" s="20">
+      <c r="CN40" s="28">
         <v>170242.99167283336</v>
       </c>
-      <c r="CO40" s="20">
+      <c r="CO40" s="28">
         <v>196876.68182544026</v>
       </c>
-      <c r="CP40" s="20">
+      <c r="CP40" s="28">
         <v>195321.45064458426</v>
       </c>
-      <c r="CQ40" s="20">
-        <v>165384.88788578054</v>
-      </c>
-      <c r="CR40" s="10"/>
+      <c r="CQ40" s="28">
+        <v>165650.92231776705</v>
+      </c>
+      <c r="CR40" s="28">
+        <v>189992.27297989035</v>
+      </c>
       <c r="CS40" s="10"/>
       <c r="CT40" s="10"/>
       <c r="CU40" s="10"/>
@@ -30273,12 +30333,13 @@
       <c r="CI41" s="13"/>
       <c r="CJ41" s="13"/>
       <c r="CK41" s="13"/>
-      <c r="CL41" s="13"/>
-      <c r="CM41" s="13"/>
-      <c r="CN41" s="13"/>
-      <c r="CO41" s="13"/>
-      <c r="CP41" s="13"/>
-      <c r="CQ41" s="13"/>
+      <c r="CL41" s="30"/>
+      <c r="CM41" s="30"/>
+      <c r="CN41" s="30"/>
+      <c r="CO41" s="30"/>
+      <c r="CP41" s="30"/>
+      <c r="CQ41" s="30"/>
+      <c r="CR41" s="30"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -30374,13 +30435,13 @@
       <c r="CI43" s="10"/>
       <c r="CJ43" s="10"/>
       <c r="CK43" s="10"/>
-      <c r="CL43" s="10"/>
-      <c r="CM43" s="10"/>
-      <c r="CN43" s="10"/>
-      <c r="CO43" s="10"/>
-      <c r="CP43" s="10"/>
-      <c r="CQ43" s="10"/>
-      <c r="CR43" s="10"/>
+      <c r="CL43" s="27"/>
+      <c r="CM43" s="27"/>
+      <c r="CN43" s="27"/>
+      <c r="CO43" s="27"/>
+      <c r="CP43" s="27"/>
+      <c r="CQ43" s="27"/>
+      <c r="CR43" s="27"/>
       <c r="CS43" s="10"/>
       <c r="CT43" s="10"/>
       <c r="CU43" s="10"/>
@@ -30529,13 +30590,13 @@
       <c r="CI44" s="10"/>
       <c r="CJ44" s="10"/>
       <c r="CK44" s="10"/>
-      <c r="CL44" s="10"/>
-      <c r="CM44" s="10"/>
-      <c r="CN44" s="10"/>
-      <c r="CO44" s="10"/>
-      <c r="CP44" s="10"/>
-      <c r="CQ44" s="10"/>
-      <c r="CR44" s="10"/>
+      <c r="CL44" s="27"/>
+      <c r="CM44" s="27"/>
+      <c r="CN44" s="27"/>
+      <c r="CO44" s="27"/>
+      <c r="CP44" s="27"/>
+      <c r="CQ44" s="27"/>
+      <c r="CR44" s="27"/>
       <c r="CS44" s="10"/>
       <c r="CT44" s="10"/>
       <c r="CU44" s="10"/>
@@ -30630,146 +30691,147 @@
     </row>
     <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22" t="s">
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22" t="s">
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22" t="s">
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22" t="s">
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22" t="s">
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22" t="s">
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="22" t="s">
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AE53" s="22"/>
-      <c r="AF53" s="22"/>
-      <c r="AG53" s="22"/>
-      <c r="AH53" s="22" t="s">
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AI53" s="22"/>
-      <c r="AJ53" s="22"/>
-      <c r="AK53" s="22"/>
-      <c r="AL53" s="22" t="s">
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AM53" s="22"/>
-      <c r="AN53" s="22"/>
-      <c r="AO53" s="22"/>
-      <c r="AP53" s="22" t="s">
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AQ53" s="22"/>
-      <c r="AR53" s="22"/>
-      <c r="AS53" s="22"/>
-      <c r="AT53" s="22" t="s">
+      <c r="AQ53" s="35"/>
+      <c r="AR53" s="35"/>
+      <c r="AS53" s="35"/>
+      <c r="AT53" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AU53" s="22"/>
-      <c r="AV53" s="22"/>
-      <c r="AW53" s="22"/>
-      <c r="AX53" s="22" t="s">
+      <c r="AU53" s="35"/>
+      <c r="AV53" s="35"/>
+      <c r="AW53" s="35"/>
+      <c r="AX53" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AY53" s="22"/>
-      <c r="AZ53" s="22"/>
-      <c r="BA53" s="22"/>
-      <c r="BB53" s="22" t="s">
+      <c r="AY53" s="35"/>
+      <c r="AZ53" s="35"/>
+      <c r="BA53" s="35"/>
+      <c r="BB53" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BC53" s="22"/>
-      <c r="BD53" s="22"/>
-      <c r="BE53" s="22"/>
-      <c r="BF53" s="22" t="s">
+      <c r="BC53" s="35"/>
+      <c r="BD53" s="35"/>
+      <c r="BE53" s="35"/>
+      <c r="BF53" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BG53" s="22"/>
-      <c r="BH53" s="22"/>
-      <c r="BI53" s="22"/>
-      <c r="BJ53" s="22" t="s">
+      <c r="BG53" s="35"/>
+      <c r="BH53" s="35"/>
+      <c r="BI53" s="35"/>
+      <c r="BJ53" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="BK53" s="22"/>
-      <c r="BL53" s="22"/>
-      <c r="BM53" s="22"/>
-      <c r="BN53" s="22" t="s">
+      <c r="BK53" s="35"/>
+      <c r="BL53" s="35"/>
+      <c r="BM53" s="35"/>
+      <c r="BN53" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="BO53" s="22"/>
-      <c r="BP53" s="22"/>
-      <c r="BQ53" s="22"/>
-      <c r="BR53" s="22" t="s">
+      <c r="BO53" s="35"/>
+      <c r="BP53" s="35"/>
+      <c r="BQ53" s="35"/>
+      <c r="BR53" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="BS53" s="22"/>
-      <c r="BT53" s="22"/>
-      <c r="BU53" s="22"/>
-      <c r="BV53" s="22" t="s">
+      <c r="BS53" s="35"/>
+      <c r="BT53" s="35"/>
+      <c r="BU53" s="35"/>
+      <c r="BV53" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="BW53" s="22"/>
-      <c r="BX53" s="22"/>
-      <c r="BY53" s="22"/>
-      <c r="BZ53" s="22" t="s">
+      <c r="BW53" s="35"/>
+      <c r="BX53" s="35"/>
+      <c r="BY53" s="35"/>
+      <c r="BZ53" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="22"/>
-      <c r="CB53" s="22"/>
-      <c r="CC53" s="22"/>
-      <c r="CD53" s="22" t="s">
+      <c r="CA53" s="35"/>
+      <c r="CB53" s="35"/>
+      <c r="CC53" s="35"/>
+      <c r="CD53" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="CE53" s="22"/>
-      <c r="CF53" s="22"/>
-      <c r="CG53" s="22"/>
-      <c r="CH53" s="22" t="s">
+      <c r="CE53" s="35"/>
+      <c r="CF53" s="35"/>
+      <c r="CG53" s="35"/>
+      <c r="CH53" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="CI53" s="22"/>
-      <c r="CJ53" s="22"/>
-      <c r="CK53" s="22"/>
-      <c r="CL53" s="22" t="s">
+      <c r="CI53" s="35"/>
+      <c r="CJ53" s="35"/>
+      <c r="CK53" s="35"/>
+      <c r="CL53" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="CM53" s="22"/>
-      <c r="CN53" s="22"/>
-      <c r="CO53" s="22"/>
+      <c r="CM53" s="34"/>
+      <c r="CN53" s="34"/>
+      <c r="CO53" s="31"/>
       <c r="CP53" s="22"/>
-      <c r="CQ53" s="24"/>
+      <c r="CQ53" s="22"/>
+      <c r="CR53" s="22"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -31039,16 +31101,19 @@
       <c r="CK54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL54" s="6" t="s">
+      <c r="CL54" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CM54" s="6" t="s">
+      <c r="CM54" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CN54" s="6"/>
-      <c r="CO54" s="6"/>
-      <c r="CP54" s="6"/>
-      <c r="CQ54" s="6"/>
+      <c r="CN54" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO54" s="32"/>
+      <c r="CP54" s="32"/>
+      <c r="CQ54" s="32"/>
+      <c r="CR54" s="32"/>
     </row>
     <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -31321,17 +31386,19 @@
       <c r="CK56" s="16">
         <v>28.128053153213529</v>
       </c>
-      <c r="CL56" s="16">
+      <c r="CL56" s="33">
         <v>24.18608613164335</v>
       </c>
-      <c r="CM56" s="16">
-        <v>31.465315544772494</v>
-      </c>
-      <c r="CN56" s="16"/>
-      <c r="CO56" s="16"/>
-      <c r="CP56" s="16"/>
-      <c r="CQ56" s="16"/>
-      <c r="CR56" s="10"/>
+      <c r="CM56" s="33">
+        <v>32.2764573199089</v>
+      </c>
+      <c r="CN56" s="33">
+        <v>18.689265976380582</v>
+      </c>
+      <c r="CO56" s="33"/>
+      <c r="CP56" s="33"/>
+      <c r="CQ56" s="33"/>
+      <c r="CR56" s="33"/>
       <c r="CS56" s="10"/>
       <c r="CT56" s="10"/>
       <c r="CU56" s="10"/>
@@ -31655,17 +31722,19 @@
       <c r="CK57" s="16">
         <v>33.272419708212254</v>
       </c>
-      <c r="CL57" s="16">
+      <c r="CL57" s="33">
         <v>36.51891152971524</v>
       </c>
-      <c r="CM57" s="16">
-        <v>15.372175895847334</v>
-      </c>
-      <c r="CN57" s="16"/>
-      <c r="CO57" s="16"/>
-      <c r="CP57" s="16"/>
-      <c r="CQ57" s="16"/>
-      <c r="CR57" s="10"/>
+      <c r="CM57" s="33">
+        <v>13.261741303910938</v>
+      </c>
+      <c r="CN57" s="33">
+        <v>14.069154455745391</v>
+      </c>
+      <c r="CO57" s="33"/>
+      <c r="CP57" s="33"/>
+      <c r="CQ57" s="33"/>
+      <c r="CR57" s="33"/>
       <c r="CS57" s="10"/>
       <c r="CT57" s="10"/>
       <c r="CU57" s="10"/>
@@ -31989,17 +32058,19 @@
       <c r="CK58" s="16">
         <v>208.04213760232955</v>
       </c>
-      <c r="CL58" s="16">
+      <c r="CL58" s="33">
         <v>107.96440874236967</v>
       </c>
-      <c r="CM58" s="16">
+      <c r="CM58" s="33">
         <v>79.551634967850049</v>
       </c>
-      <c r="CN58" s="16"/>
-      <c r="CO58" s="16"/>
-      <c r="CP58" s="16"/>
-      <c r="CQ58" s="16"/>
-      <c r="CR58" s="10"/>
+      <c r="CN58" s="33">
+        <v>35.431503244579119</v>
+      </c>
+      <c r="CO58" s="33"/>
+      <c r="CP58" s="33"/>
+      <c r="CQ58" s="33"/>
+      <c r="CR58" s="33"/>
       <c r="CS58" s="10"/>
       <c r="CT58" s="10"/>
       <c r="CU58" s="10"/>
@@ -32323,17 +32394,19 @@
       <c r="CK59" s="16">
         <v>21.642875170028205</v>
       </c>
-      <c r="CL59" s="16">
+      <c r="CL59" s="33">
         <v>15.807322152959586</v>
       </c>
-      <c r="CM59" s="16">
-        <v>15.347486233625247</v>
-      </c>
-      <c r="CN59" s="16"/>
-      <c r="CO59" s="16"/>
-      <c r="CP59" s="16"/>
-      <c r="CQ59" s="16"/>
-      <c r="CR59" s="10"/>
+      <c r="CM59" s="33">
+        <v>15.127652725377686</v>
+      </c>
+      <c r="CN59" s="33">
+        <v>1.7516942260403283</v>
+      </c>
+      <c r="CO59" s="33"/>
+      <c r="CP59" s="33"/>
+      <c r="CQ59" s="33"/>
+      <c r="CR59" s="33"/>
       <c r="CS59" s="10"/>
       <c r="CT59" s="10"/>
       <c r="CU59" s="10"/>
@@ -32657,17 +32730,19 @@
       <c r="CK60" s="16">
         <v>-1.4230361552405384</v>
       </c>
-      <c r="CL60" s="16">
+      <c r="CL60" s="33">
         <v>12.761997538079555</v>
       </c>
-      <c r="CM60" s="16">
+      <c r="CM60" s="33">
         <v>12.819618991169108</v>
       </c>
-      <c r="CN60" s="16"/>
-      <c r="CO60" s="16"/>
-      <c r="CP60" s="16"/>
-      <c r="CQ60" s="16"/>
-      <c r="CR60" s="10"/>
+      <c r="CN60" s="33">
+        <v>10.28257850793662</v>
+      </c>
+      <c r="CO60" s="33"/>
+      <c r="CP60" s="33"/>
+      <c r="CQ60" s="33"/>
+      <c r="CR60" s="33"/>
       <c r="CS60" s="10"/>
       <c r="CT60" s="10"/>
       <c r="CU60" s="10"/>
@@ -32812,13 +32887,13 @@
       <c r="CI61" s="10"/>
       <c r="CJ61" s="10"/>
       <c r="CK61" s="10"/>
-      <c r="CL61" s="10"/>
-      <c r="CM61" s="10"/>
-      <c r="CN61" s="10"/>
-      <c r="CO61" s="10"/>
-      <c r="CP61" s="10"/>
-      <c r="CQ61" s="10"/>
-      <c r="CR61" s="10"/>
+      <c r="CL61" s="27"/>
+      <c r="CM61" s="27"/>
+      <c r="CN61" s="27"/>
+      <c r="CO61" s="27"/>
+      <c r="CP61" s="27"/>
+      <c r="CQ61" s="27"/>
+      <c r="CR61" s="27"/>
       <c r="CS61" s="10"/>
       <c r="CT61" s="10"/>
       <c r="CU61" s="10"/>
@@ -33142,17 +33217,19 @@
       <c r="CK62" s="16">
         <v>36.198725240179414</v>
       </c>
-      <c r="CL62" s="16">
+      <c r="CL62" s="33">
         <v>29.801033919898998</v>
       </c>
-      <c r="CM62" s="16">
-        <v>30.11339171293244</v>
-      </c>
-      <c r="CN62" s="16"/>
-      <c r="CO62" s="16"/>
-      <c r="CP62" s="16"/>
-      <c r="CQ62" s="16"/>
-      <c r="CR62" s="10"/>
+      <c r="CM62" s="33">
+        <v>30.374855776371476</v>
+      </c>
+      <c r="CN62" s="33">
+        <v>15.918854150996523</v>
+      </c>
+      <c r="CO62" s="33"/>
+      <c r="CP62" s="33"/>
+      <c r="CQ62" s="33"/>
+      <c r="CR62" s="33"/>
       <c r="CS62" s="10"/>
       <c r="CT62" s="10"/>
       <c r="CU62" s="10"/>
@@ -33298,12 +33375,13 @@
       <c r="CI63" s="13"/>
       <c r="CJ63" s="13"/>
       <c r="CK63" s="13"/>
-      <c r="CL63" s="13"/>
-      <c r="CM63" s="13"/>
-      <c r="CN63" s="13"/>
-      <c r="CO63" s="13"/>
-      <c r="CP63" s="13"/>
-      <c r="CQ63" s="13"/>
+      <c r="CL63" s="30"/>
+      <c r="CM63" s="30"/>
+      <c r="CN63" s="30"/>
+      <c r="CO63" s="30"/>
+      <c r="CP63" s="30"/>
+      <c r="CQ63" s="30"/>
+      <c r="CR63" s="30"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
@@ -33399,13 +33477,13 @@
       <c r="CI65" s="10"/>
       <c r="CJ65" s="10"/>
       <c r="CK65" s="10"/>
-      <c r="CL65" s="10"/>
-      <c r="CM65" s="10"/>
-      <c r="CN65" s="10"/>
-      <c r="CO65" s="10"/>
-      <c r="CP65" s="10"/>
-      <c r="CQ65" s="10"/>
-      <c r="CR65" s="10"/>
+      <c r="CL65" s="27"/>
+      <c r="CM65" s="27"/>
+      <c r="CN65" s="27"/>
+      <c r="CO65" s="27"/>
+      <c r="CP65" s="27"/>
+      <c r="CQ65" s="27"/>
+      <c r="CR65" s="27"/>
       <c r="CS65" s="10"/>
       <c r="CT65" s="10"/>
       <c r="CU65" s="10"/>
@@ -33550,13 +33628,13 @@
       <c r="CI66" s="10"/>
       <c r="CJ66" s="10"/>
       <c r="CK66" s="10"/>
-      <c r="CL66" s="10"/>
-      <c r="CM66" s="10"/>
-      <c r="CN66" s="10"/>
-      <c r="CO66" s="10"/>
-      <c r="CP66" s="10"/>
-      <c r="CQ66" s="10"/>
-      <c r="CR66" s="10"/>
+      <c r="CL66" s="27"/>
+      <c r="CM66" s="27"/>
+      <c r="CN66" s="27"/>
+      <c r="CO66" s="27"/>
+      <c r="CP66" s="27"/>
+      <c r="CQ66" s="27"/>
+      <c r="CR66" s="27"/>
       <c r="CS66" s="10"/>
       <c r="CT66" s="10"/>
       <c r="CU66" s="10"/>
@@ -33644,146 +33722,147 @@
     </row>
     <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="22" t="s">
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="22" t="s">
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="22" t="s">
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="22" t="s">
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="S75" s="24"/>
-      <c r="T75" s="24"/>
-      <c r="U75" s="24"/>
-      <c r="V75" s="22" t="s">
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="W75" s="24"/>
-      <c r="X75" s="24"/>
-      <c r="Y75" s="24"/>
-      <c r="Z75" s="22" t="s">
+      <c r="W75" s="34"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AA75" s="24"/>
-      <c r="AB75" s="24"/>
-      <c r="AC75" s="24"/>
-      <c r="AD75" s="22" t="s">
+      <c r="AA75" s="34"/>
+      <c r="AB75" s="34"/>
+      <c r="AC75" s="34"/>
+      <c r="AD75" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="24"/>
-      <c r="AF75" s="24"/>
-      <c r="AG75" s="24"/>
-      <c r="AH75" s="22" t="s">
+      <c r="AE75" s="34"/>
+      <c r="AF75" s="34"/>
+      <c r="AG75" s="34"/>
+      <c r="AH75" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="24"/>
-      <c r="AJ75" s="24"/>
-      <c r="AK75" s="24"/>
-      <c r="AL75" s="22" t="s">
+      <c r="AI75" s="34"/>
+      <c r="AJ75" s="34"/>
+      <c r="AK75" s="34"/>
+      <c r="AL75" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AM75" s="24"/>
-      <c r="AN75" s="24"/>
-      <c r="AO75" s="24"/>
-      <c r="AP75" s="22" t="s">
+      <c r="AM75" s="34"/>
+      <c r="AN75" s="34"/>
+      <c r="AO75" s="34"/>
+      <c r="AP75" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AQ75" s="24"/>
-      <c r="AR75" s="24"/>
-      <c r="AS75" s="24"/>
-      <c r="AT75" s="22" t="s">
+      <c r="AQ75" s="34"/>
+      <c r="AR75" s="34"/>
+      <c r="AS75" s="34"/>
+      <c r="AT75" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AU75" s="24"/>
-      <c r="AV75" s="24"/>
-      <c r="AW75" s="24"/>
-      <c r="AX75" s="22" t="s">
+      <c r="AU75" s="34"/>
+      <c r="AV75" s="34"/>
+      <c r="AW75" s="34"/>
+      <c r="AX75" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AY75" s="24"/>
-      <c r="AZ75" s="24"/>
-      <c r="BA75" s="24"/>
-      <c r="BB75" s="22" t="s">
+      <c r="AY75" s="34"/>
+      <c r="AZ75" s="34"/>
+      <c r="BA75" s="34"/>
+      <c r="BB75" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BC75" s="24"/>
-      <c r="BD75" s="24"/>
-      <c r="BE75" s="24"/>
-      <c r="BF75" s="22" t="s">
+      <c r="BC75" s="34"/>
+      <c r="BD75" s="34"/>
+      <c r="BE75" s="34"/>
+      <c r="BF75" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BG75" s="24"/>
-      <c r="BH75" s="24"/>
-      <c r="BI75" s="24"/>
-      <c r="BJ75" s="22" t="s">
+      <c r="BG75" s="34"/>
+      <c r="BH75" s="34"/>
+      <c r="BI75" s="34"/>
+      <c r="BJ75" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="BK75" s="24"/>
-      <c r="BL75" s="24"/>
-      <c r="BM75" s="24"/>
-      <c r="BN75" s="22" t="s">
+      <c r="BK75" s="34"/>
+      <c r="BL75" s="34"/>
+      <c r="BM75" s="34"/>
+      <c r="BN75" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="BO75" s="24"/>
-      <c r="BP75" s="24"/>
-      <c r="BQ75" s="24"/>
-      <c r="BR75" s="22" t="s">
+      <c r="BO75" s="34"/>
+      <c r="BP75" s="34"/>
+      <c r="BQ75" s="34"/>
+      <c r="BR75" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="BS75" s="24"/>
-      <c r="BT75" s="24"/>
-      <c r="BU75" s="24"/>
-      <c r="BV75" s="22" t="s">
+      <c r="BS75" s="34"/>
+      <c r="BT75" s="34"/>
+      <c r="BU75" s="34"/>
+      <c r="BV75" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="BW75" s="24"/>
-      <c r="BX75" s="24"/>
-      <c r="BY75" s="24"/>
-      <c r="BZ75" s="22" t="s">
+      <c r="BW75" s="34"/>
+      <c r="BX75" s="34"/>
+      <c r="BY75" s="34"/>
+      <c r="BZ75" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="24"/>
-      <c r="CB75" s="24"/>
-      <c r="CC75" s="24"/>
-      <c r="CD75" s="22" t="s">
+      <c r="CA75" s="34"/>
+      <c r="CB75" s="34"/>
+      <c r="CC75" s="34"/>
+      <c r="CD75" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="CE75" s="22"/>
-      <c r="CF75" s="22"/>
-      <c r="CG75" s="22"/>
-      <c r="CH75" s="22" t="s">
+      <c r="CE75" s="35"/>
+      <c r="CF75" s="35"/>
+      <c r="CG75" s="35"/>
+      <c r="CH75" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="CI75" s="22"/>
-      <c r="CJ75" s="22"/>
-      <c r="CK75" s="22"/>
-      <c r="CL75" s="22" t="s">
+      <c r="CI75" s="35"/>
+      <c r="CJ75" s="35"/>
+      <c r="CK75" s="35"/>
+      <c r="CL75" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="CM75" s="22"/>
-      <c r="CN75" s="22"/>
-      <c r="CO75" s="22"/>
+      <c r="CM75" s="34"/>
+      <c r="CN75" s="34"/>
+      <c r="CO75" s="31"/>
       <c r="CP75" s="22"/>
-      <c r="CQ75" s="24"/>
+      <c r="CQ75" s="22"/>
+      <c r="CR75" s="22"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
@@ -34053,16 +34132,19 @@
       <c r="CK76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL76" s="6" t="s">
+      <c r="CL76" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CM76" s="6" t="s">
+      <c r="CM76" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CN76" s="6"/>
-      <c r="CO76" s="6"/>
-      <c r="CP76" s="6"/>
-      <c r="CQ76" s="6"/>
+      <c r="CN76" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO76" s="32"/>
+      <c r="CP76" s="32"/>
+      <c r="CQ76" s="32"/>
+      <c r="CR76" s="32"/>
     </row>
     <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
@@ -34335,17 +34417,19 @@
       <c r="CK78" s="16">
         <v>15.202170736813599</v>
       </c>
-      <c r="CL78" s="16">
+      <c r="CL78" s="33">
         <v>10.744856792615806</v>
       </c>
-      <c r="CM78" s="16">
-        <v>17.882877895045041</v>
-      </c>
-      <c r="CN78" s="16"/>
-      <c r="CO78" s="16"/>
-      <c r="CP78" s="16"/>
-      <c r="CQ78" s="16"/>
-      <c r="CR78" s="10"/>
+      <c r="CM78" s="33">
+        <v>18.610215949479695</v>
+      </c>
+      <c r="CN78" s="33">
+        <v>11.933575185976792</v>
+      </c>
+      <c r="CO78" s="33"/>
+      <c r="CP78" s="33"/>
+      <c r="CQ78" s="33"/>
+      <c r="CR78" s="33"/>
       <c r="CS78" s="10"/>
       <c r="CT78" s="10"/>
       <c r="CU78" s="10"/>
@@ -34669,17 +34753,19 @@
       <c r="CK79" s="16">
         <v>38.540254294755073</v>
       </c>
-      <c r="CL79" s="16">
+      <c r="CL79" s="33">
         <v>32.476654835805874</v>
       </c>
-      <c r="CM79" s="16">
-        <v>17.108644869789998</v>
-      </c>
-      <c r="CN79" s="16"/>
-      <c r="CO79" s="16"/>
-      <c r="CP79" s="16"/>
-      <c r="CQ79" s="16"/>
-      <c r="CR79" s="10"/>
+      <c r="CM79" s="33">
+        <v>14.966446083740252</v>
+      </c>
+      <c r="CN79" s="33">
+        <v>17.215055294620413</v>
+      </c>
+      <c r="CO79" s="33"/>
+      <c r="CP79" s="33"/>
+      <c r="CQ79" s="33"/>
+      <c r="CR79" s="33"/>
       <c r="CS79" s="10"/>
       <c r="CT79" s="10"/>
       <c r="CU79" s="10"/>
@@ -35003,17 +35089,19 @@
       <c r="CK80" s="16">
         <v>139.65433446307011</v>
       </c>
-      <c r="CL80" s="16">
+      <c r="CL80" s="33">
         <v>55.360591641683953</v>
       </c>
-      <c r="CM80" s="16">
+      <c r="CM80" s="33">
         <v>43.29699011816578</v>
       </c>
-      <c r="CN80" s="16"/>
-      <c r="CO80" s="16"/>
-      <c r="CP80" s="16"/>
-      <c r="CQ80" s="16"/>
-      <c r="CR80" s="10"/>
+      <c r="CN80" s="33">
+        <v>35.045878235340666</v>
+      </c>
+      <c r="CO80" s="33"/>
+      <c r="CP80" s="33"/>
+      <c r="CQ80" s="33"/>
+      <c r="CR80" s="33"/>
       <c r="CS80" s="10"/>
       <c r="CT80" s="10"/>
       <c r="CU80" s="10"/>
@@ -35337,17 +35425,19 @@
       <c r="CK81" s="16">
         <v>1.988296426604208</v>
       </c>
-      <c r="CL81" s="16">
+      <c r="CL81" s="33">
         <v>3.5178568900711298</v>
       </c>
-      <c r="CM81" s="16">
-        <v>6.7379884799986058</v>
-      </c>
-      <c r="CN81" s="16"/>
-      <c r="CO81" s="16"/>
-      <c r="CP81" s="16"/>
-      <c r="CQ81" s="16"/>
-      <c r="CR81" s="10"/>
+      <c r="CM81" s="33">
+        <v>6.5345632626577128</v>
+      </c>
+      <c r="CN81" s="33">
+        <v>0.80481580849991019</v>
+      </c>
+      <c r="CO81" s="33"/>
+      <c r="CP81" s="33"/>
+      <c r="CQ81" s="33"/>
+      <c r="CR81" s="33"/>
       <c r="CS81" s="10"/>
       <c r="CT81" s="10"/>
       <c r="CU81" s="10"/>
@@ -35671,17 +35761,19 @@
       <c r="CK82" s="16">
         <v>-1.6109807955546813</v>
       </c>
-      <c r="CL82" s="16">
+      <c r="CL82" s="33">
         <v>12.439820402256458</v>
       </c>
-      <c r="CM82" s="16">
+      <c r="CM82" s="33">
         <v>12.604724478804968</v>
       </c>
-      <c r="CN82" s="16"/>
-      <c r="CO82" s="16"/>
-      <c r="CP82" s="16"/>
-      <c r="CQ82" s="16"/>
-      <c r="CR82" s="10"/>
+      <c r="CN82" s="33">
+        <v>10.107637869440495</v>
+      </c>
+      <c r="CO82" s="33"/>
+      <c r="CP82" s="33"/>
+      <c r="CQ82" s="33"/>
+      <c r="CR82" s="33"/>
       <c r="CS82" s="10"/>
       <c r="CT82" s="10"/>
       <c r="CU82" s="10"/>
@@ -35826,13 +35918,13 @@
       <c r="CI83" s="10"/>
       <c r="CJ83" s="10"/>
       <c r="CK83" s="10"/>
-      <c r="CL83" s="10"/>
-      <c r="CM83" s="10"/>
-      <c r="CN83" s="10"/>
-      <c r="CO83" s="10"/>
-      <c r="CP83" s="10"/>
-      <c r="CQ83" s="10"/>
-      <c r="CR83" s="10"/>
+      <c r="CL83" s="27"/>
+      <c r="CM83" s="27"/>
+      <c r="CN83" s="27"/>
+      <c r="CO83" s="27"/>
+      <c r="CP83" s="27"/>
+      <c r="CQ83" s="27"/>
+      <c r="CR83" s="27"/>
       <c r="CS83" s="10"/>
       <c r="CT83" s="10"/>
       <c r="CU83" s="10"/>
@@ -36156,17 +36248,19 @@
       <c r="CK84" s="16">
         <v>18.947222901596405</v>
       </c>
-      <c r="CL84" s="16">
+      <c r="CL84" s="33">
         <v>14.602244299708758</v>
       </c>
-      <c r="CM84" s="16">
-        <v>17.288563106513081</v>
-      </c>
-      <c r="CN84" s="16"/>
-      <c r="CO84" s="16"/>
-      <c r="CP84" s="16"/>
-      <c r="CQ84" s="16"/>
-      <c r="CR84" s="10"/>
+      <c r="CM84" s="33">
+        <v>17.477230866085549</v>
+      </c>
+      <c r="CN84" s="33">
+        <v>11.600642771251586</v>
+      </c>
+      <c r="CO84" s="33"/>
+      <c r="CP84" s="33"/>
+      <c r="CQ84" s="33"/>
+      <c r="CR84" s="33"/>
       <c r="CS84" s="10"/>
       <c r="CT84" s="10"/>
       <c r="CU84" s="10"/>
@@ -36312,12 +36406,13 @@
       <c r="CI85" s="13"/>
       <c r="CJ85" s="13"/>
       <c r="CK85" s="13"/>
-      <c r="CL85" s="13"/>
-      <c r="CM85" s="13"/>
-      <c r="CN85" s="13"/>
-      <c r="CO85" s="13"/>
-      <c r="CP85" s="13"/>
-      <c r="CQ85" s="13"/>
+      <c r="CL85" s="30"/>
+      <c r="CM85" s="30"/>
+      <c r="CN85" s="30"/>
+      <c r="CO85" s="30"/>
+      <c r="CP85" s="30"/>
+      <c r="CQ85" s="30"/>
+      <c r="CR85" s="30"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
@@ -36413,13 +36508,13 @@
       <c r="CI87" s="10"/>
       <c r="CJ87" s="10"/>
       <c r="CK87" s="10"/>
-      <c r="CL87" s="10"/>
-      <c r="CM87" s="10"/>
-      <c r="CN87" s="10"/>
-      <c r="CO87" s="10"/>
-      <c r="CP87" s="10"/>
-      <c r="CQ87" s="10"/>
-      <c r="CR87" s="10"/>
+      <c r="CL87" s="27"/>
+      <c r="CM87" s="27"/>
+      <c r="CN87" s="27"/>
+      <c r="CO87" s="27"/>
+      <c r="CP87" s="27"/>
+      <c r="CQ87" s="27"/>
+      <c r="CR87" s="27"/>
       <c r="CS87" s="10"/>
       <c r="CT87" s="10"/>
       <c r="CU87" s="10"/>
@@ -36564,13 +36659,13 @@
       <c r="CI88" s="10"/>
       <c r="CJ88" s="10"/>
       <c r="CK88" s="10"/>
-      <c r="CL88" s="10"/>
-      <c r="CM88" s="10"/>
-      <c r="CN88" s="10"/>
-      <c r="CO88" s="10"/>
-      <c r="CP88" s="10"/>
-      <c r="CQ88" s="10"/>
-      <c r="CR88" s="10"/>
+      <c r="CL88" s="27"/>
+      <c r="CM88" s="27"/>
+      <c r="CN88" s="27"/>
+      <c r="CO88" s="27"/>
+      <c r="CP88" s="27"/>
+      <c r="CQ88" s="27"/>
+      <c r="CR88" s="27"/>
       <c r="CS88" s="10"/>
       <c r="CT88" s="10"/>
       <c r="CU88" s="10"/>
@@ -36653,148 +36748,149 @@
     </row>
     <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="22">
+      <c r="B96" s="35">
         <v>2000</v>
       </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="22">
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="35">
         <v>2001</v>
       </c>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="22">
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="35">
         <v>2002</v>
       </c>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="23"/>
-      <c r="N96" s="22">
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="35">
         <v>2003</v>
       </c>
-      <c r="O96" s="23"/>
-      <c r="P96" s="23"/>
-      <c r="Q96" s="23"/>
-      <c r="R96" s="22">
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="35">
         <v>2004</v>
       </c>
-      <c r="S96" s="23"/>
-      <c r="T96" s="23"/>
-      <c r="U96" s="23"/>
-      <c r="V96" s="22">
+      <c r="S96" s="36"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="36"/>
+      <c r="V96" s="35">
         <v>2005</v>
       </c>
-      <c r="W96" s="23"/>
-      <c r="X96" s="23"/>
-      <c r="Y96" s="23"/>
-      <c r="Z96" s="22">
+      <c r="W96" s="36"/>
+      <c r="X96" s="36"/>
+      <c r="Y96" s="36"/>
+      <c r="Z96" s="35">
         <v>2006</v>
       </c>
-      <c r="AA96" s="23"/>
-      <c r="AB96" s="23"/>
-      <c r="AC96" s="23"/>
-      <c r="AD96" s="22">
+      <c r="AA96" s="36"/>
+      <c r="AB96" s="36"/>
+      <c r="AC96" s="36"/>
+      <c r="AD96" s="35">
         <v>2007</v>
       </c>
-      <c r="AE96" s="23"/>
-      <c r="AF96" s="23"/>
-      <c r="AG96" s="23"/>
-      <c r="AH96" s="22">
+      <c r="AE96" s="36"/>
+      <c r="AF96" s="36"/>
+      <c r="AG96" s="36"/>
+      <c r="AH96" s="35">
         <v>2008</v>
       </c>
-      <c r="AI96" s="23"/>
-      <c r="AJ96" s="23"/>
-      <c r="AK96" s="23"/>
-      <c r="AL96" s="22">
+      <c r="AI96" s="36"/>
+      <c r="AJ96" s="36"/>
+      <c r="AK96" s="36"/>
+      <c r="AL96" s="35">
         <v>2009</v>
       </c>
-      <c r="AM96" s="23"/>
-      <c r="AN96" s="23"/>
-      <c r="AO96" s="23"/>
-      <c r="AP96" s="22">
+      <c r="AM96" s="36"/>
+      <c r="AN96" s="36"/>
+      <c r="AO96" s="36"/>
+      <c r="AP96" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="23"/>
-      <c r="AR96" s="23"/>
-      <c r="AS96" s="23"/>
-      <c r="AT96" s="22">
+      <c r="AQ96" s="36"/>
+      <c r="AR96" s="36"/>
+      <c r="AS96" s="36"/>
+      <c r="AT96" s="35">
         <v>2011</v>
       </c>
-      <c r="AU96" s="23"/>
-      <c r="AV96" s="23"/>
-      <c r="AW96" s="23"/>
-      <c r="AX96" s="22">
+      <c r="AU96" s="36"/>
+      <c r="AV96" s="36"/>
+      <c r="AW96" s="36"/>
+      <c r="AX96" s="35">
         <v>2012</v>
       </c>
-      <c r="AY96" s="23"/>
-      <c r="AZ96" s="23"/>
-      <c r="BA96" s="23"/>
-      <c r="BB96" s="22">
+      <c r="AY96" s="36"/>
+      <c r="AZ96" s="36"/>
+      <c r="BA96" s="36"/>
+      <c r="BB96" s="35">
         <v>2013</v>
       </c>
-      <c r="BC96" s="23"/>
-      <c r="BD96" s="23"/>
-      <c r="BE96" s="23"/>
-      <c r="BF96" s="22">
+      <c r="BC96" s="36"/>
+      <c r="BD96" s="36"/>
+      <c r="BE96" s="36"/>
+      <c r="BF96" s="35">
         <v>2014</v>
       </c>
-      <c r="BG96" s="23"/>
-      <c r="BH96" s="23"/>
-      <c r="BI96" s="23"/>
-      <c r="BJ96" s="22">
+      <c r="BG96" s="36"/>
+      <c r="BH96" s="36"/>
+      <c r="BI96" s="36"/>
+      <c r="BJ96" s="35">
         <v>2015</v>
       </c>
-      <c r="BK96" s="23"/>
-      <c r="BL96" s="23"/>
-      <c r="BM96" s="23"/>
-      <c r="BN96" s="22">
+      <c r="BK96" s="36"/>
+      <c r="BL96" s="36"/>
+      <c r="BM96" s="36"/>
+      <c r="BN96" s="35">
         <v>2016</v>
       </c>
-      <c r="BO96" s="23"/>
-      <c r="BP96" s="23"/>
-      <c r="BQ96" s="23"/>
-      <c r="BR96" s="22">
+      <c r="BO96" s="36"/>
+      <c r="BP96" s="36"/>
+      <c r="BQ96" s="36"/>
+      <c r="BR96" s="35">
         <v>2017</v>
       </c>
-      <c r="BS96" s="23"/>
-      <c r="BT96" s="23"/>
-      <c r="BU96" s="23"/>
-      <c r="BV96" s="22">
+      <c r="BS96" s="36"/>
+      <c r="BT96" s="36"/>
+      <c r="BU96" s="36"/>
+      <c r="BV96" s="35">
         <v>2018</v>
       </c>
-      <c r="BW96" s="23"/>
-      <c r="BX96" s="23"/>
-      <c r="BY96" s="23"/>
-      <c r="BZ96" s="22">
+      <c r="BW96" s="36"/>
+      <c r="BX96" s="36"/>
+      <c r="BY96" s="36"/>
+      <c r="BZ96" s="35">
         <v>2019</v>
       </c>
-      <c r="CA96" s="23"/>
-      <c r="CB96" s="23"/>
-      <c r="CC96" s="23"/>
-      <c r="CD96" s="22">
+      <c r="CA96" s="36"/>
+      <c r="CB96" s="36"/>
+      <c r="CC96" s="36"/>
+      <c r="CD96" s="35">
         <v>2020</v>
       </c>
-      <c r="CE96" s="22"/>
-      <c r="CF96" s="22"/>
-      <c r="CG96" s="22"/>
-      <c r="CH96" s="22">
+      <c r="CE96" s="35"/>
+      <c r="CF96" s="35"/>
+      <c r="CG96" s="35"/>
+      <c r="CH96" s="35">
         <v>2021</v>
       </c>
-      <c r="CI96" s="22"/>
-      <c r="CJ96" s="22"/>
-      <c r="CK96" s="22"/>
-      <c r="CL96" s="22">
+      <c r="CI96" s="35"/>
+      <c r="CJ96" s="35"/>
+      <c r="CK96" s="35"/>
+      <c r="CL96" s="34">
         <v>2022</v>
       </c>
-      <c r="CM96" s="22"/>
-      <c r="CN96" s="22"/>
-      <c r="CO96" s="22"/>
-      <c r="CP96" s="22">
+      <c r="CM96" s="34"/>
+      <c r="CN96" s="34"/>
+      <c r="CO96" s="34"/>
+      <c r="CP96" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ96" s="24"/>
+      <c r="CQ96" s="34"/>
+      <c r="CR96" s="34"/>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -37064,23 +37160,26 @@
       <c r="CK97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL97" s="7" t="s">
+      <c r="CL97" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CM97" s="7" t="s">
+      <c r="CM97" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CN97" s="7" t="s">
+      <c r="CN97" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CO97" s="7" t="s">
+      <c r="CO97" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CP97" s="7" t="s">
+      <c r="CP97" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CQ97" s="7" t="s">
+      <c r="CQ97" s="25" t="s">
         <v>7</v>
+      </c>
+      <c r="CR97" s="25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37354,25 +37453,27 @@
       <c r="CK99" s="16">
         <v>111.04905710404087</v>
       </c>
-      <c r="CL99" s="16">
+      <c r="CL99" s="33">
         <v>111.44039659485242</v>
       </c>
-      <c r="CM99" s="16">
+      <c r="CM99" s="33">
         <v>128.2866589087653</v>
       </c>
-      <c r="CN99" s="16">
+      <c r="CN99" s="33">
         <v>139.31231418081757</v>
       </c>
-      <c r="CO99" s="16">
+      <c r="CO99" s="33">
         <v>123.50895300182034</v>
       </c>
-      <c r="CP99" s="16">
+      <c r="CP99" s="33">
         <v>124.96604439146837</v>
       </c>
-      <c r="CQ99" s="16">
-        <v>143.06781777622626</v>
-      </c>
-      <c r="CR99" s="10"/>
+      <c r="CQ99" s="33">
+        <v>143.06781777622629</v>
+      </c>
+      <c r="CR99" s="33">
+        <v>147.72043405313892</v>
+      </c>
       <c r="CS99" s="10"/>
       <c r="CT99" s="10"/>
       <c r="CU99" s="10"/>
@@ -37700,25 +37801,27 @@
       <c r="CK100" s="16">
         <v>96.007127085427172</v>
       </c>
-      <c r="CL100" s="16">
+      <c r="CL100" s="33">
         <v>103.40005983270461</v>
       </c>
-      <c r="CM100" s="16">
+      <c r="CM100" s="33">
         <v>105.68793132655088</v>
       </c>
-      <c r="CN100" s="16">
+      <c r="CN100" s="33">
         <v>145.52041346807806</v>
       </c>
-      <c r="CO100" s="16">
+      <c r="CO100" s="33">
         <v>92.35656597458059</v>
       </c>
-      <c r="CP100" s="16">
+      <c r="CP100" s="33">
         <v>106.55510314601457</v>
       </c>
-      <c r="CQ100" s="16">
-        <v>104.12080693643611</v>
-      </c>
-      <c r="CR100" s="10"/>
+      <c r="CQ100" s="33">
+        <v>104.12080693643613</v>
+      </c>
+      <c r="CR100" s="33">
+        <v>141.61483333887023</v>
+      </c>
       <c r="CS100" s="10"/>
       <c r="CT100" s="10"/>
       <c r="CU100" s="10"/>
@@ -38046,25 +38149,27 @@
       <c r="CK101" s="16">
         <v>108.64928036835759</v>
       </c>
-      <c r="CL101" s="16">
+      <c r="CL101" s="33">
         <v>90.144563382725522</v>
       </c>
-      <c r="CM101" s="16">
+      <c r="CM101" s="33">
         <v>104.91420841713482</v>
       </c>
-      <c r="CN101" s="16">
+      <c r="CN101" s="33">
         <v>126.23217321504225</v>
       </c>
-      <c r="CO101" s="16">
+      <c r="CO101" s="33">
         <v>139.65345817177814</v>
       </c>
-      <c r="CP101" s="16">
+      <c r="CP101" s="33">
         <v>120.66677029953917</v>
       </c>
-      <c r="CQ101" s="16">
+      <c r="CQ101" s="33">
         <v>131.45787386825438</v>
       </c>
-      <c r="CR101" s="10"/>
+      <c r="CR101" s="33">
+        <v>126.59263059144148</v>
+      </c>
       <c r="CS101" s="10"/>
       <c r="CT101" s="10"/>
       <c r="CU101" s="10"/>
@@ -38392,25 +38497,27 @@
       <c r="CK102" s="16">
         <v>96.862947400733802</v>
       </c>
-      <c r="CL102" s="16">
+      <c r="CL102" s="33">
         <v>97.244644640328787</v>
       </c>
-      <c r="CM102" s="16">
+      <c r="CM102" s="33">
         <v>120.58121264491753</v>
       </c>
-      <c r="CN102" s="16">
+      <c r="CN102" s="33">
         <v>114.83900865274465</v>
       </c>
-      <c r="CO102" s="16">
+      <c r="CO102" s="33">
         <v>115.52979932111987</v>
       </c>
-      <c r="CP102" s="16">
+      <c r="CP102" s="33">
         <v>108.78936473222898</v>
       </c>
-      <c r="CQ102" s="16">
-        <v>130.30730636449826</v>
-      </c>
-      <c r="CR102" s="10"/>
+      <c r="CQ102" s="33">
+        <v>130.30730637495333</v>
+      </c>
+      <c r="CR102" s="33">
+        <v>115.91771285861903</v>
+      </c>
       <c r="CS102" s="10"/>
       <c r="CT102" s="10"/>
       <c r="CU102" s="10"/>
@@ -38738,25 +38845,27 @@
       <c r="CK103" s="16">
         <v>100.48116508940956</v>
       </c>
-      <c r="CL103" s="16">
+      <c r="CL103" s="33">
         <v>101.17588159218451</v>
       </c>
-      <c r="CM103" s="16">
+      <c r="CM103" s="33">
         <v>104.16644740118019</v>
       </c>
-      <c r="CN103" s="16">
+      <c r="CN103" s="33">
         <v>103.91686246986632</v>
       </c>
-      <c r="CO103" s="16">
+      <c r="CO103" s="33">
         <v>100.67310618795669</v>
       </c>
-      <c r="CP103" s="16">
+      <c r="CP103" s="33">
         <v>101.46578383170367</v>
       </c>
-      <c r="CQ103" s="16">
+      <c r="CQ103" s="33">
         <v>104.36523833133514</v>
       </c>
-      <c r="CR103" s="10"/>
+      <c r="CR103" s="33">
+        <v>104.08196711312956</v>
+      </c>
       <c r="CS103" s="10"/>
       <c r="CT103" s="10"/>
       <c r="CU103" s="10"/>
@@ -38905,13 +39014,13 @@
       <c r="CI104" s="10"/>
       <c r="CJ104" s="10"/>
       <c r="CK104" s="10"/>
-      <c r="CL104" s="10"/>
-      <c r="CM104" s="10"/>
-      <c r="CN104" s="10"/>
-      <c r="CO104" s="10"/>
-      <c r="CP104" s="10"/>
-      <c r="CQ104" s="10"/>
-      <c r="CR104" s="10"/>
+      <c r="CL104" s="27"/>
+      <c r="CM104" s="27"/>
+      <c r="CN104" s="27"/>
+      <c r="CO104" s="27"/>
+      <c r="CP104" s="27"/>
+      <c r="CQ104" s="27"/>
+      <c r="CR104" s="27"/>
       <c r="CS104" s="10"/>
       <c r="CT104" s="10"/>
       <c r="CU104" s="10"/>
@@ -39239,25 +39348,27 @@
       <c r="CK105" s="16">
         <v>105.62434371056453</v>
       </c>
-      <c r="CL105" s="16">
+      <c r="CL105" s="33">
         <v>104.0848011661212</v>
       </c>
-      <c r="CM105" s="16">
+      <c r="CM105" s="33">
         <v>120.67990287315418</v>
       </c>
-      <c r="CN105" s="16">
+      <c r="CN105" s="33">
         <v>129.72599329483037</v>
       </c>
-      <c r="CO105" s="16">
+      <c r="CO105" s="33">
         <v>120.94356317684468</v>
       </c>
-      <c r="CP105" s="16">
+      <c r="CP105" s="33">
         <v>117.88874545403625</v>
       </c>
-      <c r="CQ105" s="16">
-        <v>133.87555494352722</v>
-      </c>
-      <c r="CR105" s="10"/>
+      <c r="CQ105" s="33">
+        <v>133.92914368341764</v>
+      </c>
+      <c r="CR105" s="33">
+        <v>134.74553661092634</v>
+      </c>
       <c r="CS105" s="10"/>
       <c r="CT105" s="10"/>
       <c r="CU105" s="10"/>
@@ -39407,12 +39518,13 @@
       <c r="CI106" s="13"/>
       <c r="CJ106" s="13"/>
       <c r="CK106" s="13"/>
-      <c r="CL106" s="13"/>
-      <c r="CM106" s="13"/>
-      <c r="CN106" s="13"/>
-      <c r="CO106" s="13"/>
-      <c r="CP106" s="13"/>
-      <c r="CQ106" s="13"/>
+      <c r="CL106" s="30"/>
+      <c r="CM106" s="30"/>
+      <c r="CN106" s="30"/>
+      <c r="CO106" s="30"/>
+      <c r="CP106" s="30"/>
+      <c r="CQ106" s="30"/>
+      <c r="CR106" s="30"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -39451,148 +39563,149 @@
     </row>
     <row r="118" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="22">
+      <c r="B118" s="35">
         <v>2000</v>
       </c>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="22">
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="35">
         <v>2001</v>
       </c>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="22">
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="35">
         <v>2002</v>
       </c>
-      <c r="K118" s="23"/>
-      <c r="L118" s="23"/>
-      <c r="M118" s="23"/>
-      <c r="N118" s="22">
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="35">
         <v>2003</v>
       </c>
-      <c r="O118" s="23"/>
-      <c r="P118" s="23"/>
-      <c r="Q118" s="23"/>
-      <c r="R118" s="22">
+      <c r="O118" s="36"/>
+      <c r="P118" s="36"/>
+      <c r="Q118" s="36"/>
+      <c r="R118" s="35">
         <v>2004</v>
       </c>
-      <c r="S118" s="23"/>
-      <c r="T118" s="23"/>
-      <c r="U118" s="23"/>
-      <c r="V118" s="22">
+      <c r="S118" s="36"/>
+      <c r="T118" s="36"/>
+      <c r="U118" s="36"/>
+      <c r="V118" s="35">
         <v>2005</v>
       </c>
-      <c r="W118" s="23"/>
-      <c r="X118" s="23"/>
-      <c r="Y118" s="23"/>
-      <c r="Z118" s="22">
+      <c r="W118" s="36"/>
+      <c r="X118" s="36"/>
+      <c r="Y118" s="36"/>
+      <c r="Z118" s="35">
         <v>2006</v>
       </c>
-      <c r="AA118" s="23"/>
-      <c r="AB118" s="23"/>
-      <c r="AC118" s="23"/>
-      <c r="AD118" s="22">
+      <c r="AA118" s="36"/>
+      <c r="AB118" s="36"/>
+      <c r="AC118" s="36"/>
+      <c r="AD118" s="35">
         <v>2007</v>
       </c>
-      <c r="AE118" s="23"/>
-      <c r="AF118" s="23"/>
-      <c r="AG118" s="23"/>
-      <c r="AH118" s="22">
+      <c r="AE118" s="36"/>
+      <c r="AF118" s="36"/>
+      <c r="AG118" s="36"/>
+      <c r="AH118" s="35">
         <v>2008</v>
       </c>
-      <c r="AI118" s="23"/>
-      <c r="AJ118" s="23"/>
-      <c r="AK118" s="23"/>
-      <c r="AL118" s="22">
+      <c r="AI118" s="36"/>
+      <c r="AJ118" s="36"/>
+      <c r="AK118" s="36"/>
+      <c r="AL118" s="35">
         <v>2009</v>
       </c>
-      <c r="AM118" s="23"/>
-      <c r="AN118" s="23"/>
-      <c r="AO118" s="23"/>
-      <c r="AP118" s="22">
+      <c r="AM118" s="36"/>
+      <c r="AN118" s="36"/>
+      <c r="AO118" s="36"/>
+      <c r="AP118" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="23"/>
-      <c r="AR118" s="23"/>
-      <c r="AS118" s="23"/>
-      <c r="AT118" s="22">
+      <c r="AQ118" s="36"/>
+      <c r="AR118" s="36"/>
+      <c r="AS118" s="36"/>
+      <c r="AT118" s="35">
         <v>2011</v>
       </c>
-      <c r="AU118" s="23"/>
-      <c r="AV118" s="23"/>
-      <c r="AW118" s="23"/>
-      <c r="AX118" s="22">
+      <c r="AU118" s="36"/>
+      <c r="AV118" s="36"/>
+      <c r="AW118" s="36"/>
+      <c r="AX118" s="35">
         <v>2012</v>
       </c>
-      <c r="AY118" s="23"/>
-      <c r="AZ118" s="23"/>
-      <c r="BA118" s="23"/>
-      <c r="BB118" s="22">
+      <c r="AY118" s="36"/>
+      <c r="AZ118" s="36"/>
+      <c r="BA118" s="36"/>
+      <c r="BB118" s="35">
         <v>2013</v>
       </c>
-      <c r="BC118" s="23"/>
-      <c r="BD118" s="23"/>
-      <c r="BE118" s="23"/>
-      <c r="BF118" s="22">
+      <c r="BC118" s="36"/>
+      <c r="BD118" s="36"/>
+      <c r="BE118" s="36"/>
+      <c r="BF118" s="35">
         <v>2014</v>
       </c>
-      <c r="BG118" s="23"/>
-      <c r="BH118" s="23"/>
-      <c r="BI118" s="23"/>
-      <c r="BJ118" s="22">
+      <c r="BG118" s="36"/>
+      <c r="BH118" s="36"/>
+      <c r="BI118" s="36"/>
+      <c r="BJ118" s="35">
         <v>2015</v>
       </c>
-      <c r="BK118" s="23"/>
-      <c r="BL118" s="23"/>
-      <c r="BM118" s="23"/>
-      <c r="BN118" s="22">
+      <c r="BK118" s="36"/>
+      <c r="BL118" s="36"/>
+      <c r="BM118" s="36"/>
+      <c r="BN118" s="35">
         <v>2016</v>
       </c>
-      <c r="BO118" s="23"/>
-      <c r="BP118" s="23"/>
-      <c r="BQ118" s="23"/>
-      <c r="BR118" s="22">
+      <c r="BO118" s="36"/>
+      <c r="BP118" s="36"/>
+      <c r="BQ118" s="36"/>
+      <c r="BR118" s="35">
         <v>2017</v>
       </c>
-      <c r="BS118" s="23"/>
-      <c r="BT118" s="23"/>
-      <c r="BU118" s="23"/>
-      <c r="BV118" s="22">
+      <c r="BS118" s="36"/>
+      <c r="BT118" s="36"/>
+      <c r="BU118" s="36"/>
+      <c r="BV118" s="35">
         <v>2018</v>
       </c>
-      <c r="BW118" s="23"/>
-      <c r="BX118" s="23"/>
-      <c r="BY118" s="23"/>
-      <c r="BZ118" s="22">
+      <c r="BW118" s="36"/>
+      <c r="BX118" s="36"/>
+      <c r="BY118" s="36"/>
+      <c r="BZ118" s="35">
         <v>2019</v>
       </c>
-      <c r="CA118" s="23"/>
-      <c r="CB118" s="23"/>
-      <c r="CC118" s="23"/>
-      <c r="CD118" s="22">
+      <c r="CA118" s="36"/>
+      <c r="CB118" s="36"/>
+      <c r="CC118" s="36"/>
+      <c r="CD118" s="35">
         <v>2020</v>
       </c>
-      <c r="CE118" s="22"/>
-      <c r="CF118" s="22"/>
-      <c r="CG118" s="22"/>
-      <c r="CH118" s="22">
+      <c r="CE118" s="35"/>
+      <c r="CF118" s="35"/>
+      <c r="CG118" s="35"/>
+      <c r="CH118" s="35">
         <v>2021</v>
       </c>
-      <c r="CI118" s="22"/>
-      <c r="CJ118" s="22"/>
-      <c r="CK118" s="22"/>
-      <c r="CL118" s="22">
+      <c r="CI118" s="35"/>
+      <c r="CJ118" s="35"/>
+      <c r="CK118" s="35"/>
+      <c r="CL118" s="34">
         <v>2022</v>
       </c>
-      <c r="CM118" s="22"/>
-      <c r="CN118" s="22"/>
-      <c r="CO118" s="22"/>
-      <c r="CP118" s="22">
+      <c r="CM118" s="34"/>
+      <c r="CN118" s="34"/>
+      <c r="CO118" s="34"/>
+      <c r="CP118" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ118" s="24"/>
+      <c r="CQ118" s="34"/>
+      <c r="CR118" s="34"/>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
@@ -39862,23 +39975,26 @@
       <c r="CK119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL119" s="7" t="s">
+      <c r="CL119" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CM119" s="7" t="s">
+      <c r="CM119" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CN119" s="7" t="s">
+      <c r="CN119" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CO119" s="7" t="s">
+      <c r="CO119" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CP119" s="7" t="s">
+      <c r="CP119" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CQ119" s="7" t="s">
+      <c r="CQ119" s="25" t="s">
         <v>7</v>
+      </c>
+      <c r="CR119" s="25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40152,25 +40268,27 @@
       <c r="CK121" s="16">
         <v>58.598600961947668</v>
       </c>
-      <c r="CL121" s="16">
+      <c r="CL121" s="33">
         <v>53.616131504509667</v>
       </c>
-      <c r="CM121" s="16">
+      <c r="CM121" s="33">
         <v>50.61977224196967</v>
       </c>
-      <c r="CN121" s="16">
+      <c r="CN121" s="33">
         <v>56.764749697483886</v>
       </c>
-      <c r="CO121" s="16">
+      <c r="CO121" s="33">
         <v>55.126247661394714</v>
       </c>
-      <c r="CP121" s="16">
+      <c r="CP121" s="33">
         <v>51.296798831151669</v>
       </c>
-      <c r="CQ121" s="16">
-        <v>51.145729451718069</v>
-      </c>
-      <c r="CR121" s="10"/>
+      <c r="CQ121" s="33">
+        <v>51.358094339859093</v>
+      </c>
+      <c r="CR121" s="33">
+        <v>58.121403323666442</v>
+      </c>
       <c r="CS121" s="10"/>
       <c r="CT121" s="10"/>
       <c r="CU121" s="10"/>
@@ -40498,25 +40616,27 @@
       <c r="CK122" s="16">
         <v>3.8927123967253832</v>
       </c>
-      <c r="CL122" s="16">
+      <c r="CL122" s="33">
         <v>5.0908267485991949</v>
       </c>
-      <c r="CM122" s="16">
+      <c r="CM122" s="33">
         <v>3.9796375744605066</v>
       </c>
-      <c r="CN122" s="16">
+      <c r="CN122" s="33">
         <v>3.9298060529069749</v>
       </c>
-      <c r="CO122" s="16">
+      <c r="CO122" s="33">
         <v>3.809075300997748</v>
       </c>
-      <c r="CP122" s="16">
+      <c r="CP122" s="33">
         <v>5.3543034713730124</v>
       </c>
-      <c r="CQ122" s="16">
-        <v>3.5287639511801716</v>
-      </c>
-      <c r="CR122" s="10"/>
+      <c r="CQ122" s="33">
+        <v>3.4572669611616904</v>
+      </c>
+      <c r="CR122" s="33">
+        <v>3.8670987296531623</v>
+      </c>
       <c r="CS122" s="10"/>
       <c r="CT122" s="10"/>
       <c r="CU122" s="10"/>
@@ -40844,25 +40964,27 @@
       <c r="CK123" s="16">
         <v>6.1386427781459041</v>
       </c>
-      <c r="CL123" s="16">
+      <c r="CL123" s="33">
         <v>9.3123325818934433</v>
       </c>
-      <c r="CM123" s="16">
+      <c r="CM123" s="33">
         <v>10.496703751814623</v>
       </c>
-      <c r="CN123" s="16">
+      <c r="CN123" s="33">
         <v>11.258355688044233</v>
       </c>
-      <c r="CO123" s="16">
+      <c r="CO123" s="33">
         <v>13.883835109488398</v>
       </c>
-      <c r="CP123" s="16">
+      <c r="CP123" s="33">
         <v>14.920017822052811</v>
       </c>
-      <c r="CQ123" s="16">
-        <v>14.485060266276605</v>
-      </c>
-      <c r="CR123" s="10"/>
+      <c r="CQ123" s="33">
+        <v>14.456010778982243</v>
+      </c>
+      <c r="CR123" s="33">
+        <v>13.153477456806629</v>
+      </c>
       <c r="CS123" s="10"/>
       <c r="CT123" s="10"/>
       <c r="CU123" s="10"/>
@@ -41190,25 +41312,27 @@
       <c r="CK124" s="16">
         <v>26.430013245887856</v>
       </c>
-      <c r="CL124" s="16">
+      <c r="CL124" s="33">
         <v>27.546932919742321</v>
       </c>
-      <c r="CM124" s="16">
+      <c r="CM124" s="33">
         <v>29.634430259824729</v>
       </c>
-      <c r="CN124" s="16">
+      <c r="CN124" s="33">
         <v>24.803055295299227</v>
       </c>
-      <c r="CO124" s="16">
+      <c r="CO124" s="33">
         <v>23.60538100736407</v>
       </c>
-      <c r="CP124" s="16">
+      <c r="CP124" s="33">
         <v>24.577127304942881</v>
       </c>
-      <c r="CQ124" s="16">
-        <v>26.271369852367837</v>
-      </c>
-      <c r="CR124" s="10"/>
+      <c r="CQ124" s="33">
+        <v>26.168714629449685</v>
+      </c>
+      <c r="CR124" s="33">
+        <v>21.771720543332869</v>
+      </c>
       <c r="CS124" s="10"/>
       <c r="CT124" s="10"/>
       <c r="CU124" s="10"/>
@@ -41536,25 +41660,27 @@
       <c r="CK125" s="16">
         <v>4.9400306172931989</v>
       </c>
-      <c r="CL125" s="16">
+      <c r="CL125" s="33">
         <v>4.4337762452553848</v>
       </c>
-      <c r="CM125" s="16">
+      <c r="CM125" s="33">
         <v>5.2694561719304831</v>
       </c>
-      <c r="CN125" s="16">
+      <c r="CN125" s="33">
         <v>3.244033266265677</v>
       </c>
-      <c r="CO125" s="16">
+      <c r="CO125" s="33">
         <v>3.5754609207550541</v>
       </c>
-      <c r="CP125" s="16">
+      <c r="CP125" s="33">
         <v>3.8517525704796198</v>
       </c>
-      <c r="CQ125" s="16">
-        <v>4.5690764784573084</v>
-      </c>
-      <c r="CR125" s="10"/>
+      <c r="CQ125" s="33">
+        <v>4.5599132905472839</v>
+      </c>
+      <c r="CR125" s="33">
+        <v>3.0862999465408967</v>
+      </c>
       <c r="CS125" s="10"/>
       <c r="CT125" s="10"/>
       <c r="CU125" s="10"/>
@@ -41703,13 +41829,13 @@
       <c r="CI126" s="10"/>
       <c r="CJ126" s="10"/>
       <c r="CK126" s="10"/>
-      <c r="CL126" s="10"/>
-      <c r="CM126" s="10"/>
-      <c r="CN126" s="10"/>
-      <c r="CO126" s="10"/>
-      <c r="CP126" s="10"/>
-      <c r="CQ126" s="10"/>
-      <c r="CR126" s="10"/>
+      <c r="CL126" s="27"/>
+      <c r="CM126" s="27"/>
+      <c r="CN126" s="27"/>
+      <c r="CO126" s="27"/>
+      <c r="CP126" s="27"/>
+      <c r="CQ126" s="27"/>
+      <c r="CR126" s="27"/>
       <c r="CS126" s="10"/>
       <c r="CT126" s="10"/>
       <c r="CU126" s="10"/>
@@ -42037,25 +42163,27 @@
       <c r="CK127" s="16">
         <v>100</v>
       </c>
-      <c r="CL127" s="16">
+      <c r="CL127" s="33">
         <v>100</v>
       </c>
-      <c r="CM127" s="16">
+      <c r="CM127" s="33">
         <v>100</v>
       </c>
-      <c r="CN127" s="16">
+      <c r="CN127" s="33">
         <v>100</v>
       </c>
-      <c r="CO127" s="16">
+      <c r="CO127" s="33">
         <v>100</v>
       </c>
-      <c r="CP127" s="16">
+      <c r="CP127" s="33">
         <v>100</v>
       </c>
-      <c r="CQ127" s="16">
+      <c r="CQ127" s="33">
         <v>100</v>
       </c>
-      <c r="CR127" s="10"/>
+      <c r="CR127" s="33">
+        <v>100</v>
+      </c>
       <c r="CS127" s="10"/>
       <c r="CT127" s="10"/>
       <c r="CU127" s="10"/>
@@ -42205,12 +42333,13 @@
       <c r="CI128" s="13"/>
       <c r="CJ128" s="13"/>
       <c r="CK128" s="13"/>
-      <c r="CL128" s="13"/>
-      <c r="CM128" s="13"/>
-      <c r="CN128" s="13"/>
-      <c r="CO128" s="13"/>
-      <c r="CP128" s="13"/>
-      <c r="CQ128" s="13"/>
+      <c r="CL128" s="30"/>
+      <c r="CM128" s="30"/>
+      <c r="CN128" s="30"/>
+      <c r="CO128" s="30"/>
+      <c r="CP128" s="30"/>
+      <c r="CQ128" s="30"/>
+      <c r="CR128" s="30"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -42306,13 +42435,13 @@
       <c r="CI130" s="10"/>
       <c r="CJ130" s="10"/>
       <c r="CK130" s="10"/>
-      <c r="CL130" s="10"/>
-      <c r="CM130" s="10"/>
-      <c r="CN130" s="10"/>
-      <c r="CO130" s="10"/>
-      <c r="CP130" s="10"/>
-      <c r="CQ130" s="10"/>
-      <c r="CR130" s="10"/>
+      <c r="CL130" s="27"/>
+      <c r="CM130" s="27"/>
+      <c r="CN130" s="27"/>
+      <c r="CO130" s="27"/>
+      <c r="CP130" s="27"/>
+      <c r="CQ130" s="27"/>
+      <c r="CR130" s="27"/>
       <c r="CS130" s="10"/>
       <c r="CT130" s="10"/>
       <c r="CU130" s="10"/>
@@ -42461,13 +42590,13 @@
       <c r="CI131" s="10"/>
       <c r="CJ131" s="10"/>
       <c r="CK131" s="10"/>
-      <c r="CL131" s="10"/>
-      <c r="CM131" s="10"/>
-      <c r="CN131" s="10"/>
-      <c r="CO131" s="10"/>
-      <c r="CP131" s="10"/>
-      <c r="CQ131" s="10"/>
-      <c r="CR131" s="10"/>
+      <c r="CL131" s="27"/>
+      <c r="CM131" s="27"/>
+      <c r="CN131" s="27"/>
+      <c r="CO131" s="27"/>
+      <c r="CP131" s="27"/>
+      <c r="CQ131" s="27"/>
+      <c r="CR131" s="27"/>
       <c r="CS131" s="10"/>
       <c r="CT131" s="10"/>
       <c r="CU131" s="10"/>
@@ -42559,148 +42688,149 @@
     </row>
     <row r="140" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="22">
+      <c r="B140" s="35">
         <v>2000</v>
       </c>
-      <c r="C140" s="23"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="22">
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="35">
         <v>2001</v>
       </c>
-      <c r="G140" s="23"/>
-      <c r="H140" s="23"/>
-      <c r="I140" s="23"/>
-      <c r="J140" s="22">
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="35">
         <v>2002</v>
       </c>
-      <c r="K140" s="23"/>
-      <c r="L140" s="23"/>
-      <c r="M140" s="23"/>
-      <c r="N140" s="22">
+      <c r="K140" s="36"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="36"/>
+      <c r="N140" s="35">
         <v>2003</v>
       </c>
-      <c r="O140" s="23"/>
-      <c r="P140" s="23"/>
-      <c r="Q140" s="23"/>
-      <c r="R140" s="22">
+      <c r="O140" s="36"/>
+      <c r="P140" s="36"/>
+      <c r="Q140" s="36"/>
+      <c r="R140" s="35">
         <v>2004</v>
       </c>
-      <c r="S140" s="23"/>
-      <c r="T140" s="23"/>
-      <c r="U140" s="23"/>
-      <c r="V140" s="22">
+      <c r="S140" s="36"/>
+      <c r="T140" s="36"/>
+      <c r="U140" s="36"/>
+      <c r="V140" s="35">
         <v>2005</v>
       </c>
-      <c r="W140" s="23"/>
-      <c r="X140" s="23"/>
-      <c r="Y140" s="23"/>
-      <c r="Z140" s="22">
+      <c r="W140" s="36"/>
+      <c r="X140" s="36"/>
+      <c r="Y140" s="36"/>
+      <c r="Z140" s="35">
         <v>2006</v>
       </c>
-      <c r="AA140" s="23"/>
-      <c r="AB140" s="23"/>
-      <c r="AC140" s="23"/>
-      <c r="AD140" s="22">
+      <c r="AA140" s="36"/>
+      <c r="AB140" s="36"/>
+      <c r="AC140" s="36"/>
+      <c r="AD140" s="35">
         <v>2007</v>
       </c>
-      <c r="AE140" s="23"/>
-      <c r="AF140" s="23"/>
-      <c r="AG140" s="23"/>
-      <c r="AH140" s="22">
+      <c r="AE140" s="36"/>
+      <c r="AF140" s="36"/>
+      <c r="AG140" s="36"/>
+      <c r="AH140" s="35">
         <v>2008</v>
       </c>
-      <c r="AI140" s="23"/>
-      <c r="AJ140" s="23"/>
-      <c r="AK140" s="23"/>
-      <c r="AL140" s="22">
+      <c r="AI140" s="36"/>
+      <c r="AJ140" s="36"/>
+      <c r="AK140" s="36"/>
+      <c r="AL140" s="35">
         <v>2009</v>
       </c>
-      <c r="AM140" s="23"/>
-      <c r="AN140" s="23"/>
-      <c r="AO140" s="23"/>
-      <c r="AP140" s="22">
+      <c r="AM140" s="36"/>
+      <c r="AN140" s="36"/>
+      <c r="AO140" s="36"/>
+      <c r="AP140" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="23"/>
-      <c r="AR140" s="23"/>
-      <c r="AS140" s="23"/>
-      <c r="AT140" s="22">
+      <c r="AQ140" s="36"/>
+      <c r="AR140" s="36"/>
+      <c r="AS140" s="36"/>
+      <c r="AT140" s="35">
         <v>2011</v>
       </c>
-      <c r="AU140" s="23"/>
-      <c r="AV140" s="23"/>
-      <c r="AW140" s="23"/>
-      <c r="AX140" s="22">
+      <c r="AU140" s="36"/>
+      <c r="AV140" s="36"/>
+      <c r="AW140" s="36"/>
+      <c r="AX140" s="35">
         <v>2012</v>
       </c>
-      <c r="AY140" s="23"/>
-      <c r="AZ140" s="23"/>
-      <c r="BA140" s="23"/>
-      <c r="BB140" s="22">
+      <c r="AY140" s="36"/>
+      <c r="AZ140" s="36"/>
+      <c r="BA140" s="36"/>
+      <c r="BB140" s="35">
         <v>2013</v>
       </c>
-      <c r="BC140" s="23"/>
-      <c r="BD140" s="23"/>
-      <c r="BE140" s="23"/>
-      <c r="BF140" s="22">
+      <c r="BC140" s="36"/>
+      <c r="BD140" s="36"/>
+      <c r="BE140" s="36"/>
+      <c r="BF140" s="35">
         <v>2014</v>
       </c>
-      <c r="BG140" s="23"/>
-      <c r="BH140" s="23"/>
-      <c r="BI140" s="23"/>
-      <c r="BJ140" s="22">
+      <c r="BG140" s="36"/>
+      <c r="BH140" s="36"/>
+      <c r="BI140" s="36"/>
+      <c r="BJ140" s="35">
         <v>2015</v>
       </c>
-      <c r="BK140" s="23"/>
-      <c r="BL140" s="23"/>
-      <c r="BM140" s="23"/>
-      <c r="BN140" s="22">
+      <c r="BK140" s="36"/>
+      <c r="BL140" s="36"/>
+      <c r="BM140" s="36"/>
+      <c r="BN140" s="35">
         <v>2016</v>
       </c>
-      <c r="BO140" s="23"/>
-      <c r="BP140" s="23"/>
-      <c r="BQ140" s="23"/>
-      <c r="BR140" s="22">
+      <c r="BO140" s="36"/>
+      <c r="BP140" s="36"/>
+      <c r="BQ140" s="36"/>
+      <c r="BR140" s="35">
         <v>2017</v>
       </c>
-      <c r="BS140" s="23"/>
-      <c r="BT140" s="23"/>
-      <c r="BU140" s="23"/>
-      <c r="BV140" s="22">
+      <c r="BS140" s="36"/>
+      <c r="BT140" s="36"/>
+      <c r="BU140" s="36"/>
+      <c r="BV140" s="35">
         <v>2018</v>
       </c>
-      <c r="BW140" s="23"/>
-      <c r="BX140" s="23"/>
-      <c r="BY140" s="23"/>
-      <c r="BZ140" s="22">
+      <c r="BW140" s="36"/>
+      <c r="BX140" s="36"/>
+      <c r="BY140" s="36"/>
+      <c r="BZ140" s="35">
         <v>2019</v>
       </c>
-      <c r="CA140" s="23"/>
-      <c r="CB140" s="23"/>
-      <c r="CC140" s="23"/>
-      <c r="CD140" s="22">
+      <c r="CA140" s="36"/>
+      <c r="CB140" s="36"/>
+      <c r="CC140" s="36"/>
+      <c r="CD140" s="35">
         <v>2020</v>
       </c>
-      <c r="CE140" s="22"/>
-      <c r="CF140" s="22"/>
-      <c r="CG140" s="22"/>
-      <c r="CH140" s="22">
+      <c r="CE140" s="35"/>
+      <c r="CF140" s="35"/>
+      <c r="CG140" s="35"/>
+      <c r="CH140" s="35">
         <v>2021</v>
       </c>
-      <c r="CI140" s="22"/>
-      <c r="CJ140" s="22"/>
-      <c r="CK140" s="22"/>
-      <c r="CL140" s="22">
+      <c r="CI140" s="35"/>
+      <c r="CJ140" s="35"/>
+      <c r="CK140" s="35"/>
+      <c r="CL140" s="34">
         <v>2022</v>
       </c>
-      <c r="CM140" s="22"/>
-      <c r="CN140" s="22"/>
-      <c r="CO140" s="22"/>
-      <c r="CP140" s="22">
+      <c r="CM140" s="34"/>
+      <c r="CN140" s="34"/>
+      <c r="CO140" s="34"/>
+      <c r="CP140" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ140" s="24"/>
+      <c r="CQ140" s="34"/>
+      <c r="CR140" s="34"/>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
@@ -42970,23 +43100,26 @@
       <c r="CK141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL141" s="7" t="s">
+      <c r="CL141" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CM141" s="7" t="s">
+      <c r="CM141" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CN141" s="7" t="s">
+      <c r="CN141" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CO141" s="7" t="s">
+      <c r="CO141" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CP141" s="7" t="s">
+      <c r="CP141" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CQ141" s="7" t="s">
+      <c r="CQ141" s="25" t="s">
         <v>7</v>
+      </c>
+      <c r="CR141" s="25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43260,25 +43393,27 @@
       <c r="CK143" s="16">
         <v>55.736076742769171</v>
       </c>
-      <c r="CL143" s="16">
+      <c r="CL143" s="33">
         <v>50.077212191124531</v>
       </c>
-      <c r="CM143" s="16">
+      <c r="CM143" s="33">
         <v>47.618273401028581</v>
       </c>
-      <c r="CN143" s="16">
+      <c r="CN143" s="33">
         <v>52.858669256478954</v>
       </c>
-      <c r="CO143" s="16">
+      <c r="CO143" s="33">
         <v>53.981226904579238</v>
       </c>
-      <c r="CP143" s="16">
+      <c r="CP143" s="33">
         <v>48.391667428223428</v>
       </c>
-      <c r="CQ143" s="16">
-        <v>47.859560729793017</v>
-      </c>
-      <c r="CR143" s="10"/>
+      <c r="CQ143" s="33">
+        <v>48.077518082424334</v>
+      </c>
+      <c r="CR143" s="33">
+        <v>53.016359785473412</v>
+      </c>
       <c r="CS143" s="10"/>
       <c r="CT143" s="10"/>
       <c r="CU143" s="10"/>
@@ -43606,25 +43741,27 @@
       <c r="CK144" s="16">
         <v>4.2826528054760189</v>
       </c>
-      <c r="CL144" s="16">
+      <c r="CL144" s="33">
         <v>5.1245394901746684</v>
       </c>
-      <c r="CM144" s="16">
+      <c r="CM144" s="33">
         <v>4.544154379106458</v>
       </c>
-      <c r="CN144" s="16">
+      <c r="CN144" s="33">
         <v>3.5032747744441046</v>
       </c>
-      <c r="CO144" s="16">
+      <c r="CO144" s="33">
         <v>4.9880929899274751</v>
       </c>
-      <c r="CP144" s="16">
+      <c r="CP144" s="33">
         <v>5.9238093754683261</v>
       </c>
-      <c r="CQ144" s="16">
-        <v>4.5371837400123143</v>
-      </c>
-      <c r="CR144" s="10"/>
+      <c r="CQ144" s="33">
+        <v>4.4470343365282163</v>
+      </c>
+      <c r="CR144" s="33">
+        <v>3.6795177536781609</v>
+      </c>
       <c r="CS144" s="10"/>
       <c r="CT144" s="10"/>
       <c r="CU144" s="10"/>
@@ -43952,25 +44089,27 @@
       <c r="CK145" s="16">
         <v>5.9677350141390466</v>
       </c>
-      <c r="CL145" s="16">
+      <c r="CL145" s="33">
         <v>10.75242087605378</v>
       </c>
-      <c r="CM145" s="16">
+      <c r="CM145" s="33">
         <v>12.074067072219124</v>
       </c>
-      <c r="CN145" s="16">
+      <c r="CN145" s="33">
         <v>11.569961423463816</v>
       </c>
-      <c r="CO145" s="16">
+      <c r="CO145" s="33">
         <v>12.023765903712063</v>
       </c>
-      <c r="CP145" s="16">
+      <c r="CP145" s="33">
         <v>14.576524910938016</v>
       </c>
-      <c r="CQ145" s="16">
-        <v>14.75145934188512</v>
-      </c>
-      <c r="CR145" s="10"/>
+      <c r="CQ145" s="33">
+        <v>14.727768582714686</v>
+      </c>
+      <c r="CR145" s="33">
+        <v>14.000596795694964</v>
+      </c>
       <c r="CS145" s="10"/>
       <c r="CT145" s="10"/>
       <c r="CU145" s="10"/>
@@ -44298,25 +44437,27 @@
       <c r="CK146" s="16">
         <v>28.82064688584196</v>
       </c>
-      <c r="CL146" s="16">
+      <c r="CL146" s="33">
         <v>29.484575179359346</v>
       </c>
-      <c r="CM146" s="16">
+      <c r="CM146" s="33">
         <v>29.658684690692148</v>
       </c>
-      <c r="CN146" s="16">
+      <c r="CN146" s="33">
         <v>28.018362598886764</v>
       </c>
-      <c r="CO146" s="16">
+      <c r="CO146" s="33">
         <v>24.711536815209563</v>
       </c>
-      <c r="CP146" s="16">
+      <c r="CP146" s="33">
         <v>26.632812058194755</v>
       </c>
-      <c r="CQ146" s="16">
-        <v>26.990767565053549</v>
-      </c>
-      <c r="CR146" s="10"/>
+      <c r="CQ146" s="33">
+        <v>26.896063153459345</v>
+      </c>
+      <c r="CR146" s="33">
+        <v>25.30797144982132</v>
+      </c>
       <c r="CS146" s="10"/>
       <c r="CT146" s="10"/>
       <c r="CU146" s="10"/>
@@ -44644,25 +44785,27 @@
       <c r="CK147" s="16">
         <v>5.1928885517738097</v>
       </c>
-      <c r="CL147" s="16">
+      <c r="CL147" s="33">
         <v>4.561252263287682</v>
       </c>
-      <c r="CM147" s="16">
+      <c r="CM147" s="33">
         <v>6.1048204569536733</v>
       </c>
-      <c r="CN147" s="16">
+      <c r="CN147" s="33">
         <v>4.0497319467263679</v>
       </c>
-      <c r="CO147" s="16">
+      <c r="CO147" s="33">
         <v>4.2953773865716744</v>
       </c>
-      <c r="CP147" s="16">
+      <c r="CP147" s="33">
         <v>4.475186227175449</v>
       </c>
-      <c r="CQ147" s="16">
-        <v>5.861028623255998</v>
-      </c>
-      <c r="CR147" s="10"/>
+      <c r="CQ147" s="33">
+        <v>5.8516158448734332</v>
+      </c>
+      <c r="CR147" s="33">
+        <v>3.9955542153321448</v>
+      </c>
       <c r="CS147" s="10"/>
       <c r="CT147" s="10"/>
       <c r="CU147" s="10"/>
@@ -44811,13 +44954,13 @@
       <c r="CI148" s="10"/>
       <c r="CJ148" s="10"/>
       <c r="CK148" s="10"/>
-      <c r="CL148" s="10"/>
-      <c r="CM148" s="10"/>
-      <c r="CN148" s="10"/>
-      <c r="CO148" s="10"/>
-      <c r="CP148" s="10"/>
-      <c r="CQ148" s="10"/>
-      <c r="CR148" s="10"/>
+      <c r="CL148" s="27"/>
+      <c r="CM148" s="27"/>
+      <c r="CN148" s="27"/>
+      <c r="CO148" s="27"/>
+      <c r="CP148" s="27"/>
+      <c r="CQ148" s="27"/>
+      <c r="CR148" s="27"/>
       <c r="CS148" s="10"/>
       <c r="CT148" s="10"/>
       <c r="CU148" s="10"/>
@@ -45145,25 +45288,27 @@
       <c r="CK149" s="16">
         <v>100</v>
       </c>
-      <c r="CL149" s="16">
+      <c r="CL149" s="33">
         <v>100</v>
       </c>
-      <c r="CM149" s="16">
+      <c r="CM149" s="33">
         <v>100</v>
       </c>
-      <c r="CN149" s="16">
+      <c r="CN149" s="33">
         <v>100</v>
       </c>
-      <c r="CO149" s="16">
+      <c r="CO149" s="33">
         <v>100</v>
       </c>
-      <c r="CP149" s="16">
+      <c r="CP149" s="33">
         <v>100</v>
       </c>
-      <c r="CQ149" s="16">
+      <c r="CQ149" s="33">
         <v>100</v>
       </c>
-      <c r="CR149" s="10"/>
+      <c r="CR149" s="33">
+        <v>100</v>
+      </c>
       <c r="CS149" s="10"/>
       <c r="CT149" s="10"/>
       <c r="CU149" s="10"/>
@@ -45313,12 +45458,13 @@
       <c r="CI150" s="13"/>
       <c r="CJ150" s="13"/>
       <c r="CK150" s="13"/>
-      <c r="CL150" s="13"/>
-      <c r="CM150" s="13"/>
-      <c r="CN150" s="13"/>
-      <c r="CO150" s="13"/>
-      <c r="CP150" s="13"/>
-      <c r="CQ150" s="13"/>
+      <c r="CL150" s="30"/>
+      <c r="CM150" s="30"/>
+      <c r="CN150" s="30"/>
+      <c r="CO150" s="30"/>
+      <c r="CP150" s="30"/>
+      <c r="CQ150" s="30"/>
+      <c r="CR150" s="30"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -45415,13 +45561,13 @@
       <c r="CI152" s="1"/>
       <c r="CJ152" s="1"/>
       <c r="CK152" s="1"/>
-      <c r="CL152" s="1"/>
-      <c r="CM152" s="1"/>
-      <c r="CN152" s="1"/>
-      <c r="CO152" s="1"/>
-      <c r="CP152" s="1"/>
-      <c r="CQ152" s="1"/>
-      <c r="CR152" s="17"/>
+      <c r="CL152" s="23"/>
+      <c r="CM152" s="23"/>
+      <c r="CN152" s="23"/>
+      <c r="CO152" s="23"/>
+      <c r="CP152" s="23"/>
+      <c r="CQ152" s="23"/>
+      <c r="CR152" s="23"/>
       <c r="CS152" s="17"/>
       <c r="CT152" s="17"/>
       <c r="CU152" s="17"/>
@@ -45571,13 +45717,13 @@
       <c r="CI153" s="1"/>
       <c r="CJ153" s="1"/>
       <c r="CK153" s="1"/>
-      <c r="CL153" s="1"/>
-      <c r="CM153" s="1"/>
-      <c r="CN153" s="1"/>
-      <c r="CO153" s="1"/>
-      <c r="CP153" s="1"/>
-      <c r="CQ153" s="1"/>
-      <c r="CR153" s="17"/>
+      <c r="CL153" s="23"/>
+      <c r="CM153" s="23"/>
+      <c r="CN153" s="23"/>
+      <c r="CO153" s="23"/>
+      <c r="CP153" s="23"/>
+      <c r="CQ153" s="23"/>
+      <c r="CR153" s="23"/>
       <c r="CS153" s="17"/>
       <c r="CT153" s="17"/>
       <c r="CU153" s="17"/>
@@ -45638,7 +45784,12 @@
       <c r="EX153" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
+  <mergeCells count="166">
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP31:CR31"/>
+    <mergeCell ref="CL53:CN53"/>
+    <mergeCell ref="CL75:CN75"/>
+    <mergeCell ref="CP96:CR96"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL31:CO31"/>
     <mergeCell ref="CD53:CG53"/>
@@ -45646,15 +45797,6 @@
     <mergeCell ref="CH96:CK96"/>
     <mergeCell ref="CH118:CK118"/>
     <mergeCell ref="CH140:CK140"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP31:CQ31"/>
-    <mergeCell ref="CP96:CQ96"/>
-    <mergeCell ref="CP118:CQ118"/>
-    <mergeCell ref="CP140:CQ140"/>
-    <mergeCell ref="CL53:CO53"/>
-    <mergeCell ref="CP53:CQ53"/>
-    <mergeCell ref="CL75:CO75"/>
-    <mergeCell ref="CP75:CQ75"/>
     <mergeCell ref="CL96:CO96"/>
     <mergeCell ref="CL118:CO118"/>
     <mergeCell ref="CL140:CO140"/>
@@ -45746,6 +45888,9 @@
     <mergeCell ref="AX96:BA96"/>
     <mergeCell ref="BF75:BI75"/>
     <mergeCell ref="BJ75:BM75"/>
+    <mergeCell ref="AD96:AG96"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="AL96:AO96"/>
     <mergeCell ref="AL140:AO140"/>
     <mergeCell ref="AP140:AS140"/>
     <mergeCell ref="AT140:AW140"/>
@@ -45758,16 +45903,8 @@
     <mergeCell ref="AX118:BA118"/>
     <mergeCell ref="BB118:BE118"/>
     <mergeCell ref="BF118:BI118"/>
-    <mergeCell ref="Z118:AC118"/>
-    <mergeCell ref="AD118:AG118"/>
-    <mergeCell ref="AH118:AK118"/>
-    <mergeCell ref="BN75:BQ75"/>
-    <mergeCell ref="AL75:AO75"/>
-    <mergeCell ref="AP75:AS75"/>
-    <mergeCell ref="AT75:AW75"/>
-    <mergeCell ref="AD96:AG96"/>
-    <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="BN31:BQ31"/>
+    <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="B96:E96"/>
     <mergeCell ref="F96:I96"/>
     <mergeCell ref="J96:M96"/>
@@ -45783,6 +45920,15 @@
     <mergeCell ref="N118:Q118"/>
     <mergeCell ref="R118:U118"/>
     <mergeCell ref="V118:Y118"/>
+    <mergeCell ref="Z118:AC118"/>
+    <mergeCell ref="AD118:AG118"/>
+    <mergeCell ref="AH118:AK118"/>
+    <mergeCell ref="BN75:BQ75"/>
+    <mergeCell ref="AL75:AO75"/>
+    <mergeCell ref="AP75:AS75"/>
+    <mergeCell ref="AT75:AW75"/>
+    <mergeCell ref="CP118:CR118"/>
+    <mergeCell ref="CP140:CR140"/>
     <mergeCell ref="Z140:AC140"/>
     <mergeCell ref="AD140:AG140"/>
     <mergeCell ref="AH140:AK140"/>
@@ -45805,17 +45951,15 @@
     <mergeCell ref="BN53:BQ53"/>
     <mergeCell ref="BF31:BI31"/>
     <mergeCell ref="BJ31:BM31"/>
-    <mergeCell ref="BN31:BQ31"/>
-    <mergeCell ref="BF9:BI9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="94" man="1"/>
-    <brk id="88" max="94" man="1"/>
-    <brk id="109" max="94" man="1"/>
+    <brk id="44" max="95" man="1"/>
+    <brk id="88" max="95" man="1"/>
+    <brk id="109" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D73C13-2433-4193-BBDA-62ECF2D42ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A7D74A-80A4-4FA4-8508-E85084F020A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CR$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CS$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -626,13 +626,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -752,31 +752,22 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23325,9 +23316,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23365,7 +23356,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23471,7 +23462,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23613,7 +23604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23626,18 +23617,17 @@
   </sheetPr>
   <dimension ref="A1:EX153"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CL4" sqref="CL1:CR1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="89" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="96" width="10" style="23" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="97" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23652,7 +23642,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23662,7 +23652,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23752,13 +23742,14 @@
       <c r="CI6" s="4"/>
       <c r="CJ6" s="4"/>
       <c r="CK6" s="4"/>
-      <c r="CL6" s="24"/>
-      <c r="CM6" s="24"/>
-      <c r="CN6" s="24"/>
-      <c r="CO6" s="24"/>
-      <c r="CP6" s="24"/>
-      <c r="CQ6" s="24"/>
-      <c r="CR6" s="24"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
+      <c r="CO6" s="4"/>
+      <c r="CP6" s="4"/>
+      <c r="CQ6" s="4"/>
+      <c r="CR6" s="4"/>
+      <c r="CS6" s="4"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23852,13 +23843,14 @@
       <c r="CI7" s="4"/>
       <c r="CJ7" s="4"/>
       <c r="CK7" s="4"/>
-      <c r="CL7" s="24"/>
-      <c r="CM7" s="24"/>
-      <c r="CN7" s="24"/>
-      <c r="CO7" s="24"/>
-      <c r="CP7" s="24"/>
-      <c r="CQ7" s="24"/>
-      <c r="CR7" s="24"/>
+      <c r="CL7" s="4"/>
+      <c r="CM7" s="4"/>
+      <c r="CN7" s="4"/>
+      <c r="CO7" s="4"/>
+      <c r="CP7" s="4"/>
+      <c r="CQ7" s="4"/>
+      <c r="CR7" s="4"/>
+      <c r="CS7" s="4"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23949,159 +23941,161 @@
       <c r="CI8" s="4"/>
       <c r="CJ8" s="4"/>
       <c r="CK8" s="4"/>
-      <c r="CL8" s="24"/>
-      <c r="CM8" s="24"/>
-      <c r="CN8" s="24"/>
-      <c r="CO8" s="24"/>
-      <c r="CP8" s="24"/>
-      <c r="CQ8" s="24"/>
-      <c r="CR8" s="24"/>
+      <c r="CL8" s="4"/>
+      <c r="CM8" s="4"/>
+      <c r="CN8" s="4"/>
+      <c r="CO8" s="4"/>
+      <c r="CP8" s="4"/>
+      <c r="CQ8" s="4"/>
+      <c r="CR8" s="4"/>
+      <c r="CS8" s="4"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="35">
+      <c r="B9" s="27">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27">
         <v>2001</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27">
         <v>2002</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27">
         <v>2003</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27">
         <v>2004</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35">
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27">
         <v>2005</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27">
         <v>2006</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35">
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27">
         <v>2007</v>
       </c>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35">
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27">
         <v>2008</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35">
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27">
         <v>2009</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35">
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35">
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27">
         <v>2011</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35">
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27"/>
+      <c r="AX9" s="27">
         <v>2012</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35">
+      <c r="AY9" s="27"/>
+      <c r="AZ9" s="27"/>
+      <c r="BA9" s="27"/>
+      <c r="BB9" s="27">
         <v>2013</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35">
+      <c r="BC9" s="27"/>
+      <c r="BD9" s="27"/>
+      <c r="BE9" s="27"/>
+      <c r="BF9" s="27">
         <v>2014</v>
       </c>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35">
+      <c r="BG9" s="27"/>
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="27"/>
+      <c r="BJ9" s="27">
         <v>2015</v>
       </c>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35">
+      <c r="BK9" s="27"/>
+      <c r="BL9" s="27"/>
+      <c r="BM9" s="27"/>
+      <c r="BN9" s="27">
         <v>2016</v>
       </c>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
-      <c r="BR9" s="35">
+      <c r="BO9" s="27"/>
+      <c r="BP9" s="27"/>
+      <c r="BQ9" s="27"/>
+      <c r="BR9" s="27">
         <v>2017</v>
       </c>
-      <c r="BS9" s="35"/>
-      <c r="BT9" s="35"/>
-      <c r="BU9" s="35"/>
-      <c r="BV9" s="35">
+      <c r="BS9" s="27"/>
+      <c r="BT9" s="27"/>
+      <c r="BU9" s="27"/>
+      <c r="BV9" s="27">
         <v>2018</v>
       </c>
-      <c r="BW9" s="35"/>
-      <c r="BX9" s="35"/>
-      <c r="BY9" s="35"/>
-      <c r="BZ9" s="35">
+      <c r="BW9" s="27"/>
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="27"/>
+      <c r="BZ9" s="27">
         <v>2019</v>
       </c>
-      <c r="CA9" s="35"/>
-      <c r="CB9" s="35"/>
-      <c r="CC9" s="35"/>
-      <c r="CD9" s="35">
+      <c r="CA9" s="27"/>
+      <c r="CB9" s="27"/>
+      <c r="CC9" s="27"/>
+      <c r="CD9" s="27">
         <v>2020</v>
       </c>
-      <c r="CE9" s="35"/>
-      <c r="CF9" s="35"/>
-      <c r="CG9" s="35"/>
-      <c r="CH9" s="35">
+      <c r="CE9" s="27"/>
+      <c r="CF9" s="27"/>
+      <c r="CG9" s="27"/>
+      <c r="CH9" s="27">
         <v>2021</v>
       </c>
-      <c r="CI9" s="35"/>
-      <c r="CJ9" s="35"/>
-      <c r="CK9" s="35"/>
-      <c r="CL9" s="34">
+      <c r="CI9" s="27"/>
+      <c r="CJ9" s="27"/>
+      <c r="CK9" s="27"/>
+      <c r="CL9" s="26">
         <v>2022</v>
       </c>
-      <c r="CM9" s="34"/>
-      <c r="CN9" s="34"/>
-      <c r="CO9" s="34"/>
-      <c r="CP9" s="34">
+      <c r="CM9" s="26"/>
+      <c r="CN9" s="26"/>
+      <c r="CO9" s="26"/>
+      <c r="CP9" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="34"/>
-      <c r="CR9" s="34"/>
+      <c r="CQ9" s="26"/>
+      <c r="CR9" s="26"/>
+      <c r="CS9" s="26"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24371,26 +24365,29 @@
       <c r="CK10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL10" s="25" t="s">
+      <c r="CL10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CM10" s="25" t="s">
+      <c r="CM10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CN10" s="25" t="s">
+      <c r="CN10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO10" s="25" t="s">
+      <c r="CO10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP10" s="25" t="s">
+      <c r="CP10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="25" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CR10" s="25" t="s">
+      <c r="CR10" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CS10" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24664,28 +24661,30 @@
       <c r="CK12" s="19">
         <v>102445.11283825984</v>
       </c>
-      <c r="CL12" s="26">
+      <c r="CL12" s="22">
         <v>95112.941061584192</v>
       </c>
-      <c r="CM12" s="26">
+      <c r="CM12" s="22">
         <v>86138.101602379815</v>
       </c>
-      <c r="CN12" s="26">
+      <c r="CN12" s="22">
         <v>125364.61590883185</v>
       </c>
-      <c r="CO12" s="26">
+      <c r="CO12" s="22">
         <v>131260.92863027516</v>
       </c>
-      <c r="CP12" s="26">
+      <c r="CP12" s="22">
         <v>118117.03890907811</v>
       </c>
-      <c r="CQ12" s="26">
+      <c r="CQ12" s="22">
         <v>113940.42920225172</v>
       </c>
-      <c r="CR12" s="26">
-        <v>148794.34241630137</v>
-      </c>
-      <c r="CS12" s="10"/>
+      <c r="CR12" s="22">
+        <v>148839.642222564</v>
+      </c>
+      <c r="CS12" s="22">
+        <v>150770.43638677176</v>
+      </c>
       <c r="CT12" s="10"/>
       <c r="CU12" s="10"/>
       <c r="CV12" s="10"/>
@@ -25012,28 +25011,30 @@
       <c r="CK13" s="19">
         <v>6805.4416689638665</v>
       </c>
-      <c r="CL13" s="26">
+      <c r="CL13" s="22">
         <v>9030.929515187514</v>
       </c>
-      <c r="CM13" s="26">
+      <c r="CM13" s="22">
         <v>6772.0262369198845</v>
       </c>
-      <c r="CN13" s="26">
+      <c r="CN13" s="22">
         <v>8678.9535591085787</v>
       </c>
-      <c r="CO13" s="26">
+      <c r="CO13" s="22">
         <v>9069.7767840590877</v>
       </c>
-      <c r="CP13" s="26">
+      <c r="CP13" s="22">
         <v>12328.926675149785</v>
       </c>
-      <c r="CQ13" s="26">
+      <c r="CQ13" s="22">
         <v>7670.1148374931745</v>
       </c>
-      <c r="CR13" s="26">
-        <v>9900.0089404819773</v>
-      </c>
-      <c r="CS13" s="10"/>
+      <c r="CR13" s="22">
+        <v>9543.5585049955826</v>
+      </c>
+      <c r="CS13" s="22">
+        <v>10396.754808541082</v>
+      </c>
       <c r="CT13" s="10"/>
       <c r="CU13" s="10"/>
       <c r="CV13" s="10"/>
@@ -25360,28 +25361,30 @@
       <c r="CK14" s="19">
         <v>10731.893624718097</v>
       </c>
-      <c r="CL14" s="26">
+      <c r="CL14" s="22">
         <v>16519.717390147831</v>
       </c>
-      <c r="CM14" s="26">
+      <c r="CM14" s="22">
         <v>17861.916287213768</v>
       </c>
-      <c r="CN14" s="26">
+      <c r="CN14" s="22">
         <v>24864.012333683175</v>
       </c>
-      <c r="CO14" s="26">
+      <c r="CO14" s="22">
         <v>33058.754526789751</v>
       </c>
-      <c r="CP14" s="26">
+      <c r="CP14" s="22">
         <v>34355.132596331357</v>
       </c>
-      <c r="CQ14" s="26">
+      <c r="CQ14" s="22">
         <v>32071.36273028102</v>
       </c>
-      <c r="CR14" s="26">
-        <v>33673.705670424679</v>
-      </c>
-      <c r="CS14" s="10"/>
+      <c r="CR14" s="22">
+        <v>33609.41579652451</v>
+      </c>
+      <c r="CS14" s="22">
+        <v>38403.37280716536</v>
+      </c>
       <c r="CT14" s="10"/>
       <c r="CU14" s="10"/>
       <c r="CV14" s="10"/>
@@ -25708,28 +25711,30 @@
       <c r="CK15" s="19">
         <v>46206.319687562878</v>
       </c>
-      <c r="CL15" s="26">
+      <c r="CL15" s="22">
         <v>48867.192274073153</v>
       </c>
-      <c r="CM15" s="26">
+      <c r="CM15" s="22">
         <v>50427.993876530629</v>
       </c>
-      <c r="CN15" s="26">
+      <c r="CN15" s="22">
         <v>54777.401768381824</v>
       </c>
-      <c r="CO15" s="26">
+      <c r="CO15" s="22">
         <v>56206.695778206282</v>
       </c>
-      <c r="CP15" s="26">
+      <c r="CP15" s="22">
         <v>56591.78678394208</v>
       </c>
-      <c r="CQ15" s="26">
+      <c r="CQ15" s="22">
         <v>58056.565666546907</v>
       </c>
-      <c r="CR15" s="26">
-        <v>55736.934352333483</v>
-      </c>
-      <c r="CS15" s="10"/>
+      <c r="CR15" s="22">
+        <v>57415.677203007566</v>
+      </c>
+      <c r="CS15" s="22">
+        <v>59814.001236860902</v>
+      </c>
       <c r="CT15" s="10"/>
       <c r="CU15" s="10"/>
       <c r="CV15" s="10"/>
@@ -26056,28 +26061,30 @@
       <c r="CK16" s="19">
         <v>8636.4176909564103</v>
       </c>
-      <c r="CL16" s="26">
+      <c r="CL16" s="22">
         <v>7865.3473658344301</v>
       </c>
-      <c r="CM16" s="26">
+      <c r="CM16" s="22">
         <v>8966.8706717470923</v>
       </c>
-      <c r="CN16" s="26">
+      <c r="CN16" s="22">
         <v>7164.4283924129832</v>
       </c>
-      <c r="CO16" s="26">
+      <c r="CO16" s="22">
         <v>8513.5183446965111</v>
       </c>
-      <c r="CP16" s="26">
+      <c r="CP16" s="22">
         <v>8869.1228030236252</v>
       </c>
-      <c r="CQ16" s="26">
+      <c r="CQ16" s="22">
         <v>10116.389327295956</v>
       </c>
-      <c r="CR16" s="26">
+      <c r="CR16" s="22">
         <v>7901.1163665077493</v>
       </c>
-      <c r="CS16" s="10"/>
+      <c r="CS16" s="22">
+        <v>9040.334384281914</v>
+      </c>
       <c r="CT16" s="10"/>
       <c r="CU16" s="10"/>
       <c r="CV16" s="10"/>
@@ -26225,13 +26232,13 @@
       <c r="CI17" s="10"/>
       <c r="CJ17" s="10"/>
       <c r="CK17" s="10"/>
-      <c r="CL17" s="27"/>
-      <c r="CM17" s="27"/>
-      <c r="CN17" s="27"/>
-      <c r="CO17" s="27"/>
-      <c r="CP17" s="27"/>
-      <c r="CQ17" s="27"/>
-      <c r="CR17" s="27"/>
+      <c r="CL17" s="10"/>
+      <c r="CM17" s="10"/>
+      <c r="CN17" s="10"/>
+      <c r="CO17" s="10"/>
+      <c r="CP17" s="10"/>
+      <c r="CQ17" s="10"/>
+      <c r="CR17" s="10"/>
       <c r="CS17" s="10"/>
       <c r="CT17" s="10"/>
       <c r="CU17" s="10"/>
@@ -26559,28 +26566,30 @@
       <c r="CK18" s="20">
         <v>174825.18551046107</v>
       </c>
-      <c r="CL18" s="28">
+      <c r="CL18" s="23">
         <v>177396.1276068271</v>
       </c>
-      <c r="CM18" s="28">
+      <c r="CM18" s="23">
         <v>170166.90867479116</v>
       </c>
-      <c r="CN18" s="28">
+      <c r="CN18" s="23">
         <v>220849.41196241841</v>
       </c>
-      <c r="CO18" s="28">
+      <c r="CO18" s="23">
         <v>238109.67406402683</v>
       </c>
-      <c r="CP18" s="28">
+      <c r="CP18" s="23">
         <v>230262.00776752498</v>
       </c>
-      <c r="CQ18" s="28">
+      <c r="CQ18" s="23">
         <v>221854.86176386877</v>
       </c>
-      <c r="CR18" s="28">
-        <v>256006.10774604927</v>
-      </c>
-      <c r="CS18" s="10"/>
+      <c r="CR18" s="23">
+        <v>257309.41009359938</v>
+      </c>
+      <c r="CS18" s="23">
+        <v>268424.89962362102</v>
+      </c>
       <c r="CT18" s="10"/>
       <c r="CU18" s="10"/>
       <c r="CV18" s="10"/>
@@ -26729,13 +26738,14 @@
       <c r="CI19" s="21"/>
       <c r="CJ19" s="21"/>
       <c r="CK19" s="21"/>
-      <c r="CL19" s="29"/>
-      <c r="CM19" s="29"/>
-      <c r="CN19" s="29"/>
-      <c r="CO19" s="29"/>
-      <c r="CP19" s="29"/>
-      <c r="CQ19" s="29"/>
-      <c r="CR19" s="29"/>
+      <c r="CL19" s="24"/>
+      <c r="CM19" s="24"/>
+      <c r="CN19" s="24"/>
+      <c r="CO19" s="24"/>
+      <c r="CP19" s="24"/>
+      <c r="CQ19" s="24"/>
+      <c r="CR19" s="24"/>
+      <c r="CS19" s="24"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -26831,13 +26841,13 @@
       <c r="CI21" s="10"/>
       <c r="CJ21" s="10"/>
       <c r="CK21" s="10"/>
-      <c r="CL21" s="27"/>
-      <c r="CM21" s="27"/>
-      <c r="CN21" s="27"/>
-      <c r="CO21" s="27"/>
-      <c r="CP21" s="27"/>
-      <c r="CQ21" s="27"/>
-      <c r="CR21" s="27"/>
+      <c r="CL21" s="10"/>
+      <c r="CM21" s="10"/>
+      <c r="CN21" s="10"/>
+      <c r="CO21" s="10"/>
+      <c r="CP21" s="10"/>
+      <c r="CQ21" s="10"/>
+      <c r="CR21" s="10"/>
       <c r="CS21" s="10"/>
       <c r="CT21" s="10"/>
       <c r="CU21" s="10"/>
@@ -26986,13 +26996,13 @@
       <c r="CI22" s="10"/>
       <c r="CJ22" s="10"/>
       <c r="CK22" s="10"/>
-      <c r="CL22" s="27"/>
-      <c r="CM22" s="27"/>
-      <c r="CN22" s="27"/>
-      <c r="CO22" s="27"/>
-      <c r="CP22" s="27"/>
-      <c r="CQ22" s="27"/>
-      <c r="CR22" s="27"/>
+      <c r="CL22" s="10"/>
+      <c r="CM22" s="10"/>
+      <c r="CN22" s="10"/>
+      <c r="CO22" s="10"/>
+      <c r="CP22" s="10"/>
+      <c r="CQ22" s="10"/>
+      <c r="CR22" s="10"/>
       <c r="CS22" s="10"/>
       <c r="CT22" s="10"/>
       <c r="CU22" s="10"/>
@@ -27064,7 +27074,7 @@
     </row>
     <row r="25" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -27156,13 +27166,14 @@
       <c r="CI26" s="4"/>
       <c r="CJ26" s="4"/>
       <c r="CK26" s="4"/>
-      <c r="CL26" s="24"/>
-      <c r="CM26" s="24"/>
-      <c r="CN26" s="24"/>
-      <c r="CO26" s="24"/>
-      <c r="CP26" s="24"/>
-      <c r="CQ26" s="24"/>
-      <c r="CR26" s="24"/>
+      <c r="CL26" s="4"/>
+      <c r="CM26" s="4"/>
+      <c r="CN26" s="4"/>
+      <c r="CO26" s="4"/>
+      <c r="CP26" s="4"/>
+      <c r="CQ26" s="4"/>
+      <c r="CR26" s="4"/>
+      <c r="CS26" s="4"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27256,17 +27267,18 @@
       <c r="CI27" s="4"/>
       <c r="CJ27" s="4"/>
       <c r="CK27" s="4"/>
-      <c r="CL27" s="24"/>
-      <c r="CM27" s="24"/>
-      <c r="CN27" s="24"/>
-      <c r="CO27" s="24"/>
-      <c r="CP27" s="24"/>
-      <c r="CQ27" s="24"/>
-      <c r="CR27" s="24"/>
+      <c r="CL27" s="4"/>
+      <c r="CM27" s="4"/>
+      <c r="CN27" s="4"/>
+      <c r="CO27" s="4"/>
+      <c r="CP27" s="4"/>
+      <c r="CQ27" s="4"/>
+      <c r="CR27" s="4"/>
+      <c r="CS27" s="4"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -27356,13 +27368,14 @@
       <c r="CI28" s="4"/>
       <c r="CJ28" s="4"/>
       <c r="CK28" s="4"/>
-      <c r="CL28" s="24"/>
-      <c r="CM28" s="24"/>
-      <c r="CN28" s="24"/>
-      <c r="CO28" s="24"/>
-      <c r="CP28" s="24"/>
-      <c r="CQ28" s="24"/>
-      <c r="CR28" s="24"/>
+      <c r="CL28" s="4"/>
+      <c r="CM28" s="4"/>
+      <c r="CN28" s="4"/>
+      <c r="CO28" s="4"/>
+      <c r="CP28" s="4"/>
+      <c r="CQ28" s="4"/>
+      <c r="CR28" s="4"/>
+      <c r="CS28" s="4"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -27456,13 +27469,14 @@
       <c r="CI29" s="4"/>
       <c r="CJ29" s="4"/>
       <c r="CK29" s="4"/>
-      <c r="CL29" s="24"/>
-      <c r="CM29" s="24"/>
-      <c r="CN29" s="24"/>
-      <c r="CO29" s="24"/>
-      <c r="CP29" s="24"/>
-      <c r="CQ29" s="24"/>
-      <c r="CR29" s="24"/>
+      <c r="CL29" s="4"/>
+      <c r="CM29" s="4"/>
+      <c r="CN29" s="4"/>
+      <c r="CO29" s="4"/>
+      <c r="CP29" s="4"/>
+      <c r="CQ29" s="4"/>
+      <c r="CR29" s="4"/>
+      <c r="CS29" s="4"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
@@ -27553,159 +27567,161 @@
       <c r="CI30" s="4"/>
       <c r="CJ30" s="4"/>
       <c r="CK30" s="4"/>
-      <c r="CL30" s="24"/>
-      <c r="CM30" s="24"/>
-      <c r="CN30" s="24"/>
-      <c r="CO30" s="24"/>
-      <c r="CP30" s="24"/>
-      <c r="CQ30" s="24"/>
-      <c r="CR30" s="24"/>
+      <c r="CL30" s="4"/>
+      <c r="CM30" s="4"/>
+      <c r="CN30" s="4"/>
+      <c r="CO30" s="4"/>
+      <c r="CP30" s="4"/>
+      <c r="CQ30" s="4"/>
+      <c r="CR30" s="4"/>
+      <c r="CS30" s="4"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="35">
+      <c r="B31" s="27">
         <v>2000</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="35">
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="27">
         <v>2001</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="35">
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="27">
         <v>2002</v>
       </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="35">
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="27">
         <v>2003</v>
       </c>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="35">
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="27">
         <v>2004</v>
       </c>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="35">
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="27">
         <v>2005</v>
       </c>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="35">
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="27">
         <v>2006</v>
       </c>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="35">
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="27">
         <v>2007</v>
       </c>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="35">
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="27">
         <v>2008</v>
       </c>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="35">
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="27">
         <v>2009</v>
       </c>
-      <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="35">
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="36"/>
-      <c r="AR31" s="36"/>
-      <c r="AS31" s="36"/>
-      <c r="AT31" s="35">
+      <c r="AQ31" s="28"/>
+      <c r="AR31" s="28"/>
+      <c r="AS31" s="28"/>
+      <c r="AT31" s="27">
         <v>2011</v>
       </c>
-      <c r="AU31" s="36"/>
-      <c r="AV31" s="36"/>
-      <c r="AW31" s="36"/>
-      <c r="AX31" s="35">
+      <c r="AU31" s="28"/>
+      <c r="AV31" s="28"/>
+      <c r="AW31" s="28"/>
+      <c r="AX31" s="27">
         <v>2012</v>
       </c>
-      <c r="AY31" s="36"/>
-      <c r="AZ31" s="36"/>
-      <c r="BA31" s="36"/>
-      <c r="BB31" s="35">
+      <c r="AY31" s="28"/>
+      <c r="AZ31" s="28"/>
+      <c r="BA31" s="28"/>
+      <c r="BB31" s="27">
         <v>2013</v>
       </c>
-      <c r="BC31" s="36"/>
-      <c r="BD31" s="36"/>
-      <c r="BE31" s="36"/>
-      <c r="BF31" s="35">
+      <c r="BC31" s="28"/>
+      <c r="BD31" s="28"/>
+      <c r="BE31" s="28"/>
+      <c r="BF31" s="27">
         <v>2014</v>
       </c>
-      <c r="BG31" s="36"/>
-      <c r="BH31" s="36"/>
-      <c r="BI31" s="36"/>
-      <c r="BJ31" s="35">
+      <c r="BG31" s="28"/>
+      <c r="BH31" s="28"/>
+      <c r="BI31" s="28"/>
+      <c r="BJ31" s="27">
         <v>2015</v>
       </c>
-      <c r="BK31" s="36"/>
-      <c r="BL31" s="36"/>
-      <c r="BM31" s="36"/>
-      <c r="BN31" s="35">
+      <c r="BK31" s="28"/>
+      <c r="BL31" s="28"/>
+      <c r="BM31" s="28"/>
+      <c r="BN31" s="27">
         <v>2016</v>
       </c>
-      <c r="BO31" s="36"/>
-      <c r="BP31" s="36"/>
-      <c r="BQ31" s="36"/>
-      <c r="BR31" s="35">
+      <c r="BO31" s="28"/>
+      <c r="BP31" s="28"/>
+      <c r="BQ31" s="28"/>
+      <c r="BR31" s="27">
         <v>2017</v>
       </c>
-      <c r="BS31" s="36"/>
-      <c r="BT31" s="36"/>
-      <c r="BU31" s="36"/>
-      <c r="BV31" s="35">
+      <c r="BS31" s="28"/>
+      <c r="BT31" s="28"/>
+      <c r="BU31" s="28"/>
+      <c r="BV31" s="27">
         <v>2018</v>
       </c>
-      <c r="BW31" s="36"/>
-      <c r="BX31" s="36"/>
-      <c r="BY31" s="36"/>
-      <c r="BZ31" s="35">
+      <c r="BW31" s="28"/>
+      <c r="BX31" s="28"/>
+      <c r="BY31" s="28"/>
+      <c r="BZ31" s="27">
         <v>2019</v>
       </c>
-      <c r="CA31" s="36"/>
-      <c r="CB31" s="36"/>
-      <c r="CC31" s="36"/>
-      <c r="CD31" s="35">
+      <c r="CA31" s="28"/>
+      <c r="CB31" s="28"/>
+      <c r="CC31" s="28"/>
+      <c r="CD31" s="27">
         <v>2020</v>
       </c>
-      <c r="CE31" s="35"/>
-      <c r="CF31" s="35"/>
-      <c r="CG31" s="35"/>
-      <c r="CH31" s="35">
+      <c r="CE31" s="27"/>
+      <c r="CF31" s="27"/>
+      <c r="CG31" s="27"/>
+      <c r="CH31" s="27">
         <v>2021</v>
       </c>
-      <c r="CI31" s="35"/>
-      <c r="CJ31" s="35"/>
-      <c r="CK31" s="35"/>
-      <c r="CL31" s="34">
+      <c r="CI31" s="27"/>
+      <c r="CJ31" s="27"/>
+      <c r="CK31" s="27"/>
+      <c r="CL31" s="26">
         <v>2022</v>
       </c>
-      <c r="CM31" s="34"/>
-      <c r="CN31" s="34"/>
-      <c r="CO31" s="34"/>
-      <c r="CP31" s="34">
+      <c r="CM31" s="26"/>
+      <c r="CN31" s="26"/>
+      <c r="CO31" s="26"/>
+      <c r="CP31" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ31" s="34"/>
-      <c r="CR31" s="34"/>
+      <c r="CQ31" s="26"/>
+      <c r="CR31" s="26"/>
+      <c r="CS31" s="26"/>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -27975,26 +27991,29 @@
       <c r="CK32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL32" s="25" t="s">
+      <c r="CL32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CM32" s="25" t="s">
+      <c r="CM32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CN32" s="25" t="s">
+      <c r="CN32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO32" s="25" t="s">
+      <c r="CO32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP32" s="25" t="s">
+      <c r="CP32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CQ32" s="25" t="s">
+      <c r="CQ32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CR32" s="25" t="s">
+      <c r="CR32" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CS32" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28268,28 +28287,30 @@
       <c r="CK34" s="19">
         <v>92252.123079514247</v>
       </c>
-      <c r="CL34" s="26">
+      <c r="CL34" s="22">
         <v>85348.710133698143</v>
       </c>
-      <c r="CM34" s="26">
+      <c r="CM34" s="22">
         <v>67145.01908077547</v>
       </c>
-      <c r="CN34" s="26">
+      <c r="CN34" s="22">
         <v>89988.179900677991</v>
       </c>
-      <c r="CO34" s="26">
+      <c r="CO34" s="22">
         <v>106276.44833839743</v>
       </c>
-      <c r="CP34" s="26">
+      <c r="CP34" s="22">
         <v>94519.306811908784</v>
       </c>
-      <c r="CQ34" s="26">
+      <c r="CQ34" s="22">
         <v>79640.852131027132</v>
       </c>
-      <c r="CR34" s="26">
-        <v>100726.98700761746</v>
-      </c>
-      <c r="CS34" s="10"/>
+      <c r="CR34" s="22">
+        <v>100757.65291146003</v>
+      </c>
+      <c r="CS34" s="22">
+        <v>119082.72360849715</v>
+      </c>
       <c r="CT34" s="10"/>
       <c r="CU34" s="10"/>
       <c r="CV34" s="10"/>
@@ -28616,28 +28637,30 @@
       <c r="CK35" s="19">
         <v>7088.4754867296288</v>
       </c>
-      <c r="CL35" s="26">
+      <c r="CL35" s="22">
         <v>8733.9693321251852</v>
       </c>
-      <c r="CM35" s="26">
+      <c r="CM35" s="22">
         <v>6407.568160262229</v>
       </c>
-      <c r="CN35" s="26">
+      <c r="CN35" s="22">
         <v>5964.0797825333484</v>
       </c>
-      <c r="CO35" s="26">
+      <c r="CO35" s="22">
         <v>9820.3919649366053</v>
       </c>
-      <c r="CP35" s="26">
+      <c r="CP35" s="22">
         <v>11570.470405584621</v>
       </c>
-      <c r="CQ35" s="26">
+      <c r="CQ35" s="22">
         <v>7366.5533942467828</v>
       </c>
-      <c r="CR35" s="26">
-        <v>6990.7994149117412</v>
-      </c>
-      <c r="CS35" s="10"/>
+      <c r="CR35" s="22">
+        <v>6739.0952487009572</v>
+      </c>
+      <c r="CS35" s="22">
+        <v>10242.303848616968</v>
+      </c>
       <c r="CT35" s="10"/>
       <c r="CU35" s="10"/>
       <c r="CV35" s="10"/>
@@ -28964,28 +28987,30 @@
       <c r="CK36" s="19">
         <v>9877.5561037619118</v>
       </c>
-      <c r="CL36" s="26">
+      <c r="CL36" s="22">
         <v>18325.805539719899</v>
       </c>
-      <c r="CM36" s="26">
+      <c r="CM36" s="22">
         <v>17025.259549398193</v>
       </c>
-      <c r="CN36" s="26">
+      <c r="CN36" s="22">
         <v>19697.048462697538</v>
       </c>
-      <c r="CO36" s="26">
+      <c r="CO36" s="22">
         <v>23671.991341686968</v>
       </c>
-      <c r="CP36" s="26">
+      <c r="CP36" s="22">
         <v>28471.079909613327</v>
       </c>
-      <c r="CQ36" s="26">
+      <c r="CQ36" s="22">
         <v>24396.684494093206</v>
       </c>
-      <c r="CR36" s="26">
-        <v>26600.052082890557</v>
-      </c>
-      <c r="CS36" s="10"/>
+      <c r="CR36" s="22">
+        <v>26549.267235779145</v>
+      </c>
+      <c r="CS36" s="22">
+        <v>26862.323479699189</v>
+      </c>
       <c r="CT36" s="10"/>
       <c r="CU36" s="10"/>
       <c r="CV36" s="10"/>
@@ -29312,28 +29337,30 @@
       <c r="CK37" s="19">
         <v>47702.781019455986</v>
       </c>
-      <c r="CL37" s="26">
+      <c r="CL37" s="22">
         <v>50251.808163641748</v>
       </c>
-      <c r="CM37" s="26">
+      <c r="CM37" s="22">
         <v>41820.771885110211</v>
       </c>
-      <c r="CN37" s="26">
+      <c r="CN37" s="22">
         <v>47699.298706087051</v>
       </c>
-      <c r="CO37" s="26">
+      <c r="CO37" s="22">
         <v>48651.253709856661</v>
       </c>
-      <c r="CP37" s="26">
+      <c r="CP37" s="22">
         <v>52019.594859511752</v>
       </c>
-      <c r="CQ37" s="26">
+      <c r="CQ37" s="22">
         <v>44553.576680874503</v>
       </c>
-      <c r="CR37" s="26">
-        <v>48083.190202617232</v>
-      </c>
-      <c r="CS37" s="10"/>
+      <c r="CR37" s="22">
+        <v>49151.383634852275</v>
+      </c>
+      <c r="CS37" s="22">
+        <v>50830.018991071651</v>
+      </c>
       <c r="CT37" s="10"/>
       <c r="CU37" s="10"/>
       <c r="CV37" s="10"/>
@@ -29660,28 +29687,30 @@
       <c r="CK38" s="19">
         <v>8595.0612567754397</v>
       </c>
-      <c r="CL38" s="26">
+      <c r="CL38" s="22">
         <v>7773.9350940748318</v>
       </c>
-      <c r="CM38" s="26">
+      <c r="CM38" s="22">
         <v>8608.2139647257463</v>
       </c>
-      <c r="CN38" s="26">
+      <c r="CN38" s="22">
         <v>6894.384820837442</v>
       </c>
-      <c r="CO38" s="26">
+      <c r="CO38" s="22">
         <v>8456.5964705626266</v>
       </c>
-      <c r="CP38" s="26">
+      <c r="CP38" s="22">
         <v>8740.998657965727</v>
       </c>
-      <c r="CQ38" s="26">
+      <c r="CQ38" s="22">
         <v>9693.2556175254394</v>
       </c>
-      <c r="CR38" s="26">
+      <c r="CR38" s="22">
         <v>7591.2442718533639</v>
       </c>
-      <c r="CS38" s="10"/>
+      <c r="CS38" s="22">
+        <v>8962.8019095684849</v>
+      </c>
       <c r="CT38" s="10"/>
       <c r="CU38" s="10"/>
       <c r="CV38" s="10"/>
@@ -29829,13 +29858,13 @@
       <c r="CI39" s="10"/>
       <c r="CJ39" s="10"/>
       <c r="CK39" s="10"/>
-      <c r="CL39" s="27"/>
-      <c r="CM39" s="27"/>
-      <c r="CN39" s="27"/>
-      <c r="CO39" s="27"/>
-      <c r="CP39" s="27"/>
-      <c r="CQ39" s="27"/>
-      <c r="CR39" s="27"/>
+      <c r="CL39" s="10"/>
+      <c r="CM39" s="10"/>
+      <c r="CN39" s="10"/>
+      <c r="CO39" s="10"/>
+      <c r="CP39" s="10"/>
+      <c r="CQ39" s="10"/>
+      <c r="CR39" s="10"/>
       <c r="CS39" s="10"/>
       <c r="CT39" s="10"/>
       <c r="CU39" s="10"/>
@@ -30163,28 +30192,30 @@
       <c r="CK40" s="20">
         <v>165515.9969462372</v>
       </c>
-      <c r="CL40" s="28">
+      <c r="CL40" s="23">
         <v>170434.22826325981</v>
       </c>
-      <c r="CM40" s="28">
+      <c r="CM40" s="23">
         <v>141006.83264027187</v>
       </c>
-      <c r="CN40" s="28">
+      <c r="CN40" s="23">
         <v>170242.99167283336</v>
       </c>
-      <c r="CO40" s="28">
+      <c r="CO40" s="23">
         <v>196876.68182544026</v>
       </c>
-      <c r="CP40" s="28">
+      <c r="CP40" s="23">
         <v>195321.45064458426</v>
       </c>
-      <c r="CQ40" s="28">
+      <c r="CQ40" s="23">
         <v>165650.92231776705</v>
       </c>
-      <c r="CR40" s="28">
-        <v>189992.27297989035</v>
-      </c>
-      <c r="CS40" s="10"/>
+      <c r="CR40" s="23">
+        <v>190788.64330264577</v>
+      </c>
+      <c r="CS40" s="23">
+        <v>215980.17183745344</v>
+      </c>
       <c r="CT40" s="10"/>
       <c r="CU40" s="10"/>
       <c r="CV40" s="10"/>
@@ -30333,13 +30364,14 @@
       <c r="CI41" s="13"/>
       <c r="CJ41" s="13"/>
       <c r="CK41" s="13"/>
-      <c r="CL41" s="30"/>
-      <c r="CM41" s="30"/>
-      <c r="CN41" s="30"/>
-      <c r="CO41" s="30"/>
-      <c r="CP41" s="30"/>
-      <c r="CQ41" s="30"/>
-      <c r="CR41" s="30"/>
+      <c r="CL41" s="13"/>
+      <c r="CM41" s="13"/>
+      <c r="CN41" s="13"/>
+      <c r="CO41" s="13"/>
+      <c r="CP41" s="13"/>
+      <c r="CQ41" s="13"/>
+      <c r="CR41" s="13"/>
+      <c r="CS41" s="13"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -30435,13 +30467,13 @@
       <c r="CI43" s="10"/>
       <c r="CJ43" s="10"/>
       <c r="CK43" s="10"/>
-      <c r="CL43" s="27"/>
-      <c r="CM43" s="27"/>
-      <c r="CN43" s="27"/>
-      <c r="CO43" s="27"/>
-      <c r="CP43" s="27"/>
-      <c r="CQ43" s="27"/>
-      <c r="CR43" s="27"/>
+      <c r="CL43" s="10"/>
+      <c r="CM43" s="10"/>
+      <c r="CN43" s="10"/>
+      <c r="CO43" s="10"/>
+      <c r="CP43" s="10"/>
+      <c r="CQ43" s="10"/>
+      <c r="CR43" s="10"/>
       <c r="CS43" s="10"/>
       <c r="CT43" s="10"/>
       <c r="CU43" s="10"/>
@@ -30590,13 +30622,13 @@
       <c r="CI44" s="10"/>
       <c r="CJ44" s="10"/>
       <c r="CK44" s="10"/>
-      <c r="CL44" s="27"/>
-      <c r="CM44" s="27"/>
-      <c r="CN44" s="27"/>
-      <c r="CO44" s="27"/>
-      <c r="CP44" s="27"/>
-      <c r="CQ44" s="27"/>
-      <c r="CR44" s="27"/>
+      <c r="CL44" s="10"/>
+      <c r="CM44" s="10"/>
+      <c r="CN44" s="10"/>
+      <c r="CO44" s="10"/>
+      <c r="CP44" s="10"/>
+      <c r="CQ44" s="10"/>
+      <c r="CR44" s="10"/>
       <c r="CS44" s="10"/>
       <c r="CT44" s="10"/>
       <c r="CU44" s="10"/>
@@ -30668,7 +30700,7 @@
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -30678,7 +30710,7 @@
     </row>
     <row r="50" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
@@ -30691,147 +30723,148 @@
     </row>
     <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35" t="s">
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35" t="s">
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35" t="s">
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35" t="s">
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35" t="s">
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35" t="s">
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35" t="s">
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="35"/>
-      <c r="AH53" s="35" t="s">
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="27"/>
+      <c r="AG53" s="27"/>
+      <c r="AH53" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AI53" s="35"/>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="35"/>
-      <c r="AL53" s="35" t="s">
+      <c r="AI53" s="27"/>
+      <c r="AJ53" s="27"/>
+      <c r="AK53" s="27"/>
+      <c r="AL53" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AM53" s="35"/>
-      <c r="AN53" s="35"/>
-      <c r="AO53" s="35"/>
-      <c r="AP53" s="35" t="s">
+      <c r="AM53" s="27"/>
+      <c r="AN53" s="27"/>
+      <c r="AO53" s="27"/>
+      <c r="AP53" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AQ53" s="35"/>
-      <c r="AR53" s="35"/>
-      <c r="AS53" s="35"/>
-      <c r="AT53" s="35" t="s">
+      <c r="AQ53" s="27"/>
+      <c r="AR53" s="27"/>
+      <c r="AS53" s="27"/>
+      <c r="AT53" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AU53" s="35"/>
-      <c r="AV53" s="35"/>
-      <c r="AW53" s="35"/>
-      <c r="AX53" s="35" t="s">
+      <c r="AU53" s="27"/>
+      <c r="AV53" s="27"/>
+      <c r="AW53" s="27"/>
+      <c r="AX53" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AY53" s="35"/>
-      <c r="AZ53" s="35"/>
-      <c r="BA53" s="35"/>
-      <c r="BB53" s="35" t="s">
+      <c r="AY53" s="27"/>
+      <c r="AZ53" s="27"/>
+      <c r="BA53" s="27"/>
+      <c r="BB53" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="BC53" s="35"/>
-      <c r="BD53" s="35"/>
-      <c r="BE53" s="35"/>
-      <c r="BF53" s="35" t="s">
+      <c r="BC53" s="27"/>
+      <c r="BD53" s="27"/>
+      <c r="BE53" s="27"/>
+      <c r="BF53" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="BG53" s="35"/>
-      <c r="BH53" s="35"/>
-      <c r="BI53" s="35"/>
-      <c r="BJ53" s="35" t="s">
+      <c r="BG53" s="27"/>
+      <c r="BH53" s="27"/>
+      <c r="BI53" s="27"/>
+      <c r="BJ53" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="BK53" s="35"/>
-      <c r="BL53" s="35"/>
-      <c r="BM53" s="35"/>
-      <c r="BN53" s="35" t="s">
+      <c r="BK53" s="27"/>
+      <c r="BL53" s="27"/>
+      <c r="BM53" s="27"/>
+      <c r="BN53" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="BO53" s="35"/>
-      <c r="BP53" s="35"/>
-      <c r="BQ53" s="35"/>
-      <c r="BR53" s="35" t="s">
+      <c r="BO53" s="27"/>
+      <c r="BP53" s="27"/>
+      <c r="BQ53" s="27"/>
+      <c r="BR53" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="BS53" s="35"/>
-      <c r="BT53" s="35"/>
-      <c r="BU53" s="35"/>
-      <c r="BV53" s="35" t="s">
+      <c r="BS53" s="27"/>
+      <c r="BT53" s="27"/>
+      <c r="BU53" s="27"/>
+      <c r="BV53" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="BW53" s="35"/>
-      <c r="BX53" s="35"/>
-      <c r="BY53" s="35"/>
-      <c r="BZ53" s="35" t="s">
+      <c r="BW53" s="27"/>
+      <c r="BX53" s="27"/>
+      <c r="BY53" s="27"/>
+      <c r="BZ53" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="35"/>
-      <c r="CB53" s="35"/>
-      <c r="CC53" s="35"/>
-      <c r="CD53" s="35" t="s">
+      <c r="CA53" s="27"/>
+      <c r="CB53" s="27"/>
+      <c r="CC53" s="27"/>
+      <c r="CD53" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="CE53" s="35"/>
-      <c r="CF53" s="35"/>
-      <c r="CG53" s="35"/>
-      <c r="CH53" s="35" t="s">
+      <c r="CE53" s="27"/>
+      <c r="CF53" s="27"/>
+      <c r="CG53" s="27"/>
+      <c r="CH53" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="CI53" s="35"/>
-      <c r="CJ53" s="35"/>
-      <c r="CK53" s="35"/>
-      <c r="CL53" s="34" t="s">
+      <c r="CI53" s="27"/>
+      <c r="CJ53" s="27"/>
+      <c r="CK53" s="27"/>
+      <c r="CL53" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="CM53" s="34"/>
-      <c r="CN53" s="34"/>
-      <c r="CO53" s="31"/>
-      <c r="CP53" s="22"/>
-      <c r="CQ53" s="22"/>
-      <c r="CR53" s="22"/>
+      <c r="CM53" s="26"/>
+      <c r="CN53" s="26"/>
+      <c r="CO53" s="26"/>
+      <c r="CP53" s="25"/>
+      <c r="CQ53" s="25"/>
+      <c r="CR53" s="25"/>
+      <c r="CS53" s="25"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -31101,19 +31134,22 @@
       <c r="CK54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL54" s="32" t="s">
+      <c r="CL54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CM54" s="32" t="s">
+      <c r="CM54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CN54" s="32" t="s">
+      <c r="CN54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CO54" s="32"/>
-      <c r="CP54" s="32"/>
-      <c r="CQ54" s="32"/>
-      <c r="CR54" s="32"/>
+      <c r="CO54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP54" s="6"/>
+      <c r="CQ54" s="6"/>
+      <c r="CR54" s="6"/>
+      <c r="CS54" s="6"/>
     </row>
     <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -31386,20 +31422,22 @@
       <c r="CK56" s="16">
         <v>28.128053153213529</v>
       </c>
-      <c r="CL56" s="33">
+      <c r="CL56" s="16">
         <v>24.18608613164335</v>
       </c>
-      <c r="CM56" s="33">
+      <c r="CM56" s="16">
         <v>32.2764573199089</v>
       </c>
-      <c r="CN56" s="33">
-        <v>18.689265976380582</v>
-      </c>
-      <c r="CO56" s="33"/>
-      <c r="CP56" s="33"/>
-      <c r="CQ56" s="33"/>
-      <c r="CR56" s="33"/>
-      <c r="CS56" s="10"/>
+      <c r="CN56" s="16">
+        <v>18.725400419847134</v>
+      </c>
+      <c r="CO56" s="16">
+        <v>14.863149270754718</v>
+      </c>
+      <c r="CP56" s="16"/>
+      <c r="CQ56" s="16"/>
+      <c r="CR56" s="16"/>
+      <c r="CS56" s="16"/>
       <c r="CT56" s="10"/>
       <c r="CU56" s="10"/>
       <c r="CV56" s="10"/>
@@ -31722,20 +31760,22 @@
       <c r="CK57" s="16">
         <v>33.272419708212254</v>
       </c>
-      <c r="CL57" s="33">
+      <c r="CL57" s="16">
         <v>36.51891152971524</v>
       </c>
-      <c r="CM57" s="33">
+      <c r="CM57" s="16">
         <v>13.261741303910938</v>
       </c>
-      <c r="CN57" s="33">
-        <v>14.069154455745391</v>
-      </c>
-      <c r="CO57" s="33"/>
-      <c r="CP57" s="33"/>
-      <c r="CQ57" s="33"/>
-      <c r="CR57" s="33"/>
-      <c r="CS57" s="10"/>
+      <c r="CN57" s="16">
+        <v>9.9620874797699486</v>
+      </c>
+      <c r="CO57" s="16">
+        <v>14.630768276615939</v>
+      </c>
+      <c r="CP57" s="16"/>
+      <c r="CQ57" s="16"/>
+      <c r="CR57" s="16"/>
+      <c r="CS57" s="16"/>
       <c r="CT57" s="10"/>
       <c r="CU57" s="10"/>
       <c r="CV57" s="10"/>
@@ -32058,20 +32098,22 @@
       <c r="CK58" s="16">
         <v>208.04213760232955</v>
       </c>
-      <c r="CL58" s="33">
+      <c r="CL58" s="16">
         <v>107.96440874236967</v>
       </c>
-      <c r="CM58" s="33">
+      <c r="CM58" s="16">
         <v>79.551634967850049</v>
       </c>
-      <c r="CN58" s="33">
-        <v>35.431503244579119</v>
-      </c>
-      <c r="CO58" s="33"/>
-      <c r="CP58" s="33"/>
-      <c r="CQ58" s="33"/>
-      <c r="CR58" s="33"/>
-      <c r="CS58" s="10"/>
+      <c r="CN58" s="16">
+        <v>35.172937277681342</v>
+      </c>
+      <c r="CO58" s="16">
+        <v>16.167028543209355</v>
+      </c>
+      <c r="CP58" s="16"/>
+      <c r="CQ58" s="16"/>
+      <c r="CR58" s="16"/>
+      <c r="CS58" s="16"/>
       <c r="CT58" s="10"/>
       <c r="CU58" s="10"/>
       <c r="CV58" s="10"/>
@@ -32394,20 +32436,22 @@
       <c r="CK59" s="16">
         <v>21.642875170028205</v>
       </c>
-      <c r="CL59" s="33">
+      <c r="CL59" s="16">
         <v>15.807322152959586</v>
       </c>
-      <c r="CM59" s="33">
+      <c r="CM59" s="16">
         <v>15.127652725377686</v>
       </c>
-      <c r="CN59" s="33">
-        <v>1.7516942260403283</v>
-      </c>
-      <c r="CO59" s="33"/>
-      <c r="CP59" s="33"/>
-      <c r="CQ59" s="33"/>
-      <c r="CR59" s="33"/>
-      <c r="CS59" s="10"/>
+      <c r="CN59" s="16">
+        <v>4.8163573836183389</v>
+      </c>
+      <c r="CO59" s="16">
+        <v>6.4179283423618756</v>
+      </c>
+      <c r="CP59" s="16"/>
+      <c r="CQ59" s="16"/>
+      <c r="CR59" s="16"/>
+      <c r="CS59" s="16"/>
       <c r="CT59" s="10"/>
       <c r="CU59" s="10"/>
       <c r="CV59" s="10"/>
@@ -32730,20 +32774,22 @@
       <c r="CK60" s="16">
         <v>-1.4230361552405384</v>
       </c>
-      <c r="CL60" s="33">
+      <c r="CL60" s="16">
         <v>12.761997538079555</v>
       </c>
-      <c r="CM60" s="33">
+      <c r="CM60" s="16">
         <v>12.819618991169108</v>
       </c>
-      <c r="CN60" s="33">
+      <c r="CN60" s="16">
         <v>10.28257850793662</v>
       </c>
-      <c r="CO60" s="33"/>
-      <c r="CP60" s="33"/>
-      <c r="CQ60" s="33"/>
-      <c r="CR60" s="33"/>
-      <c r="CS60" s="10"/>
+      <c r="CO60" s="16">
+        <v>6.1879944137735095</v>
+      </c>
+      <c r="CP60" s="16"/>
+      <c r="CQ60" s="16"/>
+      <c r="CR60" s="16"/>
+      <c r="CS60" s="16"/>
       <c r="CT60" s="10"/>
       <c r="CU60" s="10"/>
       <c r="CV60" s="10"/>
@@ -32887,13 +32933,13 @@
       <c r="CI61" s="10"/>
       <c r="CJ61" s="10"/>
       <c r="CK61" s="10"/>
-      <c r="CL61" s="27"/>
-      <c r="CM61" s="27"/>
-      <c r="CN61" s="27"/>
-      <c r="CO61" s="27"/>
-      <c r="CP61" s="27"/>
-      <c r="CQ61" s="27"/>
-      <c r="CR61" s="27"/>
+      <c r="CL61" s="10"/>
+      <c r="CM61" s="10"/>
+      <c r="CN61" s="10"/>
+      <c r="CO61" s="10"/>
+      <c r="CP61" s="10"/>
+      <c r="CQ61" s="10"/>
+      <c r="CR61" s="10"/>
       <c r="CS61" s="10"/>
       <c r="CT61" s="10"/>
       <c r="CU61" s="10"/>
@@ -33217,20 +33263,22 @@
       <c r="CK62" s="16">
         <v>36.198725240179414</v>
       </c>
-      <c r="CL62" s="33">
+      <c r="CL62" s="16">
         <v>29.801033919898998</v>
       </c>
-      <c r="CM62" s="33">
+      <c r="CM62" s="16">
         <v>30.374855776371476</v>
       </c>
-      <c r="CN62" s="33">
-        <v>15.918854150996523</v>
-      </c>
-      <c r="CO62" s="33"/>
-      <c r="CP62" s="33"/>
-      <c r="CQ62" s="33"/>
-      <c r="CR62" s="33"/>
-      <c r="CS62" s="10"/>
+      <c r="CN62" s="16">
+        <v>16.508985832113197</v>
+      </c>
+      <c r="CO62" s="16">
+        <v>12.731622803130023</v>
+      </c>
+      <c r="CP62" s="16"/>
+      <c r="CQ62" s="16"/>
+      <c r="CR62" s="16"/>
+      <c r="CS62" s="16"/>
       <c r="CT62" s="10"/>
       <c r="CU62" s="10"/>
       <c r="CV62" s="10"/>
@@ -33375,13 +33423,14 @@
       <c r="CI63" s="13"/>
       <c r="CJ63" s="13"/>
       <c r="CK63" s="13"/>
-      <c r="CL63" s="30"/>
-      <c r="CM63" s="30"/>
-      <c r="CN63" s="30"/>
-      <c r="CO63" s="30"/>
-      <c r="CP63" s="30"/>
-      <c r="CQ63" s="30"/>
-      <c r="CR63" s="30"/>
+      <c r="CL63" s="13"/>
+      <c r="CM63" s="13"/>
+      <c r="CN63" s="13"/>
+      <c r="CO63" s="13"/>
+      <c r="CP63" s="13"/>
+      <c r="CQ63" s="13"/>
+      <c r="CR63" s="13"/>
+      <c r="CS63" s="13"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
@@ -33477,13 +33526,13 @@
       <c r="CI65" s="10"/>
       <c r="CJ65" s="10"/>
       <c r="CK65" s="10"/>
-      <c r="CL65" s="27"/>
-      <c r="CM65" s="27"/>
-      <c r="CN65" s="27"/>
-      <c r="CO65" s="27"/>
-      <c r="CP65" s="27"/>
-      <c r="CQ65" s="27"/>
-      <c r="CR65" s="27"/>
+      <c r="CL65" s="10"/>
+      <c r="CM65" s="10"/>
+      <c r="CN65" s="10"/>
+      <c r="CO65" s="10"/>
+      <c r="CP65" s="10"/>
+      <c r="CQ65" s="10"/>
+      <c r="CR65" s="10"/>
       <c r="CS65" s="10"/>
       <c r="CT65" s="10"/>
       <c r="CU65" s="10"/>
@@ -33628,13 +33677,13 @@
       <c r="CI66" s="10"/>
       <c r="CJ66" s="10"/>
       <c r="CK66" s="10"/>
-      <c r="CL66" s="27"/>
-      <c r="CM66" s="27"/>
-      <c r="CN66" s="27"/>
-      <c r="CO66" s="27"/>
-      <c r="CP66" s="27"/>
-      <c r="CQ66" s="27"/>
-      <c r="CR66" s="27"/>
+      <c r="CL66" s="10"/>
+      <c r="CM66" s="10"/>
+      <c r="CN66" s="10"/>
+      <c r="CO66" s="10"/>
+      <c r="CP66" s="10"/>
+      <c r="CQ66" s="10"/>
+      <c r="CR66" s="10"/>
       <c r="CS66" s="10"/>
       <c r="CT66" s="10"/>
       <c r="CU66" s="10"/>
@@ -33702,7 +33751,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:150" x14ac:dyDescent="0.2">
@@ -33712,7 +33761,7 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
@@ -33722,147 +33771,148 @@
     </row>
     <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="35" t="s">
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="35" t="s">
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="35" t="s">
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="35" t="s">
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="S75" s="34"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="35" t="s">
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="W75" s="34"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="35" t="s">
+      <c r="W75" s="29"/>
+      <c r="X75" s="29"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="34"/>
-      <c r="AC75" s="34"/>
-      <c r="AD75" s="35" t="s">
+      <c r="AA75" s="29"/>
+      <c r="AB75" s="29"/>
+      <c r="AC75" s="29"/>
+      <c r="AD75" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="34"/>
-      <c r="AF75" s="34"/>
-      <c r="AG75" s="34"/>
-      <c r="AH75" s="35" t="s">
+      <c r="AE75" s="29"/>
+      <c r="AF75" s="29"/>
+      <c r="AG75" s="29"/>
+      <c r="AH75" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="34"/>
-      <c r="AJ75" s="34"/>
-      <c r="AK75" s="34"/>
-      <c r="AL75" s="35" t="s">
+      <c r="AI75" s="29"/>
+      <c r="AJ75" s="29"/>
+      <c r="AK75" s="29"/>
+      <c r="AL75" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AM75" s="34"/>
-      <c r="AN75" s="34"/>
-      <c r="AO75" s="34"/>
-      <c r="AP75" s="35" t="s">
+      <c r="AM75" s="29"/>
+      <c r="AN75" s="29"/>
+      <c r="AO75" s="29"/>
+      <c r="AP75" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AQ75" s="34"/>
-      <c r="AR75" s="34"/>
-      <c r="AS75" s="34"/>
-      <c r="AT75" s="35" t="s">
+      <c r="AQ75" s="29"/>
+      <c r="AR75" s="29"/>
+      <c r="AS75" s="29"/>
+      <c r="AT75" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AU75" s="34"/>
-      <c r="AV75" s="34"/>
-      <c r="AW75" s="34"/>
-      <c r="AX75" s="35" t="s">
+      <c r="AU75" s="29"/>
+      <c r="AV75" s="29"/>
+      <c r="AW75" s="29"/>
+      <c r="AX75" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AY75" s="34"/>
-      <c r="AZ75" s="34"/>
-      <c r="BA75" s="34"/>
-      <c r="BB75" s="35" t="s">
+      <c r="AY75" s="29"/>
+      <c r="AZ75" s="29"/>
+      <c r="BA75" s="29"/>
+      <c r="BB75" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="BC75" s="34"/>
-      <c r="BD75" s="34"/>
-      <c r="BE75" s="34"/>
-      <c r="BF75" s="35" t="s">
+      <c r="BC75" s="29"/>
+      <c r="BD75" s="29"/>
+      <c r="BE75" s="29"/>
+      <c r="BF75" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="BG75" s="34"/>
-      <c r="BH75" s="34"/>
-      <c r="BI75" s="34"/>
-      <c r="BJ75" s="35" t="s">
+      <c r="BG75" s="29"/>
+      <c r="BH75" s="29"/>
+      <c r="BI75" s="29"/>
+      <c r="BJ75" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="BK75" s="34"/>
-      <c r="BL75" s="34"/>
-      <c r="BM75" s="34"/>
-      <c r="BN75" s="35" t="s">
+      <c r="BK75" s="29"/>
+      <c r="BL75" s="29"/>
+      <c r="BM75" s="29"/>
+      <c r="BN75" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="BO75" s="34"/>
-      <c r="BP75" s="34"/>
-      <c r="BQ75" s="34"/>
-      <c r="BR75" s="35" t="s">
+      <c r="BO75" s="29"/>
+      <c r="BP75" s="29"/>
+      <c r="BQ75" s="29"/>
+      <c r="BR75" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="BS75" s="34"/>
-      <c r="BT75" s="34"/>
-      <c r="BU75" s="34"/>
-      <c r="BV75" s="35" t="s">
+      <c r="BS75" s="29"/>
+      <c r="BT75" s="29"/>
+      <c r="BU75" s="29"/>
+      <c r="BV75" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="BW75" s="34"/>
-      <c r="BX75" s="34"/>
-      <c r="BY75" s="34"/>
-      <c r="BZ75" s="35" t="s">
+      <c r="BW75" s="29"/>
+      <c r="BX75" s="29"/>
+      <c r="BY75" s="29"/>
+      <c r="BZ75" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="34"/>
-      <c r="CB75" s="34"/>
-      <c r="CC75" s="34"/>
-      <c r="CD75" s="35" t="s">
+      <c r="CA75" s="29"/>
+      <c r="CB75" s="29"/>
+      <c r="CC75" s="29"/>
+      <c r="CD75" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="CE75" s="35"/>
-      <c r="CF75" s="35"/>
-      <c r="CG75" s="35"/>
-      <c r="CH75" s="35" t="s">
+      <c r="CE75" s="27"/>
+      <c r="CF75" s="27"/>
+      <c r="CG75" s="27"/>
+      <c r="CH75" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="CI75" s="35"/>
-      <c r="CJ75" s="35"/>
-      <c r="CK75" s="35"/>
-      <c r="CL75" s="34" t="s">
+      <c r="CI75" s="27"/>
+      <c r="CJ75" s="27"/>
+      <c r="CK75" s="27"/>
+      <c r="CL75" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="CM75" s="34"/>
-      <c r="CN75" s="34"/>
-      <c r="CO75" s="31"/>
-      <c r="CP75" s="22"/>
-      <c r="CQ75" s="22"/>
-      <c r="CR75" s="22"/>
+      <c r="CM75" s="26"/>
+      <c r="CN75" s="26"/>
+      <c r="CO75" s="26"/>
+      <c r="CP75" s="25"/>
+      <c r="CQ75" s="25"/>
+      <c r="CR75" s="25"/>
+      <c r="CS75" s="25"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
@@ -34132,19 +34182,22 @@
       <c r="CK76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL76" s="32" t="s">
+      <c r="CL76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CM76" s="32" t="s">
+      <c r="CM76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CN76" s="32" t="s">
+      <c r="CN76" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CO76" s="32"/>
-      <c r="CP76" s="32"/>
-      <c r="CQ76" s="32"/>
-      <c r="CR76" s="32"/>
+      <c r="CO76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP76" s="6"/>
+      <c r="CQ76" s="6"/>
+      <c r="CR76" s="6"/>
+      <c r="CS76" s="6"/>
     </row>
     <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
@@ -34417,20 +34470,22 @@
       <c r="CK78" s="16">
         <v>15.202170736813599</v>
       </c>
-      <c r="CL78" s="33">
+      <c r="CL78" s="16">
         <v>10.744856792615806</v>
       </c>
-      <c r="CM78" s="33">
+      <c r="CM78" s="16">
         <v>18.610215949479695</v>
       </c>
-      <c r="CN78" s="33">
-        <v>11.933575185976792</v>
-      </c>
-      <c r="CO78" s="33"/>
-      <c r="CP78" s="33"/>
-      <c r="CQ78" s="33"/>
-      <c r="CR78" s="33"/>
-      <c r="CS78" s="10"/>
+      <c r="CN78" s="16">
+        <v>11.967652888044356</v>
+      </c>
+      <c r="CO78" s="16">
+        <v>12.049965415971513</v>
+      </c>
+      <c r="CP78" s="16"/>
+      <c r="CQ78" s="16"/>
+      <c r="CR78" s="16"/>
+      <c r="CS78" s="16"/>
       <c r="CT78" s="10"/>
       <c r="CU78" s="10"/>
       <c r="CV78" s="10"/>
@@ -34753,20 +34808,22 @@
       <c r="CK79" s="16">
         <v>38.540254294755073</v>
       </c>
-      <c r="CL79" s="33">
+      <c r="CL79" s="16">
         <v>32.476654835805874</v>
       </c>
-      <c r="CM79" s="33">
+      <c r="CM79" s="16">
         <v>14.966446083740252</v>
       </c>
-      <c r="CN79" s="33">
-        <v>17.215055294620413</v>
-      </c>
-      <c r="CO79" s="33"/>
-      <c r="CP79" s="33"/>
-      <c r="CQ79" s="33"/>
-      <c r="CR79" s="33"/>
-      <c r="CS79" s="10"/>
+      <c r="CN79" s="16">
+        <v>12.994719963964101</v>
+      </c>
+      <c r="CO79" s="16">
+        <v>4.2962835412963614</v>
+      </c>
+      <c r="CP79" s="16"/>
+      <c r="CQ79" s="16"/>
+      <c r="CR79" s="16"/>
+      <c r="CS79" s="16"/>
       <c r="CT79" s="10"/>
       <c r="CU79" s="10"/>
       <c r="CV79" s="10"/>
@@ -35089,20 +35146,22 @@
       <c r="CK80" s="16">
         <v>139.65433446307011</v>
       </c>
-      <c r="CL80" s="33">
+      <c r="CL80" s="16">
         <v>55.360591641683953</v>
       </c>
-      <c r="CM80" s="33">
+      <c r="CM80" s="16">
         <v>43.29699011816578</v>
       </c>
-      <c r="CN80" s="33">
-        <v>35.045878235340666</v>
-      </c>
-      <c r="CO80" s="33"/>
-      <c r="CP80" s="33"/>
-      <c r="CQ80" s="33"/>
-      <c r="CR80" s="33"/>
-      <c r="CS80" s="10"/>
+      <c r="CN80" s="16">
+        <v>34.788048504111714</v>
+      </c>
+      <c r="CO80" s="16">
+        <v>13.477244444551516</v>
+      </c>
+      <c r="CP80" s="16"/>
+      <c r="CQ80" s="16"/>
+      <c r="CR80" s="16"/>
+      <c r="CS80" s="16"/>
       <c r="CT80" s="10"/>
       <c r="CU80" s="10"/>
       <c r="CV80" s="10"/>
@@ -35425,20 +35484,22 @@
       <c r="CK81" s="16">
         <v>1.988296426604208</v>
       </c>
-      <c r="CL81" s="33">
+      <c r="CL81" s="16">
         <v>3.5178568900711298</v>
       </c>
-      <c r="CM81" s="33">
+      <c r="CM81" s="16">
         <v>6.5345632626577128</v>
       </c>
-      <c r="CN81" s="33">
-        <v>0.80481580849991019</v>
-      </c>
-      <c r="CO81" s="33"/>
-      <c r="CP81" s="33"/>
-      <c r="CQ81" s="33"/>
-      <c r="CR81" s="33"/>
-      <c r="CS81" s="10"/>
+      <c r="CN81" s="16">
+        <v>3.0442479620353708</v>
+      </c>
+      <c r="CO81" s="16">
+        <v>4.4783332701117615</v>
+      </c>
+      <c r="CP81" s="16"/>
+      <c r="CQ81" s="16"/>
+      <c r="CR81" s="16"/>
+      <c r="CS81" s="16"/>
       <c r="CT81" s="10"/>
       <c r="CU81" s="10"/>
       <c r="CV81" s="10"/>
@@ -35761,20 +35822,22 @@
       <c r="CK82" s="16">
         <v>-1.6109807955546813</v>
       </c>
-      <c r="CL82" s="33">
+      <c r="CL82" s="16">
         <v>12.439820402256458</v>
       </c>
-      <c r="CM82" s="33">
+      <c r="CM82" s="16">
         <v>12.604724478804968</v>
       </c>
-      <c r="CN82" s="33">
+      <c r="CN82" s="16">
         <v>10.107637869440495</v>
       </c>
-      <c r="CO82" s="33"/>
-      <c r="CP82" s="33"/>
-      <c r="CQ82" s="33"/>
-      <c r="CR82" s="33"/>
-      <c r="CS82" s="10"/>
+      <c r="CO82" s="16">
+        <v>5.9859240152696884</v>
+      </c>
+      <c r="CP82" s="16"/>
+      <c r="CQ82" s="16"/>
+      <c r="CR82" s="16"/>
+      <c r="CS82" s="16"/>
       <c r="CT82" s="10"/>
       <c r="CU82" s="10"/>
       <c r="CV82" s="10"/>
@@ -35918,13 +35981,13 @@
       <c r="CI83" s="10"/>
       <c r="CJ83" s="10"/>
       <c r="CK83" s="10"/>
-      <c r="CL83" s="27"/>
-      <c r="CM83" s="27"/>
-      <c r="CN83" s="27"/>
-      <c r="CO83" s="27"/>
-      <c r="CP83" s="27"/>
-      <c r="CQ83" s="27"/>
-      <c r="CR83" s="27"/>
+      <c r="CL83" s="10"/>
+      <c r="CM83" s="10"/>
+      <c r="CN83" s="10"/>
+      <c r="CO83" s="10"/>
+      <c r="CP83" s="10"/>
+      <c r="CQ83" s="10"/>
+      <c r="CR83" s="10"/>
       <c r="CS83" s="10"/>
       <c r="CT83" s="10"/>
       <c r="CU83" s="10"/>
@@ -36248,20 +36311,22 @@
       <c r="CK84" s="16">
         <v>18.947222901596405</v>
       </c>
-      <c r="CL84" s="33">
+      <c r="CL84" s="16">
         <v>14.602244299708758</v>
       </c>
-      <c r="CM84" s="33">
+      <c r="CM84" s="16">
         <v>17.477230866085549</v>
       </c>
-      <c r="CN84" s="33">
-        <v>11.600642771251586</v>
-      </c>
-      <c r="CO84" s="33"/>
-      <c r="CP84" s="33"/>
-      <c r="CQ84" s="33"/>
-      <c r="CR84" s="33"/>
-      <c r="CS84" s="10"/>
+      <c r="CN84" s="16">
+        <v>12.06842726853408</v>
+      </c>
+      <c r="CO84" s="16">
+        <v>9.7032771148343357</v>
+      </c>
+      <c r="CP84" s="16"/>
+      <c r="CQ84" s="16"/>
+      <c r="CR84" s="16"/>
+      <c r="CS84" s="16"/>
       <c r="CT84" s="10"/>
       <c r="CU84" s="10"/>
       <c r="CV84" s="10"/>
@@ -36406,13 +36471,14 @@
       <c r="CI85" s="13"/>
       <c r="CJ85" s="13"/>
       <c r="CK85" s="13"/>
-      <c r="CL85" s="30"/>
-      <c r="CM85" s="30"/>
-      <c r="CN85" s="30"/>
-      <c r="CO85" s="30"/>
-      <c r="CP85" s="30"/>
-      <c r="CQ85" s="30"/>
-      <c r="CR85" s="30"/>
+      <c r="CL85" s="13"/>
+      <c r="CM85" s="13"/>
+      <c r="CN85" s="13"/>
+      <c r="CO85" s="13"/>
+      <c r="CP85" s="13"/>
+      <c r="CQ85" s="13"/>
+      <c r="CR85" s="13"/>
+      <c r="CS85" s="13"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
@@ -36508,13 +36574,13 @@
       <c r="CI87" s="10"/>
       <c r="CJ87" s="10"/>
       <c r="CK87" s="10"/>
-      <c r="CL87" s="27"/>
-      <c r="CM87" s="27"/>
-      <c r="CN87" s="27"/>
-      <c r="CO87" s="27"/>
-      <c r="CP87" s="27"/>
-      <c r="CQ87" s="27"/>
-      <c r="CR87" s="27"/>
+      <c r="CL87" s="10"/>
+      <c r="CM87" s="10"/>
+      <c r="CN87" s="10"/>
+      <c r="CO87" s="10"/>
+      <c r="CP87" s="10"/>
+      <c r="CQ87" s="10"/>
+      <c r="CR87" s="10"/>
       <c r="CS87" s="10"/>
       <c r="CT87" s="10"/>
       <c r="CU87" s="10"/>
@@ -36659,13 +36725,13 @@
       <c r="CI88" s="10"/>
       <c r="CJ88" s="10"/>
       <c r="CK88" s="10"/>
-      <c r="CL88" s="27"/>
-      <c r="CM88" s="27"/>
-      <c r="CN88" s="27"/>
-      <c r="CO88" s="27"/>
-      <c r="CP88" s="27"/>
-      <c r="CQ88" s="27"/>
-      <c r="CR88" s="27"/>
+      <c r="CL88" s="10"/>
+      <c r="CM88" s="10"/>
+      <c r="CN88" s="10"/>
+      <c r="CO88" s="10"/>
+      <c r="CP88" s="10"/>
+      <c r="CQ88" s="10"/>
+      <c r="CR88" s="10"/>
       <c r="CS88" s="10"/>
       <c r="CT88" s="10"/>
       <c r="CU88" s="10"/>
@@ -36728,7 +36794,7 @@
     </row>
     <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.2">
@@ -36738,7 +36804,7 @@
     </row>
     <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:150" x14ac:dyDescent="0.2">
@@ -36748,149 +36814,150 @@
     </row>
     <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="35">
+      <c r="B96" s="27">
         <v>2000</v>
       </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="35">
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="27">
         <v>2001</v>
       </c>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="35">
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="27">
         <v>2002</v>
       </c>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="35">
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="27">
         <v>2003</v>
       </c>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="35">
+      <c r="O96" s="28"/>
+      <c r="P96" s="28"/>
+      <c r="Q96" s="28"/>
+      <c r="R96" s="27">
         <v>2004</v>
       </c>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="35">
+      <c r="S96" s="28"/>
+      <c r="T96" s="28"/>
+      <c r="U96" s="28"/>
+      <c r="V96" s="27">
         <v>2005</v>
       </c>
-      <c r="W96" s="36"/>
-      <c r="X96" s="36"/>
-      <c r="Y96" s="36"/>
-      <c r="Z96" s="35">
+      <c r="W96" s="28"/>
+      <c r="X96" s="28"/>
+      <c r="Y96" s="28"/>
+      <c r="Z96" s="27">
         <v>2006</v>
       </c>
-      <c r="AA96" s="36"/>
-      <c r="AB96" s="36"/>
-      <c r="AC96" s="36"/>
-      <c r="AD96" s="35">
+      <c r="AA96" s="28"/>
+      <c r="AB96" s="28"/>
+      <c r="AC96" s="28"/>
+      <c r="AD96" s="27">
         <v>2007</v>
       </c>
-      <c r="AE96" s="36"/>
-      <c r="AF96" s="36"/>
-      <c r="AG96" s="36"/>
-      <c r="AH96" s="35">
+      <c r="AE96" s="28"/>
+      <c r="AF96" s="28"/>
+      <c r="AG96" s="28"/>
+      <c r="AH96" s="27">
         <v>2008</v>
       </c>
-      <c r="AI96" s="36"/>
-      <c r="AJ96" s="36"/>
-      <c r="AK96" s="36"/>
-      <c r="AL96" s="35">
+      <c r="AI96" s="28"/>
+      <c r="AJ96" s="28"/>
+      <c r="AK96" s="28"/>
+      <c r="AL96" s="27">
         <v>2009</v>
       </c>
-      <c r="AM96" s="36"/>
-      <c r="AN96" s="36"/>
-      <c r="AO96" s="36"/>
-      <c r="AP96" s="35">
+      <c r="AM96" s="28"/>
+      <c r="AN96" s="28"/>
+      <c r="AO96" s="28"/>
+      <c r="AP96" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="36"/>
-      <c r="AR96" s="36"/>
-      <c r="AS96" s="36"/>
-      <c r="AT96" s="35">
+      <c r="AQ96" s="28"/>
+      <c r="AR96" s="28"/>
+      <c r="AS96" s="28"/>
+      <c r="AT96" s="27">
         <v>2011</v>
       </c>
-      <c r="AU96" s="36"/>
-      <c r="AV96" s="36"/>
-      <c r="AW96" s="36"/>
-      <c r="AX96" s="35">
+      <c r="AU96" s="28"/>
+      <c r="AV96" s="28"/>
+      <c r="AW96" s="28"/>
+      <c r="AX96" s="27">
         <v>2012</v>
       </c>
-      <c r="AY96" s="36"/>
-      <c r="AZ96" s="36"/>
-      <c r="BA96" s="36"/>
-      <c r="BB96" s="35">
+      <c r="AY96" s="28"/>
+      <c r="AZ96" s="28"/>
+      <c r="BA96" s="28"/>
+      <c r="BB96" s="27">
         <v>2013</v>
       </c>
-      <c r="BC96" s="36"/>
-      <c r="BD96" s="36"/>
-      <c r="BE96" s="36"/>
-      <c r="BF96" s="35">
+      <c r="BC96" s="28"/>
+      <c r="BD96" s="28"/>
+      <c r="BE96" s="28"/>
+      <c r="BF96" s="27">
         <v>2014</v>
       </c>
-      <c r="BG96" s="36"/>
-      <c r="BH96" s="36"/>
-      <c r="BI96" s="36"/>
-      <c r="BJ96" s="35">
+      <c r="BG96" s="28"/>
+      <c r="BH96" s="28"/>
+      <c r="BI96" s="28"/>
+      <c r="BJ96" s="27">
         <v>2015</v>
       </c>
-      <c r="BK96" s="36"/>
-      <c r="BL96" s="36"/>
-      <c r="BM96" s="36"/>
-      <c r="BN96" s="35">
+      <c r="BK96" s="28"/>
+      <c r="BL96" s="28"/>
+      <c r="BM96" s="28"/>
+      <c r="BN96" s="27">
         <v>2016</v>
       </c>
-      <c r="BO96" s="36"/>
-      <c r="BP96" s="36"/>
-      <c r="BQ96" s="36"/>
-      <c r="BR96" s="35">
+      <c r="BO96" s="28"/>
+      <c r="BP96" s="28"/>
+      <c r="BQ96" s="28"/>
+      <c r="BR96" s="27">
         <v>2017</v>
       </c>
-      <c r="BS96" s="36"/>
-      <c r="BT96" s="36"/>
-      <c r="BU96" s="36"/>
-      <c r="BV96" s="35">
+      <c r="BS96" s="28"/>
+      <c r="BT96" s="28"/>
+      <c r="BU96" s="28"/>
+      <c r="BV96" s="27">
         <v>2018</v>
       </c>
-      <c r="BW96" s="36"/>
-      <c r="BX96" s="36"/>
-      <c r="BY96" s="36"/>
-      <c r="BZ96" s="35">
+      <c r="BW96" s="28"/>
+      <c r="BX96" s="28"/>
+      <c r="BY96" s="28"/>
+      <c r="BZ96" s="27">
         <v>2019</v>
       </c>
-      <c r="CA96" s="36"/>
-      <c r="CB96" s="36"/>
-      <c r="CC96" s="36"/>
-      <c r="CD96" s="35">
+      <c r="CA96" s="28"/>
+      <c r="CB96" s="28"/>
+      <c r="CC96" s="28"/>
+      <c r="CD96" s="27">
         <v>2020</v>
       </c>
-      <c r="CE96" s="35"/>
-      <c r="CF96" s="35"/>
-      <c r="CG96" s="35"/>
-      <c r="CH96" s="35">
+      <c r="CE96" s="27"/>
+      <c r="CF96" s="27"/>
+      <c r="CG96" s="27"/>
+      <c r="CH96" s="27">
         <v>2021</v>
       </c>
-      <c r="CI96" s="35"/>
-      <c r="CJ96" s="35"/>
-      <c r="CK96" s="35"/>
-      <c r="CL96" s="34">
+      <c r="CI96" s="27"/>
+      <c r="CJ96" s="27"/>
+      <c r="CK96" s="27"/>
+      <c r="CL96" s="26">
         <v>2022</v>
       </c>
-      <c r="CM96" s="34"/>
-      <c r="CN96" s="34"/>
-      <c r="CO96" s="34"/>
-      <c r="CP96" s="34">
+      <c r="CM96" s="26"/>
+      <c r="CN96" s="26"/>
+      <c r="CO96" s="26"/>
+      <c r="CP96" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ96" s="34"/>
-      <c r="CR96" s="34"/>
+      <c r="CQ96" s="26"/>
+      <c r="CR96" s="26"/>
+      <c r="CS96" s="26"/>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -37160,26 +37227,29 @@
       <c r="CK97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL97" s="25" t="s">
+      <c r="CL97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CM97" s="25" t="s">
+      <c r="CM97" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CN97" s="25" t="s">
+      <c r="CN97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO97" s="25" t="s">
+      <c r="CO97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP97" s="25" t="s">
+      <c r="CP97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CQ97" s="25" t="s">
+      <c r="CQ97" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CR97" s="25" t="s">
+      <c r="CR97" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CS97" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37453,28 +37523,30 @@
       <c r="CK99" s="16">
         <v>111.04905710404087</v>
       </c>
-      <c r="CL99" s="33">
+      <c r="CL99" s="16">
         <v>111.44039659485242</v>
       </c>
-      <c r="CM99" s="33">
+      <c r="CM99" s="16">
         <v>128.2866589087653</v>
       </c>
-      <c r="CN99" s="33">
+      <c r="CN99" s="16">
         <v>139.31231418081757</v>
       </c>
-      <c r="CO99" s="33">
+      <c r="CO99" s="16">
         <v>123.50895300182034</v>
       </c>
-      <c r="CP99" s="33">
+      <c r="CP99" s="16">
         <v>124.96604439146837</v>
       </c>
-      <c r="CQ99" s="33">
+      <c r="CQ99" s="16">
         <v>143.06781777622629</v>
       </c>
-      <c r="CR99" s="33">
-        <v>147.72043405313892</v>
-      </c>
-      <c r="CS99" s="10"/>
+      <c r="CR99" s="16">
+        <v>147.720434053139</v>
+      </c>
+      <c r="CS99" s="16">
+        <v>126.60983207140346</v>
+      </c>
       <c r="CT99" s="10"/>
       <c r="CU99" s="10"/>
       <c r="CV99" s="10"/>
@@ -37801,28 +37873,30 @@
       <c r="CK100" s="16">
         <v>96.007127085427172</v>
       </c>
-      <c r="CL100" s="33">
+      <c r="CL100" s="16">
         <v>103.40005983270461</v>
       </c>
-      <c r="CM100" s="33">
+      <c r="CM100" s="16">
         <v>105.68793132655088</v>
       </c>
-      <c r="CN100" s="33">
+      <c r="CN100" s="16">
         <v>145.52041346807806</v>
       </c>
-      <c r="CO100" s="33">
+      <c r="CO100" s="16">
         <v>92.35656597458059</v>
       </c>
-      <c r="CP100" s="33">
+      <c r="CP100" s="16">
         <v>106.55510314601457</v>
       </c>
-      <c r="CQ100" s="33">
+      <c r="CQ100" s="16">
         <v>104.12080693643613</v>
       </c>
-      <c r="CR100" s="33">
+      <c r="CR100" s="16">
         <v>141.61483333887023</v>
       </c>
-      <c r="CS100" s="10"/>
+      <c r="CS100" s="16">
+        <v>101.50797088435304</v>
+      </c>
       <c r="CT100" s="10"/>
       <c r="CU100" s="10"/>
       <c r="CV100" s="10"/>
@@ -38149,28 +38223,30 @@
       <c r="CK101" s="16">
         <v>108.64928036835759</v>
       </c>
-      <c r="CL101" s="33">
+      <c r="CL101" s="16">
         <v>90.144563382725522</v>
       </c>
-      <c r="CM101" s="33">
+      <c r="CM101" s="16">
         <v>104.91420841713482</v>
       </c>
-      <c r="CN101" s="33">
+      <c r="CN101" s="16">
         <v>126.23217321504225</v>
       </c>
-      <c r="CO101" s="33">
+      <c r="CO101" s="16">
         <v>139.65345817177814</v>
       </c>
-      <c r="CP101" s="33">
+      <c r="CP101" s="16">
         <v>120.66677029953917</v>
       </c>
-      <c r="CQ101" s="33">
+      <c r="CQ101" s="16">
         <v>131.45787386825438</v>
       </c>
-      <c r="CR101" s="33">
-        <v>126.59263059144148</v>
-      </c>
-      <c r="CS101" s="10"/>
+      <c r="CR101" s="16">
+        <v>126.59263059144152</v>
+      </c>
+      <c r="CS101" s="16">
+        <v>142.96370467055149</v>
+      </c>
       <c r="CT101" s="10"/>
       <c r="CU101" s="10"/>
       <c r="CV101" s="10"/>
@@ -38497,28 +38573,30 @@
       <c r="CK102" s="16">
         <v>96.862947400733802</v>
       </c>
-      <c r="CL102" s="33">
+      <c r="CL102" s="16">
         <v>97.244644640328787</v>
       </c>
-      <c r="CM102" s="33">
+      <c r="CM102" s="16">
         <v>120.58121264491753</v>
       </c>
-      <c r="CN102" s="33">
+      <c r="CN102" s="16">
         <v>114.83900865274465</v>
       </c>
-      <c r="CO102" s="33">
+      <c r="CO102" s="16">
         <v>115.52979932111987</v>
       </c>
-      <c r="CP102" s="33">
+      <c r="CP102" s="16">
         <v>108.78936473222898</v>
       </c>
-      <c r="CQ102" s="33">
+      <c r="CQ102" s="16">
         <v>130.30730637495333</v>
       </c>
-      <c r="CR102" s="33">
-        <v>115.91771285861903</v>
-      </c>
-      <c r="CS102" s="10"/>
+      <c r="CR102" s="16">
+        <v>116.8139591543365</v>
+      </c>
+      <c r="CS102" s="16">
+        <v>117.67456008105623</v>
+      </c>
       <c r="CT102" s="10"/>
       <c r="CU102" s="10"/>
       <c r="CV102" s="10"/>
@@ -38845,28 +38923,30 @@
       <c r="CK103" s="16">
         <v>100.48116508940956</v>
       </c>
-      <c r="CL103" s="33">
+      <c r="CL103" s="16">
         <v>101.17588159218451</v>
       </c>
-      <c r="CM103" s="33">
+      <c r="CM103" s="16">
         <v>104.16644740118019</v>
       </c>
-      <c r="CN103" s="33">
+      <c r="CN103" s="16">
         <v>103.91686246986632</v>
       </c>
-      <c r="CO103" s="33">
+      <c r="CO103" s="16">
         <v>100.67310618795669</v>
       </c>
-      <c r="CP103" s="33">
+      <c r="CP103" s="16">
         <v>101.46578383170367</v>
       </c>
-      <c r="CQ103" s="33">
+      <c r="CQ103" s="16">
         <v>104.36523833133514</v>
       </c>
-      <c r="CR103" s="33">
+      <c r="CR103" s="16">
         <v>104.08196711312956</v>
       </c>
-      <c r="CS103" s="10"/>
+      <c r="CS103" s="16">
+        <v>100.86504728650377</v>
+      </c>
       <c r="CT103" s="10"/>
       <c r="CU103" s="10"/>
       <c r="CV103" s="10"/>
@@ -39014,13 +39094,13 @@
       <c r="CI104" s="10"/>
       <c r="CJ104" s="10"/>
       <c r="CK104" s="10"/>
-      <c r="CL104" s="27"/>
-      <c r="CM104" s="27"/>
-      <c r="CN104" s="27"/>
-      <c r="CO104" s="27"/>
-      <c r="CP104" s="27"/>
-      <c r="CQ104" s="27"/>
-      <c r="CR104" s="27"/>
+      <c r="CL104" s="10"/>
+      <c r="CM104" s="10"/>
+      <c r="CN104" s="10"/>
+      <c r="CO104" s="10"/>
+      <c r="CP104" s="10"/>
+      <c r="CQ104" s="10"/>
+      <c r="CR104" s="10"/>
       <c r="CS104" s="10"/>
       <c r="CT104" s="10"/>
       <c r="CU104" s="10"/>
@@ -39348,28 +39428,30 @@
       <c r="CK105" s="16">
         <v>105.62434371056453</v>
       </c>
-      <c r="CL105" s="33">
+      <c r="CL105" s="16">
         <v>104.0848011661212</v>
       </c>
-      <c r="CM105" s="33">
+      <c r="CM105" s="16">
         <v>120.67990287315418</v>
       </c>
-      <c r="CN105" s="33">
+      <c r="CN105" s="16">
         <v>129.72599329483037</v>
       </c>
-      <c r="CO105" s="33">
+      <c r="CO105" s="16">
         <v>120.94356317684468</v>
       </c>
-      <c r="CP105" s="33">
+      <c r="CP105" s="16">
         <v>117.88874545403625</v>
       </c>
-      <c r="CQ105" s="33">
+      <c r="CQ105" s="16">
         <v>133.92914368341764</v>
       </c>
-      <c r="CR105" s="33">
-        <v>134.74553661092634</v>
-      </c>
-      <c r="CS105" s="10"/>
+      <c r="CR105" s="16">
+        <v>134.8662088263988</v>
+      </c>
+      <c r="CS105" s="16">
+        <v>124.28219560156543</v>
+      </c>
       <c r="CT105" s="10"/>
       <c r="CU105" s="10"/>
       <c r="CV105" s="10"/>
@@ -39518,13 +39600,14 @@
       <c r="CI106" s="13"/>
       <c r="CJ106" s="13"/>
       <c r="CK106" s="13"/>
-      <c r="CL106" s="30"/>
-      <c r="CM106" s="30"/>
-      <c r="CN106" s="30"/>
-      <c r="CO106" s="30"/>
-      <c r="CP106" s="30"/>
-      <c r="CQ106" s="30"/>
-      <c r="CR106" s="30"/>
+      <c r="CL106" s="13"/>
+      <c r="CM106" s="13"/>
+      <c r="CN106" s="13"/>
+      <c r="CO106" s="13"/>
+      <c r="CP106" s="13"/>
+      <c r="CQ106" s="13"/>
+      <c r="CR106" s="13"/>
+      <c r="CS106" s="13"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -39543,7 +39626,7 @@
     </row>
     <row r="112" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
@@ -39553,7 +39636,7 @@
     </row>
     <row r="115" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="1:154" x14ac:dyDescent="0.2">
@@ -39563,149 +39646,150 @@
     </row>
     <row r="118" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="35">
+      <c r="B118" s="27">
         <v>2000</v>
       </c>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="35">
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="27">
         <v>2001</v>
       </c>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="35">
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="27">
         <v>2002</v>
       </c>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="36"/>
-      <c r="N118" s="35">
+      <c r="K118" s="28"/>
+      <c r="L118" s="28"/>
+      <c r="M118" s="28"/>
+      <c r="N118" s="27">
         <v>2003</v>
       </c>
-      <c r="O118" s="36"/>
-      <c r="P118" s="36"/>
-      <c r="Q118" s="36"/>
-      <c r="R118" s="35">
+      <c r="O118" s="28"/>
+      <c r="P118" s="28"/>
+      <c r="Q118" s="28"/>
+      <c r="R118" s="27">
         <v>2004</v>
       </c>
-      <c r="S118" s="36"/>
-      <c r="T118" s="36"/>
-      <c r="U118" s="36"/>
-      <c r="V118" s="35">
+      <c r="S118" s="28"/>
+      <c r="T118" s="28"/>
+      <c r="U118" s="28"/>
+      <c r="V118" s="27">
         <v>2005</v>
       </c>
-      <c r="W118" s="36"/>
-      <c r="X118" s="36"/>
-      <c r="Y118" s="36"/>
-      <c r="Z118" s="35">
+      <c r="W118" s="28"/>
+      <c r="X118" s="28"/>
+      <c r="Y118" s="28"/>
+      <c r="Z118" s="27">
         <v>2006</v>
       </c>
-      <c r="AA118" s="36"/>
-      <c r="AB118" s="36"/>
-      <c r="AC118" s="36"/>
-      <c r="AD118" s="35">
+      <c r="AA118" s="28"/>
+      <c r="AB118" s="28"/>
+      <c r="AC118" s="28"/>
+      <c r="AD118" s="27">
         <v>2007</v>
       </c>
-      <c r="AE118" s="36"/>
-      <c r="AF118" s="36"/>
-      <c r="AG118" s="36"/>
-      <c r="AH118" s="35">
+      <c r="AE118" s="28"/>
+      <c r="AF118" s="28"/>
+      <c r="AG118" s="28"/>
+      <c r="AH118" s="27">
         <v>2008</v>
       </c>
-      <c r="AI118" s="36"/>
-      <c r="AJ118" s="36"/>
-      <c r="AK118" s="36"/>
-      <c r="AL118" s="35">
+      <c r="AI118" s="28"/>
+      <c r="AJ118" s="28"/>
+      <c r="AK118" s="28"/>
+      <c r="AL118" s="27">
         <v>2009</v>
       </c>
-      <c r="AM118" s="36"/>
-      <c r="AN118" s="36"/>
-      <c r="AO118" s="36"/>
-      <c r="AP118" s="35">
+      <c r="AM118" s="28"/>
+      <c r="AN118" s="28"/>
+      <c r="AO118" s="28"/>
+      <c r="AP118" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="36"/>
-      <c r="AR118" s="36"/>
-      <c r="AS118" s="36"/>
-      <c r="AT118" s="35">
+      <c r="AQ118" s="28"/>
+      <c r="AR118" s="28"/>
+      <c r="AS118" s="28"/>
+      <c r="AT118" s="27">
         <v>2011</v>
       </c>
-      <c r="AU118" s="36"/>
-      <c r="AV118" s="36"/>
-      <c r="AW118" s="36"/>
-      <c r="AX118" s="35">
+      <c r="AU118" s="28"/>
+      <c r="AV118" s="28"/>
+      <c r="AW118" s="28"/>
+      <c r="AX118" s="27">
         <v>2012</v>
       </c>
-      <c r="AY118" s="36"/>
-      <c r="AZ118" s="36"/>
-      <c r="BA118" s="36"/>
-      <c r="BB118" s="35">
+      <c r="AY118" s="28"/>
+      <c r="AZ118" s="28"/>
+      <c r="BA118" s="28"/>
+      <c r="BB118" s="27">
         <v>2013</v>
       </c>
-      <c r="BC118" s="36"/>
-      <c r="BD118" s="36"/>
-      <c r="BE118" s="36"/>
-      <c r="BF118" s="35">
+      <c r="BC118" s="28"/>
+      <c r="BD118" s="28"/>
+      <c r="BE118" s="28"/>
+      <c r="BF118" s="27">
         <v>2014</v>
       </c>
-      <c r="BG118" s="36"/>
-      <c r="BH118" s="36"/>
-      <c r="BI118" s="36"/>
-      <c r="BJ118" s="35">
+      <c r="BG118" s="28"/>
+      <c r="BH118" s="28"/>
+      <c r="BI118" s="28"/>
+      <c r="BJ118" s="27">
         <v>2015</v>
       </c>
-      <c r="BK118" s="36"/>
-      <c r="BL118" s="36"/>
-      <c r="BM118" s="36"/>
-      <c r="BN118" s="35">
+      <c r="BK118" s="28"/>
+      <c r="BL118" s="28"/>
+      <c r="BM118" s="28"/>
+      <c r="BN118" s="27">
         <v>2016</v>
       </c>
-      <c r="BO118" s="36"/>
-      <c r="BP118" s="36"/>
-      <c r="BQ118" s="36"/>
-      <c r="BR118" s="35">
+      <c r="BO118" s="28"/>
+      <c r="BP118" s="28"/>
+      <c r="BQ118" s="28"/>
+      <c r="BR118" s="27">
         <v>2017</v>
       </c>
-      <c r="BS118" s="36"/>
-      <c r="BT118" s="36"/>
-      <c r="BU118" s="36"/>
-      <c r="BV118" s="35">
+      <c r="BS118" s="28"/>
+      <c r="BT118" s="28"/>
+      <c r="BU118" s="28"/>
+      <c r="BV118" s="27">
         <v>2018</v>
       </c>
-      <c r="BW118" s="36"/>
-      <c r="BX118" s="36"/>
-      <c r="BY118" s="36"/>
-      <c r="BZ118" s="35">
+      <c r="BW118" s="28"/>
+      <c r="BX118" s="28"/>
+      <c r="BY118" s="28"/>
+      <c r="BZ118" s="27">
         <v>2019</v>
       </c>
-      <c r="CA118" s="36"/>
-      <c r="CB118" s="36"/>
-      <c r="CC118" s="36"/>
-      <c r="CD118" s="35">
+      <c r="CA118" s="28"/>
+      <c r="CB118" s="28"/>
+      <c r="CC118" s="28"/>
+      <c r="CD118" s="27">
         <v>2020</v>
       </c>
-      <c r="CE118" s="35"/>
-      <c r="CF118" s="35"/>
-      <c r="CG118" s="35"/>
-      <c r="CH118" s="35">
+      <c r="CE118" s="27"/>
+      <c r="CF118" s="27"/>
+      <c r="CG118" s="27"/>
+      <c r="CH118" s="27">
         <v>2021</v>
       </c>
-      <c r="CI118" s="35"/>
-      <c r="CJ118" s="35"/>
-      <c r="CK118" s="35"/>
-      <c r="CL118" s="34">
+      <c r="CI118" s="27"/>
+      <c r="CJ118" s="27"/>
+      <c r="CK118" s="27"/>
+      <c r="CL118" s="26">
         <v>2022</v>
       </c>
-      <c r="CM118" s="34"/>
-      <c r="CN118" s="34"/>
-      <c r="CO118" s="34"/>
-      <c r="CP118" s="34">
+      <c r="CM118" s="26"/>
+      <c r="CN118" s="26"/>
+      <c r="CO118" s="26"/>
+      <c r="CP118" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ118" s="34"/>
-      <c r="CR118" s="34"/>
+      <c r="CQ118" s="26"/>
+      <c r="CR118" s="26"/>
+      <c r="CS118" s="26"/>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
@@ -39975,26 +40059,29 @@
       <c r="CK119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL119" s="25" t="s">
+      <c r="CL119" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CM119" s="25" t="s">
+      <c r="CM119" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CN119" s="25" t="s">
+      <c r="CN119" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO119" s="25" t="s">
+      <c r="CO119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP119" s="25" t="s">
+      <c r="CP119" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CQ119" s="25" t="s">
+      <c r="CQ119" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CR119" s="25" t="s">
+      <c r="CR119" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CS119" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40268,28 +40355,30 @@
       <c r="CK121" s="16">
         <v>58.598600961947668</v>
       </c>
-      <c r="CL121" s="33">
+      <c r="CL121" s="16">
         <v>53.616131504509667</v>
       </c>
-      <c r="CM121" s="33">
+      <c r="CM121" s="16">
         <v>50.61977224196967</v>
       </c>
-      <c r="CN121" s="33">
+      <c r="CN121" s="16">
         <v>56.764749697483886</v>
       </c>
-      <c r="CO121" s="33">
+      <c r="CO121" s="16">
         <v>55.126247661394714</v>
       </c>
-      <c r="CP121" s="33">
+      <c r="CP121" s="16">
         <v>51.296798831151669</v>
       </c>
-      <c r="CQ121" s="33">
+      <c r="CQ121" s="16">
         <v>51.358094339859093</v>
       </c>
-      <c r="CR121" s="33">
-        <v>58.121403323666442</v>
-      </c>
-      <c r="CS121" s="10"/>
+      <c r="CR121" s="16">
+        <v>57.844616785846192</v>
+      </c>
+      <c r="CS121" s="16">
+        <v>56.168573257614497</v>
+      </c>
       <c r="CT121" s="10"/>
       <c r="CU121" s="10"/>
       <c r="CV121" s="10"/>
@@ -40616,28 +40705,30 @@
       <c r="CK122" s="16">
         <v>3.8927123967253832</v>
       </c>
-      <c r="CL122" s="33">
+      <c r="CL122" s="16">
         <v>5.0908267485991949</v>
       </c>
-      <c r="CM122" s="33">
+      <c r="CM122" s="16">
         <v>3.9796375744605066</v>
       </c>
-      <c r="CN122" s="33">
+      <c r="CN122" s="16">
         <v>3.9298060529069749</v>
       </c>
-      <c r="CO122" s="33">
+      <c r="CO122" s="16">
         <v>3.809075300997748</v>
       </c>
-      <c r="CP122" s="33">
+      <c r="CP122" s="16">
         <v>5.3543034713730124</v>
       </c>
-      <c r="CQ122" s="33">
+      <c r="CQ122" s="16">
         <v>3.4572669611616904</v>
       </c>
-      <c r="CR122" s="33">
-        <v>3.8670987296531623</v>
-      </c>
-      <c r="CS122" s="10"/>
+      <c r="CR122" s="16">
+        <v>3.7089815337589087</v>
+      </c>
+      <c r="CS122" s="16">
+        <v>3.873245299940193</v>
+      </c>
       <c r="CT122" s="10"/>
       <c r="CU122" s="10"/>
       <c r="CV122" s="10"/>
@@ -40964,28 +41055,30 @@
       <c r="CK123" s="16">
         <v>6.1386427781459041</v>
       </c>
-      <c r="CL123" s="33">
+      <c r="CL123" s="16">
         <v>9.3123325818934433</v>
       </c>
-      <c r="CM123" s="33">
+      <c r="CM123" s="16">
         <v>10.496703751814623</v>
       </c>
-      <c r="CN123" s="33">
+      <c r="CN123" s="16">
         <v>11.258355688044233</v>
       </c>
-      <c r="CO123" s="33">
+      <c r="CO123" s="16">
         <v>13.883835109488398</v>
       </c>
-      <c r="CP123" s="33">
+      <c r="CP123" s="16">
         <v>14.920017822052811</v>
       </c>
-      <c r="CQ123" s="33">
+      <c r="CQ123" s="16">
         <v>14.456010778982243</v>
       </c>
-      <c r="CR123" s="33">
-        <v>13.153477456806629</v>
-      </c>
-      <c r="CS123" s="10"/>
+      <c r="CR123" s="16">
+        <v>13.061868116015921</v>
+      </c>
+      <c r="CS123" s="16">
+        <v>14.306933842953336</v>
+      </c>
       <c r="CT123" s="10"/>
       <c r="CU123" s="10"/>
       <c r="CV123" s="10"/>
@@ -41312,28 +41405,30 @@
       <c r="CK124" s="16">
         <v>26.430013245887856</v>
       </c>
-      <c r="CL124" s="33">
+      <c r="CL124" s="16">
         <v>27.546932919742321</v>
       </c>
-      <c r="CM124" s="33">
+      <c r="CM124" s="16">
         <v>29.634430259824729</v>
       </c>
-      <c r="CN124" s="33">
+      <c r="CN124" s="16">
         <v>24.803055295299227</v>
       </c>
-      <c r="CO124" s="33">
+      <c r="CO124" s="16">
         <v>23.60538100736407</v>
       </c>
-      <c r="CP124" s="33">
+      <c r="CP124" s="16">
         <v>24.577127304942881</v>
       </c>
-      <c r="CQ124" s="33">
+      <c r="CQ124" s="16">
         <v>26.168714629449685</v>
       </c>
-      <c r="CR124" s="33">
-        <v>21.771720543332869</v>
-      </c>
-      <c r="CS124" s="10"/>
+      <c r="CR124" s="16">
+        <v>22.313866089126677</v>
+      </c>
+      <c r="CS124" s="16">
+        <v>22.283328156490199</v>
+      </c>
       <c r="CT124" s="10"/>
       <c r="CU124" s="10"/>
       <c r="CV124" s="10"/>
@@ -41660,28 +41755,30 @@
       <c r="CK125" s="16">
         <v>4.9400306172931989</v>
       </c>
-      <c r="CL125" s="33">
+      <c r="CL125" s="16">
         <v>4.4337762452553848</v>
       </c>
-      <c r="CM125" s="33">
+      <c r="CM125" s="16">
         <v>5.2694561719304831</v>
       </c>
-      <c r="CN125" s="33">
+      <c r="CN125" s="16">
         <v>3.244033266265677</v>
       </c>
-      <c r="CO125" s="33">
+      <c r="CO125" s="16">
         <v>3.5754609207550541</v>
       </c>
-      <c r="CP125" s="33">
+      <c r="CP125" s="16">
         <v>3.8517525704796198</v>
       </c>
-      <c r="CQ125" s="33">
+      <c r="CQ125" s="16">
         <v>4.5599132905472839</v>
       </c>
-      <c r="CR125" s="33">
-        <v>3.0862999465408967</v>
-      </c>
-      <c r="CS125" s="10"/>
+      <c r="CR125" s="16">
+        <v>3.0706674752523133</v>
+      </c>
+      <c r="CS125" s="16">
+        <v>3.3679194430017692</v>
+      </c>
       <c r="CT125" s="10"/>
       <c r="CU125" s="10"/>
       <c r="CV125" s="10"/>
@@ -41829,13 +41926,13 @@
       <c r="CI126" s="10"/>
       <c r="CJ126" s="10"/>
       <c r="CK126" s="10"/>
-      <c r="CL126" s="27"/>
-      <c r="CM126" s="27"/>
-      <c r="CN126" s="27"/>
-      <c r="CO126" s="27"/>
-      <c r="CP126" s="27"/>
-      <c r="CQ126" s="27"/>
-      <c r="CR126" s="27"/>
+      <c r="CL126" s="10"/>
+      <c r="CM126" s="10"/>
+      <c r="CN126" s="10"/>
+      <c r="CO126" s="10"/>
+      <c r="CP126" s="10"/>
+      <c r="CQ126" s="10"/>
+      <c r="CR126" s="10"/>
       <c r="CS126" s="10"/>
       <c r="CT126" s="10"/>
       <c r="CU126" s="10"/>
@@ -42163,28 +42260,30 @@
       <c r="CK127" s="16">
         <v>100</v>
       </c>
-      <c r="CL127" s="33">
+      <c r="CL127" s="16">
         <v>100</v>
       </c>
-      <c r="CM127" s="33">
+      <c r="CM127" s="16">
         <v>100</v>
       </c>
-      <c r="CN127" s="33">
+      <c r="CN127" s="16">
         <v>100</v>
       </c>
-      <c r="CO127" s="33">
+      <c r="CO127" s="16">
         <v>100</v>
       </c>
-      <c r="CP127" s="33">
+      <c r="CP127" s="16">
         <v>100</v>
       </c>
-      <c r="CQ127" s="33">
+      <c r="CQ127" s="16">
         <v>100</v>
       </c>
-      <c r="CR127" s="33">
+      <c r="CR127" s="16">
         <v>100</v>
       </c>
-      <c r="CS127" s="10"/>
+      <c r="CS127" s="16">
+        <v>100</v>
+      </c>
       <c r="CT127" s="10"/>
       <c r="CU127" s="10"/>
       <c r="CV127" s="10"/>
@@ -42333,13 +42432,14 @@
       <c r="CI128" s="13"/>
       <c r="CJ128" s="13"/>
       <c r="CK128" s="13"/>
-      <c r="CL128" s="30"/>
-      <c r="CM128" s="30"/>
-      <c r="CN128" s="30"/>
-      <c r="CO128" s="30"/>
-      <c r="CP128" s="30"/>
-      <c r="CQ128" s="30"/>
-      <c r="CR128" s="30"/>
+      <c r="CL128" s="13"/>
+      <c r="CM128" s="13"/>
+      <c r="CN128" s="13"/>
+      <c r="CO128" s="13"/>
+      <c r="CP128" s="13"/>
+      <c r="CQ128" s="13"/>
+      <c r="CR128" s="13"/>
+      <c r="CS128" s="13"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -42435,13 +42535,13 @@
       <c r="CI130" s="10"/>
       <c r="CJ130" s="10"/>
       <c r="CK130" s="10"/>
-      <c r="CL130" s="27"/>
-      <c r="CM130" s="27"/>
-      <c r="CN130" s="27"/>
-      <c r="CO130" s="27"/>
-      <c r="CP130" s="27"/>
-      <c r="CQ130" s="27"/>
-      <c r="CR130" s="27"/>
+      <c r="CL130" s="10"/>
+      <c r="CM130" s="10"/>
+      <c r="CN130" s="10"/>
+      <c r="CO130" s="10"/>
+      <c r="CP130" s="10"/>
+      <c r="CQ130" s="10"/>
+      <c r="CR130" s="10"/>
       <c r="CS130" s="10"/>
       <c r="CT130" s="10"/>
       <c r="CU130" s="10"/>
@@ -42590,13 +42690,13 @@
       <c r="CI131" s="10"/>
       <c r="CJ131" s="10"/>
       <c r="CK131" s="10"/>
-      <c r="CL131" s="27"/>
-      <c r="CM131" s="27"/>
-      <c r="CN131" s="27"/>
-      <c r="CO131" s="27"/>
-      <c r="CP131" s="27"/>
-      <c r="CQ131" s="27"/>
-      <c r="CR131" s="27"/>
+      <c r="CL131" s="10"/>
+      <c r="CM131" s="10"/>
+      <c r="CN131" s="10"/>
+      <c r="CO131" s="10"/>
+      <c r="CP131" s="10"/>
+      <c r="CQ131" s="10"/>
+      <c r="CR131" s="10"/>
       <c r="CS131" s="10"/>
       <c r="CT131" s="10"/>
       <c r="CU131" s="10"/>
@@ -42668,7 +42768,7 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136" spans="1:154" x14ac:dyDescent="0.2">
@@ -42678,7 +42778,7 @@
     </row>
     <row r="137" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="1:154" x14ac:dyDescent="0.2">
@@ -42688,149 +42788,150 @@
     </row>
     <row r="140" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="35">
+      <c r="B140" s="27">
         <v>2000</v>
       </c>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="35">
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="27">
         <v>2001</v>
       </c>
-      <c r="G140" s="36"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
-      <c r="J140" s="35">
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="28"/>
+      <c r="J140" s="27">
         <v>2002</v>
       </c>
-      <c r="K140" s="36"/>
-      <c r="L140" s="36"/>
-      <c r="M140" s="36"/>
-      <c r="N140" s="35">
+      <c r="K140" s="28"/>
+      <c r="L140" s="28"/>
+      <c r="M140" s="28"/>
+      <c r="N140" s="27">
         <v>2003</v>
       </c>
-      <c r="O140" s="36"/>
-      <c r="P140" s="36"/>
-      <c r="Q140" s="36"/>
-      <c r="R140" s="35">
+      <c r="O140" s="28"/>
+      <c r="P140" s="28"/>
+      <c r="Q140" s="28"/>
+      <c r="R140" s="27">
         <v>2004</v>
       </c>
-      <c r="S140" s="36"/>
-      <c r="T140" s="36"/>
-      <c r="U140" s="36"/>
-      <c r="V140" s="35">
+      <c r="S140" s="28"/>
+      <c r="T140" s="28"/>
+      <c r="U140" s="28"/>
+      <c r="V140" s="27">
         <v>2005</v>
       </c>
-      <c r="W140" s="36"/>
-      <c r="X140" s="36"/>
-      <c r="Y140" s="36"/>
-      <c r="Z140" s="35">
+      <c r="W140" s="28"/>
+      <c r="X140" s="28"/>
+      <c r="Y140" s="28"/>
+      <c r="Z140" s="27">
         <v>2006</v>
       </c>
-      <c r="AA140" s="36"/>
-      <c r="AB140" s="36"/>
-      <c r="AC140" s="36"/>
-      <c r="AD140" s="35">
+      <c r="AA140" s="28"/>
+      <c r="AB140" s="28"/>
+      <c r="AC140" s="28"/>
+      <c r="AD140" s="27">
         <v>2007</v>
       </c>
-      <c r="AE140" s="36"/>
-      <c r="AF140" s="36"/>
-      <c r="AG140" s="36"/>
-      <c r="AH140" s="35">
+      <c r="AE140" s="28"/>
+      <c r="AF140" s="28"/>
+      <c r="AG140" s="28"/>
+      <c r="AH140" s="27">
         <v>2008</v>
       </c>
-      <c r="AI140" s="36"/>
-      <c r="AJ140" s="36"/>
-      <c r="AK140" s="36"/>
-      <c r="AL140" s="35">
+      <c r="AI140" s="28"/>
+      <c r="AJ140" s="28"/>
+      <c r="AK140" s="28"/>
+      <c r="AL140" s="27">
         <v>2009</v>
       </c>
-      <c r="AM140" s="36"/>
-      <c r="AN140" s="36"/>
-      <c r="AO140" s="36"/>
-      <c r="AP140" s="35">
+      <c r="AM140" s="28"/>
+      <c r="AN140" s="28"/>
+      <c r="AO140" s="28"/>
+      <c r="AP140" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="36"/>
-      <c r="AR140" s="36"/>
-      <c r="AS140" s="36"/>
-      <c r="AT140" s="35">
+      <c r="AQ140" s="28"/>
+      <c r="AR140" s="28"/>
+      <c r="AS140" s="28"/>
+      <c r="AT140" s="27">
         <v>2011</v>
       </c>
-      <c r="AU140" s="36"/>
-      <c r="AV140" s="36"/>
-      <c r="AW140" s="36"/>
-      <c r="AX140" s="35">
+      <c r="AU140" s="28"/>
+      <c r="AV140" s="28"/>
+      <c r="AW140" s="28"/>
+      <c r="AX140" s="27">
         <v>2012</v>
       </c>
-      <c r="AY140" s="36"/>
-      <c r="AZ140" s="36"/>
-      <c r="BA140" s="36"/>
-      <c r="BB140" s="35">
+      <c r="AY140" s="28"/>
+      <c r="AZ140" s="28"/>
+      <c r="BA140" s="28"/>
+      <c r="BB140" s="27">
         <v>2013</v>
       </c>
-      <c r="BC140" s="36"/>
-      <c r="BD140" s="36"/>
-      <c r="BE140" s="36"/>
-      <c r="BF140" s="35">
+      <c r="BC140" s="28"/>
+      <c r="BD140" s="28"/>
+      <c r="BE140" s="28"/>
+      <c r="BF140" s="27">
         <v>2014</v>
       </c>
-      <c r="BG140" s="36"/>
-      <c r="BH140" s="36"/>
-      <c r="BI140" s="36"/>
-      <c r="BJ140" s="35">
+      <c r="BG140" s="28"/>
+      <c r="BH140" s="28"/>
+      <c r="BI140" s="28"/>
+      <c r="BJ140" s="27">
         <v>2015</v>
       </c>
-      <c r="BK140" s="36"/>
-      <c r="BL140" s="36"/>
-      <c r="BM140" s="36"/>
-      <c r="BN140" s="35">
+      <c r="BK140" s="28"/>
+      <c r="BL140" s="28"/>
+      <c r="BM140" s="28"/>
+      <c r="BN140" s="27">
         <v>2016</v>
       </c>
-      <c r="BO140" s="36"/>
-      <c r="BP140" s="36"/>
-      <c r="BQ140" s="36"/>
-      <c r="BR140" s="35">
+      <c r="BO140" s="28"/>
+      <c r="BP140" s="28"/>
+      <c r="BQ140" s="28"/>
+      <c r="BR140" s="27">
         <v>2017</v>
       </c>
-      <c r="BS140" s="36"/>
-      <c r="BT140" s="36"/>
-      <c r="BU140" s="36"/>
-      <c r="BV140" s="35">
+      <c r="BS140" s="28"/>
+      <c r="BT140" s="28"/>
+      <c r="BU140" s="28"/>
+      <c r="BV140" s="27">
         <v>2018</v>
       </c>
-      <c r="BW140" s="36"/>
-      <c r="BX140" s="36"/>
-      <c r="BY140" s="36"/>
-      <c r="BZ140" s="35">
+      <c r="BW140" s="28"/>
+      <c r="BX140" s="28"/>
+      <c r="BY140" s="28"/>
+      <c r="BZ140" s="27">
         <v>2019</v>
       </c>
-      <c r="CA140" s="36"/>
-      <c r="CB140" s="36"/>
-      <c r="CC140" s="36"/>
-      <c r="CD140" s="35">
+      <c r="CA140" s="28"/>
+      <c r="CB140" s="28"/>
+      <c r="CC140" s="28"/>
+      <c r="CD140" s="27">
         <v>2020</v>
       </c>
-      <c r="CE140" s="35"/>
-      <c r="CF140" s="35"/>
-      <c r="CG140" s="35"/>
-      <c r="CH140" s="35">
+      <c r="CE140" s="27"/>
+      <c r="CF140" s="27"/>
+      <c r="CG140" s="27"/>
+      <c r="CH140" s="27">
         <v>2021</v>
       </c>
-      <c r="CI140" s="35"/>
-      <c r="CJ140" s="35"/>
-      <c r="CK140" s="35"/>
-      <c r="CL140" s="34">
+      <c r="CI140" s="27"/>
+      <c r="CJ140" s="27"/>
+      <c r="CK140" s="27"/>
+      <c r="CL140" s="26">
         <v>2022</v>
       </c>
-      <c r="CM140" s="34"/>
-      <c r="CN140" s="34"/>
-      <c r="CO140" s="34"/>
-      <c r="CP140" s="34">
+      <c r="CM140" s="26"/>
+      <c r="CN140" s="26"/>
+      <c r="CO140" s="26"/>
+      <c r="CP140" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ140" s="34"/>
-      <c r="CR140" s="34"/>
+      <c r="CQ140" s="26"/>
+      <c r="CR140" s="26"/>
+      <c r="CS140" s="26"/>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
@@ -43100,26 +43201,29 @@
       <c r="CK141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL141" s="25" t="s">
+      <c r="CL141" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CM141" s="25" t="s">
+      <c r="CM141" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CN141" s="25" t="s">
+      <c r="CN141" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO141" s="25" t="s">
+      <c r="CO141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP141" s="25" t="s">
+      <c r="CP141" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CQ141" s="25" t="s">
+      <c r="CQ141" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CR141" s="25" t="s">
+      <c r="CR141" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CS141" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43393,28 +43497,30 @@
       <c r="CK143" s="16">
         <v>55.736076742769171</v>
       </c>
-      <c r="CL143" s="33">
+      <c r="CL143" s="16">
         <v>50.077212191124531</v>
       </c>
-      <c r="CM143" s="33">
+      <c r="CM143" s="16">
         <v>47.618273401028581</v>
       </c>
-      <c r="CN143" s="33">
+      <c r="CN143" s="16">
         <v>52.858669256478954</v>
       </c>
-      <c r="CO143" s="33">
+      <c r="CO143" s="16">
         <v>53.981226904579238</v>
       </c>
-      <c r="CP143" s="33">
+      <c r="CP143" s="16">
         <v>48.391667428223428</v>
       </c>
-      <c r="CQ143" s="33">
+      <c r="CQ143" s="16">
         <v>48.077518082424334</v>
       </c>
-      <c r="CR143" s="33">
-        <v>53.016359785473412</v>
-      </c>
-      <c r="CS143" s="10"/>
+      <c r="CR143" s="16">
+        <v>52.811137585180767</v>
+      </c>
+      <c r="CS143" s="16">
+        <v>55.135951877155996</v>
+      </c>
       <c r="CT143" s="10"/>
       <c r="CU143" s="10"/>
       <c r="CV143" s="10"/>
@@ -43741,28 +43847,30 @@
       <c r="CK144" s="16">
         <v>4.2826528054760189</v>
       </c>
-      <c r="CL144" s="33">
+      <c r="CL144" s="16">
         <v>5.1245394901746684</v>
       </c>
-      <c r="CM144" s="33">
+      <c r="CM144" s="16">
         <v>4.544154379106458</v>
       </c>
-      <c r="CN144" s="33">
+      <c r="CN144" s="16">
         <v>3.5032747744441046</v>
       </c>
-      <c r="CO144" s="33">
+      <c r="CO144" s="16">
         <v>4.9880929899274751</v>
       </c>
-      <c r="CP144" s="33">
+      <c r="CP144" s="16">
         <v>5.9238093754683261</v>
       </c>
-      <c r="CQ144" s="33">
+      <c r="CQ144" s="16">
         <v>4.4470343365282163</v>
       </c>
-      <c r="CR144" s="33">
-        <v>3.6795177536781609</v>
-      </c>
-      <c r="CS144" s="10"/>
+      <c r="CR144" s="16">
+        <v>3.5322308141846843</v>
+      </c>
+      <c r="CS144" s="16">
+        <v>4.7422426612037887</v>
+      </c>
       <c r="CT144" s="10"/>
       <c r="CU144" s="10"/>
       <c r="CV144" s="10"/>
@@ -44089,28 +44197,30 @@
       <c r="CK145" s="16">
         <v>5.9677350141390466</v>
       </c>
-      <c r="CL145" s="33">
+      <c r="CL145" s="16">
         <v>10.75242087605378</v>
       </c>
-      <c r="CM145" s="33">
+      <c r="CM145" s="16">
         <v>12.074067072219124</v>
       </c>
-      <c r="CN145" s="33">
+      <c r="CN145" s="16">
         <v>11.569961423463816</v>
       </c>
-      <c r="CO145" s="33">
+      <c r="CO145" s="16">
         <v>12.023765903712063</v>
       </c>
-      <c r="CP145" s="33">
+      <c r="CP145" s="16">
         <v>14.576524910938016</v>
       </c>
-      <c r="CQ145" s="33">
+      <c r="CQ145" s="16">
         <v>14.727768582714686</v>
       </c>
-      <c r="CR145" s="33">
-        <v>14.000596795694964</v>
-      </c>
-      <c r="CS145" s="10"/>
+      <c r="CR145" s="16">
+        <v>13.915538564664123</v>
+      </c>
+      <c r="CS145" s="16">
+        <v>12.437402587083669</v>
+      </c>
       <c r="CT145" s="10"/>
       <c r="CU145" s="10"/>
       <c r="CV145" s="10"/>
@@ -44437,28 +44547,30 @@
       <c r="CK146" s="16">
         <v>28.82064688584196</v>
       </c>
-      <c r="CL146" s="33">
+      <c r="CL146" s="16">
         <v>29.484575179359346</v>
       </c>
-      <c r="CM146" s="33">
+      <c r="CM146" s="16">
         <v>29.658684690692148</v>
       </c>
-      <c r="CN146" s="33">
+      <c r="CN146" s="16">
         <v>28.018362598886764</v>
       </c>
-      <c r="CO146" s="33">
+      <c r="CO146" s="16">
         <v>24.711536815209563</v>
       </c>
-      <c r="CP146" s="33">
+      <c r="CP146" s="16">
         <v>26.632812058194755</v>
       </c>
-      <c r="CQ146" s="33">
+      <c r="CQ146" s="16">
         <v>26.896063153459345</v>
       </c>
-      <c r="CR146" s="33">
-        <v>25.30797144982132</v>
-      </c>
-      <c r="CS146" s="10"/>
+      <c r="CR146" s="16">
+        <v>25.762216651902079</v>
+      </c>
+      <c r="CS146" s="16">
+        <v>23.534576604247864</v>
+      </c>
       <c r="CT146" s="10"/>
       <c r="CU146" s="10"/>
       <c r="CV146" s="10"/>
@@ -44785,28 +44897,30 @@
       <c r="CK147" s="16">
         <v>5.1928885517738097</v>
       </c>
-      <c r="CL147" s="33">
+      <c r="CL147" s="16">
         <v>4.561252263287682</v>
       </c>
-      <c r="CM147" s="33">
+      <c r="CM147" s="16">
         <v>6.1048204569536733</v>
       </c>
-      <c r="CN147" s="33">
+      <c r="CN147" s="16">
         <v>4.0497319467263679</v>
       </c>
-      <c r="CO147" s="33">
+      <c r="CO147" s="16">
         <v>4.2953773865716744</v>
       </c>
-      <c r="CP147" s="33">
+      <c r="CP147" s="16">
         <v>4.475186227175449</v>
       </c>
-      <c r="CQ147" s="33">
+      <c r="CQ147" s="16">
         <v>5.8516158448734332</v>
       </c>
-      <c r="CR147" s="33">
-        <v>3.9955542153321448</v>
-      </c>
-      <c r="CS147" s="10"/>
+      <c r="CR147" s="16">
+        <v>3.9788763840683443</v>
+      </c>
+      <c r="CS147" s="16">
+        <v>4.1498262703086857</v>
+      </c>
       <c r="CT147" s="10"/>
       <c r="CU147" s="10"/>
       <c r="CV147" s="10"/>
@@ -44954,13 +45068,13 @@
       <c r="CI148" s="10"/>
       <c r="CJ148" s="10"/>
       <c r="CK148" s="10"/>
-      <c r="CL148" s="27"/>
-      <c r="CM148" s="27"/>
-      <c r="CN148" s="27"/>
-      <c r="CO148" s="27"/>
-      <c r="CP148" s="27"/>
-      <c r="CQ148" s="27"/>
-      <c r="CR148" s="27"/>
+      <c r="CL148" s="10"/>
+      <c r="CM148" s="10"/>
+      <c r="CN148" s="10"/>
+      <c r="CO148" s="10"/>
+      <c r="CP148" s="10"/>
+      <c r="CQ148" s="10"/>
+      <c r="CR148" s="10"/>
       <c r="CS148" s="10"/>
       <c r="CT148" s="10"/>
       <c r="CU148" s="10"/>
@@ -45288,28 +45402,30 @@
       <c r="CK149" s="16">
         <v>100</v>
       </c>
-      <c r="CL149" s="33">
+      <c r="CL149" s="16">
         <v>100</v>
       </c>
-      <c r="CM149" s="33">
+      <c r="CM149" s="16">
         <v>100</v>
       </c>
-      <c r="CN149" s="33">
+      <c r="CN149" s="16">
         <v>100</v>
       </c>
-      <c r="CO149" s="33">
+      <c r="CO149" s="16">
         <v>100</v>
       </c>
-      <c r="CP149" s="33">
+      <c r="CP149" s="16">
         <v>100</v>
       </c>
-      <c r="CQ149" s="33">
+      <c r="CQ149" s="16">
         <v>100</v>
       </c>
-      <c r="CR149" s="33">
+      <c r="CR149" s="16">
         <v>100</v>
       </c>
-      <c r="CS149" s="10"/>
+      <c r="CS149" s="16">
+        <v>100</v>
+      </c>
       <c r="CT149" s="10"/>
       <c r="CU149" s="10"/>
       <c r="CV149" s="10"/>
@@ -45458,13 +45574,14 @@
       <c r="CI150" s="13"/>
       <c r="CJ150" s="13"/>
       <c r="CK150" s="13"/>
-      <c r="CL150" s="30"/>
-      <c r="CM150" s="30"/>
-      <c r="CN150" s="30"/>
-      <c r="CO150" s="30"/>
-      <c r="CP150" s="30"/>
-      <c r="CQ150" s="30"/>
-      <c r="CR150" s="30"/>
+      <c r="CL150" s="13"/>
+      <c r="CM150" s="13"/>
+      <c r="CN150" s="13"/>
+      <c r="CO150" s="13"/>
+      <c r="CP150" s="13"/>
+      <c r="CQ150" s="13"/>
+      <c r="CR150" s="13"/>
+      <c r="CS150" s="13"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -45561,14 +45678,14 @@
       <c r="CI152" s="1"/>
       <c r="CJ152" s="1"/>
       <c r="CK152" s="1"/>
-      <c r="CL152" s="23"/>
-      <c r="CM152" s="23"/>
-      <c r="CN152" s="23"/>
-      <c r="CO152" s="23"/>
-      <c r="CP152" s="23"/>
-      <c r="CQ152" s="23"/>
-      <c r="CR152" s="23"/>
-      <c r="CS152" s="17"/>
+      <c r="CL152" s="1"/>
+      <c r="CM152" s="1"/>
+      <c r="CN152" s="1"/>
+      <c r="CO152" s="1"/>
+      <c r="CP152" s="1"/>
+      <c r="CQ152" s="1"/>
+      <c r="CR152" s="1"/>
+      <c r="CS152" s="1"/>
       <c r="CT152" s="17"/>
       <c r="CU152" s="17"/>
       <c r="CV152" s="17"/>
@@ -45717,14 +45834,14 @@
       <c r="CI153" s="1"/>
       <c r="CJ153" s="1"/>
       <c r="CK153" s="1"/>
-      <c r="CL153" s="23"/>
-      <c r="CM153" s="23"/>
-      <c r="CN153" s="23"/>
-      <c r="CO153" s="23"/>
-      <c r="CP153" s="23"/>
-      <c r="CQ153" s="23"/>
-      <c r="CR153" s="23"/>
-      <c r="CS153" s="17"/>
+      <c r="CL153" s="1"/>
+      <c r="CM153" s="1"/>
+      <c r="CN153" s="1"/>
+      <c r="CO153" s="1"/>
+      <c r="CP153" s="1"/>
+      <c r="CQ153" s="1"/>
+      <c r="CR153" s="1"/>
+      <c r="CS153" s="1"/>
       <c r="CT153" s="17"/>
       <c r="CU153" s="17"/>
       <c r="CV153" s="17"/>
@@ -45784,26 +45901,17 @@
       <c r="EX153" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP31:CR31"/>
-    <mergeCell ref="CL53:CN53"/>
-    <mergeCell ref="CL75:CN75"/>
-    <mergeCell ref="CP96:CR96"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL31:CO31"/>
-    <mergeCell ref="CD53:CG53"/>
-    <mergeCell ref="CD75:CG75"/>
-    <mergeCell ref="CH96:CK96"/>
+  <mergeCells count="154">
     <mergeCell ref="CH118:CK118"/>
     <mergeCell ref="CH140:CK140"/>
-    <mergeCell ref="CL96:CO96"/>
-    <mergeCell ref="CL118:CO118"/>
-    <mergeCell ref="CL140:CO140"/>
     <mergeCell ref="BR140:BU140"/>
     <mergeCell ref="BV140:BY140"/>
     <mergeCell ref="BR118:BU118"/>
     <mergeCell ref="BV118:BY118"/>
+    <mergeCell ref="BZ140:CC140"/>
+    <mergeCell ref="BZ118:CC118"/>
+    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="CH96:CK96"/>
     <mergeCell ref="BR75:BU75"/>
     <mergeCell ref="BV75:BY75"/>
     <mergeCell ref="CH53:CK53"/>
@@ -45816,11 +45924,10 @@
     <mergeCell ref="BZ31:CC31"/>
     <mergeCell ref="BV53:BY53"/>
     <mergeCell ref="BR53:BU53"/>
-    <mergeCell ref="BZ140:CC140"/>
-    <mergeCell ref="BZ118:CC118"/>
-    <mergeCell ref="BZ96:CC96"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH31:CK31"/>
+    <mergeCell ref="CD53:CG53"/>
+    <mergeCell ref="CD75:CG75"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -45891,6 +45998,13 @@
     <mergeCell ref="AD96:AG96"/>
     <mergeCell ref="AH96:AK96"/>
     <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="Z118:AC118"/>
+    <mergeCell ref="AD118:AG118"/>
+    <mergeCell ref="AH118:AK118"/>
+    <mergeCell ref="BN75:BQ75"/>
+    <mergeCell ref="AL75:AO75"/>
+    <mergeCell ref="AP75:AS75"/>
+    <mergeCell ref="AT75:AW75"/>
     <mergeCell ref="AL140:AO140"/>
     <mergeCell ref="AP140:AS140"/>
     <mergeCell ref="AT140:AW140"/>
@@ -45903,8 +46017,6 @@
     <mergeCell ref="AX118:BA118"/>
     <mergeCell ref="BB118:BE118"/>
     <mergeCell ref="BF118:BI118"/>
-    <mergeCell ref="BN31:BQ31"/>
-    <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="B96:E96"/>
     <mergeCell ref="F96:I96"/>
     <mergeCell ref="J96:M96"/>
@@ -45920,15 +46032,6 @@
     <mergeCell ref="N118:Q118"/>
     <mergeCell ref="R118:U118"/>
     <mergeCell ref="V118:Y118"/>
-    <mergeCell ref="Z118:AC118"/>
-    <mergeCell ref="AD118:AG118"/>
-    <mergeCell ref="AH118:AK118"/>
-    <mergeCell ref="BN75:BQ75"/>
-    <mergeCell ref="AL75:AO75"/>
-    <mergeCell ref="AP75:AS75"/>
-    <mergeCell ref="AT75:AW75"/>
-    <mergeCell ref="CP118:CR118"/>
-    <mergeCell ref="CP140:CR140"/>
     <mergeCell ref="Z140:AC140"/>
     <mergeCell ref="AD140:AG140"/>
     <mergeCell ref="AH140:AK140"/>
@@ -45951,15 +46054,17 @@
     <mergeCell ref="BN53:BQ53"/>
     <mergeCell ref="BF31:BI31"/>
     <mergeCell ref="BJ31:BM31"/>
+    <mergeCell ref="BN31:BQ31"/>
+    <mergeCell ref="BF9:BI9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="95" man="1"/>
-    <brk id="88" max="95" man="1"/>
-    <brk id="109" max="95" man="1"/>
+    <brk id="44" max="96" man="1"/>
+    <brk id="88" max="96" man="1"/>
+    <brk id="109" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A7D74A-80A4-4FA4-8508-E85084F020A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEB0361-FC5C-47CD-A0D8-2A6B2050982D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CS$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CT$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -626,13 +626,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -752,15 +755,29 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23620,14 +23637,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX12" sqref="CX12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="97" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="93" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="98" width="9.109375" style="24" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23642,7 +23660,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23652,7 +23670,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23746,10 +23764,11 @@
       <c r="CM6" s="4"/>
       <c r="CN6" s="4"/>
       <c r="CO6" s="4"/>
-      <c r="CP6" s="4"/>
-      <c r="CQ6" s="4"/>
-      <c r="CR6" s="4"/>
-      <c r="CS6" s="4"/>
+      <c r="CP6" s="25"/>
+      <c r="CQ6" s="25"/>
+      <c r="CR6" s="25"/>
+      <c r="CS6" s="25"/>
+      <c r="CT6" s="25"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23847,10 +23866,11 @@
       <c r="CM7" s="4"/>
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
-      <c r="CP7" s="4"/>
-      <c r="CQ7" s="4"/>
-      <c r="CR7" s="4"/>
-      <c r="CS7" s="4"/>
+      <c r="CP7" s="25"/>
+      <c r="CQ7" s="25"/>
+      <c r="CR7" s="25"/>
+      <c r="CS7" s="25"/>
+      <c r="CT7" s="25"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23945,157 +23965,161 @@
       <c r="CM8" s="4"/>
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
-      <c r="CP8" s="4"/>
-      <c r="CQ8" s="4"/>
-      <c r="CR8" s="4"/>
-      <c r="CS8" s="4"/>
+      <c r="CP8" s="25"/>
+      <c r="CQ8" s="25"/>
+      <c r="CR8" s="25"/>
+      <c r="CS8" s="25"/>
+      <c r="CT8" s="25"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="27">
+      <c r="B9" s="35">
         <v>2000</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35">
         <v>2001</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
         <v>2002</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
         <v>2003</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35">
         <v>2004</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27">
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35">
         <v>2005</v>
       </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27">
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
         <v>2006</v>
       </c>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27">
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35">
         <v>2007</v>
       </c>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27">
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35">
         <v>2008</v>
       </c>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27">
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35">
         <v>2009</v>
       </c>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="27">
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27">
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35">
         <v>2011</v>
       </c>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27">
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35">
         <v>2012</v>
       </c>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="27">
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35">
         <v>2013</v>
       </c>
-      <c r="BC9" s="27"/>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27"/>
-      <c r="BF9" s="27">
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35">
         <v>2014</v>
       </c>
-      <c r="BG9" s="27"/>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="27">
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35">
         <v>2015</v>
       </c>
-      <c r="BK9" s="27"/>
-      <c r="BL9" s="27"/>
-      <c r="BM9" s="27"/>
-      <c r="BN9" s="27">
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35">
         <v>2016</v>
       </c>
-      <c r="BO9" s="27"/>
-      <c r="BP9" s="27"/>
-      <c r="BQ9" s="27"/>
-      <c r="BR9" s="27">
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35">
         <v>2017</v>
       </c>
-      <c r="BS9" s="27"/>
-      <c r="BT9" s="27"/>
-      <c r="BU9" s="27"/>
-      <c r="BV9" s="27">
+      <c r="BS9" s="35"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35">
         <v>2018</v>
       </c>
-      <c r="BW9" s="27"/>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="27"/>
-      <c r="BZ9" s="27">
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="35"/>
+      <c r="BZ9" s="35">
         <v>2019</v>
       </c>
-      <c r="CA9" s="27"/>
-      <c r="CB9" s="27"/>
-      <c r="CC9" s="27"/>
-      <c r="CD9" s="27">
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="35"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35">
         <v>2020</v>
       </c>
-      <c r="CE9" s="27"/>
-      <c r="CF9" s="27"/>
-      <c r="CG9" s="27"/>
-      <c r="CH9" s="27">
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="27"/>
-      <c r="CJ9" s="27"/>
-      <c r="CK9" s="27"/>
-      <c r="CL9" s="26">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="26"/>
-      <c r="CN9" s="26"/>
-      <c r="CO9" s="26"/>
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
       <c r="CP9" s="26">
         <v>2023</v>
       </c>
       <c r="CQ9" s="26"/>
       <c r="CR9" s="26"/>
       <c r="CS9" s="26"/>
+      <c r="CT9" s="26">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24377,17 +24401,20 @@
       <c r="CO10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CR10" s="7" t="s">
+      <c r="CR10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CS10" s="7" t="s">
+      <c r="CS10" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CT10" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24661,31 +24688,33 @@
       <c r="CK12" s="19">
         <v>102445.11283825984</v>
       </c>
-      <c r="CL12" s="22">
+      <c r="CL12" s="19">
         <v>95112.941061584192</v>
       </c>
-      <c r="CM12" s="22">
-        <v>86138.101602379815</v>
-      </c>
-      <c r="CN12" s="22">
-        <v>125364.61590883185</v>
-      </c>
-      <c r="CO12" s="22">
+      <c r="CM12" s="19">
+        <v>86174.151868083005</v>
+      </c>
+      <c r="CN12" s="19">
+        <v>124972.44325496058</v>
+      </c>
+      <c r="CO12" s="19">
         <v>131260.92863027516</v>
       </c>
-      <c r="CP12" s="22">
-        <v>118117.03890907811</v>
-      </c>
-      <c r="CQ12" s="22">
-        <v>113940.42920225172</v>
-      </c>
-      <c r="CR12" s="22">
-        <v>148839.642222564</v>
-      </c>
-      <c r="CS12" s="22">
-        <v>150770.43638677176</v>
-      </c>
-      <c r="CT12" s="10"/>
+      <c r="CP12" s="28">
+        <v>118133.15202230311</v>
+      </c>
+      <c r="CQ12" s="28">
+        <v>113537.87118469326</v>
+      </c>
+      <c r="CR12" s="28">
+        <v>148333.17360806902</v>
+      </c>
+      <c r="CS12" s="28">
+        <v>150742.0106052983</v>
+      </c>
+      <c r="CT12" s="28">
+        <v>129822.01228363527</v>
+      </c>
       <c r="CU12" s="10"/>
       <c r="CV12" s="10"/>
       <c r="CW12" s="10"/>
@@ -25011,31 +25040,33 @@
       <c r="CK13" s="19">
         <v>6805.4416689638665</v>
       </c>
-      <c r="CL13" s="22">
+      <c r="CL13" s="19">
         <v>9030.929515187514</v>
       </c>
-      <c r="CM13" s="22">
-        <v>6772.0262369198845</v>
-      </c>
-      <c r="CN13" s="22">
-        <v>8678.9535591085787</v>
-      </c>
-      <c r="CO13" s="22">
-        <v>9069.7767840590877</v>
-      </c>
-      <c r="CP13" s="22">
-        <v>12328.926675149785</v>
-      </c>
-      <c r="CQ13" s="22">
-        <v>7670.1148374931745</v>
-      </c>
-      <c r="CR13" s="22">
-        <v>9543.5585049955826</v>
-      </c>
-      <c r="CS13" s="22">
-        <v>10396.754808541082</v>
-      </c>
-      <c r="CT13" s="10"/>
+      <c r="CM13" s="19">
+        <v>6848.4040648484024</v>
+      </c>
+      <c r="CN13" s="19">
+        <v>8675.0316443556312</v>
+      </c>
+      <c r="CO13" s="19">
+        <v>9276.0492047612261</v>
+      </c>
+      <c r="CP13" s="28">
+        <v>12522.135358457843</v>
+      </c>
+      <c r="CQ13" s="28">
+        <v>7828.8118485937503</v>
+      </c>
+      <c r="CR13" s="28">
+        <v>9517.8977328102137</v>
+      </c>
+      <c r="CS13" s="28">
+        <v>10633.206468960327</v>
+      </c>
+      <c r="CT13" s="28">
+        <v>14381.499603953447</v>
+      </c>
       <c r="CU13" s="10"/>
       <c r="CV13" s="10"/>
       <c r="CW13" s="10"/>
@@ -25361,31 +25392,33 @@
       <c r="CK14" s="19">
         <v>10731.893624718097</v>
       </c>
-      <c r="CL14" s="22">
+      <c r="CL14" s="19">
         <v>16519.717390147831</v>
       </c>
-      <c r="CM14" s="22">
+      <c r="CM14" s="19">
         <v>17861.916287213768</v>
       </c>
-      <c r="CN14" s="22">
+      <c r="CN14" s="19">
         <v>24864.012333683175</v>
       </c>
-      <c r="CO14" s="22">
+      <c r="CO14" s="19">
         <v>33058.754526789751</v>
       </c>
-      <c r="CP14" s="22">
+      <c r="CP14" s="28">
         <v>34355.132596331357</v>
       </c>
-      <c r="CQ14" s="22">
+      <c r="CQ14" s="28">
         <v>32071.36273028102</v>
       </c>
-      <c r="CR14" s="22">
+      <c r="CR14" s="28">
         <v>33609.41579652451</v>
       </c>
-      <c r="CS14" s="22">
+      <c r="CS14" s="28">
         <v>38403.37280716536</v>
       </c>
-      <c r="CT14" s="10"/>
+      <c r="CT14" s="28">
+        <v>37331.916466479597</v>
+      </c>
       <c r="CU14" s="10"/>
       <c r="CV14" s="10"/>
       <c r="CW14" s="10"/>
@@ -25711,31 +25744,33 @@
       <c r="CK15" s="19">
         <v>46206.319687562878</v>
       </c>
-      <c r="CL15" s="22">
+      <c r="CL15" s="19">
         <v>48867.192274073153</v>
       </c>
-      <c r="CM15" s="22">
-        <v>50427.993876530629</v>
-      </c>
-      <c r="CN15" s="22">
-        <v>54777.401768381824</v>
-      </c>
-      <c r="CO15" s="22">
-        <v>56206.695778206282</v>
-      </c>
-      <c r="CP15" s="22">
-        <v>56591.78678394208</v>
-      </c>
-      <c r="CQ15" s="22">
-        <v>58056.565666546907</v>
-      </c>
-      <c r="CR15" s="22">
-        <v>57415.677203007566</v>
-      </c>
-      <c r="CS15" s="22">
-        <v>59814.001236860902</v>
-      </c>
-      <c r="CT15" s="10"/>
+      <c r="CM15" s="19">
+        <v>50510.642751591717</v>
+      </c>
+      <c r="CN15" s="19">
+        <v>54770.959092975754</v>
+      </c>
+      <c r="CO15" s="19">
+        <v>56900.817831052766</v>
+      </c>
+      <c r="CP15" s="28">
+        <v>56437.595666673784</v>
+      </c>
+      <c r="CQ15" s="28">
+        <v>57733.420839450104</v>
+      </c>
+      <c r="CR15" s="28">
+        <v>57535.5535728869</v>
+      </c>
+      <c r="CS15" s="28">
+        <v>60011.327920465068</v>
+      </c>
+      <c r="CT15" s="28">
+        <v>59049.399808620336</v>
+      </c>
       <c r="CU15" s="10"/>
       <c r="CV15" s="10"/>
       <c r="CW15" s="10"/>
@@ -26061,31 +26096,33 @@
       <c r="CK16" s="19">
         <v>8636.4176909564103</v>
       </c>
-      <c r="CL16" s="22">
+      <c r="CL16" s="19">
         <v>7865.3473658344301</v>
       </c>
-      <c r="CM16" s="22">
+      <c r="CM16" s="19">
         <v>8966.8706717470923</v>
       </c>
-      <c r="CN16" s="22">
+      <c r="CN16" s="19">
         <v>7164.4283924129832</v>
       </c>
-      <c r="CO16" s="22">
-        <v>8513.5183446965111</v>
-      </c>
-      <c r="CP16" s="22">
-        <v>8869.1228030236252</v>
-      </c>
-      <c r="CQ16" s="22">
+      <c r="CO16" s="19">
+        <v>8621.6984242896724</v>
+      </c>
+      <c r="CP16" s="28">
+        <v>8849.5281385997096</v>
+      </c>
+      <c r="CQ16" s="28">
         <v>10116.389327295956</v>
       </c>
-      <c r="CR16" s="22">
+      <c r="CR16" s="28">
         <v>7901.1163665077493</v>
       </c>
-      <c r="CS16" s="22">
-        <v>9040.334384281914</v>
-      </c>
-      <c r="CT16" s="10"/>
+      <c r="CS16" s="28">
+        <v>9126.3906378845859</v>
+      </c>
+      <c r="CT16" s="28">
+        <v>9427.0051761528921</v>
+      </c>
       <c r="CU16" s="10"/>
       <c r="CV16" s="10"/>
       <c r="CW16" s="10"/>
@@ -26236,11 +26273,11 @@
       <c r="CM17" s="10"/>
       <c r="CN17" s="10"/>
       <c r="CO17" s="10"/>
-      <c r="CP17" s="10"/>
-      <c r="CQ17" s="10"/>
-      <c r="CR17" s="10"/>
-      <c r="CS17" s="10"/>
-      <c r="CT17" s="10"/>
+      <c r="CP17" s="29"/>
+      <c r="CQ17" s="29"/>
+      <c r="CR17" s="29"/>
+      <c r="CS17" s="29"/>
+      <c r="CT17" s="29"/>
       <c r="CU17" s="10"/>
       <c r="CV17" s="10"/>
       <c r="CW17" s="10"/>
@@ -26566,31 +26603,33 @@
       <c r="CK18" s="20">
         <v>174825.18551046107</v>
       </c>
-      <c r="CL18" s="23">
+      <c r="CL18" s="20">
         <v>177396.1276068271</v>
       </c>
-      <c r="CM18" s="23">
-        <v>170166.90867479116</v>
-      </c>
-      <c r="CN18" s="23">
-        <v>220849.41196241841</v>
-      </c>
-      <c r="CO18" s="23">
-        <v>238109.67406402683</v>
-      </c>
-      <c r="CP18" s="23">
-        <v>230262.00776752498</v>
-      </c>
-      <c r="CQ18" s="23">
-        <v>221854.86176386877</v>
-      </c>
-      <c r="CR18" s="23">
-        <v>257309.41009359938</v>
-      </c>
-      <c r="CS18" s="23">
-        <v>268424.89962362102</v>
-      </c>
-      <c r="CT18" s="10"/>
+      <c r="CM18" s="20">
+        <v>170361.98564348399</v>
+      </c>
+      <c r="CN18" s="20">
+        <v>220446.87471838811</v>
+      </c>
+      <c r="CO18" s="20">
+        <v>239118.24861716855</v>
+      </c>
+      <c r="CP18" s="30">
+        <v>230297.5437823658</v>
+      </c>
+      <c r="CQ18" s="30">
+        <v>221287.85593031408</v>
+      </c>
+      <c r="CR18" s="30">
+        <v>256897.15707679841</v>
+      </c>
+      <c r="CS18" s="30">
+        <v>268916.30843977362</v>
+      </c>
+      <c r="CT18" s="30">
+        <v>250011.83333884153</v>
+      </c>
       <c r="CU18" s="10"/>
       <c r="CV18" s="10"/>
       <c r="CW18" s="10"/>
@@ -26738,14 +26777,15 @@
       <c r="CI19" s="21"/>
       <c r="CJ19" s="21"/>
       <c r="CK19" s="21"/>
-      <c r="CL19" s="24"/>
-      <c r="CM19" s="24"/>
-      <c r="CN19" s="24"/>
-      <c r="CO19" s="24"/>
-      <c r="CP19" s="24"/>
-      <c r="CQ19" s="24"/>
-      <c r="CR19" s="24"/>
-      <c r="CS19" s="24"/>
+      <c r="CL19" s="21"/>
+      <c r="CM19" s="21"/>
+      <c r="CN19" s="21"/>
+      <c r="CO19" s="21"/>
+      <c r="CP19" s="31"/>
+      <c r="CQ19" s="31"/>
+      <c r="CR19" s="31"/>
+      <c r="CS19" s="31"/>
+      <c r="CT19" s="31"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -26845,11 +26885,11 @@
       <c r="CM21" s="10"/>
       <c r="CN21" s="10"/>
       <c r="CO21" s="10"/>
-      <c r="CP21" s="10"/>
-      <c r="CQ21" s="10"/>
-      <c r="CR21" s="10"/>
-      <c r="CS21" s="10"/>
-      <c r="CT21" s="10"/>
+      <c r="CP21" s="29"/>
+      <c r="CQ21" s="29"/>
+      <c r="CR21" s="29"/>
+      <c r="CS21" s="29"/>
+      <c r="CT21" s="29"/>
       <c r="CU21" s="10"/>
       <c r="CV21" s="10"/>
       <c r="CW21" s="10"/>
@@ -27000,11 +27040,11 @@
       <c r="CM22" s="10"/>
       <c r="CN22" s="10"/>
       <c r="CO22" s="10"/>
-      <c r="CP22" s="10"/>
-      <c r="CQ22" s="10"/>
-      <c r="CR22" s="10"/>
-      <c r="CS22" s="10"/>
-      <c r="CT22" s="10"/>
+      <c r="CP22" s="29"/>
+      <c r="CQ22" s="29"/>
+      <c r="CR22" s="29"/>
+      <c r="CS22" s="29"/>
+      <c r="CT22" s="29"/>
       <c r="CU22" s="10"/>
       <c r="CV22" s="10"/>
       <c r="CW22" s="10"/>
@@ -27074,7 +27114,7 @@
     </row>
     <row r="25" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -27170,10 +27210,11 @@
       <c r="CM26" s="4"/>
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
-      <c r="CP26" s="4"/>
-      <c r="CQ26" s="4"/>
-      <c r="CR26" s="4"/>
-      <c r="CS26" s="4"/>
+      <c r="CP26" s="25"/>
+      <c r="CQ26" s="25"/>
+      <c r="CR26" s="25"/>
+      <c r="CS26" s="25"/>
+      <c r="CT26" s="25"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27271,14 +27312,15 @@
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
-      <c r="CP27" s="4"/>
-      <c r="CQ27" s="4"/>
-      <c r="CR27" s="4"/>
-      <c r="CS27" s="4"/>
+      <c r="CP27" s="25"/>
+      <c r="CQ27" s="25"/>
+      <c r="CR27" s="25"/>
+      <c r="CS27" s="25"/>
+      <c r="CT27" s="25"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -27372,10 +27414,11 @@
       <c r="CM28" s="4"/>
       <c r="CN28" s="4"/>
       <c r="CO28" s="4"/>
-      <c r="CP28" s="4"/>
-      <c r="CQ28" s="4"/>
-      <c r="CR28" s="4"/>
-      <c r="CS28" s="4"/>
+      <c r="CP28" s="25"/>
+      <c r="CQ28" s="25"/>
+      <c r="CR28" s="25"/>
+      <c r="CS28" s="25"/>
+      <c r="CT28" s="25"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -27473,10 +27516,11 @@
       <c r="CM29" s="4"/>
       <c r="CN29" s="4"/>
       <c r="CO29" s="4"/>
-      <c r="CP29" s="4"/>
-      <c r="CQ29" s="4"/>
-      <c r="CR29" s="4"/>
-      <c r="CS29" s="4"/>
+      <c r="CP29" s="25"/>
+      <c r="CQ29" s="25"/>
+      <c r="CR29" s="25"/>
+      <c r="CS29" s="25"/>
+      <c r="CT29" s="25"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
@@ -27571,157 +27615,161 @@
       <c r="CM30" s="4"/>
       <c r="CN30" s="4"/>
       <c r="CO30" s="4"/>
-      <c r="CP30" s="4"/>
-      <c r="CQ30" s="4"/>
-      <c r="CR30" s="4"/>
-      <c r="CS30" s="4"/>
+      <c r="CP30" s="25"/>
+      <c r="CQ30" s="25"/>
+      <c r="CR30" s="25"/>
+      <c r="CS30" s="25"/>
+      <c r="CT30" s="25"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="27">
+      <c r="B31" s="35">
         <v>2000</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="27">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="35">
         <v>2001</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="27">
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="35">
         <v>2002</v>
       </c>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="27">
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="35">
         <v>2003</v>
       </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="27">
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="35">
         <v>2004</v>
       </c>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="27">
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="35">
         <v>2005</v>
       </c>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="27">
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="35">
         <v>2006</v>
       </c>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="27">
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="35">
         <v>2007</v>
       </c>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="27">
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="35">
         <v>2008</v>
       </c>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="27">
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AK31" s="36"/>
+      <c r="AL31" s="35">
         <v>2009</v>
       </c>
-      <c r="AM31" s="28"/>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="28"/>
-      <c r="AP31" s="27">
+      <c r="AM31" s="36"/>
+      <c r="AN31" s="36"/>
+      <c r="AO31" s="36"/>
+      <c r="AP31" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="28"/>
-      <c r="AR31" s="28"/>
-      <c r="AS31" s="28"/>
-      <c r="AT31" s="27">
+      <c r="AQ31" s="36"/>
+      <c r="AR31" s="36"/>
+      <c r="AS31" s="36"/>
+      <c r="AT31" s="35">
         <v>2011</v>
       </c>
-      <c r="AU31" s="28"/>
-      <c r="AV31" s="28"/>
-      <c r="AW31" s="28"/>
-      <c r="AX31" s="27">
+      <c r="AU31" s="36"/>
+      <c r="AV31" s="36"/>
+      <c r="AW31" s="36"/>
+      <c r="AX31" s="35">
         <v>2012</v>
       </c>
-      <c r="AY31" s="28"/>
-      <c r="AZ31" s="28"/>
-      <c r="BA31" s="28"/>
-      <c r="BB31" s="27">
+      <c r="AY31" s="36"/>
+      <c r="AZ31" s="36"/>
+      <c r="BA31" s="36"/>
+      <c r="BB31" s="35">
         <v>2013</v>
       </c>
-      <c r="BC31" s="28"/>
-      <c r="BD31" s="28"/>
-      <c r="BE31" s="28"/>
-      <c r="BF31" s="27">
+      <c r="BC31" s="36"/>
+      <c r="BD31" s="36"/>
+      <c r="BE31" s="36"/>
+      <c r="BF31" s="35">
         <v>2014</v>
       </c>
-      <c r="BG31" s="28"/>
-      <c r="BH31" s="28"/>
-      <c r="BI31" s="28"/>
-      <c r="BJ31" s="27">
+      <c r="BG31" s="36"/>
+      <c r="BH31" s="36"/>
+      <c r="BI31" s="36"/>
+      <c r="BJ31" s="35">
         <v>2015</v>
       </c>
-      <c r="BK31" s="28"/>
-      <c r="BL31" s="28"/>
-      <c r="BM31" s="28"/>
-      <c r="BN31" s="27">
+      <c r="BK31" s="36"/>
+      <c r="BL31" s="36"/>
+      <c r="BM31" s="36"/>
+      <c r="BN31" s="35">
         <v>2016</v>
       </c>
-      <c r="BO31" s="28"/>
-      <c r="BP31" s="28"/>
-      <c r="BQ31" s="28"/>
-      <c r="BR31" s="27">
+      <c r="BO31" s="36"/>
+      <c r="BP31" s="36"/>
+      <c r="BQ31" s="36"/>
+      <c r="BR31" s="35">
         <v>2017</v>
       </c>
-      <c r="BS31" s="28"/>
-      <c r="BT31" s="28"/>
-      <c r="BU31" s="28"/>
-      <c r="BV31" s="27">
+      <c r="BS31" s="36"/>
+      <c r="BT31" s="36"/>
+      <c r="BU31" s="36"/>
+      <c r="BV31" s="35">
         <v>2018</v>
       </c>
-      <c r="BW31" s="28"/>
-      <c r="BX31" s="28"/>
-      <c r="BY31" s="28"/>
-      <c r="BZ31" s="27">
+      <c r="BW31" s="36"/>
+      <c r="BX31" s="36"/>
+      <c r="BY31" s="36"/>
+      <c r="BZ31" s="35">
         <v>2019</v>
       </c>
-      <c r="CA31" s="28"/>
-      <c r="CB31" s="28"/>
-      <c r="CC31" s="28"/>
-      <c r="CD31" s="27">
+      <c r="CA31" s="36"/>
+      <c r="CB31" s="36"/>
+      <c r="CC31" s="36"/>
+      <c r="CD31" s="35">
         <v>2020</v>
       </c>
-      <c r="CE31" s="27"/>
-      <c r="CF31" s="27"/>
-      <c r="CG31" s="27"/>
-      <c r="CH31" s="27">
+      <c r="CE31" s="35"/>
+      <c r="CF31" s="35"/>
+      <c r="CG31" s="35"/>
+      <c r="CH31" s="22">
         <v>2021</v>
       </c>
-      <c r="CI31" s="27"/>
-      <c r="CJ31" s="27"/>
-      <c r="CK31" s="27"/>
-      <c r="CL31" s="26">
+      <c r="CI31" s="22"/>
+      <c r="CJ31" s="22"/>
+      <c r="CK31" s="22"/>
+      <c r="CL31" s="22">
         <v>2022</v>
       </c>
-      <c r="CM31" s="26"/>
-      <c r="CN31" s="26"/>
-      <c r="CO31" s="26"/>
+      <c r="CM31" s="22"/>
+      <c r="CN31" s="22"/>
+      <c r="CO31" s="22"/>
       <c r="CP31" s="26">
         <v>2023</v>
       </c>
       <c r="CQ31" s="26"/>
       <c r="CR31" s="26"/>
       <c r="CS31" s="26"/>
+      <c r="CT31" s="26">
+        <v>2024</v>
+      </c>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -28003,17 +28051,20 @@
       <c r="CO32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP32" s="7" t="s">
+      <c r="CP32" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CQ32" s="7" t="s">
+      <c r="CQ32" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CR32" s="7" t="s">
+      <c r="CR32" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CS32" s="7" t="s">
+      <c r="CS32" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CT32" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28287,31 +28338,33 @@
       <c r="CK34" s="19">
         <v>92252.123079514247</v>
       </c>
-      <c r="CL34" s="22">
+      <c r="CL34" s="19">
         <v>85348.710133698143</v>
       </c>
-      <c r="CM34" s="22">
-        <v>67145.01908077547</v>
-      </c>
-      <c r="CN34" s="22">
-        <v>89988.179900677991</v>
-      </c>
-      <c r="CO34" s="22">
+      <c r="CM34" s="19">
+        <v>67173.120417274389</v>
+      </c>
+      <c r="CN34" s="19">
+        <v>89706.673806850406</v>
+      </c>
+      <c r="CO34" s="19">
         <v>106276.44833839743</v>
       </c>
-      <c r="CP34" s="22">
-        <v>94519.306811908784</v>
-      </c>
-      <c r="CQ34" s="22">
-        <v>79640.852131027132</v>
-      </c>
-      <c r="CR34" s="22">
-        <v>100757.65291146003</v>
-      </c>
-      <c r="CS34" s="22">
-        <v>119082.72360849715</v>
-      </c>
-      <c r="CT34" s="10"/>
+      <c r="CP34" s="28">
+        <v>94532.200805075874</v>
+      </c>
+      <c r="CQ34" s="28">
+        <v>79359.476470298105</v>
+      </c>
+      <c r="CR34" s="28">
+        <v>100414.79674688043</v>
+      </c>
+      <c r="CS34" s="28">
+        <v>119060.27212822236</v>
+      </c>
+      <c r="CT34" s="28">
+        <v>101226.98831162904</v>
+      </c>
       <c r="CU34" s="10"/>
       <c r="CV34" s="10"/>
       <c r="CW34" s="10"/>
@@ -28637,31 +28690,33 @@
       <c r="CK35" s="19">
         <v>7088.4754867296288</v>
       </c>
-      <c r="CL35" s="22">
+      <c r="CL35" s="19">
         <v>8733.9693321251852</v>
       </c>
-      <c r="CM35" s="22">
-        <v>6407.568160262229</v>
-      </c>
-      <c r="CN35" s="22">
-        <v>5964.0797825333484</v>
-      </c>
-      <c r="CO35" s="22">
-        <v>9820.3919649366053</v>
-      </c>
-      <c r="CP35" s="22">
-        <v>11570.470405584621</v>
-      </c>
-      <c r="CQ35" s="22">
-        <v>7366.5533942467828</v>
-      </c>
-      <c r="CR35" s="22">
-        <v>6739.0952487009572</v>
-      </c>
-      <c r="CS35" s="22">
-        <v>10242.303848616968</v>
-      </c>
-      <c r="CT35" s="10"/>
+      <c r="CM35" s="19">
+        <v>6479.835473066878</v>
+      </c>
+      <c r="CN35" s="19">
+        <v>5961.3846865949308</v>
+      </c>
+      <c r="CO35" s="19">
+        <v>10043.7355015065</v>
+      </c>
+      <c r="CP35" s="28">
+        <v>11751.793193141122</v>
+      </c>
+      <c r="CQ35" s="28">
+        <v>7518.9696266694336</v>
+      </c>
+      <c r="CR35" s="28">
+        <v>6720.9751326224623</v>
+      </c>
+      <c r="CS35" s="28">
+        <v>10475.242856789064</v>
+      </c>
+      <c r="CT35" s="28">
+        <v>12070.875952853572</v>
+      </c>
       <c r="CU35" s="10"/>
       <c r="CV35" s="10"/>
       <c r="CW35" s="10"/>
@@ -28987,31 +29042,33 @@
       <c r="CK36" s="19">
         <v>9877.5561037619118</v>
       </c>
-      <c r="CL36" s="22">
+      <c r="CL36" s="19">
         <v>18325.805539719899</v>
       </c>
-      <c r="CM36" s="22">
+      <c r="CM36" s="19">
         <v>17025.259549398193</v>
       </c>
-      <c r="CN36" s="22">
+      <c r="CN36" s="19">
         <v>19697.048462697538</v>
       </c>
-      <c r="CO36" s="22">
+      <c r="CO36" s="19">
         <v>23671.991341686968</v>
       </c>
-      <c r="CP36" s="22">
+      <c r="CP36" s="28">
         <v>28471.079909613327</v>
       </c>
-      <c r="CQ36" s="22">
+      <c r="CQ36" s="28">
         <v>24396.684494093206</v>
       </c>
-      <c r="CR36" s="22">
+      <c r="CR36" s="28">
         <v>26549.267235779145</v>
       </c>
-      <c r="CS36" s="22">
+      <c r="CS36" s="28">
         <v>26862.323479699189</v>
       </c>
-      <c r="CT36" s="10"/>
+      <c r="CT36" s="28">
+        <v>30796.392441445263</v>
+      </c>
       <c r="CU36" s="10"/>
       <c r="CV36" s="10"/>
       <c r="CW36" s="10"/>
@@ -29337,31 +29394,33 @@
       <c r="CK37" s="19">
         <v>47702.781019455986</v>
       </c>
-      <c r="CL37" s="22">
+      <c r="CL37" s="19">
         <v>50251.808163641748</v>
       </c>
-      <c r="CM37" s="22">
-        <v>41820.771885110211</v>
-      </c>
-      <c r="CN37" s="22">
-        <v>47699.298706087051</v>
-      </c>
-      <c r="CO37" s="22">
-        <v>48651.253709856661</v>
-      </c>
-      <c r="CP37" s="22">
-        <v>52019.594859511752</v>
-      </c>
-      <c r="CQ37" s="22">
-        <v>44553.576680874503</v>
-      </c>
-      <c r="CR37" s="22">
-        <v>49151.383634852275</v>
-      </c>
-      <c r="CS37" s="22">
-        <v>50830.018991071651</v>
-      </c>
-      <c r="CT37" s="10"/>
+      <c r="CM37" s="19">
+        <v>41889.313968282353</v>
+      </c>
+      <c r="CN37" s="19">
+        <v>47693.688525816702</v>
+      </c>
+      <c r="CO37" s="19">
+        <v>49252.070171865002</v>
+      </c>
+      <c r="CP37" s="28">
+        <v>51877.861228059992</v>
+      </c>
+      <c r="CQ37" s="28">
+        <v>44305.589951590919</v>
+      </c>
+      <c r="CR37" s="28">
+        <v>49254.005248525122</v>
+      </c>
+      <c r="CS37" s="28">
+        <v>50997.707473160088</v>
+      </c>
+      <c r="CT37" s="28">
+        <v>53059.86210523991</v>
+      </c>
       <c r="CU37" s="10"/>
       <c r="CV37" s="10"/>
       <c r="CW37" s="10"/>
@@ -29687,31 +29746,33 @@
       <c r="CK38" s="19">
         <v>8595.0612567754397</v>
       </c>
-      <c r="CL38" s="22">
+      <c r="CL38" s="19">
         <v>7773.9350940748318</v>
       </c>
-      <c r="CM38" s="22">
+      <c r="CM38" s="19">
         <v>8608.2139647257463</v>
       </c>
-      <c r="CN38" s="22">
+      <c r="CN38" s="19">
         <v>6894.384820837442</v>
       </c>
-      <c r="CO38" s="22">
-        <v>8456.5964705626266</v>
-      </c>
-      <c r="CP38" s="22">
-        <v>8740.998657965727</v>
-      </c>
-      <c r="CQ38" s="22">
+      <c r="CO38" s="19">
+        <v>8564.053251911153</v>
+      </c>
+      <c r="CP38" s="28">
+        <v>8721.6870598250025</v>
+      </c>
+      <c r="CQ38" s="28">
         <v>9693.2556175254394</v>
       </c>
-      <c r="CR38" s="22">
+      <c r="CR38" s="28">
         <v>7591.2442718533639</v>
       </c>
-      <c r="CS38" s="22">
-        <v>8962.8019095684849</v>
-      </c>
-      <c r="CT38" s="10"/>
+      <c r="CS38" s="28">
+        <v>9048.1201203042874</v>
+      </c>
+      <c r="CT38" s="28">
+        <v>9211.862986597891</v>
+      </c>
       <c r="CU38" s="10"/>
       <c r="CV38" s="10"/>
       <c r="CW38" s="10"/>
@@ -29862,11 +29923,11 @@
       <c r="CM39" s="10"/>
       <c r="CN39" s="10"/>
       <c r="CO39" s="10"/>
-      <c r="CP39" s="10"/>
-      <c r="CQ39" s="10"/>
-      <c r="CR39" s="10"/>
-      <c r="CS39" s="10"/>
-      <c r="CT39" s="10"/>
+      <c r="CP39" s="29"/>
+      <c r="CQ39" s="29"/>
+      <c r="CR39" s="29"/>
+      <c r="CS39" s="29"/>
+      <c r="CT39" s="29"/>
       <c r="CU39" s="10"/>
       <c r="CV39" s="10"/>
       <c r="CW39" s="10"/>
@@ -30192,31 +30253,33 @@
       <c r="CK40" s="20">
         <v>165515.9969462372</v>
       </c>
-      <c r="CL40" s="23">
+      <c r="CL40" s="20">
         <v>170434.22826325981</v>
       </c>
-      <c r="CM40" s="23">
-        <v>141006.83264027187</v>
-      </c>
-      <c r="CN40" s="23">
-        <v>170242.99167283336</v>
-      </c>
-      <c r="CO40" s="23">
-        <v>196876.68182544026</v>
-      </c>
-      <c r="CP40" s="23">
-        <v>195321.45064458426</v>
-      </c>
-      <c r="CQ40" s="23">
-        <v>165650.92231776705</v>
-      </c>
-      <c r="CR40" s="23">
-        <v>190788.64330264577</v>
-      </c>
-      <c r="CS40" s="23">
-        <v>215980.17183745344</v>
-      </c>
-      <c r="CT40" s="10"/>
+      <c r="CM40" s="20">
+        <v>141175.74337274759</v>
+      </c>
+      <c r="CN40" s="20">
+        <v>169953.18030279703</v>
+      </c>
+      <c r="CO40" s="20">
+        <v>197808.29860536705</v>
+      </c>
+      <c r="CP40" s="30">
+        <v>195354.62219571532</v>
+      </c>
+      <c r="CQ40" s="30">
+        <v>165273.97616017709</v>
+      </c>
+      <c r="CR40" s="30">
+        <v>190530.28863566052</v>
+      </c>
+      <c r="CS40" s="30">
+        <v>216443.666058175</v>
+      </c>
+      <c r="CT40" s="30">
+        <v>206365.98179776571</v>
+      </c>
       <c r="CU40" s="10"/>
       <c r="CV40" s="10"/>
       <c r="CW40" s="10"/>
@@ -30368,10 +30431,11 @@
       <c r="CM41" s="13"/>
       <c r="CN41" s="13"/>
       <c r="CO41" s="13"/>
-      <c r="CP41" s="13"/>
-      <c r="CQ41" s="13"/>
-      <c r="CR41" s="13"/>
-      <c r="CS41" s="13"/>
+      <c r="CP41" s="32"/>
+      <c r="CQ41" s="32"/>
+      <c r="CR41" s="32"/>
+      <c r="CS41" s="32"/>
+      <c r="CT41" s="32"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -30471,11 +30535,11 @@
       <c r="CM43" s="10"/>
       <c r="CN43" s="10"/>
       <c r="CO43" s="10"/>
-      <c r="CP43" s="10"/>
-      <c r="CQ43" s="10"/>
-      <c r="CR43" s="10"/>
-      <c r="CS43" s="10"/>
-      <c r="CT43" s="10"/>
+      <c r="CP43" s="29"/>
+      <c r="CQ43" s="29"/>
+      <c r="CR43" s="29"/>
+      <c r="CS43" s="29"/>
+      <c r="CT43" s="29"/>
       <c r="CU43" s="10"/>
       <c r="CV43" s="10"/>
       <c r="CW43" s="10"/>
@@ -30626,11 +30690,11 @@
       <c r="CM44" s="10"/>
       <c r="CN44" s="10"/>
       <c r="CO44" s="10"/>
-      <c r="CP44" s="10"/>
-      <c r="CQ44" s="10"/>
-      <c r="CR44" s="10"/>
-      <c r="CS44" s="10"/>
-      <c r="CT44" s="10"/>
+      <c r="CP44" s="29"/>
+      <c r="CQ44" s="29"/>
+      <c r="CR44" s="29"/>
+      <c r="CS44" s="29"/>
+      <c r="CT44" s="29"/>
       <c r="CU44" s="10"/>
       <c r="CV44" s="10"/>
       <c r="CW44" s="10"/>
@@ -30700,7 +30764,7 @@
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -30710,7 +30774,7 @@
     </row>
     <row r="50" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
@@ -30723,148 +30787,151 @@
     </row>
     <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27" t="s">
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27" t="s">
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27" t="s">
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27" t="s">
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27" t="s">
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27" t="s">
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="27" t="s">
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AE53" s="27"/>
-      <c r="AF53" s="27"/>
-      <c r="AG53" s="27"/>
-      <c r="AH53" s="27" t="s">
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AI53" s="27"/>
-      <c r="AJ53" s="27"/>
-      <c r="AK53" s="27"/>
-      <c r="AL53" s="27" t="s">
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AM53" s="27"/>
-      <c r="AN53" s="27"/>
-      <c r="AO53" s="27"/>
-      <c r="AP53" s="27" t="s">
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AQ53" s="27"/>
-      <c r="AR53" s="27"/>
-      <c r="AS53" s="27"/>
-      <c r="AT53" s="27" t="s">
+      <c r="AQ53" s="35"/>
+      <c r="AR53" s="35"/>
+      <c r="AS53" s="35"/>
+      <c r="AT53" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AU53" s="27"/>
-      <c r="AV53" s="27"/>
-      <c r="AW53" s="27"/>
-      <c r="AX53" s="27" t="s">
+      <c r="AU53" s="35"/>
+      <c r="AV53" s="35"/>
+      <c r="AW53" s="35"/>
+      <c r="AX53" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AY53" s="27"/>
-      <c r="AZ53" s="27"/>
-      <c r="BA53" s="27"/>
-      <c r="BB53" s="27" t="s">
+      <c r="AY53" s="35"/>
+      <c r="AZ53" s="35"/>
+      <c r="BA53" s="35"/>
+      <c r="BB53" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BC53" s="27"/>
-      <c r="BD53" s="27"/>
-      <c r="BE53" s="27"/>
-      <c r="BF53" s="27" t="s">
+      <c r="BC53" s="35"/>
+      <c r="BD53" s="35"/>
+      <c r="BE53" s="35"/>
+      <c r="BF53" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BG53" s="27"/>
-      <c r="BH53" s="27"/>
-      <c r="BI53" s="27"/>
-      <c r="BJ53" s="27" t="s">
+      <c r="BG53" s="35"/>
+      <c r="BH53" s="35"/>
+      <c r="BI53" s="35"/>
+      <c r="BJ53" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="BK53" s="27"/>
-      <c r="BL53" s="27"/>
-      <c r="BM53" s="27"/>
-      <c r="BN53" s="27" t="s">
+      <c r="BK53" s="35"/>
+      <c r="BL53" s="35"/>
+      <c r="BM53" s="35"/>
+      <c r="BN53" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="BO53" s="27"/>
-      <c r="BP53" s="27"/>
-      <c r="BQ53" s="27"/>
-      <c r="BR53" s="27" t="s">
+      <c r="BO53" s="35"/>
+      <c r="BP53" s="35"/>
+      <c r="BQ53" s="35"/>
+      <c r="BR53" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="BS53" s="27"/>
-      <c r="BT53" s="27"/>
-      <c r="BU53" s="27"/>
-      <c r="BV53" s="27" t="s">
+      <c r="BS53" s="35"/>
+      <c r="BT53" s="35"/>
+      <c r="BU53" s="35"/>
+      <c r="BV53" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="BW53" s="27"/>
-      <c r="BX53" s="27"/>
-      <c r="BY53" s="27"/>
-      <c r="BZ53" s="27" t="s">
+      <c r="BW53" s="35"/>
+      <c r="BX53" s="35"/>
+      <c r="BY53" s="35"/>
+      <c r="BZ53" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="27"/>
-      <c r="CB53" s="27"/>
-      <c r="CC53" s="27"/>
-      <c r="CD53" s="27" t="s">
+      <c r="CA53" s="35"/>
+      <c r="CB53" s="35"/>
+      <c r="CC53" s="35"/>
+      <c r="CD53" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="CE53" s="27"/>
-      <c r="CF53" s="27"/>
-      <c r="CG53" s="27"/>
-      <c r="CH53" s="27" t="s">
+      <c r="CE53" s="35"/>
+      <c r="CF53" s="35"/>
+      <c r="CG53" s="35"/>
+      <c r="CH53" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CI53" s="27"/>
-      <c r="CJ53" s="27"/>
-      <c r="CK53" s="27"/>
-      <c r="CL53" s="26" t="s">
+      <c r="CI53" s="22"/>
+      <c r="CJ53" s="22"/>
+      <c r="CK53" s="22"/>
+      <c r="CL53" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="CM53" s="26"/>
-      <c r="CN53" s="26"/>
-      <c r="CO53" s="26"/>
-      <c r="CP53" s="25"/>
-      <c r="CQ53" s="25"/>
-      <c r="CR53" s="25"/>
-      <c r="CS53" s="25"/>
+      <c r="CM53" s="22"/>
+      <c r="CN53" s="22"/>
+      <c r="CO53" s="22"/>
+      <c r="CP53" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="CQ53" s="23"/>
+      <c r="CR53" s="23"/>
+      <c r="CS53" s="23"/>
+      <c r="CT53" s="23"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -31146,10 +31213,13 @@
       <c r="CO54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP54" s="6"/>
-      <c r="CQ54" s="6"/>
-      <c r="CR54" s="6"/>
-      <c r="CS54" s="6"/>
+      <c r="CP54" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="CQ54" s="33"/>
+      <c r="CR54" s="33"/>
+      <c r="CS54" s="33"/>
+      <c r="CT54" s="33"/>
     </row>
     <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -31414,31 +31484,33 @@
         <v>18.430859850673926</v>
       </c>
       <c r="CI56" s="16">
-        <v>32.752619691226954</v>
+        <v>32.808178928354721</v>
       </c>
       <c r="CJ56" s="16">
-        <v>36.629038687814784</v>
+        <v>36.201628032027799</v>
       </c>
       <c r="CK56" s="16">
         <v>28.128053153213529</v>
       </c>
       <c r="CL56" s="16">
-        <v>24.18608613164335</v>
+        <v>24.20302716305838</v>
       </c>
       <c r="CM56" s="16">
-        <v>32.2764573199089</v>
+        <v>31.753975784408226</v>
       </c>
       <c r="CN56" s="16">
-        <v>18.725400419847134</v>
+        <v>18.692705163369027</v>
       </c>
       <c r="CO56" s="16">
-        <v>14.863149270754718</v>
-      </c>
-      <c r="CP56" s="16"/>
-      <c r="CQ56" s="16"/>
-      <c r="CR56" s="16"/>
-      <c r="CS56" s="16"/>
-      <c r="CT56" s="10"/>
+        <v>14.841493335686977</v>
+      </c>
+      <c r="CP56" s="34">
+        <v>9.8946485903680355</v>
+      </c>
+      <c r="CQ56" s="34"/>
+      <c r="CR56" s="34"/>
+      <c r="CS56" s="34"/>
+      <c r="CT56" s="34"/>
       <c r="CU56" s="10"/>
       <c r="CV56" s="10"/>
       <c r="CW56" s="10"/>
@@ -31752,31 +31824,33 @@
         <v>15.525308299644138</v>
       </c>
       <c r="CI57" s="16">
-        <v>33.636084620686404</v>
+        <v>35.143289926618849</v>
       </c>
       <c r="CJ57" s="16">
-        <v>34.325309747543344</v>
+        <v>34.264609755268339</v>
       </c>
       <c r="CK57" s="16">
-        <v>33.272419708212254</v>
+        <v>36.303412121869115</v>
       </c>
       <c r="CL57" s="16">
-        <v>36.51891152971524</v>
+        <v>38.658322350972725</v>
       </c>
       <c r="CM57" s="16">
-        <v>13.261741303910938</v>
+        <v>14.315857745275281</v>
       </c>
       <c r="CN57" s="16">
-        <v>9.9620874797699486</v>
+        <v>9.7160001601030359</v>
       </c>
       <c r="CO57" s="16">
-        <v>14.630768276615939</v>
-      </c>
-      <c r="CP57" s="16"/>
-      <c r="CQ57" s="16"/>
-      <c r="CR57" s="16"/>
-      <c r="CS57" s="16"/>
-      <c r="CT57" s="10"/>
+        <v>14.630768274735928</v>
+      </c>
+      <c r="CP57" s="34">
+        <v>14.84861960256427</v>
+      </c>
+      <c r="CQ57" s="34"/>
+      <c r="CR57" s="34"/>
+      <c r="CS57" s="34"/>
+      <c r="CT57" s="34"/>
       <c r="CU57" s="10"/>
       <c r="CV57" s="10"/>
       <c r="CW57" s="10"/>
@@ -32110,11 +32184,13 @@
       <c r="CO58" s="16">
         <v>16.167028543209355</v>
       </c>
-      <c r="CP58" s="16"/>
-      <c r="CQ58" s="16"/>
-      <c r="CR58" s="16"/>
-      <c r="CS58" s="16"/>
-      <c r="CT58" s="10"/>
+      <c r="CP58" s="34">
+        <v>8.6647427769384251</v>
+      </c>
+      <c r="CQ58" s="34"/>
+      <c r="CR58" s="34"/>
+      <c r="CS58" s="34"/>
+      <c r="CT58" s="34"/>
       <c r="CU58" s="10"/>
       <c r="CV58" s="10"/>
       <c r="CW58" s="10"/>
@@ -32428,31 +32504,33 @@
         <v>18.2812041665984</v>
       </c>
       <c r="CI59" s="16">
-        <v>10.908071911852986</v>
+        <v>11.089844508263468</v>
       </c>
       <c r="CJ59" s="16">
-        <v>19.59704524110623</v>
+        <v>19.582978766298424</v>
       </c>
       <c r="CK59" s="16">
-        <v>21.642875170028205</v>
+        <v>23.145098367071341</v>
       </c>
       <c r="CL59" s="16">
-        <v>15.807322152959586</v>
+        <v>15.491791200406581</v>
       </c>
       <c r="CM59" s="16">
-        <v>15.127652725377686</v>
+        <v>14.299517278723954</v>
       </c>
       <c r="CN59" s="16">
-        <v>4.8163573836183389</v>
+        <v>5.0475553572435103</v>
       </c>
       <c r="CO59" s="16">
-        <v>6.4179283423618756</v>
-      </c>
-      <c r="CP59" s="16"/>
-      <c r="CQ59" s="16"/>
-      <c r="CR59" s="16"/>
-      <c r="CS59" s="16"/>
-      <c r="CT59" s="10"/>
+        <v>5.4665472448003811</v>
+      </c>
+      <c r="CP59" s="34">
+        <v>4.6277735808806284</v>
+      </c>
+      <c r="CQ59" s="34"/>
+      <c r="CR59" s="34"/>
+      <c r="CS59" s="34"/>
+      <c r="CT59" s="34"/>
       <c r="CU59" s="10"/>
       <c r="CV59" s="10"/>
       <c r="CW59" s="10"/>
@@ -32772,10 +32850,10 @@
         <v>3.1042038015677491</v>
       </c>
       <c r="CK60" s="16">
-        <v>-1.4230361552405384</v>
+        <v>-0.17043254730663193</v>
       </c>
       <c r="CL60" s="16">
-        <v>12.761997538079555</v>
+        <v>12.512871040386258</v>
       </c>
       <c r="CM60" s="16">
         <v>12.819618991169108</v>
@@ -32784,13 +32862,15 @@
         <v>10.28257850793662</v>
       </c>
       <c r="CO60" s="16">
-        <v>6.1879944137735095</v>
-      </c>
-      <c r="CP60" s="16"/>
-      <c r="CQ60" s="16"/>
-      <c r="CR60" s="16"/>
-      <c r="CS60" s="16"/>
-      <c r="CT60" s="10"/>
+        <v>5.8537446887849711</v>
+      </c>
+      <c r="CP60" s="34">
+        <v>6.5255121912585849</v>
+      </c>
+      <c r="CQ60" s="34"/>
+      <c r="CR60" s="34"/>
+      <c r="CS60" s="34"/>
+      <c r="CT60" s="34"/>
       <c r="CU60" s="10"/>
       <c r="CV60" s="10"/>
       <c r="CW60" s="10"/>
@@ -32937,11 +33017,11 @@
       <c r="CM61" s="10"/>
       <c r="CN61" s="10"/>
       <c r="CO61" s="10"/>
-      <c r="CP61" s="10"/>
-      <c r="CQ61" s="10"/>
-      <c r="CR61" s="10"/>
-      <c r="CS61" s="10"/>
-      <c r="CT61" s="10"/>
+      <c r="CP61" s="29"/>
+      <c r="CQ61" s="29"/>
+      <c r="CR61" s="29"/>
+      <c r="CS61" s="29"/>
+      <c r="CT61" s="29"/>
       <c r="CU61" s="10"/>
       <c r="CV61" s="10"/>
       <c r="CW61" s="10"/>
@@ -33255,31 +33335,33 @@
         <v>23.637349808118941</v>
       </c>
       <c r="CI62" s="16">
-        <v>32.818586167576711</v>
+        <v>32.970847540703915</v>
       </c>
       <c r="CJ62" s="16">
-        <v>39.093590207346381</v>
+        <v>38.840067456405677</v>
       </c>
       <c r="CK62" s="16">
-        <v>36.198725240179414</v>
+        <v>36.775629849316147</v>
       </c>
       <c r="CL62" s="16">
-        <v>29.801033919898998</v>
+        <v>29.821065932615539</v>
       </c>
       <c r="CM62" s="16">
-        <v>30.374855776371476</v>
+        <v>29.892742852506132</v>
       </c>
       <c r="CN62" s="16">
-        <v>16.508985832113197</v>
+        <v>16.534724025901511</v>
       </c>
       <c r="CO62" s="16">
-        <v>12.731622803130023</v>
-      </c>
-      <c r="CP62" s="16"/>
-      <c r="CQ62" s="16"/>
-      <c r="CR62" s="16"/>
-      <c r="CS62" s="16"/>
-      <c r="CT62" s="10"/>
+        <v>12.461641884267976</v>
+      </c>
+      <c r="CP62" s="34">
+        <v>8.5603559780498557</v>
+      </c>
+      <c r="CQ62" s="34"/>
+      <c r="CR62" s="34"/>
+      <c r="CS62" s="34"/>
+      <c r="CT62" s="34"/>
       <c r="CU62" s="10"/>
       <c r="CV62" s="10"/>
       <c r="CW62" s="10"/>
@@ -33427,10 +33509,11 @@
       <c r="CM63" s="13"/>
       <c r="CN63" s="13"/>
       <c r="CO63" s="13"/>
-      <c r="CP63" s="13"/>
-      <c r="CQ63" s="13"/>
-      <c r="CR63" s="13"/>
-      <c r="CS63" s="13"/>
+      <c r="CP63" s="32"/>
+      <c r="CQ63" s="32"/>
+      <c r="CR63" s="32"/>
+      <c r="CS63" s="32"/>
+      <c r="CT63" s="32"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
@@ -33530,11 +33613,11 @@
       <c r="CM65" s="10"/>
       <c r="CN65" s="10"/>
       <c r="CO65" s="10"/>
-      <c r="CP65" s="10"/>
-      <c r="CQ65" s="10"/>
-      <c r="CR65" s="10"/>
-      <c r="CS65" s="10"/>
-      <c r="CT65" s="10"/>
+      <c r="CP65" s="29"/>
+      <c r="CQ65" s="29"/>
+      <c r="CR65" s="29"/>
+      <c r="CS65" s="29"/>
+      <c r="CT65" s="29"/>
       <c r="CU65" s="10"/>
       <c r="CV65" s="10"/>
       <c r="CW65" s="10"/>
@@ -33681,11 +33764,11 @@
       <c r="CM66" s="10"/>
       <c r="CN66" s="10"/>
       <c r="CO66" s="10"/>
-      <c r="CP66" s="10"/>
-      <c r="CQ66" s="10"/>
-      <c r="CR66" s="10"/>
-      <c r="CS66" s="10"/>
-      <c r="CT66" s="10"/>
+      <c r="CP66" s="29"/>
+      <c r="CQ66" s="29"/>
+      <c r="CR66" s="29"/>
+      <c r="CS66" s="29"/>
+      <c r="CT66" s="29"/>
       <c r="CU66" s="10"/>
       <c r="CV66" s="10"/>
       <c r="CW66" s="10"/>
@@ -33751,7 +33834,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:150" x14ac:dyDescent="0.2">
@@ -33761,7 +33844,7 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
@@ -33771,148 +33854,151 @@
     </row>
     <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="27" t="s">
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="27" t="s">
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="27" t="s">
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="27" t="s">
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="S75" s="29"/>
-      <c r="T75" s="29"/>
-      <c r="U75" s="29"/>
-      <c r="V75" s="27" t="s">
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="W75" s="29"/>
-      <c r="X75" s="29"/>
-      <c r="Y75" s="29"/>
-      <c r="Z75" s="27" t="s">
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="37"/>
+      <c r="Z75" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AA75" s="29"/>
-      <c r="AB75" s="29"/>
-      <c r="AC75" s="29"/>
-      <c r="AD75" s="27" t="s">
+      <c r="AA75" s="37"/>
+      <c r="AB75" s="37"/>
+      <c r="AC75" s="37"/>
+      <c r="AD75" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="29"/>
-      <c r="AF75" s="29"/>
-      <c r="AG75" s="29"/>
-      <c r="AH75" s="27" t="s">
+      <c r="AE75" s="37"/>
+      <c r="AF75" s="37"/>
+      <c r="AG75" s="37"/>
+      <c r="AH75" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="29"/>
-      <c r="AJ75" s="29"/>
-      <c r="AK75" s="29"/>
-      <c r="AL75" s="27" t="s">
+      <c r="AI75" s="37"/>
+      <c r="AJ75" s="37"/>
+      <c r="AK75" s="37"/>
+      <c r="AL75" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AM75" s="29"/>
-      <c r="AN75" s="29"/>
-      <c r="AO75" s="29"/>
-      <c r="AP75" s="27" t="s">
+      <c r="AM75" s="37"/>
+      <c r="AN75" s="37"/>
+      <c r="AO75" s="37"/>
+      <c r="AP75" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AQ75" s="29"/>
-      <c r="AR75" s="29"/>
-      <c r="AS75" s="29"/>
-      <c r="AT75" s="27" t="s">
+      <c r="AQ75" s="37"/>
+      <c r="AR75" s="37"/>
+      <c r="AS75" s="37"/>
+      <c r="AT75" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AU75" s="29"/>
-      <c r="AV75" s="29"/>
-      <c r="AW75" s="29"/>
-      <c r="AX75" s="27" t="s">
+      <c r="AU75" s="37"/>
+      <c r="AV75" s="37"/>
+      <c r="AW75" s="37"/>
+      <c r="AX75" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AY75" s="29"/>
-      <c r="AZ75" s="29"/>
-      <c r="BA75" s="29"/>
-      <c r="BB75" s="27" t="s">
+      <c r="AY75" s="37"/>
+      <c r="AZ75" s="37"/>
+      <c r="BA75" s="37"/>
+      <c r="BB75" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BC75" s="29"/>
-      <c r="BD75" s="29"/>
-      <c r="BE75" s="29"/>
-      <c r="BF75" s="27" t="s">
+      <c r="BC75" s="37"/>
+      <c r="BD75" s="37"/>
+      <c r="BE75" s="37"/>
+      <c r="BF75" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BG75" s="29"/>
-      <c r="BH75" s="29"/>
-      <c r="BI75" s="29"/>
-      <c r="BJ75" s="27" t="s">
+      <c r="BG75" s="37"/>
+      <c r="BH75" s="37"/>
+      <c r="BI75" s="37"/>
+      <c r="BJ75" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="BK75" s="29"/>
-      <c r="BL75" s="29"/>
-      <c r="BM75" s="29"/>
-      <c r="BN75" s="27" t="s">
+      <c r="BK75" s="37"/>
+      <c r="BL75" s="37"/>
+      <c r="BM75" s="37"/>
+      <c r="BN75" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="BO75" s="29"/>
-      <c r="BP75" s="29"/>
-      <c r="BQ75" s="29"/>
-      <c r="BR75" s="27" t="s">
+      <c r="BO75" s="37"/>
+      <c r="BP75" s="37"/>
+      <c r="BQ75" s="37"/>
+      <c r="BR75" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="BS75" s="29"/>
-      <c r="BT75" s="29"/>
-      <c r="BU75" s="29"/>
-      <c r="BV75" s="27" t="s">
+      <c r="BS75" s="37"/>
+      <c r="BT75" s="37"/>
+      <c r="BU75" s="37"/>
+      <c r="BV75" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="BW75" s="29"/>
-      <c r="BX75" s="29"/>
-      <c r="BY75" s="29"/>
-      <c r="BZ75" s="27" t="s">
+      <c r="BW75" s="37"/>
+      <c r="BX75" s="37"/>
+      <c r="BY75" s="37"/>
+      <c r="BZ75" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="29"/>
-      <c r="CB75" s="29"/>
-      <c r="CC75" s="29"/>
-      <c r="CD75" s="27" t="s">
+      <c r="CA75" s="37"/>
+      <c r="CB75" s="37"/>
+      <c r="CC75" s="37"/>
+      <c r="CD75" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="CE75" s="27"/>
-      <c r="CF75" s="27"/>
-      <c r="CG75" s="27"/>
-      <c r="CH75" s="27" t="s">
+      <c r="CE75" s="35"/>
+      <c r="CF75" s="35"/>
+      <c r="CG75" s="35"/>
+      <c r="CH75" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CI75" s="27"/>
-      <c r="CJ75" s="27"/>
-      <c r="CK75" s="27"/>
-      <c r="CL75" s="26" t="s">
+      <c r="CI75" s="22"/>
+      <c r="CJ75" s="22"/>
+      <c r="CK75" s="22"/>
+      <c r="CL75" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="CM75" s="26"/>
-      <c r="CN75" s="26"/>
-      <c r="CO75" s="26"/>
-      <c r="CP75" s="25"/>
-      <c r="CQ75" s="25"/>
-      <c r="CR75" s="25"/>
-      <c r="CS75" s="25"/>
+      <c r="CM75" s="22"/>
+      <c r="CN75" s="22"/>
+      <c r="CO75" s="22"/>
+      <c r="CP75" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="CQ75" s="23"/>
+      <c r="CR75" s="23"/>
+      <c r="CS75" s="23"/>
+      <c r="CT75" s="23"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
@@ -34194,10 +34280,13 @@
       <c r="CO76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP76" s="6"/>
-      <c r="CQ76" s="6"/>
-      <c r="CR76" s="6"/>
-      <c r="CS76" s="6"/>
+      <c r="CP76" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="CQ76" s="33"/>
+      <c r="CR76" s="33"/>
+      <c r="CS76" s="33"/>
+      <c r="CT76" s="33"/>
     </row>
     <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
@@ -34462,31 +34551,33 @@
         <v>17.409398087314273</v>
       </c>
       <c r="CI78" s="16">
-        <v>31.078683744474489</v>
+        <v>31.133542410838203</v>
       </c>
       <c r="CJ78" s="16">
-        <v>28.611926805686096</v>
+        <v>28.209595730930857</v>
       </c>
       <c r="CK78" s="16">
         <v>15.202170736813599</v>
       </c>
       <c r="CL78" s="16">
-        <v>10.744856792615806</v>
+        <v>10.759964218547481</v>
       </c>
       <c r="CM78" s="16">
-        <v>18.610215949479695</v>
+        <v>18.141714985582013</v>
       </c>
       <c r="CN78" s="16">
-        <v>11.967652888044356</v>
+        <v>11.936818617404029</v>
       </c>
       <c r="CO78" s="16">
-        <v>12.049965415971513</v>
-      </c>
-      <c r="CP78" s="16"/>
-      <c r="CQ78" s="16"/>
-      <c r="CR78" s="16"/>
-      <c r="CS78" s="16"/>
-      <c r="CT78" s="10"/>
+        <v>12.028839869694991</v>
+      </c>
+      <c r="CP78" s="34">
+        <v>7.0820180314618284</v>
+      </c>
+      <c r="CQ78" s="34"/>
+      <c r="CR78" s="34"/>
+      <c r="CS78" s="34"/>
+      <c r="CT78" s="34"/>
       <c r="CU78" s="10"/>
       <c r="CV78" s="10"/>
       <c r="CW78" s="10"/>
@@ -34800,31 +34891,33 @@
         <v>34.672484136659506</v>
       </c>
       <c r="CI79" s="16">
-        <v>13.955072912286681</v>
+        <v>15.24030729354557</v>
       </c>
       <c r="CJ79" s="16">
-        <v>5.7137636475506923</v>
+        <v>5.6659928689176411</v>
       </c>
       <c r="CK79" s="16">
-        <v>38.540254294755073</v>
+        <v>41.691052191820802</v>
       </c>
       <c r="CL79" s="16">
-        <v>32.476654835805874</v>
+        <v>34.552718772618221</v>
       </c>
       <c r="CM79" s="16">
-        <v>14.966446083740252</v>
+        <v>16.036428053176138</v>
       </c>
       <c r="CN79" s="16">
-        <v>12.994719963964101</v>
+        <v>12.741845828798532</v>
       </c>
       <c r="CO79" s="16">
         <v>4.2962835412963614</v>
       </c>
-      <c r="CP79" s="16"/>
-      <c r="CQ79" s="16"/>
-      <c r="CR79" s="16"/>
-      <c r="CS79" s="16"/>
-      <c r="CT79" s="10"/>
+      <c r="CP79" s="34">
+        <v>2.7151835849075496</v>
+      </c>
+      <c r="CQ79" s="34"/>
+      <c r="CR79" s="34"/>
+      <c r="CS79" s="34"/>
+      <c r="CT79" s="34"/>
       <c r="CU79" s="10"/>
       <c r="CV79" s="10"/>
       <c r="CW79" s="10"/>
@@ -35158,11 +35251,13 @@
       <c r="CO80" s="16">
         <v>13.477244444551516</v>
       </c>
-      <c r="CP80" s="16"/>
-      <c r="CQ80" s="16"/>
-      <c r="CR80" s="16"/>
-      <c r="CS80" s="16"/>
-      <c r="CT80" s="10"/>
+      <c r="CP80" s="34">
+        <v>8.1672790045690817</v>
+      </c>
+      <c r="CQ80" s="34"/>
+      <c r="CR80" s="34"/>
+      <c r="CS80" s="34"/>
+      <c r="CT80" s="34"/>
       <c r="CU80" s="10"/>
       <c r="CV80" s="10"/>
       <c r="CW80" s="10"/>
@@ -35476,31 +35571,33 @@
         <v>22.613090200699588</v>
       </c>
       <c r="CI81" s="16">
-        <v>2.0230208694397334</v>
+        <v>2.1902313265091777</v>
       </c>
       <c r="CJ81" s="16">
-        <v>2.1350395560253048</v>
+        <v>2.1230268849929956</v>
       </c>
       <c r="CK81" s="16">
-        <v>1.988296426604208</v>
+        <v>3.2477962904869742</v>
       </c>
       <c r="CL81" s="16">
-        <v>3.5178568900711298</v>
+        <v>3.2358100610491647</v>
       </c>
       <c r="CM81" s="16">
-        <v>6.5345632626577128</v>
+        <v>5.768239568540352</v>
       </c>
       <c r="CN81" s="16">
-        <v>3.0442479620353708</v>
+        <v>3.2715371172515262</v>
       </c>
       <c r="CO81" s="16">
-        <v>4.4783332701117615</v>
-      </c>
-      <c r="CP81" s="16"/>
-      <c r="CQ81" s="16"/>
-      <c r="CR81" s="16"/>
-      <c r="CS81" s="16"/>
-      <c r="CT81" s="10"/>
+        <v>3.5442922403133252</v>
+      </c>
+      <c r="CP81" s="34">
+        <v>2.2784302382546713</v>
+      </c>
+      <c r="CQ81" s="34"/>
+      <c r="CR81" s="34"/>
+      <c r="CS81" s="34"/>
+      <c r="CT81" s="34"/>
       <c r="CU81" s="10"/>
       <c r="CV81" s="10"/>
       <c r="CW81" s="10"/>
@@ -35820,10 +35917,10 @@
         <v>2.8748649307030831</v>
       </c>
       <c r="CK82" s="16">
-        <v>-1.6109807955546813</v>
+        <v>-0.3607653737178822</v>
       </c>
       <c r="CL82" s="16">
-        <v>12.439820402256458</v>
+        <v>12.191405694556565</v>
       </c>
       <c r="CM82" s="16">
         <v>12.604724478804968</v>
@@ -35832,13 +35929,15 @@
         <v>10.107637869440495</v>
       </c>
       <c r="CO82" s="16">
-        <v>5.9859240152696884</v>
-      </c>
-      <c r="CP82" s="16"/>
-      <c r="CQ82" s="16"/>
-      <c r="CR82" s="16"/>
-      <c r="CS82" s="16"/>
-      <c r="CT82" s="10"/>
+        <v>5.6523103506521295</v>
+      </c>
+      <c r="CP82" s="34">
+        <v>5.6201962236274312</v>
+      </c>
+      <c r="CQ82" s="34"/>
+      <c r="CR82" s="34"/>
+      <c r="CS82" s="34"/>
+      <c r="CT82" s="34"/>
       <c r="CU82" s="10"/>
       <c r="CV82" s="10"/>
       <c r="CW82" s="10"/>
@@ -35985,11 +36084,11 @@
       <c r="CM83" s="10"/>
       <c r="CN83" s="10"/>
       <c r="CO83" s="10"/>
-      <c r="CP83" s="10"/>
-      <c r="CQ83" s="10"/>
-      <c r="CR83" s="10"/>
-      <c r="CS83" s="10"/>
-      <c r="CT83" s="10"/>
+      <c r="CP83" s="29"/>
+      <c r="CQ83" s="29"/>
+      <c r="CR83" s="29"/>
+      <c r="CS83" s="29"/>
+      <c r="CT83" s="29"/>
       <c r="CU83" s="10"/>
       <c r="CV83" s="10"/>
       <c r="CW83" s="10"/>
@@ -36303,31 +36402,33 @@
         <v>26.173618505271776</v>
       </c>
       <c r="CI84" s="16">
-        <v>27.628591673252131</v>
+        <v>27.781476739179183</v>
       </c>
       <c r="CJ84" s="16">
-        <v>24.510707342731976</v>
+        <v>24.298747846927668</v>
       </c>
       <c r="CK84" s="16">
-        <v>18.947222901596405</v>
+        <v>19.510078937940364</v>
       </c>
       <c r="CL84" s="16">
-        <v>14.602244299708758</v>
+        <v>14.621707262911073</v>
       </c>
       <c r="CM84" s="16">
-        <v>17.477230866085549</v>
+        <v>17.0696694855027</v>
       </c>
       <c r="CN84" s="16">
-        <v>12.06842726853408</v>
+        <v>12.107515903028272</v>
       </c>
       <c r="CO84" s="16">
-        <v>9.7032771148343357</v>
-      </c>
-      <c r="CP84" s="16"/>
-      <c r="CQ84" s="16"/>
-      <c r="CR84" s="16"/>
-      <c r="CS84" s="16"/>
-      <c r="CT84" s="10"/>
+        <v>9.420922976536005</v>
+      </c>
+      <c r="CP84" s="34">
+        <v>5.6366004951849504</v>
+      </c>
+      <c r="CQ84" s="34"/>
+      <c r="CR84" s="34"/>
+      <c r="CS84" s="34"/>
+      <c r="CT84" s="34"/>
       <c r="CU84" s="10"/>
       <c r="CV84" s="10"/>
       <c r="CW84" s="10"/>
@@ -36475,10 +36576,11 @@
       <c r="CM85" s="13"/>
       <c r="CN85" s="13"/>
       <c r="CO85" s="13"/>
-      <c r="CP85" s="13"/>
-      <c r="CQ85" s="13"/>
-      <c r="CR85" s="13"/>
-      <c r="CS85" s="13"/>
+      <c r="CP85" s="32"/>
+      <c r="CQ85" s="32"/>
+      <c r="CR85" s="32"/>
+      <c r="CS85" s="32"/>
+      <c r="CT85" s="32"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
@@ -36578,11 +36680,11 @@
       <c r="CM87" s="10"/>
       <c r="CN87" s="10"/>
       <c r="CO87" s="10"/>
-      <c r="CP87" s="10"/>
-      <c r="CQ87" s="10"/>
-      <c r="CR87" s="10"/>
-      <c r="CS87" s="10"/>
-      <c r="CT87" s="10"/>
+      <c r="CP87" s="29"/>
+      <c r="CQ87" s="29"/>
+      <c r="CR87" s="29"/>
+      <c r="CS87" s="29"/>
+      <c r="CT87" s="29"/>
       <c r="CU87" s="10"/>
       <c r="CV87" s="10"/>
       <c r="CW87" s="10"/>
@@ -36729,11 +36831,11 @@
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
       <c r="CO88" s="10"/>
-      <c r="CP88" s="10"/>
-      <c r="CQ88" s="10"/>
-      <c r="CR88" s="10"/>
-      <c r="CS88" s="10"/>
-      <c r="CT88" s="10"/>
+      <c r="CP88" s="29"/>
+      <c r="CQ88" s="29"/>
+      <c r="CR88" s="29"/>
+      <c r="CS88" s="29"/>
+      <c r="CT88" s="29"/>
       <c r="CU88" s="10"/>
       <c r="CV88" s="10"/>
       <c r="CW88" s="10"/>
@@ -36794,7 +36896,7 @@
     </row>
     <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.2">
@@ -36804,7 +36906,7 @@
     </row>
     <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:150" x14ac:dyDescent="0.2">
@@ -36814,150 +36916,153 @@
     </row>
     <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="27">
+      <c r="B96" s="35">
         <v>2000</v>
       </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="27">
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="35">
         <v>2001</v>
       </c>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="27">
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="35">
         <v>2002</v>
       </c>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="27">
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="35">
         <v>2003</v>
       </c>
-      <c r="O96" s="28"/>
-      <c r="P96" s="28"/>
-      <c r="Q96" s="28"/>
-      <c r="R96" s="27">
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="35">
         <v>2004</v>
       </c>
-      <c r="S96" s="28"/>
-      <c r="T96" s="28"/>
-      <c r="U96" s="28"/>
-      <c r="V96" s="27">
+      <c r="S96" s="36"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="36"/>
+      <c r="V96" s="35">
         <v>2005</v>
       </c>
-      <c r="W96" s="28"/>
-      <c r="X96" s="28"/>
-      <c r="Y96" s="28"/>
-      <c r="Z96" s="27">
+      <c r="W96" s="36"/>
+      <c r="X96" s="36"/>
+      <c r="Y96" s="36"/>
+      <c r="Z96" s="35">
         <v>2006</v>
       </c>
-      <c r="AA96" s="28"/>
-      <c r="AB96" s="28"/>
-      <c r="AC96" s="28"/>
-      <c r="AD96" s="27">
+      <c r="AA96" s="36"/>
+      <c r="AB96" s="36"/>
+      <c r="AC96" s="36"/>
+      <c r="AD96" s="35">
         <v>2007</v>
       </c>
-      <c r="AE96" s="28"/>
-      <c r="AF96" s="28"/>
-      <c r="AG96" s="28"/>
-      <c r="AH96" s="27">
+      <c r="AE96" s="36"/>
+      <c r="AF96" s="36"/>
+      <c r="AG96" s="36"/>
+      <c r="AH96" s="35">
         <v>2008</v>
       </c>
-      <c r="AI96" s="28"/>
-      <c r="AJ96" s="28"/>
-      <c r="AK96" s="28"/>
-      <c r="AL96" s="27">
+      <c r="AI96" s="36"/>
+      <c r="AJ96" s="36"/>
+      <c r="AK96" s="36"/>
+      <c r="AL96" s="35">
         <v>2009</v>
       </c>
-      <c r="AM96" s="28"/>
-      <c r="AN96" s="28"/>
-      <c r="AO96" s="28"/>
-      <c r="AP96" s="27">
+      <c r="AM96" s="36"/>
+      <c r="AN96" s="36"/>
+      <c r="AO96" s="36"/>
+      <c r="AP96" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="28"/>
-      <c r="AR96" s="28"/>
-      <c r="AS96" s="28"/>
-      <c r="AT96" s="27">
+      <c r="AQ96" s="36"/>
+      <c r="AR96" s="36"/>
+      <c r="AS96" s="36"/>
+      <c r="AT96" s="35">
         <v>2011</v>
       </c>
-      <c r="AU96" s="28"/>
-      <c r="AV96" s="28"/>
-      <c r="AW96" s="28"/>
-      <c r="AX96" s="27">
+      <c r="AU96" s="36"/>
+      <c r="AV96" s="36"/>
+      <c r="AW96" s="36"/>
+      <c r="AX96" s="35">
         <v>2012</v>
       </c>
-      <c r="AY96" s="28"/>
-      <c r="AZ96" s="28"/>
-      <c r="BA96" s="28"/>
-      <c r="BB96" s="27">
+      <c r="AY96" s="36"/>
+      <c r="AZ96" s="36"/>
+      <c r="BA96" s="36"/>
+      <c r="BB96" s="35">
         <v>2013</v>
       </c>
-      <c r="BC96" s="28"/>
-      <c r="BD96" s="28"/>
-      <c r="BE96" s="28"/>
-      <c r="BF96" s="27">
+      <c r="BC96" s="36"/>
+      <c r="BD96" s="36"/>
+      <c r="BE96" s="36"/>
+      <c r="BF96" s="35">
         <v>2014</v>
       </c>
-      <c r="BG96" s="28"/>
-      <c r="BH96" s="28"/>
-      <c r="BI96" s="28"/>
-      <c r="BJ96" s="27">
+      <c r="BG96" s="36"/>
+      <c r="BH96" s="36"/>
+      <c r="BI96" s="36"/>
+      <c r="BJ96" s="35">
         <v>2015</v>
       </c>
-      <c r="BK96" s="28"/>
-      <c r="BL96" s="28"/>
-      <c r="BM96" s="28"/>
-      <c r="BN96" s="27">
+      <c r="BK96" s="36"/>
+      <c r="BL96" s="36"/>
+      <c r="BM96" s="36"/>
+      <c r="BN96" s="35">
         <v>2016</v>
       </c>
-      <c r="BO96" s="28"/>
-      <c r="BP96" s="28"/>
-      <c r="BQ96" s="28"/>
-      <c r="BR96" s="27">
+      <c r="BO96" s="36"/>
+      <c r="BP96" s="36"/>
+      <c r="BQ96" s="36"/>
+      <c r="BR96" s="35">
         <v>2017</v>
       </c>
-      <c r="BS96" s="28"/>
-      <c r="BT96" s="28"/>
-      <c r="BU96" s="28"/>
-      <c r="BV96" s="27">
+      <c r="BS96" s="36"/>
+      <c r="BT96" s="36"/>
+      <c r="BU96" s="36"/>
+      <c r="BV96" s="35">
         <v>2018</v>
       </c>
-      <c r="BW96" s="28"/>
-      <c r="BX96" s="28"/>
-      <c r="BY96" s="28"/>
-      <c r="BZ96" s="27">
+      <c r="BW96" s="36"/>
+      <c r="BX96" s="36"/>
+      <c r="BY96" s="36"/>
+      <c r="BZ96" s="35">
         <v>2019</v>
       </c>
-      <c r="CA96" s="28"/>
-      <c r="CB96" s="28"/>
-      <c r="CC96" s="28"/>
-      <c r="CD96" s="27">
+      <c r="CA96" s="36"/>
+      <c r="CB96" s="36"/>
+      <c r="CC96" s="36"/>
+      <c r="CD96" s="35">
         <v>2020</v>
       </c>
-      <c r="CE96" s="27"/>
-      <c r="CF96" s="27"/>
-      <c r="CG96" s="27"/>
-      <c r="CH96" s="27">
+      <c r="CE96" s="35"/>
+      <c r="CF96" s="35"/>
+      <c r="CG96" s="35"/>
+      <c r="CH96" s="22">
         <v>2021</v>
       </c>
-      <c r="CI96" s="27"/>
-      <c r="CJ96" s="27"/>
-      <c r="CK96" s="27"/>
-      <c r="CL96" s="26">
+      <c r="CI96" s="22"/>
+      <c r="CJ96" s="22"/>
+      <c r="CK96" s="22"/>
+      <c r="CL96" s="22">
         <v>2022</v>
       </c>
-      <c r="CM96" s="26"/>
-      <c r="CN96" s="26"/>
-      <c r="CO96" s="26"/>
+      <c r="CM96" s="22"/>
+      <c r="CN96" s="22"/>
+      <c r="CO96" s="22"/>
       <c r="CP96" s="26">
         <v>2023</v>
       </c>
       <c r="CQ96" s="26"/>
       <c r="CR96" s="26"/>
       <c r="CS96" s="26"/>
+      <c r="CT96" s="26">
+        <v>2024</v>
+      </c>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -37239,17 +37344,20 @@
       <c r="CO97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP97" s="7" t="s">
+      <c r="CP97" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CQ97" s="7" t="s">
+      <c r="CQ97" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CR97" s="7" t="s">
+      <c r="CR97" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CS97" s="7" t="s">
+      <c r="CS97" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CT97" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37527,27 +37635,29 @@
         <v>111.44039659485242</v>
       </c>
       <c r="CM99" s="16">
-        <v>128.2866589087653</v>
+        <v>128.28665890876533</v>
       </c>
       <c r="CN99" s="16">
-        <v>139.31231418081757</v>
+        <v>139.31231418081754</v>
       </c>
       <c r="CO99" s="16">
         <v>123.50895300182034</v>
       </c>
-      <c r="CP99" s="16">
-        <v>124.96604439146837</v>
-      </c>
-      <c r="CQ99" s="16">
+      <c r="CP99" s="34">
+        <v>124.96604439146834</v>
+      </c>
+      <c r="CQ99" s="34">
         <v>143.06781777622629</v>
       </c>
-      <c r="CR99" s="16">
-        <v>147.720434053139</v>
-      </c>
-      <c r="CS99" s="16">
+      <c r="CR99" s="34">
+        <v>147.72043405313894</v>
+      </c>
+      <c r="CS99" s="34">
         <v>126.60983207140346</v>
       </c>
-      <c r="CT99" s="10"/>
+      <c r="CT99" s="34">
+        <v>128.24841917056341</v>
+      </c>
       <c r="CU99" s="10"/>
       <c r="CV99" s="10"/>
       <c r="CW99" s="10"/>
@@ -37877,27 +37987,29 @@
         <v>103.40005983270461</v>
       </c>
       <c r="CM100" s="16">
-        <v>105.68793132655088</v>
+        <v>105.68793132655084</v>
       </c>
       <c r="CN100" s="16">
-        <v>145.52041346807806</v>
+        <v>145.52041346807803</v>
       </c>
       <c r="CO100" s="16">
-        <v>92.35656597458059</v>
-      </c>
-      <c r="CP100" s="16">
+        <v>92.356565974580619</v>
+      </c>
+      <c r="CP100" s="34">
         <v>106.55510314601457</v>
       </c>
-      <c r="CQ100" s="16">
-        <v>104.12080693643613</v>
-      </c>
-      <c r="CR100" s="16">
-        <v>141.61483333887023</v>
-      </c>
-      <c r="CS100" s="16">
-        <v>101.50797088435304</v>
-      </c>
-      <c r="CT100" s="10"/>
+      <c r="CQ100" s="34">
+        <v>104.12080693643608</v>
+      </c>
+      <c r="CR100" s="34">
+        <v>141.61483333887026</v>
+      </c>
+      <c r="CS100" s="34">
+        <v>101.50797088268828</v>
+      </c>
+      <c r="CT100" s="34">
+        <v>119.14213732395818</v>
+      </c>
       <c r="CU100" s="10"/>
       <c r="CV100" s="10"/>
       <c r="CW100" s="10"/>
@@ -38235,19 +38347,21 @@
       <c r="CO101" s="16">
         <v>139.65345817177814</v>
       </c>
-      <c r="CP101" s="16">
+      <c r="CP101" s="34">
         <v>120.66677029953917</v>
       </c>
-      <c r="CQ101" s="16">
+      <c r="CQ101" s="34">
         <v>131.45787386825438</v>
       </c>
-      <c r="CR101" s="16">
+      <c r="CR101" s="34">
         <v>126.59263059144152</v>
       </c>
-      <c r="CS101" s="16">
+      <c r="CS101" s="34">
         <v>142.96370467055149</v>
       </c>
-      <c r="CT101" s="10"/>
+      <c r="CT101" s="34">
+        <v>121.22171951620845</v>
+      </c>
       <c r="CU101" s="10"/>
       <c r="CV101" s="10"/>
       <c r="CW101" s="10"/>
@@ -38577,27 +38691,29 @@
         <v>97.244644640328787</v>
       </c>
       <c r="CM102" s="16">
-        <v>120.58121264491753</v>
+        <v>120.58121264491761</v>
       </c>
       <c r="CN102" s="16">
-        <v>114.83900865274465</v>
+        <v>114.8390086527447</v>
       </c>
       <c r="CO102" s="16">
-        <v>115.52979932111987</v>
-      </c>
-      <c r="CP102" s="16">
+        <v>115.52979932111984</v>
+      </c>
+      <c r="CP102" s="34">
         <v>108.78936473222898</v>
       </c>
-      <c r="CQ102" s="16">
+      <c r="CQ102" s="34">
         <v>130.30730637495333</v>
       </c>
-      <c r="CR102" s="16">
-        <v>116.8139591543365</v>
-      </c>
-      <c r="CS102" s="16">
+      <c r="CR102" s="34">
+        <v>116.81395915433652</v>
+      </c>
+      <c r="CS102" s="34">
         <v>117.67456008105623</v>
       </c>
-      <c r="CT102" s="10"/>
+      <c r="CT102" s="34">
+        <v>111.28826473672446</v>
+      </c>
       <c r="CU102" s="10"/>
       <c r="CV102" s="10"/>
       <c r="CW102" s="10"/>
@@ -38935,19 +39051,21 @@
       <c r="CO103" s="16">
         <v>100.67310618795669</v>
       </c>
-      <c r="CP103" s="16">
+      <c r="CP103" s="34">
         <v>101.46578383170367</v>
       </c>
-      <c r="CQ103" s="16">
+      <c r="CQ103" s="34">
         <v>104.36523833133514</v>
       </c>
-      <c r="CR103" s="16">
+      <c r="CR103" s="34">
         <v>104.08196711312956</v>
       </c>
-      <c r="CS103" s="16">
-        <v>100.86504728650377</v>
-      </c>
-      <c r="CT103" s="10"/>
+      <c r="CS103" s="34">
+        <v>100.86504728650382</v>
+      </c>
+      <c r="CT103" s="34">
+        <v>102.33549055026118</v>
+      </c>
       <c r="CU103" s="10"/>
       <c r="CV103" s="10"/>
       <c r="CW103" s="10"/>
@@ -39098,11 +39216,11 @@
       <c r="CM104" s="10"/>
       <c r="CN104" s="10"/>
       <c r="CO104" s="10"/>
-      <c r="CP104" s="10"/>
-      <c r="CQ104" s="10"/>
-      <c r="CR104" s="10"/>
-      <c r="CS104" s="10"/>
-      <c r="CT104" s="10"/>
+      <c r="CP104" s="29"/>
+      <c r="CQ104" s="29"/>
+      <c r="CR104" s="29"/>
+      <c r="CS104" s="29"/>
+      <c r="CT104" s="29"/>
       <c r="CU104" s="10"/>
       <c r="CV104" s="10"/>
       <c r="CW104" s="10"/>
@@ -39432,27 +39550,29 @@
         <v>104.0848011661212</v>
       </c>
       <c r="CM105" s="16">
-        <v>120.67990287315418</v>
+        <v>120.6736947675747</v>
       </c>
       <c r="CN105" s="16">
-        <v>129.72599329483037</v>
+        <v>129.71035571422021</v>
       </c>
       <c r="CO105" s="16">
-        <v>120.94356317684468</v>
-      </c>
-      <c r="CP105" s="16">
-        <v>117.88874545403625</v>
-      </c>
-      <c r="CQ105" s="16">
-        <v>133.92914368341764</v>
-      </c>
-      <c r="CR105" s="16">
-        <v>134.8662088263988</v>
-      </c>
-      <c r="CS105" s="16">
-        <v>124.28219560156543</v>
-      </c>
-      <c r="CT105" s="10"/>
+        <v>120.88383060925871</v>
+      </c>
+      <c r="CP105" s="34">
+        <v>117.88691825865428</v>
+      </c>
+      <c r="CQ105" s="34">
+        <v>133.89153033738992</v>
+      </c>
+      <c r="CR105" s="34">
+        <v>134.83271290689493</v>
+      </c>
+      <c r="CS105" s="34">
+        <v>124.2430944444894</v>
+      </c>
+      <c r="CT105" s="34">
+        <v>121.14973173429711</v>
+      </c>
       <c r="CU105" s="10"/>
       <c r="CV105" s="10"/>
       <c r="CW105" s="10"/>
@@ -39604,10 +39724,11 @@
       <c r="CM106" s="13"/>
       <c r="CN106" s="13"/>
       <c r="CO106" s="13"/>
-      <c r="CP106" s="13"/>
-      <c r="CQ106" s="13"/>
-      <c r="CR106" s="13"/>
-      <c r="CS106" s="13"/>
+      <c r="CP106" s="32"/>
+      <c r="CQ106" s="32"/>
+      <c r="CR106" s="32"/>
+      <c r="CS106" s="32"/>
+      <c r="CT106" s="32"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -39626,7 +39747,7 @@
     </row>
     <row r="112" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
@@ -39636,7 +39757,7 @@
     </row>
     <row r="115" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:154" x14ac:dyDescent="0.2">
@@ -39646,150 +39767,153 @@
     </row>
     <row r="118" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="27">
+      <c r="B118" s="35">
         <v>2000</v>
       </c>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="27">
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="35">
         <v>2001</v>
       </c>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="27">
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="35">
         <v>2002</v>
       </c>
-      <c r="K118" s="28"/>
-      <c r="L118" s="28"/>
-      <c r="M118" s="28"/>
-      <c r="N118" s="27">
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="35">
         <v>2003</v>
       </c>
-      <c r="O118" s="28"/>
-      <c r="P118" s="28"/>
-      <c r="Q118" s="28"/>
-      <c r="R118" s="27">
+      <c r="O118" s="36"/>
+      <c r="P118" s="36"/>
+      <c r="Q118" s="36"/>
+      <c r="R118" s="35">
         <v>2004</v>
       </c>
-      <c r="S118" s="28"/>
-      <c r="T118" s="28"/>
-      <c r="U118" s="28"/>
-      <c r="V118" s="27">
+      <c r="S118" s="36"/>
+      <c r="T118" s="36"/>
+      <c r="U118" s="36"/>
+      <c r="V118" s="35">
         <v>2005</v>
       </c>
-      <c r="W118" s="28"/>
-      <c r="X118" s="28"/>
-      <c r="Y118" s="28"/>
-      <c r="Z118" s="27">
+      <c r="W118" s="36"/>
+      <c r="X118" s="36"/>
+      <c r="Y118" s="36"/>
+      <c r="Z118" s="35">
         <v>2006</v>
       </c>
-      <c r="AA118" s="28"/>
-      <c r="AB118" s="28"/>
-      <c r="AC118" s="28"/>
-      <c r="AD118" s="27">
+      <c r="AA118" s="36"/>
+      <c r="AB118" s="36"/>
+      <c r="AC118" s="36"/>
+      <c r="AD118" s="35">
         <v>2007</v>
       </c>
-      <c r="AE118" s="28"/>
-      <c r="AF118" s="28"/>
-      <c r="AG118" s="28"/>
-      <c r="AH118" s="27">
+      <c r="AE118" s="36"/>
+      <c r="AF118" s="36"/>
+      <c r="AG118" s="36"/>
+      <c r="AH118" s="35">
         <v>2008</v>
       </c>
-      <c r="AI118" s="28"/>
-      <c r="AJ118" s="28"/>
-      <c r="AK118" s="28"/>
-      <c r="AL118" s="27">
+      <c r="AI118" s="36"/>
+      <c r="AJ118" s="36"/>
+      <c r="AK118" s="36"/>
+      <c r="AL118" s="35">
         <v>2009</v>
       </c>
-      <c r="AM118" s="28"/>
-      <c r="AN118" s="28"/>
-      <c r="AO118" s="28"/>
-      <c r="AP118" s="27">
+      <c r="AM118" s="36"/>
+      <c r="AN118" s="36"/>
+      <c r="AO118" s="36"/>
+      <c r="AP118" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="28"/>
-      <c r="AR118" s="28"/>
-      <c r="AS118" s="28"/>
-      <c r="AT118" s="27">
+      <c r="AQ118" s="36"/>
+      <c r="AR118" s="36"/>
+      <c r="AS118" s="36"/>
+      <c r="AT118" s="35">
         <v>2011</v>
       </c>
-      <c r="AU118" s="28"/>
-      <c r="AV118" s="28"/>
-      <c r="AW118" s="28"/>
-      <c r="AX118" s="27">
+      <c r="AU118" s="36"/>
+      <c r="AV118" s="36"/>
+      <c r="AW118" s="36"/>
+      <c r="AX118" s="35">
         <v>2012</v>
       </c>
-      <c r="AY118" s="28"/>
-      <c r="AZ118" s="28"/>
-      <c r="BA118" s="28"/>
-      <c r="BB118" s="27">
+      <c r="AY118" s="36"/>
+      <c r="AZ118" s="36"/>
+      <c r="BA118" s="36"/>
+      <c r="BB118" s="35">
         <v>2013</v>
       </c>
-      <c r="BC118" s="28"/>
-      <c r="BD118" s="28"/>
-      <c r="BE118" s="28"/>
-      <c r="BF118" s="27">
+      <c r="BC118" s="36"/>
+      <c r="BD118" s="36"/>
+      <c r="BE118" s="36"/>
+      <c r="BF118" s="35">
         <v>2014</v>
       </c>
-      <c r="BG118" s="28"/>
-      <c r="BH118" s="28"/>
-      <c r="BI118" s="28"/>
-      <c r="BJ118" s="27">
+      <c r="BG118" s="36"/>
+      <c r="BH118" s="36"/>
+      <c r="BI118" s="36"/>
+      <c r="BJ118" s="35">
         <v>2015</v>
       </c>
-      <c r="BK118" s="28"/>
-      <c r="BL118" s="28"/>
-      <c r="BM118" s="28"/>
-      <c r="BN118" s="27">
+      <c r="BK118" s="36"/>
+      <c r="BL118" s="36"/>
+      <c r="BM118" s="36"/>
+      <c r="BN118" s="35">
         <v>2016</v>
       </c>
-      <c r="BO118" s="28"/>
-      <c r="BP118" s="28"/>
-      <c r="BQ118" s="28"/>
-      <c r="BR118" s="27">
+      <c r="BO118" s="36"/>
+      <c r="BP118" s="36"/>
+      <c r="BQ118" s="36"/>
+      <c r="BR118" s="35">
         <v>2017</v>
       </c>
-      <c r="BS118" s="28"/>
-      <c r="BT118" s="28"/>
-      <c r="BU118" s="28"/>
-      <c r="BV118" s="27">
+      <c r="BS118" s="36"/>
+      <c r="BT118" s="36"/>
+      <c r="BU118" s="36"/>
+      <c r="BV118" s="35">
         <v>2018</v>
       </c>
-      <c r="BW118" s="28"/>
-      <c r="BX118" s="28"/>
-      <c r="BY118" s="28"/>
-      <c r="BZ118" s="27">
+      <c r="BW118" s="36"/>
+      <c r="BX118" s="36"/>
+      <c r="BY118" s="36"/>
+      <c r="BZ118" s="35">
         <v>2019</v>
       </c>
-      <c r="CA118" s="28"/>
-      <c r="CB118" s="28"/>
-      <c r="CC118" s="28"/>
-      <c r="CD118" s="27">
+      <c r="CA118" s="36"/>
+      <c r="CB118" s="36"/>
+      <c r="CC118" s="36"/>
+      <c r="CD118" s="35">
         <v>2020</v>
       </c>
-      <c r="CE118" s="27"/>
-      <c r="CF118" s="27"/>
-      <c r="CG118" s="27"/>
-      <c r="CH118" s="27">
+      <c r="CE118" s="35"/>
+      <c r="CF118" s="35"/>
+      <c r="CG118" s="35"/>
+      <c r="CH118" s="22">
         <v>2021</v>
       </c>
-      <c r="CI118" s="27"/>
-      <c r="CJ118" s="27"/>
-      <c r="CK118" s="27"/>
-      <c r="CL118" s="26">
+      <c r="CI118" s="22"/>
+      <c r="CJ118" s="22"/>
+      <c r="CK118" s="22"/>
+      <c r="CL118" s="22">
         <v>2022</v>
       </c>
-      <c r="CM118" s="26"/>
-      <c r="CN118" s="26"/>
-      <c r="CO118" s="26"/>
+      <c r="CM118" s="22"/>
+      <c r="CN118" s="22"/>
+      <c r="CO118" s="22"/>
       <c r="CP118" s="26">
         <v>2023</v>
       </c>
       <c r="CQ118" s="26"/>
       <c r="CR118" s="26"/>
       <c r="CS118" s="26"/>
+      <c r="CT118" s="26">
+        <v>2024</v>
+      </c>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
@@ -40071,17 +40195,20 @@
       <c r="CO119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP119" s="7" t="s">
+      <c r="CP119" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CQ119" s="7" t="s">
+      <c r="CQ119" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CR119" s="7" t="s">
+      <c r="CR119" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CS119" s="7" t="s">
+      <c r="CS119" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CT119" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40359,27 +40486,29 @@
         <v>53.616131504509667</v>
       </c>
       <c r="CM121" s="16">
-        <v>50.61977224196967</v>
+        <v>50.582969870062087</v>
       </c>
       <c r="CN121" s="16">
-        <v>56.764749697483886</v>
+        <v>56.690503512289659</v>
       </c>
       <c r="CO121" s="16">
-        <v>55.126247661394714</v>
-      </c>
-      <c r="CP121" s="16">
-        <v>51.296798831151669</v>
-      </c>
-      <c r="CQ121" s="16">
-        <v>51.358094339859093</v>
-      </c>
-      <c r="CR121" s="16">
-        <v>57.844616785846192</v>
-      </c>
-      <c r="CS121" s="16">
-        <v>56.168573257614497</v>
-      </c>
-      <c r="CT121" s="10"/>
+        <v>54.893731193400306</v>
+      </c>
+      <c r="CP121" s="34">
+        <v>51.29588013927777</v>
+      </c>
+      <c r="CQ121" s="34">
+        <v>51.307773175066394</v>
+      </c>
+      <c r="CR121" s="34">
+        <v>57.740293935493185</v>
+      </c>
+      <c r="CS121" s="34">
+        <v>56.055362160773683</v>
+      </c>
+      <c r="CT121" s="34">
+        <v>51.926347065215609</v>
+      </c>
       <c r="CU121" s="10"/>
       <c r="CV121" s="10"/>
       <c r="CW121" s="10"/>
@@ -40709,27 +40838,29 @@
         <v>5.0908267485991949</v>
       </c>
       <c r="CM122" s="16">
-        <v>3.9796375744605066</v>
+        <v>4.0199132681982448</v>
       </c>
       <c r="CN122" s="16">
-        <v>3.9298060529069749</v>
+        <v>3.9352028262762309</v>
       </c>
       <c r="CO122" s="16">
-        <v>3.809075300997748</v>
-      </c>
-      <c r="CP122" s="16">
-        <v>5.3543034713730124</v>
-      </c>
-      <c r="CQ122" s="16">
-        <v>3.4572669611616904</v>
-      </c>
-      <c r="CR122" s="16">
-        <v>3.7089815337589087</v>
-      </c>
-      <c r="CS122" s="16">
-        <v>3.873245299940193</v>
-      </c>
-      <c r="CT122" s="10"/>
+        <v>3.8792728110067012</v>
+      </c>
+      <c r="CP122" s="34">
+        <v>5.4373725193923148</v>
+      </c>
+      <c r="CQ122" s="34">
+        <v>3.5378407078331162</v>
+      </c>
+      <c r="CR122" s="34">
+        <v>3.7049447495305969</v>
+      </c>
+      <c r="CS122" s="34">
+        <v>3.9540950605239078</v>
+      </c>
+      <c r="CT122" s="34">
+        <v>5.7523275646165803</v>
+      </c>
       <c r="CU122" s="10"/>
       <c r="CV122" s="10"/>
       <c r="CW122" s="10"/>
@@ -41059,27 +41190,29 @@
         <v>9.3123325818934433</v>
       </c>
       <c r="CM123" s="16">
-        <v>10.496703751814623</v>
+        <v>10.484684256142298</v>
       </c>
       <c r="CN123" s="16">
-        <v>11.258355688044233</v>
+        <v>11.278913509409438</v>
       </c>
       <c r="CO123" s="16">
-        <v>13.883835109488398</v>
-      </c>
-      <c r="CP123" s="16">
-        <v>14.920017822052811</v>
-      </c>
-      <c r="CQ123" s="16">
-        <v>14.456010778982243</v>
-      </c>
-      <c r="CR123" s="16">
-        <v>13.061868116015921</v>
-      </c>
-      <c r="CS123" s="16">
-        <v>14.306933842953336</v>
-      </c>
-      <c r="CT123" s="10"/>
+        <v>13.825274615371264</v>
+      </c>
+      <c r="CP123" s="34">
+        <v>14.917715591789987</v>
+      </c>
+      <c r="CQ123" s="34">
+        <v>14.493051412808047</v>
+      </c>
+      <c r="CR123" s="34">
+        <v>13.082829011796774</v>
+      </c>
+      <c r="CS123" s="34">
+        <v>14.280789822669368</v>
+      </c>
+      <c r="CT123" s="34">
+        <v>14.932059802098877</v>
+      </c>
       <c r="CU123" s="10"/>
       <c r="CV123" s="10"/>
       <c r="CW123" s="10"/>
@@ -41409,27 +41542,29 @@
         <v>27.546932919742321</v>
       </c>
       <c r="CM124" s="16">
-        <v>29.634430259824729</v>
+        <v>29.649010347469879</v>
       </c>
       <c r="CN124" s="16">
-        <v>24.803055295299227</v>
+        <v>24.845423262608474</v>
       </c>
       <c r="CO124" s="16">
-        <v>23.60538100736407</v>
-      </c>
-      <c r="CP124" s="16">
-        <v>24.577127304942881</v>
-      </c>
-      <c r="CQ124" s="16">
-        <v>26.168714629449685</v>
-      </c>
-      <c r="CR124" s="16">
-        <v>22.313866089126677</v>
-      </c>
-      <c r="CS124" s="16">
-        <v>22.283328156490199</v>
-      </c>
-      <c r="CT124" s="10"/>
+        <v>23.796100113693839</v>
+      </c>
+      <c r="CP124" s="34">
+        <v>24.506381935192522</v>
+      </c>
+      <c r="CQ124" s="34">
+        <v>26.089737548738768</v>
+      </c>
+      <c r="CR124" s="34">
+        <v>22.396337206521469</v>
+      </c>
+      <c r="CS124" s="34">
+        <v>22.315986809667653</v>
+      </c>
+      <c r="CT124" s="34">
+        <v>23.618641973874318</v>
+      </c>
       <c r="CU124" s="10"/>
       <c r="CV124" s="10"/>
       <c r="CW124" s="10"/>
@@ -41759,27 +41894,29 @@
         <v>4.4337762452553848</v>
       </c>
       <c r="CM125" s="16">
-        <v>5.2694561719304831</v>
+        <v>5.2634222581274885</v>
       </c>
       <c r="CN125" s="16">
-        <v>3.244033266265677</v>
+        <v>3.2499568894162132</v>
       </c>
       <c r="CO125" s="16">
-        <v>3.5754609207550541</v>
-      </c>
-      <c r="CP125" s="16">
-        <v>3.8517525704796198</v>
-      </c>
-      <c r="CQ125" s="16">
-        <v>4.5599132905472839</v>
-      </c>
-      <c r="CR125" s="16">
-        <v>3.0706674752523133</v>
-      </c>
-      <c r="CS125" s="16">
-        <v>3.3679194430017692</v>
-      </c>
-      <c r="CT125" s="10"/>
+        <v>3.6056212665278946</v>
+      </c>
+      <c r="CP125" s="34">
+        <v>3.8426498143474035</v>
+      </c>
+      <c r="CQ125" s="34">
+        <v>4.5715971555536763</v>
+      </c>
+      <c r="CR125" s="34">
+        <v>3.0755950966579753</v>
+      </c>
+      <c r="CS125" s="34">
+        <v>3.3937661463653956</v>
+      </c>
+      <c r="CT125" s="34">
+        <v>3.7706235941946207</v>
+      </c>
       <c r="CU125" s="10"/>
       <c r="CV125" s="10"/>
       <c r="CW125" s="10"/>
@@ -41930,11 +42067,11 @@
       <c r="CM126" s="10"/>
       <c r="CN126" s="10"/>
       <c r="CO126" s="10"/>
-      <c r="CP126" s="10"/>
-      <c r="CQ126" s="10"/>
-      <c r="CR126" s="10"/>
-      <c r="CS126" s="10"/>
-      <c r="CT126" s="10"/>
+      <c r="CP126" s="29"/>
+      <c r="CQ126" s="29"/>
+      <c r="CR126" s="29"/>
+      <c r="CS126" s="29"/>
+      <c r="CT126" s="29"/>
       <c r="CU126" s="10"/>
       <c r="CV126" s="10"/>
       <c r="CW126" s="10"/>
@@ -42272,19 +42409,21 @@
       <c r="CO127" s="16">
         <v>100</v>
       </c>
-      <c r="CP127" s="16">
+      <c r="CP127" s="34">
         <v>100</v>
       </c>
-      <c r="CQ127" s="16">
+      <c r="CQ127" s="34">
         <v>100</v>
       </c>
-      <c r="CR127" s="16">
+      <c r="CR127" s="34">
         <v>100</v>
       </c>
-      <c r="CS127" s="16">
+      <c r="CS127" s="34">
         <v>100</v>
       </c>
-      <c r="CT127" s="10"/>
+      <c r="CT127" s="34">
+        <v>100</v>
+      </c>
       <c r="CU127" s="10"/>
       <c r="CV127" s="10"/>
       <c r="CW127" s="10"/>
@@ -42436,10 +42575,11 @@
       <c r="CM128" s="13"/>
       <c r="CN128" s="13"/>
       <c r="CO128" s="13"/>
-      <c r="CP128" s="13"/>
-      <c r="CQ128" s="13"/>
-      <c r="CR128" s="13"/>
-      <c r="CS128" s="13"/>
+      <c r="CP128" s="32"/>
+      <c r="CQ128" s="32"/>
+      <c r="CR128" s="32"/>
+      <c r="CS128" s="32"/>
+      <c r="CT128" s="32"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -42539,11 +42679,11 @@
       <c r="CM130" s="10"/>
       <c r="CN130" s="10"/>
       <c r="CO130" s="10"/>
-      <c r="CP130" s="10"/>
-      <c r="CQ130" s="10"/>
-      <c r="CR130" s="10"/>
-      <c r="CS130" s="10"/>
-      <c r="CT130" s="10"/>
+      <c r="CP130" s="29"/>
+      <c r="CQ130" s="29"/>
+      <c r="CR130" s="29"/>
+      <c r="CS130" s="29"/>
+      <c r="CT130" s="29"/>
       <c r="CU130" s="10"/>
       <c r="CV130" s="10"/>
       <c r="CW130" s="10"/>
@@ -42694,11 +42834,11 @@
       <c r="CM131" s="10"/>
       <c r="CN131" s="10"/>
       <c r="CO131" s="10"/>
-      <c r="CP131" s="10"/>
-      <c r="CQ131" s="10"/>
-      <c r="CR131" s="10"/>
-      <c r="CS131" s="10"/>
-      <c r="CT131" s="10"/>
+      <c r="CP131" s="29"/>
+      <c r="CQ131" s="29"/>
+      <c r="CR131" s="29"/>
+      <c r="CS131" s="29"/>
+      <c r="CT131" s="29"/>
       <c r="CU131" s="10"/>
       <c r="CV131" s="10"/>
       <c r="CW131" s="10"/>
@@ -42768,7 +42908,7 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:154" x14ac:dyDescent="0.2">
@@ -42778,7 +42918,7 @@
     </row>
     <row r="137" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:154" x14ac:dyDescent="0.2">
@@ -42788,150 +42928,153 @@
     </row>
     <row r="140" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="27">
+      <c r="B140" s="35">
         <v>2000</v>
       </c>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="27">
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="35">
         <v>2001</v>
       </c>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
-      <c r="J140" s="27">
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="35">
         <v>2002</v>
       </c>
-      <c r="K140" s="28"/>
-      <c r="L140" s="28"/>
-      <c r="M140" s="28"/>
-      <c r="N140" s="27">
+      <c r="K140" s="36"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="36"/>
+      <c r="N140" s="35">
         <v>2003</v>
       </c>
-      <c r="O140" s="28"/>
-      <c r="P140" s="28"/>
-      <c r="Q140" s="28"/>
-      <c r="R140" s="27">
+      <c r="O140" s="36"/>
+      <c r="P140" s="36"/>
+      <c r="Q140" s="36"/>
+      <c r="R140" s="35">
         <v>2004</v>
       </c>
-      <c r="S140" s="28"/>
-      <c r="T140" s="28"/>
-      <c r="U140" s="28"/>
-      <c r="V140" s="27">
+      <c r="S140" s="36"/>
+      <c r="T140" s="36"/>
+      <c r="U140" s="36"/>
+      <c r="V140" s="35">
         <v>2005</v>
       </c>
-      <c r="W140" s="28"/>
-      <c r="X140" s="28"/>
-      <c r="Y140" s="28"/>
-      <c r="Z140" s="27">
+      <c r="W140" s="36"/>
+      <c r="X140" s="36"/>
+      <c r="Y140" s="36"/>
+      <c r="Z140" s="35">
         <v>2006</v>
       </c>
-      <c r="AA140" s="28"/>
-      <c r="AB140" s="28"/>
-      <c r="AC140" s="28"/>
-      <c r="AD140" s="27">
+      <c r="AA140" s="36"/>
+      <c r="AB140" s="36"/>
+      <c r="AC140" s="36"/>
+      <c r="AD140" s="35">
         <v>2007</v>
       </c>
-      <c r="AE140" s="28"/>
-      <c r="AF140" s="28"/>
-      <c r="AG140" s="28"/>
-      <c r="AH140" s="27">
+      <c r="AE140" s="36"/>
+      <c r="AF140" s="36"/>
+      <c r="AG140" s="36"/>
+      <c r="AH140" s="35">
         <v>2008</v>
       </c>
-      <c r="AI140" s="28"/>
-      <c r="AJ140" s="28"/>
-      <c r="AK140" s="28"/>
-      <c r="AL140" s="27">
+      <c r="AI140" s="36"/>
+      <c r="AJ140" s="36"/>
+      <c r="AK140" s="36"/>
+      <c r="AL140" s="35">
         <v>2009</v>
       </c>
-      <c r="AM140" s="28"/>
-      <c r="AN140" s="28"/>
-      <c r="AO140" s="28"/>
-      <c r="AP140" s="27">
+      <c r="AM140" s="36"/>
+      <c r="AN140" s="36"/>
+      <c r="AO140" s="36"/>
+      <c r="AP140" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="28"/>
-      <c r="AR140" s="28"/>
-      <c r="AS140" s="28"/>
-      <c r="AT140" s="27">
+      <c r="AQ140" s="36"/>
+      <c r="AR140" s="36"/>
+      <c r="AS140" s="36"/>
+      <c r="AT140" s="35">
         <v>2011</v>
       </c>
-      <c r="AU140" s="28"/>
-      <c r="AV140" s="28"/>
-      <c r="AW140" s="28"/>
-      <c r="AX140" s="27">
+      <c r="AU140" s="36"/>
+      <c r="AV140" s="36"/>
+      <c r="AW140" s="36"/>
+      <c r="AX140" s="35">
         <v>2012</v>
       </c>
-      <c r="AY140" s="28"/>
-      <c r="AZ140" s="28"/>
-      <c r="BA140" s="28"/>
-      <c r="BB140" s="27">
+      <c r="AY140" s="36"/>
+      <c r="AZ140" s="36"/>
+      <c r="BA140" s="36"/>
+      <c r="BB140" s="35">
         <v>2013</v>
       </c>
-      <c r="BC140" s="28"/>
-      <c r="BD140" s="28"/>
-      <c r="BE140" s="28"/>
-      <c r="BF140" s="27">
+      <c r="BC140" s="36"/>
+      <c r="BD140" s="36"/>
+      <c r="BE140" s="36"/>
+      <c r="BF140" s="35">
         <v>2014</v>
       </c>
-      <c r="BG140" s="28"/>
-      <c r="BH140" s="28"/>
-      <c r="BI140" s="28"/>
-      <c r="BJ140" s="27">
+      <c r="BG140" s="36"/>
+      <c r="BH140" s="36"/>
+      <c r="BI140" s="36"/>
+      <c r="BJ140" s="35">
         <v>2015</v>
       </c>
-      <c r="BK140" s="28"/>
-      <c r="BL140" s="28"/>
-      <c r="BM140" s="28"/>
-      <c r="BN140" s="27">
+      <c r="BK140" s="36"/>
+      <c r="BL140" s="36"/>
+      <c r="BM140" s="36"/>
+      <c r="BN140" s="35">
         <v>2016</v>
       </c>
-      <c r="BO140" s="28"/>
-      <c r="BP140" s="28"/>
-      <c r="BQ140" s="28"/>
-      <c r="BR140" s="27">
+      <c r="BO140" s="36"/>
+      <c r="BP140" s="36"/>
+      <c r="BQ140" s="36"/>
+      <c r="BR140" s="35">
         <v>2017</v>
       </c>
-      <c r="BS140" s="28"/>
-      <c r="BT140" s="28"/>
-      <c r="BU140" s="28"/>
-      <c r="BV140" s="27">
+      <c r="BS140" s="36"/>
+      <c r="BT140" s="36"/>
+      <c r="BU140" s="36"/>
+      <c r="BV140" s="35">
         <v>2018</v>
       </c>
-      <c r="BW140" s="28"/>
-      <c r="BX140" s="28"/>
-      <c r="BY140" s="28"/>
-      <c r="BZ140" s="27">
+      <c r="BW140" s="36"/>
+      <c r="BX140" s="36"/>
+      <c r="BY140" s="36"/>
+      <c r="BZ140" s="35">
         <v>2019</v>
       </c>
-      <c r="CA140" s="28"/>
-      <c r="CB140" s="28"/>
-      <c r="CC140" s="28"/>
-      <c r="CD140" s="27">
+      <c r="CA140" s="36"/>
+      <c r="CB140" s="36"/>
+      <c r="CC140" s="36"/>
+      <c r="CD140" s="35">
         <v>2020</v>
       </c>
-      <c r="CE140" s="27"/>
-      <c r="CF140" s="27"/>
-      <c r="CG140" s="27"/>
-      <c r="CH140" s="27">
+      <c r="CE140" s="35"/>
+      <c r="CF140" s="35"/>
+      <c r="CG140" s="35"/>
+      <c r="CH140" s="22">
         <v>2021</v>
       </c>
-      <c r="CI140" s="27"/>
-      <c r="CJ140" s="27"/>
-      <c r="CK140" s="27"/>
-      <c r="CL140" s="26">
+      <c r="CI140" s="22"/>
+      <c r="CJ140" s="22"/>
+      <c r="CK140" s="22"/>
+      <c r="CL140" s="22">
         <v>2022</v>
       </c>
-      <c r="CM140" s="26"/>
-      <c r="CN140" s="26"/>
-      <c r="CO140" s="26"/>
+      <c r="CM140" s="22"/>
+      <c r="CN140" s="22"/>
+      <c r="CO140" s="22"/>
       <c r="CP140" s="26">
         <v>2023</v>
       </c>
       <c r="CQ140" s="26"/>
       <c r="CR140" s="26"/>
       <c r="CS140" s="26"/>
+      <c r="CT140" s="26">
+        <v>2024</v>
+      </c>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
@@ -43213,17 +43356,20 @@
       <c r="CO141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP141" s="7" t="s">
+      <c r="CP141" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CQ141" s="7" t="s">
+      <c r="CQ141" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CR141" s="7" t="s">
+      <c r="CR141" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CS141" s="7" t="s">
+      <c r="CS141" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CT141" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43501,27 +43647,29 @@
         <v>50.077212191124531</v>
       </c>
       <c r="CM143" s="16">
-        <v>47.618273401028581</v>
+        <v>47.581205391578209</v>
       </c>
       <c r="CN143" s="16">
-        <v>52.858669256478954</v>
+        <v>52.783168662701421</v>
       </c>
       <c r="CO143" s="16">
-        <v>53.981226904579238</v>
-      </c>
-      <c r="CP143" s="16">
-        <v>48.391667428223428</v>
-      </c>
-      <c r="CQ143" s="16">
-        <v>48.077518082424334</v>
-      </c>
-      <c r="CR143" s="16">
-        <v>52.811137585180767</v>
-      </c>
-      <c r="CS143" s="16">
-        <v>55.135951877155996</v>
-      </c>
-      <c r="CT143" s="10"/>
+        <v>53.726991783303212</v>
+      </c>
+      <c r="CP143" s="34">
+        <v>48.390050740836394</v>
+      </c>
+      <c r="CQ143" s="34">
+        <v>48.016922151970256</v>
+      </c>
+      <c r="CR143" s="34">
+        <v>52.702799888629535</v>
+      </c>
+      <c r="CS143" s="34">
+        <v>55.007510405142433</v>
+      </c>
+      <c r="CT143" s="34">
+        <v>49.052168109194156</v>
+      </c>
       <c r="CU143" s="10"/>
       <c r="CV143" s="10"/>
       <c r="CW143" s="10"/>
@@ -43851,27 +43999,29 @@
         <v>5.1245394901746684</v>
       </c>
       <c r="CM144" s="16">
-        <v>4.544154379106458</v>
+        <v>4.5899071032040615</v>
       </c>
       <c r="CN144" s="16">
-        <v>3.5032747744441046</v>
+        <v>3.5076629198546518</v>
       </c>
       <c r="CO144" s="16">
-        <v>4.9880929899274751</v>
-      </c>
-      <c r="CP144" s="16">
-        <v>5.9238093754683261</v>
-      </c>
-      <c r="CQ144" s="16">
-        <v>4.4470343365282163</v>
-      </c>
-      <c r="CR144" s="16">
-        <v>3.5322308141846843</v>
-      </c>
-      <c r="CS144" s="16">
-        <v>4.7422426612037887</v>
-      </c>
-      <c r="CT144" s="10"/>
+        <v>5.0775096759433875</v>
+      </c>
+      <c r="CP144" s="34">
+        <v>6.0156207521763321</v>
+      </c>
+      <c r="CQ144" s="34">
+        <v>4.5493971896593939</v>
+      </c>
+      <c r="CR144" s="34">
+        <v>3.5275100776625461</v>
+      </c>
+      <c r="CS144" s="34">
+        <v>4.839708663026232</v>
+      </c>
+      <c r="CT144" s="34">
+        <v>5.8492566690002104</v>
+      </c>
       <c r="CU144" s="10"/>
       <c r="CV144" s="10"/>
       <c r="CW144" s="10"/>
@@ -44201,27 +44351,29 @@
         <v>10.75242087605378</v>
       </c>
       <c r="CM145" s="16">
-        <v>12.074067072219124</v>
+        <v>12.059620967920988</v>
       </c>
       <c r="CN145" s="16">
-        <v>11.569961423463816</v>
+        <v>11.589691012315448</v>
       </c>
       <c r="CO145" s="16">
-        <v>12.023765903712063</v>
-      </c>
-      <c r="CP145" s="16">
-        <v>14.576524910938016</v>
-      </c>
-      <c r="CQ145" s="16">
-        <v>14.727768582714686</v>
-      </c>
-      <c r="CR145" s="16">
-        <v>13.915538564664123</v>
-      </c>
-      <c r="CS145" s="16">
-        <v>12.437402587083669</v>
-      </c>
-      <c r="CT145" s="10"/>
+        <v>11.967137632032939</v>
+      </c>
+      <c r="CP145" s="34">
+        <v>14.574049791916199</v>
+      </c>
+      <c r="CQ145" s="34">
+        <v>14.76135872138085</v>
+      </c>
+      <c r="CR145" s="34">
+        <v>13.934407713278436</v>
+      </c>
+      <c r="CS145" s="34">
+        <v>12.41076903238149</v>
+      </c>
+      <c r="CT145" s="34">
+        <v>14.923192365893462</v>
+      </c>
       <c r="CU145" s="10"/>
       <c r="CV145" s="10"/>
       <c r="CW145" s="10"/>
@@ -44551,27 +44703,29 @@
         <v>29.484575179359346</v>
       </c>
       <c r="CM146" s="16">
-        <v>29.658684690692148</v>
+        <v>29.671750236640598</v>
       </c>
       <c r="CN146" s="16">
-        <v>28.018362598886764</v>
+        <v>28.06283968375482</v>
       </c>
       <c r="CO146" s="16">
-        <v>24.711536815209563</v>
-      </c>
-      <c r="CP146" s="16">
-        <v>26.632812058194755</v>
-      </c>
-      <c r="CQ146" s="16">
-        <v>26.896063153459345</v>
-      </c>
-      <c r="CR146" s="16">
-        <v>25.762216651902079</v>
-      </c>
-      <c r="CS146" s="16">
-        <v>23.534576604247864</v>
-      </c>
-      <c r="CT146" s="10"/>
+        <v>24.898889742803068</v>
+      </c>
+      <c r="CP146" s="34">
+        <v>26.555737788526113</v>
+      </c>
+      <c r="CQ146" s="34">
+        <v>26.807360106500777</v>
+      </c>
+      <c r="CR146" s="34">
+        <v>25.851010671962271</v>
+      </c>
+      <c r="CS146" s="34">
+        <v>23.561653894484071</v>
+      </c>
+      <c r="CT146" s="34">
+        <v>25.711535226400567</v>
+      </c>
       <c r="CU146" s="10"/>
       <c r="CV146" s="10"/>
       <c r="CW146" s="10"/>
@@ -44901,27 +45055,29 @@
         <v>4.561252263287682</v>
       </c>
       <c r="CM147" s="16">
-        <v>6.1048204569536733</v>
+        <v>6.0975163006561273</v>
       </c>
       <c r="CN147" s="16">
-        <v>4.0497319467263679</v>
+        <v>4.0566377213736535</v>
       </c>
       <c r="CO147" s="16">
-        <v>4.2953773865716744</v>
-      </c>
-      <c r="CP147" s="16">
-        <v>4.475186227175449</v>
-      </c>
-      <c r="CQ147" s="16">
-        <v>5.8516158448734332</v>
-      </c>
-      <c r="CR147" s="16">
-        <v>3.9788763840683443</v>
-      </c>
-      <c r="CS147" s="16">
-        <v>4.1498262703086857</v>
-      </c>
-      <c r="CT147" s="10"/>
+        <v>4.3294711659173979</v>
+      </c>
+      <c r="CP147" s="34">
+        <v>4.4645409265449638</v>
+      </c>
+      <c r="CQ147" s="34">
+        <v>5.8649618304887357</v>
+      </c>
+      <c r="CR147" s="34">
+        <v>3.9842716484672094</v>
+      </c>
+      <c r="CS147" s="34">
+        <v>4.1803580049657656</v>
+      </c>
+      <c r="CT147" s="34">
+        <v>4.4638476295115934</v>
+      </c>
       <c r="CU147" s="10"/>
       <c r="CV147" s="10"/>
       <c r="CW147" s="10"/>
@@ -45072,11 +45228,11 @@
       <c r="CM148" s="10"/>
       <c r="CN148" s="10"/>
       <c r="CO148" s="10"/>
-      <c r="CP148" s="10"/>
-      <c r="CQ148" s="10"/>
-      <c r="CR148" s="10"/>
-      <c r="CS148" s="10"/>
-      <c r="CT148" s="10"/>
+      <c r="CP148" s="29"/>
+      <c r="CQ148" s="29"/>
+      <c r="CR148" s="29"/>
+      <c r="CS148" s="29"/>
+      <c r="CT148" s="29"/>
       <c r="CU148" s="10"/>
       <c r="CV148" s="10"/>
       <c r="CW148" s="10"/>
@@ -45414,19 +45570,21 @@
       <c r="CO149" s="16">
         <v>100</v>
       </c>
-      <c r="CP149" s="16">
+      <c r="CP149" s="34">
         <v>100</v>
       </c>
-      <c r="CQ149" s="16">
+      <c r="CQ149" s="34">
         <v>100</v>
       </c>
-      <c r="CR149" s="16">
+      <c r="CR149" s="34">
         <v>100</v>
       </c>
-      <c r="CS149" s="16">
+      <c r="CS149" s="34">
         <v>100</v>
       </c>
-      <c r="CT149" s="10"/>
+      <c r="CT149" s="34">
+        <v>100</v>
+      </c>
       <c r="CU149" s="10"/>
       <c r="CV149" s="10"/>
       <c r="CW149" s="10"/>
@@ -45578,10 +45736,11 @@
       <c r="CM150" s="13"/>
       <c r="CN150" s="13"/>
       <c r="CO150" s="13"/>
-      <c r="CP150" s="13"/>
-      <c r="CQ150" s="13"/>
-      <c r="CR150" s="13"/>
-      <c r="CS150" s="13"/>
+      <c r="CP150" s="32"/>
+      <c r="CQ150" s="32"/>
+      <c r="CR150" s="32"/>
+      <c r="CS150" s="32"/>
+      <c r="CT150" s="32"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -45682,11 +45841,11 @@
       <c r="CM152" s="1"/>
       <c r="CN152" s="1"/>
       <c r="CO152" s="1"/>
-      <c r="CP152" s="1"/>
-      <c r="CQ152" s="1"/>
-      <c r="CR152" s="1"/>
-      <c r="CS152" s="1"/>
-      <c r="CT152" s="17"/>
+      <c r="CP152" s="24"/>
+      <c r="CQ152" s="24"/>
+      <c r="CR152" s="24"/>
+      <c r="CS152" s="24"/>
+      <c r="CT152" s="24"/>
       <c r="CU152" s="17"/>
       <c r="CV152" s="17"/>
       <c r="CW152" s="17"/>
@@ -45838,11 +45997,11 @@
       <c r="CM153" s="1"/>
       <c r="CN153" s="1"/>
       <c r="CO153" s="1"/>
-      <c r="CP153" s="1"/>
-      <c r="CQ153" s="1"/>
-      <c r="CR153" s="1"/>
-      <c r="CS153" s="1"/>
-      <c r="CT153" s="17"/>
+      <c r="CP153" s="24"/>
+      <c r="CQ153" s="24"/>
+      <c r="CR153" s="24"/>
+      <c r="CS153" s="24"/>
+      <c r="CT153" s="24"/>
       <c r="CU153" s="17"/>
       <c r="CV153" s="17"/>
       <c r="CW153" s="17"/>
@@ -45901,9 +46060,13 @@
       <c r="EX153" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH118:CK118"/>
-    <mergeCell ref="CH140:CK140"/>
+  <mergeCells count="147">
+    <mergeCell ref="CD53:CG53"/>
+    <mergeCell ref="CD75:CG75"/>
+    <mergeCell ref="BZ53:CC53"/>
+    <mergeCell ref="BZ75:CC75"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD31:CG31"/>
     <mergeCell ref="BR140:BU140"/>
     <mergeCell ref="BV140:BY140"/>
     <mergeCell ref="BR118:BU118"/>
@@ -45911,11 +46074,11 @@
     <mergeCell ref="BZ140:CC140"/>
     <mergeCell ref="BZ118:CC118"/>
     <mergeCell ref="BZ96:CC96"/>
-    <mergeCell ref="CH96:CK96"/>
+    <mergeCell ref="CD140:CG140"/>
+    <mergeCell ref="CD118:CG118"/>
+    <mergeCell ref="CD96:CG96"/>
     <mergeCell ref="BR75:BU75"/>
     <mergeCell ref="BV75:BY75"/>
-    <mergeCell ref="CH53:CK53"/>
-    <mergeCell ref="CH75:CK75"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BZ9:CC9"/>
@@ -45924,10 +46087,6 @@
     <mergeCell ref="BZ31:CC31"/>
     <mergeCell ref="BV53:BY53"/>
     <mergeCell ref="BR53:BU53"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH31:CK31"/>
-    <mergeCell ref="CD53:CG53"/>
-    <mergeCell ref="CD75:CG75"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -45950,8 +46109,6 @@
     <mergeCell ref="AP31:AS31"/>
     <mergeCell ref="BF96:BI96"/>
     <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="V96:Y96"/>
-    <mergeCell ref="Z96:AC96"/>
     <mergeCell ref="AT31:AW31"/>
     <mergeCell ref="AX31:BA31"/>
     <mergeCell ref="BB31:BE31"/>
@@ -45974,8 +46131,6 @@
     <mergeCell ref="AP53:AS53"/>
     <mergeCell ref="AT53:AW53"/>
     <mergeCell ref="AX53:BA53"/>
-    <mergeCell ref="V53:Y53"/>
-    <mergeCell ref="Z53:AC53"/>
     <mergeCell ref="B75:E75"/>
     <mergeCell ref="F75:I75"/>
     <mergeCell ref="J75:M75"/>
@@ -45998,6 +46153,10 @@
     <mergeCell ref="AD96:AG96"/>
     <mergeCell ref="AH96:AK96"/>
     <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="V53:Y53"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="V96:Y96"/>
+    <mergeCell ref="Z96:AC96"/>
     <mergeCell ref="Z118:AC118"/>
     <mergeCell ref="AD118:AG118"/>
     <mergeCell ref="AH118:AK118"/>
@@ -46017,6 +46176,11 @@
     <mergeCell ref="AX118:BA118"/>
     <mergeCell ref="BB118:BE118"/>
     <mergeCell ref="BF118:BI118"/>
+    <mergeCell ref="Z140:AC140"/>
+    <mergeCell ref="AD140:AG140"/>
+    <mergeCell ref="AH140:AK140"/>
+    <mergeCell ref="BB96:BE96"/>
+    <mergeCell ref="BF140:BI140"/>
     <mergeCell ref="B96:E96"/>
     <mergeCell ref="F96:I96"/>
     <mergeCell ref="J96:M96"/>
@@ -46032,18 +46196,7 @@
     <mergeCell ref="N118:Q118"/>
     <mergeCell ref="R118:U118"/>
     <mergeCell ref="V118:Y118"/>
-    <mergeCell ref="Z140:AC140"/>
-    <mergeCell ref="AD140:AG140"/>
-    <mergeCell ref="AH140:AK140"/>
-    <mergeCell ref="BB96:BE96"/>
-    <mergeCell ref="BZ53:CC53"/>
-    <mergeCell ref="BZ75:CC75"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD140:CG140"/>
-    <mergeCell ref="CD118:CG118"/>
-    <mergeCell ref="CD96:CG96"/>
-    <mergeCell ref="CD31:CG31"/>
-    <mergeCell ref="BF140:BI140"/>
+    <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BJ140:BM140"/>
     <mergeCell ref="BN140:BQ140"/>
     <mergeCell ref="BJ118:BM118"/>
@@ -46055,16 +46208,15 @@
     <mergeCell ref="BF31:BI31"/>
     <mergeCell ref="BJ31:BM31"/>
     <mergeCell ref="BN31:BQ31"/>
-    <mergeCell ref="BF9:BI9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="96" man="1"/>
-    <brk id="88" max="96" man="1"/>
-    <brk id="109" max="96" man="1"/>
+    <brk id="44" max="97" man="1"/>
+    <brk id="88" max="97" man="1"/>
+    <brk id="109" max="97" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEB0361-FC5C-47CD-A0D8-2A6B2050982D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EC9BAC-3B0B-4FE4-B75A-2E99FE0D1728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -629,13 +629,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -758,33 +758,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23637,15 +23620,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CX12" sqref="CX12"/>
+      <selection pane="topRight" activeCell="CP1" sqref="CP1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
     <col min="2" max="93" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="98" width="9.109375" style="24" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="99" width="9" style="1" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23660,7 +23643,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23670,7 +23653,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23764,11 +23747,12 @@
       <c r="CM6" s="4"/>
       <c r="CN6" s="4"/>
       <c r="CO6" s="4"/>
-      <c r="CP6" s="25"/>
-      <c r="CQ6" s="25"/>
-      <c r="CR6" s="25"/>
-      <c r="CS6" s="25"/>
-      <c r="CT6" s="25"/>
+      <c r="CP6" s="4"/>
+      <c r="CQ6" s="4"/>
+      <c r="CR6" s="4"/>
+      <c r="CS6" s="4"/>
+      <c r="CT6" s="4"/>
+      <c r="CU6" s="4"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23866,11 +23850,12 @@
       <c r="CM7" s="4"/>
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
-      <c r="CP7" s="25"/>
-      <c r="CQ7" s="25"/>
-      <c r="CR7" s="25"/>
-      <c r="CS7" s="25"/>
-      <c r="CT7" s="25"/>
+      <c r="CP7" s="4"/>
+      <c r="CQ7" s="4"/>
+      <c r="CR7" s="4"/>
+      <c r="CS7" s="4"/>
+      <c r="CT7" s="4"/>
+      <c r="CU7" s="4"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23965,140 +23950,141 @@
       <c r="CM8" s="4"/>
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
-      <c r="CP8" s="25"/>
-      <c r="CQ8" s="25"/>
-      <c r="CR8" s="25"/>
-      <c r="CS8" s="25"/>
-      <c r="CT8" s="25"/>
+      <c r="CP8" s="4"/>
+      <c r="CQ8" s="4"/>
+      <c r="CR8" s="4"/>
+      <c r="CS8" s="4"/>
+      <c r="CT8" s="4"/>
+      <c r="CU8" s="4"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="35">
+      <c r="B9" s="24">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
         <v>2001</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24">
         <v>2002</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24">
         <v>2003</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24">
         <v>2004</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35">
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24">
         <v>2005</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24">
         <v>2006</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35">
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24">
         <v>2007</v>
       </c>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35">
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24">
         <v>2008</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35">
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24">
         <v>2009</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35">
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35">
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="24">
         <v>2011</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35">
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24">
         <v>2012</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35">
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="24">
         <v>2013</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35">
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24">
         <v>2014</v>
       </c>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35">
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="24"/>
+      <c r="BJ9" s="24">
         <v>2015</v>
       </c>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35">
+      <c r="BK9" s="24"/>
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="24"/>
+      <c r="BN9" s="24">
         <v>2016</v>
       </c>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
-      <c r="BR9" s="35">
+      <c r="BO9" s="24"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="24"/>
+      <c r="BR9" s="24">
         <v>2017</v>
       </c>
-      <c r="BS9" s="35"/>
-      <c r="BT9" s="35"/>
-      <c r="BU9" s="35"/>
-      <c r="BV9" s="35">
+      <c r="BS9" s="24"/>
+      <c r="BT9" s="24"/>
+      <c r="BU9" s="24"/>
+      <c r="BV9" s="24">
         <v>2018</v>
       </c>
-      <c r="BW9" s="35"/>
-      <c r="BX9" s="35"/>
-      <c r="BY9" s="35"/>
-      <c r="BZ9" s="35">
+      <c r="BW9" s="24"/>
+      <c r="BX9" s="24"/>
+      <c r="BY9" s="24"/>
+      <c r="BZ9" s="24">
         <v>2019</v>
       </c>
-      <c r="CA9" s="35"/>
-      <c r="CB9" s="35"/>
-      <c r="CC9" s="35"/>
-      <c r="CD9" s="35">
+      <c r="CA9" s="24"/>
+      <c r="CB9" s="24"/>
+      <c r="CC9" s="24"/>
+      <c r="CD9" s="24">
         <v>2020</v>
       </c>
-      <c r="CE9" s="35"/>
-      <c r="CF9" s="35"/>
-      <c r="CG9" s="35"/>
+      <c r="CE9" s="24"/>
+      <c r="CF9" s="24"/>
+      <c r="CG9" s="24"/>
       <c r="CH9" s="22">
         <v>2021</v>
       </c>
@@ -24111,15 +24097,16 @@
       <c r="CM9" s="22"/>
       <c r="CN9" s="22"/>
       <c r="CO9" s="22"/>
-      <c r="CP9" s="26">
+      <c r="CP9" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="26"/>
-      <c r="CR9" s="26"/>
-      <c r="CS9" s="26"/>
-      <c r="CT9" s="26">
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="22"/>
+      <c r="CS9" s="22"/>
+      <c r="CT9" s="22">
         <v>2024</v>
       </c>
+      <c r="CU9" s="22"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24401,20 +24388,23 @@
       <c r="CO10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP10" s="27" t="s">
+      <c r="CP10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="27" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CR10" s="27" t="s">
+      <c r="CR10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CS10" s="27" t="s">
+      <c r="CS10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CT10" s="27" t="s">
+      <c r="CT10" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="CU10" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24700,22 +24690,24 @@
       <c r="CO12" s="19">
         <v>131260.92863027516</v>
       </c>
-      <c r="CP12" s="28">
+      <c r="CP12" s="19">
         <v>118133.15202230311</v>
       </c>
-      <c r="CQ12" s="28">
+      <c r="CQ12" s="19">
         <v>113537.87118469326</v>
       </c>
-      <c r="CR12" s="28">
+      <c r="CR12" s="19">
         <v>148333.17360806902</v>
       </c>
-      <c r="CS12" s="28">
+      <c r="CS12" s="19">
         <v>150742.0106052983</v>
       </c>
-      <c r="CT12" s="28">
-        <v>129822.01228363527</v>
-      </c>
-      <c r="CU12" s="10"/>
+      <c r="CT12" s="19">
+        <v>128395.00966066422</v>
+      </c>
+      <c r="CU12" s="19">
+        <v>133607.26076758115</v>
+      </c>
       <c r="CV12" s="10"/>
       <c r="CW12" s="10"/>
       <c r="CX12" s="10"/>
@@ -25052,22 +25044,24 @@
       <c r="CO13" s="19">
         <v>9276.0492047612261</v>
       </c>
-      <c r="CP13" s="28">
+      <c r="CP13" s="19">
         <v>12522.135358457843</v>
       </c>
-      <c r="CQ13" s="28">
+      <c r="CQ13" s="19">
         <v>7828.8118485937503</v>
       </c>
-      <c r="CR13" s="28">
+      <c r="CR13" s="19">
         <v>9517.8977328102137</v>
       </c>
-      <c r="CS13" s="28">
+      <c r="CS13" s="19">
         <v>10633.206468960327</v>
       </c>
-      <c r="CT13" s="28">
+      <c r="CT13" s="19">
         <v>14381.499603953447</v>
       </c>
-      <c r="CU13" s="10"/>
+      <c r="CU13" s="19">
+        <v>11975.058208820072</v>
+      </c>
       <c r="CV13" s="10"/>
       <c r="CW13" s="10"/>
       <c r="CX13" s="10"/>
@@ -25404,22 +25398,24 @@
       <c r="CO14" s="19">
         <v>33058.754526789751</v>
       </c>
-      <c r="CP14" s="28">
+      <c r="CP14" s="19">
         <v>34355.132596331357</v>
       </c>
-      <c r="CQ14" s="28">
+      <c r="CQ14" s="19">
         <v>32071.36273028102</v>
       </c>
-      <c r="CR14" s="28">
+      <c r="CR14" s="19">
         <v>33609.41579652451</v>
       </c>
-      <c r="CS14" s="28">
+      <c r="CS14" s="19">
         <v>38403.37280716536</v>
       </c>
-      <c r="CT14" s="28">
-        <v>37331.916466479597</v>
-      </c>
-      <c r="CU14" s="10"/>
+      <c r="CT14" s="19">
+        <v>38212.15391038169</v>
+      </c>
+      <c r="CU14" s="19">
+        <v>39897.564758476889</v>
+      </c>
       <c r="CV14" s="10"/>
       <c r="CW14" s="10"/>
       <c r="CX14" s="10"/>
@@ -25756,22 +25752,24 @@
       <c r="CO15" s="19">
         <v>56900.817831052766</v>
       </c>
-      <c r="CP15" s="28">
+      <c r="CP15" s="19">
         <v>56437.595666673784</v>
       </c>
-      <c r="CQ15" s="28">
+      <c r="CQ15" s="19">
         <v>57733.420839450104</v>
       </c>
-      <c r="CR15" s="28">
+      <c r="CR15" s="19">
         <v>57535.5535728869</v>
       </c>
-      <c r="CS15" s="28">
+      <c r="CS15" s="19">
         <v>60011.327920465068</v>
       </c>
-      <c r="CT15" s="28">
-        <v>59049.399808620336</v>
-      </c>
-      <c r="CU15" s="10"/>
+      <c r="CT15" s="19">
+        <v>59044.769117680524</v>
+      </c>
+      <c r="CU15" s="19">
+        <v>60208.711629769183</v>
+      </c>
       <c r="CV15" s="10"/>
       <c r="CW15" s="10"/>
       <c r="CX15" s="10"/>
@@ -26108,22 +26106,24 @@
       <c r="CO16" s="19">
         <v>8621.6984242896724</v>
       </c>
-      <c r="CP16" s="28">
+      <c r="CP16" s="19">
         <v>8849.5281385997096</v>
       </c>
-      <c r="CQ16" s="28">
+      <c r="CQ16" s="19">
         <v>10116.389327295956</v>
       </c>
-      <c r="CR16" s="28">
+      <c r="CR16" s="19">
         <v>7901.1163665077493</v>
       </c>
-      <c r="CS16" s="28">
+      <c r="CS16" s="19">
         <v>9126.3906378845859</v>
       </c>
-      <c r="CT16" s="28">
+      <c r="CT16" s="19">
         <v>9427.0051761528921</v>
       </c>
-      <c r="CU16" s="10"/>
+      <c r="CU16" s="19">
+        <v>10554.183041849237</v>
+      </c>
       <c r="CV16" s="10"/>
       <c r="CW16" s="10"/>
       <c r="CX16" s="10"/>
@@ -26273,11 +26273,11 @@
       <c r="CM17" s="10"/>
       <c r="CN17" s="10"/>
       <c r="CO17" s="10"/>
-      <c r="CP17" s="29"/>
-      <c r="CQ17" s="29"/>
-      <c r="CR17" s="29"/>
-      <c r="CS17" s="29"/>
-      <c r="CT17" s="29"/>
+      <c r="CP17" s="10"/>
+      <c r="CQ17" s="10"/>
+      <c r="CR17" s="10"/>
+      <c r="CS17" s="10"/>
+      <c r="CT17" s="10"/>
       <c r="CU17" s="10"/>
       <c r="CV17" s="10"/>
       <c r="CW17" s="10"/>
@@ -26615,22 +26615,24 @@
       <c r="CO18" s="20">
         <v>239118.24861716855</v>
       </c>
-      <c r="CP18" s="30">
+      <c r="CP18" s="20">
         <v>230297.5437823658</v>
       </c>
-      <c r="CQ18" s="30">
+      <c r="CQ18" s="20">
         <v>221287.85593031408</v>
       </c>
-      <c r="CR18" s="30">
+      <c r="CR18" s="20">
         <v>256897.15707679841</v>
       </c>
-      <c r="CS18" s="30">
+      <c r="CS18" s="20">
         <v>268916.30843977362</v>
       </c>
-      <c r="CT18" s="30">
-        <v>250011.83333884153</v>
-      </c>
-      <c r="CU18" s="10"/>
+      <c r="CT18" s="20">
+        <v>249460.43746883277</v>
+      </c>
+      <c r="CU18" s="20">
+        <v>256242.77840649651</v>
+      </c>
       <c r="CV18" s="10"/>
       <c r="CW18" s="10"/>
       <c r="CX18" s="10"/>
@@ -26781,11 +26783,12 @@
       <c r="CM19" s="21"/>
       <c r="CN19" s="21"/>
       <c r="CO19" s="21"/>
-      <c r="CP19" s="31"/>
-      <c r="CQ19" s="31"/>
-      <c r="CR19" s="31"/>
-      <c r="CS19" s="31"/>
-      <c r="CT19" s="31"/>
+      <c r="CP19" s="21"/>
+      <c r="CQ19" s="21"/>
+      <c r="CR19" s="21"/>
+      <c r="CS19" s="21"/>
+      <c r="CT19" s="21"/>
+      <c r="CU19" s="21"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -26885,11 +26888,11 @@
       <c r="CM21" s="10"/>
       <c r="CN21" s="10"/>
       <c r="CO21" s="10"/>
-      <c r="CP21" s="29"/>
-      <c r="CQ21" s="29"/>
-      <c r="CR21" s="29"/>
-      <c r="CS21" s="29"/>
-      <c r="CT21" s="29"/>
+      <c r="CP21" s="10"/>
+      <c r="CQ21" s="10"/>
+      <c r="CR21" s="10"/>
+      <c r="CS21" s="10"/>
+      <c r="CT21" s="10"/>
       <c r="CU21" s="10"/>
       <c r="CV21" s="10"/>
       <c r="CW21" s="10"/>
@@ -27040,11 +27043,11 @@
       <c r="CM22" s="10"/>
       <c r="CN22" s="10"/>
       <c r="CO22" s="10"/>
-      <c r="CP22" s="29"/>
-      <c r="CQ22" s="29"/>
-      <c r="CR22" s="29"/>
-      <c r="CS22" s="29"/>
-      <c r="CT22" s="29"/>
+      <c r="CP22" s="10"/>
+      <c r="CQ22" s="10"/>
+      <c r="CR22" s="10"/>
+      <c r="CS22" s="10"/>
+      <c r="CT22" s="10"/>
       <c r="CU22" s="10"/>
       <c r="CV22" s="10"/>
       <c r="CW22" s="10"/>
@@ -27114,7 +27117,7 @@
     </row>
     <row r="25" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -27210,11 +27213,12 @@
       <c r="CM26" s="4"/>
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
-      <c r="CP26" s="25"/>
-      <c r="CQ26" s="25"/>
-      <c r="CR26" s="25"/>
-      <c r="CS26" s="25"/>
-      <c r="CT26" s="25"/>
+      <c r="CP26" s="4"/>
+      <c r="CQ26" s="4"/>
+      <c r="CR26" s="4"/>
+      <c r="CS26" s="4"/>
+      <c r="CT26" s="4"/>
+      <c r="CU26" s="4"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27312,15 +27316,16 @@
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
-      <c r="CP27" s="25"/>
-      <c r="CQ27" s="25"/>
-      <c r="CR27" s="25"/>
-      <c r="CS27" s="25"/>
-      <c r="CT27" s="25"/>
+      <c r="CP27" s="4"/>
+      <c r="CQ27" s="4"/>
+      <c r="CR27" s="4"/>
+      <c r="CS27" s="4"/>
+      <c r="CT27" s="4"/>
+      <c r="CU27" s="4"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -27414,11 +27419,12 @@
       <c r="CM28" s="4"/>
       <c r="CN28" s="4"/>
       <c r="CO28" s="4"/>
-      <c r="CP28" s="25"/>
-      <c r="CQ28" s="25"/>
-      <c r="CR28" s="25"/>
-      <c r="CS28" s="25"/>
-      <c r="CT28" s="25"/>
+      <c r="CP28" s="4"/>
+      <c r="CQ28" s="4"/>
+      <c r="CR28" s="4"/>
+      <c r="CS28" s="4"/>
+      <c r="CT28" s="4"/>
+      <c r="CU28" s="4"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -27516,11 +27522,12 @@
       <c r="CM29" s="4"/>
       <c r="CN29" s="4"/>
       <c r="CO29" s="4"/>
-      <c r="CP29" s="25"/>
-      <c r="CQ29" s="25"/>
-      <c r="CR29" s="25"/>
-      <c r="CS29" s="25"/>
-      <c r="CT29" s="25"/>
+      <c r="CP29" s="4"/>
+      <c r="CQ29" s="4"/>
+      <c r="CR29" s="4"/>
+      <c r="CS29" s="4"/>
+      <c r="CT29" s="4"/>
+      <c r="CU29" s="4"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
@@ -27615,140 +27622,141 @@
       <c r="CM30" s="4"/>
       <c r="CN30" s="4"/>
       <c r="CO30" s="4"/>
-      <c r="CP30" s="25"/>
-      <c r="CQ30" s="25"/>
-      <c r="CR30" s="25"/>
-      <c r="CS30" s="25"/>
-      <c r="CT30" s="25"/>
+      <c r="CP30" s="4"/>
+      <c r="CQ30" s="4"/>
+      <c r="CR30" s="4"/>
+      <c r="CS30" s="4"/>
+      <c r="CT30" s="4"/>
+      <c r="CU30" s="4"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="35">
+      <c r="B31" s="24">
         <v>2000</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="35">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="24">
         <v>2001</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="35">
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="24">
         <v>2002</v>
       </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="35">
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="24">
         <v>2003</v>
       </c>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="35">
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="24">
         <v>2004</v>
       </c>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="35">
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="24">
         <v>2005</v>
       </c>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="35">
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="24">
         <v>2006</v>
       </c>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="35">
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="24">
         <v>2007</v>
       </c>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="35">
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="24">
         <v>2008</v>
       </c>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="35">
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="24">
         <v>2009</v>
       </c>
-      <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="35">
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="26"/>
+      <c r="AP31" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="36"/>
-      <c r="AR31" s="36"/>
-      <c r="AS31" s="36"/>
-      <c r="AT31" s="35">
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="26"/>
+      <c r="AS31" s="26"/>
+      <c r="AT31" s="24">
         <v>2011</v>
       </c>
-      <c r="AU31" s="36"/>
-      <c r="AV31" s="36"/>
-      <c r="AW31" s="36"/>
-      <c r="AX31" s="35">
+      <c r="AU31" s="26"/>
+      <c r="AV31" s="26"/>
+      <c r="AW31" s="26"/>
+      <c r="AX31" s="24">
         <v>2012</v>
       </c>
-      <c r="AY31" s="36"/>
-      <c r="AZ31" s="36"/>
-      <c r="BA31" s="36"/>
-      <c r="BB31" s="35">
+      <c r="AY31" s="26"/>
+      <c r="AZ31" s="26"/>
+      <c r="BA31" s="26"/>
+      <c r="BB31" s="24">
         <v>2013</v>
       </c>
-      <c r="BC31" s="36"/>
-      <c r="BD31" s="36"/>
-      <c r="BE31" s="36"/>
-      <c r="BF31" s="35">
+      <c r="BC31" s="26"/>
+      <c r="BD31" s="26"/>
+      <c r="BE31" s="26"/>
+      <c r="BF31" s="24">
         <v>2014</v>
       </c>
-      <c r="BG31" s="36"/>
-      <c r="BH31" s="36"/>
-      <c r="BI31" s="36"/>
-      <c r="BJ31" s="35">
+      <c r="BG31" s="26"/>
+      <c r="BH31" s="26"/>
+      <c r="BI31" s="26"/>
+      <c r="BJ31" s="24">
         <v>2015</v>
       </c>
-      <c r="BK31" s="36"/>
-      <c r="BL31" s="36"/>
-      <c r="BM31" s="36"/>
-      <c r="BN31" s="35">
+      <c r="BK31" s="26"/>
+      <c r="BL31" s="26"/>
+      <c r="BM31" s="26"/>
+      <c r="BN31" s="24">
         <v>2016</v>
       </c>
-      <c r="BO31" s="36"/>
-      <c r="BP31" s="36"/>
-      <c r="BQ31" s="36"/>
-      <c r="BR31" s="35">
+      <c r="BO31" s="26"/>
+      <c r="BP31" s="26"/>
+      <c r="BQ31" s="26"/>
+      <c r="BR31" s="24">
         <v>2017</v>
       </c>
-      <c r="BS31" s="36"/>
-      <c r="BT31" s="36"/>
-      <c r="BU31" s="36"/>
-      <c r="BV31" s="35">
+      <c r="BS31" s="26"/>
+      <c r="BT31" s="26"/>
+      <c r="BU31" s="26"/>
+      <c r="BV31" s="24">
         <v>2018</v>
       </c>
-      <c r="BW31" s="36"/>
-      <c r="BX31" s="36"/>
-      <c r="BY31" s="36"/>
-      <c r="BZ31" s="35">
+      <c r="BW31" s="26"/>
+      <c r="BX31" s="26"/>
+      <c r="BY31" s="26"/>
+      <c r="BZ31" s="24">
         <v>2019</v>
       </c>
-      <c r="CA31" s="36"/>
-      <c r="CB31" s="36"/>
-      <c r="CC31" s="36"/>
-      <c r="CD31" s="35">
+      <c r="CA31" s="26"/>
+      <c r="CB31" s="26"/>
+      <c r="CC31" s="26"/>
+      <c r="CD31" s="24">
         <v>2020</v>
       </c>
-      <c r="CE31" s="35"/>
-      <c r="CF31" s="35"/>
-      <c r="CG31" s="35"/>
+      <c r="CE31" s="24"/>
+      <c r="CF31" s="24"/>
+      <c r="CG31" s="24"/>
       <c r="CH31" s="22">
         <v>2021</v>
       </c>
@@ -27761,15 +27769,16 @@
       <c r="CM31" s="22"/>
       <c r="CN31" s="22"/>
       <c r="CO31" s="22"/>
-      <c r="CP31" s="26">
+      <c r="CP31" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ31" s="26"/>
-      <c r="CR31" s="26"/>
-      <c r="CS31" s="26"/>
-      <c r="CT31" s="26">
+      <c r="CQ31" s="22"/>
+      <c r="CR31" s="22"/>
+      <c r="CS31" s="22"/>
+      <c r="CT31" s="22">
         <v>2024</v>
       </c>
+      <c r="CU31" s="22"/>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -28051,20 +28060,23 @@
       <c r="CO32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP32" s="27" t="s">
+      <c r="CP32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CQ32" s="27" t="s">
+      <c r="CQ32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CR32" s="27" t="s">
+      <c r="CR32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CS32" s="27" t="s">
+      <c r="CS32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CT32" s="27" t="s">
+      <c r="CT32" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="CU32" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28350,22 +28362,24 @@
       <c r="CO34" s="19">
         <v>106276.44833839743</v>
       </c>
-      <c r="CP34" s="28">
+      <c r="CP34" s="19">
         <v>94532.200805075874</v>
       </c>
-      <c r="CQ34" s="28">
+      <c r="CQ34" s="19">
         <v>79359.476470298105</v>
       </c>
-      <c r="CR34" s="28">
+      <c r="CR34" s="19">
         <v>100414.79674688043</v>
       </c>
-      <c r="CS34" s="28">
+      <c r="CS34" s="19">
         <v>119060.27212822236</v>
       </c>
-      <c r="CT34" s="28">
-        <v>101226.98831162904</v>
-      </c>
-      <c r="CU34" s="10"/>
+      <c r="CT34" s="19">
+        <v>100114.3019859807</v>
+      </c>
+      <c r="CU34" s="19">
+        <v>92033.787866291605</v>
+      </c>
       <c r="CV34" s="10"/>
       <c r="CW34" s="10"/>
       <c r="CX34" s="10"/>
@@ -28702,22 +28716,24 @@
       <c r="CO35" s="19">
         <v>10043.7355015065</v>
       </c>
-      <c r="CP35" s="28">
+      <c r="CP35" s="19">
         <v>11751.793193141122</v>
       </c>
-      <c r="CQ35" s="28">
+      <c r="CQ35" s="19">
         <v>7518.9696266694336</v>
       </c>
-      <c r="CR35" s="28">
+      <c r="CR35" s="19">
         <v>6720.9751326224623</v>
       </c>
-      <c r="CS35" s="28">
+      <c r="CS35" s="19">
         <v>10475.242856789064</v>
       </c>
-      <c r="CT35" s="28">
+      <c r="CT35" s="19">
         <v>12070.875952853572</v>
       </c>
-      <c r="CU35" s="10"/>
+      <c r="CU35" s="19">
+        <v>12201.45808033098</v>
+      </c>
       <c r="CV35" s="10"/>
       <c r="CW35" s="10"/>
       <c r="CX35" s="10"/>
@@ -29054,22 +29070,24 @@
       <c r="CO36" s="19">
         <v>23671.991341686968</v>
       </c>
-      <c r="CP36" s="28">
+      <c r="CP36" s="19">
         <v>28471.079909613327</v>
       </c>
-      <c r="CQ36" s="28">
+      <c r="CQ36" s="19">
         <v>24396.684494093206</v>
       </c>
-      <c r="CR36" s="28">
+      <c r="CR36" s="19">
         <v>26549.267235779145</v>
       </c>
-      <c r="CS36" s="28">
+      <c r="CS36" s="19">
         <v>26862.323479699189</v>
       </c>
-      <c r="CT36" s="28">
-        <v>30796.392441445263</v>
-      </c>
-      <c r="CU36" s="10"/>
+      <c r="CT36" s="19">
+        <v>31522.530832663513</v>
+      </c>
+      <c r="CU36" s="19">
+        <v>29755.947367225104</v>
+      </c>
       <c r="CV36" s="10"/>
       <c r="CW36" s="10"/>
       <c r="CX36" s="10"/>
@@ -29406,22 +29424,24 @@
       <c r="CO37" s="19">
         <v>49252.070171865002</v>
       </c>
-      <c r="CP37" s="28">
+      <c r="CP37" s="19">
         <v>51877.861228059992</v>
       </c>
-      <c r="CQ37" s="28">
+      <c r="CQ37" s="19">
         <v>44305.589951590919</v>
       </c>
-      <c r="CR37" s="28">
+      <c r="CR37" s="19">
         <v>49254.005248525122</v>
       </c>
-      <c r="CS37" s="28">
+      <c r="CS37" s="19">
         <v>50997.707473160088</v>
       </c>
-      <c r="CT37" s="28">
-        <v>53059.86210523991</v>
-      </c>
-      <c r="CU37" s="10"/>
+      <c r="CT37" s="19">
+        <v>53055.701117600503</v>
+      </c>
+      <c r="CU37" s="19">
+        <v>45653.929866224622</v>
+      </c>
       <c r="CV37" s="10"/>
       <c r="CW37" s="10"/>
       <c r="CX37" s="10"/>
@@ -29758,22 +29778,24 @@
       <c r="CO38" s="19">
         <v>8564.053251911153</v>
       </c>
-      <c r="CP38" s="28">
+      <c r="CP38" s="19">
         <v>8721.6870598250025</v>
       </c>
-      <c r="CQ38" s="28">
+      <c r="CQ38" s="19">
         <v>9693.2556175254394</v>
       </c>
-      <c r="CR38" s="28">
+      <c r="CR38" s="19">
         <v>7591.2442718533639</v>
       </c>
-      <c r="CS38" s="28">
+      <c r="CS38" s="19">
         <v>9048.1201203042874</v>
       </c>
-      <c r="CT38" s="28">
+      <c r="CT38" s="19">
         <v>9211.862986597891</v>
       </c>
-      <c r="CU38" s="10"/>
+      <c r="CU38" s="19">
+        <v>10026.793980998726</v>
+      </c>
       <c r="CV38" s="10"/>
       <c r="CW38" s="10"/>
       <c r="CX38" s="10"/>
@@ -29923,11 +29945,11 @@
       <c r="CM39" s="10"/>
       <c r="CN39" s="10"/>
       <c r="CO39" s="10"/>
-      <c r="CP39" s="29"/>
-      <c r="CQ39" s="29"/>
-      <c r="CR39" s="29"/>
-      <c r="CS39" s="29"/>
-      <c r="CT39" s="29"/>
+      <c r="CP39" s="10"/>
+      <c r="CQ39" s="10"/>
+      <c r="CR39" s="10"/>
+      <c r="CS39" s="10"/>
+      <c r="CT39" s="10"/>
       <c r="CU39" s="10"/>
       <c r="CV39" s="10"/>
       <c r="CW39" s="10"/>
@@ -30265,22 +30287,24 @@
       <c r="CO40" s="20">
         <v>197808.29860536705</v>
       </c>
-      <c r="CP40" s="30">
+      <c r="CP40" s="20">
         <v>195354.62219571532</v>
       </c>
-      <c r="CQ40" s="30">
+      <c r="CQ40" s="20">
         <v>165273.97616017709</v>
       </c>
-      <c r="CR40" s="30">
+      <c r="CR40" s="20">
         <v>190530.28863566052</v>
       </c>
-      <c r="CS40" s="30">
+      <c r="CS40" s="20">
         <v>216443.666058175</v>
       </c>
-      <c r="CT40" s="30">
-        <v>206365.98179776571</v>
-      </c>
-      <c r="CU40" s="10"/>
+      <c r="CT40" s="20">
+        <v>205975.27287569616</v>
+      </c>
+      <c r="CU40" s="20">
+        <v>189671.91716107103</v>
+      </c>
       <c r="CV40" s="10"/>
       <c r="CW40" s="10"/>
       <c r="CX40" s="10"/>
@@ -30431,11 +30455,12 @@
       <c r="CM41" s="13"/>
       <c r="CN41" s="13"/>
       <c r="CO41" s="13"/>
-      <c r="CP41" s="32"/>
-      <c r="CQ41" s="32"/>
-      <c r="CR41" s="32"/>
-      <c r="CS41" s="32"/>
-      <c r="CT41" s="32"/>
+      <c r="CP41" s="13"/>
+      <c r="CQ41" s="13"/>
+      <c r="CR41" s="13"/>
+      <c r="CS41" s="13"/>
+      <c r="CT41" s="13"/>
+      <c r="CU41" s="13"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -30535,11 +30560,11 @@
       <c r="CM43" s="10"/>
       <c r="CN43" s="10"/>
       <c r="CO43" s="10"/>
-      <c r="CP43" s="29"/>
-      <c r="CQ43" s="29"/>
-      <c r="CR43" s="29"/>
-      <c r="CS43" s="29"/>
-      <c r="CT43" s="29"/>
+      <c r="CP43" s="10"/>
+      <c r="CQ43" s="10"/>
+      <c r="CR43" s="10"/>
+      <c r="CS43" s="10"/>
+      <c r="CT43" s="10"/>
       <c r="CU43" s="10"/>
       <c r="CV43" s="10"/>
       <c r="CW43" s="10"/>
@@ -30690,11 +30715,11 @@
       <c r="CM44" s="10"/>
       <c r="CN44" s="10"/>
       <c r="CO44" s="10"/>
-      <c r="CP44" s="29"/>
-      <c r="CQ44" s="29"/>
-      <c r="CR44" s="29"/>
-      <c r="CS44" s="29"/>
-      <c r="CT44" s="29"/>
+      <c r="CP44" s="10"/>
+      <c r="CQ44" s="10"/>
+      <c r="CR44" s="10"/>
+      <c r="CS44" s="10"/>
+      <c r="CT44" s="10"/>
       <c r="CU44" s="10"/>
       <c r="CV44" s="10"/>
       <c r="CW44" s="10"/>
@@ -30764,7 +30789,7 @@
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -30774,7 +30799,7 @@
     </row>
     <row r="50" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
@@ -30787,132 +30812,132 @@
     </row>
     <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35" t="s">
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35" t="s">
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35" t="s">
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35" t="s">
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35" t="s">
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35" t="s">
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35" t="s">
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="35"/>
-      <c r="AH53" s="35" t="s">
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="24"/>
+      <c r="AG53" s="24"/>
+      <c r="AH53" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AI53" s="35"/>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="35"/>
-      <c r="AL53" s="35" t="s">
+      <c r="AI53" s="24"/>
+      <c r="AJ53" s="24"/>
+      <c r="AK53" s="24"/>
+      <c r="AL53" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AM53" s="35"/>
-      <c r="AN53" s="35"/>
-      <c r="AO53" s="35"/>
-      <c r="AP53" s="35" t="s">
+      <c r="AM53" s="24"/>
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AQ53" s="35"/>
-      <c r="AR53" s="35"/>
-      <c r="AS53" s="35"/>
-      <c r="AT53" s="35" t="s">
+      <c r="AQ53" s="24"/>
+      <c r="AR53" s="24"/>
+      <c r="AS53" s="24"/>
+      <c r="AT53" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AU53" s="35"/>
-      <c r="AV53" s="35"/>
-      <c r="AW53" s="35"/>
-      <c r="AX53" s="35" t="s">
+      <c r="AU53" s="24"/>
+      <c r="AV53" s="24"/>
+      <c r="AW53" s="24"/>
+      <c r="AX53" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AY53" s="35"/>
-      <c r="AZ53" s="35"/>
-      <c r="BA53" s="35"/>
-      <c r="BB53" s="35" t="s">
+      <c r="AY53" s="24"/>
+      <c r="AZ53" s="24"/>
+      <c r="BA53" s="24"/>
+      <c r="BB53" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BC53" s="35"/>
-      <c r="BD53" s="35"/>
-      <c r="BE53" s="35"/>
-      <c r="BF53" s="35" t="s">
+      <c r="BC53" s="24"/>
+      <c r="BD53" s="24"/>
+      <c r="BE53" s="24"/>
+      <c r="BF53" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="BG53" s="35"/>
-      <c r="BH53" s="35"/>
-      <c r="BI53" s="35"/>
-      <c r="BJ53" s="35" t="s">
+      <c r="BG53" s="24"/>
+      <c r="BH53" s="24"/>
+      <c r="BI53" s="24"/>
+      <c r="BJ53" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="BK53" s="35"/>
-      <c r="BL53" s="35"/>
-      <c r="BM53" s="35"/>
-      <c r="BN53" s="35" t="s">
+      <c r="BK53" s="24"/>
+      <c r="BL53" s="24"/>
+      <c r="BM53" s="24"/>
+      <c r="BN53" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="BO53" s="35"/>
-      <c r="BP53" s="35"/>
-      <c r="BQ53" s="35"/>
-      <c r="BR53" s="35" t="s">
+      <c r="BO53" s="24"/>
+      <c r="BP53" s="24"/>
+      <c r="BQ53" s="24"/>
+      <c r="BR53" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="BS53" s="35"/>
-      <c r="BT53" s="35"/>
-      <c r="BU53" s="35"/>
-      <c r="BV53" s="35" t="s">
+      <c r="BS53" s="24"/>
+      <c r="BT53" s="24"/>
+      <c r="BU53" s="24"/>
+      <c r="BV53" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="BW53" s="35"/>
-      <c r="BX53" s="35"/>
-      <c r="BY53" s="35"/>
-      <c r="BZ53" s="35" t="s">
+      <c r="BW53" s="24"/>
+      <c r="BX53" s="24"/>
+      <c r="BY53" s="24"/>
+      <c r="BZ53" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="35"/>
-      <c r="CB53" s="35"/>
-      <c r="CC53" s="35"/>
-      <c r="CD53" s="35" t="s">
+      <c r="CA53" s="24"/>
+      <c r="CB53" s="24"/>
+      <c r="CC53" s="24"/>
+      <c r="CD53" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="CE53" s="35"/>
-      <c r="CF53" s="35"/>
-      <c r="CG53" s="35"/>
+      <c r="CE53" s="24"/>
+      <c r="CF53" s="24"/>
+      <c r="CG53" s="24"/>
       <c r="CH53" s="22" t="s">
         <v>50</v>
       </c>
@@ -30925,13 +30950,14 @@
       <c r="CM53" s="22"/>
       <c r="CN53" s="22"/>
       <c r="CO53" s="22"/>
-      <c r="CP53" s="26" t="s">
+      <c r="CP53" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="CQ53" s="23"/>
+      <c r="CQ53" s="22"/>
       <c r="CR53" s="23"/>
       <c r="CS53" s="23"/>
-      <c r="CT53" s="23"/>
+      <c r="CT53" s="22"/>
+      <c r="CU53" s="23"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -31213,13 +31239,16 @@
       <c r="CO54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP54" s="33" t="s">
+      <c r="CP54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ54" s="33"/>
-      <c r="CR54" s="33"/>
-      <c r="CS54" s="33"/>
-      <c r="CT54" s="33"/>
+      <c r="CQ54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR54" s="6"/>
+      <c r="CS54" s="6"/>
+      <c r="CT54" s="6"/>
+      <c r="CU54" s="6"/>
     </row>
     <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -31504,14 +31533,16 @@
       <c r="CO56" s="16">
         <v>14.841493335686977</v>
       </c>
-      <c r="CP56" s="34">
-        <v>9.8946485903680355</v>
-      </c>
-      <c r="CQ56" s="34"/>
-      <c r="CR56" s="34"/>
-      <c r="CS56" s="34"/>
-      <c r="CT56" s="34"/>
-      <c r="CU56" s="10"/>
+      <c r="CP56" s="16">
+        <v>8.6866874054318828</v>
+      </c>
+      <c r="CQ56" s="16">
+        <v>17.676383548041684</v>
+      </c>
+      <c r="CR56" s="16"/>
+      <c r="CS56" s="16"/>
+      <c r="CT56" s="16"/>
+      <c r="CU56" s="16"/>
       <c r="CV56" s="10"/>
       <c r="CW56" s="10"/>
       <c r="CX56" s="10"/>
@@ -31844,14 +31875,16 @@
       <c r="CO57" s="16">
         <v>14.630768274735928</v>
       </c>
-      <c r="CP57" s="34">
+      <c r="CP57" s="16">
         <v>14.84861960256427</v>
       </c>
-      <c r="CQ57" s="34"/>
-      <c r="CR57" s="34"/>
-      <c r="CS57" s="34"/>
-      <c r="CT57" s="34"/>
-      <c r="CU57" s="10"/>
+      <c r="CQ57" s="16">
+        <v>52.961374476908532</v>
+      </c>
+      <c r="CR57" s="16"/>
+      <c r="CS57" s="16"/>
+      <c r="CT57" s="16"/>
+      <c r="CU57" s="16"/>
       <c r="CV57" s="10"/>
       <c r="CW57" s="10"/>
       <c r="CX57" s="10"/>
@@ -32184,14 +32217,16 @@
       <c r="CO58" s="16">
         <v>16.167028543209355</v>
       </c>
-      <c r="CP58" s="34">
-        <v>8.6647427769384251</v>
-      </c>
-      <c r="CQ58" s="34"/>
-      <c r="CR58" s="34"/>
-      <c r="CS58" s="34"/>
-      <c r="CT58" s="34"/>
-      <c r="CU58" s="10"/>
+      <c r="CP58" s="16">
+        <v>11.226914357659055</v>
+      </c>
+      <c r="CQ58" s="16">
+        <v>24.402461766323853</v>
+      </c>
+      <c r="CR58" s="16"/>
+      <c r="CS58" s="16"/>
+      <c r="CT58" s="16"/>
+      <c r="CU58" s="16"/>
       <c r="CV58" s="10"/>
       <c r="CW58" s="10"/>
       <c r="CX58" s="10"/>
@@ -32524,14 +32559,16 @@
       <c r="CO59" s="16">
         <v>5.4665472448003811</v>
       </c>
-      <c r="CP59" s="34">
-        <v>4.6277735808806284</v>
-      </c>
-      <c r="CQ59" s="34"/>
-      <c r="CR59" s="34"/>
-      <c r="CS59" s="34"/>
-      <c r="CT59" s="34"/>
-      <c r="CU59" s="10"/>
+      <c r="CP59" s="16">
+        <v>4.6195686053051901</v>
+      </c>
+      <c r="CQ59" s="16">
+        <v>4.2874486810725614</v>
+      </c>
+      <c r="CR59" s="16"/>
+      <c r="CS59" s="16"/>
+      <c r="CT59" s="16"/>
+      <c r="CU59" s="16"/>
       <c r="CV59" s="10"/>
       <c r="CW59" s="10"/>
       <c r="CX59" s="10"/>
@@ -32864,14 +32901,16 @@
       <c r="CO60" s="16">
         <v>5.8537446887849711</v>
       </c>
-      <c r="CP60" s="34">
+      <c r="CP60" s="16">
         <v>6.5255121912585849</v>
       </c>
-      <c r="CQ60" s="34"/>
-      <c r="CR60" s="34"/>
-      <c r="CS60" s="34"/>
-      <c r="CT60" s="34"/>
-      <c r="CU60" s="10"/>
+      <c r="CQ60" s="16">
+        <v>4.3275688626576567</v>
+      </c>
+      <c r="CR60" s="16"/>
+      <c r="CS60" s="16"/>
+      <c r="CT60" s="16"/>
+      <c r="CU60" s="16"/>
       <c r="CV60" s="10"/>
       <c r="CW60" s="10"/>
       <c r="CX60" s="10"/>
@@ -33017,11 +33056,11 @@
       <c r="CM61" s="10"/>
       <c r="CN61" s="10"/>
       <c r="CO61" s="10"/>
-      <c r="CP61" s="29"/>
-      <c r="CQ61" s="29"/>
-      <c r="CR61" s="29"/>
-      <c r="CS61" s="29"/>
-      <c r="CT61" s="29"/>
+      <c r="CP61" s="10"/>
+      <c r="CQ61" s="10"/>
+      <c r="CR61" s="10"/>
+      <c r="CS61" s="10"/>
+      <c r="CT61" s="10"/>
       <c r="CU61" s="10"/>
       <c r="CV61" s="10"/>
       <c r="CW61" s="10"/>
@@ -33355,14 +33394,16 @@
       <c r="CO62" s="16">
         <v>12.461641884267976</v>
       </c>
-      <c r="CP62" s="34">
-        <v>8.5603559780498557</v>
-      </c>
-      <c r="CQ62" s="34"/>
-      <c r="CR62" s="34"/>
-      <c r="CS62" s="34"/>
-      <c r="CT62" s="34"/>
-      <c r="CU62" s="10"/>
+      <c r="CP62" s="16">
+        <v>8.3209283832293721</v>
+      </c>
+      <c r="CQ62" s="16">
+        <v>15.796132295298705</v>
+      </c>
+      <c r="CR62" s="16"/>
+      <c r="CS62" s="16"/>
+      <c r="CT62" s="16"/>
+      <c r="CU62" s="16"/>
       <c r="CV62" s="10"/>
       <c r="CW62" s="10"/>
       <c r="CX62" s="10"/>
@@ -33509,11 +33550,12 @@
       <c r="CM63" s="13"/>
       <c r="CN63" s="13"/>
       <c r="CO63" s="13"/>
-      <c r="CP63" s="32"/>
-      <c r="CQ63" s="32"/>
-      <c r="CR63" s="32"/>
-      <c r="CS63" s="32"/>
-      <c r="CT63" s="32"/>
+      <c r="CP63" s="13"/>
+      <c r="CQ63" s="13"/>
+      <c r="CR63" s="13"/>
+      <c r="CS63" s="13"/>
+      <c r="CT63" s="13"/>
+      <c r="CU63" s="13"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
@@ -33613,11 +33655,11 @@
       <c r="CM65" s="10"/>
       <c r="CN65" s="10"/>
       <c r="CO65" s="10"/>
-      <c r="CP65" s="29"/>
-      <c r="CQ65" s="29"/>
-      <c r="CR65" s="29"/>
-      <c r="CS65" s="29"/>
-      <c r="CT65" s="29"/>
+      <c r="CP65" s="10"/>
+      <c r="CQ65" s="10"/>
+      <c r="CR65" s="10"/>
+      <c r="CS65" s="10"/>
+      <c r="CT65" s="10"/>
       <c r="CU65" s="10"/>
       <c r="CV65" s="10"/>
       <c r="CW65" s="10"/>
@@ -33764,11 +33806,11 @@
       <c r="CM66" s="10"/>
       <c r="CN66" s="10"/>
       <c r="CO66" s="10"/>
-      <c r="CP66" s="29"/>
-      <c r="CQ66" s="29"/>
-      <c r="CR66" s="29"/>
-      <c r="CS66" s="29"/>
-      <c r="CT66" s="29"/>
+      <c r="CP66" s="10"/>
+      <c r="CQ66" s="10"/>
+      <c r="CR66" s="10"/>
+      <c r="CS66" s="10"/>
+      <c r="CT66" s="10"/>
       <c r="CU66" s="10"/>
       <c r="CV66" s="10"/>
       <c r="CW66" s="10"/>
@@ -33834,7 +33876,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:150" x14ac:dyDescent="0.2">
@@ -33844,7 +33886,7 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
@@ -33854,132 +33896,132 @@
     </row>
     <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="35" t="s">
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="35" t="s">
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="35" t="s">
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="35" t="s">
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="35" t="s">
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="W75" s="37"/>
-      <c r="X75" s="37"/>
-      <c r="Y75" s="37"/>
-      <c r="Z75" s="35" t="s">
+      <c r="W75" s="25"/>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AA75" s="37"/>
-      <c r="AB75" s="37"/>
-      <c r="AC75" s="37"/>
-      <c r="AD75" s="35" t="s">
+      <c r="AA75" s="25"/>
+      <c r="AB75" s="25"/>
+      <c r="AC75" s="25"/>
+      <c r="AD75" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="37"/>
-      <c r="AF75" s="37"/>
-      <c r="AG75" s="37"/>
-      <c r="AH75" s="35" t="s">
+      <c r="AE75" s="25"/>
+      <c r="AF75" s="25"/>
+      <c r="AG75" s="25"/>
+      <c r="AH75" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="37"/>
-      <c r="AJ75" s="37"/>
-      <c r="AK75" s="37"/>
-      <c r="AL75" s="35" t="s">
+      <c r="AI75" s="25"/>
+      <c r="AJ75" s="25"/>
+      <c r="AK75" s="25"/>
+      <c r="AL75" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AM75" s="37"/>
-      <c r="AN75" s="37"/>
-      <c r="AO75" s="37"/>
-      <c r="AP75" s="35" t="s">
+      <c r="AM75" s="25"/>
+      <c r="AN75" s="25"/>
+      <c r="AO75" s="25"/>
+      <c r="AP75" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AQ75" s="37"/>
-      <c r="AR75" s="37"/>
-      <c r="AS75" s="37"/>
-      <c r="AT75" s="35" t="s">
+      <c r="AQ75" s="25"/>
+      <c r="AR75" s="25"/>
+      <c r="AS75" s="25"/>
+      <c r="AT75" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AU75" s="37"/>
-      <c r="AV75" s="37"/>
-      <c r="AW75" s="37"/>
-      <c r="AX75" s="35" t="s">
+      <c r="AU75" s="25"/>
+      <c r="AV75" s="25"/>
+      <c r="AW75" s="25"/>
+      <c r="AX75" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AY75" s="37"/>
-      <c r="AZ75" s="37"/>
-      <c r="BA75" s="37"/>
-      <c r="BB75" s="35" t="s">
+      <c r="AY75" s="25"/>
+      <c r="AZ75" s="25"/>
+      <c r="BA75" s="25"/>
+      <c r="BB75" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BC75" s="37"/>
-      <c r="BD75" s="37"/>
-      <c r="BE75" s="37"/>
-      <c r="BF75" s="35" t="s">
+      <c r="BC75" s="25"/>
+      <c r="BD75" s="25"/>
+      <c r="BE75" s="25"/>
+      <c r="BF75" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="BG75" s="37"/>
-      <c r="BH75" s="37"/>
-      <c r="BI75" s="37"/>
-      <c r="BJ75" s="35" t="s">
+      <c r="BG75" s="25"/>
+      <c r="BH75" s="25"/>
+      <c r="BI75" s="25"/>
+      <c r="BJ75" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="BK75" s="37"/>
-      <c r="BL75" s="37"/>
-      <c r="BM75" s="37"/>
-      <c r="BN75" s="35" t="s">
+      <c r="BK75" s="25"/>
+      <c r="BL75" s="25"/>
+      <c r="BM75" s="25"/>
+      <c r="BN75" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="BO75" s="37"/>
-      <c r="BP75" s="37"/>
-      <c r="BQ75" s="37"/>
-      <c r="BR75" s="35" t="s">
+      <c r="BO75" s="25"/>
+      <c r="BP75" s="25"/>
+      <c r="BQ75" s="25"/>
+      <c r="BR75" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="BS75" s="37"/>
-      <c r="BT75" s="37"/>
-      <c r="BU75" s="37"/>
-      <c r="BV75" s="35" t="s">
+      <c r="BS75" s="25"/>
+      <c r="BT75" s="25"/>
+      <c r="BU75" s="25"/>
+      <c r="BV75" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="BW75" s="37"/>
-      <c r="BX75" s="37"/>
-      <c r="BY75" s="37"/>
-      <c r="BZ75" s="35" t="s">
+      <c r="BW75" s="25"/>
+      <c r="BX75" s="25"/>
+      <c r="BY75" s="25"/>
+      <c r="BZ75" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="37"/>
-      <c r="CB75" s="37"/>
-      <c r="CC75" s="37"/>
-      <c r="CD75" s="35" t="s">
+      <c r="CA75" s="25"/>
+      <c r="CB75" s="25"/>
+      <c r="CC75" s="25"/>
+      <c r="CD75" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="CE75" s="35"/>
-      <c r="CF75" s="35"/>
-      <c r="CG75" s="35"/>
+      <c r="CE75" s="24"/>
+      <c r="CF75" s="24"/>
+      <c r="CG75" s="24"/>
       <c r="CH75" s="22" t="s">
         <v>50</v>
       </c>
@@ -33992,13 +34034,14 @@
       <c r="CM75" s="22"/>
       <c r="CN75" s="22"/>
       <c r="CO75" s="22"/>
-      <c r="CP75" s="26" t="s">
+      <c r="CP75" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="CQ75" s="23"/>
+      <c r="CQ75" s="22"/>
       <c r="CR75" s="23"/>
       <c r="CS75" s="23"/>
-      <c r="CT75" s="23"/>
+      <c r="CT75" s="22"/>
+      <c r="CU75" s="23"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
@@ -34280,13 +34323,16 @@
       <c r="CO76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP76" s="33" t="s">
+      <c r="CP76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ76" s="33"/>
-      <c r="CR76" s="33"/>
-      <c r="CS76" s="33"/>
-      <c r="CT76" s="33"/>
+      <c r="CQ76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR76" s="6"/>
+      <c r="CS76" s="6"/>
+      <c r="CT76" s="6"/>
+      <c r="CU76" s="6"/>
     </row>
     <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
@@ -34571,14 +34617,16 @@
       <c r="CO78" s="16">
         <v>12.028839869694991</v>
       </c>
-      <c r="CP78" s="34">
-        <v>7.0820180314618284</v>
-      </c>
-      <c r="CQ78" s="34"/>
-      <c r="CR78" s="34"/>
-      <c r="CS78" s="34"/>
-      <c r="CT78" s="34"/>
-      <c r="CU78" s="10"/>
+      <c r="CP78" s="16">
+        <v>5.9049732613493831</v>
+      </c>
+      <c r="CQ78" s="16">
+        <v>15.970759838287393</v>
+      </c>
+      <c r="CR78" s="16"/>
+      <c r="CS78" s="16"/>
+      <c r="CT78" s="16"/>
+      <c r="CU78" s="16"/>
       <c r="CV78" s="10"/>
       <c r="CW78" s="10"/>
       <c r="CX78" s="10"/>
@@ -34911,14 +34959,16 @@
       <c r="CO79" s="16">
         <v>4.2962835412963614</v>
       </c>
-      <c r="CP79" s="34">
+      <c r="CP79" s="16">
         <v>2.7151835849075496</v>
       </c>
-      <c r="CQ79" s="34"/>
-      <c r="CR79" s="34"/>
-      <c r="CS79" s="34"/>
-      <c r="CT79" s="34"/>
-      <c r="CU79" s="10"/>
+      <c r="CQ79" s="16">
+        <v>62.275666562782476</v>
+      </c>
+      <c r="CR79" s="16"/>
+      <c r="CS79" s="16"/>
+      <c r="CT79" s="16"/>
+      <c r="CU79" s="16"/>
       <c r="CV79" s="10"/>
       <c r="CW79" s="10"/>
       <c r="CX79" s="10"/>
@@ -35251,14 +35301,16 @@
       <c r="CO80" s="16">
         <v>13.477244444551516</v>
       </c>
-      <c r="CP80" s="34">
-        <v>8.1672790045690817</v>
-      </c>
-      <c r="CQ80" s="34"/>
-      <c r="CR80" s="34"/>
-      <c r="CS80" s="34"/>
-      <c r="CT80" s="34"/>
-      <c r="CU80" s="10"/>
+      <c r="CP80" s="16">
+        <v>10.717721044433787</v>
+      </c>
+      <c r="CQ80" s="16">
+        <v>21.967177033540992</v>
+      </c>
+      <c r="CR80" s="16"/>
+      <c r="CS80" s="16"/>
+      <c r="CT80" s="16"/>
+      <c r="CU80" s="16"/>
       <c r="CV80" s="10"/>
       <c r="CW80" s="10"/>
       <c r="CX80" s="10"/>
@@ -35591,14 +35643,16 @@
       <c r="CO81" s="16">
         <v>3.5442922403133252</v>
       </c>
-      <c r="CP81" s="34">
-        <v>2.2784302382546713</v>
-      </c>
-      <c r="CQ81" s="34"/>
-      <c r="CR81" s="34"/>
-      <c r="CS81" s="34"/>
-      <c r="CT81" s="34"/>
-      <c r="CU81" s="10"/>
+      <c r="CP81" s="16">
+        <v>2.2704094996565374</v>
+      </c>
+      <c r="CQ81" s="16">
+        <v>3.0432726798287177</v>
+      </c>
+      <c r="CR81" s="16"/>
+      <c r="CS81" s="16"/>
+      <c r="CT81" s="16"/>
+      <c r="CU81" s="16"/>
       <c r="CV81" s="10"/>
       <c r="CW81" s="10"/>
       <c r="CX81" s="10"/>
@@ -35931,14 +35985,16 @@
       <c r="CO82" s="16">
         <v>5.6523103506521295</v>
       </c>
-      <c r="CP82" s="34">
+      <c r="CP82" s="16">
         <v>5.6201962236274312</v>
       </c>
-      <c r="CQ82" s="34"/>
-      <c r="CR82" s="34"/>
-      <c r="CS82" s="34"/>
-      <c r="CT82" s="34"/>
-      <c r="CU82" s="10"/>
+      <c r="CQ82" s="16">
+        <v>3.4409323000855068</v>
+      </c>
+      <c r="CR82" s="16"/>
+      <c r="CS82" s="16"/>
+      <c r="CT82" s="16"/>
+      <c r="CU82" s="16"/>
       <c r="CV82" s="10"/>
       <c r="CW82" s="10"/>
       <c r="CX82" s="10"/>
@@ -36084,11 +36140,11 @@
       <c r="CM83" s="10"/>
       <c r="CN83" s="10"/>
       <c r="CO83" s="10"/>
-      <c r="CP83" s="29"/>
-      <c r="CQ83" s="29"/>
-      <c r="CR83" s="29"/>
-      <c r="CS83" s="29"/>
-      <c r="CT83" s="29"/>
+      <c r="CP83" s="10"/>
+      <c r="CQ83" s="10"/>
+      <c r="CR83" s="10"/>
+      <c r="CS83" s="10"/>
+      <c r="CT83" s="10"/>
       <c r="CU83" s="10"/>
       <c r="CV83" s="10"/>
       <c r="CW83" s="10"/>
@@ -36422,14 +36478,16 @@
       <c r="CO84" s="16">
         <v>9.420922976536005</v>
       </c>
-      <c r="CP84" s="34">
-        <v>5.6366004951849504</v>
-      </c>
-      <c r="CQ84" s="34"/>
-      <c r="CR84" s="34"/>
-      <c r="CS84" s="34"/>
-      <c r="CT84" s="34"/>
-      <c r="CU84" s="10"/>
+      <c r="CP84" s="16">
+        <v>5.436600660178172</v>
+      </c>
+      <c r="CQ84" s="16">
+        <v>14.762118978276661</v>
+      </c>
+      <c r="CR84" s="16"/>
+      <c r="CS84" s="16"/>
+      <c r="CT84" s="16"/>
+      <c r="CU84" s="16"/>
       <c r="CV84" s="10"/>
       <c r="CW84" s="10"/>
       <c r="CX84" s="10"/>
@@ -36576,11 +36634,12 @@
       <c r="CM85" s="13"/>
       <c r="CN85" s="13"/>
       <c r="CO85" s="13"/>
-      <c r="CP85" s="32"/>
-      <c r="CQ85" s="32"/>
-      <c r="CR85" s="32"/>
-      <c r="CS85" s="32"/>
-      <c r="CT85" s="32"/>
+      <c r="CP85" s="13"/>
+      <c r="CQ85" s="13"/>
+      <c r="CR85" s="13"/>
+      <c r="CS85" s="13"/>
+      <c r="CT85" s="13"/>
+      <c r="CU85" s="13"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
@@ -36680,11 +36739,11 @@
       <c r="CM87" s="10"/>
       <c r="CN87" s="10"/>
       <c r="CO87" s="10"/>
-      <c r="CP87" s="29"/>
-      <c r="CQ87" s="29"/>
-      <c r="CR87" s="29"/>
-      <c r="CS87" s="29"/>
-      <c r="CT87" s="29"/>
+      <c r="CP87" s="10"/>
+      <c r="CQ87" s="10"/>
+      <c r="CR87" s="10"/>
+      <c r="CS87" s="10"/>
+      <c r="CT87" s="10"/>
       <c r="CU87" s="10"/>
       <c r="CV87" s="10"/>
       <c r="CW87" s="10"/>
@@ -36831,11 +36890,11 @@
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
       <c r="CO88" s="10"/>
-      <c r="CP88" s="29"/>
-      <c r="CQ88" s="29"/>
-      <c r="CR88" s="29"/>
-      <c r="CS88" s="29"/>
-      <c r="CT88" s="29"/>
+      <c r="CP88" s="10"/>
+      <c r="CQ88" s="10"/>
+      <c r="CR88" s="10"/>
+      <c r="CS88" s="10"/>
+      <c r="CT88" s="10"/>
       <c r="CU88" s="10"/>
       <c r="CV88" s="10"/>
       <c r="CW88" s="10"/>
@@ -36896,7 +36955,7 @@
     </row>
     <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.2">
@@ -36906,7 +36965,7 @@
     </row>
     <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:150" x14ac:dyDescent="0.2">
@@ -36916,132 +36975,132 @@
     </row>
     <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="35">
+      <c r="B96" s="24">
         <v>2000</v>
       </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="35">
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="24">
         <v>2001</v>
       </c>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="35">
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="24">
         <v>2002</v>
       </c>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="35">
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="24">
         <v>2003</v>
       </c>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="35">
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="24">
         <v>2004</v>
       </c>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="35">
+      <c r="S96" s="26"/>
+      <c r="T96" s="26"/>
+      <c r="U96" s="26"/>
+      <c r="V96" s="24">
         <v>2005</v>
       </c>
-      <c r="W96" s="36"/>
-      <c r="X96" s="36"/>
-      <c r="Y96" s="36"/>
-      <c r="Z96" s="35">
+      <c r="W96" s="26"/>
+      <c r="X96" s="26"/>
+      <c r="Y96" s="26"/>
+      <c r="Z96" s="24">
         <v>2006</v>
       </c>
-      <c r="AA96" s="36"/>
-      <c r="AB96" s="36"/>
-      <c r="AC96" s="36"/>
-      <c r="AD96" s="35">
+      <c r="AA96" s="26"/>
+      <c r="AB96" s="26"/>
+      <c r="AC96" s="26"/>
+      <c r="AD96" s="24">
         <v>2007</v>
       </c>
-      <c r="AE96" s="36"/>
-      <c r="AF96" s="36"/>
-      <c r="AG96" s="36"/>
-      <c r="AH96" s="35">
+      <c r="AE96" s="26"/>
+      <c r="AF96" s="26"/>
+      <c r="AG96" s="26"/>
+      <c r="AH96" s="24">
         <v>2008</v>
       </c>
-      <c r="AI96" s="36"/>
-      <c r="AJ96" s="36"/>
-      <c r="AK96" s="36"/>
-      <c r="AL96" s="35">
+      <c r="AI96" s="26"/>
+      <c r="AJ96" s="26"/>
+      <c r="AK96" s="26"/>
+      <c r="AL96" s="24">
         <v>2009</v>
       </c>
-      <c r="AM96" s="36"/>
-      <c r="AN96" s="36"/>
-      <c r="AO96" s="36"/>
-      <c r="AP96" s="35">
+      <c r="AM96" s="26"/>
+      <c r="AN96" s="26"/>
+      <c r="AO96" s="26"/>
+      <c r="AP96" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="36"/>
-      <c r="AR96" s="36"/>
-      <c r="AS96" s="36"/>
-      <c r="AT96" s="35">
+      <c r="AQ96" s="26"/>
+      <c r="AR96" s="26"/>
+      <c r="AS96" s="26"/>
+      <c r="AT96" s="24">
         <v>2011</v>
       </c>
-      <c r="AU96" s="36"/>
-      <c r="AV96" s="36"/>
-      <c r="AW96" s="36"/>
-      <c r="AX96" s="35">
+      <c r="AU96" s="26"/>
+      <c r="AV96" s="26"/>
+      <c r="AW96" s="26"/>
+      <c r="AX96" s="24">
         <v>2012</v>
       </c>
-      <c r="AY96" s="36"/>
-      <c r="AZ96" s="36"/>
-      <c r="BA96" s="36"/>
-      <c r="BB96" s="35">
+      <c r="AY96" s="26"/>
+      <c r="AZ96" s="26"/>
+      <c r="BA96" s="26"/>
+      <c r="BB96" s="24">
         <v>2013</v>
       </c>
-      <c r="BC96" s="36"/>
-      <c r="BD96" s="36"/>
-      <c r="BE96" s="36"/>
-      <c r="BF96" s="35">
+      <c r="BC96" s="26"/>
+      <c r="BD96" s="26"/>
+      <c r="BE96" s="26"/>
+      <c r="BF96" s="24">
         <v>2014</v>
       </c>
-      <c r="BG96" s="36"/>
-      <c r="BH96" s="36"/>
-      <c r="BI96" s="36"/>
-      <c r="BJ96" s="35">
+      <c r="BG96" s="26"/>
+      <c r="BH96" s="26"/>
+      <c r="BI96" s="26"/>
+      <c r="BJ96" s="24">
         <v>2015</v>
       </c>
-      <c r="BK96" s="36"/>
-      <c r="BL96" s="36"/>
-      <c r="BM96" s="36"/>
-      <c r="BN96" s="35">
+      <c r="BK96" s="26"/>
+      <c r="BL96" s="26"/>
+      <c r="BM96" s="26"/>
+      <c r="BN96" s="24">
         <v>2016</v>
       </c>
-      <c r="BO96" s="36"/>
-      <c r="BP96" s="36"/>
-      <c r="BQ96" s="36"/>
-      <c r="BR96" s="35">
+      <c r="BO96" s="26"/>
+      <c r="BP96" s="26"/>
+      <c r="BQ96" s="26"/>
+      <c r="BR96" s="24">
         <v>2017</v>
       </c>
-      <c r="BS96" s="36"/>
-      <c r="BT96" s="36"/>
-      <c r="BU96" s="36"/>
-      <c r="BV96" s="35">
+      <c r="BS96" s="26"/>
+      <c r="BT96" s="26"/>
+      <c r="BU96" s="26"/>
+      <c r="BV96" s="24">
         <v>2018</v>
       </c>
-      <c r="BW96" s="36"/>
-      <c r="BX96" s="36"/>
-      <c r="BY96" s="36"/>
-      <c r="BZ96" s="35">
+      <c r="BW96" s="26"/>
+      <c r="BX96" s="26"/>
+      <c r="BY96" s="26"/>
+      <c r="BZ96" s="24">
         <v>2019</v>
       </c>
-      <c r="CA96" s="36"/>
-      <c r="CB96" s="36"/>
-      <c r="CC96" s="36"/>
-      <c r="CD96" s="35">
+      <c r="CA96" s="26"/>
+      <c r="CB96" s="26"/>
+      <c r="CC96" s="26"/>
+      <c r="CD96" s="24">
         <v>2020</v>
       </c>
-      <c r="CE96" s="35"/>
-      <c r="CF96" s="35"/>
-      <c r="CG96" s="35"/>
+      <c r="CE96" s="24"/>
+      <c r="CF96" s="24"/>
+      <c r="CG96" s="24"/>
       <c r="CH96" s="22">
         <v>2021</v>
       </c>
@@ -37054,15 +37113,16 @@
       <c r="CM96" s="22"/>
       <c r="CN96" s="22"/>
       <c r="CO96" s="22"/>
-      <c r="CP96" s="26">
+      <c r="CP96" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ96" s="26"/>
-      <c r="CR96" s="26"/>
-      <c r="CS96" s="26"/>
-      <c r="CT96" s="26">
+      <c r="CQ96" s="22"/>
+      <c r="CR96" s="22"/>
+      <c r="CS96" s="22"/>
+      <c r="CT96" s="22">
         <v>2024</v>
       </c>
+      <c r="CU96" s="22"/>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -37344,20 +37404,23 @@
       <c r="CO97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP97" s="27" t="s">
+      <c r="CP97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CQ97" s="27" t="s">
+      <c r="CQ97" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CR97" s="27" t="s">
+      <c r="CR97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CS97" s="27" t="s">
+      <c r="CS97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CT97" s="27" t="s">
+      <c r="CT97" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="CU97" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37643,22 +37706,24 @@
       <c r="CO99" s="16">
         <v>123.50895300182034</v>
       </c>
-      <c r="CP99" s="34">
+      <c r="CP99" s="16">
         <v>124.96604439146834</v>
       </c>
-      <c r="CQ99" s="34">
+      <c r="CQ99" s="16">
         <v>143.06781777622629</v>
       </c>
-      <c r="CR99" s="34">
+      <c r="CR99" s="16">
         <v>147.72043405313894</v>
       </c>
-      <c r="CS99" s="34">
+      <c r="CS99" s="16">
         <v>126.60983207140346</v>
       </c>
-      <c r="CT99" s="34">
+      <c r="CT99" s="16">
         <v>128.24841917056341</v>
       </c>
-      <c r="CU99" s="10"/>
+      <c r="CU99" s="16">
+        <v>145.17196767092565</v>
+      </c>
       <c r="CV99" s="10"/>
       <c r="CW99" s="10"/>
       <c r="CX99" s="10"/>
@@ -37995,22 +38060,24 @@
       <c r="CO100" s="16">
         <v>92.356565974580619</v>
       </c>
-      <c r="CP100" s="34">
+      <c r="CP100" s="16">
         <v>106.55510314601457</v>
       </c>
-      <c r="CQ100" s="34">
+      <c r="CQ100" s="16">
         <v>104.12080693643608</v>
       </c>
-      <c r="CR100" s="34">
+      <c r="CR100" s="16">
         <v>141.61483333887026</v>
       </c>
-      <c r="CS100" s="34">
+      <c r="CS100" s="16">
         <v>101.50797088268828</v>
       </c>
-      <c r="CT100" s="34">
+      <c r="CT100" s="16">
         <v>119.14213732395818</v>
       </c>
-      <c r="CU100" s="10"/>
+      <c r="CU100" s="16">
+        <v>98.144485109727412</v>
+      </c>
       <c r="CV100" s="10"/>
       <c r="CW100" s="10"/>
       <c r="CX100" s="10"/>
@@ -38347,22 +38414,24 @@
       <c r="CO101" s="16">
         <v>139.65345817177814</v>
       </c>
-      <c r="CP101" s="34">
+      <c r="CP101" s="16">
         <v>120.66677029953917</v>
       </c>
-      <c r="CQ101" s="34">
+      <c r="CQ101" s="16">
         <v>131.45787386825438</v>
       </c>
-      <c r="CR101" s="34">
+      <c r="CR101" s="16">
         <v>126.59263059144152</v>
       </c>
-      <c r="CS101" s="34">
+      <c r="CS101" s="16">
         <v>142.96370467055149</v>
       </c>
-      <c r="CT101" s="34">
-        <v>121.22171951620845</v>
-      </c>
-      <c r="CU101" s="10"/>
+      <c r="CT101" s="16">
+        <v>121.22171951620844</v>
+      </c>
+      <c r="CU101" s="16">
+        <v>134.08265670755398</v>
+      </c>
       <c r="CV101" s="10"/>
       <c r="CW101" s="10"/>
       <c r="CX101" s="10"/>
@@ -38699,22 +38768,24 @@
       <c r="CO102" s="16">
         <v>115.52979932111984</v>
       </c>
-      <c r="CP102" s="34">
+      <c r="CP102" s="16">
         <v>108.78936473222898</v>
       </c>
-      <c r="CQ102" s="34">
+      <c r="CQ102" s="16">
         <v>130.30730637495333</v>
       </c>
-      <c r="CR102" s="34">
+      <c r="CR102" s="16">
         <v>116.81395915433652</v>
       </c>
-      <c r="CS102" s="34">
+      <c r="CS102" s="16">
         <v>117.67456008105623</v>
       </c>
-      <c r="CT102" s="34">
+      <c r="CT102" s="16">
         <v>111.28826473672446</v>
       </c>
-      <c r="CU102" s="10"/>
+      <c r="CU102" s="16">
+        <v>131.88067666067974</v>
+      </c>
       <c r="CV102" s="10"/>
       <c r="CW102" s="10"/>
       <c r="CX102" s="10"/>
@@ -39051,22 +39122,24 @@
       <c r="CO103" s="16">
         <v>100.67310618795669</v>
       </c>
-      <c r="CP103" s="34">
+      <c r="CP103" s="16">
         <v>101.46578383170367</v>
       </c>
-      <c r="CQ103" s="34">
+      <c r="CQ103" s="16">
         <v>104.36523833133514</v>
       </c>
-      <c r="CR103" s="34">
+      <c r="CR103" s="16">
         <v>104.08196711312956</v>
       </c>
-      <c r="CS103" s="34">
+      <c r="CS103" s="16">
         <v>100.86504728650382</v>
       </c>
-      <c r="CT103" s="34">
+      <c r="CT103" s="16">
         <v>102.33549055026118</v>
       </c>
-      <c r="CU103" s="10"/>
+      <c r="CU103" s="16">
+        <v>105.25979751703227</v>
+      </c>
       <c r="CV103" s="10"/>
       <c r="CW103" s="10"/>
       <c r="CX103" s="10"/>
@@ -39216,11 +39289,11 @@
       <c r="CM104" s="10"/>
       <c r="CN104" s="10"/>
       <c r="CO104" s="10"/>
-      <c r="CP104" s="29"/>
-      <c r="CQ104" s="29"/>
-      <c r="CR104" s="29"/>
-      <c r="CS104" s="29"/>
-      <c r="CT104" s="29"/>
+      <c r="CP104" s="10"/>
+      <c r="CQ104" s="10"/>
+      <c r="CR104" s="10"/>
+      <c r="CS104" s="10"/>
+      <c r="CT104" s="10"/>
       <c r="CU104" s="10"/>
       <c r="CV104" s="10"/>
       <c r="CW104" s="10"/>
@@ -39558,22 +39631,24 @@
       <c r="CO105" s="16">
         <v>120.88383060925871</v>
       </c>
-      <c r="CP105" s="34">
+      <c r="CP105" s="16">
         <v>117.88691825865428</v>
       </c>
-      <c r="CQ105" s="34">
+      <c r="CQ105" s="16">
         <v>133.89153033738992</v>
       </c>
-      <c r="CR105" s="34">
+      <c r="CR105" s="16">
         <v>134.83271290689493</v>
       </c>
-      <c r="CS105" s="34">
+      <c r="CS105" s="16">
         <v>124.2430944444894</v>
       </c>
-      <c r="CT105" s="34">
-        <v>121.14973173429711</v>
-      </c>
-      <c r="CU105" s="10"/>
+      <c r="CT105" s="16">
+        <v>121.11183735116566</v>
+      </c>
+      <c r="CU105" s="16">
+        <v>135.09790075506695</v>
+      </c>
       <c r="CV105" s="10"/>
       <c r="CW105" s="10"/>
       <c r="CX105" s="10"/>
@@ -39724,11 +39799,12 @@
       <c r="CM106" s="13"/>
       <c r="CN106" s="13"/>
       <c r="CO106" s="13"/>
-      <c r="CP106" s="32"/>
-      <c r="CQ106" s="32"/>
-      <c r="CR106" s="32"/>
-      <c r="CS106" s="32"/>
-      <c r="CT106" s="32"/>
+      <c r="CP106" s="13"/>
+      <c r="CQ106" s="13"/>
+      <c r="CR106" s="13"/>
+      <c r="CS106" s="13"/>
+      <c r="CT106" s="13"/>
+      <c r="CU106" s="13"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -39747,7 +39823,7 @@
     </row>
     <row r="112" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
@@ -39757,7 +39833,7 @@
     </row>
     <row r="115" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:154" x14ac:dyDescent="0.2">
@@ -39767,132 +39843,132 @@
     </row>
     <row r="118" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="35">
+      <c r="B118" s="24">
         <v>2000</v>
       </c>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="35">
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="24">
         <v>2001</v>
       </c>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="35">
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="24">
         <v>2002</v>
       </c>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="36"/>
-      <c r="N118" s="35">
+      <c r="K118" s="26"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="26"/>
+      <c r="N118" s="24">
         <v>2003</v>
       </c>
-      <c r="O118" s="36"/>
-      <c r="P118" s="36"/>
-      <c r="Q118" s="36"/>
-      <c r="R118" s="35">
+      <c r="O118" s="26"/>
+      <c r="P118" s="26"/>
+      <c r="Q118" s="26"/>
+      <c r="R118" s="24">
         <v>2004</v>
       </c>
-      <c r="S118" s="36"/>
-      <c r="T118" s="36"/>
-      <c r="U118" s="36"/>
-      <c r="V118" s="35">
+      <c r="S118" s="26"/>
+      <c r="T118" s="26"/>
+      <c r="U118" s="26"/>
+      <c r="V118" s="24">
         <v>2005</v>
       </c>
-      <c r="W118" s="36"/>
-      <c r="X118" s="36"/>
-      <c r="Y118" s="36"/>
-      <c r="Z118" s="35">
+      <c r="W118" s="26"/>
+      <c r="X118" s="26"/>
+      <c r="Y118" s="26"/>
+      <c r="Z118" s="24">
         <v>2006</v>
       </c>
-      <c r="AA118" s="36"/>
-      <c r="AB118" s="36"/>
-      <c r="AC118" s="36"/>
-      <c r="AD118" s="35">
+      <c r="AA118" s="26"/>
+      <c r="AB118" s="26"/>
+      <c r="AC118" s="26"/>
+      <c r="AD118" s="24">
         <v>2007</v>
       </c>
-      <c r="AE118" s="36"/>
-      <c r="AF118" s="36"/>
-      <c r="AG118" s="36"/>
-      <c r="AH118" s="35">
+      <c r="AE118" s="26"/>
+      <c r="AF118" s="26"/>
+      <c r="AG118" s="26"/>
+      <c r="AH118" s="24">
         <v>2008</v>
       </c>
-      <c r="AI118" s="36"/>
-      <c r="AJ118" s="36"/>
-      <c r="AK118" s="36"/>
-      <c r="AL118" s="35">
+      <c r="AI118" s="26"/>
+      <c r="AJ118" s="26"/>
+      <c r="AK118" s="26"/>
+      <c r="AL118" s="24">
         <v>2009</v>
       </c>
-      <c r="AM118" s="36"/>
-      <c r="AN118" s="36"/>
-      <c r="AO118" s="36"/>
-      <c r="AP118" s="35">
+      <c r="AM118" s="26"/>
+      <c r="AN118" s="26"/>
+      <c r="AO118" s="26"/>
+      <c r="AP118" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="36"/>
-      <c r="AR118" s="36"/>
-      <c r="AS118" s="36"/>
-      <c r="AT118" s="35">
+      <c r="AQ118" s="26"/>
+      <c r="AR118" s="26"/>
+      <c r="AS118" s="26"/>
+      <c r="AT118" s="24">
         <v>2011</v>
       </c>
-      <c r="AU118" s="36"/>
-      <c r="AV118" s="36"/>
-      <c r="AW118" s="36"/>
-      <c r="AX118" s="35">
+      <c r="AU118" s="26"/>
+      <c r="AV118" s="26"/>
+      <c r="AW118" s="26"/>
+      <c r="AX118" s="24">
         <v>2012</v>
       </c>
-      <c r="AY118" s="36"/>
-      <c r="AZ118" s="36"/>
-      <c r="BA118" s="36"/>
-      <c r="BB118" s="35">
+      <c r="AY118" s="26"/>
+      <c r="AZ118" s="26"/>
+      <c r="BA118" s="26"/>
+      <c r="BB118" s="24">
         <v>2013</v>
       </c>
-      <c r="BC118" s="36"/>
-      <c r="BD118" s="36"/>
-      <c r="BE118" s="36"/>
-      <c r="BF118" s="35">
+      <c r="BC118" s="26"/>
+      <c r="BD118" s="26"/>
+      <c r="BE118" s="26"/>
+      <c r="BF118" s="24">
         <v>2014</v>
       </c>
-      <c r="BG118" s="36"/>
-      <c r="BH118" s="36"/>
-      <c r="BI118" s="36"/>
-      <c r="BJ118" s="35">
+      <c r="BG118" s="26"/>
+      <c r="BH118" s="26"/>
+      <c r="BI118" s="26"/>
+      <c r="BJ118" s="24">
         <v>2015</v>
       </c>
-      <c r="BK118" s="36"/>
-      <c r="BL118" s="36"/>
-      <c r="BM118" s="36"/>
-      <c r="BN118" s="35">
+      <c r="BK118" s="26"/>
+      <c r="BL118" s="26"/>
+      <c r="BM118" s="26"/>
+      <c r="BN118" s="24">
         <v>2016</v>
       </c>
-      <c r="BO118" s="36"/>
-      <c r="BP118" s="36"/>
-      <c r="BQ118" s="36"/>
-      <c r="BR118" s="35">
+      <c r="BO118" s="26"/>
+      <c r="BP118" s="26"/>
+      <c r="BQ118" s="26"/>
+      <c r="BR118" s="24">
         <v>2017</v>
       </c>
-      <c r="BS118" s="36"/>
-      <c r="BT118" s="36"/>
-      <c r="BU118" s="36"/>
-      <c r="BV118" s="35">
+      <c r="BS118" s="26"/>
+      <c r="BT118" s="26"/>
+      <c r="BU118" s="26"/>
+      <c r="BV118" s="24">
         <v>2018</v>
       </c>
-      <c r="BW118" s="36"/>
-      <c r="BX118" s="36"/>
-      <c r="BY118" s="36"/>
-      <c r="BZ118" s="35">
+      <c r="BW118" s="26"/>
+      <c r="BX118" s="26"/>
+      <c r="BY118" s="26"/>
+      <c r="BZ118" s="24">
         <v>2019</v>
       </c>
-      <c r="CA118" s="36"/>
-      <c r="CB118" s="36"/>
-      <c r="CC118" s="36"/>
-      <c r="CD118" s="35">
+      <c r="CA118" s="26"/>
+      <c r="CB118" s="26"/>
+      <c r="CC118" s="26"/>
+      <c r="CD118" s="24">
         <v>2020</v>
       </c>
-      <c r="CE118" s="35"/>
-      <c r="CF118" s="35"/>
-      <c r="CG118" s="35"/>
+      <c r="CE118" s="24"/>
+      <c r="CF118" s="24"/>
+      <c r="CG118" s="24"/>
       <c r="CH118" s="22">
         <v>2021</v>
       </c>
@@ -39905,15 +39981,16 @@
       <c r="CM118" s="22"/>
       <c r="CN118" s="22"/>
       <c r="CO118" s="22"/>
-      <c r="CP118" s="26">
+      <c r="CP118" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ118" s="26"/>
-      <c r="CR118" s="26"/>
-      <c r="CS118" s="26"/>
-      <c r="CT118" s="26">
+      <c r="CQ118" s="22"/>
+      <c r="CR118" s="22"/>
+      <c r="CS118" s="22"/>
+      <c r="CT118" s="22">
         <v>2024</v>
       </c>
+      <c r="CU118" s="22"/>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
@@ -40195,20 +40272,23 @@
       <c r="CO119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP119" s="27" t="s">
+      <c r="CP119" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CQ119" s="27" t="s">
+      <c r="CQ119" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CR119" s="27" t="s">
+      <c r="CR119" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CS119" s="27" t="s">
+      <c r="CS119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CT119" s="27" t="s">
+      <c r="CT119" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="CU119" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40494,22 +40574,24 @@
       <c r="CO121" s="16">
         <v>54.893731193400306</v>
       </c>
-      <c r="CP121" s="34">
+      <c r="CP121" s="16">
         <v>51.29588013927777</v>
       </c>
-      <c r="CQ121" s="34">
+      <c r="CQ121" s="16">
         <v>51.307773175066394</v>
       </c>
-      <c r="CR121" s="34">
+      <c r="CR121" s="16">
         <v>57.740293935493185</v>
       </c>
-      <c r="CS121" s="34">
+      <c r="CS121" s="16">
         <v>56.055362160773683</v>
       </c>
-      <c r="CT121" s="34">
-        <v>51.926347065215609</v>
-      </c>
-      <c r="CU121" s="10"/>
+      <c r="CT121" s="16">
+        <v>51.46908702775994</v>
+      </c>
+      <c r="CU121" s="16">
+        <v>52.140888261689952</v>
+      </c>
       <c r="CV121" s="10"/>
       <c r="CW121" s="10"/>
       <c r="CX121" s="10"/>
@@ -40846,22 +40928,24 @@
       <c r="CO122" s="16">
         <v>3.8792728110067012</v>
       </c>
-      <c r="CP122" s="34">
+      <c r="CP122" s="16">
         <v>5.4373725193923148</v>
       </c>
-      <c r="CQ122" s="34">
+      <c r="CQ122" s="16">
         <v>3.5378407078331162</v>
       </c>
-      <c r="CR122" s="34">
+      <c r="CR122" s="16">
         <v>3.7049447495305969</v>
       </c>
-      <c r="CS122" s="34">
+      <c r="CS122" s="16">
         <v>3.9540950605239078</v>
       </c>
-      <c r="CT122" s="34">
-        <v>5.7523275646165803</v>
-      </c>
-      <c r="CU122" s="10"/>
+      <c r="CT122" s="16">
+        <v>5.7650422447247784</v>
+      </c>
+      <c r="CU122" s="16">
+        <v>4.6733251501914204</v>
+      </c>
       <c r="CV122" s="10"/>
       <c r="CW122" s="10"/>
       <c r="CX122" s="10"/>
@@ -41198,22 +41282,24 @@
       <c r="CO123" s="16">
         <v>13.825274615371264</v>
       </c>
-      <c r="CP123" s="34">
+      <c r="CP123" s="16">
         <v>14.917715591789987</v>
       </c>
-      <c r="CQ123" s="34">
+      <c r="CQ123" s="16">
         <v>14.493051412808047</v>
       </c>
-      <c r="CR123" s="34">
+      <c r="CR123" s="16">
         <v>13.082829011796774</v>
       </c>
-      <c r="CS123" s="34">
+      <c r="CS123" s="16">
         <v>14.280789822669368</v>
       </c>
-      <c r="CT123" s="34">
-        <v>14.932059802098877</v>
-      </c>
-      <c r="CU123" s="10"/>
+      <c r="CT123" s="16">
+        <v>15.317921470075134</v>
+      </c>
+      <c r="CU123" s="16">
+        <v>15.570220166433135</v>
+      </c>
       <c r="CV123" s="10"/>
       <c r="CW123" s="10"/>
       <c r="CX123" s="10"/>
@@ -41550,22 +41636,24 @@
       <c r="CO124" s="16">
         <v>23.796100113693839</v>
       </c>
-      <c r="CP124" s="34">
+      <c r="CP124" s="16">
         <v>24.506381935192522</v>
       </c>
-      <c r="CQ124" s="34">
+      <c r="CQ124" s="16">
         <v>26.089737548738768</v>
       </c>
-      <c r="CR124" s="34">
+      <c r="CR124" s="16">
         <v>22.396337206521469</v>
       </c>
-      <c r="CS124" s="34">
+      <c r="CS124" s="16">
         <v>22.315986809667653</v>
       </c>
-      <c r="CT124" s="34">
-        <v>23.618641973874318</v>
-      </c>
-      <c r="CU124" s="10"/>
+      <c r="CT124" s="16">
+        <v>23.668991250389148</v>
+      </c>
+      <c r="CU124" s="16">
+        <v>23.496744768453819</v>
+      </c>
       <c r="CV124" s="10"/>
       <c r="CW124" s="10"/>
       <c r="CX124" s="10"/>
@@ -41902,22 +41990,24 @@
       <c r="CO125" s="16">
         <v>3.6056212665278946</v>
       </c>
-      <c r="CP125" s="34">
+      <c r="CP125" s="16">
         <v>3.8426498143474035</v>
       </c>
-      <c r="CQ125" s="34">
+      <c r="CQ125" s="16">
         <v>4.5715971555536763</v>
       </c>
-      <c r="CR125" s="34">
+      <c r="CR125" s="16">
         <v>3.0755950966579753</v>
       </c>
-      <c r="CS125" s="34">
+      <c r="CS125" s="16">
         <v>3.3937661463653956</v>
       </c>
-      <c r="CT125" s="34">
-        <v>3.7706235941946207</v>
-      </c>
-      <c r="CU125" s="10"/>
+      <c r="CT125" s="16">
+        <v>3.7789580070509934</v>
+      </c>
+      <c r="CU125" s="16">
+        <v>4.1188216532316755</v>
+      </c>
       <c r="CV125" s="10"/>
       <c r="CW125" s="10"/>
       <c r="CX125" s="10"/>
@@ -42067,11 +42157,11 @@
       <c r="CM126" s="10"/>
       <c r="CN126" s="10"/>
       <c r="CO126" s="10"/>
-      <c r="CP126" s="29"/>
-      <c r="CQ126" s="29"/>
-      <c r="CR126" s="29"/>
-      <c r="CS126" s="29"/>
-      <c r="CT126" s="29"/>
+      <c r="CP126" s="10"/>
+      <c r="CQ126" s="10"/>
+      <c r="CR126" s="10"/>
+      <c r="CS126" s="10"/>
+      <c r="CT126" s="10"/>
       <c r="CU126" s="10"/>
       <c r="CV126" s="10"/>
       <c r="CW126" s="10"/>
@@ -42409,22 +42499,24 @@
       <c r="CO127" s="16">
         <v>100</v>
       </c>
-      <c r="CP127" s="34">
+      <c r="CP127" s="16">
         <v>100</v>
       </c>
-      <c r="CQ127" s="34">
+      <c r="CQ127" s="16">
         <v>100</v>
       </c>
-      <c r="CR127" s="34">
+      <c r="CR127" s="16">
         <v>100</v>
       </c>
-      <c r="CS127" s="34">
+      <c r="CS127" s="16">
         <v>100</v>
       </c>
-      <c r="CT127" s="34">
+      <c r="CT127" s="16">
         <v>100</v>
       </c>
-      <c r="CU127" s="10"/>
+      <c r="CU127" s="16">
+        <v>100</v>
+      </c>
       <c r="CV127" s="10"/>
       <c r="CW127" s="10"/>
       <c r="CX127" s="10"/>
@@ -42575,11 +42667,12 @@
       <c r="CM128" s="13"/>
       <c r="CN128" s="13"/>
       <c r="CO128" s="13"/>
-      <c r="CP128" s="32"/>
-      <c r="CQ128" s="32"/>
-      <c r="CR128" s="32"/>
-      <c r="CS128" s="32"/>
-      <c r="CT128" s="32"/>
+      <c r="CP128" s="13"/>
+      <c r="CQ128" s="13"/>
+      <c r="CR128" s="13"/>
+      <c r="CS128" s="13"/>
+      <c r="CT128" s="13"/>
+      <c r="CU128" s="13"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -42679,11 +42772,11 @@
       <c r="CM130" s="10"/>
       <c r="CN130" s="10"/>
       <c r="CO130" s="10"/>
-      <c r="CP130" s="29"/>
-      <c r="CQ130" s="29"/>
-      <c r="CR130" s="29"/>
-      <c r="CS130" s="29"/>
-      <c r="CT130" s="29"/>
+      <c r="CP130" s="10"/>
+      <c r="CQ130" s="10"/>
+      <c r="CR130" s="10"/>
+      <c r="CS130" s="10"/>
+      <c r="CT130" s="10"/>
       <c r="CU130" s="10"/>
       <c r="CV130" s="10"/>
       <c r="CW130" s="10"/>
@@ -42834,11 +42927,11 @@
       <c r="CM131" s="10"/>
       <c r="CN131" s="10"/>
       <c r="CO131" s="10"/>
-      <c r="CP131" s="29"/>
-      <c r="CQ131" s="29"/>
-      <c r="CR131" s="29"/>
-      <c r="CS131" s="29"/>
-      <c r="CT131" s="29"/>
+      <c r="CP131" s="10"/>
+      <c r="CQ131" s="10"/>
+      <c r="CR131" s="10"/>
+      <c r="CS131" s="10"/>
+      <c r="CT131" s="10"/>
       <c r="CU131" s="10"/>
       <c r="CV131" s="10"/>
       <c r="CW131" s="10"/>
@@ -42908,7 +43001,7 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:154" x14ac:dyDescent="0.2">
@@ -42918,7 +43011,7 @@
     </row>
     <row r="137" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:154" x14ac:dyDescent="0.2">
@@ -42928,132 +43021,132 @@
     </row>
     <row r="140" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="35">
+      <c r="B140" s="24">
         <v>2000</v>
       </c>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="35">
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="24">
         <v>2001</v>
       </c>
-      <c r="G140" s="36"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
-      <c r="J140" s="35">
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="26"/>
+      <c r="J140" s="24">
         <v>2002</v>
       </c>
-      <c r="K140" s="36"/>
-      <c r="L140" s="36"/>
-      <c r="M140" s="36"/>
-      <c r="N140" s="35">
+      <c r="K140" s="26"/>
+      <c r="L140" s="26"/>
+      <c r="M140" s="26"/>
+      <c r="N140" s="24">
         <v>2003</v>
       </c>
-      <c r="O140" s="36"/>
-      <c r="P140" s="36"/>
-      <c r="Q140" s="36"/>
-      <c r="R140" s="35">
+      <c r="O140" s="26"/>
+      <c r="P140" s="26"/>
+      <c r="Q140" s="26"/>
+      <c r="R140" s="24">
         <v>2004</v>
       </c>
-      <c r="S140" s="36"/>
-      <c r="T140" s="36"/>
-      <c r="U140" s="36"/>
-      <c r="V140" s="35">
+      <c r="S140" s="26"/>
+      <c r="T140" s="26"/>
+      <c r="U140" s="26"/>
+      <c r="V140" s="24">
         <v>2005</v>
       </c>
-      <c r="W140" s="36"/>
-      <c r="X140" s="36"/>
-      <c r="Y140" s="36"/>
-      <c r="Z140" s="35">
+      <c r="W140" s="26"/>
+      <c r="X140" s="26"/>
+      <c r="Y140" s="26"/>
+      <c r="Z140" s="24">
         <v>2006</v>
       </c>
-      <c r="AA140" s="36"/>
-      <c r="AB140" s="36"/>
-      <c r="AC140" s="36"/>
-      <c r="AD140" s="35">
+      <c r="AA140" s="26"/>
+      <c r="AB140" s="26"/>
+      <c r="AC140" s="26"/>
+      <c r="AD140" s="24">
         <v>2007</v>
       </c>
-      <c r="AE140" s="36"/>
-      <c r="AF140" s="36"/>
-      <c r="AG140" s="36"/>
-      <c r="AH140" s="35">
+      <c r="AE140" s="26"/>
+      <c r="AF140" s="26"/>
+      <c r="AG140" s="26"/>
+      <c r="AH140" s="24">
         <v>2008</v>
       </c>
-      <c r="AI140" s="36"/>
-      <c r="AJ140" s="36"/>
-      <c r="AK140" s="36"/>
-      <c r="AL140" s="35">
+      <c r="AI140" s="26"/>
+      <c r="AJ140" s="26"/>
+      <c r="AK140" s="26"/>
+      <c r="AL140" s="24">
         <v>2009</v>
       </c>
-      <c r="AM140" s="36"/>
-      <c r="AN140" s="36"/>
-      <c r="AO140" s="36"/>
-      <c r="AP140" s="35">
+      <c r="AM140" s="26"/>
+      <c r="AN140" s="26"/>
+      <c r="AO140" s="26"/>
+      <c r="AP140" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="36"/>
-      <c r="AR140" s="36"/>
-      <c r="AS140" s="36"/>
-      <c r="AT140" s="35">
+      <c r="AQ140" s="26"/>
+      <c r="AR140" s="26"/>
+      <c r="AS140" s="26"/>
+      <c r="AT140" s="24">
         <v>2011</v>
       </c>
-      <c r="AU140" s="36"/>
-      <c r="AV140" s="36"/>
-      <c r="AW140" s="36"/>
-      <c r="AX140" s="35">
+      <c r="AU140" s="26"/>
+      <c r="AV140" s="26"/>
+      <c r="AW140" s="26"/>
+      <c r="AX140" s="24">
         <v>2012</v>
       </c>
-      <c r="AY140" s="36"/>
-      <c r="AZ140" s="36"/>
-      <c r="BA140" s="36"/>
-      <c r="BB140" s="35">
+      <c r="AY140" s="26"/>
+      <c r="AZ140" s="26"/>
+      <c r="BA140" s="26"/>
+      <c r="BB140" s="24">
         <v>2013</v>
       </c>
-      <c r="BC140" s="36"/>
-      <c r="BD140" s="36"/>
-      <c r="BE140" s="36"/>
-      <c r="BF140" s="35">
+      <c r="BC140" s="26"/>
+      <c r="BD140" s="26"/>
+      <c r="BE140" s="26"/>
+      <c r="BF140" s="24">
         <v>2014</v>
       </c>
-      <c r="BG140" s="36"/>
-      <c r="BH140" s="36"/>
-      <c r="BI140" s="36"/>
-      <c r="BJ140" s="35">
+      <c r="BG140" s="26"/>
+      <c r="BH140" s="26"/>
+      <c r="BI140" s="26"/>
+      <c r="BJ140" s="24">
         <v>2015</v>
       </c>
-      <c r="BK140" s="36"/>
-      <c r="BL140" s="36"/>
-      <c r="BM140" s="36"/>
-      <c r="BN140" s="35">
+      <c r="BK140" s="26"/>
+      <c r="BL140" s="26"/>
+      <c r="BM140" s="26"/>
+      <c r="BN140" s="24">
         <v>2016</v>
       </c>
-      <c r="BO140" s="36"/>
-      <c r="BP140" s="36"/>
-      <c r="BQ140" s="36"/>
-      <c r="BR140" s="35">
+      <c r="BO140" s="26"/>
+      <c r="BP140" s="26"/>
+      <c r="BQ140" s="26"/>
+      <c r="BR140" s="24">
         <v>2017</v>
       </c>
-      <c r="BS140" s="36"/>
-      <c r="BT140" s="36"/>
-      <c r="BU140" s="36"/>
-      <c r="BV140" s="35">
+      <c r="BS140" s="26"/>
+      <c r="BT140" s="26"/>
+      <c r="BU140" s="26"/>
+      <c r="BV140" s="24">
         <v>2018</v>
       </c>
-      <c r="BW140" s="36"/>
-      <c r="BX140" s="36"/>
-      <c r="BY140" s="36"/>
-      <c r="BZ140" s="35">
+      <c r="BW140" s="26"/>
+      <c r="BX140" s="26"/>
+      <c r="BY140" s="26"/>
+      <c r="BZ140" s="24">
         <v>2019</v>
       </c>
-      <c r="CA140" s="36"/>
-      <c r="CB140" s="36"/>
-      <c r="CC140" s="36"/>
-      <c r="CD140" s="35">
+      <c r="CA140" s="26"/>
+      <c r="CB140" s="26"/>
+      <c r="CC140" s="26"/>
+      <c r="CD140" s="24">
         <v>2020</v>
       </c>
-      <c r="CE140" s="35"/>
-      <c r="CF140" s="35"/>
-      <c r="CG140" s="35"/>
+      <c r="CE140" s="24"/>
+      <c r="CF140" s="24"/>
+      <c r="CG140" s="24"/>
       <c r="CH140" s="22">
         <v>2021</v>
       </c>
@@ -43066,15 +43159,16 @@
       <c r="CM140" s="22"/>
       <c r="CN140" s="22"/>
       <c r="CO140" s="22"/>
-      <c r="CP140" s="26">
+      <c r="CP140" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ140" s="26"/>
-      <c r="CR140" s="26"/>
-      <c r="CS140" s="26"/>
-      <c r="CT140" s="26">
+      <c r="CQ140" s="22"/>
+      <c r="CR140" s="22"/>
+      <c r="CS140" s="22"/>
+      <c r="CT140" s="22">
         <v>2024</v>
       </c>
+      <c r="CU140" s="22"/>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
@@ -43356,20 +43450,23 @@
       <c r="CO141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP141" s="27" t="s">
+      <c r="CP141" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CQ141" s="27" t="s">
+      <c r="CQ141" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CR141" s="27" t="s">
+      <c r="CR141" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CS141" s="27" t="s">
+      <c r="CS141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CT141" s="27" t="s">
+      <c r="CT141" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="CU141" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43655,22 +43752,24 @@
       <c r="CO143" s="16">
         <v>53.726991783303212</v>
       </c>
-      <c r="CP143" s="34">
+      <c r="CP143" s="16">
         <v>48.390050740836394</v>
       </c>
-      <c r="CQ143" s="34">
+      <c r="CQ143" s="16">
         <v>48.016922151970256</v>
       </c>
-      <c r="CR143" s="34">
+      <c r="CR143" s="16">
         <v>52.702799888629535</v>
       </c>
-      <c r="CS143" s="34">
+      <c r="CS143" s="16">
         <v>55.007510405142433</v>
       </c>
-      <c r="CT143" s="34">
-        <v>49.052168109194156</v>
-      </c>
-      <c r="CU143" s="10"/>
+      <c r="CT143" s="16">
+        <v>48.605010003505896</v>
+      </c>
+      <c r="CU143" s="16">
+        <v>48.522622243616439</v>
+      </c>
       <c r="CV143" s="10"/>
       <c r="CW143" s="10"/>
       <c r="CX143" s="10"/>
@@ -44007,22 +44106,24 @@
       <c r="CO144" s="16">
         <v>5.0775096759433875</v>
       </c>
-      <c r="CP144" s="34">
+      <c r="CP144" s="16">
         <v>6.0156207521763321</v>
       </c>
-      <c r="CQ144" s="34">
+      <c r="CQ144" s="16">
         <v>4.5493971896593939</v>
       </c>
-      <c r="CR144" s="34">
+      <c r="CR144" s="16">
         <v>3.5275100776625461</v>
       </c>
-      <c r="CS144" s="34">
+      <c r="CS144" s="16">
         <v>4.839708663026232</v>
       </c>
-      <c r="CT144" s="34">
-        <v>5.8492566690002104</v>
-      </c>
-      <c r="CU144" s="10"/>
+      <c r="CT144" s="16">
+        <v>5.8603519657129981</v>
+      </c>
+      <c r="CU144" s="16">
+        <v>6.4329281123727959</v>
+      </c>
       <c r="CV144" s="10"/>
       <c r="CW144" s="10"/>
       <c r="CX144" s="10"/>
@@ -44359,22 +44460,24 @@
       <c r="CO145" s="16">
         <v>11.967137632032939</v>
       </c>
-      <c r="CP145" s="34">
+      <c r="CP145" s="16">
         <v>14.574049791916199</v>
       </c>
-      <c r="CQ145" s="34">
+      <c r="CQ145" s="16">
         <v>14.76135872138085</v>
       </c>
-      <c r="CR145" s="34">
+      <c r="CR145" s="16">
         <v>13.934407713278436</v>
       </c>
-      <c r="CS145" s="34">
+      <c r="CS145" s="16">
         <v>12.41076903238149</v>
       </c>
-      <c r="CT145" s="34">
-        <v>14.923192365893462</v>
-      </c>
-      <c r="CU145" s="10"/>
+      <c r="CT145" s="16">
+        <v>15.304036446980223</v>
+      </c>
+      <c r="CU145" s="16">
+        <v>15.688114409660392</v>
+      </c>
       <c r="CV145" s="10"/>
       <c r="CW145" s="10"/>
       <c r="CX145" s="10"/>
@@ -44711,22 +44814,24 @@
       <c r="CO146" s="16">
         <v>24.898889742803068</v>
       </c>
-      <c r="CP146" s="34">
+      <c r="CP146" s="16">
         <v>26.555737788526113</v>
       </c>
-      <c r="CQ146" s="34">
+      <c r="CQ146" s="16">
         <v>26.807360106500777</v>
       </c>
-      <c r="CR146" s="34">
+      <c r="CR146" s="16">
         <v>25.851010671962271</v>
       </c>
-      <c r="CS146" s="34">
+      <c r="CS146" s="16">
         <v>23.561653894484071</v>
       </c>
-      <c r="CT146" s="34">
-        <v>25.711535226400567</v>
-      </c>
-      <c r="CU146" s="10"/>
+      <c r="CT146" s="16">
+        <v>25.758286602498657</v>
+      </c>
+      <c r="CU146" s="16">
+        <v>24.06994696397512</v>
+      </c>
       <c r="CV146" s="10"/>
       <c r="CW146" s="10"/>
       <c r="CX146" s="10"/>
@@ -45063,22 +45168,24 @@
       <c r="CO147" s="16">
         <v>4.3294711659173979</v>
       </c>
-      <c r="CP147" s="34">
+      <c r="CP147" s="16">
         <v>4.4645409265449638</v>
       </c>
-      <c r="CQ147" s="34">
+      <c r="CQ147" s="16">
         <v>5.8649618304887357</v>
       </c>
-      <c r="CR147" s="34">
+      <c r="CR147" s="16">
         <v>3.9842716484672094</v>
       </c>
-      <c r="CS147" s="34">
+      <c r="CS147" s="16">
         <v>4.1803580049657656</v>
       </c>
-      <c r="CT147" s="34">
-        <v>4.4638476295115934</v>
-      </c>
-      <c r="CU147" s="10"/>
+      <c r="CT147" s="16">
+        <v>4.4723149813022216</v>
+      </c>
+      <c r="CU147" s="16">
+        <v>5.2863882703752534</v>
+      </c>
       <c r="CV147" s="10"/>
       <c r="CW147" s="10"/>
       <c r="CX147" s="10"/>
@@ -45228,11 +45335,11 @@
       <c r="CM148" s="10"/>
       <c r="CN148" s="10"/>
       <c r="CO148" s="10"/>
-      <c r="CP148" s="29"/>
-      <c r="CQ148" s="29"/>
-      <c r="CR148" s="29"/>
-      <c r="CS148" s="29"/>
-      <c r="CT148" s="29"/>
+      <c r="CP148" s="10"/>
+      <c r="CQ148" s="10"/>
+      <c r="CR148" s="10"/>
+      <c r="CS148" s="10"/>
+      <c r="CT148" s="10"/>
       <c r="CU148" s="10"/>
       <c r="CV148" s="10"/>
       <c r="CW148" s="10"/>
@@ -45570,22 +45677,24 @@
       <c r="CO149" s="16">
         <v>100</v>
       </c>
-      <c r="CP149" s="34">
+      <c r="CP149" s="16">
         <v>100</v>
       </c>
-      <c r="CQ149" s="34">
+      <c r="CQ149" s="16">
         <v>100</v>
       </c>
-      <c r="CR149" s="34">
+      <c r="CR149" s="16">
         <v>100</v>
       </c>
-      <c r="CS149" s="34">
+      <c r="CS149" s="16">
         <v>100</v>
       </c>
-      <c r="CT149" s="34">
+      <c r="CT149" s="16">
         <v>100</v>
       </c>
-      <c r="CU149" s="10"/>
+      <c r="CU149" s="16">
+        <v>100</v>
+      </c>
       <c r="CV149" s="10"/>
       <c r="CW149" s="10"/>
       <c r="CX149" s="10"/>
@@ -45736,11 +45845,12 @@
       <c r="CM150" s="13"/>
       <c r="CN150" s="13"/>
       <c r="CO150" s="13"/>
-      <c r="CP150" s="32"/>
-      <c r="CQ150" s="32"/>
-      <c r="CR150" s="32"/>
-      <c r="CS150" s="32"/>
-      <c r="CT150" s="32"/>
+      <c r="CP150" s="13"/>
+      <c r="CQ150" s="13"/>
+      <c r="CR150" s="13"/>
+      <c r="CS150" s="13"/>
+      <c r="CT150" s="13"/>
+      <c r="CU150" s="13"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -45841,12 +45951,12 @@
       <c r="CM152" s="1"/>
       <c r="CN152" s="1"/>
       <c r="CO152" s="1"/>
-      <c r="CP152" s="24"/>
-      <c r="CQ152" s="24"/>
-      <c r="CR152" s="24"/>
-      <c r="CS152" s="24"/>
-      <c r="CT152" s="24"/>
-      <c r="CU152" s="17"/>
+      <c r="CP152" s="1"/>
+      <c r="CQ152" s="1"/>
+      <c r="CR152" s="1"/>
+      <c r="CS152" s="1"/>
+      <c r="CT152" s="1"/>
+      <c r="CU152" s="1"/>
       <c r="CV152" s="17"/>
       <c r="CW152" s="17"/>
       <c r="CX152" s="17"/>
@@ -45997,12 +46107,12 @@
       <c r="CM153" s="1"/>
       <c r="CN153" s="1"/>
       <c r="CO153" s="1"/>
-      <c r="CP153" s="24"/>
-      <c r="CQ153" s="24"/>
-      <c r="CR153" s="24"/>
-      <c r="CS153" s="24"/>
-      <c r="CT153" s="24"/>
-      <c r="CU153" s="17"/>
+      <c r="CP153" s="1"/>
+      <c r="CQ153" s="1"/>
+      <c r="CR153" s="1"/>
+      <c r="CS153" s="1"/>
+      <c r="CT153" s="1"/>
+      <c r="CU153" s="1"/>
       <c r="CV153" s="17"/>
       <c r="CW153" s="17"/>
       <c r="CX153" s="17"/>
@@ -46061,6 +46171,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ140:BM140"/>
+    <mergeCell ref="BN140:BQ140"/>
+    <mergeCell ref="BJ118:BM118"/>
+    <mergeCell ref="BN118:BQ118"/>
+    <mergeCell ref="BB53:BE53"/>
+    <mergeCell ref="BF53:BI53"/>
+    <mergeCell ref="BJ53:BM53"/>
+    <mergeCell ref="BN53:BQ53"/>
+    <mergeCell ref="BF31:BI31"/>
+    <mergeCell ref="BJ31:BM31"/>
+    <mergeCell ref="BN31:BQ31"/>
+    <mergeCell ref="BB140:BE140"/>
+    <mergeCell ref="BN96:BQ96"/>
+    <mergeCell ref="BN75:BQ75"/>
+    <mergeCell ref="Z140:AC140"/>
+    <mergeCell ref="AD140:AG140"/>
+    <mergeCell ref="AH140:AK140"/>
+    <mergeCell ref="BB96:BE96"/>
+    <mergeCell ref="BF140:BI140"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="J140:M140"/>
+    <mergeCell ref="N140:Q140"/>
+    <mergeCell ref="R140:U140"/>
+    <mergeCell ref="V140:Y140"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="R118:U118"/>
+    <mergeCell ref="V118:Y118"/>
+    <mergeCell ref="AL140:AO140"/>
+    <mergeCell ref="AP140:AS140"/>
+    <mergeCell ref="AT140:AW140"/>
+    <mergeCell ref="AX140:BA140"/>
+    <mergeCell ref="AL118:AO118"/>
+    <mergeCell ref="AP118:AS118"/>
+    <mergeCell ref="AT118:AW118"/>
+    <mergeCell ref="AX118:BA118"/>
+    <mergeCell ref="BB118:BE118"/>
+    <mergeCell ref="BF118:BI118"/>
+    <mergeCell ref="V53:Y53"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="V96:Y96"/>
+    <mergeCell ref="Z96:AC96"/>
+    <mergeCell ref="Z118:AC118"/>
+    <mergeCell ref="AD118:AG118"/>
+    <mergeCell ref="AH118:AK118"/>
+    <mergeCell ref="AL75:AO75"/>
+    <mergeCell ref="AP75:AS75"/>
+    <mergeCell ref="AT75:AW75"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="AP96:AS96"/>
+    <mergeCell ref="AT96:AW96"/>
+    <mergeCell ref="AX96:BA96"/>
+    <mergeCell ref="BF75:BI75"/>
+    <mergeCell ref="BJ75:BM75"/>
+    <mergeCell ref="AD96:AG96"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="R53:U53"/>
+    <mergeCell ref="AT31:AW31"/>
+    <mergeCell ref="AX31:BA31"/>
+    <mergeCell ref="BB31:BE31"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V75:Y75"/>
+    <mergeCell ref="Z75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AK75"/>
+    <mergeCell ref="AX75:BA75"/>
+    <mergeCell ref="BB75:BE75"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AL53:AO53"/>
+    <mergeCell ref="AP53:AS53"/>
+    <mergeCell ref="AT53:AW53"/>
+    <mergeCell ref="AX53:BA53"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AH53:AK53"/>
+    <mergeCell ref="BV53:BY53"/>
+    <mergeCell ref="BR53:BU53"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR96:BU96"/>
+    <mergeCell ref="BV96:BY96"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="Z31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AH31:AK31"/>
+    <mergeCell ref="AL31:AO31"/>
+    <mergeCell ref="AP31:AS31"/>
+    <mergeCell ref="BF96:BI96"/>
+    <mergeCell ref="BJ96:BM96"/>
     <mergeCell ref="CD53:CG53"/>
     <mergeCell ref="CD75:CG75"/>
     <mergeCell ref="BZ53:CC53"/>
@@ -46085,129 +46318,6 @@
     <mergeCell ref="BR31:BU31"/>
     <mergeCell ref="BV31:BY31"/>
     <mergeCell ref="BZ31:CC31"/>
-    <mergeCell ref="BV53:BY53"/>
-    <mergeCell ref="BR53:BU53"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR96:BU96"/>
-    <mergeCell ref="BV96:BY96"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="Z31:AC31"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AH31:AK31"/>
-    <mergeCell ref="AL31:AO31"/>
-    <mergeCell ref="AP31:AS31"/>
-    <mergeCell ref="BF96:BI96"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="AT31:AW31"/>
-    <mergeCell ref="AX31:BA31"/>
-    <mergeCell ref="BB31:BE31"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V75:Y75"/>
-    <mergeCell ref="Z75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AK75"/>
-    <mergeCell ref="AX75:BA75"/>
-    <mergeCell ref="BB75:BE75"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="AL53:AO53"/>
-    <mergeCell ref="AP53:AS53"/>
-    <mergeCell ref="AT53:AW53"/>
-    <mergeCell ref="AX53:BA53"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="R53:U53"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AH53:AK53"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="AP96:AS96"/>
-    <mergeCell ref="AT96:AW96"/>
-    <mergeCell ref="AX96:BA96"/>
-    <mergeCell ref="BF75:BI75"/>
-    <mergeCell ref="BJ75:BM75"/>
-    <mergeCell ref="AD96:AG96"/>
-    <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="AL96:AO96"/>
-    <mergeCell ref="V53:Y53"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="V96:Y96"/>
-    <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="Z118:AC118"/>
-    <mergeCell ref="AD118:AG118"/>
-    <mergeCell ref="AH118:AK118"/>
-    <mergeCell ref="BN75:BQ75"/>
-    <mergeCell ref="AL75:AO75"/>
-    <mergeCell ref="AP75:AS75"/>
-    <mergeCell ref="AT75:AW75"/>
-    <mergeCell ref="AL140:AO140"/>
-    <mergeCell ref="AP140:AS140"/>
-    <mergeCell ref="AT140:AW140"/>
-    <mergeCell ref="AX140:BA140"/>
-    <mergeCell ref="BB140:BE140"/>
-    <mergeCell ref="BN96:BQ96"/>
-    <mergeCell ref="AL118:AO118"/>
-    <mergeCell ref="AP118:AS118"/>
-    <mergeCell ref="AT118:AW118"/>
-    <mergeCell ref="AX118:BA118"/>
-    <mergeCell ref="BB118:BE118"/>
-    <mergeCell ref="BF118:BI118"/>
-    <mergeCell ref="Z140:AC140"/>
-    <mergeCell ref="AD140:AG140"/>
-    <mergeCell ref="AH140:AK140"/>
-    <mergeCell ref="BB96:BE96"/>
-    <mergeCell ref="BF140:BI140"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="J140:M140"/>
-    <mergeCell ref="N140:Q140"/>
-    <mergeCell ref="R140:U140"/>
-    <mergeCell ref="V140:Y140"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:Q118"/>
-    <mergeCell ref="R118:U118"/>
-    <mergeCell ref="V118:Y118"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ140:BM140"/>
-    <mergeCell ref="BN140:BQ140"/>
-    <mergeCell ref="BJ118:BM118"/>
-    <mergeCell ref="BN118:BQ118"/>
-    <mergeCell ref="BB53:BE53"/>
-    <mergeCell ref="BF53:BI53"/>
-    <mergeCell ref="BJ53:BM53"/>
-    <mergeCell ref="BN53:BQ53"/>
-    <mergeCell ref="BF31:BI31"/>
-    <mergeCell ref="BJ31:BM31"/>
-    <mergeCell ref="BN31:BQ31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EC9BAC-3B0B-4FE4-B75A-2E99FE0D1728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A1982-04DC-4885-BF09-E2F6CFFED41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="8" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CT$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CV$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -629,13 +629,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -758,9 +758,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23620,15 +23637,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CP1" sqref="CP1:CU1048576"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
     <col min="2" max="93" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="99" width="9" style="1" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="100" width="10.109375" style="24" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23747,12 +23764,13 @@
       <c r="CM6" s="4"/>
       <c r="CN6" s="4"/>
       <c r="CO6" s="4"/>
-      <c r="CP6" s="4"/>
-      <c r="CQ6" s="4"/>
-      <c r="CR6" s="4"/>
-      <c r="CS6" s="4"/>
-      <c r="CT6" s="4"/>
-      <c r="CU6" s="4"/>
+      <c r="CP6" s="25"/>
+      <c r="CQ6" s="25"/>
+      <c r="CR6" s="25"/>
+      <c r="CS6" s="25"/>
+      <c r="CT6" s="25"/>
+      <c r="CU6" s="25"/>
+      <c r="CV6" s="25"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23850,12 +23868,13 @@
       <c r="CM7" s="4"/>
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
-      <c r="CP7" s="4"/>
-      <c r="CQ7" s="4"/>
-      <c r="CR7" s="4"/>
-      <c r="CS7" s="4"/>
-      <c r="CT7" s="4"/>
-      <c r="CU7" s="4"/>
+      <c r="CP7" s="25"/>
+      <c r="CQ7" s="25"/>
+      <c r="CR7" s="25"/>
+      <c r="CS7" s="25"/>
+      <c r="CT7" s="25"/>
+      <c r="CU7" s="25"/>
+      <c r="CV7" s="25"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23950,141 +23969,142 @@
       <c r="CM8" s="4"/>
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
-      <c r="CP8" s="4"/>
-      <c r="CQ8" s="4"/>
-      <c r="CR8" s="4"/>
-      <c r="CS8" s="4"/>
-      <c r="CT8" s="4"/>
-      <c r="CU8" s="4"/>
+      <c r="CP8" s="25"/>
+      <c r="CQ8" s="25"/>
+      <c r="CR8" s="25"/>
+      <c r="CS8" s="25"/>
+      <c r="CT8" s="25"/>
+      <c r="CU8" s="25"/>
+      <c r="CV8" s="25"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="24">
+      <c r="B9" s="35">
         <v>2000</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35">
         <v>2001</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
         <v>2002</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
         <v>2003</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35">
         <v>2004</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24">
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35">
         <v>2005</v>
       </c>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24">
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
         <v>2006</v>
       </c>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24">
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35">
         <v>2007</v>
       </c>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24">
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35">
         <v>2008</v>
       </c>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24">
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35">
         <v>2009</v>
       </c>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24">
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24">
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35">
         <v>2011</v>
       </c>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="24">
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35">
         <v>2012</v>
       </c>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="24"/>
-      <c r="BB9" s="24">
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35">
         <v>2013</v>
       </c>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24">
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35">
         <v>2014</v>
       </c>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="24">
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35">
         <v>2015</v>
       </c>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="24"/>
-      <c r="BN9" s="24">
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35">
         <v>2016</v>
       </c>
-      <c r="BO9" s="24"/>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="24"/>
-      <c r="BR9" s="24">
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35">
         <v>2017</v>
       </c>
-      <c r="BS9" s="24"/>
-      <c r="BT9" s="24"/>
-      <c r="BU9" s="24"/>
-      <c r="BV9" s="24">
+      <c r="BS9" s="35"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35">
         <v>2018</v>
       </c>
-      <c r="BW9" s="24"/>
-      <c r="BX9" s="24"/>
-      <c r="BY9" s="24"/>
-      <c r="BZ9" s="24">
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="35"/>
+      <c r="BZ9" s="35">
         <v>2019</v>
       </c>
-      <c r="CA9" s="24"/>
-      <c r="CB9" s="24"/>
-      <c r="CC9" s="24"/>
-      <c r="CD9" s="24">
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="35"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35">
         <v>2020</v>
       </c>
-      <c r="CE9" s="24"/>
-      <c r="CF9" s="24"/>
-      <c r="CG9" s="24"/>
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
       <c r="CH9" s="22">
         <v>2021</v>
       </c>
@@ -24097,16 +24117,17 @@
       <c r="CM9" s="22"/>
       <c r="CN9" s="22"/>
       <c r="CO9" s="22"/>
-      <c r="CP9" s="22">
+      <c r="CP9" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="22"/>
-      <c r="CR9" s="22"/>
-      <c r="CS9" s="22"/>
-      <c r="CT9" s="22">
+      <c r="CQ9" s="26"/>
+      <c r="CR9" s="26"/>
+      <c r="CS9" s="26"/>
+      <c r="CT9" s="26">
         <v>2024</v>
       </c>
-      <c r="CU9" s="22"/>
+      <c r="CU9" s="26"/>
+      <c r="CV9" s="26"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24388,23 +24409,26 @@
       <c r="CO10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CR10" s="7" t="s">
+      <c r="CR10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CS10" s="7" t="s">
+      <c r="CS10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CT10" s="7" t="s">
+      <c r="CT10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CU10" s="7" t="s">
+      <c r="CU10" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CV10" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24690,25 +24714,27 @@
       <c r="CO12" s="19">
         <v>131260.92863027516</v>
       </c>
-      <c r="CP12" s="19">
+      <c r="CP12" s="28">
         <v>118133.15202230311</v>
       </c>
-      <c r="CQ12" s="19">
+      <c r="CQ12" s="28">
         <v>113537.87118469326</v>
       </c>
-      <c r="CR12" s="19">
+      <c r="CR12" s="28">
         <v>148333.17360806902</v>
       </c>
-      <c r="CS12" s="19">
+      <c r="CS12" s="28">
         <v>150742.0106052983</v>
       </c>
-      <c r="CT12" s="19">
+      <c r="CT12" s="28">
         <v>128395.00966066422</v>
       </c>
-      <c r="CU12" s="19">
-        <v>133607.26076758115</v>
-      </c>
-      <c r="CV12" s="10"/>
+      <c r="CU12" s="28">
+        <v>134223.75512728252</v>
+      </c>
+      <c r="CV12" s="28">
+        <v>156854.20219061751</v>
+      </c>
       <c r="CW12" s="10"/>
       <c r="CX12" s="10"/>
       <c r="CY12" s="10"/>
@@ -25044,25 +25070,27 @@
       <c r="CO13" s="19">
         <v>9276.0492047612261</v>
       </c>
-      <c r="CP13" s="19">
+      <c r="CP13" s="28">
         <v>12522.135358457843</v>
       </c>
-      <c r="CQ13" s="19">
+      <c r="CQ13" s="28">
         <v>7828.8118485937503</v>
       </c>
-      <c r="CR13" s="19">
+      <c r="CR13" s="28">
         <v>9517.8977328102137</v>
       </c>
-      <c r="CS13" s="19">
+      <c r="CS13" s="28">
         <v>10633.206468960327</v>
       </c>
-      <c r="CT13" s="19">
+      <c r="CT13" s="28">
         <v>14381.499603953447</v>
       </c>
-      <c r="CU13" s="19">
+      <c r="CU13" s="28">
         <v>11975.058208820072</v>
       </c>
-      <c r="CV13" s="10"/>
+      <c r="CV13" s="28">
+        <v>11779.74631200132</v>
+      </c>
       <c r="CW13" s="10"/>
       <c r="CX13" s="10"/>
       <c r="CY13" s="10"/>
@@ -25398,25 +25426,27 @@
       <c r="CO14" s="19">
         <v>33058.754526789751</v>
       </c>
-      <c r="CP14" s="19">
+      <c r="CP14" s="28">
         <v>34355.132596331357</v>
       </c>
-      <c r="CQ14" s="19">
+      <c r="CQ14" s="28">
         <v>32071.36273028102</v>
       </c>
-      <c r="CR14" s="19">
+      <c r="CR14" s="28">
         <v>33609.41579652451</v>
       </c>
-      <c r="CS14" s="19">
+      <c r="CS14" s="28">
         <v>38403.37280716536</v>
       </c>
-      <c r="CT14" s="19">
+      <c r="CT14" s="28">
         <v>38212.15391038169</v>
       </c>
-      <c r="CU14" s="19">
+      <c r="CU14" s="28">
         <v>39897.564758476889</v>
       </c>
-      <c r="CV14" s="10"/>
+      <c r="CV14" s="28">
+        <v>37047.591843117363</v>
+      </c>
       <c r="CW14" s="10"/>
       <c r="CX14" s="10"/>
       <c r="CY14" s="10"/>
@@ -25752,25 +25782,27 @@
       <c r="CO15" s="19">
         <v>56900.817831052766</v>
       </c>
-      <c r="CP15" s="19">
+      <c r="CP15" s="28">
         <v>56437.595666673784</v>
       </c>
-      <c r="CQ15" s="19">
+      <c r="CQ15" s="28">
         <v>57733.420839450104</v>
       </c>
-      <c r="CR15" s="19">
+      <c r="CR15" s="28">
         <v>57535.5535728869</v>
       </c>
-      <c r="CS15" s="19">
+      <c r="CS15" s="28">
         <v>60011.327920465068</v>
       </c>
-      <c r="CT15" s="19">
+      <c r="CT15" s="28">
         <v>59044.769117680524</v>
       </c>
-      <c r="CU15" s="19">
-        <v>60208.711629769183</v>
-      </c>
-      <c r="CV15" s="10"/>
+      <c r="CU15" s="28">
+        <v>59704.924607265872</v>
+      </c>
+      <c r="CV15" s="28">
+        <v>59811.194354092964</v>
+      </c>
       <c r="CW15" s="10"/>
       <c r="CX15" s="10"/>
       <c r="CY15" s="10"/>
@@ -26106,25 +26138,27 @@
       <c r="CO16" s="19">
         <v>8621.6984242896724</v>
       </c>
-      <c r="CP16" s="19">
+      <c r="CP16" s="28">
         <v>8849.5281385997096</v>
       </c>
-      <c r="CQ16" s="19">
+      <c r="CQ16" s="28">
         <v>10116.389327295956</v>
       </c>
-      <c r="CR16" s="19">
+      <c r="CR16" s="28">
         <v>7901.1163665077493</v>
       </c>
-      <c r="CS16" s="19">
+      <c r="CS16" s="28">
         <v>9126.3906378845859</v>
       </c>
-      <c r="CT16" s="19">
+      <c r="CT16" s="28">
         <v>9427.0051761528921</v>
       </c>
-      <c r="CU16" s="19">
+      <c r="CU16" s="28">
         <v>10554.183041849237</v>
       </c>
-      <c r="CV16" s="10"/>
+      <c r="CV16" s="28">
+        <v>8231.2071286784885</v>
+      </c>
       <c r="CW16" s="10"/>
       <c r="CX16" s="10"/>
       <c r="CY16" s="10"/>
@@ -26273,13 +26307,13 @@
       <c r="CM17" s="10"/>
       <c r="CN17" s="10"/>
       <c r="CO17" s="10"/>
-      <c r="CP17" s="10"/>
-      <c r="CQ17" s="10"/>
-      <c r="CR17" s="10"/>
-      <c r="CS17" s="10"/>
-      <c r="CT17" s="10"/>
-      <c r="CU17" s="10"/>
-      <c r="CV17" s="10"/>
+      <c r="CP17" s="29"/>
+      <c r="CQ17" s="29"/>
+      <c r="CR17" s="29"/>
+      <c r="CS17" s="29"/>
+      <c r="CT17" s="29"/>
+      <c r="CU17" s="29"/>
+      <c r="CV17" s="29"/>
       <c r="CW17" s="10"/>
       <c r="CX17" s="10"/>
       <c r="CY17" s="10"/>
@@ -26615,25 +26649,27 @@
       <c r="CO18" s="20">
         <v>239118.24861716855</v>
       </c>
-      <c r="CP18" s="20">
+      <c r="CP18" s="30">
         <v>230297.5437823658</v>
       </c>
-      <c r="CQ18" s="20">
+      <c r="CQ18" s="30">
         <v>221287.85593031408</v>
       </c>
-      <c r="CR18" s="20">
+      <c r="CR18" s="30">
         <v>256897.15707679841</v>
       </c>
-      <c r="CS18" s="20">
+      <c r="CS18" s="30">
         <v>268916.30843977362</v>
       </c>
-      <c r="CT18" s="20">
+      <c r="CT18" s="30">
         <v>249460.43746883277</v>
       </c>
-      <c r="CU18" s="20">
-        <v>256242.77840649651</v>
-      </c>
-      <c r="CV18" s="10"/>
+      <c r="CU18" s="30">
+        <v>256355.48574369459</v>
+      </c>
+      <c r="CV18" s="30">
+        <v>273723.94182850764</v>
+      </c>
       <c r="CW18" s="10"/>
       <c r="CX18" s="10"/>
       <c r="CY18" s="10"/>
@@ -26783,12 +26819,13 @@
       <c r="CM19" s="21"/>
       <c r="CN19" s="21"/>
       <c r="CO19" s="21"/>
-      <c r="CP19" s="21"/>
-      <c r="CQ19" s="21"/>
-      <c r="CR19" s="21"/>
-      <c r="CS19" s="21"/>
-      <c r="CT19" s="21"/>
-      <c r="CU19" s="21"/>
+      <c r="CP19" s="31"/>
+      <c r="CQ19" s="31"/>
+      <c r="CR19" s="31"/>
+      <c r="CS19" s="31"/>
+      <c r="CT19" s="31"/>
+      <c r="CU19" s="31"/>
+      <c r="CV19" s="31"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -26888,13 +26925,13 @@
       <c r="CM21" s="10"/>
       <c r="CN21" s="10"/>
       <c r="CO21" s="10"/>
-      <c r="CP21" s="10"/>
-      <c r="CQ21" s="10"/>
-      <c r="CR21" s="10"/>
-      <c r="CS21" s="10"/>
-      <c r="CT21" s="10"/>
-      <c r="CU21" s="10"/>
-      <c r="CV21" s="10"/>
+      <c r="CP21" s="29"/>
+      <c r="CQ21" s="29"/>
+      <c r="CR21" s="29"/>
+      <c r="CS21" s="29"/>
+      <c r="CT21" s="29"/>
+      <c r="CU21" s="29"/>
+      <c r="CV21" s="29"/>
       <c r="CW21" s="10"/>
       <c r="CX21" s="10"/>
       <c r="CY21" s="10"/>
@@ -27043,13 +27080,13 @@
       <c r="CM22" s="10"/>
       <c r="CN22" s="10"/>
       <c r="CO22" s="10"/>
-      <c r="CP22" s="10"/>
-      <c r="CQ22" s="10"/>
-      <c r="CR22" s="10"/>
-      <c r="CS22" s="10"/>
-      <c r="CT22" s="10"/>
-      <c r="CU22" s="10"/>
-      <c r="CV22" s="10"/>
+      <c r="CP22" s="29"/>
+      <c r="CQ22" s="29"/>
+      <c r="CR22" s="29"/>
+      <c r="CS22" s="29"/>
+      <c r="CT22" s="29"/>
+      <c r="CU22" s="29"/>
+      <c r="CV22" s="29"/>
       <c r="CW22" s="10"/>
       <c r="CX22" s="10"/>
       <c r="CY22" s="10"/>
@@ -27213,12 +27250,13 @@
       <c r="CM26" s="4"/>
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
-      <c r="CP26" s="4"/>
-      <c r="CQ26" s="4"/>
-      <c r="CR26" s="4"/>
-      <c r="CS26" s="4"/>
-      <c r="CT26" s="4"/>
-      <c r="CU26" s="4"/>
+      <c r="CP26" s="25"/>
+      <c r="CQ26" s="25"/>
+      <c r="CR26" s="25"/>
+      <c r="CS26" s="25"/>
+      <c r="CT26" s="25"/>
+      <c r="CU26" s="25"/>
+      <c r="CV26" s="25"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27316,12 +27354,13 @@
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
-      <c r="CP27" s="4"/>
-      <c r="CQ27" s="4"/>
-      <c r="CR27" s="4"/>
-      <c r="CS27" s="4"/>
-      <c r="CT27" s="4"/>
-      <c r="CU27" s="4"/>
+      <c r="CP27" s="25"/>
+      <c r="CQ27" s="25"/>
+      <c r="CR27" s="25"/>
+      <c r="CS27" s="25"/>
+      <c r="CT27" s="25"/>
+      <c r="CU27" s="25"/>
+      <c r="CV27" s="25"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -27419,12 +27458,13 @@
       <c r="CM28" s="4"/>
       <c r="CN28" s="4"/>
       <c r="CO28" s="4"/>
-      <c r="CP28" s="4"/>
-      <c r="CQ28" s="4"/>
-      <c r="CR28" s="4"/>
-      <c r="CS28" s="4"/>
-      <c r="CT28" s="4"/>
-      <c r="CU28" s="4"/>
+      <c r="CP28" s="25"/>
+      <c r="CQ28" s="25"/>
+      <c r="CR28" s="25"/>
+      <c r="CS28" s="25"/>
+      <c r="CT28" s="25"/>
+      <c r="CU28" s="25"/>
+      <c r="CV28" s="25"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -27522,12 +27562,13 @@
       <c r="CM29" s="4"/>
       <c r="CN29" s="4"/>
       <c r="CO29" s="4"/>
-      <c r="CP29" s="4"/>
-      <c r="CQ29" s="4"/>
-      <c r="CR29" s="4"/>
-      <c r="CS29" s="4"/>
-      <c r="CT29" s="4"/>
-      <c r="CU29" s="4"/>
+      <c r="CP29" s="25"/>
+      <c r="CQ29" s="25"/>
+      <c r="CR29" s="25"/>
+      <c r="CS29" s="25"/>
+      <c r="CT29" s="25"/>
+      <c r="CU29" s="25"/>
+      <c r="CV29" s="25"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
@@ -27622,141 +27663,142 @@
       <c r="CM30" s="4"/>
       <c r="CN30" s="4"/>
       <c r="CO30" s="4"/>
-      <c r="CP30" s="4"/>
-      <c r="CQ30" s="4"/>
-      <c r="CR30" s="4"/>
-      <c r="CS30" s="4"/>
-      <c r="CT30" s="4"/>
-      <c r="CU30" s="4"/>
+      <c r="CP30" s="25"/>
+      <c r="CQ30" s="25"/>
+      <c r="CR30" s="25"/>
+      <c r="CS30" s="25"/>
+      <c r="CT30" s="25"/>
+      <c r="CU30" s="25"/>
+      <c r="CV30" s="25"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="24">
+      <c r="B31" s="35">
         <v>2000</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="24">
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="35">
         <v>2001</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="24">
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="35">
         <v>2002</v>
       </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="24">
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="35">
         <v>2003</v>
       </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="24">
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="35">
         <v>2004</v>
       </c>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="24">
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="35">
         <v>2005</v>
       </c>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="24">
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="35">
         <v>2006</v>
       </c>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="24">
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="35">
         <v>2007</v>
       </c>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="24">
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="35">
         <v>2008</v>
       </c>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="26"/>
-      <c r="AL31" s="24">
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="35">
         <v>2009</v>
       </c>
-      <c r="AM31" s="26"/>
-      <c r="AN31" s="26"/>
-      <c r="AO31" s="26"/>
-      <c r="AP31" s="24">
+      <c r="AM31" s="37"/>
+      <c r="AN31" s="37"/>
+      <c r="AO31" s="37"/>
+      <c r="AP31" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="26"/>
-      <c r="AR31" s="26"/>
-      <c r="AS31" s="26"/>
-      <c r="AT31" s="24">
+      <c r="AQ31" s="37"/>
+      <c r="AR31" s="37"/>
+      <c r="AS31" s="37"/>
+      <c r="AT31" s="35">
         <v>2011</v>
       </c>
-      <c r="AU31" s="26"/>
-      <c r="AV31" s="26"/>
-      <c r="AW31" s="26"/>
-      <c r="AX31" s="24">
+      <c r="AU31" s="37"/>
+      <c r="AV31" s="37"/>
+      <c r="AW31" s="37"/>
+      <c r="AX31" s="35">
         <v>2012</v>
       </c>
-      <c r="AY31" s="26"/>
-      <c r="AZ31" s="26"/>
-      <c r="BA31" s="26"/>
-      <c r="BB31" s="24">
+      <c r="AY31" s="37"/>
+      <c r="AZ31" s="37"/>
+      <c r="BA31" s="37"/>
+      <c r="BB31" s="35">
         <v>2013</v>
       </c>
-      <c r="BC31" s="26"/>
-      <c r="BD31" s="26"/>
-      <c r="BE31" s="26"/>
-      <c r="BF31" s="24">
+      <c r="BC31" s="37"/>
+      <c r="BD31" s="37"/>
+      <c r="BE31" s="37"/>
+      <c r="BF31" s="35">
         <v>2014</v>
       </c>
-      <c r="BG31" s="26"/>
-      <c r="BH31" s="26"/>
-      <c r="BI31" s="26"/>
-      <c r="BJ31" s="24">
+      <c r="BG31" s="37"/>
+      <c r="BH31" s="37"/>
+      <c r="BI31" s="37"/>
+      <c r="BJ31" s="35">
         <v>2015</v>
       </c>
-      <c r="BK31" s="26"/>
-      <c r="BL31" s="26"/>
-      <c r="BM31" s="26"/>
-      <c r="BN31" s="24">
+      <c r="BK31" s="37"/>
+      <c r="BL31" s="37"/>
+      <c r="BM31" s="37"/>
+      <c r="BN31" s="35">
         <v>2016</v>
       </c>
-      <c r="BO31" s="26"/>
-      <c r="BP31" s="26"/>
-      <c r="BQ31" s="26"/>
-      <c r="BR31" s="24">
+      <c r="BO31" s="37"/>
+      <c r="BP31" s="37"/>
+      <c r="BQ31" s="37"/>
+      <c r="BR31" s="35">
         <v>2017</v>
       </c>
-      <c r="BS31" s="26"/>
-      <c r="BT31" s="26"/>
-      <c r="BU31" s="26"/>
-      <c r="BV31" s="24">
+      <c r="BS31" s="37"/>
+      <c r="BT31" s="37"/>
+      <c r="BU31" s="37"/>
+      <c r="BV31" s="35">
         <v>2018</v>
       </c>
-      <c r="BW31" s="26"/>
-      <c r="BX31" s="26"/>
-      <c r="BY31" s="26"/>
-      <c r="BZ31" s="24">
+      <c r="BW31" s="37"/>
+      <c r="BX31" s="37"/>
+      <c r="BY31" s="37"/>
+      <c r="BZ31" s="35">
         <v>2019</v>
       </c>
-      <c r="CA31" s="26"/>
-      <c r="CB31" s="26"/>
-      <c r="CC31" s="26"/>
-      <c r="CD31" s="24">
+      <c r="CA31" s="37"/>
+      <c r="CB31" s="37"/>
+      <c r="CC31" s="37"/>
+      <c r="CD31" s="35">
         <v>2020</v>
       </c>
-      <c r="CE31" s="24"/>
-      <c r="CF31" s="24"/>
-      <c r="CG31" s="24"/>
+      <c r="CE31" s="35"/>
+      <c r="CF31" s="35"/>
+      <c r="CG31" s="35"/>
       <c r="CH31" s="22">
         <v>2021</v>
       </c>
@@ -27769,16 +27811,17 @@
       <c r="CM31" s="22"/>
       <c r="CN31" s="22"/>
       <c r="CO31" s="22"/>
-      <c r="CP31" s="22">
+      <c r="CP31" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ31" s="22"/>
-      <c r="CR31" s="22"/>
-      <c r="CS31" s="22"/>
-      <c r="CT31" s="22">
+      <c r="CQ31" s="26"/>
+      <c r="CR31" s="26"/>
+      <c r="CS31" s="26"/>
+      <c r="CT31" s="26">
         <v>2024</v>
       </c>
-      <c r="CU31" s="22"/>
+      <c r="CU31" s="26"/>
+      <c r="CV31" s="26"/>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -28060,23 +28103,26 @@
       <c r="CO32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP32" s="7" t="s">
+      <c r="CP32" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CQ32" s="7" t="s">
+      <c r="CQ32" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CR32" s="7" t="s">
+      <c r="CR32" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CS32" s="7" t="s">
+      <c r="CS32" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CT32" s="7" t="s">
+      <c r="CT32" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CU32" s="7" t="s">
+      <c r="CU32" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CV32" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28362,25 +28408,27 @@
       <c r="CO34" s="19">
         <v>106276.44833839743</v>
       </c>
-      <c r="CP34" s="19">
+      <c r="CP34" s="28">
         <v>94532.200805075874</v>
       </c>
-      <c r="CQ34" s="19">
+      <c r="CQ34" s="28">
         <v>79359.476470298105</v>
       </c>
-      <c r="CR34" s="19">
+      <c r="CR34" s="28">
         <v>100414.79674688043</v>
       </c>
-      <c r="CS34" s="19">
+      <c r="CS34" s="28">
         <v>119060.27212822236</v>
       </c>
-      <c r="CT34" s="19">
+      <c r="CT34" s="28">
         <v>100114.3019859807</v>
       </c>
-      <c r="CU34" s="19">
-        <v>92033.787866291605</v>
-      </c>
-      <c r="CV34" s="10"/>
+      <c r="CU34" s="28">
+        <v>92458.452744499256</v>
+      </c>
+      <c r="CV34" s="28">
+        <v>104650.65316976898</v>
+      </c>
       <c r="CW34" s="10"/>
       <c r="CX34" s="10"/>
       <c r="CY34" s="10"/>
@@ -28716,25 +28764,27 @@
       <c r="CO35" s="19">
         <v>10043.7355015065</v>
       </c>
-      <c r="CP35" s="19">
+      <c r="CP35" s="28">
         <v>11751.793193141122</v>
       </c>
-      <c r="CQ35" s="19">
+      <c r="CQ35" s="28">
         <v>7518.9696266694336</v>
       </c>
-      <c r="CR35" s="19">
+      <c r="CR35" s="28">
         <v>6720.9751326224623</v>
       </c>
-      <c r="CS35" s="19">
+      <c r="CS35" s="28">
         <v>10475.242856789064</v>
       </c>
-      <c r="CT35" s="19">
+      <c r="CT35" s="28">
         <v>12070.875952853572</v>
       </c>
-      <c r="CU35" s="19">
+      <c r="CU35" s="28">
         <v>12201.45808033098</v>
       </c>
-      <c r="CV35" s="10"/>
+      <c r="CV35" s="28">
+        <v>9627.9238012308524</v>
+      </c>
       <c r="CW35" s="10"/>
       <c r="CX35" s="10"/>
       <c r="CY35" s="10"/>
@@ -29070,25 +29120,27 @@
       <c r="CO36" s="19">
         <v>23671.991341686968</v>
       </c>
-      <c r="CP36" s="19">
+      <c r="CP36" s="28">
         <v>28471.079909613327</v>
       </c>
-      <c r="CQ36" s="19">
+      <c r="CQ36" s="28">
         <v>24396.684494093206</v>
       </c>
-      <c r="CR36" s="19">
+      <c r="CR36" s="28">
         <v>26549.267235779145</v>
       </c>
-      <c r="CS36" s="19">
+      <c r="CS36" s="28">
         <v>26862.323479699189</v>
       </c>
-      <c r="CT36" s="19">
+      <c r="CT36" s="28">
         <v>31522.530832663513</v>
       </c>
-      <c r="CU36" s="19">
+      <c r="CU36" s="28">
         <v>29755.947367225104</v>
       </c>
-      <c r="CV36" s="10"/>
+      <c r="CV36" s="28">
+        <v>29365.542041687615</v>
+      </c>
       <c r="CW36" s="10"/>
       <c r="CX36" s="10"/>
       <c r="CY36" s="10"/>
@@ -29424,25 +29476,27 @@
       <c r="CO37" s="19">
         <v>49252.070171865002</v>
       </c>
-      <c r="CP37" s="19">
+      <c r="CP37" s="28">
         <v>51877.861228059992</v>
       </c>
-      <c r="CQ37" s="19">
+      <c r="CQ37" s="28">
         <v>44305.589951590919</v>
       </c>
-      <c r="CR37" s="19">
+      <c r="CR37" s="28">
         <v>49254.005248525122</v>
       </c>
-      <c r="CS37" s="19">
+      <c r="CS37" s="28">
         <v>50997.707473160088</v>
       </c>
-      <c r="CT37" s="19">
+      <c r="CT37" s="28">
         <v>53055.701117600503</v>
       </c>
-      <c r="CU37" s="19">
-        <v>45653.929866224622</v>
-      </c>
-      <c r="CV37" s="10"/>
+      <c r="CU37" s="28">
+        <v>45271.927714537531</v>
+      </c>
+      <c r="CV37" s="28">
+        <v>51096.954508582843</v>
+      </c>
       <c r="CW37" s="10"/>
       <c r="CX37" s="10"/>
       <c r="CY37" s="10"/>
@@ -29778,25 +29832,27 @@
       <c r="CO38" s="19">
         <v>8564.053251911153</v>
       </c>
-      <c r="CP38" s="19">
+      <c r="CP38" s="28">
         <v>8721.6870598250025</v>
       </c>
-      <c r="CQ38" s="19">
+      <c r="CQ38" s="28">
         <v>9693.2556175254394</v>
       </c>
-      <c r="CR38" s="19">
+      <c r="CR38" s="28">
         <v>7591.2442718533639</v>
       </c>
-      <c r="CS38" s="19">
+      <c r="CS38" s="28">
         <v>9048.1201203042874</v>
       </c>
-      <c r="CT38" s="19">
+      <c r="CT38" s="28">
         <v>9211.862986597891</v>
       </c>
-      <c r="CU38" s="19">
+      <c r="CU38" s="28">
         <v>10026.793980998726</v>
       </c>
-      <c r="CV38" s="10"/>
+      <c r="CV38" s="28">
+        <v>7836.2914202471093</v>
+      </c>
       <c r="CW38" s="10"/>
       <c r="CX38" s="10"/>
       <c r="CY38" s="10"/>
@@ -29945,13 +30001,13 @@
       <c r="CM39" s="10"/>
       <c r="CN39" s="10"/>
       <c r="CO39" s="10"/>
-      <c r="CP39" s="10"/>
-      <c r="CQ39" s="10"/>
-      <c r="CR39" s="10"/>
-      <c r="CS39" s="10"/>
-      <c r="CT39" s="10"/>
-      <c r="CU39" s="10"/>
-      <c r="CV39" s="10"/>
+      <c r="CP39" s="29"/>
+      <c r="CQ39" s="29"/>
+      <c r="CR39" s="29"/>
+      <c r="CS39" s="29"/>
+      <c r="CT39" s="29"/>
+      <c r="CU39" s="29"/>
+      <c r="CV39" s="29"/>
       <c r="CW39" s="10"/>
       <c r="CX39" s="10"/>
       <c r="CY39" s="10"/>
@@ -30287,25 +30343,27 @@
       <c r="CO40" s="20">
         <v>197808.29860536705</v>
       </c>
-      <c r="CP40" s="20">
+      <c r="CP40" s="30">
         <v>195354.62219571532</v>
       </c>
-      <c r="CQ40" s="20">
+      <c r="CQ40" s="30">
         <v>165273.97616017709</v>
       </c>
-      <c r="CR40" s="20">
+      <c r="CR40" s="30">
         <v>190530.28863566052</v>
       </c>
-      <c r="CS40" s="20">
+      <c r="CS40" s="30">
         <v>216443.666058175</v>
       </c>
-      <c r="CT40" s="20">
+      <c r="CT40" s="30">
         <v>205975.27287569616</v>
       </c>
-      <c r="CU40" s="20">
-        <v>189671.91716107103</v>
-      </c>
-      <c r="CV40" s="10"/>
+      <c r="CU40" s="30">
+        <v>189714.57988759159</v>
+      </c>
+      <c r="CV40" s="30">
+        <v>202577.36494151741</v>
+      </c>
       <c r="CW40" s="10"/>
       <c r="CX40" s="10"/>
       <c r="CY40" s="10"/>
@@ -30455,12 +30513,13 @@
       <c r="CM41" s="13"/>
       <c r="CN41" s="13"/>
       <c r="CO41" s="13"/>
-      <c r="CP41" s="13"/>
-      <c r="CQ41" s="13"/>
-      <c r="CR41" s="13"/>
-      <c r="CS41" s="13"/>
-      <c r="CT41" s="13"/>
-      <c r="CU41" s="13"/>
+      <c r="CP41" s="32"/>
+      <c r="CQ41" s="32"/>
+      <c r="CR41" s="32"/>
+      <c r="CS41" s="32"/>
+      <c r="CT41" s="32"/>
+      <c r="CU41" s="32"/>
+      <c r="CV41" s="32"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -30560,13 +30619,13 @@
       <c r="CM43" s="10"/>
       <c r="CN43" s="10"/>
       <c r="CO43" s="10"/>
-      <c r="CP43" s="10"/>
-      <c r="CQ43" s="10"/>
-      <c r="CR43" s="10"/>
-      <c r="CS43" s="10"/>
-      <c r="CT43" s="10"/>
-      <c r="CU43" s="10"/>
-      <c r="CV43" s="10"/>
+      <c r="CP43" s="29"/>
+      <c r="CQ43" s="29"/>
+      <c r="CR43" s="29"/>
+      <c r="CS43" s="29"/>
+      <c r="CT43" s="29"/>
+      <c r="CU43" s="29"/>
+      <c r="CV43" s="29"/>
       <c r="CW43" s="10"/>
       <c r="CX43" s="10"/>
       <c r="CY43" s="10"/>
@@ -30715,13 +30774,13 @@
       <c r="CM44" s="10"/>
       <c r="CN44" s="10"/>
       <c r="CO44" s="10"/>
-      <c r="CP44" s="10"/>
-      <c r="CQ44" s="10"/>
-      <c r="CR44" s="10"/>
-      <c r="CS44" s="10"/>
-      <c r="CT44" s="10"/>
-      <c r="CU44" s="10"/>
-      <c r="CV44" s="10"/>
+      <c r="CP44" s="29"/>
+      <c r="CQ44" s="29"/>
+      <c r="CR44" s="29"/>
+      <c r="CS44" s="29"/>
+      <c r="CT44" s="29"/>
+      <c r="CU44" s="29"/>
+      <c r="CV44" s="29"/>
       <c r="CW44" s="10"/>
       <c r="CX44" s="10"/>
       <c r="CY44" s="10"/>
@@ -30812,132 +30871,132 @@
     </row>
     <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24" t="s">
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24" t="s">
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24" t="s">
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24" t="s">
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24" t="s">
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="W53" s="24"/>
-      <c r="X53" s="24"/>
-      <c r="Y53" s="24"/>
-      <c r="Z53" s="24" t="s">
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AA53" s="24"/>
-      <c r="AB53" s="24"/>
-      <c r="AC53" s="24"/>
-      <c r="AD53" s="24" t="s">
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AE53" s="24"/>
-      <c r="AF53" s="24"/>
-      <c r="AG53" s="24"/>
-      <c r="AH53" s="24" t="s">
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AI53" s="24"/>
-      <c r="AJ53" s="24"/>
-      <c r="AK53" s="24"/>
-      <c r="AL53" s="24" t="s">
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AM53" s="24"/>
-      <c r="AN53" s="24"/>
-      <c r="AO53" s="24"/>
-      <c r="AP53" s="24" t="s">
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AQ53" s="24"/>
-      <c r="AR53" s="24"/>
-      <c r="AS53" s="24"/>
-      <c r="AT53" s="24" t="s">
+      <c r="AQ53" s="35"/>
+      <c r="AR53" s="35"/>
+      <c r="AS53" s="35"/>
+      <c r="AT53" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AU53" s="24"/>
-      <c r="AV53" s="24"/>
-      <c r="AW53" s="24"/>
-      <c r="AX53" s="24" t="s">
+      <c r="AU53" s="35"/>
+      <c r="AV53" s="35"/>
+      <c r="AW53" s="35"/>
+      <c r="AX53" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AY53" s="24"/>
-      <c r="AZ53" s="24"/>
-      <c r="BA53" s="24"/>
-      <c r="BB53" s="24" t="s">
+      <c r="AY53" s="35"/>
+      <c r="AZ53" s="35"/>
+      <c r="BA53" s="35"/>
+      <c r="BB53" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BC53" s="24"/>
-      <c r="BD53" s="24"/>
-      <c r="BE53" s="24"/>
-      <c r="BF53" s="24" t="s">
+      <c r="BC53" s="35"/>
+      <c r="BD53" s="35"/>
+      <c r="BE53" s="35"/>
+      <c r="BF53" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BG53" s="24"/>
-      <c r="BH53" s="24"/>
-      <c r="BI53" s="24"/>
-      <c r="BJ53" s="24" t="s">
+      <c r="BG53" s="35"/>
+      <c r="BH53" s="35"/>
+      <c r="BI53" s="35"/>
+      <c r="BJ53" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="BK53" s="24"/>
-      <c r="BL53" s="24"/>
-      <c r="BM53" s="24"/>
-      <c r="BN53" s="24" t="s">
+      <c r="BK53" s="35"/>
+      <c r="BL53" s="35"/>
+      <c r="BM53" s="35"/>
+      <c r="BN53" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="BO53" s="24"/>
-      <c r="BP53" s="24"/>
-      <c r="BQ53" s="24"/>
-      <c r="BR53" s="24" t="s">
+      <c r="BO53" s="35"/>
+      <c r="BP53" s="35"/>
+      <c r="BQ53" s="35"/>
+      <c r="BR53" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="BS53" s="24"/>
-      <c r="BT53" s="24"/>
-      <c r="BU53" s="24"/>
-      <c r="BV53" s="24" t="s">
+      <c r="BS53" s="35"/>
+      <c r="BT53" s="35"/>
+      <c r="BU53" s="35"/>
+      <c r="BV53" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="BW53" s="24"/>
-      <c r="BX53" s="24"/>
-      <c r="BY53" s="24"/>
-      <c r="BZ53" s="24" t="s">
+      <c r="BW53" s="35"/>
+      <c r="BX53" s="35"/>
+      <c r="BY53" s="35"/>
+      <c r="BZ53" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="24"/>
-      <c r="CB53" s="24"/>
-      <c r="CC53" s="24"/>
-      <c r="CD53" s="24" t="s">
+      <c r="CA53" s="35"/>
+      <c r="CB53" s="35"/>
+      <c r="CC53" s="35"/>
+      <c r="CD53" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="CE53" s="24"/>
-      <c r="CF53" s="24"/>
-      <c r="CG53" s="24"/>
+      <c r="CE53" s="35"/>
+      <c r="CF53" s="35"/>
+      <c r="CG53" s="35"/>
       <c r="CH53" s="22" t="s">
         <v>50</v>
       </c>
@@ -30950,14 +31009,15 @@
       <c r="CM53" s="22"/>
       <c r="CN53" s="22"/>
       <c r="CO53" s="22"/>
-      <c r="CP53" s="22" t="s">
+      <c r="CP53" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="CQ53" s="22"/>
-      <c r="CR53" s="23"/>
+      <c r="CQ53" s="26"/>
+      <c r="CR53" s="26"/>
       <c r="CS53" s="23"/>
-      <c r="CT53" s="22"/>
-      <c r="CU53" s="23"/>
+      <c r="CT53" s="26"/>
+      <c r="CU53" s="26"/>
+      <c r="CV53" s="23"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -31239,16 +31299,19 @@
       <c r="CO54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP54" s="6" t="s">
+      <c r="CP54" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="CQ54" s="6" t="s">
+      <c r="CQ54" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="CR54" s="6"/>
-      <c r="CS54" s="6"/>
-      <c r="CT54" s="6"/>
-      <c r="CU54" s="6"/>
+      <c r="CR54" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS54" s="33"/>
+      <c r="CT54" s="33"/>
+      <c r="CU54" s="33"/>
+      <c r="CV54" s="33"/>
     </row>
     <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -31533,17 +31596,19 @@
       <c r="CO56" s="16">
         <v>14.841493335686977</v>
       </c>
-      <c r="CP56" s="16">
+      <c r="CP56" s="34">
         <v>8.6866874054318828</v>
       </c>
-      <c r="CQ56" s="16">
-        <v>17.676383548041684</v>
-      </c>
-      <c r="CR56" s="16"/>
-      <c r="CS56" s="16"/>
-      <c r="CT56" s="16"/>
-      <c r="CU56" s="16"/>
-      <c r="CV56" s="10"/>
+      <c r="CQ56" s="34">
+        <v>18.219369208481396</v>
+      </c>
+      <c r="CR56" s="34">
+        <v>5.7445198368525752</v>
+      </c>
+      <c r="CS56" s="34"/>
+      <c r="CT56" s="34"/>
+      <c r="CU56" s="34"/>
+      <c r="CV56" s="34"/>
       <c r="CW56" s="10"/>
       <c r="CX56" s="10"/>
       <c r="CY56" s="10"/>
@@ -31875,17 +31940,19 @@
       <c r="CO57" s="16">
         <v>14.630768274735928</v>
       </c>
-      <c r="CP57" s="16">
+      <c r="CP57" s="34">
         <v>14.84861960256427</v>
       </c>
-      <c r="CQ57" s="16">
+      <c r="CQ57" s="34">
         <v>52.961374476908532</v>
       </c>
-      <c r="CR57" s="16"/>
-      <c r="CS57" s="16"/>
-      <c r="CT57" s="16"/>
-      <c r="CU57" s="16"/>
-      <c r="CV57" s="10"/>
+      <c r="CR57" s="34">
+        <v>23.764161400831554</v>
+      </c>
+      <c r="CS57" s="34"/>
+      <c r="CT57" s="34"/>
+      <c r="CU57" s="34"/>
+      <c r="CV57" s="34"/>
       <c r="CW57" s="10"/>
       <c r="CX57" s="10"/>
       <c r="CY57" s="10"/>
@@ -32217,17 +32284,19 @@
       <c r="CO58" s="16">
         <v>16.167028543209355</v>
       </c>
-      <c r="CP58" s="16">
+      <c r="CP58" s="34">
         <v>11.226914357659055</v>
       </c>
-      <c r="CQ58" s="16">
+      <c r="CQ58" s="34">
         <v>24.402461766323853</v>
       </c>
-      <c r="CR58" s="16"/>
-      <c r="CS58" s="16"/>
-      <c r="CT58" s="16"/>
-      <c r="CU58" s="16"/>
-      <c r="CV58" s="10"/>
+      <c r="CR58" s="34">
+        <v>10.229800087594469</v>
+      </c>
+      <c r="CS58" s="34"/>
+      <c r="CT58" s="34"/>
+      <c r="CU58" s="34"/>
+      <c r="CV58" s="34"/>
       <c r="CW58" s="10"/>
       <c r="CX58" s="10"/>
       <c r="CY58" s="10"/>
@@ -32559,17 +32628,19 @@
       <c r="CO59" s="16">
         <v>5.4665472448003811</v>
       </c>
-      <c r="CP59" s="16">
+      <c r="CP59" s="34">
         <v>4.6195686053051901</v>
       </c>
-      <c r="CQ59" s="16">
-        <v>4.2874486810725614</v>
-      </c>
-      <c r="CR59" s="16"/>
-      <c r="CS59" s="16"/>
-      <c r="CT59" s="16"/>
-      <c r="CU59" s="16"/>
-      <c r="CV59" s="10"/>
+      <c r="CQ59" s="34">
+        <v>3.414839687567266</v>
+      </c>
+      <c r="CR59" s="34">
+        <v>3.9551905559112299</v>
+      </c>
+      <c r="CS59" s="34"/>
+      <c r="CT59" s="34"/>
+      <c r="CU59" s="34"/>
+      <c r="CV59" s="34"/>
       <c r="CW59" s="10"/>
       <c r="CX59" s="10"/>
       <c r="CY59" s="10"/>
@@ -32901,17 +32972,19 @@
       <c r="CO60" s="16">
         <v>5.8537446887849711</v>
       </c>
-      <c r="CP60" s="16">
+      <c r="CP60" s="34">
         <v>6.5255121912585849</v>
       </c>
-      <c r="CQ60" s="16">
+      <c r="CQ60" s="34">
         <v>4.3275688626576567</v>
       </c>
-      <c r="CR60" s="16"/>
-      <c r="CS60" s="16"/>
-      <c r="CT60" s="16"/>
-      <c r="CU60" s="16"/>
-      <c r="CV60" s="10"/>
+      <c r="CR60" s="34">
+        <v>4.1777737076493366</v>
+      </c>
+      <c r="CS60" s="34"/>
+      <c r="CT60" s="34"/>
+      <c r="CU60" s="34"/>
+      <c r="CV60" s="34"/>
       <c r="CW60" s="10"/>
       <c r="CX60" s="10"/>
       <c r="CY60" s="10"/>
@@ -33056,13 +33129,13 @@
       <c r="CM61" s="10"/>
       <c r="CN61" s="10"/>
       <c r="CO61" s="10"/>
-      <c r="CP61" s="10"/>
-      <c r="CQ61" s="10"/>
-      <c r="CR61" s="10"/>
-      <c r="CS61" s="10"/>
-      <c r="CT61" s="10"/>
-      <c r="CU61" s="10"/>
-      <c r="CV61" s="10"/>
+      <c r="CP61" s="29"/>
+      <c r="CQ61" s="29"/>
+      <c r="CR61" s="29"/>
+      <c r="CS61" s="29"/>
+      <c r="CT61" s="29"/>
+      <c r="CU61" s="29"/>
+      <c r="CV61" s="29"/>
       <c r="CW61" s="10"/>
       <c r="CX61" s="10"/>
       <c r="CY61" s="10"/>
@@ -33394,17 +33467,19 @@
       <c r="CO62" s="16">
         <v>12.461641884267976</v>
       </c>
-      <c r="CP62" s="16">
+      <c r="CP62" s="34">
         <v>8.3209283832293721</v>
       </c>
-      <c r="CQ62" s="16">
-        <v>15.796132295298705</v>
-      </c>
-      <c r="CR62" s="16"/>
-      <c r="CS62" s="16"/>
-      <c r="CT62" s="16"/>
-      <c r="CU62" s="16"/>
-      <c r="CV62" s="10"/>
+      <c r="CQ62" s="34">
+        <v>15.847064750098028</v>
+      </c>
+      <c r="CR62" s="34">
+        <v>6.5500081601443867</v>
+      </c>
+      <c r="CS62" s="34"/>
+      <c r="CT62" s="34"/>
+      <c r="CU62" s="34"/>
+      <c r="CV62" s="34"/>
       <c r="CW62" s="10"/>
       <c r="CX62" s="10"/>
       <c r="CY62" s="10"/>
@@ -33550,12 +33625,13 @@
       <c r="CM63" s="13"/>
       <c r="CN63" s="13"/>
       <c r="CO63" s="13"/>
-      <c r="CP63" s="13"/>
-      <c r="CQ63" s="13"/>
-      <c r="CR63" s="13"/>
-      <c r="CS63" s="13"/>
-      <c r="CT63" s="13"/>
-      <c r="CU63" s="13"/>
+      <c r="CP63" s="32"/>
+      <c r="CQ63" s="32"/>
+      <c r="CR63" s="32"/>
+      <c r="CS63" s="32"/>
+      <c r="CT63" s="32"/>
+      <c r="CU63" s="32"/>
+      <c r="CV63" s="32"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
@@ -33655,13 +33731,13 @@
       <c r="CM65" s="10"/>
       <c r="CN65" s="10"/>
       <c r="CO65" s="10"/>
-      <c r="CP65" s="10"/>
-      <c r="CQ65" s="10"/>
-      <c r="CR65" s="10"/>
-      <c r="CS65" s="10"/>
-      <c r="CT65" s="10"/>
-      <c r="CU65" s="10"/>
-      <c r="CV65" s="10"/>
+      <c r="CP65" s="29"/>
+      <c r="CQ65" s="29"/>
+      <c r="CR65" s="29"/>
+      <c r="CS65" s="29"/>
+      <c r="CT65" s="29"/>
+      <c r="CU65" s="29"/>
+      <c r="CV65" s="29"/>
       <c r="CW65" s="10"/>
       <c r="CX65" s="10"/>
       <c r="CY65" s="10"/>
@@ -33806,13 +33882,13 @@
       <c r="CM66" s="10"/>
       <c r="CN66" s="10"/>
       <c r="CO66" s="10"/>
-      <c r="CP66" s="10"/>
-      <c r="CQ66" s="10"/>
-      <c r="CR66" s="10"/>
-      <c r="CS66" s="10"/>
-      <c r="CT66" s="10"/>
-      <c r="CU66" s="10"/>
-      <c r="CV66" s="10"/>
+      <c r="CP66" s="29"/>
+      <c r="CQ66" s="29"/>
+      <c r="CR66" s="29"/>
+      <c r="CS66" s="29"/>
+      <c r="CT66" s="29"/>
+      <c r="CU66" s="29"/>
+      <c r="CV66" s="29"/>
       <c r="CW66" s="10"/>
       <c r="CX66" s="10"/>
       <c r="CY66" s="10"/>
@@ -33896,132 +33972,132 @@
     </row>
     <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="24" t="s">
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="24" t="s">
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="24" t="s">
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="24" t="s">
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="S75" s="25"/>
-      <c r="T75" s="25"/>
-      <c r="U75" s="25"/>
-      <c r="V75" s="24" t="s">
+      <c r="S75" s="36"/>
+      <c r="T75" s="36"/>
+      <c r="U75" s="36"/>
+      <c r="V75" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="W75" s="25"/>
-      <c r="X75" s="25"/>
-      <c r="Y75" s="25"/>
-      <c r="Z75" s="24" t="s">
+      <c r="W75" s="36"/>
+      <c r="X75" s="36"/>
+      <c r="Y75" s="36"/>
+      <c r="Z75" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AA75" s="25"/>
-      <c r="AB75" s="25"/>
-      <c r="AC75" s="25"/>
-      <c r="AD75" s="24" t="s">
+      <c r="AA75" s="36"/>
+      <c r="AB75" s="36"/>
+      <c r="AC75" s="36"/>
+      <c r="AD75" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="25"/>
-      <c r="AF75" s="25"/>
-      <c r="AG75" s="25"/>
-      <c r="AH75" s="24" t="s">
+      <c r="AE75" s="36"/>
+      <c r="AF75" s="36"/>
+      <c r="AG75" s="36"/>
+      <c r="AH75" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="25"/>
-      <c r="AJ75" s="25"/>
-      <c r="AK75" s="25"/>
-      <c r="AL75" s="24" t="s">
+      <c r="AI75" s="36"/>
+      <c r="AJ75" s="36"/>
+      <c r="AK75" s="36"/>
+      <c r="AL75" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AM75" s="25"/>
-      <c r="AN75" s="25"/>
-      <c r="AO75" s="25"/>
-      <c r="AP75" s="24" t="s">
+      <c r="AM75" s="36"/>
+      <c r="AN75" s="36"/>
+      <c r="AO75" s="36"/>
+      <c r="AP75" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AQ75" s="25"/>
-      <c r="AR75" s="25"/>
-      <c r="AS75" s="25"/>
-      <c r="AT75" s="24" t="s">
+      <c r="AQ75" s="36"/>
+      <c r="AR75" s="36"/>
+      <c r="AS75" s="36"/>
+      <c r="AT75" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AU75" s="25"/>
-      <c r="AV75" s="25"/>
-      <c r="AW75" s="25"/>
-      <c r="AX75" s="24" t="s">
+      <c r="AU75" s="36"/>
+      <c r="AV75" s="36"/>
+      <c r="AW75" s="36"/>
+      <c r="AX75" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AY75" s="25"/>
-      <c r="AZ75" s="25"/>
-      <c r="BA75" s="25"/>
-      <c r="BB75" s="24" t="s">
+      <c r="AY75" s="36"/>
+      <c r="AZ75" s="36"/>
+      <c r="BA75" s="36"/>
+      <c r="BB75" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BC75" s="25"/>
-      <c r="BD75" s="25"/>
-      <c r="BE75" s="25"/>
-      <c r="BF75" s="24" t="s">
+      <c r="BC75" s="36"/>
+      <c r="BD75" s="36"/>
+      <c r="BE75" s="36"/>
+      <c r="BF75" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BG75" s="25"/>
-      <c r="BH75" s="25"/>
-      <c r="BI75" s="25"/>
-      <c r="BJ75" s="24" t="s">
+      <c r="BG75" s="36"/>
+      <c r="BH75" s="36"/>
+      <c r="BI75" s="36"/>
+      <c r="BJ75" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="BK75" s="25"/>
-      <c r="BL75" s="25"/>
-      <c r="BM75" s="25"/>
-      <c r="BN75" s="24" t="s">
+      <c r="BK75" s="36"/>
+      <c r="BL75" s="36"/>
+      <c r="BM75" s="36"/>
+      <c r="BN75" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="BO75" s="25"/>
-      <c r="BP75" s="25"/>
-      <c r="BQ75" s="25"/>
-      <c r="BR75" s="24" t="s">
+      <c r="BO75" s="36"/>
+      <c r="BP75" s="36"/>
+      <c r="BQ75" s="36"/>
+      <c r="BR75" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="BS75" s="25"/>
-      <c r="BT75" s="25"/>
-      <c r="BU75" s="25"/>
-      <c r="BV75" s="24" t="s">
+      <c r="BS75" s="36"/>
+      <c r="BT75" s="36"/>
+      <c r="BU75" s="36"/>
+      <c r="BV75" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="BW75" s="25"/>
-      <c r="BX75" s="25"/>
-      <c r="BY75" s="25"/>
-      <c r="BZ75" s="24" t="s">
+      <c r="BW75" s="36"/>
+      <c r="BX75" s="36"/>
+      <c r="BY75" s="36"/>
+      <c r="BZ75" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="25"/>
-      <c r="CB75" s="25"/>
-      <c r="CC75" s="25"/>
-      <c r="CD75" s="24" t="s">
+      <c r="CA75" s="36"/>
+      <c r="CB75" s="36"/>
+      <c r="CC75" s="36"/>
+      <c r="CD75" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="CE75" s="24"/>
-      <c r="CF75" s="24"/>
-      <c r="CG75" s="24"/>
+      <c r="CE75" s="35"/>
+      <c r="CF75" s="35"/>
+      <c r="CG75" s="35"/>
       <c r="CH75" s="22" t="s">
         <v>50</v>
       </c>
@@ -34034,14 +34110,15 @@
       <c r="CM75" s="22"/>
       <c r="CN75" s="22"/>
       <c r="CO75" s="22"/>
-      <c r="CP75" s="22" t="s">
+      <c r="CP75" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="CQ75" s="22"/>
-      <c r="CR75" s="23"/>
+      <c r="CQ75" s="26"/>
+      <c r="CR75" s="26"/>
       <c r="CS75" s="23"/>
-      <c r="CT75" s="22"/>
-      <c r="CU75" s="23"/>
+      <c r="CT75" s="26"/>
+      <c r="CU75" s="26"/>
+      <c r="CV75" s="23"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
@@ -34323,16 +34400,19 @@
       <c r="CO76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP76" s="6" t="s">
+      <c r="CP76" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="CQ76" s="6" t="s">
+      <c r="CQ76" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="CR76" s="6"/>
-      <c r="CS76" s="6"/>
-      <c r="CT76" s="6"/>
-      <c r="CU76" s="6"/>
+      <c r="CR76" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS76" s="33"/>
+      <c r="CT76" s="33"/>
+      <c r="CU76" s="33"/>
+      <c r="CV76" s="33"/>
     </row>
     <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
@@ -34617,17 +34697,19 @@
       <c r="CO78" s="16">
         <v>12.028839869694991</v>
       </c>
-      <c r="CP78" s="16">
+      <c r="CP78" s="34">
         <v>5.9049732613493831</v>
       </c>
-      <c r="CQ78" s="16">
-        <v>15.970759838287393</v>
-      </c>
-      <c r="CR78" s="16"/>
-      <c r="CS78" s="16"/>
-      <c r="CT78" s="16"/>
-      <c r="CU78" s="16"/>
-      <c r="CV78" s="10"/>
+      <c r="CQ78" s="34">
+        <v>16.505875362098337</v>
+      </c>
+      <c r="CR78" s="34">
+        <v>4.2183588077821241</v>
+      </c>
+      <c r="CS78" s="34"/>
+      <c r="CT78" s="34"/>
+      <c r="CU78" s="34"/>
+      <c r="CV78" s="34"/>
       <c r="CW78" s="10"/>
       <c r="CX78" s="10"/>
       <c r="CY78" s="10"/>
@@ -34959,17 +35041,19 @@
       <c r="CO79" s="16">
         <v>4.2962835412963614</v>
       </c>
-      <c r="CP79" s="16">
+      <c r="CP79" s="34">
         <v>2.7151835849075496</v>
       </c>
-      <c r="CQ79" s="16">
+      <c r="CQ79" s="34">
         <v>62.275666562782476</v>
       </c>
-      <c r="CR79" s="16"/>
-      <c r="CS79" s="16"/>
-      <c r="CT79" s="16"/>
-      <c r="CU79" s="16"/>
-      <c r="CV79" s="10"/>
+      <c r="CR79" s="34">
+        <v>43.251888472233134</v>
+      </c>
+      <c r="CS79" s="34"/>
+      <c r="CT79" s="34"/>
+      <c r="CU79" s="34"/>
+      <c r="CV79" s="34"/>
       <c r="CW79" s="10"/>
       <c r="CX79" s="10"/>
       <c r="CY79" s="10"/>
@@ -35301,17 +35385,19 @@
       <c r="CO80" s="16">
         <v>13.477244444551516</v>
       </c>
-      <c r="CP80" s="16">
+      <c r="CP80" s="34">
         <v>10.717721044433787</v>
       </c>
-      <c r="CQ80" s="16">
+      <c r="CQ80" s="34">
         <v>21.967177033540992</v>
       </c>
-      <c r="CR80" s="16"/>
-      <c r="CS80" s="16"/>
-      <c r="CT80" s="16"/>
-      <c r="CU80" s="16"/>
-      <c r="CV80" s="10"/>
+      <c r="CR80" s="34">
+        <v>10.607730830751947</v>
+      </c>
+      <c r="CS80" s="34"/>
+      <c r="CT80" s="34"/>
+      <c r="CU80" s="34"/>
+      <c r="CV80" s="34"/>
       <c r="CW80" s="10"/>
       <c r="CX80" s="10"/>
       <c r="CY80" s="10"/>
@@ -35643,17 +35729,19 @@
       <c r="CO81" s="16">
         <v>3.5442922403133252</v>
       </c>
-      <c r="CP81" s="16">
+      <c r="CP81" s="34">
         <v>2.2704094996565374</v>
       </c>
-      <c r="CQ81" s="16">
-        <v>3.0432726798287177</v>
-      </c>
-      <c r="CR81" s="16"/>
-      <c r="CS81" s="16"/>
-      <c r="CT81" s="16"/>
-      <c r="CU81" s="16"/>
-      <c r="CV81" s="10"/>
+      <c r="CQ81" s="34">
+        <v>2.1810741353460088</v>
+      </c>
+      <c r="CR81" s="34">
+        <v>3.7417246592609104</v>
+      </c>
+      <c r="CS81" s="34"/>
+      <c r="CT81" s="34"/>
+      <c r="CU81" s="34"/>
+      <c r="CV81" s="34"/>
       <c r="CW81" s="10"/>
       <c r="CX81" s="10"/>
       <c r="CY81" s="10"/>
@@ -35985,17 +36073,19 @@
       <c r="CO82" s="16">
         <v>5.6523103506521295</v>
       </c>
-      <c r="CP82" s="16">
+      <c r="CP82" s="34">
         <v>5.6201962236274312</v>
       </c>
-      <c r="CQ82" s="16">
+      <c r="CQ82" s="34">
         <v>3.4409323000855068</v>
       </c>
-      <c r="CR82" s="16"/>
-      <c r="CS82" s="16"/>
-      <c r="CT82" s="16"/>
-      <c r="CU82" s="16"/>
-      <c r="CV82" s="10"/>
+      <c r="CR82" s="34">
+        <v>3.2280234915154296</v>
+      </c>
+      <c r="CS82" s="34"/>
+      <c r="CT82" s="34"/>
+      <c r="CU82" s="34"/>
+      <c r="CV82" s="34"/>
       <c r="CW82" s="10"/>
       <c r="CX82" s="10"/>
       <c r="CY82" s="10"/>
@@ -36140,13 +36230,13 @@
       <c r="CM83" s="10"/>
       <c r="CN83" s="10"/>
       <c r="CO83" s="10"/>
-      <c r="CP83" s="10"/>
-      <c r="CQ83" s="10"/>
-      <c r="CR83" s="10"/>
-      <c r="CS83" s="10"/>
-      <c r="CT83" s="10"/>
-      <c r="CU83" s="10"/>
-      <c r="CV83" s="10"/>
+      <c r="CP83" s="29"/>
+      <c r="CQ83" s="29"/>
+      <c r="CR83" s="29"/>
+      <c r="CS83" s="29"/>
+      <c r="CT83" s="29"/>
+      <c r="CU83" s="29"/>
+      <c r="CV83" s="29"/>
       <c r="CW83" s="10"/>
       <c r="CX83" s="10"/>
       <c r="CY83" s="10"/>
@@ -36478,17 +36568,19 @@
       <c r="CO84" s="16">
         <v>9.420922976536005</v>
       </c>
-      <c r="CP84" s="16">
+      <c r="CP84" s="34">
         <v>5.436600660178172</v>
       </c>
-      <c r="CQ84" s="16">
-        <v>14.762118978276661</v>
-      </c>
-      <c r="CR84" s="16"/>
-      <c r="CS84" s="16"/>
-      <c r="CT84" s="16"/>
-      <c r="CU84" s="16"/>
-      <c r="CV84" s="10"/>
+      <c r="CQ84" s="34">
+        <v>14.787932314115565</v>
+      </c>
+      <c r="CR84" s="34">
+        <v>6.3229192545305892</v>
+      </c>
+      <c r="CS84" s="34"/>
+      <c r="CT84" s="34"/>
+      <c r="CU84" s="34"/>
+      <c r="CV84" s="34"/>
       <c r="CW84" s="10"/>
       <c r="CX84" s="10"/>
       <c r="CY84" s="10"/>
@@ -36634,12 +36726,13 @@
       <c r="CM85" s="13"/>
       <c r="CN85" s="13"/>
       <c r="CO85" s="13"/>
-      <c r="CP85" s="13"/>
-      <c r="CQ85" s="13"/>
-      <c r="CR85" s="13"/>
-      <c r="CS85" s="13"/>
-      <c r="CT85" s="13"/>
-      <c r="CU85" s="13"/>
+      <c r="CP85" s="32"/>
+      <c r="CQ85" s="32"/>
+      <c r="CR85" s="32"/>
+      <c r="CS85" s="32"/>
+      <c r="CT85" s="32"/>
+      <c r="CU85" s="32"/>
+      <c r="CV85" s="32"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
@@ -36739,13 +36832,13 @@
       <c r="CM87" s="10"/>
       <c r="CN87" s="10"/>
       <c r="CO87" s="10"/>
-      <c r="CP87" s="10"/>
-      <c r="CQ87" s="10"/>
-      <c r="CR87" s="10"/>
-      <c r="CS87" s="10"/>
-      <c r="CT87" s="10"/>
-      <c r="CU87" s="10"/>
-      <c r="CV87" s="10"/>
+      <c r="CP87" s="29"/>
+      <c r="CQ87" s="29"/>
+      <c r="CR87" s="29"/>
+      <c r="CS87" s="29"/>
+      <c r="CT87" s="29"/>
+      <c r="CU87" s="29"/>
+      <c r="CV87" s="29"/>
       <c r="CW87" s="10"/>
       <c r="CX87" s="10"/>
       <c r="CY87" s="10"/>
@@ -36890,13 +36983,13 @@
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
       <c r="CO88" s="10"/>
-      <c r="CP88" s="10"/>
-      <c r="CQ88" s="10"/>
-      <c r="CR88" s="10"/>
-      <c r="CS88" s="10"/>
-      <c r="CT88" s="10"/>
-      <c r="CU88" s="10"/>
-      <c r="CV88" s="10"/>
+      <c r="CP88" s="29"/>
+      <c r="CQ88" s="29"/>
+      <c r="CR88" s="29"/>
+      <c r="CS88" s="29"/>
+      <c r="CT88" s="29"/>
+      <c r="CU88" s="29"/>
+      <c r="CV88" s="29"/>
       <c r="CW88" s="10"/>
       <c r="CX88" s="10"/>
       <c r="CY88" s="10"/>
@@ -36975,132 +37068,132 @@
     </row>
     <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="24">
+      <c r="B96" s="35">
         <v>2000</v>
       </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="24">
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="35">
         <v>2001</v>
       </c>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="24">
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="35">
         <v>2002</v>
       </c>
-      <c r="K96" s="26"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="26"/>
-      <c r="N96" s="24">
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="35">
         <v>2003</v>
       </c>
-      <c r="O96" s="26"/>
-      <c r="P96" s="26"/>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="24">
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="35">
         <v>2004</v>
       </c>
-      <c r="S96" s="26"/>
-      <c r="T96" s="26"/>
-      <c r="U96" s="26"/>
-      <c r="V96" s="24">
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="35">
         <v>2005</v>
       </c>
-      <c r="W96" s="26"/>
-      <c r="X96" s="26"/>
-      <c r="Y96" s="26"/>
-      <c r="Z96" s="24">
+      <c r="W96" s="37"/>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="37"/>
+      <c r="Z96" s="35">
         <v>2006</v>
       </c>
-      <c r="AA96" s="26"/>
-      <c r="AB96" s="26"/>
-      <c r="AC96" s="26"/>
-      <c r="AD96" s="24">
+      <c r="AA96" s="37"/>
+      <c r="AB96" s="37"/>
+      <c r="AC96" s="37"/>
+      <c r="AD96" s="35">
         <v>2007</v>
       </c>
-      <c r="AE96" s="26"/>
-      <c r="AF96" s="26"/>
-      <c r="AG96" s="26"/>
-      <c r="AH96" s="24">
+      <c r="AE96" s="37"/>
+      <c r="AF96" s="37"/>
+      <c r="AG96" s="37"/>
+      <c r="AH96" s="35">
         <v>2008</v>
       </c>
-      <c r="AI96" s="26"/>
-      <c r="AJ96" s="26"/>
-      <c r="AK96" s="26"/>
-      <c r="AL96" s="24">
+      <c r="AI96" s="37"/>
+      <c r="AJ96" s="37"/>
+      <c r="AK96" s="37"/>
+      <c r="AL96" s="35">
         <v>2009</v>
       </c>
-      <c r="AM96" s="26"/>
-      <c r="AN96" s="26"/>
-      <c r="AO96" s="26"/>
-      <c r="AP96" s="24">
+      <c r="AM96" s="37"/>
+      <c r="AN96" s="37"/>
+      <c r="AO96" s="37"/>
+      <c r="AP96" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="26"/>
-      <c r="AR96" s="26"/>
-      <c r="AS96" s="26"/>
-      <c r="AT96" s="24">
+      <c r="AQ96" s="37"/>
+      <c r="AR96" s="37"/>
+      <c r="AS96" s="37"/>
+      <c r="AT96" s="35">
         <v>2011</v>
       </c>
-      <c r="AU96" s="26"/>
-      <c r="AV96" s="26"/>
-      <c r="AW96" s="26"/>
-      <c r="AX96" s="24">
+      <c r="AU96" s="37"/>
+      <c r="AV96" s="37"/>
+      <c r="AW96" s="37"/>
+      <c r="AX96" s="35">
         <v>2012</v>
       </c>
-      <c r="AY96" s="26"/>
-      <c r="AZ96" s="26"/>
-      <c r="BA96" s="26"/>
-      <c r="BB96" s="24">
+      <c r="AY96" s="37"/>
+      <c r="AZ96" s="37"/>
+      <c r="BA96" s="37"/>
+      <c r="BB96" s="35">
         <v>2013</v>
       </c>
-      <c r="BC96" s="26"/>
-      <c r="BD96" s="26"/>
-      <c r="BE96" s="26"/>
-      <c r="BF96" s="24">
+      <c r="BC96" s="37"/>
+      <c r="BD96" s="37"/>
+      <c r="BE96" s="37"/>
+      <c r="BF96" s="35">
         <v>2014</v>
       </c>
-      <c r="BG96" s="26"/>
-      <c r="BH96" s="26"/>
-      <c r="BI96" s="26"/>
-      <c r="BJ96" s="24">
+      <c r="BG96" s="37"/>
+      <c r="BH96" s="37"/>
+      <c r="BI96" s="37"/>
+      <c r="BJ96" s="35">
         <v>2015</v>
       </c>
-      <c r="BK96" s="26"/>
-      <c r="BL96" s="26"/>
-      <c r="BM96" s="26"/>
-      <c r="BN96" s="24">
+      <c r="BK96" s="37"/>
+      <c r="BL96" s="37"/>
+      <c r="BM96" s="37"/>
+      <c r="BN96" s="35">
         <v>2016</v>
       </c>
-      <c r="BO96" s="26"/>
-      <c r="BP96" s="26"/>
-      <c r="BQ96" s="26"/>
-      <c r="BR96" s="24">
+      <c r="BO96" s="37"/>
+      <c r="BP96" s="37"/>
+      <c r="BQ96" s="37"/>
+      <c r="BR96" s="35">
         <v>2017</v>
       </c>
-      <c r="BS96" s="26"/>
-      <c r="BT96" s="26"/>
-      <c r="BU96" s="26"/>
-      <c r="BV96" s="24">
+      <c r="BS96" s="37"/>
+      <c r="BT96" s="37"/>
+      <c r="BU96" s="37"/>
+      <c r="BV96" s="35">
         <v>2018</v>
       </c>
-      <c r="BW96" s="26"/>
-      <c r="BX96" s="26"/>
-      <c r="BY96" s="26"/>
-      <c r="BZ96" s="24">
+      <c r="BW96" s="37"/>
+      <c r="BX96" s="37"/>
+      <c r="BY96" s="37"/>
+      <c r="BZ96" s="35">
         <v>2019</v>
       </c>
-      <c r="CA96" s="26"/>
-      <c r="CB96" s="26"/>
-      <c r="CC96" s="26"/>
-      <c r="CD96" s="24">
+      <c r="CA96" s="37"/>
+      <c r="CB96" s="37"/>
+      <c r="CC96" s="37"/>
+      <c r="CD96" s="35">
         <v>2020</v>
       </c>
-      <c r="CE96" s="24"/>
-      <c r="CF96" s="24"/>
-      <c r="CG96" s="24"/>
+      <c r="CE96" s="35"/>
+      <c r="CF96" s="35"/>
+      <c r="CG96" s="35"/>
       <c r="CH96" s="22">
         <v>2021</v>
       </c>
@@ -37113,16 +37206,17 @@
       <c r="CM96" s="22"/>
       <c r="CN96" s="22"/>
       <c r="CO96" s="22"/>
-      <c r="CP96" s="22">
+      <c r="CP96" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ96" s="22"/>
-      <c r="CR96" s="22"/>
-      <c r="CS96" s="22"/>
-      <c r="CT96" s="22">
+      <c r="CQ96" s="26"/>
+      <c r="CR96" s="26"/>
+      <c r="CS96" s="26"/>
+      <c r="CT96" s="26">
         <v>2024</v>
       </c>
-      <c r="CU96" s="22"/>
+      <c r="CU96" s="26"/>
+      <c r="CV96" s="26"/>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -37404,23 +37498,26 @@
       <c r="CO97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP97" s="7" t="s">
+      <c r="CP97" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CQ97" s="7" t="s">
+      <c r="CQ97" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CR97" s="7" t="s">
+      <c r="CR97" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CS97" s="7" t="s">
+      <c r="CS97" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CT97" s="7" t="s">
+      <c r="CT97" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CU97" s="7" t="s">
+      <c r="CU97" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CV97" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37706,25 +37803,27 @@
       <c r="CO99" s="16">
         <v>123.50895300182034</v>
       </c>
-      <c r="CP99" s="16">
+      <c r="CP99" s="34">
         <v>124.96604439146834</v>
       </c>
-      <c r="CQ99" s="16">
+      <c r="CQ99" s="34">
         <v>143.06781777622629</v>
       </c>
-      <c r="CR99" s="16">
+      <c r="CR99" s="34">
         <v>147.72043405313894</v>
       </c>
-      <c r="CS99" s="16">
+      <c r="CS99" s="34">
         <v>126.60983207140346</v>
       </c>
-      <c r="CT99" s="16">
+      <c r="CT99" s="34">
         <v>128.24841917056341</v>
       </c>
-      <c r="CU99" s="16">
+      <c r="CU99" s="34">
         <v>145.17196767092565</v>
       </c>
-      <c r="CV99" s="10"/>
+      <c r="CV99" s="34">
+        <v>149.8836342054756</v>
+      </c>
       <c r="CW99" s="10"/>
       <c r="CX99" s="10"/>
       <c r="CY99" s="10"/>
@@ -38060,25 +38159,27 @@
       <c r="CO100" s="16">
         <v>92.356565974580619</v>
       </c>
-      <c r="CP100" s="16">
+      <c r="CP100" s="34">
         <v>106.55510314601457</v>
       </c>
-      <c r="CQ100" s="16">
+      <c r="CQ100" s="34">
         <v>104.12080693643608</v>
       </c>
-      <c r="CR100" s="16">
+      <c r="CR100" s="34">
         <v>141.61483333887026</v>
       </c>
-      <c r="CS100" s="16">
+      <c r="CS100" s="34">
         <v>101.50797088268828</v>
       </c>
-      <c r="CT100" s="16">
+      <c r="CT100" s="34">
         <v>119.14213732395818</v>
       </c>
-      <c r="CU100" s="16">
+      <c r="CU100" s="34">
         <v>98.144485109727412</v>
       </c>
-      <c r="CV100" s="10"/>
+      <c r="CV100" s="34">
+        <v>122.34980827845121</v>
+      </c>
       <c r="CW100" s="10"/>
       <c r="CX100" s="10"/>
       <c r="CY100" s="10"/>
@@ -38414,25 +38515,27 @@
       <c r="CO101" s="16">
         <v>139.65345817177814</v>
       </c>
-      <c r="CP101" s="16">
+      <c r="CP101" s="34">
         <v>120.66677029953917</v>
       </c>
-      <c r="CQ101" s="16">
+      <c r="CQ101" s="34">
         <v>131.45787386825438</v>
       </c>
-      <c r="CR101" s="16">
+      <c r="CR101" s="34">
         <v>126.59263059144152</v>
       </c>
-      <c r="CS101" s="16">
+      <c r="CS101" s="34">
         <v>142.96370467055149</v>
       </c>
-      <c r="CT101" s="16">
+      <c r="CT101" s="34">
         <v>121.22171951620844</v>
       </c>
-      <c r="CU101" s="16">
+      <c r="CU101" s="34">
         <v>134.08265670755398</v>
       </c>
-      <c r="CV101" s="10"/>
+      <c r="CV101" s="34">
+        <v>126.16008173976232</v>
+      </c>
       <c r="CW101" s="10"/>
       <c r="CX101" s="10"/>
       <c r="CY101" s="10"/>
@@ -38768,25 +38871,27 @@
       <c r="CO102" s="16">
         <v>115.52979932111984</v>
       </c>
-      <c r="CP102" s="16">
+      <c r="CP102" s="34">
         <v>108.78936473222898</v>
       </c>
-      <c r="CQ102" s="16">
+      <c r="CQ102" s="34">
         <v>130.30730637495333</v>
       </c>
-      <c r="CR102" s="16">
+      <c r="CR102" s="34">
         <v>116.81395915433652</v>
       </c>
-      <c r="CS102" s="16">
+      <c r="CS102" s="34">
         <v>117.67456008105623</v>
       </c>
-      <c r="CT102" s="16">
+      <c r="CT102" s="34">
         <v>111.28826473672446</v>
       </c>
-      <c r="CU102" s="16">
-        <v>131.88067666067974</v>
-      </c>
-      <c r="CV102" s="10"/>
+      <c r="CU102" s="34">
+        <v>131.88067666067968</v>
+      </c>
+      <c r="CV102" s="34">
+        <v>117.05432335315871</v>
+      </c>
       <c r="CW102" s="10"/>
       <c r="CX102" s="10"/>
       <c r="CY102" s="10"/>
@@ -39122,25 +39227,27 @@
       <c r="CO103" s="16">
         <v>100.67310618795669</v>
       </c>
-      <c r="CP103" s="16">
+      <c r="CP103" s="34">
         <v>101.46578383170367</v>
       </c>
-      <c r="CQ103" s="16">
+      <c r="CQ103" s="34">
         <v>104.36523833133514</v>
       </c>
-      <c r="CR103" s="16">
+      <c r="CR103" s="34">
         <v>104.08196711312956</v>
       </c>
-      <c r="CS103" s="16">
+      <c r="CS103" s="34">
         <v>100.86504728650382</v>
       </c>
-      <c r="CT103" s="16">
+      <c r="CT103" s="34">
         <v>102.33549055026118</v>
       </c>
-      <c r="CU103" s="16">
+      <c r="CU103" s="34">
         <v>105.25979751703227</v>
       </c>
-      <c r="CV103" s="10"/>
+      <c r="CV103" s="34">
+        <v>105.03957404405624</v>
+      </c>
       <c r="CW103" s="10"/>
       <c r="CX103" s="10"/>
       <c r="CY103" s="10"/>
@@ -39289,13 +39396,13 @@
       <c r="CM104" s="10"/>
       <c r="CN104" s="10"/>
       <c r="CO104" s="10"/>
-      <c r="CP104" s="10"/>
-      <c r="CQ104" s="10"/>
-      <c r="CR104" s="10"/>
-      <c r="CS104" s="10"/>
-      <c r="CT104" s="10"/>
-      <c r="CU104" s="10"/>
-      <c r="CV104" s="10"/>
+      <c r="CP104" s="29"/>
+      <c r="CQ104" s="29"/>
+      <c r="CR104" s="29"/>
+      <c r="CS104" s="29"/>
+      <c r="CT104" s="29"/>
+      <c r="CU104" s="29"/>
+      <c r="CV104" s="29"/>
       <c r="CW104" s="10"/>
       <c r="CX104" s="10"/>
       <c r="CY104" s="10"/>
@@ -39631,25 +39738,27 @@
       <c r="CO105" s="16">
         <v>120.88383060925871</v>
       </c>
-      <c r="CP105" s="16">
+      <c r="CP105" s="34">
         <v>117.88691825865428</v>
       </c>
-      <c r="CQ105" s="16">
+      <c r="CQ105" s="34">
         <v>133.89153033738992</v>
       </c>
-      <c r="CR105" s="16">
+      <c r="CR105" s="34">
         <v>134.83271290689493</v>
       </c>
-      <c r="CS105" s="16">
+      <c r="CS105" s="34">
         <v>124.2430944444894</v>
       </c>
-      <c r="CT105" s="16">
+      <c r="CT105" s="34">
         <v>121.11183735116566</v>
       </c>
-      <c r="CU105" s="16">
-        <v>135.09790075506695</v>
-      </c>
-      <c r="CV105" s="10"/>
+      <c r="CU105" s="34">
+        <v>135.12692904023962</v>
+      </c>
+      <c r="CV105" s="34">
+        <v>135.12069421355625</v>
+      </c>
       <c r="CW105" s="10"/>
       <c r="CX105" s="10"/>
       <c r="CY105" s="10"/>
@@ -39799,12 +39908,13 @@
       <c r="CM106" s="13"/>
       <c r="CN106" s="13"/>
       <c r="CO106" s="13"/>
-      <c r="CP106" s="13"/>
-      <c r="CQ106" s="13"/>
-      <c r="CR106" s="13"/>
-      <c r="CS106" s="13"/>
-      <c r="CT106" s="13"/>
-      <c r="CU106" s="13"/>
+      <c r="CP106" s="32"/>
+      <c r="CQ106" s="32"/>
+      <c r="CR106" s="32"/>
+      <c r="CS106" s="32"/>
+      <c r="CT106" s="32"/>
+      <c r="CU106" s="32"/>
+      <c r="CV106" s="32"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -39843,132 +39953,132 @@
     </row>
     <row r="118" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="24">
+      <c r="B118" s="35">
         <v>2000</v>
       </c>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="24">
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="35">
         <v>2001</v>
       </c>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="24">
+      <c r="G118" s="37"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="35">
         <v>2002</v>
       </c>
-      <c r="K118" s="26"/>
-      <c r="L118" s="26"/>
-      <c r="M118" s="26"/>
-      <c r="N118" s="24">
+      <c r="K118" s="37"/>
+      <c r="L118" s="37"/>
+      <c r="M118" s="37"/>
+      <c r="N118" s="35">
         <v>2003</v>
       </c>
-      <c r="O118" s="26"/>
-      <c r="P118" s="26"/>
-      <c r="Q118" s="26"/>
-      <c r="R118" s="24">
+      <c r="O118" s="37"/>
+      <c r="P118" s="37"/>
+      <c r="Q118" s="37"/>
+      <c r="R118" s="35">
         <v>2004</v>
       </c>
-      <c r="S118" s="26"/>
-      <c r="T118" s="26"/>
-      <c r="U118" s="26"/>
-      <c r="V118" s="24">
+      <c r="S118" s="37"/>
+      <c r="T118" s="37"/>
+      <c r="U118" s="37"/>
+      <c r="V118" s="35">
         <v>2005</v>
       </c>
-      <c r="W118" s="26"/>
-      <c r="X118" s="26"/>
-      <c r="Y118" s="26"/>
-      <c r="Z118" s="24">
+      <c r="W118" s="37"/>
+      <c r="X118" s="37"/>
+      <c r="Y118" s="37"/>
+      <c r="Z118" s="35">
         <v>2006</v>
       </c>
-      <c r="AA118" s="26"/>
-      <c r="AB118" s="26"/>
-      <c r="AC118" s="26"/>
-      <c r="AD118" s="24">
+      <c r="AA118" s="37"/>
+      <c r="AB118" s="37"/>
+      <c r="AC118" s="37"/>
+      <c r="AD118" s="35">
         <v>2007</v>
       </c>
-      <c r="AE118" s="26"/>
-      <c r="AF118" s="26"/>
-      <c r="AG118" s="26"/>
-      <c r="AH118" s="24">
+      <c r="AE118" s="37"/>
+      <c r="AF118" s="37"/>
+      <c r="AG118" s="37"/>
+      <c r="AH118" s="35">
         <v>2008</v>
       </c>
-      <c r="AI118" s="26"/>
-      <c r="AJ118" s="26"/>
-      <c r="AK118" s="26"/>
-      <c r="AL118" s="24">
+      <c r="AI118" s="37"/>
+      <c r="AJ118" s="37"/>
+      <c r="AK118" s="37"/>
+      <c r="AL118" s="35">
         <v>2009</v>
       </c>
-      <c r="AM118" s="26"/>
-      <c r="AN118" s="26"/>
-      <c r="AO118" s="26"/>
-      <c r="AP118" s="24">
+      <c r="AM118" s="37"/>
+      <c r="AN118" s="37"/>
+      <c r="AO118" s="37"/>
+      <c r="AP118" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="26"/>
-      <c r="AR118" s="26"/>
-      <c r="AS118" s="26"/>
-      <c r="AT118" s="24">
+      <c r="AQ118" s="37"/>
+      <c r="AR118" s="37"/>
+      <c r="AS118" s="37"/>
+      <c r="AT118" s="35">
         <v>2011</v>
       </c>
-      <c r="AU118" s="26"/>
-      <c r="AV118" s="26"/>
-      <c r="AW118" s="26"/>
-      <c r="AX118" s="24">
+      <c r="AU118" s="37"/>
+      <c r="AV118" s="37"/>
+      <c r="AW118" s="37"/>
+      <c r="AX118" s="35">
         <v>2012</v>
       </c>
-      <c r="AY118" s="26"/>
-      <c r="AZ118" s="26"/>
-      <c r="BA118" s="26"/>
-      <c r="BB118" s="24">
+      <c r="AY118" s="37"/>
+      <c r="AZ118" s="37"/>
+      <c r="BA118" s="37"/>
+      <c r="BB118" s="35">
         <v>2013</v>
       </c>
-      <c r="BC118" s="26"/>
-      <c r="BD118" s="26"/>
-      <c r="BE118" s="26"/>
-      <c r="BF118" s="24">
+      <c r="BC118" s="37"/>
+      <c r="BD118" s="37"/>
+      <c r="BE118" s="37"/>
+      <c r="BF118" s="35">
         <v>2014</v>
       </c>
-      <c r="BG118" s="26"/>
-      <c r="BH118" s="26"/>
-      <c r="BI118" s="26"/>
-      <c r="BJ118" s="24">
+      <c r="BG118" s="37"/>
+      <c r="BH118" s="37"/>
+      <c r="BI118" s="37"/>
+      <c r="BJ118" s="35">
         <v>2015</v>
       </c>
-      <c r="BK118" s="26"/>
-      <c r="BL118" s="26"/>
-      <c r="BM118" s="26"/>
-      <c r="BN118" s="24">
+      <c r="BK118" s="37"/>
+      <c r="BL118" s="37"/>
+      <c r="BM118" s="37"/>
+      <c r="BN118" s="35">
         <v>2016</v>
       </c>
-      <c r="BO118" s="26"/>
-      <c r="BP118" s="26"/>
-      <c r="BQ118" s="26"/>
-      <c r="BR118" s="24">
+      <c r="BO118" s="37"/>
+      <c r="BP118" s="37"/>
+      <c r="BQ118" s="37"/>
+      <c r="BR118" s="35">
         <v>2017</v>
       </c>
-      <c r="BS118" s="26"/>
-      <c r="BT118" s="26"/>
-      <c r="BU118" s="26"/>
-      <c r="BV118" s="24">
+      <c r="BS118" s="37"/>
+      <c r="BT118" s="37"/>
+      <c r="BU118" s="37"/>
+      <c r="BV118" s="35">
         <v>2018</v>
       </c>
-      <c r="BW118" s="26"/>
-      <c r="BX118" s="26"/>
-      <c r="BY118" s="26"/>
-      <c r="BZ118" s="24">
+      <c r="BW118" s="37"/>
+      <c r="BX118" s="37"/>
+      <c r="BY118" s="37"/>
+      <c r="BZ118" s="35">
         <v>2019</v>
       </c>
-      <c r="CA118" s="26"/>
-      <c r="CB118" s="26"/>
-      <c r="CC118" s="26"/>
-      <c r="CD118" s="24">
+      <c r="CA118" s="37"/>
+      <c r="CB118" s="37"/>
+      <c r="CC118" s="37"/>
+      <c r="CD118" s="35">
         <v>2020</v>
       </c>
-      <c r="CE118" s="24"/>
-      <c r="CF118" s="24"/>
-      <c r="CG118" s="24"/>
+      <c r="CE118" s="35"/>
+      <c r="CF118" s="35"/>
+      <c r="CG118" s="35"/>
       <c r="CH118" s="22">
         <v>2021</v>
       </c>
@@ -39981,16 +40091,17 @@
       <c r="CM118" s="22"/>
       <c r="CN118" s="22"/>
       <c r="CO118" s="22"/>
-      <c r="CP118" s="22">
+      <c r="CP118" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ118" s="22"/>
-      <c r="CR118" s="22"/>
-      <c r="CS118" s="22"/>
-      <c r="CT118" s="22">
+      <c r="CQ118" s="26"/>
+      <c r="CR118" s="26"/>
+      <c r="CS118" s="26"/>
+      <c r="CT118" s="26">
         <v>2024</v>
       </c>
-      <c r="CU118" s="22"/>
+      <c r="CU118" s="26"/>
+      <c r="CV118" s="26"/>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
@@ -40272,23 +40383,26 @@
       <c r="CO119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP119" s="7" t="s">
+      <c r="CP119" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CQ119" s="7" t="s">
+      <c r="CQ119" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CR119" s="7" t="s">
+      <c r="CR119" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CS119" s="7" t="s">
+      <c r="CS119" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CT119" s="7" t="s">
+      <c r="CT119" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CU119" s="7" t="s">
+      <c r="CU119" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CV119" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40574,25 +40688,27 @@
       <c r="CO121" s="16">
         <v>54.893731193400306</v>
       </c>
-      <c r="CP121" s="16">
+      <c r="CP121" s="34">
         <v>51.29588013927777</v>
       </c>
-      <c r="CQ121" s="16">
+      <c r="CQ121" s="34">
         <v>51.307773175066394</v>
       </c>
-      <c r="CR121" s="16">
+      <c r="CR121" s="34">
         <v>57.740293935493185</v>
       </c>
-      <c r="CS121" s="16">
+      <c r="CS121" s="34">
         <v>56.055362160773683</v>
       </c>
-      <c r="CT121" s="16">
+      <c r="CT121" s="34">
         <v>51.46908702775994</v>
       </c>
-      <c r="CU121" s="16">
-        <v>52.140888261689952</v>
-      </c>
-      <c r="CV121" s="10"/>
+      <c r="CU121" s="34">
+        <v>52.358448557437953</v>
+      </c>
+      <c r="CV121" s="34">
+        <v>57.303793428814906</v>
+      </c>
       <c r="CW121" s="10"/>
       <c r="CX121" s="10"/>
       <c r="CY121" s="10"/>
@@ -40928,25 +41044,27 @@
       <c r="CO122" s="16">
         <v>3.8792728110067012</v>
       </c>
-      <c r="CP122" s="16">
+      <c r="CP122" s="34">
         <v>5.4373725193923148</v>
       </c>
-      <c r="CQ122" s="16">
+      <c r="CQ122" s="34">
         <v>3.5378407078331162</v>
       </c>
-      <c r="CR122" s="16">
+      <c r="CR122" s="34">
         <v>3.7049447495305969</v>
       </c>
-      <c r="CS122" s="16">
+      <c r="CS122" s="34">
         <v>3.9540950605239078</v>
       </c>
-      <c r="CT122" s="16">
+      <c r="CT122" s="34">
         <v>5.7650422447247784</v>
       </c>
-      <c r="CU122" s="16">
-        <v>4.6733251501914204</v>
-      </c>
-      <c r="CV122" s="10"/>
+      <c r="CU122" s="34">
+        <v>4.6712705109781778</v>
+      </c>
+      <c r="CV122" s="34">
+        <v>4.3035133256196918</v>
+      </c>
       <c r="CW122" s="10"/>
       <c r="CX122" s="10"/>
       <c r="CY122" s="10"/>
@@ -41282,25 +41400,27 @@
       <c r="CO123" s="16">
         <v>13.825274615371264</v>
       </c>
-      <c r="CP123" s="16">
+      <c r="CP123" s="34">
         <v>14.917715591789987</v>
       </c>
-      <c r="CQ123" s="16">
+      <c r="CQ123" s="34">
         <v>14.493051412808047</v>
       </c>
-      <c r="CR123" s="16">
+      <c r="CR123" s="34">
         <v>13.082829011796774</v>
       </c>
-      <c r="CS123" s="16">
+      <c r="CS123" s="34">
         <v>14.280789822669368</v>
       </c>
-      <c r="CT123" s="16">
+      <c r="CT123" s="34">
         <v>15.317921470075134</v>
       </c>
-      <c r="CU123" s="16">
-        <v>15.570220166433135</v>
-      </c>
-      <c r="CV123" s="10"/>
+      <c r="CU123" s="34">
+        <v>15.563374679786124</v>
+      </c>
+      <c r="CV123" s="34">
+        <v>13.534655242663524</v>
+      </c>
       <c r="CW123" s="10"/>
       <c r="CX123" s="10"/>
       <c r="CY123" s="10"/>
@@ -41636,25 +41756,27 @@
       <c r="CO124" s="16">
         <v>23.796100113693839</v>
       </c>
-      <c r="CP124" s="16">
+      <c r="CP124" s="34">
         <v>24.506381935192522</v>
       </c>
-      <c r="CQ124" s="16">
+      <c r="CQ124" s="34">
         <v>26.089737548738768</v>
       </c>
-      <c r="CR124" s="16">
+      <c r="CR124" s="34">
         <v>22.396337206521469</v>
       </c>
-      <c r="CS124" s="16">
+      <c r="CS124" s="34">
         <v>22.315986809667653</v>
       </c>
-      <c r="CT124" s="16">
+      <c r="CT124" s="34">
         <v>23.668991250389148</v>
       </c>
-      <c r="CU124" s="16">
-        <v>23.496744768453819</v>
-      </c>
-      <c r="CV124" s="10"/>
+      <c r="CU124" s="34">
+        <v>23.28989544891547</v>
+      </c>
+      <c r="CV124" s="34">
+        <v>21.850918101846428</v>
+      </c>
       <c r="CW124" s="10"/>
       <c r="CX124" s="10"/>
       <c r="CY124" s="10"/>
@@ -41990,25 +42112,27 @@
       <c r="CO125" s="16">
         <v>3.6056212665278946</v>
       </c>
-      <c r="CP125" s="16">
+      <c r="CP125" s="34">
         <v>3.8426498143474035</v>
       </c>
-      <c r="CQ125" s="16">
+      <c r="CQ125" s="34">
         <v>4.5715971555536763</v>
       </c>
-      <c r="CR125" s="16">
+      <c r="CR125" s="34">
         <v>3.0755950966579753</v>
       </c>
-      <c r="CS125" s="16">
+      <c r="CS125" s="34">
         <v>3.3937661463653956</v>
       </c>
-      <c r="CT125" s="16">
+      <c r="CT125" s="34">
         <v>3.7789580070509934</v>
       </c>
-      <c r="CU125" s="16">
-        <v>4.1188216532316755</v>
-      </c>
-      <c r="CV125" s="10"/>
+      <c r="CU125" s="34">
+        <v>4.1170108028822749</v>
+      </c>
+      <c r="CV125" s="34">
+        <v>3.007119901055447</v>
+      </c>
       <c r="CW125" s="10"/>
       <c r="CX125" s="10"/>
       <c r="CY125" s="10"/>
@@ -42157,13 +42281,13 @@
       <c r="CM126" s="10"/>
       <c r="CN126" s="10"/>
       <c r="CO126" s="10"/>
-      <c r="CP126" s="10"/>
-      <c r="CQ126" s="10"/>
-      <c r="CR126" s="10"/>
-      <c r="CS126" s="10"/>
-      <c r="CT126" s="10"/>
-      <c r="CU126" s="10"/>
-      <c r="CV126" s="10"/>
+      <c r="CP126" s="29"/>
+      <c r="CQ126" s="29"/>
+      <c r="CR126" s="29"/>
+      <c r="CS126" s="29"/>
+      <c r="CT126" s="29"/>
+      <c r="CU126" s="29"/>
+      <c r="CV126" s="29"/>
       <c r="CW126" s="10"/>
       <c r="CX126" s="10"/>
       <c r="CY126" s="10"/>
@@ -42499,25 +42623,27 @@
       <c r="CO127" s="16">
         <v>100</v>
       </c>
-      <c r="CP127" s="16">
+      <c r="CP127" s="34">
         <v>100</v>
       </c>
-      <c r="CQ127" s="16">
+      <c r="CQ127" s="34">
         <v>100</v>
       </c>
-      <c r="CR127" s="16">
+      <c r="CR127" s="34">
         <v>100</v>
       </c>
-      <c r="CS127" s="16">
+      <c r="CS127" s="34">
         <v>100</v>
       </c>
-      <c r="CT127" s="16">
+      <c r="CT127" s="34">
         <v>100</v>
       </c>
-      <c r="CU127" s="16">
+      <c r="CU127" s="34">
         <v>100</v>
       </c>
-      <c r="CV127" s="10"/>
+      <c r="CV127" s="34">
+        <v>100</v>
+      </c>
       <c r="CW127" s="10"/>
       <c r="CX127" s="10"/>
       <c r="CY127" s="10"/>
@@ -42667,12 +42793,13 @@
       <c r="CM128" s="13"/>
       <c r="CN128" s="13"/>
       <c r="CO128" s="13"/>
-      <c r="CP128" s="13"/>
-      <c r="CQ128" s="13"/>
-      <c r="CR128" s="13"/>
-      <c r="CS128" s="13"/>
-      <c r="CT128" s="13"/>
-      <c r="CU128" s="13"/>
+      <c r="CP128" s="32"/>
+      <c r="CQ128" s="32"/>
+      <c r="CR128" s="32"/>
+      <c r="CS128" s="32"/>
+      <c r="CT128" s="32"/>
+      <c r="CU128" s="32"/>
+      <c r="CV128" s="32"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -42772,13 +42899,13 @@
       <c r="CM130" s="10"/>
       <c r="CN130" s="10"/>
       <c r="CO130" s="10"/>
-      <c r="CP130" s="10"/>
-      <c r="CQ130" s="10"/>
-      <c r="CR130" s="10"/>
-      <c r="CS130" s="10"/>
-      <c r="CT130" s="10"/>
-      <c r="CU130" s="10"/>
-      <c r="CV130" s="10"/>
+      <c r="CP130" s="29"/>
+      <c r="CQ130" s="29"/>
+      <c r="CR130" s="29"/>
+      <c r="CS130" s="29"/>
+      <c r="CT130" s="29"/>
+      <c r="CU130" s="29"/>
+      <c r="CV130" s="29"/>
       <c r="CW130" s="10"/>
       <c r="CX130" s="10"/>
       <c r="CY130" s="10"/>
@@ -42927,13 +43054,13 @@
       <c r="CM131" s="10"/>
       <c r="CN131" s="10"/>
       <c r="CO131" s="10"/>
-      <c r="CP131" s="10"/>
-      <c r="CQ131" s="10"/>
-      <c r="CR131" s="10"/>
-      <c r="CS131" s="10"/>
-      <c r="CT131" s="10"/>
-      <c r="CU131" s="10"/>
-      <c r="CV131" s="10"/>
+      <c r="CP131" s="29"/>
+      <c r="CQ131" s="29"/>
+      <c r="CR131" s="29"/>
+      <c r="CS131" s="29"/>
+      <c r="CT131" s="29"/>
+      <c r="CU131" s="29"/>
+      <c r="CV131" s="29"/>
       <c r="CW131" s="10"/>
       <c r="CX131" s="10"/>
       <c r="CY131" s="10"/>
@@ -43021,132 +43148,132 @@
     </row>
     <row r="140" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="24">
+      <c r="B140" s="35">
         <v>2000</v>
       </c>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="24">
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="35">
         <v>2001</v>
       </c>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-      <c r="J140" s="24">
+      <c r="G140" s="37"/>
+      <c r="H140" s="37"/>
+      <c r="I140" s="37"/>
+      <c r="J140" s="35">
         <v>2002</v>
       </c>
-      <c r="K140" s="26"/>
-      <c r="L140" s="26"/>
-      <c r="M140" s="26"/>
-      <c r="N140" s="24">
+      <c r="K140" s="37"/>
+      <c r="L140" s="37"/>
+      <c r="M140" s="37"/>
+      <c r="N140" s="35">
         <v>2003</v>
       </c>
-      <c r="O140" s="26"/>
-      <c r="P140" s="26"/>
-      <c r="Q140" s="26"/>
-      <c r="R140" s="24">
+      <c r="O140" s="37"/>
+      <c r="P140" s="37"/>
+      <c r="Q140" s="37"/>
+      <c r="R140" s="35">
         <v>2004</v>
       </c>
-      <c r="S140" s="26"/>
-      <c r="T140" s="26"/>
-      <c r="U140" s="26"/>
-      <c r="V140" s="24">
+      <c r="S140" s="37"/>
+      <c r="T140" s="37"/>
+      <c r="U140" s="37"/>
+      <c r="V140" s="35">
         <v>2005</v>
       </c>
-      <c r="W140" s="26"/>
-      <c r="X140" s="26"/>
-      <c r="Y140" s="26"/>
-      <c r="Z140" s="24">
+      <c r="W140" s="37"/>
+      <c r="X140" s="37"/>
+      <c r="Y140" s="37"/>
+      <c r="Z140" s="35">
         <v>2006</v>
       </c>
-      <c r="AA140" s="26"/>
-      <c r="AB140" s="26"/>
-      <c r="AC140" s="26"/>
-      <c r="AD140" s="24">
+      <c r="AA140" s="37"/>
+      <c r="AB140" s="37"/>
+      <c r="AC140" s="37"/>
+      <c r="AD140" s="35">
         <v>2007</v>
       </c>
-      <c r="AE140" s="26"/>
-      <c r="AF140" s="26"/>
-      <c r="AG140" s="26"/>
-      <c r="AH140" s="24">
+      <c r="AE140" s="37"/>
+      <c r="AF140" s="37"/>
+      <c r="AG140" s="37"/>
+      <c r="AH140" s="35">
         <v>2008</v>
       </c>
-      <c r="AI140" s="26"/>
-      <c r="AJ140" s="26"/>
-      <c r="AK140" s="26"/>
-      <c r="AL140" s="24">
+      <c r="AI140" s="37"/>
+      <c r="AJ140" s="37"/>
+      <c r="AK140" s="37"/>
+      <c r="AL140" s="35">
         <v>2009</v>
       </c>
-      <c r="AM140" s="26"/>
-      <c r="AN140" s="26"/>
-      <c r="AO140" s="26"/>
-      <c r="AP140" s="24">
+      <c r="AM140" s="37"/>
+      <c r="AN140" s="37"/>
+      <c r="AO140" s="37"/>
+      <c r="AP140" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="26"/>
-      <c r="AR140" s="26"/>
-      <c r="AS140" s="26"/>
-      <c r="AT140" s="24">
+      <c r="AQ140" s="37"/>
+      <c r="AR140" s="37"/>
+      <c r="AS140" s="37"/>
+      <c r="AT140" s="35">
         <v>2011</v>
       </c>
-      <c r="AU140" s="26"/>
-      <c r="AV140" s="26"/>
-      <c r="AW140" s="26"/>
-      <c r="AX140" s="24">
+      <c r="AU140" s="37"/>
+      <c r="AV140" s="37"/>
+      <c r="AW140" s="37"/>
+      <c r="AX140" s="35">
         <v>2012</v>
       </c>
-      <c r="AY140" s="26"/>
-      <c r="AZ140" s="26"/>
-      <c r="BA140" s="26"/>
-      <c r="BB140" s="24">
+      <c r="AY140" s="37"/>
+      <c r="AZ140" s="37"/>
+      <c r="BA140" s="37"/>
+      <c r="BB140" s="35">
         <v>2013</v>
       </c>
-      <c r="BC140" s="26"/>
-      <c r="BD140" s="26"/>
-      <c r="BE140" s="26"/>
-      <c r="BF140" s="24">
+      <c r="BC140" s="37"/>
+      <c r="BD140" s="37"/>
+      <c r="BE140" s="37"/>
+      <c r="BF140" s="35">
         <v>2014</v>
       </c>
-      <c r="BG140" s="26"/>
-      <c r="BH140" s="26"/>
-      <c r="BI140" s="26"/>
-      <c r="BJ140" s="24">
+      <c r="BG140" s="37"/>
+      <c r="BH140" s="37"/>
+      <c r="BI140" s="37"/>
+      <c r="BJ140" s="35">
         <v>2015</v>
       </c>
-      <c r="BK140" s="26"/>
-      <c r="BL140" s="26"/>
-      <c r="BM140" s="26"/>
-      <c r="BN140" s="24">
+      <c r="BK140" s="37"/>
+      <c r="BL140" s="37"/>
+      <c r="BM140" s="37"/>
+      <c r="BN140" s="35">
         <v>2016</v>
       </c>
-      <c r="BO140" s="26"/>
-      <c r="BP140" s="26"/>
-      <c r="BQ140" s="26"/>
-      <c r="BR140" s="24">
+      <c r="BO140" s="37"/>
+      <c r="BP140" s="37"/>
+      <c r="BQ140" s="37"/>
+      <c r="BR140" s="35">
         <v>2017</v>
       </c>
-      <c r="BS140" s="26"/>
-      <c r="BT140" s="26"/>
-      <c r="BU140" s="26"/>
-      <c r="BV140" s="24">
+      <c r="BS140" s="37"/>
+      <c r="BT140" s="37"/>
+      <c r="BU140" s="37"/>
+      <c r="BV140" s="35">
         <v>2018</v>
       </c>
-      <c r="BW140" s="26"/>
-      <c r="BX140" s="26"/>
-      <c r="BY140" s="26"/>
-      <c r="BZ140" s="24">
+      <c r="BW140" s="37"/>
+      <c r="BX140" s="37"/>
+      <c r="BY140" s="37"/>
+      <c r="BZ140" s="35">
         <v>2019</v>
       </c>
-      <c r="CA140" s="26"/>
-      <c r="CB140" s="26"/>
-      <c r="CC140" s="26"/>
-      <c r="CD140" s="24">
+      <c r="CA140" s="37"/>
+      <c r="CB140" s="37"/>
+      <c r="CC140" s="37"/>
+      <c r="CD140" s="35">
         <v>2020</v>
       </c>
-      <c r="CE140" s="24"/>
-      <c r="CF140" s="24"/>
-      <c r="CG140" s="24"/>
+      <c r="CE140" s="35"/>
+      <c r="CF140" s="35"/>
+      <c r="CG140" s="35"/>
       <c r="CH140" s="22">
         <v>2021</v>
       </c>
@@ -43159,16 +43286,17 @@
       <c r="CM140" s="22"/>
       <c r="CN140" s="22"/>
       <c r="CO140" s="22"/>
-      <c r="CP140" s="22">
+      <c r="CP140" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ140" s="22"/>
-      <c r="CR140" s="22"/>
-      <c r="CS140" s="22"/>
-      <c r="CT140" s="22">
+      <c r="CQ140" s="26"/>
+      <c r="CR140" s="26"/>
+      <c r="CS140" s="26"/>
+      <c r="CT140" s="26">
         <v>2024</v>
       </c>
-      <c r="CU140" s="22"/>
+      <c r="CU140" s="26"/>
+      <c r="CV140" s="26"/>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
@@ -43450,23 +43578,26 @@
       <c r="CO141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CP141" s="7" t="s">
+      <c r="CP141" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CQ141" s="7" t="s">
+      <c r="CQ141" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CR141" s="7" t="s">
+      <c r="CR141" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CS141" s="7" t="s">
+      <c r="CS141" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CT141" s="7" t="s">
+      <c r="CT141" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CU141" s="7" t="s">
+      <c r="CU141" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CV141" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43752,25 +43883,27 @@
       <c r="CO143" s="16">
         <v>53.726991783303212</v>
       </c>
-      <c r="CP143" s="16">
+      <c r="CP143" s="34">
         <v>48.390050740836394</v>
       </c>
-      <c r="CQ143" s="16">
+      <c r="CQ143" s="34">
         <v>48.016922151970256</v>
       </c>
-      <c r="CR143" s="16">
+      <c r="CR143" s="34">
         <v>52.702799888629535</v>
       </c>
-      <c r="CS143" s="16">
+      <c r="CS143" s="34">
         <v>55.007510405142433</v>
       </c>
-      <c r="CT143" s="16">
+      <c r="CT143" s="34">
         <v>48.605010003505896</v>
       </c>
-      <c r="CU143" s="16">
-        <v>48.522622243616439</v>
-      </c>
-      <c r="CV143" s="10"/>
+      <c r="CU143" s="34">
+        <v>48.73555464175822</v>
+      </c>
+      <c r="CV143" s="34">
+        <v>51.659598395892282</v>
+      </c>
       <c r="CW143" s="10"/>
       <c r="CX143" s="10"/>
       <c r="CY143" s="10"/>
@@ -44106,25 +44239,27 @@
       <c r="CO144" s="16">
         <v>5.0775096759433875</v>
       </c>
-      <c r="CP144" s="16">
+      <c r="CP144" s="34">
         <v>6.0156207521763321</v>
       </c>
-      <c r="CQ144" s="16">
+      <c r="CQ144" s="34">
         <v>4.5493971896593939</v>
       </c>
-      <c r="CR144" s="16">
+      <c r="CR144" s="34">
         <v>3.5275100776625461</v>
       </c>
-      <c r="CS144" s="16">
+      <c r="CS144" s="34">
         <v>4.839708663026232</v>
       </c>
-      <c r="CT144" s="16">
+      <c r="CT144" s="34">
         <v>5.8603519657129981</v>
       </c>
-      <c r="CU144" s="16">
-        <v>6.4329281123727959</v>
-      </c>
-      <c r="CV144" s="10"/>
+      <c r="CU144" s="34">
+        <v>6.4314814852714566</v>
+      </c>
+      <c r="CV144" s="34">
+        <v>4.7527145019436707</v>
+      </c>
       <c r="CW144" s="10"/>
       <c r="CX144" s="10"/>
       <c r="CY144" s="10"/>
@@ -44460,25 +44595,27 @@
       <c r="CO145" s="16">
         <v>11.967137632032939</v>
       </c>
-      <c r="CP145" s="16">
+      <c r="CP145" s="34">
         <v>14.574049791916199</v>
       </c>
-      <c r="CQ145" s="16">
+      <c r="CQ145" s="34">
         <v>14.76135872138085</v>
       </c>
-      <c r="CR145" s="16">
+      <c r="CR145" s="34">
         <v>13.934407713278436</v>
       </c>
-      <c r="CS145" s="16">
+      <c r="CS145" s="34">
         <v>12.41076903238149</v>
       </c>
-      <c r="CT145" s="16">
+      <c r="CT145" s="34">
         <v>15.304036446980223</v>
       </c>
-      <c r="CU145" s="16">
-        <v>15.688114409660392</v>
-      </c>
-      <c r="CV145" s="10"/>
+      <c r="CU145" s="34">
+        <v>15.684586490324518</v>
+      </c>
+      <c r="CV145" s="34">
+        <v>14.49596407286926</v>
+      </c>
       <c r="CW145" s="10"/>
       <c r="CX145" s="10"/>
       <c r="CY145" s="10"/>
@@ -44814,25 +44951,27 @@
       <c r="CO146" s="16">
         <v>24.898889742803068</v>
       </c>
-      <c r="CP146" s="16">
+      <c r="CP146" s="34">
         <v>26.555737788526113</v>
       </c>
-      <c r="CQ146" s="16">
+      <c r="CQ146" s="34">
         <v>26.807360106500777</v>
       </c>
-      <c r="CR146" s="16">
+      <c r="CR146" s="34">
         <v>25.851010671962271</v>
       </c>
-      <c r="CS146" s="16">
+      <c r="CS146" s="34">
         <v>23.561653894484071</v>
       </c>
-      <c r="CT146" s="16">
+      <c r="CT146" s="34">
         <v>25.758286602498657</v>
       </c>
-      <c r="CU146" s="16">
-        <v>24.06994696397512</v>
-      </c>
-      <c r="CV146" s="10"/>
+      <c r="CU146" s="34">
+        <v>23.863177907233986</v>
+      </c>
+      <c r="CV146" s="34">
+        <v>25.223427367284668</v>
+      </c>
       <c r="CW146" s="10"/>
       <c r="CX146" s="10"/>
       <c r="CY146" s="10"/>
@@ -45168,25 +45307,27 @@
       <c r="CO147" s="16">
         <v>4.3294711659173979</v>
       </c>
-      <c r="CP147" s="16">
+      <c r="CP147" s="34">
         <v>4.4645409265449638</v>
       </c>
-      <c r="CQ147" s="16">
+      <c r="CQ147" s="34">
         <v>5.8649618304887357</v>
       </c>
-      <c r="CR147" s="16">
+      <c r="CR147" s="34">
         <v>3.9842716484672094</v>
       </c>
-      <c r="CS147" s="16">
+      <c r="CS147" s="34">
         <v>4.1803580049657656</v>
       </c>
-      <c r="CT147" s="16">
+      <c r="CT147" s="34">
         <v>4.4723149813022216</v>
       </c>
-      <c r="CU147" s="16">
-        <v>5.2863882703752534</v>
-      </c>
-      <c r="CV147" s="10"/>
+      <c r="CU147" s="34">
+        <v>5.2851994754118188</v>
+      </c>
+      <c r="CV147" s="34">
+        <v>3.8682956620101105</v>
+      </c>
       <c r="CW147" s="10"/>
       <c r="CX147" s="10"/>
       <c r="CY147" s="10"/>
@@ -45335,13 +45476,13 @@
       <c r="CM148" s="10"/>
       <c r="CN148" s="10"/>
       <c r="CO148" s="10"/>
-      <c r="CP148" s="10"/>
-      <c r="CQ148" s="10"/>
-      <c r="CR148" s="10"/>
-      <c r="CS148" s="10"/>
-      <c r="CT148" s="10"/>
-      <c r="CU148" s="10"/>
-      <c r="CV148" s="10"/>
+      <c r="CP148" s="29"/>
+      <c r="CQ148" s="29"/>
+      <c r="CR148" s="29"/>
+      <c r="CS148" s="29"/>
+      <c r="CT148" s="29"/>
+      <c r="CU148" s="29"/>
+      <c r="CV148" s="29"/>
       <c r="CW148" s="10"/>
       <c r="CX148" s="10"/>
       <c r="CY148" s="10"/>
@@ -45677,25 +45818,27 @@
       <c r="CO149" s="16">
         <v>100</v>
       </c>
-      <c r="CP149" s="16">
+      <c r="CP149" s="34">
         <v>100</v>
       </c>
-      <c r="CQ149" s="16">
+      <c r="CQ149" s="34">
         <v>100</v>
       </c>
-      <c r="CR149" s="16">
+      <c r="CR149" s="34">
         <v>100</v>
       </c>
-      <c r="CS149" s="16">
+      <c r="CS149" s="34">
         <v>100</v>
       </c>
-      <c r="CT149" s="16">
+      <c r="CT149" s="34">
         <v>100</v>
       </c>
-      <c r="CU149" s="16">
+      <c r="CU149" s="34">
         <v>100</v>
       </c>
-      <c r="CV149" s="10"/>
+      <c r="CV149" s="34">
+        <v>100</v>
+      </c>
       <c r="CW149" s="10"/>
       <c r="CX149" s="10"/>
       <c r="CY149" s="10"/>
@@ -45845,12 +45988,13 @@
       <c r="CM150" s="13"/>
       <c r="CN150" s="13"/>
       <c r="CO150" s="13"/>
-      <c r="CP150" s="13"/>
-      <c r="CQ150" s="13"/>
-      <c r="CR150" s="13"/>
-      <c r="CS150" s="13"/>
-      <c r="CT150" s="13"/>
-      <c r="CU150" s="13"/>
+      <c r="CP150" s="32"/>
+      <c r="CQ150" s="32"/>
+      <c r="CR150" s="32"/>
+      <c r="CS150" s="32"/>
+      <c r="CT150" s="32"/>
+      <c r="CU150" s="32"/>
+      <c r="CV150" s="32"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -45951,13 +46095,13 @@
       <c r="CM152" s="1"/>
       <c r="CN152" s="1"/>
       <c r="CO152" s="1"/>
-      <c r="CP152" s="1"/>
-      <c r="CQ152" s="1"/>
-      <c r="CR152" s="1"/>
-      <c r="CS152" s="1"/>
-      <c r="CT152" s="1"/>
-      <c r="CU152" s="1"/>
-      <c r="CV152" s="17"/>
+      <c r="CP152" s="24"/>
+      <c r="CQ152" s="24"/>
+      <c r="CR152" s="24"/>
+      <c r="CS152" s="24"/>
+      <c r="CT152" s="24"/>
+      <c r="CU152" s="24"/>
+      <c r="CV152" s="24"/>
       <c r="CW152" s="17"/>
       <c r="CX152" s="17"/>
       <c r="CY152" s="17"/>
@@ -46107,13 +46251,13 @@
       <c r="CM153" s="1"/>
       <c r="CN153" s="1"/>
       <c r="CO153" s="1"/>
-      <c r="CP153" s="1"/>
-      <c r="CQ153" s="1"/>
-      <c r="CR153" s="1"/>
-      <c r="CS153" s="1"/>
-      <c r="CT153" s="1"/>
-      <c r="CU153" s="1"/>
-      <c r="CV153" s="17"/>
+      <c r="CP153" s="24"/>
+      <c r="CQ153" s="24"/>
+      <c r="CR153" s="24"/>
+      <c r="CS153" s="24"/>
+      <c r="CT153" s="24"/>
+      <c r="CU153" s="24"/>
+      <c r="CV153" s="24"/>
       <c r="CW153" s="17"/>
       <c r="CX153" s="17"/>
       <c r="CY153" s="17"/>
@@ -46324,9 +46468,9 @@
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="97" man="1"/>
-    <brk id="88" max="97" man="1"/>
-    <brk id="109" max="97" man="1"/>
+    <brk id="44" max="99" man="1"/>
+    <brk id="88" max="99" man="1"/>
+    <brk id="109" max="99" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A1982-04DC-4885-BF09-E2F6CFFED41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAC5507-E896-49F4-8D02-4521C193270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="8" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CV$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CW$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -629,13 +629,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -778,13 +778,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23637,15 +23646,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
     <col min="2" max="93" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="100" width="10.109375" style="24" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="101" width="10.109375" style="24" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23660,7 +23669,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23670,7 +23679,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23771,6 +23780,7 @@
       <c r="CT6" s="25"/>
       <c r="CU6" s="25"/>
       <c r="CV6" s="25"/>
+      <c r="CW6" s="25"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23875,6 +23885,7 @@
       <c r="CT7" s="25"/>
       <c r="CU7" s="25"/>
       <c r="CV7" s="25"/>
+      <c r="CW7" s="25"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23976,135 +23987,136 @@
       <c r="CT8" s="25"/>
       <c r="CU8" s="25"/>
       <c r="CV8" s="25"/>
+      <c r="CW8" s="25"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="35">
+      <c r="B9" s="38">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38">
         <v>2001</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38">
         <v>2002</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38">
         <v>2003</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38">
         <v>2004</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35">
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38">
         <v>2005</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38">
         <v>2006</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35">
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38">
         <v>2007</v>
       </c>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35">
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38">
         <v>2008</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35">
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38">
         <v>2009</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35">
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35">
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38">
         <v>2011</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35">
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38">
         <v>2012</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35">
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38">
         <v>2013</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35">
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="38">
         <v>2014</v>
       </c>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35">
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38">
         <v>2015</v>
       </c>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35">
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="38"/>
+      <c r="BM9" s="38"/>
+      <c r="BN9" s="38">
         <v>2016</v>
       </c>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
-      <c r="BR9" s="35">
+      <c r="BO9" s="38"/>
+      <c r="BP9" s="38"/>
+      <c r="BQ9" s="38"/>
+      <c r="BR9" s="38">
         <v>2017</v>
       </c>
-      <c r="BS9" s="35"/>
-      <c r="BT9" s="35"/>
-      <c r="BU9" s="35"/>
-      <c r="BV9" s="35">
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="38"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="38">
         <v>2018</v>
       </c>
-      <c r="BW9" s="35"/>
-      <c r="BX9" s="35"/>
-      <c r="BY9" s="35"/>
-      <c r="BZ9" s="35">
+      <c r="BW9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38">
         <v>2019</v>
       </c>
-      <c r="CA9" s="35"/>
-      <c r="CB9" s="35"/>
-      <c r="CC9" s="35"/>
-      <c r="CD9" s="35">
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="38">
         <v>2020</v>
       </c>
-      <c r="CE9" s="35"/>
-      <c r="CF9" s="35"/>
-      <c r="CG9" s="35"/>
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
       <c r="CH9" s="22">
         <v>2021</v>
       </c>
@@ -24128,6 +24140,7 @@
       </c>
       <c r="CU9" s="26"/>
       <c r="CV9" s="26"/>
+      <c r="CW9" s="26"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24429,6 +24442,9 @@
       </c>
       <c r="CV10" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CW10" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24733,9 +24749,11 @@
         <v>134223.75512728252</v>
       </c>
       <c r="CV12" s="28">
-        <v>156854.20219061751</v>
-      </c>
-      <c r="CW12" s="10"/>
+        <v>156073.48651106577</v>
+      </c>
+      <c r="CW12" s="28">
+        <v>160009.67369754324</v>
+      </c>
       <c r="CX12" s="10"/>
       <c r="CY12" s="10"/>
       <c r="CZ12" s="10"/>
@@ -25091,7 +25109,9 @@
       <c r="CV13" s="28">
         <v>11779.74631200132</v>
       </c>
-      <c r="CW13" s="10"/>
+      <c r="CW13" s="28">
+        <v>11995.889513042071</v>
+      </c>
       <c r="CX13" s="10"/>
       <c r="CY13" s="10"/>
       <c r="CZ13" s="10"/>
@@ -25447,7 +25467,9 @@
       <c r="CV14" s="28">
         <v>37047.591843117363</v>
       </c>
-      <c r="CW14" s="10"/>
+      <c r="CW14" s="28">
+        <v>43851.207822673081</v>
+      </c>
       <c r="CX14" s="10"/>
       <c r="CY14" s="10"/>
       <c r="CZ14" s="10"/>
@@ -25801,9 +25823,11 @@
         <v>59704.924607265872</v>
       </c>
       <c r="CV15" s="28">
-        <v>59811.194354092964</v>
-      </c>
-      <c r="CW15" s="10"/>
+        <v>60233.031233440808</v>
+      </c>
+      <c r="CW15" s="28">
+        <v>69189.737474599344</v>
+      </c>
       <c r="CX15" s="10"/>
       <c r="CY15" s="10"/>
       <c r="CZ15" s="10"/>
@@ -26157,9 +26181,11 @@
         <v>10554.183041849237</v>
       </c>
       <c r="CV16" s="28">
-        <v>8231.2071286784885</v>
-      </c>
-      <c r="CW16" s="10"/>
+        <v>8299.8886479772318</v>
+      </c>
+      <c r="CW16" s="28">
+        <v>10349.920658314857</v>
+      </c>
       <c r="CX16" s="10"/>
       <c r="CY16" s="10"/>
       <c r="CZ16" s="10"/>
@@ -26314,7 +26340,7 @@
       <c r="CT17" s="29"/>
       <c r="CU17" s="29"/>
       <c r="CV17" s="29"/>
-      <c r="CW17" s="10"/>
+      <c r="CW17" s="29"/>
       <c r="CX17" s="10"/>
       <c r="CY17" s="10"/>
       <c r="CZ17" s="10"/>
@@ -26668,9 +26694,11 @@
         <v>256355.48574369459</v>
       </c>
       <c r="CV18" s="30">
-        <v>273723.94182850764</v>
-      </c>
-      <c r="CW18" s="10"/>
+        <v>273433.74454760243</v>
+      </c>
+      <c r="CW18" s="30">
+        <v>295396.42916617257</v>
+      </c>
       <c r="CX18" s="10"/>
       <c r="CY18" s="10"/>
       <c r="CZ18" s="10"/>
@@ -26826,6 +26854,7 @@
       <c r="CT19" s="31"/>
       <c r="CU19" s="31"/>
       <c r="CV19" s="31"/>
+      <c r="CW19" s="31"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -26932,7 +26961,7 @@
       <c r="CT21" s="29"/>
       <c r="CU21" s="29"/>
       <c r="CV21" s="29"/>
-      <c r="CW21" s="10"/>
+      <c r="CW21" s="29"/>
       <c r="CX21" s="10"/>
       <c r="CY21" s="10"/>
       <c r="CZ21" s="10"/>
@@ -27087,7 +27116,7 @@
       <c r="CT22" s="29"/>
       <c r="CU22" s="29"/>
       <c r="CV22" s="29"/>
-      <c r="CW22" s="10"/>
+      <c r="CW22" s="29"/>
       <c r="CX22" s="10"/>
       <c r="CY22" s="10"/>
       <c r="CZ22" s="10"/>
@@ -27154,7 +27183,7 @@
     </row>
     <row r="25" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -27257,6 +27286,7 @@
       <c r="CT26" s="25"/>
       <c r="CU26" s="25"/>
       <c r="CV26" s="25"/>
+      <c r="CW26" s="25"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27361,10 +27391,11 @@
       <c r="CT27" s="25"/>
       <c r="CU27" s="25"/>
       <c r="CV27" s="25"/>
+      <c r="CW27" s="25"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -27465,6 +27496,7 @@
       <c r="CT28" s="25"/>
       <c r="CU28" s="25"/>
       <c r="CV28" s="25"/>
+      <c r="CW28" s="25"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -27569,6 +27601,7 @@
       <c r="CT29" s="25"/>
       <c r="CU29" s="25"/>
       <c r="CV29" s="25"/>
+      <c r="CW29" s="25"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
@@ -27670,135 +27703,136 @@
       <c r="CT30" s="25"/>
       <c r="CU30" s="25"/>
       <c r="CV30" s="25"/>
+      <c r="CW30" s="25"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="35">
+      <c r="B31" s="38">
         <v>2000</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="35">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="38">
         <v>2001</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="35">
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="38">
         <v>2002</v>
       </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="35">
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="38">
         <v>2003</v>
       </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="35">
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="38">
         <v>2004</v>
       </c>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="35">
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="38">
         <v>2005</v>
       </c>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="35">
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="38">
         <v>2006</v>
       </c>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="35">
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="38">
         <v>2007</v>
       </c>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="35">
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="38">
         <v>2008</v>
       </c>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="35">
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="38">
         <v>2009</v>
       </c>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="35">
+      <c r="AM31" s="39"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AS31" s="37"/>
-      <c r="AT31" s="35">
+      <c r="AQ31" s="39"/>
+      <c r="AR31" s="39"/>
+      <c r="AS31" s="39"/>
+      <c r="AT31" s="38">
         <v>2011</v>
       </c>
-      <c r="AU31" s="37"/>
-      <c r="AV31" s="37"/>
-      <c r="AW31" s="37"/>
-      <c r="AX31" s="35">
+      <c r="AU31" s="39"/>
+      <c r="AV31" s="39"/>
+      <c r="AW31" s="39"/>
+      <c r="AX31" s="38">
         <v>2012</v>
       </c>
-      <c r="AY31" s="37"/>
-      <c r="AZ31" s="37"/>
-      <c r="BA31" s="37"/>
-      <c r="BB31" s="35">
+      <c r="AY31" s="39"/>
+      <c r="AZ31" s="39"/>
+      <c r="BA31" s="39"/>
+      <c r="BB31" s="38">
         <v>2013</v>
       </c>
-      <c r="BC31" s="37"/>
-      <c r="BD31" s="37"/>
-      <c r="BE31" s="37"/>
-      <c r="BF31" s="35">
+      <c r="BC31" s="39"/>
+      <c r="BD31" s="39"/>
+      <c r="BE31" s="39"/>
+      <c r="BF31" s="38">
         <v>2014</v>
       </c>
-      <c r="BG31" s="37"/>
-      <c r="BH31" s="37"/>
-      <c r="BI31" s="37"/>
-      <c r="BJ31" s="35">
+      <c r="BG31" s="39"/>
+      <c r="BH31" s="39"/>
+      <c r="BI31" s="39"/>
+      <c r="BJ31" s="38">
         <v>2015</v>
       </c>
-      <c r="BK31" s="37"/>
-      <c r="BL31" s="37"/>
-      <c r="BM31" s="37"/>
-      <c r="BN31" s="35">
+      <c r="BK31" s="39"/>
+      <c r="BL31" s="39"/>
+      <c r="BM31" s="39"/>
+      <c r="BN31" s="38">
         <v>2016</v>
       </c>
-      <c r="BO31" s="37"/>
-      <c r="BP31" s="37"/>
-      <c r="BQ31" s="37"/>
-      <c r="BR31" s="35">
+      <c r="BO31" s="39"/>
+      <c r="BP31" s="39"/>
+      <c r="BQ31" s="39"/>
+      <c r="BR31" s="38">
         <v>2017</v>
       </c>
-      <c r="BS31" s="37"/>
-      <c r="BT31" s="37"/>
-      <c r="BU31" s="37"/>
-      <c r="BV31" s="35">
+      <c r="BS31" s="39"/>
+      <c r="BT31" s="39"/>
+      <c r="BU31" s="39"/>
+      <c r="BV31" s="38">
         <v>2018</v>
       </c>
-      <c r="BW31" s="37"/>
-      <c r="BX31" s="37"/>
-      <c r="BY31" s="37"/>
-      <c r="BZ31" s="35">
+      <c r="BW31" s="39"/>
+      <c r="BX31" s="39"/>
+      <c r="BY31" s="39"/>
+      <c r="BZ31" s="38">
         <v>2019</v>
       </c>
-      <c r="CA31" s="37"/>
-      <c r="CB31" s="37"/>
-      <c r="CC31" s="37"/>
-      <c r="CD31" s="35">
+      <c r="CA31" s="39"/>
+      <c r="CB31" s="39"/>
+      <c r="CC31" s="39"/>
+      <c r="CD31" s="38">
         <v>2020</v>
       </c>
-      <c r="CE31" s="35"/>
-      <c r="CF31" s="35"/>
-      <c r="CG31" s="35"/>
+      <c r="CE31" s="38"/>
+      <c r="CF31" s="38"/>
+      <c r="CG31" s="38"/>
       <c r="CH31" s="22">
         <v>2021</v>
       </c>
@@ -27822,6 +27856,7 @@
       </c>
       <c r="CU31" s="26"/>
       <c r="CV31" s="26"/>
+      <c r="CW31" s="26"/>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -28123,6 +28158,9 @@
       </c>
       <c r="CV32" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CW32" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28427,9 +28465,11 @@
         <v>92458.452744499256</v>
       </c>
       <c r="CV34" s="28">
-        <v>104650.65316976898</v>
-      </c>
-      <c r="CW34" s="10"/>
+        <v>104129.77196503289</v>
+      </c>
+      <c r="CW34" s="28">
+        <v>126383.25922832929</v>
+      </c>
       <c r="CX34" s="10"/>
       <c r="CY34" s="10"/>
       <c r="CZ34" s="10"/>
@@ -28785,7 +28825,9 @@
       <c r="CV35" s="28">
         <v>9627.9238012308524</v>
       </c>
-      <c r="CW35" s="10"/>
+      <c r="CW35" s="28">
+        <v>10221.954898199878</v>
+      </c>
       <c r="CX35" s="10"/>
       <c r="CY35" s="10"/>
       <c r="CZ35" s="10"/>
@@ -29141,7 +29183,9 @@
       <c r="CV36" s="28">
         <v>29365.542041687615</v>
       </c>
-      <c r="CW36" s="10"/>
+      <c r="CW36" s="28">
+        <v>32895.254566218369</v>
+      </c>
       <c r="CX36" s="10"/>
       <c r="CY36" s="10"/>
       <c r="CZ36" s="10"/>
@@ -29495,9 +29539,11 @@
         <v>45271.927714537531</v>
       </c>
       <c r="CV37" s="28">
-        <v>51096.954508582843</v>
-      </c>
-      <c r="CW37" s="10"/>
+        <v>51457.331526076814</v>
+      </c>
+      <c r="CW37" s="28">
+        <v>57332.221292129791</v>
+      </c>
       <c r="CX37" s="10"/>
       <c r="CY37" s="10"/>
       <c r="CZ37" s="10"/>
@@ -29851,9 +29897,11 @@
         <v>10026.793980998726</v>
       </c>
       <c r="CV38" s="28">
-        <v>7836.2914202471093</v>
-      </c>
-      <c r="CW38" s="10"/>
+        <v>7901.6777471851274</v>
+      </c>
+      <c r="CW38" s="28">
+        <v>10164.44467167424</v>
+      </c>
       <c r="CX38" s="10"/>
       <c r="CY38" s="10"/>
       <c r="CZ38" s="10"/>
@@ -30008,7 +30056,7 @@
       <c r="CT39" s="29"/>
       <c r="CU39" s="29"/>
       <c r="CV39" s="29"/>
-      <c r="CW39" s="10"/>
+      <c r="CW39" s="29"/>
       <c r="CX39" s="10"/>
       <c r="CY39" s="10"/>
       <c r="CZ39" s="10"/>
@@ -30362,9 +30410,11 @@
         <v>189714.57988759159</v>
       </c>
       <c r="CV40" s="30">
-        <v>202577.36494151741</v>
-      </c>
-      <c r="CW40" s="10"/>
+        <v>202482.24708121331</v>
+      </c>
+      <c r="CW40" s="30">
+        <v>236997.13465655156</v>
+      </c>
       <c r="CX40" s="10"/>
       <c r="CY40" s="10"/>
       <c r="CZ40" s="10"/>
@@ -30520,6 +30570,7 @@
       <c r="CT41" s="32"/>
       <c r="CU41" s="32"/>
       <c r="CV41" s="32"/>
+      <c r="CW41" s="32"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -30626,7 +30677,7 @@
       <c r="CT43" s="29"/>
       <c r="CU43" s="29"/>
       <c r="CV43" s="29"/>
-      <c r="CW43" s="10"/>
+      <c r="CW43" s="29"/>
       <c r="CX43" s="10"/>
       <c r="CY43" s="10"/>
       <c r="CZ43" s="10"/>
@@ -30781,7 +30832,7 @@
       <c r="CT44" s="29"/>
       <c r="CU44" s="29"/>
       <c r="CV44" s="29"/>
-      <c r="CW44" s="10"/>
+      <c r="CW44" s="29"/>
       <c r="CX44" s="10"/>
       <c r="CY44" s="10"/>
       <c r="CZ44" s="10"/>
@@ -30848,155 +30899,171 @@
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="CT49" s="35"/>
+      <c r="CU49" s="35"/>
+      <c r="CV49" s="35"/>
+      <c r="CW49" s="35"/>
     </row>
     <row r="50" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CT50" s="35"/>
+      <c r="CU50" s="35"/>
+      <c r="CV50" s="35"/>
+      <c r="CW50" s="35"/>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CT51" s="35"/>
+      <c r="CU51" s="35"/>
+      <c r="CV51" s="35"/>
+      <c r="CW51" s="35"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
+      <c r="CT52" s="35"/>
+      <c r="CU52" s="35"/>
+      <c r="CV52" s="35"/>
+      <c r="CW52" s="35"/>
     </row>
     <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35" t="s">
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35" t="s">
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35" t="s">
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35" t="s">
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35" t="s">
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35" t="s">
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38"/>
+      <c r="Z53" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35" t="s">
+      <c r="AA53" s="38"/>
+      <c r="AB53" s="38"/>
+      <c r="AC53" s="38"/>
+      <c r="AD53" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="35"/>
-      <c r="AH53" s="35" t="s">
+      <c r="AE53" s="38"/>
+      <c r="AF53" s="38"/>
+      <c r="AG53" s="38"/>
+      <c r="AH53" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AI53" s="35"/>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="35"/>
-      <c r="AL53" s="35" t="s">
+      <c r="AI53" s="38"/>
+      <c r="AJ53" s="38"/>
+      <c r="AK53" s="38"/>
+      <c r="AL53" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AM53" s="35"/>
-      <c r="AN53" s="35"/>
-      <c r="AO53" s="35"/>
-      <c r="AP53" s="35" t="s">
+      <c r="AM53" s="38"/>
+      <c r="AN53" s="38"/>
+      <c r="AO53" s="38"/>
+      <c r="AP53" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AQ53" s="35"/>
-      <c r="AR53" s="35"/>
-      <c r="AS53" s="35"/>
-      <c r="AT53" s="35" t="s">
+      <c r="AQ53" s="38"/>
+      <c r="AR53" s="38"/>
+      <c r="AS53" s="38"/>
+      <c r="AT53" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AU53" s="35"/>
-      <c r="AV53" s="35"/>
-      <c r="AW53" s="35"/>
-      <c r="AX53" s="35" t="s">
+      <c r="AU53" s="38"/>
+      <c r="AV53" s="38"/>
+      <c r="AW53" s="38"/>
+      <c r="AX53" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AY53" s="35"/>
-      <c r="AZ53" s="35"/>
-      <c r="BA53" s="35"/>
-      <c r="BB53" s="35" t="s">
+      <c r="AY53" s="38"/>
+      <c r="AZ53" s="38"/>
+      <c r="BA53" s="38"/>
+      <c r="BB53" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="BC53" s="35"/>
-      <c r="BD53" s="35"/>
-      <c r="BE53" s="35"/>
-      <c r="BF53" s="35" t="s">
+      <c r="BC53" s="38"/>
+      <c r="BD53" s="38"/>
+      <c r="BE53" s="38"/>
+      <c r="BF53" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="BG53" s="35"/>
-      <c r="BH53" s="35"/>
-      <c r="BI53" s="35"/>
-      <c r="BJ53" s="35" t="s">
+      <c r="BG53" s="38"/>
+      <c r="BH53" s="38"/>
+      <c r="BI53" s="38"/>
+      <c r="BJ53" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="BK53" s="35"/>
-      <c r="BL53" s="35"/>
-      <c r="BM53" s="35"/>
-      <c r="BN53" s="35" t="s">
+      <c r="BK53" s="38"/>
+      <c r="BL53" s="38"/>
+      <c r="BM53" s="38"/>
+      <c r="BN53" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="BO53" s="35"/>
-      <c r="BP53" s="35"/>
-      <c r="BQ53" s="35"/>
-      <c r="BR53" s="35" t="s">
+      <c r="BO53" s="38"/>
+      <c r="BP53" s="38"/>
+      <c r="BQ53" s="38"/>
+      <c r="BR53" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="BS53" s="35"/>
-      <c r="BT53" s="35"/>
-      <c r="BU53" s="35"/>
-      <c r="BV53" s="35" t="s">
+      <c r="BS53" s="38"/>
+      <c r="BT53" s="38"/>
+      <c r="BU53" s="38"/>
+      <c r="BV53" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="BW53" s="35"/>
-      <c r="BX53" s="35"/>
-      <c r="BY53" s="35"/>
-      <c r="BZ53" s="35" t="s">
+      <c r="BW53" s="38"/>
+      <c r="BX53" s="38"/>
+      <c r="BY53" s="38"/>
+      <c r="BZ53" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="35"/>
-      <c r="CB53" s="35"/>
-      <c r="CC53" s="35"/>
-      <c r="CD53" s="35" t="s">
+      <c r="CA53" s="38"/>
+      <c r="CB53" s="38"/>
+      <c r="CC53" s="38"/>
+      <c r="CD53" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="CE53" s="35"/>
-      <c r="CF53" s="35"/>
-      <c r="CG53" s="35"/>
+      <c r="CE53" s="38"/>
+      <c r="CF53" s="38"/>
+      <c r="CG53" s="38"/>
       <c r="CH53" s="22" t="s">
         <v>50</v>
       </c>
@@ -31014,10 +31081,11 @@
       </c>
       <c r="CQ53" s="26"/>
       <c r="CR53" s="26"/>
-      <c r="CS53" s="23"/>
-      <c r="CT53" s="26"/>
-      <c r="CU53" s="26"/>
+      <c r="CS53" s="26"/>
+      <c r="CT53" s="23"/>
+      <c r="CU53" s="23"/>
       <c r="CV53" s="23"/>
+      <c r="CW53" s="23"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -31308,13 +31376,20 @@
       <c r="CR54" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="CS54" s="33"/>
+      <c r="CS54" s="33" t="s">
+        <v>8</v>
+      </c>
       <c r="CT54" s="33"/>
       <c r="CU54" s="33"/>
       <c r="CV54" s="33"/>
+      <c r="CW54" s="33"/>
     </row>
     <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
+      <c r="CT55" s="35"/>
+      <c r="CU55" s="35"/>
+      <c r="CV55" s="35"/>
+      <c r="CW55" s="35"/>
     </row>
     <row r="56" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -31603,13 +31678,15 @@
         <v>18.219369208481396</v>
       </c>
       <c r="CR56" s="34">
-        <v>5.7445198368525752</v>
-      </c>
-      <c r="CS56" s="34"/>
-      <c r="CT56" s="34"/>
-      <c r="CU56" s="34"/>
-      <c r="CV56" s="34"/>
-      <c r="CW56" s="10"/>
+        <v>5.218194092879358</v>
+      </c>
+      <c r="CS56" s="34">
+        <v>6.1480293748444836</v>
+      </c>
+      <c r="CT56" s="36"/>
+      <c r="CU56" s="36"/>
+      <c r="CV56" s="36"/>
+      <c r="CW56" s="36"/>
       <c r="CX56" s="10"/>
       <c r="CY56" s="10"/>
       <c r="CZ56" s="10"/>
@@ -31949,11 +32026,13 @@
       <c r="CR57" s="34">
         <v>23.764161400831554</v>
       </c>
-      <c r="CS57" s="34"/>
-      <c r="CT57" s="34"/>
-      <c r="CU57" s="34"/>
-      <c r="CV57" s="34"/>
-      <c r="CW57" s="10"/>
+      <c r="CS57" s="34">
+        <v>12.815353939186537</v>
+      </c>
+      <c r="CT57" s="36"/>
+      <c r="CU57" s="36"/>
+      <c r="CV57" s="36"/>
+      <c r="CW57" s="36"/>
       <c r="CX57" s="10"/>
       <c r="CY57" s="10"/>
       <c r="CZ57" s="10"/>
@@ -32293,11 +32372,13 @@
       <c r="CR58" s="34">
         <v>10.229800087594469</v>
       </c>
-      <c r="CS58" s="34"/>
-      <c r="CT58" s="34"/>
-      <c r="CU58" s="34"/>
-      <c r="CV58" s="34"/>
-      <c r="CW58" s="10"/>
+      <c r="CS58" s="34">
+        <v>14.185824361997845</v>
+      </c>
+      <c r="CT58" s="36"/>
+      <c r="CU58" s="36"/>
+      <c r="CV58" s="36"/>
+      <c r="CW58" s="36"/>
       <c r="CX58" s="10"/>
       <c r="CY58" s="10"/>
       <c r="CZ58" s="10"/>
@@ -32635,13 +32716,15 @@
         <v>3.414839687567266</v>
       </c>
       <c r="CR59" s="34">
-        <v>3.9551905559112299</v>
-      </c>
-      <c r="CS59" s="34"/>
-      <c r="CT59" s="34"/>
-      <c r="CU59" s="34"/>
-      <c r="CV59" s="34"/>
-      <c r="CW59" s="10"/>
+        <v>4.688366571700243</v>
+      </c>
+      <c r="CS59" s="34">
+        <v>15.294461682798826</v>
+      </c>
+      <c r="CT59" s="36"/>
+      <c r="CU59" s="36"/>
+      <c r="CV59" s="36"/>
+      <c r="CW59" s="36"/>
       <c r="CX59" s="10"/>
       <c r="CY59" s="10"/>
       <c r="CZ59" s="10"/>
@@ -32979,13 +33062,15 @@
         <v>4.3275688626576567</v>
       </c>
       <c r="CR60" s="34">
-        <v>4.1777737076493366</v>
-      </c>
-      <c r="CS60" s="34"/>
-      <c r="CT60" s="34"/>
-      <c r="CU60" s="34"/>
-      <c r="CV60" s="34"/>
-      <c r="CW60" s="10"/>
+        <v>5.0470371903374058</v>
+      </c>
+      <c r="CS60" s="34">
+        <v>13.406505035531495</v>
+      </c>
+      <c r="CT60" s="36"/>
+      <c r="CU60" s="36"/>
+      <c r="CV60" s="36"/>
+      <c r="CW60" s="36"/>
       <c r="CX60" s="10"/>
       <c r="CY60" s="10"/>
       <c r="CZ60" s="10"/>
@@ -33133,10 +33218,10 @@
       <c r="CQ61" s="29"/>
       <c r="CR61" s="29"/>
       <c r="CS61" s="29"/>
-      <c r="CT61" s="29"/>
-      <c r="CU61" s="29"/>
-      <c r="CV61" s="29"/>
-      <c r="CW61" s="10"/>
+      <c r="CT61" s="37"/>
+      <c r="CU61" s="37"/>
+      <c r="CV61" s="37"/>
+      <c r="CW61" s="37"/>
       <c r="CX61" s="10"/>
       <c r="CY61" s="10"/>
       <c r="CZ61" s="10"/>
@@ -33474,13 +33559,15 @@
         <v>15.847064750098028</v>
       </c>
       <c r="CR62" s="34">
-        <v>6.5500081601443867</v>
-      </c>
-      <c r="CS62" s="34"/>
-      <c r="CT62" s="34"/>
-      <c r="CU62" s="34"/>
-      <c r="CV62" s="34"/>
-      <c r="CW62" s="10"/>
+        <v>6.4370457263801057</v>
+      </c>
+      <c r="CS62" s="34">
+        <v>9.8469746517174883</v>
+      </c>
+      <c r="CT62" s="36"/>
+      <c r="CU62" s="36"/>
+      <c r="CV62" s="36"/>
+      <c r="CW62" s="36"/>
       <c r="CX62" s="10"/>
       <c r="CY62" s="10"/>
       <c r="CZ62" s="10"/>
@@ -33629,14 +33716,19 @@
       <c r="CQ63" s="32"/>
       <c r="CR63" s="32"/>
       <c r="CS63" s="32"/>
-      <c r="CT63" s="32"/>
-      <c r="CU63" s="32"/>
-      <c r="CV63" s="32"/>
+      <c r="CT63" s="27"/>
+      <c r="CU63" s="27"/>
+      <c r="CV63" s="27"/>
+      <c r="CW63" s="27"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="CT64" s="35"/>
+      <c r="CU64" s="35"/>
+      <c r="CV64" s="35"/>
+      <c r="CW64" s="35"/>
     </row>
     <row r="65" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10"/>
@@ -33735,10 +33827,10 @@
       <c r="CQ65" s="29"/>
       <c r="CR65" s="29"/>
       <c r="CS65" s="29"/>
-      <c r="CT65" s="29"/>
-      <c r="CU65" s="29"/>
-      <c r="CV65" s="29"/>
-      <c r="CW65" s="10"/>
+      <c r="CT65" s="37"/>
+      <c r="CU65" s="37"/>
+      <c r="CV65" s="37"/>
+      <c r="CW65" s="37"/>
       <c r="CX65" s="10"/>
       <c r="CY65" s="10"/>
       <c r="CZ65" s="10"/>
@@ -33886,10 +33978,10 @@
       <c r="CQ66" s="29"/>
       <c r="CR66" s="29"/>
       <c r="CS66" s="29"/>
-      <c r="CT66" s="29"/>
-      <c r="CU66" s="29"/>
-      <c r="CV66" s="29"/>
-      <c r="CW66" s="10"/>
+      <c r="CT66" s="37"/>
+      <c r="CU66" s="37"/>
+      <c r="CV66" s="37"/>
+      <c r="CW66" s="37"/>
       <c r="CX66" s="10"/>
       <c r="CY66" s="10"/>
       <c r="CZ66" s="10"/>
@@ -33944,160 +34036,196 @@
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CT67" s="35"/>
+      <c r="CU67" s="35"/>
+      <c r="CV67" s="35"/>
+      <c r="CW67" s="35"/>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CT68" s="35"/>
+      <c r="CU68" s="35"/>
+      <c r="CV68" s="35"/>
+      <c r="CW68" s="35"/>
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="CT69" s="35"/>
+      <c r="CU69" s="35"/>
+      <c r="CV69" s="35"/>
+      <c r="CW69" s="35"/>
+    </row>
+    <row r="70" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="CT70" s="35"/>
+      <c r="CU70" s="35"/>
+      <c r="CV70" s="35"/>
+      <c r="CW70" s="35"/>
     </row>
     <row r="71" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="CT71" s="35"/>
+      <c r="CU71" s="35"/>
+      <c r="CV71" s="35"/>
+      <c r="CW71" s="35"/>
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CT72" s="35"/>
+      <c r="CU72" s="35"/>
+      <c r="CV72" s="35"/>
+      <c r="CW72" s="35"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="CT73" s="35"/>
+      <c r="CU73" s="35"/>
+      <c r="CV73" s="35"/>
+      <c r="CW73" s="35"/>
+    </row>
+    <row r="74" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="CT74" s="35"/>
+      <c r="CU74" s="35"/>
+      <c r="CV74" s="35"/>
+      <c r="CW74" s="35"/>
     </row>
     <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="35" t="s">
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="35" t="s">
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="35" t="s">
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="35" t="s">
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="S75" s="36"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
-      <c r="V75" s="35" t="s">
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="W75" s="36"/>
-      <c r="X75" s="36"/>
-      <c r="Y75" s="36"/>
-      <c r="Z75" s="35" t="s">
+      <c r="W75" s="40"/>
+      <c r="X75" s="40"/>
+      <c r="Y75" s="40"/>
+      <c r="Z75" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AA75" s="36"/>
-      <c r="AB75" s="36"/>
-      <c r="AC75" s="36"/>
-      <c r="AD75" s="35" t="s">
+      <c r="AA75" s="40"/>
+      <c r="AB75" s="40"/>
+      <c r="AC75" s="40"/>
+      <c r="AD75" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="36"/>
-      <c r="AF75" s="36"/>
-      <c r="AG75" s="36"/>
-      <c r="AH75" s="35" t="s">
+      <c r="AE75" s="40"/>
+      <c r="AF75" s="40"/>
+      <c r="AG75" s="40"/>
+      <c r="AH75" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="36"/>
-      <c r="AJ75" s="36"/>
-      <c r="AK75" s="36"/>
-      <c r="AL75" s="35" t="s">
+      <c r="AI75" s="40"/>
+      <c r="AJ75" s="40"/>
+      <c r="AK75" s="40"/>
+      <c r="AL75" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AM75" s="36"/>
-      <c r="AN75" s="36"/>
-      <c r="AO75" s="36"/>
-      <c r="AP75" s="35" t="s">
+      <c r="AM75" s="40"/>
+      <c r="AN75" s="40"/>
+      <c r="AO75" s="40"/>
+      <c r="AP75" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AQ75" s="36"/>
-      <c r="AR75" s="36"/>
-      <c r="AS75" s="36"/>
-      <c r="AT75" s="35" t="s">
+      <c r="AQ75" s="40"/>
+      <c r="AR75" s="40"/>
+      <c r="AS75" s="40"/>
+      <c r="AT75" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AU75" s="36"/>
-      <c r="AV75" s="36"/>
-      <c r="AW75" s="36"/>
-      <c r="AX75" s="35" t="s">
+      <c r="AU75" s="40"/>
+      <c r="AV75" s="40"/>
+      <c r="AW75" s="40"/>
+      <c r="AX75" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AY75" s="36"/>
-      <c r="AZ75" s="36"/>
-      <c r="BA75" s="36"/>
-      <c r="BB75" s="35" t="s">
+      <c r="AY75" s="40"/>
+      <c r="AZ75" s="40"/>
+      <c r="BA75" s="40"/>
+      <c r="BB75" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="BC75" s="36"/>
-      <c r="BD75" s="36"/>
-      <c r="BE75" s="36"/>
-      <c r="BF75" s="35" t="s">
+      <c r="BC75" s="40"/>
+      <c r="BD75" s="40"/>
+      <c r="BE75" s="40"/>
+      <c r="BF75" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="BG75" s="36"/>
-      <c r="BH75" s="36"/>
-      <c r="BI75" s="36"/>
-      <c r="BJ75" s="35" t="s">
+      <c r="BG75" s="40"/>
+      <c r="BH75" s="40"/>
+      <c r="BI75" s="40"/>
+      <c r="BJ75" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="BK75" s="36"/>
-      <c r="BL75" s="36"/>
-      <c r="BM75" s="36"/>
-      <c r="BN75" s="35" t="s">
+      <c r="BK75" s="40"/>
+      <c r="BL75" s="40"/>
+      <c r="BM75" s="40"/>
+      <c r="BN75" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="BO75" s="36"/>
-      <c r="BP75" s="36"/>
-      <c r="BQ75" s="36"/>
-      <c r="BR75" s="35" t="s">
+      <c r="BO75" s="40"/>
+      <c r="BP75" s="40"/>
+      <c r="BQ75" s="40"/>
+      <c r="BR75" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="BS75" s="36"/>
-      <c r="BT75" s="36"/>
-      <c r="BU75" s="36"/>
-      <c r="BV75" s="35" t="s">
+      <c r="BS75" s="40"/>
+      <c r="BT75" s="40"/>
+      <c r="BU75" s="40"/>
+      <c r="BV75" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="BW75" s="36"/>
-      <c r="BX75" s="36"/>
-      <c r="BY75" s="36"/>
-      <c r="BZ75" s="35" t="s">
+      <c r="BW75" s="40"/>
+      <c r="BX75" s="40"/>
+      <c r="BY75" s="40"/>
+      <c r="BZ75" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="36"/>
-      <c r="CB75" s="36"/>
-      <c r="CC75" s="36"/>
-      <c r="CD75" s="35" t="s">
+      <c r="CA75" s="40"/>
+      <c r="CB75" s="40"/>
+      <c r="CC75" s="40"/>
+      <c r="CD75" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="CE75" s="35"/>
-      <c r="CF75" s="35"/>
-      <c r="CG75" s="35"/>
+      <c r="CE75" s="38"/>
+      <c r="CF75" s="38"/>
+      <c r="CG75" s="38"/>
       <c r="CH75" s="22" t="s">
         <v>50</v>
       </c>
@@ -34115,10 +34243,11 @@
       </c>
       <c r="CQ75" s="26"/>
       <c r="CR75" s="26"/>
-      <c r="CS75" s="23"/>
-      <c r="CT75" s="26"/>
-      <c r="CU75" s="26"/>
+      <c r="CS75" s="26"/>
+      <c r="CT75" s="23"/>
+      <c r="CU75" s="23"/>
       <c r="CV75" s="23"/>
+      <c r="CW75" s="23"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
@@ -34409,13 +34538,20 @@
       <c r="CR76" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="CS76" s="33"/>
+      <c r="CS76" s="33" t="s">
+        <v>8</v>
+      </c>
       <c r="CT76" s="33"/>
       <c r="CU76" s="33"/>
       <c r="CV76" s="33"/>
+      <c r="CW76" s="33"/>
     </row>
     <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
+      <c r="CT77" s="35"/>
+      <c r="CU77" s="35"/>
+      <c r="CV77" s="35"/>
+      <c r="CW77" s="35"/>
     </row>
     <row r="78" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -34704,13 +34840,15 @@
         <v>16.505875362098337</v>
       </c>
       <c r="CR78" s="34">
-        <v>4.2183588077821241</v>
-      </c>
-      <c r="CS78" s="34"/>
-      <c r="CT78" s="34"/>
-      <c r="CU78" s="34"/>
-      <c r="CV78" s="34"/>
-      <c r="CW78" s="10"/>
+        <v>3.6996292762678848</v>
+      </c>
+      <c r="CS78" s="34">
+        <v>6.1506554362822357</v>
+      </c>
+      <c r="CT78" s="36"/>
+      <c r="CU78" s="36"/>
+      <c r="CV78" s="36"/>
+      <c r="CW78" s="36"/>
       <c r="CX78" s="10"/>
       <c r="CY78" s="10"/>
       <c r="CZ78" s="10"/>
@@ -35050,11 +35188,13 @@
       <c r="CR79" s="34">
         <v>43.251888472233134</v>
       </c>
-      <c r="CS79" s="34"/>
-      <c r="CT79" s="34"/>
-      <c r="CU79" s="34"/>
-      <c r="CV79" s="34"/>
-      <c r="CW79" s="10"/>
+      <c r="CS79" s="34">
+        <v>-2.4179674118488634</v>
+      </c>
+      <c r="CT79" s="36"/>
+      <c r="CU79" s="36"/>
+      <c r="CV79" s="36"/>
+      <c r="CW79" s="36"/>
       <c r="CX79" s="10"/>
       <c r="CY79" s="10"/>
       <c r="CZ79" s="10"/>
@@ -35394,11 +35534,13 @@
       <c r="CR80" s="34">
         <v>10.607730830751947</v>
       </c>
-      <c r="CS80" s="34"/>
-      <c r="CT80" s="34"/>
-      <c r="CU80" s="34"/>
-      <c r="CV80" s="34"/>
-      <c r="CW80" s="10"/>
+      <c r="CS80" s="34">
+        <v>22.458709095207197</v>
+      </c>
+      <c r="CT80" s="36"/>
+      <c r="CU80" s="36"/>
+      <c r="CV80" s="36"/>
+      <c r="CW80" s="36"/>
       <c r="CX80" s="10"/>
       <c r="CY80" s="10"/>
       <c r="CZ80" s="10"/>
@@ -35736,13 +35878,15 @@
         <v>2.1810741353460088</v>
       </c>
       <c r="CR81" s="34">
-        <v>3.7417246592609104</v>
-      </c>
-      <c r="CS81" s="34"/>
-      <c r="CT81" s="34"/>
-      <c r="CU81" s="34"/>
-      <c r="CV81" s="34"/>
-      <c r="CW81" s="10"/>
+        <v>4.4733951410330661</v>
+      </c>
+      <c r="CS81" s="34">
+        <v>12.42117368178468</v>
+      </c>
+      <c r="CT81" s="36"/>
+      <c r="CU81" s="36"/>
+      <c r="CV81" s="36"/>
+      <c r="CW81" s="36"/>
       <c r="CX81" s="10"/>
       <c r="CY81" s="10"/>
       <c r="CZ81" s="10"/>
@@ -36080,13 +36224,15 @@
         <v>3.4409323000855068</v>
       </c>
       <c r="CR82" s="34">
-        <v>3.2280234915154296</v>
-      </c>
-      <c r="CS82" s="34"/>
-      <c r="CT82" s="34"/>
-      <c r="CU82" s="34"/>
-      <c r="CV82" s="34"/>
-      <c r="CW82" s="10"/>
+        <v>4.0893622206675815</v>
+      </c>
+      <c r="CS82" s="34">
+        <v>12.3376407090892</v>
+      </c>
+      <c r="CT82" s="36"/>
+      <c r="CU82" s="36"/>
+      <c r="CV82" s="36"/>
+      <c r="CW82" s="36"/>
       <c r="CX82" s="10"/>
       <c r="CY82" s="10"/>
       <c r="CZ82" s="10"/>
@@ -36234,10 +36380,10 @@
       <c r="CQ83" s="29"/>
       <c r="CR83" s="29"/>
       <c r="CS83" s="29"/>
-      <c r="CT83" s="29"/>
-      <c r="CU83" s="29"/>
-      <c r="CV83" s="29"/>
-      <c r="CW83" s="10"/>
+      <c r="CT83" s="37"/>
+      <c r="CU83" s="37"/>
+      <c r="CV83" s="37"/>
+      <c r="CW83" s="37"/>
       <c r="CX83" s="10"/>
       <c r="CY83" s="10"/>
       <c r="CZ83" s="10"/>
@@ -36575,13 +36721,15 @@
         <v>14.787932314115565</v>
       </c>
       <c r="CR84" s="34">
-        <v>6.3229192545305892</v>
-      </c>
-      <c r="CS84" s="34"/>
-      <c r="CT84" s="34"/>
-      <c r="CU84" s="34"/>
-      <c r="CV84" s="34"/>
-      <c r="CW84" s="10"/>
+        <v>6.2729965566828128</v>
+      </c>
+      <c r="CS84" s="34">
+        <v>9.4959898677987837</v>
+      </c>
+      <c r="CT84" s="36"/>
+      <c r="CU84" s="36"/>
+      <c r="CV84" s="36"/>
+      <c r="CW84" s="36"/>
       <c r="CX84" s="10"/>
       <c r="CY84" s="10"/>
       <c r="CZ84" s="10"/>
@@ -36730,14 +36878,19 @@
       <c r="CQ85" s="32"/>
       <c r="CR85" s="32"/>
       <c r="CS85" s="32"/>
-      <c r="CT85" s="32"/>
-      <c r="CU85" s="32"/>
-      <c r="CV85" s="32"/>
+      <c r="CT85" s="27"/>
+      <c r="CU85" s="27"/>
+      <c r="CV85" s="27"/>
+      <c r="CW85" s="27"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="CT86" s="35"/>
+      <c r="CU86" s="35"/>
+      <c r="CV86" s="35"/>
+      <c r="CW86" s="35"/>
     </row>
     <row r="87" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="10"/>
@@ -36836,10 +36989,10 @@
       <c r="CQ87" s="29"/>
       <c r="CR87" s="29"/>
       <c r="CS87" s="29"/>
-      <c r="CT87" s="29"/>
-      <c r="CU87" s="29"/>
-      <c r="CV87" s="29"/>
-      <c r="CW87" s="10"/>
+      <c r="CT87" s="37"/>
+      <c r="CU87" s="37"/>
+      <c r="CV87" s="37"/>
+      <c r="CW87" s="37"/>
       <c r="CX87" s="10"/>
       <c r="CY87" s="10"/>
       <c r="CZ87" s="10"/>
@@ -36990,7 +37143,7 @@
       <c r="CT88" s="29"/>
       <c r="CU88" s="29"/>
       <c r="CV88" s="29"/>
-      <c r="CW88" s="10"/>
+      <c r="CW88" s="29"/>
       <c r="CX88" s="10"/>
       <c r="CY88" s="10"/>
       <c r="CZ88" s="10"/>
@@ -37048,7 +37201,7 @@
     </row>
     <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.2">
@@ -37058,7 +37211,7 @@
     </row>
     <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:150" x14ac:dyDescent="0.2">
@@ -37068,132 +37221,132 @@
     </row>
     <row r="96" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="35">
+      <c r="B96" s="38">
         <v>2000</v>
       </c>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="35">
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="38">
         <v>2001</v>
       </c>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="35">
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="38">
         <v>2002</v>
       </c>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="35">
+      <c r="K96" s="39"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="38">
         <v>2003</v>
       </c>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="35">
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="38">
         <v>2004</v>
       </c>
-      <c r="S96" s="37"/>
-      <c r="T96" s="37"/>
-      <c r="U96" s="37"/>
-      <c r="V96" s="35">
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="38">
         <v>2005</v>
       </c>
-      <c r="W96" s="37"/>
-      <c r="X96" s="37"/>
-      <c r="Y96" s="37"/>
-      <c r="Z96" s="35">
+      <c r="W96" s="39"/>
+      <c r="X96" s="39"/>
+      <c r="Y96" s="39"/>
+      <c r="Z96" s="38">
         <v>2006</v>
       </c>
-      <c r="AA96" s="37"/>
-      <c r="AB96" s="37"/>
-      <c r="AC96" s="37"/>
-      <c r="AD96" s="35">
+      <c r="AA96" s="39"/>
+      <c r="AB96" s="39"/>
+      <c r="AC96" s="39"/>
+      <c r="AD96" s="38">
         <v>2007</v>
       </c>
-      <c r="AE96" s="37"/>
-      <c r="AF96" s="37"/>
-      <c r="AG96" s="37"/>
-      <c r="AH96" s="35">
+      <c r="AE96" s="39"/>
+      <c r="AF96" s="39"/>
+      <c r="AG96" s="39"/>
+      <c r="AH96" s="38">
         <v>2008</v>
       </c>
-      <c r="AI96" s="37"/>
-      <c r="AJ96" s="37"/>
-      <c r="AK96" s="37"/>
-      <c r="AL96" s="35">
+      <c r="AI96" s="39"/>
+      <c r="AJ96" s="39"/>
+      <c r="AK96" s="39"/>
+      <c r="AL96" s="38">
         <v>2009</v>
       </c>
-      <c r="AM96" s="37"/>
-      <c r="AN96" s="37"/>
-      <c r="AO96" s="37"/>
-      <c r="AP96" s="35">
+      <c r="AM96" s="39"/>
+      <c r="AN96" s="39"/>
+      <c r="AO96" s="39"/>
+      <c r="AP96" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="37"/>
-      <c r="AR96" s="37"/>
-      <c r="AS96" s="37"/>
-      <c r="AT96" s="35">
+      <c r="AQ96" s="39"/>
+      <c r="AR96" s="39"/>
+      <c r="AS96" s="39"/>
+      <c r="AT96" s="38">
         <v>2011</v>
       </c>
-      <c r="AU96" s="37"/>
-      <c r="AV96" s="37"/>
-      <c r="AW96" s="37"/>
-      <c r="AX96" s="35">
+      <c r="AU96" s="39"/>
+      <c r="AV96" s="39"/>
+      <c r="AW96" s="39"/>
+      <c r="AX96" s="38">
         <v>2012</v>
       </c>
-      <c r="AY96" s="37"/>
-      <c r="AZ96" s="37"/>
-      <c r="BA96" s="37"/>
-      <c r="BB96" s="35">
+      <c r="AY96" s="39"/>
+      <c r="AZ96" s="39"/>
+      <c r="BA96" s="39"/>
+      <c r="BB96" s="38">
         <v>2013</v>
       </c>
-      <c r="BC96" s="37"/>
-      <c r="BD96" s="37"/>
-      <c r="BE96" s="37"/>
-      <c r="BF96" s="35">
+      <c r="BC96" s="39"/>
+      <c r="BD96" s="39"/>
+      <c r="BE96" s="39"/>
+      <c r="BF96" s="38">
         <v>2014</v>
       </c>
-      <c r="BG96" s="37"/>
-      <c r="BH96" s="37"/>
-      <c r="BI96" s="37"/>
-      <c r="BJ96" s="35">
+      <c r="BG96" s="39"/>
+      <c r="BH96" s="39"/>
+      <c r="BI96" s="39"/>
+      <c r="BJ96" s="38">
         <v>2015</v>
       </c>
-      <c r="BK96" s="37"/>
-      <c r="BL96" s="37"/>
-      <c r="BM96" s="37"/>
-      <c r="BN96" s="35">
+      <c r="BK96" s="39"/>
+      <c r="BL96" s="39"/>
+      <c r="BM96" s="39"/>
+      <c r="BN96" s="38">
         <v>2016</v>
       </c>
-      <c r="BO96" s="37"/>
-      <c r="BP96" s="37"/>
-      <c r="BQ96" s="37"/>
-      <c r="BR96" s="35">
+      <c r="BO96" s="39"/>
+      <c r="BP96" s="39"/>
+      <c r="BQ96" s="39"/>
+      <c r="BR96" s="38">
         <v>2017</v>
       </c>
-      <c r="BS96" s="37"/>
-      <c r="BT96" s="37"/>
-      <c r="BU96" s="37"/>
-      <c r="BV96" s="35">
+      <c r="BS96" s="39"/>
+      <c r="BT96" s="39"/>
+      <c r="BU96" s="39"/>
+      <c r="BV96" s="38">
         <v>2018</v>
       </c>
-      <c r="BW96" s="37"/>
-      <c r="BX96" s="37"/>
-      <c r="BY96" s="37"/>
-      <c r="BZ96" s="35">
+      <c r="BW96" s="39"/>
+      <c r="BX96" s="39"/>
+      <c r="BY96" s="39"/>
+      <c r="BZ96" s="38">
         <v>2019</v>
       </c>
-      <c r="CA96" s="37"/>
-      <c r="CB96" s="37"/>
-      <c r="CC96" s="37"/>
-      <c r="CD96" s="35">
+      <c r="CA96" s="39"/>
+      <c r="CB96" s="39"/>
+      <c r="CC96" s="39"/>
+      <c r="CD96" s="38">
         <v>2020</v>
       </c>
-      <c r="CE96" s="35"/>
-      <c r="CF96" s="35"/>
-      <c r="CG96" s="35"/>
+      <c r="CE96" s="38"/>
+      <c r="CF96" s="38"/>
+      <c r="CG96" s="38"/>
       <c r="CH96" s="22">
         <v>2021</v>
       </c>
@@ -37217,6 +37370,7 @@
       </c>
       <c r="CU96" s="26"/>
       <c r="CV96" s="26"/>
+      <c r="CW96" s="26"/>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -37518,6 +37672,9 @@
       </c>
       <c r="CV97" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CW97" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37824,7 +37981,9 @@
       <c r="CV99" s="34">
         <v>149.8836342054756</v>
       </c>
-      <c r="CW99" s="10"/>
+      <c r="CW99" s="34">
+        <v>126.60669987032307</v>
+      </c>
       <c r="CX99" s="10"/>
       <c r="CY99" s="10"/>
       <c r="CZ99" s="10"/>
@@ -38180,7 +38339,9 @@
       <c r="CV100" s="34">
         <v>122.34980827845121</v>
       </c>
-      <c r="CW100" s="10"/>
+      <c r="CW100" s="34">
+        <v>117.35416202192978</v>
+      </c>
       <c r="CX100" s="10"/>
       <c r="CY100" s="10"/>
       <c r="CZ100" s="10"/>
@@ -38536,7 +38697,9 @@
       <c r="CV101" s="34">
         <v>126.16008173976232</v>
       </c>
-      <c r="CW101" s="10"/>
+      <c r="CW101" s="34">
+        <v>133.30557370942458</v>
+      </c>
       <c r="CX101" s="10"/>
       <c r="CY101" s="10"/>
       <c r="CZ101" s="10"/>
@@ -38890,9 +39053,11 @@
         <v>131.88067666067968</v>
       </c>
       <c r="CV102" s="34">
-        <v>117.05432335315871</v>
-      </c>
-      <c r="CW102" s="10"/>
+        <v>117.05432335315867</v>
+      </c>
+      <c r="CW102" s="34">
+        <v>120.68211542345608</v>
+      </c>
       <c r="CX102" s="10"/>
       <c r="CY102" s="10"/>
       <c r="CZ102" s="10"/>
@@ -39246,9 +39411,11 @@
         <v>105.25979751703227</v>
       </c>
       <c r="CV103" s="34">
-        <v>105.03957404405624</v>
-      </c>
-      <c r="CW103" s="10"/>
+        <v>105.03957404405617</v>
+      </c>
+      <c r="CW103" s="34">
+        <v>101.8247527792393</v>
+      </c>
       <c r="CX103" s="10"/>
       <c r="CY103" s="10"/>
       <c r="CZ103" s="10"/>
@@ -39403,7 +39570,7 @@
       <c r="CT104" s="29"/>
       <c r="CU104" s="29"/>
       <c r="CV104" s="29"/>
-      <c r="CW104" s="10"/>
+      <c r="CW104" s="29"/>
       <c r="CX104" s="10"/>
       <c r="CY104" s="10"/>
       <c r="CZ104" s="10"/>
@@ -39757,9 +39924,11 @@
         <v>135.12692904023962</v>
       </c>
       <c r="CV105" s="34">
-        <v>135.12069421355625</v>
-      </c>
-      <c r="CW105" s="10"/>
+        <v>135.04084851346562</v>
+      </c>
+      <c r="CW105" s="34">
+        <v>124.64135045103029</v>
+      </c>
       <c r="CX105" s="10"/>
       <c r="CY105" s="10"/>
       <c r="CZ105" s="10"/>
@@ -39915,6 +40084,7 @@
       <c r="CT106" s="32"/>
       <c r="CU106" s="32"/>
       <c r="CV106" s="32"/>
+      <c r="CW106" s="32"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -39933,7 +40103,7 @@
     </row>
     <row r="112" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
@@ -39943,7 +40113,7 @@
     </row>
     <row r="115" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:154" x14ac:dyDescent="0.2">
@@ -39953,132 +40123,132 @@
     </row>
     <row r="118" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="35">
+      <c r="B118" s="38">
         <v>2000</v>
       </c>
-      <c r="C118" s="37"/>
-      <c r="D118" s="37"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="35">
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="38">
         <v>2001</v>
       </c>
-      <c r="G118" s="37"/>
-      <c r="H118" s="37"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="35">
+      <c r="G118" s="39"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="38">
         <v>2002</v>
       </c>
-      <c r="K118" s="37"/>
-      <c r="L118" s="37"/>
-      <c r="M118" s="37"/>
-      <c r="N118" s="35">
+      <c r="K118" s="39"/>
+      <c r="L118" s="39"/>
+      <c r="M118" s="39"/>
+      <c r="N118" s="38">
         <v>2003</v>
       </c>
-      <c r="O118" s="37"/>
-      <c r="P118" s="37"/>
-      <c r="Q118" s="37"/>
-      <c r="R118" s="35">
+      <c r="O118" s="39"/>
+      <c r="P118" s="39"/>
+      <c r="Q118" s="39"/>
+      <c r="R118" s="38">
         <v>2004</v>
       </c>
-      <c r="S118" s="37"/>
-      <c r="T118" s="37"/>
-      <c r="U118" s="37"/>
-      <c r="V118" s="35">
+      <c r="S118" s="39"/>
+      <c r="T118" s="39"/>
+      <c r="U118" s="39"/>
+      <c r="V118" s="38">
         <v>2005</v>
       </c>
-      <c r="W118" s="37"/>
-      <c r="X118" s="37"/>
-      <c r="Y118" s="37"/>
-      <c r="Z118" s="35">
+      <c r="W118" s="39"/>
+      <c r="X118" s="39"/>
+      <c r="Y118" s="39"/>
+      <c r="Z118" s="38">
         <v>2006</v>
       </c>
-      <c r="AA118" s="37"/>
-      <c r="AB118" s="37"/>
-      <c r="AC118" s="37"/>
-      <c r="AD118" s="35">
+      <c r="AA118" s="39"/>
+      <c r="AB118" s="39"/>
+      <c r="AC118" s="39"/>
+      <c r="AD118" s="38">
         <v>2007</v>
       </c>
-      <c r="AE118" s="37"/>
-      <c r="AF118" s="37"/>
-      <c r="AG118" s="37"/>
-      <c r="AH118" s="35">
+      <c r="AE118" s="39"/>
+      <c r="AF118" s="39"/>
+      <c r="AG118" s="39"/>
+      <c r="AH118" s="38">
         <v>2008</v>
       </c>
-      <c r="AI118" s="37"/>
-      <c r="AJ118" s="37"/>
-      <c r="AK118" s="37"/>
-      <c r="AL118" s="35">
+      <c r="AI118" s="39"/>
+      <c r="AJ118" s="39"/>
+      <c r="AK118" s="39"/>
+      <c r="AL118" s="38">
         <v>2009</v>
       </c>
-      <c r="AM118" s="37"/>
-      <c r="AN118" s="37"/>
-      <c r="AO118" s="37"/>
-      <c r="AP118" s="35">
+      <c r="AM118" s="39"/>
+      <c r="AN118" s="39"/>
+      <c r="AO118" s="39"/>
+      <c r="AP118" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="37"/>
-      <c r="AR118" s="37"/>
-      <c r="AS118" s="37"/>
-      <c r="AT118" s="35">
+      <c r="AQ118" s="39"/>
+      <c r="AR118" s="39"/>
+      <c r="AS118" s="39"/>
+      <c r="AT118" s="38">
         <v>2011</v>
       </c>
-      <c r="AU118" s="37"/>
-      <c r="AV118" s="37"/>
-      <c r="AW118" s="37"/>
-      <c r="AX118" s="35">
+      <c r="AU118" s="39"/>
+      <c r="AV118" s="39"/>
+      <c r="AW118" s="39"/>
+      <c r="AX118" s="38">
         <v>2012</v>
       </c>
-      <c r="AY118" s="37"/>
-      <c r="AZ118" s="37"/>
-      <c r="BA118" s="37"/>
-      <c r="BB118" s="35">
+      <c r="AY118" s="39"/>
+      <c r="AZ118" s="39"/>
+      <c r="BA118" s="39"/>
+      <c r="BB118" s="38">
         <v>2013</v>
       </c>
-      <c r="BC118" s="37"/>
-      <c r="BD118" s="37"/>
-      <c r="BE118" s="37"/>
-      <c r="BF118" s="35">
+      <c r="BC118" s="39"/>
+      <c r="BD118" s="39"/>
+      <c r="BE118" s="39"/>
+      <c r="BF118" s="38">
         <v>2014</v>
       </c>
-      <c r="BG118" s="37"/>
-      <c r="BH118" s="37"/>
-      <c r="BI118" s="37"/>
-      <c r="BJ118" s="35">
+      <c r="BG118" s="39"/>
+      <c r="BH118" s="39"/>
+      <c r="BI118" s="39"/>
+      <c r="BJ118" s="38">
         <v>2015</v>
       </c>
-      <c r="BK118" s="37"/>
-      <c r="BL118" s="37"/>
-      <c r="BM118" s="37"/>
-      <c r="BN118" s="35">
+      <c r="BK118" s="39"/>
+      <c r="BL118" s="39"/>
+      <c r="BM118" s="39"/>
+      <c r="BN118" s="38">
         <v>2016</v>
       </c>
-      <c r="BO118" s="37"/>
-      <c r="BP118" s="37"/>
-      <c r="BQ118" s="37"/>
-      <c r="BR118" s="35">
+      <c r="BO118" s="39"/>
+      <c r="BP118" s="39"/>
+      <c r="BQ118" s="39"/>
+      <c r="BR118" s="38">
         <v>2017</v>
       </c>
-      <c r="BS118" s="37"/>
-      <c r="BT118" s="37"/>
-      <c r="BU118" s="37"/>
-      <c r="BV118" s="35">
+      <c r="BS118" s="39"/>
+      <c r="BT118" s="39"/>
+      <c r="BU118" s="39"/>
+      <c r="BV118" s="38">
         <v>2018</v>
       </c>
-      <c r="BW118" s="37"/>
-      <c r="BX118" s="37"/>
-      <c r="BY118" s="37"/>
-      <c r="BZ118" s="35">
+      <c r="BW118" s="39"/>
+      <c r="BX118" s="39"/>
+      <c r="BY118" s="39"/>
+      <c r="BZ118" s="38">
         <v>2019</v>
       </c>
-      <c r="CA118" s="37"/>
-      <c r="CB118" s="37"/>
-      <c r="CC118" s="37"/>
-      <c r="CD118" s="35">
+      <c r="CA118" s="39"/>
+      <c r="CB118" s="39"/>
+      <c r="CC118" s="39"/>
+      <c r="CD118" s="38">
         <v>2020</v>
       </c>
-      <c r="CE118" s="35"/>
-      <c r="CF118" s="35"/>
-      <c r="CG118" s="35"/>
+      <c r="CE118" s="38"/>
+      <c r="CF118" s="38"/>
+      <c r="CG118" s="38"/>
       <c r="CH118" s="22">
         <v>2021</v>
       </c>
@@ -40102,6 +40272,7 @@
       </c>
       <c r="CU118" s="26"/>
       <c r="CV118" s="26"/>
+      <c r="CW118" s="26"/>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
@@ -40403,6 +40574,9 @@
       </c>
       <c r="CV119" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CW119" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40707,9 +40881,11 @@
         <v>52.358448557437953</v>
       </c>
       <c r="CV121" s="34">
-        <v>57.303793428814906</v>
-      </c>
-      <c r="CW121" s="10"/>
+        <v>57.079087575416189</v>
+      </c>
+      <c r="CW121" s="34">
+        <v>54.167775199317411</v>
+      </c>
       <c r="CX121" s="10"/>
       <c r="CY121" s="10"/>
       <c r="CZ121" s="10"/>
@@ -41063,9 +41239,11 @@
         <v>4.6712705109781778</v>
       </c>
       <c r="CV122" s="34">
-        <v>4.3035133256196918</v>
-      </c>
-      <c r="CW122" s="10"/>
+        <v>4.3080806765423096</v>
+      </c>
+      <c r="CW122" s="34">
+        <v>4.0609460130927619</v>
+      </c>
       <c r="CX122" s="10"/>
       <c r="CY122" s="10"/>
       <c r="CZ122" s="10"/>
@@ -41419,9 +41597,11 @@
         <v>15.563374679786124</v>
       </c>
       <c r="CV123" s="34">
-        <v>13.534655242663524</v>
-      </c>
-      <c r="CW123" s="10"/>
+        <v>13.549019673637137</v>
+      </c>
+      <c r="CW123" s="34">
+        <v>14.844867267506807</v>
+      </c>
       <c r="CX123" s="10"/>
       <c r="CY123" s="10"/>
       <c r="CZ123" s="10"/>
@@ -41775,9 +41955,11 @@
         <v>23.28989544891547</v>
       </c>
       <c r="CV124" s="34">
-        <v>21.850918101846428</v>
-      </c>
-      <c r="CW124" s="10"/>
+        <v>22.028382536726284</v>
+      </c>
+      <c r="CW124" s="34">
+        <v>23.42267226110485</v>
+      </c>
       <c r="CX124" s="10"/>
       <c r="CY124" s="10"/>
       <c r="CZ124" s="10"/>
@@ -42131,9 +42313,11 @@
         <v>4.1170108028822749</v>
       </c>
       <c r="CV125" s="34">
-        <v>3.007119901055447</v>
-      </c>
-      <c r="CW125" s="10"/>
+        <v>3.0354295376781097</v>
+      </c>
+      <c r="CW125" s="34">
+        <v>3.5037392589781793</v>
+      </c>
       <c r="CX125" s="10"/>
       <c r="CY125" s="10"/>
       <c r="CZ125" s="10"/>
@@ -42288,7 +42472,7 @@
       <c r="CT126" s="29"/>
       <c r="CU126" s="29"/>
       <c r="CV126" s="29"/>
-      <c r="CW126" s="10"/>
+      <c r="CW126" s="29"/>
       <c r="CX126" s="10"/>
       <c r="CY126" s="10"/>
       <c r="CZ126" s="10"/>
@@ -42644,7 +42828,9 @@
       <c r="CV127" s="34">
         <v>100</v>
       </c>
-      <c r="CW127" s="10"/>
+      <c r="CW127" s="34">
+        <v>100</v>
+      </c>
       <c r="CX127" s="10"/>
       <c r="CY127" s="10"/>
       <c r="CZ127" s="10"/>
@@ -42800,6 +42986,7 @@
       <c r="CT128" s="32"/>
       <c r="CU128" s="32"/>
       <c r="CV128" s="32"/>
+      <c r="CW128" s="32"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -42906,7 +43093,7 @@
       <c r="CT130" s="29"/>
       <c r="CU130" s="29"/>
       <c r="CV130" s="29"/>
-      <c r="CW130" s="10"/>
+      <c r="CW130" s="29"/>
       <c r="CX130" s="10"/>
       <c r="CY130" s="10"/>
       <c r="CZ130" s="10"/>
@@ -43061,7 +43248,7 @@
       <c r="CT131" s="29"/>
       <c r="CU131" s="29"/>
       <c r="CV131" s="29"/>
-      <c r="CW131" s="10"/>
+      <c r="CW131" s="29"/>
       <c r="CX131" s="10"/>
       <c r="CY131" s="10"/>
       <c r="CZ131" s="10"/>
@@ -43128,7 +43315,7 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:154" x14ac:dyDescent="0.2">
@@ -43138,7 +43325,7 @@
     </row>
     <row r="137" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:154" x14ac:dyDescent="0.2">
@@ -43148,132 +43335,132 @@
     </row>
     <row r="140" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="35">
+      <c r="B140" s="38">
         <v>2000</v>
       </c>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="35">
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="38">
         <v>2001</v>
       </c>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="35">
+      <c r="G140" s="39"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="39"/>
+      <c r="J140" s="38">
         <v>2002</v>
       </c>
-      <c r="K140" s="37"/>
-      <c r="L140" s="37"/>
-      <c r="M140" s="37"/>
-      <c r="N140" s="35">
+      <c r="K140" s="39"/>
+      <c r="L140" s="39"/>
+      <c r="M140" s="39"/>
+      <c r="N140" s="38">
         <v>2003</v>
       </c>
-      <c r="O140" s="37"/>
-      <c r="P140" s="37"/>
-      <c r="Q140" s="37"/>
-      <c r="R140" s="35">
+      <c r="O140" s="39"/>
+      <c r="P140" s="39"/>
+      <c r="Q140" s="39"/>
+      <c r="R140" s="38">
         <v>2004</v>
       </c>
-      <c r="S140" s="37"/>
-      <c r="T140" s="37"/>
-      <c r="U140" s="37"/>
-      <c r="V140" s="35">
+      <c r="S140" s="39"/>
+      <c r="T140" s="39"/>
+      <c r="U140" s="39"/>
+      <c r="V140" s="38">
         <v>2005</v>
       </c>
-      <c r="W140" s="37"/>
-      <c r="X140" s="37"/>
-      <c r="Y140" s="37"/>
-      <c r="Z140" s="35">
+      <c r="W140" s="39"/>
+      <c r="X140" s="39"/>
+      <c r="Y140" s="39"/>
+      <c r="Z140" s="38">
         <v>2006</v>
       </c>
-      <c r="AA140" s="37"/>
-      <c r="AB140" s="37"/>
-      <c r="AC140" s="37"/>
-      <c r="AD140" s="35">
+      <c r="AA140" s="39"/>
+      <c r="AB140" s="39"/>
+      <c r="AC140" s="39"/>
+      <c r="AD140" s="38">
         <v>2007</v>
       </c>
-      <c r="AE140" s="37"/>
-      <c r="AF140" s="37"/>
-      <c r="AG140" s="37"/>
-      <c r="AH140" s="35">
+      <c r="AE140" s="39"/>
+      <c r="AF140" s="39"/>
+      <c r="AG140" s="39"/>
+      <c r="AH140" s="38">
         <v>2008</v>
       </c>
-      <c r="AI140" s="37"/>
-      <c r="AJ140" s="37"/>
-      <c r="AK140" s="37"/>
-      <c r="AL140" s="35">
+      <c r="AI140" s="39"/>
+      <c r="AJ140" s="39"/>
+      <c r="AK140" s="39"/>
+      <c r="AL140" s="38">
         <v>2009</v>
       </c>
-      <c r="AM140" s="37"/>
-      <c r="AN140" s="37"/>
-      <c r="AO140" s="37"/>
-      <c r="AP140" s="35">
+      <c r="AM140" s="39"/>
+      <c r="AN140" s="39"/>
+      <c r="AO140" s="39"/>
+      <c r="AP140" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="37"/>
-      <c r="AR140" s="37"/>
-      <c r="AS140" s="37"/>
-      <c r="AT140" s="35">
+      <c r="AQ140" s="39"/>
+      <c r="AR140" s="39"/>
+      <c r="AS140" s="39"/>
+      <c r="AT140" s="38">
         <v>2011</v>
       </c>
-      <c r="AU140" s="37"/>
-      <c r="AV140" s="37"/>
-      <c r="AW140" s="37"/>
-      <c r="AX140" s="35">
+      <c r="AU140" s="39"/>
+      <c r="AV140" s="39"/>
+      <c r="AW140" s="39"/>
+      <c r="AX140" s="38">
         <v>2012</v>
       </c>
-      <c r="AY140" s="37"/>
-      <c r="AZ140" s="37"/>
-      <c r="BA140" s="37"/>
-      <c r="BB140" s="35">
+      <c r="AY140" s="39"/>
+      <c r="AZ140" s="39"/>
+      <c r="BA140" s="39"/>
+      <c r="BB140" s="38">
         <v>2013</v>
       </c>
-      <c r="BC140" s="37"/>
-      <c r="BD140" s="37"/>
-      <c r="BE140" s="37"/>
-      <c r="BF140" s="35">
+      <c r="BC140" s="39"/>
+      <c r="BD140" s="39"/>
+      <c r="BE140" s="39"/>
+      <c r="BF140" s="38">
         <v>2014</v>
       </c>
-      <c r="BG140" s="37"/>
-      <c r="BH140" s="37"/>
-      <c r="BI140" s="37"/>
-      <c r="BJ140" s="35">
+      <c r="BG140" s="39"/>
+      <c r="BH140" s="39"/>
+      <c r="BI140" s="39"/>
+      <c r="BJ140" s="38">
         <v>2015</v>
       </c>
-      <c r="BK140" s="37"/>
-      <c r="BL140" s="37"/>
-      <c r="BM140" s="37"/>
-      <c r="BN140" s="35">
+      <c r="BK140" s="39"/>
+      <c r="BL140" s="39"/>
+      <c r="BM140" s="39"/>
+      <c r="BN140" s="38">
         <v>2016</v>
       </c>
-      <c r="BO140" s="37"/>
-      <c r="BP140" s="37"/>
-      <c r="BQ140" s="37"/>
-      <c r="BR140" s="35">
+      <c r="BO140" s="39"/>
+      <c r="BP140" s="39"/>
+      <c r="BQ140" s="39"/>
+      <c r="BR140" s="38">
         <v>2017</v>
       </c>
-      <c r="BS140" s="37"/>
-      <c r="BT140" s="37"/>
-      <c r="BU140" s="37"/>
-      <c r="BV140" s="35">
+      <c r="BS140" s="39"/>
+      <c r="BT140" s="39"/>
+      <c r="BU140" s="39"/>
+      <c r="BV140" s="38">
         <v>2018</v>
       </c>
-      <c r="BW140" s="37"/>
-      <c r="BX140" s="37"/>
-      <c r="BY140" s="37"/>
-      <c r="BZ140" s="35">
+      <c r="BW140" s="39"/>
+      <c r="BX140" s="39"/>
+      <c r="BY140" s="39"/>
+      <c r="BZ140" s="38">
         <v>2019</v>
       </c>
-      <c r="CA140" s="37"/>
-      <c r="CB140" s="37"/>
-      <c r="CC140" s="37"/>
-      <c r="CD140" s="35">
+      <c r="CA140" s="39"/>
+      <c r="CB140" s="39"/>
+      <c r="CC140" s="39"/>
+      <c r="CD140" s="38">
         <v>2020</v>
       </c>
-      <c r="CE140" s="35"/>
-      <c r="CF140" s="35"/>
-      <c r="CG140" s="35"/>
+      <c r="CE140" s="38"/>
+      <c r="CF140" s="38"/>
+      <c r="CG140" s="38"/>
       <c r="CH140" s="22">
         <v>2021</v>
       </c>
@@ -43297,6 +43484,7 @@
       </c>
       <c r="CU140" s="26"/>
       <c r="CV140" s="26"/>
+      <c r="CW140" s="26"/>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
@@ -43598,6 +43786,9 @@
       </c>
       <c r="CV141" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CW141" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43902,9 +44093,11 @@
         <v>48.73555464175822</v>
       </c>
       <c r="CV143" s="34">
-        <v>51.659598395892282</v>
-      </c>
-      <c r="CW143" s="10"/>
+        <v>51.426618118904834</v>
+      </c>
+      <c r="CW143" s="34">
+        <v>53.326914442016246</v>
+      </c>
       <c r="CX143" s="10"/>
       <c r="CY143" s="10"/>
       <c r="CZ143" s="10"/>
@@ -44258,9 +44451,11 @@
         <v>6.4314814852714566</v>
       </c>
       <c r="CV144" s="34">
-        <v>4.7527145019436707</v>
-      </c>
-      <c r="CW144" s="10"/>
+        <v>4.7549471324116643</v>
+      </c>
+      <c r="CW144" s="34">
+        <v>4.313113284265313</v>
+      </c>
       <c r="CX144" s="10"/>
       <c r="CY144" s="10"/>
       <c r="CZ144" s="10"/>
@@ -44614,9 +44809,11 @@
         <v>15.684586490324518</v>
       </c>
       <c r="CV145" s="34">
-        <v>14.49596407286926</v>
-      </c>
-      <c r="CW145" s="10"/>
+        <v>14.502773682627806</v>
+      </c>
+      <c r="CW145" s="34">
+        <v>13.880022057603814</v>
+      </c>
       <c r="CX145" s="10"/>
       <c r="CY145" s="10"/>
       <c r="CZ145" s="10"/>
@@ -44970,9 +45167,11 @@
         <v>23.863177907233986</v>
       </c>
       <c r="CV146" s="34">
-        <v>25.223427367284668</v>
-      </c>
-      <c r="CW146" s="10"/>
+        <v>25.413255862099295</v>
+      </c>
+      <c r="CW146" s="34">
+        <v>24.191103143594439</v>
+      </c>
       <c r="CX146" s="10"/>
       <c r="CY146" s="10"/>
       <c r="CZ146" s="10"/>
@@ -45326,9 +45525,11 @@
         <v>5.2851994754118188</v>
       </c>
       <c r="CV147" s="34">
-        <v>3.8682956620101105</v>
-      </c>
-      <c r="CW147" s="10"/>
+        <v>3.9024052039564014</v>
+      </c>
+      <c r="CW147" s="34">
+        <v>4.2888470725201886</v>
+      </c>
       <c r="CX147" s="10"/>
       <c r="CY147" s="10"/>
       <c r="CZ147" s="10"/>
@@ -45483,7 +45684,7 @@
       <c r="CT148" s="29"/>
       <c r="CU148" s="29"/>
       <c r="CV148" s="29"/>
-      <c r="CW148" s="10"/>
+      <c r="CW148" s="29"/>
       <c r="CX148" s="10"/>
       <c r="CY148" s="10"/>
       <c r="CZ148" s="10"/>
@@ -45839,7 +46040,9 @@
       <c r="CV149" s="34">
         <v>100</v>
       </c>
-      <c r="CW149" s="10"/>
+      <c r="CW149" s="34">
+        <v>100</v>
+      </c>
       <c r="CX149" s="10"/>
       <c r="CY149" s="10"/>
       <c r="CZ149" s="10"/>
@@ -45995,6 +46198,7 @@
       <c r="CT150" s="32"/>
       <c r="CU150" s="32"/>
       <c r="CV150" s="32"/>
+      <c r="CW150" s="32"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -46102,7 +46306,7 @@
       <c r="CT152" s="24"/>
       <c r="CU152" s="24"/>
       <c r="CV152" s="24"/>
-      <c r="CW152" s="17"/>
+      <c r="CW152" s="24"/>
       <c r="CX152" s="17"/>
       <c r="CY152" s="17"/>
       <c r="CZ152" s="17"/>
@@ -46258,7 +46462,7 @@
       <c r="CT153" s="24"/>
       <c r="CU153" s="24"/>
       <c r="CV153" s="24"/>
-      <c r="CW153" s="17"/>
+      <c r="CW153" s="24"/>
       <c r="CX153" s="17"/>
       <c r="CY153" s="17"/>
       <c r="CZ153" s="17"/>
@@ -46315,21 +46519,114 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ140:BM140"/>
-    <mergeCell ref="BN140:BQ140"/>
-    <mergeCell ref="BJ118:BM118"/>
-    <mergeCell ref="BN118:BQ118"/>
-    <mergeCell ref="BB53:BE53"/>
-    <mergeCell ref="BF53:BI53"/>
-    <mergeCell ref="BJ53:BM53"/>
-    <mergeCell ref="BN53:BQ53"/>
-    <mergeCell ref="BF31:BI31"/>
-    <mergeCell ref="BJ31:BM31"/>
-    <mergeCell ref="BN31:BQ31"/>
-    <mergeCell ref="BB140:BE140"/>
-    <mergeCell ref="BN96:BQ96"/>
-    <mergeCell ref="BN75:BQ75"/>
+    <mergeCell ref="CD53:CG53"/>
+    <mergeCell ref="CD75:CG75"/>
+    <mergeCell ref="BZ53:CC53"/>
+    <mergeCell ref="BZ75:CC75"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD31:CG31"/>
+    <mergeCell ref="BR140:BU140"/>
+    <mergeCell ref="BV140:BY140"/>
+    <mergeCell ref="BR118:BU118"/>
+    <mergeCell ref="BV118:BY118"/>
+    <mergeCell ref="BZ140:CC140"/>
+    <mergeCell ref="BZ118:CC118"/>
+    <mergeCell ref="BZ96:CC96"/>
+    <mergeCell ref="CD140:CG140"/>
+    <mergeCell ref="CD118:CG118"/>
+    <mergeCell ref="CD96:CG96"/>
+    <mergeCell ref="BR75:BU75"/>
+    <mergeCell ref="BV75:BY75"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR31:BU31"/>
+    <mergeCell ref="BV31:BY31"/>
+    <mergeCell ref="BZ31:CC31"/>
+    <mergeCell ref="BV53:BY53"/>
+    <mergeCell ref="BR53:BU53"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR96:BU96"/>
+    <mergeCell ref="BV96:BY96"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="Z31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AH31:AK31"/>
+    <mergeCell ref="AL31:AO31"/>
+    <mergeCell ref="AP31:AS31"/>
+    <mergeCell ref="BF96:BI96"/>
+    <mergeCell ref="BJ96:BM96"/>
+    <mergeCell ref="AT31:AW31"/>
+    <mergeCell ref="AX31:BA31"/>
+    <mergeCell ref="BB31:BE31"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V75:Y75"/>
+    <mergeCell ref="Z75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AK75"/>
+    <mergeCell ref="AX75:BA75"/>
+    <mergeCell ref="BB75:BE75"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AL53:AO53"/>
+    <mergeCell ref="AP53:AS53"/>
+    <mergeCell ref="AT53:AW53"/>
+    <mergeCell ref="AX53:BA53"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AH53:AK53"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="R53:U53"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="AP96:AS96"/>
+    <mergeCell ref="AT96:AW96"/>
+    <mergeCell ref="AX96:BA96"/>
+    <mergeCell ref="BF75:BI75"/>
+    <mergeCell ref="BJ75:BM75"/>
+    <mergeCell ref="AD96:AG96"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="AL118:AO118"/>
+    <mergeCell ref="AP118:AS118"/>
+    <mergeCell ref="AT118:AW118"/>
+    <mergeCell ref="AX118:BA118"/>
+    <mergeCell ref="BB118:BE118"/>
+    <mergeCell ref="BF118:BI118"/>
+    <mergeCell ref="V53:Y53"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="V96:Y96"/>
+    <mergeCell ref="Z96:AC96"/>
+    <mergeCell ref="Z118:AC118"/>
+    <mergeCell ref="AD118:AG118"/>
+    <mergeCell ref="AH118:AK118"/>
+    <mergeCell ref="AL75:AO75"/>
+    <mergeCell ref="AP75:AS75"/>
+    <mergeCell ref="AT75:AW75"/>
     <mergeCell ref="Z140:AC140"/>
     <mergeCell ref="AD140:AG140"/>
     <mergeCell ref="AH140:AK140"/>
@@ -46354,123 +46651,30 @@
     <mergeCell ref="AP140:AS140"/>
     <mergeCell ref="AT140:AW140"/>
     <mergeCell ref="AX140:BA140"/>
-    <mergeCell ref="AL118:AO118"/>
-    <mergeCell ref="AP118:AS118"/>
-    <mergeCell ref="AT118:AW118"/>
-    <mergeCell ref="AX118:BA118"/>
-    <mergeCell ref="BB118:BE118"/>
-    <mergeCell ref="BF118:BI118"/>
-    <mergeCell ref="V53:Y53"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="V96:Y96"/>
-    <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="Z118:AC118"/>
-    <mergeCell ref="AD118:AG118"/>
-    <mergeCell ref="AH118:AK118"/>
-    <mergeCell ref="AL75:AO75"/>
-    <mergeCell ref="AP75:AS75"/>
-    <mergeCell ref="AT75:AW75"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="AP96:AS96"/>
-    <mergeCell ref="AT96:AW96"/>
-    <mergeCell ref="AX96:BA96"/>
-    <mergeCell ref="BF75:BI75"/>
-    <mergeCell ref="BJ75:BM75"/>
-    <mergeCell ref="AD96:AG96"/>
-    <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="AL96:AO96"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="R53:U53"/>
-    <mergeCell ref="AT31:AW31"/>
-    <mergeCell ref="AX31:BA31"/>
-    <mergeCell ref="BB31:BE31"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V75:Y75"/>
-    <mergeCell ref="Z75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AK75"/>
-    <mergeCell ref="AX75:BA75"/>
-    <mergeCell ref="BB75:BE75"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="AL53:AO53"/>
-    <mergeCell ref="AP53:AS53"/>
-    <mergeCell ref="AT53:AW53"/>
-    <mergeCell ref="AX53:BA53"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AH53:AK53"/>
-    <mergeCell ref="BV53:BY53"/>
-    <mergeCell ref="BR53:BU53"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR96:BU96"/>
-    <mergeCell ref="BV96:BY96"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="Z31:AC31"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AH31:AK31"/>
-    <mergeCell ref="AL31:AO31"/>
-    <mergeCell ref="AP31:AS31"/>
-    <mergeCell ref="BF96:BI96"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="CD53:CG53"/>
-    <mergeCell ref="CD75:CG75"/>
-    <mergeCell ref="BZ53:CC53"/>
-    <mergeCell ref="BZ75:CC75"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD31:CG31"/>
-    <mergeCell ref="BR140:BU140"/>
-    <mergeCell ref="BV140:BY140"/>
-    <mergeCell ref="BR118:BU118"/>
-    <mergeCell ref="BV118:BY118"/>
-    <mergeCell ref="BZ140:CC140"/>
-    <mergeCell ref="BZ118:CC118"/>
-    <mergeCell ref="BZ96:CC96"/>
-    <mergeCell ref="CD140:CG140"/>
-    <mergeCell ref="CD118:CG118"/>
-    <mergeCell ref="CD96:CG96"/>
-    <mergeCell ref="BR75:BU75"/>
-    <mergeCell ref="BV75:BY75"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR31:BU31"/>
-    <mergeCell ref="BV31:BY31"/>
-    <mergeCell ref="BZ31:CC31"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ140:BM140"/>
+    <mergeCell ref="BN140:BQ140"/>
+    <mergeCell ref="BJ118:BM118"/>
+    <mergeCell ref="BN118:BQ118"/>
+    <mergeCell ref="BB53:BE53"/>
+    <mergeCell ref="BF53:BI53"/>
+    <mergeCell ref="BJ53:BM53"/>
+    <mergeCell ref="BN53:BQ53"/>
+    <mergeCell ref="BF31:BI31"/>
+    <mergeCell ref="BJ31:BM31"/>
+    <mergeCell ref="BN31:BQ31"/>
+    <mergeCell ref="BB140:BE140"/>
+    <mergeCell ref="BN96:BQ96"/>
+    <mergeCell ref="BN75:BQ75"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="99" man="1"/>
-    <brk id="88" max="99" man="1"/>
-    <brk id="109" max="99" man="1"/>
+    <brk id="44" max="100" man="1"/>
+    <brk id="88" max="100" man="1"/>
+    <brk id="109" max="100" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAC5507-E896-49F4-8D02-4521C193270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84222CD-B2D2-4842-9A61-F8D7CB9AA27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CW$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CX$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -629,13 +629,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>Q1 2000 to Q1 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -790,10 +793,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23646,15 +23649,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="93" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="101" width="10.109375" style="24" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="89" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="102" width="10.109375" style="24" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23669,7 +23672,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23679,7 +23682,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23769,10 +23772,10 @@
       <c r="CI6" s="4"/>
       <c r="CJ6" s="4"/>
       <c r="CK6" s="4"/>
-      <c r="CL6" s="4"/>
-      <c r="CM6" s="4"/>
-      <c r="CN6" s="4"/>
-      <c r="CO6" s="4"/>
+      <c r="CL6" s="25"/>
+      <c r="CM6" s="25"/>
+      <c r="CN6" s="25"/>
+      <c r="CO6" s="25"/>
       <c r="CP6" s="25"/>
       <c r="CQ6" s="25"/>
       <c r="CR6" s="25"/>
@@ -23781,6 +23784,7 @@
       <c r="CU6" s="25"/>
       <c r="CV6" s="25"/>
       <c r="CW6" s="25"/>
+      <c r="CX6" s="25"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23874,10 +23878,10 @@
       <c r="CI7" s="4"/>
       <c r="CJ7" s="4"/>
       <c r="CK7" s="4"/>
-      <c r="CL7" s="4"/>
-      <c r="CM7" s="4"/>
-      <c r="CN7" s="4"/>
-      <c r="CO7" s="4"/>
+      <c r="CL7" s="25"/>
+      <c r="CM7" s="25"/>
+      <c r="CN7" s="25"/>
+      <c r="CO7" s="25"/>
       <c r="CP7" s="25"/>
       <c r="CQ7" s="25"/>
       <c r="CR7" s="25"/>
@@ -23886,6 +23890,7 @@
       <c r="CU7" s="25"/>
       <c r="CV7" s="25"/>
       <c r="CW7" s="25"/>
+      <c r="CX7" s="25"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23976,10 +23981,10 @@
       <c r="CI8" s="4"/>
       <c r="CJ8" s="4"/>
       <c r="CK8" s="4"/>
-      <c r="CL8" s="4"/>
-      <c r="CM8" s="4"/>
-      <c r="CN8" s="4"/>
-      <c r="CO8" s="4"/>
+      <c r="CL8" s="25"/>
+      <c r="CM8" s="25"/>
+      <c r="CN8" s="25"/>
+      <c r="CO8" s="25"/>
       <c r="CP8" s="25"/>
       <c r="CQ8" s="25"/>
       <c r="CR8" s="25"/>
@@ -23988,6 +23993,7 @@
       <c r="CU8" s="25"/>
       <c r="CV8" s="25"/>
       <c r="CW8" s="25"/>
+      <c r="CX8" s="25"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -24123,12 +24129,12 @@
       <c r="CI9" s="22"/>
       <c r="CJ9" s="22"/>
       <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CL9" s="26">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
+      <c r="CM9" s="26"/>
+      <c r="CN9" s="26"/>
+      <c r="CO9" s="26"/>
       <c r="CP9" s="26">
         <v>2023</v>
       </c>
@@ -24141,6 +24147,9 @@
       <c r="CU9" s="26"/>
       <c r="CV9" s="26"/>
       <c r="CW9" s="26"/>
+      <c r="CX9" s="26">
+        <v>2025</v>
+      </c>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24410,16 +24419,16 @@
       <c r="CK10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL10" s="7" t="s">
+      <c r="CL10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CM10" s="7" t="s">
+      <c r="CM10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CN10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CO10" s="27" t="s">
         <v>8</v>
       </c>
       <c r="CP10" s="27" t="s">
@@ -24445,6 +24454,9 @@
       </c>
       <c r="CW10" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CX10" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24718,16 +24730,16 @@
       <c r="CK12" s="19">
         <v>102445.11283825984</v>
       </c>
-      <c r="CL12" s="19">
+      <c r="CL12" s="28">
         <v>95112.941061584192</v>
       </c>
-      <c r="CM12" s="19">
+      <c r="CM12" s="28">
         <v>86174.151868083005</v>
       </c>
-      <c r="CN12" s="19">
+      <c r="CN12" s="28">
         <v>124972.44325496058</v>
       </c>
-      <c r="CO12" s="19">
+      <c r="CO12" s="28">
         <v>131260.92863027516</v>
       </c>
       <c r="CP12" s="28">
@@ -24740,21 +24752,23 @@
         <v>148333.17360806902</v>
       </c>
       <c r="CS12" s="28">
-        <v>150742.0106052983</v>
+        <v>150697.4297999776</v>
       </c>
       <c r="CT12" s="28">
-        <v>128395.00966066422</v>
+        <v>128371.1764159833</v>
       </c>
       <c r="CU12" s="28">
-        <v>134223.75512728252</v>
+        <v>134320.80526272036</v>
       </c>
       <c r="CV12" s="28">
-        <v>156073.48651106577</v>
+        <v>156094.27347132447</v>
       </c>
       <c r="CW12" s="28">
-        <v>160009.67369754324</v>
-      </c>
-      <c r="CX12" s="10"/>
+        <v>158660.51588675834</v>
+      </c>
+      <c r="CX12" s="28">
+        <v>140895.94654547374</v>
+      </c>
       <c r="CY12" s="10"/>
       <c r="CZ12" s="10"/>
       <c r="DA12" s="10"/>
@@ -25076,16 +25090,16 @@
       <c r="CK13" s="19">
         <v>6805.4416689638665</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="28">
         <v>9030.929515187514</v>
       </c>
-      <c r="CM13" s="19">
+      <c r="CM13" s="28">
         <v>6848.4040648484024</v>
       </c>
-      <c r="CN13" s="19">
+      <c r="CN13" s="28">
         <v>8675.0316443556312</v>
       </c>
-      <c r="CO13" s="19">
+      <c r="CO13" s="28">
         <v>9276.0492047612261</v>
       </c>
       <c r="CP13" s="28">
@@ -25112,7 +25126,9 @@
       <c r="CW13" s="28">
         <v>11995.889513042071</v>
       </c>
-      <c r="CX13" s="10"/>
+      <c r="CX13" s="28">
+        <v>15438.952137807319</v>
+      </c>
       <c r="CY13" s="10"/>
       <c r="CZ13" s="10"/>
       <c r="DA13" s="10"/>
@@ -25434,16 +25450,16 @@
       <c r="CK14" s="19">
         <v>10731.893624718097</v>
       </c>
-      <c r="CL14" s="19">
+      <c r="CL14" s="28">
         <v>16519.717390147831</v>
       </c>
-      <c r="CM14" s="19">
+      <c r="CM14" s="28">
         <v>17861.916287213768</v>
       </c>
-      <c r="CN14" s="19">
+      <c r="CN14" s="28">
         <v>24864.012333683175</v>
       </c>
-      <c r="CO14" s="19">
+      <c r="CO14" s="28">
         <v>33058.754526789751</v>
       </c>
       <c r="CP14" s="28">
@@ -25456,7 +25472,7 @@
         <v>33609.41579652451</v>
       </c>
       <c r="CS14" s="28">
-        <v>38403.37280716536</v>
+        <v>38834.220221786789</v>
       </c>
       <c r="CT14" s="28">
         <v>38212.15391038169</v>
@@ -25468,9 +25484,11 @@
         <v>37047.591843117363</v>
       </c>
       <c r="CW14" s="28">
-        <v>43851.207822673081</v>
-      </c>
-      <c r="CX14" s="10"/>
+        <v>44343.174494800915</v>
+      </c>
+      <c r="CX14" s="28">
+        <v>39771.112530577229</v>
+      </c>
       <c r="CY14" s="10"/>
       <c r="CZ14" s="10"/>
       <c r="DA14" s="10"/>
@@ -25792,16 +25810,16 @@
       <c r="CK15" s="19">
         <v>46206.319687562878</v>
       </c>
-      <c r="CL15" s="19">
+      <c r="CL15" s="28">
         <v>48867.192274073153</v>
       </c>
-      <c r="CM15" s="19">
+      <c r="CM15" s="28">
         <v>50510.642751591717</v>
       </c>
-      <c r="CN15" s="19">
+      <c r="CN15" s="28">
         <v>54770.959092975754</v>
       </c>
-      <c r="CO15" s="19">
+      <c r="CO15" s="28">
         <v>56900.817831052766</v>
       </c>
       <c r="CP15" s="28">
@@ -25814,21 +25832,23 @@
         <v>57535.5535728869</v>
       </c>
       <c r="CS15" s="28">
-        <v>60011.327920465068</v>
+        <v>59937.994624565414</v>
       </c>
       <c r="CT15" s="28">
-        <v>59044.769117680524</v>
+        <v>58983.991785955368</v>
       </c>
       <c r="CU15" s="28">
-        <v>59704.924607265872</v>
+        <v>59936.72668556479</v>
       </c>
       <c r="CV15" s="28">
-        <v>60233.031233440808</v>
+        <v>60481.673907085031</v>
       </c>
       <c r="CW15" s="28">
-        <v>69189.737474599344</v>
-      </c>
-      <c r="CX15" s="10"/>
+        <v>70377.811540652663</v>
+      </c>
+      <c r="CX15" s="28">
+        <v>67529.452484804555</v>
+      </c>
       <c r="CY15" s="10"/>
       <c r="CZ15" s="10"/>
       <c r="DA15" s="10"/>
@@ -26150,16 +26170,16 @@
       <c r="CK16" s="19">
         <v>8636.4176909564103</v>
       </c>
-      <c r="CL16" s="19">
+      <c r="CL16" s="28">
         <v>7865.3473658344301</v>
       </c>
-      <c r="CM16" s="19">
+      <c r="CM16" s="28">
         <v>8966.8706717470923</v>
       </c>
-      <c r="CN16" s="19">
+      <c r="CN16" s="28">
         <v>7164.4283924129832</v>
       </c>
-      <c r="CO16" s="19">
+      <c r="CO16" s="28">
         <v>8621.6984242896724</v>
       </c>
       <c r="CP16" s="28">
@@ -26181,12 +26201,14 @@
         <v>10554.183041849237</v>
       </c>
       <c r="CV16" s="28">
-        <v>8299.8886479772318</v>
+        <v>8340.3714919969134</v>
       </c>
       <c r="CW16" s="28">
         <v>10349.920658314857</v>
       </c>
-      <c r="CX16" s="10"/>
+      <c r="CX16" s="28">
+        <v>10839.798652338173</v>
+      </c>
       <c r="CY16" s="10"/>
       <c r="CZ16" s="10"/>
       <c r="DA16" s="10"/>
@@ -26329,10 +26351,10 @@
       <c r="CI17" s="10"/>
       <c r="CJ17" s="10"/>
       <c r="CK17" s="10"/>
-      <c r="CL17" s="10"/>
-      <c r="CM17" s="10"/>
-      <c r="CN17" s="10"/>
-      <c r="CO17" s="10"/>
+      <c r="CL17" s="29"/>
+      <c r="CM17" s="29"/>
+      <c r="CN17" s="29"/>
+      <c r="CO17" s="29"/>
       <c r="CP17" s="29"/>
       <c r="CQ17" s="29"/>
       <c r="CR17" s="29"/>
@@ -26341,7 +26363,7 @@
       <c r="CU17" s="29"/>
       <c r="CV17" s="29"/>
       <c r="CW17" s="29"/>
-      <c r="CX17" s="10"/>
+      <c r="CX17" s="29"/>
       <c r="CY17" s="10"/>
       <c r="CZ17" s="10"/>
       <c r="DA17" s="10"/>
@@ -26663,16 +26685,16 @@
       <c r="CK18" s="20">
         <v>174825.18551046107</v>
       </c>
-      <c r="CL18" s="20">
+      <c r="CL18" s="30">
         <v>177396.1276068271</v>
       </c>
-      <c r="CM18" s="20">
+      <c r="CM18" s="30">
         <v>170361.98564348399</v>
       </c>
-      <c r="CN18" s="20">
+      <c r="CN18" s="30">
         <v>220446.87471838811</v>
       </c>
-      <c r="CO18" s="20">
+      <c r="CO18" s="30">
         <v>239118.24861716855</v>
       </c>
       <c r="CP18" s="30">
@@ -26685,21 +26707,23 @@
         <v>256897.15707679841</v>
       </c>
       <c r="CS18" s="30">
-        <v>268916.30843977362</v>
+        <v>269229.24175317469</v>
       </c>
       <c r="CT18" s="30">
-        <v>249460.43746883277</v>
+        <v>249375.82689242667</v>
       </c>
       <c r="CU18" s="30">
-        <v>256355.48574369459</v>
+        <v>256684.33795743133</v>
       </c>
       <c r="CV18" s="30">
-        <v>273433.74454760243</v>
+        <v>273743.65702552511</v>
       </c>
       <c r="CW18" s="30">
-        <v>295396.42916617257</v>
-      </c>
-      <c r="CX18" s="10"/>
+        <v>295727.31209356879</v>
+      </c>
+      <c r="CX18" s="30">
+        <v>274475.26235100097</v>
+      </c>
       <c r="CY18" s="10"/>
       <c r="CZ18" s="10"/>
       <c r="DA18" s="10"/>
@@ -26843,10 +26867,10 @@
       <c r="CI19" s="21"/>
       <c r="CJ19" s="21"/>
       <c r="CK19" s="21"/>
-      <c r="CL19" s="21"/>
-      <c r="CM19" s="21"/>
-      <c r="CN19" s="21"/>
-      <c r="CO19" s="21"/>
+      <c r="CL19" s="31"/>
+      <c r="CM19" s="31"/>
+      <c r="CN19" s="31"/>
+      <c r="CO19" s="31"/>
       <c r="CP19" s="31"/>
       <c r="CQ19" s="31"/>
       <c r="CR19" s="31"/>
@@ -26855,6 +26879,7 @@
       <c r="CU19" s="31"/>
       <c r="CV19" s="31"/>
       <c r="CW19" s="31"/>
+      <c r="CX19" s="31"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -26950,10 +26975,10 @@
       <c r="CI21" s="10"/>
       <c r="CJ21" s="10"/>
       <c r="CK21" s="10"/>
-      <c r="CL21" s="10"/>
-      <c r="CM21" s="10"/>
-      <c r="CN21" s="10"/>
-      <c r="CO21" s="10"/>
+      <c r="CL21" s="29"/>
+      <c r="CM21" s="29"/>
+      <c r="CN21" s="29"/>
+      <c r="CO21" s="29"/>
       <c r="CP21" s="29"/>
       <c r="CQ21" s="29"/>
       <c r="CR21" s="29"/>
@@ -26962,7 +26987,7 @@
       <c r="CU21" s="29"/>
       <c r="CV21" s="29"/>
       <c r="CW21" s="29"/>
-      <c r="CX21" s="10"/>
+      <c r="CX21" s="29"/>
       <c r="CY21" s="10"/>
       <c r="CZ21" s="10"/>
       <c r="DA21" s="10"/>
@@ -27105,10 +27130,10 @@
       <c r="CI22" s="10"/>
       <c r="CJ22" s="10"/>
       <c r="CK22" s="10"/>
-      <c r="CL22" s="10"/>
-      <c r="CM22" s="10"/>
-      <c r="CN22" s="10"/>
-      <c r="CO22" s="10"/>
+      <c r="CL22" s="29"/>
+      <c r="CM22" s="29"/>
+      <c r="CN22" s="29"/>
+      <c r="CO22" s="29"/>
       <c r="CP22" s="29"/>
       <c r="CQ22" s="29"/>
       <c r="CR22" s="29"/>
@@ -27117,7 +27142,7 @@
       <c r="CU22" s="29"/>
       <c r="CV22" s="29"/>
       <c r="CW22" s="29"/>
-      <c r="CX22" s="10"/>
+      <c r="CX22" s="29"/>
       <c r="CY22" s="10"/>
       <c r="CZ22" s="10"/>
       <c r="DA22" s="10"/>
@@ -27183,7 +27208,7 @@
     </row>
     <row r="25" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -27275,10 +27300,10 @@
       <c r="CI26" s="4"/>
       <c r="CJ26" s="4"/>
       <c r="CK26" s="4"/>
-      <c r="CL26" s="4"/>
-      <c r="CM26" s="4"/>
-      <c r="CN26" s="4"/>
-      <c r="CO26" s="4"/>
+      <c r="CL26" s="25"/>
+      <c r="CM26" s="25"/>
+      <c r="CN26" s="25"/>
+      <c r="CO26" s="25"/>
       <c r="CP26" s="25"/>
       <c r="CQ26" s="25"/>
       <c r="CR26" s="25"/>
@@ -27287,6 +27312,7 @@
       <c r="CU26" s="25"/>
       <c r="CV26" s="25"/>
       <c r="CW26" s="25"/>
+      <c r="CX26" s="25"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27380,10 +27406,10 @@
       <c r="CI27" s="4"/>
       <c r="CJ27" s="4"/>
       <c r="CK27" s="4"/>
-      <c r="CL27" s="4"/>
-      <c r="CM27" s="4"/>
-      <c r="CN27" s="4"/>
-      <c r="CO27" s="4"/>
+      <c r="CL27" s="25"/>
+      <c r="CM27" s="25"/>
+      <c r="CN27" s="25"/>
+      <c r="CO27" s="25"/>
       <c r="CP27" s="25"/>
       <c r="CQ27" s="25"/>
       <c r="CR27" s="25"/>
@@ -27392,10 +27418,11 @@
       <c r="CU27" s="25"/>
       <c r="CV27" s="25"/>
       <c r="CW27" s="25"/>
+      <c r="CX27" s="25"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -27485,10 +27512,10 @@
       <c r="CI28" s="4"/>
       <c r="CJ28" s="4"/>
       <c r="CK28" s="4"/>
-      <c r="CL28" s="4"/>
-      <c r="CM28" s="4"/>
-      <c r="CN28" s="4"/>
-      <c r="CO28" s="4"/>
+      <c r="CL28" s="25"/>
+      <c r="CM28" s="25"/>
+      <c r="CN28" s="25"/>
+      <c r="CO28" s="25"/>
       <c r="CP28" s="25"/>
       <c r="CQ28" s="25"/>
       <c r="CR28" s="25"/>
@@ -27497,6 +27524,7 @@
       <c r="CU28" s="25"/>
       <c r="CV28" s="25"/>
       <c r="CW28" s="25"/>
+      <c r="CX28" s="25"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -27590,10 +27618,10 @@
       <c r="CI29" s="4"/>
       <c r="CJ29" s="4"/>
       <c r="CK29" s="4"/>
-      <c r="CL29" s="4"/>
-      <c r="CM29" s="4"/>
-      <c r="CN29" s="4"/>
-      <c r="CO29" s="4"/>
+      <c r="CL29" s="25"/>
+      <c r="CM29" s="25"/>
+      <c r="CN29" s="25"/>
+      <c r="CO29" s="25"/>
       <c r="CP29" s="25"/>
       <c r="CQ29" s="25"/>
       <c r="CR29" s="25"/>
@@ -27602,6 +27630,7 @@
       <c r="CU29" s="25"/>
       <c r="CV29" s="25"/>
       <c r="CW29" s="25"/>
+      <c r="CX29" s="25"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
@@ -27692,10 +27721,10 @@
       <c r="CI30" s="4"/>
       <c r="CJ30" s="4"/>
       <c r="CK30" s="4"/>
-      <c r="CL30" s="4"/>
-      <c r="CM30" s="4"/>
-      <c r="CN30" s="4"/>
-      <c r="CO30" s="4"/>
+      <c r="CL30" s="25"/>
+      <c r="CM30" s="25"/>
+      <c r="CN30" s="25"/>
+      <c r="CO30" s="25"/>
       <c r="CP30" s="25"/>
       <c r="CQ30" s="25"/>
       <c r="CR30" s="25"/>
@@ -27704,129 +27733,130 @@
       <c r="CU30" s="25"/>
       <c r="CV30" s="25"/>
       <c r="CW30" s="25"/>
+      <c r="CX30" s="25"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="38">
         <v>2000</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="38">
         <v>2001</v>
       </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
       <c r="J31" s="38">
         <v>2002</v>
       </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="38">
         <v>2003</v>
       </c>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
       <c r="R31" s="38">
         <v>2004</v>
       </c>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
       <c r="V31" s="38">
         <v>2005</v>
       </c>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
       <c r="Z31" s="38">
         <v>2006</v>
       </c>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
       <c r="AD31" s="38">
         <v>2007</v>
       </c>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="40"/>
       <c r="AH31" s="38">
         <v>2008</v>
       </c>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="39"/>
+      <c r="AI31" s="40"/>
+      <c r="AJ31" s="40"/>
+      <c r="AK31" s="40"/>
       <c r="AL31" s="38">
         <v>2009</v>
       </c>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="39"/>
+      <c r="AM31" s="40"/>
+      <c r="AN31" s="40"/>
+      <c r="AO31" s="40"/>
       <c r="AP31" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ31" s="39"/>
-      <c r="AR31" s="39"/>
-      <c r="AS31" s="39"/>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="40"/>
+      <c r="AS31" s="40"/>
       <c r="AT31" s="38">
         <v>2011</v>
       </c>
-      <c r="AU31" s="39"/>
-      <c r="AV31" s="39"/>
-      <c r="AW31" s="39"/>
+      <c r="AU31" s="40"/>
+      <c r="AV31" s="40"/>
+      <c r="AW31" s="40"/>
       <c r="AX31" s="38">
         <v>2012</v>
       </c>
-      <c r="AY31" s="39"/>
-      <c r="AZ31" s="39"/>
-      <c r="BA31" s="39"/>
+      <c r="AY31" s="40"/>
+      <c r="AZ31" s="40"/>
+      <c r="BA31" s="40"/>
       <c r="BB31" s="38">
         <v>2013</v>
       </c>
-      <c r="BC31" s="39"/>
-      <c r="BD31" s="39"/>
-      <c r="BE31" s="39"/>
+      <c r="BC31" s="40"/>
+      <c r="BD31" s="40"/>
+      <c r="BE31" s="40"/>
       <c r="BF31" s="38">
         <v>2014</v>
       </c>
-      <c r="BG31" s="39"/>
-      <c r="BH31" s="39"/>
-      <c r="BI31" s="39"/>
+      <c r="BG31" s="40"/>
+      <c r="BH31" s="40"/>
+      <c r="BI31" s="40"/>
       <c r="BJ31" s="38">
         <v>2015</v>
       </c>
-      <c r="BK31" s="39"/>
-      <c r="BL31" s="39"/>
-      <c r="BM31" s="39"/>
+      <c r="BK31" s="40"/>
+      <c r="BL31" s="40"/>
+      <c r="BM31" s="40"/>
       <c r="BN31" s="38">
         <v>2016</v>
       </c>
-      <c r="BO31" s="39"/>
-      <c r="BP31" s="39"/>
-      <c r="BQ31" s="39"/>
+      <c r="BO31" s="40"/>
+      <c r="BP31" s="40"/>
+      <c r="BQ31" s="40"/>
       <c r="BR31" s="38">
         <v>2017</v>
       </c>
-      <c r="BS31" s="39"/>
-      <c r="BT31" s="39"/>
-      <c r="BU31" s="39"/>
+      <c r="BS31" s="40"/>
+      <c r="BT31" s="40"/>
+      <c r="BU31" s="40"/>
       <c r="BV31" s="38">
         <v>2018</v>
       </c>
-      <c r="BW31" s="39"/>
-      <c r="BX31" s="39"/>
-      <c r="BY31" s="39"/>
+      <c r="BW31" s="40"/>
+      <c r="BX31" s="40"/>
+      <c r="BY31" s="40"/>
       <c r="BZ31" s="38">
         <v>2019</v>
       </c>
-      <c r="CA31" s="39"/>
-      <c r="CB31" s="39"/>
-      <c r="CC31" s="39"/>
+      <c r="CA31" s="40"/>
+      <c r="CB31" s="40"/>
+      <c r="CC31" s="40"/>
       <c r="CD31" s="38">
         <v>2020</v>
       </c>
@@ -27839,12 +27869,12 @@
       <c r="CI31" s="22"/>
       <c r="CJ31" s="22"/>
       <c r="CK31" s="22"/>
-      <c r="CL31" s="22">
+      <c r="CL31" s="26">
         <v>2022</v>
       </c>
-      <c r="CM31" s="22"/>
-      <c r="CN31" s="22"/>
-      <c r="CO31" s="22"/>
+      <c r="CM31" s="26"/>
+      <c r="CN31" s="26"/>
+      <c r="CO31" s="26"/>
       <c r="CP31" s="26">
         <v>2023</v>
       </c>
@@ -27857,6 +27887,9 @@
       <c r="CU31" s="26"/>
       <c r="CV31" s="26"/>
       <c r="CW31" s="26"/>
+      <c r="CX31" s="26">
+        <v>2025</v>
+      </c>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -28126,16 +28159,16 @@
       <c r="CK32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL32" s="7" t="s">
+      <c r="CL32" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CM32" s="7" t="s">
+      <c r="CM32" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CN32" s="7" t="s">
+      <c r="CN32" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CO32" s="7" t="s">
+      <c r="CO32" s="27" t="s">
         <v>8</v>
       </c>
       <c r="CP32" s="27" t="s">
@@ -28161,6 +28194,9 @@
       </c>
       <c r="CW32" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CX32" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28434,16 +28470,16 @@
       <c r="CK34" s="19">
         <v>92252.123079514247</v>
       </c>
-      <c r="CL34" s="19">
+      <c r="CL34" s="28">
         <v>85348.710133698143</v>
       </c>
-      <c r="CM34" s="19">
+      <c r="CM34" s="28">
         <v>67173.120417274389</v>
       </c>
-      <c r="CN34" s="19">
+      <c r="CN34" s="28">
         <v>89706.673806850406</v>
       </c>
-      <c r="CO34" s="19">
+      <c r="CO34" s="28">
         <v>106276.44833839743</v>
       </c>
       <c r="CP34" s="28">
@@ -28456,21 +28492,23 @@
         <v>100414.79674688043</v>
       </c>
       <c r="CS34" s="28">
-        <v>119060.27212822236</v>
+        <v>119025.06095655321</v>
       </c>
       <c r="CT34" s="28">
-        <v>100114.3019859807</v>
+        <v>100095.71833026389</v>
       </c>
       <c r="CU34" s="28">
-        <v>92458.452744499256</v>
+        <v>92525.304587175866</v>
       </c>
       <c r="CV34" s="28">
-        <v>104129.77196503289</v>
+        <v>104143.64069751254</v>
       </c>
       <c r="CW34" s="28">
-        <v>126383.25922832929</v>
-      </c>
-      <c r="CX34" s="10"/>
+        <v>125317.63014853586</v>
+      </c>
+      <c r="CX34" s="28">
+        <v>109215.00827815419</v>
+      </c>
       <c r="CY34" s="10"/>
       <c r="CZ34" s="10"/>
       <c r="DA34" s="10"/>
@@ -28792,16 +28830,16 @@
       <c r="CK35" s="19">
         <v>7088.4754867296288</v>
       </c>
-      <c r="CL35" s="19">
+      <c r="CL35" s="28">
         <v>8733.9693321251852</v>
       </c>
-      <c r="CM35" s="19">
+      <c r="CM35" s="28">
         <v>6479.835473066878</v>
       </c>
-      <c r="CN35" s="19">
+      <c r="CN35" s="28">
         <v>5961.3846865949308</v>
       </c>
-      <c r="CO35" s="19">
+      <c r="CO35" s="28">
         <v>10043.7355015065</v>
       </c>
       <c r="CP35" s="28">
@@ -28828,7 +28866,9 @@
       <c r="CW35" s="28">
         <v>10221.954898199878</v>
       </c>
-      <c r="CX35" s="10"/>
+      <c r="CX35" s="28">
+        <v>12844.71177681305</v>
+      </c>
       <c r="CY35" s="10"/>
       <c r="CZ35" s="10"/>
       <c r="DA35" s="10"/>
@@ -29150,16 +29190,16 @@
       <c r="CK36" s="19">
         <v>9877.5561037619118</v>
       </c>
-      <c r="CL36" s="19">
+      <c r="CL36" s="28">
         <v>18325.805539719899</v>
       </c>
-      <c r="CM36" s="19">
+      <c r="CM36" s="28">
         <v>17025.259549398193</v>
       </c>
-      <c r="CN36" s="19">
+      <c r="CN36" s="28">
         <v>19697.048462697538</v>
       </c>
-      <c r="CO36" s="19">
+      <c r="CO36" s="28">
         <v>23671.991341686968</v>
       </c>
       <c r="CP36" s="28">
@@ -29172,7 +29212,7 @@
         <v>26549.267235779145</v>
       </c>
       <c r="CS36" s="28">
-        <v>26862.323479699189</v>
+        <v>27163.691869399408</v>
       </c>
       <c r="CT36" s="28">
         <v>31522.530832663513</v>
@@ -29184,9 +29224,11 @@
         <v>29365.542041687615</v>
       </c>
       <c r="CW36" s="28">
-        <v>32895.254566218369</v>
-      </c>
-      <c r="CX36" s="10"/>
+        <v>33264.306405866286</v>
+      </c>
+      <c r="CX36" s="28">
+        <v>33851.035348167643</v>
+      </c>
       <c r="CY36" s="10"/>
       <c r="CZ36" s="10"/>
       <c r="DA36" s="10"/>
@@ -29508,16 +29550,16 @@
       <c r="CK37" s="19">
         <v>47702.781019455986</v>
       </c>
-      <c r="CL37" s="19">
+      <c r="CL37" s="28">
         <v>50251.808163641748</v>
       </c>
-      <c r="CM37" s="19">
+      <c r="CM37" s="28">
         <v>41889.313968282353</v>
       </c>
-      <c r="CN37" s="19">
+      <c r="CN37" s="28">
         <v>47693.688525816702</v>
       </c>
-      <c r="CO37" s="19">
+      <c r="CO37" s="28">
         <v>49252.070171865002</v>
       </c>
       <c r="CP37" s="28">
@@ -29530,21 +29572,23 @@
         <v>49254.005248525122</v>
       </c>
       <c r="CS37" s="28">
-        <v>50997.707473160088</v>
+        <v>50935.388739315538</v>
       </c>
       <c r="CT37" s="28">
-        <v>53055.701117600503</v>
+        <v>53001.088592309578</v>
       </c>
       <c r="CU37" s="28">
-        <v>45271.927714537531</v>
+        <v>45447.694236342169</v>
       </c>
       <c r="CV37" s="28">
-        <v>51457.331526076814</v>
+        <v>51669.74800632424</v>
       </c>
       <c r="CW37" s="28">
-        <v>57332.221292129791</v>
-      </c>
-      <c r="CX37" s="10"/>
+        <v>58316.687020033671</v>
+      </c>
+      <c r="CX37" s="28">
+        <v>59608.508945950831</v>
+      </c>
       <c r="CY37" s="10"/>
       <c r="CZ37" s="10"/>
       <c r="DA37" s="10"/>
@@ -29866,16 +29910,16 @@
       <c r="CK38" s="19">
         <v>8595.0612567754397</v>
       </c>
-      <c r="CL38" s="19">
+      <c r="CL38" s="28">
         <v>7773.9350940748318</v>
       </c>
-      <c r="CM38" s="19">
+      <c r="CM38" s="28">
         <v>8608.2139647257463</v>
       </c>
-      <c r="CN38" s="19">
+      <c r="CN38" s="28">
         <v>6894.384820837442</v>
       </c>
-      <c r="CO38" s="19">
+      <c r="CO38" s="28">
         <v>8564.053251911153</v>
       </c>
       <c r="CP38" s="28">
@@ -29897,12 +29941,14 @@
         <v>10026.793980998726</v>
       </c>
       <c r="CV38" s="28">
-        <v>7901.6777471851274</v>
+        <v>7940.2183109565485</v>
       </c>
       <c r="CW38" s="28">
         <v>10164.44467167424</v>
       </c>
-      <c r="CX38" s="10"/>
+      <c r="CX38" s="28">
+        <v>10572.446978515129</v>
+      </c>
       <c r="CY38" s="10"/>
       <c r="CZ38" s="10"/>
       <c r="DA38" s="10"/>
@@ -30045,10 +30091,10 @@
       <c r="CI39" s="10"/>
       <c r="CJ39" s="10"/>
       <c r="CK39" s="10"/>
-      <c r="CL39" s="10"/>
-      <c r="CM39" s="10"/>
-      <c r="CN39" s="10"/>
-      <c r="CO39" s="10"/>
+      <c r="CL39" s="29"/>
+      <c r="CM39" s="29"/>
+      <c r="CN39" s="29"/>
+      <c r="CO39" s="29"/>
       <c r="CP39" s="29"/>
       <c r="CQ39" s="29"/>
       <c r="CR39" s="29"/>
@@ -30057,7 +30103,7 @@
       <c r="CU39" s="29"/>
       <c r="CV39" s="29"/>
       <c r="CW39" s="29"/>
-      <c r="CX39" s="10"/>
+      <c r="CX39" s="29"/>
       <c r="CY39" s="10"/>
       <c r="CZ39" s="10"/>
       <c r="DA39" s="10"/>
@@ -30379,16 +30425,16 @@
       <c r="CK40" s="20">
         <v>165515.9969462372</v>
       </c>
-      <c r="CL40" s="20">
+      <c r="CL40" s="30">
         <v>170434.22826325981</v>
       </c>
-      <c r="CM40" s="20">
+      <c r="CM40" s="30">
         <v>141175.74337274759</v>
       </c>
-      <c r="CN40" s="20">
+      <c r="CN40" s="30">
         <v>169953.18030279703</v>
       </c>
-      <c r="CO40" s="20">
+      <c r="CO40" s="30">
         <v>197808.29860536705</v>
       </c>
       <c r="CP40" s="30">
@@ -30401,21 +30447,23 @@
         <v>190530.28863566052</v>
       </c>
       <c r="CS40" s="30">
-        <v>216443.666058175</v>
+        <v>216647.50454236151</v>
       </c>
       <c r="CT40" s="30">
-        <v>205975.27287569616</v>
+        <v>205902.07669468844</v>
       </c>
       <c r="CU40" s="30">
-        <v>189714.57988759159</v>
+        <v>189957.19825207282</v>
       </c>
       <c r="CV40" s="30">
-        <v>202482.24708121331</v>
+        <v>202747.07285771181</v>
       </c>
       <c r="CW40" s="30">
-        <v>236997.13465655156</v>
-      </c>
-      <c r="CX40" s="10"/>
+        <v>237285.02314430996</v>
+      </c>
+      <c r="CX40" s="30">
+        <v>226091.71132760085</v>
+      </c>
       <c r="CY40" s="10"/>
       <c r="CZ40" s="10"/>
       <c r="DA40" s="10"/>
@@ -30559,10 +30607,10 @@
       <c r="CI41" s="13"/>
       <c r="CJ41" s="13"/>
       <c r="CK41" s="13"/>
-      <c r="CL41" s="13"/>
-      <c r="CM41" s="13"/>
-      <c r="CN41" s="13"/>
-      <c r="CO41" s="13"/>
+      <c r="CL41" s="32"/>
+      <c r="CM41" s="32"/>
+      <c r="CN41" s="32"/>
+      <c r="CO41" s="32"/>
       <c r="CP41" s="32"/>
       <c r="CQ41" s="32"/>
       <c r="CR41" s="32"/>
@@ -30571,6 +30619,7 @@
       <c r="CU41" s="32"/>
       <c r="CV41" s="32"/>
       <c r="CW41" s="32"/>
+      <c r="CX41" s="32"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -30666,10 +30715,10 @@
       <c r="CI43" s="10"/>
       <c r="CJ43" s="10"/>
       <c r="CK43" s="10"/>
-      <c r="CL43" s="10"/>
-      <c r="CM43" s="10"/>
-      <c r="CN43" s="10"/>
-      <c r="CO43" s="10"/>
+      <c r="CL43" s="29"/>
+      <c r="CM43" s="29"/>
+      <c r="CN43" s="29"/>
+      <c r="CO43" s="29"/>
       <c r="CP43" s="29"/>
       <c r="CQ43" s="29"/>
       <c r="CR43" s="29"/>
@@ -30678,7 +30727,7 @@
       <c r="CU43" s="29"/>
       <c r="CV43" s="29"/>
       <c r="CW43" s="29"/>
-      <c r="CX43" s="10"/>
+      <c r="CX43" s="29"/>
       <c r="CY43" s="10"/>
       <c r="CZ43" s="10"/>
       <c r="DA43" s="10"/>
@@ -30821,10 +30870,10 @@
       <c r="CI44" s="10"/>
       <c r="CJ44" s="10"/>
       <c r="CK44" s="10"/>
-      <c r="CL44" s="10"/>
-      <c r="CM44" s="10"/>
-      <c r="CN44" s="10"/>
-      <c r="CO44" s="10"/>
+      <c r="CL44" s="29"/>
+      <c r="CM44" s="29"/>
+      <c r="CN44" s="29"/>
+      <c r="CO44" s="29"/>
       <c r="CP44" s="29"/>
       <c r="CQ44" s="29"/>
       <c r="CR44" s="29"/>
@@ -30833,7 +30882,7 @@
       <c r="CU44" s="29"/>
       <c r="CV44" s="29"/>
       <c r="CW44" s="29"/>
-      <c r="CX44" s="10"/>
+      <c r="CX44" s="29"/>
       <c r="CY44" s="10"/>
       <c r="CZ44" s="10"/>
       <c r="DA44" s="10"/>
@@ -30899,7 +30948,7 @@
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -30910,31 +30959,33 @@
       <c r="CU49" s="35"/>
       <c r="CV49" s="35"/>
       <c r="CW49" s="35"/>
+      <c r="CX49" s="35"/>
     </row>
     <row r="50" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CT50" s="35"/>
       <c r="CU50" s="35"/>
       <c r="CV50" s="35"/>
       <c r="CW50" s="35"/>
+      <c r="CX50" s="35"/>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CT51" s="35"/>
       <c r="CU51" s="35"/>
       <c r="CV51" s="35"/>
       <c r="CW51" s="35"/>
+      <c r="CX51" s="35"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="CT52" s="35"/>
       <c r="CU52" s="35"/>
       <c r="CV52" s="35"/>
       <c r="CW52" s="35"/>
+      <c r="CX52" s="35"/>
     </row>
     <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
@@ -31070,22 +31121,25 @@
       <c r="CI53" s="22"/>
       <c r="CJ53" s="22"/>
       <c r="CK53" s="22"/>
-      <c r="CL53" s="22" t="s">
+      <c r="CL53" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="CM53" s="22"/>
-      <c r="CN53" s="22"/>
-      <c r="CO53" s="22"/>
+      <c r="CM53" s="26"/>
+      <c r="CN53" s="26"/>
+      <c r="CO53" s="26"/>
       <c r="CP53" s="26" t="s">
         <v>52</v>
       </c>
       <c r="CQ53" s="26"/>
       <c r="CR53" s="26"/>
       <c r="CS53" s="26"/>
-      <c r="CT53" s="23"/>
+      <c r="CT53" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="CU53" s="23"/>
       <c r="CV53" s="23"/>
       <c r="CW53" s="23"/>
+      <c r="CX53" s="23"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -31355,16 +31409,16 @@
       <c r="CK54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL54" s="6" t="s">
+      <c r="CL54" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="CM54" s="6" t="s">
+      <c r="CM54" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="CN54" s="6" t="s">
+      <c r="CN54" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="CO54" s="6" t="s">
+      <c r="CO54" s="33" t="s">
         <v>8</v>
       </c>
       <c r="CP54" s="33" t="s">
@@ -31379,17 +31433,20 @@
       <c r="CS54" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="CT54" s="33"/>
+      <c r="CT54" s="33" t="s">
+        <v>6</v>
+      </c>
       <c r="CU54" s="33"/>
       <c r="CV54" s="33"/>
       <c r="CW54" s="33"/>
+      <c r="CX54" s="33"/>
     </row>
     <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
-      <c r="CT55" s="35"/>
       <c r="CU55" s="35"/>
       <c r="CV55" s="35"/>
       <c r="CW55" s="35"/>
+      <c r="CX55" s="35"/>
     </row>
     <row r="56" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -31659,35 +31716,37 @@
       <c r="CK56" s="16">
         <v>28.128053153213529</v>
       </c>
-      <c r="CL56" s="16">
+      <c r="CL56" s="34">
         <v>24.20302716305838</v>
       </c>
-      <c r="CM56" s="16">
+      <c r="CM56" s="34">
         <v>31.753975784408226</v>
       </c>
-      <c r="CN56" s="16">
+      <c r="CN56" s="34">
         <v>18.692705163369027</v>
       </c>
-      <c r="CO56" s="16">
-        <v>14.841493335686977</v>
+      <c r="CO56" s="34">
+        <v>14.807529835820034</v>
       </c>
       <c r="CP56" s="34">
-        <v>8.6866874054318828</v>
+        <v>8.666512505945235</v>
       </c>
       <c r="CQ56" s="34">
-        <v>18.219369208481396</v>
+        <v>18.304847414497743</v>
       </c>
       <c r="CR56" s="34">
-        <v>5.218194092879358</v>
+        <v>5.2322077890425902</v>
       </c>
       <c r="CS56" s="34">
-        <v>6.1480293748444836</v>
-      </c>
-      <c r="CT56" s="36"/>
+        <v>5.2841552091168467</v>
+      </c>
+      <c r="CT56" s="34">
+        <v>9.7566840775099308</v>
+      </c>
       <c r="CU56" s="36"/>
       <c r="CV56" s="36"/>
       <c r="CW56" s="36"/>
-      <c r="CX56" s="10"/>
+      <c r="CX56" s="36"/>
       <c r="CY56" s="10"/>
       <c r="CZ56" s="10"/>
       <c r="DA56" s="10"/>
@@ -32005,16 +32064,16 @@
       <c r="CK57" s="16">
         <v>36.303412121869115</v>
       </c>
-      <c r="CL57" s="16">
+      <c r="CL57" s="34">
         <v>38.658322350972725</v>
       </c>
-      <c r="CM57" s="16">
+      <c r="CM57" s="34">
         <v>14.315857745275281</v>
       </c>
-      <c r="CN57" s="16">
+      <c r="CN57" s="34">
         <v>9.7160001601030359</v>
       </c>
-      <c r="CO57" s="16">
+      <c r="CO57" s="34">
         <v>14.630768274735928</v>
       </c>
       <c r="CP57" s="34">
@@ -32029,11 +32088,13 @@
       <c r="CS57" s="34">
         <v>12.815353939186537</v>
       </c>
-      <c r="CT57" s="36"/>
+      <c r="CT57" s="34">
+        <v>7.352866967803422</v>
+      </c>
       <c r="CU57" s="36"/>
       <c r="CV57" s="36"/>
       <c r="CW57" s="36"/>
-      <c r="CX57" s="10"/>
+      <c r="CX57" s="36"/>
       <c r="CY57" s="10"/>
       <c r="CZ57" s="10"/>
       <c r="DA57" s="10"/>
@@ -32351,17 +32412,17 @@
       <c r="CK58" s="16">
         <v>208.04213760232955</v>
       </c>
-      <c r="CL58" s="16">
+      <c r="CL58" s="34">
         <v>107.96440874236967</v>
       </c>
-      <c r="CM58" s="16">
+      <c r="CM58" s="34">
         <v>79.551634967850049</v>
       </c>
-      <c r="CN58" s="16">
+      <c r="CN58" s="34">
         <v>35.172937277681342</v>
       </c>
-      <c r="CO58" s="16">
-        <v>16.167028543209355</v>
+      <c r="CO58" s="34">
+        <v>17.470306361108626</v>
       </c>
       <c r="CP58" s="34">
         <v>11.226914357659055</v>
@@ -32375,11 +32436,13 @@
       <c r="CS58" s="34">
         <v>14.185824361997845</v>
       </c>
-      <c r="CT58" s="36"/>
+      <c r="CT58" s="34">
+        <v>4.0797454753577682</v>
+      </c>
       <c r="CU58" s="36"/>
       <c r="CV58" s="36"/>
       <c r="CW58" s="36"/>
-      <c r="CX58" s="10"/>
+      <c r="CX58" s="36"/>
       <c r="CY58" s="10"/>
       <c r="CZ58" s="10"/>
       <c r="DA58" s="10"/>
@@ -32697,35 +32760,37 @@
       <c r="CK59" s="16">
         <v>23.145098367071341</v>
       </c>
-      <c r="CL59" s="16">
+      <c r="CL59" s="34">
         <v>15.491791200406581</v>
       </c>
-      <c r="CM59" s="16">
+      <c r="CM59" s="34">
         <v>14.299517278723954</v>
       </c>
-      <c r="CN59" s="16">
+      <c r="CN59" s="34">
         <v>5.0475553572435103</v>
       </c>
-      <c r="CO59" s="16">
-        <v>5.4665472448003811</v>
+      <c r="CO59" s="34">
+        <v>5.3376680850712717</v>
       </c>
       <c r="CP59" s="34">
-        <v>4.6195686053051901</v>
+        <v>4.5118791635293292</v>
       </c>
       <c r="CQ59" s="34">
-        <v>3.414839687567266</v>
+        <v>3.8163438335688085</v>
       </c>
       <c r="CR59" s="34">
-        <v>4.688366571700243</v>
+        <v>5.120521401546867</v>
       </c>
       <c r="CS59" s="34">
-        <v>15.294461682798826</v>
-      </c>
-      <c r="CT59" s="36"/>
+        <v>17.417694705135361</v>
+      </c>
+      <c r="CT59" s="34">
+        <v>14.487762594738356</v>
+      </c>
       <c r="CU59" s="36"/>
       <c r="CV59" s="36"/>
       <c r="CW59" s="36"/>
-      <c r="CX59" s="10"/>
+      <c r="CX59" s="36"/>
       <c r="CY59" s="10"/>
       <c r="CZ59" s="10"/>
       <c r="DA59" s="10"/>
@@ -33043,16 +33108,16 @@
       <c r="CK60" s="16">
         <v>-0.17043254730663193</v>
       </c>
-      <c r="CL60" s="16">
+      <c r="CL60" s="34">
         <v>12.512871040386258</v>
       </c>
-      <c r="CM60" s="16">
+      <c r="CM60" s="34">
         <v>12.819618991169108</v>
       </c>
-      <c r="CN60" s="16">
+      <c r="CN60" s="34">
         <v>10.28257850793662</v>
       </c>
-      <c r="CO60" s="16">
+      <c r="CO60" s="34">
         <v>5.8537446887849711</v>
       </c>
       <c r="CP60" s="34">
@@ -33062,16 +33127,18 @@
         <v>4.3275688626576567</v>
       </c>
       <c r="CR60" s="34">
-        <v>5.0470371903374058</v>
+        <v>5.5594058499269181</v>
       </c>
       <c r="CS60" s="34">
         <v>13.406505035531495</v>
       </c>
-      <c r="CT60" s="36"/>
+      <c r="CT60" s="34">
+        <v>14.986662781931699</v>
+      </c>
       <c r="CU60" s="36"/>
       <c r="CV60" s="36"/>
       <c r="CW60" s="36"/>
-      <c r="CX60" s="10"/>
+      <c r="CX60" s="36"/>
       <c r="CY60" s="10"/>
       <c r="CZ60" s="10"/>
       <c r="DA60" s="10"/>
@@ -33210,19 +33277,19 @@
       <c r="CI61" s="10"/>
       <c r="CJ61" s="10"/>
       <c r="CK61" s="10"/>
-      <c r="CL61" s="10"/>
-      <c r="CM61" s="10"/>
-      <c r="CN61" s="10"/>
-      <c r="CO61" s="10"/>
+      <c r="CL61" s="29"/>
+      <c r="CM61" s="29"/>
+      <c r="CN61" s="29"/>
+      <c r="CO61" s="29"/>
       <c r="CP61" s="29"/>
       <c r="CQ61" s="29"/>
       <c r="CR61" s="29"/>
       <c r="CS61" s="29"/>
-      <c r="CT61" s="37"/>
+      <c r="CT61" s="29"/>
       <c r="CU61" s="37"/>
       <c r="CV61" s="37"/>
       <c r="CW61" s="37"/>
-      <c r="CX61" s="10"/>
+      <c r="CX61" s="37"/>
       <c r="CY61" s="10"/>
       <c r="CZ61" s="10"/>
       <c r="DA61" s="10"/>
@@ -33540,35 +33607,37 @@
       <c r="CK62" s="16">
         <v>36.775629849316147</v>
       </c>
-      <c r="CL62" s="16">
+      <c r="CL62" s="34">
         <v>29.821065932615539</v>
       </c>
-      <c r="CM62" s="16">
+      <c r="CM62" s="34">
         <v>29.892742852506132</v>
       </c>
-      <c r="CN62" s="16">
+      <c r="CN62" s="34">
         <v>16.534724025901511</v>
       </c>
-      <c r="CO62" s="16">
-        <v>12.461641884267976</v>
+      <c r="CO62" s="34">
+        <v>12.592511575398092</v>
       </c>
       <c r="CP62" s="34">
-        <v>8.3209283832293721</v>
+        <v>8.2841887050649916</v>
       </c>
       <c r="CQ62" s="34">
-        <v>15.847064750098028</v>
+        <v>15.995673092094108</v>
       </c>
       <c r="CR62" s="34">
-        <v>6.4370457263801057</v>
+        <v>6.5576825140538659</v>
       </c>
       <c r="CS62" s="34">
-        <v>9.8469746517174883</v>
-      </c>
-      <c r="CT62" s="36"/>
+        <v>9.8421962517307549</v>
+      </c>
+      <c r="CT62" s="34">
+        <v>10.064903150938306</v>
+      </c>
       <c r="CU62" s="36"/>
       <c r="CV62" s="36"/>
       <c r="CW62" s="36"/>
-      <c r="CX62" s="10"/>
+      <c r="CX62" s="36"/>
       <c r="CY62" s="10"/>
       <c r="CZ62" s="10"/>
       <c r="DA62" s="10"/>
@@ -33708,27 +33777,28 @@
       <c r="CI63" s="13"/>
       <c r="CJ63" s="13"/>
       <c r="CK63" s="13"/>
-      <c r="CL63" s="13"/>
-      <c r="CM63" s="13"/>
-      <c r="CN63" s="13"/>
-      <c r="CO63" s="13"/>
+      <c r="CL63" s="32"/>
+      <c r="CM63" s="32"/>
+      <c r="CN63" s="32"/>
+      <c r="CO63" s="32"/>
       <c r="CP63" s="32"/>
       <c r="CQ63" s="32"/>
       <c r="CR63" s="32"/>
       <c r="CS63" s="32"/>
-      <c r="CT63" s="27"/>
+      <c r="CT63" s="32"/>
       <c r="CU63" s="27"/>
       <c r="CV63" s="27"/>
       <c r="CW63" s="27"/>
+      <c r="CX63" s="27"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="CT64" s="35"/>
       <c r="CU64" s="35"/>
       <c r="CV64" s="35"/>
       <c r="CW64" s="35"/>
+      <c r="CX64" s="35"/>
     </row>
     <row r="65" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10"/>
@@ -33819,19 +33889,19 @@
       <c r="CI65" s="10"/>
       <c r="CJ65" s="10"/>
       <c r="CK65" s="10"/>
-      <c r="CL65" s="10"/>
-      <c r="CM65" s="10"/>
-      <c r="CN65" s="10"/>
-      <c r="CO65" s="10"/>
+      <c r="CL65" s="29"/>
+      <c r="CM65" s="29"/>
+      <c r="CN65" s="29"/>
+      <c r="CO65" s="29"/>
       <c r="CP65" s="29"/>
       <c r="CQ65" s="29"/>
       <c r="CR65" s="29"/>
       <c r="CS65" s="29"/>
-      <c r="CT65" s="37"/>
+      <c r="CT65" s="29"/>
       <c r="CU65" s="37"/>
       <c r="CV65" s="37"/>
       <c r="CW65" s="37"/>
-      <c r="CX65" s="10"/>
+      <c r="CX65" s="37"/>
       <c r="CY65" s="10"/>
       <c r="CZ65" s="10"/>
       <c r="DA65" s="10"/>
@@ -33970,19 +34040,19 @@
       <c r="CI66" s="10"/>
       <c r="CJ66" s="10"/>
       <c r="CK66" s="10"/>
-      <c r="CL66" s="10"/>
-      <c r="CM66" s="10"/>
-      <c r="CN66" s="10"/>
-      <c r="CO66" s="10"/>
+      <c r="CL66" s="29"/>
+      <c r="CM66" s="29"/>
+      <c r="CN66" s="29"/>
+      <c r="CO66" s="29"/>
       <c r="CP66" s="29"/>
       <c r="CQ66" s="29"/>
       <c r="CR66" s="29"/>
       <c r="CS66" s="29"/>
-      <c r="CT66" s="37"/>
+      <c r="CT66" s="29"/>
       <c r="CU66" s="37"/>
       <c r="CV66" s="37"/>
       <c r="CW66" s="37"/>
-      <c r="CX66" s="10"/>
+      <c r="CX66" s="37"/>
       <c r="CY66" s="10"/>
       <c r="CZ66" s="10"/>
       <c r="DA66" s="10"/>
@@ -34036,190 +34106,190 @@
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CT67" s="35"/>
       <c r="CU67" s="35"/>
       <c r="CV67" s="35"/>
       <c r="CW67" s="35"/>
+      <c r="CX67" s="35"/>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CT68" s="35"/>
       <c r="CU68" s="35"/>
       <c r="CV68" s="35"/>
       <c r="CW68" s="35"/>
+      <c r="CX68" s="35"/>
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CT69" s="35"/>
+        <v>56</v>
+      </c>
       <c r="CU69" s="35"/>
       <c r="CV69" s="35"/>
       <c r="CW69" s="35"/>
+      <c r="CX69" s="35"/>
     </row>
     <row r="70" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CT70" s="35"/>
       <c r="CU70" s="35"/>
       <c r="CV70" s="35"/>
       <c r="CW70" s="35"/>
+      <c r="CX70" s="35"/>
     </row>
     <row r="71" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CT71" s="35"/>
       <c r="CU71" s="35"/>
       <c r="CV71" s="35"/>
       <c r="CW71" s="35"/>
+      <c r="CX71" s="35"/>
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CT72" s="35"/>
+        <v>55</v>
+      </c>
       <c r="CU72" s="35"/>
       <c r="CV72" s="35"/>
       <c r="CW72" s="35"/>
+      <c r="CX72" s="35"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="CT73" s="35"/>
       <c r="CU73" s="35"/>
       <c r="CV73" s="35"/>
       <c r="CW73" s="35"/>
+      <c r="CX73" s="35"/>
     </row>
     <row r="74" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CT74" s="35"/>
       <c r="CU74" s="35"/>
       <c r="CV74" s="35"/>
       <c r="CW74" s="35"/>
+      <c r="CX74" s="35"/>
     </row>
     <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
       <c r="J75" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
       <c r="N75" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
       <c r="R75" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
       <c r="V75" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="W75" s="40"/>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="40"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="39"/>
+      <c r="Y75" s="39"/>
       <c r="Z75" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AA75" s="40"/>
-      <c r="AB75" s="40"/>
-      <c r="AC75" s="40"/>
+      <c r="AA75" s="39"/>
+      <c r="AB75" s="39"/>
+      <c r="AC75" s="39"/>
       <c r="AD75" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="40"/>
-      <c r="AF75" s="40"/>
-      <c r="AG75" s="40"/>
+      <c r="AE75" s="39"/>
+      <c r="AF75" s="39"/>
+      <c r="AG75" s="39"/>
       <c r="AH75" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="40"/>
-      <c r="AJ75" s="40"/>
-      <c r="AK75" s="40"/>
+      <c r="AI75" s="39"/>
+      <c r="AJ75" s="39"/>
+      <c r="AK75" s="39"/>
       <c r="AL75" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AM75" s="40"/>
-      <c r="AN75" s="40"/>
-      <c r="AO75" s="40"/>
+      <c r="AM75" s="39"/>
+      <c r="AN75" s="39"/>
+      <c r="AO75" s="39"/>
       <c r="AP75" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AQ75" s="40"/>
-      <c r="AR75" s="40"/>
-      <c r="AS75" s="40"/>
+      <c r="AQ75" s="39"/>
+      <c r="AR75" s="39"/>
+      <c r="AS75" s="39"/>
       <c r="AT75" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AU75" s="40"/>
-      <c r="AV75" s="40"/>
-      <c r="AW75" s="40"/>
+      <c r="AU75" s="39"/>
+      <c r="AV75" s="39"/>
+      <c r="AW75" s="39"/>
       <c r="AX75" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AY75" s="40"/>
-      <c r="AZ75" s="40"/>
-      <c r="BA75" s="40"/>
+      <c r="AY75" s="39"/>
+      <c r="AZ75" s="39"/>
+      <c r="BA75" s="39"/>
       <c r="BB75" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="BC75" s="40"/>
-      <c r="BD75" s="40"/>
-      <c r="BE75" s="40"/>
+      <c r="BC75" s="39"/>
+      <c r="BD75" s="39"/>
+      <c r="BE75" s="39"/>
       <c r="BF75" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="BG75" s="40"/>
-      <c r="BH75" s="40"/>
-      <c r="BI75" s="40"/>
+      <c r="BG75" s="39"/>
+      <c r="BH75" s="39"/>
+      <c r="BI75" s="39"/>
       <c r="BJ75" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="BK75" s="40"/>
-      <c r="BL75" s="40"/>
-      <c r="BM75" s="40"/>
+      <c r="BK75" s="39"/>
+      <c r="BL75" s="39"/>
+      <c r="BM75" s="39"/>
       <c r="BN75" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="BO75" s="40"/>
-      <c r="BP75" s="40"/>
-      <c r="BQ75" s="40"/>
+      <c r="BO75" s="39"/>
+      <c r="BP75" s="39"/>
+      <c r="BQ75" s="39"/>
       <c r="BR75" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="BS75" s="40"/>
-      <c r="BT75" s="40"/>
-      <c r="BU75" s="40"/>
+      <c r="BS75" s="39"/>
+      <c r="BT75" s="39"/>
+      <c r="BU75" s="39"/>
       <c r="BV75" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="BW75" s="40"/>
-      <c r="BX75" s="40"/>
-      <c r="BY75" s="40"/>
+      <c r="BW75" s="39"/>
+      <c r="BX75" s="39"/>
+      <c r="BY75" s="39"/>
       <c r="BZ75" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="CA75" s="40"/>
-      <c r="CB75" s="40"/>
-      <c r="CC75" s="40"/>
+      <c r="CA75" s="39"/>
+      <c r="CB75" s="39"/>
+      <c r="CC75" s="39"/>
       <c r="CD75" s="38" t="s">
         <v>49</v>
       </c>
@@ -34232,22 +34302,25 @@
       <c r="CI75" s="22"/>
       <c r="CJ75" s="22"/>
       <c r="CK75" s="22"/>
-      <c r="CL75" s="22" t="s">
+      <c r="CL75" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="CM75" s="22"/>
-      <c r="CN75" s="22"/>
-      <c r="CO75" s="22"/>
+      <c r="CM75" s="26"/>
+      <c r="CN75" s="26"/>
+      <c r="CO75" s="26"/>
       <c r="CP75" s="26" t="s">
         <v>52</v>
       </c>
       <c r="CQ75" s="26"/>
       <c r="CR75" s="26"/>
       <c r="CS75" s="26"/>
-      <c r="CT75" s="23"/>
+      <c r="CT75" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="CU75" s="23"/>
       <c r="CV75" s="23"/>
       <c r="CW75" s="23"/>
+      <c r="CX75" s="23"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
@@ -34517,16 +34590,16 @@
       <c r="CK76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL76" s="6" t="s">
+      <c r="CL76" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="CM76" s="6" t="s">
+      <c r="CM76" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="CN76" s="6" t="s">
+      <c r="CN76" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="CO76" s="6" t="s">
+      <c r="CO76" s="33" t="s">
         <v>8</v>
       </c>
       <c r="CP76" s="33" t="s">
@@ -34541,17 +34614,20 @@
       <c r="CS76" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="CT76" s="33"/>
+      <c r="CT76" s="33" t="s">
+        <v>6</v>
+      </c>
       <c r="CU76" s="33"/>
       <c r="CV76" s="33"/>
       <c r="CW76" s="33"/>
+      <c r="CX76" s="33"/>
     </row>
     <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
-      <c r="CT77" s="35"/>
       <c r="CU77" s="35"/>
       <c r="CV77" s="35"/>
       <c r="CW77" s="35"/>
+      <c r="CX77" s="35"/>
     </row>
     <row r="78" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -34821,35 +34897,37 @@
       <c r="CK78" s="16">
         <v>15.202170736813599</v>
       </c>
-      <c r="CL78" s="16">
+      <c r="CL78" s="34">
         <v>10.759964218547481</v>
       </c>
-      <c r="CM78" s="16">
+      <c r="CM78" s="34">
         <v>18.141714985582013</v>
       </c>
-      <c r="CN78" s="16">
+      <c r="CN78" s="34">
         <v>11.936818617404029</v>
       </c>
-      <c r="CO78" s="16">
-        <v>12.028839869694991</v>
+      <c r="CO78" s="34">
+        <v>11.995708190739123</v>
       </c>
       <c r="CP78" s="34">
-        <v>5.9049732613493831</v>
+        <v>5.8853147158394421</v>
       </c>
       <c r="CQ78" s="34">
-        <v>16.505875362098337</v>
+        <v>16.590114630866211</v>
       </c>
       <c r="CR78" s="34">
-        <v>3.6996292762678848</v>
+        <v>3.7134407193309897</v>
       </c>
       <c r="CS78" s="34">
-        <v>6.1506554362822357</v>
-      </c>
-      <c r="CT78" s="36"/>
+        <v>5.2867598986398008</v>
+      </c>
+      <c r="CT78" s="34">
+        <v>9.1105694629228537</v>
+      </c>
       <c r="CU78" s="36"/>
       <c r="CV78" s="36"/>
       <c r="CW78" s="36"/>
-      <c r="CX78" s="10"/>
+      <c r="CX78" s="36"/>
       <c r="CY78" s="10"/>
       <c r="CZ78" s="10"/>
       <c r="DA78" s="10"/>
@@ -35167,16 +35245,16 @@
       <c r="CK79" s="16">
         <v>41.691052191820802</v>
       </c>
-      <c r="CL79" s="16">
+      <c r="CL79" s="34">
         <v>34.552718772618221</v>
       </c>
-      <c r="CM79" s="16">
+      <c r="CM79" s="34">
         <v>16.036428053176138</v>
       </c>
-      <c r="CN79" s="16">
+      <c r="CN79" s="34">
         <v>12.741845828798532</v>
       </c>
-      <c r="CO79" s="16">
+      <c r="CO79" s="34">
         <v>4.2962835412963614</v>
       </c>
       <c r="CP79" s="34">
@@ -35191,11 +35269,13 @@
       <c r="CS79" s="34">
         <v>-2.4179674118488634</v>
       </c>
-      <c r="CT79" s="36"/>
+      <c r="CT79" s="34">
+        <v>6.4107677602017077</v>
+      </c>
       <c r="CU79" s="36"/>
       <c r="CV79" s="36"/>
       <c r="CW79" s="36"/>
-      <c r="CX79" s="10"/>
+      <c r="CX79" s="36"/>
       <c r="CY79" s="10"/>
       <c r="CZ79" s="10"/>
       <c r="DA79" s="10"/>
@@ -35513,17 +35593,17 @@
       <c r="CK80" s="16">
         <v>139.65433446307011</v>
       </c>
-      <c r="CL80" s="16">
+      <c r="CL80" s="34">
         <v>55.360591641683953</v>
       </c>
-      <c r="CM80" s="16">
+      <c r="CM80" s="34">
         <v>43.29699011816578</v>
       </c>
-      <c r="CN80" s="16">
+      <c r="CN80" s="34">
         <v>34.788048504111714</v>
       </c>
-      <c r="CO80" s="16">
-        <v>13.477244444551516</v>
+      <c r="CO80" s="34">
+        <v>14.750345576392078</v>
       </c>
       <c r="CP80" s="34">
         <v>10.717721044433787</v>
@@ -35535,13 +35615,15 @@
         <v>10.607730830751947</v>
       </c>
       <c r="CS80" s="34">
-        <v>22.458709095207197</v>
-      </c>
-      <c r="CT80" s="36"/>
+        <v>22.45870909520724</v>
+      </c>
+      <c r="CT80" s="34">
+        <v>7.3867943150406603</v>
+      </c>
       <c r="CU80" s="36"/>
       <c r="CV80" s="36"/>
       <c r="CW80" s="36"/>
-      <c r="CX80" s="10"/>
+      <c r="CX80" s="36"/>
       <c r="CY80" s="10"/>
       <c r="CZ80" s="10"/>
       <c r="DA80" s="10"/>
@@ -35859,35 +35941,37 @@
       <c r="CK81" s="16">
         <v>3.2477962904869742</v>
       </c>
-      <c r="CL81" s="16">
+      <c r="CL81" s="34">
         <v>3.2358100610491647</v>
       </c>
-      <c r="CM81" s="16">
+      <c r="CM81" s="34">
         <v>5.768239568540352</v>
       </c>
-      <c r="CN81" s="16">
+      <c r="CN81" s="34">
         <v>3.2715371172515262</v>
       </c>
-      <c r="CO81" s="16">
-        <v>3.5442922403133252</v>
+      <c r="CO81" s="34">
+        <v>3.4177620586842323</v>
       </c>
       <c r="CP81" s="34">
-        <v>2.2704094996565374</v>
+        <v>2.1651381488372721</v>
       </c>
       <c r="CQ81" s="34">
-        <v>2.1810741353460088</v>
+        <v>2.5777882339432381</v>
       </c>
       <c r="CR81" s="34">
-        <v>4.4733951410330661</v>
+        <v>4.9046625662416687</v>
       </c>
       <c r="CS81" s="34">
-        <v>12.42117368178468</v>
-      </c>
-      <c r="CT81" s="36"/>
+        <v>14.491492974550965</v>
+      </c>
+      <c r="CT81" s="34">
+        <v>12.466574798993818</v>
+      </c>
       <c r="CU81" s="36"/>
       <c r="CV81" s="36"/>
       <c r="CW81" s="36"/>
-      <c r="CX81" s="10"/>
+      <c r="CX81" s="36"/>
       <c r="CY81" s="10"/>
       <c r="CZ81" s="10"/>
       <c r="DA81" s="10"/>
@@ -36205,16 +36289,16 @@
       <c r="CK82" s="16">
         <v>-0.3607653737178822</v>
       </c>
-      <c r="CL82" s="16">
+      <c r="CL82" s="34">
         <v>12.191405694556565</v>
       </c>
-      <c r="CM82" s="16">
+      <c r="CM82" s="34">
         <v>12.604724478804968</v>
       </c>
-      <c r="CN82" s="16">
+      <c r="CN82" s="34">
         <v>10.107637869440495</v>
       </c>
-      <c r="CO82" s="16">
+      <c r="CO82" s="34">
         <v>5.6523103506521295</v>
       </c>
       <c r="CP82" s="34">
@@ -36224,16 +36308,18 @@
         <v>3.4409323000855068</v>
       </c>
       <c r="CR82" s="34">
-        <v>4.0893622206675815</v>
+        <v>4.5970598047687901</v>
       </c>
       <c r="CS82" s="34">
         <v>12.3376407090892</v>
       </c>
-      <c r="CT82" s="36"/>
+      <c r="CT82" s="34">
+        <v>14.769911296951733</v>
+      </c>
       <c r="CU82" s="36"/>
       <c r="CV82" s="36"/>
       <c r="CW82" s="36"/>
-      <c r="CX82" s="10"/>
+      <c r="CX82" s="36"/>
       <c r="CY82" s="10"/>
       <c r="CZ82" s="10"/>
       <c r="DA82" s="10"/>
@@ -36372,19 +36458,19 @@
       <c r="CI83" s="10"/>
       <c r="CJ83" s="10"/>
       <c r="CK83" s="10"/>
-      <c r="CL83" s="10"/>
-      <c r="CM83" s="10"/>
-      <c r="CN83" s="10"/>
-      <c r="CO83" s="10"/>
+      <c r="CL83" s="29"/>
+      <c r="CM83" s="29"/>
+      <c r="CN83" s="29"/>
+      <c r="CO83" s="29"/>
       <c r="CP83" s="29"/>
       <c r="CQ83" s="29"/>
       <c r="CR83" s="29"/>
       <c r="CS83" s="29"/>
-      <c r="CT83" s="37"/>
+      <c r="CT83" s="29"/>
       <c r="CU83" s="37"/>
       <c r="CV83" s="37"/>
       <c r="CW83" s="37"/>
-      <c r="CX83" s="10"/>
+      <c r="CX83" s="37"/>
       <c r="CY83" s="10"/>
       <c r="CZ83" s="10"/>
       <c r="DA83" s="10"/>
@@ -36702,35 +36788,37 @@
       <c r="CK84" s="16">
         <v>19.510078937940364</v>
       </c>
-      <c r="CL84" s="16">
+      <c r="CL84" s="34">
         <v>14.621707262911073</v>
       </c>
-      <c r="CM84" s="16">
+      <c r="CM84" s="34">
         <v>17.0696694855027</v>
       </c>
-      <c r="CN84" s="16">
+      <c r="CN84" s="34">
         <v>12.107515903028272</v>
       </c>
-      <c r="CO84" s="16">
-        <v>9.420922976536005</v>
+      <c r="CO84" s="34">
+        <v>9.5239714763328323</v>
       </c>
       <c r="CP84" s="34">
-        <v>5.436600660178172</v>
+        <v>5.3991322961410191</v>
       </c>
       <c r="CQ84" s="34">
-        <v>14.787932314115565</v>
+        <v>14.934729995225453</v>
       </c>
       <c r="CR84" s="34">
-        <v>6.2729965566828128</v>
+        <v>6.411990612900766</v>
       </c>
       <c r="CS84" s="34">
-        <v>9.4959898677987837</v>
-      </c>
-      <c r="CT84" s="36"/>
+        <v>9.5258510572473085</v>
+      </c>
+      <c r="CT84" s="34">
+        <v>9.8054545913345095</v>
+      </c>
       <c r="CU84" s="36"/>
       <c r="CV84" s="36"/>
       <c r="CW84" s="36"/>
-      <c r="CX84" s="10"/>
+      <c r="CX84" s="36"/>
       <c r="CY84" s="10"/>
       <c r="CZ84" s="10"/>
       <c r="DA84" s="10"/>
@@ -36870,27 +36958,28 @@
       <c r="CI85" s="13"/>
       <c r="CJ85" s="13"/>
       <c r="CK85" s="13"/>
-      <c r="CL85" s="13"/>
-      <c r="CM85" s="13"/>
-      <c r="CN85" s="13"/>
-      <c r="CO85" s="13"/>
+      <c r="CL85" s="32"/>
+      <c r="CM85" s="32"/>
+      <c r="CN85" s="32"/>
+      <c r="CO85" s="32"/>
       <c r="CP85" s="32"/>
       <c r="CQ85" s="32"/>
       <c r="CR85" s="32"/>
       <c r="CS85" s="32"/>
-      <c r="CT85" s="27"/>
+      <c r="CT85" s="32"/>
       <c r="CU85" s="27"/>
       <c r="CV85" s="27"/>
       <c r="CW85" s="27"/>
+      <c r="CX85" s="27"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="CT86" s="35"/>
       <c r="CU86" s="35"/>
       <c r="CV86" s="35"/>
       <c r="CW86" s="35"/>
+      <c r="CX86" s="35"/>
     </row>
     <row r="87" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="10"/>
@@ -36981,19 +37070,19 @@
       <c r="CI87" s="10"/>
       <c r="CJ87" s="10"/>
       <c r="CK87" s="10"/>
-      <c r="CL87" s="10"/>
-      <c r="CM87" s="10"/>
-      <c r="CN87" s="10"/>
-      <c r="CO87" s="10"/>
+      <c r="CL87" s="29"/>
+      <c r="CM87" s="29"/>
+      <c r="CN87" s="29"/>
+      <c r="CO87" s="29"/>
       <c r="CP87" s="29"/>
       <c r="CQ87" s="29"/>
       <c r="CR87" s="29"/>
       <c r="CS87" s="29"/>
-      <c r="CT87" s="37"/>
+      <c r="CT87" s="29"/>
       <c r="CU87" s="37"/>
       <c r="CV87" s="37"/>
       <c r="CW87" s="37"/>
-      <c r="CX87" s="10"/>
+      <c r="CX87" s="37"/>
       <c r="CY87" s="10"/>
       <c r="CZ87" s="10"/>
       <c r="DA87" s="10"/>
@@ -37132,10 +37221,10 @@
       <c r="CI88" s="10"/>
       <c r="CJ88" s="10"/>
       <c r="CK88" s="10"/>
-      <c r="CL88" s="10"/>
-      <c r="CM88" s="10"/>
-      <c r="CN88" s="10"/>
-      <c r="CO88" s="10"/>
+      <c r="CL88" s="29"/>
+      <c r="CM88" s="29"/>
+      <c r="CN88" s="29"/>
+      <c r="CO88" s="29"/>
       <c r="CP88" s="29"/>
       <c r="CQ88" s="29"/>
       <c r="CR88" s="29"/>
@@ -37144,7 +37233,7 @@
       <c r="CU88" s="29"/>
       <c r="CV88" s="29"/>
       <c r="CW88" s="29"/>
-      <c r="CX88" s="10"/>
+      <c r="CX88" s="29"/>
       <c r="CY88" s="10"/>
       <c r="CZ88" s="10"/>
       <c r="DA88" s="10"/>
@@ -37201,7 +37290,7 @@
     </row>
     <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.2">
@@ -37211,7 +37300,7 @@
     </row>
     <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:150" x14ac:dyDescent="0.2">
@@ -37224,123 +37313,123 @@
       <c r="B96" s="38">
         <v>2000</v>
       </c>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
       <c r="F96" s="38">
         <v>2001</v>
       </c>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
       <c r="J96" s="38">
         <v>2002</v>
       </c>
-      <c r="K96" s="39"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
       <c r="N96" s="38">
         <v>2003</v>
       </c>
-      <c r="O96" s="39"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
       <c r="R96" s="38">
         <v>2004</v>
       </c>
-      <c r="S96" s="39"/>
-      <c r="T96" s="39"/>
-      <c r="U96" s="39"/>
+      <c r="S96" s="40"/>
+      <c r="T96" s="40"/>
+      <c r="U96" s="40"/>
       <c r="V96" s="38">
         <v>2005</v>
       </c>
-      <c r="W96" s="39"/>
-      <c r="X96" s="39"/>
-      <c r="Y96" s="39"/>
+      <c r="W96" s="40"/>
+      <c r="X96" s="40"/>
+      <c r="Y96" s="40"/>
       <c r="Z96" s="38">
         <v>2006</v>
       </c>
-      <c r="AA96" s="39"/>
-      <c r="AB96" s="39"/>
-      <c r="AC96" s="39"/>
+      <c r="AA96" s="40"/>
+      <c r="AB96" s="40"/>
+      <c r="AC96" s="40"/>
       <c r="AD96" s="38">
         <v>2007</v>
       </c>
-      <c r="AE96" s="39"/>
-      <c r="AF96" s="39"/>
-      <c r="AG96" s="39"/>
+      <c r="AE96" s="40"/>
+      <c r="AF96" s="40"/>
+      <c r="AG96" s="40"/>
       <c r="AH96" s="38">
         <v>2008</v>
       </c>
-      <c r="AI96" s="39"/>
-      <c r="AJ96" s="39"/>
-      <c r="AK96" s="39"/>
+      <c r="AI96" s="40"/>
+      <c r="AJ96" s="40"/>
+      <c r="AK96" s="40"/>
       <c r="AL96" s="38">
         <v>2009</v>
       </c>
-      <c r="AM96" s="39"/>
-      <c r="AN96" s="39"/>
-      <c r="AO96" s="39"/>
+      <c r="AM96" s="40"/>
+      <c r="AN96" s="40"/>
+      <c r="AO96" s="40"/>
       <c r="AP96" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ96" s="39"/>
-      <c r="AR96" s="39"/>
-      <c r="AS96" s="39"/>
+      <c r="AQ96" s="40"/>
+      <c r="AR96" s="40"/>
+      <c r="AS96" s="40"/>
       <c r="AT96" s="38">
         <v>2011</v>
       </c>
-      <c r="AU96" s="39"/>
-      <c r="AV96" s="39"/>
-      <c r="AW96" s="39"/>
+      <c r="AU96" s="40"/>
+      <c r="AV96" s="40"/>
+      <c r="AW96" s="40"/>
       <c r="AX96" s="38">
         <v>2012</v>
       </c>
-      <c r="AY96" s="39"/>
-      <c r="AZ96" s="39"/>
-      <c r="BA96" s="39"/>
+      <c r="AY96" s="40"/>
+      <c r="AZ96" s="40"/>
+      <c r="BA96" s="40"/>
       <c r="BB96" s="38">
         <v>2013</v>
       </c>
-      <c r="BC96" s="39"/>
-      <c r="BD96" s="39"/>
-      <c r="BE96" s="39"/>
+      <c r="BC96" s="40"/>
+      <c r="BD96" s="40"/>
+      <c r="BE96" s="40"/>
       <c r="BF96" s="38">
         <v>2014</v>
       </c>
-      <c r="BG96" s="39"/>
-      <c r="BH96" s="39"/>
-      <c r="BI96" s="39"/>
+      <c r="BG96" s="40"/>
+      <c r="BH96" s="40"/>
+      <c r="BI96" s="40"/>
       <c r="BJ96" s="38">
         <v>2015</v>
       </c>
-      <c r="BK96" s="39"/>
-      <c r="BL96" s="39"/>
-      <c r="BM96" s="39"/>
+      <c r="BK96" s="40"/>
+      <c r="BL96" s="40"/>
+      <c r="BM96" s="40"/>
       <c r="BN96" s="38">
         <v>2016</v>
       </c>
-      <c r="BO96" s="39"/>
-      <c r="BP96" s="39"/>
-      <c r="BQ96" s="39"/>
+      <c r="BO96" s="40"/>
+      <c r="BP96" s="40"/>
+      <c r="BQ96" s="40"/>
       <c r="BR96" s="38">
         <v>2017</v>
       </c>
-      <c r="BS96" s="39"/>
-      <c r="BT96" s="39"/>
-      <c r="BU96" s="39"/>
+      <c r="BS96" s="40"/>
+      <c r="BT96" s="40"/>
+      <c r="BU96" s="40"/>
       <c r="BV96" s="38">
         <v>2018</v>
       </c>
-      <c r="BW96" s="39"/>
-      <c r="BX96" s="39"/>
-      <c r="BY96" s="39"/>
+      <c r="BW96" s="40"/>
+      <c r="BX96" s="40"/>
+      <c r="BY96" s="40"/>
       <c r="BZ96" s="38">
         <v>2019</v>
       </c>
-      <c r="CA96" s="39"/>
-      <c r="CB96" s="39"/>
-      <c r="CC96" s="39"/>
+      <c r="CA96" s="40"/>
+      <c r="CB96" s="40"/>
+      <c r="CC96" s="40"/>
       <c r="CD96" s="38">
         <v>2020</v>
       </c>
@@ -37353,12 +37442,12 @@
       <c r="CI96" s="22"/>
       <c r="CJ96" s="22"/>
       <c r="CK96" s="22"/>
-      <c r="CL96" s="22">
+      <c r="CL96" s="26">
         <v>2022</v>
       </c>
-      <c r="CM96" s="22"/>
-      <c r="CN96" s="22"/>
-      <c r="CO96" s="22"/>
+      <c r="CM96" s="26"/>
+      <c r="CN96" s="26"/>
+      <c r="CO96" s="26"/>
       <c r="CP96" s="26">
         <v>2023</v>
       </c>
@@ -37371,6 +37460,9 @@
       <c r="CU96" s="26"/>
       <c r="CV96" s="26"/>
       <c r="CW96" s="26"/>
+      <c r="CX96" s="26">
+        <v>2025</v>
+      </c>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -37640,16 +37732,16 @@
       <c r="CK97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL97" s="7" t="s">
+      <c r="CL97" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CM97" s="7" t="s">
+      <c r="CM97" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CN97" s="7" t="s">
+      <c r="CN97" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CO97" s="7" t="s">
+      <c r="CO97" s="27" t="s">
         <v>8</v>
       </c>
       <c r="CP97" s="27" t="s">
@@ -37675,6 +37767,9 @@
       </c>
       <c r="CW97" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CX97" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37948,16 +38043,16 @@
       <c r="CK99" s="16">
         <v>111.04905710404087</v>
       </c>
-      <c r="CL99" s="16">
+      <c r="CL99" s="34">
         <v>111.44039659485242</v>
       </c>
-      <c r="CM99" s="16">
+      <c r="CM99" s="34">
         <v>128.28665890876533</v>
       </c>
-      <c r="CN99" s="16">
+      <c r="CN99" s="34">
         <v>139.31231418081754</v>
       </c>
-      <c r="CO99" s="16">
+      <c r="CO99" s="34">
         <v>123.50895300182034</v>
       </c>
       <c r="CP99" s="34">
@@ -37970,21 +38065,23 @@
         <v>147.72043405313894</v>
       </c>
       <c r="CS99" s="34">
-        <v>126.60983207140346</v>
+        <v>126.60983207140345</v>
       </c>
       <c r="CT99" s="34">
         <v>128.24841917056341</v>
       </c>
       <c r="CU99" s="34">
-        <v>145.17196767092565</v>
+        <v>145.17196767092557</v>
       </c>
       <c r="CV99" s="34">
-        <v>149.8836342054756</v>
+        <v>149.88363420547554</v>
       </c>
       <c r="CW99" s="34">
-        <v>126.60669987032307</v>
-      </c>
-      <c r="CX99" s="10"/>
+        <v>126.60669987032311</v>
+      </c>
+      <c r="CX99" s="34">
+        <v>129.00786143478831</v>
+      </c>
       <c r="CY99" s="10"/>
       <c r="CZ99" s="10"/>
       <c r="DA99" s="10"/>
@@ -38306,16 +38403,16 @@
       <c r="CK100" s="16">
         <v>96.007127085427172</v>
       </c>
-      <c r="CL100" s="16">
+      <c r="CL100" s="34">
         <v>103.40005983270461</v>
       </c>
-      <c r="CM100" s="16">
+      <c r="CM100" s="34">
         <v>105.68793132655084</v>
       </c>
-      <c r="CN100" s="16">
+      <c r="CN100" s="34">
         <v>145.52041346807803</v>
       </c>
-      <c r="CO100" s="16">
+      <c r="CO100" s="34">
         <v>92.356565974580619</v>
       </c>
       <c r="CP100" s="34">
@@ -38342,7 +38439,9 @@
       <c r="CW100" s="34">
         <v>117.35416202192978</v>
       </c>
-      <c r="CX100" s="10"/>
+      <c r="CX100" s="34">
+        <v>120.19695269205903</v>
+      </c>
       <c r="CY100" s="10"/>
       <c r="CZ100" s="10"/>
       <c r="DA100" s="10"/>
@@ -38664,16 +38763,16 @@
       <c r="CK101" s="16">
         <v>108.64928036835759</v>
       </c>
-      <c r="CL101" s="16">
+      <c r="CL101" s="34">
         <v>90.144563382725522</v>
       </c>
-      <c r="CM101" s="16">
+      <c r="CM101" s="34">
         <v>104.91420841713482</v>
       </c>
-      <c r="CN101" s="16">
+      <c r="CN101" s="34">
         <v>126.23217321504225</v>
       </c>
-      <c r="CO101" s="16">
+      <c r="CO101" s="34">
         <v>139.65345817177814</v>
       </c>
       <c r="CP101" s="34">
@@ -38686,7 +38785,7 @@
         <v>126.59263059144152</v>
       </c>
       <c r="CS101" s="34">
-        <v>142.96370467055149</v>
+        <v>142.96370467055152</v>
       </c>
       <c r="CT101" s="34">
         <v>121.22171951620844</v>
@@ -38698,9 +38797,11 @@
         <v>126.16008173976232</v>
       </c>
       <c r="CW101" s="34">
-        <v>133.30557370942458</v>
-      </c>
-      <c r="CX101" s="10"/>
+        <v>133.30557370942455</v>
+      </c>
+      <c r="CX101" s="34">
+        <v>117.48861481346107</v>
+      </c>
       <c r="CY101" s="10"/>
       <c r="CZ101" s="10"/>
       <c r="DA101" s="10"/>
@@ -39022,16 +39123,16 @@
       <c r="CK102" s="16">
         <v>96.862947400733802</v>
       </c>
-      <c r="CL102" s="16">
+      <c r="CL102" s="34">
         <v>97.244644640328787</v>
       </c>
-      <c r="CM102" s="16">
+      <c r="CM102" s="34">
         <v>120.58121264491761</v>
       </c>
-      <c r="CN102" s="16">
+      <c r="CN102" s="34">
         <v>114.8390086527447</v>
       </c>
-      <c r="CO102" s="16">
+      <c r="CO102" s="34">
         <v>115.52979932111984</v>
       </c>
       <c r="CP102" s="34">
@@ -39047,10 +39148,10 @@
         <v>117.67456008105623</v>
       </c>
       <c r="CT102" s="34">
-        <v>111.28826473672446</v>
+        <v>111.28826473672449</v>
       </c>
       <c r="CU102" s="34">
-        <v>131.88067666067968</v>
+        <v>131.88067666067974</v>
       </c>
       <c r="CV102" s="34">
         <v>117.05432335315867</v>
@@ -39058,7 +39159,9 @@
       <c r="CW102" s="34">
         <v>120.68211542345608</v>
       </c>
-      <c r="CX102" s="10"/>
+      <c r="CX102" s="34">
+        <v>113.2882765882232</v>
+      </c>
       <c r="CY102" s="10"/>
       <c r="CZ102" s="10"/>
       <c r="DA102" s="10"/>
@@ -39380,16 +39483,16 @@
       <c r="CK103" s="16">
         <v>100.48116508940956</v>
       </c>
-      <c r="CL103" s="16">
+      <c r="CL103" s="34">
         <v>101.17588159218451</v>
       </c>
-      <c r="CM103" s="16">
+      <c r="CM103" s="34">
         <v>104.16644740118019</v>
       </c>
-      <c r="CN103" s="16">
+      <c r="CN103" s="34">
         <v>103.91686246986632</v>
       </c>
-      <c r="CO103" s="16">
+      <c r="CO103" s="34">
         <v>100.67310618795669</v>
       </c>
       <c r="CP103" s="34">
@@ -39411,12 +39514,14 @@
         <v>105.25979751703227</v>
       </c>
       <c r="CV103" s="34">
-        <v>105.03957404405617</v>
+        <v>105.03957404405622</v>
       </c>
       <c r="CW103" s="34">
         <v>101.8247527792393</v>
       </c>
-      <c r="CX103" s="10"/>
+      <c r="CX103" s="34">
+        <v>102.52875870994052</v>
+      </c>
       <c r="CY103" s="10"/>
       <c r="CZ103" s="10"/>
       <c r="DA103" s="10"/>
@@ -39559,10 +39664,10 @@
       <c r="CI104" s="10"/>
       <c r="CJ104" s="10"/>
       <c r="CK104" s="10"/>
-      <c r="CL104" s="10"/>
-      <c r="CM104" s="10"/>
-      <c r="CN104" s="10"/>
-      <c r="CO104" s="10"/>
+      <c r="CL104" s="29"/>
+      <c r="CM104" s="29"/>
+      <c r="CN104" s="29"/>
+      <c r="CO104" s="29"/>
       <c r="CP104" s="29"/>
       <c r="CQ104" s="29"/>
       <c r="CR104" s="29"/>
@@ -39571,7 +39676,7 @@
       <c r="CU104" s="29"/>
       <c r="CV104" s="29"/>
       <c r="CW104" s="29"/>
-      <c r="CX104" s="10"/>
+      <c r="CX104" s="29"/>
       <c r="CY104" s="10"/>
       <c r="CZ104" s="10"/>
       <c r="DA104" s="10"/>
@@ -39893,16 +39998,16 @@
       <c r="CK105" s="16">
         <v>105.62434371056453</v>
       </c>
-      <c r="CL105" s="16">
+      <c r="CL105" s="34">
         <v>104.0848011661212</v>
       </c>
-      <c r="CM105" s="16">
+      <c r="CM105" s="34">
         <v>120.6736947675747</v>
       </c>
-      <c r="CN105" s="16">
+      <c r="CN105" s="34">
         <v>129.71035571422021</v>
       </c>
-      <c r="CO105" s="16">
+      <c r="CO105" s="34">
         <v>120.88383060925871</v>
       </c>
       <c r="CP105" s="34">
@@ -39915,21 +40020,23 @@
         <v>134.83271290689493</v>
       </c>
       <c r="CS105" s="34">
-        <v>124.2430944444894</v>
+        <v>124.2706406066781</v>
       </c>
       <c r="CT105" s="34">
-        <v>121.11183735116566</v>
+        <v>121.1137987997086</v>
       </c>
       <c r="CU105" s="34">
-        <v>135.12692904023962</v>
+        <v>135.1274604591776</v>
       </c>
       <c r="CV105" s="34">
-        <v>135.04084851346562</v>
+        <v>135.01731648556958</v>
       </c>
       <c r="CW105" s="34">
-        <v>124.64135045103029</v>
-      </c>
-      <c r="CX105" s="10"/>
+        <v>124.62957340283374</v>
+      </c>
+      <c r="CX105" s="34">
+        <v>121.39996673884859</v>
+      </c>
       <c r="CY105" s="10"/>
       <c r="CZ105" s="10"/>
       <c r="DA105" s="10"/>
@@ -40073,10 +40180,10 @@
       <c r="CI106" s="13"/>
       <c r="CJ106" s="13"/>
       <c r="CK106" s="13"/>
-      <c r="CL106" s="13"/>
-      <c r="CM106" s="13"/>
-      <c r="CN106" s="13"/>
-      <c r="CO106" s="13"/>
+      <c r="CL106" s="32"/>
+      <c r="CM106" s="32"/>
+      <c r="CN106" s="32"/>
+      <c r="CO106" s="32"/>
       <c r="CP106" s="32"/>
       <c r="CQ106" s="32"/>
       <c r="CR106" s="32"/>
@@ -40085,6 +40192,7 @@
       <c r="CU106" s="32"/>
       <c r="CV106" s="32"/>
       <c r="CW106" s="32"/>
+      <c r="CX106" s="32"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -40103,7 +40211,7 @@
     </row>
     <row r="112" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
@@ -40113,7 +40221,7 @@
     </row>
     <row r="115" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:154" x14ac:dyDescent="0.2">
@@ -40126,123 +40234,123 @@
       <c r="B118" s="38">
         <v>2000</v>
       </c>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
       <c r="F118" s="38">
         <v>2001</v>
       </c>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
       <c r="J118" s="38">
         <v>2002</v>
       </c>
-      <c r="K118" s="39"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
+      <c r="K118" s="40"/>
+      <c r="L118" s="40"/>
+      <c r="M118" s="40"/>
       <c r="N118" s="38">
         <v>2003</v>
       </c>
-      <c r="O118" s="39"/>
-      <c r="P118" s="39"/>
-      <c r="Q118" s="39"/>
+      <c r="O118" s="40"/>
+      <c r="P118" s="40"/>
+      <c r="Q118" s="40"/>
       <c r="R118" s="38">
         <v>2004</v>
       </c>
-      <c r="S118" s="39"/>
-      <c r="T118" s="39"/>
-      <c r="U118" s="39"/>
+      <c r="S118" s="40"/>
+      <c r="T118" s="40"/>
+      <c r="U118" s="40"/>
       <c r="V118" s="38">
         <v>2005</v>
       </c>
-      <c r="W118" s="39"/>
-      <c r="X118" s="39"/>
-      <c r="Y118" s="39"/>
+      <c r="W118" s="40"/>
+      <c r="X118" s="40"/>
+      <c r="Y118" s="40"/>
       <c r="Z118" s="38">
         <v>2006</v>
       </c>
-      <c r="AA118" s="39"/>
-      <c r="AB118" s="39"/>
-      <c r="AC118" s="39"/>
+      <c r="AA118" s="40"/>
+      <c r="AB118" s="40"/>
+      <c r="AC118" s="40"/>
       <c r="AD118" s="38">
         <v>2007</v>
       </c>
-      <c r="AE118" s="39"/>
-      <c r="AF118" s="39"/>
-      <c r="AG118" s="39"/>
+      <c r="AE118" s="40"/>
+      <c r="AF118" s="40"/>
+      <c r="AG118" s="40"/>
       <c r="AH118" s="38">
         <v>2008</v>
       </c>
-      <c r="AI118" s="39"/>
-      <c r="AJ118" s="39"/>
-      <c r="AK118" s="39"/>
+      <c r="AI118" s="40"/>
+      <c r="AJ118" s="40"/>
+      <c r="AK118" s="40"/>
       <c r="AL118" s="38">
         <v>2009</v>
       </c>
-      <c r="AM118" s="39"/>
-      <c r="AN118" s="39"/>
-      <c r="AO118" s="39"/>
+      <c r="AM118" s="40"/>
+      <c r="AN118" s="40"/>
+      <c r="AO118" s="40"/>
       <c r="AP118" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ118" s="39"/>
-      <c r="AR118" s="39"/>
-      <c r="AS118" s="39"/>
+      <c r="AQ118" s="40"/>
+      <c r="AR118" s="40"/>
+      <c r="AS118" s="40"/>
       <c r="AT118" s="38">
         <v>2011</v>
       </c>
-      <c r="AU118" s="39"/>
-      <c r="AV118" s="39"/>
-      <c r="AW118" s="39"/>
+      <c r="AU118" s="40"/>
+      <c r="AV118" s="40"/>
+      <c r="AW118" s="40"/>
       <c r="AX118" s="38">
         <v>2012</v>
       </c>
-      <c r="AY118" s="39"/>
-      <c r="AZ118" s="39"/>
-      <c r="BA118" s="39"/>
+      <c r="AY118" s="40"/>
+      <c r="AZ118" s="40"/>
+      <c r="BA118" s="40"/>
       <c r="BB118" s="38">
         <v>2013</v>
       </c>
-      <c r="BC118" s="39"/>
-      <c r="BD118" s="39"/>
-      <c r="BE118" s="39"/>
+      <c r="BC118" s="40"/>
+      <c r="BD118" s="40"/>
+      <c r="BE118" s="40"/>
       <c r="BF118" s="38">
         <v>2014</v>
       </c>
-      <c r="BG118" s="39"/>
-      <c r="BH118" s="39"/>
-      <c r="BI118" s="39"/>
+      <c r="BG118" s="40"/>
+      <c r="BH118" s="40"/>
+      <c r="BI118" s="40"/>
       <c r="BJ118" s="38">
         <v>2015</v>
       </c>
-      <c r="BK118" s="39"/>
-      <c r="BL118" s="39"/>
-      <c r="BM118" s="39"/>
+      <c r="BK118" s="40"/>
+      <c r="BL118" s="40"/>
+      <c r="BM118" s="40"/>
       <c r="BN118" s="38">
         <v>2016</v>
       </c>
-      <c r="BO118" s="39"/>
-      <c r="BP118" s="39"/>
-      <c r="BQ118" s="39"/>
+      <c r="BO118" s="40"/>
+      <c r="BP118" s="40"/>
+      <c r="BQ118" s="40"/>
       <c r="BR118" s="38">
         <v>2017</v>
       </c>
-      <c r="BS118" s="39"/>
-      <c r="BT118" s="39"/>
-      <c r="BU118" s="39"/>
+      <c r="BS118" s="40"/>
+      <c r="BT118" s="40"/>
+      <c r="BU118" s="40"/>
       <c r="BV118" s="38">
         <v>2018</v>
       </c>
-      <c r="BW118" s="39"/>
-      <c r="BX118" s="39"/>
-      <c r="BY118" s="39"/>
+      <c r="BW118" s="40"/>
+      <c r="BX118" s="40"/>
+      <c r="BY118" s="40"/>
       <c r="BZ118" s="38">
         <v>2019</v>
       </c>
-      <c r="CA118" s="39"/>
-      <c r="CB118" s="39"/>
-      <c r="CC118" s="39"/>
+      <c r="CA118" s="40"/>
+      <c r="CB118" s="40"/>
+      <c r="CC118" s="40"/>
       <c r="CD118" s="38">
         <v>2020</v>
       </c>
@@ -40255,12 +40363,12 @@
       <c r="CI118" s="22"/>
       <c r="CJ118" s="22"/>
       <c r="CK118" s="22"/>
-      <c r="CL118" s="22">
+      <c r="CL118" s="26">
         <v>2022</v>
       </c>
-      <c r="CM118" s="22"/>
-      <c r="CN118" s="22"/>
-      <c r="CO118" s="22"/>
+      <c r="CM118" s="26"/>
+      <c r="CN118" s="26"/>
+      <c r="CO118" s="26"/>
       <c r="CP118" s="26">
         <v>2023</v>
       </c>
@@ -40273,6 +40381,9 @@
       <c r="CU118" s="26"/>
       <c r="CV118" s="26"/>
       <c r="CW118" s="26"/>
+      <c r="CX118" s="26">
+        <v>2025</v>
+      </c>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
@@ -40542,16 +40653,16 @@
       <c r="CK119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL119" s="7" t="s">
+      <c r="CL119" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CM119" s="7" t="s">
+      <c r="CM119" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CN119" s="7" t="s">
+      <c r="CN119" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CO119" s="7" t="s">
+      <c r="CO119" s="27" t="s">
         <v>8</v>
       </c>
       <c r="CP119" s="27" t="s">
@@ -40577,6 +40688,9 @@
       </c>
       <c r="CW119" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CX119" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40850,16 +40964,16 @@
       <c r="CK121" s="16">
         <v>58.598600961947668</v>
       </c>
-      <c r="CL121" s="16">
+      <c r="CL121" s="34">
         <v>53.616131504509667</v>
       </c>
-      <c r="CM121" s="16">
+      <c r="CM121" s="34">
         <v>50.582969870062087</v>
       </c>
-      <c r="CN121" s="16">
+      <c r="CN121" s="34">
         <v>56.690503512289659</v>
       </c>
-      <c r="CO121" s="16">
+      <c r="CO121" s="34">
         <v>54.893731193400306</v>
       </c>
       <c r="CP121" s="34">
@@ -40872,21 +40986,23 @@
         <v>57.740293935493185</v>
       </c>
       <c r="CS121" s="34">
-        <v>56.055362160773683</v>
+        <v>55.973648634398607</v>
       </c>
       <c r="CT121" s="34">
-        <v>51.46908702775994</v>
+        <v>51.476992784612932</v>
       </c>
       <c r="CU121" s="34">
-        <v>52.358448557437953</v>
+        <v>52.329178449912362</v>
       </c>
       <c r="CV121" s="34">
-        <v>57.079087575416189</v>
+        <v>57.022060407693587</v>
       </c>
       <c r="CW121" s="34">
-        <v>54.167775199317411</v>
-      </c>
-      <c r="CX121" s="10"/>
+        <v>53.650951196742284</v>
+      </c>
+      <c r="CX121" s="34">
+        <v>51.332839738866873</v>
+      </c>
       <c r="CY121" s="10"/>
       <c r="CZ121" s="10"/>
       <c r="DA121" s="10"/>
@@ -41208,16 +41324,16 @@
       <c r="CK122" s="16">
         <v>3.8927123967253832</v>
       </c>
-      <c r="CL122" s="16">
+      <c r="CL122" s="34">
         <v>5.0908267485991949</v>
       </c>
-      <c r="CM122" s="16">
+      <c r="CM122" s="34">
         <v>4.0199132681982448</v>
       </c>
-      <c r="CN122" s="16">
+      <c r="CN122" s="34">
         <v>3.9352028262762309</v>
       </c>
-      <c r="CO122" s="16">
+      <c r="CO122" s="34">
         <v>3.8792728110067012</v>
       </c>
       <c r="CP122" s="34">
@@ -41230,21 +41346,23 @@
         <v>3.7049447495305969</v>
       </c>
       <c r="CS122" s="34">
-        <v>3.9540950605239078</v>
+        <v>3.949499095907528</v>
       </c>
       <c r="CT122" s="34">
-        <v>5.7650422447247784</v>
+        <v>5.7669982624888494</v>
       </c>
       <c r="CU122" s="34">
-        <v>4.6712705109781778</v>
+        <v>4.6652858932148877</v>
       </c>
       <c r="CV122" s="34">
-        <v>4.3080806765423096</v>
+        <v>4.3032033837784676</v>
       </c>
       <c r="CW122" s="34">
-        <v>4.0609460130927619</v>
-      </c>
-      <c r="CX122" s="10"/>
+        <v>4.0564023079635421</v>
+      </c>
+      <c r="CX122" s="34">
+        <v>5.6248974882347955</v>
+      </c>
       <c r="CY122" s="10"/>
       <c r="CZ122" s="10"/>
       <c r="DA122" s="10"/>
@@ -41566,16 +41684,16 @@
       <c r="CK123" s="16">
         <v>6.1386427781459041</v>
       </c>
-      <c r="CL123" s="16">
+      <c r="CL123" s="34">
         <v>9.3123325818934433</v>
       </c>
-      <c r="CM123" s="16">
+      <c r="CM123" s="34">
         <v>10.484684256142298</v>
       </c>
-      <c r="CN123" s="16">
+      <c r="CN123" s="34">
         <v>11.278913509409438</v>
       </c>
-      <c r="CO123" s="16">
+      <c r="CO123" s="34">
         <v>13.825274615371264</v>
       </c>
       <c r="CP123" s="34">
@@ -41588,21 +41706,23 @@
         <v>13.082829011796774</v>
       </c>
       <c r="CS123" s="34">
-        <v>14.280789822669368</v>
+        <v>14.42422077516729</v>
       </c>
       <c r="CT123" s="34">
-        <v>15.317921470075134</v>
+        <v>15.323118678565939</v>
       </c>
       <c r="CU123" s="34">
-        <v>15.563374679786124</v>
+        <v>15.543435597186114</v>
       </c>
       <c r="CV123" s="34">
-        <v>13.549019673637137</v>
+        <v>13.533680467950671</v>
       </c>
       <c r="CW123" s="34">
-        <v>14.844867267506807</v>
-      </c>
-      <c r="CX123" s="10"/>
+        <v>14.994615878012185</v>
+      </c>
+      <c r="CX123" s="34">
+        <v>14.489871396759115</v>
+      </c>
       <c r="CY123" s="10"/>
       <c r="CZ123" s="10"/>
       <c r="DA123" s="10"/>
@@ -41924,16 +42044,16 @@
       <c r="CK124" s="16">
         <v>26.430013245887856</v>
       </c>
-      <c r="CL124" s="16">
+      <c r="CL124" s="34">
         <v>27.546932919742321</v>
       </c>
-      <c r="CM124" s="16">
+      <c r="CM124" s="34">
         <v>29.649010347469879</v>
       </c>
-      <c r="CN124" s="16">
+      <c r="CN124" s="34">
         <v>24.845423262608474</v>
       </c>
-      <c r="CO124" s="16">
+      <c r="CO124" s="34">
         <v>23.796100113693839</v>
       </c>
       <c r="CP124" s="34">
@@ -41946,21 +42066,23 @@
         <v>22.396337206521469</v>
       </c>
       <c r="CS124" s="34">
-        <v>22.315986809667653</v>
+        <v>22.262810025485887</v>
       </c>
       <c r="CT124" s="34">
-        <v>23.668991250389148</v>
+        <v>23.652650106860321</v>
       </c>
       <c r="CU124" s="34">
-        <v>23.28989544891547</v>
+        <v>23.350363782423191</v>
       </c>
       <c r="CV124" s="34">
-        <v>22.028382536726284</v>
+        <v>22.094274097260797</v>
       </c>
       <c r="CW124" s="34">
-        <v>23.42267226110485</v>
-      </c>
-      <c r="CX124" s="10"/>
+        <v>23.798211616783291</v>
+      </c>
+      <c r="CX124" s="34">
+        <v>24.603110643336372</v>
+      </c>
       <c r="CY124" s="10"/>
       <c r="CZ124" s="10"/>
       <c r="DA124" s="10"/>
@@ -42282,16 +42404,16 @@
       <c r="CK125" s="16">
         <v>4.9400306172931989</v>
       </c>
-      <c r="CL125" s="16">
+      <c r="CL125" s="34">
         <v>4.4337762452553848</v>
       </c>
-      <c r="CM125" s="16">
+      <c r="CM125" s="34">
         <v>5.2634222581274885</v>
       </c>
-      <c r="CN125" s="16">
+      <c r="CN125" s="34">
         <v>3.2499568894162132</v>
       </c>
-      <c r="CO125" s="16">
+      <c r="CO125" s="34">
         <v>3.6056212665278946</v>
       </c>
       <c r="CP125" s="34">
@@ -42304,21 +42426,23 @@
         <v>3.0755950966579753</v>
       </c>
       <c r="CS125" s="34">
-        <v>3.3937661463653956</v>
+        <v>3.3898214690406938</v>
       </c>
       <c r="CT125" s="34">
-        <v>3.7789580070509934</v>
+        <v>3.7802401674719746</v>
       </c>
       <c r="CU125" s="34">
-        <v>4.1170108028822749</v>
+        <v>4.1117362772634571</v>
       </c>
       <c r="CV125" s="34">
-        <v>3.0354295376781097</v>
+        <v>3.0467816433164767</v>
       </c>
       <c r="CW125" s="34">
-        <v>3.5037392589781793</v>
-      </c>
-      <c r="CX125" s="10"/>
+        <v>3.4998190004987153</v>
+      </c>
+      <c r="CX125" s="34">
+        <v>3.9492807328028561</v>
+      </c>
       <c r="CY125" s="10"/>
       <c r="CZ125" s="10"/>
       <c r="DA125" s="10"/>
@@ -42461,10 +42585,10 @@
       <c r="CI126" s="10"/>
       <c r="CJ126" s="10"/>
       <c r="CK126" s="10"/>
-      <c r="CL126" s="10"/>
-      <c r="CM126" s="10"/>
-      <c r="CN126" s="10"/>
-      <c r="CO126" s="10"/>
+      <c r="CL126" s="29"/>
+      <c r="CM126" s="29"/>
+      <c r="CN126" s="29"/>
+      <c r="CO126" s="29"/>
       <c r="CP126" s="29"/>
       <c r="CQ126" s="29"/>
       <c r="CR126" s="29"/>
@@ -42473,7 +42597,7 @@
       <c r="CU126" s="29"/>
       <c r="CV126" s="29"/>
       <c r="CW126" s="29"/>
-      <c r="CX126" s="10"/>
+      <c r="CX126" s="29"/>
       <c r="CY126" s="10"/>
       <c r="CZ126" s="10"/>
       <c r="DA126" s="10"/>
@@ -42795,16 +42919,16 @@
       <c r="CK127" s="16">
         <v>100</v>
       </c>
-      <c r="CL127" s="16">
+      <c r="CL127" s="34">
         <v>100</v>
       </c>
-      <c r="CM127" s="16">
+      <c r="CM127" s="34">
         <v>100</v>
       </c>
-      <c r="CN127" s="16">
+      <c r="CN127" s="34">
         <v>100</v>
       </c>
-      <c r="CO127" s="16">
+      <c r="CO127" s="34">
         <v>100</v>
       </c>
       <c r="CP127" s="34">
@@ -42831,7 +42955,9 @@
       <c r="CW127" s="34">
         <v>100</v>
       </c>
-      <c r="CX127" s="10"/>
+      <c r="CX127" s="34">
+        <v>100</v>
+      </c>
       <c r="CY127" s="10"/>
       <c r="CZ127" s="10"/>
       <c r="DA127" s="10"/>
@@ -42975,10 +43101,10 @@
       <c r="CI128" s="13"/>
       <c r="CJ128" s="13"/>
       <c r="CK128" s="13"/>
-      <c r="CL128" s="13"/>
-      <c r="CM128" s="13"/>
-      <c r="CN128" s="13"/>
-      <c r="CO128" s="13"/>
+      <c r="CL128" s="32"/>
+      <c r="CM128" s="32"/>
+      <c r="CN128" s="32"/>
+      <c r="CO128" s="32"/>
       <c r="CP128" s="32"/>
       <c r="CQ128" s="32"/>
       <c r="CR128" s="32"/>
@@ -42987,6 +43113,7 @@
       <c r="CU128" s="32"/>
       <c r="CV128" s="32"/>
       <c r="CW128" s="32"/>
+      <c r="CX128" s="32"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -43082,10 +43209,10 @@
       <c r="CI130" s="10"/>
       <c r="CJ130" s="10"/>
       <c r="CK130" s="10"/>
-      <c r="CL130" s="10"/>
-      <c r="CM130" s="10"/>
-      <c r="CN130" s="10"/>
-      <c r="CO130" s="10"/>
+      <c r="CL130" s="29"/>
+      <c r="CM130" s="29"/>
+      <c r="CN130" s="29"/>
+      <c r="CO130" s="29"/>
       <c r="CP130" s="29"/>
       <c r="CQ130" s="29"/>
       <c r="CR130" s="29"/>
@@ -43094,7 +43221,7 @@
       <c r="CU130" s="29"/>
       <c r="CV130" s="29"/>
       <c r="CW130" s="29"/>
-      <c r="CX130" s="10"/>
+      <c r="CX130" s="29"/>
       <c r="CY130" s="10"/>
       <c r="CZ130" s="10"/>
       <c r="DA130" s="10"/>
@@ -43237,10 +43364,10 @@
       <c r="CI131" s="10"/>
       <c r="CJ131" s="10"/>
       <c r="CK131" s="10"/>
-      <c r="CL131" s="10"/>
-      <c r="CM131" s="10"/>
-      <c r="CN131" s="10"/>
-      <c r="CO131" s="10"/>
+      <c r="CL131" s="29"/>
+      <c r="CM131" s="29"/>
+      <c r="CN131" s="29"/>
+      <c r="CO131" s="29"/>
       <c r="CP131" s="29"/>
       <c r="CQ131" s="29"/>
       <c r="CR131" s="29"/>
@@ -43249,7 +43376,7 @@
       <c r="CU131" s="29"/>
       <c r="CV131" s="29"/>
       <c r="CW131" s="29"/>
-      <c r="CX131" s="10"/>
+      <c r="CX131" s="29"/>
       <c r="CY131" s="10"/>
       <c r="CZ131" s="10"/>
       <c r="DA131" s="10"/>
@@ -43315,7 +43442,7 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="136" spans="1:154" x14ac:dyDescent="0.2">
@@ -43325,7 +43452,7 @@
     </row>
     <row r="137" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:154" x14ac:dyDescent="0.2">
@@ -43338,123 +43465,123 @@
       <c r="B140" s="38">
         <v>2000</v>
       </c>
-      <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="39"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
       <c r="F140" s="38">
         <v>2001</v>
       </c>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="39"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="40"/>
+      <c r="I140" s="40"/>
       <c r="J140" s="38">
         <v>2002</v>
       </c>
-      <c r="K140" s="39"/>
-      <c r="L140" s="39"/>
-      <c r="M140" s="39"/>
+      <c r="K140" s="40"/>
+      <c r="L140" s="40"/>
+      <c r="M140" s="40"/>
       <c r="N140" s="38">
         <v>2003</v>
       </c>
-      <c r="O140" s="39"/>
-      <c r="P140" s="39"/>
-      <c r="Q140" s="39"/>
+      <c r="O140" s="40"/>
+      <c r="P140" s="40"/>
+      <c r="Q140" s="40"/>
       <c r="R140" s="38">
         <v>2004</v>
       </c>
-      <c r="S140" s="39"/>
-      <c r="T140" s="39"/>
-      <c r="U140" s="39"/>
+      <c r="S140" s="40"/>
+      <c r="T140" s="40"/>
+      <c r="U140" s="40"/>
       <c r="V140" s="38">
         <v>2005</v>
       </c>
-      <c r="W140" s="39"/>
-      <c r="X140" s="39"/>
-      <c r="Y140" s="39"/>
+      <c r="W140" s="40"/>
+      <c r="X140" s="40"/>
+      <c r="Y140" s="40"/>
       <c r="Z140" s="38">
         <v>2006</v>
       </c>
-      <c r="AA140" s="39"/>
-      <c r="AB140" s="39"/>
-      <c r="AC140" s="39"/>
+      <c r="AA140" s="40"/>
+      <c r="AB140" s="40"/>
+      <c r="AC140" s="40"/>
       <c r="AD140" s="38">
         <v>2007</v>
       </c>
-      <c r="AE140" s="39"/>
-      <c r="AF140" s="39"/>
-      <c r="AG140" s="39"/>
+      <c r="AE140" s="40"/>
+      <c r="AF140" s="40"/>
+      <c r="AG140" s="40"/>
       <c r="AH140" s="38">
         <v>2008</v>
       </c>
-      <c r="AI140" s="39"/>
-      <c r="AJ140" s="39"/>
-      <c r="AK140" s="39"/>
+      <c r="AI140" s="40"/>
+      <c r="AJ140" s="40"/>
+      <c r="AK140" s="40"/>
       <c r="AL140" s="38">
         <v>2009</v>
       </c>
-      <c r="AM140" s="39"/>
-      <c r="AN140" s="39"/>
-      <c r="AO140" s="39"/>
+      <c r="AM140" s="40"/>
+      <c r="AN140" s="40"/>
+      <c r="AO140" s="40"/>
       <c r="AP140" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ140" s="39"/>
-      <c r="AR140" s="39"/>
-      <c r="AS140" s="39"/>
+      <c r="AQ140" s="40"/>
+      <c r="AR140" s="40"/>
+      <c r="AS140" s="40"/>
       <c r="AT140" s="38">
         <v>2011</v>
       </c>
-      <c r="AU140" s="39"/>
-      <c r="AV140" s="39"/>
-      <c r="AW140" s="39"/>
+      <c r="AU140" s="40"/>
+      <c r="AV140" s="40"/>
+      <c r="AW140" s="40"/>
       <c r="AX140" s="38">
         <v>2012</v>
       </c>
-      <c r="AY140" s="39"/>
-      <c r="AZ140" s="39"/>
-      <c r="BA140" s="39"/>
+      <c r="AY140" s="40"/>
+      <c r="AZ140" s="40"/>
+      <c r="BA140" s="40"/>
       <c r="BB140" s="38">
         <v>2013</v>
       </c>
-      <c r="BC140" s="39"/>
-      <c r="BD140" s="39"/>
-      <c r="BE140" s="39"/>
+      <c r="BC140" s="40"/>
+      <c r="BD140" s="40"/>
+      <c r="BE140" s="40"/>
       <c r="BF140" s="38">
         <v>2014</v>
       </c>
-      <c r="BG140" s="39"/>
-      <c r="BH140" s="39"/>
-      <c r="BI140" s="39"/>
+      <c r="BG140" s="40"/>
+      <c r="BH140" s="40"/>
+      <c r="BI140" s="40"/>
       <c r="BJ140" s="38">
         <v>2015</v>
       </c>
-      <c r="BK140" s="39"/>
-      <c r="BL140" s="39"/>
-      <c r="BM140" s="39"/>
+      <c r="BK140" s="40"/>
+      <c r="BL140" s="40"/>
+      <c r="BM140" s="40"/>
       <c r="BN140" s="38">
         <v>2016</v>
       </c>
-      <c r="BO140" s="39"/>
-      <c r="BP140" s="39"/>
-      <c r="BQ140" s="39"/>
+      <c r="BO140" s="40"/>
+      <c r="BP140" s="40"/>
+      <c r="BQ140" s="40"/>
       <c r="BR140" s="38">
         <v>2017</v>
       </c>
-      <c r="BS140" s="39"/>
-      <c r="BT140" s="39"/>
-      <c r="BU140" s="39"/>
+      <c r="BS140" s="40"/>
+      <c r="BT140" s="40"/>
+      <c r="BU140" s="40"/>
       <c r="BV140" s="38">
         <v>2018</v>
       </c>
-      <c r="BW140" s="39"/>
-      <c r="BX140" s="39"/>
-      <c r="BY140" s="39"/>
+      <c r="BW140" s="40"/>
+      <c r="BX140" s="40"/>
+      <c r="BY140" s="40"/>
       <c r="BZ140" s="38">
         <v>2019</v>
       </c>
-      <c r="CA140" s="39"/>
-      <c r="CB140" s="39"/>
-      <c r="CC140" s="39"/>
+      <c r="CA140" s="40"/>
+      <c r="CB140" s="40"/>
+      <c r="CC140" s="40"/>
       <c r="CD140" s="38">
         <v>2020</v>
       </c>
@@ -43467,12 +43594,12 @@
       <c r="CI140" s="22"/>
       <c r="CJ140" s="22"/>
       <c r="CK140" s="22"/>
-      <c r="CL140" s="22">
+      <c r="CL140" s="26">
         <v>2022</v>
       </c>
-      <c r="CM140" s="22"/>
-      <c r="CN140" s="22"/>
-      <c r="CO140" s="22"/>
+      <c r="CM140" s="26"/>
+      <c r="CN140" s="26"/>
+      <c r="CO140" s="26"/>
       <c r="CP140" s="26">
         <v>2023</v>
       </c>
@@ -43485,6 +43612,9 @@
       <c r="CU140" s="26"/>
       <c r="CV140" s="26"/>
       <c r="CW140" s="26"/>
+      <c r="CX140" s="26">
+        <v>2025</v>
+      </c>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
@@ -43754,16 +43884,16 @@
       <c r="CK141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CL141" s="7" t="s">
+      <c r="CL141" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CM141" s="7" t="s">
+      <c r="CM141" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CN141" s="7" t="s">
+      <c r="CN141" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CO141" s="7" t="s">
+      <c r="CO141" s="27" t="s">
         <v>8</v>
       </c>
       <c r="CP141" s="27" t="s">
@@ -43789,6 +43919,9 @@
       </c>
       <c r="CW141" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CX141" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -44062,16 +44195,16 @@
       <c r="CK143" s="16">
         <v>55.736076742769171</v>
       </c>
-      <c r="CL143" s="16">
+      <c r="CL143" s="34">
         <v>50.077212191124531</v>
       </c>
-      <c r="CM143" s="16">
+      <c r="CM143" s="34">
         <v>47.581205391578209</v>
       </c>
-      <c r="CN143" s="16">
+      <c r="CN143" s="34">
         <v>52.783168662701421</v>
       </c>
-      <c r="CO143" s="16">
+      <c r="CO143" s="34">
         <v>53.726991783303212</v>
       </c>
       <c r="CP143" s="34">
@@ -44084,21 +44217,23 @@
         <v>52.702799888629535</v>
       </c>
       <c r="CS143" s="34">
-        <v>55.007510405142433</v>
+        <v>54.939502399521068</v>
       </c>
       <c r="CT143" s="34">
-        <v>48.605010003505896</v>
+        <v>48.613263128319879</v>
       </c>
       <c r="CU143" s="34">
-        <v>48.73555464175822</v>
+        <v>48.708501409035826</v>
       </c>
       <c r="CV143" s="34">
-        <v>51.426618118904834</v>
+        <v>51.366285702482472</v>
       </c>
       <c r="CW143" s="34">
-        <v>53.326914442016246</v>
-      </c>
-      <c r="CX143" s="10"/>
+        <v>52.813122584783301</v>
+      </c>
+      <c r="CX143" s="34">
+        <v>48.305622367511106</v>
+      </c>
       <c r="CY143" s="10"/>
       <c r="CZ143" s="10"/>
       <c r="DA143" s="10"/>
@@ -44420,16 +44555,16 @@
       <c r="CK144" s="16">
         <v>4.2826528054760189</v>
       </c>
-      <c r="CL144" s="16">
+      <c r="CL144" s="34">
         <v>5.1245394901746684</v>
       </c>
-      <c r="CM144" s="16">
+      <c r="CM144" s="34">
         <v>4.5899071032040615</v>
       </c>
-      <c r="CN144" s="16">
+      <c r="CN144" s="34">
         <v>3.5076629198546518</v>
       </c>
-      <c r="CO144" s="16">
+      <c r="CO144" s="34">
         <v>5.0775096759433875</v>
       </c>
       <c r="CP144" s="34">
@@ -44442,21 +44577,23 @@
         <v>3.5275100776625461</v>
       </c>
       <c r="CS144" s="34">
-        <v>4.839708663026232</v>
+        <v>4.835155096254903</v>
       </c>
       <c r="CT144" s="34">
-        <v>5.8603519657129981</v>
+        <v>5.8624352637065744</v>
       </c>
       <c r="CU144" s="34">
-        <v>6.4314814852714566</v>
+        <v>6.4232670267855134</v>
       </c>
       <c r="CV144" s="34">
-        <v>4.7549471324116643</v>
+        <v>4.748736277927792</v>
       </c>
       <c r="CW144" s="34">
-        <v>4.313113284265313</v>
-      </c>
-      <c r="CX144" s="10"/>
+        <v>4.3078803553409175</v>
+      </c>
+      <c r="CX144" s="34">
+        <v>5.6811953438670768</v>
+      </c>
       <c r="CY144" s="10"/>
       <c r="CZ144" s="10"/>
       <c r="DA144" s="10"/>
@@ -44778,16 +44915,16 @@
       <c r="CK145" s="16">
         <v>5.9677350141390466</v>
       </c>
-      <c r="CL145" s="16">
+      <c r="CL145" s="34">
         <v>10.75242087605378</v>
       </c>
-      <c r="CM145" s="16">
+      <c r="CM145" s="34">
         <v>12.059620967920988</v>
       </c>
-      <c r="CN145" s="16">
+      <c r="CN145" s="34">
         <v>11.589691012315448</v>
       </c>
-      <c r="CO145" s="16">
+      <c r="CO145" s="34">
         <v>11.967137632032939</v>
       </c>
       <c r="CP145" s="34">
@@ -44800,21 +44937,23 @@
         <v>13.934407713278436</v>
       </c>
       <c r="CS145" s="34">
-        <v>12.41076903238149</v>
+        <v>12.538197440482421</v>
       </c>
       <c r="CT145" s="34">
-        <v>15.304036446980223</v>
+        <v>15.309476882744178</v>
       </c>
       <c r="CU145" s="34">
-        <v>15.684586490324518</v>
+        <v>15.664553721064586</v>
       </c>
       <c r="CV145" s="34">
-        <v>14.502773682627806</v>
+        <v>14.483830334900269</v>
       </c>
       <c r="CW145" s="34">
-        <v>13.880022057603814</v>
-      </c>
-      <c r="CX145" s="10"/>
+        <v>14.018713008126049</v>
+      </c>
+      <c r="CX145" s="34">
+        <v>14.972258447421982</v>
+      </c>
       <c r="CY145" s="10"/>
       <c r="CZ145" s="10"/>
       <c r="DA145" s="10"/>
@@ -45136,16 +45275,16 @@
       <c r="CK146" s="16">
         <v>28.82064688584196</v>
       </c>
-      <c r="CL146" s="16">
+      <c r="CL146" s="34">
         <v>29.484575179359346</v>
       </c>
-      <c r="CM146" s="16">
+      <c r="CM146" s="34">
         <v>29.671750236640598</v>
       </c>
-      <c r="CN146" s="16">
+      <c r="CN146" s="34">
         <v>28.06283968375482</v>
       </c>
-      <c r="CO146" s="16">
+      <c r="CO146" s="34">
         <v>24.898889742803068</v>
       </c>
       <c r="CP146" s="34">
@@ -45158,21 +45297,23 @@
         <v>25.851010671962271</v>
       </c>
       <c r="CS146" s="34">
-        <v>23.561653894484071</v>
+        <v>23.510720258195285</v>
       </c>
       <c r="CT146" s="34">
-        <v>25.758286602498657</v>
+        <v>25.740919879550113</v>
       </c>
       <c r="CU146" s="34">
-        <v>23.863177907233986</v>
+        <v>23.925228764446803</v>
       </c>
       <c r="CV146" s="34">
-        <v>25.413255862099295</v>
+        <v>25.484830571431306</v>
       </c>
       <c r="CW146" s="34">
-        <v>24.191103143594439</v>
-      </c>
-      <c r="CX146" s="10"/>
+        <v>24.576640466923667</v>
+      </c>
+      <c r="CX146" s="34">
+        <v>26.364747560152569</v>
+      </c>
       <c r="CY146" s="10"/>
       <c r="CZ146" s="10"/>
       <c r="DA146" s="10"/>
@@ -45494,16 +45635,16 @@
       <c r="CK147" s="16">
         <v>5.1928885517738097</v>
       </c>
-      <c r="CL147" s="16">
+      <c r="CL147" s="34">
         <v>4.561252263287682</v>
       </c>
-      <c r="CM147" s="16">
+      <c r="CM147" s="34">
         <v>6.0975163006561273</v>
       </c>
-      <c r="CN147" s="16">
+      <c r="CN147" s="34">
         <v>4.0566377213736535</v>
       </c>
-      <c r="CO147" s="16">
+      <c r="CO147" s="34">
         <v>4.3294711659173979</v>
       </c>
       <c r="CP147" s="34">
@@ -45516,21 +45657,23 @@
         <v>3.9842716484672094</v>
       </c>
       <c r="CS147" s="34">
-        <v>4.1803580049657656</v>
+        <v>4.1764248055463247</v>
       </c>
       <c r="CT147" s="34">
-        <v>4.4723149813022216</v>
+        <v>4.4739048456792592</v>
       </c>
       <c r="CU147" s="34">
-        <v>5.2851994754118188</v>
+        <v>5.2784490786672844</v>
       </c>
       <c r="CV147" s="34">
-        <v>3.9024052039564014</v>
+        <v>3.9163171132581551</v>
       </c>
       <c r="CW147" s="34">
-        <v>4.2888470725201886</v>
-      </c>
-      <c r="CX147" s="10"/>
+        <v>4.2836435848260495</v>
+      </c>
+      <c r="CX147" s="34">
+        <v>4.6761762810472671</v>
+      </c>
       <c r="CY147" s="10"/>
       <c r="CZ147" s="10"/>
       <c r="DA147" s="10"/>
@@ -45673,10 +45816,10 @@
       <c r="CI148" s="10"/>
       <c r="CJ148" s="10"/>
       <c r="CK148" s="10"/>
-      <c r="CL148" s="10"/>
-      <c r="CM148" s="10"/>
-      <c r="CN148" s="10"/>
-      <c r="CO148" s="10"/>
+      <c r="CL148" s="29"/>
+      <c r="CM148" s="29"/>
+      <c r="CN148" s="29"/>
+      <c r="CO148" s="29"/>
       <c r="CP148" s="29"/>
       <c r="CQ148" s="29"/>
       <c r="CR148" s="29"/>
@@ -45685,7 +45828,7 @@
       <c r="CU148" s="29"/>
       <c r="CV148" s="29"/>
       <c r="CW148" s="29"/>
-      <c r="CX148" s="10"/>
+      <c r="CX148" s="29"/>
       <c r="CY148" s="10"/>
       <c r="CZ148" s="10"/>
       <c r="DA148" s="10"/>
@@ -46007,16 +46150,16 @@
       <c r="CK149" s="16">
         <v>100</v>
       </c>
-      <c r="CL149" s="16">
+      <c r="CL149" s="34">
         <v>100</v>
       </c>
-      <c r="CM149" s="16">
+      <c r="CM149" s="34">
         <v>100</v>
       </c>
-      <c r="CN149" s="16">
+      <c r="CN149" s="34">
         <v>100</v>
       </c>
-      <c r="CO149" s="16">
+      <c r="CO149" s="34">
         <v>100</v>
       </c>
       <c r="CP149" s="34">
@@ -46043,7 +46186,9 @@
       <c r="CW149" s="34">
         <v>100</v>
       </c>
-      <c r="CX149" s="10"/>
+      <c r="CX149" s="34">
+        <v>100</v>
+      </c>
       <c r="CY149" s="10"/>
       <c r="CZ149" s="10"/>
       <c r="DA149" s="10"/>
@@ -46187,10 +46332,10 @@
       <c r="CI150" s="13"/>
       <c r="CJ150" s="13"/>
       <c r="CK150" s="13"/>
-      <c r="CL150" s="13"/>
-      <c r="CM150" s="13"/>
-      <c r="CN150" s="13"/>
-      <c r="CO150" s="13"/>
+      <c r="CL150" s="32"/>
+      <c r="CM150" s="32"/>
+      <c r="CN150" s="32"/>
+      <c r="CO150" s="32"/>
       <c r="CP150" s="32"/>
       <c r="CQ150" s="32"/>
       <c r="CR150" s="32"/>
@@ -46199,6 +46344,7 @@
       <c r="CU150" s="32"/>
       <c r="CV150" s="32"/>
       <c r="CW150" s="32"/>
+      <c r="CX150" s="32"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -46295,10 +46441,10 @@
       <c r="CI152" s="1"/>
       <c r="CJ152" s="1"/>
       <c r="CK152" s="1"/>
-      <c r="CL152" s="1"/>
-      <c r="CM152" s="1"/>
-      <c r="CN152" s="1"/>
-      <c r="CO152" s="1"/>
+      <c r="CL152" s="24"/>
+      <c r="CM152" s="24"/>
+      <c r="CN152" s="24"/>
+      <c r="CO152" s="24"/>
       <c r="CP152" s="24"/>
       <c r="CQ152" s="24"/>
       <c r="CR152" s="24"/>
@@ -46307,7 +46453,7 @@
       <c r="CU152" s="24"/>
       <c r="CV152" s="24"/>
       <c r="CW152" s="24"/>
-      <c r="CX152" s="17"/>
+      <c r="CX152" s="24"/>
       <c r="CY152" s="17"/>
       <c r="CZ152" s="17"/>
       <c r="DA152" s="17"/>
@@ -46451,10 +46597,10 @@
       <c r="CI153" s="1"/>
       <c r="CJ153" s="1"/>
       <c r="CK153" s="1"/>
-      <c r="CL153" s="1"/>
-      <c r="CM153" s="1"/>
-      <c r="CN153" s="1"/>
-      <c r="CO153" s="1"/>
+      <c r="CL153" s="24"/>
+      <c r="CM153" s="24"/>
+      <c r="CN153" s="24"/>
+      <c r="CO153" s="24"/>
       <c r="CP153" s="24"/>
       <c r="CQ153" s="24"/>
       <c r="CR153" s="24"/>
@@ -46463,7 +46609,7 @@
       <c r="CU153" s="24"/>
       <c r="CV153" s="24"/>
       <c r="CW153" s="24"/>
-      <c r="CX153" s="17"/>
+      <c r="CX153" s="24"/>
       <c r="CY153" s="17"/>
       <c r="CZ153" s="17"/>
       <c r="DA153" s="17"/>
@@ -46519,6 +46665,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ140:BM140"/>
+    <mergeCell ref="BN140:BQ140"/>
+    <mergeCell ref="BJ118:BM118"/>
+    <mergeCell ref="BN118:BQ118"/>
+    <mergeCell ref="BB53:BE53"/>
+    <mergeCell ref="BF53:BI53"/>
+    <mergeCell ref="BJ53:BM53"/>
+    <mergeCell ref="BN53:BQ53"/>
+    <mergeCell ref="BF31:BI31"/>
+    <mergeCell ref="BJ31:BM31"/>
+    <mergeCell ref="BN31:BQ31"/>
+    <mergeCell ref="BB140:BE140"/>
+    <mergeCell ref="BN96:BQ96"/>
+    <mergeCell ref="BN75:BQ75"/>
+    <mergeCell ref="Z140:AC140"/>
+    <mergeCell ref="AD140:AG140"/>
+    <mergeCell ref="AH140:AK140"/>
+    <mergeCell ref="BB96:BE96"/>
+    <mergeCell ref="BF140:BI140"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="J140:M140"/>
+    <mergeCell ref="N140:Q140"/>
+    <mergeCell ref="R140:U140"/>
+    <mergeCell ref="V140:Y140"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="R118:U118"/>
+    <mergeCell ref="V118:Y118"/>
+    <mergeCell ref="AL140:AO140"/>
+    <mergeCell ref="AP140:AS140"/>
+    <mergeCell ref="AT140:AW140"/>
+    <mergeCell ref="AX140:BA140"/>
+    <mergeCell ref="AL118:AO118"/>
+    <mergeCell ref="AP118:AS118"/>
+    <mergeCell ref="AT118:AW118"/>
+    <mergeCell ref="AX118:BA118"/>
+    <mergeCell ref="BB118:BE118"/>
+    <mergeCell ref="BF118:BI118"/>
+    <mergeCell ref="V53:Y53"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="V96:Y96"/>
+    <mergeCell ref="Z96:AC96"/>
+    <mergeCell ref="Z118:AC118"/>
+    <mergeCell ref="AD118:AG118"/>
+    <mergeCell ref="AH118:AK118"/>
+    <mergeCell ref="AL75:AO75"/>
+    <mergeCell ref="AP75:AS75"/>
+    <mergeCell ref="AT75:AW75"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="AP96:AS96"/>
+    <mergeCell ref="AT96:AW96"/>
+    <mergeCell ref="AX96:BA96"/>
+    <mergeCell ref="BF75:BI75"/>
+    <mergeCell ref="BJ75:BM75"/>
+    <mergeCell ref="AD96:AG96"/>
+    <mergeCell ref="AH96:AK96"/>
+    <mergeCell ref="AL96:AO96"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="R53:U53"/>
+    <mergeCell ref="AT31:AW31"/>
+    <mergeCell ref="AX31:BA31"/>
+    <mergeCell ref="BB31:BE31"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="V75:Y75"/>
+    <mergeCell ref="Z75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AK75"/>
+    <mergeCell ref="AX75:BA75"/>
+    <mergeCell ref="BB75:BE75"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AL53:AO53"/>
+    <mergeCell ref="AP53:AS53"/>
+    <mergeCell ref="AT53:AW53"/>
+    <mergeCell ref="AX53:BA53"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AH53:AK53"/>
+    <mergeCell ref="BV53:BY53"/>
+    <mergeCell ref="BR53:BU53"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR96:BU96"/>
+    <mergeCell ref="BV96:BY96"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="Z31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AH31:AK31"/>
+    <mergeCell ref="AL31:AO31"/>
+    <mergeCell ref="AP31:AS31"/>
+    <mergeCell ref="BF96:BI96"/>
+    <mergeCell ref="BJ96:BM96"/>
     <mergeCell ref="CD53:CG53"/>
     <mergeCell ref="CD75:CG75"/>
     <mergeCell ref="BZ53:CC53"/>
@@ -46543,138 +46812,15 @@
     <mergeCell ref="BR31:BU31"/>
     <mergeCell ref="BV31:BY31"/>
     <mergeCell ref="BZ31:CC31"/>
-    <mergeCell ref="BV53:BY53"/>
-    <mergeCell ref="BR53:BU53"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR96:BU96"/>
-    <mergeCell ref="BV96:BY96"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="Z31:AC31"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AH31:AK31"/>
-    <mergeCell ref="AL31:AO31"/>
-    <mergeCell ref="AP31:AS31"/>
-    <mergeCell ref="BF96:BI96"/>
-    <mergeCell ref="BJ96:BM96"/>
-    <mergeCell ref="AT31:AW31"/>
-    <mergeCell ref="AX31:BA31"/>
-    <mergeCell ref="BB31:BE31"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="V75:Y75"/>
-    <mergeCell ref="Z75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AK75"/>
-    <mergeCell ref="AX75:BA75"/>
-    <mergeCell ref="BB75:BE75"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="AL53:AO53"/>
-    <mergeCell ref="AP53:AS53"/>
-    <mergeCell ref="AT53:AW53"/>
-    <mergeCell ref="AX53:BA53"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AH53:AK53"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="R53:U53"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="AP96:AS96"/>
-    <mergeCell ref="AT96:AW96"/>
-    <mergeCell ref="AX96:BA96"/>
-    <mergeCell ref="BF75:BI75"/>
-    <mergeCell ref="BJ75:BM75"/>
-    <mergeCell ref="AD96:AG96"/>
-    <mergeCell ref="AH96:AK96"/>
-    <mergeCell ref="AL96:AO96"/>
-    <mergeCell ref="AL118:AO118"/>
-    <mergeCell ref="AP118:AS118"/>
-    <mergeCell ref="AT118:AW118"/>
-    <mergeCell ref="AX118:BA118"/>
-    <mergeCell ref="BB118:BE118"/>
-    <mergeCell ref="BF118:BI118"/>
-    <mergeCell ref="V53:Y53"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="V96:Y96"/>
-    <mergeCell ref="Z96:AC96"/>
-    <mergeCell ref="Z118:AC118"/>
-    <mergeCell ref="AD118:AG118"/>
-    <mergeCell ref="AH118:AK118"/>
-    <mergeCell ref="AL75:AO75"/>
-    <mergeCell ref="AP75:AS75"/>
-    <mergeCell ref="AT75:AW75"/>
-    <mergeCell ref="Z140:AC140"/>
-    <mergeCell ref="AD140:AG140"/>
-    <mergeCell ref="AH140:AK140"/>
-    <mergeCell ref="BB96:BE96"/>
-    <mergeCell ref="BF140:BI140"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="J140:M140"/>
-    <mergeCell ref="N140:Q140"/>
-    <mergeCell ref="R140:U140"/>
-    <mergeCell ref="V140:Y140"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:Q118"/>
-    <mergeCell ref="R118:U118"/>
-    <mergeCell ref="V118:Y118"/>
-    <mergeCell ref="AL140:AO140"/>
-    <mergeCell ref="AP140:AS140"/>
-    <mergeCell ref="AT140:AW140"/>
-    <mergeCell ref="AX140:BA140"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ140:BM140"/>
-    <mergeCell ref="BN140:BQ140"/>
-    <mergeCell ref="BJ118:BM118"/>
-    <mergeCell ref="BN118:BQ118"/>
-    <mergeCell ref="BB53:BE53"/>
-    <mergeCell ref="BF53:BI53"/>
-    <mergeCell ref="BJ53:BM53"/>
-    <mergeCell ref="BN53:BQ53"/>
-    <mergeCell ref="BF31:BI31"/>
-    <mergeCell ref="BJ31:BM31"/>
-    <mergeCell ref="BN31:BQ31"/>
-    <mergeCell ref="BB140:BE140"/>
-    <mergeCell ref="BN96:BQ96"/>
-    <mergeCell ref="BN75:BQ75"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="100" man="1"/>
-    <brk id="88" max="100" man="1"/>
-    <brk id="109" max="100" man="1"/>
+    <brk id="44" max="101" man="1"/>
+    <brk id="88" max="101" man="1"/>
+    <brk id="109" max="101" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84222CD-B2D2-4842-9A61-F8D7CB9AA27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754516A8-191D-4BE7-9654-045665A4F485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CX$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$CY$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -632,13 +632,13 @@
     <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2025</t>
+    <t>As of August 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2025</t>
+    <t>Q1 2000 to Q2 2025</t>
   </si>
   <si>
-    <t>As of May 2025</t>
+    <t>Q1 2001 to Q2 2025</t>
   </si>
 </sst>
 </file>
@@ -646,10 +646,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -723,16 +723,16 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -743,21 +743,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -765,26 +765,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -23647,17 +23647,17 @@
   <dimension ref="A1:EX153"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
+      <selection pane="topRight" activeCell="CY1" sqref="CY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
     <col min="2" max="89" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="102" width="10.109375" style="24" customWidth="1"/>
-    <col min="103" max="16384" width="7.77734375" style="1"/>
+    <col min="90" max="103" width="10.109375" style="24" customWidth="1"/>
+    <col min="104" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23672,7 +23672,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23682,7 +23682,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23785,6 +23785,7 @@
       <c r="CV6" s="25"/>
       <c r="CW6" s="25"/>
       <c r="CX6" s="25"/>
+      <c r="CY6" s="25"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23891,6 +23892,7 @@
       <c r="CV7" s="25"/>
       <c r="CW7" s="25"/>
       <c r="CX7" s="25"/>
+      <c r="CY7" s="25"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23994,6 +23996,7 @@
       <c r="CV8" s="25"/>
       <c r="CW8" s="25"/>
       <c r="CX8" s="25"/>
+      <c r="CY8" s="25"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -24150,6 +24153,7 @@
       <c r="CX9" s="26">
         <v>2025</v>
       </c>
+      <c r="CY9" s="26"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24457,6 +24461,9 @@
       </c>
       <c r="CX10" s="27" t="s">
         <v>6</v>
+      </c>
+      <c r="CY10" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24767,9 +24774,11 @@
         <v>158660.51588675834</v>
       </c>
       <c r="CX12" s="28">
-        <v>140895.94654547374</v>
-      </c>
-      <c r="CY12" s="10"/>
+        <v>139496.7061644271</v>
+      </c>
+      <c r="CY12" s="28">
+        <v>144392.75002204755</v>
+      </c>
       <c r="CZ12" s="10"/>
       <c r="DA12" s="10"/>
       <c r="DB12" s="10"/>
@@ -25127,9 +25136,11 @@
         <v>11995.889513042071</v>
       </c>
       <c r="CX13" s="28">
-        <v>15438.952137807319</v>
-      </c>
-      <c r="CY13" s="10"/>
+        <v>15438.952137807326</v>
+      </c>
+      <c r="CY13" s="28">
+        <v>13735.187306990967</v>
+      </c>
       <c r="CZ13" s="10"/>
       <c r="DA13" s="10"/>
       <c r="DB13" s="10"/>
@@ -25489,7 +25500,9 @@
       <c r="CX14" s="28">
         <v>39771.112530577229</v>
       </c>
-      <c r="CY14" s="10"/>
+      <c r="CY14" s="28">
+        <v>43214.192980384847</v>
+      </c>
       <c r="CZ14" s="10"/>
       <c r="DA14" s="10"/>
       <c r="DB14" s="10"/>
@@ -25847,9 +25860,11 @@
         <v>70377.811540652663</v>
       </c>
       <c r="CX15" s="28">
-        <v>67529.452484804555</v>
-      </c>
-      <c r="CY15" s="10"/>
+        <v>68133.730430200376</v>
+      </c>
+      <c r="CY15" s="28">
+        <v>66507.94121205507</v>
+      </c>
       <c r="CZ15" s="10"/>
       <c r="DA15" s="10"/>
       <c r="DB15" s="10"/>
@@ -26207,9 +26222,11 @@
         <v>10349.920658314857</v>
       </c>
       <c r="CX16" s="28">
-        <v>10839.798652338173</v>
-      </c>
-      <c r="CY16" s="10"/>
+        <v>10938.776227524608</v>
+      </c>
+      <c r="CY16" s="28">
+        <v>11171.594654649421</v>
+      </c>
       <c r="CZ16" s="10"/>
       <c r="DA16" s="10"/>
       <c r="DB16" s="10"/>
@@ -26364,7 +26381,7 @@
       <c r="CV17" s="29"/>
       <c r="CW17" s="29"/>
       <c r="CX17" s="29"/>
-      <c r="CY17" s="10"/>
+      <c r="CY17" s="29"/>
       <c r="CZ17" s="10"/>
       <c r="DA17" s="10"/>
       <c r="DB17" s="10"/>
@@ -26722,9 +26739,11 @@
         <v>295727.31209356879</v>
       </c>
       <c r="CX18" s="30">
-        <v>274475.26235100097</v>
-      </c>
-      <c r="CY18" s="10"/>
+        <v>273779.27749053668</v>
+      </c>
+      <c r="CY18" s="30">
+        <v>279021.66617612791</v>
+      </c>
       <c r="CZ18" s="10"/>
       <c r="DA18" s="10"/>
       <c r="DB18" s="10"/>
@@ -26880,6 +26899,7 @@
       <c r="CV19" s="31"/>
       <c r="CW19" s="31"/>
       <c r="CX19" s="31"/>
+      <c r="CY19" s="31"/>
     </row>
     <row r="20" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -26988,7 +27008,7 @@
       <c r="CV21" s="29"/>
       <c r="CW21" s="29"/>
       <c r="CX21" s="29"/>
-      <c r="CY21" s="10"/>
+      <c r="CY21" s="29"/>
       <c r="CZ21" s="10"/>
       <c r="DA21" s="10"/>
       <c r="DB21" s="10"/>
@@ -27143,7 +27163,7 @@
       <c r="CV22" s="29"/>
       <c r="CW22" s="29"/>
       <c r="CX22" s="29"/>
-      <c r="CY22" s="10"/>
+      <c r="CY22" s="29"/>
       <c r="CZ22" s="10"/>
       <c r="DA22" s="10"/>
       <c r="DB22" s="10"/>
@@ -27208,7 +27228,7 @@
     </row>
     <row r="25" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -27313,6 +27333,7 @@
       <c r="CV26" s="25"/>
       <c r="CW26" s="25"/>
       <c r="CX26" s="25"/>
+      <c r="CY26" s="25"/>
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -27419,10 +27440,11 @@
       <c r="CV27" s="25"/>
       <c r="CW27" s="25"/>
       <c r="CX27" s="25"/>
+      <c r="CY27" s="25"/>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -27525,6 +27547,7 @@
       <c r="CV28" s="25"/>
       <c r="CW28" s="25"/>
       <c r="CX28" s="25"/>
+      <c r="CY28" s="25"/>
     </row>
     <row r="29" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -27631,6 +27654,7 @@
       <c r="CV29" s="25"/>
       <c r="CW29" s="25"/>
       <c r="CX29" s="25"/>
+      <c r="CY29" s="25"/>
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
@@ -27734,6 +27758,7 @@
       <c r="CV30" s="25"/>
       <c r="CW30" s="25"/>
       <c r="CX30" s="25"/>
+      <c r="CY30" s="25"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
@@ -27890,6 +27915,7 @@
       <c r="CX31" s="26">
         <v>2025</v>
       </c>
+      <c r="CY31" s="26"/>
     </row>
     <row r="32" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -28197,6 +28223,9 @@
       </c>
       <c r="CX32" s="27" t="s">
         <v>6</v>
+      </c>
+      <c r="CY32" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28507,9 +28536,11 @@
         <v>125317.63014853586</v>
       </c>
       <c r="CX34" s="28">
-        <v>109215.00827815419</v>
-      </c>
-      <c r="CY34" s="10"/>
+        <v>108130.39191021764</v>
+      </c>
+      <c r="CY34" s="28">
+        <v>98473.524685746583</v>
+      </c>
       <c r="CZ34" s="10"/>
       <c r="DA34" s="10"/>
       <c r="DB34" s="10"/>
@@ -28867,9 +28898,11 @@
         <v>10221.954898199878</v>
       </c>
       <c r="CX35" s="28">
-        <v>12844.71177681305</v>
-      </c>
-      <c r="CY35" s="10"/>
+        <v>12844.711776813054</v>
+      </c>
+      <c r="CY35" s="28">
+        <v>13872.049019452736</v>
+      </c>
       <c r="CZ35" s="10"/>
       <c r="DA35" s="10"/>
       <c r="DB35" s="10"/>
@@ -29229,7 +29262,9 @@
       <c r="CX36" s="28">
         <v>33851.035348167643</v>
       </c>
-      <c r="CY36" s="10"/>
+      <c r="CY36" s="28">
+        <v>32503.144507791614</v>
+      </c>
       <c r="CZ36" s="10"/>
       <c r="DA36" s="10"/>
       <c r="DB36" s="10"/>
@@ -29587,9 +29622,11 @@
         <v>58316.687020033671</v>
       </c>
       <c r="CX37" s="28">
-        <v>59608.508945950831</v>
-      </c>
-      <c r="CY37" s="10"/>
+        <v>60141.907426000289</v>
+      </c>
+      <c r="CY37" s="28">
+        <v>50246.196024643512</v>
+      </c>
       <c r="CZ37" s="10"/>
       <c r="DA37" s="10"/>
       <c r="DB37" s="10"/>
@@ -29947,9 +29984,11 @@
         <v>10164.44467167424</v>
       </c>
       <c r="CX38" s="28">
-        <v>10572.446978515129</v>
-      </c>
-      <c r="CY38" s="10"/>
+        <v>10668.983381015078</v>
+      </c>
+      <c r="CY38" s="28">
+        <v>10603.341140384777</v>
+      </c>
       <c r="CZ38" s="10"/>
       <c r="DA38" s="10"/>
       <c r="DB38" s="10"/>
@@ -30104,7 +30143,7 @@
       <c r="CV39" s="29"/>
       <c r="CW39" s="29"/>
       <c r="CX39" s="29"/>
-      <c r="CY39" s="10"/>
+      <c r="CY39" s="29"/>
       <c r="CZ39" s="10"/>
       <c r="DA39" s="10"/>
       <c r="DB39" s="10"/>
@@ -30462,9 +30501,11 @@
         <v>237285.02314430996</v>
       </c>
       <c r="CX40" s="30">
-        <v>226091.71132760085</v>
-      </c>
-      <c r="CY40" s="10"/>
+        <v>225637.0298422137</v>
+      </c>
+      <c r="CY40" s="30">
+        <v>205698.25537801924</v>
+      </c>
       <c r="CZ40" s="10"/>
       <c r="DA40" s="10"/>
       <c r="DB40" s="10"/>
@@ -30620,6 +30661,7 @@
       <c r="CV41" s="32"/>
       <c r="CW41" s="32"/>
       <c r="CX41" s="32"/>
+      <c r="CY41" s="32"/>
     </row>
     <row r="42" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -30728,7 +30770,7 @@
       <c r="CV43" s="29"/>
       <c r="CW43" s="29"/>
       <c r="CX43" s="29"/>
-      <c r="CY43" s="10"/>
+      <c r="CY43" s="29"/>
       <c r="CZ43" s="10"/>
       <c r="DA43" s="10"/>
       <c r="DB43" s="10"/>
@@ -30883,7 +30925,7 @@
       <c r="CV44" s="29"/>
       <c r="CW44" s="29"/>
       <c r="CX44" s="29"/>
-      <c r="CY44" s="10"/>
+      <c r="CY44" s="29"/>
       <c r="CZ44" s="10"/>
       <c r="DA44" s="10"/>
       <c r="DB44" s="10"/>
@@ -30948,7 +30990,7 @@
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -30960,32 +31002,34 @@
       <c r="CV49" s="35"/>
       <c r="CW49" s="35"/>
       <c r="CX49" s="35"/>
+      <c r="CY49" s="35"/>
     </row>
     <row r="50" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CT50" s="35"/>
       <c r="CU50" s="35"/>
       <c r="CV50" s="35"/>
       <c r="CW50" s="35"/>
       <c r="CX50" s="35"/>
+      <c r="CY50" s="35"/>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CU51" s="35"/>
       <c r="CV51" s="35"/>
       <c r="CW51" s="35"/>
       <c r="CX51" s="35"/>
+      <c r="CY51" s="35"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="CU52" s="35"/>
       <c r="CV52" s="35"/>
       <c r="CW52" s="35"/>
       <c r="CX52" s="35"/>
+      <c r="CY52" s="35"/>
     </row>
     <row r="53" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
@@ -31136,10 +31180,11 @@
       <c r="CT53" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="CU53" s="23"/>
+      <c r="CU53" s="26"/>
       <c r="CV53" s="23"/>
       <c r="CW53" s="23"/>
       <c r="CX53" s="23"/>
+      <c r="CY53" s="23"/>
     </row>
     <row r="54" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -31436,17 +31481,20 @@
       <c r="CT54" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="CU54" s="33"/>
+      <c r="CU54" s="33" t="s">
+        <v>7</v>
+      </c>
       <c r="CV54" s="33"/>
       <c r="CW54" s="33"/>
       <c r="CX54" s="33"/>
+      <c r="CY54" s="33"/>
     </row>
     <row r="55" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
-      <c r="CU55" s="35"/>
       <c r="CV55" s="35"/>
       <c r="CW55" s="35"/>
       <c r="CX55" s="35"/>
+      <c r="CY55" s="35"/>
     </row>
     <row r="56" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -31741,13 +31789,15 @@
         <v>5.2841552091168467</v>
       </c>
       <c r="CT56" s="34">
-        <v>9.7566840775099308</v>
-      </c>
-      <c r="CU56" s="36"/>
+        <v>8.6666883166917756</v>
+      </c>
+      <c r="CU56" s="34">
+        <v>7.4984249384354911</v>
+      </c>
       <c r="CV56" s="36"/>
       <c r="CW56" s="36"/>
       <c r="CX56" s="36"/>
-      <c r="CY56" s="10"/>
+      <c r="CY56" s="36"/>
       <c r="CZ56" s="10"/>
       <c r="DA56" s="10"/>
       <c r="DB56" s="10"/>
@@ -32089,13 +32139,15 @@
         <v>12.815353939186537</v>
       </c>
       <c r="CT57" s="34">
-        <v>7.352866967803422</v>
-      </c>
-      <c r="CU57" s="36"/>
+        <v>7.3528669678034646</v>
+      </c>
+      <c r="CU57" s="34">
+        <v>14.698292630214496</v>
+      </c>
       <c r="CV57" s="36"/>
       <c r="CW57" s="36"/>
       <c r="CX57" s="36"/>
-      <c r="CY57" s="10"/>
+      <c r="CY57" s="36"/>
       <c r="CZ57" s="10"/>
       <c r="DA57" s="10"/>
       <c r="DB57" s="10"/>
@@ -32439,11 +32491,13 @@
       <c r="CT58" s="34">
         <v>4.0797454753577682</v>
       </c>
-      <c r="CU58" s="36"/>
+      <c r="CU58" s="34">
+        <v>8.3128587972359611</v>
+      </c>
       <c r="CV58" s="36"/>
       <c r="CW58" s="36"/>
       <c r="CX58" s="36"/>
-      <c r="CY58" s="10"/>
+      <c r="CY58" s="36"/>
       <c r="CZ58" s="10"/>
       <c r="DA58" s="10"/>
       <c r="DB58" s="10"/>
@@ -32785,13 +32839,15 @@
         <v>17.417694705135361</v>
       </c>
       <c r="CT59" s="34">
-        <v>14.487762594738356</v>
-      </c>
-      <c r="CU59" s="36"/>
+        <v>15.512240469326201</v>
+      </c>
+      <c r="CU59" s="34">
+        <v>10.963585917802376</v>
+      </c>
       <c r="CV59" s="36"/>
       <c r="CW59" s="36"/>
       <c r="CX59" s="36"/>
-      <c r="CY59" s="10"/>
+      <c r="CY59" s="36"/>
       <c r="CZ59" s="10"/>
       <c r="DA59" s="10"/>
       <c r="DB59" s="10"/>
@@ -33133,13 +33189,15 @@
         <v>13.406505035531495</v>
       </c>
       <c r="CT60" s="34">
-        <v>14.986662781931699</v>
-      </c>
-      <c r="CU60" s="36"/>
+        <v>16.036599356028589</v>
+      </c>
+      <c r="CU60" s="34">
+        <v>5.8499232991510155</v>
+      </c>
       <c r="CV60" s="36"/>
       <c r="CW60" s="36"/>
       <c r="CX60" s="36"/>
-      <c r="CY60" s="10"/>
+      <c r="CY60" s="36"/>
       <c r="CZ60" s="10"/>
       <c r="DA60" s="10"/>
       <c r="DB60" s="10"/>
@@ -33286,11 +33344,11 @@
       <c r="CR61" s="29"/>
       <c r="CS61" s="29"/>
       <c r="CT61" s="29"/>
-      <c r="CU61" s="37"/>
+      <c r="CU61" s="29"/>
       <c r="CV61" s="37"/>
       <c r="CW61" s="37"/>
       <c r="CX61" s="37"/>
-      <c r="CY61" s="10"/>
+      <c r="CY61" s="37"/>
       <c r="CZ61" s="10"/>
       <c r="DA61" s="10"/>
       <c r="DB61" s="10"/>
@@ -33632,13 +33690,15 @@
         <v>9.8421962517307549</v>
       </c>
       <c r="CT62" s="34">
-        <v>10.064903150938306</v>
-      </c>
-      <c r="CU62" s="36"/>
+        <v>9.7858124029948357</v>
+      </c>
+      <c r="CU62" s="34">
+        <v>8.7022560069095505</v>
+      </c>
       <c r="CV62" s="36"/>
       <c r="CW62" s="36"/>
       <c r="CX62" s="36"/>
-      <c r="CY62" s="10"/>
+      <c r="CY62" s="36"/>
       <c r="CZ62" s="10"/>
       <c r="DA62" s="10"/>
       <c r="DB62" s="10"/>
@@ -33786,19 +33846,20 @@
       <c r="CR63" s="32"/>
       <c r="CS63" s="32"/>
       <c r="CT63" s="32"/>
-      <c r="CU63" s="27"/>
+      <c r="CU63" s="32"/>
       <c r="CV63" s="27"/>
       <c r="CW63" s="27"/>
       <c r="CX63" s="27"/>
+      <c r="CY63" s="27"/>
     </row>
     <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="CU64" s="35"/>
       <c r="CV64" s="35"/>
       <c r="CW64" s="35"/>
       <c r="CX64" s="35"/>
+      <c r="CY64" s="35"/>
     </row>
     <row r="65" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10"/>
@@ -33898,11 +33959,11 @@
       <c r="CR65" s="29"/>
       <c r="CS65" s="29"/>
       <c r="CT65" s="29"/>
-      <c r="CU65" s="37"/>
+      <c r="CU65" s="29"/>
       <c r="CV65" s="37"/>
       <c r="CW65" s="37"/>
       <c r="CX65" s="37"/>
-      <c r="CY65" s="10"/>
+      <c r="CY65" s="37"/>
       <c r="CZ65" s="10"/>
       <c r="DA65" s="10"/>
       <c r="DB65" s="10"/>
@@ -34049,11 +34110,11 @@
       <c r="CR66" s="29"/>
       <c r="CS66" s="29"/>
       <c r="CT66" s="29"/>
-      <c r="CU66" s="37"/>
+      <c r="CU66" s="29"/>
       <c r="CV66" s="37"/>
       <c r="CW66" s="37"/>
       <c r="CX66" s="37"/>
-      <c r="CY66" s="10"/>
+      <c r="CY66" s="37"/>
       <c r="CZ66" s="10"/>
       <c r="DA66" s="10"/>
       <c r="DB66" s="10"/>
@@ -34106,67 +34167,67 @@
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CU67" s="35"/>
       <c r="CV67" s="35"/>
       <c r="CW67" s="35"/>
       <c r="CX67" s="35"/>
+      <c r="CY67" s="35"/>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CU68" s="35"/>
       <c r="CV68" s="35"/>
       <c r="CW68" s="35"/>
       <c r="CX68" s="35"/>
+      <c r="CY68" s="35"/>
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CU69" s="35"/>
+        <v>54</v>
+      </c>
       <c r="CV69" s="35"/>
       <c r="CW69" s="35"/>
       <c r="CX69" s="35"/>
+      <c r="CY69" s="35"/>
     </row>
     <row r="70" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CU70" s="35"/>
       <c r="CV70" s="35"/>
       <c r="CW70" s="35"/>
       <c r="CX70" s="35"/>
+      <c r="CY70" s="35"/>
     </row>
     <row r="71" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CU71" s="35"/>
       <c r="CV71" s="35"/>
       <c r="CW71" s="35"/>
       <c r="CX71" s="35"/>
+      <c r="CY71" s="35"/>
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CU72" s="35"/>
+        <v>56</v>
+      </c>
       <c r="CV72" s="35"/>
       <c r="CW72" s="35"/>
       <c r="CX72" s="35"/>
+      <c r="CY72" s="35"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="CU73" s="35"/>
       <c r="CV73" s="35"/>
       <c r="CW73" s="35"/>
       <c r="CX73" s="35"/>
+      <c r="CY73" s="35"/>
     </row>
     <row r="74" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CU74" s="35"/>
       <c r="CV74" s="35"/>
       <c r="CW74" s="35"/>
       <c r="CX74" s="35"/>
+      <c r="CY74" s="35"/>
     </row>
     <row r="75" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
@@ -34317,10 +34378,11 @@
       <c r="CT75" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="CU75" s="23"/>
+      <c r="CU75" s="26"/>
       <c r="CV75" s="23"/>
       <c r="CW75" s="23"/>
       <c r="CX75" s="23"/>
+      <c r="CY75" s="23"/>
     </row>
     <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
@@ -34617,17 +34679,20 @@
       <c r="CT76" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="CU76" s="33"/>
+      <c r="CU76" s="33" t="s">
+        <v>7</v>
+      </c>
       <c r="CV76" s="33"/>
       <c r="CW76" s="33"/>
       <c r="CX76" s="33"/>
+      <c r="CY76" s="33"/>
     </row>
     <row r="77" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
-      <c r="CU77" s="35"/>
       <c r="CV77" s="35"/>
       <c r="CW77" s="35"/>
       <c r="CX77" s="35"/>
+      <c r="CY77" s="35"/>
     </row>
     <row r="78" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -34922,13 +34987,15 @@
         <v>5.2867598986398008</v>
       </c>
       <c r="CT78" s="34">
-        <v>9.1105694629228537</v>
-      </c>
-      <c r="CU78" s="36"/>
+        <v>8.0269902788883627</v>
+      </c>
+      <c r="CU78" s="34">
+        <v>6.428749545986534</v>
+      </c>
       <c r="CV78" s="36"/>
       <c r="CW78" s="36"/>
       <c r="CX78" s="36"/>
-      <c r="CY78" s="10"/>
+      <c r="CY78" s="36"/>
       <c r="CZ78" s="10"/>
       <c r="DA78" s="10"/>
       <c r="DB78" s="10"/>
@@ -35270,13 +35337,15 @@
         <v>-2.4179674118488634</v>
       </c>
       <c r="CT79" s="34">
-        <v>6.4107677602017077</v>
-      </c>
-      <c r="CU79" s="36"/>
+        <v>6.4107677602017503</v>
+      </c>
+      <c r="CU79" s="34">
+        <v>13.691731989103701</v>
+      </c>
       <c r="CV79" s="36"/>
       <c r="CW79" s="36"/>
       <c r="CX79" s="36"/>
-      <c r="CY79" s="10"/>
+      <c r="CY79" s="36"/>
       <c r="CZ79" s="10"/>
       <c r="DA79" s="10"/>
       <c r="DB79" s="10"/>
@@ -35620,11 +35689,13 @@
       <c r="CT80" s="34">
         <v>7.3867943150406603</v>
       </c>
-      <c r="CU80" s="36"/>
+      <c r="CU80" s="34">
+        <v>9.2324304336968623</v>
+      </c>
       <c r="CV80" s="36"/>
       <c r="CW80" s="36"/>
       <c r="CX80" s="36"/>
-      <c r="CY80" s="10"/>
+      <c r="CY80" s="36"/>
       <c r="CZ80" s="10"/>
       <c r="DA80" s="10"/>
       <c r="DB80" s="10"/>
@@ -35966,13 +36037,15 @@
         <v>14.491492974550965</v>
       </c>
       <c r="CT81" s="34">
-        <v>12.466574798993818</v>
-      </c>
-      <c r="CU81" s="36"/>
+        <v>13.472966354745481</v>
+      </c>
+      <c r="CU81" s="34">
+        <v>10.558295352339854</v>
+      </c>
       <c r="CV81" s="36"/>
       <c r="CW81" s="36"/>
       <c r="CX81" s="36"/>
-      <c r="CY81" s="10"/>
+      <c r="CY81" s="36"/>
       <c r="CZ81" s="10"/>
       <c r="DA81" s="10"/>
       <c r="DB81" s="10"/>
@@ -36314,13 +36387,15 @@
         <v>12.3376407090892</v>
       </c>
       <c r="CT82" s="34">
-        <v>14.769911296951733</v>
-      </c>
-      <c r="CU82" s="36"/>
+        <v>15.817868725762807</v>
+      </c>
+      <c r="CU82" s="34">
+        <v>5.7500648809443646</v>
+      </c>
       <c r="CV82" s="36"/>
       <c r="CW82" s="36"/>
       <c r="CX82" s="36"/>
-      <c r="CY82" s="10"/>
+      <c r="CY82" s="36"/>
       <c r="CZ82" s="10"/>
       <c r="DA82" s="10"/>
       <c r="DB82" s="10"/>
@@ -36467,11 +36542,11 @@
       <c r="CR83" s="29"/>
       <c r="CS83" s="29"/>
       <c r="CT83" s="29"/>
-      <c r="CU83" s="37"/>
+      <c r="CU83" s="29"/>
       <c r="CV83" s="37"/>
       <c r="CW83" s="37"/>
       <c r="CX83" s="37"/>
-      <c r="CY83" s="10"/>
+      <c r="CY83" s="37"/>
       <c r="CZ83" s="10"/>
       <c r="DA83" s="10"/>
       <c r="DB83" s="10"/>
@@ -36813,13 +36888,15 @@
         <v>9.5258510572473085</v>
       </c>
       <c r="CT84" s="34">
-        <v>9.8054545913345095</v>
-      </c>
-      <c r="CU84" s="36"/>
+        <v>9.5846304536249249</v>
+      </c>
+      <c r="CU84" s="34">
+        <v>8.2866336578927928</v>
+      </c>
       <c r="CV84" s="36"/>
       <c r="CW84" s="36"/>
       <c r="CX84" s="36"/>
-      <c r="CY84" s="10"/>
+      <c r="CY84" s="36"/>
       <c r="CZ84" s="10"/>
       <c r="DA84" s="10"/>
       <c r="DB84" s="10"/>
@@ -36967,19 +37044,20 @@
       <c r="CR85" s="32"/>
       <c r="CS85" s="32"/>
       <c r="CT85" s="32"/>
-      <c r="CU85" s="27"/>
+      <c r="CU85" s="32"/>
       <c r="CV85" s="27"/>
       <c r="CW85" s="27"/>
       <c r="CX85" s="27"/>
+      <c r="CY85" s="27"/>
     </row>
     <row r="86" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="CU86" s="35"/>
       <c r="CV86" s="35"/>
       <c r="CW86" s="35"/>
       <c r="CX86" s="35"/>
+      <c r="CY86" s="35"/>
     </row>
     <row r="87" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="10"/>
@@ -37079,11 +37157,11 @@
       <c r="CR87" s="29"/>
       <c r="CS87" s="29"/>
       <c r="CT87" s="29"/>
-      <c r="CU87" s="37"/>
+      <c r="CU87" s="29"/>
       <c r="CV87" s="37"/>
       <c r="CW87" s="37"/>
       <c r="CX87" s="37"/>
-      <c r="CY87" s="10"/>
+      <c r="CY87" s="37"/>
       <c r="CZ87" s="10"/>
       <c r="DA87" s="10"/>
       <c r="DB87" s="10"/>
@@ -37234,7 +37312,7 @@
       <c r="CV88" s="29"/>
       <c r="CW88" s="29"/>
       <c r="CX88" s="29"/>
-      <c r="CY88" s="10"/>
+      <c r="CY88" s="29"/>
       <c r="CZ88" s="10"/>
       <c r="DA88" s="10"/>
       <c r="DB88" s="10"/>
@@ -37290,7 +37368,7 @@
     </row>
     <row r="90" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:150" x14ac:dyDescent="0.2">
@@ -37300,7 +37378,7 @@
     </row>
     <row r="93" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:150" x14ac:dyDescent="0.2">
@@ -37463,6 +37541,7 @@
       <c r="CX96" s="26">
         <v>2025</v>
       </c>
+      <c r="CY96" s="26"/>
     </row>
     <row r="97" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -37770,6 +37849,9 @@
       </c>
       <c r="CX97" s="27" t="s">
         <v>6</v>
+      </c>
+      <c r="CY97" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38080,9 +38162,11 @@
         <v>126.60669987032311</v>
       </c>
       <c r="CX99" s="34">
-        <v>129.00786143478831</v>
-      </c>
-      <c r="CY99" s="10"/>
+        <v>129.00786143478828</v>
+      </c>
+      <c r="CY99" s="34">
+        <v>146.63103659876154</v>
+      </c>
       <c r="CZ99" s="10"/>
       <c r="DA99" s="10"/>
       <c r="DB99" s="10"/>
@@ -38440,9 +38524,11 @@
         <v>117.35416202192978</v>
       </c>
       <c r="CX100" s="34">
-        <v>120.19695269205903</v>
-      </c>
-      <c r="CY100" s="10"/>
+        <v>120.19695269205909</v>
+      </c>
+      <c r="CY100" s="34">
+        <v>99.013399446110313</v>
+      </c>
       <c r="CZ100" s="10"/>
       <c r="DA100" s="10"/>
       <c r="DB100" s="10"/>
@@ -38802,7 +38888,9 @@
       <c r="CX101" s="34">
         <v>117.48861481346107</v>
       </c>
-      <c r="CY101" s="10"/>
+      <c r="CY101" s="34">
+        <v>132.95388380045995</v>
+      </c>
       <c r="CZ101" s="10"/>
       <c r="DA101" s="10"/>
       <c r="DB101" s="10"/>
@@ -39160,9 +39248,11 @@
         <v>120.68211542345608</v>
       </c>
       <c r="CX102" s="34">
-        <v>113.2882765882232</v>
-      </c>
-      <c r="CY102" s="10"/>
+        <v>113.28827658822323</v>
+      </c>
+      <c r="CY102" s="34">
+        <v>132.3641319622204</v>
+      </c>
       <c r="CZ102" s="10"/>
       <c r="DA102" s="10"/>
       <c r="DB102" s="10"/>
@@ -39520,9 +39610,11 @@
         <v>101.8247527792393</v>
       </c>
       <c r="CX103" s="34">
-        <v>102.52875870994052</v>
-      </c>
-      <c r="CY103" s="10"/>
+        <v>102.52875870994056</v>
+      </c>
+      <c r="CY103" s="34">
+        <v>105.35919298210963</v>
+      </c>
       <c r="CZ103" s="10"/>
       <c r="DA103" s="10"/>
       <c r="DB103" s="10"/>
@@ -39677,7 +39769,7 @@
       <c r="CV104" s="29"/>
       <c r="CW104" s="29"/>
       <c r="CX104" s="29"/>
-      <c r="CY104" s="10"/>
+      <c r="CY104" s="29"/>
       <c r="CZ104" s="10"/>
       <c r="DA104" s="10"/>
       <c r="DB104" s="10"/>
@@ -40035,9 +40127,11 @@
         <v>124.62957340283374</v>
       </c>
       <c r="CX105" s="34">
-        <v>121.39996673884859</v>
-      </c>
-      <c r="CY105" s="10"/>
+        <v>121.33614667857864</v>
+      </c>
+      <c r="CY105" s="34">
+        <v>135.64610242481615</v>
+      </c>
       <c r="CZ105" s="10"/>
       <c r="DA105" s="10"/>
       <c r="DB105" s="10"/>
@@ -40193,6 +40287,7 @@
       <c r="CV106" s="32"/>
       <c r="CW106" s="32"/>
       <c r="CX106" s="32"/>
+      <c r="CY106" s="32"/>
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -40211,7 +40306,7 @@
     </row>
     <row r="112" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
@@ -40221,7 +40316,7 @@
     </row>
     <row r="115" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:154" x14ac:dyDescent="0.2">
@@ -40384,6 +40479,7 @@
       <c r="CX118" s="26">
         <v>2025</v>
       </c>
+      <c r="CY118" s="26"/>
     </row>
     <row r="119" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
@@ -40691,6 +40787,9 @@
       </c>
       <c r="CX119" s="27" t="s">
         <v>6</v>
+      </c>
+      <c r="CY119" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41001,9 +41100,11 @@
         <v>53.650951196742284</v>
       </c>
       <c r="CX121" s="34">
-        <v>51.332839738866873</v>
-      </c>
-      <c r="CY121" s="10"/>
+        <v>50.952251552073321</v>
+      </c>
+      <c r="CY121" s="34">
+        <v>51.749655143590878</v>
+      </c>
       <c r="CZ121" s="10"/>
       <c r="DA121" s="10"/>
       <c r="DB121" s="10"/>
@@ -41361,9 +41462,11 @@
         <v>4.0564023079635421</v>
       </c>
       <c r="CX122" s="34">
-        <v>5.6248974882347955</v>
-      </c>
-      <c r="CY122" s="10"/>
+        <v>5.6391967570814341</v>
+      </c>
+      <c r="CY122" s="34">
+        <v>4.9226239292546019</v>
+      </c>
       <c r="CZ122" s="10"/>
       <c r="DA122" s="10"/>
       <c r="DB122" s="10"/>
@@ -41721,9 +41824,11 @@
         <v>14.994615878012185</v>
       </c>
       <c r="CX123" s="34">
-        <v>14.489871396759115</v>
-      </c>
-      <c r="CY123" s="10"/>
+        <v>14.526706657684105</v>
+      </c>
+      <c r="CY123" s="34">
+        <v>15.487755331912679</v>
+      </c>
       <c r="CZ123" s="10"/>
       <c r="DA123" s="10"/>
       <c r="DB123" s="10"/>
@@ -42081,9 +42186,11 @@
         <v>23.798211616783291</v>
       </c>
       <c r="CX124" s="34">
-        <v>24.603110643336372</v>
-      </c>
-      <c r="CY124" s="10"/>
+        <v>24.886372356123797</v>
+      </c>
+      <c r="CY124" s="34">
+        <v>23.836120729804907</v>
+      </c>
       <c r="CZ124" s="10"/>
       <c r="DA124" s="10"/>
       <c r="DB124" s="10"/>
@@ -42441,9 +42548,11 @@
         <v>3.4998190004987153</v>
       </c>
       <c r="CX125" s="34">
-        <v>3.9492807328028561</v>
-      </c>
-      <c r="CY125" s="10"/>
+        <v>3.9954726770373301</v>
+      </c>
+      <c r="CY125" s="34">
+        <v>4.0038448654369132</v>
+      </c>
       <c r="CZ125" s="10"/>
       <c r="DA125" s="10"/>
       <c r="DB125" s="10"/>
@@ -42598,7 +42707,7 @@
       <c r="CV126" s="29"/>
       <c r="CW126" s="29"/>
       <c r="CX126" s="29"/>
-      <c r="CY126" s="10"/>
+      <c r="CY126" s="29"/>
       <c r="CZ126" s="10"/>
       <c r="DA126" s="10"/>
       <c r="DB126" s="10"/>
@@ -42958,7 +43067,9 @@
       <c r="CX127" s="34">
         <v>100</v>
       </c>
-      <c r="CY127" s="10"/>
+      <c r="CY127" s="34">
+        <v>100</v>
+      </c>
       <c r="CZ127" s="10"/>
       <c r="DA127" s="10"/>
       <c r="DB127" s="10"/>
@@ -43114,6 +43225,7 @@
       <c r="CV128" s="32"/>
       <c r="CW128" s="32"/>
       <c r="CX128" s="32"/>
+      <c r="CY128" s="32"/>
     </row>
     <row r="129" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -43222,7 +43334,7 @@
       <c r="CV130" s="29"/>
       <c r="CW130" s="29"/>
       <c r="CX130" s="29"/>
-      <c r="CY130" s="10"/>
+      <c r="CY130" s="29"/>
       <c r="CZ130" s="10"/>
       <c r="DA130" s="10"/>
       <c r="DB130" s="10"/>
@@ -43377,7 +43489,7 @@
       <c r="CV131" s="29"/>
       <c r="CW131" s="29"/>
       <c r="CX131" s="29"/>
-      <c r="CY131" s="10"/>
+      <c r="CY131" s="29"/>
       <c r="CZ131" s="10"/>
       <c r="DA131" s="10"/>
       <c r="DB131" s="10"/>
@@ -43442,7 +43554,7 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136" spans="1:154" x14ac:dyDescent="0.2">
@@ -43452,7 +43564,7 @@
     </row>
     <row r="137" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:154" x14ac:dyDescent="0.2">
@@ -43615,6 +43727,7 @@
       <c r="CX140" s="26">
         <v>2025</v>
       </c>
+      <c r="CY140" s="26"/>
     </row>
     <row r="141" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
@@ -43922,6 +44035,9 @@
       </c>
       <c r="CX141" s="27" t="s">
         <v>6</v>
+      </c>
+      <c r="CY141" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -44232,9 +44348,11 @@
         <v>52.813122584783301</v>
       </c>
       <c r="CX143" s="34">
-        <v>48.305622367511106</v>
-      </c>
-      <c r="CY143" s="10"/>
+        <v>47.922272326413989</v>
+      </c>
+      <c r="CY143" s="34">
+        <v>47.872805000109587</v>
+      </c>
       <c r="CZ143" s="10"/>
       <c r="DA143" s="10"/>
       <c r="DB143" s="10"/>
@@ -44592,9 +44710,11 @@
         <v>4.3078803553409175</v>
       </c>
       <c r="CX144" s="34">
-        <v>5.6811953438670768</v>
-      </c>
-      <c r="CY144" s="10"/>
+        <v>5.6926435283230177</v>
+      </c>
+      <c r="CY144" s="34">
+        <v>6.7438826809491221</v>
+      </c>
       <c r="CZ144" s="10"/>
       <c r="DA144" s="10"/>
       <c r="DB144" s="10"/>
@@ -44952,9 +45072,11 @@
         <v>14.018713008126049</v>
       </c>
       <c r="CX145" s="34">
-        <v>14.972258447421982</v>
-      </c>
-      <c r="CY145" s="10"/>
+        <v>15.002429065760802</v>
+      </c>
+      <c r="CY145" s="34">
+        <v>15.801371017007115</v>
+      </c>
       <c r="CZ145" s="10"/>
       <c r="DA145" s="10"/>
       <c r="DB145" s="10"/>
@@ -45312,9 +45434,11 @@
         <v>24.576640466923667</v>
       </c>
       <c r="CX146" s="34">
-        <v>26.364747560152569</v>
-      </c>
-      <c r="CY146" s="10"/>
+        <v>26.654271893251334</v>
+      </c>
+      <c r="CY146" s="34">
+        <v>24.427137669351755</v>
+      </c>
       <c r="CZ146" s="10"/>
       <c r="DA146" s="10"/>
       <c r="DB146" s="10"/>
@@ -45672,9 +45796,11 @@
         <v>4.2836435848260495</v>
       </c>
       <c r="CX147" s="34">
-        <v>4.6761762810472671</v>
-      </c>
-      <c r="CY147" s="10"/>
+        <v>4.7283831862508645</v>
+      </c>
+      <c r="CY147" s="34">
+        <v>5.1548036325824098</v>
+      </c>
       <c r="CZ147" s="10"/>
       <c r="DA147" s="10"/>
       <c r="DB147" s="10"/>
@@ -45829,7 +45955,7 @@
       <c r="CV148" s="29"/>
       <c r="CW148" s="29"/>
       <c r="CX148" s="29"/>
-      <c r="CY148" s="10"/>
+      <c r="CY148" s="29"/>
       <c r="CZ148" s="10"/>
       <c r="DA148" s="10"/>
       <c r="DB148" s="10"/>
@@ -46189,7 +46315,9 @@
       <c r="CX149" s="34">
         <v>100</v>
       </c>
-      <c r="CY149" s="10"/>
+      <c r="CY149" s="34">
+        <v>100</v>
+      </c>
       <c r="CZ149" s="10"/>
       <c r="DA149" s="10"/>
       <c r="DB149" s="10"/>
@@ -46345,6 +46473,7 @@
       <c r="CV150" s="32"/>
       <c r="CW150" s="32"/>
       <c r="CX150" s="32"/>
+      <c r="CY150" s="32"/>
     </row>
     <row r="151" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -46454,7 +46583,7 @@
       <c r="CV152" s="24"/>
       <c r="CW152" s="24"/>
       <c r="CX152" s="24"/>
-      <c r="CY152" s="17"/>
+      <c r="CY152" s="24"/>
       <c r="CZ152" s="17"/>
       <c r="DA152" s="17"/>
       <c r="DB152" s="17"/>
@@ -46610,7 +46739,7 @@
       <c r="CV153" s="24"/>
       <c r="CW153" s="24"/>
       <c r="CX153" s="24"/>
-      <c r="CY153" s="17"/>
+      <c r="CY153" s="24"/>
       <c r="CZ153" s="17"/>
       <c r="DA153" s="17"/>
       <c r="DB153" s="17"/>
@@ -46818,9 +46947,9 @@
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="101" man="1"/>
-    <brk id="88" max="101" man="1"/>
-    <brk id="109" max="101" man="1"/>
+    <brk id="44" max="102" man="1"/>
+    <brk id="88" max="102" man="1"/>
+    <brk id="109" max="102" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>